--- a/output/Total_time_range_data/山东省/济南市_学习考察.xlsx
+++ b/output/Total_time_range_data/山东省/济南市_学习考察.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F206"/>
+  <dimension ref="A1:G206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,6590 +436,7210 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>province</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>city</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>topic</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>content</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A2" t="n">
+        <v>129</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>重庆市武隆区党政代表团来济开展济风武韵共赴山海鲁渝协作交流</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-05-31</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2024/5/31/art_1861_4981546.html</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>['5月30日，重庆市武隆区党政代表团来济开展“济风武韵·共赴山海”鲁渝协作交流活动。其间，两地联合召开济南·武隆东西部协作联席会议，济南市委书记刘强出席并讲话，济南市委副书记、市长于海田主持，武隆区委书记何庆出席并讲话。', '联席会议上，武隆区介绍了两地东西部协作工作推进情况；举行了济南武隆东西部协作项目集中签约仪式，武隆仙女山山泉水加工等6个企业项目进行了现场签约。', '刘强对武隆区党政代表团一行来济表示欢迎。他说，习近平总书记在视察重庆和山东时的重要讲话重要指示，为两地深化东西部协作、推动经济社会高质量发展指明了前进方向，提供了根本遵循。我们要深入学习贯彻习近平总书记重要讲话重要指示精神，切实扛起东西部协作和对口支援政治责任，以实际行动坚定拥护“两个确立”、坚决做到“两个维护”。今年以来，在重庆市委、市政府的坚强领导下，武隆区委、区政府团结带领广大干部群众奋勇争先，各项工作都保持了好势头、取得了新进展。武隆区在加快高质量发展中的好经验好做法值得济南市学习借鉴。做好今年的协作工作，要聚焦济南·武隆东西部协作联席会议确定的重点任务，在产业培育、文旅宣传、人力资源、消费帮扶等领域，进一步深化交流协作，把各项目标任务落实落细，共同开创两地高质量发展新篇章。', '何庆首先代表武隆区委、区政府和全区干部群众，向济南市委、市政府长期以来给予的支持表示感谢。他说，两地结缘14年以来，济南市始终坚持自身所能、武隆所需、群众所盼，真情实意帮、真金白银投，为武隆巩固拓展脱贫攻坚成果、全面推进乡村振兴提供了强大助力。特别是习近平总书记在视察重庆和山东时的重要讲话重要指示赋予了重庆市和山东省新的使命和定位，也为我们深化东西部协作进一步指明了方向。接下来，真诚期盼济南武隆立足双方旅游资源禀赋，在营销推广、展会活动、客源互送等方面进一步深化交流合作，持续开展好“十万山东人游重庆”“亿元渝货进山东”等主题活动，引导更多文旅企业到武隆投资兴业，推动两地文化旅游资源共享、特色互助、优势互补，带动打造工业、农业、人才交流等更多协作“升级版”，共同谱写山海情谊新篇章。', '会后，济南市和武隆区领导同志共同出席了“济风武韵·共赴山海”鲁渝协作交流暨旅游宣传推介活动，参观了武隆农副产品展、“武隆旅游30年”成果展和“文盛武隆”旅游文创产品展，观看了鲁渝协作文艺演出。', '当天下午，武隆区党政代表团先后来到济南外国语学校和山东省农业科学院，考察了解国际教育开展、畜禽遗传繁育与疫病防控等情况。', '济南市领导王宏志、戴龙成、马保岭、韩伟、任广锋，市政府秘书长韩振国，山东省协作重庆干部管理组、济南市有关区、市直有关部门负责同志；重庆市直有关部门、武隆区有关负责同志参加活动。']</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A3" t="n">
+        <v>129</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>聚焦产业发展释放自贸红利</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2024-05-13</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2024/5/13/art_81014_4980741.html</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>['为进一步发挥自贸试验区制度型开放优势，推动更多市场主体享受贸易便利化创新政策，5月10日，自贸试验区济南片区联合济南海关、济南市市场监督管理局、济南市商务局赴山东省万兴食品有限公司考察，聚焦企业参与药食同源商品进口便利化改革试点进行调研，推动先行先试政策不断深化，将自贸制度创新红利覆盖至更多市场主体。', '山东万兴食品为我省农业产业化国家重点龙头企业，位于济南市莱芜区，主打品牌“姜老大”在2008年被评为奥运生姜专供产品，远销日本、欧盟、韩国、新加坡等100多个国家和地区，在国际市场享有良好声誉和口碑。该企业在布局全球化香辛料市场过程中，受限于现有药食同源商品进口管理制度，无法在国际市场直接采购原料，在国内二级市场采购成本偏高，企业产能释放和发展受阻。', '为解决食品生产企业药食同源商品原料进口难问题，降低企业生产经营成本，2022年，山东自贸试验区发挥自贸改革开放“试验田”作用，在海关、市场监管、药监等部门支持下，开展药食同源商品进口通关便利化改革试点，取得良好成效，国内多个食品生产产业集聚地区前来学习借鉴。下一步，自贸试验区济南片区将持续发挥改革开放新高地创新优势，聚焦市场主体发展需求，探索在更大范围复制推广先行先试创新政策，服务更多企业享受制度创新红利，推动全省开放型经济高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A4" t="n">
+        <v>129</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>一票到底山东省跨关区海铁联运首批进口测试货物顺利通关</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2024-05-30</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2024/5/30/art_81014_4981416.html</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>['5月27日，满载30吨进口植脂末的2个集装箱通过海铁联运班列运抵济南董家铁路场站，在泉城海关监管下完成通关验放手续。', '本票货物由迈大食品（山东）有限公司在印度尼西亚采购，通过海运抵达黄岛口岸，再以铁路运输方式转关到董家铁路场站，经泉城海关监管后放行。', '“感谢泉城海关和黄岛海关的支持。我们集装箱入境后就不需要在入境口岸办理查验、清关等手续了，使用海铁联运‘一票到底’直达董家铁路场站，对我们内陆企业来说更加方便快捷。”迈大食品（山东）有限公司负责人刘志锐说。', '本次货物是济南、青岛海关携手推进山东内陆港，多式联运物流通道建设，开展口岸“陆海联动、海铁直运”模式与属地“铁海E通”系统融合对接以来首批进口测试货物，标志着青岛港与山东内陆区域进口转关快速物流通道初步具备正式运行条件。', '该模式实现关港数据共享、业务互联、自动监管，打通了多式联运至内陆港的进口转关通道，进口企业在“家门口”就可以完成通关和查验放行，极大提高了通关便捷效率。与传统运输方式相比，新模式将为内陆企业缩减运输时间近1/3，降低成本20%以上。', '泉城海关副关长贺娟介绍：“下一步，我们将认真学习领会习近平总书记在山东考察时的重要讲话精神，在进一步全面深化改革、推进高水平对外开放上勇争先，积极构建国际物流大通道，助力地方外贸高质量发展。”']</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A5" t="n">
+        <v>129</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>市政府党组召开扩大会议</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2024-05-01</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2024/5/1/art_1861_4975501.html</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>['4月30日，市政府党组召开扩大会议，传达学习习近平总书记在新时代推动西部大开发座谈会、重庆考察时的重要讲话等近期系列重要讲话重要指示精神，研究贯彻落实意见。市委副书记、市长、市政府党组书记于海田主持会议并讲话。', '会议指出，习近平总书记的重要讲话、重要指示，高屋建瓴、思想深邃、内涵丰富，具有很强的政治性、思想性、指导性，要结合实际抓好贯彻落实。要在发展特色优势产业上下功夫，加强科技创新和产业创新深度融合，不断塑强主导产业新优势，积极抢占新兴产业制高点。要以高水平保护支撑高质量发展，深入打好污染防治攻坚战，持续强化生态资源保护，加快推进绿色低碳转型。要进一步全面深化改革开放，深入推进国有企业改革，促进民营经济发展壮大，激发各类经营主体活力，扩大高水平对外开放。要更好统筹发展和安全，持续深化安全生产“审计式”监督检查服务，不断提升社会治理体系和治理能力现代化水平。要扛牢耕地保护和粮食安全政治责任，加快发展现代农业，深化农业农村改革，有力有效推进乡村全面振兴。', '会议学习了《党史学习教育工作条例》，强调，要以史为鉴加强政治建设、强化责任担当，把党史学习教育同做好中心工作结合起来，切实把学习成果转化为干事创业的强大动力。要扎实开展党纪学习教育，以彻底的自我革命精神推动全面从严治党向纵深发展。', '会议对“五一”假期重点工作进行安排部署，要求各级各部门加强值班值守，严格落实“三管三必须”要求，抓紧抓实森林防火、道路交通、旅游景区、食品药品等各领域安全生产工作，扎实做好节日保供稳价、市场监管，多措并举优化旅游消费环境，确保人民群众过一个安定欢乐祥和的假期。']</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A6" t="n">
+        <v>129</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>济南国际医学中心管委会赴苏州上海考察调研</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2024-05-21</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2024/5/21/art_57650_4980798.html</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>['为学习借鉴先进地区在基金运作、孵化器建设方面的经验做法，加快推进济南国际医学中心优质项目培育和产业生态打造，5月13日至15日，医学中心管委会副主任徐宁波带队赴苏州、上海实地考察调研。', '在苏州工业园区，调研组会同北京先通国际医药科技有限公司转化医学部副研究员、山东大学医药行业校友会执行副秘书长沈恩允，来到东沙湖基金小镇，详细了解小镇规划设计、建设运营、政策优势、科创服务体系等方面具体情况，并在小镇与长三角科技要素交易中心相关负责人就概念验证、成果转化等内容进行交流。随后调研组走访调研苏州工业园区自主创新医疗器械联盟协会（独墅联盟），现场考察了联盟成员单位——苏州艾隆科技股份有限公司、艾信智慧医疗科技发展（苏州）有限公司、苏州众创云集信息科技有限公司，并围绕独墅联盟协作模式及“创小二”孵化器发展流程、运营模式、服务内容与公司相关负责人进行座谈交流。', '在上海，调研组会同山东未来先导私募基金管理有限公司总经理王凯，拜访了上海科创中心股权投资基金管理有限公司，上海创投基金总裁杨斌、副总裁袁智德等领导参加座谈。杨斌向调研组介绍了上海科创基金重点投向及一期、二期母基金运作情况；徐宁波向其介绍了医学中心建设发展情况。随后双方就医学中心产业基金组建及落地运营模式交流意见。调研组还走访调研了上海虹桥基金小镇，德同资本总经理辛强详细介绍了基金小镇规划布局及入驻机构情况。此外，调研组应邀赴绿叶医疗（中国）考察调研，就前期沟通的康复医院等产业合作进一步探讨交流。', '通过此次调研，调研组深切感受到了苏州、上海两地在产业基金运作、孵化器建设等方面所取得的显著成就和宝贵经验，拓宽了视野和思路，同时也加强了与苏州、上海相关创投机构及孵化器的沟通联系，为今后加强合作奠定了良好的基础。下一步，医学中心将在对标先进中奋力追赶、埋头苦干，全面落实“项目深化年”工作要求，推动基金组建、项目孵化等工作向纵深发展。']</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A7" t="n">
+        <v>129</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>济南市人民政府办公厅临沂市人民政府办公室关于印发济南临沂对口合作年工作要点的通知</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2024-04-26</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2024/4/26/art_114273_4981491.html</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>['济南市人民政府办公厅 临沂市人民政府办公室关于印发济南—临沂对口合作2024年工作要点的通知', '经济南市政府、临沂市政府同意，现将《济南—临沂对口合作2024年工作要点》印发给你们，请认真抓好贯彻落实。', '为贯彻落实《济南—临沂对口合作实施方案》重点工作任务，全面推进济临两市对口合作深入开展，现制定2024年工作要点如下。', '1.突出沂蒙精神教育培训。将弘扬沂蒙精神作为两市市委党校党性教育重要内容，在学制1个月及以上主体班次中设置学习专题。密切两市市委党校及区县党校间的交流合作，根据教学需要组织学员到沂蒙革命老区开展现场教学。加强济南市委党校同沂蒙干部学院的交流合作，邀请省委党校（山东行政学院）、沂蒙干部学院专家教授异地集中授课。（责任单位：两市市委党校，沂蒙干部学院）', '2.共建红色教育基地。合力做好烈士纪念设施规划建设修缮管理维护“五年行动”，进一步深化济南革命烈士陵园与华东革命烈士陵园对口共建，联动开展爱国主义教育和国防教育，在重要节日联合开展纪念活动。加强两市烈士信息搜集和共享，扎实开展“为烈士寻亲”活动。支持莱芜区、沂南县创建省级革命文物保护利用示范区。（责任单位：两市文化和旅游局、退役军人局）', '3.推动红色文化传承弘扬。深入挖掘沂蒙精神丰富内涵和时代价值，围绕两市红色文化资源，组织开展“红色文化主题月”“弘扬沂蒙精神 建功乡村振兴”红色文化论坛等系列活动。开展济南—临沂红色研学交流活动，依托两地红色研学资源开发设计优秀研学课程，组织两地中小学结对学校相互开展红色研学实践；鼓励驻济高校、职业院校赴临沂红色教育基地开展研学和党性教育。（责任单位：两市市委宣传部、文化和旅游局、教育局）', '4.深化红色文旅融合发展。贯彻落实《济南—临沂红色旅游合作方案》，开展两市红色旅游对接交流活动，完善红色文化旅游配套服务，提升红色文化旅游产业化水平。鼓励引导两市文旅企业机构加强交流合作，依托两市旅游资源，策划设计一批品牌共建、市场共享、客源共引的旅游产品。（责任单位：两市文化和旅游局）', '5.持续巩固易地扶贫搬迁成果。立足临沂市资源禀赋和产业基础，培育一批助力巩固拓展脱贫攻坚成果同乡村振兴有效衔接的产业基地和新型农业经营主体。推进易地扶贫搬迁后续扶持工作，完善安置区公共服务和基础配套，强化搬迁家庭就业情况监测。通过专场招聘会、线上岗位推送等方式，为两地用人单位和扶贫户提供就业服务，帮助脱贫人员实现转移就业。（责任单位：两市发展改革委、人力资源社会保障局）', '6.深化两市协作帮扶工作。济南市筹措落实市、区两级财政协作帮扶资金，持续支持临沂市巩固拓展脱贫攻坚成果，推进乡村振兴。认真组织筹备2024年度济南—临沂协作帮扶联席会议。（责任单位：两市财政局、农业农村局）', '7.强化乡村振兴互学互鉴。加强两市在乡村振兴齐鲁样板示范区创建、和美乡村及农村人居环境整治等方面的交流合作，共同探索乡村振兴新路径、新经验、新模式。（责任单位：两市农业农村局）', '8.畅通临沂农产品销售渠道。推动临沂市企业积极“走出去”，广泛参与展销、推介活动，提升特色农产品知名度。支持和引导临沂市特色农产品在济销售，打造农产品“产自临沂”品牌。积极向济南市机关食堂餐饮企业推介临沂优质农产品，动员济南市企业采购临沂产地农产品，推动临沂优质农产品进济南市商场、超市。共同推进农产品质量安全快速检测和名优特新农产品营养品质评价鉴定能力建设，促进特色农产品品种培优、品质提升、品牌打造。（责任单位：两市农业农村局、商务局、机关事务服务中心，济南市农产品质量安全中心、临沂市检验检测中心）', '9.推进交通基础设施建设。贯彻落实《济南—临沂交通基础设施衔接互通实施方案》，统筹铁路、公路、民航、物流等基础设施规划建设，加快推进潍宿高铁临沂段建设，合力推动莱芜至临沂高铁规划建设，加快推进临临高速、临滕高速、董梁高速等项目，密切两地互联互通。加快推进济南遥墙国际机场二期改扩建，支持济南遥墙国际机场打造国际枢纽机场、临沂启阳机场打造区域枢纽机场。（责任单位：两市交通运输局、发展改革委，济南市口岸物流办、临沂市公路事业发展中心、临沂市铁路民航事业发展中心）', '10.加快物流联动发展。深入推进两市国家综合货运枢纽补链强链城市建设。加快推进济南国家骨干冷链物流基地建设，强化冷链集结枢纽运输组织能力。加快推进齐鲁号中欧班列济南集结中心项目建设。持续优化济南、临沂两地中欧班列开行，稳步提高班列运行质量和效率。（责任单位：两市交通运输局，济南市口岸物流办、临沂市铁路民航事业发展中心、临沂商城管委会）', '11.密切新型城镇化建设交流合作。加强两市在城市规划建设、重点工程谋划、城市更新、城市建设投融资模式等方面的经验交流。强化新基建领域合作，支持临沂加大5G、新能源汽车充电桩设施、大数据中心、人工智能和工业互联网等新型基础设施建设力度。（责任单位：两市住房城乡建设局、工业和信息化局、发展改革委、大数据局、城市建设投融资平台）', '12.联合做强两市优势产业。贯彻落实《济南—临沂产业协作实施方案》，积极推动两市产业优势互补、联动发展。强化两市在高端装备、智能制造、精品钢、冶金新材料等优势产业领域的协同发展，深入推进济钢集团临沂第二产业基地等项目建设。引导济南高端产业链条向临沂延伸,促进产业链上下游融通，努力打造竞争力强的产业共同体。（责任单位：两市工业和信息化局）', '13.强化项目招引落地。临沂市围绕主导产业发展需求，加大招商引资力度，积极参与济南市招商推介会，济南市组织企业赴临沂市考察交流。积极策划推介临沂在新一代信息技术、机器人与智能装备、生物医药、新能源、新材料等领域的招商项目，根据与济南市的产业契合度，着力提升项目招引能力和精准度。研究制定支持总部经济引进和发展的相关政策，积极打造“济南总部+临沂生产”的发展格局。（责任单位：两市发展改革委，济南市投资促进局、临沂市投资促进服务中心）', '14.加强成果转化协同合作。打造协同创新共同体，引导两地加强产学研合作、成果转移转化，组织开展多种形式的科技对接交流活动。开展常态化企业技术需求、高校院所成果征集活动，建立企业技术需求清单、科技成果转化清单，提升科技成果转化精准度。打造临沂大学科技园公共服务平台，加大与济南高校的产学研合作。（责任单位：两市发展改革委、科技局）', '15.提升园区共建合作水平。鼓励两市高新区、经济开发区等产业园区对接合作，加强在园区规划、体制机制、政策措施等领域的共享合作，探索共建“济—临”对口合作示范园区。推进临沂沂河新区与济南新旧动能转换起步区合作共建，在产业、科创、人才等方面深入交流对接，协同探索“科创飞地”。加强济南高新区与临沂高新区联动发展，在招商引资、产业发展、体制机制、人才交流等方面开展深入合作。加强济南市钢城区与临沂市临港区、罗庄经济开发区等开发区合作发展，协同打造精品钢产业基地及深加工产业集聚区。（责任单位：两市有关区县政府和功能区管委会）', '16.深化两市工商界合作交流。加强两市工商联、商会、企业家协会等机构在更多领域开展对接交流，增进对两市招商引资政策与营商环境信息的了解。继续组织济南市行业领军企业赴临沂开展“济南企业老区行”活动。（责任单位：两市工商联、国资委，济南市民营经济局、临沂市工业和信息化局）', '17.多渠道开发碳汇项目。鼓励济南市市场主体积极参与临沂市国土绿化和生态保护修复，提升生态系统碳汇能力，推进提升生态系统碳汇增量。引导支持济南金融机构、社会主体参与临沂森林等生态资源交易平台、生态产品价值核算、林业碳汇开发交易等项目，合作开发特色生态资源和资产，创新绿色金融产品和服务方式。（责任单位：两市市委金融办、自然资源和规划局、发展改革委，济南市园林和林业绿化局、临沂市林业局）', '18.加强生态保护和修复。贯彻落实两市生态环境领域对口合作专项实施方案，推进实施一批污染防治和生态环境监管能力合作事项。协同推进县级生态监测能力建设，重点支持兰陵县、沂水县和临沭县生态环境检验检测机构资质认证。协同推进“南阳实践”工程项目建设，重点支持沂河、沭河、燕子河、西泇河、吴坦河等5条跨省界重点河流突发水污染事件“一河一策一图”方案编制和实施。（责任单位：两市生态环境局、农业农村局，济南市园林和林业绿化局、水务局，临沂市林业局、水利局）', '20.深化教育合作。推进教育资源共建共享，完善两市教师双向挂职交流机制，济南市继续选派20名教师赴临沂市开展支教，临沂市选派50名沂蒙名师名校长到济南市名校开展跟岗研修。加快推动职业教育协作发展，推进两市师生深度合作交流，不断深化校企合作、产教融合协作，助力临沂市职业教育高质量发展。（责任单位：两市教育局）', '21.提升医疗合作水平。鼓励两市医院开展结对共建，发挥济南国家、省级临床医学重点学科的优势，围绕医疗卫生人才培养、学科建设等方面，加大合作力度。做好异地就医政策宣传，继续增加联网结算定点医药机构数量，稳步提升异地就医直接结算率、异地就医直接结算成功率，为参保群众提供更加优质高效便捷的医保服务。利用好合作共研平台，加强检验检测技术交流合作，持续加强两市检验检测中心人员及技术交流，共享实验室检验能力提升和质量控制经验，共同提升检验检测水平。联合完成2024年度《山东省中药标准物质研究》、山东省重点研发计划（重大科技创新工作）中药配方颗粒质量识别与控制关键技术研究，以及产业化应用中用于配方颗粒原料鉴定的智能显微镜显微特征图像数据库构建课题。（责任单位：两市卫生健康委、医保局，济南市食品药品检验检测中心、临沂市检验检测中心）', '22.深化两市“跨域通办”。加强两市行政审批服务协作，按照“需求导向、分批推进”原则，梳理确定新的通办事项清单，拓展“济临通办”内容和范围。不断优化通办工作机制和服务，提升商事登记、交通运输等领域通办水平。（责任单位：两市行政审批服务局）', '23.持续推进区县结对帮扶。济南市历下区、市中区、天桥区、槐荫区、济南高新区等5个区（功能区）与临沂市沂水县、费县、蒙阴县、沂南县、临沂高新区等5个县（功能区）认真贯彻落实好各自结对对口合作实施方案，确保对口合作取得实效。（责任单位：两市有关区县政府和功能区管委会）', '24.拓宽区县合作范围和领域。在重点推进结对区县（功能区）对口合作基础上，其他各区县（功能区）发挥各自优势，主动对接，加强协作互补，提升合作效能。（责任单位：两市各区县政府和功能区管委会）', '25.加大金融保障力度。鼓励两市金融服务机构开展交流合作，深入开展银企对接活动，积极发挥创业投资、股权投资功能作用，服务两市实体经济发展。深化济南科创金融改革试验区与临沂普惠金融服务乡村振兴改革试验区经验交流，推进两市科创金融、普惠金融互鉴发展。（责任单位：两市市委金融办、发展改革委、财政局，中国人民银行山东省分行营业管理部、中国人民银行临沂市分行）', '26.加大人才保障力度。开展挂职干部、人才互派，从济南临沂两地市直部门、区县（功能区）、企事业单位择优选派干部、人才交流挂职。积极开展两市教育、医疗、农业技术等专项领域的跟岗学习、技术研讨、业务培训，提升专业技术水平。（责任单位：两市市委组织部、教育局、卫生健康委、农业农村局、人力资源社会保障局）', '27.加大对口合作宣传力度。总结济临两地在红色文旅、交通互联、产业合作、生态环保、乡村振兴等领域对口合作先进工作成效和典型经验做法。加大在国家、省、市等各级层面主流媒体宣传报道力度，多渠道宣传对口合作成果。（责任单位：两市市委宣传部、文化和旅游局、交通运输局、工业和信息化局、生态环境局、农业农村局）', '28.加快基础设施建设。优化济临经济协作区起步区基础设施专项规划项目清单，适时启动六网配套建设。加快物流装备产业园路网建设，争取年内园区综合路网基本具备使用条件。实施银河路提升改造和庐山路续建工程，完善市政路网结构。（责任单位：蒙阴县政府）', '29.全面拓展乡村振兴。支持龙头农业企业和合作社发展，培育优质农产品供应基地。组织蒙阴县优质农产品生产企业参加济南市举办的重大节庆活动、进社区展销活动。鼓励济南市商场超市等设立“蒙阴优质农产品”专柜、专区。重点跟进食用菌产业园、预制菜加工、蜜桃全组分果汁加工、桃花精油加工、农产品冷链物流等项目，推进项目尽早落地。（责任单位：两市农业农村局，蒙阴县政府）', '31.增进对口合作成效。以红色研学为突破点，促进济南、蒙阴两地研学交流。组织蒙阴县重点文旅企业到济南市召开文旅推介会，加强与济南旅行社、旅游协会、自驾游协会等单位合作，互设文旅宣传专架，加大相互推介力度。持续推动两地医疗帮扶工作，全面提升蒙阴医疗水平。深化蒙阴23所学校与济南市相关学校的“一对一”结对帮扶，全面提升蒙阴教育水平。（责任单位：两市市委党校、教育局、文化和旅游局、卫生健康委，蒙阴县政府）']</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A8" t="n">
+        <v>129</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>市委常委会召开会议</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2024-04-30</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2024/4/30/art_1861_4975442.html</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>['4月29日，市委常委会召开会议，传达学习习近平总书记在主持召开新时代推动西部大开发座谈会、重庆考察时的重要讲话精神，研究贯彻落实意见；研究审议有关工作事项。', '会议指出，习近平总书记的重要讲话，具有很强的政治性、针对性、指导性。全市各级要认真学习领会，结合实际抓好贯彻落实。要推动区域协调发展，抓好东西部协作，加快推进济南都市圈建设、区县经济协调发展、县域新型城镇化建设等工作，项目化、清单化、工程化推进落实。要加快发展新质生产力，紧紧围绕主导产业、标志性产业链群，聚焦数字化、绿色化、医养健康等重点方向，加快推进项目谋划建设，以发展新质生产力引领推动高质量发展。', '会议学习了《中华人民共和国循环经济促进法》，审议了《济南市推动大规模设备更新和消费品以旧换新工作方案》，强调，要大力发展循环经济，细化完善推进以旧换新工作方案，科学制定目标，激发企业积极性，抓好有关政策对接，深入推动绿色低碳高质量发展。', '会议传达学习了省委《政绩观偏差具体表现清单》，审议了《关于进一步巩固拓展领导班子和领导干部政绩观偏差问题治理成效的工作方案》，指出，各级各部门和广大领导干部要牢固树立和自觉践行正确政绩观，严格对照清单自查自纠，找准问题根源，健全完善预警防范机制，推动政绩观偏差治理工作常态长效。', '会议听取了关于《市委财经委员会工作规则》《市委财经委员会办公室工作细则》修订情况的汇报，审议了市委财经委员会办公室2023年工作总结、2024年工作要点，强调，要加强和改善党对经济工作的领导，推动重点工作任务落实，提升专业能力水平，为强省会建设提供坚强保障。', '会议审议了《济南市推动黄河流域生态保护和高质量发展2024年工作要点》，指出，要扛起黄河流域中心城市使命担当，抓好生态保护、高质量发展等重点工作任务推进，推动黄河重大国家战略取得更大成效。']</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A9" t="n">
+        <v>129</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>福州市党政代表团来济考察</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2024-07-15</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2024/7/15/art_22405_4984012.html</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>['7月12日至13日，福州市党政代表团来济南考察。福建省委常委、福州市委书记郭宁宁，山东省委常委、济南市委书记刘强，济南市委副书记、市长于海田，福州市委副书记、市长吴贤德参加有关活动并出席济南市·福州市深化友好城市战略合作推进会。', '推进会上，两市分别介绍了经济社会发展情况，共同签署了《济南市人民政府·福州市人民政府深化友好城市战略合作备忘录》。', '郭宁宁代表福州市委、市政府对济南长期以来关心支持福州建设发展表示感谢。她说，济南是黄河流域中心城市，历史悠久、人杰地灵，近年来紧扣“三个走在前”重要要求，落实黄河流域生态保护和高质量发展战略，许多工作走在全国前列，值得福州学习借鉴。福州与济南友好关系源远流长。上世纪90年代初，时任福州市委书记习近平同志亲自带队赴济南考察交流，推动两市缔结友好城市关系，架起了合作与友谊的桥梁。这次济南之行，是赓续传承、厚植情谊之旅，是学习取经、汲取力量之旅，是深化合作、携手奋进之旅，必将推动两市新一轮友好城市战略合作向更高层次、更宽领域迈进。建议两市在推动高质量发展上相互借力，聚焦落实强省会战略、新区（功能区）规划建设、都市圈建设发展以及科技创新、产学研用融合、数字经济发展等，共享资源、密切协作，携手做大做优做强省会城市；在扩大对内对外双向开放上相互搭台，围绕融入共建“一带一路”、建设更高水平的自贸试验区、深化两岸融合发展开展务实合作，把济南和福州打造成为国内国际双循环的重要节点、重要平台、重要枢纽、重要通道，携手服务和融入新发展格局；在提升城乡品质、增进民生福祉上相互学习，加强教育、医疗、养老、生态建设、社会治理等领域交流合作，携手共建幸福宜居的美好家园，共同为推进中国式现代化作出贡献。', '刘强代表济南市委、市政府对福州市党政代表团的到来表示热烈欢迎。他说，近年来，福州市坚持“3820”战略工程思想精髓，加快建设现代化国际城市，主要经济指标增幅明显，经济社会各项工作积累了很多好经验好做法，非常值得济南学习。在新的起点上进一步深化济南福州友好城市战略合作，希望两地秉承弘扬习近平总书记开创的重要理念、重大实践，不忘合作初心，继续携手奋进，建立更加紧密的合作关系，在协调区域发展、壮大优势产业、扩大对外开放等方面相互借鉴、携手联动，在促进文旅融合、加强人才培养、增进民生福祉上加强交流、互促共进，共同为推进中国式现代化贡献力量；开展更深层次、更大力度、更宽广度的产业合作，充分发挥两地产业优势，引导企业不断深化产业链供应链合作，加强园区共建、深化对台经贸交流合作，联合做强做优数字经济；推动更高水平的区域协调发展，互相借力、互惠共赢，携手推动高水平对内对外双向开放，携手推动济南新旧动能转换起步区和福州新区深化合作、加快高质量发展，携手推动教育、医疗等民生事业发展；实现更大范围合作交流，进一步强化人文交流、旅游联动、互联互通。希望两地以此次深化交流合作为契机，进一步完善合作保障推进机制，项目化、清单化、台账化推进合作事项落地落实，实现共同繁荣、共同发展。', '在济期间，福州市党政代表团考察了泉水保护利用及历史文化特色老街保护工作、齐鲁制药生物医药产业园、比亚迪新能源乘用车及零部件产业园、济南新旧动能转换起步区创新中心等。两市有关方面就产业发展、科技创新、扩大开放、新区建设、文旅发展、民生提质等领域进行广泛深入交流，深化互学互鉴，推进务实合作。', '济南市领导王宏志、孙斌、韩伟、谢堃、任广锋，市政府秘书长韩振国；福州市领导兰文、张定锋、郑彧参加有关活动。']</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A10" t="n">
+        <v>129</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>市委常委会召开会议</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2024-07-02</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2024/7/2/art_1861_4983105.html</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>['7月1日，市委常委会召开会议，传达学习习近平总书记在全国科技大会、国家科学技术奖励大会、两院院士大会，中共中央政治局第十五次集体学习，6月27日中共中央政治局会议，宁夏考察，和平共处五项原则发表70周年纪念大会上的重要讲话精神和中央有关会议精神，研究贯彻落实意见；研究审议有关工作事项。', '会议指出，习近平总书记的重要讲话，高屋建瓴、内涵丰富，具有很强的政治性、针对性和指导性，为我们做好工作提供了根本遵循，要结合济南实际，认真抓好贯彻落实。要强化科技创新支撑能力，抓好战略科技力量建设，推进科技创新与产业创新深度融合，加强科技人才队伍建设，继续在增强经济社会发展创新力上走在前，为科技强国建设贡献更多力量。要认真贯彻落实新时代党的建设总要求，坚持不懈推进党的创新理论武装，以建强党建引领保障重点任务落实，深化整治形式主义为基层减负，进一步拧紧党建责任链条，不断提升新时代党的建设水平。', '会议学习了《中国共产党不合格党员组织处置办法》，强调要充分认识《办法》出台的重要意义，把全面从严治党要求落实到每个支部和每名党员。要严肃稳妥处置不合格党员，持续保持党的肌体健康。要强化教育管理，不断提高党员队伍建设质量，为强省会建设提供坚强组织保障。', '会议传达学习了贯彻落实省委十二届六次全体会议精神工作推进会精神，指出，各级各部门要扛牢省会担当，坚定信心决心，聚焦“走在前、挑大梁”，按照省委、省政府工作要求，立足国家所需、山东所向、济南所能，扎扎实实做好各项工作，为谱写中国式现代化山东篇章贡献更多济南力量。要坚持问题导向和目标导向并重，充分认清形势，保持清醒头脑，采取有力措施，全力抓好上半年经济收官，力争实现更好结果。要保持工作定力，扎实抓好经济运行各项工作，持续提升服务市场主体质效，推动经济高质量发展。', '会议审议了《济南市人民政府福州市人民政府深化友好城市战略合作备忘录》，强调要充分认识深化济南福州两市合作的重要意义，从思想上高度重视、行动上积极作为，推动两市友好城市合作走深走实、取得实效。', '会议审议了《济南市推动数据要素市场化配置改革加快数字经济发展行动方案（2024—2025年）》，指出各级各部门要密切协同配合，形成工作合力，抓好《行动方案》各项任务落实落地，加快建设数字济南。', '会议观看了基层治理问题明察暗访纪实片，强调要压紧压实责任，切实抓好问题整改和跟踪问效。要举一反三、建章立制，用好信息化技术手段，进一步健全问题发现、整改工作机制，不断提升基层治理效能。要持续抓好群众身边不正之风和腐败问题集中整治工作，推进集中整治往深里走、往实里走。', '会议听取了关于全省法治乡村建设工作会议精神及我市贯彻落实意见的汇报，指出要牢牢把握法治乡村建设正确方向，坚持和发展好“章丘经验”，持续提升法治乡村建设水平。']</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A11" t="n">
+        <v>129</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>国际青年交流大会月中旬在山东举办</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2024-06-29</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2024/6/29/art_1812_4982989.html</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>['2024国际青年交流大会暨中美青年交流营将于7月11日至24日在山东举办。6月28日，从山东省政府新闻办召开的新闻发布会上获悉，大会主题是“你好！山东”。大会将邀请来自美国、法国、泰国、罗马尼亚等28个国家的500余名青年访鲁交流，参会总规模将达1000余人。', '大会主要活动包括开幕式、国际青年大联欢、电竞友谊赛，走进园区、企业、社区，学校交流、家庭做客等。在鲁期间，将组织外国青年以“发现山东之美”为主题，深入济南、德州、泰安、济宁、淄博、青岛等6个城市考察访问，开展绿色发展、电商经济、乡村振兴、文化双创等研学体验活动。', '我省聚焦“青年”连续举办国际青年交流大会，已使大会具有较强国际影响力，今年更是吸引了美欧亚非地区青年代表500余人参会，主体为“90后”“00后”。', '此次来访的国际青年大多为首次访华，大会精心设计了为期两周的主题参访活动，在济南，通过走访泉水保护、智能高端装备产业等了解绿色低碳发展成果；在青岛实地访问无人码头青岛港，了解高质量发展山东企业速度；在淄博体验“淄博烧烤”，感受火热的旅游业发展；在泰安、济宁、德州，外国青年将走进文化课堂，学习儒家文化、泰山文化、运河文化，并走进农村、农户家中，感受村美、民富、产业兴的乡村振兴实景。']</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A12" t="n">
+        <v>129</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>市政府党组召开扩大会议</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2024-06-26</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2024/6/26/art_22405_4982831.html</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>['6月25日，市政府党组召开扩大会议，传达学习习近平总书记对防汛抗旱工作作出的重要指示以及在青海、宁夏考察时的重要讲话等近期系列重要讲话重要指示精神，传达学习省委十二届六次全会精神，研究贯彻落实意见。市委副书记、市长、市政府党组书记于海田主持会议并讲话。', '会议指出，习近平总书记的重要讲话、重要指示，高屋建瓴、思想深邃、内涵丰富，为我们做好各项工作、推进强省会建设指明了前进方向、提供了根本遵循，要结合实际抓好贯彻落实。要坚决防范应对水旱灾害风险，坚持未雨绸缪、关口前移，全面消除安全隐患，严防旱涝并发、旱涝急转，切实保障人民群众生命财产安全。要坚持科技创新引领，扎实推动科技创新与产业创新深度融合，加快培育和发展新质生产力。要加强生态环境保护，深入打好污染防治攻坚战。要铸牢中华民族共同体意识，聚力做好民族工作，谱写民族团结崭新篇章。要持续增进民生福祉，用心用情用力办好民生实事，巩固拓展脱贫攻坚成果。要扎实开展党纪学习教育，推进作风建设常态长效。', '会议强调，要按照省委十二届六次全会部署要求，坚决扛牢省会责任担当，把深入学习贯彻习近平总书记视察山东重要讲话精神，作为当前和今后一个时期的重大政治任务，加快谋划推进一批具有全局性带动性的重大政策、重大项目、重大改革、重大举措，全力推动经济实现质的有效提升和量的合理增长，全面推进改革发展稳定，全方位提升各领域各方面工作水平，努力在谱写中国式现代化山东篇章中勇当排头兵。', '会议学习了《中华人民共和国水污染防治法》，强调，要深入打好碧水保卫战，全力推进“两个清零、一个提标”，加强入河湖排污口溯源整治及规范化管理，持续做好饮用水水源地保护，巩固提升全市水环境质量。']</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A13" t="n">
+        <v>129</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>海右人才节丨第二届海右人才节哲学社会科学服务高质量发展哲泉涌汇行动启动仪式暨哲社高层次人才交流会举办</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2024-06-29</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>https://mp.weixin.qq.com/s/Z87jp6HgPWtqIi0FXzzBmQ</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>['海右人才节丨第二届海右人才节哲学社会科学服务高质量发展“哲泉涌汇”行动启动仪式暨哲社高层次人才交流会举办', '济南社会科学院是市政府直属正局级公益一类事业单位，是综合性社会科学研究机构，是市委市政府重要的思想库、智囊团。', '6月28日，第二届海右人才节哲学社会科学服务高质量发展“哲泉涌汇”行动启动仪式暨哲社高层次人才交流会在南郊宾馆举办。', '第二届海右人才节以城市的名义、节日的礼遇，向为济南市经济社会发展作出贡献的广大人才致敬。作为第二届海右人才节的重要组成部分，本次活动广邀哲学社会科学人才齐聚泉城，共同探讨哲社领域新思想、新理念，加快理论成果转化，为助力中国式现代化济南实践贡献“哲社智慧”。', '近年来，我市坚持把人才队伍建设作为繁荣发展哲学社会科学事业的核心引擎，不断完善人才发展体制机制，优化人才成长环境，提升人才能力素质，持续推动新时代哲社人才工作高质量发展。在哲社服务高质量发展“哲泉涌汇”行动启动仪式上，与会嘉宾通过短片，了解了近年来我市哲学社会科学人才工作取得的成就。接下来，济南将以更精准的引才措施、更广阔的发展平台、更贴心的服务保障、更开放的立项格局、更优厚的待遇，广开渠道，尽揽天下人才。', '今年，我市哲学社会科学课题首次面向全国“揭榜挂帅”，公开征集并遴选专家团队组织实施，来自全国的专家学者踊跃报名。活动现场，发布了济南市理论课题揭榜挂帅榜单，并为中标项目颁发济南市哲学社会科学课题立项通知书。', '基层一线是哲学社会科学研究的源头活水。为真正推动哲学社会科学服务全市经济社会高质量发展，真正实现“哲泉涌汇”，经过前期的调研、沟通和深入对接，来自驻济高校和研究院所的13位哲社领域的领军人才与区县进行了哲学社会科学项目合作签约。“作为地道的济南人，这次回来感觉特别亲切。”深圳市社会科学院研究员，清华大学管理学博士，美国印第安纳大学访问学者徐宇珊看到如今济南哲学社会科学发展得蓬勃向上，感到非常惊喜。她说：“从揭榜挂帅到立项签约，我感觉济南的哲学社会科学研究不仅内容扎实，形式也非常新颖。”', '为开阔济南市青年社科人员的研究视野，促进高层次人才和青年人才的双向赋能，现场启动了济南市第二批“青年哲社人才特聘学术成长导师”与哲学社会科学青年人才结对帮带活动。', '随后，与会领导为山东社会科学院“济南市哲学社会科学人才培养实验室”揭牌。据悉，实验室依托山东社会科学院的优质资源和研究力量，将通过开设课程、举办讲座、开展实践项目等方式，为广大学生和学者提供一个广阔的学习和交流空间，促进他们的学术成长和职业发展。“多种多样的社科活动有助于挖掘、吸引更多的青年人才。”中共中央党校博士后，教授，硕士研究生导师，山东建筑大学马克思主义学院副院长巩克菊认为，哲学社会科学研究将因为青年人的加入更加丰富、更加深入、更有影响力。', '活动现场，“海右人才发声人”—AI虚拟主播“海右”为大家详细解读了升级版人才政策“双30条”(2024版)中有关哲学社会科学人才的支持政策，哲学社会科学人才代表向天下英才发出“天下泉城、人来无忧”倡议。“过去我们说‘海右此亭古，济南名士多’，如今，人才节搭建了一个非常好的平台，‘古亭又逢春’，我想将会有更多的天下名士汇聚济南。”清华大学法学博士、清华大学哲学博士后，清华大学马克思主义学院副教授王贵贤对济南未来的发展充满期待。', '在“追寻哲社之光 共话发展之道”哲学社会科学高层次人才交流会上，哲学社会科学专家，首批“海右”哲学社会科学人才及创新团队负责人，市委党校、市社科联、市社科院哲社人才代表，就学习贯彻习近平总书记考察山东提出的“紧扣推进中国式现代化主题，进一步全面深化改革”指示精神，围绕中国式现代化语境下的新质生产力与新质人才观进行了交流。浙江省社会科学院原院长，马克思主义学院中国化时代化马克思主义研究院首席专家，浙江工商大学特聘教授何显明第一次参加这样的交流会，他认为，这充分体现了济南对哲社工作的重视、对哲社人才的重视，“济南有丰厚的文化的底蕴，又有好的政策的扶持，济南乃至山东的哲社研究工作将会迎来更高质量的发展。”', '本次活动由市委人才工作领导小组办公室指导，由市委宣传部主办、市委党校(济南行政学院)、济南日报报业集团、济南市社会科学界联合会、济南社会科学院承办。']</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A14" t="n">
+        <v>129</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>市委常委会召开会议</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2024-06-22</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2024/6/22/art_1861_4982592.html</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>['6月21日，市委常委会召开会议，传达学习习近平总书记对防汛抗旱工作作出的重要指示和在青海考察、中央军委政治工作会议上的重要讲话精神，研究贯彻落实意见；研究审议有关工作事项。', '会议指出，习近平总书记的重要讲话、重要指示，具有很强的政治性、针对性和指导性，为我们做好工作提供了根本遵循，要结合济南实际，认真抓好贯彻落实。要扎实做好防汛抗旱工作，加强农情、旱情监测和水源统一调度管理，扩大造墒播种和保苗灌溉面积，切实保障生产生活用水需求；统筹防汛抗旱“两线作战”，密切关注雨情水情变化，做好极端天气应对和防汛物资储备，防范随时可能出现的“旱涝交替、旱涝急转”现象。要加大生态环境保护力度，持续改善环境空气质量，加快推进生态环保领域问题整改。要坚定不移贯彻落实习近平强军思想，深入学习领会新时代政治建军方略，进一步密切军地协作配合，更好服务国防建设和练兵备战需要，努力为强军事业作出地方贡献。', '会议传达学习了省委十二届六次全体会议精神，审议了市委十二届五次全体会议有关材料，强调，要传达学习省委全会精神，紧紧围绕会议部署的重点任务，项目化、清单化、工程化抓好推进落实，推动强省会建设迈上新水平，努力在全省发展大局中发挥“挑大梁”作用。要开好市委全会，深入学习贯彻习近平总书记视察山东重要讲话精神，凝聚加快推进强省会建设的合力。', '会议学习了《防范化解金融风险问责规定（试行）》，指出要坚持和加强党对金融工作的全面领导，纵深推进金融领域全面从严治党。要坚持敢管敢严、真管真严，推动地方金融监管真正做到“长牙带刺”、有棱有角。要抓牢重点领域金融风险防控，守住不发生系统性区域性金融风险底线。要拧紧责任链条，形成强监管、防风险的工作合力。', '会议审议了《促进重点项目建设若干财政措施（2024版）》，强调要用足用活财政手段，多措并举强化资金保障，更好服务项目招引落地，推动项目建设取得更大成效。', '会议审议了《关于进一步加快推进城中村改造的若干细则》，强调各级要把握好国家政策机遇，抓好《若干细则》实施，积极稳妥推动城中村改造工作，改善居民居住环境，优化提升城市功能，促进城市高质量发展。', '会议听取了关于全市“两优一先”推荐工作有关情况的汇报，强调，要充分发挥好先进典型示范引领作用，更好激励广大党员干部敢于担当、积极作为，以更加饱满的热情投身强省会建设。']</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A15" t="n">
+        <v>129</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>活力品质强区奏响城市更新同心曲</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2024-06-16</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2024/6/16/art_1861_4982327.html</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>['民生是发展之源、社会之基、为政之要。立足生态基础，找准自身特色，主动顺应现代化城市公园建设新趋势、新业态；聚力提升城市品质，稳步实施城市更新行动，打造宜居、智慧、韧性城市，让人民群众共享发展成果……现在的市中，处处花开，锦绣盈目，目光所及满眼绿意醉人，所到之处无不整洁亮丽，其中凝缩的是市中区在城市更新进程中精彩纷呈的奋斗历程。', '近年来，市中区以活力品质强区建设为总目标，紧紧抓住城市有机更新和产业转型升级关键抓手，实施外部空间拓展、老旧片区更新、城中村改造“三大工程”，全面转战“二环西”，梯次展开中央活力区、白马山片区和七贤片区开发建设，围绕老城区的低效用地实施更新，启动老商埠片区、上新街片区、经九路三号院等老旧片区改造以及惠及35万人的老旧小区改造项目，启动大涧沟、西红庙、南红庙、王官庄4个城中村改造项目。围绕“三大工程”，市中区新增谋划储备城市更新项目19个、总投资421亿元，切实推动280平方公里的辖区在润物无声中变得更加整洁、更加文明、更有温度，以城市更新增活力、促赶超、助发展，描画出活力品质强区拾级而上的精彩一笔。', '茂盛翠绿的草地、蜿蜒幽静的小路、错落有致的步道……走进兴隆城市公园，只见青山、河道、绿地融为一体，山水揽翠、城景相映，一幅山城交融的生态和谐之美画卷跃然眼前。作为南部新城的大型综合性城市公园，兴隆城市公园以新发展理念为引领，打造“森林围城、绿道穿城、花景满城、四季绿城”的城市景观，进一步优化南部新城的生产、生活、生态空间。', '公园位于大千佛山风景区与兴隆风景区的中间地带，紧邻兴隆水库，依托“三山环抱、一水相依”的自然环境，立足泉水保护重点渗漏带，采用“内蓄外排”海绵设计，高标准打造活力悦动区、山林休闲区、生态体验区三大区域，建设1000平方米的“济南国际友城花园”，建设活力悦动绿道、山林漫步绿道、生态休闲绿道三条游玩主干道，布局竹影、芳泽、锦溪、绿丘、山林、花园六大景观点，形成了“三区三环六景”生态景观，绿化面积近30万平方米、覆盖率达90%，水域面积约9000平方米。', '如果2040年，人类要在火星和平谷地建设火星移民先锋营地，我们现在需要做些什么？需要建造登陆火星的卫星、火箭、空间站、着陆器，还需要学习建造这些飞行器的相关知识……这些可以让孩子们探索火星奥秘，发现科学魅力的场景，都可以在兴隆城市公园实现。公园突出文化赋能，打造全市首家面向全国的教师成长基地，建筑面积6000余平方米，具备“学习培训、主题展览、学习诊断”三大功能，自投入运营以来已接待参观考察、学习培训近2万人次，同时计划以“火星探索”为主题，面向育秀、泉秀、泉泽等周边多所中小学校，建设青少年航空航天教育营地，公园变身校园，让孩子们同步享受生态之美、科学之魅、文化之韵。', '满眼皆绿、推窗即景，市中人每天都能体会到日新月异的变化和发展。用微观视角来审视市中区的进步提升，更能感受到宜居环境改善的力度。在二环南路北邻、郎茂山路西侧附近的一个区域，双龙片区改造项目的一栋栋居民楼拔地而起，周边医疗、教育、商业、娱乐等基础设施和公共服务配套高度集聚，让群众过上最向往的生活。', '市中区坚持“城中村”改造不是简单的房地产开发，而是结合城市发展需求，秉承给居民打造“最好的位置”“最美的环境”“最优的质量”“最全的配套”，实现主城区二环内就地安置。双龙安置房背靠青龙山、东邻郎茂山，南接济南大学，配备双龙幼儿园、双龙九年一贯制学校、双龙便民停车场、锦雲体育场，设置儿童乐园、慢生活空间，紧邻省立医院南院区、中海·环宇城等配套，教育、医疗、文化、体育、娱乐等服务功能一应俱全，形成了便利群众的“15分钟生活圈”。', '值得一提的是，项目以优生态提升居住品质，发挥青龙山城市“绿肺”作用，利用天然山景资源，建设社区绿地、口袋公园，确保社区绿化面积占比达35%以上，人居环境靓丽优越，“推窗见景、开门见绿、出门进园”成为双龙居民的生活常态。', '过去，市中区城市空间的拓展主要沿二环南路拉开，从东到西建成兴隆、领秀城、南北康、中海国际等一大批高品质社区，形成南部新城框架。如今，市中区转战“二环西”拓展新空间，沿二环西路由南向北布局济南中央活力区、七贤片区、白马山片区“三大片区”，直抵经十路，链接济南西站、济南国际医学中心。沿线以城中村更新为亮点，释放发展空间，促进产城融合。', '城市更新，征迁先行。作为2024年市中区第一个启动的征迁项目，白马山片区西红庙南红庙城市更新项目始终坚持“按规矩办事”“一把尺子量到底”“阳光拆迁”，西南红庙项目实现“首日签约过半”，仅用64天时间完成拆迁，为项目有效推进展现“市中速度”。片区拆迁工作实施“一村一策”，西南红庙采取房屋安置单一方式，实现成本可控。项目实现当年拆迁，当年安置。前后魏、西南红庙村民集中安置，片区整合统一建设，确保路网、水、电、气、暖等配套设施一应俱全，引入市中区优势教育资源，为保障改善民生打造“市中样板”。', '作为市中区转战“二环西”、开拓新空间的引爆型重点项目，该更新项目6个村连片开发，5100亩的片区规模迎来“大改造、大建设、大提升”。目前，片区内3处商品房正在建设，二环西路第一高楼云启中心计划年内封顶，区域发展潜力已被激活，为全市优化发展空间增添“市中蓝图”。']</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A16" t="n">
+        <v>129</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>对话热线榜样丨暖心人刘维和他的专家分析答疑小分队从热线意见簿探索城市微治理济南日报</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>2024-06-17</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2024/6/17/art_23073_4982373.html</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>['对话·热线榜样丨“暖心人”刘维和他的“专家分析答疑小分队”：从热线意见簿探索城市微治理《济南日报》', '“多接听一个电话，多受理一个诉求，多解决一个问题。”这是刘维所带领的这支热线团队的服务理念。一幕幕“问题现场”答疑会、不同诉求工单归类梳理的专项分析……在街道工作的18年里，刘维针对基层治理、社区治安等问题，牵头组建“专家分析答疑小分队”。“通过热线为群众解难题，我觉得很有意义。”刘维表示。', '11日上午7点多，记者来到历下区建筑新村街道12345热线工作站，由刘维牵头组建的“专家分析答疑小分队”正在晨会议事。等候间隙，记者看到了一本“意见簿”。', '“‘意见簿’里是社区党员代表和热心市民通过12345热线的发声。”刘维介绍，晨会结束，热线团队要根据各自分工去往现场，“意见簿里的热线工单，是办理人随手记录的一些信息，不少办结的工单赢得群众点赞。”', '走访中，记者见到了和平新村社区居民张大爷。他作为街坊邻里推举出的代表，经常通过12345热线对社区治理提建议、说想法。', '“我们希望能增加更多电动车充电桩，还有小区内长椅等基础设施有些老化，建议翻修。”张大爷说，前段时间，他通过12345热线反映问题。不一会儿，就有部门的几位工作人员上门了解情况。', '记者了解到，接到工单后，刘维第一时间赶到现场实地考察，与张大爷面对面沟通，并详细记录其意见，随后前往相关职能部门反映问题。其间，又针对选址、配套等环节，广泛征求各个单元楼的居民意见、多次到现场调研论证，最终在辖区安装了67个充电桩、522个充电插头，有效避免了消防安全隐患。同时，刘维配合相关负责人在小区内增添老年休息椅、儿童涂鸦墙，配置急救药品、维修工具、雨伞等日常生活用具，进行设施增设、适老化改造、道路修补、墙体美化等，为群众提供暖心、高效的便民服务。', '“这几年，在不同的工单类型中，有关老旧小区的12345热线诉求占比较大，我们抓住这一痛点、难点，对错综复杂、久拖未办结的疑难问题迎难而上、一抓到底。”刘维边走边介绍着周边几处半开放式小区的基本情况，途中不少居民热情地打招呼，“半开放式小区，居民诉求多样，我们也经常到现场询问情况，跟这里的社区工作人员、党员代表、楼长、热心市民建立了沟通机制。”', '针对热线工单反映的同类问题，“专家分析答疑小分队”及时召开分析答疑会，展开专项分析，一事一议，定期组织各科室热线承办人员及社区工作人员共同学习、探讨相关政策内容，增加知识库储备量，结合考核标准，将日常工作与相关规范逐一对照，不断提高12345热线办理水平。同时，街道加快推动纠纷矛盾分类处置、多元化解。针对停车管理、私搭乱建、社区治安等不同类型的诉求，由街道统筹整合物业公司、司法所、执法中队、派出所等各类责任主体，各司其职、各尽其能，为老旧小区物业管理服务工作持续改善提供坚强保障。', '在街道工作的18年里，咨询、求助、投诉、建议，到达现场、多方协调……一天下来，刘维接听电话、现场解答不断，却始终保持专注。']</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A17" t="n">
+        <v>129</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>市委外办召开警示教育会议</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>2024-06-07</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2024/6/7/art_22239_4981922.html</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>['6月6日，市委外办召开警示教育会议，深入学习贯彻习近平总书记关于全面加强党的纪律建设的重要论述，传达学习省市警示教育大会精神，通报有关违纪违法典型案例，以案说德、以案说纪、以案说法、以案说责，教育引导外事党员干部学纪、知纪、明纪、守纪，推动党纪学习教育走深走实、见行见效。市委外办主任刘瑞玲主持会议。', '会议指出，全体外事党员干部要在学深悟透上下功夫，持续深入学习、用心领会习近平总书记关于全面加强党的纪律建设的重要论述，把学习《中国共产党纪律处分条例》作为必修课、常修课，做到高标准、高质量，原原本本学、逐章逐条学，切实增强政治定力、纪律定力、道德定力、抵腐定力，始终做到忠诚干净担当。要在高度自觉守纪上下功夫，以违纪违法典型案例为镜鉴、以《条例》为标尺从严从实检身正己，自觉对照“六项纪律”检视问题和不足，从身边人身边事中受警醒、明底线、知敬畏，真正把他律要求转化为内在追求，把遵规守纪刻印在心、内化为言行准则。要在推进外事工作高质量发展上下功夫，把开展党纪学习教育同学习贯彻习近平总书记在山东考察时的重要讲话精神结合起来、同推动外事重点工作任务结合起来、同巡察整改结合起来，注重实效、提高质量，做到两手抓、两促进，为加快建设“强新优富美高”新时代社会主义现代化强省会贡献外事力量。']</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A18" t="n">
+        <v>129</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>市政府党组召开扩大会议</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>2024-03-23</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2024/3/23/art_79708_4973264.html</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>['3月22日，市政府党组召开扩大会议，传达学习习近平总书记在新时代推动中部地区崛起座谈会、湖南考察时的重要讲话精神，研究贯彻落实意见。市委副书记、市长、市政府党组书记于海田主持会议并讲话。', '会议指出，习近平总书记的重要讲话，高屋建瓴、思想深邃、内涵丰富，为我们积极服务融入区域协调发展战略、更好发挥强省会辐射带动作用提供了根本遵循。全市政府系统要深入学习领会，结合实际抓好贯彻落实。要加快发展新质生产力，坚持因地制宜，突出科技创新引领，推动传统产业转型升级，打造具有省会特色的现代化产业体系。要以更大力度深化改革开放，持续提升对外开放水平。要全面加强生态环境保护，深入打好污染防治攻坚战，全力做好绿色低碳转型。要扎实推进乡村全面振兴，加快现代农业产业体系建设，不断加强宜居宜业和美乡村建设。要以高水平安全保障高质量发展，持续推进安全生产“审计式”监督检查服务，坚决维护人民群众生命财产安全。', '会议学习了《中国共产党党员网络行为规定》，强调，要旗帜鲜明讲政治，自觉规范网络行为。要积极发扬斗争精神，坚决守牢守住意识形态阵地。要走好网上群众路线，积极回应群众关切。要层层压实责任，确保网络安全各项工作落到实处。']</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A19" t="n">
+        <v>129</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>济南市党政代表团到重庆武隆考察对接东西部协作工作</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>2024-03-27</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2024/3/27/art_22405_4973442.html</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>['3月25日至26日，市委书记刘强率领济南市党政代表团到重庆市武隆区，深入贯彻落实习近平总书记关于深化东西部协作的重要指示精神，深入落实山东·重庆东西部协作联席会议工作要求，学习重庆市、武隆区经济社会发展的好经验、好做法，考察对接东西部协作工作，推动两地协作走深走实。重庆市武隆区委书记何庆，区委副书记、区长左军，济南市委常委、秘书长韩伟出席有关活动。', '25日晚，济南—武隆东西部协作联席会议召开。刘强在会上说，去年以来，在重庆市委、市政府的坚强领导下，武隆区委、区政府团结带领广大干部群众奋勇拼搏、埋头实干，经济社会发展保持持续向好态势。武隆区在加快高质量发展中的好经验好做法值得济南市学习借鉴。今年，济南市将深入学习贯彻习近平总书记关于深化东西部协作的重要指示精神，坚决贯彻党中央、国务院决策部署，全面落实山东·重庆东西部协作联席会议工作要求，扎实推进各项协作任务。在具体工作中，将持续深化人力资源协作，做好各类专技人才交流、干部交流和劳务协作；持续深化消费协作，开展好各类展销推介活动，助力武隆丰富的特色农产品和旅游产品拓展市场；持续深化产业协作，立足双方优势、强化资源互补，在工业等产业协作上取得更大突破；持续深化文旅协作，发挥各自特色优势，在平台建设、宣传推广、文化交流等方面取得更大成效；压紧压实工作责任，完善双方协作机制，坚持项目化、清单化、工程化推进各项工作，推动合作交流迈向更高水平。', '何庆对济南市长期以来给予武隆区发展的鼎力相助表示感谢。他说，自济南市与武隆区达成结对协作关系以来，济南市委、市政府高度重视、高位推动、高效实施，始终坚持自身所能、武隆所需、群众所盼，真抓实干帮、真情实意扶、真金白银投，为武隆巩固拓展脱贫攻坚成果、全面推进乡村振兴提供了强大助力。真诚期盼与济南市在工业产业协作上再深化，在农业产业协作上再加强，在文旅产业协作上再升级，在人才交流协作上再拓展，引导更多优质资源到武隆投资，推动两地文化旅游资源共享、特色互助、优势互补，持续深化教育、医疗、农业等领域人才支持力度，积极拓展旅游、交通、水利、城市建设等领域协作，全面助力武隆各项事业高质量发展，奋力打造更多具有济南武隆辨识度的东西部协作标志性成果。', '在武隆期间，济南市党政代表团来到仙女山蜂疗中心项目，察看智慧蜂业数字化服务平台运行、蜂疗产业链延展、蜂产品开发、蜜蜂文化旅游融合等情况，在蜂疗特色门诊与蜂疗团队负责人、就诊患者深入交流。刘强表示，发展蜂疗产业，武隆有基础有优势，未来前景广阔。要充分发挥济武协作机制作用，推动两地优势互补，抓好东西部协作旅游与康养融合项目建设运行，助推蜂疗产业不断做大做强。荆竹村入选了联合国世界旅游组织“最佳旅游乡村”名单，其归原小镇项目引进了山东企业，打造了大小40余处景点，形成了重庆首个民宿聚落。代表团走进悬崖图书馆、无有咖啡馆、归原老茶馆、民宿等地，实地察看小镇建设运营、旅游开发等情况，深入了解东西部协作助力乡村振兴、带动村民增收致富等情况。刘强说，荆竹村在深化农文旅融合、促进乡村振兴方面的好经验好做法值得济南市认真学习借鉴。希望双方加强交流互鉴，深化协作互动，实现共赢发展。在武隆中学棉花坝校区，代表团考察了东西部协作教育“组团式”协作工作开展情况。刘强走进“董海滨高中化学名师工作室”，了解济南支教教师教育教学工作开展、“孪生学校”“孪生班级”教育协作推进等情况；走进“鲁渝协作班”与班级师生交流，聆听了学生代表在协作班学习成长的感悟体会分享。“黑发不知勤学早，白首方悔读书迟。”刘强勉励学生们勤奋刻苦学习、积极锻炼身体，将来考上理想的大学，成长为堪当大任的栋梁之材。每到一处，济南市党政代表团成员都认真听取介绍，与当地干部群众、济南协作武隆干部人才深入交流。刘强说，我们要进一步加大协作交流力度，高质高效建好协作项目，做优做强协作产业，助力本土人才培养，促进两地协作向更高水平迈进。', '在26日召开的济南援派武隆区挂职干部和专技人才座谈会上，刘强看望慰问了挂职干部和专技人才代表，与会人员围绕支教、支医、支农等协作工作进行了交流发言。刘强指出，开展东西部协作是以习近平同志为核心的党中央，着眼推动区域协调发展、促进共同富裕作出的重大决策部署。站在新的起点上，济南援派干部和专技人才一定要讲政治顾大局，牢记使命、扛责在肩，扎实做好协作工作，做到“人在武隆、心在武隆、干在武隆”，以实际行动坚定拥护“两个确立”、坚决做到“两个维护”。要重实践多奉献，认真履职尽责，勤于思考总结，不断提升业务能力、锤炼扎实作风，全力完成协作任务。要讲纪律树形象，严明纪律规矩，做推动协作走深走实的行动派和实干家，为济武两地加快高质量发展作出更大贡献。济南市委、市政府将一如既往地为援派干部和专技人才当好后盾，组织部门和各有关单位要为援派干部人才提供好服务保障、帮助排忧解难。', '山东省协作重庆干部管理组、济南市有关区、市直有关部门负责同志；重庆市直有关部门、武隆区有关负责同志参加活动。']</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A20" t="n">
+        <v>129</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>济南市党政代表团到甘肃临夏考察对接东西部协作工作</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>2024-03-25</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2024/3/25/art_1861_4973316.html</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>['3月23日至24日，市委书记刘强率领济南市党政代表团到甘肃省临夏回族自治州，贯彻落实习近平总书记关于深化东西部协作的重要指示精神，深入落实山东、甘肃省委、省政府工作要求，考察对接东西部协作工作，支持临夏推进灾后重建工作，推动两地协作走深走实。甘肃省副省长雷思维，临夏州委书记李海默，州委副书记、州长何东，济南市委常委、秘书长韩伟出席有关活动。', '24日上午，济南—临夏东西部协作联席会议召开。刘强在会上说，去年以来，在甘肃省委、省政府的坚强领导下，临夏州委、州政府团结带领广大干部群众奋勇拼搏、攻坚克难，全州经济社会发展取得了显著成绩，抗震救灾及灾后重建工作取得了积极成效。今年，济南市将深入学习贯彻习近平总书记关于深化东西部协作和对甘肃临夏州积石山县6.2级地震作出的重要指示精神，坚决贯彻党中央、国务院决策部署，全面落实鲁甘两省工作要求，扎实推进各项协作任务。在具体工作中，将持续深化产业合作，合作共建产业园区，培育壮大特色产业，协同发展现代产业，增强发展内生动力；全力支持灾后重建，抓好就近就业，强化劳务输转，做好服务保障，推动取得更大成效；切实强化文旅合作，深化文旅产业共建、文创产品创新，推动两地文旅联动发展；持续做好消费协作，做强做优做大临夏农业特色产业，组织开展好系列展销推介活动，进一步提升协作质效；持续加强人才交流，开展挂职干部轮换，优化人才“组团式”协作，强化乡村振兴人才培训，不断拓展人才交流广度深度；压紧压实工作责任，提高资金使用效益，动员社会各界参与，推动合作交流迈向更高水平。', '雷思维对山东省和济南市多年来对甘肃省和临夏州经济社会发展的鼎力支持表示衷心感谢。他说，自协作关系确定以来，山东省和济南市从“大战略、大布局、大举措”的高度，把协作帮扶当作分内之事，全领域、全方位、全过程帮扶，在人力、物力、财力等方面给予了最大限度的支持帮助，助力协作县发生了翻天覆地变化，对甘肃省和临夏州巩固拓展脱贫攻坚成果、推进乡村全面振兴发挥了特殊重要的作用，作出了不可替代的贡献。甘肃省将一如既往全力支持临夏州推进济临东西部协作再上新台阶、取得新成绩。临夏州要立足所需、主动对接，结合所有、积极承接，针对所能、全面衔接，把推动落实东西部协作摆在更加突出位置，确保各项协作工作落地见效，不辜负济南各级各界的关怀和帮助。', '李海默说，开展东西部协作三年来，在山东、甘肃两省省委、省政府的坚强领导下，济南、临夏认真贯彻落实习近平总书记关于深化东西部协作工作的重要指示精神，立足全面推进乡村振兴“三个转向”的工作要求和“以协作促发展”的工作导向，同心同向、砥砺前行，各项工作都打开了崭新局面、取得了丰硕成果，共同谱写了动人的“黄河协作曲”。今年，临夏州将抢抓协作之机、用好帮扶之力，加强沟通对接，拓展合作领域，努力与济南市共同构建优势互补、协作共赢新格局。希望济南市在灾后恢复重建、提升产业水平、帮助引进企业、扩大消费帮扶、深化人才交流等方面继续加大力度，推动两地协作走深走实、再结硕果。', '在临夏期间，济南市党政代表团冒雪来到积石山县的地震重灾区大河家镇四堡子村、陈家村，考察当地灾后重建工作。刘强走进安置点样板房察看建设配置，了解当地安置房建设计划进展、基础设施配套、产业发展布局等情况。“家里有几口人？有哪些房子受到地震影响？”刘强走进一个保安族家庭农户，关切询问震灾影响、灾后生活保障等情况。他握着农户老人的手说，国家和甘肃省对灾后重建工作十分重视，正在积极有序推进各项工作。等到安置点建好后，大家就能搬进新房子住了。刘强还察看了灾后重建“千头肉牛”“万只肉羊”繁育中心项目，希望有关方面统筹谋划推进灾后重建、产业发展等工作，带动村民增收致富。他表示，济南市将加大对灾后重建工作的支持力度，为灾区生产生活秩序恢复作出更大贡献。', '在“A I豆计划”数字经济产业园，济南市党政代表团听取了章丘区—积石山县协作工作情况介绍，察看了积石山县数字就业中心、电商产业园带动当地就业、促进产业发展情况。数字经济产业园吸引了很多年轻人就业，刘强与园区的年轻人交流，了解数据标注产业发展等情况，鼓励他们把握数字经济机遇，扎扎实实工作，实现人生价值，绽放青春光彩。在临夏百益亿农国际鲜花港，代表团听取了市中区—临夏市东西部农业产业协作工作情况介绍，考察了中国玫瑰超级工厂，详细了解玫瑰种植、品种引育、国际市场拓展等情况。该项目达产后年产鲜切花约6000万枝。在惠发（临夏州）食品供应链科技有限公司，代表团考察了正在建设的清真牛羊肉精深加工项目、清真预制菜加工项目。每到一处，代表团成员都认真听取介绍，与当地干部群众、济南协作临夏干部人才深入交流。刘强表示，要主动加强联动，进一步加大协作力度，高质高效建好协作项目，做优做强协作产业，促进两地协作向更高水平更高质量迈进。', '济南市有关区、市直有关部门负责同志；甘肃省直有关部门、临夏州有关负责同志参加活动。']</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A21" t="n">
+        <v>129</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>市委常委会召开会议</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>2024-03-23</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2024/3/23/art_1861_4973245.html</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>['3月22日，市委常委会召开会议，传达学习习近平总书记在新时代推动中部地区崛起座谈会、湖南考察时的重要讲话精神，研究贯彻落实意见；研究审议有关工作事项。', '会议指出，习近平总书记的重要讲话，具有很强的政治性、针对性、指导性，为我们做好工作指明了前进方向、提供了根本遵循。全市各级要认真学习领会，结合实际抓好贯彻落实。要着力推动区域协调发展，加快济南都市圈建设，推进区县经济协调发展，抓好县域新型城镇化建设。要加快发展新质生产力，聚焦数字化、绿色化、生物医药等重点领域，以科技创新引领产业创新，构建现代化产业体系，为高质量发展增强后劲。要守牢粮食安全底线，推动粮食产能再上新台阶。要进一步减轻基层负担，抓好形式主义问题对照整改清单落实，通过数字化手段推动减负工作落实。', '会议学习了《中华人民共和国保守国家秘密法》，强调，要坚决扛牢政治责任，全面贯彻党管保密根本原则。要强化定密、网络保密、涉密人员和涉密设备管理，筑牢防谍保密工作防线。要提升科技支撑能力，推动我市保密行业高质量发展。要严格落实保密工作责任，形成维护党和国家秘密安全的整体合力。']</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A22" t="n">
+        <v>129</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>长清区政协主席白涛一行到济南国际医学中心调研</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>2024-03-14</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2024/3/14/art_57650_4972892.html</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>['3月14日，长清区政协主席白涛一行到济南国际医学中心调研。医学中心党工委副书记、管委会主任张济，副主任李建华、国亮陪同调研。', '白涛一行在医学中心综合展厅，听取医学中心总体规划、项目建设等进展情况介绍。在树兰（济南）医院参观手术室、体检中心及医学会堂，全面了解医院运营情况。随后车览医疗硅谷、济齐路沿线项目，在精准医学产业园和海凭医疗器械产业园，深入考察园区产业发展和入驻企业运营情况，参观华银康医学检验有限公司、山东艾盟生物科技实验室，听取相关负责同志情况介绍。', '座谈会上，双方就如何开展医疗事业及健康产业合作进行深入交流。白涛表示，医学中心坚持打造以医为核心、医教研产养融合发展的医疗创新高地，为长清区生物医药和康养产业发展提供了好经验、好做法，值得学习和借鉴。', '张济表示，医学中心锚定“国际化、高端化、特色化”发展定位不动摇，坚持“项目为王”强产业，聚焦医疗事业和健康产业两个维度，推动医学中心高质量发展，加快形成新质生产力，为新时代现代化强省会建设贡献医学中心力量。']</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A23" t="n">
+        <v>129</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>全国供销总社调研组来济南调研社有企业改革发展工作</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>2024-03-05</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2024/3/5/art_4115_4972309.html</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>['3月5日，中华全国供销合作总社财会部部长、社有资产管理委员会办公室主任吴孔凡一行来济南调研社有企业改革发展工作。省供销社党组成员、理事会副主任、一级巡视员于庆峰，省供销社二级巡视员、山东省供销集团党委书记、董事长吴俊英，济南市供销社党组书记、理事会主任黄波，章丘区委副书记、区长边祥为等陪同调研。', '调研组一行先后到山东鲁供丰农农业服务有限公司、章丘区高官寨为农服务综合体、全国总社济南果品研究院、山东供销智能仓配及应急保障（济南）基地进行实地考察，听取了有关工作情况的汇报，详细了解社有企业运营及土地托管、烘干仓储、农资供应、智慧农业、基层供销社服务农民生产生活情况和开展“土地股份合作+全程托管服务”、保障国家粮食安全的措施成效。调研组一行对济南市供销社社有企业发展成果表示肯定并给予了高度评价。', '调研组提出，济南市供销社及社有企业要深入贯彻落实总社关于深化社有企业改革工作部署，进一步干在实处、走在前列，持续扩大交流，学习借鉴系统内先进企业优秀做法，开阔工作新思路，找准改革发展的着力点和突破口，激发内生动力和发展活力，推动现代经营服务网络向城乡全面延伸，以高质量发展引领企业不断做强做优做大，在全面推进乡村振兴、加快农业农村现代化中担负更大使命、作出更大贡献。']</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A24" t="n">
+        <v>129</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>历城十项行动夯实项目服务组织保障</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>2024-02-29</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2024/2/29/art_52_4971787.html</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>['为保证“项目深化年”各项任务落地见效，近日，历城区印发《组织工作“转作风强保障服务项目建设”十项行动》，在思想引领、干部专业化能力提升、项目一线选人用人等十个方面，强化组织保障作用，服务项目建设。', '突出“两个聚焦”明方向、抓落实。“十项行动”聚焦全市“项目深化年”和历城区“作风建设年”部署要求，围绕历城区“4433”工作推进体系，通过系列务实举措，引导党员干部提境界、强本领、转作风，自觉戒除“漂浮症”“庸懒症”“官僚症”“麻痹症”“奢靡症”等顽瘴痼疾，以良好状态、过硬作风、务实举措落实“三看三深化”要求，营造奋发有为、干事创业的政治生态和发展环境。', '围绕“四个要素”见行动、强保障。围绕思想引领，举办中国式现代化理论学习专题培训班，用好基层党校等平台载体，丰富“线上+线下”、分类分层等培训模式，引导党员干部凝聚思想共识，增强行动自觉。围绕组织建设，落实党建系数考核、党建述职等制度基础，持续深化村级班子“回头看”等行动，依托项目指挥部、建设团队、工作小组，规范项目临时党组织建设。围绕干部队伍，实施“共性＋个性”清单化管理，举办“项目深化年”专题培训班，用好“4+2”无任用调研、年轻干部挂职实践锻炼，建立全链条跟踪考察、识别任用机制。围绕人才保障，强化重点产业专项政策创新，丰富“人才贷”“人才保”等金融服务、人才公寓等生活服务，构建线上“智汇历城”+线下“稼轩人才一站式服务窗口”，高质量举办第二届“海右人才节”和“稼轩人才”特色品牌活动。', '抓好“四个提升”提质量、增实效。抓好党建赋能提升，深化抓党建促乡村振兴、“历链升级”、片区党建等工程，以综合党委为抓手，构建组织共建、片区联建的工作模式，以高质量党建推动高质量发展。抓好干部关怀激励提升，开展项目一线党员干部“家访”活动，加强容错纠错、关怀激励、澄清保护、疗养休养等服务保障，分领域、分类别选好攻坚克难“好干部”“好团队”。抓好引才育才提升，构建“领军人才+双创项目+科研平台”驱动模式，用好“飞地引才”“科技副总”“产业教授”“揭榜挂帅”等引才方式，发挥稼轩人才大厦等平台集聚效应，高标准推进“山东省人才引领县域高质量发展试点区”建设。抓好考核体系提升，将“项目深化年”任务指标纳入全区高质量发展综合绩效考核，完善“红旗”激励和“红黄牌”警示考核办法，常态监控督导、定期复盘分析，实现重点项目全生命周期管理、全过程督导推进。']</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A25" t="n">
+        <v>129</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>济南社会科学院年度博士研究生招聘简章</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>2024-01-23</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2024/1/23/art_36743_4969749.html</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>['年，为市政府直属正局级公益一类事业单位。主要职责是：认真贯彻落实党中央关于哲学社会科学工作的方针政策和决策部署，落实省委工作要求和市委工作安排，组织开展哲学社会科学基础理论研究，重点围绕济南经济社会发展开展应用对策研究和济南历史文化研究，承担哲学社会科学重点课题研究、编辑科研著作，组织开展社科领域学术交流活动。', '具有良好的道德品行和适应岗位的身体条件、心理素质，具有招聘岗位要求的专业条件，能够胜任科研工作，服从组织安排；', '附加说明：定向、委培人员应聘的，在报名时须提供定向、委培单位书面同意证明。在职人员应聘，应征得有用人权限部门或单位同意，并提供同意应聘证明。在读全日制普通高等院校非应届毕业生不得应聘。受过刑事处罚的人员、被开除公职的人员、被开除党籍的人员、涉嫌违纪违法正在接受有关机关审查尚未作出结论的人员不得应聘。现役军人及法律规定不得聘用的其他情形的人员不得应聘。被列为失信被执行人的人员不得应聘。', '个工作日后，根据岗位报名情况及工作需要，不定期启动现场资格审核、面试、考察体检程序，岗位招满即止。报名有效期至', '）全日制普通高校应届毕业生须提供由学校出具的应届毕业生证明（加盖院系公章、附成绩单）；', '）海外留学人员应提供经教育部留学服务中心出具的《国外学历学位认证书》、留学回国人员证明、国外学习成绩单、国外博士毕业论文摘要及全文等材料；', '济南社会科学院指定专人负责资格初审工作，在报名期间查看本次招聘报名情况，根据应聘人员提交的信息资料进行资格审查，及时确定初审结果。', '对应聘人员的资格审查工作，贯穿招聘工作的全过程。应聘人员在应聘期间的表现，将作为公开招聘考察的重要内容之一。应聘人员提供的相关材料信息如有不实，一经发现，取消资格。初审合格的应聘人员，按照通知指定的时间、地点，携带报名材料原件和复印件进行现场资格审核。', '面试主要采取业务考察的方式进行，主要考察应聘人员的专业理论素养、科学研究能力及培养发展潜质等。面试的流程为：应聘人员应至少提前一天向济南社会科学院提供个人学术资料（原件）以供面试专家进行查阅，面试开始后进行个人学术陈述、答辩等环节。', '分，达到面试合格分数线的方可进入考察体检范围。面试成绩计算到小数点后两位数，尾数四舍五入，在面试结束后当场公布', '考察。考察可根据岗位条件要求采取多种方式进行，主要考察思想政治表现、道德品行、能力素质、学习成绩、业务能力、遵纪守法、廉洁自律、岗位匹配等情况，以及是否具有应当回避的情形、与招聘岗位的匹配度等情况，并对应聘人员是否符合规定的岗位资格条件、提供的相关信息材料是否真实准确等进行复审。同时按照有关规定对考察对象的人事档案进行严格审核。经考察不宜聘用为事业单位工作人员的，不予聘用。济南社会科学院成立考察工作小组，具体负责考察工作。考察小组要实事求是，全面、客观、公正地评价被考察对象，并写出书面考察意见。', '体检。体检应在县级以上综合性医院进行，体检标准和项目参照公务员录用体检标准及操作手册执行，国家另有规定的从其规定。体检医生与体检者有回避关系的，应予回避。应聘人员在体检过程中有意隐瞒影响聘用的疾病或者病史的，经查实后给予不予聘用处理；应聘人员在体检过程中有串通体检工作人员作弊或者请他人代替体检以及交换、替换化验样本等作弊行为的，取消应聘资格。对按规定需要复检的，不在原体检医院进行，复检只能进行1次，结果以复检结论为准。应聘人员未按规定时间、地点参加体检的，视为放弃。', '体检。体检应在县级以上综合性医院进行，体检标准和项目参照公务员录用体检标准及操作手册执行，国家另有规定的从其规定。', '个工作日。拟聘用人员名单公示后不再递补。公示期间有异议的，济南社会科学院调查处理，并作出结论。公示期满，对没有问题或者经查反映问题不影响聘用的，由济南社会科学院提出聘用意见，按照《事业单位人事管理条例》和管理权限办理人员聘用手续。济南社会科学院和受聘人员按规定签订聘用合同，确立人事关系。受聘人员按规定实行试用期制度，期满合格的正式聘用，不合格的解除聘用合同。', '（一）聘用人员纳入财政拨款事业编制，工资、福利执行国家和我市有关事业单位工作人员标准。', '应聘人员在报名、考试、体检、考察过程中或聘用后查实存在违纪违规行为的，按照《事业单位公开招聘人员暂行规定》《事业单位公开招聘违纪违规行为处理规定》等相关规定进行处理。', '违反公开招聘纪律的工作人员，依据《事业单位公开招聘人员暂行规定》《事业单位公开招聘违纪违规行为处理规定》等相关规定，视情节轻重调离招聘工作岗位或给予处分；违反公开招聘纪律的其他相关人员，按照有关规定追究责任。']</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A26" t="n">
+        <v>129</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>推动物质文明和精神文明协调发展深入学习贯彻习近平文化思想系列述评之二</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>2024-01-24</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2024/1/24/art_76833_4969825.html</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>['推动物质文明和精神文明协调发展是坚持和发展中国特色社会主义的本质特征。实现中华民族伟大复兴，需要物质文明极大发展，也需要精神文明极大发展。', '深入学习贯彻习近平文化思想，要准确把握物质文明和精神文明的辩证关系，夯实人民幸福生活的物质条件，同时不断丰富人民精神世界、涵养民族精神力量，奋力谱写中国式现代化新篇章。', '从“尔滨”爆火出圈到网红城市持续“上新”，从“萌娃大串门”到南北大联欢……2024年伊始，持续攀升的文旅消费热度，升腾着经济发展温度，向世界展现着中国式现代化的新气象。', '“中国式现代化是物质文明和精神文明相协调的现代化。”习近平总书记在党的二十大报告中明确指出，物质富足、精神富有是社会主义现代化的根本要求。', '我们在推进现代化建设中，不仅强调解放和发展社会生产力、促进经济持续快速增长，而且认为精神文明是中国特色社会主义的题中应有之义。离开精神文明进步的单一物质文明发展，不是真正的社会主义现代化，不符合社会全面进步的要求。', '党的十八大以来，习近平总书记高度重视精神文明建设，反复强调坚持“两手抓、两手都要硬”，指出“当高楼大厦在我国大地上遍地林立时，中华民族精神的大厦也应该巍然耸立”。以习近平同志为核心的党中央把精神文明建设放在统筹推进“五位一体”总体布局和协调推进“四个全面”战略布局的重要位置，将物质文明和精神文明建设推向更高水平。', '自信中国，必胜信念更加坚定——打赢人类历史上规模最大的脱贫攻坚战，14亿多人迈入全面小康生活，物质文明和精神文明两大精彩篇章同步书写，极大激发了民族自信心和自豪感。中国人民在历史进程中积累的强大能量充分爆发出来，焕发出前所未有的历史主动精神、历史创造精神。', '自强中国，奋斗精神更加昂扬——成为世界第二大经济体、第一大工业国、第一大货物贸易国的同时，建成世界最大规模教育体系、社保体系，成为最有安全感的国家之一。国家发展“致广大”的壮美画卷里，勾勒出每个人“尽精微”的幸福坐标，凝聚起中华儿女锐意进取、团结奋进的磅礴力量。', '100余年来党带领人民创造的伟大成就、40多年的改革开放取得的跨越式发展、新时代10余年发生的历史性变革都充分证明，两个文明的发展互为条件、相互促进、不可偏废。', '正如习近平总书记指出：“只有物质文明建设和精神文明建设都搞好，国家物质力量和精神力量都增强，全国各族人民物质生活和精神生活都改善，中国特色社会主义事业才能顺利向前推进。”', '“这里不仅有历史文化的传承，而且有高科技创新和高质量发展，代表未来的发展方向”。2023年7月6日，在苏州平江历史文化街区考察时，习近平总书记的一番话含义深刻。', '马克思主义认为，物质文明和精神文明紧密联系、互相影响、互为条件，统一于人的具体实践活动。', '习近平总书记强调，要“以辩证的、全面的、平衡的观点正确处理物质文明和精神文明的关系”。在推进现代化建设过程中，必须把物质文明和精神文明相协调的重大原则要求贯穿始终。', '物质基础“搭台”，精神文化“唱戏”。物质文明的发展，为精神文明的发展提供坚实基础——', '放眼广袤神州，承载着精神文明的公共文化设施建设加快推进。全国已建成公共图书馆超3300个，文化馆、博物馆超1万家。目前所有公共图书馆、文化馆、美术馆、综合文化站和90%以上博物馆都实现了免费开放。', '发展是解决一切问题的基础和前提。没有新中国70多年发展积累的物质基础，没有世界第二大经济体奠定的雄厚实力，就不会有人民群众精神殿堂的巍然屹立，精神文明建设就成了无源之水、无本之木。', '一家家演艺新空间蓬勃涌现，一项项跨界新玩法引领风潮，一批批艺术新作品轮番上演……“花式”创新的文化供给，不断满足人们更多元的精神需求。2023年北京等多地营业性演出场次、收入均创历史新高。', '“仓廪实而知礼节，衣食足而知荣辱”。从“有没有”转向“好不好”，人们对精神文化生活更加看重，对文化建设提出新的更高要求，文化需求高品质、个性化的特点更加明显。', '从《觉醒年代》《长津湖》《山海情》等影视剧中汲取力量，以《领航》《我们走在大路上》等艺术创作激扬豪情……一批批优秀文化作品在产生良好经济效应的同时，凝聚起奋进新征程的强大精神力量。', '以文立心，以文弘业。加快推进高水平文化建设、高质量文化供给，将加快释放消费潜力、扩大经济增长空间，更将进一步增强全民族的向心力、创造力，为我们战胜前进路上一切困难提供强大动能。', '习近平总书记指出，“当今中国正处于实现中华民族伟大复兴关键时期，国家强盛、民族复兴需要物质文明的积累，更需要精神文明的升华”。全面建设社会主义现代化国家，必须以更大决心、下更大力气推动“两个文明”相互促进、协调发展。', '翻开“十四五”规划纲要，展望未来经济社会发展主要目标，“经济发展取得新成效”“改革开放迈出新步伐”位居前列，“社会文明程度得到新提高”紧随其后。', '越是接近目标，越需要准备付出更为艰巨、更为艰苦的努力，越需要增强人民力量、振奋民族精神。', '我们要坚持把高质量发展作为新时代的硬道理，持续夯实民族复兴的物质基础;同时建设好中华民族共有精神家园，以文化繁荣兴盛为全面推进中华民族伟大复兴提供更为主动、更为强大的精神力量。', '强化“硬实力”，建成制造强国、质量强国、贸易强国、航天强国、交通强国、农业强国;着眼“软实力”，建成教育强国、文化强国、网络强国、体育强国……放眼2035年，党的二十大明确的一系列奋斗目标，勾勒出物质文明和精神文明相协调的现代化美好图景。', '新时代新征程的使命任务，要求我们全面增强经济实力、科技实力、综合国力，同时把文化建设作为全面建成社会主义现代化强国的重要内容和重要支撑，为实现第二个百年奋斗目标提供思想保证、舆论支持、精神动力和文化条件。', '顺应人民群众改善生活品质、走向共同富裕的新期待，必须持续增进和改善民生福祉，为人民群众提供多样化、多层次、多方面的精神文化需求，促进物的全面丰富和人的全面发展。', '“我们将不断提高人民物质生活和精神生活水平，做到家家仓廪实衣食足，又让人人知礼节明荣辱。”这是人民向往的美好生活，也是共产党人的庄严承诺。']</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A27" t="n">
+        <v>129</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>山东省五个方面发力推进教育评价改革</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>2024-01-09</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2024/1/9/art_1812_4968745.html</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>['深化考试招生制度改革，重点考察学生分析解决问题能力；坚决破除简单用分数评价学生的做法……近日，省委办公厅、省政府办公厅印发《关于进一步推进教育评价改革工作的若干措施》，将从五个方面发力，深化党委和政府教育工作评价、学校评价、教师评价、学生评价、用人评价改革。', '山东将完善定期研究教育工作机制，健全党政负责同志抓教育工作机制，强化督导评价和考核。将教育评价改革落实情况纳入对各市、县（市、区）政府履行教育职责评价，评价结果及整改情况作为对各市、县（市、区）党委和政府及有关部门领导干部考核、奖惩的重要参考。', '在深化学校评价改革中，山东将完善学校评价体系，优化幼儿园评价，规范中小学评价，改进职业学校评价，完善高等学校评价。其中，推行“基础性指标+发展性指标+创新性指标”评价模式，基础性指标突出落实党的教育方针、依法治校和规范办学，发展性指标突出努力程度、进步幅度，创新性指标突出改革创新、特色亮点。建立不同学校差异化评价机制和生源关联学校评价机制。评价结果作为学校改进提升的重要依据。', '深化教师评价改革，山东将坚持师德师风第一标准，突出教书育人实效，完善教师分类评价，强化一线学生工作。其中，将师德表现作为教师资格定期注册、业绩考核、职称评聘、评优奖励首要要求。健全师德负面清单制度，强化师德失范行为警示通报，师德考核不合格者年度考核应评定为不合格，并取消其在教师职称评聘、推优评先、表彰奖励、科研和人才项目申请等方面的资格。', '幼儿园教师评价突出保教实践，重点评价教师以游戏为基本活动促进儿童主动学习和全面发展的能力。中小学教师评价突出学科育人，把提升课堂思政、教学实施、科学评价等能力作为关键指标。职业院校教师重点评价实践技能水平和专业教学能力“双师”素质，将教师定期到企业实践（培训）和服务产业发展作为重要指标。普通高校教师突出教学、科研、服务等不同导向的评价，考虑不同类型层次和学科领域，设定差异化评价标准。完善与教师分类相匹配的评聘制度，提升精准度和科学性。', '深化学生评价改革，山东将完善综合素质评价，坚持有教无类、因材施教，推行学生各年级学习情况全过程纵向评价、德智体美劳全要素横向评价，强化评价激励、诊断功能，促进学生全面发展、充分发展、差异发展。改革德育评价方式，客观记录学生品行日常表现和突出表现，多维度、多渠道收集学生表现情况。', '完善过程性评价与结果性评价有机结合的学业考评制度，统筹考试、作业、监测和日常评价，持续开展中小学生课业负担监测，强化结果运用。坚决破除简单用分数评价学生的做法。实施中小学学生艺术素养测评，稳步推进艺术类科目纳入中考，艺术技能测试结果不作为美育评价的主要依据，高校学生修满至少2个公共艺术学分方能毕业。', '探索建立拔尖创新人才早期发现、特殊遴选机制，重点考察学生创新潜质和实践能力。探索实施个性化教育的拔尖创新人才培养制度，加强高等教育与基础教育在拔尖创新人才培养方面的衔接。将学生综合素质评价结果作为中高考录取的重要参考，全面实行普通高中和中等职业学校（含技工院校）同批次录取，逐步改变单纯以考试成绩评价录取学生的倾向。健全分类考试、综合评价、多元录取的高校招生机制。', '按照要求，山东将深化用人评价改革，党政机关、事业单位、国有企业要带头扭转“唯名校”“唯学历”的用人导向。落实平等就业要求，坚决克服各类形式的就业歧视。', '山东将强化组织实施，建立落实机制，对教育生态问题突出、造成严重社会影响的，依规依纪依法问责追责。支持各市、各级各类学校稳妥开展教育评价实践探索，组织实施重点领域和关键环节评价改革项目或试点。统筹各类教育评价活动，减少多头评价、重复评价，规范和减少进校园活动，减轻基层和学校负担。']</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A28" t="n">
+        <v>129</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>市外办关于公开年度普法数据及履职情况的报告</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>2024-02-23</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2024/2/23/art_22234_4971417.html</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>['按照济南市《关于实行国家机关“谁执法谁普法”普法责任制的实施意见》《济南市国家机关“谁执法谁普法”履职报告评议活动实施办法》等要求，现将本单位20', '办党组对普法工作高度重视，紧紧围绕服务加快建设“强新优富美高”新时代社会主义现代化强省会中心工作以及服务创建全国法治政府建设示范市任务目标，对市外办2023年普法工作进行紧密部署。一是以服务“项目突破年”为重点，着力提高普法针对性和实效性，不断加强普法宣传、普法学习和法治宣传教育，进一步提升全办干部职工的法治意识和依法办事能力。二是坚持精准普法，加强外事法规政策培训和普法宣传教育，谋划开展外事纪律外事政策进机关进企业进校园进基层活动，重点做好海外领事保护、对外交往等方面法律、政策、规定的宣传普及。三是加强工作人员学法考法，重点组织新入职公务员、新提任领导干部进行学法考法练习，组织法治能力测试，不断增强全市外事干部尊法学法守法用法的意识和能力。', '学习习近平总书记关于黄河流域生态保护和高质量发展的重要论述，学习在黄河保护法实施座谈会上的讲话等内容。', '邀请泰和泰（济南）律师事务所党总支书记、执行主任张玉亮就“习近平法治思想的发展脉络和核心要义”开展法治讲座。', '023年10月20日，组织开展习近平法治思想讲座，邀请山东众成清泰（济南）律师事务所副主任周家魁以“奋进新征程，法治筑根基”为题授课，26人参加。', '2023年12月4日，组织开展“国家宪法日”暨“宪法进机关”主题活动，市外办全体党员干部参加活动并进行宪法宣誓。', '2023年9月1日，以《中华人民共和国领事保护与协助条例》正式实施为契机，组织开展“安全出国境 领保伴你行”涉外安全法治专题宣传，赴社区、学校等举办多场宣传活动，并广泛开展线上宣传，为市民安全出境提供行动指南，进一步提升市民海外防范风险能力。', '按照相应时间节点分别开展习近平法治思想宣讲、宪法、民法典、优化法治营商环境、全民国家安全教育日、黄河保护法等主题宣传活动，推送相关信息21条，']</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A29" t="n">
+        <v>129</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>济南市供销合作社关于公开年度普法数据及履职情况的报告</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>2024-02-19</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2024/2/19/art_4115_4971175.html</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>['按照济南市《关于实行国家机关“谁执法谁普法”普法责任制的实施意见》《济南市国家机关“谁执法谁普法”履职报告评议活动实施办法》等要求，现将本单位2023年度普法工作履职情况报告如下：', '（一）加强普法工作组织领导。市供销社高度重视法治建设工作，成立依法治社领导小组，市供销社党组书记、理事会主任任组长，班子成员任副组长，各处室负责人任成员。严格落实法治建设主体责任，主要负责同志亲自谋划部署、亲自推动落实依法治社工作，定期调度法治建设情况，结合实际，及时研究法治工作，为助力加快建设“强新优富美高”新时代社会主义现代化强省会提供法治保障。', '（二）制定普法责任清单和普法规划、年度计划。根据市依法治市办《2023年济南市普法依法治理工作要点》，结合全市供销合作社系统开展法治宣传教育的第八个五年规划（2021-2025年），制定2023年度普法宣传工作计划、普法责任清单，明确普法内容、措施办法和责任主体，明确不同阶段普法工作任务和要求，确保单位普法工作有计划、有重点开展，推动形成普法宣传常态化机制。充分依托“学习强国”、“灯塔党建在线”等平台开展法律知识网络学习，定期公开普法数据及履职情况。', '1、2023年8月8日，党组理论学习中心组开展学习《坚定不移走中国特色社会主义法治道路为全面建设社会主义现代化国家提供有力法治保障》《法治政府建设实施纲要（2021—2025年）》《中华人民共和国黄河保护法》。', '2、2023年9月20日，党组理论学习中心组开展学习《中国共产党章程》《中国共产党党内重要法规汇编》。', '3、2023年10月30日，党组理论学习中心组开展学习《习近平总书记关于国家安全的相关重要论述》《习近平总书记关于安全生产、应急管理、防灾减灾救灾等工作的系列重要论述》。', '（二）组织开展国家工作人员学法考法活动7场次，其中法治讲座4次，参与学习232人次，法律知识考试3场次，参加考试82人次。主要活动具体情况：', '1、2023年3月7日，市供销社组织开展妇女权益保障法专题讲座，70人参加，学习《中华人民共和国妇女权益保障法》内容。2023年6月28日，市供销社组织开展“依法治社”法治讲座，52人参加，学习《企业经营管理的刑事法律风险》内容。2023年10月13日，市供销社组织开展“习近平法治思想专题讲座”，58人参加，学习《坚持习近平法治思想完善法治政府建设——兼谈依法治社》。2023年11月14日，市供销社组织开展“习近平法治思想专题讲座”，52人参加，学习《坚持以习近平法治思想为指引努力建设更高水平的法治中国》。', '2.2023年4月3日，市供销社组织开展保密知识测试，重点考察机关工作人员对保密工作重视程度及对保密知识掌握情况，38人参加。通过法律知识考试，提升了机关工作人员保密业务知识水平，增强了保密防范意识。2023年9月28日，组织开展安全生产法知识考试，16人参加，重点考察社属企业主要负责人对安全生产工作职责、企业安全生产制度、应急演练等知识掌握情况，通过法律知识考试，增强了社属企业主要负责人责任意识和安全意识，树牢“群众过节、我们过关”的思想。2023年12月19日，组织开展法律知识考试，重点考察机关工作人员掌握相关法律法规内容情况，28人参加，通过法律知识考试，提高了机关工作人员学习法律知识的积极性和自觉性，检验了大家学习法律知识的成果，营造了建设法治政府的良好氛围。', '1、2023年3月14日，市供销社济南英雄山文化市场管理集团有限公司联合市中区市场监督管理所、四里村街道办事处、四里村派出所和济南农商银行组织开展“3·15国际消费者权益日”主题宣传活动，30人参加活动。', '（一）开展以案释法活动。市供销社高度重视廉政警示教育，召开党风廉政警示教育大会，深化以案为鉴、以案示警、以案明纪，运用身边人身边事和典型案例教育引导全体党员干部坚定理想信念，增强拒腐防变能力。2023年，组织党员干部到廉政教育基地开展现场教育2次、组织观看警示教育片及反腐倡廉微视频10余部，市供销社在市直机关开展“学党章党纪 学传统文化”活动评选中入选典型活动名册“三十优”。']</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A30" t="n">
+        <v>129</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>领导干部解读济南市巡游出租汽车经营服务管理实施细则</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>2023-12-22</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2023/12/22/art_2607_4967060.html</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>['主要负责人介绍：曹殿军，济南市城乡交通运输局党组书记、局长。主持市交通运输局全面工作。', '2023年12月19日，济南市人民政府办公厅印发《关于印发济南市巡游出租汽车经营服务管理实施细则的通知》（以下简称《巡游车细则》），市交通运输局党组书记、局长曹殿军同志现将文件解读如下：', '答：客运出租汽车行业与广大人民群众的交通出行息息相关，是关系到城市文明窗口形象的服务性行业。近年来，在新时代新形势下，出租车行业面临诸多问题和挑战，制约了行业的健康发展。2022年12月1日，《济南市客运出租汽车管理条例》正式实施，通过立法促进出租车行业融合发展、加强行业规范管理。《巡游车细则》作为指导巡游车行业发展的规范性文件，将对加强出租车行业监管、完善出租车行业制度体系、强化巡网融合、促进和规范出租车行业有序发展起到重要作用。', '答：在起草过程中，依据国家、交通运输部等有关规定，学习借鉴相关城市在巡游车监管服务等方面的成熟做法和先进经验，通过座谈、调研、实地考察、函调、网站公开征求意见等多种方式，广泛听取巡游车经营者、从业人员、公众及相关部门意见，结合我市出租车实际情况，在深入调研论证基础上，多次组织专题会议，反复研究修改，并通过市政府常务会议研究审议，最终形成了《巡游车细则》。', '二是对巡游车车辆经营权管理进行细化。《巡游车细则》对新增车辆经营权、存量车辆经营权、莱芜区钢城区确权车辆经营权以及车辆经营权的核减、收回等做出规定。将出租汽车服务质量信誉考核结果与车辆经营权指标挂钩，对存在重大服务质量问题、重大安全生产责任事故、严重违法经营行为或者服务质量信誉考核不合格等情形的，依法依规采取核减或收回车辆经营权的惩戒措施。', '三是鼓励巡网融合发展。《巡游车细则》指出“鼓励巡游车经营者与网约平台开展合作或者自建网约平台，实现巡游车的持续发展。巡游车驾驶员通过网络预约方式揽客的，可以按照计价器显示金额收取运费，也可以按照网约车计价规则收取运费”，为巡网融合发展提供支持。']</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A31" t="n">
+        <v>129</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>领导干部解读济南市网络预约出租汽车经营服务管理实施细则</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>2023-12-22</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2023/12/22/art_2607_4967057.html</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>['主要负责人介绍：曹殿军，济南市城乡交通运输局党组书记、局长。主持市交通运输局全面工作。', '2023年12月19日，济南市人民政府办公厅印发《关于印发济南市网络预约出租汽车经营服务管理实施细则的通知》（以下简称《网约车细则》），市交通运输局党组书记、局长曹殿军同志现将文件解读如下：', '答：客运出租汽车行业与广大人民群众的交通出行息息相关，是关系到城市文明窗口形象的服务性行业。近年来，在新时代新形势下，出租车行业面临诸多问题和挑战。2020年8月21日，济南市人民政府办公厅印发《济南市网络预约出租汽车经营服务管理实施细则》，对促进和规范济南市网约车行业发展、提升服务质量起到了重要作用。2022年12月1日，《济南市客运出租汽车管理条例》正式实施，通过立法促进出租车行业融合发展、加强行业规范管理。为贯彻落实《济南市客运出租汽车管理条例》，更好满足社会公众多样化出行需求，促进出租汽车行业和互联网融合发展，结合我市实际，印发了《网约车细则》。', '答：在起草过程中，依据国家、交通运输部等有关规定，学习借鉴相关城市在网约车监管服务等方面的成熟做法和先进经验，通过座谈、调研、实地考察、函调、网站公开征求意见等多种方式，广泛听取网约车经营者、从业人员、公众及相关部门意见，结合我市出租车实际情况，在深入调研论证基础上，多次组织专题会议，反复研究修改，并通过市政府常务会议研究审议，最终形成了《网约车细则》。', '答：一是放开网约车平台公司经营区域。在《网约车细则》中，网约车平台公司经营许可由市交通运输局统一审批，经营区域为济南市行政区域，从而简化网约车平台公司跨区县运营的审批流程。二是推动长清区与主城区统一经营区域。将长清区网约车道路运输证与主城区统一经营区域，网约车应当在道路运输证载明的经营区域内运营。三是对聚合平台做出相应规定。对聚合平台在接入车辆和驾驶员管理、安全运营、处理投诉、数据接入等方面做出规定，为强化聚合平台监管提供重要依据。四是完善网约车行业准入退出机制。对网约车平台公司出现重大服务质量问题、重大安全生产责任事故、严重违法经营行为或者服务质量信誉考核不合格等情形的，依法依规采取吊销经营许可的惩戒措施。网约车驾驶员有交通肇事犯罪、危险驾驶犯罪记录，有吸毒记录，有饮酒后驾驶记录，有暴力犯罪记录等情形的，依法撤销从业资格证。']</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A32" t="n">
+        <v>129</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>市政府党组召开扩大会议</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>2023-12-21</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2023/12/21/art_1861_4965376.html</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>['12月20日，市政府党组召开扩大会议，传达学习习近平总书记对低温雨雪冰冻灾害防范应对工作、对甘肃临夏州积石山县6.2级地震作出的重要指示，在广西考察时的重要讲话等近期重要讲话重要指示精神，研究贯彻落实意见。市委副书记、市长、市政府党组书记于海田主持会议并讲话。', '会议学习了《党政领导干部考核工作条例》，强调，要严格对标要求，带头抓好落实，持续优化考核标准体系，全面提升考核质效，深化考核结果运用，树立讲担当、重担当、改革创新、干事创业的鲜明导向。']</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A33" t="n">
+        <v>129</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>济南市财政局济南市政府采购中心联合举办评审专家劳务报酬云支付座谈会</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>2024-04-10</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2024/4/10/art_81032_4974304.html</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>['为持续优化政府采购领域营商环境，解决政府采购活动中专家评审费支付之后无票据、支付标准不统一、远程异地评审费发放不便等问题，市财政局联合市政府采购中心组成专题调研组，先后赴黔南州、杭州、厦门等地考察学习，结合济南实际，形成初步方案。近日，市财政局、市政府采购中心联合举办评审专家劳务报酬“云支付”座谈会。交易一处、数字化推进处，中信银行有关人员参加座谈会。', '座谈会上，中心详细介绍了黔南州、厦门、杭州等地专家费线上支付情况，并提出依托预算一体化和政府采购全流程电子化平台，开发在线支付系统以规范专家评审费支付问题的构想。经过充分讨论，会上解决了资金支付、系统对接、系统开发的难点问题，有力推动了评审专家劳务报酬“云支付”的实现。', '此次评审专家劳务报酬“云支付”将以集中采购项目为突破点，以点带面，全面铺开，最终架起全市采购预算单位与评审专家的支付桥梁，有效解决评审专家无法及时领取劳务报酬、了解支付进度、精确匹配项目信息等问题。通过推动“专家评审费由‘人工计费—线下现金发放’向‘智能计费—线上电子化支付’转变，实现劳务报酬发放标准可核查、流程可追溯、数据可留痕，提升评标专家劳务报酬电子化支付、透明化服务水平，有效防范劳务报酬发放过程中存在的廉政风险。', '下一步，中心将按照会议拟定事项和时间，抓好落实，督导进度，争取评审专家劳务报酬云支付早日实现，为各方交易主体提供更加高效、优质的交易服务，持续优化营商环境，助力全市公共资源交易高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A34" t="n">
+        <v>129</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>山西省大同市党政代表团来济考察</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>2024-04-24</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2024/4/24/art_1861_4974966.html</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>['4月23日，山东省委常委、济南市委书记刘强在舜耕山庄会见了由山西省委常委、大同市委书记卢东亮率领的大同市党政代表团一行。', '刘强代表济南市委、市政府对大同市党政代表团来济表示欢迎。他说，近年来，大同市立足资源禀赋，坚定不移推动转型发展，经济社会发展取得了长足进步。当前，济南市正全面落实习近平总书记对山东、对济南工作的重要指示要求，加快建设“强新优富美高”新时代社会主义现代化强省会。双方在产业发展和文旅融合等方面有很多契合点和互补点，未来合作空间广阔。希望两市进一步加强沟通对接，深化交流互鉴和务实合作，实现互利共赢发展。', '卢东亮对济南经济社会发展取得的成绩给予高度评价。他说，近年来，济南市紧紧围绕高质量发展的首要任务，加快推进新旧动能转换，多项工作走在了前列。当前，大同市正围绕科技（先进制造业）、能源、农业、文旅消费“四大赛道”谋划新产业，加快推动高质量转型发展。希望以此次考察交流为契机，进一步深化交流合作，学习借鉴济南市的好经验、好做法，推动经济社会发展再上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A35" t="n">
+        <v>129</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>所高校今年在鲁开展本科综招</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>2024-04-16</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2024/4/16/art_1861_4974495.html</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>['4月15日，省教育厅发布2024年普通本科高校综合评价招生试点工作相关安排，今年共有山东大学、中国海洋大学、中国石油大学（华东）等11所高校在鲁开展本科综合评价招生试点。', '2024年在鲁开展本科综合评价招生的高校有山东大学、中国海洋大学、中国石油大学（华东）、哈尔滨工业大学（威海）、青岛大学、山东师范大学、山东科技大学、青岛科技大学、山东财经大学、浙江大学、华南理工大学共11所。招生专业由各试点高校综合考虑专业优势、师资力量、发展目标等因素自主确定，原则上安排在特色明显、优势突出或国家紧缺急需专业。', '已经通过山东今年夏季高考报名并符合试点高校具体报考条件的考生均可报考综合评价招生。考生须按照要求分别参加山东夏季高考统一报名和试点高校综合评价招生报名，通过保送、高职（专科）单独招生和综合评价招生被提前录取的考生，不得报名。', '报考要求应当对考生综合素质评价设置前置条件，将学生社区服务、社会实践经历、考察探究活动、研究型学习情况和自主选修学分学习情况等作为资格审查的必要内容和进入面试的必要条件。', '学校考核方式包括对考生的综合素质评价、测试（面试）。学校素质测试（面试）安排在高考结束后、高考成绩公布前进行。试点高校根据考生综合素质评价情况、测试（面试）成绩，按照不超过招生计划1:6的比例确定入围学生名单。', '在志愿填报和录取层面，本科高校综合评价招生安排在普通类提前批进行。入围考生应在普通类提前批次填报综合评价招生试点高校志愿，若同时获得多所高校入围资格，只能选择一所高校填报。不填报或填报未入围综合评价招生试点高校志愿，视为放弃该项招生资格，但不影响其他志愿录取。填报专业志愿须在该项招生公示的专业中选择，否则视为无效。', '考生综合成绩由夏季高考总成绩和高校考核成绩组成，其中夏季高考总成绩占比原则上不低于50%。省招考院根据试点高校入围考生名单、考生志愿及该校录取最低控制分数线，分试点高校一次性全部投档。录取最低控制分数线按高考成绩由试点高校自行确定，但不得低于普通类一段线。']</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A36" t="n">
+        <v>129</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t>山东济南法务中心即将交付使用</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>2024-04-08</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2024/4/8/art_1861_4974034.html</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>['日前，从市司法局获悉，位于历下区中央商务区核心区的山东（济南）法务中心项目已进入竣工验收阶段，将于4月底前交付使用，这标志着山东（济南）中央法务区建设进入了快速实施推进阶段。', '近日，济南市司法局与历下区委、区政府围绕共谋共建山东（济南）中央法务区进行磋商，并就深化合作、一体推进签署战略合作协议。', '为深入贯彻落实习近平法治思想，更好地融入黄河重大国家战略，充分发挥济南区位优势，进一步优化法治化营商环境，2023年市委、市政府提出建设山东（济南）中央法务区。', '从国内外建设中央法务区的实践看，建设中央法务区是城市软实力的重要体现，在推进城市发展中发挥了不可替代的作用。完备的法律服务生态体系可以在吸引外资、创造就业、培育人才、提供服务等方面形成竞争优势，优化营商环境。同时，高效、高质、集聚的法律服务平台，也有利于改善法律服务业的供需现况，形成优质法治生态圈，推进法治城市、法治政府、法治社会一体化建设。', '经十东路沿线是济南法律服务业最为集中的区域，全市近半数的头部法律服务机构集中在CBD片区以及周边，区域内的法律服务业发展已经初具规模。中央商务区、中央科创区、龙奥行政片区均集中于此，绿地国际金融中心、华润大厦、黄金时代广场等商务中心，山东大学齐鲁软件学院、济南量子技术研究院、浪潮集团等科创资源都落户在这里，商务、金融、科创、行政资源丰富，为中央法务区建设打下了良好的基础。', '干事创业需要保持历史耐心、具有长远眼光，秉持一张蓝图绘到底的决心和信念。在充分学习借鉴外地成功经验的基础上，我市结合工作实际，通过多方论证、实地考察，对中央法务区的定位、概念、内涵有了更加清晰的认识，最终确定了“一心一轴三园区”的建设思路和发展规划。其中：“一心”是山东（济南）法务中心，位于中央商务区核心区A1地块，是整个中央法务区的“核心载体”和“大脑中枢”；“一轴”是以经十路为“发展主轴”；“三园区”分别是依托中央商务区建设商务金融法务区，依托龙奥行政片区建设政务服务法务区，依托中央科创区建设科创发展法务区。总规划面积8.2平方公里，东至舜华路，西至华阳路，南至龙兴路，北至工业南路。', '目前，作为中央法务区“核心载体”的山东（济南）法务中心已进入竣工验收阶段，预计今年4月底前完成交付。山东（济南）法务中心大楼地上22层，建筑面积5万平方米。大楼的5层及以下主要承载公共法律服务职能，6层以上主要入驻各类高端法律服务机构。作为中央法务区的核心载体、展示平台和服务枢纽，法务中心将融合律师、公证、司法鉴定、调解、仲裁等多种法律服务业态，承载法律服务、行业管理、法治研究、人才孵化等多项功能，全面构建服务、管理、创新三位一体的法务工作体系。', '栽下梧桐树，引得凤凰来。为共同推进山东（济南）中央法务区建设，市司法局先后出台《山东（济南）中央法务区规划建设方案》《山东（济南）法务区建设方案》，历下区委区政府就支持机构落户、吸引人才、推动行业发展等方面出台一系列优惠政策，全力支持山东（济南）中央法务区建设。', '市司法局党委书记、局长李强表示，我市将围绕“打造要素齐全、新质高效、示范引领的一流法律服务高地”的建设定位，按照“一年起步、三年见效、五年成势”的发展目标，分阶段推进实施。第一阶段到2024年底，落户一批高能级、国际化法律服务机构，打造区域性法律服务“新高地”。目前，已经有多家国内省内头部法律服务机构签约入驻或有意向入驻法务中心。第二阶段到2026年，聚集大批法律相关就业人才，搭建综合性法律服务平台，加速成为全国法律服务“新地标”。第三阶段到2028年，形成集公共法律服务、法治交流合作、法治教育培训等多功能于一体的法治创新聚集区，打造具有国际影响力的法治“新引擎”。整个项目建成后，园区法律服务机构将发展到250家，法律服务从业人员发展到7500人，主营业务收入将突破45亿元。']</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A37" t="n">
+        <v>129</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
           <t>济阳区大力推动特医食品产业发展</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>2023-11-30</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2023/11/30/art_1861_4963759.html</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>['打造特医食品科技创新中心、特医食品产业示范区、大健康产业发展特色区、新旧动能转换新高地……近日，从济阳区特医食品产业发展促进服务中心获悉，即将过去的2023年，济阳区委、区政府紧紧围绕“12345”发展思路，凝心聚力、积极作为，加压奋进、攻坚克难，大力发展特医食品产业，取得了明显成效。初冬的暖阳下，黄河水缓缓流淌，岸边，一座崭新的特医食品城正昂首崛起。', '近年来，济阳区大力发展食品产业，食品工业产值占全市同行业的三分之一，占全区工业产值的50%以上，食品产业达到百亿级规模，是全国食品工业名城和“中国营养健康食品产业城”。', '其中，中国（济南）特医食品城是济南市特医食品产业发展的重要载体，规划面积18.6平方公里，定位以特医食品为引领，重点突破特医食品、保健（功能）食品等领域，以构建特医食品产业垂直生态体系为主线，纵向贯通特医食品研发产业化通道，打造研发、中试、产业化、销售流程完整的产业链条，构建纵横交融的立体产业生态，形成产业集聚、生态良好、特色鲜明的特医食品专业园区。', '园区现在情况如何？做了哪些工作？未来目标是什么？近日，济阳区政协副主席、区特医食品产业发展促进服务中心主任孙经周介绍了相关情况。', '今年3月22日—25日，第七届中国特殊食品大会在济南落下帷幕。济阳区成功参与筹办大会并被授予“中国特殊食品产业集群示范基地”称号，同时积极参加绿色低碳高质量发展泉城论坛暨海峡两岸产业合作区建设推进会。', '一年来，济阳区积极完善特医食品产业体系，特医食品城影响力日益提升。明确提出以特医食品为引领的“1+N+1”产业发展体系，在以特医食品为主导产业的基础上，大力发展老年食品、运动食品、保健（功能）食品、婴幼儿配方食品、宠物食品、关键功能性原料制造等产业，丰富园区的产业链群。按照全域发展、重点突破的工作思路，先期规划建设传统食品产业提升区和特殊食品产业集聚区两大片区，南北两片区双轨制并行，共同推进园区经济发展，取得了可喜的成绩。', '在第七届中国特殊食品大会上，国家、省、市领导分别对济阳发展特殊食品产业情况给予充分肯定。与会领导、嘉宾及企业分别到济阳区进行考察调研，展厅窗口展示作用发挥明显，为招商引资提升影响力起到了很好的宣传作用。', '嘉能嘉食品项目、亚西亚药业营养与健康项目接续开工，拉开了特医食品城园区项目建设序幕。', '一年来，济阳区积极服务企业，特医食品城建设开始破题。发扬“店小二”精神，为项目提供全流程“保姆式”服务，借助合规园区批复的东风，项目建设全面提速。按照项目推进流程，对接区自然资源局、区公用事业中心、区行政审批局等政府相关职能部门和企业，随时了解项目进展情况，协助企业解决难题，推动各环节有序开展，环环相扣，无缝链接。针对新签约项目，为帮助企业了解审批流程和“拿地即开工”政策，保障项目有序开展，主动靠前服务，积极对接开发区建服局，多次召开项目推进会，制定项目推进计划，政府与企业两路并进，加快项目建设进度，晏龙国科项目已经完成第二次征地公告，征地资料正在组卷，准备上报，规划设计也正在修改完善中。', '为建设特医食品产业高端集聚地，济阳区倾力打造了全国首个以特医食品为主导产业的园区——中国（济南）特医食品城，园区规划以来，多次征求行业专家、意向企业、园区运营方的意见，不断完善规划设计。目前，项目一期已完成规划设计，商业配套设施建设用地已进入招拍挂阶段。', '5月7日—8日，济阳区特医食品产业发展促进服务中心工作人员赴北京参加2023中国特医食品营养与健康产业大会，积极主动与企业代表交流互动、推介济阳。会后，广东君悦特医投资部负责人到中国（济南）特医食品城参观考察，多家特医企业表达了到济阳参观考察的意向。', '7月14日—15日，参加2023特殊医学用途配方食品生产企业创新峰会，认真听取学术专家、业内人士的报告，掌握最新行业动态，深刻把握行业大势，并实地走访西安力邦临床营养股份有限公司，学习特医食品研发生产要点、深入了解头部企业发展现状。', '9月1日，赴上海走访紫燕食品总部，邀请企业来济阳投资兴业；考察上海东方龙商务集团，探索政府借助第三方平台数据库进行精准招商、开展共同招商的新路径。', '近期，连续参加第十二届FSMP中国特医食品大会、第八届中国特殊食品大会，深入对接参会企业、洽谈合作，全力以赴冲刺年底收官和明年“开门红”。目前，招商引资已经超额完成签约项目任务。', '同时，与中国营养保健食品协会、山东省食品药品检验研究院签订战略合作框架协议书；根据国内产业发展实际，今年聚焦益生菌等特医食品原料基础行业，进行精准招商，先后洽谈济为功能性食品、中科嘉亿、晏龙国科益生菌、众益堂特医食品产业链等项目。济为功能性食品、众益堂、晏龙国科项目已正式签约，其中，晏龙国科在签约投资1.5亿元基础上，进一步综合考量，决定将投资额度增加至5亿元，产业集聚效应进一步凸显。中心还借助乾隆集团，积极开展对台招商，现已与30家企业签订意向协议。', '邀请省食药检院到金晔食品考察指导，现场提供技术指导，助力企业实现从传统食品向高附加值食品的转型升级；形成省食药检院—企业合作模式，从材料完整规范到现场核查要点等方方面面为企业把关，源头上解决企业后顾之忧。已为众益堂项目提供了车间规划、配方设计、法规解读等指导、咨询，帮助企业开发产品、达产达效，提振了企业来济投资建厂的信心。', '一年来，济阳区积极沟通对接，平台建设不断创新。发挥济南特医食品产业技术研究院科技平台服务功能，加大与山东省食品药品检验研究院（省食药检院）、山东华泰营养健康产业技术研究院等机构的合作，为企业发展提供技术研发、科研成果转化、产业项目孵化等技术支撑。充分发挥济阳区“特殊食品产业集群示范基地”的先行先试作用，积极对接国家省市相关部门，在加快特医食品生产经营审批流程上形成有效机制，打造发展特医食品产业的政策洼地。', '对在谈项目，坚持盯紧靠牢，确保尽快签约落地；对签约项目，协助办理审批手续，助力企业早日开工建设；对在建项目，实行问题定期会商、部门配合作战，全面进驻施工现场，确保尽快建成投产；对投产项目，支持龙头企业整合资源、扩大优势，支持中小企业上规入库、扩能升级，支持本土企业升级品牌、做大做强。', '济阳区坚持“经济发展服务生”理念，配齐企业服务专员，坚持一个项目、一名领导、一套专班、一个计划、一抓到底。坚持问题导向、目标导向、结果导向，聚焦各项重点任务，强化责任担当，切实形成上下联动、横向协作、齐抓共管的工作格局，持续推动营商环境优化升级。', '下一步，济阳区将不等不靠、主动作为，锚定发展思路不动摇，聚精会神抓好项目招引、项目建设、平台建设三项工作，中国（济南）特医食品城实现攻坚突破，打造特医食品科技创新中心、特医食品产业示范区、大健康产业发展特色区、新旧动能转换新高地。']</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A38" t="n">
+        <v>129</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>陕西省供销社一行来济南调研</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>2023-12-13</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2023/12/13/art_4115_4964799.html</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>['12月13日上午，陕西省供销合作总社党组成员、理事会副主任王万庆一行10人来济南章丘区考察调研。山东省供销社党组成员、理事会副主任张荣庆，济南市供销合作社党组书记、理事会主任黄波陪同调研活动。山东供发集团、章丘区供销社有关负责同志参加了调研。', '调研活动中，陕西省供销合作总社考察调研组一行实地考察了山东鲁供丰农农业服务有限公司、章丘区高官寨为农服务综合体和鲁供丰农农业服务有限公司相公庄综合农事服务中心，参观公司土地托管、烘干仓储、农资供应、智慧农业等现场，座谈了解和探讨交流企业发展、开展“土地股份合作+全程托管服务”及保障国家粮食安全等情况。参观基层供销社为农服务中心、供销超市、农民专业合作社，详细了解基层供销社服务农民生产生活、搭建农业社会化服务平台，加快构建综合性、规模化、可持续的为农服务体系的做法成效，并对“把为农服务中心建在产业链上”以及开展土地托管、解决土地撂荒等做法给予高度评价。考察调研组一致认为，济南市供销社系统深化综合改革和贴心为农服务的经验做法可复制、可推广，非常值得学习借鉴。']</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A39" t="n">
+        <v>129</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>回头看推动钢好交易向前进</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>2023-12-13</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2023/12/13/art_81034_4968913.html</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>['近期，济南公共资源交易中心组织召开主题教育问题检视座谈会暨2023年上半年工作交流会，董怀敏主任在会议中全面总结了上半年全市公共资源交易工作情况，全面检视了存在的问题不足，并制定了切实可行的整改方案。', '此次会议，济南公共资源交易中心对钢城分中心上半年取得的成绩从三个方面给予了充分肯定。一是资源配置总量。分中心交易额同比增长前三的是：钢城分中心197.91%、章丘分中心158.13%、商河分中心77.47%；二是要素配置扩容。平台资源配置队列加入了一批新面孔，平台体系得到了进一步丰富和完善，农业育种、种业工程等公共资源和要素资源进场交易。山东未来畜禽种业国家现代农业产业园项目在钢城分中心进场交易，总投资额约21亿元，对济南打造“北方种业之都”，山东打造现代农业强省都有重要推动作用；三是改革创新提质。钢城分中心在推动公共资源交易服务向基层延伸方面，取得了重大突破。6月12日，钢城区棋山国家森林公园孙家岭村200亩土地经营权流转在钢城分中心完成网络竞价交易，交易额44万元，溢价率10%，实现我市农村集体产权进场交易零突破,标志着钢城分中心在服务乡村振兴国家战略方面迈出了坚实步伐。', '会后，钢城分中心组织召开上半年工作“回头看”座谈交流会，全面梳理上半年工作中取得的成绩和存在的问题，对取得的成绩总结经验，力争再上新台阶；对存在的问题进行深入剖析，严格整改落实到位。', '“回头看”是为了“向前进”。座谈会上，钢城分中心负责同志对下半年工作从三个方面提出了指导意见。一是要继续完善农村集体产权试点工作并拓展新思路。进一步总结好农村集体产权纳入公共资源交易交易平台经验做法，完善国有产权拍卖流程，并积极配合市中心相关部门在全市范围内推广学习；二是继续推进服务标准化和远程异地评标工作常态化。进一步优化电子见证、全流程视频档案、专家自助抽取、智慧交易场所等服务，落实建章立制，以标准化建设引领规范化服务，实现“事事有标准可依，处处有标准规范，人人按标准履职”；进一步拓展远程异地评标“朋友圈”，积极探索跨省市异地评标，真正实现远程异地评标工作常态化。三是继续优化营商环境和提升服务保障水平。强化全周期、全流程服务。对照《济南市服务重点项目高质量发展十项举措工作任务台账》，以全力为市场主体做好进场前各项资料和有关事项准备工作提供指导帮助，实现“午间见证不断档，夜间有需不离位，在线服务不打烊”，做到进场登记“随来随办”，公告公示“随定随发”，提升各市场主体满意度。加强能力建设，通过集中学习培训、岗位大练兵、外出学习考察等方式，提升干部职工专业技术能力、组织协调能力、推动落实能力。', '凡事成之，必在干之。下半年，钢城分中心将主动作为，开拓创新，进一步优化工作思路，强化服务意识和创新意识，全力打造好“钢好交易 与廉同行”品牌，为重点项目快速落实落地“保驾护航”，为优化清廉、公开、公平、公正、公信的公共资源交易营商环境再创新佳绩。']</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A40" t="n">
+        <v>129</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>市委常委会召开会议</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>2023-11-14</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2023/11/14/art_1861_4962677.html</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>['11月13日，市委常委会召开会议，传达学习习近平总书记在北京河北考察灾后恢复重建工作时的重要讲话精神和向2023年世界互联网大会乌镇峰会开幕式发表的视频致辞精神，研究贯彻落实意见；研究审议有关工作事项。', '会议指出，习近平总书记的重要讲话、重要指示，具有很强的政治性、针对性和指导性，为我们做好工作提供了根本遵循，要结合济南实际，认真抓好贯彻落实。要统筹抓好民生保障各项工作，加快完善城市基础设施，做好冬季供暖保障，扎实办好民生实事，关心关注困难群众，切实兜牢民生底线。要统筹推进网络安全和信息化工作，加快数字济南建设，营造清朗的网络空间。', '会议学习了《党政领导干部考核工作条例》，强调，要严格执行条例要求，突出政治标准，凸显实干实绩导向，坚持全方位、立体化考核，严格落实“三个区分开来”，强化干部考核结果运用，督促引导干部更好履职尽责。', '会议听取了关于2023年市直机关党建工作情况的汇报，强调，要牢牢把握政治机关属性，围绕中心服务大局，推动机关党建和业务工作互融互促，切实建强基层组织“战斗堡垒”，推动全市机关党建工作再上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A41" t="n">
+        <v>129</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
           <t>习近平在广西考察时强调解放思想创新求变向海图强开放发展奋力谱写中国式现代化广西篇章</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>2023-12-17</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2023/12/17/art_22232_4965073.html</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>['习近平在广西考察时强调 解放思想创新求变向海图强开放发展 奋力谱写中国式现代化广西篇章', '中共中央总书记、国家主席、中央军委主席习近平近日在广西考察时强调，广西要完整、准确、全面贯彻新发展理念，牢牢把握高质量发展这个首要任务和构建新发展格局这个战略任务，发挥自身优势，以铸牢中华民族共同体意识为主线，解放思想、创新求变，向海图强、开放发展，努力在推动边疆民族地区高质量发展上展现更大作为，在建设新时代中国特色社会主义壮美广西上不断取得新进展，奋力谱写中国式现代化广西篇章。', '12月13日，习近平结束对越南的国事访问回到国内。14日至15日，在广西壮族自治区党委书记刘宁和自治区政府主席蓝天立陪同下，先后到南宁、来宾等地，深入对外开放项目、社区、农村、企业等进行调研。', '14日上午，习近平首先考察了位于南宁市的中国－东盟信息港股份有限公司。习近平详细了解中国－东盟信息港建设运营、中国－东盟经贸合作等情况，结合平陆运河沙盘听取西部陆海新通道骨干工程建设汇报。习近平指出，建设中国－东盟信息港，是推动共建“一带一路”、加强我国与东盟国家互联互通的一项重要举措。广西要主动作为、发挥支点作用，加强信息化建设和应用，为推进高水平对外开放、促进同东盟合作不断注入新动力。', '南宁市良庆区蟠龙社区是一个多民族聚居社区。习近平来到社区党群服务中心，听取现场工作人员关于开展主题教育、促进便民惠企、举办民族特色活动等情况介绍，对他们坚持党建引领聚合力、服务为本促发展的做法表示肯定。在文体活动室，他饶有兴致地观看社区居民习练书法、合唱民歌，同大家亲切交流，鼓励社区充分利用人才、场地等资源，开展更多健康有益、启智润心的文化活动，以此激发更大的正能量。习近平指出，社区是基层自治的基本单元，是国家治理体系的基层基础。通过社区这个平台，办好“一老一小”等民生实事和公共事务，积极回应群众关切，是中国特色基层治理的显著优势，要把这一优势发挥好。建设多民族群众互嵌式社区，是促进各族群众交往交流交融的重要途径。广西建设铸牢中华民族共同体意识示范区，要从基层社区抓起，通过扎实的社区建设、有效的社区服务、丰富的社区活动，营造各族人民一家亲的浓厚氛围，把民族团结搞得更好。', '离开社区时，各族群众热情欢送总书记。习近平亲切地对大家说，我昨天结束对越南的国事访问，直接来广西考察调研。构建具有战略意义的中越命运共同体，将更有利于广西的开放发展，壮美广西前景光明。广西作为我国少数民族人口最多的自治区，各族人民同顶一片天、同耕一垌田、同饮一江水、同建一家园。全面建设社会主义现代化国家，一个民族都不能少。希望社区各族群众多来往，大家互帮互助，交知心朋友，做和睦邻居，共同建设幸福家园。', '14日下午，习近平到来宾市考察调研。在国家现代农业产业园黄安优质“双高”糖料蔗基地，习近平察看万亩甘蔗林和机械化作业收割场景，听取基地情况介绍。他走进甘蔗林，详细了解甘蔗良种繁育技术要领，同蔗农、农机手和农技人员亲切交流。习近平指出，广西是我国蔗糖主产区，要把这一特色优势产业做强做大，为保障国家糖业安全、促进蔗农增收致富发挥更大作用。要积极培育和推广良种、提高机械化作业水平，建设好现代农业产业园。要探索建立更加稳定的利益联结机制，让广大农民共享农村改革和发展成果。他祝愿乡亲们的生活像甘蔗一样甜蜜。', '随后，习近平到来宾东糖凤凰有限公司考察。他进入生产车间察看制糖工艺和作业流程，在公司展厅了解糖业产品种类及市场份额和发展趋势。他强调，我国糖业面临激烈的国际竞争，要按照高端化、智能化、绿色化要求，加大科技创新力度，延伸产业链、提高附加值，不断提质、降本、增效，推动高质量发展。离开企业时，习近平热情地对前来欢送的员工们说，食糖是重要的副食品，大家为此辛勤劳动，为千家万户送去了“甜蜜”。希望大家不断学习新技术、采用新工艺，为糖业发展作出新贡献。', '15日上午，习近平听取广西壮族自治区党委和政府工作汇报，对广西各项工作取得的成绩给予肯定。', '习近平指出，推动广西高质量发展，必须做好强产业的文章，加快构建现代化产业体系。要立足资源禀赋和产业基础，聚焦优势产业，集中优势资源，打造若干体现广西特色和优势、具有较大规模和较强带动力的支柱产业。把科技创新摆到更加突出的位置，深化教育科技人才综合改革，加强科教创新和产业创新融合，加强关键核心技术攻关，加大技术改造和产品升级力度。充分利用沿海沿江的优势，大力发展海洋经济、临港产业。加快产业结构优化调整，推动产业体系绿色转型，发展壮大林业产业、文旅产业、养老产业、大健康产业，让生态优势不断转化为发展优势。', '习近平强调，广西要持续扩大对内对外开放。要增强内外联动，构建更有活力的开放型经济体系。主动服务国家重大战略，对接沿海发达地区产业新布局，有序承接产业梯度转移，加快北部湾经济区和珠江－西江经济带开发开放，把广西打造成为粤港澳大湾区的重要战略腹地。要共建西部陆海新通道，实施一批重大交通基础设施项目，高标准、高质量建设平陆运河，高水平打造北部湾国际门户港，提高江铁海多式联运能力和自动化水平。积极服务建设中国－东盟命运共同体，深化拓展与东盟国家在商贸、劳务、产业、科技、教育等领域合作，打造国内国际双循环市场经营便利地，深度融入共建“一带一路”。', '习近平指出，乡村振兴是建设农业强国的基础性工程，要落实规划、扎实推进。要全面落实粮食安全党政同责，坚持稳面积、增单产两手发力，实现粮食均衡增产。发挥广西林果蔬畜糖等特色资源丰富的优势，大力发展现代特色农业产业，让更多“桂字号”农业品牌叫响大江南北。既要鼓励工商资本下乡，又要把住底线，防止占用耕地搞非农化、非粮化经营。加快完善乡村治理体系，改善农村基础设施、公共服务、人居环境，提升村庄整体风貌和农民生活品质。巩固拓展脱贫攻坚成果，建立农村低收入人口常态化帮扶机制，防止出现规模性返贫。', '习近平强调，广西要把铸牢中华民族共同体意识作为自治区各项工作的主线，作为推进民族团结进步创建工作的根本方向，巩固发展各族人民团结奋斗的良好局面。要把持续扎根铸牢共同体意识落实到经济、教育、就业、社区建设、文化建设和干部队伍建设等各项工作中，继续在民族团结进步上走在全国前列。要尽力而为、量力而行、久久为功，着力解决好就业、教育、医疗、住房、养老、托幼等民生问题，逐步缩小城乡差距、区域差距、民族差距，扎实推进共同富裕。持续推进新时代兴边富民行动。', '习近平指出，坚持和加强党的全面领导，是做好各项工作的根本保证。要坚决贯彻落实党中央决策部署，加强领导班子建设，不断提高干部队伍素质和能力，激励党员干部廉洁从政、干净干事。第二批主题教育处于尾声，要善始善终，建立健全以学铸魂、以学增智、以学正风、以学促干的长效机制。', '习近平强调，岁末年初，各级党委和政府要切实做好市场供应、民生保障，精细化抓好安全生产，注意解决农民工欠薪问题，确保人民群众节日欢乐祥和。近几天，我国华北、黄淮等地区普遍出现中到大雪，对人民群众生产生活秩序造成一定影响，各地、各有关部门要密切关注，采取有力措施，努力把灾害带来的影响降到最低。', '王毅、李干杰、何立峰、王小洪及中央和国家机关有关部门负责同志陪同考察，主题教育中央第十一巡回指导组负责同志参加汇报会。', '12月15日上午，习近平在南宁亲切接见驻南宁部队上校以上领导干部，代表党中央和中央军委向驻南宁部队全体官兵致以诚挚问候，并同大家合影留念。张又侠陪同接见。']</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A42" t="n">
+        <v>129</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
           <t>市政府研究室召开第次党组理论学习中心组集体学习暨学习贯彻习近平新时代中国特色社会主义思想主题教育工作总结会议</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>2023-09-28</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2023/9/28/art_73714_4959863.html</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>['市政府研究室召开第11次党组理论学习中心组集体学习暨学习贯彻习近平新时代中国特色社会主义思想主题教育工作总结会议', '9月26日上午，市政府研究室召开第11次党组理论学习中心组集体学习暨学习贯彻习近平新时代中国特色社会主义思想主题教育工作总结会议，学习贯彻习近平总书记在在新时代推动东北全面振兴座谈会、黑龙江考察时的重要讲话精神和习近平总书记关于宣传思想和意识形态工作重要论述，全面总结主题教育开展情况，研究部署进一步巩固拓展主题教育成果工作。市政府副秘书长，研究室党组书记、主任石玮主持会议并讲话，市政府研究室班子成员、各处室负责人参加会议。', '会议强调，习近平总书记在新时代推动东北全面振兴座谈会、黑龙江考察时的重要讲话精神，高屋建瓴、思想深邃、内涵丰富，擘画蓝图气势恢宏，战略部署明确清晰，既是对东北全面振兴的有力指导，也是为各地推动高质量发展定向领航，要结合研究室实际抓好贯彻落实。要全面系统学，深刻理解习近平总书记重要讲话所蕴含的重要思想、重要观点、重大战略、重大举措，更好地用习近平总书记重要讲话精神武装头脑、指导实践、推动工作。要融会贯通悟，以刨根问底的“钻”劲、持之以恒的“韧”劲，真正学深悟透习近平总书记重要讲话的精神实质和精髓所在，不断提高学习贯彻落实的自觉性和坚定性。要以知促行用，坚持学思用贯通、知信行统一，自觉从习近平总书记重要讲话中找方向、找遵循、找方法，切实把学习成效转化为文稿起草、调查研究、决策咨询实绩实效。', '会议强调，要认真学习贯彻习近平总书记重要论述精神，全面落实中央关于做好宣传思想和意识形态工作的决策部署，按照省委、市委工作要求，以高度的政治自觉和行动自觉做好相关工作。要强化理论学习，严格落实党组“第一议题”制度和理论学习中心组学习制度，用好“学习强国”“理响泉城”等理论学习平台，抓好重点课题研究，努力提高学习质效。要强化阵地建设，加强对研究室网站、微信公众号、媒体专栏的管理，传播主流声音、弘扬正能量。要强化责任落实，注重队伍建设，完善制度机制，将意识形态工作与业务工作同安排、同部署、同落实。要强化风险防控，健全完善意识形态安全风险防控预案，加强意识形态领域安全风险隐患排查，定期分析研判，做到底数清、情况明，切实增强防范化解意识形态风险的主动性、前瞻性。', '会议指出，主题教育开展以来，市政府研究室党组在市委的坚强领导下，在市委第九巡回指导组的精心指导下，认真落实中央决策部署和省委工作要求、市委工作安排，牢牢把握“学思想、强党性、重实践、建新功”的总要求，把主题教育作为检验忠诚拥护“两个确立”、坚决做到“两个维护”的试金石，将主题教育与研究室工作有机结合，一体推进理论学习、调查研究、推动发展、检视整改等各项任务，取得了良好成效。', '会议强调，要巩固拓展主题教育成果，将主题教育成效转化为推动研究室工作高质量发展的强大动力。要持续在以学铸魂上下功夫，始终把学习习近平新时代中国特色社会主义思想作为首要政治任务，切实用党的创新理论统一思想、统一意志、统一行动，以实干实绩忠诚拥护“两个确立”、坚定践行“两个维护”。要持续在以学增智上下功夫，建立健全长效机制，持续抓好常态化理论学习，做到及时跟进学、系统全面学、结合实践学，进一步学深悟透做实习近平新时代中国特色社会主义思想。要持续在以学正风上下功夫，坚持全面从严治党，加强干部日常监督，严格贯彻落实中央八项规定及实施细则精神，打造高素质干部队伍。要持续在以学促干上下功夫，围绕服务中心大局，主动跨前谋划，力求拿出更多的促改革谋发展的思路举措，为加快建设“强新优富美高”新时代社会主义现代化强省会贡献研究室力量。']</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A43" t="n">
+        <v>129</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
           <t>习近平在江西考察时强调解放思想开拓进取扬长补短固本兴新奋力谱写中国式现代化江西篇章</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>2023-10-15</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2023/10/15/art_22232_4960759.html</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>['习近平在江西考察时强调：解放思想开拓进取扬长补短固本兴新 奋力谱写中国式现代化江西篇章', '习近平在江西考察时强调 解放思想开拓进取扬长补短固本兴新 奋力谱写中国式现代化江西篇章 蔡奇陪同考察', '新华社南昌10月13日电 中共中央总书记、国家主席、中央军委主席习近平近日在江西考察时强调，要紧紧围绕新时代新征程党的中心任务，完整准确全面贯彻新发展理念，牢牢把握江西在构建新发展格局中的定位，立足江西的特色和优势，着眼高质量发展、绿色发展、低碳发展等新要求，解放思想、开拓进取，扬长补短、固本兴新，努力在加快革命老区高质量发展上走在前、在推动中部地区崛起上勇争先、在推进长江经济带发展上善作为，奋力谱写中国式现代化江西篇章。', '10月10日至13日，习近平在江西省委书记尹弘和省长叶建春陪同下，先后来到九江、景德镇、上饶等地，深入长江岸线、企业、历史文化街区、农村等进行调研。', '10日下午，习近平来到九江市考察调研。在长江国家文化公园九江城区段，习近平登上琵琶亭远眺长江，冒雨沿江堤步行察看沿岸风貌，仔细询问长江水位、水质、航运、防洪、禁渔等情况，听取当地崩岸治理、航道疏浚、岸线生态修复等工作进展介绍。习近平指出，长江是长江经济带的纽带。无论未来长江经济带怎么发展、发展到哪个阶段，都不可能离开长江的哺育。要从人与自然和谐共生的生命共同体出发，着眼中华民族永续发展，把长江保护好。', '习近平随后乘车来到中国石化九江分公司。他走进公司生产管控中心控制大厅和检验计量中心实验室，详细了解企业转型升级打造绿色智能工厂、推动节能减污降碳等情况，对企业开展科学检测、严格排放标准等做法表示肯定。习近平强调，破解“化工围江”，是推进长江生态环境治理的重点。要再接再厉，坚持源头管控、全过程减污降碳，大力推进数智化改造、绿色化转型，打造世界领先的绿色智能炼化企业。', '实验室外，企业员工们围拢过来纷纷向总书记问好。习近平亲切地对大家说，石化产业是国民经济的重要支柱产业，希望你们按照党中央对新型工业化的部署要求，坚持绿色、智能方向，扎扎实实、奋发进取，为保障国家能源安全、推动石化工业高质量发展作出新贡献。', '11日上午，习近平来到景德镇市考察调研。在陶阳里历史文化街区，习近平先后走进南麓遗址、陶瓷博物馆、明清窑作群，饶有兴趣地了解制瓷技艺流程、陶瓷文化传承创新和对外交流等情况，同非遗传承人亲切交流，不时赞赏他们的手上功夫和工匠精神，鼓励他们秉持艺术至上，专心致志传承创新。习近平指出，中华优秀传统文化自古至今从未断流，陶瓷是中华瑰宝，是中华文明的重要名片。陶阳里历史文化街区严格遵循保护第一、修旧如旧的要求，实现了陶瓷文化保护与文旅产业发展的良性互动。要集聚各方面人才，加强创意设计和研发创新，进一步把陶瓷产业做大做强，把“千年瓷都”这张靓丽的名片擦得更亮。', '随后，习近平来到昌河飞机工业（集团）有限公司，考察了直升飞机总装车间和试飞站，详细了解企业推进技术创新和产品迭代升级的情况。他指出，航空装备是我国制造业发展的一个重点。要坚持创新驱动，在关键核心技术自主研发上下更大功夫，面向未来需求出新品，努力构建先进制造体系、打造世界一流直升机企业。', '11日下午，习近平来到上饶市婺源县秋口镇王村石门自然村。这里是饶河源国家湿地公园的中心区，也是极度濒危鸟类蓝冠噪鹛自然保护小区，植被多样、生态良好。习近平详细了解湿地公园和蓝冠噪鹛保护等情况。村广场上正在“晒秋”，一排排晒盘盛满红豆、玉米、辣椒等，格外喜人。美术学院师生正在采风写生，习近平驻足观看，同他们亲切交流，鼓励他们打好扎实基本功。得知当地发展特色旅游、茶产业，推进乡村振兴成效显著，习近平十分高兴。他指出，优美的自然环境本身就是乡村振兴的优质资源，要找到实现生态价值转换的有效途径，让群众得到实实在在的好处。乡村要振兴，关键是把基层党组织建好、建强。基层党组织要成为群众致富的领路人，确保党的惠民政策落地见效，真正成为战斗堡垒。', '离开村子时，村民们热情欢送总书记。习近平亲切地说，中国式现代化既要有城市的现代化，又要有农业农村现代化，我很关注乡村振兴。希望你们保护好自然生态，把传统村落风貌和现代元素结合起来，坚持中华民族的审美情趣，把乡村建设得更美丽，让日子越过越开心、越幸福！', '13日上午，习近平听取江西省委和省政府工作汇报，对江西各项工作取得的成绩给予肯定。', '习近平指出，构建现代化产业体系，既要有雄心壮志，积极抢位发展，又要立足实际，善于错位发展。要找准定位、明确方向，整合资源、精准发力，加快传统产业改造升级，加快战略性新兴产业发展壮大，积极部署未来产业，努力构建体现江西特色和优势的现代化产业体系。有针对性地部署创新链，积极对接国家战略科技资源，突破一批关键核心技术，打造一批高新技术产业，形成在全国有影响力的产业集群。积极推进数字经济和实体经济融合，发展壮大数字经济。坚定不移走生态优先、绿色发展之路，推动全面绿色转型，打造生态文明建设高地。', '习近平强调，江西联通东西、承接南北、通江达海，多个国家重大战略叠加。要深化对内对外开放，以开放促发展，打造内陆地区改革开放高地，主动服务和融入新发展格局。大力发展口岸经济，建设长江经济带重要节点城市，打造区域性物流枢纽和商贸中心。做大做强都市圈，主动对接和服务长三角一体化发展、粤港澳大湾区建设，增强对资金、技术、人才等的吸引力。发挥生态优势和传统农业优势，打造区域性优质农副产品生产和供应基地。巩固传统商路，积极开拓新路，深度融入共建“一带一路”。深化重点领域改革，加强营商环境建设，稳步扩大规则、规制、管理、标准等制度型开放。有序扩大民间投资市场准入，推进促进公平竞争的政策实施，构建亲清统一的新型政商关系，促进民营经济健康发展。', '习近平指出，要坚持农业农村优先发展，加快农业农村现代化建设步伐，牢牢守住粮食安全底线，推进农业产业化，推动农村一二三产业融合发展，全面推进乡村振兴。坚持产业兴农、质量兴农、绿色兴农，把农业建设成为大产业，加快建设农业强省。发展林下经济，开发森林食品，培育生态旅游、森林康养等新业态。巩固拓展脱贫攻坚成果，要更多依靠产业发展，不断增强内生发展动力。围绕农村产业发展、公共服务、环境整治、乡风建设，循序渐进、久久为功，抓好办成一批实事，让群众看到新变化。', '习近平强调，确保老区人民共享改革发展成果，过上幸福生活，是推进全体人民共同富裕的底线任务。要强化就业优先政策，着力稳岗扩岗，切实做好重点群体就业工作。加强基础性、普惠性、兜底性民生建设，完善社会保障体系，健全社会救助和慈善制度，提高基本公共教育服务水平，强化城乡卫生健康服务能力，加强对防止返贫监测对象、零就业家庭等困难群体的帮扶。', '习近平指出，要总结运用第一批主题教育的成功经验，高质量开展第二批主题教育，用井冈山精神、苏区精神、长征精神砥砺党员、干部，教育引导党员、干部坚定理想信念、牢记初心使命、积极开拓进取、勇于担当作为。要把实的要求贯穿主题教育全过程，坚决防止和克服形式主义、官僚主义，实实在在抓好理论学习和调查研究，实实在在检视整改突出问题，实实在在办好惠民利民实事，用实干推动发展、取信于民。', '李干杰、何立峰及中央和国家机关有关部门负责同志陪同考察，主题教育中央第八巡回指导组负责同志参加汇报会。', '习近平主持召开进一步推动长江经济带高质量发展座谈会强调：进一步推动长江经济带高质量发展 更好支撑和服务中国式现代化']</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A44" t="n">
+        <v>129</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
           <t>呼和浩特市领导来济考察</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>2023-11-01</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2023/11/1/art_1861_4961876.html</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>['10月31日下午，内蒙古自治区党委常委、呼和浩特市委书记包钢一行来济考察都市圈建设和城市管理工作。山东省委常委、济南市委书记刘强，市委副书记杨峰参加活动。', '包钢一行考察了济南新旧动能转换起步区城市展厅，详细了解起步区建设发展历程、规划体系编制、综合交通规划、地下空间利用、绿色城市建设以及重点项目规划建设等情况；在中科新经济科创园展厅，详细了解园区规划建设，听取中国科学院有关院所落地情况介绍；在明府城片区，实地考察了起凤桥、曲水亭街、百花洲历史文化街区，听取明府城保护提升工作情况汇报；在济南中央商务区，详细了解总体规划、项目建设等情况。', '包钢表示，济南市在城市规划、产业发展、科技创新等方面有许多先进经验值得学习借鉴。希望两市进一步加强沟通交流，深化务实合作，携手加快推动经济社会高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A45" t="n">
+        <v>129</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
           <t>市委常委会召开会议</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>2023-10-24</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2023/10/24/art_1861_4961396.html</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>['10月23日，市委常委会召开会议，学习贯彻习近平总书记对宣传思想文化工作作出的重要指示和全国宣传思想文化工作会议精神，学习贯彻习近平总书记在进一步推动长江经济带高质量发展座谈会、在江西考察时的重要讲话精神以及在第三届“一带一路”国际合作高峰论坛开幕式上的主旨演讲、致欧美同学会成立110周年贺信精神，研究贯彻落实意见；研究前三季度全市经济社会发展形势，审议有关工作事项。', '会议指出，习近平总书记对宣传思想文化工作作出的重要指示，内涵丰富、思想深邃，具有很强的政治性、思想性、指导性，为我们进一步做好宣传思想文化工作提供了根本遵循。要深入学习领会习近平文化思想的重大意义、丰富内涵和实践要求，自觉贯彻落实到宣传思想文化工作各方面全过程，持续强化理论学习宣传，加强意识形态阵地建设和管理，大力推进文化“两创”，加强党对宣传思想文化工作的全面领导，以实际行动坚定拥护“两个确立”、坚决做到“两个维护”。', '会议强调，要深入贯彻落实习近平总书记重要讲话、重要指示精神，加快推动绿色低碳高质量发展，努力在推动黄河流域生态保护和高质量发展上走在前；全面推进乡村振兴，加快实现农业农村现代化；扩大高水平对外开放，打造黄河流域对外开放门户。', '会议学习了《中华人民共和国预算法》，指出，要严格落实预算法定原则，加强财力统筹管理，兜牢基本民生保障底线，科学精准编制预算，不断提升预算工作质效。', '会议审议了《推进新型工业化加快建设工业强市三年行动计划（2023—2025年）》，强调，要优化完善行动计划，强化政策和要素保障，推进工业强市战略深入实施。', '会议审议了《2022年财政重点绩效评价问题整改和2023年财政重点绩效评价情况的报告》，指出，要健全完善以效果为导向的财政绩效评估机制，抓好评价发现问题整改，不断提高财政资金管理使用效益。', '会议听取了市政府党组关于前三季度全市经济社会发展形势及下一步工作建议的汇报，强调，前三季度全市经济运行保持了“持续向好、量质齐升”态势，经济发展的韧性、活力进一步增强。下一步，全市各级各部门要全力以赴抓好四季度运行收官，确保完成全年目标任务，努力为全省大局多作贡献。要全力扩大有效投资，加快激发消费活力，统筹抓好企业入库纳统，抓紧抓牢农业农村工作，提升外贸外资质效，稳定财税金融运行，持续增进民生福祉。要扎实做好五经普工作，高质量完成各项工作任务。要抓好明年工作谋划，重点谋划好产业项目、基础设施项目、一二三产融合项目等领域项目，为明年一季度实现“开门红”打牢基础。要深入开展主题教育，持续优化营商环境，扎实做好民生保障，统筹好发展和安全，坚决守牢一排底线，确保社会大局和谐稳定。']</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A46" t="n">
+        <v>129</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
           <t>市政府研究室党组理论学习中心组举行习近平法治思想专题学习</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>2023-09-08</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2023/9/8/art_73666_4958470.html</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>['9月8日上午，市政府研究室党组理论学习中心组举行习近平法治思想专题学习，深入学习习近平法治思想的丰富内涵、核心要义、实践要求，不断提高运用法治思维和法治方式开展决策服务的能力水平。市政府副秘书长，市政府研究室党组书记、主任石玮主持会议并作专题辅导。', '会议传达学习了习近平总书记在江苏、在四川考察时的重要讲话精神，深入学习了习近平法治思想有关重要内容。集中收看了“学习强国”领导干部法治教育大讲堂“习近平法治思想”普法宣传系列课程第一讲《习近平法治思想的核心要义》专题讲座。市政府研究室党组副书记、副主任潘大海，党组成员、正处级领导干部魏勇围绕学习贯彻习近平法治思想作了交流发言。', '会议书面传达学习了近期习近平总书记在有关会议、活动和刊物上发表的重要讲话、重要指示、重要文章，《中共中央办公厅 国务院办公厅印发&lt;关于建立领导干部应知应会党内法规和国家法律清单制度的意见&gt;》《中华人民共和国黄河保护法》《中国共产党党内法规制定条例》等法规文件。', '会议指出，习近平法治思想深刻回答了新时代为什么实行全面依法治国、怎样实行全面依法治国等一系列重大问题，具有重大的政治意义、理论意义、实践意义、世界意义。要学深悟透蕴含其中的发展脉络，深刻把握习近平法治思想的形成和发展，在提升学习理解的系统性、整体性、全面性上下功夫，不断统一思想认识、明确前进方向、凝聚奋进力量。', '会议强调，习近平法治思想内涵丰富、博大精深，要深入把握习近平法治思想的政治意义，始终坚持习近平法治思想在全面依法治国中的指导地位不动摇，深刻领悟“两个确立”的决定性意义，增强“四个意识”、坚定“四个自信”、做到“两个维护”。要深入把握习近平法治思想的理论内涵，紧紧围绕“十一个坚持”，吃透基本精神、把握核心要义，明确工作要求，进一步在学懂弄通做实上下功夫，在深化消化转化上见实效。要深入把握习近平法治思想的实践要求，围绕争创全国法治政府建设示范市，聚焦打造法治化营商环境、加快推进社会信用体系建设等开展调查研究，全力以赴做好以文辅政各项工作，为建设更高水平法治济南贡献研究室力量。', '会议强调，要坚持把学习贯彻习近平法治思想与学习贯彻总书记对山东、对济南工作重要指示要求结合起来，守正创新、真抓实干，真正做到用习近平法治思想武装头脑、指导实践、推动工作。要坚定法治信仰，组织党员干部反复学习、深入领会，强化法治信仰，弘扬法治精神，从内心深处强化厉行法治的信心决心、政治自觉和责任担当。要树牢法治理念，坚持把党规党纪贯彻法治学习全过程，自觉用法治理念指导开展业务工作，确保党规党纪镌刻在思想深处、体现在言行各处。要践行法治精神，坚持把习近平法治思想贯彻落实到工作全过程，立足职能定位、强化责任担当，找准服务法治济南建设的着力点，在大力宣传习近平法治思想、推进学法用法普法等方面走在前、作表率。']</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A47" t="n">
+        <v>129</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>市中品质教育孕育教育家型名师</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2023/9/6/art_1861_4958265.html</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>['教师心理关爱驿站、信息化教育工作坊、项目式学习工作坊、多功能沙龙式餐厅、能容纳400多人的多功能报告厅……作为市中区送给全区教师的一份大礼，今年9月济南市市中区教师成长基地将正式投入运营。届时，市中教师在家门口就能接受高端的培训，既不耽误学生上课，还减少了路途奔波。', '从全员大练基本功到“三本工程”和教师发展工程，从全市率先实行“学科首席制”到十百千人才培养计划，从教育家成长研究基地到建立“三地、七校、九专家”人才培养体系……市中教育逐渐形成了从新苗、新秀教师到能手教师，再到首席教师、风格教师，最后到功勋教师的梯队培养机制，让每位教师找到适合自己的最近发展区。', '围绕“逼近专业”这一主题，市中教育将教师成长这个“课题”越做越丰富，一位位名师与名校长正在“营养丰富”的沃土中快速成长。', '今年教师节，市中区送给老师的“大礼包”还有在全市率先出台《济南市市中区关爱激励中小学（幼儿园）教师若干措施》，并推出“市中惠师，百商联名”立人品质生活卡，教师可持卡在市中区百余个商家、门店享受惠师消费折扣。', '“要营造区域教育发展的良好生态，实现市中品质教育迈向‘全国一流’，‘人’是最核心也是最关键的。一直以来，市中区厚植沃土，乐育英才，致力于提高教师们的专业性，并以山东省全环境育人实验区创建为契机，打造‘合育人向未来’教育品牌。”市中区教体局党组书记、局长宫春介绍。', '9月1日，来到山水相依、优美静谧的南部城市绿岛——兴隆公园，只见市中区教师成长基地的建设工作正在收尾，现场工人正在忙碌调试着各种设备。', '可以看到，整个基地共有3层，具备“培训会议、主题展览、学习诊断”三大功能，将与清华大学学习科学实验室合作，打造全省首家学生学习诊断工作室；汇总市中教育发展改革经验而建的“经纬拾光”档案馆，也已雏形初显。同时，基地还建设有教师心理关爱驿站、信息化教育工作坊、项目式学习工作坊等，可以满足教师培训学习的多样需要。', '“基地投入使用后将成为教师、校（园）长专业成长的‘加油站’、名师和名校长的‘孵化器’、教育质量提升的‘推进器’，必将引领更多市中教师能够站在名家的肩膀上，加速成长。”市中区教育教学研究中心副主任明亮表示。', '1995年，市中教育就提出“内强素质，外树形象，大练教师基本功”，也就是从那个时候开始，市中教育人开始了长达28年的“三字一画”等基本功训练。随后，市中教育又在全市率先构建了以“学科首席教师”和“首席班主任”为龙头的“双首席”教师培养模式。截至目前，已经培养出首席教师192人、首席班主任117人。', '“从初出茅庐的青涩到成长为省级名师、齐鲁名班主任，市中教育教师梯队培养和发展机制给我的成长提供了肥沃土壤和广阔平台。市中区一流的品质教育不仅成就了众多各美其美的市中学子，更成就了无数怀揣教育梦想的人民教师。”济南市舜耕小学教师窦成华表示。', '我们看到，市中教育3批干部教师走进重庆谢家湾小学进行为期1个月的跟岗学习；连续3年组织中青年干部教师领导素养研修班，300名优秀青年才俊在一次次交流碰撞中，启发着彼此；市中区名校长工作室，每个月一次集体研修，聚焦真问题，研究真策略，引领带动、启迪示范作用日益彰显……', '7月10日，首期中青年干部教师领导素养研修班结业，100名学员中有33名学员成为校级干部（其中有14名正职），7名学员调任局机关所属业务科室管理干部，45名学员走上学校中层管理岗位，其余学员均已成为各自学科领域的中坚力量。', '8月23日，市中区2023年新教师培训“第一课”上，宫春对新教师专业成长给出了17条诚恳建议。每一条建议都看似寻常，却包含着大智慧；看似简单，做起来却不易，让新教师们感受到了市中教育一直以来所坚守的品质与温度。', '新教师入职后，市中区都会组织形式多样的专题培训，通过导师讲座、教研分享、头脑风暴、互动交流等多种方式方法，围绕课标解读、教材分析等专业技能关键要素，解决新教师成长痛点，为新教师站稳讲台、站好讲台添能蓄势。', '市中教育通过项目组、工作室、合伙人、学研共同体等多种载体，为教师成长搭建平台，通过专家讲座、参观考察、名校跟岗、学院论坛、桌面推演、情景模拟等为干部教师成长引领方向。逐渐形成了从“新苗教师”“新秀教师”到“能手教师”，再到“首席教师”“风格教师”，最后到“功勋教师”的梯队培养机制。', '经过多年积淀，市中区培养积累了一大批特色突出、风格优良的优秀教师、名师、名班主任群体，形成了提升教师群体品质及教育品质的良好“酵母”。现如今，“酵母”效应提升着教师群体的品质，更推动着市中教育生态形成良性循环。', '在今年的优质课评比方面，市中区60%的选手获市一等奖，13名选手获省一等奖，领跑全市；教学能手评比中，市中区27名教师全部入选市级能手；全市“走青春路，做育花人”活动中，市中区8名教师获市一等奖，获奖率全市第一。自2018年以来，市中区有4位教师入选齐鲁最美教师、山东省教书育人楷模，26位教师入选济南最美教师、济南市教书育人楷模，位居全市首位。', '“这次培训内容不仅包含新课标理念、大单元教学、命题评价、项目化学习等课程内容，更通过主题讲座、参观访学、互动研讨等多维进阶方式，让我对‘共生新课堂’有了更深层次的了解。”济南十四中教师白福利表示。', '今年暑期，市中区教体局组织了“三优”专题研修访学活动，由“教研员+教学管理人员+学科骨干教师”组成百人访学团奔赴杭州，锐意向“共生新课堂”研究的更深处漫溯。', '暑假期间，市中区教体局精心组织系列教师培训，通过链接专家、搭建平台为教师的成长赋能，教师们下了讲台进“课堂”，开启“充电”模式。', '8月21日，市中区锦华学校“锦华青年教师成长营”正式开营，来自北京的专家团队为青年教师定制了为期三年的教师成长计划，并带来了精彩的“第一课”。', '“因为培训做到了老师们的心坎上，所以我们看到了如饥似渴学习的教师。”市中区教体局党组成员、副局长王鲁明表示，要想充分点燃学生的兴趣，首先必须点燃教师的兴趣，这样才能让教师将所学呈现在课堂上，让学生的学习发生改变。', '“我们不仅教书，还要育人，要立德树人，市中教育一直秉承让专业的人干专业的事。老师们会历经大大小小的培训学习、校内校外的互动交流、省内省外的跟岗研修，向着专业性不断成长。”齐鲁名师、山东省特级教师，济南市实验初中教师陈万太表示。', '一直以来，市中教育坚持践行“教育家办学”理念，实施“十百千人才培养计划”，构建“三地、七校、九专家”人才培养体系，借助分阶段、分层次、分区域、跟岗式进行的定制式研修活动，通过研修的方式激发教师思考，赋能教师队伍水平整体提升。', '“市中教育将继续加强与北京、上海等教育发达地区的沟通交流，与浙大等高校合作培训教育教学团队。同时，聚焦名师、名班主任、名校长实施‘经纬三名’工程，并与国家教育行政学院合作，赋能校长培训，构建一支专业突出、结构合理、充满活力、源源不断的专业人才队伍，持续充盈市中教育人才蓄水池。”宫春表示。']</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A48" t="n">
+        <v>129</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
           <t>市委常委会召开会议</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>2023-09-12</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2023/9/12/art_1861_4958646.html</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>['日前，市委常委会召开会议，学习贯彻习近平总书记在黑龙江考察、主持召开新时代推动东北全面振兴座谈会、会见红十字国际委员会主席斯波利亚里茨时的重要讲话精神，向2023中国国际智能产业博览会、第十届中国—中亚合作论坛、第十次上海合作组织成员国司法部长会议致的贺信以及向全国优秀教师代表的致信精神，研究贯彻落实意见；研究审议有关工作事项。', '会议指出，习近平总书记的重要讲话、重要指示，具有很强的政治性、针对性和指导性，为我们做好工作指明了方向、提供了根本遵循，各级要结合济南实际抓好贯彻落实。要坚决扛牢粮食安全政治责任，严守耕地红线，提高粮食综合生产能力，确保秋粮丰产丰收。要推动人口高质量发展，优化公共服务供给，推进以人为核心的新型城镇化，加快创新人才集聚。要扎实做好民生保障，按照时间进度安排，切实把为民实事办好。', '会议学习了《中国共产党党员权利保障条例》，强调，要抓好《条例》的学习宣传和组织实施，坚持党员权利保障与党的建设各项工作有机融合，形成党员权利保障的制度合力。', '会议审议了《济南市优化营商环境创新提升行动实施方案》，指出，要切实增强紧迫感，强化整体推进，形成工作合力，持续优化营商环境。', '会议听取了关于中央、省委学习贯彻习近平新时代中国特色社会主义思想主题教育第一批总结暨第二批部署会议精神及我市贯彻落实意见的汇报，审议了《关于开展全市第二批学习贯彻习近平新时代中国特色社会主义思想主题教育的实施方案》，强调，要立足基层实际，坚持开门搞教育，务求工作实效，强化组织领导，推进第二批主题教育走深走实。']</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A49" t="n">
+        <v>129</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
           <t>习近平在黑龙江考察时强调牢牢把握在国家发展大局中的战略定位奋力开创黑龙江高质量发展新局面</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>2023-09-11</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2023/9/11/art_76833_4958599.html</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>['习近平在黑龙江考察时强调 牢牢把握在国家发展大局中的战略定位 奋力开创黑龙江高质量发展新局面', '中共中央总书记、国家主席、中央军委主席习近平近日在黑龙江考察时强调，要牢牢把握在国家发展大局中的战略定位，扭住推动高质量发展这个首要任务，落实好党中央关于推动东北全面振兴的决策部署，扬长补短，把资源优势、生态优势、科研优势、产业优势、区位优势转化为发展新动能新优势，建好建强国家重要商品粮生产基地、重型装备生产制造基地、重要能源及原材料基地、北方生态安全屏障、向北开放新高地，在维护国家国防安全、粮食安全、生态安全、能源安全、产业安全中积极履职尽责，在全面振兴、全方位振兴中奋力开创黑龙江高质量发展新局面。', '9月6日至8日，习近平在黑龙江省委书记许勤和省长梁惠玲陪同下，来到大兴安岭、哈尔滨等地，深入林场、乡村、高校等进行调研，前往灾后恢复重建现场看望慰问受灾群众。', '6日下午，习近平来到大兴安岭地区漠河市，考察漠河林场自然林区，察看自然林生长态势和林下作物展示，听取当地深化森林资源资产管理改革、推进生态产业化和产业生态化以及加强森林防火灭火情况介绍。习近平指出，要坚持造林与护林并重，做到未雨绸缪、防患于未然，决不能让几十年、几百年、上千年之功毁于一旦。', '随后，习近平乘车来到我国大陆最北端的边境临江村落北极村，仔细了解当地结合地域优势发展特色旅游、将生态优势转化成发展优势等情况。习近平强调，森林是集水库、粮库、钱库、碳库于一身的大宝库。要树立增绿就是增优势、护林就是护财富的理念，在保护的前提下让老百姓通过发展林下经济增加收入。在村民史瑞娟家的民宿小院，习近平向乡亲们了解当地发展乡村特色产业、助推兴边富民乡村振兴等情况。他指出，北极村的发展和群众的生活状况好，看了很高兴。发展旅游业是推动高质量发展的重要着力点。把大兴安岭森林护好，旅游业才有吸引力。这里的旅游资源得天独厚，地方党委和政府要提供政策支持，坚持林下经济和旅游业两业并举，让北国边塞风光、冰雪资源为乡亲们带来源源不断的收入。', '离开小院时，当地群众在道路两旁热情欢送总书记。习近平亲切地对大家说，北极村前景可期。希望广大干部、群众共同努力，把乡村建设得更好、把生态保护得更好、让人民生活得更好，共同奔向中国式现代化的美好未来。', '习近平十分牵挂洪涝灾害地区灾后恢复重建工作和受灾群众的生活保障问题。7日上午，习近平乘车来到受灾较重的哈尔滨尚志市老街基乡龙王庙村，察看水稻受灾和水毁房屋重建情况。村民杨春贵家房屋在洪灾中进水浸泡，屋内设施受损、间墙开裂，正在修缮。习近平走进杨春贵家中，看到房屋修缮即将完毕、生产生活都有安排，感到很欣慰。习近平指出，我一直牵挂受灾群众，尚志市这次受灾较为严重，看到灾后恢复重建快速顺利，乡亲们生活有了着落、生产有了保障，心里很踏实。东北冬季来得早、时间长，要确保受灾群众安全温暖过冬，地方党委和政府要抓紧谋划，提前行动，把吃、喝、住、行、就业、教育、医疗防疫等事关群众生产生活的大小事情考虑得更细致、更周全一些，不留一丝纰漏。要抓紧修复受损房屋，加快推进灾后重建，最大程度减少农业因灾损失，确保受灾群众安心安全。', '看到总书记来了，当地村民和施工人员纷纷围拢过来，向总书记问好。习近平亲切地对大家说，党和政府十分关心灾区群众，始终同大家风雨同舟、携手同行，希望乡亲们在党组织领导下齐心协力、共克时艰，努力建设美好家园。', '7日上午，习近平还来到哈尔滨工程大学，了解学校发展历程和为我国国防科技事业作出的贡献，察看教学科研成果展示。习近平强调，哈尔滨工程大学要发扬“哈军工”优良传统，紧贴强国强军需要，抓好教育、科技、人才工作，为建设教育强国、科技强国、人才强国再立新功。年轻一代成为奋力拼搏、振兴中华的一代，实现第二个百年奋斗目标就充满希望。青年学子要树牢科技报国志，刻苦学习钻研，勇攀科学高峰，在推进强国建设、民族复兴伟业中绽放青春光彩。再过几天就是教师节，向全校教师致以节日祝福，祝全国广大教师节日快乐。', '8日上午，习近平听取了黑龙江省委和省政府工作汇报，对黑龙江各项工作取得的成绩给予肯定。', '习近平指出，要以科技创新引领产业全面振兴。要立足现有产业基础，扎实推进先进制造业高质量发展，加快推动传统制造业升级，发挥科技创新的增量器作用，全面提升三次产业，不断优化经济结构、调整产业结构。整合科技创新资源，引领发展战略性新兴产业和未来产业，加快形成新质生产力。提高国有企业核心竞争力，引领民营经济健康发展，打造一批产业集群，做大做强实体经济。把企业作为科技成果转化核心载体，提高科技成果落地转化率。主动对接全国产业链供应链，在优势产业和产业优势领域深耕细作，更好融入全国统一大市场，在联通国内国际双循环中发挥更大作用。坚持绿色发展，加强绿色发展技术创新，建立健全绿色低碳循环发展经济体系。', '习近平强调，黑龙江要当好国家粮食安全“压舱石”。要以发展现代化大农业为主攻方向，加快建设现代农业大基地、大企业、大产业，率先实现农业物质装备现代化、科技现代化、经营管理现代化、农业信息化、资源利用可持续化。强化数字技术和生物技术赋能，优先把黑土地建成高标准农田，切实把黑土地保护好。把发展农业科技放在更加突出的位置，统筹推进科技农业、绿色农业、质量农业、品牌农业，推进现代种业提升工程，配套推广先进适用科技和高端农机装备，发展农业循环经济。创新农业经营方式，发展规模化经营、社会化服务。打造食品和饲料产业集群，提高粮食生产综合效益。加快推进乡村振兴，让农村具备现代化生产生活条件。', '习近平指出，要大力发展特色文化旅游。把发展冰雪经济作为新增长点，推动冰雪运动、冰雪文化、冰雪装备、冰雪旅游全产业链发展。守护好森林、江河、湖泊、湿地、冰雪等原生态风貌，改善边境地区基础设施条件，积极发展边境旅游，更好地促进兴边富民、稳边固边。勇担新的文化使命，繁荣发展文化事业和文化产业，深入开展城乡精神文明建设，推进城乡公共文化服务体系一体建设，努力培育新风尚、展示新形象。', '习近平强调，要构筑我国向北开放新高地。更好统筹贸易、投资、通道和平台建设，在市场准入、要素流动、制度型开放等方面大胆探索、先行先试，形成全方位对外开放新格局。加快建设重要陆路通道、河海航道、能源管道等基础设施，完善面向东北亚开放的交通运输网络。要加强自贸试验区、综合保税区等开放平台创新发展，深度融入共建“一带一路”，积极参与区域合作。要切实做好重点领域风险防范化解工作，落实安全生产责任，坚决避免发生重特大安全生产事故。', '习近平指出，第一批主题教育已经告一段落，要抓好继续整改和建章立制工作，把主题教育探索的好经验好做法转化为长效机制。要建立健全理论学习、调查研究、推动高质量发展、密切联系群众、防止形式主义和官僚主义等长效机制，巩固发展主题教育成果。第二批主题教育已经启动，各地要坚持科学谋划、统筹安排、分类指导，确保取得实效。', '李干杰、何立峰及中央和国家机关有关部门负责同志陪同考察，主题教育中央第四巡回指导组负责同志参加汇报会。']</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A50" t="n">
+        <v>129</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
           <t>每一张榜单都是一个赛马场</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>2023-08-17</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2023/8/17/art_52_4956703.html</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>['8月初的述职会上，一份条目清晰的榜单，将济南新旧动能转换起步区各部门开展学习贯彻习近平新时代中国特色社会主义思想主题教育的成果全部量化在了纸面上。在这里，主题教育开展成效如何，榜单说了算。', '作为山东第一批主题教育单位，济南起步区统筹推进、见行见效，创新推出“四讲四比”活动，即“讲理论、比境界，讲责任、比担当，讲典型、比创新，讲对策、比业绩”。根据活动要求，起步区各部们每月一晾晒、每季度一赛马，主题教育开展成效显著。', '“讲和比纵向双链条逻辑清晰，而每一组讲比又是横向因果关系，具有很强的操作性和系统性，让理论学习和解决问题实现深度融合，让主题教育真正走深走实有了具体可依的抓手。”一次调研中，山东省委主题教育第一巡回指导组成员孙铭锴对起步区主题教育如此评价。', '起步区“四讲四比”活动，“讲”的是全流程方法链条，包括理论学习、划分责任、对标对表、明确措施。“比”的是全方位工作质量，包括工作动力、工作作风、工作方法、工作实绩等。', '除了要求各部门展开不同主题的学习、调研外，起步区党工委强调最多的就是“比”。每季度，各部门都会展开 一场述职考评会议，各部门主要负责人在全区领导干部面前逐一讲亮点、说实绩，高低立下，清晰可见。', '压力逐级传导，各部门纷纷组织了各种形式的“擂台赛”。聚焦青年视角的“起步青年说”系列活动，组织各部门青年以视频、文字等形式分享在主题教育中的所思所感；寻找身边典型系列活动中，先进个人的工作做法为其他人提供了方便操作的借鉴经验；定期召开的正反典型案例研讨会，将部门阶段性成绩和问题全都摆在了台面上……在亮化考核、对标先进的氛围下，良性竞争、力争上游逐渐在起步区蔚然成风。', '“擂台赛”上的竞争为起步区高质量发展注入“加速度”，于知行合一中解决问题自然而然就成了起步区成形起势的“效率密码”。', '“3个月办结28家企业行政审批手续”——起步区数字城市部榜单上的这条战果，让该部行政审批办公室上下颇为自豪。不同于常规审批业务，这28家企业的市场准入手续，全都是“上门办理”而成。', '为提高审批服务效率，过去的几个月，数字城市部行政审批办公室坚持关口前移，把“办公桌”搬进工地，多流程合一，实现一站式办结……而这成了他们推进主题教育走深走实所取得的一项傲人成果。', '主题教育不玩花架子、不搞学习工作两张皮。起步区主题教育启动之初就要求全区理论学习与调查研究同步展开，以实绩定成效，以战果论英雄。', '事实上，这样“知行合一”的案例，在起步区扎实推进主题教育走深走实的过程中比比皆是。例如，为解决企业缺工难题，社会事业部在招聘季积极组织工作人员走出去招聘对接；民政办公室聚焦农村养老问题，考察引入专业机构，打造农村养老“幸福院”；卫健办公室以问题为导向，全力解决群众就医难问题，4个街道卫生院均实现“一人一诊室”等。', '数据显示，自主题教育开展以来，起步区制定“一事一策”整改方案105个，落实整改措施437条，已完成整改问题61个。还确定了12个区级专项整治事项，制定了77条集中攻关措施，落实到实践中，“四讲四比”比出了群众幸福感。', '在5月的一次进村入户走访调研中，党群工作部工作人员发现，当地瓜农面临着销售渠道单一、西瓜品牌意识薄弱等问题。一番精心策划后，党群工作部策划指导太平街道成立了覆盖六村的骇河甜源联合党委，将6个村庄的资源整合在一起，西瓜销售有了立竿见影的转变。', '受此启发，党群工作部在充分调研的基础上，提出了在全区建立“强村带动型”“资源统筹型”“产业聚集型”“回迁安置型”4种类型联合党委的建议，提请区党工委会议研究后，得以在全区组织实施。以综合执法部为例，孙耿、太平两街道分别成立的红色商圈党支部和党员+商户联合会，在“门前五包”工作中充分发挥了基层党建引领作用，真正让“门前五包”的理念得到了辖区居民的认可。', '无独有偶，起步区各部门在一次次解决难题的过程中，开展了相应体制机制建立完善的工作。例如，社会事业部民政办公室建起“现役+退役”军人管理新模式，打造军人全生命周期服务；数字城市部以起步区、街道、园区为三级服务主体，建立起“三级服务体系”；综合执法部成立“门前五包”党建联盟，开创省、市、区、街、商户五级党建共建共管共享城管新局面……', '“主题教育中，我们最看重的就是有机融合、一体推进，是兼顾质效、走深走实。我们说的‘讲’就像划重点，而‘比’则更像是强心剂，激励大家在主题教育中对标优秀，检视不足，踏实苦干，力争上游。”济南起步区党群工作部部长姜凌飞表示。']</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A51" t="n">
+        <v>129</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
           <t>济南求真务实抓好主题教育整改整治工作</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>2023-08-08</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2023/8/8/art_1812_4956073.html</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>['践行宗旨为民造福，是开展学习贯彻习近平新时代中国特色社会主义思想主题教育要达到的五个具体目标之一。', '习近平总书记在广东考察时强调，“把人民群众满意不满意作为评判主题教育成效的根本标准”。', '自主题教育开展以来，济南紧扣群众急难愁盼，突出问题导向，把“办实事、解民忧”作为检验主题教育成果的重要内容，坚持把保障和改善民生放在更加突出的位置，切实从群众最关心、最关注的现实问题入手，深入细致查不足、找差距，努力以解决问题的实际成效赢得群众认可，让主题教育在济南大地上落地生根、开花结果。', '历城区唐冶街道雪山合苑小区交房之日起，该小区一直使用自备井供水，小区居民迫切希望接入公共供水。在得知这一情况后，市城乡水务局、历城区政府积极协调沟通，组织区城乡水务局、街道办事处及物业公司做好自备井用户接入公共供水申报、资料收集、审核等工作。济南水务集团迅速开展现场勘察，设计接入工程方案并展开施工。', '随着用户信息核对录入工作全部完成，累计完成户表合同签订4300余户，该小区于6月18日完成水源切换，接上了公共供水。', '在一座城市里，无物业小区普遍存在公共设施老化、车辆乱停乱放、绿化率不足等现象，失管、弱管问题比较严重，一直是城市治理中一块难啃的“硬骨头”。', '对于市民反映比较集中的部分开放式老旧小区、单位宿舍区、零星院落无专业化物业服务，居住环境较差的问题，市财政局落实市级财政资金4000万元，用于支持区县在老旧小区引入专业化物业服务企业。市住房和城乡建设局指导各区县积极推动老旧小区专业化物业服务企业签约工作，目前老旧小区全部完成了物业企业引入，签订了物业服务合同。', '科学的理论、伟大的实践，指向的是把“人民至上”内化于心、外化于行。广大党员干部要树立正确的权力观、政绩观、事业观，把人民立场作为根本立场，坚持全心全意为人民服务的根本宗旨，切实解决好人民群众最关心最直接最现实的利益问题，才能使其切实感受到主题教育带来的新变化，推动主题教育取得实实在在的成效。', '近日，经过施工单位的不懈努力，历城区华山街道云芝南路、云芝北路顺利通车，彻底解决了困扰周边群众多年的出行难问题。', '之前，有市民反映云芝南路、云芝北路不通车，影响居民出行。为了尽快打通两条道路，方便市民出行，济南城市建设集团及时与交通、园林、照明等有关部门协调处理苗木迁移、道路清障等施工过程中遇到的问题，全力以赴靠上推进，确保了两条道路顺利通车。', '附近居民王霞说：“原先这两条路不通车，出行需要多绕路。现在政府把这条路修起来了，又宽敞又平整，畅通无阻，出行方便多了。”', '“市民有需求，公交有响应”。针对黄岗公交站点服务设施缺失问题，济南公交集团立行立改，建设黄岗公交站候车亭，加装候车座椅，提升了候车环境。针对华能路七里河路路段公交线路较少、市民乘客出行不便的问题，立即派专人进行实地勘察，调研市民具体出行需求，召开分析会对线路运行情况进行深入剖析，结合市民出行需求，最终对536路公交车进行优化调整，增设6个站点，方便了华能路西段沿线居民出行。同样，对于K189路营运班次少、不能满足市民出行需求的问题，该公司将K189路公交车日班次增加到182班，并且投用了5辆18米大容量车型，有效缓解了高峰时段高满载的情况。', '济南市社保卡“一卡通”建设在交通出行领域与北京等先进城市存在一定差距，尚未实现刷社保卡乘坐公交地铁。', '为此，济南市人社局积极与济南公交集团、济南轨道交通集团对接，完成刷社保卡乘车系统程序升级、刷卡机具改造等工作；与发卡银行对接，组织协调公交集团、发卡银行、卡商开展多轮技术探讨和可行性研判，建立社保、公交、银行专网链；与省社保中心信息技术部门对接完成160K三代卡制发测试工作。', '6月15日，济南市加载公共交通功能社会保障卡启动仪式在济南市公共交通集团有限公司举行，第三代社保卡正式发行。济南成为省内首个实现社会保障卡加载公共交通功能的城市。', '“以前只知道社保卡能看病买药、领养老金，现在这卡还能乘公交，作为公交老年免费卡用，真是太方便了！”“现在社保卡可以加载公共交通功能全国300多个城市通用，确实便民！”一些市民用社保卡完成了公交刷卡后感叹道。', '让老百姓过上好日子是我们党一切工作的出发点和落脚点，开展主题教育同样如此。在新的赶考路上，济南将以深入开展主题教育为契机，进一步强化广大党员干部宗旨意识，始终同人民站在一起、想在一起、干在一起，凝聚起加快建设“强新优富美高”新时代社会主义现代化强省会的强大力量，向历史和人民交出新的优异答卷。']</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A52" t="n">
+        <v>129</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
           <t>全市主题教育整改整治工作推进会召开</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>2023-08-01</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2023/8/1/art_1861_4955633.html</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>['7月31日，全市主题教育整改整治工作推进会召开。会议深入学习贯彻习近平总书记关于主题教育系列重要讲话和重要指示批示精神，传达学习中央主题教育整改整治工作推进会精神，贯彻落实省委主题教育整改整治有关要求，对深入推进全市主题教育整改整治工作进行安排部署。', '会上，市教育局、市公安局、市自然资源和规划局、市农业农村局、市卫生健康委、市国资委负责同志作了现场交流发言。', '会议指出，深入推进整改整治工作，各部门单位要高度重视，把整改整治作为增强“四个意识”、坚定“四个自信”、做到“两个维护”的直接检验，自觉把思想和行动统一到习近平总书记系列重要讲话和重要指示批示精神上来，统一到中央决策部署和省委、市委工作要求上来，以强烈的政治担当和坚决的斗争精神，推动整改整治工作走深走实，让广大群众真切感受到主题教育带来的显著变化。要敢于动真碰硬，坚持盯住重点、分类施策、抓好专项整治、开门整改、跟踪问效、宣传引导，形成整改整治强大合力，推动整改整治彻底到位。', '会议强调，要认真学习贯彻习近平总书记在四川考察时对主题教育作出的重要指示要求，善始善终、慎终如始，持续抓好理论学习，切实抓好调研成果转化运用，高质量开好领导班子专题民主生活会和基层党组织组织生活会，对第一批主题教育的实效进行科学、客观评估，及早谋划部署第二批主题教育，确保第二批主题教育开好头、起好步。']</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A53" t="n">
+        <v>129</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
           <t>红色供销合作为农市供销社党建引领交出高质量发展报表</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>2023-08-07</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2023/8/7/art_4115_4956032.html</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>['现场观摩仲宫街道穆家村综合服务中心、仲宫供销社、十六里河英雄山供销社、王舍人供销社;历城、章丘、长清等8家区县社负责人上台比拼劲、晒成绩、亮经验、谈收获、练本领……为落实全国总社、省社推进高质量发展会议精神，8月4日，济南市供销合作社召开高质量发展现场推进会。', '今年上半年，全市供销合作社系统各项工作均有新突破，系统经济稳中有进，改革成效获得肯定，“三会”建设实现突破，重点工作倍受关注，发展动能持续增强，为全市系统高质量发展打下了基础、积蓄了力量。', '走进南部山区仲宫街道稻池大型农贸市场，数百平方米的交易大厅内秩序井然，桃子、苹果等时令水果陈列在道路两侧，商贩、消费者正耐心挑选心仪农产品。', '“稻池农贸不收摊位费，管理也规范，周边的果农都愿意来这里交易。”一名果农对记者说。', '稻池大型农贸市场是仲宫供销社与仲宫街道稻池村“社村共建”的成果之一。历城区仲宫供销社利用网络、资源、渠道等多优势为农民提供优质农业系列化服务。一方面，带动村集体经济的稳步增长，另一方面，供销社服务工作触角不断延伸、变强，供销社与稻池村工作双向促进。', '在仲宫供销社，日用品超市、农资超市、农产品收购、药店、理发店、洗浴室、农机具维修等功能一应俱全，早已成为周边农民朋友集消费购物、文体娱乐、信息交流、教育宣传、看病就医为一体的综合性便民服务平台。', '老供销有新作为。今年以来，全市供销社系统紧紧围绕学习宣传贯彻党的二十大精神，以学习贯彻习近平新时代中国特色社会主义思想主题教育为统领，聚焦打造乡村振兴齐鲁样板省会标杆、立足供销合作社职能定位、着眼农民群众生产生活需求，以“项目突破年”为抓手，深入实施“为农服务综合能力提升行动”，团结和带领全市系统广大干部职工心往一处想、劲往一处使，着力从组织建设、主体培育、体系扩张、业务拓展、服务创新等关键领域挖掘增长潜力、提升服务水平，各项工作保持了稳定的发展态势。', '深入开展调查研究，是本次主题教育的主要内容之一。主题教育开展以来，市供销社党组认真贯彻落实中央部署和省委、市委要求，坚持以深化调查研究推进供销合作事业高质量发展，聚集破解深化综合改革、推动全市供销合作事业高质量发展中存在的重点难点堵点问题，科学制定调研方案，从一开始就组织领导班子成员和机关处室、社有企业负责同志到武汉、杭州就推动社有企业做大做强和健康发展考察学习、寻标对标。同时，确定11个重点调研方向内容，党组成员、市管干部每人牵头1个课题深入区县和基层供销社、直属企业以及田间地头、为农服务一线开展调研。', '期间，各党组成员、市管干部深入基层调研150余次，在充分了解实情、广泛征求意见、深入研究思考的基础上，认真撰写了调研报告。', '今年以来，济南市供销合作社系统将主题教育融入日常、抓在经常，按照市委、市政府“项目突破年”部署要求，以深入实施“为农服务综合能力提升行动”为主线，统筹推进“12346”工作计划，把学思想、强党性体现在重实践、建新功上，进一步推进为农服务现代化，推动主题教育落细落实。', '高质量发展现场推进会上，市供销社党组书记、理事会主任黄波把脉当前形势，并为下一步发展阐释重点。', '打造供销系统红色品牌。深入学习“扁担精神”“背篓精神”等老一辈供销人留下的宝贵精神财富，立足“三农”工作大局，叫响“红色供销·合作为农”这一全市供销合作社系统品牌，打造转型升级新形象，增强为农服务硬实力。', '把握两端、两网、两融合“六个重点”，牢牢抓住基层社和社有企业“两个支撑”，优化体系建设布局，提升系统整体实力，一方面，持续实施“供销合作社培育壮大工程”，提高基层社发展质量和服务功能，加快基层赋能，健全组织体系，实现“有人管社、有地办社、有章理社、有业兴社”，织好基层组织“一张网”。另一方面，深入挖掘系统资源潜力，稳健推进新建项目，积极拓展业态模式，壮大供销社有企业、系统内农业龙头企业、专业合作社、经营主体的整体经济实力，着力培育具有较强市场竞争力和行业影响力龙头企业，筑牢新时代综合性合作经济组织的产业基础，提升社有企业发展活力和综合实力。', '着眼农资保供稳价，打造农资流通服务主渠道，为农民群众提供全程、周到、便捷的绿色农资服务;持续推动土地托管服务提质增效，担当农业强市建设生力军;积极融入重要农产品应急保障体系，全力参与、跟进、服务“山东供销智能仓配和应急保障(济南)基地”和“省级区域性粮食安全应急保障基地”建设运营，在服务政府宏观调控、弥补市场失灵中发挥应有作用。', '船行中流更奋楫。接下来，全市供销系统将紧盯全年目标，于细微处用功，在关键处着力，持续深化“为农服务综合能力提升行动”，按照市社“四代会”确立的“12346”工作思路，千方百计把市委、市政府交给供销社的事情办好，高水平高质量交出供销合作社的高分报表，为全面推进乡村振兴加快农业农村现代化、加快建设“强新优富美高”新时代社会主义现代化强省会贡献供销社力量。（来源：济南日报）']</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A54" t="n">
+        <v>129</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
           <t>议题解读关于济南市创建中国快递示范城市促进快递业高质量发展三年行动方案年年起草情况的汇报</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>2023-07-15</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2023/7/15/art_111688_4957415.html</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>['议题解读：关于《济南市创建“中国快递示范城市”促进快递业高质量发展三年行动方案（2023年—2025年）》起草情况的汇报', '快递业是现代流通体系的重要组成部分，是服务生产、促进消费、畅通循环的现代化先导性产业，在服务经济建设、社会发展和人民生活中发挥了不可或缺的作用。近年来，全市快递业紧紧围绕市委市政府工作部署，积极融入强省会战略大局，高效快递网络连通城乡，产业融合持续深化，为助力生产、促进消费、便利群众生活做出了积极贡献。去年快递业务量仅位列全省第3位、全国第35位，行业总体规模仍然偏小，产业协同效应和聚集效应尚未充分发挥，与全国先进城市相比还有较大差距，全国快递枢纽地位和强省会引领带动作用有待提升。', '今年3月，市委改革办会同市邮政管理局，对标副省级及以上城市、万亿俱乐部城市邮政快递业发展情况，分析我市邮政快递业发展存在的差距和问题，提出工作建议，形成《关于加快我市邮政快递业高质量发展的分析报告》。刘强同志作出批示，要求进行系统研究，出台具体方案。3月28日，国家邮政局印发《关于第三批“中国快递示范城市”评选结果的批复》，我市成功获批第三批“中国快递示范城市”。根据国家邮政局《2023年中国快递示范城市创建工作要点》要求，示范城市要健全工作领导机制，制定示范城市创建三年工作方案，并报国家邮政局备案。', '为破解我市快递业痛点、堵点问题，进一步推动行业高质量发展，高水平打造“中国快递示范城市”，今年4月以来，市邮政管理局多次在行业内调研，了解企业发展需求，积极向省邮政管理局沟通汇报，争取省邮政管理局相关支持，并会同市政府办公厅赴郑州、武汉、长沙等地深入考察学习，充分吸收三地在引领快递业高质量发展方面所采取的先进经验做法，起草了《济南市创建“中国快递示范城市”促进快递业高质量发展三年行动方案（2023年-2025年）》（以下简称《方案》），多次向市政府汇报，对《方案》内容进行完善，5月份以来，连续两轮征求市发展改革委、市商务局、市交通运输局等23个市直有关部门的意见，进一步修改完善，最终形成《方案》（审议稿）。', '《方案》结合近年来国务院、省政府有关文件要求，参照国家邮政局《2023年中国快递示范城市创建工作要点》，立足我市实际，按照“一年强基础、两年大提升、三年新跨越”的总体思路，提出了推动快递业高质量发展具体措施和年度任务目标。《方案》分为总体目标、主要任务、保障措施三个部分：', '第二部分为主要任务，重点实施七大工程。一是实施品牌引进工程，培育壮大快递生态产业，引导重点快递品牌企业在济南设立区域总部、功能总部、分拨中心，形成快递生态产业集群。二是实施载体建设工程，推进快递重点项目建设，建成一批国内领先、国际一流的智能快递分拨中心。三是实施网络畅通工程，完善城区快递末端基础设施，加快建设区（县）镇村三级寄递物流体系。四是实施典型引领工程，加强“快递+”能力建设，引导快递与电商、制造业协同发展，畅通农产品上行寄递服务渠道，助力乡村振兴。五是实施创新护航工程，持续优化行业发展环境，落实邮政领域安全监管市级财政事权和支出责任，推进寄递安全监管数字化智慧化建设，改善融资环境。六是实施绿色发展工程，提高行业新能源配送车辆使用比例，开展过度包装和塑料污染两项治理，大力发展绿色快递。七是实施关心关爱工程，发挥党建引领作用，持续开展“暖蜂行动”，抓好快递员群体职业技能培训和职称评审，提升快递员荣誉感、获得感、幸福感。', '第三部分为保障措施，主要从加强组织领导、落实政策扶持、强化资源保障、加强宣传引导4个方面制定了相应措施，以切实保障《方案》落地见效。', '会议听取了关于《济南市创建“中国快递示范城市”促进快递业高质量发展三年行动方案（2023年—2025年）》起草情况的汇报。会议要求，要切实增强对快递业高质量发展重要性的认识，抓好“中国快递示范城市”创建重点任务实施，加快培育壮大快递产业，进一步完善寄递网络体系，提升快递服务经济发展水平，持续优化行业发展环境。']</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A55" t="n">
+        <v>129</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
           <t>市中区全力推动能源互联网产业集聚区建设</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>2023-07-21</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2023/7/21/art_52_4954672.html</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>['近日，山东能源大数据产业园揭牌仪式、2023新能源电力圆桌会议暨新型能源体系研讨会相继在市中区举行，印证着该区大力推进能源互联网产业集聚发展，催生更多能源领域新业态和新模式的铿锵足迹。', '加快能源互联、实现“双碳”目标，是战略性新兴产业发展的必然趋势。如今，随着“二次创业”发展格局逐渐清晰，市中区开启新征程势头正劲。市中区将积极利用辖区能源总部企业集聚优势，进一步融合数字经济、现代金融、智能制造等新兴主导产业，着力打造电、油、气、网协同互济，以融合催生平台、用平台促进融合，实现科技、人才、产业、资本、品牌等互动耦合、协同跃升，助力全市、全省实现能源结构的持续优化和新兴产业的提档升级，全力推动“碳达峰”“碳中和”等战略落地。', '今年以来，市中区坚持“请进来”与“走出去”相结合的思路，理清发展思路，推进规划编制，多次组织召开专家研讨会，邀请来自省能源局、清华大学、国网山东电科院及市中辖区内龙头企业专家、领导为集聚区建设发展把脉献言；先后赴杭州、成都和西安考察调研国家绿色技术交易中心、清华四川能源互联网研究院、浙江大学嘉兴研究院等产业机构，学习先进地区发展能源互联网产业的新理念、好做法；引入专家团队，推进能源互联网产业规划编制，分批次调研全区相关部门和企事业单位，形成《山东能源互联网产业集聚区现状分析报告》，预计7月底前编制完成规划初稿。市中区在规划的基础上，进一步编制推进产业发展的实施意见，结合已初步梳理的产业图谱和专项支持政策，构建“定点爆破”的配套政策，推动形成以产业规划为核心，以配套文件和专班工作推进文件为支撑的“1+N”顶层设计体系。', '有影响力和竞争力的优势载体平台，是集聚资源要素的重要支撑和依托，也是提质增效的突破口和主战场。今年以来，市中区聚力招商引资，点燃发展动能，净增能源相关企业15家，累计集聚能源相关企业201家，整体产业规模突破1800亿元，同比增长12.5%；先后打造智慧能源站、绿色校园分布式光伏试点等应用场景18个，应用场景进一步丰富；山东能源互联网绿色低碳示范基地、能源大数据产业园等重点载体相继揭牌，产业资源加快集聚；中实易通、未来网络研究院、山东电力锅检中心成功备案市级重点实验室，由国网山东电力推进建设的火石工业互联网平台作为全省唯一以能源为特色的工业互联网双跨平台上报至工信部，创新引领产业能级跃升。', '牢固树立“项目为王”理念，市中区全力推动能源互联网产业相关项目提速增效。目前，国家管网集团山东区域总部项目已注册落地，完成过渡用房装修，预计7月底前完成办公区验收入驻。洁源电池项目总投资7000万元，已完成厂房改建，预计7月底前投产。山科集群项目计划投资5亿元建设新能源光储充换电站基础设施网络和大数据平台，目前即将注册落地。', '能源互联网的“市中魅力”为下一步产业集聚发展奠定了坚实基础。同时，市中区注重提升产业氛围和品牌影响力度，组织新能源（光储充换）产业对接活动、港华燃气综合能源管理项目对接会、新能源汽车应用场景吹风会等产业活动，促成企业供需对接；进行2023年产业联盟首次扩容，新吸纳未来互联、北方智企等9家能源互联相关企业加入联盟，联盟会员单位由最初的65家发展到145家；召开“2023新能源电力圆桌会议暨新型能源体系研讨会”，邀请来自全国能源领域的业内专家和企业领袖共同探讨“碳达峰、碳中和”目标下的新能源电力发展和新型能源体系建设，打造“政企媒”融合发展的典范。', '市中区通过多年来持续不断发展和积累，具备了发展能源互联网产业的独特优势。也正是这些资源和优势，让人看到了能源互联网产业支撑市中未来发展的信心和希望。随着能源互联网产业的不断壮大，市中必将成为全市能源企业总部发展的制高点和山东新能源产业升级的策源地，成为山东对外开放的桥头堡，为加快建设强省会贡献源源不断的“市中力量”。']</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A56" t="n">
+        <v>129</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
           <t>市政府党组召开扩大会议</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>2023-07-15</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2023/7/15/art_1861_4954300.html</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>['7月14日下午，市政府党组召开扩大会议，学习贯彻习近平总书记在中央全面深化改革委员会第二次会议上、在江苏考察时、在中央政治局第六次集体学习时的重要讲话精神，对党的建设和组织工作、对防汛救灾工作作出的重要指示精神，研究贯彻落实意见。市委副书记、市长、市政府党组书记于海田主持会议并讲话。', '会议指出，习近平总书记的重要讲话和重要指示，高屋建瓴、立意深远，为我们做好当前和今后一个时期各项工作指明了前进方向、提供了根本遵循。各级各部门要学习好实践好党的创新理论，深入学习把握习近平新时代中国特色社会主义思想的理论体系，深刻领会党的创新理论的精神实质和丰富内涵，做好以学促干，走好群众路线。要以更严要求更实举措不断把学习贯彻习近平新时代中国特色社会主义思想主题教育引向深入，努力把主题教育成果转化为开创新局面、实现新发展、建设强省会的实绩实效。要坚定不移全面深化改革，持续深化农业农村改革，积极推动能耗双控向碳排放双控转变，充分激发省会发展活力。要加快建设现代化产业体系，坚持工业强市战略不动摇，争当高水平科技自立自强“排头兵”，着力推动高水平对外开放。要扎实做好防汛救灾工作，坚决树牢底线思维，健全完善指挥体系，抓好隐患排查整治，加强风险监测预警。要纵深推进全面从严治党，进一步压实管党治党政治责任、深化正风肃纪，不断加强干部队伍建设。', '会议还传达学习了习近平总书记在6月30日中央政治局会议上、在同团中央新一届领导班子成员集体谈话时的重要讲话等近期系列重要讲话、重要指示精神和重要贺信回信复信精神；学习了《推进领导干部能上能下规定》等内容，审议了市政府党组主题教育典型案例。']</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A57" t="n">
+        <v>129</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
           <t>济南市党政代表团到西藏白朗县考察调研对口支援工作</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>2023-07-14</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2023/7/14/art_96449_4954250.html</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>['7月11日至12日，市委书记刘强率济南市党政代表团到西藏自治区日喀则市白朗县，深入贯彻习近平总书记关于西藏工作的重要指示精神和新时代党的治藏方略，学习感悟“老西藏精神”，落实鲁藏两省区工作座谈会部署，考察调研对口支援工作，推动对口支援工作进一步走深走实。西藏自治区政府副主席、日喀则市委书记斯朗尼玛参加活动。', '在西藏期间，刘强拜访了西藏自治区党委主要负责同志，汇报了济南市贯彻落实习近平总书记关于西藏工作的重要指示精神，扎实开展对口支援工作情况以及下一步工作打算。', '在日喀则市白朗县巴扎乡彭仓村，刘强走进村史馆、蔬菜大棚，详细了解彭仓村发展历程、果蔬产业发展、乡村振兴援藏项目建设等情况。在珠峰现代农业科技创新博览园，刘强察看了玻璃温室、蔬菜大棚建设运营情况，听取了济南市对口支援工作开展情况的汇报。在白朗县退役军人事务局，刘强详细了解济南市帮扶白朗县退役军人事务局解决基础设施问题及双拥共建工作开展等情况，参加援助资金捐赠仪式。在济南援藏公寓，刘强看望慰问了援藏干部人才，并走进餐厅、宿舍等处，详细了解援藏干部人才生活情况，向大家表示问候和感谢，希望大家勇于奉献、团结担当，忠实履行职责使命，在对口支援工作中作出更大贡献。', '刘强指出，对口支援白朗县是党中央和山东省委交给济南市的重大政治任务，做好对口支援工作是济南的分内之事、应尽之责。对口支援工作启动以来，济南市始终把白朗县的事当作自己的事，双方携手在促进发展、保障民生、增进交流等方面做了大量工作。新起点上，济南市将坚决贯彻落实习近平总书记在中央第七次西藏工作座谈会上的重要讲话精神和在西藏考察时的重要指示要求，全面贯彻新时代党的治藏方略，认真落实好鲁藏两省区工作座谈会部署，把白朗县的需求作为努力方向和工作重点，用心用情用力做好对口支援工作，以实际行动坚定拥护“两个确立”、坚决做到“两个维护”。济南市各级各部门要进一步提高政治站位，切实增强使命感、责任感，落实好省区各项工作部署，进一步抓紧抓实、优化完善重点工作，不断深化拓宽合作领域，高质量做好对口支援各项工作。要支持白朗县培育壮大特色产业，在果蔬、育种、畜牧等领域进一步加强合作。要扎实推进乡村振兴，着重做好产业振兴、组织振兴，推动基层党组织结对帮扶与协作交流。要深入推进医疗教育帮扶，加强医疗教育人才跟班培训、线上培训，深化“组团式”援藏。要积极推进劳务合作，提供便利、精准的就业服务。要深化拓展合作领域，加强人文交流、文旅合作等，实现优势互补、共同发展。要加强援藏队伍建设，不断提升工作质效，关心援藏队员的身心健康和工作生活。援藏干部和专技人才要切实发扬好“老西藏精神”，在工作中展现出济南干部良好的精神风貌和务实的工作作风，努力在“第二故乡”建功立业、书写精彩。济南市委、市政府将为援藏干部人才全身心投入工作创造良好条件。', '斯朗尼玛代表日喀则市委、市政府和全市各族干部群众感谢济南市委、市政府和济南人民长期以来给予日喀则市的无私支援。他说，党的十八大以来，在以习近平同志为核心的党中央特殊关怀下，在自治区党委的坚强领导下，在济南市等援藏省市、企业的无私支援下，日喀则坚定拥护“两个确立”、坚决做到“两个维护”，深入学习贯彻习近平总书记关于对口支援工作的重要论述、关于西藏工作的重要指示和新时代党的治藏方略，求真务实、真抓实干，开创了政治安定、社会稳定、经济发展、民族团结、宗教和睦、生态良好、边防巩固、人民安居乐业的良好局面。这些成绩的取得，离不开济南市委、市政府的大力支持，离不开济南人民的无私支援和援藏干部人才的辛勤付出。多年来，济南市委、市政府始终站在讲政治、顾大局的高度，把对口支援白朗县作为重大政治任务，推动白朗县各项事业取得全方位进步、历史性成就。济南市援藏干部人才牢记使命、不负重托，扎实推进“三交”援藏、民生援藏、产业援藏、智力援藏、经贸援藏、生态援藏，为白朗县各项事业发展注入了强劲动力。当前，日喀则正深入贯彻习近平新时代中国特色社会主义思想和党的二十大精神，大力践行“四敢”要求，争创一流、奋勇争先，努力建设西藏区域副中心城市和面向南亚开放的中心城市。济南、日喀则各具资源禀赋，各有发展优势，合作前景巨大。希望双方深入贯彻落实山东·西藏对口支援工作座谈会精神，把日喀则所需与济南所能结合起来，围绕改善民生、凝聚人心，在文旅、就业、教育、医疗、科技等领域深化合作，密切两地干部群众往来，促进各民族交往交流交融。日喀则将倍加珍惜济南市的无私支援，一如既往关心爱护援藏干部人才，一如既往地为济南对口支援工作提供最优服务、搭建最好平台，推动济南对口支援工作取得更大成效。']</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A58" t="n">
+        <v>129</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
           <t>市委常委会召开会议</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>2023-06-06</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2023/6/6/art_1861_4951569.html</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>['6月5日，市委常委会召开会议，学习贯彻习近平总书记在中央政治局第五次集体学习时的重要讲话精神和二十届中央国家安全委员会第一次会议、二十届中央审计委员会第一次会议精神，学习贯彻习近平总书记在文化传承发展座谈会上、在北京育英学校考察时的重要讲话精神以及习近平总书记近期有关重要回信、贺信精神，研究贯彻落实意见；研究主题教育、夏季高考和初中学业水平考试等工作。', '会议指出，习近平总书记的重要讲话和重要回信贺信站位高远、内涵丰富，我们要结合济南实际，抓好贯彻落实。要全面落实加快建设教育强国的部署要求，加强学校思政教育，推进教育均衡发展，做好中高考准备工作。要提高审计监督服务保障能力，抓好审计问题整改，提升审计干部队伍专业能力水平，推动我市审计工作高质量发展。要坚持底线思维和极限思维，持续增强维护国家安全的能力，更好统筹发展和安全。要扎实推进文化“两创”，推动济南文化事业文化产业发展。会议学习了《领导干部报告个人有关事项规定》，强调各级各部门要认真履行全面从严治党主体责任，切实抓好《规定》贯彻执行，坚决维护报告制度的严肃性和权威性。', '会议听取了关于全市主题教育开展情况和下步工作安排的汇报，强调要完善提醒机制，严明纪律要求，深入开展专项整治，确保主题教育取得扎实成效。', '会议听取了关于2023年夏季高考和初中学业水平考试准备情况的汇报，强调各级各部门要以极端负责的精神精心安排部署，确保“两考”安全平稳顺利进行。']</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A59" t="n">
+        <v>129</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
           <t>市政府研究室赴杭州市学习考察数字社区建设工作</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>2023-06-13</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2023/6/13/art_73714_4952065.html</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>['按照市政府研究室主题教育安排，6月7日至9日，市政府研究室党组成员、副主任徐龙义带领市政府研究室、山东大学组成的联合调研组赴杭州市，学习考察数字社区建设工作。', '调研组一行首先来到杭州市上城区杨柳郡未来社区，实地参观了杨柳郡社区邻里生活服务中心、智慧健康站、党群服务中心等数字社会应用场景，学习了社区融合“交通+商业+住宅+公园”的创新模式、“5-10-15”分钟生活圈、“156+X”第三空间体系等未来社区建设的经验做法。', '在杭州市上城区红梅社区，调研组实地参观了红梅社区未来邻里中心。该中心集社区服务、老年康养、商业便民、文化活动于一体，同步推进提升社区党建、共建融合、数字治理体系建设，着力构建“远亲不如近邻”的未来邻里场景。', '调研组来到杭州市滨江区缤纷未来社区进行实地参观，重点考察了“旧改”社区数字化建设情况。该社区以旧城改造为契机，对社区的楼廊空间、社区数字化管理与服务平台、未来生活实验室、未来社区健康服务中心等设施与数字化平台进行了建设完善，为老旧小区数字化建设提供了经验借鉴。', '随后，调研组与杭州市政府研究室、滨江区政府办公室、滨江区综合执法局、滨江区住建局、滨江区社会治理中心等单位，就推进数字社区建设工作进行座谈交流，围绕推进机制、资源力量、考核评价、居民参与等方面进行了深入交流研讨。下一步，市政府研究室将进一步聚焦居民需求，深入研究数字社区建设实施路径，切实将主题教育学习成果转化为提升基层治理水平和促进高质量发展的实际成效。']</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A60" t="n">
+        <v>129</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
           <t>市供销社党组书记理事会主任黄波到山东供销资本投资集团有限公司学习考察</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>2023-06-08</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2023/6/8/art_4115_4951772.html</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>['6月6日下午，济南市供销社党组书记、理事会主任黄波带队一行，到山东供销资本投资（集团）有限公司考察学习社有企业改革和资本运营平台组建、合作发展基金运作等情况，对接参与、跟进、服务“山东供销智能仓配和应急保障（济南）基地”项目情况。市供销社党组成员、理事会副主任齐玉鹏和市供销社有关处室负责同志参加学习考察。省供销社二级巡视员、山东供销资本投资（集团）有限公司党委书记、董事长吴俊英陪同参加考察座谈。', '考察组在山东供销资本投资（集团）有限公司会议室举办座谈会，听取了山东供销资本投资（集团）有限公司的组织架构、制度建设、管理运营及发展规划等工作情况，听取了“山东供销智能仓配和应急保障（济南）基地”项目前期筹建、规划设计、运作模式等相关情况，并分别就资本运营平台筹建中遇到的问题和困难、参与“山东供销智能仓配和应急保障（济南）基地”项目建设等，与公司负责同志进行了深入交流探讨。', '此次学习考察既开阔了眼界，又学到了解决问题推动工作的真答案、好办法，进一步坚定了抢抓机遇，加快发展的信心和决心。下一步，济南市供销社将进一步统一思想认识，强化制度建设，凝聚工作合力，理顺社企关系，强化顶层设计，通过机制改革、资源整合、制度建设等方式，优化社有资本布局，加快形成社有资产整合发展的格局，不断提升为农服务综合能力，持续推动在乡村振兴中发挥更大作用，为加快建设“强新优富美高”新时代现代化强省会和打造乡村振兴齐鲁样板省会标杆作出供销贡献。']</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A61" t="n">
+        <v>129</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
           <t>专家解读济南市数字人民币试点工作实施方案</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>2023-06-07</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2023/6/7/art_2607_4958387.html</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>['曹廷求，男，管理学博士，“泰山学者”特聘教授，教育部“新世纪优秀人才支持计划”入选者，国家社科基金重大招标项目首席专家，山东省政协港澳台侨和外事委员会特聘专家，山东省人大常委会预算审查监督专家咨询委员会成员。现为山东大学银行治理研究中心主任、教授、博士生导师。', '山东大学银行治理研究中心主任曹廷求表示，济南市坚持以习近平新时代中国特色社会主义思想为指导，认真贯彻落实党的二十大精神，统筹发展和安全，实现高质量发展和高水平安全的良性互动。坚持顶层设计、系统谋划、形成合力，落实数字中国建设整体布局规划与数字济南建设目标任务，全市数字化转型步伐不断加快，支持高质量发展的动力不断增强。', '曹廷求：济南是山东省省会，既是全省的政治、经济、科教、文化、金融中心，也是黄河流域中心城市，开展数字人民币试点，具有良好的优势条件。', '2021年11月25日，中国人民银行等八部委联合印发了《山东省济南市建设科创金融改革试验区总体方案》，济南正式获批建设全国首个科创金融改革试验区，数字人民币试点正是在科创金融改革试验区建设的大框架下，服务于重大战略，通过金融支持推动各项改革创新举措不断涌现。济南市高度重视金融科技的发展，今年3月份印发了《关于加快推进金融科技发展的实施意见》，重点任务包括完善金融科技基础设施建设，加快数字人民币配套设施建设，全面引导金融科技企业落实央行数字人民币试点要求，以深化试点促进技术创新，积极推动驻济金融机构、商户、企业完成数字人民币系统改造，加强创新场景应用开发。7月26日，市政府召开新闻发布会，对《济南市建设科创金融改革试验区加快现代金融产业发展若干扶持政策》进行发布，并针对社会各界关心的问题作出解答。这些政策的出台体现了济南市推进金融改革发展事业，推进创新试点的态度和决心。', '济南市作为山东数字强省建设的龙头城市，率先提出打造数字先锋城市。在产业基础方面，数字经济核心产业占比达17%以上、数字经济占GDP比重达到47%，在2022年数字经济排行榜上，位居全国第六位。济南市齐鲁软件园为我国最早成立的“四大软件园”之一，目前已经是山东省首批数字经济园区和省内唯一国家新型工业化产业示范基地，形成了大数据、集成电路、人工智能等主导产业，涌现出浪潮、金现代、华天软件、神思电子等数字经济领域的龙头企业。此外，位于市中区的山东数字经济产业园正加快发展，章丘区龙山数字经济产业园等园区载体建设提速加力，济南市数字产业的雄厚优势正逐步显现。', '积极引导各类金融机构推出科创专项信贷产品，鼓励支持科技创新类企业发展。相继推出了“人才贷”等人才金融品牌，启动高层次人才创业保险试点，发挥保险对创业活动的支持保障作用。组织开展“金融创新”项目评选，鼓励各金融机构推动产品和服务的创新，以创新型金融服务支持产业数字化、数字产业化转型，助力地区经济社会高质量发展。推行“金融辅导员+科技辅导员”服务模式，精准对接科技型企业融资服务需求，助力新型试点工作在济南的落地推进。', '在试点城市获批的半年多来，济南市组织了数字人民币考察学习组，赴苏州、深圳等地学习数字人民币试点的先进经验。在结合其他城市经验和济南市数字经济发展基础上，制订出台了《南市数字人民币试点工作实施方案》作为试点工作的指导性文件，明确了年度工作任务和部门分工责任，为形成工作合力，高效推进试点工作提供了保障。从试点场景建设方面来看，截至7月末，济南市数字人民币试点已经在代发工资、交通出行、健康医疗、智慧校园、零售消费等90余类场景实现数字人民币结算无缝嵌入。从数字人民币的使用数据来开看，累计开立数字人民币钱包152.33万个，累计交易24.51亿元。']</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A62" t="n">
+        <v>129</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
           <t>市委常委会召开会议</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>2023-06-14</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2023/6/14/art_1861_4952110.html</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>['6月13日，市委常委会召开会议，学习贯彻习近平总书记在内蒙古巴彦淖尔考察并主持召开加强荒漠化综合防治和推进“三北”等重点生态工程建设座谈会、在内蒙古考察、在内蒙古调研边境管控和边防部队建设情况时的重要讲话精神，致首届文化强国建设高峰论坛开幕的重要贺信精神，研究贯彻落实意见。', '会议指出，习近平总书记的重要讲话和重要指示要求，站位高远、精辟深邃，为我们做好工作提供了根本遵循。全市各级要紧密结合实际，抓好贯彻落实。要深入开展学习贯彻习近平新时代中国特色社会主义思想主题教育，统筹推进各项任务落实，抓紧抓实以学正风，大兴务实之风，弘扬清廉之风，养成俭朴之风，确保取得实实在在成效。要坚持山水林田湖草沙一体化保护和系统治理，持续打好污染防治攻坚战，不断增强生态系统的多样性、稳定性、持续性。要统筹抓好国防教育、国防动员、双拥共建等工作，努力争创全国双拥模范城“十连冠”。', '会议学习了《中国共产党党和国家机关基层组织工作条例》，强调要坚持把党的政治建设摆在首位，树立大抓基层的鲜明导向，扎实推进党建和业务深度融合，持之以恒推进正风肃纪，全面提升我市机关党建工作质量。']</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A63" t="n">
+        <v>129</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
           <t>我市从五个方面重点突破提升司法行政工作质效</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>2023-06-01</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2023/6/1/art_1812_4951240.html</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>['5月31日上午，济南市委市政府召开“凝心聚力抓项目 蓄势赋能促发展”主题系列发布会，介绍法治济南建设的有关情况。济南将加快建设济南中央法务区，全面对接区域金融中心和总部经济区，吸引更多名优法律服务机构入驻，打造立足山东半岛、辐射黄河流域、对接京津冀、融入“一带一路”的法治新高地。', '市委依法治市办副主任、市司法局党委书记、局长孙德龙介绍，2023年，济南市司法局将扎实落实市委市政府“项目突破年”任务要求，不断提升司法行政工作服务高质量发展能力水平。着力从以下5个方面重点突破：', '在优化法治营商环境上重点突破。高标准推动政府年度立法计划落实，积极开展“小快灵”“小切口”立法，推动解决城市治理中的难点堵点问题。深化“无证明城市”建设，持续推行证明事项告知承诺制，有力推进减证便民。做好《济南市名泉保护条例》《济南市优化营商环境条例》等地方性法规规章宣传实施，为城市发展提供有力制度保障、营造良好法治氛围。', '在提升法律服务质效上重点突破。整合法律服务资源，发挥“12348”热线平台作用，加快建设覆盖城乡、便捷高效、均等普惠的现代公共法律服务体系。开展“法律援助惠民生”行动，年内办理法律援助案件不少于1.5万件。充分发挥“一站式”多元调解中心作用，加快构建大调解工作格局，维护社会安全稳定。', '在法治建设示范创建上重点突破。对标对表中央示范创建指标体系，分解量化指标，补齐短板弱项，强化统筹协调，压实工作责任，全力争创全国法治政府建设示范市，争取更多区县和项目达到全省、全国示范区县、项目标准。', '在中央法务区建设上重点突破。以一流标准打造济南中央法务区，全面对接区域金融中心和总部经济区，吸引更多名优法律服务机构入驻，打造立足山东半岛、辐射黄河流域、对接京津冀、融入“一带一路”的法治新高地。高标准建设全国一流的市级公共法律服务中心、多元调解中心、法律援助中心等“十大中心”，打造融公共法律服务、矛盾纠纷化解、全民普法宣传等多功能于一体的区域法治服务新高地。', '在数字赋能上重点突破。高标准建设数字依法治市、数字政府法治、数字执法监督、数字执法办案、数字公共法律服务、数字多元调解、数字监狱、数字矫正、数字法律援助、数字法治乡村等数字司法行政“十大平台”，推动执法监督实现全程化、可视化，法律服务更加便利化、个性化，基层治理更加精准化、规范化，以数字化助力司法行政工作现代化，不断满足人民群众对法治的新需求和新期待。', '法治政府建设示范创建活动每两年开展一次。“全国法治政府建设示范市”是全面推进依法治市的标志性成果，是优化营商环境、提升城市美誉度的金字招牌，是城市软实力和核心竞争力的重要体现。', '市委依法治市办成员、市政府参事、新闻发言人皇甫庆森介绍，市委、市政府高度重视示范创建工作，近期还将召开高规格的动员推进会议，对示范创建工作作进一步的部署要求。市委依法治市办、市司法局作为法治政府示范创建工作的具体牵头部门，正全力推进相关工作。', '在加强组织领导方面，成立了由市委、市政府主要负责同志任组长，9名市领导任副组长的高规格创建领导小组，充分发挥掌舵定盘作用；成立了由12位市领导分别挂帅的工作专班和督导组，具体推进创建指标落实工作。', '在压实创建责任方面，市委依法治市委员会印发《济南市创建全国法治政府建设示范市工作实施方案》，细化分解140项具体创建任务，明确了50个市直部门单位、各区县（功能区）责任分工。上周还组织开展了全面依法治市专题培训班，邀请专家对28个重点部门的业务骨干、15个区县（功能区）的司法局负责人进行专题辅导，同时，组织力量赴西安等创建成功城市考察学习，切实提升抓指标促落实的能力水平。', '在推进重点突破方面，围绕市民群众关心关注的行政执法领域突出问题，组织开展“规范执法、惠企利民”专项行动，扎实推进道路交通安全和运输执法领域突出问题专项整治，全力降低行政复议纠错率、行政应诉案件败诉率，以点带面切实补齐短板弱项，增强示范创建总体竞争力。', '在凝聚创建合力方面，组织市直部门、各区县（功能区）积极参与全省法治政府建设示范创建，在全省率先开展市级层面的示范创建活动，调动各级各部门创建积极性，形成同频共创良好氛围。目前，历下区、莱芜区、市中区、济阳区获评全省法治政府建设示范区，3个项目、2个单位获评全省法治政府建设示范项目、先进典型，全市选树法治政府建设先进单位36个。']</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A64" t="n">
+        <v>129</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
           <t>济南市武隆区东西部协作党政联席会议召开</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>2023-05-31</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2023/5/31/art_80535_4951144.html</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>['5月30日，济南市—武隆区东西部协作党政联席会议在龙奥大厦召开，进一步深化双方交流、推动东西部协作工作。济南市委书记刘强，重庆市武隆区委书记何庆参加会议。', '联席会议上，济南市与武隆区介绍了两地经济社会发展情况及东西部协作工作开展情况。双方就协作有关具体问题进行了深入交流讨论。', '刘强代表济南市委、市政府对重庆市武隆区党政代表团来济表示欢迎。他说，深化两地东西部协作，是济南、武隆学习贯彻习近平总书记关于东西部协作工作重要论述、全面落实党的二十大精神的具体举措，是深入开展学习贯彻习近平新时代中国特色社会主义思想主题教育的生动实践。去年以来，济南与武隆发挥各自优势，不断深化合作，双方协作取得了扎实成效。武隆区委区政府带领全区干部群众，统筹疫情防控和经济社会发展，各项工作都保持了好势头、取得了新进展。下一步，济南市将持续深化文旅协作、产业协作、开放交流、人力资源协作、消费协作，采取更加扎实有力的举措，推动双方协作事项落地见效，开创济武协作发展新篇章。', '何庆代表武隆区委、区政府和全区干部群众向济南市委、市政府表示衷心感谢。他说，通过考察学习，济南市大手笔的城市规划、高标准的现代产业、勇争先的干部队伍，给代表团留下了深刻印象，这些好做法好经验值得武隆认真学习借鉴。去年以来，济南市与武隆区在产业协作、人文交流、平台共建方面取得了新成效、新进展、新亮点，不断续写新时代的“山海情”。希望与济南市委、市政府共同推动两地合作交流向多层次、宽领域、全方位迈进，携手打造文旅协作、产业协作、开放协作、人才协作的“升级版”，奋力交出对口协作“高分报表”。', '在济期间，重庆市武隆区党政代表团先后到天桥区、章丘区、历下区，考察果蔬育种、党建引领乡村振兴、返乡青年人才创业等情况，开展对口协作有关工作。']</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A65" t="n">
+        <v>129</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
           <t>刘强调研儿童友好城市建设时强调创造有利于儿童全面发展的美好环境</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>2023-06-02</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2023/6/2/art_1861_4951286.html</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>['“六一”国际儿童节到来，市委书记刘强6月1日上午到市中心医院东院区调研儿童友好城市建设。他强调，少年儿童是国家的希望、城市的未来。要深入学习贯彻习近平总书记在北京育英学校考察时的重要讲话精神，营造良好社会氛围，提升城市软硬件水平，扎实推进儿童友好城市建设，努力创造有利于儿童全面发展的美好环境。', '在市中心医院东院区，刘强察看了儿童室外活动区、健康训练区和儿童健康促进中心等处，听取济南儿童友好医院、市中心医院儿科建设情况介绍。儿童友好医院通过实施色彩优化、童趣设计、设施改造、配套完善等一系列儿童友好提升项目，为就诊儿童营造了和谐友爱充满乐趣的医院环境。刘强与医院负责人、儿科医护工作者深入交流，询问儿童友好医院诊疗服务、功能区分、患者就诊等情况。他说，通过儿童友好提升改造，医院就诊环境和服务更有利于儿童患者康复治疗。这是打造儿童友好城市的有益探索。要进一步完善功能配套，充分发挥儿童友好医院优势特点，为广大儿童提供高水平健康医疗服务。', '不久前，济南成功入选第二批建设国家儿童友好城市名单。刘强在调研中听取了市妇联关于儿童友好城市建设情况的汇报，详细了解儿童友好社区、儿童友好公园、儿童友好学径、儿童友好数字化等工作开展情况。刘强指出，开展儿童友好城市建设，从“一米高”的角度谋划城市发展和社会治理，让城市看见孩子们，让孩子们了解城市，对于推动孩子与城市共同成长至关重要。要扎实深入开展儿童友好城市建设，在全社会营造尊重儿童、热爱儿童、保护儿童的浓厚氛围，创造更加有利于儿童全面发展的美好环境，让儿童健康快乐地茁壮成长，享有更加美好的未来。', '刘强代表市委、市政府向全市少年儿童致以节日祝贺。他说，少年儿童是祖国的花朵和未来。希望广大少年儿童牢记习近平总书记的谆谆教诲，树立远大志向、胸怀爱国之情、传承优良品德，争当德智体美劳全面发展的新时代好儿童。']</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A66" t="n">
+        <v>129</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
           <t>领导干部解读济南市加快工业互联网创新发展实施工赋泉城行动计划年</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>2023-06-22</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2023/6/22/art_2607_4957456.html</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>['为加快推进我市工业互联网创新发展进一步走深走实，市政府印发了《济南市加快工业互联网创新发展实施“工赋泉城”行动计划（2023-2025年）》（以下简称《行动计划》），济南市工业和信息化局党组成员、总经济师王冲鶄解读如下：', '工业互联网是第四次工业革命的重要基石，是数字经济和实体经济深度融合的关键底座，是新型工业化的战略性基础设施，全面支撑产业数字化、网络化、智能化转型。济南市抢抓机遇、前瞻布局，2020年率先出台《济南市工业互联网创新发展行动计划（2020-2022年）》，谋划实施“2+6+N”战略。经过三年的深入推进，工业互联网网络基础设施、平台体系、试点示范、产业生态等取得显著成效。当前，工业互联网发展进入规模化应用的快速成长期，为深入贯彻落实党中央和省市决策部署，更好地谋划推进未来一个阶段发展工作，市工信局接续制定了《济南市加快工业互联网创新发展 实施“工赋泉城”行动计划（2023-2025年）》，经市政府第40次常务会研究审议通过后，于6月21日印发。', '《行动计划》包括总体要求、重点任务、保障措施3方面的主要内容。总体要求部分：围绕加快建设工业强市和数字先锋城市的总体目标，实施“工赋泉城”行动，力争到2025年，工业互联网新型基础设施量质齐升、平台体系建设不断完善、融合应用创新成效凸显、产业生态体系进一步健全、安全保障支撑更加有力，全面建成国内领先的工业互联网创新发展示范高地。重点任务部分：制定了5大任务、18项具体行动：一是夯实网络基础。围绕网络基础建设，提出推动网络基础设施升级、深化企业内外网改造、推进标识解析体系建设、加快算网一体化发展等4项具体行动。二是提质平台能级。围绕平台建设和服务能力提升，提出做强做优做大国家级“双跨”平台、深入培育特色专业型平台、加快提升平台服务水平等3项具体行动。三是深化应用赋能。发挥工业互联网赋能作用，提出打造典型应用示范场景、加快中小企业数字化转型、推动工业互联网一体化进园区、助力重点行业绿色转型发展等4项具体行动。四是培优产业生态。围绕建设创新引领的产业发展生态，开展建设工业互联网服务集群、加快关键核心技术攻关、参与标准制定与试点、加快建设公共服务平台、推进区域协同创新发展等5项具体行动。五是筑牢安全屏障。围绕工业互联网安全建设，提出落实企业安全主体责任和提升安全供给能力2项具体行动。保障措施部分：主要提出强化工作推进机制、加强财政金融支持、加大人才引育力度、深化拓展合作交流4个方面的保障措施。', '当前，工业互联网进入规模化应用发展的关键阶段，我们将从以下三方面开展工作，提升工业互联网应用赋能水平。一是发挥典型应用示范引领作用。聚焦冶金钢铁、电子信息、装备制造、生物医药等重点行业和一批重点企业，征集发布供需对接项目清单，加强精准对接，拓展工业互联网应用新模式，打造一批工业互联网标杆工厂、灯塔工厂和晨星工厂等工业互联网应用示范项目，充分发挥引领带动作用，形成“点-线-面”全领域应用发展新格局。二是加快企业数字化转型步伐。当前，工业企业数字化转型的整体需求与工业互联网服务商的碎片化供给之间还存着矛盾，围绕企业数字化转型中普遍存在的“不会转、转不起、不敢转”问题，我们将一方面开展数字化诊断，采用政府购买服务的方式，创新性开展数字化转型诊断免费服务，计划3年为1000家以上企业“诊断把脉”，帮助企业找准关键“病灶”，量身定制数字化转型“药方”，解决“不会转”的难题。另一方面强化政策支持，加大市级财政资金支持力度，引导设立工业互联网创新发展基金，解决“转不起”的难题。同时，进一步完善产业生态，加快提升“双跨”、特色等重点平台服务水平，集聚全国优秀的工业互联网各领域服务商，搭建供需对接平台，持续开展对接活动，解决“不敢转”的难题。三是提升工业互联网赋能园区发展水平。打造10个以上工业互联网园区，发挥现有园区产业的集聚优势，组织开展工业互联网一体化进园区活动，引导政策、网络、标识、平台、安全、要素等产业资源向园区集聚，提升园区资源优化配置和监测预警能力，推动工业互联网赋能园区高质量发展。', '根据济南市《政府工作报告》“实施‘工赋泉城’专项行动，建设一批智能化工厂、数字化车间”的工作要求，今年以来，市工信局高标准谋划开展了一系列促进工业互联网供需对接、赋能实体经济发展的惠企活动。一是开展专题培训。围绕工业互联网内涵、发展趋势、场景应用、政策解读等内容进行理论讲解、实践案例及应用经验分享，开阔企业家思维，加快推进工业互联网应用普及。二是组织精准对接。聚焦企业数字化转型需求，分地区、分行业、分领域帮助需求企业与服务供应商精准高效对接，挖掘一批工业互联网创新应用示范项目，加快企业数字化转型步伐。三是举办主题沙龙。为企业提供创新创业、数字化转型、管理咨询、投融资、市场开拓等专业服务和多方资源，开启思维碰撞，携手共促发展。四是策划专题调研。组织企业考察团参观应用中心、园区载体、优秀企业等，学习工业互联网优秀案例和应用场景,借鉴先进、查补不足，提升企业工业互联网应用水平。']</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A67" t="n">
+        <v>129</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
           <t>济南市人民政府办公厅临沂市人民政府办公室关于印发贯彻落实济南临沂对口合作实施方案重点任务分工方案和济南临沂对口合作年工作要点的通知</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>2023-06-29</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2023/6/29/art_116027_4954521.html</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>['济南市人民政府办公厅 临沂市人民政府办公室关于印发贯彻落实《济南—临沂对口合作实施方案》重点任务分工方案和济南—临沂对口合作2023年工作要点的通知', '经济南市政府、临沂市政府同意，现将《贯彻落实〈济南—临沂对口合作实施方案〉重点任务分工方案》《济南—临沂对口合作2023年工作要点》印发给你们，请认真抓好贯彻落实。', '为深入贯彻落实《济南—临沂对口合作实施方案》（鲁政办字〔2023〕31号）要求，推动济南—临沂对口合作工作走深走实，结合济南市、临沂市实际，制定分工方案如下。', '1.深入挖掘沂蒙精神丰富内涵和时代价值，组织开展红色文化论坛、“红色文化主题月”等系列活动，助力红色文化传播。（两市市委宣传部牵头，两市市委组织部、文化和旅游局分工负责）', '2.将沂蒙精神列入济南市委党校（济南行政学院）教学内容，根据教学需要组织主体班次学员到沂蒙革命老区开展现场教学。（两市市委组织部、市委党校分工负责）', '3.支持济南、临沂两市合作共建沂蒙红色文化传承发展示范区，打造沂蒙精神研究传承高地，探索新时代传承弘扬红色沂蒙精神新路径。（两市市委宣传部牵头，两市文化和旅游局、临沂市沂蒙精神研究中心分工负责）', '4.联合开展烈士纪念设施规划建设修缮管理维护“五年行动”，加大华东革命烈士陵园、济南革命烈士陵园等烈士纪念设施的管理维护力度，打造一批具有示范效应和教育功能的烈士纪念设施。（两市退役军人局分工负责）', '5.在文物保护、融合发展、合理利用等方面相互学习借鉴，围绕孟良崮战役遗址、朱村革命遗址、中共中央山东分局旧址、中共山东省工委旧址、莱芜战役指挥所旧址等革命老区红色遗址，建立交流协作机制。推动莱芜区、沂南县两地高标准创建省级革命文物保护利用示范区。（两市文化和旅游局牵头，两市退役军人局、有关区县政府分工负责）', '6.全面整合两市红色旅游资源，协同开发一批精品红色旅游线路和文旅产品，编制红色文旅对口合作专项实施方案，打造文化旅游合作升级版。联合策划文旅推介活动，支持和参加对方举办的各类文旅活动。倡导两市互为旅游客源地和目的地，加速推进两地文化旅游深度融合。共同研发旅游宣传载体，构建信息化旅游行业管理和公共服务互助体系。（两市文化和旅游局分工负责）', '7.立足临沂市资源禀赋和产业基础，培育一批助力巩固拓展脱贫攻坚成果与乡村振兴有效衔接的特色产业基地和新型农业经营主体。（临沂市乡村振兴局负责）', '8.全面整合两市农业资源优势，结合协作帮扶前期成果，编制乡村振兴对口合作专项实施方案。在保持两市原有协作帮扶结对关系（历下区—沂水县，市中区—费县，天桥区—蒙阴县，槐荫区—沂南县，济南高新区—临沂高新区）的基础上，组织指导协作帮扶结对区县（功能区）编制协作帮扶暨对口合作实施方案，打造乡村振兴合作升级版。（两市乡村振兴局，有关区县政府和功能区管委会分工负责）', '9.推进易地扶贫搬迁后续扶持工作，完善安置区公共服务和基础配套,加强易地扶贫搬迁信息调度和监测，进一步巩固搬迁脱贫成果。鼓励济南市民营企业、社会组织到临沂市开展巩固拓展脱贫攻坚成果与乡村振兴有效衔接工作。加强两市劳务合作，促进两地人口流动，带动农民增收致富。（两市发展改革委、人力资源社会保障局、乡村振兴局及济南市民营经济局、临沂市中小企业发展服务中心分工负责）', '10.充分发挥济南农业生产科技优势和临沂自然资源及“物流之都”优势，创新规模化、标准化、订单式生产模式，利用济南农产品展销平台、电商平台，联合招引一批名优特农副产品生产加工项目，支持和引导临沂特色农产品在济销售。（两市农业农村局、商务局分工负责）', '11.共同推进临沂农产品检验检测体系建设，打造农产品“产自临沂”品牌。共同发展精致农业、体验农业、智慧农业，推进全产业链融合发展，打造都市型现代农业产业体系。（两市农业农村局牵头，临沂市检验检测中心分工负责）', '12.加快推动两市政务服务“跨域通办”，实现信息互通、数据共享。（两市行政审批服务局、大数据局分工负责）', '13.加快推进以县城为重要载体的城镇化建设，依托各类开发区、产业集聚区、农民工返乡创业园等平台，引导产业集中集聚。（两市发展改革委分工负责）', '14.加强两市在城市规划建设、重点工程谋划、城市建设投融资模式等方面的经验交流，推动城乡要素自由流动、平等交换和公共资源合理配置。（两市住房城乡建设局、发展改革委、自然资源和规划局、城市建设投融资平台分工负责）', '15.借鉴济南市在城市更新中加强城乡历史文化保护传承方面的经验做法，支持临沂市开展城市更新和历史文化名城保护建设。（两市住房城乡建设局、自然资源和规划局、文化和旅游局分工负责）', '16.统筹铁路、公路、民航、物流等基础设施规划建设，加强两市交通互联互通，编制交通基础设施衔接互通专项实施方案,打造基础设施合作升级版。（两市交通运输局牵头，两市发展改革委、济南市口岸物流办、临沂市公路事业发展中心、临沂市铁路民航事业发展中心、临沂商城管委会、临沂国际机场有限公司分工负责）', '17.合力推动京沪高铁辅助通道、莱芜至临沂高铁等规划建设。加快建设济南绕城高速公路二环线西环段、临淄至临沂、临沂至滕州、京台高速公路改扩建等项目，加快推进董梁高速、蒙阴至邳州等高速公路项目。加快推进济南遥墙国际机场二期改扩建、临沂启阳机场航站楼改扩建及附属工程等项目，支持济南遥墙国际机场打造国际枢纽机场、临沂启阳机场打造区域枢纽机场。（两市交通运输局牵头，两市发展改革委、临沂市公路事业发展中心、临沂市铁路民航事业发展中心、临沂国际机场有限公司分工负责）', '18.深入推进济南、临沂国家物流枢纽联动发展,共同做好济南临沂城市群国家综合货运枢纽补链强链工作。加快建设齐鲁号中欧班列集结中心，推动济南、临沂中欧班列高质量发展。（两市交通运输局、济南市口岸物流办、临沂市发展改革委、临沂市铁路民航事业发展中心、临沂商城管委会分工负责）', '19.充分发挥济南市在新型基础设施领域的建设示范引领作用，加大5G、工业互联网、人工智能等新型基础设施建设力度，支持临沂市重点行业企业进行工业物联网改造和数字赋能。支持临沂市在智慧工厂、园区、农业、文旅、教育、环保、医疗、交通等典型场景开展5G示范应用建设。（两市工业和信息化局牵头，两市发展改革委、科技局、大数据局分工负责）', '20.深化两市在生态空间共保、环境问题共治、绿色理念共享等方面的交流合作，编制生态环保对口合作专项实施方案。（两市生态环境局分工负责）', '21.合作开展节能减排共性关键技术及成套装备研发生产，共同组织实施重点节能技术改造项目。引导济南市市场主体、社会资本积极参与临沂生态资源交易平台、生态产品价值核算等建设项目，合作开发特色生态资源和资产，共同探索生态产品价值实现机制。（两市发展改革委、自然资源和规划局分工负责）', '22.共同完善绿色低碳导向的价格、金融等政策，建立绿色产品认证采信制度，引导各类资源要素向绿色低碳产业集中。发挥两市国家物流枢纽优势，协同打造“集约、高效、绿色、智能”城市绿色货运配送服务体系。（两市发展改革委、交通运输局、市场监管局、地方金融监管局及济南市口岸物流办、临沂商城管委会分工负责）', '23.支持临沂特色农业、绿色食品生产加工企业与济南精深加工企业开展合作，联合打造济临绿色食品特色品牌。（两市农业农村局牵头，两市工业和信息化局分工负责）', '24.积极引导临沂企业充分嫁接济南市场、金融、科技、信息等优势领域，整合两市优质产业资源，编制产业协作专项实施方案，做大做强优势产业，打造产业合作升级版。（两市工业和信息化局分工负责）', '25.支持临沂组织企业“走出去”学习济南市发展典型成功经验，鼓励济南组织优势企业开展“济南优势企业老区行”活动。（两市国资委、济南市民营经济局、临沂市工业和信息化局、两市工商联分工负责）', '26.依托济南市装备制造优势，带动临沂市工程机械产业转型升级。支持济南市精品钢及深加工产业与临沂市临港精品钢和先进特钢产业在技术研发、平台建设等方面深入合作。鼓励两市优势产业从加工制造向研发设计、创新驱动、品牌营销拓展，引导济南高端产业链条向临沂延伸，形成“济南总部+临沂生产”发展格局，实现两地产业高质量发展。（两市工业和信息化局牵头，两市发展改革委、济南市钢城区政府、临沂临港经济技术开发区管委会分工负责）', '27.推动两市在新一代信息技术、机器人与智能装备、生物医药、新能源、新材料等领域开展有效需求对接，加强技术合作，协同促进相关成果产业化。（两市工业和信息化局牵头，两市发展改革委、科技局分工负责）', '28.鼓励济南市新一代信息技术、智能装备、新能源等行业企业在临沂市建设生产基地，促进两市产品流通和市场开拓。支持临沂电子元器件产业嵌入济南市新一代信息技术产业链条，形成产业发展共同体。（两市工业和信息化局牵头，两市发展改革委、科技局分工负责）', '29.支持济南新旧动能转换起步区与临沂沂河新区深化合作，探索协同建设产业园区新路径。（济南新旧动能转换起步区管委会、临沂市沂河新区管委会分工负责）', '30.支持济南高新区与临沂高新区联动发展，在产业互动、项目对接、创新创业、科技研发等领域开展深入合作。（济南高新区管委会、临沂高新区管委会分工负责）', '31.鼓励两市国家级经济技术开发区在园区规划、政策措施等领域加强合作，促进产业优势互补、联动发展。（济南市明水经济技术开发区管委会、临沂市沂河新区管委会分工负责）', '33.加强两市创新资源整合、交流、共享，打造协同创新共同体，支持临沂市“双创”示范基地建设。引导两市加强产学研合作，组织开展科技对接交流等活动。（两市发展改革委、科技局分工负责）', '34.积极推动济南先进科研院所和技术转移机构落地临沂，在临沂设立研发中试基地，支持建设省技术成果交易中心临沂分中心。推动济南先进科技成果与临沂企业嫁接，深化两地科技研发成果熟化转化。依托两市大数据、云计算和社交平台等资源，联合打造产学研协同创新网络。（两市科技局牵头，两市大数据局分工负责）', '35.充分发挥临沂“物流之都”优势，推动物流业与三次产业协同发展，提升供应链管理科技含量。依托物联网、人工智能、自动导航、区块链等技术，实现全自动化运输、智能化仓储管理、智能分拣、智能物流追踪，提升两地物流业智慧发展水平。（济南市口岸物流办、临沂商城管委会分工负责）', '36.鼓励两地物流企业交流合作，积极招引绿地全球商品贸易港、盖世智慧供应链枢纽、中国北方生活消费品（济南）分拨中心等重点项目在临沂设立分厂或合作机构，大力发展第三方、第四方物流，联合培育一批综合供应链物流服务领先领军企业。（济南市口岸物流办、自贸试验区济南片区管委会、临沂市投资促进服务中心、临沂市商城管委会分工负责）', '37.推动职业教育协作发展，支持优质职业院校（技工院校）跨市服务，推动校校合作、校企合作、贯通培养，建设人才成长“立交桥”，支持临沂建设高技能人才强市。（两市教育局牵头，两市人力资源社会保障局分工负责）', '38.鼓励两市探索建立教育领域双向挂职交流机制，推进两市各学段学校间的对口交流协作。（两市教育局分工负责）', '39.依托济南国家级产教融合城市，支持临沂建设省级产教融合型城市、园区。（两市教育局分工负责）', '40.支持两市相关高校、科研机构等联合成立对口合作智库联盟，系统开展科学性、前瞻性研究。（两市教育局牵头，两市科技局分工负责）', '41.支持两市相互参与对方主办、承办的国际国内医疗卫生学术研讨会，共同推广山东大学齐鲁医院与兰山人民医院合作远程诊疗经验，鼓励两地医疗机构共建“区域＋专科联盟”点面结合、全专互补的医联体，协同推进两市法定药品检验检测机构能力提升，逐步建设与医药产业发展和监管事权相匹配的实验室。（两市卫生健康委牵头，济南市场监管局、临沂市检验检测中心分工负责）', '42.完善异地就医直接结算制度体系，优化异地就医直接结算流程，提高联网直接结算率。发挥健康领域龙头企业示范引领作用，充分利用临沂道地药材产区、山水温泉等自然资源优势，推动两地医养健康产业协同发展。（两市医保局、卫生健康委及临沂市农业农村局、临沂市文化和旅游局分工负责）', '43.支持将蒙阴县作为两市党性教育、研学旅游优选地，引导两市国有企业、工商资本参与蒙阴县旅游康养项目开发建设，积极推介蒙阴县文旅康养资源，打造济南市民休闲研学优选地。（两市市委组织部、文化和旅游局、卫生健康委、国资委及蒙阴县政府分工负责）', '44.支持济南农产品深加工企业在蒙阴县布局，引导济南市有关行业协会商会、各大商场超市和农贸市场与蒙阴县农业专业合作社、联合社开展长期合作，组织标准化、订单式生产，支持蒙阴县建设济南市优质农产品供应基地。（两市农业农村局牵头，蒙阴县政府分工负责）', '45.济南市级协作帮扶资金统筹用于支持临沂稳定脱贫攻坚成果、衔接推进乡村振兴，注重有效资源、产业高效整合，加大向蒙阴县倾斜支持力度。（两市乡村振兴局牵头，两市财政局、蒙阴县政府分工负责）', '46.突出蒙阴县毗邻济南的区位优势，围绕战略性新兴产业、高端装备制造、康养设备及食品制造、现代商贸物流等领域，建设符合济南—蒙阴发展方向的特色园区，在蒙阴县合作共建济临经济协作区。（两市发展改革委牵头，蒙阴县政府、两市相关部门分工负责）', '47.依托蒙阴县突出的生态优势和丰富的生态系统生产总值（GEP）核算成果，加快融入济南都市圈，为蒙阴县承接产业转移、开展项目合作、招商推介、服务人才交流、转化科技成果提供支持。（两市发展改革委牵头，蒙阴县政府、两市相关部门分工负责）', '48.济南市协作帮扶资金统筹用于巩固拓展脱贫攻坚成果，衔接推进乡村振兴，重点支持衔接推进区建设，建设宜居宜业和美乡村。（两市财政局、乡村振兴局分工负责）', '49.积极争取中央、省政策性资金和省新旧动能转换基金支持，提高转移资金绩效，在对上争取预算内投资时优先考虑支持济临合作项目，对符合条件的专项债项目积极予以支持。鼓励社会资本通过市场化方式支持对口合作重大项目建设。（两市发展改革委、财政局分工负责）', '50.完善政府与社会资本合作机制，深入开展政银企对接活动，支持济南科创金融改革试验区与临沂普惠金融服务乡村振兴改革试验区开展交流合作，增强科创金融、普惠金融、新市民金融服务等重点领域的政策沟通、经验互鉴和信息共享，发挥各自优势实现跨区域协同创新效应。鼓励两市金融服务机构开展交流合作，积极发挥创业投资、股权投资功能作用，服务两地实体经济发展。（两市地方金融监管局牵头，两市发展改革委、中国人民银行济南分行营业管理部、临沂市银保监分局、中国人民银行临沂市中心支行分工负责）', '51.积极组织两地互派干部挂职交流，支持两地区县（功能区）通过结对、部门对口选派等方式开展定向挂职。（两市市委组织部分工负责）', '52.鼓励临沂企事业单位与济南知名院校、科研院所共建“高校基础培养＋企业科研实训”的人才培养体系，支持临沂每年邀请一批济南高等院校教授专家参加对口合作科技研讨交流会，促进高等院校教授专家与临沂企业签订合作协议。（两市教育局、科技局及临沂市工业和信息化局分工负责）', '53.加强两地人才服务合作，积极引导双方高端人才参与两地创新创业。完善济南高层次人才“入临”绿色通道，鼓励在济学者、院士等高层次人才赴临支持临沂产业和企业发展。（两市市委组织部、人力资源社会保障局及临沂市委人才发展服务中心分工负责）', '为贯彻落实《济南—临沂对口合作实施方案》（鲁政办字〔2023〕31号）工作任务要求，推进济南、临沂两市对口合作深入开展，现制定2023年工作要点。', '1.加强红色文化传承弘扬。组织开展“红色文化主题月”活动，发挥文旅融合优势，组织博物馆、纪念馆等机构举办各类红色展览活动。围绕各地红色资源，加大研究和合作力度，深化对沂蒙精神的研究和宣传。（责任单位：两市市委宣传部、市委组织部、文化和旅游局）', '2.突出沂蒙精神教育培训。将学习沂蒙精神与开展学习贯彻习近平新时代中国特色社会主义思想主题教育结合起来，列入两市市委党校主体班次教学计划。加强济南市委党校（济南行政学院）同沂蒙干部学院的交流合作，每年邀请沂蒙干部学院专家教授到济南市委党校（济南行政学院）授课不少于2次，并利用“云直播”平台，面向市直部门（单位）、区县党校进行线上直播。根据教学需要组织济南市委党校（济南行政学院）主体班次学员到沂蒙革命老区开展现场教学。（责任单位：两市市委组织部、市委党校及沂蒙干部学院）', '3.共同推进革命文物和烈士纪念设施保护利用。推动莱芜区、沂南县两地高标准创建省级革命文物保护利用示范区，联合开展烈士纪念设施规划建设修缮管理维护“五年行动”，共同提升两市烈士纪念设施管护水平。围绕两地革命文物保护利用，在文物保护、融合发展、合理利用等方面相互学习借鉴，建立交流协作机制。（责任单位：两市文化和旅游局、退役军人局）', '4.提升公共文化服务水平。依托两地公共图书馆、美术馆、博物馆、文化馆等公共文化机构，加强两地在服务理念、服务模式、服务内容等方面的交流合作。（责任单位：两市文化和旅游局）', '5.深化红色文旅融合发展。整合两市红色旅游资源，联合编制红色文旅对口合作专项实施方案。大力开展文旅外宣推介，利用两市各类媒体宣传矩阵平台相互推介旅游线路和特色文化旅游产品。联合策划文旅推介活动，支持和参加对方举办的各类文旅活动。发挥两市资源优势，策划设计一批以济南、临沂为核心的连线旅游产品。（责任单位：两市文化和旅游局）', '6.巩固易地扶贫搬迁成果。推进易地扶贫搬迁后续扶持工作，完善安置区公共服务和基础配套，强化搬迁家庭就业情况监测，进一步巩固搬迁脱贫成果。（责任单位：两市发展改革委）', '7.深入开展两地劳务协作。采取专场招聘会、线上岗位推送等方式，为两地用人单位和求职者提供就业服务，帮助脱贫人员实现转移就业，助力拓展脱贫攻坚成果与乡村振兴有效衔接。（责任单位：两市人力资源社会保障局、乡村振兴局）', '8.推进两市协作帮扶工作。全面整合两市农业资源优势，结合协作帮扶前期成果，联合编制乡村振兴对口合作专项实施方案。组织筹备2023年度济南—临沂协作帮扶联席会议。（责任单位：两市乡村振兴局）', '9.强化资金帮扶力度。济南市筹措财政协作帮扶资金，按照财政协作帮扶资金总体保持稳定的要求，落实市区两级财政协作帮扶资金，支持临沂市巩固拓展脱贫攻坚成果，推进乡村振兴。临沂市紧抓与省基金公司签定战略合作协议的有利契机，积极争取省新旧动能转换基金支持，拓展省市基金联动业务，重点支持济临经济协作区内产业招引、科研成果转化等项目。（责任单位：两市乡村振兴局、财政局及临沂市发展改革委）', '10.积极培育优质农产品。发挥济南种业发达和临沂自然资源及“物流之都”优势，进一步加强两地种业企业合作交流。邀请“产自临沂”品牌农产品与“泉水人家”品牌一同进社区展示展销。围绕打造生态绿色产品、提高农产品质量品牌等进一步深化合作，共同创建规模化、标准化、订单化生产模式，推进临沂农产品检验检测体系建设。（责任单位：两市农业农村局、临沂市检验检测中心）', '11.拓宽农产品销售渠道。积极利用济南农产品展销平台和电商平台优势，向外拓展延伸临沂优质农产品，实现临沂优质农产品进济南商场超市等。（责任单位：两市农业农村局、商务局）', '12.推动基础设施互联互通。统筹铁路、公路、民航、物流等基础设施规划建设，加强两市交通互联互通，编制交通基础设施衔接互通专项实施方案。（责任单位：两市交通运输局、发展改革委及济南市口岸物流办、临沂市公路事业发展中心、临沂市铁路民航事业发展中心、临沂商城管委会、临沂国际机场有限公司）', '13.畅通综合交通运输通道。加快京沪高铁辅助通道临沂段建设，推动莱芜至临沂、临沂至连云港高铁前期工作。加快京台高速齐河至济南段、济广高速济南至菏泽段、临淄至临沂、临沂至滕州、临沂至徐州等高速公路建设。积极推进济南遥墙国际机场二期改扩建工程、临沂启阳机场航站楼改扩建及附属工程建设。（责任单位：两市交通运输局、发展改革委及临沂市公路事业发展中心、临沂市铁路民航事业发展中心、临沂国际机场有限公司）', '14.推进物流体系建设。抢抓两市入选国家综合货运枢纽补链强链首批城市的战略机遇，加快济铁物流园、山东建投新丝路中俄物流产业园等综合货运枢纽项目建设。加快建设齐鲁号中欧班列集结中心，推动济南、临沂中欧班列高质量发展。做好临沂国际陆港、临空、临东、临港、山东港汇国际物流园等“四枢纽一园区”项目谋划建设推进工作，全力构建高效运输服务体系。加快临沂市32个传统物流园区整合搬迁，推进设立临沂综合保税区B区，打造仓配一体、园线一体的高能级物流枢纽经济先行区。依托临沂商城集团等国有企业，搭建专线物流业务交易平台，整合专线资源，完善多式联运信息平台功能，拓展临沂商城云计算中心应用，建设区域物流大数据中心。（责任单位：两市交通运输局、济南市口岸物流办、临沂市发展改革委、临沂市公路事业发展中心、临沂市铁路民航事业发展中心、临沂商场管委会）', '15.加强新基建领域交流合作。加大5G、工业互联网、人工智能等新型基础设施建设力度，推动新一代信息技术与农业、制造业、服务业深度融合，支持重点行业企业进行工业物联网改造和数字赋能，推进临沂激光科技产业园、沂蒙云谷等建设。在智慧工厂、园区、农业、文旅、教育、环保、医疗、交通等典型场景开展5G示范应用建设。（责任单位：两市工业和信息化局、发展改革委、科技局、大数据局）', '16.推进新型城镇化建设。加快推进以县城为重要载体的城镇化建设，加强两市在城市规划建设、重点工程谋划、城市建设投融资模式等方面的经验交流，推动城乡要素自由流动、平等交换和公共资源合理配置。（责任单位：两市发展改革委、住房城乡建设局、自然资源和规划局、城市建设投融资平台）', '17.加强城市更新交流合作。借鉴济南市在城市更新中加强城乡历史文化保护传承方面的经验做法，支持临沂市开展城市更新和历史文化名城保护建设。（责任单位：两市住房城乡建设局、自然资源和规划局、文化和旅游局）', '18.加强产业协作。推进高端装备、智能制造、精品钢、冶金新材料等优势产业协同发展，加强产业分工协作，促进产业链上下游融通发展，共同编制产业协作专项实施方案。（责任单位：两市工业和信息化局）', '19.助推优质产业转型升级。推动两市新能源、新材料、高端装备制造等产业对接，促进两市产业优势互补、联动发展。强化两地在移动互联网、大数据、云计算、物联网等领域开展合作，加快推动商贸流通、工业生产、金融服务等领域信息化发展。（责任单位：两市工业和信息化局、发展改革委）', '20.提升园区共建合作水平。鼓励两市国家级经济技术开发区和重点产业园区对接合作，加强在园区规划、政策措施等领域的共享与合作，探索共建“济—临”对口合作示范园区。加强临沂沂河新区与济南新旧动能转换起步区合作共建产业园区，在产业、科创、人才等方面深入交流对接，协同探索“科创飞地”。加强济南高新区与临沂高新区联动发展，在产业互动、项目对接、创新创业、科技研发等领域开展深入合作。（责任单位：两市有关功能区管委会）', '21.加强“双创”协同合作。加强两市创新资源整合、交流、共享，打造协同创新共同体，支持临沂市“双创”示范基地建设。推动临沂大学科技园和济南大学科技园开展合作，深化两地在政策制定、园区开发、项目导入及人才引进等领域对接，实现产学研纵深推进。积极推动济南市先进科研院所和技术转移机构落地临沂，在临沂设立研发中试基地。推动省技术成果交易中心临沂分中心建设，深化两地科技研发成果转化合作。（责任单位：两市发展改革委、科技局）', '22.强化项目招引落地。围绕主导产业发展需求，加大招商引资力度，积极参与济南招商推介会，鼓励济南企业赴临沂考察交流。积极策划推介临沂在新一代信息技术、机器人与智能装备、生物医药、新能源、新材料等领域的招商项目，根据两市产业契合度，着力提升项目招引能力和精准度。充分发挥济南支持总部经济引进和发展的相关政策优势，积极打造“济南总部+临沂生产”的发展格局。（责任单位：两市发展改革委、济南市投资促进局、临沂市投资促进服务中心）', '23.密切工商界往来。加强两市商会、企业家协会间的沟通交流，增进对两市招商引资政策与营商环境信息了解，组织济南国有企业、民营企业开展“济南优势企业老区行”活动，临沂适时组织企业“走出去”学习济南市发展典型成功经验。（责任单位：两市国资委、工商联及济南市民营经济局、临沂市工业和信息化局）', '24.合力促进生态保护绿色发展。深化两市在生态空间共保、环境问题共治、绿色理念共享等方面的交流合作，编制生态环保对口合作专项实施方案。（责任单位：两市生态环境局）', '25.加强生态保护和修复。推进沂蒙山世界地质公园、沂沭河流域生态廊道建设，统筹山水林田湖草沙系统治理，在科学绿化等领域加强交流，互相学习借鉴，共同探索新机制、新方式，推动林草湿地（生物多样性）、水环境治理等工程相得益彰，促进一体化保护和修复。（责任单位：两市生态环境局、自然资源和规划局、农业农村局及济南市园林和林业绿化局、临沂市林业局、济南市水务局、临沂市水利局）', '26.多渠道开发碳汇项目。鼓励济南市市场主体、社会资本通过联建联营、绿化冠名、股份合作等方式，积极参与临沂国土绿化和生态保护修复，提升生态系统碳汇能力，推进提升生态系统碳汇增量。引导支持济南金融机构、社会主体参与临沂森林等生态资源交易平台、生态产品价值核算、林业碳汇开发交易等建设项目，合作开发特色生态资源和资产，创新绿色金融产品和服务方式。（责任单位：济南市园林和林业绿化局、临沂市林业局及两市发展改革委、自然资源和规划局、生态环境局）', '27.培育发展绿色产品。完善绿色低碳导向的价格、金融等政策，建立绿色产品认证采信制度，引导各类资源要素向绿色低碳产业集中。发挥两地物流枢纽优势，协同打造“集约、高效、绿色、智能”城市绿色货运配送服务体系。鼓励济南绿色产品精深加工企业与临沂特色农业和绿色食品生产加工企业合作，联合打造济临特色绿色食品品牌。（责任单位：两市发展改革委、工业和信息化局、交通运输局、农业农村局、市场监管局、地方金融监管局及济南市口岸物流办、临沂商城管委会）', '28.构建协调推进体系。编制实施济临经济协作区产业发展规划、空间规划及实施方案，加强与两市合作方案的衔接配套。（责任单位：两市发展改革委、蒙阴县政府）', '29.推进产业园区合作。规划布局济临经济协作区起步区，加强在产业规划、园区建设等领域的交流合作。依托济临经济协作区起步区、蒙阴经济开发区、孟良崮工业园，加强与济南龙头企业、科研院所对接交流，组织开展产业承接转移对接活动，招引一批工业项目和产学研转化项目。（责任单位：两市发展改革委、工业和信息化局、科技局及济南市投资促进局、临沂市投资促进服务中心、蒙阴县政府）', '30.加快基础设施建设。加快济临经济协作区起步区基础配套设施建设，启动董家口至梁山高速公路蒙阴段工程，加快蒙阴至邳州高速公路建设，进一步织密“南接北融”的交通网络。加快推进新型城镇化建设，实施新能源汽车充电网、城市大脑·智汇赋能、垛庄镇小城镇建设等项目。（责任单位：蒙阴县政府）', '31.推动红色文旅融合发展。推动两市把蒙阴作为党性教育、研学旅游、主题培训的优选地，积极组织“红色教育进蒙阴”活动。制定济南、临沂市民游蒙阴优惠政策，策划济南、临沂到蒙阴“两日游”“三日游”精品旅游线路，谋划建设济南—临沂文旅发展综合服务中心项目，推动萌乐世界、云蒙明珠、金水前城等文旅项目建设。依托节庆日推出媒体、旅行社走进蒙阴采风活动，举办蒙阴（济南）旅游推介会、桃花旅游节、环湖自行车赛、蒙山丰收节等活动。（责任单位：两市市委组织部、市委宣传部、市委党校、文化和旅游局及蒙阴县政府）', '32.全面拓展乡村振兴。出台济临协作区乡村振兴工作实施方案，加快实施乡村振兴领域合作。支持龙头农业企业和合作社发展，培育优质农产品供应基地。强化蒙阴蜜桃等特色农产品宣传推介，在济南开展蒙阴优质农产品推介活动，鼓励济南商场超市等设立“蒙阴优质农产品”专柜、专区。加大蒙阴在济招商引资力度，积极引进预制菜食品、营养健康食品等优质农业项目。（责任单位：两市农业农村局、商务局及济南市投资促进局、临沂市投资促进服务中心、蒙阴县政府）', '33.加快蒙阴县在济“科研飞地”建设。济南高新区协助蒙阴县做好“科研飞地”选址，蒙阴县整合在济企业科研力量，加快建设科技研发中心，借助济南科技创新优势，加强双方在科技研发、成果转化方面的合作。（责任单位：两市发展改革委、科技局及济南高新区管委会、蒙阴县政府）', '34.促进基础教育交流合作。济南市向临沂市提供济南市教育资源公共服务平台资源，推动两地义务教育特色学科资源共建共享。每学年选派20名左右教师，赴临沂开展支教，并就普通高中学科基地建设开展交流学习活动。（责任单位：两市教育局）', '35.深化高等教育及职业院校合作。支持驻济高校与驻临高校深化学术交流，围绕对口合作举办论坛、会议等。加强两市职业院校专业建设、教育教学方面的交流合作，支持两市职业院校开展中职“3＋2”对口贯通培养，完善人才培养模式，推动校校合作、校企合作，实现优质资源共建共享。（责任单位：两市教育局）', '36.推进医疗卫生合作。相互参与对方主办、承办的国际国内医疗卫生学术研讨会，共同推广山东大学齐鲁医院与兰山人民医院合作远程诊疗经验，鼓励两地医疗机构共建“区域＋专科联盟”点面结合、全专互补的医联体。加强两市药品检验机构合作交流，充分发挥济南、临沂地产药材和种植基地优势，联合开展地产中药材指标成份检验检测、标准制（修）订等工作，逐步加强药品检验检测能力建设。（责任单位：两市卫生健康委、济南市市场监管局、临沂市检验检测中心）', '37.完善异地就医直接结算制度体系。优化异地就医直接结算流程，提高联网直接结算率和异地联网定点医疗机构数量，积极开展异地就医政策宣传和业务培训，做好济临异地就医问题协同处理。（责任单位：两市医保局）', '38.加快推动商事登记“跨域通办”。依托省市场监管局企业登记系统，推动两市企业登记“跨域通办”。通过信息互通、数据共享，健全完善企业申报材料异地受理核验、证照互通互认的济临企业登记“一体化”办理模式。（责任单位：两市行政审批服务局、大数据局）', '39.继续深化协作帮扶区县（功能区）合作。在保持两市原有协作帮扶结对关系（历下区—沂水县，市中区—费县，天桥区—蒙阴县，槐荫区—沂南县，济南高新区—临沂高新区）的基础上，继续深化合作，共同编制结对区县（功能区）对口合作实施方案。（责任单位：两市有关区县政府和功能区管委会）', '40.拓宽区县（功能区）合作范围和领域。在重点推进结对区县（功能区）对口合作的基础上，其他各区县（功能区）发挥各自优势，加强协作互补，提升合作效能。历城区发挥历城二中名校资源优势，推进与莒南县在教育领域的对口合作。钢城区加强与临沂临港经济开发区、罗庄经济开发区等开发区合作发展，协同打造精品钢产业基地及深加工产业集聚区。（责任单位：两市各区县政府和功能区管委会）', '41.加大资金保障力度。梳理中央、省预算内投资和地方政府专项债券等有关政策，做好对区县（功能区）和项目单位的政策宣讲，指导涉及济临合作项目的区县（功能区）和单位提前做好项目申报准备，对符合要求的项目予以优先推荐。鼓励社会资本通过市场化方式支持对口合作重大项目建设。（责任单位：两市发展改革委、财政局）', '42.加大金融保障力度。充分发挥济南“海右”路演大厅和临沂当地路演平台的作用，鼓励双向交流互动，积极发挥创业投资、股权投资功能作用，推动两地社会资本为两市实体经济发展提供优质服务。加强金改试验区交流合作，畅通济南科创金融改革试验区与临沂普惠金融服务乡村振兴改革试验区交流合作渠道，增强两市在科创金融、普惠金融等重点领域的互动交流，充分发挥各自区域优势，实现协同创新效应。（责任单位：两市地方金融监管局、发展改革委及临沂市银保监分局、中国人民银行济南分行营业管理部、中国人民银行临沂市中心支行）', '43.加大人才保障力度。组织两地互派干部挂职交流，支持两地区县（功能区）通过结对共建、对口选派等方式深入开展定向挂职，深化相关地区和领域的双向交流与合作。主动对接社会需求，积极引导临沂职业院校共同参与产教融合共同体和市域产教联合体建设工作，实现“人才链、教育链、产业链、创新链”贯彻融通。临沂每年邀请一批济南高等院校教授专家参加对口合作研讨交流会，促进高等院校教授专家与临沂企业签订合作协议。（责任单位：两市市委组织部、教育局、工业和信息化局、人力资源社会保障局）']</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A68" t="n">
+        <v>129</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
           <t>济南市党政代表团赴甘肃临夏开展东西部协作工作</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>2023-06-20</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2023/6/20/art_1861_4952559.html</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>['6月19日，市委副书记、市长于海田率领济南市党政代表团赴甘肃省临夏回族自治州，深入贯彻落实习近平总书记关于深化东西部协作的重要指示精神，开展东西部协作互访交流，实地考察协作项目建设，召开济南市援派临夏州挂职干部和专技人才座谈会，推动两地东西部协作走深走实。临夏州委书记郭鹤立，州委副书记、州长何东参加活动。', '济南市党政代表团一行来到临夏州永靖县黄河文化博览馆，考察了解黄河上游生态环境治理以及黄河文化传承弘扬等工作；在刘家峡大桥，考察沿库经济带旅游经济发展情况；在东乡县布楞沟村，听取了脱贫攻坚和乡村振兴示范村建设等情况介绍；在达板工业园，详细了解济临东西部协作项目——甘肃穆聚斋食品有限公司、临夏回香斋食品有限责任公司建设运营情况；在和政古动物化石博物馆，深入了解临夏历史文化和化石保护工作等情况。在临夏技工学校，于海田和郭鹤立共同为山东济南·甘肃临夏山东蓝翔技师学院临夏分院揭牌，实地考察了产教融合、职业技能培训等情况；在临夏市百益亿农国际鲜花港，考察了智慧农业发展和产业链建设等情况；在折桥树莓产业基地，详细了解现代农业和农旅融合发展等情况。于海田表示，临夏州充分发挥自然资源优势，在推动农业产业发展和文化传承等方面的经验做法值得济南市认真学习。希望双方今后进一步深化交流合作，聚焦发展需求和资源禀赋，拓展产业协作深度，携手开创高质量发展新篇章。', '在济南市援派临夏州挂职干部和专技人才座谈会上，济南市赴临夏州挂职干部领队汇报了两地东西部协作工作情况，挂职干部和专技人才代表作了发言。', '会上，于海田代表市委市政府向奋斗在援派临夏一线的挂职干部和专技人才致以诚挚问候。他说，习近平总书记关于深化东西部协作的重要指示为做好东西部协作工作指明了努力方向、提供了根本遵循。我们要进一步提高政治站位，坚决扛牢东西部协作光荣使命，聚焦临夏所需，发挥济南所能，不折不扣把党中央重大决策部署落到实处，以实际行动坚定拥护“两个确立”，坚决做到“两个维护”。要进一步强化实干担当，扎实做好各项重点任务，在产业、乡村振兴、消费、文旅、公共服务等协作上下功夫、求实效。广大挂职干部和专技人才要倍加珍惜学习历练的机会和舞台，进一步强化实践历练，持续加强能力作风建设，加强磨炼提能力，改进作风勇担当，精诚团结聚合力，推动东西部协作工作取得更大成效。全市各级各相关部门单位要全力解决好援派干部人才工作、生活等方面的实际困难，建立健全服务保障机制，让大家心无旁骛干事创业。', '郭鹤立说，自国家新一轮东西部协作关系调整以来，济南市坚决贯彻落实习近平总书记关于深化东西部协作的重要指示精神，真金白银开展项目帮扶，牵线搭桥落实消费帮扶，深化合作推进产业帮扶，探索创新拓展帮扶领域，推动济临协作逐步走向区域协调发展、协同发展、共同发展。在这一过程中，全体挂职干部和专技人才与临夏广大党员干部群众心手相牵、并肩作战，用心用情用力做好各项工作，为推动临夏高质量发展作出了积极贡献。希望济南市充分发挥各类优势，在招大引强、产业培育、人才交流等方面深化协作，与我们一道携手共进、互利互惠，共同谱写“同饮黄河水、共筑中国梦”的崭新篇章。', '济南市委常委、组织部部长陈阳，市政府秘书长韩振国，市直有关部门主要负责同志、有关区县主要负责同志参加活动。']</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A69" t="n">
+        <v>129</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
           <t>文化强国习近平总书记强调坚定文化自信</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>2023-06-20</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2023/6/20/art_76833_4952596.html</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>['座谈会上，习近平总书记坚定的话语指引未来：“对历史最好的继承，就是创造新的历史；对人类文明最大的礼敬，就是创造人类文明新形态。”', '横竖撇捺点折钩，多少绝续兴替，岁月深藏；多少传承创新，生生不息。中华文明，星河璀璨。中华文明探源工程等重大工程的研究成果，实证了我国百万年的人类史、一万年的文化史、五千多年的文明史。', '2022年10月，党的二十大后，习近平总书记首次离京考察调研中，特意来到河南安阳殷墟遗址。徜徉其间，总书记强调，殷墟我向往已久，这次来是想更深地学习理解中华文明，古为今用，为更好建设中华民族现代文明提供借鉴。', '总书记曾指出：“一个民族、一个国家，必须知道自己是谁，是从哪里来的，要到哪里去，想明白了、想对了，就要坚定不移朝着目标前进。”', '历史长河奔流不息，滋养着泱泱华夏。座谈会上，习近平总书记深刻指出中华文明的五个突出特性，要求我们坚定文化自信、担当使命、奋发有为，共同努力创造属于我们这个时代的新文化，建设中华民族现代文明。而今，根植于中华文明的沃土，中国共产党领导人民沿着中华民族伟大复兴之路风雨兼程、砥砺奋进——不仅创造了世所罕见的经济快速发展和社会长期稳定两大奇迹，而且成功走出了中国式现代化道路，创造了人类文明新形态。', '2023年2月，习近平总书记在学习贯彻党的二十大精神研讨班开班式上强调，中国式现代化，深深植根于中华优秀传统文化，体现科学社会主义的先进本质，借鉴吸收一切人类优秀文明成果，代表人类文明进步的发展方向，展现了不同于西方现代化模式的新图景，是一种全新的人类文明形态。', '总书记曾指出，西方很多人习惯于把中国看作西方现代化理论视野中的近现代民族国家，没有从五千多年文明史的角度来看中国，这样就难以真正理解中国的过去、现在、未来。此次座谈会上，总书记又进一步作出深层次阐释——中国式现代化是赓续古老文明的现代化，而不是消灭古老文明的现代化；是从中华大地长出来的现代化，不是照搬照抄其他国家的现代化；是文明更新的结果，而不是文明断裂的产物。', '一段时间以来，“西方优越论”“西方中心论”一度甚嚣尘上。甚至有声音认为，“其他社会可以忘掉自己的历史传统而采纳其现代价值标准和尺度”。中国式现代化，打破了“现代化=西方化”的迷思，展现了现代化的另一幅图景，拓展了发展中国家走向现代化的路径选择，为人类对更好社会制度的探索提供了中国方案。', '在五千多年中华文明深厚基础上开辟和发展中国特色社会主义，把马克思主义基本原理同中国具体实际、同中华优秀传统文化相结合是必由之路。', '习近平总书记瞻望未来：“中国式现代化是中华民族的旧邦新命，必将推动中华文明重焕荣光。”']</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A70" t="n">
+        <v>129</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
           <t>济南市党政代表团到重庆武隆考察对接东西部协作工作</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>2023-06-19</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2023/6/19/art_1861_4952470.html</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>['6月17日、18日，市委副书记、市长于海田率领济南市党政代表团赴重庆市武隆区，深入贯彻落实习近平总书记关于深化东西部协作的重要指示精神，全面落实山东·重庆东西部协作第十九次联席会议要求，开展东西部协作互访交流，推动协作工作不断取得新成效。重庆市武隆区委书记何庆，区委副书记、区长左军参加活动。', '济南市党政代表团一行首先来到武隆区凤来镇高寿村，考察了鲁渝协作示范村建设情况和乡村产业发展情况；在双河镇木根村，考察了东西部协作项目——高山番茄谷；在仙女山街道荆竹村，考察了鲁渝协作人才孵化基地及归原小镇项目；在武隆区中医院，看望慰问援派医疗帮扶人才，考察了名中医工作室，详细了解鲁渝卫生健康协作工作情况。于海田表示，武隆立足资源禀赋，在推动乡村振兴、特色文旅产业等方面形成的先进经验值得济南学习借鉴。希望双方进一步发挥两地产业互补优势，加强资源利用共享，因地制宜加强产业谋划，推动合作交流迈向更深层次、更高水平、更宽领域。', '在济南市援派武隆区挂职干部和专技人才座谈会上，济南市赴武隆区挂职干部领队汇报了两地东西部协作工作情况，济南市在武隆区教育帮扶人才、医疗帮扶人才代表作了发言。', '座谈会上，于海田代表市委市政府对武隆长期以来对济南发展的关心支持表示感谢，向援派武隆的挂职干部和专技人才表示诚挚问候。他表示，开展东西部协作是以习近平同志为核心的党中央着眼推动区域协调发展、促进共同富裕作出的重大决策部署。要扛牢政治责任，强化使命担当，聚焦武隆所需、发挥济南所能，不断巩固“优势互补、长期合作、共同富裕、实现共赢”的良好合作格局。要聚焦济南市—武隆区东西部协作党政联席会议确定的重点任务，切实抓好产业、文旅、消费、乡村振兴、公共服务等方面的协作，把各项目标任务落实落细，提升协作质效。挂职干部和专技人才肩负着组织的重托，代表着济南的形象，要不断锤炼过硬作风，树立良好形象，注重实干实绩，加强团结合作，严守纪律规矩，齐心协力谱写东西部协作工作新篇章。全市各级各相关部门单位要加强整体谋划，完善服务保障机制，帮助解决后顾之忧，全力支持援派干部人才工作。', '何庆向济南对武隆的全力支持以及广大援武干部、专技人才的倾情付出表示衷心感谢。他说，自双方达成结对协作关系以来，济南始终坚持自身所能、武隆所需、群众所盼，真抓实干帮、真情实意扶、真金白银投，为推动武隆经济社会高质量发展提供了强大助力。我们期望济南多为武隆传经送宝，立足双方资源优势，进一步找准协作契合点、发力点、共赢点，持续深化多领域全面合作，努力取得更多具有突破性、辨识度和标志性的合作成果，全力打造东西部协作示范标杆。武隆区将倍加珍惜这份弥足珍贵的帮扶之情、协作之情、兄弟之情，认真履行责任义务，在资金项目、产业协作、人才管理上加强协同对接，全面推进合作事宜落地落实，以实实在在的行动开创双方协作发展新局面。', '济南市委常委、组织部部长陈阳，市政府秘书长韩振国，历下区、市直有关部门主要负责同志参加活动。']</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A71" t="n">
+        <v>129</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
           <t>市政府党组召开扩大会议</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>2023-06-17</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2023/6/17/art_1861_4952347.html</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>['6月16日上午，市政府党组召开扩大会议，学习贯彻习近平总书记在内蒙古考察、在文化传承发展座谈会上、在中央政治局第五次集体学习时的重要讲话等近期系列重要讲话、重要指示和重要致辞、贺信、回信精神；传达学习李强总理在山东调研时的讲话精神，研究贯彻落实意见。市委副书记、市长、市政府党组书记于海田主持会议并讲话。', '会议指出，习近平总书记的重要讲话和重要指示要求，具有很强的政治性、思想性、指导性和针对性，为我们做好当前和今后一个时期经济社会发展各项工作指明了前进方向、提供了根本遵循。要坚定贯彻绿色发展理念，加快发展方式绿色转型，深入打好污染防治攻坚战，加强生态系统保护修复，协同推动生态保护和高质量发展。要扎实推动共同富裕，促进高质量充分就业，织密织牢社会保障网，加快推动城乡融合发展。要坚定文化自信自强，聚力推进文化强市建设，积极服务融入文化强国建设大局。要全面贯彻党的教育方针，坚持教育优先战略，落实立德树人根本任务，加快建设现代化教育强市。要充分发挥审计监督作用，提升监督实效，抓好问题整改，凝聚监督合力，推动新时代审计工作高质量发展。要推动发展和安全深度融合，坚决守住守好“一排底线”，全力抓好安全生产，有力有效防范化解各类风险隐患，持续巩固发展政治安全、社会安定、人民安宁的良好局面。', '会议强调，要深入学习贯彻习近平经济思想，认真学习李强总理讲话精神，准确认识经济形势，进一步坚定发展信心、把握发展机遇，全力推动经济运行持续回升向好。要做实做强做优实体经济，大力发展先进制造业，加快建设现代化产业体系，着力抓好扩内需稳外需等工作，推动省会经济社会高质量发展不断取得新成效。', '会议强调，6月份是冲刺“双过半”的关键决胜月，要全力全速紧起来、快起来，紧盯短板弱项，扎实做好扩投资、促消费、稳外贸等重点工作，确保实现上半年“双过半”，为实现全年目标打下坚实基础。']</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A72" t="n">
+        <v>129</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
           <t>西藏自治区党政代表团来我省考察</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>2023-05-30</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2023/5/30/art_1861_4951029.html</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>['5月27日至29日，西藏自治区党委书记王君正，自治区党委副书记、自治区主席严金海，率领西藏自治区党政代表团来我省考察。省委书记林武，省委副书记、省长周乃翔出席有关活动。', '28日下午，山东·西藏对口支援工作座谈会在济南南郊宾馆召开。林武代表山东省委、省政府，对代表团的到来表示热烈欢迎，对自治区长期以来给予山东工作的关心支持和对山东援藏干部的关心关爱表示感谢。林武说，西藏工作对国家安全稳定意义重大，在党和国家全局中具有特殊重要地位。近年来，自治区党委、政府全面贯彻落实习近平总书记关于西藏工作的重要指示和新时代党的治藏方略，各项工作取得全方位进步，雪域高原呈现出团结稳定、蓬勃发展的新气象，一些好经验、好做法值得我们认真学习借鉴。对口支援西藏，是习近平总书记、党中央交给我们的重大政治任务。做好对口援藏工作，是山东的分内之事、应尽职责，也是两省区人民的共同心愿。我们将更加坚定扛牢政治责任，扎实做好对口支援各项工作，以实际行动坚定拥护“两个确立”、坚决做到“两个维护”。我们将立足西藏所需、竭尽山东所能，抓紧抓实特色产业培育、教育医疗帮扶、来鲁转移就业、人居环境改善，不断提高援藏工作实效。西藏、山东各具资源禀赋、各有发展特色，双方合作空间广阔、潜力巨大。我们将更加坚定强化深层次的交流合作，发展农畜产品深加工产业，共同做大做强旅游市场，多层次、宽领域培养教育人才，创新产学研合作，推进消费帮扶提档升级。我们将进一步树牢一盘棋思想，压紧压实责任，创新方式方法，强化要素保障，加强人才支持，着力调动各方面积极性，确保各项工作取得实实在在的成效。相信在以习近平同志为核心的党中央坚强领导下，通过两省区共同努力，必将谱写新时代鲁藏人民深厚情谊的新篇章。', '王君正感谢山东省对援藏工作的大力支持，对山东经济社会发展取得的成绩表示祝贺。他说，党的十八大以来，以习近平同志为核心的党中央高度重视西藏工作，为西藏明确了“稳定、发展、生态、强边”四件大事，日前再次向“2023·中国西藏发展论坛”致贺信，为西藏推进中国式现代化提出殷切期望，为我们进一步做好西藏工作指明了前进方向。当前的西藏，政治安定、社会稳定、经济发展、民族团结、宗教和睦、边防巩固、人民安居乐业，呈现出生机勃勃的繁荣景象。山东省作为首批援藏的省市之一，用心用情用力做好援藏工作，为推动西藏长治久安和高质量发展作出积极贡献。这次代表团赴山东考察学习，感受到山东经济社会发展的巨大成就，开阔了眼界，启迪了思路，增添了做好西藏工作的信心决心。山东省有科研、技术、产业、人才优势，西藏有区位、政策、资源优势，双方合作前景巨大。要深入贯彻落实习近平总书记关于西藏工作的重要指示，完整、准确、全面贯彻新时代党的治藏方略，把西藏所需与山东所能结合起来，在数字基础设施、智慧政务、战略性新兴产业等方面优势互补，打造经济发展新优势。加大对口支援工作，加强产业援藏、智力援藏、民生援藏、生态援藏，拓展组团式援藏。进一步深化产业合作，加快文化旅游业、设施农牧业等领域合作，发展壮大农畜产品精深加工产业、特色优势产业，更好把西藏资源优势转化为经济优势、发展优势。西藏将以开放、热忱的姿态诚邀山东企业进藏投资兴业、共谋发展，共享西藏高质量发展新机遇。', '在鲁期间，代表团先后到济南新旧动能转换起步区、中科新经济科创园、新能源乘用车及零部件产业园、浪潮集团、济南量子技术研究院、华熙生物科技股份有限公司考察，并看望了西藏班师生代表和西藏籍高校毕业生就业代表。', '西藏自治区领导汪海洲、达娃次仁、坚参、斯朗尼玛、孟晓林，山东省及济南市领导白玉刚、王宇燕、曾赞荣、张海波、宋军继、王书坚、于海田参加。']</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A73" t="n">
+        <v>129</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
           <t>市委常委会召开会议</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>2023-05-15</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2023/5/15/art_1861_4950113.html</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>['5月14日，市委常委会召开会议，学习贯彻习近平总书记在河北雄安新区考察并主持召开高标准高质量推进雄安新区建设座谈会时、在河北考察并主持召开深入推进京津冀协同发展座谈会时的重要讲话精神和给海军潜艇部队某艇员队全体官兵的回信精神，研究贯彻落实意见；研究统战工作等事项。', '会议指出，习近平总书记的重要讲话，高屋建瓴、内涵丰富，具有很强的政治性、针对性、指导性，为我们做好工作提供了根本遵循。全市各级要深入学习领会，结合济南实际抓好贯彻落实。要加快推动济南新旧动能转换起步区建设成形起势，全力推进重点片区建设，完善交通基础设施，加强公共服务设施建设，着力深化改革创新。要抢抓北京非首都功能疏解机遇，充分发挥自身优势，加大在产业、人才、平台等方面“双招双引”力度，吸引更多优质项目落户济南。', '会议学习了《中国共产党国有企业基层组织工作条例》，强调要把党的领导融入企业治理各环节，推动党建工作与企业发展深度融合，全面加强企业基层党组织建设和党风廉政建设，以高质量党建引领国企高质量发展。', '会议审议了《中共济南市委统一战线工作领导小组2023年工作要点》《济南市民族团结进步示范区示范单位命名管理办法》《济南市民族团结进步示范测评指标体系（试行）》等文件，指出要强化政治引领，巩固完善大统战工作格局，确保民族宗教领域和谐稳定，在服务全市发展大局上彰显更大作为。']</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A74" t="n">
+        <v>129</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
           <t>市政府党组召开扩大会议</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>2023-05-20</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2023/5/20/art_1861_4950488.html</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>['5月19日下午，市政府党组召开扩大会议，学习贯彻习近平总书记在河北雄安新区考察并主持召开高标准高质量推进雄安新区建设座谈会、河北考察并主持召开深入推进京津冀协同发展座谈会、二十届中央财经委员会第一次会议、听取陕西省委和省政府工作汇报时的重要讲话精神，研究贯彻落实意见。市委副书记、市长、市政府党组书记于海田主持会议并讲话。', '会议指出，习近平总书记的重要讲话，高瞻远瞩、内涵丰富，具有很强的政治性、针对性、指导性，为抓好当前和今后一个时期经济社会发展各项工作指明了前进方向、提供了根本遵循。全市各级要深入学习领会，抓好贯彻落实。要坚持党对经济工作的全面领导，不折不扣贯彻党中央重大决策部署，认真落实省委省政府工作部署和市委工作要求，确保各项工作扎实有效推进。要深入开展学习贯彻习近平新时代中国特色社会主义思想主题教育，在以学铸魂、以学增智、以学正风、以学促干上取得实效，进一步增强政府系统各级党组织的政治功能和组织功能，为推进全市高质量发展提供坚强保证。', '会议强调，要加快建设现代化产业体系，聚焦实体经济、强化创新驱动、统筹发展与安全，不断增强高质量发展新动能。要积极推动人口高质量发展，综合施策优化人口结构，多举措做好“一老一小”工作，统筹推进新型城镇化与乡村振兴协同发展。要务实高效加快济南新旧动能转换起步区建设，以高标准规划引领高质量发展，抓好基础设施建设、项目策划储备与落地推进。要努力增强区域发展引领力，集聚带动区域城市协同发展的强大势能。要持续提升生态文明建设水平，有力推动全市生态环境持续稳定向好。', '会议还传达学习了习近平总书记回信勉励海军潜艇部队某艇员队等近期有关重要指示及重要复信、回信精神，传达学习了《中国共产党重大事项请示报告条例》等。']</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A75" t="n">
+        <v>129</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
           <t>威海市党政代表团来济考察</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>2023-05-12</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2023/5/12/art_1861_4949930.html</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>['5月11日，威海市党政代表团到济南考察交流。济南市委书记刘强，市政协主席雷杰和威海市委书记闫剑波，市委副书记、市长孔凡萍，市政协主席高旭光参加活动。', '上午，威海市党政代表团一行考察了中国重汽集团博物馆，了解企业生产经营和改革发展情况；在济南国际医学中心展厅，听取了医学中心总体规划、产业布局等情况介绍；在树兰（济南）国际医院，察看了医院建设情况；在比亚迪新能源乘用车零部件产业园，察看了生产车间和新能源整车展示，详细了解济南市新能源乘用车产业链建设和企业生产经营情况。下午，威海市党政代表团一行来到齐鲁制药生物医药产业园展厅和生产车间，听取企业发展现状及创新研发进展等情况介绍；在费斯托全球生产中心，了解企业生产经营和产业链供应链保障情况；在华熙生物科技股份有限公司，察看了世界透明质酸博物馆及生产车间，了解企业主营业务和产业链培育情况。', '威海市党政代表团对济南市加快推进新旧动能转换、实现高质量发展取得的成绩表示赞赏。代表团表示，近年来，济南市锚定“勇当排头兵、建设强省会”战略定位，加快新旧动能转换提档升级，不断增强产业核心竞争力，努力在全省绿色低碳高质量发展先行区建设中当引领作示范，经济社会发展不断迈上新台阶。济南市充分挖掘主导产业优势建强龙头企业，推动产业集群链式发展的好经验好做法值得威海市学习借鉴，今后将进一步加强双方交流合作，实现共赢发展。']</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A76" t="n">
+        <v>129</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
           <t>济南市人民政府关于印发济南市人民政府工作规则的通知</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>2023-05-06</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2023/5/6/art_2612_4949675.html</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>['第一条 根据《中华人民共和国宪法》《中华人民共和国地方各级人民代表大会和地方各级人民政府组织法》等法律法规规定，参照《国务院工作规则》《山东省人民政府工作规则》和《中国共产党济南市委员会工作规则》，结合本市工作实际，制定本规则。', '第二条 市政府工作要以习近平新时代中国特色社会主义思想为指导，全面贯彻党的二十大精神，坚决落实习近平总书记对山东、对济南工作的重要指示要求，牢固树立以人民为中心的发展思想，严格遵守宪法和法律，完整、准确、全面贯彻新发展理念，积极构建新发展格局，在市委的坚强领导下，锚定“勇当排头兵、建设强省会”，全面正确履行政府职能，着力推动高质量发展，努力建设人民满意的法治政府、创新政府、廉洁政府和服务型政府，奋力开创“强新优富美高”新时代社会主义现代化强省会新局面。', '第三条 市政府工作人员要旗帜鲜明讲政治，深刻领悟“两个确立”的决定性意义，增强“四个意识”、坚定“四个自信”、做到“两个维护”，坚持用习近平新时代中国特色社会主义思想武装头脑、推动工作，胸怀“两个大局”、牢记“国之大者”，始终在思想上政治上行动上同以习近平同志为核心的党中央保持高度一致。坚持把党对一切工作的领导贯彻落实到政府工作全过程各领域，牢固树立一盘棋思想，统筹整合政府各类资源，加强协调联动，提高整体效能。', '（一）坚持党的领导。坚决维护以习近平同志为核心的党中央权威和集中统一领导，全面贯彻党的路线方针政策，认真落实中央决策部署、省委有关要求、市委工作安排。坚持和完善党领导经济社会发展的体制机制，完善中央和省委、市委重大决策部署落实机制，健全和落实请示报告制度。', '（二）坚持人民至上。认真践行全心全意为人民服务的根本宗旨和党的群众路线，始终把人民放在心中最高位置，将人民对美好生活的向往作为政府工作的出发点和落脚点，着力保障和改善民生，解决好发展不平衡不充分问题，实现好、维护好、发展好最广大人民根本利益，扎实推进共同富裕，不断增强人民群众获得感、幸福感、安全感。', '（三）坚持依法行政。坚决维护宪法和法律权威，加强法治政府建设，不断提高政府立法质量，严格规范公正文明执法，强化执法监督，推动政府工作全面纳入法治轨道，依法行使权力、履行职责、承担责任。', '（四）坚持科学民主。强化系统观念，加强前瞻性思考、全局性谋划、战略性布局、整体性推进，统筹好发展和安全。完善决策机制，规范决策行为，落实决策程序，强化决策监督，加强调查研究、科学论证、风险评估、合法性审查，不断提高决策质量。', '（五）坚持守正创新。坚持党的基本理论、基本路线、基本方略，坚持求真务实、开拓创新，突出问题导向、效果导向，想问题、作决策、办事情一切从实际出发，着力解决改革发展稳定中的突出问题和人民群众急难愁盼问题。加强数字政府建设，推动流程优化、模式创新，不断提高政府效能。', '（六）坚持清正廉洁。落实全面从严治党要求，加强廉洁政府建设，强化纪律和规矩意识，持续深化纠治“四风”，坚持依法用权、秉公用权、廉洁用权，一体推进不敢腐、不能腐、不想腐，始终保持人民公仆本色，自觉接受各方监督，推动干部清正、政府廉洁、政治清明。', '市政府组成人员要认真履行宪法、法律和法规赋予的职责，坚持对党忠诚、立场坚定，实干笃行、改革创新，履职尽责、担当作为，严守纪律、清正廉洁，全心全意为人民服务。', '第六条 市政府实行市长负责制。市长领导市政府全面工作。副市长、秘书长协助市长工作。市长外出、休假期间，委托负责常务工作的副市长或其他副市长主持市政府工作。', '第七条 副市长按分工负责处理分管工作，受市长委托负责其他方面工作或专项任务；根据统一安排，代表市政府进行外事活动。', '市政府领导实行工作补位制度，副市长外出、休假期间，由补位的副市长代为处理有关工作。相互补位的领导同志原则上不同时安排外出、休假。', '第八条 秘书长在市长领导下，负责处理市政府日常工作，协调落实市政府决定事项和市长交办事项。副秘书长协助秘书长工作，接受秘书长领导，具体按照分工协助副市长联系、协调、处理有关工作。', '第九条 市政府各部门在市政府统一领导下，实行行政首长负责制，全面负责本部门工作。各部门根据法律法规规章、法定职责和市政府决策部署，严格依法行使职权，顾全大局、协调配合，切实维护团结统一、政令畅通。市审计局在市长和上级审计机关领导下，依照法律规定独立行使审计监督权，不受其他行政机关、社会团体和个人干涉。', '第十条 市政府及各部门要全面履行经济调节、市场监管、社会管理、公共服务和生态环境保护等职能，推动有效市场和有为政府更好结合，提高政府行政效能，持续保障和改善民生，维护社会公平正义，创造良好发展环境，不断满足人民日益增长的美好生活需要。', '第十一条 履行经济调节职能，坚决贯彻执行国家宏观调控政策，充分发挥市场在资源配置中的决定性作用，更好发挥政府作用。围绕建设现代化经济体系，加强对全市经济运行的引导和调控，科学确定发展目标，调整优化经济结构，加快推动新旧动能转换，推进绿色低碳高质量发展。', '第十二条 履行市场监管职能，依法严格市场监管，推进公平准入，加强社会信用体系建设，强化事中事后监管，统筹推进双随机一公开、互联网+监管、跨部门综合监管、信用监管，健全综合执法体系，规范市场执法和行政裁量权，维护统一开放、公平诚信、竞争有序的市场环境，促进创业创新，激发市场活力和社会创造力。', '第十三条 履行社会管理职能，完善社会治理机制，推进精治、共治、法治，加强城市精细化管理，健全基层社会治理体系，强化12345市民服务热线平台作用，妥善处理社会矛盾，高水平推进平安济南、法治济南、诚信济南建设，全面提升社会治理现代化水平。', '第十四条 履行公共服务职能，持续完善基本公共服务体系，稳步提升公共服务质量，促进均等化和可及性，扎实办好民生实事，切实办好人民满意的教育，促进高质量充分就业，完善多层次社会保障体系，提升医疗卫生服务水平，推动乡村全面振兴，居民生活更加便利，精神文化生活更加丰富。', '第十五条 履行生态环境保护职能，落实最严格的生态环境保护制度，构建政府为主导、企业为主体、社会组织和公众共同参与的现代环境治理体系。坚持绿色发展战略，加快产业结构转型升级，推进生态保护修复，推动资源节约集约利用，坚决打赢污染防治攻坚战，积极稳妥推进碳达峰碳中和，加快形成绿色低碳生产生活方式，努力建设“山泉湖河城”交相辉映、人与自然和谐共生的美丽济南。', '第十六条 加快转变政府职能，持续深化“放管服”改革，积极推动制度创新，纵深推进“在泉城·全办成”，构建高效协同的审批服务机制。推进“互联网+政务服务”建设，提升政务服务平台功能，推动政务服务上网运行。高水平推进数字济南建设，提升行政效能，提高政务服务网办率，打造一流营商环境，方便企业和群众办事。', '第十七条 市政府及各部门要实行科学决策、民主决策、依法决策，把公众参与、专家论证、风险评估、合法性审查和集体讨论决定作为重大行政决策的法定程序，增强公共政策制定透明度和公众参与度。', '第十八条 除法律、法规或规章规定的由市政府集体决策的事项外，符合《重大行政决策程序暂行条例》《山东省重大行政决策程序规定》要求的有关重要规划、重大公共政策和措施、重大公共建设项目等重大行政决策事项，由市政府全体会议或市政府常务会议讨论决定。', '第十九条 市政府各部门提请市政府讨论决定的重要事项，必须经过深入调查研究，加大合法性审查力度，并经专家或研究咨询机构等进行必要性、科学性、可行性和可控性论证；涉及有关部门的，应充分协商；涉及各区县的，应事先征求意见；涉及重大公共利益和公众权益、容易引发社会稳定问题的，应进行风险评估。', '第二十条 市政府在作出重大行政决策前，应按规定向市委请示报告；按要求向市人大常委会报告，根据工作需要与市政协开展民主协商；通过多种形式听取民主党派、社会团体、专家学者、社会公众等方面的意见建议。', '第二十一条 市政府各部门应当按职责依法、全面、及时、准确执行重大行政决策，并对执行效果跟踪评估，必要时按程序调整完善。', '第二十二条 市政府及各部门要深入学习贯彻习近平法治思想，带头维护宪法和法律权威，建设职能科学、权责法定、执法严明、公开公正、智能高效、廉洁诚信、人民满意的法治政府。', '第二十三条 市政府根据法律、法规、规章修订情况和经济社会发展需要，适时提出地方性法规草案，制定政府规章和行政规范性文件，修改或废止不相适应的政府规章、行政规范性文件、行政措施或决定。', '第二十四条 建立健全政府规章和行政规范性文件备案审查制度。市政府制定的规章，应当及时报送国务院、省人大常委会、省政府和市人大常委会备案；市政府制定的行政规范性文件，应当及时报送省政府和市人大常委会备案。各区县政府和市政府各部门制定的行政规范性文件应当及时报送市政府备案。市司法行政部门负责市政府行政规范性文件的报送备案工作，履行备案审查监督职责。市政府部门负责对其制定的行政规范性文件进行统一登记、统一编号、统一印发。', '第二十五条 深化行政执法体制改革，全面推进严格规范公正文明执法。严格落实行政执法责任制和执法过错追究制度，有法必依、违法必究，维护公共利益、人民权益和社会秩序。', '第二十七条 市政府及各部门要高度重视政务公开工作，坚持以公开为常态、不公开为例外，全面推进行政决策、执行、管理、服务和结果公开。', '推进权责清单、负面清单公开工作，建立健全清单动态调整机制。推行行政执法公示制度，依法、及时、主动向社会公开有关行政执法信息。', '第二十八条 运用互联网、媒体、12345市民服务热线等渠道扩大政务公开参与范围，增进公众对政府工作的认同和支持。', '第二十九条 市政府办公厅要加强对各区县政府、市政府各部门政务公开工作的指导，建立完善政务公开通报和考核机制。', '第三十条 市政府要自觉接受市人民代表大会及其常委会的监督，认真执行其作出的决议，按时报告工作，接受执法检查、询问和质询，按要求备案政府规章和行政规范性文件，列席相关会议；自觉接受市政协的民主监督，及时通报重要工作情况，积极开展重大问题协商，虚心听取意见建议。', '市政府及各部门要认真办理人大代表建议和政协委员提案，加强与代表委员沟通，严格责任，限时办结，主动公开办理结果。', '第三十一条 市政府及各部门公职人员要自觉接受监察机关的监督。市政府各部门要依法接受人民法院和人民检察院的司法监督，做好行政应诉工作，履行行政机关负责人出庭应诉责任，尊重并自觉履行人民法院的生效判决、裁定，同时自觉接受审计等部门的监督，认真查处、整改监督中发现的问题并及时报告市政府。', '第三十二条 加强政府内部监督和层级监督。市政府及各部门要严格执行行政复议法及其实施条例，市司法行政部门要加强对行政复议工作的指导监督，坚决纠正行政机关违法或者不当的行政行为，依法、及时化解行政争议。同时，要主动征询和认真听取下级政府及部门的意见建议。', '第三十三条 市政府及各部门要自觉接受新闻舆论和社会公众监督，依法及时准确公开政府信息，加强政策解读，认真调查核实有关情况，及时依法处理和改进工作。重大问题要向社会公布处理结果。', '第三十四条 市政府及各部门要认真倾听人民群众建议、意见和要求，自觉接受人民群众监督。高度重视人民群众来信来访和12345市民服务热线工作，进一步畅通群众诉求表达渠道。市政府领导同志及各部门负责人要亲自阅批重要的人民来信，定期接访，协调解决涉及人民群众切身利益的重大问题。', '第三十五条 市政府及各部门要严格落实工作责任制，实施首问负责制等制度，健全绩效考核、激励约束、容错纠错机制，加强对重大决策部署落实、部门职责履行、重点工作推进以及自身建设等方面的督查工作，严格责任追究，提高政府执行力和公信力。', '第三十七条 市政府全体会议由市长、副市长、秘书长和市政府组成部门主要负责人组成，由市长召集和主持。会议的主要任务是:', '（一）传达党中央、国务院、省委、省政府和市委的重要指示、决定和会议精神,以及市人民代表大会及其常委会的决议、决定,研究提出贯彻意见；', '第三十八条 市政府常务会议由市长、副市长、秘书长组成，由市长召集和主持。会议的主要任务是:', '（一）传达党中央、国务院重要指示、决定和会议精神,省委、省政府和市委的重要部署安排，以及市人民代表大会及其常委会的决议、决定，研究提出贯彻意见；', '（三）研究决定市政府工作中事关经济社会发展的重要事项，包括《政府工作报告》、市级预算安排、全市经济社会发展重大规划计划、重大改革事项、重大政策措施、重大工程和重要项目安排、重大资金使用、季度经济社会发展形势分析，以及重要民生问题和安全生产事项等；', '（六）讨论通过市政府重要人事任免事项；审议以市政府或部门名义表彰奖励、授予济南市荣誉市民、建立友好城市等事项；', '市政府常务会议一般每月召开不少于3次，遇有重要情况可随时召开。根据工作需要安排有关副秘书长、市有关部门（单位）、有关区县政府负责人和市政府法律顾问或邀请有关人员列席会议。', '第三十九条 对需市政府全体会议、市政府常务会议审议决定的事项，主办部门应提前充分研究论证、沟通协商和征求意见，基本取得一致意见后，报市政府办公厅按程序呈送市政府领导同志确定。其中，属于市政府重大行政决策的议题，应当按要求完成公众参与、专家论证、风险评估、合法性审查等程序；如有必要，由市市场监管部门履行公平竞争审查程序。经协调仍有异议的议题，报请分管副市长或协助其工作的副秘书长协调，直至由分管副市长提出意见报市长确定。', '第四十条 提请市政府全体会议和市政府常务会议研究讨论的议题，由分管副市长审核后提出，报市长确定。属于副市长、市政府各部门职责权限范围内决定的事项，或会前未经协调的事项，不提交会议讨论研究。', '第四十一条 市长办公会议由市长、副市长组成，秘书长列席，根据工作需要安排有关副秘书长、市有关部门（单位）和有关区县政府负责人或邀请有关人员列席会议。市长办公会议由市长召集和主持。', '会议的主要任务是:交流重要工作情况，研究市政府工作中事关全局、需要统筹协调安排的事项，市政府日常工作中的其他重要事项。', '第四十二条 市政府专题会议由市长、副市长或市长、副市长委托秘书长、副秘书长召集，市政府有关部门负责人出席。会议的主要任务是：研究解决市政府领导分工职责范围内的具体问题，协调分管工作中涉及多个部门的事项。', '市政府专题会议凡涉及资金、项目、机构编制安排的，严格按照规定的审批权限和程序办理。', '第四十三条 市政府领导同志和有关部门负责人应按要求参加市政府有关会议，原则上不应请假。如有特殊情况不能参加的，要履行请假手续。', '市政府领导同志不能出席市政府全体会议、市政府常务会议、市长办公会议和市长召开的市政府专题会议时，应向市长请假，对会议议题的意见和建议可在会前提出；其他与会人员或列席人员请假的，由市政府办公厅汇总后向市长报告，未经同意不得缺席或由他人代替参加。', '与会人员不能参加副市长召开的或秘书长、副秘书长受委托召开的专题会议时，应向会议主持人请假。', '第四十四条 市政府全体会议、市政府常务会议、市长办公会议和市政府专题会议应按要求编印会议纪要。', '市政府全体会议、市政府常务会议和市长办公会议纪要由市长签发。市政府专题会议纪要由会议主持人签发；秘书长、副秘书长受委托召开的市政府专题会议纪要，须由委托的市长或副市长审定同意后印发。涉及重大财政支出、制定或调整重大政策的专题会议纪要，须经市长审阅后印发。', '市政府全体会议和市政府常务会议讨论通过决定印发的文件，原则上须在会议结束后5个工作日内印发。', '第四十五条 严格控制以市政府名义召开的全市性会议。按照高效节俭的要求，精简会议人员，控制经费开支，提倡召开电视电话会议、合并召开会议，简化议程，提高效率。', '贯彻上级部门会议精神、部署总结部门业务的会议，由相关部门自行召开，一般不邀请市政府领导同志到会讲话，不邀请各区县政府主要负责人出席。', '第四十六条 国家部委、省政府部门通过市政府有关部门商洽在我市召开全国、全省性会议，市政府有关部门须提前报告市政府,经同意后方可答复安排。', '第四十七条 建立完善市政府学习制度。学习活动由市长主持，副市长、秘书长、市政府组成部门的主要负责人参加，并根据需要安排有关部门（单位）负责人参加。学习活动一般定期组织，主题由市长确定。', '第四十八条 公文处理工作必须严格遵循《党政机关公文处理工作条例》《山东省〈党政机关公文处理工作条例〉实施办法(试行)》和《济南市〈党政机关公文处理工作条例〉实施办法(试行)》的规定。', '第四十九条 各区县政府、市政府各部门报送市政府的公文，由市政府办公厅审核后根据市政府领导同志分工呈批。公文不得多头主送、越级行文。除市政府领导同志直接交办事项和必须直接报送的涉密事项、重大突发事件外，一律送市政府办公厅按程序统一办理。', '第五十条 各区县政府、市政府各部门向市政府呈报请示事项，必须以正式公文形式报送，且一文一事，由主要负责人签发。内容涉及其他部门职权的，必须与相关部门协商一致后报送；协商后仍未达成一致的，应列明各方理据，提出办理意见。', '部门之间征求意见或会签文件时，除主办部门另有时限要求外，一般应在5个工作日内回复；特殊情况不能按期回复的，应主动与主办部门沟通并商定回复时限及方式，逾期不回复视为无不同意见。', '严格控制报送市政府的公文数量，可由市政府部门解决的事项，不报市政府。市政府部门内设机构确需向市政府请示的事项，应由主管部门向市政府行文。', '第五十一条 市政府领导同志审批公文，对有具体请示事项的，应签署明确意见、姓名和日期。对一般报告性公文，圈阅表示“已阅知”。需报送市委的，原则上由市长签批。', '第五十二条 以市政府或市政府办公厅名义制发的公文，内容应是关系全市经济社会发展的重要决定、政策措施、政府规章以及需要全市各级行政机关、企事业单位执行和周知的重要事项。', '第五十三条 以市政府或市政府办公厅名义制发的公文，一般应由主管部门拟稿，主要负责人审核把关。内容涉及其他部门职权的，主办部门协商会签，协办部门应积极配合。', '第五十四条 以市政府或市政府办公厅名义制发的公文，由市政府办公厅负责审理和送签，并由分管文件审核工作的副秘书长（厅副主任）提出意见，经协助市政府领导同志工作的秘书长、副秘书长（厅副主任）审核后，报请市长或分管副市长签发。', '（一）以市政府名义制发的正式公文，报请分管副市长审签，市长签发。其中，事先已报请市长同意，属于例行行文程序的，可由分管副市长签发。', '（二）以市政府名义报送省政府及其部门的便函类公文，报请分管副市长审签，市长签发；事先已报请市长同意的，可由分管副市长签发。以市政府名义下发的便函类公文，根据公文内容，由分管副市长签发；内容涉及数名副市长分管范围的，或有意见分歧的，报请市长签发。', '（三）以市政府办公厅名义制发的公文，报请分管副市长或秘书长签发。其中行政规范性文件、涉及综合性事项的公文、成立临时机构的公文，报请分管副市长审签，市长签发。', '第五十五条 市政府各部门制定行政规范性文件内容涉及其他部门职责，未经协商或协商不一致的，不得各自向下行文。未经市政府批准，市政府各部门不得直接向下级政府行文部署工作。各部门内设机构除办公室外不得对外正式行文，也不得要求下级政府向本部门（单位）报送公文。属于业务性较强及行业性的重要工作，或其他需市政府同意的事项，按程序报经市政府领导同志审定后，可加“经市政府同意”字样由部门行文。', '第五十六条 切实改进文风，大力精简文件简报。行文应当确有依据和必要，有建设性、创新性举措，力求务实管用。例行性和阶段性的工作部署、检查或要求下级上报有关情况、数据资料等，一般不印发正式公文；凡法律法规已作出明确规定的和上级已作出明确部署的，不再制发文件；现行文件仍适用的，不再重复发文；没有新内容的，一律不制发文件；属部门职权范围事项，由部门发文或部门联合发文；调整议事协调机构由议事协调机构办公室所在部门行文；以市政府名义主办的各类展会、论坛等活动由承办单位部署，一律不以市政府办公厅名义行文。市政府每个部门原则上只保留一种简报，并按规定程序备案。要压缩文件篇幅，部署重要工作的综合性文稿原则上控制在5000字以内，部署专项工作或具体任务的文稿原则上控制在3000字以内。', '第五十七条 进一步提高公文处理效率。市政府办公厅要严格按照公文办理时限要求规范公文运转，各区县政府、市政府各部门应当在规定时限内办理完毕并回复办理结果。', '全面推行公文数字化。除按规定不可通过网络传输的文件外，原则上市政府及各部门的公文一律通过济南市电子政务支撑平台传输和办理，切实减少纸质文件，提升运转效率。', '第五十八条 建立公文处理考核通报制度。各区县政府、市政府各部门向市政府报送的公文，发生审核把关不严、文稿质量不高、延误报送时间、不按程序报送等违反公文处理工作规定的情形，造成不良影响的，由市政府办公厅予以通报，并计入全市高质量发展综合绩效考核相应项目的考核评价结果。', '第五十九条 各区县政府、市政府各部门要切实加强政务信息工作，为市政府科学民主决策提供依据。市政府办公厅要加强对全市政府系统政务信息工作的指导，建立完善政务信息报送、通报和考核机制。', '第六十条 市政府领导同志的政务活动，由市政府办公厅统筹安排。市政府领导同志按照工作分工，根据谁分管、谁出席的原则，参加会议和接待活动。各区县政府、市政府各部门邀请市政府领导同志出席政务活动，应当提前向市政府请示。', '第六十一条 以市委、市政府名义举办的活动，属市政府主办的，由市政府办公厅商市委办公厅协调安排，统一报批。各区县政府和市政府各部门举办的活动，一般不邀请党中央、全国人大常委会、国务院、全国政协领导同志出席，确需领导人出席的，须按程序向省委、省政府请示报告。', '第六十二条 未经市委、市政府批准，不在部门和区县任职的市政府领导同志一律不出席部门或区县举办的各类剪彩、奠基活动和庆祝会、纪念会、表彰会、博览会、研讨会及各类论坛等。在部门和区县任职的市政府领导同志出席上述活动也要从严掌握。除市委、市政府统一安排外，市政府领导同志个人不发贺信、贺电，不题词、题字、作序。', '第六十三条 市政府领导同志出席外事活动，由主办单位按程序报分管副市长及市长批准。各区县政府和市政府各部门申办、举办国际会议及重要涉外活动，经市外办提出初核意见后，由主办单位按程序报批。外事活动中接收的礼品由市外办统一管理。', '第六十四条 认真贯彻落实《政府督查工作条例》，把强督查、抓落实作为政府工作的重要职责，真督实查、善督细查、深督严查，推动党中央、国务院和省委、省政府以及市委、市政府各项决策部署落实落细，力促政令畅通，提高行政效能。', '坚持“谁主办、谁宣传、谁落实”原则，市政府文件及各项工作的主办部门要牵头抓好宣传解读、督导落实等工作，确保各项政策措施和工作要求有效落地。', '（一）国家、省领导同志批示事项，国务院、省政府及其办公厅有关文件、督查通知要求落实事项；', '第六十六条 建立政府统一领导、办公厅（室）综合协调、督查机构组织实施、有关部门及单位配合参与的政府督查工作体系，明确目标责任，完善工作网络，加强动态监管，确保各项决策部署迅速落实到位。坚持奖惩并举，对抓落实成效明显的，强化表扬和正向激励；对抓落实不力、问题突出的，按规定予以追责问责。', '第六十七条 市政府及各部门要贯彻落实全面从严治党要求，切实加强自身建设。要严守政治纪律和政治规矩，不折不扣贯彻落实党中央、国务院决策部署，省委、省政府有关要求和市委工作安排，有令必行、有禁必止。', '第六十八条 市政府及各部门要严格落实中央八项规定及其实施细则精神，抓好市委实施意见贯彻执行，遵守廉洁从政各项规定，执行市委关于改进工作作风的若干规定，坚决防止“四风”问题返潮，不断加强作风建设、廉政建设。', '第六十九条 市政府领导同志要落实好党风廉政建设主体责任，把党风廉政建设与经济社会发展各项任务同部署、同落实、同检查、同考核，抓好分管领域和部门的党风廉政建设。', '要坚持从严治政。对不符合规定的事项，要坚持原则，不得办理；对因推诿、拖延等官僚作风及失职、渎职造成影响和损失的，要严肃追究责任；对越权办事、以权谋私等违规、违纪、违法行为，要依法依规予以查处。', '第七十条 市政府及各部门要深入领会党中央关于在全党大兴调查研究的要求，认真落实党中央和省委、市委确定的重点调研内容和工作方法，坚持党的群众路线，坚持实事求是，坚持问题导向，坚持攻坚克难，坚持系统观念，多到困难多、情况复杂、矛盾尖锐的地方开展实地调研，广泛接触基层干部群众，真正了解基层的情况和困难，切实解决实际问题。', '市政府领导同志每年到基层调研时间不少于50天，每年每人牵头1个重大课题开展调研，并针对相关领域或工作中最突出的难点问题进行专项调研。', '第七十一条 市政府及各部门要严格执行请示报告制度。市政府要自觉接受和坚决维护市委的领导，涉及全局性的重大事项、涉及群众切身利益的重大问题等，及时向市委请示报告。', '市政府各部门工作中的政策、计划和重大行政措施，应向市政府请示报告。各部门需向市委、市政府请示报告的事项，属于行政事务的，应先报经市政府同意后再报市委，为市委决策提供依据。', '第七十二条 市政府组成人员要严格遵守各项工作纪律，严格执行市委、市政府的决定，不得有任何与市政府决定相违背的言论和行为。代表市政府发表讲话或文章，以及个人发表涉及未经市政府研究决定的重大问题及事项的讲话、文章，事先须经市政府同意。', '市政府领导同志调研和检查工作要严格执行中央和省、市有关规定，轻车简从，减少陪同，简化接待，并严格规范新闻报道。 不安排市政府领导同志集中或者轮番到一个地方、一个点去调研和检查工作。除工作需要外，不去名胜古迹、风景区参观考察。', '严格执行请销假和外出报备制度。副市长、秘书长、各区县长外出或休假，须事先向市长请假，并按规定时间报备；市政府各部门主要负责人外出或休假，由各部门向市政府办公厅报告，市政府办公厅按程序报分管副市长、市长批准。', '要严格执行财经纪律，勤俭节约，精打细算，按规定使用办公用房、车辆，严控一般性支出。严格控制因公出访团组数量和规模。严格执行公务接待有关规定，各类会议活动经费全部纳入预算管理。', '第七十三条 市政府工作人员要做学习的表率，坚持用习近平新时代中国特色社会主义思想武装头脑、指导实践、推动工作，提升履职能力水平。要弘扬伟大建党精神，牢记“三个务必”，树立正确政绩观，弘扬“严真细实快”工作作风，勇于担当，敢于负责，切实履职尽责，推动各项部署高质高效落实。', '第七十四条 市政府及各部门要进一步建立健全激励与约束机制，加大容错纠错、澄清正名、关爱回访等工作力度，旗帜鲜明为担当者担当、为实干者撑腰，鼓励支持工作人员改革创新、干事创业。']</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A77" t="n">
+        <v>129</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
           <t>市政府党组召开扩大会议</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>2023-04-22</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2023/4/22/art_1861_4948355.html</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>['4月21日上午，市政府党组召开扩大会议，学习贯彻习近平总书记在广东考察、视察南部战区海军时的重要讲话等近期系列重要讲话、重要指示精神和重要致辞、复信精神；传达学习李强总理在国务院第一次廉政工作会议上的讲话精神，研究贯彻落实意见。市委副书记、市长、市政府党组书记于海田主持会议并讲话。', '会议指出，习近平总书记的重要讲话，具有很强的政治性、战略性、指导性、针对性，各级各部门要认真学习领会，结合实际抓好贯彻落实。要扎实开展学习贯彻习近平新时代中国特色社会主义思想主题教育，坚定理想信念，铸牢对党忠诚，站稳人民立场，努力在以学铸魂、以学增智、以学正风、以学促干方面下功夫见实效。要牢牢把握高质量发展这个首要任务，加快建设现代化产业体系，着力实现创新驱动发展，积极推动高水平对外开放，扎实推进全体人民共同富裕。', '会议指出，要坚持以习近平新时代中国特色社会主义思想为指导，坚决扛牢全面从严治党政治责任，扎实推进政府系统党风廉政建设，深入转政风提效能、严纪律肃贪腐，以党风廉政建设新成效推动经济社会高质量发展。要坚持党的全面领导，切实加强制度建设，大力弘扬优良作风，严防严惩违纪违法，持之以恒推动全面从严治党向纵深发展。', '会议学习了《地方党政领导干部安全生产责任制规定》，强调要扛牢压实安全生产工作政治责任，始终绷紧安全弦，持续深化“审计式”监督检查服务，牢牢守住经济社会发展安全底线。要聚焦重点开展集中整治，举一反三加强隐患排查防范，未雨绸缪抓好安全宣传教育，为省会高质量发展创造安全稳定环境。']</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A78" t="n">
+        <v>129</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
           <t>山东推进义务教育学生综合素质评价</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>2023-04-27</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2023/4/27/art_1812_4948921.html</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>['近日，山东省教育厅发布《关于推进义务教育学生综合素质评价工作的指导意见》，建立完善以发展素质教育为导向的义务教育阶段学生综合素质评价体系，山东将率先实现省域内中小学生综合素质评价全覆盖，初中生综合素质评价结果作为高中阶段学校招生录取重要依据或参考等。', '省教育厅解读，《意见》在评价内容设计方面更加科学，包括品德发展、学业发展、身心发展、审美素养、劳动与社会实践5个方面评价指标，明确主要评价内容的基础上，在重点考察方面对小学和初中作了区分，力求科学精准反映学生德智体美劳全面发展情况和个性特长。各地、各学校可参考指标要点结合本地实际，进一步细化，丰富评价内容。', '品德发展主要评价学生理想信念、社会责任、行为习惯等方面情况。学业发展主要评价学生在学习习惯、创新精神、学业水平等方面情况。身心发展主要评价学生健康生活和身心素质情况。审美素养主要评价学生美育实践和感受表达的情况。劳动与社会实践主要评价学生劳动习惯和社会体验情况。', '每个方面又对小学生和初中生考察内容作了区分，细化了具体重点考察内容。例如，学业发展方面，小学生重点考察日常各门课程知识与技能的掌握情况、课堂表现、自主学习意识和能力、阅读习惯，参加学校拓展课程、社团活动，小制作、小发明科学兴趣特长等情况。初中生重点考察学生通过国家、地方和校本课程的学习，在学习方法与习惯、基础知识与技能、自主探究与合作、创新思维品质、发现问题和解决问题的意识与能力，研究性学习和创新成果等方面的表现，以及达到国家规定的学业质量标准情况。', '审美素养方面，小学生重点考察内容中包括欣赏文学艺术作品，观看文艺演出，参观艺术展览，参加学校、社区（村）组织的文化艺术等美育活动的情况；掌握12项艺术技能，表现出的兴趣特长和艺术素养等。初中生重点考察审美趣味与艺术技能掌握情况等。劳动与社会实践方面，小学生和初中生重点考察内容均包含了参与社会调查、研学实践、志愿服务、公益活动等方面的内容。', '《意见》在评价方式上更加多元，针对不同的评价内容和考察重点，对学生的评价可综合采用实时记录、定量评价、评语评价、重要观测点评价等方式，充分利用信息技术做好学生管理相关数据的归集。创造性地提出了学生重要观测点评价，提高了评价的科学性、专业性、客观性，为学校精准掌握学生特长和优势提供了重要参考依据。', '其中，实时记录主要采用观察法和行为记录法，对学生的行为习惯、学习习惯、劳动习惯、身心素质、美育实践和社会责任等指标进行评价。客观描述学生的进步、潜能和不足，避免形式化和应试化。', '定量评价主要采用测验、量表、问卷等量性评价方法，对学生德智体美劳等方面的表现进行测量，围绕学生的日常行为表现、课程和活动修习完成情况、标志性成果等，通过数据了解学生综合素质发展状况。严格控制测量和问卷调查频次，防止过多过繁。', '评语评价主要运用描述性语言对学生的发展状况进行客观评价，包括教师评语、本人评语、同伴评语和家长评语等。既要指出学生的优点和成长进步情况，又要指出改进和努力方向，避免千人一面。', '重要观测点评价主要由学生本人从德智体美劳等方面，选取自己最具有代表性和典型性的1—2项优势特长作为重要观测点，由指导老师或班主任进行学期评价和毕业评价。', '《意见》要求，学校要建立学生综合素质评价档案，每个学期评价结果及相关材料经公示审核确认后，生成学生学期综合素质评价档案。毕业前，教师要指导学生撰写毕业自我陈述报告，并为学生撰写毕业评语，学生毕业自我陈述报告和教师毕业评语要纳入综合素质评价档案，综合素质档案和签字确认的评价结果要保存至学生毕业后3—4年。', '每学期末和毕业前，学校要分别将学生各维度发展情况和综合素质评价结果反馈学生和家长。将义务教育学生评价和高中综合素质评价结合起来，形成学生全过程的学习成长档案。', '《意见》实施后，山东将率先实现省域内中小学生综合素质评价全覆盖。依托现有普通高中综合素质评价的有效模式，将学段延伸到初中和小学，形成贯通12年的学生全过程学习成长档案，更为全面地反映学生综合素质发展状况，有效引领育人方式转变和育人质量提升。']</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A79" t="n">
+        <v>129</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
           <t>第一批学习贯彻习近平新时代中国特色社会主义思想主题教育全面启动</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>2023-04-19</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2023/4/19/art_76833_4948143.html</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>['新华社北京4月18日电 题：感悟思想伟力 凝聚奋进力量——第一批学习贯彻习近平新时代中国特色社会主义思想主题教育全面启动', '题：感悟思想伟力 凝聚奋进力量——第一批学习贯彻习近平新时代中国特色社会主义思想主题教育全面启动', '4月3日，学习贯彻习近平新时代中国特色社会主义思想主题教育工作会议在京召开，习近平总书记出席并发表重要讲话，深刻阐述开展此次主题教育的重大意义、目标要求和重点举措，对以县处级以上领导干部为重点在全党深入开展主题教育作出部署、发出号令。', '连日来，第一批学习贯彻习近平新时代中国特色社会主义思想主题教育全面启动、有序开展。各地区各部门各单位把高质量开展好主题教育作为当前的首要政治任务，认真统筹谋划、精心组织学习、发挥表率作用，推动广大党员、干部在主题教育中感悟思想伟力、凝聚奋进力量。', '4月10日至13日，习近平总书记来到广东考察，这是总书记在学习贯彻习近平新时代中国特色社会主义思想主题教育启动之后，第一次出京调研。', '考察调研中，习近平总书记指出：“开展主题教育是今年党的建设的重大任务。各级党组织要坚决贯彻落实党中央的工作部署，教育引导党员、干部在以学铸魂、以学增智、以学正风、以学促干上下功夫见实效。”', '就在十几天前，3月30日，习近平总书记主持召开中共中央政治局会议，研究部署在全党深入开展主题教育工作。', '当天下午，在中央政治局第四次集体学习时，总书记强调，这次主题教育，中央政治局的同志要以更高标准、更严要求、更实措施，为全党作示范、立标杆、带好头。', '4天后，在出席主题教育工作会议时，总书记要求各级党委（党组）要扛起主体责任，把这件事关全局的大事谋划好、组织好、落实好。', '从“5天时间3次会议”的紧锣密鼓，到考察途中的指导要求，习近平总书记高度重视、身体力行，为谋划和开展好主题教育提供了根本遵循、指明了前进方向。', '中共中央发出关于学习《习近平著作选读》第一卷、第二卷的通知和关于印发《习近平新时代中国特色社会主义思想学习纲要（2023年版）》的通知，中央有关部门编辑出版了《习近平新时代中国特色社会主义思想的世界观和方法论专题摘编》等学习材料，为广大党员、干部在主题教育中提升理论素养、强化思想武装提供了权威教材。', '在中央学习贯彻习近平新时代中国特色社会主义思想主题教育领导小组领导下，主题教育中央指导组第一时间召开培训会议，58个指导组奔赴各地区各部门各单位，与进驻单位同向发力、同题共答，以良好的精神状态迅速投入工作。', '31个省区市和新疆生产建设兵团，中央和国家机关117家单位，15家中管金融企业、57家中管企业、31家中管高校作为第一批开展单位，迅速传达习近平总书记系列重要讲话精神，研究制定具体落实方案，推动主题教育开好局起好步。', '中央办公厅、中央统战部、全国人大常委会机关、全国政协机关、最高人民法院、最高人民检察院、国务院办公厅等单位，主题教育领导小组组长由兼任单位主要领导职务的党和国家领导同志担任；中央组织部、中央宣传部、中央政法委、全国总工会、全国妇联等单位兼任主要领导职务的党和国家领导同志分别主持召开专题会议、出席动员部署会，对抓好主题教育提出明确要求。', '广东省委领导班子带头抓好理论学习等“十带头”；新疆制定自治区党委常委会开展主题教育的工作方案及五个子方案，做到“规定动作”一个不少、“自选动作”务实管用。', '河北、吉林、黑龙江、四川、甘肃、青海等制定第一批主题教育工作方案等配套方案和指导意见，形成严密的工作推进体系。', '国务院国资委对机关和直属单位、委管中央企业、行业协会主题教育作出安排。中国人民银行、国家烟草局注重垂直管理和属地管理相结合，对分支机构、派出机构开展主题教育提出明确要求。中国银行、中国铁路、中国移动、东电集团、中储粮等普遍以视频方式动员部署，统一组织收看学习。', '“在全面贯彻落实党的二十大精神开局之年开展此次主题教育，有助于教育引导广大党员、干部更加深刻领悟‘两个确立’的决定性意义，从而统一全党思想、解决党内存在的突出问题、始终保持党同人民群众血肉联系、推动党和国家事业发展。”中央党校（国家行政学院）马克思主义学院副院长陈曙光表示，从中央到地方，从党政机关到企事业单位，各地区各部门各单位以上率下、抓纲带目，有助于提升主题教育的质效，形成一级抓一级、层层抓落实的良好局面。', '近日，一场别开生面的理论宣讲会在山东大学进行，宣讲中，该校马克思主义学院教授郑敬斌对习近平新时代中国特色社会主义思想进行详细阐释，赢得了在场观众热烈掌声。', '“运用好党的创新理论的前提，是真学真懂真信。”郑敬斌说，必须秉持严谨的治学态度，积极培养求真务实的科学精神和善于思考的进取意识，保证学习的系统性、深入性，只有坚持多思多想、学深悟透，对习近平新时代中国特色社会主义思想做到整体把握，才能把道理讲深、讲通、讲活。', '理论创新每前进一步，理论武装就跟进一步。这是中国共产党人依靠学习走向未来的理论自觉。', '在主题教育中，各地区各部门各单位将“学思想”摆在首位，把加强理论武装作为重中之重，教育引导广大党员、干部全面系统掌握习近平新时代中国特色社会主义思想的基本观点、科学体系，把握好这一思想的世界观、方法论，坚持好、运用好贯穿其中的立场观点方法，不断增进对党的创新理论的政治认同、思想认同、理论认同、情感认同。', '各地区各部门各单位以党委（党组）会议、专题会议、理论学习中心组学习等方式，深入开展集中学习研讨，准确把握习近平新时代中国特色社会主义思想的精神实质、深刻理解核心要义。', '中央纪委国家监委机关、中央和国家机关工委、中央台办等单位组织党员干部通过举办培训班、“三会一课”、主题党日等形式，认真学习主题教育学习材料，跟进学习习近平总书记最新重要讲话。', '中央政研室（中央改革办）、中联部、审计署等单位组织党员干部采取举办读书班、个人自学等形式，认真研读党的二十大报告和党章，学习《习近平著作选读》《习近平新时代中国特色社会主义思想专题摘编》等。', '工商银行、中船集团、复旦大学突出强调办好读书班，通过集中学习的方式，全面深入系统学习习近平新时代中国特色社会主义思想。', '在扎扎实实读原著学原文悟原理基础上，第一批开展单位结合自身特点，大力弘扬马克思主义学风。', '4月17日，在福建省委宣传部读书角，一场青年理论学习小组读书沙龙正热烈开展。党员干部们仔细研读《习近平在福建》《闽山闽水物华新——习近平福建足迹》等有关书籍和材料，踊跃发言讨论。连日来，通过举办学习《复兴文库》专题讲座、领导干部带头诵读、系统联学共学、开展现场教学等方式，福建省委宣传部推动主题教育全面开展。', '“开展这次主题教育的目标之一，就是凝心铸魂筑牢根本。作为宣传干部，更要以理论学习筑牢思想之基。”参加讨论的福建省委宣传部政策法规研究室干部郑燕松表示，福建是习近平新时代中国特色社会主义思想的重要孕育地和实践地，这就要求我们把习近平总书记对福建工作的重要指示批示精神，放在整个思想体系中来认识和把握，领悟好这一思想所蕴含的真理力量、理论价值和实践伟力。', '北京大学提出发扬研究传播马克思主义传统，加强对习近平新时代中国特色社会主义思想的学理性阐释、学术化表达和大众化传播；中铝集团等安排集中学习习近平总书记对本行业本领域重要指示批示精神，为高质量开展主题教育筑牢思想基础；中央党校（国家行政学院）、中国社会科学院等单位科学设置相应教学课程，对在校（院）学习研究的党员、干部主题教育作出统筹安排。', '浙江省委常委会带头开展“大走访大调研大服务大解题”活动，系统谋划“八八战略”实施20周年系列活动；国家发展改革委充分用好求是论坛、周三大讲堂、发改书吧“思享汇”等平台开展专题学习研讨；国家开发银行、中国大唐、华润集团、北京航空航天大学、南开大学等通过网站、党建信息平台、微信公众号等载体，及时刊发主题教育有关重要信息和学习资料，营造良好舆论氛围。', '夯实学习内容、创新形式载体，各地区各部门各单位采取多种形式、利用多种平台、发掘多种手段开展思想学习，推动更多党员、干部学有所思、学有所悟、学有所获。', '各地区各部门各单位在主题教育中，引导广大党员、干部学用结合、学以致用，不断从习近平新时代中国特色社会主义思想中汲取智慧经验，努力把学习成果转化为坚定理想、锤炼党性和指导实践、推动工作的强大力量。', '辽宁沈阳，中国航发项目工程施工现场机器轰鸣，承建方中建铁投路桥公司交通分公司党委书记韩义龙一大早就带领班子成员来到工地现场，实地安排“五一”前需要重点落实的施工任务。', '“我们开展学习贯彻习近平新时代中国特色社会主义思想主题教育，就是要从思想中汲取力量，把学习成效转化为干事创业的强大动力。”韩义龙说，要把此次主题教育作为改进工作作风的有力抓手，高标准高质量完成各项生产任务。', '各地区各部门各单位紧紧围绕新时代新征程党的中心任务，真抓实干、务求实效，聚焦问题、知难而进，在理论学习和思想洗礼中，汇聚起干事创业的热情。', '上海突出“实”字，表示要以排头兵的姿态和先行者的担当，将思想伟力化作浦江两岸高质量发展更为绚丽的生动图景；', '天津市委常委班子带头推动高质量发展“十项行动”深入实施，通过主题教育进一步把准行动方向、细化行动路径、提升行动效果；', '新疆生产建设兵团表示，在主题教育中进一步传承发扬兵团精神，忠诚履行新时代兵团职责使命，加快推进现代化建设。', '唯实求真，将习近平新时代中国特色社会主义思想的世界观、方法论和贯穿其中的立场观点方法融入主题教育——', '坚持问题导向，是习近平新时代中国特色社会主义思想的鲜明风格。商务部、中国贸促会等单位结合巡视巡察等梳理出的问题进行整改；中国矿产、五矿集团聚焦影响战略性矿产资源安全保障突出问题，提出破解之策。', '守正创新，是习近平新时代中国特色社会主义思想的显著标识。中石油强调转观念、勇担当、创一流，教育引导党员始终保持“石油工人心向党”的政治本色。', '“都说养老难，难在哪里？既要广泛采纳基层干部的意见，也要多倾听老年群体及其家属的心声。”在江西省民政厅召开的主题教育动员大会上，民政厅厅长李明生表示，要聚焦群众所需所盼制定清单，全方位、多维度开展调查研究。', '坚持人民至上，是贯穿习近平新时代中国特色社会主义思想的一条红线。深刻领悟这一根本立场，就要从政策安排上把以人民为中心的发展思想落到实处。', '人力资源和社会保障部、生态环境部、退役军人事务部等单位把主题教育与中心工作结合起来，推动解决群众急难愁盼问题，切实提升群众获得感、幸福感、安全感。', '重庆在主题教育实施方案中，建立了调查研究、民生项目、检视整改等清单，实施一系列发展攻坚行动；内蒙古紧扣完成好习近平总书记交给内蒙古的五大任务和全方位建设“模范自治区”两件大事，用心用情用力办好民生实事。', '坚守人民立场，方能行稳致远。随着主题教育的深入开展，广大党员、干部必将从习近平新时代中国特色社会主义思想中汲取不懈奋斗的动力，汇聚起奋进新征程、建功新时代的磅礴伟力。']</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A80" t="n">
+        <v>129</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
           <t>历城第二批年轻干部奔赴重点项目一线挂职</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>2023-04-23</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2023/4/23/art_1861_4948416.html</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>['近日，历城区召开新时代优秀年轻干部重点项目实践锻炼“一线工程”动员会，该区第二批优秀年轻干部即将启程，奔赴重点项目一线挂职锻炼。', '今年，历城区聚焦产业发展、城市更新、乡村振兴等全市“项目突破年”十个重点领域，选派25名具备相关专业背景或从业经历的年轻干部，到相关街道、区直部门（单位）进行为期一年的挂职实践锻炼，挂任“项目推进专员”或“项目服务专员”，重点围绕项目推进与服务、工程建设、化解矛盾等方面开展工作，增强年轻干部服务项目、推进经济发展的能力，助推重点项目建设。', '去年以来，该区常态化开展无任用调研，通过“4+2”工作法，在基层实践一线选派了第一批优秀年轻干部到一线挂职锻炼，取得了很好的效果。优秀年轻干部代表宋烨在分享经验时说道：“大家要主动把自己融入团队之中，小到资料整理，大到复杂的焦点问题分析，要始终站在群众角度、一线角度来思考、开展工作。”', '此次，第二批优秀年轻干部无缝衔接，接续第一期实践干部分期分批到超算圈服务中心、港九美丽乡村先行区、山东高速数字产业园项目、宋刘片区城市更新项目等重点项目一线挂职实践，通过在一线项目的不断打磨，快速成长为建设现代化强区长期事业的中坚力量。', '济南市超算数字经济创新圈内坐落着省市区三级党校、齐鲁工大、省商职、省城建、省高等院、超算中心、力诺集团、海康威视等单位。如何将各单位联络到一块，实现信息互通，智慧共创，资源共享，激发整个创新圈发展的内生动能？', '“我写下召开创新圈座谈会、组建创新圈联盟的方案，但是同事们纷纷摇头，说怎么可能联系到各单位，而且还要将主要负责同志们聚在一起，不现实。”济南超算数字经济创新圈服务中心挂职的优秀年轻干部王泽楠说，由于从未联系过各单位，她便制作公对公函件；由于没有直接联络员，她便反复浏览自己朋友圈寻找突破口。', '“按照这样的方式，成功邀约到各单位嘉宾。由于各单位主要负责同志空闲时间不统一，我就提前一个星期再次邀请，请他们预留出当天参会时间。就这样，创新圈联盟座谈会成功举办三期。”王泽楠表示，“当听到嘉宾纷纷表态同意组建创新圈联盟，共创共享、抱团发展时，我很高兴自己的方案落地了，但也深刻意识到，在工作中遇到困难，首先不能有畏难情绪，要有一点‘执拗’劲儿。同时要科学谋划，实干担当，才有可能成功。”', '像王泽楠这样“执拗”的年轻干部在历城区并不少见。该区根据全市“项目突破年”总要求，持续发力年轻干部“选育管用”全链条、全周期培养，让年轻干部在一线经风雨、见世面、长本领，早日练就担当作为的铁肩膀、真本事，为全面落实“4433”工作推进体系，加快建设省会社会主义现代化强区提供坚强组织保障。', '去年，历城区出台《历城区新时代年轻干部培养“5300”计划》，聚焦年轻干部培养，力争用5年时间，选拔各层级优秀年轻干部300名。截至目前，通过开展年轻干部专项调研、无任用调研和日常发现，动态储备260余名年轻干部，同时，对视野内成熟度较高的优秀年轻干部及时提拔使用。', '历城区要求各级各部门关心年轻干部成长成才、谋划年轻干部工作发展进步，要加强领导、密切配合，为年轻干部成长创造良好环境。接收单位要坚持从严要求与关心爱护相结合，切实担负起日常管理责任。派出单位要加强与接收单位联系，共同做好服务保障，要经常关心和了解干部学习、工作和生活情况，注意帮助其解决现实困难。', '据了解，实践锻炼的年轻干部由历城区委组织部、实践锻炼单位和派出单位共同管理，综合采取实地考察、群众座谈、多方了解等方式，全面掌握年轻干部实践锻炼现实表现，对历练扎实、实绩突出的优秀年轻干部，及时提拔使用；对发现的苗头性、倾向性问题及时提醒；对履职不力、不服从组织安排、年度考核不称职等情形的，坚决予以召回。']</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A81" t="n">
+        <v>129</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
           <t>济南市供销合作社年第四次主任办公会解读</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>2023-04-18</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2023/4/18/art_117135_4948076.html</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>['按照党中央和省、市关于大兴调查研究的部署要求，为适应供销社综合改革新形势新任务，学习借鉴外地先进典型经验，瞄准先进典型找坐标、定目标、争先进，努力推进各项工作求实效、出亮点、上水平，切实提升全市供销社系统社有企业发展、社有资本运营的能力和水平，拟由市社领导带队组织赴武汉、杭州市供销社考察学习，重点考察学习两市供销社在综合改革和发展社有经济、做好社有资本运营、做大资产总额以及城乡现代流通网络、为农服务体系建设等方面的经验做法。该项议题经市社主任办公会审议通过后，按方案赴武汉、杭州市供销社考察学习，考察结束后认真总结考察学习成果，切实把先进地区的好经验、好做法“学回来”“用起来”，推动全市供销合作社为农服务工作再上新台阶。', '赴武汉、杭州市供销社开展考察学习的指导思想、考察学习内容、时间安排、参加人员、经费来源及有关要求。']</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A82" t="n">
+        <v>129</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
           <t>济南市供销合作社组织赴武汉杭州两市考察学习</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>2023-04-17</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2023/4/17/art_4115_4948010.html</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>['按照各级关于大兴调查研究的部署要求，为学习借鉴外地先进典型经验，瞄准先进典型找坐标、定目标、争先进，努力推进各项工作求实效、出亮点、上水平，4月12日至14日，市供销社党组书记、理事会主任黄波带队赴湖北武汉、浙江杭州考察学习供销社综合改革和发展社有经济、推进社有资本运营以及城乡现代流通网络、为农服务体系建设等经验做法，以“他山之石”，攻“发展之玉”。市供销社党组成员、理事会副主任齐玉鹏，部分直属企业和机关处室负责人一行6人参加考察学习。', '在武汉期间，考察组先后参观了武汉山绿农产品集团公司及冷链物流全自动智能低温立体冷库、全自动智能低温车间、中央厨房综合体、农产品加工车间，黄鹤楼茶业集团汉口茶市、黄鹤楼名茶自营中心，武汉农村电子商务有限公司、武汉消费扶贫专馆（供销馆）等现场，并在武汉农村电子商务有限公司与武汉市社及其部分社有企业负责人进行座谈交流，详细了解武汉市供销社发展社有企业、争取政策支持、设立合作基金、搭建为农服务综合平台等方面的经验做法。', '在杭州期间，考察组先后到参观杭州百盛精准农业有限公司百盛国际兰科产业园、杭州西湖供销商贸中心（艺音金座）项目、西湖泗乡公社、西湖转塘街道长埭村实地参观学习，现场听取项目介绍，并与有关单位负责人进行座谈交流，研究探讨健全农业社会化服务网络、推动农业产业、服务乡村振兴和发展社有企业、做大社有资产等工作经验。并与杭州供销集团、西湖区供销社负责同志进行专题座谈，详细了解社有企业管理机制、资本运营平台组织架构、考核制度体系等方面的经验做法。', '通过参观学习和座谈交流，考察组认为，武汉市和杭州市供销社立足实际、守正创新，以市场化为方向，实施集团化运营，打造全产业链模式，推进多元化发展，推动改革发展实现新突破，在项目建设、为农服务、现代商贸流通、社有企业、社有资产运营管理等方面无不让我们耳目一新、倍感震撼，深受启发、受益匪浅，值得充分学习借鉴。考察组一致认为，要学习武汉市和杭州市供销社开放的发展理念，发扬“唯旗是夺，事争一流”的拼搏精神，激发“能打善拼，求变求强”的干事创业劲头，锻炼干部队伍，全面增强本领。要密切与武汉、杭州等兄弟市社的沟通联系，围绕全面提升为农服务综合能力，聚焦两地特色农副产品，进一步整合双方优势资源、密切联合合作，发挥出龙头企业的带动作用和供销社整体优势，在助力乡村振兴中贡献供销社力量。要多措并举加大招商引资力度，树立“项目为王”的理念，主动出击、积极争取，以项目带动服务能力提升，以社有资本运作推动社有企业发展壮大，切实增强供销社经济实力和市场竞争力，在深化供销社综合改革、推进供销社系统高质量发展等方面寻求新的更大突破。', '考察组表示，下一步要认真总结好、应用好本次考察学习成果，把两市供销系统的好经验、好做法"学回来""用起来"，对标先进找差距，高点定位谋发展，着力做优做强流通服务主业，提升社有企业发展质效，不断提升服务能力、增强经营实力、释放发展潜力，持续巩固和扩大综合改革成果，加快推动全市供销社系统高质量发展，在服务全面推进乡村振兴中展现新作为。']</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A83" t="n">
+        <v>129</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
           <t>李强主持召开国务院常务会议研究优化调整稳就业政策措施等</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>2023-04-15</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>http://www.gov.cn/yaowen/2023-04/14/content_5751582.htm</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>['李强主持召开国务院常务会议 研究优化调整稳就业政策措施 审议通过《商用密码管理条例（修订草案）》', '新华社北京4月14日电 国务院总理李强4月14日主持召开国务院常务会议。会议强调，要认真学习贯彻习近平总书记近日考察广东重要讲话精神，锚定强国建设、民族复兴目标，围绕高质量发展这个首要任务和构建新发展格局这个战略任务，在全面深化改革、扩大高水平对外开放、提升科技自立自强能力、建设现代化产业体系、促进城乡区域协调发展等方面不断取得新突破，扎实推进中国式现代化，让现代化建设成果更多更公平惠及全体人民。', '会议听取了当前就业形势和优化调整稳就业政策措施的汇报。会议指出，就业是民生之本。要进一步强化政策引导，在保持稳就业政策总体稳定的同时，有针对性优化调整阶段性政策并加大薄弱环节支持力度，确保就业大局稳定。要突出稳存量、扩增量、保重点，既有力有效实施稳岗支持和扩岗激励措施，更大程度调动企业用人积极性，又认真做好高校毕业生、农民工等重点群体就业服务，进一步稳定政策性岗位规模，多渠道拓宽就业空间。对失业和其他就业困难人员要分类予以帮扶。要着力破解结构性就业矛盾，采取务实管用措施稳定制造业、外贸企业等就业规模，突出就业导向优化高校专业设置，面向市场需求提升职业教育和技能培训质量。要强化宏观政策、产业政策等支持，通过扩大有效需求、提振市场信心、稳定企业经营带动更多就业，推动就业增长与经济发展互促共进。', '会议审议通过《商用密码管理条例（修订草案）》。会议指出，近年来，商用密码应用愈发广泛，在保障网络和信息安全、维护公民和法人权益方面的重要性日益凸显。要全面贯彻总体国家安全观，进一步规范商用密码应用和管理，督促平台企业依法履行用户密码保护责任，确保个人隐私、商业秘密和政府敏感数据的安全。要更好顺应数字经济快速发展趋势，建立健全商用密码科技创新促进机制，推动商用密码科技成果转化和产业化应用，促进商用密码市场持续健康发展。', '国务院总理李强4月14日主持召开国务院常务会议。会议强调，要认真学习贯彻习近平总书记近日考察广东重要讲话精神，锚定强国建设、民族复兴目标，围绕高质量发展这个首要任务和构建新发展格局这个战略任务，在全面深化改革、扩大高水平对外开放、提升科技自立自强能力、建设现代化产业体系、促进城乡区域协调发展等方面不断取得新突破，扎实推进中国式现代化，让现代化建设成果更多更公平惠及全体人民。']</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A84" t="n">
+        <v>129</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
           <t>习近平在广东考察时强调坚定不移全面深化改革扩大高水平对外开放在推进中国式现代化建设中走在前列</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>2023-04-14</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2023/4/14/art_22232_4947850.html</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>['习近平在广东考察时强调：坚定不移全面深化改革扩大高水平对外开放 在推进中国式现代化建设中走在前列', '4月10日至13日，中共中央总书记、国家主席、中央军委主席习近平在广东考察。这是10日下午，习近平在湛江市徐闻县徐闻港泊位码头，向船上的旅客挥手致意。', '新华社广州4月13日电 中共中央总书记、国家主席、中央军委主席习近平近日在广东考察时强调，广东是改革开放的排头兵、先行地、实验区，在中国式现代化建设的大局中地位重要、作用突出。要锚定强国建设、民族复兴目标，围绕高质量发展这个首要任务和构建新发展格局这个战略任务，在全面深化改革、扩大高水平对外开放、提升科技自立自强能力、建设现代化产业体系、促进城乡区域协调发展等方面继续走在全国前列，在推进中国式现代化建设中走在前列。', '4月10日至13日，习近平在中共中央政治局委员、广东省委书记黄坤明和省长王伟中陪同下，先后来到湛江、茂名、广州等地，深入企业、港口、农村等进行调研。', '4月10日至13日，中共中央总书记、国家主席、中央军委主席习近平在广东考察。这是11日下午，习近平在茂名高州市根子镇柏桥村同村民亲切交流。', '4月10日至13日，中共中央总书记、国家主席、中央军委主席习近平在广东考察。这是12日下午，习近平在广汽埃安新能源汽车股份有限公司考察。', '10日上午，习近平首先考察了位于湛江市东海岛的国家863计划项目海水养殖种子工程南方基地。习近平听取了广东省海洋渔业发展情况介绍，察看渔业良种展示，向现场科研和养殖人员询问选育技术、种苗长势、市场价格等。习近平指出，中国是一个有着14亿多人口的大国，解决好吃饭问题、保障粮食安全，要树立大食物观，既向陆地要食物，也向海洋要食物，耕海牧渔，建设海上牧场、“蓝色粮仓”。种业是现代农业、渔业发展的基础，要把这项工作做精做好。要大力发展深海养殖装备和智慧渔业，推动海洋渔业向信息化、智能化、现代化转型升级。', '4月10日至13日，中共中央总书记、国家主席、中央军委主席习近平在广东考察。这是10日上午，习近平在位于湛江市东海岛的国家863计划项目海水养殖种子工程南方基地考察。', '湛江红树林国家级自然保护区，是我国红树林面积最大、分布最集中的自然保护区。习近平来到位于保护区东部的麻章区湖光镇金牛岛红树林片区，察看红树林长势和周边生态环境。他强调，这片红树林是“国宝”，要像爱护眼睛一样守护好。加强海洋生态文明建设，是生态文明建设的重要组成部分。要坚持绿色发展，一代接着一代干，久久为功，建设美丽中国，为保护好地球村作出中国贡献。', '4月10日至13日，中共中央总书记、国家主席、中央军委主席习近平在广东考察。这是10日上午，习近平在湛江市麻章区湖光镇金牛岛红树林片区考察。', '10日下午，习近平来到湛江市徐闻县，考察徐闻港。徐闻港项目是广东与海南相向而行的“头号工程”。在港口专用码头，习近平察看徐闻港全貌，听取广东省提升交通基础设施互联互通水平、对接海南自由贸易港建设相向发展等工作汇报。随后，习近平来到泊位码头，察看船舶停靠、客运转接等。船上的旅客看见总书记来了，纷纷向总书记问好，习近平向大家挥手致意，祝他们一帆风顺。习近平指出，琼州海峡是国家经略南海的战略通道，也是海南自由贸易港建设和发展的咽喉要道，要把“黄金水道”和客货运输最佳通道这篇大文章做好，把徐闻港打造成连接粤港澳大湾区和海南自由贸易港的现代化水陆交通运输综合枢纽。', '4月10日至13日，中共中央总书记、国家主席、中央军委主席习近平在广东考察。这是10日下午，习近平在湛江市徐闻县徐闻港专用码头考察。', '4月10日至13日，中共中央总书记、国家主席、中央军委主席习近平在广东考察。这是10日下午，习近平在湛江市徐闻县徐闻港泊位码头，同船上的旅客亲切交流。', '离开徐闻港，习近平来到环北部湾广东水资源配置工程向南输水的接点站——徐闻县大水桥水库，了解工程建设、管理、运行和后续工程规划等情况。工作人员向总书记展示水样和监测设备，汇报当地加强周边生态保护等情况。习近平指出，我国缺水且水资源分布很不均衡。推进中国式现代化，要把水资源问题考虑进去，以水定城、以水定地、以水定人、以水定产，发展节水产业。广东要把水资源优化配置抓好，加快全面推进水资源配置工程建设，推动解决区域发展不平衡问题，尽早造福广大人民群众。', '4月10日至13日，中共中央总书记、国家主席、中央军委主席习近平在广东考察。这是11日下午，习近平在茂名高州市根子镇柏桥村荔枝种植园，同现场技术人员亲切交流。', '习近平11日来到茂名高州市根子镇柏桥村考察调研。柏桥村种植荔枝约6800亩，是荔枝生产专业村。习近平走进荔枝种植园，了解当地发展特色种植产业和文旅产业等情况，并同现场技术人员亲切交流。随后，习近平来到柏桥龙眼荔枝专业合作社，听取合作社运营和推进乡村振兴等情况介绍。习近平指出，这里是荔枝之乡，荔枝种植有历史传承和文化底蕴，特色鲜明，优势明显，市场空间广阔，要进一步提高种植、保鲜、加工等技术，把荔枝特色产业和特色文化旅游发展得更好。', '4月10日至13日，中共中央总书记、国家主席、中央军委主席习近平在广东考察。这是11日下午，习近平在茂名高州市根子镇柏桥龙眼荔枝专业合作社考察。', '临别时，村民们高声欢呼“总书记好”“总书记辛苦了”。习近平亲切地对大家说，这是我第一次到粤西地区，看到乡亲们通过发展荔枝等特色种植业过上了殷实的生活，我感到很欣慰。推进中国式现代化，必须全面推进乡村振兴，解决好城乡区域发展不平衡问题。要坚持走共同富裕道路，加强对后富的帮扶，推进乡风文明，加强乡村环境整治和生态环境保护，让大家的生活一年更比一年好。', '习近平12日在广州市考察调研。当天下午，他首先来到乐金显示广州制造基地。广东省相关负责同志介绍了全省近年来增强国内国际两个市场两种资源联动效应、提升贸易投资合作质量和水平等方面的做法和成效。习近平察看产品展示和生产组装流程，对企业发展取得的成就表示赞赏。习近平强调，在全球经济增长乏力情况下，中国加快构建新发展格局，加强营商环境建设，市场优势会更加明显。希望外国投资者抓住机遇，到中国来，到广东来，到粤港澳大湾区来，深耕中国市场，创造企业发展新辉煌。', '4月10日至13日，中共中央总书记、国家主席、中央军委主席习近平在广东考察。这是12日下午，习近平在乐金显示广州制造基地察看生产组装流程。', '习近平随后来到广汽埃安新能源汽车股份有限公司考察。他走进企业展厅、总装车间、电池生产车间等，了解企业突破关键核心技术和推动制造业高端化、智能化、绿色化等进展情况。在广汽研究院，习近平仔细察看智能网联实验室、模型设计实验室等，并同科技人员、企业家、职工、外资企业代表等交流。习近平指出，中国改革开放政策将长久不变，永远不会自己关上开放的大门。一切愿意与我们合作共赢的国家，我们都愿意与他们相向而行，推动世界经济共同繁荣发展。习近平强调，中国是个大国，要重视实体经济，走自力更生之路。关键核心技术要立足自主研发，也欢迎国际合作。要加强教育和人才培养，夯实科技自立自强根基。', '4月10日至13日，中共中央总书记、国家主席、中央军委主席习近平在广东考察。这是12日下午，习近平在广汽研究院同科技人员、企业家、职工、外资企业代表等亲切交流。', '4月10日至13日，中共中央总书记、国家主席、中央军委主席习近平在广东考察。这是12日下午，习近平在广汽研究院向职工们挥手致意。', '13日上午，习近平听取广东省委和省政府工作汇报，对广东各项工作取得的成绩给予肯定。', '习近平指出，粤港澳大湾区在全国新发展格局中具有重要战略地位。广东要认真贯彻党中央决策部署，把粤港澳大湾区建设作为广东深化改革开放的大机遇、大文章抓紧做实，摆在重中之重，以珠三角为主阵地，举全省之力办好这件大事，使粤港澳大湾区成为新发展格局的战略支点、高质量发展的示范地、中国式现代化的引领地。', '习近平强调，实现高水平科技自立自强，是中国式现代化建设的关键。要深入实施创新驱动发展战略，加强区域创新体系建设，进一步提升自主创新能力，努力在突破关键核心技术难题上取得更大进展。要加强对中小企业创新支持，培育更多具有自主知识产权和核心竞争力的创新型企业。要强化企业主体地位，推进创新链产业链资金链人才链深度融合，不断提高科技成果转化和产业化水平，打造具有全球影响力的产业科技创新中心。要推进粤港澳大湾区人才高地建设，形成高端科创人才聚集效应。', '习近平指出，中国式现代化不能走脱实向虚的路子，必须加快建设以实体经济为支撑的现代化产业体系。广东要始终坚持以制造业立省，更加重视发展实体经济，加快产业转型升级，推进产业基础高级化、产业链现代化，发展战略性新兴产业，建设更具国际竞争力的现代化产业体系。', '习近平强调，全体人民共同富裕是中国式现代化的本质特征，区域协调发展是实现共同富裕的必然要求。广东要下功夫解决区域发展不平衡问题，加快推进交通等基础设施的区域互联互通，带动和推进粤东、粤西、粤北地区更好承接珠三角地区的产业有序转移。要加强陆海统筹、山海互济，强化港产城整体布局，加强海洋生态保护，全面建设海洋强省。要积极推进以县城为重要载体的新型城镇化建设，加快构建现代乡村产业体系，发展新型农村集体经济，深入实施乡村建设行动，促进共同富裕。持续做好防止返贫动态监测和常态化帮扶，防止出现返贫。', '习近平指出，开展主题教育是今年党的建设的重大任务。各级党组织要坚决贯彻落实党中央的工作部署，教育引导党员、干部在以学铸魂、以学增智、以学正风、以学促干上下功夫见实效。以学铸魂，就是要做好学习贯彻新时代中国特色社会主义思想的深化、内化、转化工作，从思想上正本清源、固本培元，筑牢信仰之基、补足精神之钙、把稳思想之舵。一是坚定理想信念，增强对党的价值追求和前进方向的高度政治认同，把好世界观、人生观、价值观这个“总开关”。二是铸牢对党忠诚，自觉坚持党的全面领导、坚定维护党中央权威和集中统一领导，不断提高政治判断力、政治领悟力、政治执行力，始终在政治立场、政治方向、政治原则、政治道路上同党中央保持高度一致，把对党忠诚体现到贯彻落实好党中央决策部署的实际行动上。三是站稳人民立场，强化宗旨意识，坚守初心使命，践行党的群众路线，把人民群众满意不满意作为评判主题教育成效的根本标准，解决好人民群众最关心最直接最现实的利益问题，把惠民生的事办实、暖民心的事办细、顺民意的事办好，让现代化建设成果更多更公平惠及全体人民。', '李干杰、何立峰及中央和国家机关有关部门负责同志陪同考察，主题教育中央第七指导组负责同志参加汇报会。']</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A85" t="n">
+        <v>129</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
           <t>济南市供销合作社召开年第四次主任办公会</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>2023-04-07</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2023/4/7/art_117135_4947401.html</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>['4月4日，市供销合作社召开2023年第四次主任办公会，会议研究审议了赴武汉、杭州等地进行考察学习的方案和淘汰报废相关办公设备有关事宜，听取了各处室关于3月份工作完成情况及4月份工作安排的汇报，黄波主任就4月份重点工作进行了安排部署并提出要求。']</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A86" t="n">
+        <v>129</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
           <t>市委常委会召开会议</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>2023-04-17</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2023/4/17/art_1861_4947994.html</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>['4月16日，市委常委会召开会议，学习贯彻习近平总书记在广东考察和视察南部战区海军时的重要讲话精神，研究贯彻落实意见；研究调查研究工作等事项。', '会议指出，习近平总书记的重要讲话高屋建瓴、精辟深邃、内涵丰富，全市各级要深入学习领会，结合实际抓好贯彻落实。要扎实开展学习贯彻习近平新时代中国特色社会主义思想主题教育，坚定理想信念，铸牢对党忠诚，站稳人民立场，努力在以学铸魂、以学增智、以学正风、以学促干方面下功夫见实效。要深入实施创新驱动发展战略，加大科创平台建设、科创人才队伍打造、科技成果转化力度，进一步提升自主创新能力，持续增强科技竞争力。要加快构建现代化产业体系，大力发展实体经济，高标准抓好项目谋划，努力引进更多大项目、好项目、新项目。要全面推进乡村振兴，做大做强种业等优势产业，提高粮食综合生产能力，巩固拓展脱贫攻坚成果，扎实推进乡村建设，带动农民增收致富。要进一步增强服务国防和军队现代化建设的使命感，做好双拥共建等各项工作。', '会议学习了《中国共产党党内法规制定条例》，强调要进一步增强依规治党的自觉性坚定性，牢牢把握正确政治方向，切实抓好党内法规制度贯彻执行。', '会议审议了《关于在全市大兴调查研究的实施方案》《市委常委会调查研究工作方案》，强调要坚持领导带头，严格落实中央安排和省委要求，注重科学高效，强化统筹协调，切实提高调查研究实效，更好服务强省会建设。']</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A87" t="n">
+        <v>129</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
           <t>济南市人民政府外事办公室所属事业单位公开招聘工作人员资格复审通知</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>2023-04-06</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2023/4/6/art_22234_4947350.html</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>['根据《济南市人民政府外事办公室所属事业单位公开招聘工作人员简章》，济南市人民政府外事办公室将于4月11日至12日组织开展所属事业单位公开招聘工作人员资格复审工作。现将有关事项通知如下：', '6.岗位要求取得的专业资格证书及相关语种官方语言国家学习、工作证明（查看原件，留存复印件）。', '7.在职人员应聘的，需提交有用人权限部门或单位出具的同意应聘介绍信（留存原件，参考样式见附件）。', '（1）尚未取得学历（学位）证的应届毕业生，应提交学生证和所在学校出具的就业推荐表（查看原件，留存复印件）。', '（2）在职人员应提交有用人管理权限部门或单位出具的同意报考介绍信（如该阶段确不方便出具，经本人提出书面申请并经招聘单位审核同意后，也可在体检和考察前提供，书面申请参考样式见附件）。现工作单位与报名时工作单位不一致的，应出具与原单位解约的证明材料、与现工作单位的劳动合同及同意报考介绍信。报名时无工作单位、现在有工作单位的，应出具现工作单位的劳动合同及同意报考介绍信。已与报名时所在的工作单位解约或辞职、目前无工作单位的，应出具原单位解约证明材料并做出书面说明。', '1.凡有关材料主要信息不实、不符合招录职位要求、影响资格复审结果的，以及未按指定时间、地点参加现场资格复审的，招聘单位将取消其笔试资格。为保证笔试工作顺利进行，请自愿放弃笔试资格的考生于4月8日9：00前电话告知招聘单位，并将放弃声明（见附件）报送招聘单位（报送方式单独通知）。', '2.报考人员在报考期间要保持通讯畅通，工作人员将通过电话与报考人员联系，因本人原因未收到通知等重要信息而影响考试或逾期未参加的，视作放弃资格。']</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A88" t="n">
+        <v>129</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
           <t>商河将改革创新确定为年主题</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="E88" t="inlineStr">
         <is>
           <t>2023-02-28</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
+      <c r="F88" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2023/2/28/art_52_4944195.html</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>['2月27日上午，商河召开“改革创新年”动员大会。会上，县委书记袁长奎表示，商河将“改革创新”确定为2023年主题。', '今年，商河坚持以习近平新时代中国特色社会主义思想为指引，全面学习宣传贯彻党的二十大精神，深入落实习近平总书记关于全面深化改革的重要论述，落实中央决策部署和省委、市委工作要求，深入落实“一三四六”工作思路，部署改革具体行动，用改革关键一招突破县域经济高质量发展瓶颈，奋力拓宽发展路径，为加快再造一个“新商河”注入强劲动能。', '“在刚刚过去的全市重点项目观摩中，我们取得了第5名的好成绩。在新的成绩上再取得新的进步、打破天花板，常规的平推平拉是完不成的，需要以改革创新为武器，做到人无我有、人有我优，持续增强经济发展的竞争力，才能在这场比赛中脱颖而出、成为赢家。”', '在商河看来，发展是动态变化的，要走出思想舒适区、顶破发展天花板，“改革创新”毫无疑问是当前各项重点工作继续发展、持续提升、转入下个发展阶段的必然过程。', '无论是多次提及“改革”的党的二十大报告，还是明确“更好统筹供给侧结构性改革和扩大内需”的中央经济工作会议，抑或是今春以来的省市各项重点会议，都无数次重申了这一点。', '这一行动有指引、有经验，也有成例。从50多年前开创农田水利、大地林网“三成四结合模式”、改革开放后最早萌发农村市场经济，到近年来的“智慧水务”、“一证保三权”、农地入市等，无数改革的经历为商河切切实实解决了一些难题和瓶颈，释放了更大的发展动能。重视改革、支持改革、推进改革，是商河人的先天“基因”，也是制胜法宝。今年以来，商河党政考察团和各单位更是多次赴外地学习、召开改革工作专题座谈会，用学到的改革经验、改革理念，对具体实施方案进行细化完善。改革创新的呼声，已然汇成2023年的发展大潮。', '会上，商河印发了《关于在全县开展“改革创新年”活动的实施意见》，要求构建“1+6+N”的改革大格局，即立足全县范围，以党委为统领，聚焦医疗、教育、国资国企、编制、要素市场化、服务效能六大领域，以重点突破带全局，其他部门单位明确1—2项改革事项，在全县上下形成支持改革、参与改革、主动改革的浓厚氛围，“以改革破难点、解痛点、疏堵点，扬优势、补短板、挖潜力，真正攻克一批‘牵一发而动全身’的关键重点”。', '纵观活动意见，每一项不是以问题为导向，刀刃向内，破除阻碍生产力的顽瘴痼疾，破除影响社会公平正义的机制弊端，就是以问题为导向，甩开顾虑，探索有利于高质量发展的制度和做法，建立有利于增加人民群众获得感的政策和举措，将“全面”“深化”落实到字里行间。', '尤为值得注意的是，此次行动绝非“一拥而上、一蹴而就”。会上，袁长奎专门强调，改革可以找准“小切口”，进行细枝末节的修剪；也可以大刀阔斧、建梁架柱、系统重构，进行深刻变革，但不能“上下一般粗、左右一个样”。可以试点先行、典型引路、以点带面；可以先易后难稳步推进，也可以直指核心、啃“硬骨头”，但不能不顾改革时序，无视风险意识和底线思维。', '以系统思维，把握好改革的时、度、效，探索形成可复制可推广的路径模式，使“行稳致远”深深嵌入商河改革。', '据了解，为了集中攻坚具有牵引性、关键性的改革任务，商河成立了全县“改革创新年”活动领导小组，由县委书记、县长任双组长，并下设6大改革行动专班，各镇街、经济开发区、县直各部门单位也将改革创新工作作为“一把手”工程，主要负责同志将亲自参与调查研究、方案设计、督促指导、跟进落实全过程。', '改革很难一帆风顺，探索也未必每次都摸对方向。在建立健全督查考评机制、充分发挥考核“指挥棒”作用的基础上，为了鼓励敢想敢干的志气、敢破敢立的锐气、敢打敢拼的胆气，袁长奎在会上郑重向党员干部群众表态，只要符合“三个区分开来”，县委县政府将坚定不移保护改革者、支持改革者。', '以决心和魄力去“破”，以专业和智慧去“立”，以担当和众力去“推”。改革创新，将让生产要素如商河温泉一样自由流动、充满活力，让各市场主体如商河生态一样郁郁葱葱、充满生机，让党员干部如鼓子秧歌一样步伐铿锵、充满力量，让落户企业如商河花卉一样百花齐放、充满春意，为新时代社会主义现代化强县建设提供源源不断的动力。']</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A89" t="n">
+        <v>129</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
           <t>所高校面向山东开展本科综合评价招生试点</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr">
+      <c r="E89" t="inlineStr">
         <is>
           <t>2023-04-07</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2023/4/7/art_1861_4947374.html</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>['日前，山东省教育厅印发《关于做好2023年普通本科高校综合评价招生试点工作的通知》。山东大学、中国海洋大学、中国石油大学（华东）、哈尔滨工业大学（威海）、青岛大学、山东师范大学、山东科技大学、青岛科技大学、山东财经大学、浙江大学、华南理工大学11所高校开展本科综合评价招生试点，综合评价招生报名工作5月10日前完成。', '据悉，招生计划由试点高校在高校主管部门核准的综合评价试点招生规模内自主确定。未完成的综合评价招生计划可转入当年学校统招计划招生。已经通过我省今年夏季高考报名并符合试点高校具体报考条件的考生均可报考综合评价招生。考生须按照要求分别参加我省夏季高考统一报名和试点高校综合评价招生报名，已通过保送、高职（专科）单独招生和综合评价招生被提前录取的考生，不得报名。', '试点高校要在报名前公布本校综合评价招生办法，包括分专业招生计划及考生报考条件，明确网上报名时间、报名办法、报考要求、录取程序、录取标准等。报考要求应对考生综合素质评价设置前置条件，将学生社区服务、社会实践经历、考察探究活动、研究型学习情况和自主选修学分学习情况等作为资格审查的必要内容和进入面试的必要条件，积极调动整合高校资源参与高中学校的开放性、研究型和跨学科等项目学习课程设计。考生根据本人情况和高校要求自主报考并如实提供相关报考材料。对考生报考材料，在资格审核、校测、录取、入学资格复查等环节进行全过程监督、核查，加大材料真实性审核力度，对查实提供虚假申请材料的考生及学校，按照相关规定严肃处理。', '认真组织考生高中阶段综合素质评价工作。试点高校要遵循人才培养规律，在统筹考虑城乡差异和不同群体学生特点的基础上，研究制订高中学生综合素质评价使用办法。规范考生测试（面试）。学校素质测试（面试）工作应安排在高考结束后、高考成绩公布前进行。试点高校根据国家教育考试工作要求，结合培养目标和专业能力等情况，确定本校测试（面试）的内容、标准、形式和办法，并加强对学生关键能力、学科素养和思维品质的考查以及对所学知识的融会贯通和灵活运用。严格确定入围考生。试点高校要根据考生综合素质评价情况、测试（面试）成绩，按照不超过招生计划1:6的比例确定入围学生名单。各试点高校要在教育部阳光高考信息公开平台对入围学生名单进行公示，同时在试点高校网站进行不少于5个工作日的公示。对公示无异议的入围考生，要及时通知考生本人，并于6月27日前将入围考生名单（含考生号、身份证号、姓名、高校考核成绩等）和数据库报省教育招生考试院备案。', '本科高校综合评价招生安排在普通类提前批进行。入围考生应在普通类提前批次填报综合评价招生试点高校志愿，若同时获得多所高校入围资格，只能选择一所高校填报。不填报或填报未入围综合评价招生试点高校志愿，视为放弃该项招生资格，但不影响其他志愿录取。填报专业志愿须在该项招生公示的专业中选择，否则视为无效。', '考生综合成绩由夏季高考总成绩（含语文、数学、外语科目考试成绩，高中学业水平等级考试成绩和高考加分）和高校考核成绩（含学生综合素质评价结果）组成，其中夏季高考总成绩占比原则上不低于50%。试点高校须在招生章程中注明各项成绩在综合成绩中的占比。省教育招生考试院根据试点高校入围考生名单、考生志愿及该校录取最低控制分数线，分试点高校一次性全部投档。试点高校根据招生计划及考生综合成绩，由高分到低分择优确定预录取名单，并按规定程序办理录取手续。录取最低控制分数线由试点高校按高考成绩自行确定，但不得低于普通类一段线。']</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A90" t="n">
+        <v>129</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
           <t>年全市新旧动能转换重点项目现场观摩活动到市中区槐荫区长清区平阴县考察</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="E90" t="inlineStr">
         <is>
           <t>2023-02-18</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2023/2/18/art_1861_4942544.html</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>['2023年全市新旧动能转换重点项目现场观摩活动于2月17日至20日举行。2月17日，市委书记刘强，市委副书记、市长于海田，市人大常委会主任韩金峰，市政协主席雷杰，市委副书记杨峰一行，到市中区、槐荫区、长清区、平阴县考察项目进展情况。', '本次活动坚持以习近平新时代中国特色社会主义思想为指导，深入学习贯彻党的二十大精神，全面落实习近平总书记对山东、对济南工作的重要指示要求，贯彻落实黄河流域生态保护和高质量发展重大国家战略，深入推进新旧动能转换绿色低碳高质量发展，围绕“项目突破年”，以重点项目现场观摩的形式，检验工作成效，提振发展信心，营造全市上下抓项目谋划、促项目落地的浓厚氛围，为当好“三个走在前”排头兵，奋力开创新时代社会主义现代化强省会建设新局面贡献力量。', '此次观摩项目为2022年以来建成投产项目、主体已建成或形象进度达到70%以上的在建项目，要在2023年能够形成实实在在的产能，主要为产业类项目、重大物流项目、重大科技创新平台等。', '在市中区，考察人员先后察看了济南中央活力区产业集群项目、国家大学科技园未来产业科技创新平台项目、中国铁塔北方数据中心项目。济南中央活力区产业集群项目总投资约520亿元，重点布局能源互联网、绿色制造、新材料研发、高端商务商贸等生产性服务业和高端制造产业，5年内初步建成活力品质新城区，集聚总部型企业200余家，实现产值500余亿元。国家大学科技园未来产业科技创新平台项目总投资47亿元，建设三大未来产业科技创新平台，正在全力争创国家级未来产业科技园，力争5年内实现产值突破1000亿元。中国铁塔北方数据中心项目总投资21亿元，作为中国铁塔云平台全国三大节点之一，融合遍布全省的13万座通信铁塔资源，于2023年2月投入运行，预计可拉动山东铁塔2023年新增营收4.8亿元，总营收超过51亿元。', '在槐荫区，考察人员先后察看了国网山东电力生产检修建设基地项目、齐鲁中科现代微生物技术研究院项目、山东大学国际医学中心项目。国网山东电力生产检修建设基地项目总投资17.73亿元，主要建设国网电力大数据中心、综合楼、特种设备基地等，是国家电力系统应急救援三大基地之一，预计2023年实现新增产值28.5亿元。齐鲁中科现代微生物技术研究院项目总投资15亿元，正在建设微生物资源中心、高等级生物安全实验室、基因编辑中心等5个中心，预计2023年实现新增产值3亿元。山东大学国际医学中心项目总投资20.92亿元，将建设卫生健康创新产业集群，包含山东大学高等医学研究院、国际医院等，设计床位2000张。', '在长清区，考察人员先后察看了国舜绿建低碳和钢智能科技示范产业园项目、恒誉环保高端热裂解环保装备生产基地项目、济南长清绿色建材智慧产业园项目。国舜绿建低碳和钢智能科技示范产业园项目预计总投资11.8亿元，打造集工业机器人、视觉识别、自动化、信息化系统于一体的全流程智能化生产线，目前已获得中国建筑节能协会“近零能耗建筑”认证，投产运营之后年产值可达10亿元。恒誉环保高端热裂解环保装备生产基地项目预计总投资10.62亿元，主要建设技术研发中心、云控中心等，产品已通过欧盟CE认证及德国TUV认证、ATEX认证，建成后年产值达到10亿元以上。济南长清绿色建材智慧产业园项目预计总投资14亿元，项目建成后可实现利润2.9亿元，年营业收入30亿元，新增就业岗位1200多个。', '在平阴县，考察人员先后察看了山东智鑫医疗产业园项目、中电建核电装备智造基地项目、山东泉城芳华康养项目。山东智鑫医疗产业园项目预计总投资12亿元，集人工智能智造中心、防护装备智造中心、防护生产链智造中心三位一体，以孵化健康产业生态圈为目标，项目全部投产后，可实现年产值10亿元，新增就业岗位500个。中电建核电装备智造基地项目预计总投资13亿元，于2022年6月开工建设，计划2023年3月投产运营，一期建成达产后预计可实现年营收12亿元。山东泉城芳华康养项目预计总投资16亿元，打造“颐、健、乐、学”四项服务体系，建成后可提供容纳3000余名老人的康养服务，预计2023年实现新增产值1.5亿元。', '参加活动的还有：市级领导同志；市人大常委会、市政府、市政协秘书长，市纪委分管日常工作的副书记；市委、市政府有关副秘书长；各区县（功能区）党政主要负责同志，济南高新区、济南新旧动能转换起步区有关负责同志；市直有关部门（单位）主要负责同志。']</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A91" t="n">
+        <v>129</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
           <t>市外办关于公开年度普法数据及履职情况的报告</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
+      <c r="E91" t="inlineStr">
         <is>
           <t>2023-02-09</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2023/2/9/art_22234_4938214.html</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>['按照济南市《关于实行国家机关“谁执法谁普法”普法责任制的实施意见》《济南市国家机关“谁执法谁普法”履职报告评议活动实施办法》等要求，现将本单位20', '办党组对普法工作高度重视，紧紧围绕服务“十四五”时期经济社会发展对市外办2022年普法工作进行紧密部署。一是以服务打造国际化法治化营商环境为重点，着力提高普法针对性和实效性，不断加强普法宣传、普法学习和法治宣传教育，进一步提升全办干部职工的法治意识和依法办事能力。二是坚持精准普法，根据外事工作实际，针对不同对象的法治需求，确定重点内容和方式，分层分类实施，使涉外法治宣传教育更加贴近实际。三是充分挖掘各处室职能优势，认真落实普法责任制，把法治宣传教育融入业务工作全过程，做到普法与业务工作同部署、同检查、同落实。', '日，组织开展法律知识考试，重点考察《中华人民共和国宪法》《中华人民共和国民法典》等内容，', '在市外办“济南外事”专题网页设置宣传飘窗，网页专栏、微信公众号同步更新国家宪法日及宪法宣传文章', '7篇，面向社会开展宣传，并组织市外办全体干部职工参加“市外办宪法知识问答”竞猜活动5期，受众283人次。', '关于2023年度济南市人民对外友好协会机关招录公务员专业科目考试时间安排及有关事项的公告']</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A92" t="n">
+        <v>129</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
           <t>驻鲁全国人大代表来济开展集中视察活动</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
+      <c r="E92" t="inlineStr">
         <is>
           <t>2023-02-17</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
+      <c r="F92" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2023/2/17/art_1861_4941380.html</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>['2月16日，驻鲁部分全国人大代表视察组来济开展十四届全国人大一次会议前集中视察活动，杨东奇、王随莲、王良、张立克、吕运成、刘治安、霍敏、顾雪飞、王修林参加。市人大常委会主任韩金峰陪同。', '视察期间，视察组考察了我市经济社会发展情况。在中科院济南科创城，视察组来到规划展厅和有关科技实验室，详细了解了园区规划布局以及现阶段取得的成效。视察组强调，要进一步优化科技创新的生态和要素保障，加快完善科技创新体系，加快关键核心技术攻关，推动国家级重大科技创新平台落地。在历城区董家街道，视察组现场听取了甄家村“践行全过程人民民主”相关情况介绍，实地察看了“草莓产业”专业特色人大代表工作站。视察组指出，要深入践行习近平总书记关于全过程人民民主重要论述，切实做好群众“家门口”的民主政治实践，加强代表工作创新，更好地发挥人大代表作用，真正架起服务群众的“连心桥”。', '视察组对我市近年来在推动高质量发展、促进高效能治理、打造高品质生活等方面取得的成效予以肯定，并指出，济南市要深入学习宣传贯彻党的二十大精神，落实黄河流域生态保护和高质量发展重大国家战略，创造性贯彻落实省委“六个一”发展思路、“六个更加注重”策略方法、“十二个着力”重点任务，锚定“勇当排头兵、建设强省会”目标不动摇，着力塑造经济高质量发展新优势，为新时代社会主义现代化强省建设作出更大贡献。']</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A93" t="n">
+        <v>129</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
           <t>济南市考察团到苏州考察学习</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>2023-02-19</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2023/2/19/art_1861_4942582.html</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>['2月14日至16日，市委副书记、市长于海田率领济南市考察团到苏州市考察学习工业发展、园区建设、产业转型、城市建设、乡村振兴等领域的好经验、好做法，对标找差距，全力谋发展，并就深化两地交流合作、实现互利共赢等方面进行对接沟通。江苏省委常委、苏州市委书记曹路宝会见我市考察团一行，苏州市委副书记、市长吴庆文陪同考察。', '会见中，曹路宝代表苏州市委、市政府对济南市考察团一行的到来表示欢迎。他说，苏州始终坚持以习近平新时代中国特色社会主义思想为指导，深入学习贯彻党的二十大精神，完整准确全面贯彻新发展理念，积极服务构建新发展格局，加快推动数字经济时代产业创新集群建设，努力在中国式现代化建设新征程上当好排头兵。近年来，济南大力实施“强省会”战略，按下高质量发展的快进键、驶入高质量发展的快车道，各项工作取得了显著的成就，许多好经验好做法都值得苏州学习借鉴。希望双方充分发挥各自优势，在生态保护、城市治理、科技创新、产业转型、绿色发展等方面开展全方位多领域交流合作，共同开创高质量发展新局面。', '于海田对苏州市近年来经济社会发展取得的成绩表示赞赏。他说，苏州市深入学习贯彻党的二十大精神，高起点、高标准谋划推进各项事业，多项工作走在了全国前列，在科技创新、产城融合、古城保护等领域的先进理念思路和经验做法值得济南学习借鉴。近年来，济南市坚持以习近平新时代中国特色社会主义思想为指导，认真落实习近平总书记对山东、对济南工作的重要指示要求，深入贯彻黄河流域生态保护和高质量发展重大国家战略，主动服务和融入新发展格局，推动省会高质量发展迈出坚实步伐。希望两地进一步加强交流，增进互学互鉴，在更大范围、更宽领域、更深层次开展交流合作，推动形成更多互利共赢的发展成果，努力为全国发展大局作出更大贡献。', '在苏州期间，济南市考察团分别来到苏州生物医药产业园、宝时得科技（中国）有限公司、苏州工业园区展示中心与社会治理现代化指挥中心、苏州文化艺术中心、姑苏区平江历史文化街区、汾湖曲水善湾乡村振兴美丽吴江样板区、中国工业互联网研究院苏州分院、苏州城市会客厅、相城区冯梦龙村、长三角国际研发社区启动区展示中心、清华大学（苏州）汽车研究院等地进行实地考察。每到一处，考察团成员都认真察看，与相关负责人深入交流，详细了解园区建设、科技创新、产业转型、企业发展、古城保护、基层治理等情况。', '于海田指出，此次到苏州学习考察，既是一次解放思想、转变观念之行，也是一次寻标对标、加压奋进之行。要自觉对标先进，清醒认识差距，找准努力方向，提振干事创业的精气神，跑出省会发展的“加速度”。要以此次学习考察为动力，锚定“勇当排头兵、建设强省会”，聚焦“项目突破年”重点任务，以更实举措更大力度抓好工作落实，推动省会在绿色低碳高质量发展上走在前、作表率。要突出工作重点，聚力实施工业强市战略、强化创新驱动发展、推进园区高质量发展、提高城市规划建设治理水平、全面推进乡村振兴，着力提升绿色低碳高质量发展的实绩实效。要进一步加强产业谋划培育，建立专业化服务机制，完善推进体系，明确实施路径，努力在打造现代化产业体系上实现新突破。', '苏州市领导沈觅、潘国强、查颖冬、施嘉泓；济南市政府秘书长王品木，相关区县（功能区）、市直有关部门主要负责同志等参加活动。']</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A94" t="n">
+        <v>129</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
           <t>习近平在学习贯彻党的二十大精神研讨班开班式上发表重要讲话</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr">
+      <c r="E94" t="inlineStr">
         <is>
           <t>2023-02-08</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>http://www.gov.cn/xinwen/2023-02/07/content_5740520.htm</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>['习近平在学习贯彻党的二十大精神研讨班开班式上发表重要讲话强调 正确理解和大力推进中国式现代化 李强主持 赵乐际王沪宁蔡奇丁薛祥李希出席', '2月7日，新进中央委员会的委员、候补委员和省部级主要领导干部学习贯彻习近平新时代中国特色社会主义思想和党的二十大精神研讨班在中央党校（国家行政学院）开班。中共中央总书记、国家主席、中央军委主席习近平在开班式上发表重要讲话。新华社记者 李学仁 摄', '新华社北京2月7日电 新进中央委员会的委员、候补委员和省部级主要领导干部学习贯彻习近平新时代中国特色社会主义思想和党的二十大精神研讨班7日上午在中央党校（国家行政学院）开班。中共中央总书记、国家主席、中央军委主席习近平在开班式上发表重要讲话强调，概括提出并深入阐述中国式现代化理论，是党的二十大的一个重大理论创新，是科学社会主义的最新重大成果。中国式现代化是我们党领导全国各族人民在长期探索和实践中历经千辛万苦、付出巨大代价取得的重大成果，我们必须倍加珍惜、始终坚持、不断拓展和深化。', '中共中央政治局常委李强主持开班式，中共中央政治局常委赵乐际、王沪宁、蔡奇、丁薛祥、李希出席。', '习近平指出，实现中华民族伟大复兴是近代以来中国人民的共同梦想，无数仁人志士为此苦苦求索、进行各种尝试，但都以失败告终。探索中国现代化道路的重任，历史地落在了中国共产党身上。在新民主主义革命时期，我们党团结带领人民，浴血奋战、百折不挠，经过北伐战争、土地革命战争、抗日战争、解放战争，推翻帝国主义、封建主义、官僚资本主义三座大山，建立了人民当家作主的中华人民共和国，实现了民族独立、人民解放，为实现现代化创造了根本社会条件。新中国成立后，我们党团结带领人民进行社会主义革命，消灭在中国延续几千年的封建制度，确立社会主义基本制度，实现了中华民族有史以来最为广泛而深刻的社会变革，建立起独立的比较完整的工业体系和国民经济体系，社会主义革命和建设取得了独创性理论成果和巨大成就，为现代化建设奠定根本政治前提和宝贵经验、理论准备、物质基础。改革开放和社会主义建设新时期，我们党作出把党和国家工作中心转移到经济建设上来、实行改革开放的历史性决策，大力推进实践基础上的理论创新、制度创新、文化创新以及其他各方面创新，实行社会主义市场经济体制，实现了从生产力相对落后的状况到经济总量跃居世界第二的历史性突破，实现了人民生活从温饱不足到总体小康、奔向全面小康的历史性跨越，为中国式现代化提供了充满新的活力的体制保证和快速发展的物质条件。', '习近平强调，党的十八大以来，我们党在已有基础上继续前进，不断实现理论和实践上的创新突破，成功推进和拓展了中国式现代化。我们在认识上不断深化，创立了新时代中国特色社会主义思想，实现了马克思主义中国化时代化新的飞跃，为中国式现代化提供了根本遵循。我们进一步深化对中国式现代化的内涵和本质的认识，概括形成中国式现代化的中国特色、本质要求和重大原则，初步构建中国式现代化的理论体系，使中国式现代化更加清晰、更加科学、更加可感可行。我们在战略上不断完善，深入实施科教兴国战略、人才强国战略、乡村振兴战略等一系列重大战略，为中国式现代化提供坚实战略支撑。我们在实践上不断丰富，推进一系列变革性实践、实现一系列突破性进展、取得一系列标志性成果，推动党和国家事业取得历史性成就、发生历史性变革，特别是消除了绝对贫困问题，全面建成小康社会，为中国式现代化提供了更为完善的制度保证、更为坚实的物质基础、更为主动的精神力量。', '2月7日，新进中央委员会的委员、候补委员和省部级主要领导干部学习贯彻习近平新时代中国特色社会主义思想和党的二十大精神研讨班在中央党校（国家行政学院）开班。中共中央总书记、国家主席、中央军委主席习近平在开班式上发表重要讲话。新华社记者 李涛 摄', '习近平指出，党的领导直接关系中国式现代化的根本方向、前途命运、最终成败。党的领导决定中国式现代化的根本性质，只有毫不动摇坚持党的领导，中国式现代化才能前景光明、繁荣兴盛；否则就会偏离航向、丧失灵魂，甚至犯颠覆性错误。党的领导确保中国式现代化锚定奋斗目标行稳致远，我们党的奋斗目标一以贯之，一代一代地接力推进，取得了举世瞩目、彪炳史册的辉煌业绩。党的领导激发建设中国式现代化的强劲动力，我们党勇于改革创新，不断破除各方面体制机制弊端，为中国式现代化注入不竭动力。党的领导凝聚建设中国式现代化的磅礴力量，我们党坚持党的群众路线，坚持以人民为中心的发展思想，发展全过程人民民主，充分激发全体人民的主人翁精神。', '习近平强调，一个国家走向现代化，既要遵循现代化一般规律，更要符合本国实际，具有本国特色。中国式现代化既有各国现代化的共同特征，更有基于自己国情的鲜明特色。党的二十大报告明确概括了中国式现代化是人口规模巨大的现代化、是全体人民共同富裕的现代化、是物质文明和精神文明相协调的现代化、是人与自然和谐共生的现代化、是走和平发展道路的现代化这5个方面的中国特色，深刻揭示了中国式现代化的科学内涵。这既是理论概括，也是实践要求，为全面建成社会主义现代化强国、实现中华民族伟大复兴指明了一条康庄大道。新中国成立特别是改革开放以来，我们用几十年时间走完西方发达国家几百年走过的工业化历程，创造了经济快速发展和社会长期稳定的奇迹，为中华民族伟大复兴开辟了广阔前景。实践证明，中国式现代化走得通、行得稳，是强国建设、民族复兴的唯一正确道路。', '习近平指出，中国式现代化，深深植根于中华优秀传统文化，体现科学社会主义的先进本质，借鉴吸收一切人类优秀文明成果，代表人类文明进步的发展方向，展现了不同于西方现代化模式的新图景，是一种全新的人类文明形态。中国式现代化，打破了“现代化=西方化”的迷思，展现了现代化的另一幅图景，拓展了发展中国家走向现代化的路径选择，为人类对更好社会制度的探索提供了中国方案。中国式现代化蕴含的独特世界观、价值观、历史观、文明观、民主观、生态观等及其伟大实践，是对世界现代化理论和实践的重大创新。中国式现代化为广大发展中国家独立自主迈向现代化树立了典范，为其提供了全新选择。', '习近平强调，推进中国式现代化是一个系统工程，需要统筹兼顾、系统谋划、整体推进，正确处理好顶层设计与实践探索、战略与策略、守正与创新、效率与公平、活力与秩序、自立自强与对外开放等一系列重大关系。进行顶层设计，需要深刻洞察世界发展大势，准确把握人民群众的共同愿望，深入探索经济社会发展规律，使制定的规划和政策体系体现时代性、把握规律性、富于创造性，做到远近结合、上下贯通、内容协调。推进中国式现代化是一个探索性事业，还有许多未知领域，需要我们在实践中去大胆探索，通过改革创新来推动事业发展，决不能刻舟求剑、守株待兔。要增强战略的前瞻性，准确把握事物发展的必然趋势，敏锐洞悉前进道路上可能出现的机遇和挑战，以科学的战略预见未来、引领未来。要增强战略的全局性，谋划战略目标、制定战略举措、作出战略部署，都要着眼于解决事关党和国家事业兴衰成败、牵一发而动全身的重大问题。要增强战略的稳定性，战略一经形成，就要长期坚持、一抓到底、善作善成，不要随意改变。要把战略的原则性和策略的灵活性有机结合起来，灵活机动、随机应变、临机决断，在因地制宜、因势而动、顺势而为中把握战略主动。要守好中国式现代化的本和源、根和魂，毫不动摇坚持中国式现代化的中国特色、本质要求、重大原则，确保中国式现代化的正确方向。要把创新摆在国家发展全局的突出位置，顺应时代发展要求，着眼于解决重大理论和实践问题，积极识变应变求变，大力推进改革创新，不断塑造发展新动能新优势，充分激发全社会创造活力。既要创造比资本主义更高的效率，又要更有效地维护社会公平，更好实现效率与公平相兼顾、相促进、相统一。要统筹发展和安全，贯彻总体国家安全观，健全国家安全体系，增强维护国家安全能力，坚定维护国家政权安全、制度安全、意识形态安全和重点领域安全。要坚持独立自主、自立自强，坚持把国家和民族发展放在自己力量的基点上，坚持把我国发展进步的命运牢牢掌握在自己手中。要不断扩大高水平对外开放，深度参与全球产业分工和合作，用好国内国际两种资源，拓展中国式现代化的发展空间。', '2月7日，新进中央委员会的委员、候补委员和省部级主要领导干部学习贯彻习近平新时代中国特色社会主义思想和党的二十大精神研讨班在中央党校（国家行政学院）开班。中共中央总书记、国家主席、中央军委主席习近平在开班式上发表重要讲话。李强、赵乐际、王沪宁、蔡奇、丁薛祥、李希等出席开班式。新华社记者 李涛 摄', '习近平指出，推进中国式现代化，是一项前无古人的开创性事业，必然会遇到各种可以预料和难以预料的风险挑战、艰难险阻甚至惊涛骇浪，必须增强忧患意识，坚持底线思维，居安思危、未雨绸缪，敢于斗争、善于斗争，通过顽强斗争打开事业发展新天地。要保持战略清醒，对各种风险挑战做到胸中有数；保持战略自信，增强斗争的底气；保持战略主动，增强斗争本领。要加强能力提升，让领导干部特别是年轻干部经受严格的思想淬炼、政治历练、实践锻炼、专业训练，在复杂严峻的斗争中经风雨、见世面、壮筋骨、长才干。注重在严峻复杂斗争中考察识别干部，为敢于善于斗争、敢于担当作为、敢抓善管不怕得罪人的干部撑腰鼓劲，看准的就要大胆使用。', '习近平最后强调，推进中国式现代化必须抓好开局之年的工作。要全面贯彻落实党中央决策部署，坚持稳字当头、稳中求进，更好统筹国内国际两个大局，更好统筹疫情防控和经济社会发展，更好统筹发展和安全，全面深化改革开放，推动高质量发展，进一步引导经营主体强信心、稳定社会预期，努力实现经济运行整体好转。', '李强在主持开班式时指出，习近平总书记的重要讲话深刻阐述了中国式现代化的一系列重大理论和实践问题，是对中国式现代化理论的极大丰富和发展，具有很强的政治性、理论性、针对性、指导性，对于全党正确理解中国式现代化，全面学习、全面把握、全面落实党的二十大精神，深刻领悟“两个确立”的决定性意义，牢记“国之大者”，增强“四个意识”、坚定“四个自信”、做到“两个维护”，努力在新征程上开创党和国家事业发展新局面，都具有十分重要的意义。我们要认真学习领会，把思想和行动统一到习近平总书记重要讲话精神上来，统一到党中央决策部署上来，扎实抓好本地区本部门本单位各项工作，扎实推进中国式现代化建设。', '中共中央政治局委员、中央书记处书记，是二十届中央委员的其他党和国家领导同志、中央军委委员出席开班式。', '新进中央委员会的委员、候补委员，各省区市和新疆生产建设兵团、中央和国家机关有关部门、有关人民团体主要负责同志，解放军各单位和武警部队主要负责同志参加研讨班。各民主党派中央、全国工商联及有关方面负责同志列席开班式。', '新进中央委员会的委员、候补委员和省部级主要领导干部学习贯彻习近平新时代中国特色社会主义思想和党的二十大精神研讨班7日上午在中央党校（国家行政学院）开班。中共中央总书记、国家主席、中央军委主席习近平在开班式上发表重要讲话强调，概括提出并深入阐述中国式现代化理论，是党的二十大的一个重大理论创新，是科学社会主义的最新重大成果。中国式现代化是我们党领导全国各族人民在长期探索和实践中历经千辛万苦、付出巨大代价取得的重大成果，我们必须倍加珍惜、始终坚持、不断拓展和深化。']</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A95" t="n">
+        <v>129</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
           <t>刘强带队赴深圳市考察</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>2023-02-23</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2023/2/23/art_1861_4942823.html</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>['2月20日至22日，济南市委书记刘强带队赴深圳市，走访企业洽谈招商合作项目，考察城市规划建设和产业发展情况。', '在平安集团，刘强与集团总经理兼联席首席执行官、平安银行董事长谢永林等就进一步深化合作事项进行交流，详细了解企业发展历程、科技创新成果等；在深圳证券交易所，与理事长陈华平等就推动济南企业充分利用资本市场等进行交流，希望深圳证券交易所进一步充实山东服务基地力量，继续支持济南企业发展；在招商局集团，与集团副总经理邓仁杰等就加强片区开发运营、推进智慧物流园区项目建设进行交流，希望双方在科创金融、城市开发管理、核心技术攻关等方面拓展合作广度和深度；在华润集团，与集团总经理王崔军等就推动在济南投资项目建设及进一步拓宽合作领域进行交流，希望华润集团发挥开发、建设、运营、管理方面经验，助力济南城市建设和发展；在比亚迪股份有限公司坪山工业园，与集团董事长王传福就在济项目建设情况进行交流对接；与中信泰富董事长、总裁曾晨等，就在济投资项目建设进行交流，围绕医疗健康、产业联动发展寻求深化合作契机；在深圳市汇川技术股份有限公司，听取公司董事长朱兴明关于核心技术、主要产品和应用场景的介绍，并就深化合作进行座谈交流。', '在深圳期间，刘强深入考察了城市建设总体规划布局、城市更新、文创产业等情况。他表示，深圳市城市规划建设、发展文创产业等方面的先进经验值得济南市学习借鉴。相关部门要加强对接交流，学习成功经验，改进提升工作，推动学习考察成果在济南落地见效。', '在深圳考察期间，刘强向企业介绍了济南经济社会发展情况。他表示，当前，济南战略红利交汇叠加、交通网络四通八达、科技创新实力雄厚、数字赋能势头强劲、人才保障基础坚实、金融服务优势突出、营商环境持续优化、消费市场潜力巨大、生态宜居优化提升、人文环境厚重淳朴，济南新旧动能转换起步区建设正加速成形起势，智能制造与高端装备、精品钢与先进材料、生物医药与大健康、大数据与新一代信息技术等主导产业发展前景广阔，欢迎广大企业投资济南，在科技创新、科创金融、新能源、基础设施、医疗康养等领域加大投资合作力度。济南市将进一步强化要素保障，提供优质服务，为企业发展、项目推进创造良好环境。', '企业家们表示，济南市发展势头强劲，发展优势突出，未来机遇无限。企业将抓住难得机遇，充分发挥优势，不断深化拓展合作领域，推动合作项目取得更大突破和成效，与济南实现共赢发展。']</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A96" t="n">
+        <v>129</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
           <t>济南社会科学院年度博士研究生招聘简章</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>2023-01-18</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
+      <c r="F96" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2023/1/18/art_36743_4936977.html</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
+      <c r="G96" t="inlineStr">
         <is>
           <t>['1978年，为市政府直属正局级公益一类事业单位。主要职责是：认真贯彻落实党中央关于哲学社会科学', '的方针政策和决策部署，落实省委工作要求和市委工作安排，组织开展哲学社会科学基础理论研究，重点围绕济南经济社会发展开展应用对策研究和济南历史文化研究，承担哲学社会科学重点课题研究、编辑科研著作，组织开展社科领域学术交流活动。', '1.具有中华人民共和国国籍，遵守宪法和法律，具有良好的道德品行和适应岗位的身体条件、心理素质', '遵守党的政治纪律和政治规矩，自觉在思想上政治上行动上同以习近平同志为核心的党中央保持高度一致；', '。在职人员应聘，应征得有用人权限部门或单位同意，并提供同意应聘证明。在读全日制普通高等院校非应届毕业生不得应聘。受过刑事处罚的人员、被开除公职的人员、被开除党籍的人员、涉嫌违纪违法正在接受有关机关审查尚未作出结论的人员不得应聘。现役军人及法律规定不得聘用的其他情形的人员不得应聘。被列为失信被执行人的人员不得应聘。', '7个工作日后，根据岗位报名情况及工作需要，不定期启动现场资格审核、面试、考察体检程序，岗位招满即止。未招满的岗位报名', '2）全日制普通高校应届毕业生须提供由学校出具的应届毕业生证明（加盖院系公章、附成绩单）；', '5）海外留学人员应提供经教育部留学服务中心出具的《国外学历学位认证书》、留学回国人员证明、国外学习成绩单、国外博士毕业论文摘要及全文等材料；', '指定专人负责资格初审工作，在报名期间查看本次招聘报名情况，根据应聘人员提交的信息资料进行资格审查，及时确定初审结果。', '对应聘人员的资格审查工作，贯穿招聘工作的全过程。应聘人员在应聘期间的表现，将作为公开招聘考察的重要内容之一。应聘人员提供的相关材料信息如有不实，一经发现，取消资格。初审合格的应聘人员，按照通知指定的时间、地点，携带报名材料原件和复印件进行现场资格审核。', '面试主要采取业务考察的方式进行，主要考察应聘人员的专业理论素养、科学研究能力及培养发展潜质等。面试的流程为：应聘人员应至少提前一天向', '提供个人学术资料（原件）以供面试专家进行查阅，面试开始后进行个人学术陈述、答辩等环节。', '80分，达到面试合格分数线的方可进入考察体检范围。面试成绩计算到小数点后两位数，尾数四舍五入，在面试结束后当场公布。面试成绩即为考试总成绩。', '1.考察。考察可根据岗位条件要求采取多种方式进行，主要考察思想政治表现、道德品行、能力素质、业务能力、遵纪守法、廉洁自律情况，以及是否具有应当回避的情形、与招聘岗位的匹配度等情况，并对应聘人员是否符合规定的岗位资格条件、提供的相关信息材料是否真实准确等进行再次复审。对考察对象的档案进行严格审核。', '院成立考察工作小组，具体负责考察工作。考察小组要实事求是，全面、客观、公正地评价被考察对象，并写出书面考察意见。', '2.体检。体检应在县级以上综合性医院进行，体检标准和项目参照公务员录用体检标准及操作手册执行，国家另有规定的从其规定。对按规定需要复检的，不得在原体检医院进行，复检只能进行1次，结果以复检结论为准。应聘人员未按规定时间、地点参加体检的，视为放弃。', '对放弃考察、体检或考察、体检不合格造成的空缺，从进入同一岗位考察体检范围的人员中依次等额递补。', '院和受聘人员按规定签订聘用合同，确立人事关系。受聘人员按规定实行试用期制度，期满合格的正式聘用，不合格的解除聘用合同。', '1500元的生活和租房补贴，最长补贴3年。符合条件的全日制博士研究生，可享受一次性购房补贴', '应聘人员在报名、考试、体检、考察过程中或聘用后查实存在违纪违规行为的，按照《事业单位公开招聘人员暂行规定》《事业单位公开招聘违纪违规行为处理规定》等相关规定进行处理。', '违反公开招聘纪律的工作人员，依据《事业单位公开招聘人员暂行规定》《事业单位公开招聘违纪违规行为处理规定》等相关规定，视情节轻重调离招聘工作岗位或给予处分；违反公开招聘纪律的其他相关人员，按照有关规定追究责任。']</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A97" t="n">
+        <v>129</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
           <t>市区划协调办坚持四化四力助推社区提升治理效能</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>2022-11-28</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
+      <c r="F97" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2022/11/28/art_52_4933719.html</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
+      <c r="G97" t="inlineStr">
         <is>
           <t>['今年以来，市区划协调办不断丰富“上一线、察实情、练本领、促发展”群众工作教育实践活动载体，坚持“四化四力”，助推莱芜区鹏泉街道大桥社区实施网格化服务管理，基层社会治理能力实现新提升。', '党建引领网格化，社区治理添活力。坚持把党的领导贯穿于网格化治理全过程，会同社区共同打造“1+1+ N+X”（１名网格长、1名专职网格员和多名“双报到”党员干部、派驻执法人员）网格工作体系。优化设置了5个网格，机关基层党组织分别与社区网格对接，机关党员作为兼职网格员进网入格，主动认领任务，发挥能力特长，为辖区群众提供志愿服务，有效推动了基层治理各项工作扎实开展。', '问题导向精准化，社区治理聚合力。大桥社区为“村改居”社区，住宅小区多、居住分散，管理难度较大。市区划协调办坚持问题导向，积极帮助社区探索创新治理模式，协调对接政法、公安、信访、应急、妇联等部门和驻在企事业单位，为辖区居民提供法律援助、专业咨询、就业指导培训等服务，凝聚起基层治理的强大合力。', '教育培训机制化，社区治理增活力。建立培训机制，加强专兼职网格员培训，通过专题调研、考察学习、培训交流等方式，组织网格员专题培训会议，到章丘三涧溪村、市中舜玉社区、历下燕山小区社区考察学习，增强了社区网格员服务群众、调解纠纷的能力和社区专业化治理水平。', '为民服务常态化，社区治理显效力。坚持每季度开展一次工作联席会，推动共驻共建项目落地落实。截至目前，共为社区群众办实事13件，帮助协调解决问题100余个。其中，为社区添置党建阵地硬件设施、文化广场体育器械、文化娱乐设备、伤残辅助器械70余件，价值30余万元；开展“六一助学”“创业培训”“家庭教育讲座”等公益活动15次；走访困难群众10户，开展志愿服务活动48次，进一步提升了社区群众的获得感、幸福感与安全感。']</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A98" t="n">
+        <v>129</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
           <t>中共济南市委关于深入学习宣传贯彻党的二十大精神的决议</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
+      <c r="E98" t="inlineStr">
         <is>
           <t>2022-12-20</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
+      <c r="F98" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2022/12/20/art_1861_4935024.html</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
+      <c r="G98" t="inlineStr">
         <is>
           <t>['中共济南市委关于深入学习宣传贯彻党的二十大精神的决议 （二〇二二年十二月十六日中国共产党济南市第十二届委员会第二次全体会议通过）', '为深入学习宣传贯彻党的二十大精神，全面贯彻落实习近平新时代中国特色社会主义思想，根据中央部署，按照省委十二届二次全会要求，结合济南实际，作出如下决议。', '党的二十大是在全党全国各族人民迈上全面建设社会主义现代化国家新征程、向第二个百年奋斗目标进军的关键时刻召开的一次十分重要的大会，事关党和国家事业继往开来，事关中国特色社会主义前途命运，事关中华民族伟大复兴，在党和国家发展进程中具有极其重大的历史意义。', '（一）深刻认识党的二十大报告这一重大政治宣言和行动纲领的时代意义。习近平总书记代表第十九届中央委员会所作的报告，从坚持和发展中国特色社会主义的政治高度，站在民族复兴和百年变局的制高点，回顾总结了过去五年的工作和新时代十年的伟大变革，深刻阐释了新时代坚持和发展中国特色社会主义的一系列重大理论和实践问题，描绘了全面建设社会主义现代化国家、全面推进中华民族伟大复兴的宏伟蓝图，为新时代新征程党和国家事业发展、实现第二个百年奋斗目标指明了前进方向、确立了行动指南，是党和人民智慧的结晶，是党团结带领全国各族人民夺取中国特色社会主义新胜利的政治宣言和行动纲领，是马克思主义的纲领性文献。大会通过的中央纪委工作报告，阐明了深化全面从严治党、深入推进新时代党的建设新的伟大工程对全面建设社会主义现代化国家、全面推进中华民族伟大复兴的极端重要性，揭示了以党的自我革命引领社会革命的重大意义，宣示了党以永远在路上的清醒和坚定推进党风廉政建设和反腐败斗争的坚强决心。', '（二）深刻认识党章修正案为党和国家事业发展提供了重要制度保障。大会通过的党章修正案，充分体现了马克思主义中国化时代化最新成果，体现了党的十九大以来党中央提出的治国理政新理念新思想新战略，体现了党的工作和党的建设的新鲜经验，体现了党的二十大报告确定的重要思想、重要观点、重大战略、重大举措，对坚持和加强党的全面领导、坚定不移推进全面从严治党、坚持和完善党的建设、推进党的自我革命提出了明确要求，有利于全党更好学习和贯彻党章，有利于全党更好贯彻落实党的基本理论、基本路线和基本方略，对推进新时代党的事业和党的建设具有根本性规范和指导作用。', '（三）深刻认识大会选举产生的以习近平同志为核心的新一届中央领导集体是党心所向、民心所盼、众望所归。党的二十大和二十届一中全会选举产生以习近平同志为核心的新一届中央领导集体，是一个凝聚全党共识、反映人民期待，值得全党全军全国各族人民充分信赖的中央领导集体，是一个政治坚定、团结统一、富有活力、能够适应党和国家事业长远发展需要的中央领导集体。习近平同志继续当选为党的总书记、中央军委主席，是历史的选择、人民的选择、时代的选择，充分体现了全党共同意志，充分反映了亿万人民共同心愿，必将为夺取新时代中国特色社会主义伟大胜利、实现中华民族伟大复兴中国梦提供坚强政治保证和组织保证。', '（三）深刻认识大会选举产生的以习近平同志为核心的新一届中央领导集体是党心所向、民心所盼、众望所归。', '（四）深刻认识党的二十大提出的新思想新论断、作出的新部署新要求。党的二十大精神内容十分丰富，既有政治上的高瞻远瞩和理论上的深邃思考，也有目标上的科学设定和工作上的战略部署，必须全面、系统、深入学习。要深刻领会党的二十大的主题，深刻领会过去五年的工作和新时代十年的伟大变革，深刻领会开辟马克思主义中国化时代化新境界，深刻领会新时代新征程中国共产党的使命任务，深刻领会中国式现代化的中国特色和本质要求，深刻领会社会主义经济建设、政治建设、文化建设、社会建设、生态文明建设等方面的重大部署，深刻领会教育科技人才、法治建设、国家安全等方面的重大部署，深刻领会国防和军队建设、港澳台工作、外交工作等方面的重大部署，深刻领会坚持党的全面领导和全面从严治党的重大部署，完整、准确、全面领会精神实质，切实把思想和行动统一到党的二十大精神上来。', '全市各级党组织和广大党员干部要把学习宣传贯彻党的二十大精神作为当前和今后一个时期的首要政治任务，全面加强组织领导，切实抓好学习培训，集中开展宣讲活动，精心组织新闻宣传，深入开展研究阐释，迅速兴起学习宣传贯彻的热潮。要把着力点聚焦到习近平总书记是党中央的核心、全党的核心，习近平新时代中国特色社会主义思想是党必须长期坚持的指导思想上；聚焦到党的十九大以来的重大成就和新时代十年的伟大变革上；聚焦到把握好马克思主义中国化时代化最新成果的世界观和方法论，坚持好、运用好贯穿其中的立场观点方法上；聚焦到中国式现代化在理论和实践的创新突破上；聚焦到贯彻落实党的二十大作出的重大决策部署上；聚焦到以习近平同志为核心的新一届中央领导集体是深受全党全国各族人民拥护和信赖的领导集体上；聚焦到习近平总书记是全党拥护、人民爱戴、当之无愧的党的领袖上，在全面学习、全面把握、全面落实上下功夫，以更加有力的举措将学习宣传贯彻持续引向深入。', '“两个确立”是党在新时代取得的重大政治成果，是推动党和国家事业取得历史性成就、发生历史性变革的决定性因素。全市各级党组织和广大党员干部必须深刻领悟“两个确立”的决定性意义，牢记“国之大者”，增强“四个意识”、坚定“四个自信”、做到“两个维护”，坚定不移在思想上政治上行动上同以习近平同志为核心的党中央保持高度一致。', '（一）把坚定拥护“两个确立”、坚决做到“两个维护”作为最高政治原则和根本政治规矩。习近平总书记的掌舵领航、习近平新时代中国特色社会主义思想的科学指引，是党应对一切不确定性的最大确定性、最大底气、最大保证。要不断提高政治判断力、政治领悟力、政治执行力，矢志不渝忠诚核心、拥戴核心、维护核心、捍卫核心，做到党中央提倡的坚决响应、党中央决定的坚决执行、党中央禁止的坚决不做，确保党中央政令畅通、令行禁止。要完善贯彻执行党中央决策部署落实机制，健全保障“两个维护”落实机制，使坚定拥护“两个确立”、坚决做到“两个维护”成为广大党员干部的思想自觉、行动自觉。', '（一）把坚定拥护“两个确立”、坚决做到“两个维护”作为最高政治原则和根本政治规矩。', '（二）把习近平新时代中国特色社会主义思想作为一切工作的根本遵循和行动指南。以习近平同志为核心的党中央坚持把马克思主义基本原理同中国具体实际相结合、同中华优秀传统文化相结合，提出一系列治国理政新理念新思想新战略，开辟了马克思主义中国化时代化新境界。习近平新时代中国特色社会主义思想是当代中国马克思主义、21世纪马克思主义，是中华文化和中国精神的时代精华。要学懂弄通做实习近平新时代中国特色社会主义思想，准确把握其丰富内涵、思想体系、精神实质和实践要求，运用好贯穿其中的立场观点方法，始终坚持人民至上、坚持自信自立、坚持守正创新、坚持问题导向、坚持系统观念、坚持胸怀天下，切实用以武装头脑、指导实践、推动工作。', '（三）把习近平总书记对山东、对济南工作的重要指示要求不折不扣落到实处。习近平总书记对山东、对济南情深似海、厚望如山，作出一系列重要指示要求，为济南建设发展提供了根本遵循、注入了强大动力。要把学习宣传贯彻党的二十大精神与深入学习贯彻习近平新时代中国特色社会主义思想结合起来，与深入学习贯彻习近平总书记对山东、对济南工作的重要指示要求结合起来，全面对标对表党的二十大作出的各项决策部署，进一步准确把握新时代济南新的历史方位，聚焦加快建设“六个现代化强省会”具体目标，研究制定贯彻落实的具体措施，使各项工作更好地体现时代性、把握规律性、富于创造性，切实将学习贯彻成效转化为推进新时代社会主义现代化强省会建设的生动实践，确保习近平总书记重要指示要求在济南落地生根。', '深入学习宣传贯彻党的二十大精神，必须牢牢把握新时代新征程的使命任务，坚定不移走中国式现代化道路。要深刻领会中国式现代化的中国特色、本质要求、战略安排、重大原则，完整准确全面贯彻新发展理念，主动服务和融入新发展格局，锚定“走在前、开新局”，深化落实黄河流域生态保护和高质量发展战略，创造性贯彻落实省委“六个一”发展思路、“六个更加注重”策略方法、“十二个着力”重点任务，牢牢把握市第十二次党代会确定的“勇当排头兵、建设强省会”思路目标和推进体系，优化完善各项重点任务，强化系统思维、科学方法，奋力开创新时代社会主义现代化强省会建设新局面。', '（一）塑造经济高质量发展新优势。坚持以推动高质量发展为主题，始终把发展经济的着力点放在实体经济上，进一步加大招商引资力度，纵深推进新旧动能转换，推动经济实现质的有效提升和量的合理增长。加快构建现代产业体系。深入实施工业强市战略，推动四大主导产业集聚发展，打造一批标志性产业链群和产业共同体，培育国家先进制造业集群，不断提升产业链供应链韧性和安全水平。大力推进数字济南建设，加快发展数字经济，推进数字产业化、产业数字化、算网一体化协同发展，大力发展人工智能、大数据、区块链、量子信息等数字产业，打造国家工业互联网示范高地，加快建设数字先锋城市。统筹推进战略性新兴产业发展，发展壮大空天信息、氢能与储能等未来产业，培育壮大专精特新企业，争创国家未来产业先导区。实施产业基础再造工程和重大技术装备攻关工程，持续推进技改“双千”工程和工业投资倍增行动，加快产业备份系统建设，优化提升产业园区，建设高效顺畅的流通体系。巩固和提升军地科技协同创新体系，推进军民融合产业发展。促进现代服务业提质增效，推动现代服务业同先进制造业、现代农业深度融合，促进传统消费转型升级，大力培育新型消费，带动农村消费梯次升级，激发释放市场潜力。大力提升县域经济发展水平。全面推进乡村振兴。坚持农业农村优先发展，统筹推进乡村产业、人才、文化、生态、组织振兴，打造乡村振兴齐鲁样板省会标杆。坚决保障重要农产品供给，不断提升粮食综合生产能力，全方位筑牢粮食安全根基。着力提升现代农业发展质效，实施中国北方种业之都建设五年行动，培育十大百亿级省会现代都市农业优势产业集群。推进数字乡村建设，提升乡村公共服务能力，发展新型农村集体经济，争创国家农业现代化示范区，巩固拓展脱贫攻坚成果，加快衔接乡村振兴集中推进区建设。积极引领区域协调发展。全力推动落实黄河重大国家战略，全面做好黄河长治久安、生态环境保护、水资源节约集约利用等工作，带动沿黄地区加快绿色低碳高质量发展。加快推进济南新旧动能转换起步区建设，提升完善“1+4+16+N”规划体系，打造“3+1”产业体系，建设黄河流域生态保护和高质量发展引领示范区。积极承接北京非首都功能疏解，深化与长三角地区对接合作，健全区域间产业转移利益共享机制。加快推进济淄、济泰、济德同城化，推动现代化济南都市圈崛起成势，打造济青科创智造廊带。', '（二）全面提升教育科技人才支撑能力。坚持科技是第一生产力、人才是第一资源、创新是第一动力，坚定不移实施科教强市战略、人才强省会战略、创新驱动发展战略，不断塑造发展新动能新优势。办好人民满意的教育。全面贯彻党的教育方针，落实立德树人根本任务，加快建设高质量教育体系。加强基础教育资源优化配置，推进学前教育普及普惠、安全优质发展，加快城乡义务教育优质均衡发展。促进普通高中多样化特色化发展，深化职业教育产教融合，引导规范民办教育发展，努力打造国家职业教育创新发展高地。加强和改进学校体育、美育、劳动教育，办好适宜融合的特殊教育。全面实施市校融合发展战略工程，支持驻济高校建设高水平大学和高水平学科。推进教育数字化。加强师德师风建设，培养高素质教师队伍。加大国家通用语言文字推广力度。大力实施创新驱动发展战略。加快完善科技创新体系，围绕创建国家区域科技创新中心，塑强创新平台策源能级，加快建设合肥国家实验室济南基地，规划建设“齐鲁科学城”，全面加快中科院济南科创城、济南国际医学科学中心、山东大学龙山校区（创新港）建设，强化基础研究策源能力，加快关键核心技术攻关，打通知识产权创造、运用、保护、管理、服务全链条，构建协同开放创新生态。实施一批国家重大科技项目，推动国家级重大科技创新平台落地，做大做强高能级科创平台，促进科技园区高质量发展。积极培育壮大企业创新主体，强化高质量科技成果供给和转化，构建完善的科技企业梯次培育体系。持续推进科技体制改革和科技评价领域改革，实施“揭榜挂帅”等机制，高水平建设国家科创金融改革试验区。健全完善党管人才工作体系和推进机制。积极融入国家人才发展战略布局，全力争创国家级吸引和集聚人才平台。深化人才发展体制机制改革，优化完善人才政策体系，持续抓好人才政策“双30条”落实落地。完善高精尖缺人才培养机制，大力实施“海右”系列人才工程，积极引进集聚高水平科研创新人才。深化人才发展体制改革，营造高品质“类海外”人才环境，打造一流人才事业平台载体，建设青年发展友好型城市，塑造一流人才发展生态。', '（三）发展全过程人民民主。坚持党的领导、人民当家作主、依法治国有机统一，坚持人民主体地位，充分体现人民意志、保障人民权益、激发人民创造活力，巩固和发展生动活泼、安定团结的政治局面。加强人民当家作主制度保障。加强宪法实施和监督，支持和保证人大及其常委会依法行使立法权、监督权、决定权、任免权，加强人大代表工作能力建设，密切人大代表同人民群众的联系。推动协商民主广泛多层制度化发展。健全完善政协民主监督和委员联系界别群众的制度机制，持续擦亮“商量”协商民主品牌。进一步深化工会、共青团、妇联等群团组织改革和建设，有效发挥桥梁纽带作用。扎实推进基层民主建设。健全完善基层党组织领导的基层群众自治机制，完善基层直接民主制度体系和工作体系，广泛开展基层民主实践，不断拓宽人民群众反映意见和建议的渠道。坚持和完善以职工代表大会为基本形式的企事业单位民主建设，维护职工合法权益。巩固和发展最广泛的爱国统一战线。完善大统战工作格局，加强同各民主党派、工商联、无党派人士的团结合作，做好民族、宗教、党外知识分子、非公有制经济人士、新的社会阶层人士、港澳台和侨务等工作。', '（四）全力打造更高水平法治济南。更好发挥法治固根本、稳预期、利长远的保障作用，坚持依法治市、依法执政、依法行政共同推进，坚持法治济南、法治政府、法治社会一体建设，创建全国法治政府建设示范市，以数字法治建设为引领，推进各方面工作法治化。深入推进高质量立法。健全完善党委领导、人大主导、政府依托、各方参与的立法工作格局，加强重点领域、新兴领域等地方立法，以良法促发展保善治。坚持科学决策、民主决策、依法决策，完善和加强备案审查制度，全面落实重大决策程序制度。全面推进依法行政。加快推进法治政府建设，持续推进政府职能转变，完善依法行政决策、行政执法监督和基层综合执法等机制，全面推进严格规范公正文明执法。坚持严格公正司法。深化司法体制综合配套改革，全面准确落实司法责任制，规范司法权力运行，加强司法权运行制约监督，深入推进审判体系和审判能力现代化，促进司法公正。完善公益诉讼制度。加快建设法治社会。加大全民普法力度，加强法治文化建设，健全覆盖城乡的现代公共法律服务体系，加快推进新时代法治乡村建设，深化多层次多领域依法治理，使尊法学法守法用法在全社会蔚然成风。', '（五）全面提升城市软实力。以社会主义核心价值观为引领，紧紧围绕举旗帜、聚民心、育新人、兴文化、展形象，持续推进文化自信自强，不断提升城市文化品位。坚持马克思主义在意识形态领域的指导地位。深入推进马克思主义理论研究和建设，全面落实意识形态工作责任制，加强全媒体传播体系建设，巩固壮大主流思想舆论，构筑良好网络生态，不断巩固团结奋斗的共同思想基础。深入践行社会主义核心价值观。大力弘扬伟大建党精神，挖掘用好济南红色资源，持续抓好“四史”宣传教育，加强和改进新时代思想政治工作，深入实施思政课“双贯通”改革创新，推进大中小学思想政治教育一体化建设，推动社会主义核心价值观融入日常。全面提高城市文明程度。全面推进“十大之城”建设，深入实施公民道德建设工程，弘扬中华传统美德，加强家庭家教家风建设，大力弘扬诚信文化，广泛开展志愿服务活动，持续擦亮“书香泉城”全民阅读等“文化惠民”品牌，规划建设市博物馆、市党史方志馆、市档案馆新馆、市科技馆、青少年宫等文化设施，深化拓展新时代文明实践中心建设，积极创建全国文明典范城市。释放优秀传统文化新活力。加强历史文化保护传承，深入挖掘黄河文化内涵，实施优秀传统文化传承发展示范工程，加快推动“泉·城文化景观”申遗，高标准规划建设黄河国家文化公园、齐长城国家文化公园，建设国内知名非遗城市。激发文旅产业新动能。推动文化与旅游、科技、金融、体育深度融合，加强文化市场体系建设，推进实施文化数字化战略，规划建设“黄河V谷”，实施公共文化效能提升工程，全面推进文艺作品质量提升工程，做大做强文化创意产业，高标准建设国家文化出口基地。全方位讲好新时代济南故事。建强济南国际传播中心，持续扩大“东亚文化之都”品牌效应，推进国际友城和友好合作城市交流合作，努力提升济南在国际、国内的知名度和美誉度。', '（六）持续增进民生福祉。始终牢记“江山就是人民，人民就是江山”，坚持以人民为中心的发展思想，持续加强普惠性、基础性、兜底性民生建设，扎实推进共同富裕，不断实现人民对美好生活的向往。多措并举增加居民收入。实施收入倍增行动，提高劳动报酬在初次分配中的比重，多渠道增加城乡居民财产性收入，增加低收入者收入，扩大中等收入群体，规范收入分配秩序和财富积累机制。发展公益慈善事业。实施更加积极的就业政策。拓展高校毕业生、退役军人、农民工等重点群体就业渠道，深入实施城乡公益岗扩容提质行动，加强灵活就业和新就业形态劳动者权益保障，完善创业扶持政策，不断扩大市场化就业创业服务供给，促进高质量充分就业创业。健全多层次社会保障体系。全面实施全民参保计划，完善社会保险制度体系，加强医保基金管理，健全重特大疾病医疗保险和救助制度，落实异地就医结算，完善长期护理保险制度，完善困境儿童、特困供养人员和困难残疾人等群体生活兜底保障制度，提高困难群众、低收入群体保障水平。坚持“房住不炒”，加快建立多主体供给、多渠道保障、租购并举的住房制度，进一步改善城乡居民居住条件。加快推进健康济南建设。健全全生命周期人口服务体系，完善生育支持政策，加快构建普惠托育服务体系，发展养老事业和养老产业，全面促进健康服务业提质升级。推动优质医疗资源加快发展、均衡布局，强化基层医疗机构服务能力建设，健全中医药服务体系，加快推进国家区域医疗中心建设。创新医防协同、医防融合机制，推动心理健康和精神卫生事业高质量发展，加快建设公共卫生“六大中心”，加强公共卫生应急能力建设，织紧织密公共卫生防护网。开展健康中国行动和爱国卫生运动，广泛开展全民健身活动。准确把握疫情防控的新形势新任务，全面落实国务院“二十条”“新十条”优化措施，按照“把握节奏、控制进程、拉平曲线、推后峰值”要求，精准有效做好防控工作，最大程度保护群众生命安全和身体健康。', '（七）建设人与自然和谐共生的美丽泉城。牢固树立和践行绿水青山就是金山银山的理念，坚持山水林田湖草沙一体化保护和系统治理，协同推进降碳、减污、扩绿、增长，推进生态优先、节约集约、绿色低碳发展。加快发展方式绿色转型。深入推进“四减四增”行动，加快推动产业结构、能源结构、交通运输结构等调整优化，实行“绿色门槛”制度，发展绿色低碳产业，大力发展绿色金融。实施全面节约战略，推进清洁生产和资源节约高效利用，加快循环经济发展。持续抓好水资源节约集约利用，加强泉水保护利用，创建国家节水典范城市。加快节能降碳先进技术研发和推广应用，倡导绿色消费，推动形成绿色低碳的生产方式和生活方式。科学开展大规模国土绿化行动。深入打好污染防治攻坚战。坚持精准治污、科学治污、依法治污，持续深入打好蓝天、碧水、净土保卫战。大力推进挥发性有机物和氮氧化物协同减排，强化工业源、移动源、扬尘源精细化管控，基本消除重污染天气。统筹水资源、水环境、水生态治理，加快“两个清零、一个提标”工程建设，实施饮用水水源地规范化建设行动，实现城市黑臭水体清零。加强土壤污染源头防控，开展新污染物治理，推进“无废城市”建设。深化农业农村污染治理，推进农村环境整治，严厉打击破坏生态环境违法犯罪。扎实推进生态保护修复治理。持续提升黄河流域生态系统质量，开展黄河流域“清废行动”，高标准构筑黄河下游国家级生态廊道。实施重要生态系统保护和修复、生物多样性保护等重大工程，强化生态保护监管，深化生态文明示范创建，提升生态系统多样性、稳定性、持续性。建立完善统筹“大南部山区”生态保护体制机制。积极稳妥推进碳达峰碳中和。制定实施碳达峰工作方案，实施可再生能源替代行动、重点行业降碳行动等重大专项行动，严控温室气体排放，推动减污降碳协同增效。健全绿色低碳发展体制机制，建立生态产品价值实现机制、碳汇补偿和交易机制，完善生态保护补偿、生态环境公益诉讼等制度，深入开展生态环境保护督察，落实中央生态环保督察发现问题整改。', '（八）深入推进高水平改革开放。坚持社会主义市场经济改革方向，坚持“两个毫不动摇”，充分发挥市场在资源配置中的决定性作用，更好发挥政府作用。统筹推进重点领域改革。推进国资国企改革，实施国有企业创新驱动高质量发展专项行动，推动市属国有企业做强做优做大。优化民营企业发展环境，健全支持民营企业改革发展政策，依法保护民营企业产权和企业家权益，弘扬企业家精神，促进民营经济发展壮大。深化产业工人队伍建设改革，加强济南工匠和高技能人才建设。深化要素市场化改革，积极争取国家要素市场化配置综合改革试点，加快培育数据要素市场，率先在劳动力、资本、技术等领域取得突破。推进财税金融改革，健全现代预算制度，加强和完善地方金融监管，加快多层次资本市场建设。深化事业单位改革，深化医药卫生体制改革。推进公共数据深度利用，完善社会信用体系。坚持农村基本经营制度，稳步推进“三变”改革，稳妥推进农村集体经营性建设用地入市试点，保障进城落户农民合法土地收益。加快建设对外开放新高地。稳步扩大制度型开放，建好用好自贸试验区济南片区、综合保税区、跨境电商综合试验区等开放平台，深化与共建“一带一路”国家和地区、RCEP成员国合作，积极参与创建山东中日韩地方经贸合作示范区，深化与港澳台地区经贸交流合作，加快海峡两岸新旧动能转换产业合作区建设，打造黄河流域对外开放门户。构建市场化、法治化、国际化一流营商环境，持续完善涉企服务“一口办理”新模式，实现更多惠企政策免申即享、快速兑现，全面构建亲清新型政商关系。', '（九）着力提升城市功能品质。坚持人民城市人民建、人民城市为人民，牢牢把握新时代特大城市发展和治理规律，正确处理好空间、产业、规模的关系，全面提高城市规划建设管理水平，彰显“山泉湖河城”独特都市风貌，打造宜居韧性智慧城市。全面提升城市承载能力。综合考虑人口、经济、生活和生态需要，统筹城市规划、建设、管理，推动城市精明增长。加快中央科创区、中央商务区、齐鲁科创大走廊等重点片区建设，加快实施明府城、老商埠、上新街、洪家楼等片区保护建设，打造泉城特色高品质城区。以创建国际性综合交通枢纽城市为目标，构建更加畅通的综合立体交通网，加快济南机场二期改扩建、小清河复航、济郑高铁济南段等重大项目建设，推动“四网融合”轨道交通网覆盖全部区县。有序实施城市更新行动，加快完善供水供暖、雨污分流等基础设施建设，加快老旧小区改造，完善一刻钟便民生活圈。全面提升城市治理水平。坚持共建共治共享，高标准开展市域社会治理现代化试点，推动重心向基层下移，提升社会治理效能。加强对城乡社区建设、治理、服务的整体谋划和组织协调，构建党委领导、社会协同、公众参与、法治保障的现代化治理体系。积极推进新型智慧城市建设，将数字化理念贯穿应用于城市治理全过程，创建数字社会治理示范城市。全面提升城乡融合发展水平。推进国家、省城乡融合发展试验区建设，支持县域在主导产业培育、新旧动能转换等方面加快发展，推进小城镇和特色小镇建设，增强产业和人口集聚能力，完善均衡协调的新型城镇化结构。统筹布局综合立体交通网、现代物流网、能源保障网、市政公用设施网、现代水网、新型基础设施网、农村基础设施网等“七网”设施，推动向城郊村和规模较大中心镇延伸。', '（十）坚决维护国家安全和社会稳定。坚定不移贯彻总体国家安全观，着力维护重点领域安全，坚决守牢“一排底线”，以新安全格局保障新发展格局。加强国家安全体系和能力建设。完善高效权威的国家安全领导体制，强化国家安全工作协调机制，加强重点领域安全保障体系和重要专项协调指挥体系建设，提升干部队伍和保障能力建设水平，完善国家安全力量布局。提高防范化解重大风险能力，积极化解金融、房地产、地方政府债务等领域风险，守住不发生系统性风险底线。加强海外安全保障能力建设。全面加强国家安全教育，增强全民国家安全意识和素养，筑牢国家安全意识防线。提高公共安全治理水平。坚持安全第一、预防为主，建立大安全大应急框架，加快构建“1+3”城市安全运行体系。落实安全生产责任和管理制度，推进安全风险专项整治。加强应急救援力量体系建设，提高防灾减灾救灾和重大突发公共事件处置保障能力。强化食品药品安全监管。加强个人信息保护。坚决维护社会稳定。坚持和发展新时代“枫桥经验”，加强和改进人民信访工作，畅通和规范群众诉求表达、利益协调、权益保障通道，完善“一站式”矛盾纠纷多元化解工作机制，健全城乡社区治理体系，努力把矛盾纠纷化解在源头。加强社会治安整体防控，常态化开展扫黑除恶斗争，深入开展专项打击整治行动，依法打击各类违法犯罪活动，建设更高水平“平安济南”。加强国防动员和后备力量建设。落实党管武装工作制度，深化全民国防教育，深化国防动员体制改革，扎实推进民兵、征兵工作。深入开展全民国防教育，加强人民防空工作，扎实做好退役军人服务保障工作，持续创建全国双拥模范城，巩固发展军政军民团结。', '时刻牢记全面从严治党永远在路上，党的自我革命永远在路上，全面落实新时代党的建设总要求和新时代党的组织路线，发扬斗争精神，从严管党治党，以高质量党建引领保障高质量发展。', '（一）坚持和加强党的全面领导。充分发挥党在同级各种组织中的领导核心作用，完善贯彻落实习近平总书记重要指示要求和党中央重大决策部署工作机制，经常性对标对表，在重要节点开展“回头看”，确保习近平总书记重要指示要求在济南落地生根。完善党委议事协调机构工作机制。以党的政治建设为统领，严明政治纪律和政治规矩，压实党委（党组）主体责任、书记第一责任人责任、班子成员一岗双责、纪委监督责任，实现常态化政治体检。严肃党内政治生活，严格执行民主集中制，用好批评和自我批评武器，切实增强党内政治生活的政治性、时代性、原则性、战斗性。', '（二）持续强化理论武装。坚持把学懂弄通做实习近平新时代中国特色社会主义思想作为首要政治任务，深入落实党的创新理论学习教育计划，组织实施习近平新时代中国特色社会主义思想凝心铸魂工程，切实用党的创新理论武装头脑。推动理想信念教育常态化制度化，引导广大党员干部坚定理想信念、守牢政治方向。推动理论武装同常态化长效化开展党史学习教育相结合，不断巩固拓展党史学习教育成果。全面加强党员干部教育培训，根据中央部署和省委要求，以县处级以上领导干部为重点深入开展主题教育。', '（三）严格落实党的自我革命制度规范。坚持制度治党、依规治党，着力构建系统完备、科学规范、运行有效的制度体系，推动制度优势转化为管党治党的强大治理效能。健全党统一领导、全面覆盖、权威高效的监督体系，不断完善权力监督制约机制，推动党内监督和其他各类监督贯通协调、形成合力。推动政治监督具体化、精准化、常态化，深入实施“一台账、两清单、双责任、双问责”监督机制，持续深化政治巡察，加强巡察整改和成果运用，强化各类监督统筹衔接，增强对“一把手”和领导班子监督实效。全力推进中央巡视、省委黄河流域生态保护和高质量发展专项巡视等问题整改，健全完善审计查出问题整改长效机制，加大督查力度，确保整改落实到位。', '（四）着力锻造高素质专业化干部队伍。坚持党管干部原则，全面落实新时代好干部标准，健全选育管用全链条工作机制，锻造忠诚、干净、担当的高素质专业化干部队伍。坚持把政治标准放在首位，做深做实干部政治素质考察，大力选拔政治强、本领高、敢担当、作风硬、律己严的干部，选优配强各级领导班子，以正确用人导向引领干事创业导向。健全培养选拔优秀年轻干部常态化工作机制，抓好新时代年轻干部培养选拔“海右计划”，统筹做好女干部、少数民族干部、党外干部工作。深入实施强省会干部能力提升计划，组织干部到基层挂职任职，注重在项目建设、疫情防控、抢险救灾等急难险重任务一线磨砺干部。加强政治监督、日常监督、选人用人监督、履职监督，完善干部考核评价体系、评价机制，推动干部能上能下、能进能出。坚持严管和厚爱结合、激励与约束并重，加大容错纠错、澄清正名、严查诬告陷害、关爱回访工作力度，旗帜鲜明为担当者担当、为实干者撑腰。全面优化提升高质量发展综合绩效考核体系。', '（五）增强党组织政治功能和组织功能。各级党组织要履行党章赋予的各项职责，严密组织体系，实现全面进步、全面过硬。坚持大抓基层的鲜明导向，深入推进抓党建促乡村振兴，创新优化村党组织体系，实施村级党组织分类推进整体提升行动，深化城市基层党建示范市建设，持续整顿软弱涣散基层党组织，着力把基层党组织建设成为有效实现党的领导的坚强战斗堡垒。统筹抓好机关、企事业单位等领域党建，深化模范机关建设，推进国有企业、金融企业在完善公司治理中加强党的领导，加强混合所有制企业、非公有制企业党建工作，理顺行业协会、学会、商会党建管理体制。强化新业态新就业群体党建，深化产业链供应链创新链党建，探索加强新经济组织、新社会组织、新就业群体党的建设有效形式。深化党支部规范提升行动，完善在青年和产业工人、农民、知识分子中发展党员工作机制，加强和改进党员特别是流动党员教育管理，严格执行不合格党员处置办法，保持党员队伍先进性和纯洁性。', '（六）持续推进作风建设走深走实。锲而不舍落实中央八项规定及其实施细则精神，持续深化纠治“四风”，健全常态化察访、以下看上“直通车”、普遍性反复性问题集中整治等机制，重点纠治形式主义、官僚主义，坚决破除特权思想和特权行为，持续为基层减负。走好新时代党的群众路线，加强和改进调查研究，倡树严肃严格、求真较真、细致细究、务实扎实、高效快捷的工作作风，持续开展“上一线、察实情、练本领、促发展”群众工作教育实践活动，充分发挥市“四进”强省会工作队作用，推动市委决策部署在基层真正落地落实落细。', '（七）坚决打赢反腐败斗争攻坚战持久战。坚持党性党风党纪一起抓，督促党员干部廉洁用权、为民用权。坚持不敢腐、不能腐、不想腐一体推进，以零容忍态度反腐惩恶，巩固拓展反腐败斗争压倒性胜利。持续保持高压态势，更加有力遏制增量、更加有效清除存量，坚决查处政治问题和经济问题交织的腐败案件，坚决治理政商勾连破坏政治生态和经济发展环境问题，坚决整治群众身边的腐败和不正之风，深化整治重点领域腐败，重点查处权力集中、资金密集、资源富集领域的腐败问题，惩治新型腐败和隐性腐败。坚持受贿行贿一起查，实施“行贿人”黑名单制度。坚持标本兼治，加强以案促改，推动完善防治腐败滋生蔓延的体制机制。全面加强纪律建设，精准运用“四种形态”，用足用好第一种形态，深化提升党内谈话工作，对顶风违纪的严肃惩治、绝不姑息。加强新时代廉洁文化建设，深化党性教育、纪法教育、警示教育，深度打造“泉城清风”特色品牌，营造海晏河清、正气充盈的政治生态。', '党的二十大开启了全面建设社会主义现代化国家新征程。深入学习宣传贯彻党的二十大精神，完成党的二十大确立的各项任务，是党和人民赋予我们的神圣使命。全市各级党组织和广大党员干部要更加紧密地团结在以习近平同志为核心的党中央周围，高举中国特色社会主义伟大旗帜，自信自强、守正创新，踔厉奋发、勇毅前行，奋力开创新时代社会主义现代化强省会建设新局面，为全面建设社会主义现代化国家、全面推进中华民族伟大复兴作出更大贡献！']</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A99" t="n">
+        <v>129</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
           <t>槐荫区委编办三个抓强化机构编制监督检查</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
+      <c r="E99" t="inlineStr">
         <is>
           <t>2022-12-06</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2022/12/6/art_1861_4934228.html</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>['为进一步规范机构编制管理，槐荫区委编办“三个抓”强化机构编制监督检查，维护机构编制管理工作的权威性和严肃性。', '抓实机构编制法规制度学习宣传。认真学习《山东省机构编制工作程序实施细则（试行）》《中国共产党机构编制工作条例》《机构编制监督检查工作办法》等配套法规制度，并通过政务内网转发至区直各部门（单位）、各街道，切实提高全区各部门（单位）及干部群众对机构编制相关法规制度的知晓度和重视度，筑牢机构编制违法违纪的防控前线。', '抓严机构编制日常监督检查。建立机构编制报告定期报送制度，组织全区16个街道办事处和56个区直部门（单位）对照《机构编制报告制度实施办法（试行）》中要求的7类事项进行全面自查。坚持从严从紧规范管理，每季度上报《副处级及以上机关事业单位领导职数调整情况表》，定期摸清领导职数底数。充分发挥12310举报热线作用，健全机构编制监督举报机制。', '抓紧机构编制评估和跟踪问效工作。把评估和跟踪问效工作作为提升机构编制执行力的有效抓手，今年以来，分别围绕区级机关安全生产领域、“125510”工作体系、信访领域开展跟踪问效，通过部门自评、实地考察、座谈沟通等方式，对机构编制事项的执行情况进行监督检查，确保机构编制事项落实到位。']</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A100" t="n">
+        <v>129</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
           <t>济南市人民政府办公厅关于年第三季度政府网站和政务新媒体检查情况的通报</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
+      <c r="E100" t="inlineStr">
         <is>
           <t>2022-11-17</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
+      <c r="F100" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2022/11/17/art_141_4932998.html</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
+      <c r="G100" t="inlineStr">
         <is>
           <t>['为进一步提升我市政府网站和政务新媒体建设和服务水平，按照国务院办公厅和省政府办公厅部署要求，市政府办公厅组织开展了2022年第三季度全市政府网站和政务新媒体检查工作，现将有关情况通报如下：', '（二）政务新媒体检查情况。以“全国政务新媒体信息报送系统”相关数据为底数，对纳入监管的745个政务新媒体进行了全覆盖检查，重点对账号备案信息不准确、发布内容涉密涉敏涉隐私、更新不及时、断更、信息转发任务不落实、“僵尸”“空壳”账号、互动回应差等问题开展全面检查，共发现问题账号44个,总体合格率为94%。', '（一）突出重点，强化政策解读能力。市司法局网站对市政府“行政执法三项制度”专栏进行全新改版，指导全市执法部门及时录入行政执法事前、事中、事后监管信息；济南市教育局微信公众号在中高考期间开设“2022中考”“考试季”等专栏，集中宣传中高考相关政策、考试要求等信息，方便考生及家长获取最新政策；历城科技微信公众号开设科技服务模块，梳理汇总市区科技创新政策，形成政策汇编，提高政策宣传力度；济南应急管理微信订阅号创新推出应急科普知识合集“泉城应急知事”，每天发布一期应急科普、安全常识、安全提醒等信息，按照“防汛常识”“城市安全”“生产安全”“居家安全”“防火必备”等类别进行分类展示，进一步加强防灾减灾知识普及，提升市民应对灾害处置的能力。', '（四）规范运营，提升建设管理力度。市公安局在全市公安系统开展政务新媒体专项整顿行动，规范运营标准，共关停各类功能相近、无力运维政务账号25个，进一步精简账号数量，提升建设管理水平；市教育局出台内部文件，规范管理系统内各平台账号，充分发挥本系统政务账号矩阵效应，加强解读回应、主动引导舆论，打造协同性更强、响应速度更快的矩阵体系。', '从本次检查情况看，绝大多数区县和部门能够按照政府网站和政务新媒体建设管理要求，进一步发挥政府网站和政务新媒体在信息传播、政民互动、办事服务等方面的积极作用，全市政府网站和政务新媒体整体运行情况较好。但个别单位仍存在信息发布不及时、突击维护信息、运维保障不到位等问题，制约全市政府网站和政务新媒体总体合格率进一步提升。', '（一）进一步压实主体责任。各级政府网站和政务新媒体主办单位要健全运营机制，全面履行建设运维职责，坚决杜绝内容不更新、互动不畅通、服务不可用等问题。进一步增强发布解读、互动回应、办事服务能力，持续提升企业群众获得感、满意度。及时转载党中央、国务院重大决策部署和省委、省政府重要信息，积极传播党和政府声音，做大做强正面宣传，巩固拓展主流舆论阵地。', '（二）进一步提高监管效能。市政府办公厅已出台全市政府网站和政务新媒体管理意见及考核办法，进一步科学规范管理各级政府网站和政务新媒体的运行。各级政府网站和政务新媒体主管单位要切实履行监管职责，认真落实工作措施，积极推动政府网站和政务新媒体规范发展和做优做强。坚持问题导向，对本次自查检查中发现的问题，举一反三，抓好整改落实。加强正面引导，组织政府网站和政务新媒体工作人员学习借鉴先进经验，积极打造优质精品栏目、精品服务和精品账号。深入整治政务新媒体“指尖上的形式主义”，切实为基层减负。', '（三）进一步强化内容保障。各级各部门对政府网站和政务新媒体拟发布的稿件，要全面落实三级审核机制，严把政治关、法律关、政策关、保密关、文字关，重点稿件反复核校，及时发现和纠正错漏信息。对已发布信息，要加大排查整治力度，坚持主办单位自查和主管单位复查相结合，紧盯关键问题，确保内容准确、表述规范。', '为方便群众获取相关信息，政府网站设“全力争创全国法治政府建设示范市”“疫情防控专栏”“党史学习教育”“政法队伍教育整顿”专题专栏4个，并积极与市政府办公厅、信息技术中心沟通协调，对市政府“行政执法三项制度”专栏进行全新改版，指导全市执法部门及时录入行政执法事前、事中、事后监管信息。', '在济南市文化和旅游局开设“东亚文化之都·济南”专栏，集中展示我市当选东亚文化之都后开展的系列活动，今年4月以来已经启动了145场主题活动，8月，“2022东亚文化之都中国济南年·炫彩活动月”启动后，将举办第三届国际文化旅游博览会、第十届国际泉水节等活动，通过更多渠道、更多角度全面展示济南文旅资源，利用“东亚文化之都”品牌，提升城市软实力，扩大国际朋友圈。', '为加大对进口冷链食品企业的监督检查力度，对不使用“山东冷链”、不索证索票、不分区存储、不亮码销售、不严格执行全省冷链食品疫情防控各项措施等八项要求的“八不”行为坚持“零容忍”，做到发现一起，停业整顿一起、公开曝光一起，济南市场监管局在网站常态化更新“八不”行为曝光通报，向社会主动公开相关情况，以公开促落实。', '立足研究室实际，突出研究室特色，在平台总体设计上，深度贯彻“以公开为常态、以不公开为例外”原则，重点推出“学习园地”“专家观点”“他山之石”等特色专栏，力争将两个平台打造成为国内一流的决策咨询服务类网络平台。突出政民互动，在两个平台创新设置了“百姓参事”专栏，在市政府出台重大政策、起草政府工作报告等重要时间节点，鼓励和引导广大市民建言献策，为济南强省会建设当参谋、提建议。', '官方网站注重发挥政务门户宣传平台作用，以权威发布、公告互动为主要工作方向，当好“发布官”。约承载起150具体栏目的宣传发布，主页面设有大窗轮播宣传栏，动态滚动宣传专栏，包含有高新要闻、高新时讯、通知公告，以及政府信息公开等必备内容专栏。多次获评国家级高新区“年度中国政务网站领先奖”、“综合影响力领先奖”等荣誉。', '在中高考期间开设“2022中考”“考试季”等专栏，对中高考相关政策、考试要求进行解读，并在留言区对师生家长相关问题进行解答。', '在教师节前后，开设“济南最美教师展播”“济南教书育人楷模”专栏，对获评2022年度济南最美教师和济南市教书育人楷模的先进教师进行事迹展播，充分展示济南教师风采，展现新时代济南教师队伍建设成果。', '济南市司法局邀请人民网、法治日报、大众日报、民主与法制、山东法制报、济南日报、新黄河、济南时报、山东商报、舜网等十余家中央及省市主流媒体，通过实地参观和召开座谈会形式，走进济南司法行政一线调研采访，以新闻人的视角，自选角度采写讲述济南司法行政故事，在济南市司法局微信订阅号发布，集中展现全面依法治市和司法行政工作的新变化、新气象，生动讲述全系统各条战线砥砺奋进、创新实干的鲜活事例。', '互联网和全媒体时代，政务公开工作已然成为党和政府发布政策、沟通社情民意，提高公共服务水平的重要工作。近年来，政务新媒体日渐发展壮大，在传播党和政府声音、开展政策解读、回应公众关切等方面发挥了积极作用。', '济南市土地储备中心党委深刻认识到新媒体传播渠道更多、覆盖面更广、速度更快的特性，顺势而为，完善管理制度和激励机制，发现和培养核心人才团队，破解发展中面临的各种问题，创新机制体制，以“济南市土地储备中心”微信公众平台为载体，激发掌中“政能量”，全力做好济南市土地收储政务信息服务工作。', '年10月以来，济南市土地储备中心通过新媒体途径宣传报道各类政策解读及土地推荐会等信息120余篇，及时转载上级政务类信息50篇，使新媒体成为政务公开的有效载体，在优化营商环境，回应群众关切，为群众办实事，解难事方面做出了积极贡献。', '土地储备中心党委经过对新时代条件下，政务新媒体建设的重要性和作用作出了研判，认为政务新媒体是网络时代政府门户开放的“形象窗口”“信息窗口”“服务窗口”，加强政务新媒体建设，打造权威发布、反应灵敏的政务新媒体平台，是政府部门收集社情民意的重要渠道，也是新时代塑造新政府形象的必然举措。结合中心的现有条件，决定要切实发挥领导主体责任，以建立微信公众平台作为尝试和契机，做好顶层设计、高位推动，发挥政务新媒体的政治和组织优势，为人才队伍机制建设方面提供基础性支撑。', '一是完善制度。2021年以来储备中心召开了多次专题会议，出台了《济南市土地储备中心政务信息工作暂行办法》、《济南市土地储备中心新闻宣传工作暂行办法》《济南市土地储备中心微信公众平台发布流程》等文件和通知。从工作实际出发，确定了宣传方向，明确了宣传原则和定位，充分运用全媒体，打造立体化的宣传体系。二是组建队伍。选配了1名专职宣传员，以部室为单位各选取5名信息员，并根据工作联系程度建立了各区县（功能区）的信息联络员。组建了一支宣传队伍。三是定期培训。中心多次组织对信息员队伍在政治站位、宣传摄影等专业方面的培训。2021年底，特别邀请政务信息权威专家周鹏做了《提高站位 精准发力 不断提升政务信息工作水平》的讲座。2022年8月邀请摄影专家给宣传员开办了政务宣传员摄影培训班。四是召开例会。中心召集信息员定期不定期召开宣传例会。会上讨论明确宣传重点和方向，交流经验，使宣传工作形成合力。', '以上举措有效地解决了宣传工作与业务工作脱节的问题，使好的经验做法第一时间搜集汇总；解决了撰稿人员文字水平不达标的问题，信息汇集后，专职宣传员找角度、把方向，做好组织协调、平台沟通、稿件审批等工作，结合考核制度，让宣传工作变得生动不机械。', '济南市自然资源和规划局创新政务公开形式，利用互联网、大数据将“济南不动产”微信公众号、视频号打造成为数字赋能的“云登记”平台，活用网络用语，采用视频、问答、小故事等群众喜闻乐见的形式解释不动产登记专业问题，回应公众关切，加强信息公开力度，打通便民利企新渠道。', '一是内容丰富形式多，创新解读让政策更入心。政府微信公众号、视频号不仅是政务信息发布平台，更是政府与群众之间的沟通平台。“云登记”平台通过定期发布“不动产登记小课堂”、“登记明白纸”、“热点问题解答”、“创新举措”等推文，采用普通民众“看得懂、听得明、能实施”的解读方式回应关切、释疑解惑，了解民生、关注民意、解决民愿，不断提高公开的“含金量”。', '二是各项信息随时查，简便查询让办事更高效。“云登记”平台将办事窗口“搬”到手机上，办事群众只需要通过一台手机，即可进行房产办证进度查询、验证服务、限制信息查询、预约服务等，最大限度方便企业和群众办事，打通政府服务群众“最后一公里”。', '三是专业人员在线聊，一对一服务让咨询更贴心。“云登记”平台积极拓展倾听民声的信息渠道、建立服务于民的便利途径，后台设立专业人员在线回复市民疑问，一对一服务，“听”民声、“答”民疑、“解”民忧。通过“云登记”线上交流，数据代替人跑腿，咨询服务更贴心。', '月5日起，我市开展了为期100天的出租汽车市场打非治违“雷霆”专项整治行动，行动开展以来，充分利用市交通运输局官方网站济南交通栏目及我是泉城交通人、济南交通综合行政执法两大官方公众号，对行动部署、开展的集中执法行动、行动取得的成效以及典型执法案例进行通报，发布的相关信息被省交通运输厅及主流媒体获取后进行转载报道，有效宣传了“雷霆”行动取得的成效，为整顿和规范客运市场秩序、保障市民的合法权益及全国文明典范城市创建营造了良好的舆论氛围。', '济南农业农村局官方公众号精耕泉城三农沃土，讲好泉城三农故事，展现泉城三农风采，以实际行动做好宣传工作。 1.通过“一图读懂”等多种形式积极宣传最新工作要点，让人民群众真正做到知晓政策、弄懂政策、享受政策。针对极端天气及时做好应对工作通知，同时积极转发推广国家最新相关政策；2.开设“一周速览”栏目，将各处室单位最近工作整合编辑，以周报形式进行推送，让人民群众及时掌握相关工作进展；3.开设“三农快报”栏目，深度报道抓典型，以视频+图片+文字形式全方位展现新时代乡村面貌，共话乡村振兴。', '多平台同步直播现代吕剧《长歌尽美》。7月9日晚，利用“济南市文化和旅游局”官方抖音、微博、视频号、泉城直播间，并联合大众网、天下泉城、爱济南、新黄河等多家本地新闻客户端，对《长歌尽美》首场演出进行多平台多渠道同步直播。通过直播形式，让更多观众关注这一契合时代主题、具有政治高度和艺术深度的优秀作品，进一步扩大了原创革命历史题材剧目的传播影响力。', '整合“双报到”资源优势，促进宽厚里美食宣传推广。利用局官方平台优势，结合社区资源，8月初策划开展“推广打卡宽厚里网红美食”系列宣传活动，利用“济南市文化和旅游局”新媒体平台发布20余篇美食打卡文章及多支美食短视频，累计阅读量36w+，获得广泛点赞转发；联合商家开展抽奖送美食福利线上活动，取得良好推广成效。', '优化济南市退役军人事务局微信公众号界面，新增政策法规、政策解读等9个合集阅读功能;调整底端目录，新增网站入口、办事指南、政策咨询等3个功能模块和优待证、就业创业、英烈褒扬、微动漫、直播预告等5个专题专栏，让政策分类更明晰、信息发布更精准，有效提升政策知晓率。', '济南市应急管理局利用“济南应急管理”微信订阅号创新推出应急科普知识合集《泉城应急知事》，每天发布一期应急科普、安全常识、安全提醒等信息，按照“防汛常识”“城市安全”“生产安全”“居家安全”“防火必备”等类别进行分类展示，进一步普及了防灾减灾知识，提升了市民应对灾害处置能力，提高了全社会共同减轻灾害风险、抵御灾害综合防范的能力。', '近期济南市市场监管局开展养老诈骗专项行动，通过漫画、长图讲解等形式，发布消费提示，提示老年人注意购买保健食品安全事项。发布多个防诈骗提醒短视频，市场监管工作人员以顺口溜形式通俗易懂地宣传科学养老防诈骗工作。积极开展相关行动执法检查工作，及时公开相关执法检查情况。充分发挥新媒体的宣传、传播作用，将养老防诈骗工作做到实处。', '“济南医保”微信客服系统平台打造“智能+人工”协同互动服务新模式，实现 “问事”到“办事”的升级，为群众提供更加便利的云端服务。群众可通过“济南医保”微信公众号和小程序，线上咨询医保问题，AI智能客服即时相应，对于群众的个性化问题和网上办事需求，人工客服接力答复，并可通过网络授权、上传办事材料，直接为群众远程办理医保业务，实现线上咨询答复与经办服务无缝衔接。用数字化手段，实现网络导服、云上办事，群众足不出户即可问得清、办得成。自启动“济南医保”智能客服系统以来，网络答疑6万余条，经办医保业务近3000笔，服务近7万人次。', '“济南市行政审批服务局”微信订阅号是济南市行政审批服务局官方微信公众号。作为对外宣传的窗口，微信订阅号每天发布新闻热点、工作动态、便民举措等内容，并采用一图读懂、视频指南、问答解读等活泼生动、通俗易懂的形式，方便群众及时了解审批服务、改革创新信息动态。同时，微信订阅号设置“预约办事”“咨询评价”等板块，融合“智惠导服”“智享地图”“好差评”等功能于一体，为企业群众提供“人工+智能”实时办事咨询导办服务，实现在线预约、在线取号、在线办理、在线咨询、在线评价，让企业群众办事更方便、更快捷。自2021年4月开通以来，微信订阅号对外发布文章3800余篇，累计阅读超过100万次，累计用户4.8万人，赢得了社会各界广泛关注和好评。', '“在泉城•全办成”抖音号、“济南市行政审批服务局”微信视频号是济南市行政审批服务局利用新媒体应用打造的官方短视频平台。通过群众喜闻乐见的短视频形式，发布便民利企服务措施、惠企政策介绍解读、行政审批创新亮点、事项办理服务指南、优化营商环境政策举措等丰富多样的宣传视频，推广普及审批服务知识，显著提升了企业群众办事便利度。自2021年4月开通以来，对外发布40期短视频，累计播放超过380万次，获得点赞8.4万个，取得了较好的社会反响。', '“泉惠企”济南市企业服务综合智慧平台是市委、市政府向广大市场主体推送惠企政策的主阵地，为企业提供政策服务、诉求服务、审批服务、供需服务、融资服务、人才服务等服务功能，打造惠企政策“中央厨房”，推动惠企政策集中发布、集中解读、集中推送、集中兑现，搭建起企业与政府互联互通的“直通车”。目前，平台已发布中央、省、市、区县级惠企政策2863条，市级惠企政策兑现项目109个，形成“惠企政策库”；汇集147万法人企业和个体工商户信息，形成“市场主体库”。通过平台数据自动关联匹配，已向各市场主体账号线上推送相关政策3000万余条(次)，初步打通了惠企政策推送渠道，实现了惠企政策“一网集成”“一站通达”，让企业最大限度熟知政策、利用政策，充分释放惠企政策“含金量”，全面提振企业发展信心，努力打造一流营商环境。', '市口岸物流办微信公众号开设有反走私专栏，以宣传国家、省、市打私资讯、政策法规、打私知识等为宗旨。自开办以来，积极贯彻落实“宣传也是打私”的理念，着重对泉城反走私志愿服务、反走私普法进校园、泉城反走私“五进”活动示范点评选等进行宣传报道，特别是近期，依托微信公众号平台，组织驻济高校参加第一届全国大学生反走私创作大赛，通过平台接收投稿，大大提升了青年大学生的参与度。通过线上线下相结合的方式，有力推动了我市反走私事业在全省“走在前 做表率”，泉城反走私品牌效应深入人心。', '“惠企政策”栏目工作日每日更新最新中央、省、市民营经济相关政策，促进各级各类政策惠及更多民营市场主体，助力民营企业茁壮成长。', '紧扣政务、业务两大主题，从提倡原创和打造系列专题两方面着手，提高微信号发布内容的质量。济南仲裁办与舜网联合组建的专业运营团队，今年以来从仲裁业务与日常工作角度策划了多个专题报道，推出一系列生动有趣的视频、海报、H5等解读产品全方位、多角度普及法律常识与仲裁业务知识，展现济南仲裁办工作动态和信息。', '以“济南仲裁”微信公众号为载体，引导群众网上办事。微信公众号菜单栏下设“微服务”“微仲裁”两个子菜单。当事人可以通过“微服务”进行仲裁案件查询、仲裁费用计算，查询仲裁员详细信息；“微仲裁”下设“仲裁指南”以栏目集成的方式展现仲裁业务办理的详细步骤与所需资料，畅通群众办事渠道。', '（一）坚持“严”的审核机制。严格执行内容发布审核制度，建立三级审核制度，对微信公众号的选题和稿件进行层层把关。（二）保持“勤”的发文频率。微信公众号始终保持稳定的发文频率。2022年至今微信共发布241篇文章，第三季度发稿61篇。（三）拓展“联”的传播优势。加入市政府政务新媒体群，第一时间响应转载中央重大新闻、重要政策，为群众提供参考服务。与大众网、济南日报、爱济南新闻客户端等主流媒体联动，第一时间传播微信内容，不断扩大“济南仲裁”原创稿件影响力，提升传播效果。', '中秋、三级两会和疫情防控等重要时间节点有负责新媒体运营人员值班，保证信息正常发布，保持24小时通讯畅通。', '“历下教育”微信公众号在服务栏中目前设立三个专栏：党建之窗、特色专栏、招生专栏。党建之窗设以下子栏目：党员精品e课，以网上公益课堂的形式，方便多元化主体共同参与，全景呈现全系统学习型、服务型、创新型党组织的工作成果；教育党建，介绍历下区教体系统各级党组织的党建工作信息。特色专栏设有以下子栏目：媒体聚焦，汇总发布各级媒体对历下区教体系统的媒体报道；最美教师，介绍获评省市区级最美教师事迹；历下好教师，报道历下区优秀教师典型人物；教师才艺show，通过短视频展示教师才艺；学生才艺show，通过短视频展示学生才艺。招生专栏设有以下子栏目：招生工作意见、招生指南、积分志愿填报通知、仅户籍随迁审核、招生咨询电话，发布每年历下区义务教育阶段学校招生工作意见及各类招生工作通知，服务家长网上填报各类信息。 “历下教育”政务新媒体2021年度获山东最具影响力县直机构政务微信、济南教育政务新媒体综合力十强，“历下教育”政务新媒体传播力、影响力居全市前列。', '市中区发展和改革局依据新媒体传播的特点，打造高质量宣传服务平台。不断丰富发布内容、推进融合发展，全方位多角度的传递“市中发改”声音：一是及时准确向社会发布通知公告、政策文件等重要政务信息；二是聚焦全局各项工作，开设“发改资讯、能源互联、东西协作、发改小课堂、民生信息、价格监测等11个专栏，以图文、视频、图片等展现形式做好正面宣传引导；三是聚焦“党代会”“两会”，及时转发相关报道，传播新时代正能量声音。', '“七里山街道办事处”政务新媒体把“互联网+政务服务”作为政务公开重要渠道，运行过程中，严格审核每一篇稿件、图片、影像资料，严把上传关，确保不出现错别字、图文不相符及其他原则性问题；积极转发部门动态、办事流程、最新政策等相关信息，丰富政务新媒体内容，扩大政务新媒体传播面和覆盖面。', '在历城科技微信公众号中，开设科技服务模块，梳理汇总了市区科技创新政策，形成政策汇编，提高了政策宣传力度，促进了科技政策知晓度。', '、积极转发中央、省市区重要会议及政策精神，主动引导舆论、服务企业群众。2、开设创城、党建、疫情防控等专栏，对外宣传历城交通运输工作。3、加强历城交通文化品牌建设，讲述交通故事，弘扬正能量，增强集体凝聚力、向心力，激发干部职工干事创业的工作热情和积极性。', '及时全面准确地转载、发布重大新闻、重要政策、重要文稿、重要文件，传递权威信息；设置“学习时间”栏目，转载总书记重要讲话精神，不断提升党员群众的理论水平；综合群众日常阅读习惯，对发布内容精心编排，精挑图片；积极策划“我们的节日”“五为志愿服务”“疫情防控”“新时代文明实践”等系列主题栏目，全方面、多维度展示唐冶街道的担当作为。', '印象彩石（彩石的由来、雨中漫步东泉村、秘境玉河泉、层林尽染捎近村、吃在彩石山水间）', '特色发布内容包括区领导外出带队招商情况、其他地市优秀招商做法、举办的签约大会宣传情况、招商项目系列推介宣传活动。主要是面向全国推介推广历城，吸引项目投资落地历城。公众号内置历城合作招商热力图，运用地理信息“一张图”技术，集成投资考察路线图、平台载体导引图、产业用地供应图、政策扶持等招商全要素。', '找准选题，创新表达。聚焦读者需求，转变刻板风格，不把传统信息直接贴”到新媒体平台上，而是针对群众关注高的热点问题积极跟进，及时发声，有力引导。如将养老诈骗生动的图文宣传与区市场监管局开展的养老诈骗检查、宣传有力结合。根据市场监管业务实际与群众，开辟“信用监管”“食安历城”等栏目，进一步拓展宣传云阵地。', '每日汇总各科室、社区动态简讯并统一发布；开设新时代文明实践专栏，及时发布各部门志愿活动开展情况，扩大群众的知晓率、参与率，提升人民群众的幸福指数。', '在公众号设立“建党百年，红色传承”、“我为群众办实事”“研究阐释”等专题专栏，开展党的理论教育、研究阐释理论、宣传红色经典故事，深入挖掘身边好人好事，推出“请党放心，强国有我”青年志愿服务榜样，评选出7名“学习达人”等一批形象生动、事迹鲜活、充满力量的先进典型，营造了良好的干事创业氛围。', '积极运用长清应急管理微信公众号向社会开展安全生产、应急管理、防灾减灾救灾知识宣传，提高群众安全意识和应急避险能力。', '“健康长清”微信公众号平台紧紧围绕长清区卫生健康医疗工作、民生社会热点等方面，大力宣传卫健工作新情况：一、围绕党和政府中心大局，及时传播党政要问、发布权威政务信息。二、强化监管，健全内容发布审核制度，严格程序、严肃纪律，确保发布内容的权威性、时效性、实用性，坚决杜绝虚假信息和涉密信息上网。三、注重原创，丰富发布内容，利用“图片、文字、视频”混合编辑模式，以多角度形式呈现，使内容更加鲜活，可读、可看、可视。', '官微平台以重大活动、时政新闻、精华选题策划为主要内容，当好“内容官”。每天对全区重大新闻事件进行择优编排，由主管领导把关审核，目前已成为各主流媒体知晓抓取高新区新闻的“首选平台”，也成为济南区县融媒体中心阵营中唯一做到每日出产精华内容的官方宣传平台。多次获评国家级高新区“综合力领先奖”、“年度国家高新区优秀政务新媒体”。', '官方APP掌上高新平台以多广度、多形式、多元化为主要方向，立足灵活移动端特点，使区域融媒体生态得到最大化展现，当好“形态官”。目前建设有10余个栏目，涉及各部门、单位、园区、街道办事处、企业事业单位，以及党建、生活互动等专题版块，发布内容涵盖文稿、长图、H5、VR短视频等多种形式。', '是济南高新区布局流量互联网平台的重要载体，重点做好在大流量互联网平台舆论引导的重要角色，主要选取适宜在其发布的活动新闻，由主要负责人审核把关后投放发布，与通稿、权威发声形成良性互动。', '是济南高新区布局微博互动平台的官方发声账号，重点做好在微博阵地的高新发声工作，设有工作专班，选取优质内容，定时编发更新，特点是凝炼、有重点，具有一定互动交流性。', '是高新区布局互动性短视频流量平台的重要平台，主要承担区域与上级工作任务的互动与落实，重点做好活动类新闻宣发、展示类视频宣发工作。', '是济南高新区政务短视频类新闻及其融媒体作品的主要宣发平台，以官方短视频形象号为定位，以短视频形式传播高新声音，展示高新区形象。', '济南高新区积极响应主旋律声音“打通最后一公里”的重要落实，是高新区向上发声发布短视频类新闻的重要载体，也是融媒体矩阵中，中央级媒体平台的重要抓手。', '此为济南高新区布局澎湃客户端平台的“政务号”，主要侧重全区及以上重量级新闻宣发，内容择优发布，并注重新闻在更高层级宣发意义。']</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A101" t="n">
+        <v>129</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
           <t>于海田带队在上海考察招商</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
+      <c r="E101" t="inlineStr">
         <is>
           <t>2022-11-04</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
+      <c r="F101" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2022/11/4/art_96452_4932118.html</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
+      <c r="G101" t="inlineStr">
         <is>
           <t>['11月3日，市委副书记、市长于海田带队在上海继续走访企业、考察招商，深化交流联系，洽谈合作项目，拓宽合作领域，为加快绿色低碳发展、助力强省会建设注入新动能。', '在苏伊士环境集团，于海田一行与集团固废资源管理大中华地区高级副总裁沈健等座谈，就固废处理、环境保护等有关合作推进交流洽谈。在德勤中国，于海田一行与德勤中国主席蒋颖等就产业谋划等有关合作进行交流洽谈；在德勤上海办公室召开的济南市集成电路产业投资合作闭门会上，于海田一行与求是缘半导体联盟理事长陈荣玲等业界专家、企业家，就集成电路产业发展趋势、未来方向和投资合作重点进行座谈交流，听取加快推动产业做大做强的建议。在采埃孚股份公司，于海田一行与采埃孚高级副总裁、商用车亚太区负责人于素杰等座谈，察看了企业研发中心，就延展汽车零部件产业链条进行交流洽谈；在旺旺集团上海总部，于海田一行详细了解旺旺集团发展历程，与旺旺集团首席营运官、执行董事蔡旺家等座谈，就做强食品产业、延伸产业链条等深入交流。在考察过程中，于海田详细了解企业在济南的投资意向、项目推进、产业发展等情况，对合作中有关具体问题深入讨论交流。', '每到一处，于海田都深入推介济南。他表示，今天的济南，面积超过1万平方公里、人口超过1000万、经济总量达到1.14万亿元。作为省会城市，济南具有战略红利交汇叠加、交通网络四通八达、科技创新实力雄厚、数字赋能势头强劲、人才保障基础坚实、金融服务优势突出、营商环境持续优化、消费市场潜力巨大、城市品质生态宜居、人文环境厚重淳朴等优势，发展前景无限广阔。当前，全市上下正深入学习贯彻党的二十大精神，全面落实习近平总书记对山东、对济南工作的重要指示要求，加快推进新旧动能转换，推动经济社会高质量发展。热忱欢迎广大企业家到济南投资兴业发展，共享发展红利。济南将全力营造良好的发展环境，为广大企业提供优质高效服务。', '企业家们表示，济南战略机遇叠加，资源优势突出，新动能不断涌现，发展空间巨大。企业将充分发挥自身优势特长，在环保产业、智能制造、食品产业等领域深化合作，推动更多合作项目落地见效，助力城市发展能级不断跃升。']</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A102" t="n">
+        <v>129</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
           <t>市委常委会召开会议</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
+      <c r="E102" t="inlineStr">
         <is>
           <t>2022-11-02</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
+      <c r="F102" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2022/11/2/art_1861_4931969.html</t>
         </is>
       </c>
-      <c r="F102" t="inlineStr">
+      <c r="G102" t="inlineStr">
         <is>
           <t>['11月1日上午，市委常委会召开会议，学习贯彻习近平总书记在瞻仰延安革命纪念地时、在陕西延安和河南安阳考察时的重要讲话精神，研究贯彻落实意见；研究审议有关事项。', '会议指出，习近平总书记的重要讲话，具有很强的政治性、示范性、指导性，为我们当前和今后一个时期学习宣传贯彻党的二十大精神指明了方向。要大力弘扬伟大建党精神，大力弘扬以坚定正确的政治方向、解放思想实事求是的思想路线、全心全意为人民服务的根本宗旨、自力更生艰苦奋斗的创业精神为主要内容的延安精神，为实现第二个百年奋斗目标不懈奋斗。要大力弘扬红色文化，让党员干部群众在传承红色基因中汲取力量。要全面推进乡村振兴，为实现农业农村现代化作出更大贡献。要做好考古和文物保护工作，传承好济南的历史文脉。', '会议学习了《中国共产党章程》，强调市委常委同志要带头把学习贯彻党章作为学习贯彻党的二十大精神的重要内容，深刻领会其中体现的党的创新理论和实践发展成果，更加自觉地学习党章、遵守党章、贯彻党章、维护党章，真正做到内化于心、外化于行。', '会议审议了《中共济南市委关于认真学习宣传贯彻党的二十大精神的通知》，指出全市各级各部门要精心组织、周密部署，扎实开展好学习宣传宣讲活动，教育引导全市广大党员干部群众自觉把思想和行动统一到党的二十大精神上来。', '会议听取了关于2022年市直机关党建工作情况的汇报，强调要压实党建主体责任，一体推进机关党的政治建设、思想建设、组织建设、作风建设、纪律建设和制度建设，做优做实机关党建工作，推进机关党建迈向更高水平。']</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A103" t="n">
+        <v>129</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
           <t>于海田带队赴上海考察招商</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
+      <c r="E103" t="inlineStr">
         <is>
           <t>2022-11-03</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2022/11/3/art_1861_4932038.html</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>['11月2日，市委副书记、市长于海田带队赴上海走访企业、考察招商，深入学习贯彻党的二十大精神，深化交流合作，拓展合作空间，推进更多项目签约落地，为新时代社会主义现代化强省会建设注入强劲动力。', '在康宁国际集团，于海田一行考察了企业技术研发、产品应用、市场拓展等情况，深入了解企业发展情况，与康宁国际集团总裁兼总经理李放等座谈，就康宁反应器技术、新材料产业等有关合作推进交流洽谈；在山鹰国际控股股份公司，于海田一行与公司董事长、总裁吴明武等座谈，详细了解企业发展、市场开拓等情况，就再生资源循环利用等有关合作项目进行交流洽谈；在兴业证券股份有限公司，于海田一行与公司副总裁胡平生等座谈，详细了解企业金融业务拓展等情况，就山东济南黄河发展母基金运行、科创金融改革等工作进行交流洽谈；在上海均和集团，于海田一行与集团党委书记、总裁肖传甫等座谈，就产业平台载体打造等合作深入交流。在考察过程中，于海田详细了解企业在济南的投资意向、项目推进、产业发展等情况，对合作中有关具体问题深入讨论交流。', '于海田表示，今天的济南，面积超过1万平方公里、人口超过1000万、经济总量达到1.14万亿元、财政收入突破1000亿元，正处于加快发展、跨越发展的关键期、机遇期、黄金期。当前，全市上下正深入学习贯彻党的二十大精神，全面落实习近平总书记对山东、对济南工作的重要指示要求，按照“勇当排头兵、建设强省会”的思路目标和工作推进体系，真抓实干、奋斗进取，加快推动经济社会高质量发展。济南正日益成为广大企业投资兴业的一方热土，希望更多企业能够选择济南、布局济南、投资济南。济南将全力以赴优化营商环境，为广大企业家创新创业、投资兴业提供丰厚沃土和广阔舞台。', '企业家们表示，济南发展势头强劲，发展优势突出，未来机遇无限。企业将抓住难得机遇，充分发挥优势，在落实黄河重大国家战略、加快绿色低碳发展、产业转型升级等领域深化合作，推动更多合作项目落地见效。']</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A104" t="n">
+        <v>129</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
           <t>中国重汽与世界共赢国内首家单月出口重卡突破辆活动举行</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
+      <c r="E104" t="inlineStr">
         <is>
           <t>2022-11-01</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
+      <c r="F104" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2022/11/1/art_22405_4931917.html</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
+      <c r="G104" t="inlineStr">
         <is>
           <t>['10月31日下午，“中国重汽 与世界共赢”——国内首家单月出口重卡突破10000辆活动在山东大厦举行。省委常委、市委书记刘强，市委副书记、市长于海田，山东重工集团党委书记、董事长，中国重汽集团党委书记、董事长谭旭光出席。', '16时12分，随着刘强在活动现场发出“出发”的指令，55辆重汽重卡驶出济南综合保税区，顺利出关，标志着中国商用车企业单月出口重卡突破10000辆大关。今年1—10月份中国重汽集团重卡出口7.6万辆，同比增长54%，占我国行业出口的一半以上。本月出口10000辆更是创造了国内重卡企业出口的单月最高纪录。', '刘强在活动现场与中国重汽集团全球经销商、客户代表摩洛哥索玛客车和卡车公司总经理沙迪亚·埃尔·曼苏里，沙特萨利赫·易卜拉欣·多罕运输公司首席执行官默罕默德·萨利赫·多罕进行视频连线交流，了解对方与中国重汽集团的合作情况、重汽重卡在国外市场上的表现以及下一步双方深化合作的建议。刘强向中国重汽集团的全球经销商、客户代表发出诚挚邀约，邀请他们常来中国、济南考察交流，拓宽合作领域，实现共赢发展。', '于海田在致辞中代表济南市委、市政府向中国重汽集团取得的成绩表示热烈祝贺，希望中国重汽集团一如既往积极服务和融入省会发展大局，充分发挥行业龙头企业引领作用，吸引更多产业链、供应链上下游企业来济投资兴业，为省会高质量发展注入不竭动力。济南市将着力打造一流发展环境，以最优厚的政策支持、最有力的要素支撑、最贴心的服务保障，全力支持中国重汽集团百尺竿头更进一步。', '谭旭光在致辞时表示，中国重汽集团单月重卡出口突破10000辆，在我国重型卡车行业出口发展史上具有里程碑的意义。这是我们认真学习宣传贯彻党的二十大精神，落实稳经济大盘、稳外贸出口的具体行动。中国重汽集团将抓住今年最后两个月的时机，努力挺得住、扛得牢、冲得上，为山东经济、济南经济稳定发展作出应有的贡献！', '市领导李国强、韩伟，市政府秘书长王品木；省直有关部门负责同志；中国重汽集团全球经销商、客户代表参加活动。']</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A105" t="n">
+        <v>129</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
           <t>济南社会科学院年度博士研究生招聘简章</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
+      <c r="E105" t="inlineStr">
         <is>
           <t>2022-09-02</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2022/9/2/art_36743_4927431.html</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>['济南社会科学院始成立于1978年，为市政府直属正局级公益一类事业单位。主要职责是：认真贯彻落实党中央关于哲学社会科学研究工作的方针政策和决策部署，落实省委工作要求和市委工作安排，组织开展哲学社会科学基础理论研究，重点围绕济南经济社会发展开展应用对策研究和济南历史文化研究，承担哲学社会科学重点课题研究、编辑科研著作，组织开展社科领域学术交流活动。', '公开招聘专业技术人员4名，具体岗位及条件详见《济南社会科学院2022年公开招聘人员岗位汇总表》（附件1）。', '1.具有中华人民共和国国籍，遵守宪法和法律，具有良好的道德品行和适应岗位的身体条件、心理素质；', '2.严格遵守党的政治纪律和政治规矩，自觉在思想上政治上行动上同以习近平同志为核心的党中央保持高度一致；', '4.应聘人员取得岗位所需要的博士研究生学历学位证书。2022年应届毕业生应聘的，学历、学位证书等须在2022年12月31日前取得；其他人员应聘的，学历、学位证书等须在报名之日前取得；', '6.附加说明：定向、委培人员应聘的，须征得定向、委培单位同意。在职人员应聘，应征得有用人权限部门或单位同意，并提供同意应聘证明。在读全日制普通高等院校非应届毕业生不得应聘。受过刑事处罚的人员、被开除公职的人员、被开除党籍的人员、涉嫌违纪违法正在接受有关机关审查尚未作出结论的人员不得应聘。现役军人及法律规定不得聘用的其他情形的人员不得应聘。被列为失信被执行人的人员不得应聘。', '应聘人员不得应聘有《事业单位人事管理回避规定》（人社部规〔2019〕1号）规定情形的岗位。', '报名时间：此次招聘岗位为长期招聘岗位，自简章发布之日起7个工作日后，根据岗位报名情况及工作需要，不定期启动现场资格审核、面试、考察体检程序，岗位招满即止。未招满的岗位报名有效期至2022年12月31日，以邮件收到时间为准。', '（2）全日制普通高校应届毕业生须提供由学校出具的应届毕业生证明（加盖院系公章、附成绩单）；', '（5）海外留学人员应提供经教育部留学服务中心出具的《国外学历学位认证书》、留学回国人员证明、国外学习成绩单、国外博士毕业论文摘要及全文等材料；', '应聘人员需如实填写、提交相关个人信息资料。以上所有材料请发送PDF格式的电子版本到指定邮箱，原件及复印件请在现场资格审核时提供。', '我院指定专人负责资格初审工作，在报名期间查看本次招聘报名情况，根据应聘人员提交的信息资料进行资格审查，及时确定初审结果。', '对应聘人员的资格审查工作，贯穿招聘工作的全过程。应聘人员在应聘期间的表现，将作为公开招聘考察的重要内容之一。应聘人员提供的相关材料信息如有不实，一经发现，取消资格。初审合格的应聘人员，按照通知指定的时间、地点，携带报名材料原件和复印件进行现场资格审核。', '面试主要采取业务考察的方式进行，主要考察应聘人员的专业理论素养、科学研究能力及培养发展潜质等。面试的流程为：应聘人员应至少提前一天向院办公室提供个人学术资料（原件）以供面试专家进行查阅，面试开始后进行个人学术陈述、答辩等环节。', '面试采用百分制，面试设合格分数线80分，达到面试合格分数线的方可进入考察体检范围。面试成绩计算到小数点后两位数，尾数四舍五入，在面试结束后当场公布。面试成绩即为考试总成绩。', '按照招聘岗位，根据应聘人员考试总成绩，由高分到低分按1:1.5的比例，确定进入考察范围人选，并按照岗位招聘计划依次等额组织考察体检。', '1.考察。考察可根据岗位条件要求采取多种方式进行，主要考察思想政治表现、道德品行、能力素质、业务能力、遵纪守法、廉洁自律情况，以及是否具有应当回避的情形、与招聘岗位的匹配度等情况，并对应聘人员是否符合规定的岗位资格条件、提供的相关信息材料是否真实准确等进行再次复审。对考察对象的档案进行严格审核。我院成立考察工作小组，具体负责考察工作。考察小组要实事求是，全面、客观、公正地评价被考察对象，并写出书面考察意见。', '2.体检。体检应在县级以上综合性医院进行，体检标准和项目参照公务员录用体检标准及操作手册执行，国家另有规定的从其规定。对按规定需要复检的，不得在原体检医院进行，复检只能进行1次，结果以复检结论为准。应聘人员未按规定时间、地点参加体检的，视为放弃。', '对放弃考察、体检或考察、体检不合格造成的空缺，从进入同一岗位考察体检范围的人员中依次等额递补。', '对面试、考察体检均合格的拟聘用人员，在院网站面向社会公示，公示期为7个工作日。拟聘用人员名单公示后不再递补。公示期间有异议的，我院调查处理，并作出结论。公示期满，对没有问题或者经查反映问题不影响聘用的，由我院提出聘用意见，按照管理权限办理人员聘用手续。我院和受聘人员按规定签订聘用合同，确立人事关系。受聘人员按规定实行试用期制度，期满合格的正式聘用，不合格的解除聘用合同。', '在公开招聘组织实施过程中，按照新冠肺炎疫情防控有关要求，落实防疫措施，必要时对有关工作安排进行适当调整。']</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A106" t="n">
+        <v>129</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
           <t>中国共产党章程</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>2022-10-27</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2022/10/27/art_22232_4931608.html</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>['中国共产党是中国工人阶级的先锋队，同时是中国人民和中华民族的先锋队，是中国特色社会主义事业的领导核心，代表中国先进生产力的发展要求，代表中国先进文化的前进方向，代表中国最广大人民的根本利益。党的最高理想和最终目标是实现共产主义。', '中国共产党以马克思列宁主义、毛泽东思想、邓小平理论、“三个代表”重要思想、科学发展观、习近平新时代中国特色社会主义思想作为自己的行动指南。', '马克思列宁主义揭示了人类社会历史发展的规律，它的基本原理是正确的，具有强大的生命力。中国共产党人追求的共产主义最高理想，只有在社会主义社会充分发展和高度发达的基础上才能实现。社会主义制度的发展和完善是一个长期的历史过程。坚持马克思列宁主义的基本原理，走中国人民自愿选择的适合中国国情的道路，中国的社会主义事业必将取得最终的胜利。', '以毛泽东同志为主要代表的中国共产党人，把马克思列宁主义的基本原理同中国革命的具体实践结合起来，创立了毛泽东思想。毛泽东思想是马克思列宁主义在中国的运用和发展，是被实践证明了的关于中国革命和建设的正确的理论原则和经验总结，是中国共产党集体智慧的结晶。在毛泽东思想指引下，中国共产党领导全国各族人民，经过长期的反对帝国主义、封建主义、官僚资本主义的革命斗争，取得了新民主主义革命的胜利，建立了人民民主专政的中华人民共和国；新中国成立以后，顺利地进行了社会主义改造，完成了从新民主主义到社会主义的过渡，确立了社会主义基本制度，发展了社会主义的经济、政治和文化。', '十一届三中全会以来，以邓小平同志为主要代表的中国共产党人，总结新中国成立以来正反两方面的经验，解放思想，实事求是，实现全党工作中心向经济建设的转移，实行改革开放，开辟了社会主义事业发展的新时期，逐步形成了建设中国特色社会主义的路线、方针、政策，阐明了在中国建设社会主义、巩固和发展社会主义的基本问题，创立了邓小平理论。邓小平理论是马克思列宁主义的基本原理同当代中国实践和时代特征相结合的产物，是毛泽东思想在新的历史条件下的继承和发展，是马克思主义在中国发展的新阶段，是当代中国的马克思主义，是中国共产党集体智慧的结晶，引导着我国社会主义现代化事业不断前进。', '十三届四中全会以来，以江泽民同志为主要代表的中国共产党人，在建设中国特色社会主义的实践中，加深了对什么是社会主义、怎样建设社会主义和建设什么样的党、怎样建设党的认识，积累了治党治国新的宝贵经验，形成了“三个代表”重要思想。“三个代表”重要思想是对马克思列宁主义、毛泽东思想、邓小平理论的继承和发展，反映了当代世界和中国的发展变化对党和国家工作的新要求，是加强和改进党的建设、推进我国社会主义自我完善和发展的强大理论武器，是中国共产党集体智慧的结晶，是党必须长期坚持的指导思想。始终做到“三个代表”，是我们党的立党之本、执政之基、力量之源。', '十六大以来，以胡锦涛同志为主要代表的中国共产党人，坚持以邓小平理论和“三个代表”重要思想为指导，根据新的发展要求，深刻认识和回答了新形势下实现什么样的发展、怎样发展等重大问题，形成了以人为本、全面协调可持续发展的科学发展观。科学发展观是同马克思列宁主义、毛泽东思想、邓小平理论、“三个代表”重要思想既一脉相承又与时俱进的科学理论，是马克思主义关于发展的世界观和方法论的集中体现，是马克思主义中国化重大成果，是中国共产党集体智慧的结晶，是发展中国特色社会主义必须长期坚持的指导思想。', '十八大以来，以习近平同志为主要代表的中国共产党人，坚持把马克思主义基本原理同中国具体实际相结合、同中华优秀传统文化相结合，科学回答了新时代坚持和发展什么样的中国特色社会主义、怎样坚持和发展中国特色社会主义等重大时代课题，创立了习近平新时代中国特色社会主义思想。习近平新时代中国特色社会主义思想是对马克思列宁主义、毛泽东思想、邓小平理论、“三个代表”重要思想、科学发展观的继承和发展，是当代中国马克思主义、二十一世纪马克思主义，是中华文化和中国精神的时代精华，是党和人民实践经验和集体智慧的结晶，是中国特色社会主义理论体系的重要组成部分，是全党全国人民为实现中华民族伟大复兴而奋斗的行动指南，必须长期坚持并不断发展。在习近平新时代中国特色社会主义思想指导下，中国共产党领导全国各族人民，统揽伟大斗争、伟大工程、伟大事业、伟大梦想，推动中国特色社会主义进入了新时代，实现第一个百年奋斗目标，开启了实现第二个百年奋斗目标新征程。', '改革开放以来我们取得一切成绩和进步的根本原因，归结起来就是：开辟了中国特色社会主义道路，形成了中国特色社会主义理论体系，确立了中国特色社会主义制度，发展了中国特色社会主义文化。全党同志要倍加珍惜、长期坚持和不断发展党历经艰辛开创的这条道路、这个理论体系、这个制度、这个文化，高举中国特色社会主义伟大旗帜，坚定道路自信、理论自信、制度自信、文化自信，发扬斗争精神，增强斗争本领，贯彻党的基本理论、基本路线、基本方略，为实现推进现代化建设、完成祖国统一、维护世界和平与促进共同发展这三大历史任务，实现第二个百年奋斗目标、实现中华民族伟大复兴的中国梦而奋斗。', '中国共产党自成立以来，始终把为中国人民谋幸福、为中华民族谋复兴作为自己的初心使命，历经百年奋斗，从根本上改变了中国人民的前途命运，开辟了实现中华民族伟大复兴的正确道路，展示了马克思主义的强大生命力，深刻影响了世界历史进程，锻造了走在时代前列的中国共产党。经过长期实践，积累了坚持党的领导、坚持人民至上、坚持理论创新、坚持独立自主、坚持中国道路、坚持胸怀天下、坚持开拓创新、坚持敢于斗争、坚持统一战线、坚持自我革命的宝贵历史经验，这是党和人民共同创造的精神财富，必须倍加珍惜、长期坚持，并在实践中不断丰富和发展。', '我国正处于并将长期处于社会主义初级阶段。这是在原本经济文化落后的中国建设社会主义现代化不可逾越的历史阶段，需要上百年的时间。我国的社会主义建设，必须从我国的国情出发，走中国特色社会主义道路，以中国式现代化全面推进中华民族伟大复兴。在现阶段，我国社会的主要矛盾是人民日益增长的美好生活需要和不平衡不充分的发展之间的矛盾。由于国内的因素和国际的影响，阶级斗争还在一定范围内长期存在，在某种条件下还有可能激化，但已经不是主要矛盾。我国社会主义建设的根本任务，是进一步解放生产力，发展生产力，逐步实现社会主义现代化，并且为此而改革生产关系和上层建筑中不适应生产力发展的方面和环节。必须坚持和完善公有制为主体、多种所有制经济共同发展，按劳分配为主体、多种分配方式并存，社会主义市场经济体制等基本经济制度，鼓励一部分地区和一部分人先富起来，逐步实现全体人民共同富裕，在生产发展和社会财富增长的基础上不断满足人民日益增长的美好生活需要，促进人的全面发展。发展是我们党执政兴国的第一要务。必须坚持以人民为中心的发展思想，把握新发展阶段，贯彻创新、协调、绿色、开放、共享的新发展理念，加快构建以国内大循环为主体、国内国际双循环相互促进的新发展格局，推动高质量发展。各项工作都要把有利于发展社会主义社会的生产力，有利于增强社会主义国家的综合国力，有利于提高人民的生活水平，作为总的出发点和检验标准，尊重劳动、尊重知识、尊重人才、尊重创造，做到发展为了人民、发展依靠人民、发展成果由人民共享。必须按照中国特色社会主义事业“五位一体”总体布局和“四个全面”战略布局，统筹推进经济建设、政治建设、文化建设、社会建设、生态文明建设，协调推进全面建设社会主义现代化国家、全面深化改革、全面依法治国、全面从严治党。新时代新征程，经济和社会发展的战略目标是，到二〇三五年基本实现社会主义现代化，到本世纪中叶把我国建成社会主义现代化强国。', '中国共产党在社会主义初级阶段的基本路线是：领导和团结全国各族人民，以经济建设为中心，坚持四项基本原则，坚持改革开放，自力更生，艰苦创业，为把我国建设成为富强民主文明和谐美丽的社会主义现代化强国而奋斗。', '中国共产党在领导社会主义事业中，必须坚持以经济建设为中心，其他各项工作都服从和服务于这个中心。要实施科教兴国战略、人才强国战略、创新驱动发展战略、乡村振兴战略、区域协调发展战略、可持续发展战略、军民融合发展战略，充分发挥科学技术作为第一生产力的作用，充分发挥人才作为第一资源的作用，充分发挥创新作为引领发展第一动力的作用，依靠科技进步，提高劳动者素质，促进国民经济更高质量、更有效率、更加公平、更可持续、更为安全发展。', '坚持社会主义道路、坚持人民民主专政、坚持中国共产党的领导、坚持马克思列宁主义毛泽东思想这四项基本原则，是我们的立国之本。在社会主义现代化建设的整个过程中，必须坚持四项基本原则，反对资产阶级自由化。', '坚持改革开放，是我们的强国之路。只有改革开放，才能发展中国、发展社会主义、发展马克思主义。要全面深化改革，完善和发展中国特色社会主义制度，推进国家治理体系和治理能力现代化。要从根本上改革束缚生产力发展的经济体制，坚持和完善社会主义市场经济体制；与此相适应，要进行政治体制改革和其他领域的改革。要坚持对外开放的基本国策，吸收和借鉴人类社会创造的一切文明成果。改革开放应当大胆探索，勇于开拓，提高改革决策的科学性，更加注重改革的系统性、整体性、协同性，在实践中开创新路。', '中国共产党领导人民发展社会主义市场经济。毫不动摇地巩固和发展公有制经济，毫不动摇地鼓励、支持、引导非公有制经济发展。发挥市场在资源配置中的决定性作用，更好发挥政府作用，建立完善的宏观调控体系。统筹城乡发展、区域发展、经济社会发展、人与自然和谐发展、国内发展和对外开放，调整经济结构，转变经济发展方式，推进供给侧结构性改革。促进新型工业化、信息化、城镇化、农业现代化同步发展，建设社会主义新农村，走中国特色新型工业化道路，建设创新型国家和世界科技强国。', '中国共产党领导人民发展社会主义民主政治。坚持党的领导、人民当家作主、依法治国有机统一，走中国特色社会主义政治发展道路、中国特色社会主义法治道路，扩大社会主义民主，建设中国特色社会主义法治体系，建设社会主义法治国家，巩固人民民主专政，建设社会主义政治文明。坚持和完善人民代表大会制度、中国共产党领导的多党合作和政治协商制度、民族区域自治制度以及基层群众自治制度。发展更加广泛、更加充分、更加健全的全过程人民民主，推进协商民主广泛多层制度化发展，切实保障人民管理国家事务和社会事务、管理经济和文化事业的权利。尊重和保障人权。广开言路，建立健全民主选举、民主协商、民主决策、民主管理、民主监督的制度和程序。完善中国特色社会主义法律体系，加强法律实施工作，实现国家各项工作法治化。', '中国共产党领导人民发展社会主义先进文化。建设社会主义精神文明，实行依法治国和以德治国相结合，提高全民族的思想道德素质和科学文化素质，为改革开放和社会主义现代化建设提供强大的思想保证、精神动力和智力支持，建设社会主义文化强国。加强社会主义核心价值体系建设，坚持马克思主义指导思想，树立中国特色社会主义共同理想，弘扬以爱国主义为核心的民族精神和以改革创新为核心的时代精神，培育和践行社会主义核心价值观，倡导社会主义荣辱观，增强民族自尊、自信和自强精神，抵御资本主义和封建主义腐朽思想的侵蚀，扫除各种社会丑恶现象，努力使我国人民成为有理想、有道德、有文化、有纪律的人民。对党员要进行共产主义远大理想教育。大力发展教育、科学、文化事业，推动中华优秀传统文化创造性转化、创新性发展，继承革命文化，发展社会主义先进文化，提高国家文化软实力。牢牢掌握意识形态工作领导权，不断巩固马克思主义在意识形态领域的指导地位，巩固全党全国人民团结奋斗的共同思想基础。', '中国共产党领导人民构建社会主义和谐社会。按照民主法治、公平正义、诚信友爱、充满活力、安定有序、人与自然和谐相处的总要求和共同建设、共同享有的原则，以保障和改善民生为重点，解决好人民最关心、最直接、最现实的利益问题，使发展成果更多更公平惠及全体人民，不断增强人民群众获得感，努力形成全体人民各尽其能、各得其所而又和谐相处的局面。加强和创新社会治理。严格区分和正确处理敌我矛盾和人民内部矛盾这两类不同性质的矛盾。加强社会治安综合治理，依法坚决打击各种危害国家安全和利益、危害社会稳定和经济发展的犯罪活动和犯罪分子，保持社会长期稳定。坚持总体国家安全观，统筹发展和安全，坚决维护国家主权、安全、发展利益。', '中国共产党领导人民建设社会主义生态文明。树立尊重自然、顺应自然、保护自然的生态文明理念，增强绿水青山就是金山银山的意识，坚持节约资源和保护环境的基本国策，坚持节约优先、保护优先、自然恢复为主的方针，坚持生产发展、生活富裕、生态良好的文明发展道路。着力建设资源节约型、环境友好型社会，实行最严格的生态环境保护制度，形成节约资源和保护环境的空间格局、产业结构、生产方式、生活方式，为人民创造良好生产生活环境，实现中华民族永续发展。', '中国共产党坚持对人民解放军和其他人民武装力量的绝对领导，贯彻习近平强军思想，加强人民解放军的建设，坚持政治建军、改革强军、科技强军、人才强军、依法治军，建设一支听党指挥、能打胜仗、作风优良的人民军队，把人民军队建设成为世界一流军队，切实保证人民解放军有效履行新时代军队使命任务，充分发挥人民解放军在巩固国防、保卫祖国和参加社会主义现代化建设中的作用。', '中国共产党维护和发展平等团结互助和谐的社会主义民族关系，积极培养、选拔少数民族干部，帮助少数民族和民族地区发展经济、文化和社会事业，铸牢中华民族共同体意识，实现各民族共同团结奋斗、共同繁荣发展。全面贯彻党的宗教工作基本方针，团结信教群众为经济社会发展作贡献。', '中国共产党同全国各民族工人、农民、知识分子团结在一起，同各民主党派、无党派人士、各民族的爱国力量团结在一起，进一步发展和壮大由全体社会主义劳动者、社会主义事业的建设者、拥护社会主义的爱国者、拥护祖国统一和致力于中华民族伟大复兴的爱国者组成的最广泛的爱国统一战线。不断加强全国人民包括香港特别行政区同胞、澳门特别行政区同胞、台湾同胞和海外侨胞的团结。全面准确、坚定不移贯彻“一个国家、两种制度”的方针，促进香港、澳门长期繁荣稳定，坚决反对和遏制“台独”，完成祖国统一大业。', '中国共产党坚持独立自主的和平外交政策，坚持和平发展道路，坚持互利共赢的开放战略，统筹国内国际两个大局，积极发展对外关系，努力为我国的改革开放和现代化建设争取有利的国际环境。在国际事务中，弘扬和平、发展、公平、正义、民主、自由的全人类共同价值，坚持正确义利观，维护我国的独立和主权，反对霸权主义和强权政治，维护世界和平，促进人类进步，推动构建人类命运共同体，推动建设持久和平、普遍安全、共同繁荣、开放包容、清洁美丽的世界。在互相尊重主权和领土完整、互不侵犯、互不干涉内政、平等互利、和平共处五项原则的基础上，发展我国同世界各国的关系。不断发展我国同周边国家的睦邻友好关系，加强同发展中国家的团结与合作。遵循共商共建共享原则，推进“一带一路”建设。按照独立自主、完全平等、互相尊重、互不干涉内部事务的原则，发展我党同各国共产党和其他政党的关系。', '中国共产党要领导全国各族人民实现第二个百年奋斗目标、实现中华民族伟大复兴的中国梦，必须紧密围绕党的基本路线，坚持和加强党的全面领导，坚持党要管党、全面从严治党，弘扬坚持真理、坚守理想，践行初心、担当使命，不怕牺牲、英勇斗争，对党忠诚、不负人民的伟大建党精神，加强党的长期执政能力建设、先进性和纯洁性建设，以改革创新精神全面推进党的建设新的伟大工程，以党的政治建设为统领，全面推进党的政治建设、思想建设、组织建设、作风建设、纪律建设，把制度建设贯穿其中，深入推进反腐败斗争，全面提高党的建设科学化水平，以伟大自我革命引领伟大社会革命。坚持立党为公、执政为民，发扬党的优良传统和作风，不断提高党的领导水平和执政水平，提高拒腐防变和抵御风险的能力，不断增强自我净化、自我完善、自我革新、自我提高能力，不断增强党的阶级基础和扩大党的群众基础，不断提高党的创造力、凝聚力、战斗力，建设学习型、服务型、创新型的马克思主义执政党，使我们党始终走在时代前列，成为领导全国人民沿着中国特色社会主义道路不断前进的坚强核心。党的建设必须坚决实现以下六项基本要求：', '第一，坚持党的基本路线。全党要用邓小平理论、“三个代表”重要思想、科学发展观、习近平新时代中国特色社会主义思想和党的基本路线统一思想，统一行动，并且毫不动摇地长期坚持下去。必须把改革开放同四项基本原则统一起来，全面落实党的基本路线，反对一切“左”的和右的错误倾向，要警惕右，但主要是防止“左”。必须提高政治判断力、政治领悟力、政治执行力，增强贯彻落实党的理论和路线方针政策的自觉性和坚定性。', '第二，坚持解放思想，实事求是，与时俱进，求真务实。党的思想路线是一切从实际出发，理论联系实际，实事求是，在实践中检验真理和发展真理。全党必须坚持这条思想路线，积极探索，大胆试验，开拓创新，创造性地开展工作，不断研究新情况，总结新经验，解决新问题，在实践中丰富和发展马克思主义，推进马克思主义中国化时代化。', '第三，坚持新时代党的组织路线。全面贯彻习近平新时代中国特色社会主义思想，以组织体系建设为重点，着力培养忠诚干净担当的高素质干部，着力集聚爱国奉献的各方面优秀人才，坚持德才兼备、以德为先、任人唯贤，为坚持和加强党的全面领导、坚持和发展中国特色社会主义提供坚强组织保证。全党必须增强党组织的政治功能和组织功能，培养选拔党和人民需要的好干部，培养和造就大批堪当时代重任的社会主义事业接班人，聚天下英才而用之，从组织上保证党的基本理论、基本路线、基本方略的贯彻落实。', '第四，坚持全心全意为人民服务。党除了工人阶级和最广大人民群众的利益，没有自己特殊的利益。党在任何时候都把群众利益放在第一位，同群众同甘共苦，保持最密切的联系，坚持权为民所用、情为民所系、利为民所谋，不允许任何党员脱离群众，凌驾于群众之上。我们党的最大政治优势是密切联系群众，党执政后的最大危险是脱离群众。党风问题、党同人民群众联系问题是关系党生死存亡的问题。党在自己的工作中实行群众路线，一切为了群众，一切依靠群众，从群众中来，到群众中去，把党的正确主张变为群众的自觉行动。', '第五，坚持民主集中制。民主集中制是民主基础上的集中和集中指导下的民主相结合。它既是党的根本组织原则，也是群众路线在党的生活中的运用。必须充分发扬党内民主，尊重党员主体地位，保障党员民主权利，发挥各级党组织和广大党员的积极性创造性。必须实行正确的集中，牢固树立政治意识、大局意识、核心意识、看齐意识，坚定维护以习近平同志为核心的党中央权威和集中统一领导，保证全党的团结统一和行动一致，保证党的决定得到迅速有效的贯彻执行。加强和规范党内政治生活，增强党内政治生活的政治性、时代性、原则性、战斗性，发展积极健康的党内政治文化，营造风清气正的良好政治生态。党在自己的政治生活中正确地开展批评和自我批评，在原则问题上进行思想斗争，坚持真理，修正错误。努力造成又有集中又有民主，又有纪律又有自由，又有统一意志又有个人心情舒畅生动活泼的政治局面。', '第六，坚持从严管党治党。全面从严治党永远在路上，党的自我革命永远在路上。新形势下，党面临的执政考验、改革开放考验、市场经济考验、外部环境考验是长期的、复杂的、严峻的，精神懈怠危险、能力不足危险、脱离群众危险、消极腐败危险更加尖锐地摆在全党面前。要把严的标准、严的措施贯穿于管党治党全过程和各方面。坚持依规治党、标本兼治，不断健全党内法规体系，坚持把纪律挺在前面，加强组织性纪律性，在党的纪律面前人人平等。强化全面从严治党主体责任和监督责任，加强对党的领导机关和党员领导干部特别是主要领导干部的监督，不断完善党内监督体系。深入推进党风廉政建设和反腐败斗争，以零容忍态度惩治腐败，一体推进不敢腐、不能腐、不想腐。', '中国共产党的领导是中国特色社会主义最本质的特征，是中国特色社会主义制度的最大优势，党是最高政治领导力量。党政军民学，东西南北中，党是领导一切的。党要适应改革开放和社会主义现代化建设的要求，坚持科学执政、民主执政、依法执政，加强和改善党的领导。党必须按照总揽全局、协调各方的原则，在同级各种组织中发挥领导核心作用。党必须集中精力领导经济建设，组织、协调各方面的力量，同心协力，围绕经济建设开展工作，促进经济社会全面发展。党必须实行民主的科学的决策，制定和执行正确的路线、方针、政策，做好党的组织工作和宣传教育工作，发挥全体党员的先锋模范作用。党必须在宪法和法律的范围内活动。党必须保证国家的立法、司法、行政、监察机关，经济、文化组织和人民团体积极主动地、独立负责地、协调一致地工作。党必须加强对工会、共产主义青年团、妇女联合会等群团组织的领导，使它们保持和增强政治性、先进性、群众性，充分发挥作用。党必须适应形势的发展和情况的变化，完善领导体制，改进领导方式，增强执政能力。共产党员必须同党外群众亲密合作，共同为建设中国特色社会主义而奋斗。', '第一条 年满十八岁的中国工人、农民、军人、知识分子和其他社会阶层的先进分子，承认党的纲领和章程，愿意参加党的一个组织并在其中积极工作、执行党的决议和按期交纳党费的，可以申请加入中国共产党。', '中国共产党党员必须全心全意为人民服务，不惜牺牲个人的一切，为实现共产主义奋斗终身。', '中国共产党党员永远是劳动人民的普通一员。除了法律和政策规定范围内的个人利益和工作职权以外，所有共产党员都不得谋求任何私利和特权。', '（一）认真学习马克思列宁主义、毛泽东思想、邓小平理论、“三个代表”重要思想、科学发展观、习近平新时代中国特色社会主义思想，学习党的路线、方针、政策和决议，学习党的基本知识和党的历史，学习科学、文化、法律和业务知识，努力提高为人民服务的本领。', '（二）增强“四个意识”、坚定“四个自信”、做到“两个维护”，贯彻执行党的基本路线和各项方针、政策，带头参加改革开放和社会主义现代化建设，带动群众为经济发展和社会进步艰苦奋斗，在生产、工作、学习和社会生活中起先锋模范作用。', '（三）坚持党和人民的利益高于一切，个人利益服从党和人民的利益，吃苦在前，享受在后，克己奉公，多做贡献。', '（四）自觉遵守党的纪律，首先是党的政治纪律和政治规矩，模范遵守国家的法律法规，严格保守党和国家的秘密，执行党的决定，服从组织分配，积极完成党的任务。', '（五）维护党的团结和统一，对党忠诚老实，言行一致，坚决反对一切派别组织和小集团活动，反对阳奉阴违的两面派行为和一切阴谋诡计。', '（六）切实开展批评和自我批评，勇于揭露和纠正违反党的原则的言行和工作中的缺点、错误，坚决同消极腐败现象作斗争。', '（七）密切联系群众，向群众宣传党的主张，遇事同群众商量，及时向党反映群众的意见和要求，维护群众的正当利益。', '（八）发扬社会主义新风尚，带头实践社会主义核心价值观和社会主义荣辱观，提倡共产主义道德，弘扬中华民族传统美德，为了保护国家和人民的利益，在一切困难和危险的时刻挺身而出，英勇斗争，不怕牺牲。', '（四）在党的会议上有根据地批评党的任何组织和任何党员，向党负责地揭发、检举党的任何组织和任何党员违法乱纪的事实，要求处分违法乱纪的党员，要求罢免或撤换不称职的干部。', '（六）在党组织讨论决定对党员的党纪处分或作出鉴定时，本人有权参加和进行申辩，其他党员可以为他作证和辩护。', '（七）对党的决议和政策如有不同意见，在坚决执行的前提下，可以声明保留，并且可以把自己的意见向党的上级组织直至中央提出。', '申请入党的人，要填写入党志愿书，要有两名正式党员作介绍人，要经过支部大会通过和上级党组织批准，并且经过预备期的考察，才能成为正式党员。', '介绍人要认真了解申请人的思想、品质、经历和工作表现，向他解释党的纲领和党的章程，说明党员的条件、义务和权利，并向党组织作出负责的报告。', '党的支部委员会对申请入党的人，要注意征求党内外有关群众的意见，进行严格的审查，认为合格后再提交支部大会讨论。', '上级党组织在批准申请人入党以前，要派人同他谈话，作进一步的了解，并帮助他提高对党的认识。', '第六条 预备党员必须面向党旗进行入党宣誓。誓词如下：我志愿加入中国共产党，拥护党的纲领，遵守党的章程，履行党员义务，执行党的决定，严守党的纪律，保守党的秘密，对党忠诚，积极工作，为共产主义奋斗终身，随时准备为党和人民牺牲一切，永不叛党。', '预备党员的义务同正式党员一样。预备党员的权利，除了没有表决权、选举权和被选举权以外，也同正式党员一样。', '预备党员预备期满，党的支部应当及时讨论他能否转为正式党员。认真履行党员义务，具备党员条件的，应当按期转为正式党员；需要继续考察和教育的，可以延长预备期，但不能超过一年；不履行党员义务，不具备党员条件的，应当取消预备党员资格。预备党员转为正式党员，或延长预备期，或取消预备党员资格，都应当经支部大会讨论通过和上级党组织批准。', '预备党员的预备期，从支部大会通过他为预备党员之日算起。党员的党龄，从预备期满转为正式党员之日算起。', '第八条 每个党员，不论职务高低，都必须编入党的一个支部、小组或其他特定组织，参加党的组织生活，接受党内外群众的监督。党员领导干部还必须参加党委、党组的民主生活会。不允许有任何不参加党的组织生活、不接受党内外群众监督的特殊党员。', '第九条 党员有退党的自由。党员要求退党，应当经支部大会讨论后宣布除名，并报上级党组织备案。', '党员缺乏革命意志，不履行党员义务，不符合党员条件，党的支部应当对他进行教育，要求他限期改正；经教育仍无转变的，应当劝他退党。劝党员退党，应当经支部大会讨论决定，并报上级党组织批准。如被劝告退党的党员坚持不退，应当提交支部大会讨论，决定把他除名，并报上级党组织批准。', '党员如果没有正当理由，连续六个月不参加党的组织生活，或不交纳党费，或不做党所分配的工作，就被认为是自行脱党。支部大会应当决定把这样的党员除名，并报上级党组织批准。', '第十条 党是根据自己的纲领和章程，按照民主集中制组织起来的统一整体。党的民主集中制的基本原则是：', '（一）党员个人服从党的组织，少数服从多数，下级组织服从上级组织，全党各个组织和全体党员服从党的全国代表大会和中央委员会。', '（二）党的各级领导机关，除它们派出的代表机关和在非党组织中的党组外，都由选举产生。', '（三）党的最高领导机关，是党的全国代表大会和它所产生的中央委员会。党的地方各级领导机关，是党的地方各级代表大会和它们所产生的委员会。党的各级委员会向同级的代表大会负责并报告工作。', '（四）党的上级组织要经常听取下级组织和党员群众的意见，及时解决他们提出的问题。党的下级组织既要向上级组织请示和报告工作，又要独立负责地解决自己职责范围内的问题。上下级组织之间要互通情报、互相支持和互相监督。党的各级组织要按规定实行党务公开，使党员对党内事务有更多的了解和参与。', '（五）党的各级委员会实行集体领导和个人分工负责相结合的制度。凡属重大问题都要按照集体领导、民主集中、个别酝酿、会议决定的原则，由党的委员会集体讨论，作出决定；委员会成员要根据集体的决定和分工，切实履行自己的职责。', '（六）党禁止任何形式的个人崇拜。要保证党的领导人的活动处于党和人民的监督之下，同时维护一切代表党和人民利益的领导人的威信。', '第十一条 党的各级代表大会的代表和委员会的产生，要体现选举人的意志。选举采用无记名投票的方式。候选人名单要由党组织和选举人充分酝酿讨论。可以直接采用候选人数多于应选人数的差额选举办法进行正式选举。也可以先采用差额选举办法进行预选，产生候选人名单，然后进行正式选举。选举人有了解候选人情况、要求改变候选人、不选任何一个候选人和另选他人的权利。任何组织和个人不得以任何方式强迫选举人选举或不选举某个人。', '党的地方各级代表大会和基层代表大会的选举，如果发生违反党章的情况，上一级党的委员会在调查核实后，应作出选举无效和采取相应措施的决定，并报再上一级党的委员会审查批准，正式宣布执行。', '第十二条 党的中央和地方各级委员会在必要时召集代表会议，讨论和决定需要及时解决的重大问题。代表会议代表的名额和产生办法，由召集代表会议的委员会决定。', '在党的地方各级代表大会和基层代表大会闭会期间，上级党的组织认为有必要时，可以调动或者指派下级党组织的负责人。', '第十四条 党的中央和省、自治区、直辖市委员会实行巡视制度，在一届任期内，对所管理的地方、部门、企事业单位党组织实现巡视全覆盖。', '第十五条 党的各级领导机关，对同下级组织有关的重要问题作出决定时，在通常情况下，要征求下级组织的意见。要保证下级组织能够正常行使他们的职权。凡属应由下级组织处理的问题，如无特殊情况，上级领导机关不要干预。', '第十六条 有关全国性的重大政策问题，只有党中央有权作出决定，各部门、各地方的党组织可以向中央提出建议，但不得擅自作出决定和对外发表主张。', '党的下级组织必须坚决执行上级组织的决定。下级组织如果认为上级组织的决定不符合本地区、本部门的实际情况，可以请求改变；如果上级组织坚持原决定，下级组织必须执行，并不得公开发表不同意见，但有权向再上一级组织报告。', '第十七条 党组织讨论决定问题，必须执行少数服从多数的原则。决定重要问题，要进行表决。对于少数人的不同意见，应当认真考虑。如对重要问题发生争论，双方人数接近，除了在紧急情况下必须按多数意见执行外，应当暂缓作出决定，进一步调查研究，交换意见，下次再表决；在特殊情况下，也可将争论情况向上级组织报告，请求裁决。', '党员个人代表党组织发表重要主张，如果超出党组织已有决定的范围，必须提交所在的党组织讨论决定，或向上级党组织请示。任何党员不论职务高低，都不能个人决定重大问题；如遇紧急情况，必须由个人作出决定时，事后要迅速向党组织报告。不允许任何领导人实行个人专断和把个人凌驾于组织之上。', '第十八条 党的中央、地方和基层组织，都必须重视党的建设，经常讨论和检查党的宣传工作、教育工作、组织工作、纪律检查工作、群众工作、统一战线工作等，注意研究党内外的思想政治状况。', '第十九条 党的全国代表大会每五年举行一次，由中央委员会召集。中央委员会认为有必要，或者有三分之一以上的省一级组织提出要求，全国代表大会可以提前举行；如无非常情况，不得延期举行。', '第二十一条 党的全国代表会议的职权是：讨论和决定重大问题；调整和增选中央委员会、中央纪律检查委员会的部分成员。调整和增选中央委员及候补中央委员的数额，不得超过党的全国代表大会选出的中央委员及候补中央委员各自总数的五分之一。', '第二十二条 党的中央委员会每届任期五年。全国代表大会如提前或延期举行，它的任期相应地改变。中央委员会委员和候补委员必须有五年以上的党龄。中央委员会委员和候补委员的名额，由全国代表大会决定。中央委员会委员出缺，由中央委员会候补委员按照得票多少依次递补。', '中央委员会全体会议由中央政治局召集，每年至少举行一次。中央政治局向中央委员会全体会议报告工作，接受监督。', '在全国代表大会闭会期间，中央委员会执行全国代表大会的决议，领导党的全部工作，对外代表中国共产党。', '第二十三条 党的中央政治局、中央政治局常务委员会和中央委员会总书记，由中央委员会全体会议选举。中央委员会总书记必须从中央政治局常务委员会委员中产生。', '中央书记处是中央政治局和它的常务委员会的办事机构；成员由中央政治局常务委员会提名，中央委员会全体会议通过。', '中央委员会总书记负责召集中央政治局会议和中央政治局常务委员会会议，并主持中央书记处的工作。', '每届中央委员会产生的中央领导机构和中央领导人，在下届全国代表大会开会期间，继续主持党的经常工作，直到下届中央委员会产生新的中央领导机构和中央领导人为止。', '第二十四条 中国人民解放军的党组织，根据中央委员会的指示进行工作。中央军事委员会负责军队中党的工作和政治工作，对军队中党的组织体制和机构作出规定。', '第二十五条 党的省、自治区、直辖市的代表大会，设区的市和自治州的代表大会，县（旗）、自治县、不设区的市和市辖区的代表大会，每五年举行一次。', '党的地方各级代表大会由同级党的委员会召集。在特殊情况下，经上一级委员会批准，可以提前或延期举行。', '党的地方各级代表大会代表的名额和选举办法，由同级党的委员会决定，并报上一级党的委员会批准。', '第二十七条 党的省、自治区、直辖市、设区的市和自治州的委员会，每届任期五年。这些委员会的委员和候补委员必须有五年以上的党龄。', '党的县（旗）、自治县、不设区的市和市辖区的委员会，每届任期五年。这些委员会的委员和候补委员必须有三年以上的党龄。', '党的地方各级委员会的委员和候补委员的名额，分别由上一级委员会决定。党的地方各级委员会委员出缺，由候补委员按照得票多少依次递补。', '党的地方各级委员会在代表大会闭会期间，执行上级党组织的指示和同级党代表大会的决议，领导本地方的工作，定期向上级党的委员会报告工作。', '第二十八条 党的地方各级委员会全体会议，选举常务委员会和书记、副书记，并报上级党的委员会批准。党的地方各级委员会的常务委员会，在委员会全体会议闭会期间，行使委员会职权；在下届代表大会开会期间，继续主持经常工作，直到新的常务委员会产生为止。', '第二十九条 党的地区委员会和相当于地区委员会的组织，是党的省、自治区委员会在几个县、自治县、市范围内派出的代表机关。它根据省、自治区委员会的授权，领导本地区的工作。', '第三十条 企业、农村、机关、学校、医院、科研院所、街道社区、社会组织、人民解放军连队和其他基层单位，凡是有正式党员三人以上的，都应当成立党的基层组织。', '党的基层组织，根据工作需要和党员人数，经上级党组织批准，分别设立党的基层委员会、总支部委员会、支部委员会。基层委员会由党员大会或代表大会选举产生，总支部委员会和支部委员会由党员大会选举产生，提出委员候选人要广泛征求党员和群众的意见。', '第三十一条 党的基层委员会、总支部委员会、支部委员会每届任期三年至五年。基层委员会、总支部委员会、支部委员会的书记、副书记选举产生后，应报上级党组织批准。', '第三十二条 党的基层组织是党在社会基层组织中的战斗堡垒，是党的全部工作和战斗力的基础。它的基本任务是：', '（一）宣传和执行党的路线、方针、政策，宣传和执行党中央、上级组织和本组织的决议，充分发挥党员的先锋模范作用，积极创先争优，团结、组织党内外的干部和群众，努力完成本单位所担负的任务。', '（二）组织党员认真学习马克思列宁主义、毛泽东思想、邓小平理论、“三个代表”重要思想、科学发展观、习近平新时代中国特色社会主义思想，推进“两学一做”学习教育、党史学习教育常态化制度化，学习党的路线、方针、政策和决议，学习党的基本知识，学习科学、文化、法律和业务知识。', '（三）对党员进行教育、管理、监督和服务，提高党员素质，坚定理想信念，增强党性，严格党的组织生活，开展批评和自我批评，维护和执行党的纪律，监督党员切实履行义务，保障党员的权利不受侵犯。加强和改进流动党员管理。', '（四）密切联系群众，经常了解群众对党员、党的工作的批评和意见，维护群众的正当权利和利益，做好群众的思想政治工作。', '（五）充分发挥党员和群众的积极性创造性，发现、培养和推荐他们中间的优秀人才，鼓励和支持他们在改革开放和社会主义现代化建设中贡献自己的聪明才智。', '（六）对要求入党的积极分子进行教育和培养，做好经常性的发展党员工作，重视在生产、工作第一线和青年中发展党员。', '（七）监督党员干部和其他任何工作人员严格遵守国家法律法规，严格遵守国家的财政经济法规和人事制度，不得侵占国家、集体和群众的利益。', '第三十三条 街道、乡、镇党的基层委员会和村、社区党组织，统一领导本地区基层各类组织和各项工作，加强基层社会治理，支持和保证行政组织、经济组织和群众性自治组织充分行使职权。', '国有企业党委（党组）发挥领导作用，把方向、管大局、保落实，依照规定讨论和决定企业重大事项。国有企业和集体企业中党的基层组织，围绕企业生产经营开展工作。保证监督党和国家的方针、政策在本企业的贯彻执行；支持股东会、董事会、监事会和经理（厂长）依法行使职权；全心全意依靠职工群众，支持职工代表大会开展工作；参与企业重大问题的决策；加强党组织的自身建设，领导思想政治工作、精神文明建设、统一战线工作和工会、共青团、妇女组织等群团组织。', '非公有制经济组织中党的基层组织，贯彻党的方针政策，引导和监督企业遵守国家的法律法规，领导工会、共青团等群团组织，团结凝聚职工群众，维护各方的合法权益，促进企业健康发展。', '社会组织中党的基层组织，宣传和执行党的路线、方针、政策，领导工会、共青团等群团组织，教育管理党员，引领服务群众，推动事业发展。', '实行行政领导人负责制的事业单位中党的基层组织，发挥战斗堡垒作用。实行党委领导下的行政领导人负责制的事业单位中党的基层组织，对重大问题进行讨论和作出决定，同时保证行政领导人充分行使自己的职权。', '各级党和国家机关中党的基层组织，协助行政负责人完成任务，改进工作，对包括行政负责人在内的每个党员进行教育、管理、监督，不领导本单位的业务工作。', '第三十四条 党支部是党的基础组织，担负直接教育党员、管理党员、监督党员和组织群众、宣传群众、凝聚群众、服务群众的职责。', '第三十五条 党的干部是党的事业的骨干，是人民的公仆，要做到忠诚干净担当。党按照德才兼备、以德为先的原则选拔干部，坚持五湖四海、任人唯贤，坚持事业为上、公道正派，反对任人唯亲，努力实现干部队伍的革命化、年轻化、知识化、专业化。', '党重视教育、培训、选拔、考核和监督干部，特别是培养、选拔优秀年轻干部。积极推进干部制度改革。', '第三十六条 党的各级领导干部必须信念坚定、为民服务、勤政务实、敢于担当、清正廉洁，模范地履行本章程第三条所规定的党员的各项义务，并且必须具备以下的基本条件：', '（一）具有履行职责所需要的马克思列宁主义、毛泽东思想、邓小平理论、“三个代表”重要思想、科学发展观的水平，带头贯彻落实习近平新时代中国特色社会主义思想，努力用马克思主义的立场、观点、方法分析和解决实际问题，坚持讲学习、讲政治、讲正气，经得起各种风浪的考验。', '（二）具有共产主义远大理想和中国特色社会主义坚定信念，坚决执行党的基本路线和各项方针、政策，立志改革开放，献身现代化事业，在社会主义建设中艰苦创业，树立正确政绩观，做出经得起实践、人民、历史检验的实绩。', '（三）坚持解放思想，实事求是，与时俱进，开拓创新，认真调查研究，能够把党的方针、政策同本地区、本部门的实际相结合，卓有成效地开展工作，讲实话，办实事，求实效。', '（四）有强烈的革命事业心和政治责任感，有实践经验，有胜任领导工作的组织能力、文化水平和专业知识。', '（五）正确行使人民赋予的权力，坚持原则，依法办事，清正廉洁，勤政为民，以身作则，艰苦朴素，密切联系群众，坚持党的群众路线，自觉地接受党和群众的批评和监督，加强道德修养，讲党性、重品行、作表率，做到自重、自省、自警、自励，反对形式主义、官僚主义、享乐主义和奢靡之风，反对特权思想和特权现象，反对任何滥用职权、谋求私利的行为。', '（六）坚持和维护党的民主集中制，有民主作风，有全局观念，善于团结同志，包括团结同自己有不同意见的同志一道工作。', '第三十七条 党员干部要善于同党外干部合作共事，尊重他们，虚心学习他们的长处。', '党的各级组织要善于发现和推荐有真才实学的党外干部担任领导工作，保证他们有职有权，充分发挥他们的作用。', '第三十八条 党的各级领导干部，无论是由民主选举产生的，或是由领导机关任命的，他们的职务都不是终身的，都可以变动或解除。', '第三十九条 党的纪律是党的各级组织和全体党员必须遵守的行为规则，是维护党的团结统一、完成党的任务的保证。党组织必须严格执行和维护党的纪律，共产党员必须自觉接受党的纪律的约束。', '第四十条 党的纪律主要包括政治纪律、组织纪律、廉洁纪律、群众纪律、工作纪律、生活纪律。', '坚持惩前毖后、治病救人，执纪必严、违纪必究，抓早抓小、防微杜渐，按照错误性质和情节轻重，给以批评教育、责令检查、诫勉直至纪律处分。运用监督执纪“四种形态”，让“红红脸、出出汗”成为常态，党纪处分、组织调整成为管党治党的重要手段，严重违纪、严重触犯刑律的党员必须开除党籍。', '党内严格禁止用违反党章和国家法律的手段对待党员，严格禁止打击报复和诬告陷害。违反这些规定的组织或个人必须受到党的纪律和国家法律的追究。', '第四十一条 对党员的纪律处分有五种：警告、严重警告、撤销党内职务、留党察看、开除党籍。', '留党察看最长不超过两年。党员在留党察看期间没有表决权、选举权和被选举权。党员经过留党察看，确已改正错误的，应当恢复其党员的权利；坚持错误不改的，应当开除党籍。', '开除党籍是党内的最高处分。各级党组织在决定或批准开除党员党籍的时候，应当全面研究有关的材料和意见，采取十分慎重的态度。', '第四十二条 对党员的纪律处分，必须经过支部大会讨论决定，报党的基层委员会批准；如果涉及的问题比较重要或复杂，或给党员以开除党籍的处分，应分别不同情况，报县级或县级以上党的纪律检查委员会审查批准。在特殊情况下，县级和县级以上各级党的委员会和纪律检查委员会有权直接决定给党员以纪律处分。', '对党的中央委员会委员、候补委员，给以警告、严重警告处分，由中央纪律检查委员会常务委员会审议后，报党中央批准。对地方各级党的委员会委员、候补委员，给以警告、严重警告处分，应由上一级纪律检查委员会批准，并报它的同级党的委员会备案。', '对党的中央委员会和地方各级委员会的委员、候补委员，给以撤销党内职务、留党察看或开除党籍的处分，必须由本人所在的委员会全体会议三分之二以上的多数决定。在全体会议闭会期间，可以先由中央政治局和地方各级委员会常务委员会作出处理决定，待召开委员会全体会议时予以追认。对地方各级委员会委员和候补委员的上述处分，必须经过上级纪律检查委员会常务委员会审议，由这一级纪律检查委员会报同级党的委员会批准。', '第四十三条 党组织对党员作出处分决定，应当实事求是地查清事实。处分决定所依据的事实材料和处分决定必须同本人见面，听取本人说明情况和申辩。如果本人对处分决定不服，可以提出申诉，有关党组织必须负责处理或者迅速转递，不得扣压。对于确属坚持错误意见和无理要求的人，要给以批评教育。', '对于严重违犯党的纪律、本身又不能纠正的党组织，上一级党的委员会在查明核实后，应根据情节严重的程度，作出进行改组或予以解散的决定，并报再上一级党的委员会审查批准，正式宣布执行。', '第四十五条 党的中央纪律检查委员会在党的中央委员会领导下进行工作。党的地方各级纪律检查委员会和基层纪律检查委员会在同级党的委员会和上级纪律检查委员会双重领导下进行工作。上级党的纪律检查委员会加强对下级纪律检查委员会的领导。', '党的中央纪律检查委员会全体会议，选举常务委员会和书记、副书记，并报党的中央委员会批准。党的地方各级纪律检查委员会全体会议，选举常务委员会和书记、副书记，并由同级党的委员会通过，报上级党的委员会批准。党的基层委员会是设立纪律检查委员会，还是设立纪律检查委员，由它的上一级党组织根据具体情况决定。党的总支部委员会和支部委员会设纪律检查委员。', '党的中央和地方纪律检查委员会向同级党和国家机关全面派驻党的纪律检查组，按照规定向有关国有企业、事业单位派驻党的纪律检查组。纪律检查组组长参加驻在单位党的领导组织的有关会议。他们的工作必须受到该单位党的领导组织的支持。', '第四十六条 党的各级纪律检查委员会是党内监督专责机关，主要任务是：维护党的章程和其他党内法规，检查党的路线、方针、政策和决议的执行情况，协助党的委员会推进全面从严治党、加强党风建设和组织协调反腐败工作，推动完善党和国家监督体系。', '党的各级纪律检查委员会的职责是监督、执纪、问责，要经常对党员进行遵守纪律的教育，作出关于维护党纪的决定；对党的组织和党员领导干部履行职责、行使权力进行监督，受理处置党员群众检举举报，开展谈话提醒、约谈函询；检查和处理党的组织和党员违反党的章程和其他党内法规的比较重要或复杂的案件，决定或取消对这些案件中的党员的处分；进行问责或提出责任追究的建议；受理党员的控告和申诉；保障党员的权利。', '各级纪律检查委员会要把处理特别重要或复杂的案件中的问题和处理的结果，向同级党的委员会报告。党的地方各级纪律检查委员会和基层纪律检查委员会要同时向上级纪律检查委员会报告。', '各级纪律检查委员会发现同级党的委员会委员有违犯党的纪律的行为，可以先进行初步核实，如果需要立案检查的，应当在向同级党的委员会报告的同时向上一级纪律检查委员会报告；涉及常务委员的，报告上一级纪律检查委员会，由上一级纪律检查委员会进行初步核实，需要审查的，由上一级纪律检查委员会报它的同级党的委员会批准。', '第四十七条 上级纪律检查委员会有权检查下级纪律检查委员会的工作，并且有权批准和改变下级纪律检查委员会对于案件所作的决定。如果所要改变的该下级纪律检查委员会的决定，已经得到它的同级党的委员会的批准，这种改变必须经过它的上一级党的委员会批准。', '党的地方各级纪律检查委员会和基层纪律检查委员会如果对同级党的委员会处理案件的决定有不同意见，可以请求上一级纪律检查委员会予以复查；如果发现同级党的委员会或它的成员有违犯党的纪律的情况，在同级党的委员会不给予解决或不给予正确解决的时候，有权向上级纪律检查委员会提出申诉，请求协助处理。', '第四十八条 在中央和地方国家机关、人民团体、经济组织、文化组织和其他非党组织的领导机关中，可以成立党组。党组发挥领导作用。党组的任务，主要是负责贯彻执行党的路线、方针、政策；加强对本单位党的建设的领导，履行全面从严治党责任；讨论和决定本单位的重大问题；做好干部管理工作；讨论和决定基层党组织设置调整和发展党员、处分党员等重要事项；团结党外干部和群众，完成党和国家交给的任务；领导机关和直属单位党组织的工作。', '第四十九条 党组的成员，由批准成立党组的党组织决定。党组设书记，必要时还可以设副书记。', '第五十条 在对下属单位实行集中统一领导的国家工作部门和有关单位的领导机关中，可以建立党委，党委的产生办法、职权和工作任务，由中央另行规定。', '第五十一条 中国共产主义青年团是中国共产党领导的先进青年的群团组织，是广大青年在实践中学习中国特色社会主义和共产主义的学校，是党的助手和后备军。共青团中央委员会受党中央委员会领导。共青团的地方各级组织受同级党的委员会领导，同时受共青团上级组织领导。', '第五十二条 党的各级委员会要加强对共青团的领导，注意团的干部的选拔和培训。党要坚决支持共青团根据广大青年的特点和需要，生动活泼地、富于创造性地进行工作，充分发挥团的突击队作用和联系广大青年的桥梁作用。', '团的县级和县级以下各级委员会书记，企业事业单位的团委员会书记，是党员的，可以列席同级党的委员会和常务委员会的会议。', '第五十五条 中国共产党的党徽党旗是中国共产党的象征和标志。党的各级组织和每一个党员都要维护党徽党旗的尊严。要按照规定制作和使用党徽党旗。', '李克强主持召开国务院常务会议 部署持续落实好稳经济一揽子政策和接续措施 推动经济进一步回稳向上等', '习近平：高举中国特色社会主义伟大旗帜 为全面建设社会主义现代化国家而团结奋斗——在中国共产党第二十次全国代表大会上的报告']</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A107" t="n">
+        <v>129</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
           <t>习近平瞻仰延安革命纪念地弘扬伟大建党精神和延安精神为实现党的二十大提出的目标任务而团结奋斗</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
+      <c r="E107" t="inlineStr">
         <is>
           <t>2022-10-28</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
+      <c r="F107" t="inlineStr">
         <is>
           <t>http://www.gov.cn/xinwen/2022-10/27/content_5722232.htm</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
+      <c r="G107" t="inlineStr">
         <is>
           <t>['习近平瞻仰延安革命纪念地：弘扬伟大建党精神和延安精神 为实现党的二十大提出的目标任务而团结奋斗_滚动新闻_中国政府网', '习近平瞻仰延安革命纪念地：弘扬伟大建党精神和延安精神 为实现党的二十大提出的目标任务而团结奋斗', '习近平在瞻仰延安革命纪念地时强调 弘扬伟大建党精神和延安精神 为实现党的二十大提出的目标任务而团结奋斗', '10月27日，中共中央总书记、国家主席、中央军委主席习近平带领中共中央政治局常委李强、赵乐际、王沪宁、蔡奇、丁薛祥、李希，瞻仰延安革命纪念地。这是习近平等在延安革命纪念馆，参观《伟大历程——中共中央在延安十三年历史陈列》。新华社记者 王晔 摄', '新华社延安10月27日电 党的二十大闭幕不到一周，中共中央总书记、国家主席、中央军委主席习近平带领中共中央政治局常委李强、赵乐际、王沪宁、蔡奇、丁薛祥、李希，专程从北京前往陕西延安，瞻仰延安革命纪念地，重温革命战争时期党中央在延安的峥嵘岁月，缅怀老一辈革命家的丰功伟绩，宣示新一届中央领导集体赓续红色血脉、传承奋斗精神，在新的赶考之路上向历史和人民交出新的优异答卷的坚定信念。习近平强调，要弘扬伟大建党精神，弘扬延安精神，坚定历史自信，增强历史主动，发扬斗争精神，为实现党的二十大提出的目标任务而团结奋斗。', '27日上午，习近平等集体乘车，来到位于延安城西北的杨家岭革命旧址。1938年11月，中共中央机关由凤凰山迁到杨家岭。在杨家岭期间，我们党召开了第七次全国代表大会，开展了延安整风运动，领导了中国人民抗日战争。', '10月27日，中共中央总书记、国家主席、中央军委主席习近平带领中共中央政治局常委李强、赵乐际、王沪宁、蔡奇、丁薛祥、李希，瞻仰延安革命纪念地。这是习近平在杨家岭瞻仰中共七大会址。新华社记者 燕雁 摄', '习近平等首先来到中共七大会址。1945年4月至6月党的七大在这里召开。我们党成立时只有50多名党员，到党的七大召开时已经拥有了121万名党员。习近平缓步瞻仰会场，他表示，党的七大在党的历史上具有重要里程碑意义，标志着我们党在政治上思想上组织上走向了成熟。在政治上，党通过延安整风，使全党团结在毛泽东的旗帜下，实现了党的空前统一和团结。在思想上，党确立了毛泽东思想在全党的指导地位，把毛泽东思想写入了党章。在组织上，党形成了一支高举毛泽东旗帜的久经考验的政治家集团。党的七大在党的历史上具有极其重要的地位，为党后来不断从胜利走向胜利指明了正确方向、开辟了正确道路。', '10月27日，中共中央总书记、国家主席、中央军委主席习近平带领中共中央政治局常委李强、赵乐际、王沪宁、蔡奇、丁薛祥、李希，瞻仰延安革命纪念地。这是习近平等在杨家岭参观毛泽东旧居。新华社记者 鞠鹏 摄', '随后，习近平等来到毛泽东等老一辈革命家旧居，重温老一辈革命家在杨家岭的革命经历，了解革命旧址保护情况。在延安时期，杨家岭是毛泽东居住时间最长的地方，著名的“窑洞对”就是在这里进行的。“窑洞对”的要义，是回答如何跳出治乱兴衰历史周期率、避免人亡政息、确保政权长期存在的问题。在“窑洞对”中，毛泽东同志给出了第一个答案，这就是让人民监督政府。党的十八大以来，以习近平同志为核心的党中央在全面从严治党的实践中给出了第二个答案，这就是党的自我革命。习近平指出，延安革命旧址见证了我们党在延安时期领导中国革命、探索马克思主义中国化时代化的光辉历程，是一本永远读不完的书，每次来都温故而知新，受到深刻教育和启示。要管理好、研究好，结合现实讲好杨家岭的故事、讲好党的七大的故事。', '10月27日，中共中央总书记、国家主席、中央军委主席习近平带领中共中央政治局常委李强、赵乐际、王沪宁、蔡奇、丁薛祥、李希，瞻仰延安革命纪念地。这是习近平等在杨家岭参观朱德旧居。新华社记者 燕雁 摄', '讲解员介绍了当年陕北人民在民歌《白马调》基础上创作和传唱歌曲《东方红》的过程，并现场作了演唱。习近平指出，这些歌颂党、歌颂毛主席的文艺作品都是人民群众自发创作的，充分说明人民选择了毛泽东，人民拥戴毛泽东。', '随后，习近平等集体乘车前往延安革命纪念馆，参观《伟大历程——中共中央在延安十三年历史陈列》。', '10月27日，中共中央总书记、国家主席、中央军委主席习近平带领中共中央政治局常委李强、赵乐际、王沪宁、蔡奇、丁薛祥、李希，瞻仰延安革命纪念地。这是习近平等在延安革命纪念馆，参观《伟大历程——中共中央在延安十三年历史陈列》。新华社记者 鞠鹏 摄', '从1935年到1948年，以延安为中心的陕甘宁边区是中共中央所在地，是中国人民抗日战争的政治指导中心和中国人民解放斗争的总后方。展览全面系统展示了党中央和毛泽东等老一辈革命家把马克思主义基本原理同中国革命具体实践相结合、在延安领导全国革命走向胜利的光辉历史。习近平等依次参观了“中共中央和红军长征的落脚点”、“中国人民抗日战争的政治指导中心”、“创建新民主主义的模范试验区”、“夺取全国胜利的出发点”、“延安精神永放光芒”等展览内容。习近平不时驻足观看，同大家一起缅怀党中央在延安时期的峥嵘岁月。', '10月27日，中共中央总书记、国家主席、中央军委主席习近平带领中共中央政治局常委李强、赵乐际、王沪宁、蔡奇、丁薛祥、李希，瞻仰延安革命纪念地。这是习近平等在延安革命纪念馆，参观《伟大历程——中共中央在延安十三年历史陈列》。新华社记者 燕雁 摄', '参观结束时，习近平发表重要讲话。他表示，延安是中国革命的圣地、新中国的摇篮。从1935年到1948年，党中央和毛泽东等老一辈革命家在延安生活和战斗了13年，领导中国革命事业从低潮走向高潮、实现历史性转折，扭转了中国前途命运。巍巍宝塔山，滚滚延河水。延安用五谷杂粮滋养了中国共产党发展壮大，支持了中国革命走向胜利。延安和延安人民为中国革命事业作出了巨大贡献，我们要永远铭记。', '习近平满怀深情地说，我在延安地区生活劳动了7年，我的父辈也是从这里走出去的，我对这里十分熟悉。当年在陕北插队的时候，每次路过延安，我都要来七大会址、杨家岭、枣园、凤凰山等革命旧址看一看。到中央工作后，先后3次来延安考察调研。这次和中央政治局常委同志一起来，就是要宣示新一届中央领导集体将继承和发扬延安时期党形成的优良革命传统和作风，弘扬延安精神。', '10月27日，中共中央总书记、国家主席、中央军委主席习近平带领中共中央政治局常委李强、赵乐际、王沪宁、蔡奇、丁薛祥、李希，瞻仰延安革命纪念地。这是习近平在延安革命纪念馆参观《伟大历程——中共中央在延安十三年历史陈列》结束时发表重要讲话。新华社记者 燕雁 摄', '习近平强调，在延安时期形成和发扬的光荣传统和优良作风，培育形成的以坚定正确的政治方向、解放思想实事求是的思想路线、全心全意为人民服务的根本宗旨、自力更生艰苦奋斗的创业精神为主要内容的延安精神，是党的宝贵精神财富，要代代传承下去。', '习近平指出，坚定正确的政治方向是延安精神的精髓。1938年，毛泽东同志在延安抗日军政大学回答“在抗大应当学习什么”时指出，“首先是学一个政治方向”。全党同志要坚持正确政治方向，坚决贯彻党的基本理论、基本路线、基本方略，坚决落实党中央决策部署，把老一辈革命家开创的伟大事业继续推向前进。', '习近平强调，延安时期，党提出全心全意为人民服务的根本宗旨并写入党章，强调共产党“这个队伍完全是为着解放人民的，是彻底地为人民的利益工作的”，要求党的干部“把屁股端端地坐在老百姓的这一面”，形成了“只见公仆不见官”的生动局面。全党同志要站稳人民立场，践行党的宗旨，贯彻党的群众路线，保持党同人民群众的血肉联系，自觉把以人民为中心的发展思想贯穿到各项工作之中，扎实推进共同富裕，让现代化建设成果更多更公平惠及全体人民。', '习近平指出，党中央和红军安家延安后，由于敌人的军事包围和经济封锁，条件十分艰苦。延安军民积极响应毛泽东同志发出的“自己动手、丰衣足食”号召，开展了热火朝天的大生产运动，有力支持了抗日前线。全党同志要大力弘扬自力更生、艰苦奋斗精神，无论我们将来物质生活多么丰富，自力更生、艰苦奋斗的精神一定不能丢，脚踏实地、苦干实干，集中精力办好自己的事情，把国家和民族发展放在自己力量的基点上。', '习近平强调，当年毛泽东同志等老一辈革命家在延安，住窑洞、吃粗粮、穿布衣，用“延安作风”打败了“西安作风”。全党同志要把老一辈革命家和共产党人留下的光荣传统和优良作风传承好发扬好，勇于推进党的自我革命，坚定不移推进全面从严治党，始终保持党的先进性和纯洁性，确保党始终成为中国特色社会主义事业的坚强领导核心。', '习近平指出，延安时期，党以顽强的斗争精神和高超的斗争本领，有力开展了抗击日本军国主义侵略的斗争，有力应对了西安事变、七七事变、重庆谈判等一系列重大挑战，有力领导和指挥了全国革命斗争，有力应对了国民党军队对陕甘宁边区的重点进攻，靠小米加步枪打开了中国革命新局面。全党同志要发扬斗争精神、提高斗争本领，坚决战胜前进道路上的各种困难和挑战，依靠顽强斗争打开事业发展新天地。', '习近平强调，党的二十大制定了当前和今后一个时期党和国家的大政方针，描绘了以中国式现代化全面推进中华民族伟大复兴的宏伟蓝图。让我们踏上新征程，向着新的奋斗目标，出发！', '临行时，习近平同在场的老党员以及老红军、老八路、烈士后代，党校干部学院教师及纪念馆工作人员等亲切交流，勉励大家弘扬革命精神，讲好党的故事，激励人们坚定不移听党话、跟党走，为实现中华民族伟大复兴中国梦而不懈奋斗。现场响起长时间热烈的掌声。', '党的二十大闭幕不到一周，中共中央总书记、国家主席、中央军委主席习近平带领中共中央政治局常委李强、赵乐际、王沪宁、蔡奇、丁薛祥、李希，专程从北京前往陕西延安，瞻仰延安革命纪念地，重温革命战争时期党中央在延安的峥嵘岁月，缅怀老一辈革命家的丰功伟绩，宣示新一届中央领导集体赓续红色血脉、传承奋斗精神，在新的赶考之路上向历史和人民交出新的优异答卷的坚定信念。习近平强调，要弘扬伟大建党精神，弘扬延安精神，坚定历史自信，增强历史主动，发扬斗争精神，为实现党的二十大提出的目标任务而团结奋斗。']</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A108" t="n">
+        <v>129</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
           <t>莱芜区为乡村振兴持续注入人才活水</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>2022-07-27</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2022/7/27/art_1861_4924214.html</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>['近年来，莱芜区坚持“选育管用”并重，全流程抓好乡村振兴工作专员管理培育工作，为乡村振兴持续注入人才“活水”，不断强化农村基层人才支撑。目前，全区在岗乡村振兴工作专员749名，行政村覆盖率达到95%。', '从严选拔，确保选得优。一方面严把准入关口。委托有资质的第三方公司具体负责选聘工作，区委组织部加强监督指导。参照事业单位招聘标准和流程，笔试考场设监考人员、流动监考人员和视频监考人员151名，电子监控全覆盖，实行异地阅卷;面试流程实行现场量化评分，全程公开透明，确保公平公正。另一方面创新选岗方式。结合考察、体检，增设预选岗环节，提前摸清考生意向，提高选聘工作效率。按照“分类开展、优先本村，高分先选、任职回避”的原则，“预选+正选”相结合，最大限度实现人岗相适、人事相宜。', '系统培养，确保育得强。加强业务培训。区、街(镇)举办业务培训班40余次，围绕政策理论、农村党建、廉政教育、乡村建设等基本方面，采取“讲座授课+实地观摩+撰写心得”方式，帮助提高业务水平，加强对工作专员知识能力的培养。抓好示范培训。遴选业务能力强、综合素质高的优秀乡村振兴工作专员代表110余人参加全市、全区示范培训班，通过学习有针对性的课程，打造工作专员队伍生力军，树立先进典型，形成示范效应。三是成立青春联盟。以街(镇)为单位成立14支“青春联盟”，及时传达上级政策要求，为乡村振兴工作专员提供经验分享、信息共享、政策学习的平台，畅通乡村振兴工作专员的舆情反馈机制，实现乡村振兴工作专员的自我管理、自我教育、自我服务、自我提升。', '提供平台，确保用得好。一方面强化一线锻炼。指导新任专员投身疫情防控一线，参与志愿服务1200余人次，协助组织核酸检测10万人次;引导新任专员参与“主题党日+阳光议事”活动、新时代文明实践宣讲、重点项目建设等，全面了解、参与村级工作，实现在一线锻炼成长。另一方面提供扶持资金。鼓励支持乡村振兴工作专员在村创业，发展壮大村集体经济。争取100万元创业扶持资金，鼓励支持工作专员领办创办合作社，创建“百小合”“青果驿站”“五彩苗山”等品牌，用创新创业激发青春活力。']</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A109" t="n">
+        <v>129</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
           <t>济南新旧动能转换起步区党工委会议召开</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>2022-08-09</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2022/8/9/art_1861_4925205.html</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>['8月8日上午，济南新旧动能转换起步区党工委会议召开。省委常委、市委书记、济南新旧动能转换起步区党工委书记刘强主持会议并讲话。', '会议学习贯彻习近平总书记在省部级主要领导干部“学习习近平总书记重要讲话精神，迎接党的二十大”专题研讨班、7月28日中央政治局会议、党外人士座谈会、中央政治局第四十一次集体学习、参观“领航强军向复兴——新时代国防和军队建设成就展”时的重要讲话精神。会议指出，习近平总书记在省部级主要领导干部专题研讨班上的重要讲话，为党的二十大胜利召开奠定了重要的政治基础、思想基础、理论基础。要结合工作实际认真学习领会，全面抓好贯彻落实。', '会议听取了起步区上半年工作情况汇报和下半年工作打算，与会人员结合外出学习考察情况谈了下步工作思路和举措。会议强调，今年以来，在省委、市委的坚强领导下，起步区各项工作迈出了新的步伐，谋划推进有成效、整体发展有进展、重点工作有突破。做好下半年工作，要充分认清形势、咬定目标，对标先进地区，进一步增强加快建设发展的责任感紧迫感；要突出重点、强力突破，持续抓好规划编制、重点片区建设、产业谋划和导入、城市建设、生态环境保护、风险防控等工作，推动起步区加快成形起势；要扛牢责任、强化保障，深化体制机制改革，积极对上争取，勇于创新突破，强化管党治党，凝聚起加快建设起步区的强大合力，以优异成绩迎接党的二十大胜利召开。']</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A110" t="n">
+        <v>129</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
           <t>市委常委会召开会议</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>2022-07-19</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2022/7/19/art_1861_4923646.html</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
+      <c r="G110" t="inlineStr">
         <is>
           <t>['7月18日下午，市委常委会召开会议，学习贯彻习近平总书记在新疆考察时的重要讲话精神以及向世界互联网大会国际组织成立致贺信、给中国国家博物馆老专家的回信、给参加海峡青年论坛的台湾青年的回信精神，研究审议有关文件。', '会议指出，习近平总书记的重要讲话站位高远、思想深邃、内涵丰富，要深入学习领会，结合济南实际抓好贯彻落实。要牢牢把握正确政治方向，推动我市民族宗教工作不断取得新进展、开创新局面。要全面推进乡村振兴，推动实现农村更富裕、生活更幸福、乡村更美丽。要切实抓好文物和文化遗产保护，加快建设底蕴深厚的文化之城。要持续提升对外开放能级，实现高质量引进来和高水平走出去。要牢固树立大抓基层鲜明导向，把各领域基层党组织建设成为坚强战斗堡垒。要深化网络空间治理，让互联网更好造福市民群众。要深入贯彻习近平总书记关于疫情防控的重要指示要求，按照中央、省关于疫情防控的部署和要求，进一步优化四个“源头”的防控策略，充分发挥三个“探头”的作用，切实把各项防控措施落实到位；要认真做好“外防输入”，落实好境外入济人员、重点地区入济人员等有关防控管理措施；要提高核酸筛查质量，做好重点人群和社区常态化筛查工作；要压实“四方责任”，筑牢疫情防控防线。', '会议审议了《济南市“十四五”医疗保障事业发展规划》，强调要坚持尽力而为、量力而行，持续提升我市医疗保障水平。', '会议听取了关于《纪检监察机关派驻机构工作规则》精神解读及我市贯彻落实意见的汇报，强调要抓好规则的学习宣传和贯彻落实，认真做好新时代派驻监督工作。']</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A111" t="n">
+        <v>129</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
           <t>习近平在新疆考察时强调完整准确贯彻新时代党的治疆方略建设团结和谐繁荣富裕文明进步安居乐业生态良好的美好新疆</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>2022-07-16</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>http://www.gov.cn/xinwen/2022-07/15/content_5701239.htm</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
+      <c r="G111" t="inlineStr">
         <is>
           <t>['习近平在新疆考察时强调：完整准确贯彻新时代党的治疆方略 建设团结和谐繁荣富裕文明进步安居乐业生态良好的美好新疆_滚动新闻_中国政府网', '习近平在新疆考察时强调：完整准确贯彻新时代党的治疆方略 建设团结和谐繁荣富裕文明进步安居乐业生态良好的美好新疆', '习近平在新疆考察时强调 完整准确贯彻新时代党的治疆方略 建设团结和谐繁荣富裕文明进步安居乐业生态良好的美好新疆', '7月12日至15日，中共中央总书记、国家主席、中央军委主席习近平在新疆考察。这是13日上午，习近平在乌鲁木齐市天山区固原巷社区考察时，向各族群众挥手致意。新华社记者 李学仁 摄', '新华社乌鲁木齐7月15日电 中共中央总书记、国家主席、中央军委主席习近平近日来到新疆考察调研，看望慰问各族干部群众。习近平强调，要坚决贯彻党中央决策部署，完整准确贯彻新时代党的治疆方略，牢牢扭住社会稳定和长治久安总目标，坚持稳中求进工作总基调，全面深化改革开放，推动高质量发展，统筹疫情防控和经济社会发展，统筹发展和安全，在新时代新征程上奋力建设团结和谐、繁荣富裕、文明进步、安居乐业、生态良好的美好新疆。', '7月12日至15日，习近平在新疆维吾尔自治区党委书记马兴瑞、自治区政府主席艾尔肯·吐尼亚孜陪同下，先后来到乌鲁木齐、石河子、吐鲁番等地，深入学校、国际陆港区、社区、博物馆、农村和新疆生产建设兵团等进行调研。', '7月12日至15日，中共中央总书记、国家主席、中央军委主席习近平在新疆考察。这是14日，习近平在吐鲁番市高昌区亚尔镇新城片区新城西门村考察时，同各族群众在一起。新华社记者 李学仁 摄', '12日下午，习近平首先来到新疆大学考察调研。习近平参观了校史馆和铸牢中华民族共同体意识研究基地，详细了解学校历史沿革和建设、加强人才培养、促进民族交往等情况，听取调研归来的学生谈收获。习近平指出，我国是统一的多民族国家，中华民族多元一体是我国的一个显著特征。我们创造性地把马克思主义民族理论同中国民族问题具体实际相结合，确立了以民族平等、民族团结、民族区域自治、各民族共同繁荣发展为主要内容的民族理论和民族政策，各民族在社会主义制度下实现了真正意义上的平等团结进步。我们的民族理论和政策是好的、管用的。要坚持走中国特色解决民族问题的正确道路，不断丰富和发展新时代党的民族理论，推进中华民族共同体基础性问题研究。各民族大团结的中国一定是无往而不胜的，一定是有着光明未来的，我们的第二个百年奋斗目标必然会胜利实现，中华民族伟大复兴必然会到来。', '7月12日至15日，中共中央总书记、国家主席、中央军委主席习近平在新疆考察。这是12日下午，习近平在新疆大学考察时，同师生们亲切交流。新华社记者 李学仁 摄', '习近平强调，育人的根本在于立德。要坚持社会主义办学方向，培养德智体美劳全面发展的社会主义建设者和接班人。要突出优势特色，打造高水平师资队伍，提升科研创新能力，推动新疆大学“双一流”建设不断迈上新台阶。希望同学们做为中国特色社会主义、为中华民族努力奋斗的一代青年。', '7月12日至15日，中共中央总书记、国家主席、中央军委主席习近平在新疆考察。这是12日下午，习近平在乌鲁木齐国际陆港区，同工作人员及现场办事人员亲切交流。新华社记者 谢环驰 摄', '随后，习近平来到乌鲁木齐国际陆港区，听取有关情况介绍，通过实时画面察看中欧班列（乌鲁木齐）集结中心各功能区和阿拉山口口岸、霍尔果斯口岸现场作业情况，并同铁路货运窗口工作人员及现场办事人员亲切交流。习近平强调，随着我国扩大对外开放、西部大开发、共建“一带一路”等深入推进，新疆从相对封闭的内陆变成对外开放的前沿，要推进丝绸之路经济带核心区建设，把新疆的区域性开放战略纳入国家向西开放的总体布局中，创新开放型经济体制，加快建设对外开放大通道，更好利用国际国内两个市场、两种资源，积极服务和融入新发展格局。习近平叮嘱当地负责同志，要坚持“外防输入、内防反弹”，坚持“动态清零”，防疫工作要力求精准、力求方便群众。', '7月12日至15日，中共中央总书记、国家主席、中央军委主席习近平在新疆考察。这是13日上午，习近平在乌鲁木齐市天山区固原巷社区少儿阅览室，观看儿童中华优秀传统文化知识表演。新华社记者 燕雁 摄', '13日上午，习近平来到乌鲁木齐市天山区固原巷社区。该社区少数民族居民占95%以上。习近平走进党群服务中心大厅、爱心之家、舞蹈室、少儿阅览室，同社区居民亲切交流。习近平饶有兴致观看儿童中华优秀传统文化知识表演，他指出，中华优秀传统文化教育抓早抓小、久久为功、潜移默化、耳濡目染，有利于夯实传承中华优秀传统文化的根基。在维吾尔族居民阿布来提·吐尔逊家中，习近平仔细察看客厅、卧室、厨房等，同一家人围坐在一起拉家常。习近平强调，民族团结是我国各民族人民的生命线，新疆各民族都是中华民族大家庭不可分割的成员，要格外珍惜安定团结的大好局面，56个民族拧成一股绳，保持定力、脚踏实地，同心协力、踔厉奋发，在党的领导下为实现第二个百年奋斗目标继续奋斗。习近平指出，社区工作连着千家万户，要充分发挥社区基层党组织的战斗堡垒作用，把工作重心下沉，紧贴各族居民所思所想所盼，帮助大家办好事、办实事、解难题，促进各族群众手足相亲、守望相助，共建美好家园、共创美好未来。', '7月12日至15日，中共中央总书记、国家主席、中央军委主席习近平在新疆考察。这是13日上午，习近平在乌鲁木齐市天山区固原巷社区，同维吾尔族居民阿布来提·吐尔逊一家人围坐在一起拉家常。新华社记者 谢环驰 摄', '离开社区时，身着民族服装的各族群众载歌载舞，向总书记表达由衷的爱戴。习近平祝福大家事业欣欣向荣、生活越来越幸福。', '7月12日至15日，中共中央总书记、国家主席、中央军委主席习近平在新疆考察。这是13日上午，习近平在乌鲁木齐市天山区固原巷社区考察时，同各族群众在一起。新华社记者 谢环驰 摄', '随后，习近平来到新疆维吾尔自治区博物馆，参观《新疆历史文物展》，观看民族史诗《玛纳斯》说唱展示，并同《玛纳斯》非物质文化遗产传承人亲切交谈。习近平指出，中华文明博大精深、源远流长，是由各民族优秀文化百川汇流而成。要加强中华民族共同体历史、中华民族多元一体格局的研究，充分挖掘和有效运用新疆各民族交往的历史事实、考古实物、文化遗存，讲清楚新疆自古以来就是我国不可分割的一部分和多民族聚居地区，新疆各民族是中华民族大家庭血脉相连、命运与共的重要成员。要加强非物质文化遗产保护传承，把各民族优秀传统文化发扬光大。', '7月12日至15日，中共中央总书记、国家主席、中央军委主席习近平在新疆考察。这是13日上午，习近平在乌鲁木齐市新疆维吾尔自治区博物馆，同《玛纳斯》非物质文化遗产传承人在一起。新华社记者 谢环驰 摄', '13日下午，习近平来到新疆生产建设兵团八师石河子市，参观新疆兵团军垦博物馆。在博物馆一层大厅，习近平会见了兵团老中青三代建设者代表。他强调，新疆生产建设兵团为推动新疆发展、增进民族团结、维护社会稳定、巩固国家边防作出了不可磨灭的贡献。兵团人铸就的热爱祖国、无私奉献、艰苦创业、开拓进取的兵团精神，是中国共产党人精神谱系的重要组成部分，要用好这些宝贵财富。', '7月12日至15日，中共中央总书记、国家主席、中央军委主席习近平在新疆考察。这是13日下午，习近平在新疆生产建设兵团八师石河子市新疆兵团军垦博物馆，会见兵团老中青三代建设者代表。新华社记者 李学仁 摄', '随后，习近平乘车前往八师一四三团考察调研。在农一连棉花种植基地，习近平走进田间，察看棉花长势，向正在田间劳作的种植户、农技人员询问棉花种植、销售和家庭收入等情况。在九连蟠桃种植园，习近平对这些年连队鼓励和支持职工发展种植养殖业、生态观光旅游和农家乐产业，增加职工收入的做法表示赞许。习近平指出，兵团农业机械化程度高，农业规模化生产、产业化经营条件好，在粮棉油、果蔬生产等方面优势明显，要在保障我国粮食安全和重要农产品供给方面发挥更大作用。要落实好党中央支持兵团发展的政策，发挥兵团优势，强化农业科技和装备支撑，因地制宜发展优势农产品、壮大优势产业，促进农牧业绿色高效发展。', '7月12日至15日，中共中央总书记、国家主席、中央军委主席习近平在新疆考察。这是13日下午，习近平在新疆生产建设兵团八师一四三团农一连棉花种植基地考察。新华社记者 谢环驰 摄', '在一四三团花园镇广场上，习近平同兵团干部群众亲切交谈。他强调，兵团的战略作用不可替代。要加快推进兵团改革，深化兵地融合，打造城乡和谐的田园式家园，充分发挥兵团作为安边固疆稳定器、凝聚各族群众大熔炉、发展先进生产力和先进文化示范区的功能和作用，努力形成新时代兵团维稳戍边新优势。', '7月12日至15日，中共中央总书记、国家主席、中央军委主席习近平在新疆考察。这是14日，习近平在吐鲁番市葡萄沟考察时，同游客亲切交流。新华社记者 李学仁 摄', '14日，习近平来到吐鲁番市考察调研。在葡萄沟，习近平察看吐鲁番特色水果展示，了解当地发展葡萄特色产业、促进文旅融合发展等情况。习近平强调，吐鲁番美丽富饶、瓜果飘香，这是大自然的馈赠。要正确处理经济社会发展和生态环境保护的关系，推动文化和旅游融合发展，打造富民产业。', '7月12日至15日，中共中央总书记、国家主席、中央军委主席习近平在新疆考察。这是14日，习近平在吐鲁番市高昌区亚尔镇新城片区新城西门村党群服务中心医务室考察。新华社记者 燕雁 摄', '习近平随后来到高昌区亚尔镇新城片区新城西门村，先后考察党群服务中心、农产品加工企业。村广场上，村民们看到总书记来了，欢呼着围拢过来，高声向总书记问好。习近平指出，全面建设社会主义现代化国家，一个民族都不能少。要巩固拓展好脱贫攻坚成果，扎实推进乡村振兴，推动实现农村更富裕、生活更幸福、乡村更美丽。习近平祝愿乡亲们的日子越来越红火、孩子们茁壮成长。', '7月12日至15日，中共中央总书记、国家主席、中央军委主席习近平在新疆考察。这是14日，习近平在吐鲁番市高昌区亚尔镇新城片区新城西门村村广场，同村民们亲切交流。新华社记者 李学仁 摄', '在吐鲁番市，习近平还考察了世界文化遗产交河故城。交河故城是世界上保存最完整、延续时间最长、规模最大的生土结构古代建筑城市。习近平强调，交河故城是丝绸之路的交通要道，是中华五千多年文明史上的一个重要见证，有重要史学价值。要加强文物保护利用和文化遗产保护传承，不断扩大中华文化国际影响力，增强民族自豪感、文化自信心。', '15日上午，习近平听取了新疆自治区党委和政府、新疆生产建设兵团工作汇报，对新疆各项工作取得的成绩给予肯定，希望自治区党委和政府团结带领广大干部群众，同心协力，砥砺前进，扎实做好新疆各项工作。', '习近平指出，要聚焦新疆工作总目标，推动事关长治久安的根本性、基础性、长远性工作。要不断探索全面贯彻新时代党的治疆方略的有效办法，把党中央要求落实到实际行动上和工作成效上，确保新疆工作始终沿着正确方向前进。新疆保持长期稳定最重要的在于人心。要坚持团结一致向前看，最大限度发挥广大干部群众在保稳定、谋发展、促改革中的积极作用，注意倾听社会各界意见。要推动维稳工作法治化常态化。要多层次、全方位、立体式开展涉疆对外宣传，完善“请进来”工作，讲好中国新疆故事。', '习近平强调，要铸牢中华民族共同体意识，促进各民族交往交流交融。中华文明是新疆各民族文化的根脉所在。要教育引导广大干部群众正确认识新疆历史特别是民族发展史，树牢中华民族历史观，铸牢中国心、中华魂，特别是要深入推进青少年“筑基”工程，构筑中华民族共有精神家园。要推动各族群众逐步实现在空间、文化、经济、社会、心理等方面的全方位嵌入，促进各民族像石榴籽一样紧紧抱在一起。', '7月12日至15日，中共中央总书记、国家主席、中央军委主席习近平在新疆考察。这是12日下午，习近平在新疆大学铸牢中华民族共同体意识研究基地，同师生亲切交流。新华社记者 李学仁 摄', '习近平指出，要提升宗教事务治理能力，实现宗教健康发展。要更好坚持伊斯兰教中国化方向，使宗教与社会主义社会相适应。要培养一支精通马克思主义宗教观、熟悉宗教工作、善于做信教群众工作的党政干部队伍，培养一支政治上靠得住、宗教上有造诣、品德上能服众、关键时起作用的宗教界代表人士队伍，培养一支思想政治坚定、坚持马克思主义宗教观、学风优良、善于创新的宗教学研究队伍。要保障信教群众正常宗教需求，把信教群众牢牢团结在党和政府周围。', '7月12日至15日，中共中央总书记、国家主席、中央军委主席习近平在新疆考察。这是13日上午，习近平在乌鲁木齐市天山区固原巷社区考察时，同各族群众亲切交流。新华社记者 谢环驰 摄', '习近平指出，要以增强认同为目标，深入开展文化润疆。文化认同是最深层次的认同。要端正历史文化认知，突出中华文化特征和中华民族视觉形象。要多角度全方位构建展现中华文化共同性、新疆同内地各民族交往交流交融历史事实的话语体系和有效载体，让中华文化通过实物实景实事得到充分展现、直抵人心，教育引导各族群众树立正确的国家观、历史观、民族观、文化观、宗教观，增进对伟大祖国、中华民族、中华文化、中国共产党、中国特色社会主义的认同。', '7月12日至15日，中共中央总书记、国家主席、中央军委主席习近平在新疆考察。这是13日上午，习近平在乌鲁木齐市新疆维吾尔自治区博物馆参观《新疆历史文物展》。新华社记者 李学仁 摄', '习近平强调，要深刻认识发展和稳定、发展和民生、发展和人心的紧密联系，推动发展成果惠及民生、凝聚人心。要加快经济高质量发展，培育壮大特色优势产业，增强吸纳就业能力。要把巩固脱贫攻坚成果同乡村振兴有效衔接起来，健全乡村可持续发展长效机制。要坚持山水林田湖草沙一体化保护和系统治理，推进生态优先、绿色发展，深入打好污染防治攻坚战，严守生态保护红线。要加大对外开放力度，打造向西开放的桥头堡，推进丝绸之路经济带核心区建设。', '7月12日至15日，中共中央总书记、国家主席、中央军委主席习近平在新疆考察。这是14日，习近平在吐鲁番市高昌区亚尔镇新城片区新城西门村农产品加工企业考察。新华社记者 谢环驰 摄', '习近平指出，要坚持全面从严治党，切实抓好高素质干部队伍建设。要坚持严的主基调，以党的政治建设为统领推进党的各方面建设，严肃政治纪律和政治规矩。要巩固拓展党史学习教育成果，教育引导广大党员、干部坚定理想信念，传承红色基因，赓续红色血脉。要夯实基层基础，把各领域基层党组织建设成为坚强战斗堡垒。要切实改进基层工作作风，坚决克服官僚主义、形式主义。要优化党政领导班子结构，注重发挥少数民族干部作用。', '习近平强调，兵团要适应新形势新要求，在实现新疆工作总目标中发挥更大作用。要坚持兵地一盘棋，重大基础设施同步建设，全面推进兵地经济、社会、文化、生态文明建设和民族团结进步、干部人才等方面的融合发展，实现设施共建、资源共享、深度嵌入、优势互补。', '7月12日至15日，中共中央总书记、国家主席、中央军委主席习近平在新疆考察。这是13日下午，习近平在新疆生产建设兵团八师一四三团九连蟠桃种植园考察。新华社记者 谢环驰 摄', '习近平指出，做好新疆工作事关大局，是全党全国的大事。全党都要站在战略和全局高度认识新疆工作的重要性，加大对口援疆工作力度，完善对口援疆工作机制，共同把新疆的工作做好，以实际行动迎接党的二十大胜利召开。', '汇报会前，习近平分别会见了新疆维吾尔自治区及有关部门、各地市负责同志及老同志代表，新疆生产建设兵团领导班子成员及有关方面负责同志，各族各界代表，援疆干部代表，政法干警代表，宗教界爱国人士代表。习近平代表党中央向奋斗在天山南北的广大同志们致以诚挚问候。', '7月15日上午，习近平在乌鲁木齐亲切接见了驻新疆部队官兵代表。习近平向驻新疆部队全体同志致以诚挚的问候，对驻新疆部队为强边固防、稳疆兴疆作出的突出贡献给予充分肯定。他强调，要贯彻新时代党的强军思想，贯彻新时代军事战略方针，为促进新疆社会稳定和长治久安积极贡献力量。', '7月12日至15日，中共中央总书记、国家主席、中央军委主席习近平在新疆考察。这是15日上午，习近平在乌鲁木齐亲切接见驻新疆部队官兵代表，向驻新疆部队全体指战员致以诚挚的问候，对驻新疆部队作出的突出贡献给予充分肯定。新华社记者 李刚 摄', '15日下午，习近平离疆返京时，各族群众在道路旁热烈欢送总书记，欢呼声和掌声经久不息。', '中共中央总书记、国家主席、中央军委主席习近平近日来到新疆考察调研，看望慰问各族干部群众。习近平强调，要坚决贯彻党中央决策部署，完整准确贯彻新时代党的治疆方略，牢牢扭住社会稳定和长治久安总目标，坚持稳中求进工作总基调，全面深化改革开放，推动高质量发展，统筹疫情防控和经济社会发展，统筹发展和安全，在新时代新征程上奋力建设团结和谐、繁荣富裕、文明进步、安居乐业、生态良好的美好新疆。']</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A112" t="n">
+        <v>129</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
           <t>德州市党政代表团到济南考察</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
+      <c r="E112" t="inlineStr">
         <is>
           <t>2022-07-26</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2022/7/26/art_1861_4924089.html</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
+      <c r="G112" t="inlineStr">
         <is>
           <t>['7月25日下午，德州市党政代表团到济南考察交流，对接有关工作。省委常委、济南市委书记刘强，市委副书记、市长于海田和德州市委书记、市人大常委会主任田卫东，市委副书记、市长朱开国参加活动。', '在济南新旧动能转换起步区，德州市党政代表团一行先后到中科新经济科创园、起步区城市展厅考察，详细了解科创园、起步区规划建设情况。在随后召开的济南市-德州市一体化发展合作推进会上，双方围绕济南都市圈建设、济德同城化发展等工作深入座谈交流。', '刘强对德州市长期以来给予济南市各方面的支持表示感谢。他说，近年来，德州市立足资源禀赋，深入贯彻新发展理念，加快产业发展和项目建设，推动经济社会高质量发展取得了显著成绩，探索出了一系列好经验、好做法，值得济南市学习借鉴。下一步，双方要深入贯彻黄河流域生态保护和高质量发展重大国家战略，全面落实省委、省政府工作部署和山东半岛城市群建设要求，进一步深化交流合作，共同推动济南都市圈规划建设。要在推动济南新旧动能转换起步区建设及其周边协同发展中加强工作衔接，确保合作走深走实。要进一步梳理细化重点合作领域，谋划实施一批合作项目，按照项目化、清单化推进，推动取得更多成果。要构建常态化合作机制，定期沟通交流，实现合作共赢，为山东“走在前、开新局”作出更大贡献。', '田卫东说，省委、省政府实施“强省会”战略以来，济南辐射带动作用日益增强，济德同城化取得积极成效。我们将抢抓“强省会”建设机遇，积极承接省会辐射，继续深入做好对接服务济南的工作，努力争当济南产业发展的“协作区”、对接京津冀的“桥头堡”、服务省会的“后厨房”、济南人力资源的“供应基地”和济南“后花园”，进一步为“强省会”战略实施贡献德州力量。', '推进会上，双方签署了《济南市与德州市共建济南新旧动能转换起步区德州联动区战略合作框架协议》。']</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A113" t="n">
+        <v>129</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
           <t>济南市人民政府研究室年度普法依法治理工作要点</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
+      <c r="E113" t="inlineStr">
         <is>
           <t>2022-06-30</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
+      <c r="F113" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2022/6/30/art_4371_4931337.html</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
+      <c r="G113" t="inlineStr">
         <is>
           <t>['《市政府研究室2022年度普法依法治理工作要点》已经室党组研究同意，现印发你们，请遵照执行。', '2022年普法依法治理工作总的要求是：坚持以习近平新时代中国特色社会主义思想为指导，深入学习贯彻习近平法治思想,学习贯彻习近平总书记视察山东重要讲话和重要指示批示精神，认真落实市委市政府关于普法依法治理工作的决策部署，结合研究室工作实际，服务增强全市经济社会发展创新力，推动普法依法治理工作深入发展，为迎接党的二十大胜利召开营造良好法治环境。', '坚持把学习宣传贯彻习近平法治思想作为首要政治任务，深入学习领会习近平法治思想的重大意义、丰富内涵、精神实质和实践要求，并结合贯彻落实党的十九大和十九届历次全会精神，深入学习“两个确立”的决定性意义，切实把习近平法治思想落实到普法依法治理工作全过程各方面。建立健全习近平法治思想学习机制，完善室党组理论学习中心组学法制度，每年至少开展2次法治专题学习；加强机关工作人员法律知识培训，提高干部职工的法律素养和工作能力。', '坚持将普法依法治理与文稿服务相结合，在起草《政府工作报告》、全市重要会议讲话等各类材料过程中，体现依法治市、依法行政的理念。扎实开展相关课题调研，结合新旧动能转换、疫情防控、社会治理、乡村振兴、行政执法、营商环境等重点热点问题，深入基层社区开展调查研究，力争形成一批普法依法治理工作的高质量研究成果。', '认真开展“宪法的力量--我在做”主题宣传活动，抓好“12·4”国家宪法日、宪法宣传周、法治宣传教育月等主题宣传活动,推动宪法由静态向动态转变。组织开展“美好生活·民法典相伴”、优化营商环境法治宣传月、“4·15”全民国家安全教育日等系列宣传活动，推进民法典等学习宣传常态化。', '严格落实《政府信息公开条例》，全面推进政务领域决策、执行、管理、服务、结果等公开，及时回应人民群众关切的问题。根据工作实际，继续制定完善各项规章制度，并对制度落实进行监督检查。加强规范性文件和制度的合法性审查，注重发挥法律顾问在法治建设中的咨询作用。', '全面贯彻落实市委市政府普法依法治理工作的决策部署，室党组每年至少专题研究1次法治建设相关工作。主要负责人作为法治建设第一责任人，把普法依法治理纳入年度工作规划，对重要工作亲自部署、重大问题亲自过问、重点环节亲自协调、重要任务亲自督办，做到普法依法治理工作与业务工作同部署、同检查、同落实。领导班子其他成员承担分管工作领域的普法依法治理工作。', '健全领导班子及成员学法用法述法考法、领导干部应知应会法律法规清单等制度，将领导班子及成员履行推进普法依法治理工作作为年终述职述法的重要内容。加强工作人员法治能力考查测试，坚持重视法治素养和法治能力的用人导向，把遵守法律、依法办事情况作为考察干部的重要内容，争创法治政府建设典型。']</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A114" t="n">
+        <v>129</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
           <t>济南市党政代表团到重庆武隆考察对接东西部协作工作</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
+      <c r="E114" t="inlineStr">
         <is>
           <t>2022-07-05</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
+      <c r="F114" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2022/7/5/art_1861_4921595.html</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
+      <c r="G114" t="inlineStr">
         <is>
           <t>['7月3日、4日，山东省委常委、济南市委书记刘强率领济南市党政代表团赴重庆市武隆区，深入贯彻落实习近平总书记关于深化东西部协作的重要指示精神，全面落实山东·重庆东西部协作第十八次联席会议要求，推动两地东西部协作走深走实。重庆市委常委、常务副市长陆克华参加活动。', '济南市党政代表团一行考察了树顶漫步项目，详细了解特色文旅产业发展情况。刘强表示，武隆区发展特色文旅产业的经验值得济南市学习借鉴，希望今后进一步深化交流合作。在双河镇木根村，代表团一行考察了东西部协作项目——高山番茄谷，详细了解产业打造、协作成效、村民增收等情况，听取当地干部群众对推进东西部协作工作的意见建议。该项目通过探索“产业链联盟+企业+村集体经济组织+农户”“订单收购+保底分红+二次返利+吸纳就业”等利益联结方式，可带动万余户农户增收。刘强指出，要充分发挥优势条件，紧抓关键环节，提高品质档次，扩大发展规模，推动产业协作成果更多惠及当地群众。', '在济南市·武隆区东西部协作联席会议上，双方签署了《济南市人民政府武隆区人民政府2022年东西部协作工作协议》，武隆区委书记何庆介绍了全区经济社会发展和济南武隆东西部协作工作开展情况及下步工作建议，济南市在武隆挂职干部、医疗帮扶人才代表作了发言。', '刘强对武隆区提出的东西部协作工作建议一一回应。他说，开展东西部协作，是以习近平同志为核心的党中央着眼推动区域协调发展、促进共同富裕作出的重大决策。山东省委、省政府对今年东西部协作提出了明确要求。济南市委、市政府将坚决扛起政治责任，不折不扣把中央决策部署和山东·重庆东西部协作第十八次联席会议要求贯彻落实到位。要拓展产业协作深度，持续深化文旅产业、乡村振兴、区域发展等方面协作。要强化人文交流力度，继续选派一批政治素质好、工作能力强、专业水平高的教育、卫生、农技人才，全面参与武隆社会事业建设，进一步深化劳务交流和文化交流，相互促进、共同提高。要提升双方协作广度，广泛调动社会各方面力量参与，推动合作交流迈向更深层次、更高水平、更宽领域。济南市将立足“长期协作、合作共赢”，强化政策保障和要素支持，与武隆携手推动高质量发展，以优异成绩迎接党的二十大胜利召开。', '陆克华代表重庆市委、市政府对济南市党政代表团一行到武隆考察表示欢迎，对济南市长期以来对武隆发展的真情帮扶和无私援助表示感谢。他说，一直以来，济南市始终把东西部协作作为重要政治任务推进落实，体现了很高的政治站位，彰显了深厚的合作情谊，推动双方协作结出了累累硕果。做好下一步东西部协作工作，要深入学习贯彻习近平总书记关于深化东西部协作的系列重要指示精神，深刻领会和把握东西部协作的工作方向，切实把山东·重庆东西部协作第十八次联席会议的部署要求落到实处，不断深化拓展合作空间，着力提升协作效能，全面提升协作水平。要通力合作打造鲁渝协作升级版，始终坚持与时俱进，打造巩固拓展脱贫攻坚成果的升级版、强化产业协作共赢的升级版、开展双向交流合作的升级版、聚力打造协作亮点的升级版，携手完成东西部协作任务。', '重庆市有关部门负责同志，武隆区委副书记、区长左军；济南市领导李国强、马保岭以及历下区、市直有关部门主要负责同志参加活动。']</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A115" t="n">
+        <v>129</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
           <t>济南临夏东西部协作联席会议召开</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>2022-07-07</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2022/7/7/art_1861_4921727.html</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
+      <c r="G115" t="inlineStr">
         <is>
           <t>['7月6日下午，济南·临夏东西部协作联席会议在甘肃临夏回族自治州东乡族自治县召开。会议深入贯彻落实习近平总书记关于深化东西部协作的重要指示精神，全面落实山东·甘肃东西部协作第三次联席会议要求，凝聚共识、深化合作，推动济南临夏协作走深走实迈上新台阶。山东省委常委、济南市委书记刘强，临夏州委书记郭鹤立出席会议并讲话，州委副书记、州长何东主持会议。', '在联席会议上，与会人员观看了济南市—临夏州东西部协作工作汇报片《千里同心促振兴 济临携手启新程》，双方就深入推进东西部协作进行了座谈交流。', '刘强在会上说，通过实地考察交流，我们深切感受到了临夏人民为打赢脱贫攻坚战付出的艰辛努力和在新起点上加快经济社会发展的良好势头。临夏党员干部身上展现出的艰苦奋斗、迎难而上的精神面貌和工作作风，值得济南市广大党员干部认真学习。7月5日召开的山东·甘肃东西部协作第三次联席会议，对深化东西部协作提出了明确要求。济南市将坚决扛起新时期东西部协作的重大政治责任，不折不扣把中央决策部署和山东、甘肃省委省政府工作要求贯彻落实到位。要坚决抓实协作重点任务，加强产业协作、乡村建设、劳务协作、消费协作、文旅合作，确保各项协作任务落实落细。要坚决提升协作质效，健全工作机制，提高资金使用效益，积极选派人才，动员社会力量广泛参与，努力打造东西部协作的升级版。要坚决压实工作责任，细化任务分工，形成工作闭环，抓好各项工作落实。济南市将把深化东西部协作与落实黄河重大国家战略紧密结合起来，始终立足“长期协作、合作共赢”，不断强化政策保障和要素支持，深入拓展与临夏州合作领域，提升合作层次，推动黄河流域生态保护和高质量发展取得更大成效，为把黄河真正打造成为造福人民的幸福河作出应有贡献。', '郭鹤立对济南市党政代表团一行表示欢迎，向济南市给予临夏的倾力帮扶、无私援助表示感谢。他说，自帮扶以来，济南市坚决落实党中央重大决策部署，与我州全面建立协作关系，投入力度空前加大，产业发展硕果累累，人才交流广泛深入，为我州全力巩固拓展脱贫攻坚成果、全面推进乡村振兴、全方位推动高质量发展注入了强大活力和动力。希望两地继续密切联系对接，在乡镇村社、学校医院、社会组织、新闻媒体等领域，开展全方位、深层次、常态化交流合作。继续深化产业协作，加大招商引资力度，引导东部产业梯度转移，延长产业链条、优化产业布局。继续加强人才培训，举办党政干部、专技人才、企业家等各类专题培训班，提升我州干部人才的能力素质。继续拓展帮扶领域，帮助引进齐鲁样板村经验做法，加强群团组织、非公经济领域沟通合作，深化职业技能培训，提升劳务协作水平。我们将珍惜难得机遇，主动跟进对接，最大限度把济南市的对口帮扶承接好、运用好、落实好，推动协作帮扶结出丰硕成果，携手打造东西部协作新典范。', '临夏州领导刘富祯、张志军；济南市领导李国强、马保岭，市直有关部门主要负责同志、有关区县负责同志参加会议。']</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A116" t="n">
+        <v>129</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
           <t>济南市党政代表团赴烟台青岛潍坊学习考察</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
+      <c r="E116" t="inlineStr">
         <is>
           <t>2022-06-22</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
+      <c r="F116" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2022/6/22/art_80535_4920689.html</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
+      <c r="G116" t="inlineStr">
         <is>
           <t>['6月18日至21日，济南市党政代表团先后到烟台、青岛、潍坊，学习考察3市在招引、建设、服务先进制造业、新兴产业、现代服务业等领域好的经验和做法，对标对表找差距，聚力攻坚补短板，共同落实黄河重大国家战略，推进山东半岛城市群协同发展，促进济青都市圈高水平协作。', '省委副书记、青岛市委书记陆治原，省委常委、济南市委书记刘强，省委常委、烟台市委书记傅明先，济南市委副书记、市长于海田，青岛市委副书记、市长赵豪志，济南市人大常委会主任韩金峰、市政协主席雷杰，青岛市人大常委会主任王鲁明，潍坊市委书记田庆盈，青岛市委副书记邓云锋等参加有关活动。', '18日、19日在烟台期间，济南市党政代表团先后深入杰瑞集团、金正环保科技有限公司、万华研发中心、万华工业园、泰和高分子新材料产业园、睿创微纳技术股份有限公司、荣昌生物医药园、艾迪精密机械股份有限公司、丘山谷旅游综合开发项目、中集来福士海洋工程有限公司等企业和项目现场进行了实地考察。在座谈会上，两市分别介绍了经济社会发展情况。刘强在交流时说，济南、烟台两市在城市发展空间结构、承载能级、产业体系等方面契合度高、互补性强，深化交流合作、促进优势互补空间巨大、前景广阔。希望两市在提高基层党建质量和基层治理水平、推动乡村振兴和农业农村发展、构建现代产业体系实现绿色低碳发展上深化合作，推动两市在更广领域、更深层次实现协同发展、互利共赢，携手为山东“走在前、开新局”贡献更大力量。傅明先表示，济南是山东半岛城市群核心城市、黄河流域中心城市，是山东高质量发展的“火车头”。我们将以济南市党政代表团此次来烟考察交流为契机，全面学习济南抢抓战略机遇的高境界、推进动能转换的大格局、谋划城市发展的宽视野、勇当全省排头兵的强担当，提振唯旗是夺、事争一流的精气神，努力为新时代社会主义现代化强省建设多作贡献。', '20日、21日在青岛期间，济南市党政代表团先后深入海尔卡奥斯物联生态科技有限公司、青岛特锐德电气股份有限公司、青岛海洋科学与技术试点国家实验室、中电科思仪科技有限公司、山东国际大宗商品交易市场、力神动力电池100亿千瓦时生产基地等企业、机构和项目现场进行了实地考察。陆治原在会见济南市党政代表团时说，省第十二次党代会吹响了“走在前、开新局”的奋进号角。当前，青岛正深入贯彻落实习近平总书记对山东、对青岛工作的重要指示要求，认真落实省委各项部署要求，按照市第十三次党代会明确的“一二三四六十”目标定位和思路举措，加快建设新时代社会主义现代化国际大都市。近年来，济南在推动高质量发展上开创了新局面，动能转换、科技创新、城市管理等很多方面值得青岛学习借鉴。希望双方加强交流互鉴，深化全方位对接合作，为新时代社会主义现代化强省建设贡献力量。刘强说，近年来，青岛市深入贯彻落实省委省政府决策部署，经济总量五年连跨五个千亿大关，特别是在动能转换、科技创新、经略海洋、对外开放等方面取得了显著成绩、形成了很好的经验，为全省经济社会发展作出了重要贡献。围绕贯彻省第十二次党代会精神，济南市明确了“勇当排头兵、建设强省会”的思路目标和工作推进体系。希望两市进一步加强交流，在产业协同发展、深化科技创新、城市公共服务等领域加强合作，共同推动山东半岛城市群加快发展，为山东“走在前、开新局”作出应有贡献。', '21日在潍坊期间，济南市党政代表团先后深入豪迈集团、星泰克年产5000吨光刻胶项目、山东高创能源3GW储能产业园项目、福田欧康发动机智能柔性工厂项目、潍坊增材制造产业化项目、天瑞重工磁悬浮智能科技项目等企业和项目现场进行了实地考察。', '在21日晚上召开的赴烟台青岛潍坊学习考察交流座谈会上，代表团部分成员结合实际谈了学习考察体会和下一步工作建议。', '刘强指出，通过这次学习考察，总体感觉到，近年来青烟潍三市深入学习贯彻习近平总书记重要指示要求，贯彻落实省委、省政府安排部署，坚定不移培育新动能、发展先进制造业、强化政策支持、扩大有效投资、推进市场主体培育、扩大对外开放，在新旧动能转换、加快高质量发展上取得了显著成效。我们既要看到济南的进步和成绩，也要清醒看到存在的问题和差距，进一步增强加快发展的紧迫感，坚定信心决心，发挥十大优势，提升工作标杆，扎实精细实施，推动省市党代会确定的目标任务落实落地，勇当排头兵、建设强省会。', '刘强强调，要充分发挥核心企业的积极性，激发国企发展活力，打造高水平产业集群。要充分发挥优势，推动生产性服务业高质量发展。要坚持规划引领，扎扎实实推进，巩固拓展数字经济发展优势。要抓好存量、吸引增量，推动招商引资和项目建设。要加强与兄弟城市的交流对接，学习先进经验、深化合作共赢。要落实各级责任，层层传导压力，紧盯重点行业，确保圆满完成上半年各项工作。', '于海田指出，通过这次学习考察，深切感到标兵越来越远、追兵越来越近。全市各级要始终保持清醒的头脑和认识，坚定信心决心、学习借鉴先进，深化团结协作、埋头苦干实干，在工作中付出更大的努力，推动双招双引和项目建设取得更大突破，为加快省会高质量发展作出更大贡献。', '济南市领导王宏志、杨光忠、孙斌、吕涛、戴龙成、翟军、李国强、刘科、任庆虎、马保岭、韩伟，市政府秘书长王品木；青岛市领导马立新、张军、孙海生、张建刚、姜巧珍；烟台市领导郑德雁；潍坊市领导刘运；济南市各区县、功能区党委主要负责同志，市直有关部门单位主要负责同志等参加有关活动。']</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A117" t="n">
+        <v>129</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
           <t>市政府党组理论学习中心组集体学习举行</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
+      <c r="E117" t="inlineStr">
         <is>
           <t>2022-06-18</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
+      <c r="F117" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2022/6/18/art_79708_4920446.html</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
+      <c r="G117" t="inlineStr">
         <is>
           <t>['6月17日上午，市政府党组理论学习中心组集体学习举行。会议传达学习了习近平总书记在四川考察时的重要讲话精神，结合我市工作实际，就抓好贯彻落实作出安排部署。市委副书记、市长、市政府党组书记于海田主持会议并讲话。', '会议指出，习近平总书记在四川考察期间，围绕抗震救灾、粮食安全、乡村振兴、文化自信、生态保护、就业创业、科技创新等提出系列要求，讲话总揽全局、指引方向，思想深邃、内涵丰富，为我们抓好改革发展稳定、统筹推进疫情防控和经济社会发展、做好防汛抢险救灾等重点工作提供了根本遵循。我们要深入学习领会，结合实际抓好贯彻落实，确保习近平总书记重要指示和党中央决策部署不折不扣在济南落地见效。', '会议强调，要牢牢扭住“发展”二字，抓住工业这个根本，突出科创这个关键，强化农业这个基础，用发展的办法解决发展中的问题。要牢牢扭住“民生”二字，强化以人民为中心的发展思想，从严抓好疫情防控，抓好就业这个最大的民生，让老百姓过上更加美好的生活。要牢牢扭住“稳定”二字，确保社会治安稳定，兜牢安全生产底线，做实防灾减灾准备，守好意识形态阵地，牢固树立风险意识，为党的二十大胜利召开营造良好氛围。', '会议还书面传达了习近平总书记给尼雷尔领导力学院南部非洲六姊妹党中青年干部研讨班全体学员的回信精神。']</t>
         </is>
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A118" t="n">
+        <v>129</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
           <t>牢记总书记嘱托奋力走在前开新局全市乡村振兴工作现场会召开</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
+      <c r="E118" t="inlineStr">
         <is>
           <t>2022-06-15</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
+      <c r="F118" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2022/6/15/art_1861_4920094.html</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
+      <c r="G118" t="inlineStr">
         <is>
           <t>['6月14日上午，“牢记总书记嘱托 奋力走在前开新局”全市乡村振兴工作现场会召开。省委常委、市委书记刘强出席并讲话，市委副书记、市长于海田主持，市人大常委会主任韩金峰、市政协主席雷杰、市委副书记杨峰和部分市级领导同志出席。', '会前，与会人员到历城区彩石街道东泉村、章丘区双山街道三涧溪村现场观摩。会上，通报了全市乡村振兴工作进展情况，市农业农村局、章丘区、商河县、莱芜区牛泉镇、历城区港沟街道芦南村负责同志先后发言。', '刘强听取发言后指出，2018年6月，习近平总书记亲临三涧溪村考察，对做好乡村振兴工作提出明确要求、作出重要指示。四年来，全市上下牢记总书记视察山东、视察济南的殷切嘱托，坚持把总书记对济南的关怀信任转化为政治定力、实际行动和发展成果，在打造乡村振兴齐鲁样板上取得了明显成效。', '刘强强调，抓好农业农村工作，要全力守牢粮食安全底线，严守耕地红线，抓好种业振兴，党政同责共抓“米袋子”，确保粮食和重要农产品有效供给。要大力发展兴村富民产业，聚焦推动农村一二三产业贯通融合，在育特色、建载体、强链条上狠下功夫。要擦亮宜居宜业乡村美丽底色，深入开展农村人居环境整治提升五年行动，持续提升农村公共服务水平，深化美丽乡村示范创建。要大力推行乡村善治，夯实乡村党组织战斗堡垒，加强农村精神文明建设，确保农村社会稳定。要持续深化农业农村改革，深入推进国家城乡融合发展试验区建设，一体推进多环节改革，提升政策创设、制度创新的综合成效。要持续巩固脱贫攻坚成果，增强监测帮扶实效，精准落实帮扶政策，汇聚力量帮扶发展。要持续强化乡村振兴要素支撑，大力招才引智，保障农业项目用地，强化财政支农。要完善乡村振兴工作责任体系，落实各级农业农村委员会的统筹责任、各级党委农办的具体牵头责任、各区县镇街的属地责任、各职能部门的协同责任。', '刘强最后强调，勇当排头兵、建设强省会，离不开乡村的全面振兴。全市各级要深入学习贯彻习近平总书记关于“三农”工作重要论述，始终把乡村振兴工作摆在强省会建设的重中之重位置，不断改善人民生活、促进共同富裕，推动济南早日实现乡村全面振兴，为建设新时代社会主义现代化强省会作出“三农”贡献。', '于海田就贯彻会议精神强调，要切实提高政治站位，更加扎实有效做好乡村发展、乡村建设、乡村治理重点工作。要加强重点任务攻坚，全力推动农业高质高效、乡村宜居宜业、农民富裕富足。要凝聚乡村振兴合力，加快打造乡村振兴齐鲁样板省会标杆，以优异成绩迎接党的二十大胜利召开。', '会议以视频形式召开。参加现场会议的还有：市直有关部门、单位主要负责同志，各区县（功能区）党（工）委书记等。']</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A119" t="n">
+        <v>129</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
           <t>市委常委会召开会议</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t>2022-04-26</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
+      <c r="F119" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2022/4/26/art_1861_4915034.html</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
+      <c r="G119" t="inlineStr">
         <is>
           <t>['4月25日上午，市委常委会召开会议，学习贯彻习近平总书记在中央全面深化改革委员会第二十五次会议、在海南考察、在视察文昌航天发射场时的重要讲话精神以及习近平总书记在博鳌亚洲论坛2022年年会开幕式上的主旨演讲精神、给北京科技大学老教授的回信精神，研究贯彻落实意见；分析一季度经济社会发展形势，研究部署统筹疫情防控和经济社会发展工作。', '会议指出，习近平总书记的重要讲话，站位高远、思想深邃、内涵丰富，具有很强的思想性、政治性、指导性。全市各级各部门要深入学习领会，结合实际抓好贯彻落实。要全面推进乡村振兴，发挥种源优势做强种业，补强提升短板弱项，推动乡村振兴提升到新水平。要加快全国文明典范城市建设，持续推进创建三年行动，扎实推进强基铸魂、文明创建、文化繁荣、提质立品、民生幸福五大工程，努力跨入首批全国文明典范城市行列。要坚定不移推进生态文明建设，深入打好污染防治攻坚战，实施新一轮“四减四增”行动，不断提升改善生态环境质量。要加快推进数字政府建设，加快各部门信息系统的整合优化，在整合中优化、在优化中整合。要推动科创金融改革试验区建设加快破题起势，强化各方资源支撑，推动取得更大突破。要充分发挥科技创新激励作用，持续加大创新投入，深化体制机制改革，强化科技人才引育，发挥创新平台作用，不断释放科技创新活力。要全力发展更高水平外贸，努力打造高能级开放平台，推动对外开放迈上新台阶。', '会议传达学习了省委、省政府主要领导同志对济南疫情防控工作的批示要求，听取了关于近期全市疫情防控工作情况的汇报。会议指出，这次疫情发生以来，市委、市政府认真贯彻习近平总书记关于做好疫情防控工作的重要指示要求，全面落实省委、省政府的工作要求，坚持“外防输入、内防反弹”总策略和“动态清零”总方针不动摇，疫情防控工作取得了阶段性成效。下一步，要落实落细防控措施，尽快实现“动态清零”目标。要更加注重策略方法，认真做好流调溯源、核酸检测、资源保障、能力提升、信息化支撑等工作。要更加重视民生保障，细致做好“一点两区”服务保障。要做好疫情防控信息发布工作，进一步丰富形式内容。要强化责任落实，严格落实防控规范要求，强化组织管理，加强防控工作督导，关心关爱一线防控人员，形成强大防控合力，坚决打赢疫情防控阻击战。', '会议听取了市政府党组关于一季度全市经济社会发展形势及下一步工作建议的汇报。会议指出，一季度经济运行平稳开局、稳中有进、进中有忧。在看到成绩和不足的同时，要准确认识和把握当前的形势，辩证地看待当前面临的压力挑战和机遇利好。对于下一步工作，会议要求，要全力稳定工业运行，抓好重点企业、工业技改、运行保障、绿色转型；要全力促进投资增长，加快重点项目建设，抓好重点领域投资；要全力促进消费恢复，激活传统消费，稳定大宗消费，培育新兴消费，提振文旅消费；要全力保持外贸快速增长，加大引进外资力度，做好跨境电商等产业培育；要全力保障财政增收，落实减税降费政策，依法依规组织好收入工作；要全力做好双招双引，持续为经济发展注入活力；要全力强化要素保障，在土地、资金、能耗等要素方面提供保障；要全力推进助企纾困，抓好政策落实落地；要全力保障物流畅通，严格落实“一断三不断”要求，确保交通物流运输畅通；要全力保障改善民生，办好民生实事，千方百计稳就业，加大帮扶救助力度，加强生态环境保护；要全力守牢安全底线，坚决维护政治安全，抓牢抓实安全生产，切实维护社会稳定，确保粮食安全，扎实做好防汛工作。', '会议强调，细节决定成败，责任决定成效。全市上下要牢固树立系统思维、底线思维、数字思维，大力发扬“严真细实快”工作作风，全力以赴夺取疫情防控和经济社会发展双胜利，以实际行动坚定拥护“两个确立”、坚决做到“两个维护”。']</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A120" t="n">
+        <v>129</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
           <t>市委常委会召开会议</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
+      <c r="E120" t="inlineStr">
         <is>
           <t>2022-06-14</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
+      <c r="F120" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2022/6/14/art_22405_4920049.html</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
+      <c r="G120" t="inlineStr">
         <is>
           <t>['6月13日上午，市委常委会召开会议，学习贯彻习近平总书记在四川考察时的重要讲话精神、给尼雷尔领导力学院南部非洲六姊妹党中青年干部研讨班全体学员的回信精神，研究贯彻落实意见；研究审议有关文件。', '会议指出，习近平总书记的重要讲话，为我们做好工作提供了根本遵循，要深入学习领会，统筹推进疫情防控和经济社会发展。要抓好粮食安全，在确保夏粮颗粒归仓基础上，抢抓农时、压茬推进夏种夏管。要坚持抓党建促乡村振兴，全面加强基层党组织建设，提升村级集体经济发展质量和农村人居环境水平。要坚定历史自信，深入挖掘中华优秀传统文化资源，加快建设底蕴深厚的文化之城。要做实做细就业指导服务，千方百计开发就业岗位，做好高校毕业生就业工作。要紧紧牵住科技创新这个“牛鼻子”，大力实施产业强基工程，提高产业链供应链现代化水平。要统筹发展和安全，突出抓好疫情防控、防汛减灾、社会稳定、安全生产等工作，守牢“一排底线”。', '会议审议了《关于开展招商引资“九大行动”的实施意见》《促进集成电路产业发展的意见》，强调要优化考核体系、细化目标任务、强化以上率下，形成招商引资工作齐抓共管主动作为的良好氛围；要落实支持扶助政策，推动集成电路产业做大做强。', '会议听取了自贸试验区济南片区工作情况汇报，审议了有关文件，强调要深化改革创新、培育特色产业、加大对外开放，引领经济高质量发展。', '会议审议了《济南市“十四五”绿色低碳循环发展规划》，指出要明确时间表、路线图，推动各项任务落实落地。', '会议审议了《关于进一步深化预算管理制度改革的实施意见》，强调要扎实推进财政预算和绩效管理一体化改革，促进财政治理效能提升。']</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A121" t="n">
+        <v>129</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
           <t>山东省第十二次党代会报告</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
+      <c r="E121" t="inlineStr">
         <is>
           <t>2022-06-10</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr">
+      <c r="F121" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2022/6/10/art_4115_4921382.html</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
+      <c r="G121" t="inlineStr">
         <is>
           <t>['中国共产党山东省第十二次代表大会，是在喜迎党的二十大、向着第二个百年奋斗目标迈进的关键时刻，召开的一次十分重要的会议。', '大会的主题是：坚持以习近平新时代中国特色社会主义思想为指导，深入贯彻落实习近平总书记对山东工作的重要指示要求，牢记嘱托走在前，勇担使命开新局，为建设新时代社会主义现代化强省而努力奋斗。', '一、五年奋进取得重大历史性成就省第十一次党代会以来的五年，是山东发展史上极不平凡的五年。习近平总书记三次亲临视察，多次发表重要讲话、作出重要指示批示，为山东发展把舵领航、指引方向。我们牢记总书记嘱托，坚持以习近平新时代中国特色社会主义思想为指导，全面贯彻党的十九大和十九届历次全会精神，深刻领会“两个确立”的决定性意义，增强“四个意识”、坚定“四个自信”、做到“两个维护”，传承发扬党的百年奋斗历史经验，与时俱进完善思路举措，从“八大发展战略”“九大改革攻坚”“十强现代优势产业”“七个走在前列”“九个强省突破”，到“六个一”发展思路、“六个更加注重”策略方法、“十二个着力”重点任务，在继承中发展、在创新中提升，顺利完成省第十一次党代会确定的主要任务，如期打赢脱贫攻坚战，如期全面建成小康社会，各项工作迈上新台阶。', '这五年，党的建设全面加强。政治建设扎实推进，理论武装不断强化，“两学一做”学习教育、“不忘初心、牢记使命”主题教育、党史学习教育成效显著。山东省习近平新时代中国特色社会主义思想研究中心成立，推出一批研究成果。全省市县乡领导班子换届圆满完成，担当实干用人导向更加鲜明，基层党组织凝聚力战斗力持续增强。政治监督不断加强，坚决落实中央八项规定及其实施细则精神，纠治“四风”有力有效，反腐败斗争取得压倒性胜利并全面巩固。全面从严治党的政治引领和政治保障作用充分发挥，政治生态更加风清气正，广大党员干部干事创业精气神持续高涨。', '这五年，综合实力跨越提升。全省地区生产总值连续跨上三个万亿大台阶，达到8.3万亿元，年均增长6.1%。一般公共预算收入达到7284亿元，税收占比提高3.3个百分点。规模以上工业增加值增长31%，社会消费品零售总额增长43.6%。高新技术企业数量翻了两番多，高新技术产业产值占比提高13个百分点。人才资源总量超过1500万，国家级领军人才达到1430名。全省经济提质增效，全面步入高质量发展轨道。', '这五年，动能转换强势突破。落后动能加速淘汰，压减钢铁产能占全国12%，万元GDP能耗下降18.4%。传统动能提档升级，实施500万元以上工业技改项目6.7万个，一批重大工程支撑强劲。新动能不断壮大，一批关键核心技术实现突破，高技术制造业增加值年均增长10%，“四新”经济增加值占比提高10个百分点，数字经济规模增长40%以上。实体经济根基更加巩固，发展基础更加坚实。', '这五年，区域城乡协调共进。黄河重大国家战略扎实推进，济南新旧动能转换起步区建设全面展开，青岛西海岸新区建设成效显著，“一群两心三圈”格局加速形成。粮食总产突破1100亿斤，农林牧渔业总产值率先过万亿元，打造乡村振兴齐鲁样板成效明显。海洋经济总量稳居全国第二，国家级海洋牧场占全国近40%。高速铁路成环运行，高速公路实现“县县通”，沿海港口整体联动效应凸显，现代化机场群建设提速推进，水安全保障能力大幅提升，基础设施实现跨越式发展。', '这五年，改革开放不断深化。改革由重点突破向系统集成转变，扩权强县、国资国企、财税金融、公共卫生应急管理、要素市场化配置等改革成效显著，省市县党政机构改革、事业单位改革顺利完成。营商环境全面优化，整体水平位列全国第一方阵。市场主体增长92.8%、达到1360多万户，其中民营占比98.8%。山东自贸试验区试点任务基本完成，上合示范区建设扎实推进。跨国公司领导人青岛峰会、儒商大会、博鳌论坛全球健康大会、青年企业家创新发展国际峰会、对话山东等重大活动影响广泛。开放型经济逆势增长，进出口总额、利用外资增长近一倍，跨境电商、市场采购贸易额均过千亿元，选择山东、创业齐鲁越来越成为共识。', '这五年，生态环境显著改善。污染防治攻坚战取得重大成效，自然资源利用更加集约高效，节能减排目标全面完成，优良天数、地表水水质、近岸海域水质优良面积比例大幅提升。国土绿化行动提质加速，黄河三角洲、泰沂山区、长岛、南四湖等重点区域生态修复成效明显。生态环境质量连创有监测记录以来最优水平，天蓝、地绿、水清的自然美景重回身边。', '这五年，文化自信充分彰显。社会主义核心价值观深入人心，县乡新时代文明实践中心基本全覆盖，群众性精神文明创建活动成效显著。中华优秀传统文化“两创”扎实推进，尼山世界文明论坛影响持续扩大，沂蒙精神焕发时代光彩。新闻出版、广播电视、文学艺术、哲学社会科学等事业繁荣发展，文化旅游深度融合，“好客山东”“好品山东”品牌更加响亮。', '这五年，民生福祉大幅增进。民生财政支出占比稳定在80%左右。城镇、农村居民人均可支配收入分别增长38.4%和49%。251.6万省标以下贫困人口全部脱贫，近60万滩区群众实现“安居梦”。城镇新增就业连年超过120万人。新建改扩建幼儿园1.2万所，新增中小学学位260多万个，大班额实现动态清零。医疗卫生机构总数、床位数分别增长11.2%和24.2%。社保体系更加完善，9类困难群众救助标准提高59%以上、最高达314%。养老、住房、体育、助残、妇女儿童等事业全面进步。', '这五年，社会大局和谐稳定。扫黑除恶专项斗争全面胜利，社会治理现代化基础不断夯实，依法治省深入推进，平安山东、法治山东建设取得重大进展。民主政治建设扎实推进，人大、政协充分发挥职能作用，爱国统一战线巩固发展。群团改革持续深化。国家安全、军民融合、国防动员、双拥共建深入开展。重点领域风险有效化解，金融机构不良贷款率由高位降至较低水平，生产安全事故起数和死亡人数连年实现“双下降”。', '五年来，在以习近平同志为核心的党中央坚强领导下，在全省人民共同努力下，我们解决了许多长期制约发展的矛盾问题，战胜了许多前所未有的风险挑战，办成了许多事关全局和长远的大事要事，为建设新时代社会主义现代化强省积蓄了强大势能。我们着眼国家所需、山东所能，找准定位、服务全局，深入落实黄河重大国家战略，积极融入强大国内市场，集聚全球要素资源，“九个方面比较优势”加速转化，在全国大局中的战略位势越来越凸显。我们注重打基础、利长远，既做显功、又做潜功，妥善化解历史遗留问题，加快“腾笼换鸟、凤凰涅槃”，新旧动能转换闯过一道道难关，经济发展步入转型蝶变的快车道，基础设施、民生保障、生态环保等水平全面提升，高质量发展的前景越来越广阔。我们积极应对世纪疫情，坚持人民至上、生命至上，坚持“外防输入、内防反弹”总策略和“动态清零”总方针，采取“立足于有、关口前移、多重屏障、两手结合”的纵深防御方法，疫情防控总体形势稳定向好，统筹疫情防控和经济社会发展的能力越来越强。我们万众一心、攻坚克难，在决胜脱贫攻坚中得到淬炼，在抵御台风秋汛、强化能源保供、防范化解风险中经受考验，党员干部信仰信念更加坚定，干事创业、奋勇争先的氛围越来越浓厚。', '五年乘风破浪，感恩奋进中铸牢政治忠诚。山东发展的成就，根本在于以习近平同志为核心的党中央坚强领导，根本在于习近平新时代中国特色社会主义思想科学指引，根本在于习近平总书记对山东的亲切关怀和把舵领航。全省广大党员干部群众由衷感到，习近平总书记无愧为党中央和全党的核心，习近平新时代中国特色社会主义思想无愧为当代中国马克思主义、二十一世纪马克思主义。有坚强核心掌舵，有创新理论引航，我们无比有信心、无比有力量！', '山东发展的成就，是历届省委接续奋斗的结果，是全省上下齐心拼搏的结果，也是中央和国家机关各部门单位指导帮助、社会各界关心支持的结果。在此，我代表中共山东省第十一届委员会，向全省党员和广大干部群众，向老领导、老同志，向各民主党派、工商联、无党派人士和各人民团体，向驻鲁人民解放军指战员、武警部队官兵、公安干警和消防救援队伍指战员，向中央驻鲁单位，向所有支持山东发展的港澳台同胞和海内外朋友，表示衷心感谢和崇高敬意！', '五年的砥砺实践，让我们深切体会到：办好山东的事情，必须加强党的全面领导，把拥护“两个确立”、做到“两个维护”作为最高政治原则和根本政治规矩，牢记“国之大者”，坚决落实习近平总书记对山东工作的重要指示要求，确保党中央各项决策部署不折不扣落地见效。必须始终坚持人民立场，做到为了人民、服务人民，依靠人民、仰仗人民，惠及人民、造福人民，努力把人民对美好生活的向往变为现实。必须坚持以经济建设为中心，完整准确全面贯彻新发展理念，积极服务和融入新发展格局，紧紧扭住新旧动能转换“牛鼻子”，不断推动高质量发展走深走实。必须敢想敢干、敢为人先，更大力度解放思想，更深层次破除体制机制障碍，充分释放发展潜能、塑强竞争优势。必须统筹发展和安全，增强风险意识，把安全发展贯穿经济社会发展各领域和全过程，坚决守牢安全底线，实现高质量发展和高水平安全良性互动。必须团结带领全省人民，最大限度调动一切积极因素，汇聚起推动强省建设的磅礴力量。必须发扬彻底的自我革命精神，纵深推进全面从严治党，把各级党组织和干部队伍建设好建设强。这些经验启示弥足珍贵，要倍加珍惜、长期坚持，并在实践中不断丰富发展。', '在看到成绩的同时，我们也认识到，工作中还存在一些差距和不足：高质量发展基础还不牢固，创新能力亟需提升，制造业由大向强转变任务艰巨；改革开放有待深化，民营经济活力还不够强，优化营商环境仍需加力；民生和社会事业存在短板，公共服务水平有待提升，发展不平衡不充分问题还比较突出；各类矛盾风险仍易发多发，基层治理能力尚待提高，统筹发展和安全面临许多新问题新考验；管党治党仍有薄弱环节，形式主义、官僚主义还不同程度存在，反腐败斗争形势依然严峻复杂，等等。对此要高度重视，认真加以解决。', '同志们，五年勇毅前行，我们走过不平凡的历程，山东已站上新的历史起点。在这个千帆竞发、百舸争流的时代，必须握紧历史接力棒，咬定目标、脚踏实地，以奋斗开创未来，用实干托举梦想，努力夺取新时代社会主义现代化强省建设新胜利！', '二、坚决扛起新时代新征程光荣使命 伟大思想引领伟大征程。党的十八大以来，以习近平同志为核心的党中央，开创性地提出一系列治国理政新理念新思想新战略，在实践中创立了习近平新时代中国特色社会主义思想，引领党和国家事业发展取得历史性成就、发生历史性变革。习近平总书记对山东情深似海、厚望如山，亲自为山东发展精准把脉、定向引航，作出“走在前列、全面开创”重要指示，提出“五个切实”“四个扎实”等明确要求，指引全省人民奋力实现全面小康，以昂扬姿态开启新时代社会主义现代化强省建设新征程。在“两个一百年”奋斗目标历史交汇点上，习近平总书记又亲临山东视察，要求我们“努力在服务和融入新发展格局上走在前、在增强经济社会发展创新力上走在前、在推动黄河流域生态保护和高质量发展上走在前，不断改善人民生活、促进共同富裕，开创新时代社会主义现代化强省建设新局面”。习近平总书记系列重要指示要求，一以贯之、一脉相承，着眼全国大局、把握时代大势，确立了山东发展的清晰航标，赋予我们“走在前、开新局”的光荣使命。我们必须全面贯彻习近平新时代中国特色社会主义思想，坚决落实习近平总书记对山东工作的重要指示要求，牢记嘱托走在前，勇担使命开新局，努力把总书记擘画的宏伟蓝图变为美好现实。', '“走在前、开新局”，既是战略指引，又是实践要求，为我们奋进新时代、走好新征程提供了根本遵循。全省上下要锚定“走在前、开新局”，勇于担当、加压奋进，努力在社会主义现代化建设新征程上展现更大作为、作出更大贡献。“走在前、开新局”，是对山东发展的全局性定位。我们要主动服务全国大局，率先探索内外循环双向互促、供给需求协同发力的路径模式，构筑服务和融入新发展格局的战略支点；聚焦增强经济社会发展创新力，以“十大创新”引领全方位创新，成为国家高水平自立自强的重要支撑；强化黄河重大国家战略牵引，昂起山东半岛城市群龙头，勇当绿色低碳高质量发展的开路先锋；始终坚持以人民为中心，在高质量发展中创造高品质生活，打造共同富裕的省域范例。“走在前、开新局”，是对山东工作的全方位要求。我们要坚持系统观念，以走在前的境界标准，统筹推进经济、政治、文化、社会、生态文明建设和党的建设，各领域各方面都要拉高标杆、奋勇争先，不断开创经济实力强、人民群众富、文明程度高、治理效能优、生态环境美的新时代社会主义现代化强省建设新局面。“走在前、开新局”，是对山东现代化强省建设的全过程引领。我们要保持定力、久久为功，一张蓝图绘到底，一茬接着一茬干，积极探索具有鲜明特色的现代化建设实践，创造更多走在前的现代化成果。到2035年，基本建成新时代社会主义现代化强省，全省综合竞争力大幅跃升，人的全面发展、人民共同富裕取得更为明显的实质性进展。到本世纪中叶，全面建成新时代社会主义现代化强省，全省人民充分共享幸福美好生活，齐鲁大地处处呈现生机勃勃、繁荣兴盛的壮丽景象。', '“走在前、开新局”，其时已至、其势已成，山东发展进入全面求强、大踏步向现代化迈进的新阶段。未来五年，是新时代社会主义现代化强省建设继往开来、跨越提升的关键时期，做好这五年工作，对实现“走在前、开新局”具有决定意义。我们要自觉对标对表习近平总书记重要指示要求，坚定方向、守正创新，以科学的思路方法，推动各项工作不断取得新进展、新成效。在发展思路上，要坚持“一个统领”，始终坚定拥护“两个确立”、坚决做到“两个维护”；把握“一项根本”，始终坚持人民至上；聚焦“一条主轴”，始终聚力高质量发展；守好“一排底线”，始终做到安全发展；打造“一组生态”，始终营造良好政治生态、产业生态、市场生态、社会生态、自然生态；锻造“一支队伍”，始终从严从实管党治党。在策略方法上，要更加注重依法办事，更加注重求真务实，更加注重统筹兼顾，更加注重综合施策，更加注重问题导向、需求导向、目标导向、效果导向，更加注重沟通引导，努力争取最好效果。只要把这些思路方法长期坚持下去，把工作抓紧抓实抓到位，就一定能创造出不负人民、不负时代的光辉业绩。', '今后五年，全省工作的总体要求是：紧密团结在以习近平同志为核心的党中央周围，坚持以习近平新时代中国特色社会主义思想为指导，深入贯彻党的十九大和十九届历次全会精神，认真学习宣传贯彻党的二十大精神，全面落实习近平总书记对山东工作的重要指示要求，统筹推进“五位一体”总体布局、协调推进“四个全面”战略布局，立足新发展阶段，贯彻新发展理念，坚持稳中求进工作总基调，坚持以人民为中心的发展思想，以加强党的建设为引领，以改革创新为根本动力，以供给侧结构性改革为主线，深化新旧动能转换、建设绿色低碳高质量发展先行区，努力在服务和融入新发展格局上走在前、在增强经济社会发展创新力上走在前、在推动黄河流域生态保护和高质量发展上走在前，不断改善人民生活、促进共同富裕，开创新时代社会主义现代化强省建设新局面。', '今后五年的主要目标是，在“走在前、开新局”上取得突破性进展，创造更多标志性成果，推动各方面工作实现新跃升。', '——综合发展实力实现新跃升。经济全面提质增效，人均生产总值达到11万元。新旧动能转换塑成优势，“四新”经济增加值占比达到40%以上。万人高价值发明专利拥有量实现翻番，成为全国有影响力的人才集聚和创新高地。山东半岛城市群竞争力全面提升，乡村振兴齐鲁样板成色更足，海洋经济全国领先。高标准市场体系基本建成，市场化法治化国际化营商环境更加成熟，打造对外开放新高地取得更大突破。', '——人民生活品质实现新跃升。共同富裕迈出坚实步伐，居民人均可支配收入年均增长7%左右，城乡收入差距明显缩小。民生领域财政投入稳步增加，基本公共服务均等化水平明显提高，实现更高水平幼有所育、学有所教、劳有所得、病有所医、老有所养、住有所居、弱有所扶，养老托育服务体系健全完善，建成医养结合示范省，打造体育强省，群众生活更加幸福、日子越过越红火。', '——社会文明程度实现新跃升。社会主义核心价值观广泛弘扬，群众思想道德素质明显提高，社会信用水平全面提升，“厚道齐鲁地、美德山东人”形象更加闪亮。文化产业提质升级，公共文化服务体系不断完善，人民精神文化生活更加丰富。齐鲁文化资源优势充分彰显，打造中华优秀传统文化“两创”新标杆成效显著。', '——社会治理效能实现新跃升。全过程人民民主有效实践，社会主义民主法治更加健全。共建共治共享的社会治理格局基本形成，基层治理能力明显增强，公平正义更加彰显。防范化解风险能力显著提高，安全发展底线守得更牢。更高水平的平安山东、法治山东建设成效明显，社会大局和谐稳定。', '——生态环境质量实现新跃升。经济社会全面绿色转型成效显著，碳达峰碳中和有序实施，减污降碳协同增效，“四减四增”深入推进，能源资源高效利用，节能减排约束性任务全面完成，优良天数比例达到73%以上。生态系统稳定性和综合承载力大幅提升，美丽山东底色更加靓丽。', '——管党治党水平实现新跃升。党的领导全面加强，各级党组织政治领导力、思想引领力、群众组织力、社会号召力持续增强，党员干部队伍坚强有力。党风政风持续向好，党群干群关系更加紧密，一体推进不敢腐、不能腐、不想腐取得更多制度性成果和更大治理成效，全省上下正气充盈、活力迸发，担当实干、奋勇争先成为齐鲁大地时代强音。', '从“大而强、富而美”“富民强省新跨越”，到“经济文化强省”，再到“新时代社会主义现代化强省”，建设“强省”一直是亿万齐鲁儿女的孜孜追求。只要我们坚定沿着习近平总书记指引的方向前进，始终与全省人民想在一起、干在一起，就一定能“走在前、开新局”，在新时代社会主义现代化强省建设新征程上赢得更大荣光！', '（一）加快推动科技自立自强。科技是强省之本。要坚持“四个面向”，强化科技战略支撑，争当国家高水平科技自立自强排头兵。', '构筑高能级创新平台。以一流平台汇集创新要素，凝聚战略科技力量。加快创建海洋领域国家实验室，构建“1313”四级实验室体系，打造原始创新策源地。实施大科学计划、大科学工程，布局一批重大科技基础设施，高标准建设中科院济南科创城、海洋大科学研究中心，创建综合性国家科学中心。加快建设国家技术创新中心、产业创新中心、制造业创新中心、临床医学研究中心，吸引国内外一流大学、科研院所、跨国公司设立研发机构，建设央企研发中心聚集地。', '提升科技创新效能。完善创新政策体系，强化科技攻关项目、平台、人才、资金一体化配置，实施基础研究十年行动，推进重大科技创新工程、科技示范工程，推行“军令状”“揭榜挂帅”等机制，加快关键核心技术攻关。充分发挥高等院校、科研院所和新型研发机构创新支撑作用，促进教育链、人才链与创新链、产业链有机衔接。强化企业创新主体地位，实施高新技术企业倍增计划，支持领军企业牵头组建创新联合体，提升大中型企业研发机构覆盖率。高水平建设区域性技术交易市场，设立一批专业化中试基地，打造全国科技成果转移转化高地。', '引育一流创新人才。创新之道，唯在得人。要完善“高精尖缺”人才精准培养引进机制，深入实施泰山、齐鲁人才工程，发挥中央驻鲁单位等人才优势，大力集聚战略科学家、顶尖人才，培养造就一大批基础研究人才、青年科技人才、卓越工程师、齐鲁大工匠，打造一流科技领军人才和高水平创新团队。强化人才使命和贡献导向，完善评价激励和收入分配政策，大力营造尊重知识、尊重人才的浓厚氛围，让更多“千里马”在山东创新创业赛道上竞相奔腾！', '（二）纵深推进新旧动能转换。实体经济是强省建设的重中之重。要坚持“腾笼换鸟、凤凰涅槃”，落实“三个坚决”，壮大“十强产业”，建设先进制造业强省，塑成高质量发展新优势。', '全面提升传统产业。没有落后的产业，只有落后的产品和技术。要坚持高端化、智能化、绿色化方向，推动规模以上工业企业技术改造全覆盖，加大对老工业城市转型支持力度，建设传统产业转型升级示范区。巩固纺织服装、食品、造纸等产业优势，推动钢铁、化工、建材、有色等产业结构调整、工艺革新，打造世界级先进钢铁、高端铝业、现代轻工纺织基地和绿色化工产业集群，让传统产业焕发新活力。', '强力突破新兴产业。新兴产业是动能转换的“加速器”。实施战略性新兴产业集约化发展工程，重点围绕新一代信息技术、高端装备、新能源新材料、现代海洋、医养健康等领域，打造具有核心竞争力的新兴产业基地。前瞻布局未来产业，做强氢能及储能、量子科技、空天信息、磁悬浮等示范园区，建好用好山东未来网络研究院等平台，推动创新突破和融合应用。壮大领航型企业，梯次培育一批专精特新、“瞪羚”“独角兽”“小巨人”和“单项冠军”企业，促进大中小协同、集约集聚发展。', '集中做强先进制造业。制造业是山东经济的根基所在、优势所在。要全力推动产业基础再造，精准补齐“五基”短板，着力突破工业母机、芯片、机器人等高端领域，扩大动力装备、轨道交通装备、智能家居等领先优势，加快培育智能建造、应急安全与节能环保等产业，建设国家先进制造业集群，确保制造业占比稳中有升。实施标志性产业链突破工程，深入推进“链长制”，精准延链补链强链，促进产业链上下游紧密配套。推动先进制造业和现代服务业深度融合，搭建工业设计、信息咨询、检验检测等服务平台，大力发展共享制造、柔性制造、楼宇制造等模式。统筹优化重大生产力布局，建立跨区域产业整合、园区共建机制，引导各地聚焦特色主导产业，打造一批制造业高质量发展示范区。', '培育壮大数字动能。积极融入数字文明新时代，提升全社会数字化素养和技能，以数字变革引领全面转型。大力发展人工智能、大数据、区块链等数字产业，加快建设全国领先的数字基础设施，打造先进计算、虚拟现实等产业集聚区，力争数字经济核心产业增加值占生产总值比重翻番。加快山东半岛国家级工业互联网示范区建设，实施“云行齐鲁·工赋山东”专项行动，打造5G全连接工厂和全场景数字经济园区，构建协同共生的数字经济创新生态。加快数字政府、数字社会、智慧城市、数字乡村建设，推进数字技术全链条、全周期嵌入社会管理服务，打造数字强省、智慧山东。', '（三）积极实施扩大内需战略。扩大内需是重要战略基点。要纵深推进“十大扩需求”行动，接续实施一批重大项目，畅通经济循环，增强内生动力和发展韧性。', '强化有效投资支撑。加大基础设施、产业和民生等领域投入，充分发挥投资关键性作用。深入实施“七网”建设行动，加快补齐现代物流、市政公用设施、农村基础设施等短板，推进能源保障重大工程，提速布局新基建，构建高效畅达的综合立体交通网，打造“一轴三环、七纵九横、两湖多库”的现代水网。深化“要素跟着项目走”，健全重大项目服务保障机制。强化政府投资引导，完善民间投资能进能出、共建共享机制，让民间资本活力迸发、活水涌流。', '推动消费扩容提质。顺应消费升级趋势，积极开拓城乡消费市场。提档升级传统消费，加快城市商圈智慧化改造，建设一批地方特色街区，布局一批电商供应链基地，促进家装、家电、汽车等大宗消费，推动老字号创新发展。培育壮大新型消费，大力发展智能、时尚、绿色消费，促进医疗、康养、文旅、体育等服务消费线上线下融合发展。支持济南、青岛建设国际消费中心城市，培育一批区域消费中心城市。强化标准引领，加快建设质量强省、品牌强省，进一步打响“好品山东”品牌。', '构建现代流通体系。流通连接生产和消费，对畅通循环至关重要。要助力全国统一大市场建设，加快构建干线、支线和末端配送紧密衔接的智慧流通网，大力推进国家物流枢纽和骨干冷链物流基地建设，培育区域性物流中心，打造在全国有影响力的骨干流通企业。积极发展多式联运，开拓货运航线，布局建设一批内陆港，支持有条件的地方发展内河航运，加密优化中欧班列（齐鲁号）图定线路和开行频次。完善县乡村三级物流网络，让农产品进城和工业品下乡更加便捷。', '（四）深入打造乡村振兴齐鲁样板。没有农业农村的现代化，就不是全面的现代化。要统筹推进乡村产业、人才、文化、生态、组织振兴，推动农业全面升级、农村全面进步、农民全面发展。', '扛牢维护粮食安全重大责任。落实最严格的耕地保护制度，坚决遏制耕地“非农化”、基本农田“非粮化”。加强粮食等重要农产品稳产保供，加快高标准农田建设，加大对粮食主产区支持力度，深入开展盐碱地综合利用，支持有条件的地方创建“吨半粮”县，确保粮食播种面积只增不减、生产能力稳定在1100亿斤以上。实施现代种业振兴行动，开展种源“卡脖子”技术攻关，建好粮油、畜禽、水产、果蔬等种质资源库，培育壮大一批育种综合体和种业企业，打造种业强省。大力发展设施农业、高效节水灌溉农业，建设农业机械化强省。', '全面提高农业质量效益。实施农业科技创新计划，强化现代农业产业科技支撑。推进农业全产业链发展，开展品种培优、品质提升、品牌打造行动，支持预制菜、乳业等产业发展，培育烟台苹果、寿光蔬菜、半岛渔业、沿黄肉牛等百亿级、千亿级优势特色产业集群。深入实施“百园千镇万村”工程，提高黄河三角洲农业高新技术产业示范区、潍坊国家农业开放发展综合试验区建设水平，创建海洋领域国家农业高新技术产业示范区。加快农业数字化转型，推动农业向智能智慧、精准精致升级演进。', '扎实稳妥推进乡村建设。遵循城乡发展规律，把握乡村建设时度效，保护发展好乡村功能。深入实施农村人居环境整治提升行动，高质量推进改厕、清洁取暖、污水处理、生活垃圾治理。完善农村基础设施网络，推进城乡基本公共服务均等化。强化历史文化名镇名村和传统村落、农业文化遗产、乡村特色风貌保护，留住记忆、记住乡愁。', '促进农民富裕富足。推动巩固拓展脱贫攻坚成果同乡村振兴有效衔接，确保不发生规模性返贫。积极培育农民合作社、家庭农场等新型经营主体，促进小农户与现代农业有机衔接。强化乡村能人示范引领，实施乡村好青年培养计划和人才回归工程，培育更多“新农人”。积极探索新型农村集体经济发展路径，大力发展乡村富民产业，深化“万企兴万村”行动，因地制宜建设“创业车间”，引导农民就地就近就业，实现长富久富。', '（五）大力发展海洋经济。海洋是高质量发展的战略要地。要坚持陆海统筹、向海图强，深入实施海洋强省建设行动，打造全国海洋经济引领区，努力做好经略海洋这篇大文章。', '打造世界一流海洋港口。积极培育现代航运综合服务体系，推动从装卸港向枢纽港、贸易港、金融港升级，建设山东半岛世界级港口群，打造东北亚国际航运枢纽。深化港口资源整合，增强集疏运能力，建设智慧绿色平安港口。加快港区、园区、城区“三区互融”，大力发展临港经济。推动海河陆空“四港”联动，加快实施小清河复航工程，构建发达的腹地运输网络，畅通陆海经济通道。', '抢占海洋产业发展制高点。大踏步迈向深蓝，建设国际先进的现代海洋产业体系。实施“透明海洋”“蓝色药库”等重大工程，做强重大涉海平台，打造具有全球影响力的海洋科技创新中心。大力发展现代海洋渔业，提升国家级海洋牧场示范区发展水平，建设“海上粮仓”。推动海洋船舶、海洋化工、海洋矿业等提档升级，积极发展海工装备、海洋生物医药、智慧海洋、海水淡化等新兴产业集群，建设千万千瓦级海上风电、海上光伏基地，构筑海洋经济发展新引擎。', '建设人海和谐美丽海洋。坚持陆海污染联防联控，全面落实“湾长制”，加大生态灾害防控力度，提升主要河口海湾水体环境综合质量。开展蓝色碳汇行动，强化沿海防护林、岸滩、湿地、海岛等生态保护修复，守好海洋生物休养生息底线。优化用海布局，促进海洋资源高效利用。拓展公众亲海岸线和生态空间，打造千里海岸观光廊道，让山东的海洋水清滩净、岸绿湾美、鱼鸥翔集、人人向往！', '（六）扎实推进区域协调发展。充分发挥山东半岛城市群龙头作用，全面优化“一群两心三圈”格局，打造全国重要增长极和强劲动力源。', '深入落实国家重大区域战略。以实施黄河重大国家战略为牵引，服务和推动各类国家战略落实。坚持全域推动，落实“四水四定”，强化水资源集约节约利用，优化国土空间保护利用格局，全力保障黄河长治久安；支持跨区域共建协同创新平台和“飞地园区”，建设智能制造、高效生态农业、滩区综合整治示范带，打造黄河流域生态保护和高质量发展高地。加强与中原、关中等城市群协作发展，建设沿黄达海大通道、现代产业大走廊。主动融入京津冀协同发展，深化与长三角、粤港澳大湾区等战略合作。扎实做好对口支援和东西部协作。', '深入推进经济圈一体化发展。以建设现代化国际化大都市为统领，高水平打造济南都市圈、青岛都市圈，促进三大经济圈协同发展。加快省会经济圈同城化，实施“强省会”战略，省市一体推动济南新旧动能转换起步区成形起势、打造黄河流域生态保护和高质量发展引领示范区。强化胶东经济圈一体发展，支持青岛建设引领型现代海洋城市，增强国际门户枢纽功能，打造沿海现代化建设示范带。大力推动鲁南经济圈转型跨越，促进沂蒙革命老区、资源型地区高质量发展。创新区域合作机制，培育济青科创智造廊带、沿黄文化旅游生态廊带、鲁南物流能源廊带、运河文化经济廊带。实施新一轮突破菏泽、鲁西崛起行动，高标准建设国家级功能区和省级新区，支持有条件的毗邻县域打造一体化发展先行区，促进区域整体联动、协调发展。', '深入实施新型城镇化战略。统筹城乡融合发展，提升城市功能品质，构建济青引领、大中小城市和小城镇协同发展新格局。推进智慧城镇化，突出精细化管理服务，建好用好“城市大脑”，打造“城市智能体”，实现智慧社区（村居）全覆盖。推进绿色城镇化，开展城市更新行动，加快城镇老旧小区、城中村改造，打造海绵城市、公园城市。推进均衡城镇化，实施公共服务提升计划，补齐县城和小城镇基础设施短板。推进双向城镇化，加快城乡融合发展试验区建设，促进各类要素自主有序流动。增强人口集聚能力，全域推进青年发展友好型城市建设。优化县域经济发展政策环境，加大财力薄弱县支持力度，培育一批制造、农业、商贸、文旅等特色强县，激发县域发展活力。', '（七）坚定不移深化改革开放。改革开放是强省建设的必由之路。要坚决破除一切束缚发展的体制机制障碍，着力打造对外开放新高地，增强高质量发展动力活力。', '纵深推进重点领域改革。强化系统集成、协同高效，以重点改革突破带动全局发展。深化要素市场化改革，促进土地、劳动力、资本、技术、数据等要素有序流动、高效配置。深化农业农村改革，拓展“诸城模式”“潍坊模式”“寿光模式”，稳妥推进农村集体经营性建设用地入市，稳慎实施宅基地制度改革试点。深化财税体制改革，健全预算绩效管理体系，完善现代税收制度，增强重大战略任务财力保障。深化金融改革，加快金融改革试验区建设，大力发展普惠金融、科创金融、转型金融，积极培育新兴金融业态，一体推进农商行改革化险。开展企业上市培育行动，做强区域性资本市场。深化企业改革，坚持“两个毫不动摇”，加快国有经济布局优化和结构调整，开展企业高质量发展对标提升行动，打造一批世界一流企业；健全支持民企改革发展政策，促进民营经济健康发展和民营经济人士健康成长。大力弘扬企业家精神，营造全社会尊重爱护企业家的浓厚氛围。', '塑造全面开放新格局。深度对接国际标准规则，推进更高水平制度型开放。积极融入共建“一带一路”高质量发展，巩固传统市场，拓展区域全面经济伙伴关系协定（RCEP）成员国、拉美、非洲等新兴市场，创建中日韩地方经贸合作示范区，推动外贸固稳提质。建设更高水平国际贸易“单一窗口”，开展跨境电商、服务贸易跃升计划。实施山东自贸试验区2.0版，加快上合示范区“四个中心”建设，提升开发区承载功能。加强同世界500强等头部企业合作，推进高质量“双招双引”。深化拓展与港澳台地区交流合作，办好鲁台经贸洽谈会等活动。广泛开展科技教育、文化卫生、绿色低碳等领域国际合作，更好服务国家开放大局。', '打造一流营商环境。深入实施创新提升行动，全力营造稳定、公平、透明、可预期的营商环境，整体水平持续走在全国前列。加力推进简政放权、放管结合、优化服务，确保放得下、接得住、用得好。深入开展“双全双百”工程，加快“无证明之省”建设，推动“证照分离”全覆盖。坚决维护市场安全与秩序稳定，开展市场准入隐性壁垒清理行动，加强知识产权保护，强化反垄断和反不正当竞争，平等保护各类市场主体。完善社会信用体系，健全守信激励和失信惩戒机制，让失信者寸步难行，让守信者一路绿灯！', '（八）切实加强民主法治建设。强省建设，要以民主凝聚力量、用法治护航发展。必须坚定践行习近平法治思想，坚持党的领导、人民当家作主、依法治国有机统一，更大力度汇聚发展合力。', '发展全过程人民民主。坚持和完善人民代表大会制度，发挥人大及其常委会在立法工作中的主导作用，提升人大监督效能，发挥好人大代表作用，扩大人民有序政治参与。加强和改进人民政协工作，支持政协履行职能、发挥作用，持续提高政治协商、民主监督、参政议政和凝聚共识水平，擦亮“有事多商量”协商品牌。健全基层群众自治制度，完善企事业单位民主管理制度，实现党的领导、政府管理与基层民主良性互动。', '广泛凝聚社会各界力量。巩固和发展最广泛的爱国统一战线，支持各民主党派、工商联、无党派人士积极发挥作用，做好新时代民族、宗教、党外知识分子、非公有制经济人士、新的社会阶层人士、港澳台和侨务等工作，健全完善大统战工作格局。支持工会、共青团、妇联等群团组织和社会组织更好发挥桥梁纽带作用。加强军地协作，推进国防动员和后备力量建设，深化军民融合、双拥共建，巩固军政军民团结。', '全面推进依法治省。一体推进法治山东、法治政府、法治社会建设，切实维护宪法和法律权威。加快数字经济、民生保障、社会治理、生态环保等领域地方立法，完善依法行政决策机制，加强执法司法规范化建设，切实解决执行难等问题，巩固拓展政法队伍教育整顿成果，保障和促进社会公平正义。持续开展全民普法行动，完善现代公共法律服务体系，提升全社会尊法学法守法用法水平。党员干部要切实提升法治思维和依法办事能力，坚决做到法定职责必须为、法无授权不可为。', '（九）全面促进文化繁荣兴盛。山东文脉绵长、人文荟萃。要紧紧围绕举旗帜、聚民心、育新人、兴文化、展形象，坚持“两个结合”，深化中华优秀传统文化创造性转化、创新性发展，推动宣传思想文化工作守正创新，筑牢团结奋斗的共同思想基础。', '构筑道德文明新高地。强化理想信念教育，推动社会主义核心价值观融入日常生活，倡树新时代美德健康生活方式，持续深化移风易俗，健全志愿服务体系，建设新时代美德山东。提升新时代文明实践中心建设水平，实施文明创建工程，实现地级城市全国文明城市全覆盖，广泛选树时代楷模、道德模范、最美人物、山东好人等先进典型，让文明风尚浸润齐鲁大地。大力弘扬“党群同心、军民情深、水乳交融、生死与共”的沂蒙精神，深入推进沂蒙、胶东等红色文化传承发展示范区建设，赓续红色基因。', '打造文化“两创”新标杆。深入推进尼山世界儒学中心建设，扩大尼山世界文明论坛影响力。加强“山东文脉”工程建设，组织编纂《齐鲁文库》。高水平建设沿黄、环黄渤海、曲阜、淄博、泰山、崂山等优秀传统文化传承发展片区。加快长城、大运河、黄河国家文化公园等山东段建设，打造一批文化新地标。实施古城、古镇、古村、古街、古建筑保护计划，加强文物和非物质文化遗产保护传承。推动党史、档案、地方史志等工作创新发展。', '建强文化文艺新鲁军。坚持以人民为中心的创作导向，实施“齐鲁文艺高峰”计划，培育壮大鲁剧、鲁艺、鲁版图书等品牌，推出更多具有齐鲁风格、齐鲁气派的精品力作，培养造就一批享誉海内外的名家大师。深入推进哲学社会科学创新工程，加强新型智库建设。深化文化惠民工程，完善城乡公共文化服务体系。推进全民阅读，建设书香山东。深化媒体融合发展，打造新型主流媒体。加强国际传播能力建设，推动更多“鲁”字号文化产品走出去，讲好中国故事山东篇。', '塑造文旅产业新优势。完善文化产业功能区布局，高标准建设青岛影视基地、泰山新闻出版小镇等一批文创产业园，培育千亿级优势文化产业集群。推进“山东手造”工程，加快发展新型文化企业、文化业态、文化消费模式。实施文化数字化战略，壮大数字创意、网络视听、数字出版等产业。坚持以文塑旅、以旅彰文，大力发展乡村游、康养游、研学游，提升智慧文旅水平，做强“好客山东”品牌，打造国际著名文化旅游目的地。', '（十）持续推动民生改善和共同富裕。造福群众是我们一切工作的出发点和落脚点。要加强普惠性、基础性、兜底性民生建设，完善共同富裕政策体系、探索有效路径，让发展成果更多更公平惠及全体人民。', '实施收入倍增行动。坚持就业优先，抓好高校毕业生、退役军人、农民工等重点人群就业，滚动实施城乡公益性岗位扩容提质行动，扩大农村劳动力就业，积极发展新就业形态。大力弘扬劳模精神、劳动精神、工匠精神，鼓励勤劳创新致富。提高劳动报酬在初次分配中的比重，完善再分配调节机制，发挥慈善等第三次分配作用，多措并举增加居民经营性、财产性收入，持续提高低收入群体收入，力争十年实现居民收入、中等收入群体“双倍增”。', '实施教育提质行动。落实立德树人根本任务，健全学校、家庭、社会、网络等全环境育人机制，率先建成高质量教育体系。扩大普惠学前教育供给，全面落实“双减”政策，加快建设全国乡村教育振兴先行区，促进义务教育优质均衡发展和城乡一体化。做强特色多样的高中阶段教育。建成国家职业教育创新发展高地，培养一批专业技能人才。大力推进高等教育内涵式高质量发展，深入实施高水平大学和高水平学科建设计划，加快“双一流”建设，推动省属高校实现突破。办好老年教育、特殊教育，支持和规范民办教育发展。', '实施健康促进行动。加快公共卫生体系建设，提升应对突发公共卫生事件能力。深化公立医院高质量发展促进行动，推进国家和省级区域医疗中心建设，提升县域医共体层次水平，打造“15分钟健康服务圈”。完善分级诊疗体系，实现基层医保服务站点乡镇（街道）全覆盖。加快国家中医药综合改革示范区建设。健全全生命周期人口服务体系，完善三孩生育政策配套措施，多渠道增加养老服务供给。大力发展体育健康产业，广泛开展全民健身和爱国卫生运动。', '实施社保扩面提标行动。健全多层次社会保障体系，推进务工农民、灵活就业人员、新业态就业人员参加社会保险，实施基本医保、失业保险、工伤保险省级统筹，建立重特大疾病医疗保险和救助制度，推动长期护理险等参保扩面。完善老年人、残疾人、孤困儿童、农村留守儿童关爱服务体系，保障妇女儿童合法权益，加强关心下一代工作。坚持“房住不炒”，因城施策完善房地产政策，扩大保障性住房供给，规范提升物业管理服务，让全省人民住有所居、舒心宜居。', '（十一）系统推进生态文明建设。生态文明建设，功在当代、利在千秋。要深入贯彻习近平生态文明思想，坚定走生态优先、绿色发展之路，让绿水青山底色更靓。', '有序推进碳达峰碳中和。坚持先立后破，协同推进降碳、减污、扩绿、增长，组织实施工业、能源、交通等碳达峰十大工程，“一业一策”有序达峰。建立重点领域能耗、煤耗和碳排放监管体系，大力推行绿色制造、清洁生产。严格落实“两高”行业“五个减量替代”，依法依规淘汰低端落后产能。积极推进煤电节能降碳改造，建设低碳智能电网，加快构建绿色、安全、高效的能源体系，确保非化石能源消费占比年均提高1个百分点以上。推进碳排放权、用能权等市场化交易，加快发展碳金融，建设“近零碳”示范工程和碳达峰试点园区，办好碳达峰碳中和论坛。', '深入打好污染防治攻坚战。强化区域联防联治，加强细颗粒物、臭氧等多污染物协同控制，基本消除重污染天气，确保空气质量持续改善。加强水质安全保护，持续开展排污口溯源整治，推动城市建成区雨污合流管网、黑臭水体动态清零，城市污水处理厂提标改造完成70%以上。做好土壤污染管控，深入推进城乡生活垃圾分类，有效保障农用地和建设用地安全利用。', '统筹生态系统保护修复。坚持山水林田湖草沙系统治理，严格落实河湖长制、林长制、田长制，实施陆岸河海综合保护工程，协同推进黄河三角洲湿地修复、生态补水和生物多样性保护，打造黄河下游绿色生态廊道。整合优化自然保护区，积极推进黄河口、长岛国家公园建设。加强泰沂山区、昆嵛山、东平湖、南四湖等重点区域保护修复。深入推进科学绿化试点示范省建设，加强水土流失综合治理，提升生态系统碳汇、固碳能力。建立生态产品价值实现机制，深化完善生态补偿、生态环境公益诉讼等制度，健全生态文明政策体系。', '（十二）促进更高水平安全发展。安全是发展的前提，发展是安全的保障。要牢固树立总体国家安全观，统筹发展和安全，加快构建与新发展格局相适应的国家安全体系，确保政治安全、社会安定、人民安宁。', '筑牢国家安全屏障。坚持以政治安全为根本，严密防范和坚决打击各种渗透破坏颠覆分裂活动，坚定维护政权安全、制度安全、意识形态安全。强化风险监测预警体系建设，实施网络安全能力提升行动，提高风险预防、危机管控和信息化支撑水平。加强海外利益保护，依法维护海外人员和企业合法权益。强化宣传教育，提升全民国家安全意识。建立统一指挥、运转高效的安全保障工作体系，构建完善新安全格局。', '严守安全发展底线。强化风险意识，坚决守好粮食、能源、网络、金融、产业链供应链、生态环境等“一排底线”。加强疫情防控，坚持动态清零，做到“点上要控住、面上要深挖、源头要严防、资源要保障、责任要落实、工作要统筹”，确保疫情要防住、经济要稳住、发展要安全。深入开展安全生产隐患排查整治行动，强化食品药品、生物安全等全链条风险管控，抓好自建房安全专项整治。高度警惕新经济领域风险，深入推进“金安工程”，有效防范化解大型企业债务、地方政府债务、房地产市场、法人金融机构等风险，确保不发生系统性、区域性风险。加强防灾减灾救灾能力建设，提高洪涝干旱、森林火灾等自然灾害防范应对水平。完善现代应急机制，健全地方物资储备体系，提高应急处突能力。', '维护社会大局安全稳定。坚持和发展新时代“枫桥经验”，完善矛盾纠纷多元化解机制，加强和改进信访工作，做实做细“网格化”，加快市域社会治理现代化。健全完善平安建设协调机制，加强重大决策社会稳定风险评估，常态化开展扫黑除恶斗争，依法打击和防范各类违法犯罪活动，建设更高水平的平安山东。', '同志们，以上十二个方面，是“走在前、开新局”的主攻方向，任务艰巨、责任重大，必须统筹兼顾、一体推进。只要我们咬定青山不放松、风雨无阻向前行，就一定能在新征程上展现更大作为、书写精彩华章！', '深入贯彻新时代党的建设总要求和新时代党的组织路线，更好把握和运用党的百年奋斗历史经验，弘扬伟大建党精神，坚持和加强党的全面领导，以自我革命精神纵深推进全面从严治党，为新时代社会主义现代化强省建设提供坚强保证。', '（一）旗帜鲜明加强党的政治建设。坚持以政治建设为统领，坚定拥护“两个确立”，坚决做到“两个维护”，牢记“国之大者”，不断提高政治判断力、政治领悟力、政治执行力，始终在思想上政治上行动上同以习近平同志为核心的党中央保持高度一致。健全贯彻落实习近平总书记重要指示要求工作机制，强化政治监督，确保党中央各项决策部署在山东落地生根。严明政治纪律和政治规矩，坚决防止“七个有之”，做到“五个必须”。加强新时代党内法规制度建设，严肃党内政治生活，严格执行民主集中制，持续营造风清气正的政治生态。', '（二）坚持不懈强化理论武装。完善理论学习长效机制，全面落实“第一议题”制度，持续强化党委（党组）理论学习中心组示范带动效应，教育引导党员干部自觉做习近平新时代中国特色社会主义思想的坚定信仰者、忠实实践者。建好山东省习近平新时代中国特色社会主义思想研究中心，结合山东实践加强理论研究阐释，深化宣传宣讲。发挥党校（行政学院）、干部学院主阵地作用，加强社会主义学院、高校马克思主义学院建设，用好党性教育、政德教育资源，提升党史纪念馆所、爱国主义教育基地建设水平，分层分类开展教育培训。巩固壮大主流思想舆论，牢牢掌握意识形态工作主动权。推进党史学习教育常态化长效化，激励各级党员干部坚定理想信念、坚守初心使命。', '（三）着力锻造高素质干部队伍。认真落实新时代好干部标准，突出政治把关和政治素质考察，坚持有为者有位、能干者能上、优秀者优先，鲜明树立重实干重实绩重担当的用人导向。加强干部队伍建设战略规划，健全培养选拔优秀年轻干部常态化机制，统筹做好女干部、少数民族干部、党外干部工作，着力增强各级领导班子整体功能。强化政治训练和专业培训，实施专业化能力提升工程，推进公务员分类改革，不断提高干部领导现代化建设能力。坚持严管厚爱结合、激励约束并重，加大容错纠错、澄清正名、严查诬告陷害、关爱回访等工作力度，进一步推动干部能上能下，形成尽职免责、失职追责、精准问责长效机制。改革完善科学考核评价体系，引导干部牢固树立和践行正确政绩观，尊重客观实际和群众意愿，脚踏实地干事创业。带着感情和责任做好新时代老干部工作。坚持党管人才，加快人才强省建设，主动融入国家高水平人才高地和人才平台建设布局，积极构建具有山东特色的“2+N”人才发展雁阵格局，不断提升区域人才竞争力。', '（四）全面加强基层党组织建设。牢固树立大抓基层导向，着力增强党组织政治功能和组织力、凝聚力。深化拓展“莱西会议”经验，健全完善抓乡促村工作机制，推进“头雁领航”工程，实施村级党组织分类推进整体提升行动，扎实开展党建引领乡村治理试点，深入推行党组织领办合作社，优化整合第一书记和“加强农村基层党组织建设”工作队力量，常态化整顿软弱涣散基层党组织。深化城市基层党建“全域推进、整体提升”试点工作，深入推进城市基层党建引领基层治理集中攻坚行动，加强模范机关建设，统筹抓好国企、学校等领域党建，推进两新组织党建提质增效，深化产业链党建，加强直播电商、快递物流、外卖送餐、网约车司机等新业态新就业群体党建工作。深化党支部规范提升行动，严格落实党的组织生活制度，推动党的基层组织设置和活动创新，建好用好“灯塔—党建在线”平台，做好党员发展、教育管理工作，更好发挥基层党组织战斗堡垒和党员先锋模范作用，让党旗始终在基层一线高高飘扬。', '（五）持之以恒正风肃纪反腐。以永远在路上的坚韧执着，严格执行中央八项规定及其实施细则精神，锲而不舍纠“四风”树新风。深化“四进”工作，摸清真实情况，推进工作落实，练就扎实作风。健全“我为群众办实事”常态化机制，走好新时代党的群众路线。坚持不敢腐、不能腐、不想腐一体推进，惩治震慑、制度约束、提高觉悟一体发力，加强新时代廉洁文化建设，深化整治群众身边腐败和不正之风，巩固拓展反腐败斗争压倒性胜利。加强对“一把手”和领导班子监督，深化巡视巡察，开展政治生态分析研判，精准规范运用“四种形态”，推进党内监督和其他各类监督贯通融合。各级领导干部要带头绷紧纪律规矩这根弦，加强家庭家教家风建设，始终做到一心为公、一身正气、一尘不染。', '同志们，时代不负奋斗者，砥砺奋进正当时。建设新时代社会主义现代化强省，没有任何捷径可走，惟有不懈奋斗！全省党员干部要牢记习近平总书记殷切嘱托，坚决扛起“走在前、开新局”光荣使命，大力倡树严肃严格、求真较真、细致细究、务实扎实、高效快捷的工作作风，始终保持永不懈怠的精神状态和一往无前的奋斗姿态。要有舍我其谁的豪气，胸怀“两个大局”，勇立时代潮头，以“功成不必在我”的境界和“功成必定有我”的担当，在现代化建设中勇当先锋、争作表率。要有开拓创新的锐气，敢走前人没走出的路，事争一流、唯旗是夺，与最快者赛跑、与最强者比拼，在“跑”和“拼”中闯出一片新天地。要有敢于斗争的胆气，发扬斗争精神，增强斗争本领，在任何困难挑战面前不低头、不退缩，在斗争中前进、在斗争中胜利，创造出无愧于时代、无愧于人民的辉煌业绩。', '青春孕育无限希望，青年创造美好明天。各级党组织要更加重视青年，让广大青年真切感受到党的关爱就在身边、关怀就在眼前，使齐鲁大地成为激扬青春、实现梦想的热土。广大青年要自觉听从党和人民召唤，勇于担负起时代赋予的重任，把个人奋斗融入强省建设的生动实践，施展抱负、建功立业，让青春在奋斗中绽放绚丽之花！', '同志们，蓝图催人奋进，实干铸就未来。让我们更加紧密地团结在以习近平同志为核心的党中央周围，高举习近平新时代中国特色社会主义思想伟大旗帜，勇担使命、开拓进取，奋力开创新时代社会主义现代化强省建设新局面，以优异成绩迎接党的二十大胜利召开，为实现第二个百年奋斗目标、实现中华民族伟大复兴的中国梦作出新的更大贡献！', '“党建引领聚合力 政企合作办实事”——省、市供销社领导走访调研茶叶集团并开展共建活动']</t>
         </is>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A122" t="n">
+        <v>129</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
           <t>市政府党组理论学习中心组集体学习举行</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
+      <c r="E122" t="inlineStr">
         <is>
           <t>2022-04-25</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr">
+      <c r="F122" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2022/4/25/art_1861_4914815.html</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
+      <c r="G122" t="inlineStr">
         <is>
           <t>['4月24日上午，市委副书记、市长、市政府党组书记于海田主持召开市政府党组理论学习中心组集体学习。会议专题学习习近平总书记在海南考察时的重要讲话精神、在中央全面深化改革委员会第二十五次会议上的重要讲话精神，传达学习了周乃翔省长对疫情防控工作的要求，对抓好贯彻落实作出安排部署。', '会议指出，习近平总书记的重要讲话，为我们深入实施创新驱动发展战略、网络强国战略，全面深化改革开放，推动高质量发展等一系列重点工作，指明了前进方向，提供了根本遵循。大家一定要深入学习领会，抓好创造性落实。', '会议强调，要加强数字政府建设，注重做好顶层设计，着力解决好兼容、互通、共享等问题，特别是聚焦当前政府工作中存在的突出问题，引入数字化解决方案，多渠道引进数字化专业人才，开辟更多应用场景，着力提升政府治理能力。要高标准建设科创金融改革试验区，努力做大做活各类基金，全力做好企业上市工作，全面提升金融支持科技创新的能力水平。要持续优化“双创”生态环境，着力搭建高能级“双创”平台，强化企业创新主体地位，持续加大科技研发投入，更好地吸引集聚人才，激发民营经济活力，增强发展后劲。要坚定不移抓好生态环境保护，严格项目准入条件，抓好生态环境突出问题整改，培育壮大生态环保产业，实现绿色低碳高质量发展。要加快推进财政体制改革，密切关注改革动向，积极争取改革试点，提前谋划好改革工作，乘势借力，服务好改革发展大局。', '会议强调，要高度重视疫情防控工作，决不能有一丝一毫的麻痹思想、厌战情绪、松劲心态。要严格按照省委、省政府部署要求和市委的工作安排，坚决扛牢省会责任，打起十二分精神，付出加倍努力，坚持全市一盘棋，以更加迅速、更加果断、更加有效的措施，坚决打赢打好这场疫情防控遭遇战、阻击战，确保如期实现社会面“动态清零”目标，为迎接党的二十大胜利召开营造良好环境。', '会议还书面学习了习近平总书记给北京科技大学老教授的回信、在博鳌亚洲论坛2022年年会开幕式上的主旨演讲、在视察文昌航天发射场时的重要讲话精神。']</t>
         </is>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A123" t="n">
+        <v>129</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
           <t>习近平在海南考察解放思想开拓创新团结奋斗攻坚克难加快建设具有世界影响力的中国特色自由贸易港</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
+      <c r="E123" t="inlineStr">
         <is>
           <t>2022-04-14</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr">
+      <c r="F123" t="inlineStr">
         <is>
           <t>http://www.gov.cn/xinwen/2022-04/13/content_5685109.htm</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
+      <c r="G123" t="inlineStr">
         <is>
           <t>['习近平在海南考察：解放思想开拓创新团结奋斗攻坚克难 加快建设具有世界影响力的中国特色自由贸易港_滚动新闻_中国政府网', '习近平在海南考察：解放思想开拓创新团结奋斗攻坚克难 加快建设具有世界影响力的中国特色自由贸易港', '习近平在海南考察时强调 解放思想开拓创新团结奋斗攻坚克难 加快建设具有世界影响力的中国特色自由贸易港', '新华社海口4月13日电 中共中央总书记、国家主席、中央军委主席习近平近日在海南考察时强调，要坚决贯彻党中央决策部署，坚持稳中求进工作总基调，完整、准确、全面贯彻新发展理念，全面深化改革开放，坚持创新驱动发展，统筹疫情防控和经济社会发展，统筹发展和安全，解放思想、开拓创新，团结奋斗、攻坚克难，加快建设具有世界影响力的中国特色自由贸易港，让海南成为新时代中国改革开放的示范，以实际行动迎接党的二十大胜利召开。', '4月10日至13日，习近平在海南省委书记沈晓明、省长冯飞陪同下，先后来到三亚、五指山、儋州等地，深入科研单位、国家公园、黎族村寨、港口码头等进行调研。', '4月10日至13日，中共中央总书记、国家主席、中央军委主席习近平在海南考察。这是10日下午，习近平在位于三亚市崖州湾科技城的崖州湾种子实验室考察。新华社记者 李学仁 摄', '10日下午，习近平首先来到位于三亚市崖州湾科技城的崖州湾种子实验室考察调研。习近平听取了科技城规划建设和实验室总体情况介绍，察看了实验室搭建平台支持种业创新成果展示，对海南省探索农业科技创新模式、支撑保障国家粮食安全的做法表示肯定。习近平先后走进大型仪器公共服务中心、精准分子设计育种中心，同科研人员深入交流。习近平指出，中国人的饭碗要牢牢端在自己手中，就必须把种子牢牢攥在自己手里。要围绕保障粮食安全和重要农产品供给集中攻关，实现种业科技自立自强、种源自主可控，用中国种子保障中国粮食安全。要继承和发扬老一辈农业科研工作者胸怀祖国、服务人民的优秀品质，拿出十年磨一剑的劲头，勇攀农业科技高峰。', '4月10日至13日，中共中央总书记、国家主席、中央军委主席习近平在海南考察。这是10日下午，习近平在位于三亚市崖州湾科技城的崖州湾种子实验室考察。新华社记者 谢环驰 摄', '随后，习近平来到中国海洋大学三亚海洋研究院，了解海洋观测设备与信息服务系统研发应用情况，连线“深海一号”作业平台。前方工作人员向总书记汇报了一线工作情况。习近平向他们表示诚挚问候，嘱咐他们注意安全、保重身体。习近平强调，建设海洋强国是实现中华民族伟大复兴的重大战略任务。要推动海洋科技实现高水平自立自强，加强原创性、引领性科技攻关，把装备制造牢牢抓在自己手里，努力用我们自己的装备开发油气资源，提高能源自给率，保障国家能源安全。', '4月10日至13日，中共中央总书记、国家主席、中央军委主席习近平在海南考察。这是10日下午，习近平在中国海洋大学三亚海洋研究院考察。新华社记者 燕雁 摄', '考察途中，习近平下车察看沿海生态环境保护工作，并为他在12年前种下的一棵不老松施肥浇水。习近平叮嘱当地负责同志加强陆海统筹，把生态保护工作作为一项重要任务抓紧抓好。', '海南省于2011年4月20日试点实行离岛免税政策。11日上午，习近平来到三亚国际免税城，实地了解离岛免税政策落地实施等情况。习近平指出，要更好发挥消费对经济发展的基础性作用，依托国内超大规模市场优势，营造良好市场环境和法治环境，以诚信经营、优质服务吸引消费者，为建设中国特色自由贸易港作出更大贡献。', '4月10日至13日，中共中央总书记、国家主席、中央军委主席习近平在海南考察。这是11日下午，习近平在海南热带雨林国家公园五指山片区考察。新华社记者 谢环驰 摄', '11日下午，习近平到海南岛中南部的五指山市考察调研。海南热带雨林国家公园是我国首批5个国家公园之一。习近平深入五指山片区，沿木栈道步行察看公园生态环境，不时停下脚步，询问树木生长、水源涵养、动植物资源保护等情况。他指出，海南要坚持生态立省不动摇，把生态文明建设作为重中之重，对热带雨林实行严格保护，实现生态保护、绿色发展、民生改善相统一，向世界展示中国国家公园建设和生物多样性保护的丰硕成果。', '水满乡毛纳村是五指山市一个黎族村寨，近年来积极推进美丽乡村建设，大力发展乡村旅游业。习近平总书记来到村里调研，沿村道边走边看。黎族村民王柏和一家热情将总书记迎进家里。习近平察看院落、客厅、卧室等，在手工茶坊参与炒茶劳动，并买下两袋茶叶。习近平勉励他们把茶叶经营好，把日子过得更红火。', '4月10日至13日，中共中央总书记、国家主席、中央军委主席习近平在海南考察。这是11日下午，习近平在五指山市水满乡毛纳村，同当地干部群众亲切交谈。新华社记者 李学仁 摄', '在村寨凉亭内，习近平同驻村第一书记、乡镇乡村振兴工作队队长、村支部书记、老党员、致富带头人代表等亲切交谈，了解当地因地制宜发展特色产业，加强民族传统文化保护传承等情况。习近平强调，推动乡村全面振兴，关键靠人。要建设一支政治过硬、本领过硬、作风过硬的乡村振兴干部队伍，吸引包括致富带头人、返乡创业大学生、退役军人等在内的各类人才在乡村振兴中建功立业。要强化农村基层党组织建设，充分发挥基层党组织战斗堡垒作用。', '4月10日至13日，中共中央总书记、国家主席、中央军委主席习近平在海南考察。这是11日下午，习近平在五指山市水满乡毛纳村同村民们亲切交流。新华社记者 李学仁 摄', '习近平沿长廊察看黎族特色农产品和黎锦、藤编等非物质文化遗产展示。广场上，歌声悠扬、鼓乐齐奏，村民们跳起竹竿舞迎接远方的客人。习近平亲切地对大家说，很高兴来看望黎族乡亲们，看到你们过上幸福生活，我感到很欣慰。我们全面建成小康社会以后，还要继续奔向全体人民共同富裕，建设社会主义现代化国家。乡村振兴要在产业生态化和生态产业化上下功夫，继续做强做大有机农产品生产、乡村旅游、休闲农业等产业，搞好非物质文化遗产传承，推动巩固拓展脱贫攻坚成果同乡村全面振兴有效衔接。各级领导干部要贯彻党的群众路线，牢记党的根本宗旨，想群众之所想，急群众之所急，把所有精力都用在让老百姓过好日子上。', '4月10日至13日，中共中央总书记、国家主席、中央军委主席习近平在海南考察。这是11日下午，习近平在五指山市水满乡毛纳村向村民们挥手致意。新华社记者 李学仁 摄', '12日上午，习近平来到地处海南岛西北部的儋州市考察调研。在展示馆，习近平听取洋浦经济开发区建设发展总体情况介绍，并仔细观看了开发区发展历程、建设成就、未来规划以及入驻企业成果等展示。习近平指出，洋浦经济开发区作为海南自由贸易港先行区、示范区，要总结好海南办经济特区经验，用好“中国洋浦港”船籍港的政策优势，大胆创新、先行先试。', '4月10日至13日，中共中央总书记、国家主席、中央军委主席习近平在海南考察。这是12日上午，习近平在洋浦经济开发区考察。新华社记者 李学仁 摄', '随后，习近平来到洋浦国际集装箱码头小铲滩港区，了解港口建设发展情况，同现场作业人员、挂职干部代表等亲切交流。习近平强调，振兴港口、发展运输业，要把握好定位，增强适配性，坚持绿色发展、生态优先，推动港口发展同洋浦经济开发区、自由贸易港建设相得益彰、互促共进，更好服务建设西部陆海新通道、共建“一带一路”。他指出，党中央选派干部来自由贸易港挂职，既体现了党中央对自由贸易港建设的关心和支持，也是对干部的培养锻炼，要发挥挂职干部的积极作用，让他们在基层一线增长才干。', '4月10日至13日，中共中央总书记、国家主席、中央军委主席习近平在海南考察。这是12日上午，习近平在洋浦国际集装箱码头小铲滩港区，同现场作业人员、挂职干部代表等亲切交流。新华社记者 燕雁 摄', '13日上午，习近平在参观海南全面深化改革开放和中国特色自由贸易港建设成果展后，听取了海南省委和省政府工作汇报，对海南各项工作取得的成绩给予肯定，希望海南以“功成不必在我”的精神境界和“功成必定有我”的历史担当，把海南自由贸易港打造成展示中国风范的靓丽名片。', '习近平指出，推进自由贸易港建设是一个复杂的系统工程，要做好长期奋斗的思想准备和工作准备。要继续抓好海南自由贸易港建设总体方案和海南自由贸易港法贯彻落实，把制度集成创新摆在突出位置，强化“中央统筹、部门支持、省抓落实”的工作推进机制，确保海南自由贸易港如期顺利封关运作。要坚持党的领导不动摇，自觉站在党和国家大局上想问题、办事情，始终坚持正确政治方向。要坚持中国特色社会主义制度不动摇，牢牢把握中国特色社会主义这个定性。要坚持维护国家安全不动摇，加强重大风险识别和防范，统筹改革发展稳定，坚持先立后破、不立不破。', '习近平强调，要把海南更好发展起来，贯彻新发展理念、推动高质量发展是根本出路。要聚焦发展旅游业、现代服务业、高新技术产业、热带特色高效农业，加快构建现代产业体系。要加快科技体制机制改革，加大科技创新和成果转化力度。要突出陆海统筹、山海联动、资源融通，推动城乡区域协调发展。要着力破除各方面体制机制弊端，形成更大范围、更宽领域、更深层次对外开放格局。', '习近平指出，要深入推进农业供给侧结构性改革，加强农业全产业链建设，严守生态保护红线、永久基本农田、城镇开发边界三条控制线。要推进城乡及垦区一体化协调发展，加快推进国家南繁科研育种基地建设，完善天然橡胶产业扶持政策。要深入打好污染防治攻坚战，落实最严格的围填海管控和岸线开发管控措施。要扎实推进国家生态文明试验区建设。热带雨林国家公园是国宝，是水库、粮库、钱库，更是碳库，要充分认识其对国家的战略意义，努力结出累累硕果。', '习近平强调，越是深化改革、扩大开放，越要加强精神文明建设。要持之以恒抓好理想信念教育，培育和弘扬社会主义核心价值观，广泛开展群众性精神文明创建活动，不断提升人民文明素养和社会文明程度。要加强诚信建设，倡导遵纪守法、诚实守信的社会风尚。', '习近平指出，要实施更多有温度的举措，落实更多暖民心的行动，用心用情用力解决好人民群众的急难愁盼问题，积极探索共同富裕的实现途径。要继续实施减负稳岗扩就业政策，健全重要民生商品保供稳价机制。要全面贯彻党的教育方针，统筹推进义务教育均衡发展和城乡一体化。要全面做好社会治理工作，扎实做好安全生产工作，常态化开展扫黑除恶斗争，严厉打击各类涉海违法犯罪活动。', '习近平强调，要坚持严的主基调，深入推进全面从严治党，以党的政治建设为统领推进党的各方面建设。要巩固拓展党史学习教育成果，弘扬伟大建党精神，用好海南琼崖纵队纪念场所、红色娘子军纪念园等红色资源，引导广大党员、干部坚定理想信念，传承红色基因，赓续红色血脉。要加强干部教育培训，引导广大党员、干部用党的创新理论武装头脑，自觉践行初心使命，着力解决“本领恐慌”、能力不足的问题，着力克服形式主义、官僚主义。要夯实基层基础，持续扩大党组织有效覆盖，把各领域基层党组织建设成为坚强战斗堡垒。要保持反腐败的高压态势，准确把握反腐败斗争新的阶段性特征，一体推进不敢腐、不能腐、不想腐，在土地批租、房地产开发、招商引资、项目建设等方面健全制度、堵塞漏洞，营造良好政治生态。', '习近平指出，当前全球新冠肺炎疫情仍然十分严重，尤其不能放松防控工作。坚持就是胜利。要坚持人民至上、生命至上，坚持外防输入、内防反弹，坚持科学精准、动态清零，抓细抓实疫情防控各项举措。要克服麻痹思想、厌战情绪、侥幸心理、松劲心态，针对病毒变异的新特点，提高科学精准防控本领，完善各种应急预案，严格落实常态化防控措施，最大限度减少疫情对经济社会发展的影响。', '中共中央总书记、国家主席、中央军委主席习近平近日在海南考察时强调，要坚决贯彻党中央决策部署，坚持稳中求进工作总基调，完整、准确、全面贯彻新发展理念，全面深化改革开放，坚持创新驱动发展，统筹疫情防控和经济社会发展，统筹发展和安全，解放思想、开拓创新，团结奋斗、攻坚克难，加快建设具有世界影响力的中国特色自由贸易港，让海南成为新时代中国改革开放的示范，以实际行动迎接党的二十大胜利召开。']</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A124" t="n">
+        <v>129</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
           <t>孙春兰在吉林调研坚定必胜信心尽快控制疫情</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
+      <c r="E124" t="inlineStr">
         <is>
           <t>2022-03-17</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr">
+      <c r="F124" t="inlineStr">
         <is>
           <t>http://www.gov.cn/guowuyuan/2022-03/16/content_5679435.htm</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
+      <c r="G124" t="inlineStr">
         <is>
           <t>['新华社长春3月16日电 中共中央政治局委员、国务院副总理孙春兰13日至16日到吉林省调研指导疫情防控工作，传达学习贯彻习近平总书记重要指示批示精神，要求各级党政干部切实把思想和行动统一到党中央、国务院决策部署上来，进一步把握防控的思路重点，咬紧牙关持续奋战，集中资源破除堵点，从严从紧、抓细抓实落实各项防控措施，切实提升阻断疫情传播的速度和力度，用最短时间实现社会面清零。', '吉林省本轮疫情毒株为奥密克戎变异株BA.2进化分支，98%的感染者集中在吉林、长春两市。孙春兰实地考察了九台一中、吉林大学、吉林农业科技学院等疫情较重的学校以及方舱医院、封控小区、疾控中心、指挥调度中心，了解核酸筛查、流调排查、密接人员隔离、感染者收治、患者救治等情况。为加快推进应检尽检、应收尽收、应隔尽隔、应治尽治，协调支援核酸检测力量和抗原检测试剂，推动组织开展高质量的全员筛查；指导建设方舱医院，抽调医护人员和流调、检测等专业力量，推动新发现感染者及时转运收治；调用征用酒店、保障房等扩充隔离房间，提高密接人员集中隔离能力。目前，制约吉林省疫情防控的瓶颈问题基本得到解决，各项防控措施正在加紧推进。', '孙春兰指出，当前吉林省疫情仍在高位流行，社区传播仍未彻底阻断。要继续组织好全员筛查，科学开展核酸和抗原检测，力求做到“四早”“四应”。对新发现感染者2小时内完成网络报告，加强社区和定点医院、方舱医院的衔接，第一时间转运收治到位。掌握隔离人员转归情况，统筹调配隔离房间，加快隔离资源周转使用。加强隔离酒店、方舱医院、医疗机构规范管理，工作人员严格闭环，避免交叉感染。保障封控小区居民基本生活和就医购药需求，指定专人负责、专车转运到对口医院，切实做好孕妇、儿童、透析患者、急诊病人等医疗服务。要完善学校常态化防控措施，各学校推开抗原检测，原则上将每天抽检比例扩大到20%，提高疫情早发现能力。', '中共中央政治局委员、国务院副总理孙春兰13日至16日到吉林省调研指导疫情防控工作，传达学习贯彻习近平总书记重要指示批示精神，要求各级党政干部切实把思想和行动统一到党中央、国务院决策部署上来，进一步把握防控的思路重点，咬紧牙关持续奋战，集中资源破除堵点，从严从紧、抓细抓实落实各项防控措施，切实提升阻断疫情传播的速度和力度，用最短时间实现社会面清零。']</t>
         </is>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A125" t="n">
+        <v>129</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
           <t>孙立成到北京考察养老社区建设</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
+      <c r="E125" t="inlineStr">
         <is>
           <t>2022-01-12</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr">
+      <c r="F125" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2022/1/12/art_1861_4904112.html</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
+      <c r="G125" t="inlineStr">
         <is>
           <t>['1月11日上午，省委常委、市委书记孙立成在北京考察养老社区建设情况时指出，养老服务关系千家万户，事关群众切身利益。要坚持以人民为中心，坚持政府、市场、社会同向发力，学习借鉴先进经验，完善多层次养老服务体系。', '孙立成一行来到位于北京市昌平区的泰康之家·燕园考察。该社区是泰康保险集团在国内投资兴建的首家大规模、全功能、国际标准的高品质养老社区，共分三期规划，可提供约3000个养老单元。目前一期、二期已投入使用，入住2000多位老人。孙立成参观考察了该社区的老年人健康休闲、健身锻炼、文化娱乐、餐饮服务、兴趣培养等场所，与泰康保险集团执行副总裁兼泰康养老董事长李艳华深入交流，详细了解养老社区规划、建设、运营、配套等情况。社区配套建设的泰康燕园康复医院，以康复医学、老年医学、健康管理为重点发展方向，设有综合门诊、康复中心、健康服务中心、远程会诊中心、门诊血透中心，可以为入住老人提供基本的医疗康复服务。孙立成参观考察了康复医院，详细了解诊疗服务、医疗康复设施配备、医保政策匹配等情况。孙立成说，泰康养老社区的建设运营模式和发展理念，对于我们提升养老服务水平很有启发，值得我们学习借鉴，希望进一步加强交流合作。', '孙立成指出，应对人口老龄化趋势、做好新时代老龄工作，需要建立完善高质量养老服务体系。我们要深入学习贯彻习近平总书记关于老龄工作的重要指示精神，始终坚持以人民为中心的发展思想，善于学习借鉴先进经验，坚持政府、市场、社会同向发力，不断健全多层次养老服务体系，积极发展医养健康产业，加快建设老年友好型城市，切实让广大老年人老有所养、老有所依、老有所乐、老有所安。']</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A126" t="n">
+        <v>129</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
           <t>习近平在海南考察时强调解放思想开拓创新团结奋斗攻坚克难加快建设具有世界影响力的中国特色自由贸易港</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
+      <c r="E126" t="inlineStr">
         <is>
           <t>2022-04-14</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr">
+      <c r="F126" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2022/4/14/art_76833_4913276.html</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
+      <c r="G126" t="inlineStr">
         <is>
           <t>['习近平在海南考察时强调 解放思想开拓创新团结奋斗攻坚克难 加快建设具有世界影响力的中国特色自由贸易港', '中共中央总书记、国家主席、中央军委主席习近平近日在海南考察时强调，要坚决贯彻党中央决策部署，坚持稳中求进工作总基调，完整、准确、全面贯彻新发展理念，全面深化改革开放，坚持创新驱动发展，统筹疫情防控和经济社会发展，统筹发展和安全，解放思想、开拓创新，团结奋斗、攻坚克难，加快建设具有世界影响力的中国特色自由贸易港，让海南成为新时代中国改革开放的示范，以实际行动迎接党的二十大胜利召开。', '4月10日至13日，习近平在海南省委书记沈晓明、省长冯飞陪同下，先后来到三亚、五指山、儋州等地，深入科研单位、国家公园、黎族村寨、港口码头等进行调研。', '10日下午，习近平首先来到位于三亚市崖州湾科技城的崖州湾种子实验室考察调研。习近平听取了科技城规划建设和实验室总体情况介绍，察看了实验室搭建平台支持种业创新成果展示，对海南省探索农业科技创新模式、支撑保障国家粮食安全的做法表示肯定。习近平先后走进大型仪器公共服务中心、精准分子设计育种中心，同科研人员深入交流。习近平指出，中国人的饭碗要牢牢端在自己手中，就必须把种子牢牢攥在自己手里。要围绕保障粮食安全和重要农产品供给集中攻关，实现种业科技自立自强、种源自主可控，用中国种子保障中国粮食安全。要继承和发扬老一辈农业科研工作者胸怀祖国、服务人民的优秀品质，拿出十年磨一剑的劲头，勇攀农业科技高峰。', '随后，习近平来到中国海洋大学三亚海洋研究院，了解海洋观测设备与信息服务系统研发应用情况，连线“深海一号”作业平台。前方工作人员向总书记汇报了一线工作情况。习近平向他们表示诚挚问候，嘱咐他们注意安全、保重身体。习近平强调，建设海洋强国是实现中华民族伟大复兴的重大战略任务。要推动海洋科技实现高水平自立自强，加强原创性、引领性科技攻关，把装备制造牢牢抓在自己手里，努力用我们自己的装备开发油气资源，提高能源自给率，保障国家能源安全。', '考察途中，习近平下车察看沿海生态环境保护工作，并为他在12年前种下的一棵不老松施肥浇水。习近平叮嘱当地负责同志加强陆海统筹，把生态保护工作作为一项重要任务抓紧抓好。', '海南省于2011年4月20日试点实行离岛免税政策。11日上午，习近平来到三亚国际免税城，实地了解离岛免税政策落地实施等情况。习近平指出，要更好发挥消费对经济发展的基础性作用，依托国内超大规模市场优势，营造良好市场环境和法治环境，以诚信经营、优质服务吸引消费者，为建设中国特色自由贸易港作出更大贡献。', '11日下午，习近平到海南岛中南部的五指山市考察调研。海南热带雨林国家公园是我国首批5个国家公园之一。习近平深入五指山片区，沿木栈道步行察看公园生态环境，不时停下脚步，询问树木生长、水源涵养、动植物资源保护等情况。他指出，海南要坚持生态立省不动摇，把生态文明建设作为重中之重，对热带雨林实行严格保护，实现生态保护、绿色发展、民生改善相统一，向世界展示中国国家公园建设和生物多样性保护的丰硕成果。', '水满乡毛纳村是五指山市一个黎族村寨，近年来积极推进美丽乡村建设，大力发展乡村旅游业。习近平总书记来到村里调研，沿村道边走边看。黎族村民王柏和一家热情将总书记迎进家里。习近平察看院落、客厅、卧室等，在手工茶坊参与炒茶劳动，并买下两袋茶叶。习近平勉励他们把茶叶经营好，把日子过得更红火。', '在村寨凉亭内，习近平同驻村第一书记、乡镇乡村振兴工作队队长、村支部书记、老党员、致富带头人代表等亲切交谈，了解当地因地制宜发展特色产业，加强民族传统文化保护传承等情况。习近平强调，推动乡村全面振兴，关键靠人。要建设一支政治过硬、本领过硬、作风过硬的乡村振兴干部队伍，吸引包括致富带头人、返乡创业大学生、退役军人等在内的各类人才在乡村振兴中建功立业。要强化农村基层党组织建设，充分发挥基层党组织战斗堡垒作用。', '习近平沿长廊察看黎族特色农产品和黎锦、藤编等非物质文化遗产展示。广场上，歌声悠扬、鼓乐齐奏，村民们跳起竹竿舞迎接远方的客人。习近平亲切地对大家说，很高兴来看望黎族乡亲们，看到你们过上幸福生活，我感到很欣慰。我们全面建成小康社会以后，还要继续奔向全体人民共同富裕，建设社会主义现代化国家。乡村振兴要在产业生态化和生态产业化上下功夫，继续做强做大有机农产品生产、乡村旅游、休闲农业等产业，搞好非物质文化遗产传承，推动巩固拓展脱贫攻坚成果同乡村全面振兴有效衔接。各级领导干部要贯彻党的群众路线，牢记党的根本宗旨，想群众之所想，急群众之所急，把所有精力都用在让老百姓过好日子上。', '12日上午，习近平来到地处海南岛西北部的儋州市考察调研。在展示馆，习近平听取洋浦经济开发区建设发展总体情况介绍，并仔细观看了开发区发展历程、建设成就、未来规划以及入驻企业成果等展示。习近平指出，洋浦经济开发区作为海南自由贸易港先行区、示范区，要总结好海南办经济特区经验，用好“中国洋浦港”船籍港的政策优势，大胆创新、先行先试。', '随后，习近平来到洋浦国际集装箱码头小铲滩港区，了解港口建设发展情况，同现场作业人员、挂职干部代表等亲切交流。习近平强调，振兴港口、发展运输业，要把握好定位，增强适配性，坚持绿色发展、生态优先，推动港口发展同洋浦经济开发区、自由贸易港建设相得益彰、互促共进，更好服务建设西部陆海新通道、共建“一带一路”。他指出，党中央选派干部来自由贸易港挂职，既体现了党中央对自由贸易港建设的关心和支持，也是对干部的培养锻炼，要发挥挂职干部的积极作用，让他们在基层一线增长才干。', '13日上午，习近平在参观海南全面深化改革开放和中国特色自由贸易港建设成果展后，听取了海南省委和省政府工作汇报，对海南各项工作取得的成绩给予肯定，希望海南以“功成不必在我”的精神境界和“功成必定有我”的历史担当，把海南自由贸易港打造成展示中国风范的靓丽名片。', '习近平指出，推进自由贸易港建设是一个复杂的系统工程，要做好长期奋斗的思想准备和工作准备。要继续抓好海南自由贸易港建设总体方案和海南自由贸易港法贯彻落实，把制度集成创新摆在突出位置，强化“中央统筹、部门支持、省抓落实”的工作推进机制，确保海南自由贸易港如期顺利封关运作。要坚持党的领导不动摇，自觉站在党和国家大局上想问题、办事情，始终坚持正确政治方向。要坚持中国特色社会主义制度不动摇，牢牢把握中国特色社会主义这个定性。要坚持维护国家安全不动摇，加强重大风险识别和防范，统筹改革发展稳定，坚持先立后破、不立不破。', '习近平强调，要把海南更好发展起来，贯彻新发展理念、推动高质量发展是根本出路。要聚焦发展旅游业、现代服务业、高新技术产业、热带特色高效农业，加快构建现代产业体系。要加快科技体制机制改革，加大科技创新和成果转化力度。要突出陆海统筹、山海联动、资源融通，推动城乡区域协调发展。要着力破除各方面体制机制弊端，形成更大范围、更宽领域、更深层次对外开放格局。', '习近平指出，要深入推进农业供给侧结构性改革，加强农业全产业链建设，严守生态保护红线、永久基本农田、城镇开发边界三条控制线。要推进城乡及垦区一体化协调发展，加快推进国家南繁科研育种基地建设，完善天然橡胶产业扶持政策。要深入打好污染防治攻坚战，落实最严格的围填海管控和岸线开发管控措施。要扎实推进国家生态文明试验区建设。热带雨林国家公园是国宝，是水库、粮库、钱库，更是碳库，要充分认识其对国家的战略意义，努力结出累累硕果。', '习近平强调，越是深化改革、扩大开放，越要加强精神文明建设。要持之以恒抓好理想信念教育，培育和弘扬社会主义核心价值观，广泛开展群众性精神文明创建活动，不断提升人民文明素养和社会文明程度。要加强诚信建设，倡导遵纪守法、诚实守信的社会风尚。', '习近平指出，要实施更多有温度的举措，落实更多暖民心的行动，用心用情用力解决好人民群众的急难愁盼问题，积极探索共同富裕的实现途径。要继续实施减负稳岗扩就业政策，健全重要民生商品保供稳价机制。要全面贯彻党的教育方针，统筹推进义务教育均衡发展和城乡一体化。要全面做好社会治理工作，扎实做好安全生产工作，常态化开展扫黑除恶斗争，严厉打击各类涉海违法犯罪活动。', '习近平强调，要坚持严的主基调，深入推进全面从严治党，以党的政治建设为统领推进党的各方面建设。要巩固拓展党史学习教育成果，弘扬伟大建党精神，用好海南琼崖纵队纪念场所、红色娘子军纪念园等红色资源，引导广大党员、干部坚定理想信念，传承红色基因，赓续红色血脉。要加强干部教育培训，引导广大党员、干部用党的创新理论武装头脑，自觉践行初心使命，着力解决“本领恐慌”、能力不足的问题，着力克服形式主义、官僚主义。要夯实基层基础，持续扩大党组织有效覆盖，把各领域基层党组织建设成为坚强战斗堡垒。要保持反腐败的高压态势，准确把握反腐败斗争新的阶段性特征，一体推进不敢腐、不能腐、不想腐，在土地批租、房地产开发、招商引资、项目建设等方面健全制度、堵塞漏洞，营造良好政治生态。', '习近平指出，当前全球新冠肺炎疫情仍然十分严重，尤其不能放松防控工作。坚持就是胜利。要坚持人民至上、生命至上，坚持外防输入、内防反弹，坚持科学精准、动态清零，抓细抓实疫情防控各项举措。要克服麻痹思想、厌战情绪、侥幸心理、松劲心态，针对病毒变异的新特点，提高科学精准防控本领，完善各种应急预案，严格落实常态化防控措施，最大限度减少疫情对经济社会发展的影响。']</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A127" t="n">
+        <v>129</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
           <t>济南市供销合作社关于公开年度普法数据及履职情况的报告</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
+      <c r="E127" t="inlineStr">
         <is>
           <t>2022-02-22</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr">
+      <c r="F127" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2022/2/22/art_4115_4907554.html</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
+      <c r="G127" t="inlineStr">
         <is>
           <t>['按照济南市《关于实行国家机关“谁执法谁普法”普法责任制的实施意见》《济南市国家机关“谁执法谁普法”履职报告评议活动实施办法》等要求，现将本单位2021年度普法工作履职情况报告如下：', '市供销社高度重视法治建设工作，始终把法治建设摆在重要议事日程，认真落实法治建设第一责任人职责，成立依法治社领导小组，市供销社党组书记、理事会主任任组长，班子成员任副组长，各处室负责人任成员。根据工作需要，适时召开会议，学习贯彻上级关于法治政府建设的各项决策部署，结合供销工作实际，及时研究解决有关问题，为助力乡村振兴建设提供法治保障。', '上级部门文件精神，立足部门职能，制定全市供销合作社系统开展法治宣传教育的第八个五年规划（2021-2025年），2021年度普法宣传工作计划、普法责任清单，明确普法工作指导思想、主要任务，抓好关键环节，通过“三会一课”、开展主题活动、专题讲座等方式开展多种形式法治宣传活动，进一步提升供销系统法治化建设水平。', '年2月8日，党组理论学习中心组开展学习习近平对安全生产重要指示精神、《生产安全事故应急条例》、济南市实施《地方党政领导干部安全生产责任制规定》细则；6月24日，党组理论学习中心组开展学习《中国共产党领导国家安全工作条例》《民法典》；7月29日，党组理论学习中心组开展学习《推进全面依法治国，发挥法治在国家治理体系和治理能力现代化中的积极作用》、观看《生命重于泰山--学习习近平总书记关于安全生产重要论述》电视专题片；9月10日，党组理论学习中心组开展学习《中华人民共和国公务员法》《中共中央 国务院关于印发', '月3日，党组理论学习中心组开展学习《中华人民共和国宪法》《个人信息保护法》《法律援助法》《济南市落实党政主要负责人履行推进法治建设第一责任人职责实施细则》。', '（二）组织开展国家工作人员学法考法活动6次，其中法治讲座2次，参与学习44人，法律知识考试1场次，参加考试18人次。', '、2021年9月27日，市供销社济南供销投资集团组织开展新《安全生产法》法治讲座，24人参加，学习新《安全生产法》重点修改的内容，修改的特点以及修改的重要意义等。2021年4月22日，市供销社开展民法典法治讲座，邀请律师围绕企业经营管理中遇到的法律问题进行宣讲解惑，20人参加活动。', '、2021年10月28日，市供销社组织安全生产知识竞赛活动，重点考察直属企业安全管理人员安全生产知识掌握情况，18人参加竞赛，达到了增强从业人员的安全意识，营造“比学赶帮超”良好氛围的效果。', '（一）组织开展“12·4”国家宪法日等重要节点宣传活动。制定《济南市供销社2021年国家宪法日、宪法宣传周和法治宣传教育月活动实施方案》，对市供销社法治宣传教育活动进行安排部署。主要活动具体情况：', '、2021年12月2日，市供销社部分党员代表参加市直机关工委组织的“宪法宣誓”活动。', '、2021年12月3日，市供销社举办党组理论学习中心组集体学法暨2021年全市宪法宣传周、法治宣传教育月活动启动仪式。部署安排各党支部召开专题学习会议，', '、2021年12月14日，市供销社文化市场通过市场电子大屏幕宣传宪法，在微信公众号推送《个人信息保护法》，营造尊法学法守法用法的良好氛围。', '、2021年4月15日，市供销社茶叶市场组织开展“全民国家安全教育日”宣传活动，集团党员干部职工70余人次参加活动。', '、2021年4月，市供销社开展优化营商环境法治宣传月活动。重点学习《优化营商环境条例》《山东省优化营商环境条例》。', '、2021年5月28日，市供销社英雄山文化市场利用LED显示屏广泛宣传民法典，播放民法典小剧场，通过开展活动，提高了企业经营管理人员和广大职工法律素质，增强了企业职工依法经营和依法管理能力，同时促进商铺经营户守法经营意识。', '、2021年6月4日，市供销社机关党委与双报到青龙街社区联合开展《民法典》宣传活动。通过开展活动，提高了辖区居民的法治观念，增强了居民运用法律手段维护自身合法权益、化解矛盾纠纷的意识，真正推动了《民法典》融入人民群众的日常生活。', '、2021年12月3日，市供销社开展《中华人民共和国个人信息保护法》宣传活动，使党员干部认识到《中华人民共和国个人信息保护法》是我国首部针对个人信息保护的综合性法律，具有十分重要的意义，强化了个人信息处理责任、提高网络空间个人信息保护和治理能力。', '、2021年12月16日市供销社英雄山文化市场联合英雄山社区、四里村派出向市场内500余家经营商户宣传普及反诈知识活动，推广“国家反诈中心”App下载使用。通过开展活动，强化了经营商户的防范意识，有效提高对电信诈骗的防范、鉴别和自我保护能力，为创建市场稳定经营发展提供有力保障。', '观看《永葆政治本色》《迷失初心必自毁》《监督保障执行促进完善发展－山东正风反腐2020》等廉政警示教育片，下发身边违纪人员通报，通过以案说纪，以案说法，不断增强党员干部廉洁自律意识，提升崇廉拒腐的思想自觉和行动自觉，真正检视内心，做到坚守底线、防微杜渐，忠诚履职、担当作为。']</t>
         </is>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A128" t="n">
+        <v>129</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
           <t>槐荫实现医养结合示范街道全覆盖</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
+      <c r="E128" t="inlineStr">
         <is>
           <t>2021-12-30</t>
         </is>
       </c>
-      <c r="E128" t="inlineStr">
+      <c r="F128" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2021/12/30/art_52_4902741.html</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
+      <c r="G128" t="inlineStr">
         <is>
           <t>['近日，山东省卫健委下发了《关于公布第三批省级医养结合示范乡镇（街道）名单的通知》，槐荫区道德街街道、段北东路街道、吴家堡街道、张庄路街道入选为第三批省级医养结合示范街道。至此，槐荫区实现医养结合示范街道全覆盖。', '自2018年槐荫区荣获首批省级医养结合示范先行区以来，以满足老年人健康养老需求为目标，槐荫区卫生健康局坚持以示范创建为抓手，紧紧抓住“照护谁、谁照护、如何照护”三个环节，建立康养服务数据库、医养服务专业队伍和医康养服务体系三个支撑，构建医中有养、养中有医、多层联动的医疗康养新格局，全区医养结合工作取得显著成效。', '自2020年起每年拨专款255万元，为槐荫区户籍60周岁及以上老年人免费办理“银龄安康”普惠保险，连续两年被列为政府工作报告确定的20件民生实事之一，同时依托“银龄安康”普惠保险项目，建立了槐荫区智慧康养平台，将7.3万槐荫区户籍老人信息实现大数据管理。全区37家医疗机构开通长护险业务，3000余人享受家护、院护、专护服务。', '加大培训提能力。2018年成立槐荫区医养结合教育培训基地，培训3000余名医养服务骨干，被指定为山东省老年产业协会首家医养结合老年护理培训基地、济南市医养结合培训实操基地和中医健康养老护理员培训实操基地。槐荫人民医院和尊尚老年公寓被评为济南市第一批医养结合人才培训基地。', '比武练兵促提升。选拔业务精技术硬的康复理疗师参加济南市首届医养结合技能竞赛，以赛促学，以学促能。', '交流学习强弱项。组织相关区直部门、各办事处、医疗机构、养老机构、IT业的分管领导及负责人赴上海学习，组织医养服务人员走进兄弟区县进行学习考察，组织区内相互交流学习，取长补短。', '推动签约与巡诊服务。全面落实家庭医生签约服务，驻区二级以上综合医院均开设老年病科，并与辖区医养结合机构签订医联体协议，其余的养老服务设施均与就近社区卫生服务机构签订医疗服务协议，近期11家医养结合机构与中国人民解放军联勤保障部第九六〇医院、山东省第二人民医院签订医联体服务协议并开展巡诊服务，推进医疗机构与养老机构服务深度融合。', '扎实做好老年健康与医养结合服务项目。为60周岁以上健康老年人提供2次居家医养结合服务，为失能、失智、部分失能失智老年人建档并提供健康评估服务。', '开展“互联网+护理服务”。29家社区卫生服务中心（站）、护理院等医疗卫生机构与山东优护网络科技有限公司签约，为有需求的老年人提供全生命周期的无缝隙护理服务。', '开展安宁疗护。槐荫区7家医疗机构开设安宁疗护服务床位64张，服务500余名患者，蕾娜范康养中心确定为省肿瘤医院中华护理学会京外安宁疗护实习基地，槐荫人民医院、槐荫区曜阳护理院、蕾娜范护理院荣获济南市第一批安宁疗护医疗机构（医养结合机构），济南市第五人民医院、槐荫人民医院荣获济南市第一批安宁疗护培训基地。', '加强“大康复”医疗建设。槐荫区12家社区卫生服务中心建立了标准化国医堂，发挥济南市第五人民医院、槐荫人民医院“大康复”等科室专业优势和中医治未病优势，设置老年病科，开通远程会诊，实现医、康、养一体化诊疗模式。', '推动医养结合机构提档升级。2020年尊尚老年公寓成为全区首家养老机构内设立一级医院的医养结合机构。', '健康讲堂进机构。开展“用爱搀扶，敬老康养暖心行”暨关爱老年人健康教育基地公益大讲堂活动，自12月起，济南市皮肤病防治院组织专家每月深入一家医养结合机构开展一场公益讲堂和义诊活动。切实做到了老年人小病不用出门、大病有对口医院、就医有绿色通道、康复有团队指导、临终有安宁疗护，真正实现了医疗与养老的有机结合。', '下一步，槐荫区将继续认真贯彻国家、省、市工作部署，积极发挥省级医养结合示范街道作用，大力开展医养健康工作，不断满足所辖地区老年人日益增长的健康养老需求，为“齐鲁门户，医养之都”建设作出积极贡献。']</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A129" t="n">
+        <v>129</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
           <t>济南市投资促进局用心用力用情推进我为群众办实事</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr">
+      <c r="E129" t="inlineStr">
         <is>
           <t>2021-12-29</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr">
+      <c r="F129" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2021/12/29/art_81047_4902655.html</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
+      <c r="G129" t="inlineStr">
         <is>
           <t>['“作为全市招商引资的主战场，我们不仅要走到群众当中‘办实事’，还要关心、关注、服务好企业的所需所盼。”围绕党史学习教育“我为群众办实事”实践活动，济南市投资促进局党组书记、局长鞠正江这样要求。今年以来，济南市投资促进局坚持以人民为中心，以问题为导向，用心用力用情推进“我为群众办实事”，持续擦亮“党旗飘在投促岗位上”工作品牌，进一步提升群众获得感、企业满意度，确保党史学习教育成果落地落实。', '“感谢政府，孩子可以按时入学，我也能安心工作了！”听到这个消息，济南市投资促进局投资服务处（外企投诉服务处）处长张屹心里的大石头落了地。今年6月，为了推进济南地铁四号线及莱芜山东重工绿色智能装备产业园项目，中铁十八局集团的王先生调至山东管理部，举家随之由天津搬到了济南。女儿年满6岁，户口不在本地，上学怎么办？刚到任的鞠正江在调研时了解到这个情况，立即安排投资服务处靠上跟进，多次协调市教育局，当周就成功安排孩子就近入学，为企业留住人才解除了后顾之忧。张屹表示：“保障落户企业的生产及员工生活是投资服务的重点工作之一，我们在做好分内工作的同时，坚持扩展服务范围，延伸服务触角，只要企业有需求，我们就有回应。”', '如何当好企业的“服务员”和“贴心人”？济南市投资促进局秉持着“企业利益无小事”的原则，将党史学习教育激发出的热情投入到投资促进工作的方方面面，以三大举措打通服务企业的“最后一公里”。联系企业“大走访”，精心组织“党建助力 企业注能”进外企办实事解难题活动，聚焦外企发展和诉求形成12项清单，先后开展了投促大讲堂、联合主题党日等活动，得到企业一致好评。深化工作质量“大排查”，出台《济南市外商投资企业投诉工作办法》，切实保护企业合法权益，推出“外企直通车”平台，为全市外资企业提供线上线下点对点服务，解决外资企业问题800余项。推动服务“大提升”，打造“一个便捷的综合服务平台”“一条高效的外企服务链”“一系列政策精准推送”“一支专业的服务大使队伍”“一套电子工作台账”五位一体的外企综合服务体系，走访创伟外墙保温材料、山东晨鸣融资租赁等企业，推动企业做大做强；为济南重工集团、金沙河面业生产基地等企业提供全过程跟踪服务，持续性给予前景规划建议，共谋发展新路径。', '“昨天的暴雪把咱社区的人行道都覆盖了，积雪太深，社区人手不够，急需志愿者帮助！”11月8日，双报到联系群里一条“求助”信息引起了大家的关注，社区居民的出行安全牵动着每个人的心。局机关党员志愿者们立即赶往社区，和社区工作人员一起踩冰雪、冒严寒清扫人行道积雪，为社区居民开辟出一条条“安全路”。社区吹哨、单位报到，作为历下区龙洞街道全运村社区的“结对共建”单位，济南市投资促进局坚持聚焦社区两委和社区居民“急难愁盼”问题，实现共建精准化、常态化。', '济南市投资促进局坚持以红色党建引擎统领共建共创工作，建立顶格协调机制，党组会专题研究，党组书记直接安排部署、直接推动落实，形成活动联抓、实事联办、难题联解、队伍联建的生动局面。为将实事办到群众心坎上，局机关工作人员提前开展了入户走访，广泛征求居民意见，在充分研判、梳理归纳的基础上，会同社区共同确定了“我为群众办实事”重点任务清单8项并签订了《共建协议书》。针对丰富社区活动形式、提供创城及防疫物资保障、关心关爱独居老人等实际需求，济南市投资促进局组织班子成员志愿担任社区“红领课堂”讲师，联合省委党校、龙奥学校、“红领物业”等为社区开展“红领课堂”活动4次；列支专项工作经费向社区捐赠饮用水、洗手液等必要物资，并利用春节、重阳节等传统节日走访慰问老党员，送去生活物资和党史学习书籍，开展“邮递课堂”送学上门；成立了7支志愿服务队，积极开展“解忧杂货铺”、“关爱星星的孩子”微心愿、“垃圾分类我带头我承诺”等志愿服务项目，让共建更有温度，让社区更有温情。', '10月11日，由济南市投资促进局创新打造的“投资济南活力图”上线运行，用户只要打开该平台，济南全市概览、投资政策、推介项目、产业考察路线、载体平台等信息，便可全景呈现，为投资者提供简单便捷的一站式服务。济南市投资促进局投资推广处处长孟庆波介绍：“投资济南活力图不仅整合了12个区县以及市直有关部门的招商数据资源与基础优质信息，还与‘济南政务服务一网通办’平台打通，客商足不出户尽享20余项政务服务事项。”这是济南市投资促进局在精准招商宣介上的有益探索，更是结合“我为群众办实事”实践活动实施的招引方式创新之举，为优化营商环境注入新动能。', '今年以来，济南市投资促进局顶住疫情影响和经济恢复的双重压力，在优化投资环境上下功夫，开创“内外兼修”的招商新局面。内部凝聚合力，各处室联起手来，加强产业招商政策研究，全面梳理全市有关政策文件，编制《2021年济南市双招双引政策精选》，服务保障招商活动和项目洽谈；出台《济南市积极利用外资奖励政策实施细则》，让解渴的政策跑在企业困难前头；严格落实社会化招商奖励政策，为2020年89家外商投资企业及时兑现利用外资奖励资金1.5亿元。外部激发活力，构建“1（市投资促进局）＋16（产业主管部门）＋N（区县）”的联动一体化招商新机制，各部门发挥职能优势，主动靠前服务，协调解决有关问题，推动吉利智慧新能源整车、京东山东区域总部等一批大项目、好项目签约落地；统筹全市招商引资对外推介形象，策划制作了《投资济南2021》“一片一册多指南”，围绕重点产业链、国别分类制作推介资料，征集包装全市招商引资重点项目135个；创新招商方式，聚焦意向项目及企业诉求，举办2021跨国公司（济南）高层对话会暨中日产业创新发展交流大会、济南与跨国公司产业合作（上海）交流会等重点招商活动，推动高质量招商引资阔步迈上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A130" t="n">
+        <v>129</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
           <t>黄河流域协同科技创新大会在济举行</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
+      <c r="E130" t="inlineStr">
         <is>
           <t>2021-12-19</t>
         </is>
       </c>
-      <c r="E130" t="inlineStr">
+      <c r="F130" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2021/12/19/art_1861_4901052.html</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
+      <c r="G130" t="inlineStr">
         <is>
           <t>['12月18日上午，黄河流域协同科技创新大会在济南举行。科学技术部部长王志刚出席大会开幕式并讲话，省委书记李干杰致辞。科技部副部长邵新宇出席，省委常委、市委书记孙立成主持大会，副省长凌文出席。', '王志刚说，党的十八大以来，习近平总书记对黄河流域生态保护和高质量发展作出一系列重要指示要求。今年10月，习近平总书记深入山东东营黄河入海口考察，了解盐碱地综合利用和现代农业发展情况并提出明确要求，为我们坚持科技先行、依靠创新推动黄河流域生态保护和高质量发展指明了方向。进入新发展阶段，加快推进黄河重大国家战略，需要进一步强化目标导向、问题导向，向科技创新要方法、要答案。科技部正按照党中央、国务院规划部署，组织实施黄河流域生态保护和高质量发展科技创新工作。下一步，要着力打造好东西部协同联动创新共同体，依托国家自贸区和高新区核心载体加强协同创新，建设产业链创新链有效融合的科技成果跨区域转移转化平台。科技部愿与沿黄各省区一道，加快提升黄河流域创新能级，更好发挥科技创新的支撑和辐射带动作用，为黄河流域生态保护和高质量发展作出更多科技贡献。', '李干杰在致辞时说，黄河流域是我国重要的生态屏障和经济地带。近年来，我们深入学习贯彻习近平总书记重要指示要求，突出抓好生态保护，突出强化科技支撑，突出推进动能转换，突出深化科研合作，扎实推动黄河流域生态保护和高质量发展战略落地落实。首届黄河流域协同科技创新大会在山东举办，体现了科技部对山东工作的关心重视，必将开启协同落实黄河重大国家战略新篇章。我们将以此次大会为契机，深入实施科教强省、人才兴鲁战略，加快搭建高能级科创平台，聚力攻克关键核心技术，努力打造区域创新高地，不断深化科技体制改革，持续扩大科技交流合作，努力构筑黄河流域科创大走廊，推动形成具有黄河流域特色的新型创新体系。我们衷心希望与沿黄各省区通力协作，共同奏响新时代黄河“大合唱”。', '开幕式现场发布了《十省区科技厅关于加强科技创新协作促进黄河流域生态保护和高质量发展的联合倡议书》，发布了黄河流域“揭榜挂帅”重大产业技术需求。', '黄河流域协同科技创新大会由科学技术部、山东省人民政府指导，以“践行黄河国家战略强化区域科技协作”为主题，采取线上线下相结合的方式举办，在沿黄各省区及新疆维吾尔自治区设分会场。大会还举行了院士恳谈会。', '中国科学院、中国工程院院士代表，科技部有关部门负责同志，省直有关部门有关负责同志，市领导蒋晓光、王宏志，各市科技局和11个国家级高新区主要负责同志在主会场参加。']</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A131" t="n">
+        <v>129</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
           <t>习近平出席中央军委人才工作会议并发表重要讲话</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
+      <c r="E131" t="inlineStr">
         <is>
           <t>2021-11-29</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr">
+      <c r="F131" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2021/11/29/art_76833_4897738.html</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
+      <c r="G131" t="inlineStr">
         <is>
           <t>['中央军委人才工作会议26日至28日在京召开。中共中央总书记、国家主席、中央军委主席习近平出席会议并发表重要讲话。他强调，强军之道，要在得人。人才是推动我军高质量发展、赢得军事竞争和未来战争主动的关键因素，对实现党在新时代的强军目标、把我军全面建成世界一流军队具有重大现实意义和深远历史意义。要贯彻中央人才工作会议精神，深入实施新时代人才强军战略，确保为实现建军一百年奋斗目标提供坚实支撑，人才总体水平跻身世界强国军队前列。', '26日下午4时许，习近平来到京西宾馆，在热烈的掌声中，亲切接见会议代表，同大家合影留念。', '习近平在讲话中首先强调，党的十九届六中全会全面总结了我们党百年奋斗重大成就和历史经验，强调要坚持党管人才原则，深入实施新时代人才强国战略，加快建设世界重要人才中心和创新高地，聚天下英才而用之。要结合全会精神学习贯彻，全面做好新时代人才强军各项工作。', '习近平指出，党的十八大以来，党中央和中央军委实施人才强军战略，坚持人才工作正确政治方向，聚焦备战打仗培养人才，加强军事人员现代化建设布局，深化军事人力资源政策制度改革，推动人才领域开放融合，我军人才工作取得历史性成就。', '习近平强调，世界百年未有之大变局加速演变，新一轮科技革命和军事革命日新月异，我军正按照国防和军队现代化新“三步走”战略安排、向实现建军一百年奋斗目标迈进，全军要增强深入实施新时代人才强军战略的使命感和紧迫感，科学谋划，抓紧行动，全方位加强人才工作，更好发挥人才对强军事业的引领和支撑作用。', '习近平指出，实施新时代人才强军战略，要贯彻新时代党的强军思想，贯彻新时代军事战略方针，贯彻国防和军队现代化战略安排，聚焦实现建军一百年奋斗目标，推动军事人员能力素质、结构布局、开发管理全面转型升级，锻造德才兼备的高素质、专业化新型军事人才，确保军事人员现代化取得重大进展，关键领域人才发展取得重大突破。实施新时代人才强军战略，必须把党对军队绝对领导贯彻到人才工作各方面和全过程，必须把能打仗、打胜仗作为人才工作出发点和落脚点，必须面向世界军事前沿、面向国家安全重大需求、面向国防和军队现代化，必须全方位培养用好人才，必须深化军事人力资源政策制度改革，必须贯彻人才强国战略。', '习近平强调，实施新时代人才强军战略，要统筹全局、突出重点，全面推进人才培养、使用、评价、服务、支持、激励等各项工作，以重点突破带动整体提升。要在党和国家人才工作大盘子中谋划推进我军人才工作，坚持军事需求导向，搞好规划对接、政策对接、工作对接，形成我军人才工作高效推进的良好局面。', '习近平指出，政治标准是我军人才第一位的标准，政治要求是对我军人才最根本的要求。要牢牢把住政治关，加强思想政治建设，做好铸魂育人和政治考察工作，确保培养和使用的人才政治上绝对过硬。', '习近平强调，要坚持走好人才自主培养之路，坚持军队培养为主、多种方式相结合，形成具有我军特色的人才培养和使用模式，提高备战打仗人才供给能力和水平。要下大气力强化科技素养，提高打赢现代战争实际本领。要贯彻新时代军事教育方针，落实院校优先发展战略，加快建设一流军事院校、培养一流军事人才。要加强实践历练，鼓励引导官兵在火热军事实践中经风雨、见世面、壮筋骨、长才干。', '习近平指出，要用好用活各方面人才，坚持以用为本，精准高效配置军事人力资源，确保人才得到最佳配置、发挥最大效能。要坚持分类施策，抓好联合作战指挥人才、新型作战力量人才、高层次科技创新人才、高水平战略管理人才培养使用，发挥好军士和文职人员作用。', '习近平强调，要把握军事人才成长规律，把握各类人才发展特点要求，创新管理理念和方式方法，加强专业化、精细化、科学化管理。要推进军事人力资源政策制度体系优化，加强政策制度配套建设。要在全军营造信任人才、尊重人才、支持人才、关爱人才浓厚氛围，把广大人才干事创业积极性、主动性、创造性充分激发出来。', '习近平指出，军委要加强对人才工作的领导，各级党委要履行好主体责任。领导干部特别是高级干部要有强烈的人才意识，当好新时代的伯乐。中央和国家机关、地方各级党委和政府要支持军队做好人才工作，齐心协力把强军事业不断推向前进。', '中共中央政治局委员、中央军委副主席许其亮，中共中央政治局委员、中央军委副主席张又侠出席会议，并就贯彻落实习近平总书记重要讲话精神、做好新时代我军人才工作提出要求。', '中央军委委员魏凤和、李作成、苗华、张升民出席会议。军委机关各部门，各战区、各军兵种、军事科学院、国防大学、国防科技大学、武警部队有关领导同志等参加会议。']</t>
         </is>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A132" t="n">
+        <v>129</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
           <t>河南省供销社一行来济调研</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr">
+      <c r="E132" t="inlineStr">
         <is>
           <t>2021-12-16</t>
         </is>
       </c>
-      <c r="E132" t="inlineStr">
+      <c r="F132" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2021/12/16/art_4115_4900714.html</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
+      <c r="G132" t="inlineStr">
         <is>
           <t>['月15日，河南省供销合作社党组书记、理事会主任童孟进一行来济调研，山东省供销社党组书记、理事会主任付伟、党组成员、理事会副主任于庆峰、济南市供销合作社党组成员、理事会副主任齐玉鹏等领导陪同。', '日上午，河南省供销社调研组前往济南茶叶集团进行调研，走访参观了市场特色建筑场馆以及部分商户，调研组高度评价市场在茶产业产销对接方面所取得的成绩，希望双方能互相交流经验，两地协作发展，打通鲁豫茶产业的最后一公里，为整个北方茶产业的振兴做出贡献，双方还就新形势下新经济对茶产业的影响、如何提高市场的营商环境、商户的市场竞争力等多方面进行了交流和探讨。', '日下午，调研组前往章丘区就农资储备销售、粮食收储、“土地股份合作+全程托管服务”等情况进行调研。调研组一行先后到高官寨为农服务综合平台、高官寨农业发展服务中心、鲁供丰农粮食烘干仓储基地、黄河街道乡村记忆馆等地进行了实地考察，对章丘区供销系统发展特色农业、探索开展大田作物全程托管服务、加快为农服务体系建设等做法给予高度评价。调研组表示，章丘区充分发挥供销社在乡村振兴中的优势和作用，在为农服务和助农增收等方面不断拓宽新思路、开辟新路径，许多典型经验和做法值得学习借鉴。']</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A133" t="n">
+        <v>129</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
           <t>关于加快我市工业互联网创新发展的几点建议</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
+      <c r="E133" t="inlineStr">
         <is>
           <t>2021-11-19</t>
         </is>
       </c>
-      <c r="E133" t="inlineStr">
+      <c r="F133" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2021/11/19/art_73672_4896990.html</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
+      <c r="G133" t="inlineStr">
         <is>
           <t>['建好用好工业互联网，能够全方位打通产业链供应链，加快制造业数字化转型步伐，是我们加快实施工业强市战略、推动实体经济高质量发展的有效手段。近期,在深入了解国家和先进省市相关政策措施基础上，市政府研究室联合市工信局赴苏州、武汉、广州三地考察学习，与有关企业、园区、平台、联盟、机构开展座谈交流，并结合当前形势和我市实际，聚焦二级节点建设、平台生态打造、企业赋能应用等三个方面提出对策建议。', '一、抢抓国家基础设施建设布局机遇，加快培育壮大一批二级解析节点，打通产业链条信息传输渠道，促进相关产业集聚发展，抢占工业互联网发展新赛道。二级节点直接面向行业、企业提供标识注册和解析服务，是构建工业互联网的枢纽节点，在联通产业链上下游、促进企业协同集聚发展方面均发挥着重要作用。', '一、抢抓国家基础设施建设布局机遇，加快培育壮大一批二级解析节点，打通产业链条信息传输渠道，促进相关产业集聚发展，抢占工业互联网发展新赛道。', '（一）做好扶持培育计划。研究制定二级节点三年培育行动计划，确定具体任务指标，筛选具备建设条件的企业，做好动员引导和支持保障，探索实行股权投资模式，加大资金奖补力度，确保建成总数走在全国前列。同时加快推动星火链网签约落地建设，同步推进基于IPv6、工业以太网、泛在无线等新型技术的基础设施布局，促进工业互联网与移动互联网、物联网、云计算的融合发展。', '（二）依托现有节点做强相关产业集群。由市政府主管部门和各区县、园区、功能区牵头，结合我市产业发展尤其是节点行业现状需求，研究制定面向行业和区域的节点建设发展规划和相关政策措施，支持现有节点企业拓展行业用户，提高标识解析量，扩大节点影响力；在信息技术、高端装备制造、生物医药等领域推动领军企业建设二级节点及企业级节点，开展各类标识解析创新应用，吸引上下游服务商和企业落户，推动形成产业集群。', '二、牢牢抓住产业生态打造这个关键环节，加大平台培育和招引力度，集聚一批大中小服务商，增强全行业全链条资源整合能力，夯实工业互联网发展根基。工业互联网平台通过服务制造业数字化、网络化、智能化需求，构建起基于海量数据采集、汇聚、分析的综合服务体系，是支撑制造资源泛在连接、弹性供给、高效配置的载体，是推动工业互联网由底层技术向实际应用转化的关键基础。从南方先进城市发展情况看，很多优秀的工业互联网平台都是从制造企业转型发展起来的，它们深耕行业多年，在把握行业发展趋势、发掘企业研发生产经营痛点、累积关键技术参数、整合产业链供应链创新链等方面优势突出，能够有效引导和带动制造企业数字化转型、信息化改造，提升工业互联网应用水平，是打造集群化协同化的产业发展生态的主要推动者。', '二、牢牢抓住产业生态打造这个关键环节，加大平台培育和招引力度，集聚一批大中小服务商，增强全行业全链条资源整合能力，夯实工业互联网发展根基。', '（一）支持本地平台做大做强。支持浪潮云洲、万腾“腾云”等优秀平台加大研发投入、提升技术供给质量，面向更多行业和场景开发提供低成本、易推广的应用服务，扩大对工业企业的渗透率和覆盖率。鼓励龙头制造企业与解决方案服务商、通信运营商、标识解析商等组建联合体，共建行业级工业互联网平台，面向产业集群数字化转型共性需求，加强对上下游数据资源的整合分析利用，通过集约采购、共享设计、协同生产等方式，带动产业链整体改造升级、提质增效。筛选一批优秀中小型平台服务商，在税收减免、资金奖补、市场推广等方面给予支持，帮助“小树苗”茁壮成长。', '（二）加快招引一批平台服务商。发挥省会区位和资源优势，积极争取中国信通院在济设立分支机构，搭建区域性公共服务和创新应用平台，推动树根、阿里、华为等头部平台在济设立区域中心，聚焦重点产业引进一批面向垂直领域的行业性、功能性平台，扩大赋能服务覆盖面。发挥行业协会、产业联盟等作用，建立生态供给资源池，吸引集聚一批懂行业、有技术的专业服务商，拓展供需对接渠道，提升应用推广效率，为更多中小企业提供个性化的解决方案和可持续的现场服务。', '（三）构建政企研协同的产业生态。发挥政府政策优势、企业市场优势和高校科研优势，共建协同研发、数据应用、创业孵化等公共创新服务平台，促进数据整合、知识积累、方案复用，推动多个领域的技术研发和产业化应用，构建形成覆盖行业全链条、服务企业全周期的产业生态体系。', '三、强力推进企业赋能应用这个终端支撑，开辟更多应用场景，打造一批标杆示范企业，加快建设引领全省、辐射全国的工业互联网创新发展高地。工业互联网建设得好不好，关键体现在应用上。当前，最紧迫的是先把用户规模做起来，就像广州一位同志讲的，“没有太阳，星星月亮多了也挺好”。但目前整体情况是“上热下冷”，政府层面热情很高、积极推广，但企业层面主动性不强，存在不想用、不会用、不敢用的问题，工业互联网应用的整体覆盖率较低。', '三、强力推进企业赋能应用这个终端支撑，开辟更多应用场景，打造一批标杆示范企业，加快建设引领全省、辐射全国的工业互联网创新发展高地。', '（一）全覆盖推进企业数字化改造。充分发挥区县主体作用，全面梳理全市企业情况，探索推行免费诊断模式，根据企业自身条件、适宜程度，分类分批推进数字化改造。对容易做的，主动推企业一把；对稍微难做的，加把劲推一把；对难度较大的，酌情有序推进。遴选一批基础好、有实力的行业龙头企业，支持开展全产业链整体改造，打造一批典型示范项目和应用场景，引导带动其它企业对标实施有针对性的智能化改造。', '（二）加大市场推广力度。发挥产业联盟作用，组织开展政策宣贯、成果解析、经验交流、联合研发等活动；支持有条件的行业协会、龙头企业牵头建设工业互联网平台应用创新推广中心，系统展示工业设备上云业务场景、功能特点和应用成效，提高企业认知度和积极性。在相关部门系统开展专题业务培训，加快组建市级数字专员队伍，深入企业开展“顾问+专员”服务，引导和挖掘企业数字化转型需求，集中推广工业互联网应用服务。', '（三）建设工业互联网示范基地。鼓励和支持各区县积极布局工业互联网产业，推动龙头企业、产业链上下游企业、院校及技术服务商等在各重点产业园区集聚，打造具有区域特色的工业互联网技术产业体系和产业集群，支持重点区县申报国家级、省级工业互联网产业示范基地。另外，建议以省市一体化推进济南加快发展工作专班名义向省里提出相关建议，加快建立省会经济圈工业互联网创新发展联动机制，实现更大范围的资源共享、协同推进、整体应用，推动山东工业互联网示范区建设取得新的突破。']</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A134" t="n">
+        <v>129</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
           <t>济南市召开知识产权工作领导小组扩大会议</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr">
+      <c r="E134" t="inlineStr">
         <is>
           <t>2021-11-04</t>
         </is>
       </c>
-      <c r="E134" t="inlineStr">
+      <c r="F134" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2021/11/4/art_81041_4896819.html</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
+      <c r="G134" t="inlineStr">
         <is>
           <t>['10月29日，市知识产权工作领导小组（扩大）会议在历城区召开，会议深入学习贯彻习近平总书记关于知识产权工作重要指示论述，分析我市知识产权工作面临的形势，安排部署当前和今后一个时期知识产权工作重点任务。市政府副市长、市知识产权工作领导小组组长孙斌主持会议并讲话。市市场监管局局长、市知识产权工作领导小组副组长王建森总结近年来全市知识产权工作情况，提出下一步重点工作任务。市法院、市司法局、历城区政府作交流发言。市政府办公厅副主任吴剑，市知识产权工作领导小组成员单位、市直有关部门、相关区县分管负责同志参加会议。', '会前，与会人员集体参观考察济南知识产权服务业集聚区，了解我市商标、专利、地理标志等知识产权工作相关情况，以及集聚区建设规划及工作进展。会议传达学习习近平总书记在中央政治局第二十五次集体学习时的重要讲话和中共中央、国务院《知识产权强国建设纲要（2021—2035年）》，印发《&lt;关于强化知识产权保护的实施方案&gt;任务分工》，发放《济南市创新能力报告（知识产权白皮书）》和《济南市城市创新发展（上市公司板块）研究报告》，两份研究报告从不同维度对济南各县区知识产权状况和上市公司、龙头企业进行分析评议，为政府知识产权决策提供依据，为企业知识产权发展寻找路径。该研究成果对于摸清济南市知识产权家底，厘清知识产权工作思路，找准知识产权工作突破口，更好为济南企业科技创新服务，对助力"强省会"建设具有重要的意义。', '会议指出，知识产权作为城市发展的战略性资源和综合竞争力的核心要素，对济南经济社会高质量发展的支撑作用越来越凸显。全市各级各有关部门深入推动知识产权保护与各领域中心工作有机融合、同频共振，全市知识产权创造质量、保护效能、运用效益、管理水平和服务能力得到全面提升，综合实力显著增强，涌现出许多在全国、全省领先的亮点工作。', '会议强调，在肯定成绩的同时，也要清醒认识到差距和不足，要全力打造国内领先的知识产权要素集聚高地和保护高地。聚焦协同联动，健全知识产权保护体制机制，建立行政、司法、行业、社会协同联动工作体系，构建全方位知识产权保护体系，完善协同保护机制，建立跨区域协作机制；聚焦产业发展，打造高质量创新发展新引擎，着力培育高价值知识产权，推动知识产权高效转化，强化标准赋能；聚焦服务供给，打造知识产权保护运用最佳生态，高标准推进知识产权服务平台建设，着力提升知识产权公共服务便利化水平，不断强化知识产权要素支撑。', '会议要求，各级各相关部门要共同发力，压实工作责任，确保责任落实到位、任务按时完成；强化能力建设，加大复合型、应用型知识产权人才培养，重点在知识产权管理、运营、服务和涉外领域，培养引进一批高端人才，为重点产业培育更多知识产权人才；强化普及教育，大力开展宣传周等形式多样的宣传教育活动，推进知识产权进企业、进社区、进学校、进网络。']</t>
         </is>
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A135" t="n">
+        <v>129</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
           <t>济南市人民政府关于印发济南市十四五妇女发展规划和济南市十四五儿童发展规划的通知</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr">
+      <c r="E135" t="inlineStr">
         <is>
           <t>2021-11-26</t>
         </is>
       </c>
-      <c r="E135" t="inlineStr">
+      <c r="F135" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2021/11/26/art_2612_4901437.html</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
+      <c r="G135" t="inlineStr">
         <is>
           <t>['济南市人民政府关于印发济南市“十四五”妇女发展规划和济南市“十四五”儿童发展规划的通知', '现将《济南市“十四五”妇女发展规划》《济南市“十四五”儿童发展规划》印发给你们，请认真组织实施。', '妇女是人类文明的开创者、社会进步的推动者，是全面建设社会主义现代化国家的重要力量。男女平等和妇女全面发展程度是检验社会文明进步的重要标准。为贯彻落实男女平等基本国策，进一步推进我市妇女与经济社会同步协调发展，依照《中华人民共和国宪法》《中华人民共和国民法典》《中华人民共和国妇女权益保障法》等有关法律法规，按照《中国妇女发展纲要（2021-2030年）》《山东省“十四五”妇女发展规划》《济南市国民经济和社会发展第十四个五年规划和二○三五年远景目标纲要》总体要求，结合我市妇女发展实际，制定本规划。', '党和国家高度重视妇女事业和妇女发展。党的十八大以来，以习近平同志为核心的党中央将“坚持男女平等基本国策，保障妇女儿童合法权益”写入党的施政纲领，作为治国理政的重要内容，支持妇女发挥“半边天”作用，促进妇女全面发展加速行动。', '我市已编制实施了三个周期的妇女发展纲要、规划。在编制纲要、规划时充分考虑两性的现实差异和妇女的特殊利益，为妇女依法平等行使民主权利、平等参与经济社会发展、平等享有改革发展成果提供了重要保障。经过“十三五”时期不懈努力，我市妇女健康状况极大改善，受教育程度进一步提高，参与经济社会发展的程度不断增强，参与决策和管理的水平不断提高，社会保障水平稳步提升，合法权益得到有效保障，妇女发展的社会和自然环境更为优化，妇女发展和妇女事业取得了历史性新成就。', '进入新时代，社会主要矛盾发生历史性变化，我市妇女群众对美好生活的需要日益广泛，妇女发展不平衡不充分问题仍然突出。法律规定的男女平等权利在一些领域未能完全实现，针对妇女的偏见、歧视、暴力依然存在。主要表现在：妇女的健康需求有待进一步满足，妇女参与政治和社会治理的深度和成效有待提升，妇女就业的社会环境和政策支持尚需持续优化，妇女在人身财产、婚姻家庭等方面的权益保障面临现实困难，促进家庭生育的政策和社会支持体系需进一步完善等，促进妇女全面发展仍任重道远。', '“十四五”时期，是我市推动黄河流域生态保护和高质量发展，加快推进新时代社会主义现代化强省会建设的关键时期。新发展阶段，为妇女全面发展和妇女事业发展提供了前所未有的机遇和挑战。新起点新征程，要贯彻以人民为中心的发展思想，坚持新发展理念，坚持系统观念，充分发挥妇女在社会生活和家庭生活中的独特作用，增强妇女的获得感幸福感安全感，科学规划妇女全面发展的新目标新任务，健全完善制度机制，团结引领妇女建功新时代、奋进新征程。', '（一）指导思想。坚持以习近平新时代中国特色社会主义思想为指导，深入贯彻党的十九大和十九届二中、三中、四中、五中、六中全会精神，把握新发展阶段，贯彻新发展理念，融入新发展格局，贯彻落实男女平等基本国策，保障妇女合法权益，推动性别平等成为全社会共同遵循的行为规范和价值标准，引领妇女做伟大事业的建设者、文明风尚的倡导者、敢于追梦的奋斗者，充分发挥妇女在新时代社会主义现代化强省会建设中的“半边天”作用，保障妇女依法平等行使民主权利、平等参与经济社会发展、平等享有改革发展成果，促进我市妇女及妇女事业在新时代社会主义现代化强省会建设中走在前列。', '1.坚持党的全面领导原则。增强“四个意识”，坚定“四个自信”，做到“两个维护”，坚持妇女事业发展的正确政治方向，贯彻落实党中央关于妇女事业发展的决策部署，切实把党的领导贯穿到妇女事业发展的全过程和各方面。', '2.坚持妇女事业与经济社会同步协调发展原则。将促进妇女全面发展目标任务纳入全市经济社会发展总体规划，纳入专项规划，纳入民生实事项目，同部署、同落实，让经济社会发展成果更多惠及广大妇女。坚持统筹兼顾，推动城乡、区域、群体之间妇女均衡发展。', '3.坚持男女两性平等发展原则。贯彻落实男女平等基本国策，在出台法规政策、编制规划、配置资源、部署工作中充分考虑两性的现实差异和妇女的特殊利益，营造更加平等、包容、可持续的发展环境，缩小男女两性发展差距。', '4.坚持促进妇女全面发展原则。统筹兼顾妇女在政治、经济、文化、社会和家庭生活等方面的发展利益，有效解决制约妇女发展的重点难点问题，协调推进妇女在各领域的全面发展。', '5.坚持共建共治共享原则。依法保障妇女参与经济社会发展的权利，尊重妇女的主体地位，充分发挥妇女在统筹推进“五位一体”总体布局，协调推进“四个全面”战略布局中的重要作用，促进妇女积极投身高质量发展，踊跃参与新时代社会主义现代化强省会建设，共享经济社会发展成果。', '（三）总体目标。男女平等基本国策得到深入贯彻落实，促进男女平等和妇女全面发展的制度机制创新完善。妇女平等享有全方位全生命周期健康服务，健康水平持续提升。妇女平等享有受教育权利，素质能力持续提高。妇女平等享有经济权益，经济地位稳步提升。妇女平等享有政治权利，参与国家和经济文化社会事务管理的水平逐步提高。妇女平等享有多层次可持续的社会保障，待遇水平稳步提高。支持家庭发展的法规政策体系更加完善，社会主义家庭文明新风尚广泛弘扬。男女平等理念更加深入人心，妇女发展环境更为优化。法治体系更加健全，妇女合法权益得到切实保障。妇女的获得感幸福感安全感显著提升，妇女整体发展水平全省领先。', '（1）妇女全生命周期享有良好的卫生健康服务，妇女人均预期寿命延长，人均健康预期寿命提高。（牵头单位：市卫生健康委，责任单位：市医保局）', '（3）妇女常见病筛查率达到85%以上。（牵头单位：市卫生健康委，责任单位：市财政局、市妇联、市总工会）', '（4）妇女宫颈癌、乳腺癌防治意识明显提高。宫颈癌、乳腺癌综合防治能力不断增强。农村适龄妇女和城镇低保适龄妇女宫颈癌、乳腺癌人群检查率分别达到85%以上。35-45岁妇女宫颈癌规范筛查覆盖率达到70%以上。15岁之前适龄女孩HPV（人乳头瘤病毒）疫苗接种率达到90%以上。宫颈癌及癌前病变规范治疗率达到90%以上。（牵头单位：市卫生健康委，责任单位：市财政局、市妇联、市总工会）', '（5）减少艾滋病、梅毒和乙肝母婴传播，艾滋病母婴传播率下降到3%以下。（牵头单位：市卫生健康委，责任单位：市公安局、市妇联）', '（6）改善妇女营养状况。预防和减少孕产妇贫血。（牵头单位：市卫生健康委，责任单位：市市场监管局、市妇联）', '（7）普及健康知识，提高妇女健康素养水平。（牵头单位：市卫生健康委，责任单位：市委宣传部、市体育局、济南日报报业集团、济南广播电视台、市妇联）', '（8）增强妇女心理健康意识，妇女焦虑障碍、抑郁症患病率上升趋势减缓。（牵头单位：市卫生健康委，责任单位：市委宣传部、济南日报报业集团、济南广播电视台、市妇联）', '（9）普及生殖健康和优生优育知识，减少非意愿妊娠。（牵头单位：市卫生健康委，责任单位：市市场监管局、市委宣传部、济南日报报业集团、济南广播电视台、市教育局、市妇联）', '（10）提高妇女经常参加体育锻炼人数比例。提高妇女体质测定标准合格比例。（牵头单位：市体育局，责任单位：市妇联、市总工会）', '（11）健全妇幼健康服务体系，提升妇幼健康服务能力，妇女健康水平不断提高。（牵头单位：市卫生健康委）', '（1）完善保障妇女健康的制度机制。围绕“康养济南”“健康济南”建设，建立健全政府主导、部门协同、社会参与、行业监管、科技支撑的妇女健康保障工作机制。统筹完善医保、医疗、医药和监管机制，保障妇女获得高质量、有效率、可负担的医疗和保健服务。加大对妇女健康事业的财政投入。完善公共卫生应急管理体系，关注妇女的特殊需求。', '（2）加强妇幼健康服务体系建设。健全以妇幼保健机构为核心、以基层医疗卫生机构为基础、以大中型医院和教学科研机构为支撑的妇幼健康服务网络，提升妇幼健康服务供给能力和水平。实施“妇幼健康保障工程”，持续推进市、区县级危重孕产妇救治中心建设，推进市、县妇幼保健机构标准化建设和规范化管理。强化县、乡、村三级妇幼卫生服务网络建设，完善基层网底和转诊网络。加强复合型妇幼健康人才和产科、助产等急需紧缺人才的培养使用。', '（3）建立完善妇女全生命周期的健康管理模式。针对青春期、孕产期、育龄期、更年期和老年期等妇女的健康需求，提供全方位健康管理服务。坚持保健与临床结合，预防为主、关口前移，发挥多学科协作优势，积极发挥中医药在妇幼保健和妇女病防治中的作用。为妇女提供宣传教育、咨询指导、筛查评估、综合干预和应急救治等全方位的卫生健康服务，提高妇女健康水平和人均健康预期寿命。', '（4）保障孕产妇安全分娩。提倡科学备孕和适龄怀孕，保持适宜生育间隔，控制剖宫产率。推进婚前、孕前、孕期保健服务更加公平可及，促进优生优育。提供生育全程基本医疗保健服务，将孕产妇健康管理纳入基本公共服务范围，孕产妇系统管理率达到92%以上。加强对流动孕产妇的管理服务。为生活困难孕产妇住院分娩和危重孕产妇救治提供必要救助。持续推进高龄孕产妇等重点人群分类管理和服务。全面落实孕产妇妊娠风险筛查评估、高危专案管理、危急重症救治、孕产妇死亡个案报告和约谈通报制度。加强医疗机构产科质量安全，有效运行危重孕产妇救治网络，提高危急重症救治能力。', '（5）持续加大妇女常见病防治力度。建立妇女常见病筛查、转诊、治疗、随访一体的实施机制。加强基层妇女常见病筛查率考核，建立相应的病种管理、信息上报、项目培训、帮扶督导等配套制度。', '（6）完善宫颈癌和乳腺癌综合防治体系和救助政策。提高妇女宫颈癌和乳腺癌防控意识和能力，防控知识知晓率达到90%以上。推进适龄妇女人乳头瘤病毒疫苗接种试点工作。扩大宫颈癌和乳腺癌检查覆盖面，全面落实农村和城镇低保家庭适龄妇女宫颈癌和乳腺癌检查项目，督促用人单位落实女职工保健工作规定，定期进行女职工宫颈癌和乳腺癌筛查，提高人群筛查率。加强宫颈癌和乳腺癌筛查和诊断技术创新应用，提高筛查和服务能力，并做好监测评估工作。强化筛查和后续诊治服务的衔接，促进早诊早治。持续实施宫颈癌和乳腺癌患病困难妇女救助项目，进一步扩大救助覆盖面。', '（7）加强艾滋病、梅毒和乙肝母婴传播防治。全面落实预防艾滋病、梅毒和乙肝母婴传播综合干预措施，孕产妇艾滋病、梅毒和乙肝检测率达到98%以上，孕早期检测率达70%以上，艾滋病、梅毒感染孕产妇治疗率达95%以上，对所生儿童进行规范干预。加大艾滋病防控力度，加强艾滋病防治知识和相关政策的宣传教育，提高妇女的防范意识和能力。加强对妇女感染者的医疗服务，提高随访率。多形式为孕产妇感染者及其家庭提供健康咨询、心理和社会支持等服务。', '（8）提高妇女营养水平。持续开展营养健康科普宣传教育，因地制宜开展营养和膳食指导，提高妇女对营养标签知晓率，促进妇女学习掌握营养知识，均衡饮食、吃动平衡，预防控制营养不良和肥胖。面向不同年龄阶段妇女群体开发有针对性的营养健康信息和产品，加强对营养食品生产和流通的监管。定期开展孕期、产期、哺乳期妇女的营养监测和评估，预防和减少孕产妇缺铁性贫血。预防控制老年妇女低体重和贫血。', '（9）提升妇女健康素养。实施妇女健康知识普及行动，建立完善健康科普专家库和资源库，持续深入开展健康科普宣传教育，规范发布妇女健康信息，引导妇女树立科学的健康理念，学习健康知识，掌握身心健康、预防疾病、科学就医、合理用药知识技能。提高妇女参与疫情防控、应急避险的意识和能力。面向妇女开展控制烟草危害，拒绝酗酒、远离毒品的宣传教育。促进妇女积极投身爱国卫生运动，养成文明健康生活方式。', '（10）促进妇女心理健康。加强心理健康相关知识的宣传。根据需要开展心理咨询、评估和指导，促进妇女掌握基本的心理调适方法，预防抑郁和焦虑等心理问题。重点关注青春期、孕产期和更老年期妇女的心理健康。强化心理咨询和治疗技术在妇女保健和临床诊疗中的应用。加大应用型心理健康和社会工作人员培养力度，促进医疗机构、心理健康和社会工作服务机构提供规范诊疗、咨询和社会工作等服务。鼓励社区为有需要的妇女提供心理健康服务支持。', '（11）提高妇女生殖健康水平。普及生殖道感染、性传播疾病等防控知识。在学校教育不同阶段采用多种形式开展科学、实用的健康教育，促进学生掌握生殖健康知识，提高自我保护能力。增强男女两性性道德、性健康、性安全意识，倡导共担避孕责任。将生殖健康服务融入妇女健康管理全过程，保障妇女享有避孕节育知情选择自主权，落实基本避孕服务项目，加强产后和流产后避孕节育服务，提高服务可及性，预防非意愿妊娠。推进婚前医学检查，孕前优生健康检查，增补叶酸等婚前孕前保健服务更加公平可及。减少非医学需要的人工流产。加强对女性健康安全用品产品的质量保障。规范不孕不育症诊疗服务。规范人类辅助生殖技术应用。加强对代孕的打击力度。加强对女性卫生用品的质量监管，鼓励企业为城乡生活困难妇女提供质优价廉的卫生巾等生理期用品。', '（12）引导妇女积极参与全民健身行动。提高妇女体育活动意识，培养运动习惯。持续推进全民健身场地设施建设，打造“15分钟健身圈”“体绿结合”的体育健身生活一体化社区，增加更多妇女群众身边的“健康驿站”。推动各级各类公共体育设施免费或低收费开放，为妇女健身活动提供保障。积极发展城乡社区体育活动，丰富完善妇女健身活动赛事体系，提倡机关、企事业单位开展工间操，鼓励支持工会和社区组织开展妇女健身活动，引导妇女参与全民健身运动。加强妇女健身骨干队伍建设，推进妇女健身站点与组织建设，提高对妇女健身的指导与服务。', '（13）强化妇女健康服务的科技支撑。建设市健康医疗大数据中心，持续提升“互联网+妇幼健康”品牌，推进“互联网+”疫情监测、监督执法、职业健康、中医药服务，积极发展5G+医疗服务新业态。提升全市妇幼健康信息化管理水平。实施妇女人群健康管理和健康风险预警。促进信息技术在妇女健康领域专科医联体、医共体建设中的应用，加强医疗机构间的协作，促进分级诊疗上下联动。加强医学科研平台建设，优化科研管理体系，实施科研激励机制建设，促进妇女身心健康方面的科学研究和成果转化。', '（1）加强思想政治教育，增进妇女对习近平新时代中国特色社会主义思想的政治认同、思想认同、情感认同，引领妇女做伟大事业的建设者、文明风尚的倡导者、敢于追梦的奋斗者。（牵头单位:市妇联，责任单位：市委宣传部、市教育局、济南日报报业集团、济南广播电视台、市文化和旅游局、济南出版有限责任公司、市总工会、团市委）', '（2）教育工作全面贯彻男女平等基本国策。（牵头单位：市教育局，责任单位：市妇儿工委办公室、市妇联）', '（3）大中小学性别平等教育全面推进，教师和学生的男女平等意识明显增强。（牵头单位：市教育局，责任单位：市妇儿工委办公室、市妇联）', '（4）女童平等接受学前教育，学前3年毛入园率保持在99%以上。（牵头单位：市教育局，责任单位：市自然资源和规划局、市妇联、市残联）', '（5）女童平等接受九年义务教育，义务教育巩固率保持在99%以上。（牵头单位：市教育局，责任单位：市自然资源和规划局、市妇联、市残联）', '（6）女性平等接受高中阶段教育，高中阶段教育毛入学率达到99%。（牵头单位：市教育局，责任单位：市自然资源和规划局、市妇联、市残联）', '（7）女性接受职业教育的水平逐步提高。（牵头单位：市教育局，责任单位：市人力资源社会保障局、市科协、市妇联、市残联）', '（8）女性平等接受高等教育，消除性别因素对学生专业选择的不利影响。（牵头单位：市教育局）', '（9）女性科技人才培养力度加大，男女两性科学素质水平差距显著缩小。（牵头单位：市科技局，责任单位：市教育局、市人力资源社会保障局、市科协）', '（10）女性青壮年文盲基本消除。女性平均受教育年限不断提高。（牵头单位：市教育局，责任单位：市人力资源社会保障局、市农业农村局、市残联、市妇联）', '（11）女性终身学习意识不断增强，接受终身教育水平不断提高。（牵头单位：市教育局、市人力资源社会保障局，责任单位：市农业农村局、市科协、市总工会、市妇联）', '（12）提高妇女／性别研究水平，高等学校逐步普及社会性别知识。（牵头单位：市教育局，责任单位：市妇联）', '（1）面向妇女广泛开展思想政治教育。深入开展习近平新时代中国特色社会主义思想学习，加强党史、新中国史、改革开放史、社会主义发展史教育，以及爱国主义、集体主义、社会主义教育，促进妇女更加坚定理想信念，不断厚植爱国情怀，铸牢中华民族共同体意识，把个人理想追求融入党和国家事业大局，为全面建设社会主义现代化国家贡献力量。充分发挥学校教育主渠道作用，将思想价值引领贯穿于教育教学及其管理全过程和校园生活各方面，融入学校党组织、共青团、少先队各类主题教育和实践活动。充分发挥爱国主义教育基地和国防教育基地的思想政治教育作用。', '（2）将贯彻落实男女平等基本国策体现在教育工作全过程。增强教育工作者自觉贯彻男女平等基本国策的主动性和能动性。将男女平等基本国策落实到教育法规政策和规划制定、修订、执行和评估中，落实到各级各类教育内容、教学过程、学校管理中。抓好性别平等教育评估工作，注重吸收社会性别专家参与。在师范类院校课程设置和教学、各级各类师资培训中加入性别平等内容。', '（3）推动各级各类学校广泛开展性别平等教育。加强师资培训，研发性别平等课程。促进性别平等教育融入学校教学内容、校园文化、社团活动和社会实践活动。探索构建学校教育、家庭教育、社会教育相结合的性别平等教育模式。', '（4）保障女童平等接受学前教育。坚持学前教育普及普惠安全优质发展，普惠性幼儿园覆盖率达到88%以上。为农村地区和困难群体女童、孤残女童、随迁女童和农村留守女童提供接受普惠性学前教育的条件和机会。', '（5）保障女童平等接受义务教育的权利。深化教育教学改革，加快城乡义务教育一体化发展，均衡配置教育资源，确保女童平等接受公平优质的义务教育。健全精准控辍保学长效机制，加强分类指导，督促法定监护人保障适龄女童接受义务教育。切实保障困境女童、农村留守女童、随迁女童以及残疾女童的受教育权利和机会。采取有效措施，支持学业困难女童完成义务教育，提高女童义务教育巩固率。', '（6）提高女性接受普通高中教育的水平。稳步提高普通高中学位数量，保障女性特别是教育基础薄弱地区和农村低收入家庭女性平等接受普通高中教育的权利和机会。普通高中全部建成特色高中，实现标准化、规范化基础上的多样化、特色化发展，满足女性全面发展和个性化发展需求。有针对性地开展学科选择和职业生涯规划指导，提高女性自主选择能力，破除性别因素对女性学业和职业发展的影响。', '（7）促进女性接受高质量职业教育。现代职业教育体系更加完善，五年一贯制职业教育规模不断扩大。职业教育适应性明显增强，形成一批特色优势高水平专业群。优化专业设置，提供多种学习方式，支持女性获得职业技能等级证书，培养复合型技术技能女性人才和能工巧匠、济南工匠、大国工匠。鼓励职业院校面向女高校毕业生、去产能分流女职工等重点人群开展就业创业和职业技能培训。', '（8）保障女性平等接受高等教育的权利和机会。严格控制招生过程中的特殊专业范围，强化涉及性别歧视问题的监管，建立约谈、处罚机制。采取激励措施，提高女性在科学、技术、工程、数学等学科的比例。加强对基础学科拔尖女生的培养。', '（9）大力加强女性科技人才培养。探索建立多层次女性科技人才培养体系，培养具有国际竞争力的女性科技人才。关注培养义务教育阶段女生爱科学、学科学的兴趣和志向。引导高中阶段女生养成科学兴趣和钻研精神，支持有意愿的女生报考理工类院校。加大女性创新型、应用型人才培养力度，鼓励女大学生参与科研项目，在实践中培养科学精神和创新能力。引导女性从事科学和技术相关工作，增加女性科技人才参与继续教育和专业培训的机会。', '（10）大力提高女性科学素质。开展女性科学素质提升专项行动，利用现代信息化手段，加大面向女性的科学知识教育、传播与普及力度。开展女科学家进校园活动，发挥优秀女科技人才的榜样引领作用。引导中小学女生参加各类科普活动，培养科学兴趣、创新精神和实践能力。鼓励女大学生积极参与项目设计、社会实践、创新创业、科技竞赛等活动。深入实施农村妇女素质提升计划，支持农村妇女参与农业农村现代化建设。', '（11）持续巩固女性青壮年扫盲成果。完善扫盲工作机制，消除女童辍学现象，杜绝产生女性青壮年新文盲。深化扫盲后的继续教育。提高妇女平均受教育年限。', '（12）为女性终身学习提供支持。建立完善更加开放灵活的终身学习体系，完善注册学习、弹性学习及继续教育制度，拓宽学历教育渠道，满足女性多样化学习需求，关注因生育中断学业和职业女性的发展需求。扩大教育资源供给，为女性提供便捷的社区和在线教育资源，为进城务工女性、女性新市民、待业女性等提供有针对性的职业技能培训。', '（13）加强妇女／性别研究和人才培养。推动有条件的高等院校开设妇女研究及性别平等相关课程。培养具有跨学科知识基础和性别平等意识的专业人才。加大对妇女／社会性别理论研究的支持力度，在市、区县社会科学规划研究基金和软科学研究计划中增加妇女或性别研究相关选题的立项比例。', '（1）鼓励支持妇女为推动经济高质量发展贡献力量，妇女平等参与经济发展的权利和机会得到保障。（牵头单位：市妇联，责任单位：市发展改革委、市司法局、市人力资源社会保障局、市农业农村局、市总工会）', '（2）促进平等就业，消除就业性别歧视。就业人员中的女性比例保持在45%左右。（牵头单位：市人力资源社会保障局，责任单位：市委组织部、市妇联、市总工会、市教育局、团市委）', '（3）优化妇女就业结构。城镇单位从业人员中的女性比例达到40%左右。（牵头单位：市人力资源社会保障局，责任单位：市教育局、市妇联、市总工会、团市委）', '（4）保障妇女获得公平的劳动报酬，男女收入差距明显缩小。（牵头单位：市人力资源社会保障局，责任单位：市财政局、市总工会、市农业农村局、团市委、市妇联）', '（5）促进女性人才发展。倡导实现高级专业技术人员中的女性比例达到40%左右。高技能人才中的女性比例逐步提高。（牵头单位：市人力资源社会保障局、市妇联，责任单位：有关行业主管部门）', '（6）保障女性从业人员劳动安全和健康。女职工职业病发病率明显降低。（牵头单位：市应急局，责任单位：市卫生健康委、市总工会、市人力资源社会保障局）', '（7）建立工会女职工委员会的企业应签订女职工权益保护专项集体合同。（牵头单位：市总工会）', '（8）保障农村妇女平等享有土地承包经营权、宅基地使用权等权益，平等享有农村集体经济组织收益分配、土地征收或征用安置补偿权益。（牵头单位：市农业农村局，责任单位：市民政局、市妇联、市自然资源和规划局）', '（9）增强低收入妇女群体的可持续发展能力。（牵头单位：市农业农村局、市人力资源社会保障局、市民政局，责任单位：市财政局、市妇联、市科协、市残联）', '（10）充分发挥妇女在实施乡村振兴战略中的作用。（牵头单位：市乡村振兴局，责任单位：市妇联、市科协、市民政局、市文化和旅游局）', '（1）加大妇女平等参与经济发展的保障力度。落实保障妇女平等获得经济资源、参与经济建设、享有经济发展成果的法律法规政策。创新制度机制，保障妇女在就业创业、职业发展、劳动报酬、职业健康与安全、职业退出、土地等方面的权益，保障新业态从业人员劳动权益，为妇女充分参与经济高质量发展创造有利条件。', '（2）加大消除就业性别歧视工作力度。全面落实消除就业性别歧视的法律法规政策，创造性别平等的就业机制和市场环境。对招聘、录用环节涉嫌就业性别歧视的用人单位进行联合约谈，依法惩处。督促用人单位加强就业性别歧视自查自纠。发挥劳动保障法律监督作用，对用人单位涉嫌就业性别歧视的，提出纠正意见，或建议人力资源社会保障行政部门提出处理意见。依法受理涉及就业性别歧视的诉讼。发挥行业协会、商会协调监督作用，提高行业自律意识。党政机关、国有企事业单位在招录（聘）人员、晋职晋级、评定专业技术职称等方面发挥男女平等的示范引领作用。', '（3）促进妇女就业创业。实施有利于妇女就业的产业政策，创造更多妇女就业机会，健全多渠道就业保障制度，扩大妇女就业总量，提升妇女就业质量。深入开展妇女就业促进行动，搭建精准就业供需对接平台，健全妇女人才资源统计、市场预测、供求信息发布制度和妇女终身职业技能培训体系，提升妇女素质。抓好重点群体妇女就业。加强女大学生职业生涯规划指导服务，引导女大学生树立正确的择业就业观，提升就业能力。实施女大学生创业引领计划，完善落实创业支持政策，支持女大学生创业。持续开展“才聚泉城”名校行活动，建成黄河流域大学生创业孵化基地，吸引女大学生在济就业创业。', '（4）改善妇女就业结构。完善终身职业技能培训制度，大力培育知识型、技能型、创新型女性劳动者。不断提高女性在高新技术产业、战略性新兴产业和现代服务业从业人员中的比例，提高就业层次和质量。统筹城乡、区域发展，加快新型城镇化建设，提高农村妇女非农就业比例，缩小男女转移就业差距。逐步消除职业性别隔离。', '（5）缩小男女两性收入差距。全面落实男女同工同酬，保障收入公平。促进女性对知识、技术、管理、数据等生产要素的掌握和应用，提高女性职业竞争力。督促用人单位制定实施男女平等的人力资源制度，畅通女性职业发展和职务职级晋升通道。加强收入的分性别统计，动态掌握男女两性收入状况。', '（6）加强女性专业技术和技能人才队伍建设。制定相关政策，强化制度保障，支持女性科技人才承担科技计划项目、参与科技决策咨询、拓展科研学术网络、提升影响力和活跃度，完善女性科技人才评价激励机制，培养高层次女性科技人才。实施科技创新巾帼行动，搭建平台、提供服务，激励女性科技人才、技术技能人才立足岗位锐意创新。加强对女性专业技术和技能人才专业知识、科研管理、创新创业的培训。加大典型宣传力度，发挥榜样引领作用。', '（7）改善女性劳动者劳动安全状况。广泛开展劳动安全和健康宣传教育，加大《女职工劳动保护特别规定》宣传执行力度，提高用人单位和女性从业人员的劳动保护和安全生产意识。将女职工劳动保护纳入职业健康和安全生产监督管理范围，加强对用人单位女职工劳动保护和劳动安全的监督检查，督促用人单位加强对女职工经期、孕期、产期、哺乳期的特殊保护和落实产假制度。保障女职工在工作中免受有毒有害物质和危险生产工艺的危害。', '（8）保障女职工劳动权益。督促用人单位规范用工行为，依法与女职工签订劳动合同，推动签订女职工权益保护专项集体合同。加强劳动保障法律监督及法规领域性别平等评估。指导用人单位建立预防和制止性骚扰工作机制。加强劳动用工领域信用建设，加大对侵犯女职工劳动权益行为的失信惩戒力度。推动有条件的劳动人事争议仲裁机构设立女职工维权仲裁庭，依法处理女职工劳动争议案件。', '（9）为女性生育后的职业发展创造有利条件。禁止用人单位因女职工怀孕、生育、哺乳而降低工资、恶意调岗、予以辞退、解除劳动（聘用）合同，推动落实生育奖励假期间的工资待遇，定期开展女职工生育权益保障专项督查。为女性生育后回归岗位或再就业提供培训等支持。高校、研究机构等用人单位探索设立女性科研人员生育后科研回归基金。推动用人单位根据女职工需要建立女职工哺乳室、孕妇休息室等标准化母婴设施。增加优质普惠托育服务供给，支持有条件有需求的用人单位为职工提供福利性托育托管服务。', '（10）保障农村妇女平等享有各项经济权益。在农村土地承包经营权、宅基地使用权确权登记颁证工作中保障农村妇女权益，确保应登尽登。建立健全农村集体资产管理制度，规范农村集体经济组织成员身份确认办法，完善征地安置补偿分配等农村土地收益分配机制，保障农村妇女作为集体经济组织成员和家庭成员在股权量化、征收补偿、权益流转各环节平等享有知情权、监督权、参与决策权和收益权。保障进城落户农村妇女的经济权益。畅通经济权益受侵害农村妇女的维权渠道。', '（11）支持脱贫妇女稳定增加收入。实现巩固拓展脱贫攻坚成果同乡村振兴有效衔接，建立解决农村妇女相对贫困的长效机制，健全防止返贫动态监测和帮扶机制，完善农村社会保障和救助制度，确保低收入妇女群体不返贫、稳增长。激发低收入妇女内生发展动力，扶持适合低收入妇女自主发展的手工编织、农村电商等特色产业项目。通过致富带头人培育、巾帼居家创业就业基地建设和以工代赈等方式，支持农村妇女就地就近就业，实现增收致富。', '（12）支持妇女积极参与乡村振兴。围绕“环境美、生活富、家风好”的内容，持续开展“出彩人家”建设活动，推动农村妇女在促进农业全面升级、农村全面进步、农民全面发展，加快农业农村现代化进程中担当作为。引导妇女通过发展现代都市型农业、打造农业特色品牌、丰富乡村经济业态、发展现代乡村产业，实现增收致富；鼓励农村妇女在农村人居环境整治、生活垃圾处理、村容村貌提升中发挥主力军作用；支持农村妇女发挥在家庭生活和社会生活中的独特作用，积极参与乡村治理、涵养文明家风，引领社会良好风尚。加强高素质农村妇女培育，引导农村妇女争做乡村工匠、文化能人、手工艺人、农技协领办人和新型农业管理经营能手，为打造乡村振兴齐鲁样板省会标杆作贡献。', '（1）妇女参与国家和社会事务管理的水平全面提升，在社会主义民主政治建设和社会治理中的作用日益增强。（牵头单位：市委组织部，责任单位：市民政局、市妇联）', '（2）中国共产党女党员保持合理比例。中国共产党全市地方各级党代会中女党员代表比例一般不少于本地区女党员占党员总数的比例。（牵头单位：市委组织部，责任单位：市妇联）', '（3）各级人大代表和常委会组成人员中的女性比例逐步提高；各级政协委员和常委中的女性比例逐步提高。（牵头单位：市人大常委会办公厅、市政协办公厅、市委组织部、市委统战部）', '（4）市级党委、人大、政府、政协和区县党委、政府领导班子至少各配备1名女干部。（牵头单位：市委组织部）', '（5）担任区县党政正职的女干部要有一定数量。区县党政正职中至少配备1名女干部。（牵头单位：市委组织部）', '（6）市、区县党政工作部门，应保证一半以上的领导班子配备女干部，其中担任正职的一般不少于3人。（牵头单位：市委组织部）', '（7）各级各类事业单位领导班子成员中的女性比例逐步提高。（牵头单位：市委组织部，责任单位：市人力资源社会保障局）', '（8）企业董事会、监事会成员及管理层中女性比例逐步提高。企事业职工代表大会中女性比例与女职工比例相适应。（牵头单位：市委组织部、市国资委、市总工会，责任单位：市人力资源社会保障局）', '（9）村党组织成员、村党组织书记中，女性比例逐步提高。村委会成员中女性比例保持在30%以上，村委会主任中女性比例逐步提高。（牵头单位：市委组织部、市民政局，责任单位：市妇联）', '（10）社区党组织成员、社区党组织书记中女性比例逐步提高。社区居委会成员中女性比例保持在50%左右，社区居委会主任中女性比例保持在35%左右。（牵头单位：市委组织部、市民政局，责任单位：市妇联）', '（11）鼓励支持女性参与社会组织、担任社会组织负责人。（牵头单位：市妇联，责任单位：市民政局、各市管社会组织业务主管单位）', '（12）各级妇女联合会、工会女职工委员会等妇女组织参与国家和社会事务管理的水平提高。（牵头单位：市委办公厅，责任单位：市人大常委会办公厅、市委组织部、市政协办公厅、市发展改革委、市司法局、市民政局、市总工会、市妇联）', '（1）提高妇女参与决策管理的意识和能力。广泛开展宣传教育，提高妇女参与国家和社会事务管理的意识。加大基层妇女骨干培训力度，提高妇女在自治、法治、德治中的参与意识和能力，加强城乡社区妇女议事会建设，支持妇女参与村（居）协商议事活动和村规民约（居民公约）的制订修改，提高妇女的参与意识和能力，引导妇女积极、有序参与基层民主管理和民主协商。促进新社会阶层、社会工作者和志愿者中的女性积极参与社会治理。鼓励高等院校开设领导力相关课程，培养年轻女性的政治素养和参与决策管理的能力。', '（2）加大妇女参与决策和管理的支持力度。充分发挥妇女参与国家和社会事务管理的重要作用，破除制约妇女参与决策和管理的障碍，促进妇女参与决策和管理水平与妇女地位作用相适应。加大培训力度，提高各级领导干部贯彻落实男女平等基本国策的意识，把推动妇女参政纳入重要议程，提出目标举措。采取有效措施，提升各级党委、人大、政府、政协、党政工作部门以及企事业单位、基层群众自治组织和社会组织中的女性比例。', '（3）重视发展中国共产党女党员。面向妇女深入开展思想政治工作，扩大党的妇女群众基础，培养对党的感情，深化对党的认识，拥护党的主张，激发妇女入党的政治意愿。保证发展党员计划中优秀年轻女党员有一定比例。在党代表候选人酝酿过程中，充分关注政治过硬、作风优良、敢于担当、实绩突出的优秀妇女，确保党代会代表中女党员代表比例。', '（4）提高女人大代表、女政协委员比例。落实人大代表选举规则和程序，在选区划分、代表名额分配、候选人推荐、选举等环节，保障妇女享有平等权利和机会。重视从基层、生产一线推荐女人大代表候选人，候选人中应当有适当数量的妇女代表，并逐步提高妇女代表的比例。提名推荐、协商确定政协委员建议名单时，保障提名一定比例的妇女。充分发挥人大女代表、政协女委员在发展社会主义民主政治和男女平等事业中的积极作用。', '（5）加大培养选拔女干部工作力度。建立女干部培养清单，持续实施优秀女干部递进培养计划，完善优秀女干部跟踪考察和动态管理制度，使每名优秀女干部始终处在组织视野。建立完善组织部门与妇联联动工作机制，加强女干部培养、常态选拔、战略储备、统筹使用，防止急用现找、降格以求。优化女干部成长路径，为女干部参加教育培训、交流任职、挂职锻炼创造条件和机会。开展女性领导力培训，提升女干部的政治素质和领导能力。注重从基层、生产一线培养选拔女干部，选拔女干部到重要部门、关键岗位担任领导职务。保持优秀年轻干部队伍中女干部的合理比例。落实女干部选拔配备的目标任务，在保证质量的前提下应配尽配。保障妇女在干部录用、选拔、聘（任）用、晋升、退休各环节不因性别受到歧视。', '（6）推动妇女积极参与事业单位决策管理。培养选拔优秀女性专业技术人员进入决策管理层。重视在卫生、教育、文化等女性集中的行业提高决策管理层中的女性比例，鼓励妇女积极参与本单位党建和群团组织建设，促进事业单位职工代表大会中的女代表比例与女职工比例相适应。在深化事业单位改革进程中，确保妇女在职务晋升、职称评聘等方面享有平等的权利和机会。', '（7）推动妇女广泛参与企业决策管理。将女干部选拔配备纳入国有控股企业领导班子和干部队伍建设规划，加大培养、选拔、使用力度。在深化企业人事制度改革进程中，采取组织推荐、公开招聘、民主推荐等方式，促进优秀妇女进入企业董事会、监事会和管理层。完善企业民主管理制度，促进职工代表大会中女代表比例与企业女职工比例相适应，支持女职工通过职工代表大会等形式参与企业民主决策、民主管理和民主监督。企业制定相关规章制度，对涉及女职工权益的事项，听取工会女职工委员会的意见，依法经职工代表大会审议通过。', '（8）加强村（居）女干部的培养选拔。注重从村（居）妇联主席、女党员、致富女能手、外出务工经商返乡女性、本乡本土女大学毕业生、女社区专职工作者、女专职网格员、巾帼志愿者骨干、退休女性等人员中培养选拔村（居）干部。在有条件的地方，积极稳妥推进村（居）党组织书记通过法定程序担任村（居）委会主任，通过提名确定女性候选人、女性委员专职专选、女性成员另行选举等措施，提高村委会成员、村委会主任中的女性比例。', '（9）支持引导妇女参与社会组织。优化社会组织发展的制度环境，加大以女性为会员主体或以女性为主要从业人员的社会组织的培育力度，加强支持和指导服务，促进其健康有序发展并积极参与社会组织协商。鼓励支持更多女性成为社会组织成员或从业人员，加强社会组织女性专业人才和管理人才的培养，注重发现培养社会组织女性负责人。', '（10）发挥妇联组织在推进国家治理体系和治理能力现代化进程中的作用。支持妇联组织履行代表妇女参与管理国家事务、经济文化事业和社会事务的职责，强化妇联组织参与民主决策、民主管理、民主监督，参与制定有关法规、规章和政策，参与社会治理和公共服务的制度保障。在制定有关促进男女平等和保障妇女合法权益的法规政策以及选拔培养女干部工作中，充分听取妇联组织意见和建议。', '（1）妇女平等享有社会保障权益，缩小男女两性差距。（牵头单位：市人力资源社会保障局，责任单位：市财政局、市医保局、市民政局、市总工会）', '（2）完善生育保障制度。提高生育保险参保率。（牵头单位：市医保局，责任单位：市卫生健康委、市总工会、市税务局）', '（3）完善医疗保障体系。妇女基本医疗保险参保率稳定在95%以上，待遇保障公平适度。（牵头单位：市医保局，责任单位：市卫生健康委、市总工会、市税务局）', '（4）完善基本养老保险体系。妇女基本养老保险参保率达到95%以上，待遇水平稳步提高。（牵头单位：市人力资源社会保障局，责任单位：市卫生健康委、市总工会、市税务局）', '（5）完善失业保险和工伤保险制度。妇女失业保险和工伤保险的参保率以及待遇水平逐步提高。（牵头单位：市人力资源社会保障局，责任单位：市总工会、市税务局）', '（6）健全分层分类社会救助体系。特困和低保家庭妇女基本生活得到保障，低收入家庭妇女根据实际需要得到专项救助。（牵头单位：市民政局，责任单位：市财政局、市医保局、市教育局、市人力资源社会保障局、市应急局、市总工会、市妇联、市残联、团市委）', '（7）建立完善多层次养老服务和长期照护保障制度。保障老年妇女享有均等可及的基本养老服务，失能妇女的照护服务水平不断提高。（牵头单位：市民政局、市医保局，责任单位：市卫生健康委、市人力资源社会保障局、市财政局）', '（8）加强对妇女的关爱服务，有困难、有需求的妇女得到重点帮扶。（牵头单位：市民政局，责任单位：市乡村振兴局、市公安局、市司法局、市财政局、市人力资源社会保障局、市卫生健康委、市文化和旅游局、市体育局、市妇联、市残联）', '（1）完善惠及妇女群体的社会保障体系。在制定修订社会救助、社会保险和其他相关法规、政策过程中，关切和保障妇女的特殊利益和需求。实施全民参保计划，推进社保转移接续，支持灵活就业、新业态就业女性参保，推进符合条件的妇女应保尽保，扩大妇女社会保险覆盖面，缩小社会保障的性别差距。加强社会保障分性别统计、信息动态监测和管理。', '（2）完善覆盖城乡妇女的生育保障制度。健全生育保险制度机制。落实《山东省企业职工生育保险规定》《山东省女职工劳动保护办法》等法规政策，提高生育保险与职工基本医疗保险合并实施成效，保障女职工生育保险待遇。参加生育保险男职工的未就业配偶，符合计划生育政策规定生育，未享受生育医疗费待遇的，按照女职工生育医疗费标准的50%享受生育医疗费待遇。妥善解决妇女在就业和失业期间生育保障问题。逐步提高参加居民基本医疗保险的妇女生育医疗费用保障水平。', '（3）不断提高妇女医疗保障水平。推动女职工和城乡女性居民持续参加基本医疗保险，满足妇女基本医疗保障需求。创新医保支付方式，完善异地就医结算办法，强化医保基金监管能力。加强基本医疗保险、大病保险与医疗救助协同互补，试点改革职工医保个人账户，建立健全门诊共济保障机制，鼓励发展多种类型的商业健康保险，促进多层次医疗保障互补衔接，做好符合条件的困难妇女医疗救助。落实职工大病保险女职工待遇，发展宫颈癌、乳腺癌等重大疾病商业保险。', '（4）促进妇女享有可持续、多层次养老保险。健全基本养老保险筹资和待遇调整机制，落实企业职工基本养老保险全国统筹，实施渐进式延迟法定退休年龄。加快商业养老保险发展，构建多层次、多支柱养老保险体系。督促用人单位依法为女职工足额缴纳基本养老保险费，鼓励有条件的用人单位为女职工建立企业（职业）年金。促进妇女群体公平享有养老保险，提高妇女养老保障水平。', '（5）保障女性的失业保险权益。督促用人单位依法为女职工办理失业保险，提高女职工的参保率。保障符合条件的失业女职工按时享有失业保险待遇。强化失业保险促就业防失业功能，支持女职工稳定就业。适时制定特殊时期失业保障政策，为包括女职工在内的劳动者提供保障。', '（6）扩大妇女工伤保险覆盖面。增强工伤保险预防工伤、保障生活、促进康复的功能，探索建立新业态领域职业伤害参保机制，将灵活就业、新业态就业妇女纳入保障范围。督促用人单位特别是高风险行业单位依法为女职工办理工伤保险，确保工伤保险待遇落实。', '（7）强化社会救助对困难妇女的兜底保障。健全以基本生活救助、专项社会救助、急难社会救助为主体，社会力量参与为补充的分层分类、城乡统筹的综合救助格局，实现城乡社会救助标准一体化。完善最低生活保障和特困人员供养等基本生活救助制度，加强灾害、医疗、教育、住房、司法等专项救助，构建区县、乡镇(街道)、村(居)社会救助综合服务体系。实施救助家庭动态监管，实现社会救助相关数据跨部门共享，优化社会救助审批流程。鼓励社会力量提供就业指导、技能培训、法律援助等救助服务。推动建立统一的救助信息平台，加强社会救助分性别统计，精准识别救助对象，实现符合条件的妇女应救尽救。', '（8）不断满足妇女群体的社会福利需求。抓好社会福利院建设。实施“幸福家园”村社互助工程。完善社会福利制度体系，提高妇女的社会福利水平，落实各项补贴待遇，逐步提升老年妇女福利水平。完善残疾妇女补贴制度，动态调整、合理确定困难残疾妇女生活补贴和重度残疾妇女护理补贴标准。鼓励有条件的区县创新补贴内容、补贴形式，扩大适合残疾妇女特殊需求的公共服务供给。', '（9）保障妇女享有基本养老服务。构建居家社区机构相协调、医养康养相结合的养老服务体系，完善兜底性养老服务设施，实施敬老院改造提升工程。增建普惠型养老服务设施，支持社会力量兴办养老机构，养老机构护理型床位占比达到55%，实现区县级失能照护服务机构全覆盖。搭建全市统一开放的社会化智慧养老服务平台，创建国家智慧健康养老应用试点示范。健全老年健康危险因素干预、疾病早发现早诊断早治疗、失能预防三级预防体系。加快基础设施适老化改造，构建老年友好社区，建设老年友好型城市。', '（10）探索建立多层次长期照护保障制度。加强长期护理保险制度与长期照护服务体系有机衔接，妥善解决失能妇女长期护理保障需求。建立相关保险、福利、救助相衔接的长期照护保障制度。完善政府购买居家养老服务政策，制定实施养老服务“时间银行”、家庭养老床位、社区养老顾问制度等政策。培养养老服务人才，建设高素质、专业化的养老服务队伍，提高老年妇女生活照料、紧急救援、精神慰藉等服务水平。', '（11）加强农村留守妇女关爱服务工作。完善农村留守妇女关爱服务体系，建立完善以区县为单位的农村留守妇女信息台账，加强分类管理和服务。支持社会力量为农村留守妇女提供关爱服务,重点为生活困难、残疾、重病等农村留守妇女提供权益保护、生活帮扶、精神抚慰等关爱服务。支持留守妇女积极参与乡村振兴和家庭文明建设，在乡村治理、邻里互助、留守老人儿童关爱服务中发挥作用。', '（1）全面贯彻落实男女平等宪法原则和基本国策，推动健全完善保障妇女权益的法规政策体系。（责任单位：市妇儿工委各成员单位、特邀单位）', '（2）促进法规政策性别平等评估机制有效运行。（牵头单位：市妇儿工委办公室，责任单位：市法规政策性别平等评估机制联席会议各成员单位）', '（3）妇女尊法学法守法用法的意识和能力增强。充分发挥妇女在法治济南建设中的作用。（牵头单位：市妇联，责任单位：市司法局、市教育局、市法院、市检察院、市公安局、市人力资源社会保障局、市总工会）', '（4）深入实施反家庭暴力法律法规，预防和制止针对妇女的一切形式的家庭暴力。（牵头单位：市委政法委，责任单位：市公安局、市法院、市检察院、市司法局、市民政局、市卫生健康委、市妇联）', '（5）严厉打击拐卖妇女、性侵害妇女等违法犯罪行为。（牵头单位：市公安局，责任单位：市法院、市检察院、市司法局、市卫生健康委、市妇联）', '（6）提升预防和制止性骚扰的法治意识，有效遏制针对妇女的性骚扰。（牵头单位：市司法局、市公安局，责任单位：市法院、市检察院、市教育局、市总工会、市妇联）', '（7）严厉打击利用网络对妇女实施的违法犯罪行为。（牵头单位：市公安局，责任单位：市委网信办、市委宣传部、市法院、市检察院、市司法局）', '（8）保障妇女在家庭关系中的财产所有权、继承权，保障妇女对婚姻家庭关系中共同财产享有知情权和平等的处理权。（牵头单位：市法院，责任单位：市司法局、市检察院、市民政局、市农业农村局、市妇联）', '（9）保障妇女对化妆品、卫生巾等用品的消费者权益。（牵头单位：市市场监管局，责任单位：市卫生健康委）', '（10）依法为妇女提供公共法律服务。保障遭受侵害妇女获得及时有效的法律救助。（牵头单位：市司法局，责任单位：市法院、市民政局、市妇联）', '（1）推进将男女平等宪法原则和基本国策贯彻落实到法治济南建设全过程。加大《中华人民共和国民法典》《中华人民共和国妇女权益保障法》法律法规的实施力度，加强执法检查和督查督办，保障侵害妇女权益案件获得公平公正处理。促进开展妇女权益保障领域的公益诉讼。将保障妇女权益相关内容纳入基层社会治理，纳入法治队伍建设、全民普法规划和群众性法治文化活动，增强全社会男女平等的法治意识和法治素养。', '（2）加强法规政策性别平等评估工作。发挥市法规政策性别平等评估机制作用，探索建立区县政策性别平等评估机制，明确评估范围和标准，规范评估流程，细化评估指标。依法对法规政策备案审查，加强法规政策制定前研判、决策中贯彻、实施后评估的制度化建设。对现行法规政策中违反男女平等基本国策的条款和内容进行清理。开展性别平等评估相关培训，加强专业化队伍建设，将男女平等理念落实在法规、规章、政策制定实施全过程各环节。加强社会性别理论培训，将社会性别理论纳入立法、司法和执法部门培训课程，提高立法、司法和执法人员的社会性别意识。', '（3）提升妇女法治意识和参与法治济南建设的能力。深入开展专项普法活动，提高妇女尊法学法守法用法的意识和能力。面向妇女提供法律咨询等服务，引导妇女自觉学习宪法和法律知识，增强法治观念，引导妇女养成办事依法、遇事找法、解决问题用法、化解矛盾靠法的法治思维和行为习惯。鼓励妇女多途径参与立法、司法和普法活动。充分发挥人大女代表、政协女委员、妇联组织、以女性为会员主体或者以女性为主要服务对象的社会组织等在法治济南建设中的作用。', '（4）加大反家庭暴力法律法规的实施力度。建立健全反家庭暴力宣传教育体系，落实以案说法工作制度，提高全社会反家暴意识。健全预防和制止家庭暴力多部门合作机制，畅通部门信息共享渠道。强化预防排查，完善社区网格化家庭暴力重点监控机制。完善家庭暴力发现、报告、处置机制，落实学校、幼儿园、医疗机构等相关主体强制报告义务。规范接警处警工作，对家庭暴力案件及时依法处置，并对家庭暴力警情、告诫书出具情况进行专项统计。提高人身安全保护令的审核签发率，加大执行力度。规范临时庇护场所和紧急庇护场所管理，提升庇护服务水平。加快落实《山东省反家庭暴力条例》规定的因实施家庭暴力受到处罚作为不良信息被记入信用档案的加害人的惩戒。加强对受暴妇女的心理抚慰、身体康复和生活救助。加强对施暴者的警示教育和行为矫治。鼓励支持社会组织和社会工作者参与反家庭暴力工作，提供专业化服务。', '（5）坚决打击拐卖妇女犯罪。完善落实预防、打击、救助、安置、康复为一体的反拐工作长效机制。坚持预防为主、防治结合，提高全社会的反拐意识以及妇女的自我防范意识和能力。深入实施反对拐卖人口行动计划，打击拐卖妇女犯罪团伙。整治“买方市场”，及时解救被拐妇女并帮助正常融入社会。打击跨国跨区域拐卖妇女犯罪。', '（6）加大对组织、强迫、引诱、容留、介绍卖淫等犯罪行为的打击力度。加强网络治理，利用大数据完善违法信息过滤、举报等功能，严厉打击利用网络组织、强迫、引诱、容留、介绍妇女卖淫。依法加大对强迫、引诱幼女卖淫和智力残疾妇女卖淫的打击力度。加强社会治安综合治理，建立常态整治机制，鼓励群众监督和举报涉黄违法犯罪行为。', '（7）有效控制和严厉惩处强奸、猥亵、侮辱妇女特别是女童和智力、精神残疾妇女的违法犯罪行为。加强防性侵教育，提高妇女特别是女童的防性侵意识和能力。建立完善重点人群和家庭关爱服务机制、侵权案件发现报告制度、多部门联防联动机制、侵权案件推进工作督查制度。完善立案侦查制度，市、区县医疗机构、公安机关执法办案中心、检察机关办案区及其他有条件便于对被害人询问、取证、检查救治的场所建立“一站式”办案（取证）区，与其他办案、工作区隔离，设置专门进出通道，及时、全面、一次性收集固定证据，保障被害人安全和隐私，避免受害妇女“二次伤害”。建立性侵害的违法犯罪人员信息查询系统，完善和落实从业禁止制度。加强受害妇女特别是女童的隐私保护、心理疏导和干预。', '（8）预防和制止针对妇女的性骚扰。建立健全预防和制止性骚扰工作机制，加大对性骚扰行为的打击力度。加强联防联控，发挥典型案例示范指引作用。预防和减少公共场所和工作、学习等场所的性骚扰，推动机关、企事业、学校、社会组织等单位建立预防和制止性骚扰工作机制。加强日常管理、预防排查、受理投诉和调查处置，预防和制止利用职权、从属关系等实施性骚扰。畅通救济途径。多形式多渠道宣传防范性骚扰知识，提升妇女自我防范和制止性骚扰的意识能力。', '（9）保障妇女免遭利用网络实施违法犯罪行为的侵害。加强网络信息内容生态治理，加强对网络淫秽色情信息的监管和查处，依法打击网络信息服务平台、生产者和使用者对妇女实施猥亵、侮辱、诽谤、性骚扰、散布谣言、侵犯隐私等违法犯罪行为。加强对网络平台的规范管理，保护妇女个人信息安全。依法惩治利用网络非法收集、使用、加工、传输、买卖、提供或者公开妇女个人信息的违法犯罪行为。提高妇女防范电信网络诈骗的意识能力，严厉打击采取非法网络贷款、虚假投资、咨询服务等手段骗取妇女钱财的犯罪行为。', '（10）在婚姻家庭和继承案件处理中依法保障妇女的财产权益。保障妇女平等享有家庭财产的占有、使用、收益和处分权利。保障妇女依法享有夫妻互相继承遗产、子女平等继承遗产的权利。保障夫妻对共同财产享有平等的知情权、处理权，认定和分割夫妻共同财产、认定和清偿夫妻共同债务时，切实保障妇女合法权益。离婚时，保障妇女依法获得土地、房屋、股份等权益，保障负担较多家庭义务的妇女获得补偿、生活困难妇女获得经济帮助、无过错妇女依法获得赔偿。', '（11）加大对妇女用品的质量监督与卫生检查。提高化妆品、妇女用药和卫生用品等的送检率和合格率，依法查处假冒伪劣产品，保障妇女消费者权益。', '（12）为妇女提供优质高效的公共法律服务。推进公共法律服务实体、热线和网络平台融合发展，为妇女特别是低收入妇女、老年妇女、残疾妇女、单亲困难母亲等提供便捷高效、均等普惠的公共法律服务。增加面向妇女的法律援助事项。保障妇女在刑事、民事、行政案件中享有诉讼代理和维权指导服务。加强维护妇女合法权益的专业法律援助机构和专业律师、基层法务工作者队伍建设。保障特定案件中生活困难妇女能够获得司法救助。', '（13）发挥妇联组织代表和维护妇女合法权益的职能作用。支持妇联组织健全联合约谈、联席会议、信息通报、调研督查、发布案例等工作制度，推动保障妇女权益法规政策的制定实施。加强“12338”妇女维权公益服务热线建设，畅通妇女有序表达诉求的渠道。及时发现报告侵权问题，依法建议查处性别歧视事件或协调办理侵害妇女权益案件，为受侵害妇女提供帮助。', '（1）树立新时代家庭观，推动形成爱国爱家、相亲相爱、向上向善、共建共享的社会主义家庭文明新风尚，推动社会主义核心价值观在家庭落地生根。（牵头单位：市妇联，责任单位：市委宣传部、市委网信办、济南日报报业集团、济南广播电视台、市文化和旅游局、济南出版有限责任公司、市教育局）', '（2）建立完善促进男女平等和妇女全面发展的家庭政策体系，增强家庭功能，提升家庭发展能力。（牵头单位：市妇联，责任单位：市财政局、市发展改革委、市卫生健康委、市商务局、市人力资源社会保障局、市民政局、市教育局）', '（3）拓展支持家庭与妇女全面发展的公共服务。（牵头单位：市妇儿工委办公室、市发展改革委，责任单位：市财政局、市卫生健康委、市商务局、市人力资源社会保障局、市民政局、市教育局、市妇联、市残联）', '（4）注重发挥家庭家教家风在基层社会治理中的重要作用。（牵头单位：市委政法委，责任单位：市委组织部、市委宣传部、市民政局、市妇联、市教育局）', '（5）充分发挥妇女在家庭生活中的独特作用。支持妇女成为幸福安康家庭的建设者、倡导者和享有者。（牵头单位：市妇联，责任单位：市委宣传部、市委政法委、市教育局、市卫生健康委、市体育局、市生态环境局、济南日报报业集团、济南广播电视台、济南出版有限责任公司）', '（6）倡导构建男女平等、和睦、文明的婚姻家庭关系，降低婚姻家庭纠纷对妇女发展的不利影响。（牵头单位：市妇联，责任单位：市民政局、市委宣传部、市卫生健康委、市法院、市司法局、济南日报报业集团、济南广播电视台、济南出版有限责任公司）', '（7）倡导和支持男女共担家务，缩小两性家务劳动时间差距。（牵头单位：市妇联、市委宣传部，责任单位：市人力资源社会保障局、市卫生健康委、市教育局、市总工会、济南日报报业集团、济南广播电视台、济南出版有限责任公司）', '（8）促进夫妻共担未成年子女的抚养、教育、保护责任，为未成年子女身心发展创造良好家庭环境。（牵头单位：市教育局、市妇联，责任单位：市民政局、市公安局、市检察院、市法院、市司法局）', '（9）建立健全家庭养老支持政策，全面提高老年妇女生活质量。（牵头单位：市民政局、市卫生健康委，责任单位：市发展改革委、市人力资源社会保障局、市财政局、市法院、市司法局）', '（1）促进家庭成员践行社会主义核心价值观。加强教育引导、舆论宣传、文化熏陶、实践养成，使妇女和家庭成员将社会主义核心价值观内化为精神追求，外化为自觉行动，把家庭梦融入中国梦，实现共建共享的家庭追求，为大力培育和弘扬社会主义家庭文明新风尚贡献力量。', '（2）制定出台促进男女平等和妇女全面发展的家庭领域法规政策。完善支持家庭生育养育的法规政策，研究推动将3岁以下婴幼儿照护服务费用纳入个人所得税专项附加扣除、住房等方面支持政策，减轻家庭生育、养育、教育负担。完善幼儿养育、青少年发展、老人赡养、病残照料等政策，形成支持完善家庭基本功能、促进男女平等和妇女全面发展的家庭政策体系，增强家庭发展能力。完善产假制度，探索实施父母育儿假和家庭育儿津贴制度。建立促进家庭发展的政策评估机制。', '（3）大力发展家庭公共服务。发展普惠托育服务体系，促进3岁以下婴幼儿照护服务专业化、规范化发展，支持事业单位和社会力量提供普惠托育服务，鼓励幼儿园发展托幼一体化服务。推动将婚姻家庭辅导服务、家庭教育指导服务等纳入公共服务体系，提升面向家庭的基本公共服务均等化水平。完善养老、家政等服务标准。通过政府购买服务等形式，引导社会力量开展家庭服务。支持“阳光大姐”等家庭服务企业创新发展，满足家庭日益增长的个性化、多样化需求。重点为经济困难、临时遭遇困难和计划生育特殊家庭、残疾人家庭等提供支持。探索在乡镇（街道）及有条件的城乡社区建立家庭综合服务中心。', '（4）推动家庭家教家风在基层社会治理中发挥重要作用。构建党委领导、政府主导、部门合作、家庭尽责、社会参与的家庭建设工作格局。将建设好家庭、涵养好家教、弘扬好家风纳入基层社会治理体系。鼓励家庭成员履行家庭和社会责任。探索建立社区基金、义工积分制、公益银行、云公益大数据平台等，引导家庭积极参与城乡社区治理。增进政府治理和社会调节、居民自治良性互动，以良好家风支撑起好的社会风气。', '（5）鼓励支持妇女在家庭建设中发挥独特作用。深化实施“家家幸福安康工程”，鼓励妇女带领家庭成员积极参与文明家庭、五好家庭、最美家庭等群众性精神文明建设活动，参与绿色家庭建设，提升健康素养、践行绿色、低碳、循环、可持续的生活方式，养成勤俭节约好习惯，杜绝浪费。推进平安家庭、无烟家庭建设。', '（6）促进婚姻家庭关系健康发展。面向家庭开展有关法律法规的宣传，促进男女平等观念在婚姻家庭关系建设中落实落地，倡导夫妻平等参与家庭事务决策，反对一切形式的家庭暴力。开展恋爱、婚姻家庭观念教育，推广婚姻登记、婚育健康宣传教育、婚姻家庭关系辅导等“一站式”服务。推进移风易俗，引导改变生男偏好，抵制早婚早育、高价彩礼等陋习，选树宣传移风易俗典型，倡导健康文明新风尚。加强对广播电视、网络等婚恋活动和服务的规范管理。', '（7）加强婚姻家庭纠纷预防化解工作。健全婚姻家庭纠纷预防化解工作机制，发挥综治中心和网格化服务管理作用，强化衔接联动，加强婚姻家庭纠纷预测预防预警，健全纠纷排查调处制度。推进区县建立健全婚姻家庭纠纷人民调解委员会和婚姻家庭辅导中心，支持社会力量参与，建设人民调解员和婚姻家庭辅导员队伍，充分利用信息化手段，推动纠纷预防化解工作。推进家事审判制度改革，加强诉调对接平台建设，构建新型家事纠纷综合协调解决模式。', '（8）促进男女平等分担家务。倡导夫妻在家务劳动中分工配合，共同分担料理家务责任，缩小两性家务劳动时间差距。促进照料、保洁、烹饪等家务劳动社会化，持续推动家政服务业提质扩容增效，研发家务劳动便利化产品。督促用人单位落实探亲假、职工带薪休假、配偶陪产假等制度，鼓励用人单位实施灵活休假和弹性工作制度，创造生育友好的工作环境，支持男女职工共同履行家庭责任。', '（9）增强父母共同承担家庭教育责任的意识和能力。促进父母共同落实家庭教育主体责任，共同创造有利于子女健康成长和发展的家庭环境。开展宣传培训，帮助父母树立科学家庭教育理念，掌握科学知识方法，增强家庭教育本领。鼓励父母加强亲子交流，共同陪伴未成年子女成长。', '（10）提高老年妇女的家庭生活质量。倡导养老、孝老、敬老的家庭美德，支持家庭履行赡养老人的主体责任。鼓励子女与老年人共同生活或就近居住，为长期照护老年人的家庭成员提供“喘息服务”。督促用人单位保障赡养义务人的探亲休假权利，推动建立子女护理假制度。建立完善社区老年人关爱服务机制，探索建设老年友好型社区，发展银发经济，推进智慧健康养老，满足老年妇女生活需要。依法保障老年妇女婚姻自由和家庭财产权利。', '（1）提高妇女的思想政治意识，促进妇女积极践行社会主义核心价值观。（牵头单位：市妇联，责任单位：市委宣传部）', '（2）妇女共建共享精神文明创建成果。（牵头单位：市委宣传部，责任单位：市发展改革委、市财政局、市住房城乡建设局、市自然资源和规划局、市生态环境局、市农业农村局、市教育局、市卫生健康委、市民政局、市交通运输局、市市场监管局、市残联、市总工会、市妇联）', '（3）男女平等基本国策教育进机关、进学校、进企业、进社区、进家庭，全社会的性别平等意识提升。（牵头单位：市妇儿工委办公室，责任单位：市委宣传部、市委市直机关工委、市教育局、市司法局、市国资委、市总工会、市民政局、市妇联）', '（4）健全文化与传媒领域的性别平等评估和监管机制。（牵头单位：市委宣传部，责任单位：市妇儿工委办公室、市委网信办、济南日报报业集团、济南广播电视台、济南出版有限责任公司、市教育局、市文化和旅游局、市妇联）', '（5）妇女的媒介素养全面提升，妇女利用信息技术参与新时代经济社会高质量建设发展的能力提高。（牵头单位：市工业和信息化局，责任单位：市委宣传部、市委网信办、市教育局、市农业农村局、市妇联、市残联）', '（6）妇女的生态文明意识提高，践行绿色发展理念，做生态文明建设的推动者和践行者。（牵头单位：市生态环境局，责任单位：市妇联、市委宣传部、市农业农村局、济南日报报业集团、济南广播电视台、市文化和旅游局、济南出版有限责任公司）', '（7）减少环境污染对妇女健康的危害。农村自来水普及率稳定在97%以上，城市集中式饮用水水源水质达到或优于Ⅲ类标准的比例总体为95%，降低水污染对妇女健康的危害。（牵头单位：市水务局、市生态环境局，责任单位：市农业农村局、市卫生健康委）', '（8）农村卫生厕所改造基本完成，城镇公共厕所男女厕位比例标准化建设与实际需求相适应。（牵头单位：市农业农村局、市城管局，责任单位：市住房城乡建设局、市卫生健康委、市委宣传部、市文化和旅游局、市体育局）', '（9）妇女应对突发事件的能力不断提高，特殊需求得到满足。（牵头单位：市应急局，责任单位：市发展改革委、市民政局、市卫生健康委）', '（1）加强对妇女的思想政治引领。坚持用习近平新时代中国特色社会主义思想引领妇女，持续开展中国特色社会主义和中国梦宣传教育，发挥新时代文明实践中心（站点）、主流媒体、妇联主流新媒体平台、济南市巾帼红色教育基地、妇女之家等阵地作用，推动理想信念教育常态化制度化，弘扬党和人民在各个历史时期奋斗中形成的伟大精神，激发妇女的历史责任感和主人翁精神，引导妇女听党话、跟党走，增强“四个意识”，坚定“四个自信”，做到“两个维护”。通过教育联系服务，凝聚青年女性、知识女性和新兴产业从业女性以及活跃在网络空间中的女性群体。通过培养、评选、宣传妇女先进集体和个人，激励妇女崇尚先进、学习先进、争当先进。', '（2）促进妇女共建共享精神文明创建成果和城乡人居环境改善成果。优化公共文化资源配置，创新文化产业发展模式，提升文化产品和服务供给能力，不断满足妇女精神文化需求。鼓励妇女积极参与全国文明典范城市建设，将妇女参与程度和满意度纳入文明城市评选内容。引导妇女在文明单位创建中爱岗敬业，促进妇女参与文明村（居）创建，主动参与农村人居环境整治提升、农村文化发展、文明乡风培育和乡村社会治理。推进城乡公共文化服务体系一体建设，创新实施文化惠民工程，惠及城乡妇女。推动建设理念友好、政策友好、环境友好、人文友好、服务友好的女性友好型城市、社区、乡村。', '（3）开展以男女平等为核心的先进性别文化宣传教育。将构建先进性别文化纳入繁荣社会主义先进文化制度体系。大力宣传新时代妇女在社会生活和家庭生活中的独特作用，宣传优秀妇女典型和性别平等优秀案例。将习近平总书记关于妇女和妇女工作重要论述、马克思主义妇女观、男女平等基本国策纳入各级党校（行政学院）干部教育培训主体班次教学内容。在机关、学校、企业、村（居）、家庭以多种形式开展男女平等基本国策宣传教育，让性别平等成为全社会共同遵循的行为规范和价值标准。', '（4）加强文化与传媒领域性别平等监管、评估和培训。探索建立文化与传媒领域的性别平等评估和监管机制，加强公共文化产品和传媒涉及性别平等内容的监测和监管，吸纳性别平等专家参与相关评估，消除网络媒体、影视产品、公共出版物中出现的歧视贬抑妇女、侮辱妇女人格尊严、物化妇女形象等不良现象，规范网络名人和公众账号传播行为。完善违规行为警示记录系统，优化线上舆情预警和线下评估处置机制。开展文化传媒工作者和传媒相关专业学生的性别平等培训，提升文化与传媒领域性别平等传播能力。', '（5）引导妇女提高媒介素养。利用妇女之家、图书馆、网络课堂等开展面向妇女的媒介素养培训和指导，重点帮助老年妇女、困难妇女和残疾妇女群体掌握网络基本知识技能。加强妇女网络素养教育，提升妇女对媒介信息选择、判断和有效利用的能力，提升妇女网络安全意识和能力。加强学生网络素养教育，引导女学生合理安全使用网络，提升自我保护能力，防止网络沉迷。开展争做“巾帼好网民”活动，引导妇女弘扬网上正能量。', '（6）充分发挥妇女在生态文明建设中的重要作用。广泛开展生态文化宣传教育和实践活动，引导妇女树立生态文明意识，提高环境科学素养，掌握环境科学知识，提升妇女生态环境保护意识和能力。引领绿色生产生活，养成节约适度、绿色低碳、文明健康的生活方式和消费模式，杜绝餐饮浪费。支持妇女参与生态环境治理，激励妇女在打造我市“南山北水多廊多点”生态格局，建设“碳中和”现代绿色智慧城市，打好蓝天、碧水、净土三大保卫战中发挥作用。', '（7）减少环境污染对妇女的危害。围绕黄河流域生态保护和高质量发展战略目标，推进山水林田湖草一体化保护修复，持续改善生态环境质量，建设绿色生态济南。加强生态环境监测和健康监测，分析评估环境政策、基础设施项目、生产生活学习环境对妇女健康的影响。推进城乡生活环境治理，开发利用清洁能源，全市各区县基本建成生活垃圾分类处理系统，实行以法治为基础，政府推动、全民参与、城乡统筹、因地制宜的生活垃圾分类和资源化利用制度，全面开展生活垃圾分类试点，推进生活垃圾的减量化、资源化、无害化。推广使用家用节能环保产品。', '（8）为城乡妇女享有安全饮水提供保障。加强城乡污水处理设施建设，新增城镇污水处理能力17万吨/日,实现城乡污水管网全覆盖和污水应治尽治，行政村生活污水处理率达到全省领先水平，减少水污染对妇女健康的危害。落实国家《生活饮用水卫生标准》，推进城市集中式饮用水水源规范化建设，提高城市供水系统硬件设施和运行管理水平，加强水源保护和水质监测。加强水利基础设施建设和农村供水工程提升改造，提升水资源优化配置能力，到2025年，基本实现农村自来水供应全覆盖，全面解决农村妇女饮水安全问题；提升城区污水收集与处理设施，历下、市中、槐荫、天桥、历城五区基本完成雨污分流改造。', '（9）加强符合妇女需求的卫生厕所建设。分类有序推进农村厕所革命，提高卫生厕所普及率，加强粪污无害化处理与资源化利用。推进城镇公共厕所改造，完善落实城镇公共厕所设计标准，将男女厕位比例的规范化建设和达标率纳入文明城市、文明社区、文明村镇、文明单位、文明校园建设的评选标准。充分考虑妇女生理特点，超市、场馆、商场等公共场所的建设规划，女性厕位与男性厕位的比例至少为3：2，人流量较大地区提高到2：1。推动旅游景区、商场、客运枢纽和服务区等公共场所，建设第三卫生间，增设婴儿护理折叠台位。', '（10）在突发事件应对中关切妇女特别是困难妇女群体的特殊需求。在突发事件应急体系、预防和应急处置机制、相关应急预案和规划中充分考虑妇女特殊需求，优先保证女性卫生用品、孕产妇用品、女性内衣等基本生活用品和重要医用物资供给。面向妇女开展突发事件预防应对知识和自救互救技能的指导培训，提高妇女的防灾减灾意识和自救互救能力。在应对突发事件中加强对有需求的妇女群体的救助服务和心理疏导。引导妇女积极参与防灾减灾工作。', '1.坚持党的全面领导。坚持以习近平新时代中国特色社会主义思想为指导，坚持以人民为中心的发展思想，坚持走中国特色社会主义妇女发展道路，贯彻党中央关于妇女事业发展的决策部署，严明政治纪律、政治规矩，切实把党的领导贯穿于妇女事业发展的全过程和各方面。', '2.明确目标责任。各级政府统筹推进规划实施，纳入议事日程和考核内容，区县政府依据本规划制定本级妇女发展规划。各级妇儿工委负责具体推进规划实施，牵头做好组织、协调、指导、督促工作，有关部门、相关机构和人民团体负责目标任务落实。', '3.强化工作规范。定期召开全市妇女儿童工作会议，主动接受人大、政协监督和视察调研，健全定期报告、督导检查、目标预警等机制，按规定开展评选表彰活动。', '4.保障经费投入。各级政府将实施规划所需经费纳入财政预算，实现妇女事业和经济社会同步发展。各级财政应支持妇女重点领域的发展，为妇女办实事。动员社会力量，多渠道筹集资金，发展妇女事业。', '5.强化能力建设。根据相关规定，各级妇儿工委办公室配备专职工作人员，培育一支专业性强的队伍。各级妇儿工委加强对成员单位及特邀单位联络员、办公室专职干部、统计监测人员的工作指导和业务培训，为规划实施提供保障。', '6.加大宣传调研力度。充分利用新闻媒体，多渠道、多形式向社会广泛宣传男女平等基本国策，宣传规划的发展目标、主要任务和实施状况，宣传妇女在经济参与和社会参与中的作用和贡献。市妇儿工委要适时发布济南妇女发展状况。加强妇女工作智库建设，依托高校、研究院所、社会组织等机构培育专业研究力量，开展妇女理论及实践研究，为制定和完善相关法规政策提供参考。', '1.加强制度建设。对规划实施实行年度监测、中期评估、终期评估。落实并逐步完善性别统计监测方案。各级统计部门牵头组织开展年度监测，各级妇儿工委成员单位、特邀单位及有关部门向同级统计部门报送年度监测数据，及时收集、分析反映妇女发展状况的相关数据和信息。各级妇儿工委组织开展中期和终期评估，各级妇儿工委成员单位、特邀单位及有关部门向同级妇儿工委提交中期和终期评估报告。监测评估工作所需经费纳入财政预算。', '2.加强组织领导。各级妇儿工委设立监测评估协调组，由同级妇儿工委及相关部门负责人组成，负责组织协调监测评估工作，审批监测评估方案，审核监测评估报告等。协调组下设监测组和评估组。', '监测组由各级统计部门牵头，由相关部门负责规划统计监测人员组成，负责规划监测工作的组织、指导和培训,制定监测方案、监测指标体系，收集、分析数据和信息，向同级妇儿工委提交年度、中期和终期监测报告，编辑出版年度妇女统计资料等。监测组成员负责统筹协调本部门规划实施监测、分析、数据上报、分性别分年龄指标完善等工作。', '评估组由各级妇儿工委办公室牵头，由相关部门负责规划实施的人员组成，负责评估工作的组织、指导和培训，制定评估方案，组织开展评估工作，向同级妇儿工委提交中期和终期评估报告。评估组成员负责统筹协调本部门规划实施自我评估工作，参加妇儿工委组织的评估工作。支持评估组相关部门结合工作，就妇女保护与发展中的突出问题开展专项调查、评估，结果可供规划中期和终期评估参考。', '3.完善统计监测体系。规范完善分性别统计监测指标体系，根据需要扩充调整妇女发展统计指标，纳入政府和部门常规统计以及统计调查制度，加强部门分年龄、分性别统计工作。市、区县两级建立完善妇女发展统计监测数据库，实现市、区县数据互联互通。鼓励支持相关部门对妇女发展缺项数据开展专项统计调查。', '4.提升统计监测能力。加强监测评估工作培训和部门协作，规范监测数据收集渠道、报送方式，提高数据质量。运用互联网和大数据等技术，丰富妇女发展和分性别统计信息。科学设计评估方案和评估方法，探索第三方评估。提升监测评估工作科学化、标准化、专业化水平。', '5.有效利用监测评估成果。发挥年度监测、阶段评估结果服务决策的作用，定期向同级人民政府及相关部门报送规划目标落实情况，为决策提供依据。建立阶段评估报告交流、反馈和发布机制。加强监测和评估结果的研判、运用。每年对预计达标困难、波动较大的监测指标进行预警，对发现的突出问题和短板弱项提出对策建议，对好做法、好经验及时总结推广。运用监测、评估结果指导下一阶段规划实施，确保规划实施的年度监测、阶段评估、动态预警、精准干预、问题整改和高质量推进工作有效落实。', '儿童是国家的未来、民族的希望。当代中国儿童是实现第二个百年奋斗目标、建设社会主义现代化强国的生力军。促进儿童健康成长，是实现人的全面发展的必然要求，是建设幸福家庭、构建和谐社会的必然要求，是全面建设社会主义现代化国家、实现中华民族伟大复兴中国梦的必然要求。为更好贯彻儿童优先原则，进一步优化儿童发展环境，依照《中华人民共和国宪法》《中华人民共和国民法典》《中华人民共和国未成年人保护法》等法律法规，按照《中国儿童发展纲要（2021-2030年）》《山东省“十四五”儿童发展规划》《济南市国民经济和社会发展第十四个五年规划和二○三五年远景目标纲要》的总体要求，结合我市儿童发展实际，制定本规划。', '党和国家始终高度重视儿童事业和儿童发展。党的十八大以来，以习近平同志为核心的党中央把培养好少年儿童作为一项战略任务。我市已编制实施四个周期儿童发展纲要、规划，为儿童生存、发展、受保护和参与权利的实现提供了重要保障。“十三五”期间，我市保障儿童权利的法规政策体系进一步完善，党委领导、政府负责、部门协作、社会参与的儿童工作机制进一步巩固，儿童健康核心指标达到发达国家水平，儿童教育走在全省前列，儿童安全得到进一步保障，儿童福利保障水平进一步提高，农村留守儿童、困境儿童等弱势群体得到更多关爱和保护，儿童法律保护不断加强，儿童生存发展环境进一步优化，儿童工作的法制化和科学化水平显著提高，儿童发展和儿童事业取得了历史性新成就。', '受经济社会发展水平制约，我市儿童发展和权利保护仍面临一些问题和挑战，儿童事业发展仍存在不平衡不充分问题，不能完全适应新时代社会主义现代化强省会建设的新要求和儿童及其家庭的新期盼。贯彻儿童优先原则的力度需要进一步加大，儿童思想引领的时代性和实效性有待加强，保障儿童权利的法治建设需要持续推进，儿童发展的城乡、区域和群体差距依然存在，科技进步和生活方式变革给儿童发展带来新挑战，儿童事业发展使命艰巨、任重道远。', '“十四五”时期，是我市推动黄河流域生态保护和高质量发展、加快推进新时代社会主义现代化强省会建设的关键时期。新发展阶段，为儿童全面发展和儿童事业发展提供了前所未有的机遇和挑战。新起点新征程，要进一步落实儿童优先原则,全面提高儿童综合素质，培养造就德智体美劳全面发展的社会主义建设者和接班人，引领全市儿童勇担新使命、建功新时代。', '（一）指导思想。坚持以习近平新时代中国特色社会主义思想为指导，深入贯彻党的十九大和十九届二中、三中、四中、五中、六中全会精神，坚持和完善最有利于儿童优先发展、全面发展的制度机制，落实立德树人根本任务，完善家庭教育支持体系，保障儿童生存、发展、受保护和参与权利，全面提升儿童整体素质，促进我市儿童和儿童事业在新时代社会主义现代化强省会建设中走在前列。', '1.坚持党的全面领导原则。把握儿童事业发展的政治方向，贯彻落实党中央关于儿童事业发展的重要决策部署，切实把党的领导落实到儿童事业发展的全过程和各方面。', '2.坚持儿童优先原则。在出台法规政策、编制规划、配置资源、部署工作中优先考虑儿童的最大利益和发展需求。', '3.坚持全面发展原则。尊重儿童的人格尊严，遵循儿童身心发展特点和规律，保障儿童身心健康，促进儿童在德智体美劳各方面全面发展。', '4.坚持平等发展原则。创造公平社会环境，消除对儿童一切形式的歧视，保障所有儿童平等享有发展权利和机会。', '5.坚持儿童参与原则。尊重儿童主体地位，鼓励和支持儿童参与家庭、社会和文化生活，创造有利于儿童参与的社会环境。', '（三）总体目标。在推动济南高质量发展、创造高品质生活、实现高效能治理的进程中，进一步融入儿童发展视角，实施与建设新时代社会主义现代化强省会相匹配的儿童发展战略。儿童优先、儿童友好理念进一步深入人心，保障儿童权利的政策体系更加健全，促进儿童发展的工作机制更加完善，城乡、区域、群体之间儿童发展差距显著缩小。儿童在健康、安全、教育、福利、法律保护、家庭、环境领域的权利进一步实现，思想道德素养和全面发展水平显著提升，儿童获得感幸福感安全感明显增强，儿童友好型城市基本建成，儿童整体发展水平全省领先。', '（1）覆盖城乡的儿童健康服务体系更加完善，儿童医疗保健服务能力显著增强，儿童健康水平不断提高。（牵头单位：市卫生健康委，责任单位：市发展改革委、市医保局）', '（2）普及儿童健康生活方式，提高儿童及其照护人健康素养。（牵头单位：市卫生健康委，责任单位：市委宣传部、市教育局、市体育局、济南日报报业集团、济南广播电视台、市民政局、市妇联、市残联、市科协、团市委）', '（4）构建完善覆盖婚前、孕前、孕期、新生儿和儿童各阶段的出生缺陷防治体系，预防和控制出生缺陷。（牵头单位：市卫生健康委，责任单位：市民政局、市总工会、市残联、市生态环境局）', '（5）儿童常见疾病和恶性肿瘤等严重危害儿童健康的疾病得到有效防治。（牵头单位：市卫生健康委，责任单位：市教育局、市医保局、市生态环境局）', '（6）适龄儿童国家免疫规划疫苗接种率保持在91%以上。（牵头单位：市卫生健康委，责任单位：市市场监管局）', '（7）5岁以下儿童中重度贫血率和生长迟缓率分别控制在4%和1.8%以下，儿童肥胖、超重上升趋势得到有效控制。（牵头单位：市卫生健康委，责任单位：市教育局、市体育局、市关工委、市残联、市妇联）', '（8）儿童新发近视率明显下降，儿童总体近视率平均每年降低一个百分点以上。0—6岁儿童眼保健和视力检查覆盖率达到98%以上。（牵头单位：市教育局，责任单位：市卫生健康委、市体育局、团市委、市关工委）', '（10）增强儿童体质，中小学生《国家学生体质健康标准》达标优良率达到62%以上。（牵头单位：市教育局，责任单位：市体育局、团市委、市卫生健康委）', '（11）增强儿童心理健康服务能力，提升儿童心理健康素养水平。（牵头单位：市卫生健康委、市教育局，责任单位：市民政局、团市委、市关工委、市妇联、市残联、市委宣传部）', '（12）适龄儿童普遍接受性教育，儿童性健康服务可及性明显提高。（牵头单位：市教育局，责任单位：市卫生健康委、市科协、市妇联、团市委）', '（1）完善儿童健康服务体系。健全涵盖儿童的基本医疗卫生制度，加强市、区县一体化妇幼健康信息平台、健康管理信息系统建设，完善儿童健康统计制度，推进“互联网+妇幼健康”服务模式，加强信息互联共享，实现儿童健康全周期全过程管理和服务的信息化、智能化。加快儿童医学人才培养，提高全科医生的儿科和儿童保健专业技能与薪酬待遇，增强岗位吸引力。每千名儿童拥有儿科执业（助理）医生达到0.85名、床位增至2.2张，每所镇卫生院、社区卫生服务中心至少配备1名提供规范儿童基本医疗服务的全科医生和儿童保健医生。', '（2）加强儿童保健服务和管理。加强儿童保健门诊标准化、规范化建设。扎实开展0—6岁儿童健康管理工作，3岁以下儿童系统管理率、7岁以下儿童健康管理率保持在91％以上。推动视力、听力、肢体、智力残疾及孤独症儿童残疾筛查，完善筛查、诊断、康复、救助相衔接的工作机制。加强学校、幼儿园、托育机构的常见病预防保健能力，按标准配备校医、托幼托育机构卫生保健人员和必要保健设备。加强对孤儿、流动、留守以及困境儿童等重点群体的健康管理。', '（3）加大儿童健康知识宣传普及力度。强化父母或其他监护人是儿童健康第一责任人的理念，依托家庭、社区、学校、幼儿园、托育机构，加大科学育儿、预防疾病、及时就医、合理用药、合理膳食、应急避险、心理健康等健康知识和技能宣传普及力度，促进儿童养成健康行为习惯，提高父母或其他监护人健康素养。构建全媒体健康知识传播机制，发挥健康科普专家库和资源库作用，推进医疗机构规范设置孕妇学校和家长课堂，鼓</t>
         </is>
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A136" t="n">
+        <v>129</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
           <t>勇担重任共同奏响黄河大合唱</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr">
+      <c r="E136" t="inlineStr">
         <is>
           <t>2021-10-24</t>
         </is>
       </c>
-      <c r="E136" t="inlineStr">
+      <c r="F136" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2021/10/24/art_1861_4894226.html</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
+      <c r="G136" t="inlineStr">
         <is>
           <t>['10月22日，习近平总书记在济南主持召开深入推动黄河流域生态保护和高质量发展座谈会并发表重要讲话。习近平总书记的重要讲话，令全市广大干部群众备受鼓舞、倍感振奋。大家纷纷表示，一定要按照习近平总书记要求，勇担重任、艰苦奋斗，奋发有为、锐意进取，着力推动黄河流域生态保护和高质量发展不断取得新突破，共同奏响“黄河大合唱”。', '习近平总书记在深入推动黄河流域生态保护和高质量发展座谈会上强调，要立足防大汛、抗大灾，针对防汛救灾暴露出的薄弱环节，迅速查漏补缺，补好灾害预警监测短板，补好防灾基础设施短板。', '济南南依泰山，北跨黄河，属坡地与平原复合型城市，地形复杂多样，地势南高北低，南北高差130米，是全国31个重点防洪城市之一。近年来，随着我市深入贯彻落实黄河重大国家战略，新旧动能转换起步区和新时代现代化强省会建设加快推进，对水资源的保障能力和水灾害防御能力提出了更高要求。市城乡水务局负责同志表示，将进一步提升洪涝灾害防御能力，重点采取四项举措。一是开展河道防洪治理，完成小清河防洪综合治理、徒骇河干流治理等工程，治理河段全部达到防洪标准；推进实施历城区巨野河东支流，平阴玉带河、浪溪河等中小河流综合治理工程，骨干河道重要河段全部达标。二是开展病险水库除险加固。实施鹊山等中型水库除险加固，消除水库运行安全隐患，恢复水库调蓄能力。实施黑石涧水库、后峪水库等80余座小型病险水库除险加固，消除病险水库安全隐患。三是提高城市排涝防涝能力。按照“小雨不积水，大雨不看海”的目标，实施陡沟、大涧沟等河道防洪除涝综合治理工程，提高城市河道排涝能力；实施科创城片区一期排水系统及泄洪沟等工程，完善城市空白区排水系统；实施济微路、二环北路等道路雨水管渠提升改造工程，达到排水标准；实施山大路、奥体中路等道路积水点改造工程，基本实现中等强度降雨条件下道路不积水。四是提升灾害防御科技化水平。完善全市防汛关键部位视频监控系统、水文监测设施等信息化设施，提升水库纳雨能力分析和山洪灾害短临预报能力；强化全市雨水情监测系统、预报预警系统、防汛指挥调度平台、预警信息发布系统应用，推动防洪排涝工程调度专业化、精细化。', '习近平总书记强调，全方位贯彻“四水四定”原则。要坚决落实以水定城、以水定地、以水定人、以水定产，走好水安全有效保障、水资源高效利用、水生态明显改善的集约节约发展之路。要精打细算用好水资源，从严从细管好水资源。要创新水权、排污权等交易措施，用好财税杠杆，发挥价格机制作用，倒逼提升节水效果。', '济南是著名的泉城，但也是一座严重缺水城市，人均水资源占有量不足全国人均占有量的七分之一，水资源短缺已经成为制约经济社会发展的主要瓶颈之一。我市历来重视水资源节约集约利用，努力践行“节水优先、空间均衡、系统治理、两手发力”治水方针，围绕以水定城、以水定地、以水定人、以水定产的基本要求，突出抓好节约用水管理各项工作，为全市经济社会持续健康发展提供了有力的水利支撑。', '市城乡水务局负责同志表示，将紧抓机遇，加快推进节水型社会建设，为黄河流域生态保护和高质量发展重大国家战略的顺利实施贡献力量。要坚持规划引领，组织完成全市第三次水资源调查评价，摸清全市水量、水质等水资源底数。在此基础上，编制完成《济南市水资源综合利用中长期规划》和《济南市水资源优化配置实施方案》，提出水资源保护利用各方面系统方案。要强化节约用水，把水资源作为最大的刚性约束，全面实施深度节水控水行动，推动用水方式由粗放低效向节约集约转变。围绕打造全国节水典范城市，坚持节水优先、还水于泉，立足我市水资源本底条件，把节约集约用水内植于城市发展的基因之中，以新旧动能转换起步区为高标准示范样板辐射带动全市，全面探索节水新理念、新技术、新模式、新机制，切实把强化水资源承载能力刚性约束与全市适水发展布局相融合，系统推进各行业深度节水，以节水扩大发展空间，助推高质量发展，形成全国节水型社会建设的引领示范样板。要强化再生水利用，加大集中式污水处理厂外排水利用力度，加快再生水主干管网配套建设，优先建设河湖景观、园林绿化、城市保洁、工业冷却用水等用水大户供水管线。要强化水资源涵养，开展生态清洁型小流域建设，实施雪野生态流域治理示范工程和南部山区、黄泛平原风沙区水土保持工程，治理面积310平方公里，进一步涵养水源，提高水资源可持续利用水平。', '“习近平总书记在深入推动黄河流域生态保护和高质量发展座谈会上指出，要坚定不移走生态优先、绿色发展的现代化道路，为深入做好黄河流域生态保护和高质量发展工作指明了方向，提供了思想武器，注入了强大动力。”济南市生态环境局党组副书记、副局长翟立哲表示，全市生态环境系统深受鼓舞、倍感振奋，同时也深感责任重大。“我们一定牢记总书记的殷殷嘱托，贯彻落实好‘治理黄河，重在保护，要在治理’这一理念，持续推进黄河流域山水林田湖草沙综合治理，开展水源涵养与生态修复，坚定走绿色低碳发展道路，严格落实碳排放、污染物排放总量双控措施，坚守生态保护红线。完善生态环境分区管控体系，擦亮济南“山泉湖河城”的生态底色，为推动黄河永续造福两岸人民贡献我们生态环保铁军的力量。”', '作为全市生态环保铁军的一员，市生态环境局综合与科技处处长韩道汶表示，将抢抓黄河重大国家战略机遇，服务建设黄河流域中心城市。首先是坚持规划引领、严守红线。划定和严守生态保护红线、环境质量底线、资源利用上线，编制实施细化到120个单元的街镇、园区生态环境准入清单，建立精细化的生态环境分区管控体系。其次，坚持科技支撑、系统治理。推动济南建设智慧生态黄河示范城市，充分运用大数据、人工智能、遥感监测等新技术，提升精准治污、科学治污、依法治污能力，支撑深入打好蓝天、碧水、净土三大保卫战。同时，坚持清洁生产、绿色发展。大力实施清洁化生产，提升企业绿色发展水平，打造面向黄河流域的低碳环保产业集群，助推流域经济发展质量变革、效率变革、动力变革，促进高质量发展。', '习近平总书记在深入推动黄河流域生态保护和高质量发展座谈会上发表的重要讲话，为全市农业农村工作提供了根本遵循，指明了努力方向，在全市农业农村系统引发强烈反响。市农业农村局负责同志表示，全市农业农村工作将提高政治站位，扛牢职责使命，抢抓黄河流域生态保护和高质量发展重大国家战略机遇，锚定打造乡村振兴齐鲁样板省会标杆目标，加快农业农村现代化。', '下一步，市农业农村局将转换思路抓推进，真正把“全面”作为工作主线，树立全域全民全程的思维，坚持农业现代化和农村现代化一起设计、农业农村农民问题一同考虑、乡村“五个振兴”一体实施、乡村振兴和新型城镇化一并推进，有效衔接好巩固拓展脱贫攻坚成果同乡村振兴工作，统筹谋划好新发展阶段“三农”工作的任务目标和政策措施，扎实推动农业全面升级、农村全面进步、农民全面发展；聚焦节点任务抓推进，科学设计乡村振兴阶段性工作目标，排好施工表和路线图，久久为功、持续用力，一年接着一年干，不断补实补好“三农”短板，加快实现农业高质量发展。', '“加快构建国土空间保护利用新格局，是习近平总书记对推动黄河流域生态保护和高质量发展作出的重大部署要求。我们备受鼓舞，对济南建设黄河流域中心城市和新时代现代化强省会充满信心与期待。”市自然资源和规划局党组副书记、副局长牛长春表示，当前，我市处于国家战略交汇叠加的重大机遇期，如何优化国土空间布局，为国家战略提供高质量承载空间，是国土空间规划工作需要交出的新时代答卷。他们将以习近平新时代中国特色社会主义思想为指导，坚持新发展理念，尊重发展规律，按照黄河流域生态保护和高质量发展要求以及新旧动能转换重大决策部署，着力发挥省会都市圈示范引领作用，统筹安排国土空间开发保护，体现战略性、提高科学性、强化权威性、加强协调性、注重操作性，加快构建“南山北水多廊多点”生态空间格局和“东强西兴南美北起中优”城市发展新格局，凸显“山泉湖河城”浑然一体的空间特色，推动城市能级提升，形成节约资源、保护环境的空间格局、产业结构、生产方式、生活方式，打造成为黄河流域生态保护示范标杆和高质量发展核心增长极。', '作为长期奋斗在自然资源和规划一线的工作者，牛长春表示，将继续做好国土空间总体规划编制工作，严守耕地保护红线、生态保护红线，落实好国土空间差别化用途管制，处理好耕地、环境保护与城市发展的关系，进一步提高土地节约集约利用水平，为建设黄河流域中心城市和新时代现代化强省会提供坚实空间保障。', '济南量子技术研究院副院长周飞表示，济南量子技术研究院一直牢记习近平总书记的殷殷嘱托，充分认识推动量子科技发展的重要性紧迫性。目前，基于理论的不断完善和技术的不断创新，该院与中国科大合作，实现地面跨度4600公里的星地一体的大范围、多用户量子密钥分发；基于“济青干线”现场光纤实现511公里双场量子密钥分发，这是目前现场无中继光纤量子通信最远的传输距离；利用济南量子通信试验网，完成国际首次量子密钥分发（QKD）和后量子密码（PQC）融合可用性的现网验证；推动济南建成国内首个商用量子保密通信专网，开展微纳量子卫星研制，预计很快发射升空。', '标准化建设方面，济南量子技术研究院参与研制的首个量子计算领域和量子精密测量领域国家标准成功立项。截至目前，已实现量子通信、量子计算、量子测量三大领域标准全覆盖。', '量子科技的应用场景越来越多。济南量子技术研究院自主研发的量子通信关键芯片“铌酸锂波导芯片”，在高速量子通信、单光子成像及激光雷达等领域具有广泛的应用前景，目前已实现在污染物溯源、气象监测等方面的应用；室温下性能最优的通信波段单光子探测器是世界上第一台封装成型的商业产品样机。为积极推动成果转化，设立科技成果转化和资产管理平台，推动成果转化驶入快车道。', '当前，济南已经聚集济南量子技术研究院、山东量子科学技术研究院有限公司、山东国迅量子芯科技有限公司、山东国耀量子雷达科技有限公司、山东国科量子通信网络有限公司等量子科技企业及研发平台，储备了一系列可转化的科技成果，包括超导量子器件、小型化量子纠缠源、天地一体化量子保密通信组网技术、非视域单光子三维成像技术等。“我们将认真学习贯彻习近平总书记在深入推动黄河流域生态保护和高质量发展座谈会上的重要讲话精神，咬定目标、埋头苦干，为济南发展量子科技产业提供强大支撑。”周飞说。', '“总书记指出‘努力在关键核心技术和重要创新领域取得突破，将科研成果加快转化为现实生产力’，实现这一目标关键在人才。”中材人工晶体研究院（山东）有限公司总经理訾蓬说，“为了鼓励和引导人才创新，我们设立了专项基金，建立了完善的创新体系，在薪酬体系上设置了技术人员的绿色通道，对于符合国家科技战略的项目给予资金等方面的支持，使每个科研工作者心无旁骛潜心研究。目前，新组建的第三代半导体等研究团队已具雏形，正围绕关键原材料开展科研攻关。”', '“要‘龙头’集聚，更要人才聚集，近年来我们紧扣‘产业链’打造‘人才链’，引进了一批省内外高层次创新创业人才投身我区经济建设。”章丘区投资促进局局长孙骅介绍，此前，中材人工晶体研究院领导班子曾到全国各地进行考察，最终敲定落户章丘，并建设国家级人工晶体产业化示范基地，看中的是这里非金属材料领域雄厚的产业和人才基础，能够为科技成果快速转化提供有力支撑。今后，章丘区投资促进局将认真贯彻落实习近平总书记重要讲话精神，在项目自建土地和办公用房以及人才引进、住房补贴、产业导入等方面给予支持。同时，充分利用“双招双引”工作站、招引项目、创新团队、行业领军企业等资源，深入挖潜，吸引和招揽更多的优秀人才加入投资章丘的行列，为黄河流域生态保护和高质量发展注入澎湃动能。']</t>
         </is>
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A137" t="n">
+        <v>129</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
           <t>项目潮涌千帆竞发走在前亮答卷感受强省会之势</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr">
+      <c r="E137" t="inlineStr">
         <is>
           <t>2021-11-18</t>
         </is>
       </c>
-      <c r="E137" t="inlineStr">
+      <c r="F137" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2021/11/18/art_1812_4896869.html</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
+      <c r="G137" t="inlineStr">
         <is>
           <t>['大河潮涌，千帆竞发。在全市上下深入学习贯彻党的十九届六中全会精神，奋力冲刺攻坚、打响收官之战的关键时刻，市委、市政府组织开展2021年全市重点项目建设观摩评议活动，通过相互比较、相互学习、取长补短，进一步开阔视野、坚定信心、增强动力，为全面完成全年目标任务、奋力实现“三个走在前”目标定位注入了强劲动力。', '走进技术先进、设备精良的现代化车间，驻足塔吊林立、机械轰鸣的施工现场，参观前景广阔、品种繁多的优质产品，观摩评议人员来到60个实体项目现场观摩考察，所到之处生机勃发，满眼皆是项目建设如火如荼的生动场景。一个个定位高端、特色鲜明，带动能力强、发展前景好的大项目好项目，集聚起推动我市新旧动能转换、引领省会高质量发展的强劲动力。', '通过60个项目，我们可以看到一条清晰的高质量发展之路，感受到风雨无阻“走在前”的决心。', '推动新旧动能转换，实现高质量发展，既要依靠传统产业的转型升级，更要不断培育新动能。', '一批突破卡脖子技术的项目、代表着“专精特新”的项目在济南拔地而起。位于起步区的中科新经济科创园项目，总用地面积约1100亩，总投资约95亿元。园区首期引入济南先进动力研究所、济南中科泛在智能计算研究院和济南中科核技术研究院等中科院三大院所及徐建中院士工作站。目前项目已初具规模，济南先进动力研究所及4号实验台已投入使用，其中20兆瓦燃气轮机点火成功并完成首台（套）订单，填补了国内技术空白，打破了制约国家发动机领域卡脖子技术壁垒。新材料产业发展前景广阔，是各地争相布局的重点。此次亮相的天诺光电新材料产业基地项目，建筑面积2.5万平方米、投资3.5亿元，2021年全面投产，预计销售收入6.5亿元。项目投资企业天诺光电是国内软体电磁屏蔽材料的行业标准制定者和领导厂商，市场占有率居行业首位，其产品广泛应用于华为、小米、苹果、联想、戴尔、惠普等通信电子产品。该项目的落地，必将有力助推全市新材料产业的加速崛起。中国算谷产业园（一期）项目总投资20亿元，计划引进高端信息装备企业50余家，打造国内领先的数字产业和国际领先的先进计算产业发展高地。树兰（济南）国际医院项目整合国内各临床专业院士专家团队，紧密结合医学中心教育、科研、临床，走医教研产一体化发展模式，打造“1+X”综合性医疗服务集群，将建设具有国际水平、国内顶级的大型综合医院。', '随着工业强市战略的深入推进,济南成为众多工业项目投资的首选地。欧洲第一、全球第二的工业叉车制造商德国凯傲集团投资建设的凯傲（济南）叉车有限公司C2H项目，主要研发制造高端新能源叉车、电动平衡重式叉车，将打造成为亚太地区最大、全球最高水平的新能源叉车制造中心。项目全部建成达产后，年产高端新能源叉车4万台，实现销售收入33.5亿元。济南吉利智慧新能源整车项目总投资112亿元，项目建成后可年产新能源汽车10万辆，年销售收入过百亿元。中国重汽智能物流中心项目是国内商用车行业最大的集约化智能化物流配送中心之一，全部建成运营后可实现智能制造与智慧物流协同一体化发展，有效满足智能网联（新能源）重卡项目生产需要。', '大项目支撑大发展。总投资约510亿元的济南中央活力区项目占地约5平方公里，超前布局信息、融合和创新三类新型基础设施，整体实施山水系统生态修复，重点发展绿色智能制造、新一代信息技术等新兴产业，打造产学研融合发展的创新创业之城、全面数字化转型的现代智慧之城、绿色低碳和谐的生态人文之城。', '通过观摩可以感受到，一批投资体量大、科技含量高、市场前景好的优质项目落户济南，“四新经济”在泉城大地蓬勃发展，让人们看到了济南未来发展的巨大潜力和希望。', '大格局拓展大作为，大视野舒展大手笔。通过观摩可以看到，有的项目致力于打造全国、全行业甚至是全球标杆，有的项目主动融入服务国家战略，充分展示了济南以高站位谋划大发展的胸怀和格局。', '黄河重大国家战略，是济南必须扛起的光荣使命，也是加快高质量发展的重大机遇。在起步区，位于崔寨片区的黄河国际会展中心项目正在加快建设，这是集展览、会议、酒店、餐饮、服务等于一体的超大型会展综合体，整体建设及周边配套设施总投资近1000亿元，建成后将成为全球综合规模最大的会展中心，同时也是金属屋面面积最大的会展中心、地面承载力最大的会展中心、单馆跨度最大的会展中心，可满足世界所有类型展览需求。目前，项目已引入德国汉诺威国际展览有限公司等全球顶尖运营机构。正式运营后，预计年交易额逾千亿元，产值约40亿元，带来税收约3.5亿元，创造就业岗位约1万个，带动交通、物流、旅游、酒店、商业等上下游130多个关联产业，形成年产值400亿元的会展经济产业园，成为加快新旧动能转换的新引擎。这样的一个高端项目，既能树起全球会展业的标杆，也将为践行黄河重大国家战略提供有力支撑。', '量子科技将引领新一轮科技革命和产业变革方向，是国家在创新方面布局的重点之一。此次亮相的量子信息产业基地项目，是国家计划实施的“科技创新2030量子通信与量子计算机重大项目”的承担实体，将以国家信息安全和计算能力提高等重大需求为导向，着力突破以量子信息为主导的第二次量子革命的前沿科学问题和核心关键技术，培育打造量子通信、超导量子器件和量子精密测量等战略性新兴产业，抢占量子科技国际竞争和未来发展的制高点。', '一个个“国家最高”“行业领先”“定位最高”的项目落地济南。在西部，正在建设的济南远大购物广场项目，是济南市目前面积最大的商业综合体。项目建成后，将与山东国际会展中心、宜家家居、奥特莱斯、迪卡侬等共同组成西部高端消费公园业态，成为“世界级公园城市综合体”和济南城市新地标。由中汽联常务副会长单位山东同仁节能科技有限公司投资建设的山东科佳智能装备城项目，聚焦汽车配件及工程机械供应链研发生产、总部、外贸三大板块，可入驻企业500余家，产值超过200亿元，将成为国内定位最高、规模最大、产业链最长、服务职能最全的现代化汽配产业园区。“国内商用车行业最大的集约化智能化物流配送中心之一”“国际先进、国内一流水平非金属材料专业研究所”“国家级物联网应用示范园区”“国内同行业装备集成化、智能化程度最高的工厂”“国内一流的水泥熟料绿色智能化标杆生产线”“国内首个‘钢结构绿色健康建筑示范园区’”“山东新能源产业升级的策源地”……一个个致力于打造行业领先、全国第一甚至全球一流的项目，不断提升标杆，擎起高质量发展新高地。', '作为黄河流域中心城市，济南频频站上全国大舞台，以更高站位、更宽视野、更大格局谋划发展，一个个服务国家战略、打造行业标杆的项目次第花开。', '担当成就事业，实干创造未来。观摩期间，大家一路走、一路看、一路议、一路比，对全市项目建设情况有了更加直观、更加全面的认识，亲身感受了全市上下大抓项目、抓大项目的浓厚氛围。透过一个个项目，人们感受到这背后实干担当的作风、奋勇争先的精气神。', '山东中医药大学国际眼科与视光医学院项目总投资12.7亿元，建筑面积11.1万平方米。该项目今年3月启动拆迁、4月进场开工，11月底将全面竣工，实现“当年拆迁、当年开工、当年竣工”。', '由中国民营企业500强北京东方雨虹防水技术股份有限公司投资建设的东方雨虹济南绿色材料产业基地项目，今年1月签约、2月拿地，一期工程6月开工，12月底前投产，实现“当年签约、当年拿地、当年建成、当年投产”。', '锐基电力产业园项目总投资10亿元，主要建设现代化标准厂房、多层创意厂房及独栋企业中心，项目今年3月开工建设，年底将交付使用，实现“当年开工、当年建成、当年投产”。', '新能源电传动装备智能化产业项目从开工建设到厂房竣工仅用了两个月时间；玫德智能高端流体产业园项目3月开工建设，10月钢管试生产成功……', '有什么样的状态与姿态，通常决定着有什么样的结果与未来。通过观摩可以看出，以往“当年签约、当年开工、当年投产”的项目建设速度不再是个例，越来越多的项目跑出了加速度。展现出的是加速度，体现的是担当。济南发展的快与慢，取决于一个个具体项目。只有所有项目建设都快起来，才能形成最大马力的“济南速度”。鲜活的实践告诉我们：无论是建设重点项目，还是推进重点工作，都必须以一往无前的奋进姿态，只争朝夕、全力以赴，用我们的担当作为扛起使命担当。', '把“三个走在前”目标定位变为现实，需要各级干部带头弘扬担当精神，紧盯目标，狠抓落实。组织重点项目观摩评议，开展项目建设大竞赛大比武，就是要推动各区县（功能区）、市直各部门单位相互学习借鉴，比一比、赛一赛在贯彻新发展理念、推动高质量发展方面的实际成效。', '纷繁世事多元应，击鼓催征稳驭舟。济南的建设新时代社会主义现代化强省会之路，必将精彩夺目！']</t>
         </is>
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A138" t="n">
+        <v>129</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
           <t>习近平咬定目标脚踏实地埋头苦干久久为功为黄河永远造福中华民族而不懈奋斗</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr">
+      <c r="E138" t="inlineStr">
         <is>
           <t>2021-10-23</t>
         </is>
       </c>
-      <c r="E138" t="inlineStr">
+      <c r="F138" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2021/10/23/art_76833_4894178.html</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
+      <c r="G138" t="inlineStr">
         <is>
           <t>['中共中央总书记、国家主席、中央军委主席习近平22日下午在山东省济南市主持召开深入推动黄河流域生态保护和高质量发展座谈会并发表重要讲话。他强调，要科学分析当前黄河流域生态保护和高质量发展形势，把握好推动黄河流域生态保护和高质量发展的重大问题，咬定目标、脚踏实地，埋头苦干、久久为功，确保“十四五”时期黄河流域生态保护和高质量发展取得明显成效，为黄河永远造福中华民族而不懈奋斗。', '座谈会上，国家发展改革委主任何立峰、甘肃省委书记尹弘、山西省委书记林武、山东省委书记李干杰、自然资源部部长陆昊、生态环境部党组书记孙金龙、水利部部长李国英先后发言，介绍工作情况，提出意见和建议。参加座谈会的其他省区主要负责同志提交了书面发言。', '听取大家发言后，习近平发表了重要讲话。他强调，党中央把黄河流域生态保护和高质量发展上升为国家战略以来，我们围绕解决黄河流域存在的矛盾和问题，开展了大量工作，搭建黄河保护治理“四梁八柱”，整治生态环境问题，推进生态保护修复，完善治理体系，高质量发展取得新进步。同时也要看到，在黄河流域生态保护和高质量发展上还存在一些突出矛盾和问题，要坚持问题导向，再接再厉，坚定不移做好各项工作。', '习近平指出，沿黄河省区要落实好黄河流域生态保护和高质量发展战略部署，坚定不移走生态优先、绿色发展的现代化道路。第一，要坚持正确政绩观，准确把握保护和发展关系。把大保护作为关键任务，通过打好环境问题整治、深度节水控水、生态保护修复攻坚战，明显改善流域生态面貌。沿黄河开发建设必须守住生态保护这条红线，必须严守资源特别是水资源开发利用上限，用强有力的约束提高发展质量效益。第二，要统筹发展和安全两件大事，提高风险防范和应对能力。高度重视水安全风险，大力推动全社会节约用水。要高度重视全球气候变化的复杂深刻影响，从安全角度积极应对，全面提高灾害防控水平，守护人民生命安全。第三，要提高战略思维能力，把系统观念贯穿到生态保护和高质量发展全过程。把握好全局和局部关系，增强一盘棋意识，在重大问题上以全局利益为重。要把握好当前和长远的关系，放眼长远认真研究，克服急功近利、急于求成的思想。第四，要坚定走绿色低碳发展道路，推动流域经济发展质量变革、效率变革、动力变革。从供需两端入手，落实好能耗双控措施，严格控制“两高”项目盲目上马，抓紧有序调整能源生产结构，淘汰碳排放量大的落后产能和生产工艺。要着力确保煤炭和电力供应稳定，保障好经济社会运行。', '习近平强调，“十四五”是推动黄河流域生态保护和高质量发展的关键时期，要抓好重大任务贯彻落实，力争尽快见到新气象。一是加快构建抵御自然灾害防线。要立足防大汛、抗大灾，针对防汛救灾暴露出的薄弱环节，迅速查漏补缺，补好灾害预警监测短板，补好防灾基础设施短板。要加强城市防洪排涝体系建设，加大防灾减灾设施建设力度，严格保护城市生态空间、泄洪通道等。二是全方位贯彻“四水四定”原则。要坚决落实以水定城、以水定地、以水定人、以水定产，走好水安全有效保障、水资源高效利用、水生态明显改善的集约节约发展之路。要精打细算用好水资源，从严从细管好水资源。要创新水权、排污权等交易措施，用好财税杠杆，发挥价格机制作用，倒逼提升节水效果。三是大力推动生态环境保护治理。上游产水区重在维护天然生态系统完整性，一体化保护高原高寒地区独有生态系统，有序实行休养生息制度。要抓好上中游水土流失治理和荒漠化防治，推进流域综合治理。要加强下游河道和滩区环境综合治理，提高河口三角洲生物多样性。要实施好环境污染综合治理工程。四是加快构建国土空间保护利用新格局。要提高对流域重点生态功能区转移支付水平，让这些地区一心一意谋保护，适度发展生态特色产业。农业现代化发展要向节水要效益，向科技要效益，发展旱作农业，推进高标准农田建设。城市群和都市圈要集约高效发展，不能盲目扩张。五是在高质量发展上迈出坚实步伐。要坚持创新创造，提高产业链创新链协同水平。要推进能源革命，稳定能源保供。要提高与沿海、沿长江地区互联互通水平，推进新型基础设施建设，扩大有效投资。', '习近平指出，党中央已经对推动黄河流域生态保护和高质量发展作出全面部署，关键在于统一思想、坚定信心、步调一致、抓好落实，要落实好中央统筹、省负总责、市县落实的工作机制，各尽其责、主动作为。要调动市场主体、社会力量积极性。', '习近平强调，进入7月下旬以来，黄河流域部分地方遭受罕见洪涝灾害，各有关地方要切实做好灾后恢复重建工作，特别是要关心和帮助那些因灾陷入困境的群众，保障人民群众基本生活，保证生产生活正常秩序。要注意克服秋汛影响，采取有针对性的措施，抓好秋冬种工作。入冬在即，各地要早作谋划、制定预案，保障群众生活用电、供暖，确保群众温暖过冬。', '韩正在讲话中表示，要认真学习贯彻习近平总书记重要讲话和指示精神，进一步增强推动黄河流域生态保护和高质量发展的责任感使命感。要坚持问题导向，统筹水安全和水资源优化利用，保障生态和生活用水，严控高耗水产能过度扩张。要从黄河流域生态环境系统性和完整性出发，加强上游水源涵养能力建设、中游水土保持、下游湿地保护和生态治理，分区分类推进生态环境保护修复。要扎实推动黄河流域高质量发展，建设特色优势现代产业体系，高度重视煤炭清洁利用，建设全国重要能源基地。要牢固树立大局意识，凝聚大保护合力，坚决把黄河流域生态保护和高质量发展重点任务落实到位。', '为开好这次座谈会，20日至21日，习近平在山东省委书记李干杰、代省长周乃翔陪同下，深入东营市的黄河入海口、农业高新技术产业示范区、黄河原蓄滞洪区居民迁建社区等，实地了解黄河流域生态保护和高质量发展情况。', '20日下午，习近平来到黄河入海口，凭栏远眺，察看河道水情，详细询问径流量、输沙量等。随后，习近平走进黄河三角洲生态监测中心，听取黄河流路变迁、水沙变化和黄河三角洲生物多样性保护等情况介绍。他强调，我一直很关心黄河流域生态保护和高质量发展，今天来到这里，黄河上中下游沿线就都走到了。扎实推进黄河大保护，确保黄河安澜，是治国理政的大事。要强化综合性防洪减灾体系建设，加强水生态空间管控，提升水旱灾害应急处置能力，确保黄河沿岸安全。', '习近平听取了黄河三角洲国家级自然保护区情况汇报，沿木栈道察看黄河三角洲湿地生态环境。他指出，党的十八大以来，各级党委和政府贯彻绿色发展理念的自觉性和主动性明显增强，一体推进山水林田湖草沙保护和治理力度不断加大，我国生态文明建设成绩斐然。黄河三角洲自然保护区生态地位十分重要，要抓紧谋划创建黄河口国家公园，科学论证、扎实推进。习近平强调，在实现第二个百年奋斗目标新征程上，要坚持生态优先、绿色发展，把生态文明理念发扬光大，为社会主义现代化建设增光增色。', '21日上午，习近平来到黄河三角洲农业高新技术产业示范区考察调研，走进盐碱地现代农业试验示范基地，察看大豆、苜蓿、藜麦、绿肥作物长势，了解盐碱地生态保护和综合利用、耐盐碱植物育种和推广情况。习近平强调，开展盐碱地综合利用对保障国家粮食安全、端牢中国饭碗具有重要战略意义。要加强种质资源、耕地保护和利用等基础性研究，转变育种观念，由治理盐碱地适应作物向选育耐盐碱植物适应盐碱地转变，挖掘盐碱地开发利用潜力，努力在关键核心技术和重要创新领域取得突破，将科研成果加快转化为现实生产力。', '上世纪70年代，东营市黄河原蓄滞洪区群众响应国家号召搬迁至沿黄大堤的房台上居住。2013年起，东营市对66个房台村进行住房拆迁改造，建设新社区。习近平来到杨庙社区，走进便民服务中心、老年人餐厅、草编加工合作社，详细询问社区加强基层党建、开展便民服务、促进群众增收等情况。在居民许建峰家，习近平察看卧室、厨房、卫生间等，同一家三代人围坐交谈。许建峰告诉总书记，他们原来住在沿黄大堤房台村的老房子里，2016年搬进了这里的楼房，生活条件好了，就业门路多了，打心眼里感谢党的好政策。习近平指出，党中央对黄河滩区居民迁建、保证群众安居乐业高度重视。要扎实做好安居富民工作，统筹推进搬迁安置、产业就业、公共设施和社区服务体系建设，确保人民群众搬得出、稳得住、能发展、可致富。要发挥好基层党组织战斗堡垒作用，努力把社区建设成为人民群众的幸福家园。离开社区时，干部群众高声向总书记问好。习近平祝愿大家生活幸福、身体健康，孩子们茁壮成长。', '21日下午，习近平来到胜利油田勘探开发研究院，了解油田开发建设历程和研究院总体情况，走进页岩油实验室、二氧化碳气驱实验室，听取油田坚持自主创新、加快技术攻关应用、保障国家能源安全等情况介绍。习近平强调，解决油气核心需求是我们面临的重要任务。要加大勘探开发力度，夯实国内产量基础，提高自我保障能力。要集中资源攻克关键核心技术，加快清洁高效开发利用，提升能源供给质量、利用效率和减碳水平。他指出，石油战线始终是共和国改革发展的一面旗帜，要继续举好这面旗帜，在确保国家能源安全、保障经济社会发展上再立新功、再创佳绩。', '离开研究院，习近平来到位于东营市莱州湾的胜利油田莱113区块，了解二氧化碳捕集、利用与封存技术研发应用情况。他登上二层钻井平台，察看钻井自动化设备，走进操作室，同正在作业的工人亲切交流。今年是胜利油田发现60周年。习近平代表党中央向为我国能源事业作出贡献的石油工作者们表示崇高敬意。习近平叮嘱大家继承和发扬老一辈石油人的革命精神和优良传统，始终保持石油人的红色底蕴和战斗情怀，为社会主义现代化建设事业作出更大贡献。', '习近平充分肯定党的十九大以来山东的工作，勉励他们努力在服务和融入新发展格局上走在前、在增强经济社会发展创新力上走在前、在推动黄河流域生态保护和高质量发展上走在前，不断改善人民生活、促进共同富裕，开创新时代社会主义现代化强省建设新局面。', '丁薛祥、刘鹤、陈希、何立峰等陪同考察并出席座谈会，中央和国家机关有关部门负责同志、有关省区负责同志参加座谈会。']</t>
         </is>
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A139" t="n">
+        <v>129</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
           <t>市委常委会召开会议</t>
         </is>
       </c>
-      <c r="D139" t="inlineStr">
+      <c r="E139" t="inlineStr">
         <is>
           <t>2021-09-17</t>
         </is>
       </c>
-      <c r="E139" t="inlineStr">
+      <c r="F139" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2021/9/17/art_1861_4889611.html</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
+      <c r="G139" t="inlineStr">
         <is>
           <t>['9月16日下午，市委常委会召开会议，认真学习贯彻习近平总书记在中央党校（国家行政学院）中青年干部培训班开班式上的重要讲话、向国际粮食减损大会所致贺信、在河北承德考察时的重要讲话、在2021年中国国际服务贸易交易会全球贸易峰会上的重要致辞、在第六届东方经济论坛全会开幕式上的重要致辞精神，研究贯彻落实意见。', '会议指出，习近平总书记的重要讲话、重要致辞，思想深邃、内涵丰富、统揽全局、指向明晰，为我们做好各项工作指明了前进方向，提供了根本遵循。各级各部门一定要深入学习领会，结合实际抓好贯彻落实。', '会议强调，全市各级要按照习近平总书记“信念坚定、对党忠诚，注重实际、实事求是，勇于担当、善于作为，坚持原则、敢于斗争，严守规矩、不逾底线，勤学苦练、增强本领”的重要要求，结合深入开展党史学习教育，认真查找不足，切实加以整改，努力建设忠诚干净担当的高素质专业化干部队伍。要把坚定理想信念摆在首位，坚定马克思主义信仰、共产主义远大理想、中国特色社会主义共同理想，始终对党绝对忠诚，不断增强“四个意识”、坚定“四个自信”、做到“两个维护”，自觉在思想上政治上行动上同以习近平同志为核心的党中央保持高度一致。', '会议强调，国际粮食减损大会，是今年以来我省举办的最高层次的国际盛会。习近平总书记在向大会的贺信中，围绕减少粮食损耗和保障粮食安全、构建人类命运共同体，向国际社会发出了呼吁和号召，引起了世界各国的广泛重视。要认真学习贯彻习近平总书记重要指示精神，落实藏粮于地、藏粮于技战略，聚焦粮食生产、加工、储备、物流、消费等环节，做好节粮减损等工作，推动我市现代种业、粮食收储、深加工等产业加快发展。要带头执行好《国际粮食减损大会济南倡议》，切实把倡议变成粮食减损的具体行动。要全力抢抓难得机遇，努力实现更宽领域对外开放，加快打造对外开放新高地。']</t>
         </is>
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A140" t="n">
+        <v>129</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
           <t>习近平在深入推动黄河流域生态保护和高质量发展座谈会上强调咬定目标脚踏实地埋头苦干久久为功为黄河永远造福中华民族而不懈奋斗韩正出席并讲话</t>
         </is>
       </c>
-      <c r="D140" t="inlineStr">
+      <c r="E140" t="inlineStr">
         <is>
           <t>2021-10-23</t>
         </is>
       </c>
-      <c r="E140" t="inlineStr">
+      <c r="F140" t="inlineStr">
         <is>
           <t>http://www.news.cn/politics/leaders/2021-10/22/c_1127986188.htm</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
+      <c r="G140" t="inlineStr">
         <is>
           <t>['习近平在深入推动黄河流域生态保护和高质量发展座谈会上强调 咬定目标脚踏实地埋头苦干久久为功 为黄河永远造福中华民族而不懈奋斗 韩正出席并讲话-新华网', '习近平在深入推动黄河流域生态保护和高质量发展座谈会上强调 咬定目标脚踏实地埋头苦干久久为功 为黄河永远造福中华民族而不懈奋斗 韩正出席并讲话', '10月22日下午，中共中央总书记、国家主席、中央军委主席习近平在山东省济南市主持召开深入推动黄河流域生态保护和高质量发展座谈会并发表重要讲话。 新华社记者 谢环驰 摄', '新华社济南10月22日电 中共中央总书记、国家主席、中央军委主席习近平22日下午在山东省济南市主持召开深入推动黄河流域生态保护和高质量发展座谈会并发表重要讲话。他强调，要科学分析当前黄河流域生态保护和高质量发展形势，把握好推动黄河流域生态保护和高质量发展的重大问题，咬定目标、脚踏实地，埋头苦干、久久为功，确保“十四五”时期黄河流域生态保护和高质量发展取得明显成效，为黄河永远造福中华民族而不懈奋斗。', '座谈会上，国家发展改革委主任何立峰、甘肃省委书记尹弘、山西省委书记林武、山东省委书记李干杰、自然资源部部长陆昊、生态环境部党组书记孙金龙、水利部部长李国英先后发言，介绍工作情况，提出意见和建议。参加座谈会的其他省区主要负责同志提交了书面发言。', '10月22日下午，中共中央总书记、国家主席、中央军委主席习近平在山东省济南市主持召开深入推动黄河流域生态保护和高质量发展座谈会并发表重要讲话。 新华社记者 李学仁 摄', '听取大家发言后，习近平发表了重要讲话。他强调，党中央把黄河流域生态保护和高质量发展上升为国家战略以来，我们围绕解决黄河流域存在的矛盾和问题，开展了大量工作，搭建黄河保护治理“四梁八柱”，整治生态环境问题，推进生态保护修复，完善治理体系，高质量发展取得新进步。同时也要看到，在黄河流域生态保护和高质量发展上还存在一些突出矛盾和问题，要坚持问题导向，再接再厉，坚定不移做好各项工作。', '习近平指出，沿黄河省区要落实好黄河流域生态保护和高质量发展战略部署，坚定不移走生态优先、绿色发展的现代化道路。第一，要坚持正确政绩观，准确把握保护和发展关系。把大保护作为关键任务，通过打好环境问题整治、深度节水控水、生态保护修复攻坚战，明显改善流域生态面貌。沿黄河开发建设必须守住生态保护这条红线，必须严守资源特别是水资源开发利用上限，用强有力的约束提高发展质量效益。第二，要统筹发展和安全两件大事，提高风险防范和应对能力。高度重视水安全风险，大力推动全社会节约用水。要高度重视全球气候变化的复杂深刻影响，从安全角度积极应对，全面提高灾害防控水平，守护人民生命安全。第三，要提高战略思维能力，把系统观念贯穿到生态保护和高质量发展全过程。把握好全局和局部关系，增强一盘棋意识，在重大问题上以全局利益为重。要把握好当前和长远的关系，放眼长远认真研究，克服急功近利、急于求成的思想。第四，要坚定走绿色低碳发展道路，推动流域经济发展质量变革、效率变革、动力变革。从供需两端入手，落实好能耗双控措施，严格控制“两高”项目盲目上马，抓紧有序调整能源生产结构，淘汰碳排放量大的落后产能和生产工艺。要着力确保煤炭和电力供应稳定，保障好经济社会运行。', '习近平强调，“十四五”是推动黄河流域生态保护和高质量发展的关键时期，要抓好重大任务贯彻落实，力争尽快见到新气象。一是加快构建抵御自然灾害防线。要立足防大汛、抗大灾，针对防汛救灾暴露出的薄弱环节，迅速查漏补缺，补好灾害预警监测短板，补好防灾基础设施短板。要加强城市防洪排涝体系建设，加大防灾减灾设施建设力度，严格保护城市生态空间、泄洪通道等。二是全方位贯彻“四水四定”原则。要坚决落实以水定城、以水定地、以水定人、以水定产，走好水安全有效保障、水资源高效利用、水生态明显改善的集约节约发展之路。要精打细算用好水资源，从严从细管好水资源。要创新水权、排污权等交易措施，用好财税杠杆，发挥价格机制作用，倒逼提升节水效果。三是大力推动生态环境保护治理。上游产水区重在维护天然生态系统完整性，一体化保护高原高寒地区独有生态系统，有序实行休养生息制度。要抓好上中游水土流失治理和荒漠化防治，推进流域综合治理。要加强下游河道和滩区环境综合治理，提高河口三角洲生物多样性。要实施好环境污染综合治理工程。四是加快构建国土空间保护利用新格局。要提高对流域重点生态功能区转移支付水平，让这些地区一心一意谋保护，适度发展生态特色产业。农业现代化发展要向节水要效益，向科技要效益，发展旱作农业，推进高标准农田建设。城市群和都市圈要集约高效发展，不能盲目扩张。五是在高质量发展上迈出坚实步伐。要坚持创新创造，提高产业链创新链协同水平。要推进能源革命，稳定能源保供。要提高与沿海、沿长江地区互联互通水平，推进新型基础设施建设，扩大有效投资。', '习近平指出，党中央已经对推动黄河流域生态保护和高质量发展作出全面部署，关键在于统一思想、坚定信心、步调一致、抓好落实，要落实好中央统筹、省负总责、市县落实的工作机制，各尽其责、主动作为。要调动市场主体、社会力量积极性。', '习近平强调，进入7月下旬以来，黄河流域部分地方遭受罕见洪涝灾害，各有关地方要切实做好灾后恢复重建工作，特别是要关心和帮助那些因灾陷入困境的群众，保障人民群众基本生活，保证生产生活正常秩序。要注意克服秋汛影响，采取有针对性的措施，抓好秋冬种工作。入冬在即，各地要早作谋划、制定预案，保障群众生活用电、供暖，确保群众温暖过冬。', '韩正在讲话中表示，要认真学习贯彻习近平总书记重要讲话和指示精神，进一步增强推动黄河流域生态保护和高质量发展的责任感使命感。要坚持问题导向，统筹水安全和水资源优化利用，保障生态和生活用水，严控高耗水产能过度扩张。要从黄河流域生态环境系统性和完整性出发，加强上游水源涵养能力建设、中游水土保持、下游湿地保护和生态治理，分区分类推进生态环境保护修复。要扎实推动黄河流域高质量发展，建设特色优势现代产业体系，高度重视煤炭清洁利用，建设全国重要能源基地。要牢固树立大局意识，凝聚大保护合力，坚决把黄河流域生态保护和高质量发展重点任务落实到位。', '为开好这次座谈会，20日至21日，习近平在山东省委书记李干杰、代省长周乃翔陪同下，深入东营市的黄河入海口、农业高新技术产业示范区、黄河原蓄滞洪区居民迁建社区等，实地了解黄河流域生态保护和高质量发展情况。', '10月22日下午，中共中央总书记、国家主席、中央军委主席习近平在山东省济南市主持召开深入推动黄河流域生态保护和高质量发展座谈会并发表重要讲话。这是座谈会前，习近平20日下午在东营市黄河入海口考察。 新华社记者 李学仁 摄', '10月22日下午，中共中央总书记、国家主席、中央军委主席习近平在山东省济南市主持召开深入推动黄河流域生态保护和高质量发展座谈会并发表重要讲话。这是座谈会前，习近平20日下午在东营市黄河入海口考察。 新华社记者 谢环驰 摄', '10月22日下午，中共中央总书记、国家主席、中央军委主席习近平在山东省济南市主持召开深入推动黄河流域生态保护和高质量发展座谈会并发表重要讲话。这是座谈会前，习近平20日下午在东营市黄河入海口考察。 新华社记者 王晔 摄', '20日下午，习近平来到黄河入海口，凭栏远眺，察看河道水情，详细询问径流量、输沙量等。随后，习近平走进黄河三角洲生态监测中心，听取黄河流路变迁、水沙变化和黄河三角洲生物多样性保护等情况介绍。他强调，我一直很关心黄河流域生态保护和高质量发展，今天来到这里，黄河上中下游沿线就都走到了。扎实推进黄河大保护，确保黄河安澜，是治国理政的大事。要强化综合性防洪减灾体系建设，加强水生态空间管控，提升水旱灾害应急处置能力，确保黄河沿岸安全。', '10月22日下午，中共中央总书记、国家主席、中央军委主席习近平在山东省济南市主持召开深入推动黄河流域生态保护和高质量发展座谈会并发表重要讲话。这是座谈会前，习近平20日下午在东营市黄河三角洲国家级自然保护区考察。 新华社记者 李学仁 摄', '10月22日下午，中共中央总书记、国家主席、中央军委主席习近平在山东省济南市主持召开深入推动黄河流域生态保护和高质量发展座谈会并发表重要讲话。这是座谈会前，习近平20日下午在东营市黄河三角洲国家级自然保护区察看黄河三角洲湿地生态环境。 新华社记者 王晔 摄', '10月22日下午，中共中央总书记、国家主席、中央军委主席习近平在山东省济南市主持召开深入推动黄河流域生态保护和高质量发展座谈会并发表重要讲话。这是座谈会前，习近平20日下午在东营市黄河三角洲生态监测中心考察。 新华社记者 李学仁 摄', '习近平听取了黄河三角洲国家级自然保护区情况汇报，沿木栈道察看黄河三角洲湿地生态环境。他指出，党的十八大以来，各级党委和政府贯彻绿色发展理念的自觉性和主动性明显增强，一体推进山水林田湖草沙保护和治理力度不断加大，我国生态文明建设成绩斐然。黄河三角洲自然保护区生态地位十分重要，要抓紧谋划创建黄河口国家公园，科学论证、扎实推进。习近平强调，在实现第二个百年奋斗目标新征程上，要坚持生态优先、绿色发展，把生态文明理念发扬光大，为社会主义现代化建设增光增色。', '10月22日下午，中共中央总书记、国家主席、中央军委主席习近平在山东省济南市主持召开深入推动黄河流域生态保护和高质量发展座谈会并发表重要讲话。这是座谈会前，习近平21日上午在东营市黄河三角洲农业高新技术产业示范区考察时，走进田间察看大豆长势。 新华社记者 王晔 摄', '10月22日下午，中共中央总书记、国家主席、中央军委主席习近平在山东省济南市主持召开深入推动黄河流域生态保护和高质量发展座谈会并发表重要讲话。这是座谈会前，习近平21日上午在东营市黄河三角洲农业高新技术产业示范区考察。 新华社记者 李学仁 摄', '10月22日下午，中共中央总书记、国家主席、中央军委主席习近平在山东省济南市主持召开深入推动黄河流域生态保护和高质量发展座谈会并发表重要讲话。这是座谈会前，习近平21日上午在东营市黄河三角洲农业高新技术产业示范区考察。 新华社记者 谢环驰 摄', '21日上午，习近平来到黄河三角洲农业高新技术产业示范区考察调研，走进盐碱地现代农业试验示范基地，察看大豆、苜蓿、藜麦、绿肥作物长势，了解盐碱地生态保护和综合利用、耐盐碱植物育种和推广情况。习近平强调，开展盐碱地综合利用对保障国家粮食安全、端牢中国饭碗具有重要战略意义。要加强种质资源、耕地保护和利用等基础性研究，转变育种观念，由治理盐碱地适应作物向选育耐盐碱植物适应盐碱地转变，挖掘盐碱地开发利用潜力，努力在关键核心技术和重要创新领域取得突破，将科研成果加快转化为现实生产力。', '10月22日下午，中共中央总书记、国家主席、中央军委主席习近平在山东省济南市主持召开深入推动黄河流域生态保护和高质量发展座谈会并发表重要讲话。这是座谈会前，习近平21日上午在东营市垦利区董集镇杨庙社区考察。 新华社记者 李学仁 摄', '10月22日下午，中共中央总书记、国家主席、中央军委主席习近平在山东省济南市主持召开深入推动黄河流域生态保护和高质量发展座谈会并发表重要讲话。这是座谈会前，习近平21日上午在东营市垦利区董集镇杨庙社区考察时，向社区干部群众挥手致意。 新华社记者 李学仁 摄', '10月22日下午，中共中央总书记、国家主席、中央军委主席习近平在山东省济南市主持召开深入推动黄河流域生态保护和高质量发展座谈会并发表重要讲话。这是座谈会前，习近平21日上午在东营市垦利区董集镇杨庙社区考察时，同社区干部群众亲切交流。 新华社记者 李学仁 摄', '10月22日下午，中共中央总书记、国家主席、中央军委主席习近平在山东省济南市主持召开深入推动黄河流域生态保护和高质量发展座谈会并发表重要讲话。这是座谈会前，习近平21日上午在东营市垦利区董集镇杨庙社区居民许建峰家，同一家三代人围坐交谈。 新华社记者 李学仁 摄', '10月22日下午，中共中央总书记、国家主席、中央军委主席习近平在山东省济南市主持召开深入推动黄河流域生态保护和高质量发展座谈会并发表重要讲话。这是座谈会前，习近平21日上午在东营市垦利区董集镇杨庙社区考察。 新华社记者 谢环驰 摄', '上世纪70年代，东营市黄河原蓄滞洪区群众响应国家号召搬迁至沿黄大堤的房台上居住。2013年起，东营市对66个房台村进行住房拆迁改造，建设新社区。习近平来到杨庙社区，走进便民服务中心、老年人餐厅、草编加工合作社，详细询问社区加强基层党建、开展便民服务、促进群众增收等情况。在居民许建峰家，习近平察看卧室、厨房、卫生间等，同一家三代人围坐交谈。许建峰告诉总书记，他们原来住在沿黄大堤房台村的老房子里，2016年搬进了这里的楼房，生活条件好了，就业门路多了，打心眼里感谢党的好政策。习近平指出，党中央对黄河滩区居民迁建、保证群众安居乐业高度重视。要扎实做好安居富民工作，统筹推进搬迁安置、产业就业、公共设施和社区服务体系建设，确保人民群众搬得出、稳得住、能发展、可致富。要发挥好基层党组织战斗堡垒作用，努力把社区建设成为人民群众的幸福家园。离开社区时，干部群众高声向总书记问好。习近平祝愿大家生活幸福、身体健康，孩子们茁壮成长。', '21日下午，习近平来到胜利油田勘探开发研究院，了解油田开发建设历程和研究院总体情况，走进页岩油实验室、二氧化碳气驱实验室，听取油田坚持自主创新、加快技术攻关应用、保障国家能源安全等情况介绍。习近平强调，解决油气核心需求是我们面临的重要任务。要加大勘探开发力度，夯实国内产量基础，提高自我保障能力。要集中资源攻克关键核心技术，加快清洁高效开发利用，提升能源供给质量、利用效率和减碳水平。他指出，石油战线始终是共和国改革发展的一面旗帜，要继续举好这面旗帜，在确保国家能源安全、保障经济社会发展上再立新功、再创佳绩。', '10月22日下午，中共中央总书记、国家主席、中央军委主席习近平在山东省济南市主持召开深入推动黄河流域生态保护和高质量发展座谈会并发表重要讲话。这是座谈会前，习近平21日下午在位于东营市莱州湾的胜利油田莱113区块考察时，登上二层钻井平台，察看钻井自动化设备。 新华社记者 李学仁 摄', '10月22日下午，中共中央总书记、国家主席、中央军委主席习近平在山东省济南市主持召开深入推动黄河流域生态保护和高质量发展座谈会并发表重要讲话。这是座谈会前，习近平21日下午在位于东营市莱州湾的胜利油田莱113区块考察。 新华社记者 王晔 摄', '10月22日下午，中共中央总书记、国家主席、中央军委主席习近平在山东省济南市主持召开深入推动黄河流域生态保护和高质量发展座谈会并发表重要讲话。这是座谈会前，习近平21日下午在位于东营市莱州湾的胜利油田莱113区块考察时，同工人们亲切交流。 新华社记者 李学仁 摄', '10月22日下午，中共中央总书记、国家主席、中央军委主席习近平在山东省济南市主持召开深入推动黄河流域生态保护和高质量发展座谈会并发表重要讲话。这是座谈会前，习近平21日下午在位于东营市莱州湾的胜利油田莱113区块考察时，同工人们亲切交流。 新华社记者 谢环驰 摄', '10月22日下午，中共中央总书记、国家主席、中央军委主席习近平在山东省济南市主持召开深入推动黄河流域生态保护和高质量发展座谈会并发表重要讲话。这是座谈会前，习近平21日下午在东营市胜利油田勘探开发研究院页岩油实验室考察自主创新情况。 新华社记者 谢环驰 摄', '10月22日下午，中共中央总书记、国家主席、中央军委主席习近平在山东省济南市主持召开深入推动黄河流域生态保护和高质量发展座谈会并发表重要讲话。这是座谈会前，习近平21日下午在东营市胜利油田勘探开发研究院二氧化碳气驱实验室考察自主创新情况。 新华社记者 李学仁 摄', '10月22日下午，中共中央总书记、国家主席、中央军委主席习近平在山东省济南市主持召开深入推动黄河流域生态保护和高质量发展座谈会并发表重要讲话。这是座谈会前，习近平21日下午在东营市胜利油田勘探开发研究院考察时，同工作人员亲切交流。 新华社记者 李学仁 摄', '离开研究院，习近平来到位于东营市莱州湾的胜利油田莱113区块，了解二氧化碳捕集、利用与封存技术研发应用情况。他登上二层钻井平台，察看钻井自动化设备，走进操作室，同正在作业的工人亲切交流。今年是胜利油田发现60周年。习近平代表党中央向为我国能源事业作出贡献的石油工作者们表示崇高敬意。习近平叮嘱大家继承和发扬老一辈石油人的革命精神和优良传统，始终保持石油人的红色底蕴和战斗情怀，为社会主义现代化建设事业作出更大贡献。', '习近平充分肯定党的十九大以来山东的工作，勉励他们努力在服务和融入新发展格局上走在前、在增强经济社会发展创新力上走在前、在推动黄河流域生态保护和高质量发展上走在前，不断改善人民生活、促进共同富裕，开创新时代社会主义现代化强省建设新局面。', '丁薛祥、刘鹤、陈希、何立峰等陪同考察并出席座谈会，中央和国家机关有关部门负责同志、有关省区负责同志参加座谈会。']</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A141" t="n">
+        <v>129</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
           <t>中共济南市人民政府外事办公室党组关于巡察回头看整改进展情况的通报</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr">
+      <c r="E141" t="inlineStr">
         <is>
           <t>2021-08-03</t>
         </is>
       </c>
-      <c r="E141" t="inlineStr">
+      <c r="F141" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2021/8/3/art_22234_4885743.html</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
+      <c r="G141" t="inlineStr">
         <is>
           <t>['根据市委统一部署，2020年10月20日至12月31日，市委第六巡察组对市外办党组进行了巡察“回头看”。2021年2月3日，市委巡察组向市外办党组反馈了巡察意见。按照党务公开原则和巡察工作有关要求，现将巡察整改进展情况予以公布。', '市委第六巡察组反馈意见指出4个方面的11个主要问题，并提出4项意见建议。办党组对巡察反馈意见诚恳接受，把做好巡察整改工作作为检验“四个意识”、践行“两个维护”的具体行动，以坚决的态度、严格的要求、有力的举措，高标准高质量推进巡察整改工作。', '（一）迅速动员部署，加强整改工作组织领导。巡察意见反馈会议召开后，办党组立即召开党组会对巡察意见进行认真学习研究，成立了以党组书记为组长，党组副书记为副组长，其他班子成员为成员的巡察反馈意见整改工作领导小组，设立专门工作机构，确保整改工作部署到位、要求到位、责任到位，为取得扎扎实实的整改成效提供组织保证。', '（二）制定整改方案，强化整改措施分解落实。班子成员结合各自分管工作，组织相关处室进行专题讨论，对巡察整改反馈问题提出切实可行的整改措施。巡察整改工作领导小组在汇总整改措施的基础上，多次研究讨论并制定出台整改方案，列出问题清单、任务清单、责任清单，形成详细整改任务书、时间表和路线图，确保巡察整改全面推进。', '（三）领导示范带动，推动整改责任落实到位。党组书记先后召集多次不同范围、不同层次专题会议，研究整改方案，细化整改措施，落实整改进展，撰写整改报告，对巡察整改工作中的重点难点问题直接协调解决。班子成员认真履行“一岗双责”，指导把关分管处室、所属单位的整改落实工作。各责任处室、所属单位对照问题清单、任务清单和责任清单，逐项做好整改落实。', '（四）注重边整边改，确保整改工作取得实效。巡察整改期间，既完善当下“改”的举措，又健全长久“立”的机制，对于反馈的问题能立即整改的立即整改，做到立改立行；对于短期内无法整改到位的问题，明确整改时限，制定整改措施，找准体制机制上的“症结”，修订完善多项规章制度，不断巩固巡察整改成果。', '一是加强长效机制建设。明确事业单位岗位职责，根据深化事业单位改革有关政策规定，研究制定了下属单位机构职能编制规定以及章程，合理配置其内设机构。二是对领导干部个人事项报告进行全程精准指导。维护领导干部个人事项报告制度严肃性，加强对领导干部个人事项报告工作的组织领导，在个人事项集中填报工作中，采取集中培训、面对面辅导、典型案例警示教育等方式实施全程精准指导。三是加强对区县和企业外事工作指导。专题开展“接地气、下基层、解难题”调研，班子成员采取“1+1”模式，走访一个区县、一家园区或涉外企业，听取基层有关外事工作的意见和建议，形成服务清单。持续开展“外事联百企”活动，组织园区、企业参加重要国家级外事活动，帮助园区企业与各国使馆、日韩商协会及企业洽谈对接，为企业提供跟踪对接、分享信息等可持续服务。', '加强对下属单位的领导和管理，督导下属单位按照赋予的独立法人职能开展工作。加强经费预算管理和内控管理，下属单位财务支出由其法人签批。', '加强对基层党建工作的监督指导，机关党委在党支部任期届满前6个月提醒做好换届准备，支部书记或委员出现空缺时及时提醒进行补选。', '把学习贯彻习近平新时代中国特色社会主义思想和党的十九大精神结合到实践中，落实到行动上。一是加强理论武装。制定理论学习中心组年度学习计划，把习近平新时代中国特色社会主义思想作为学习“第一议题”，党组理论学习中心组多次开展集中学习研讨，认真组织开展党史学习教育，不断提升政治判断力、政治领悟力和政治执行力。二是围绕黄河流域生态保护和高质量发展、强省会建设战略主动融入、主动谋划。提出的有关工作建议被列入市政府报告和济南“十四五”规划；对上积极争取高端国际会议活动在济举办；推动省会经济圈外事工作一体化协同发展，牵头召开省会城市群经济圈城市外事工作协作会，在对外合作渠道、城市国际化标准、海外宣传矩阵平台等方面实现资源共享、工作共建。三是有序分类推进‘类海外’环境建设。结合实际情况对“类海外”项目实行分类指导，明确年度目标，细化工作责任，加强督促检查。', '一是着力构建大外事工作格局。提请市委外事工作委员会召开会议，研究有关重要事项，提请研究出台了指导性文件和年度工作意见，督导全部区县党委外事工作委员会按期召开年度会议贯彻落实有关精神。调动发挥各区县及相关部门的力量做好境外疫情输入防控等工作。明确市委外办督办工作的职责任务、督办范围及工作要求，实现督办制度化、程序化、规范化。二是是搭平台助推对外经济交流合作。拜访多家外国驻华使馆，对接投资和贸易合作意向，拓展我市对外经济交流合作渠道和项目合作，推动日本、奥地利著名企业与我市开展务实合作。强化与日韩全国性商协会工作对接；建立与日、韩驻鲁总领事馆的常态化交流机制，推动有关区县、部门与日、韩总领事馆开展交流合作。与先进开放城市外事部门进行对接学习，进一步解放思想，提升服务意识，加大APEC商务旅行卡推介力度。三是加强对外友好交往。市主要领导广泛向友好城市、友好合作城市及国际友好组织发送合作倡议；建立“云外事”交流机制，协调国际友城向在我市举办的重要国际活动视频致辞，推动友城间务实合作；拓展友好交流渠道，加强与多个国外城市交流。积极承接全国友协主办的重要对外活动，创建民间外交新载体开展国际友城花园项目，与驻济高校智库开展交流合作。四是优化国际语言环境，召开推进济南市公共交通领域双语标识规范座谈会，推动有关部门（单位）逐步完善公共场所中英双语标识；根据实际需求探索建立多语种标识。五是提升海外宣传矩阵建设。牢牢把握矩阵的政治引领作用，总体统筹矩阵宣传导向，确定年度宣传重点，策划推出建设黄河流域中心城市、平阴玫瑰节等专题报道，促进矩阵提质增效，外交部发言人、我驻外使领馆、多位外国驻华使节等关注矩阵并进行点、转、评，涨粉速度国内领先。', '一是借助调整领导班子成员分工，将党建和党风廉政建设“一岗双责”写入班子分工事项。二是修订完善党组会议事规则，严格界定党组会、主任办公会、办公例会等会议研究议题范围，对会议记录格式、内容进行规范。三是严格落实意识形态工作责任制。压紧压实工作责任，利用网站、微信公众号深入宣传习近平新时代中国特色社会主义思想等内容。四是加强对下属单位领导。指导党建和群团工作、人事和财务工作，开展人员培训，压实分管领导责任，加强全方位指导监督。', '一是结合企业需求推介本地优势企业和优秀产品。创新实施“济南好品”国际推广，利用市领导会见重要外宾、在承办国际会议活动时设立“济南好品”展台、邀请外国驻华使节考察我市重点出口企业等方式，提升济南优质出口产品的世界知名度。二是指导有关区县、园区和企业做好外事接待工作。三是加大政务和党建标准化术语资源共享。服务相关部门翻译工作需求，为多个部门单位进行资料翻译审校。四是着力服务基层发展。建立各处室、各单位与区县对口联系制度，赴基层调研需提前报备，不同处室对同一对象的调研合并进行，减少基层负担。', '一是认真解决工会经费管理不规范的问题，严格按照有关规定将工会经费纳入党费专用账户，用好作为工会经费补助收入的行政事业资金，进一步规范工会经费支出途径。二是按照“未经审批不出差、手续不全不报销、票据不实不结算、填写不规范不入账”的原则，严格执行经费支出预算审批制度和差旅费报销制度。', '梳理重点岗位和关键环节廉政风险点，一是加大友城奖学金监管力度。督促相关高校严格奖学金的申报审核，加强资金发放管理，做好基础数据的登记汇总。二是规范外聘人员聘用。外聘人员改由第三方劳务派遣，在用工合同中明确定期增资条款。三是严格执行财务管理制度。外事接待和公务接待一事一结，按照规定附相关证明材料，按照标准开支经费，确保每笔开支准确、手续完整。严格按照规定管理使用外事礼品。督促下属单位制定合同项目管理制度，确保合同要素齐全、内容完整。', '一是认真贯彻《中国共产党党和国家机关基层组织工作条例》，机关党委专职副书记列席党组民主生活会等有关会议。机关党委对基层党组织选举和群团工作进行指导。对党员人数未达标的党支部，调整补充党员，重新选举了支部委员会。选举产生新一届工会主席和经费审查委员会，工会主席不再兼任经费审查委员会委员。二是加强基层党建工作指导、监督检查和党务知识培训。规范基层党组织工作，修订市外办组织生活、主题党日、集体学习等各项工作制度。完善党支部考核评价办法，建立党建工作长效考核评价机制，对党支部党建工作进行检查，对发现问题列出清单并指导支部及时整改。开展基层党支部规范化建设培训。三是严格对基层党组织上报材料审核把关。制定党支部基础工作档案清单，对党支部组织生活、自身建设、组织生活会和民主评议党员、党费收缴使用管理、发展党员等档案进行规范，结合党建工作督导，对党支部档案材料进行检查。严肃纪律执行，警示教育全体党员干部进一步提高党建材料的规范性。', '一是召开党风廉政建设工作会议。深入学习贯彻上级有关会议精神，制定下发《济南市外办2021年党风廉政建设工作要点》《济南市外办2021年党风廉政建设责任分工》，部署安排2021年党风廉政建设工作任务，逐级签订党风廉政建设责任书，层层夯实责任。二是加强党风廉政教育。组织党员干部观看警示教育片，注重用身边事教育身边人，在元旦、春节、清明等重要节日发布廉政提醒，做到警钟长鸣，党员干部廉洁自律之弦越绷越紧。三是压紧压实“一岗双责”。制定办党组及其成员全面从严治党责任清单，班子成员按照分工抓好分管领域内的党建和党风廉政建设工作，与分管处室单位负责人、重点岗位人员普遍谈话一次，抓早抓小，从源头上防止问题出现。加强财务人员的业务培训，避免因其人为失误造成工作被动。四是加强日常监督管理，修订完善请销假、带薪休假等制度，以制度规范党员干部日常行为。', '经过三个月集中整改，市外办巡察整改工作取得阶段性成效。但办党组清醒地认识到，巡察整改是一项长期任务，必须标本兼治、长期整改。下一步，党组将继续认真贯彻市委巡察工作领导小组要求，努力将巡察反馈问题全部整改到位，并以此次巡察整改为契机，推动省会外事工作高质量发展。', '（一）提高政治自觉，确保巡察反馈问题全部整改到位。坚持把习近平新时代中国特色社会主义思想作为党组“第一议题”，扎实开展党史学习教育，坚持原原本本学、融会贯通学、联系实际学，把党的创新理论成果内化于心、外化于行。坚持“当下改”与“长久立”相结合，对尚未整改完成的问题找准问题根源，强力推进整改，做到不抓到底不松手、不改到位不收兵；对已经整改完成的，严防问题反弹回潮；对整改形成的制度机制，抓好贯彻执行，把巡察整改成果融入日常工作，做深做实巡察整改工作，确保党中央决策部署和省委市委工作要求落地见效。', '（二）强化责任担当，勇做服务强省会战略“实干家”。紧紧抓住国家实施新一轮对外开放新机遇，积极对接挖掘国内外合作资源，服务我市融入国内国际双循环，助力省会高水平对外开放。推动省会城市群经济圈外事资源共享，牵头省会城市群经济圈加强对日韩等国产业合作，创建省会城市群经济圈对外合作新平台和对内交流新机制。加强省会国际形象传播，策划实施城市形象国际推介活动，做强济南国际传播矩阵，利用外国主流媒体（网站）塑造推广济南作为黄河流域对外开放门户的国际形象。', '（三）坚持有效落实，争当建设黄河流域对外开放门户“排头兵”。抓住“一带一路”、《区域全面经济伙伴关系协定》（RCEP）、中欧投资协定等发展机遇，为黄河流域对外开放门户建设集聚更多国际交往要素。积极向上级部门协调，争取承办举办重要国际会议活动，为我市打造对外开放新高地搭建更多高端合作平台。密切与外国商协会联系，争取引入更多国外优质经贸合作资源。加强与有关成员国友好城市、友好组织互动，争取与更多国际组织建立合作渠道，为黄河流域对外开放门户建设拓展发展空间。', '欢迎广大干部群众对巡察整改落实情况进行监督。如有意见建议，请及时向我们反映。联系方式：电话0531-66608671；邮政信箱济南市历下区龙鼎大道1号济南市外办；电子邮箱']</t>
         </is>
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A142" t="n">
+        <v>129</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
           <t>中共济南市供销合作社党组关于巡察回头看整改进展情况的通报</t>
         </is>
       </c>
-      <c r="D142" t="inlineStr">
+      <c r="E142" t="inlineStr">
         <is>
           <t>2021-08-03</t>
         </is>
       </c>
-      <c r="E142" t="inlineStr">
+      <c r="F142" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2021/8/3/art_4115_4885742.html</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
+      <c r="G142" t="inlineStr">
         <is>
           <t>['根据市委统一部署，2020年10月21日至2月3日，市委第十巡察组对市供销社党组开展了巡察“回头看”。2021年3月11日，市委第十巡察组对市供销社党组巡察“回头看”情况反馈了巡察意见。按照党务公开原则和巡察工作有关要求，现将巡察整改进展情况予以公布：', '市委巡察组反馈的意见中指出存在3项、13个主要问题，并提出4项意见建议。市供销社党组完全接受市委巡察组的巡察意见，并坚持高标准、严要求，坚决抓好整改落实。', '接到市委第十巡察组反馈巡察意见后，市供销社党组第一时间组织召开会议，认真学习传达市委巡察反馈意见，全文传达孙立成书记关于巡察反馈工作讲话及会议精神，从市供销社实际情况出发，研究通过《关于联动巡察“回头看”反馈意见的整改工作方案》，确保工作落实落地。', '成立市供销社巡察整改落实工作领导小组，党组书记、理事会主任张国松任组长，领导小组成员由党组成员担任，一班人以巡察整改落实工作为己任，高度负责，主动担责，研究整改方案、制定整改措施、督导整改落实。巡察整改领导小组下设办公室，党组成员、理事会副主任亓希山任办公室主任，组成10人的工作专班，具体负责整改任务的统筹部署、协调推进和督促落实工作。', '印发《中共济南市供销合作社党组关于巡察“回头看”整改方案》，推动巡察整改工作在系统迅速展开。巡察反馈会议以来，9次召开党组会、主任办公会以及巡察整改领导小组工作推进会，列出问题清单、任务清单、责任清单，坚决做到立行立改、即知即改、真改实改、全面整改，不折不扣推动整改工作落到实处。', '对巡察“回头看”整改工作逢会必讲，通过召开专项问题落实会议，多次到一线督查督办等形式，推动具体问题整改解决。工作中紧盯“三个不放过”即“问题不查清不放过、责任不追究不放过、整改不彻底不放过”，把整改能否落实、落实的效果好坏作为衡量主体责任重要尺度，作为推进全面从严治党、推动整体工作的重要抓手，有效确保了巡察整改的力度和进度。', '扎实推进市委第十巡察组对供销社联动巡察“回头看”整改落实，召开巡察整改专题民主生活会，对照巡察反馈整改任务，市供销社领导认真研究整改措施，反复修改发言材料，深刻剖析问题根源，明确整改方向。通过深入查摆问题、深挖思想根源、深刻对照检查、开展相互批评，领导班子成员找到自身差距，明确努力方向，真正做到“切实把自己摆进去，把工作摆进去，把职责摆进去，把思想摆进去”。', '问题整改表面化。大多数问题整改措施不少，但多是一般性文字表述，缺少实用具体的举措目标，针对性、操作性差。', '整改措施：一是排查过滤2018年巡察反馈意见整改落实方案整改情况，对问题未整改、整改不彻底的，从严从实，逐项梳理，务求整改到位。从严从实，纳入巡察“回头看”整改方案一并组织实施。二是将问题纳入“2020年领导班子和党员领导干部民主生活会”，纳入巡察“回头看”专题民主生活会，党组成员结合分管工作深入剖析，制定解决措施。三是多次召开巡察整改推进会议，及时督导推进整改情况，对账销号。三是落实一把手主体责任，将巡察整改情况纳入党组会、办公会等重要会议，一把手带头专题研究。', '整改措施：认真对照2018年巡察反馈意见整改落实方案分工，进行逐一排查过滤，对未整改、整改不彻底的问题，属于制度层面的，修改完善制度，属于整改落实不力的，加大工作推进力度，计划第三季度制发新的《制度汇编》。', '整改措施：一是深化党纪法规学习，筑牢思想防线。结合党史学习教育，机关党委每月按排各基层党组织党员干部学习一部法纪法规，让党纪法规入心入脑，提升自律意识。截止目前，市供销社各基层党组织已经组织党员干部学习5部党纪条规；二是多种形式开展教育。组织开展现场教育、观看红色电影、警示教育，革命传统教育等多种形式的专题教育活动，强化党员干部纪律规矩意识，结合市供销社系统腐败问题重点整治工作发现的问题，用身边事教育身边人，切实让党员干部知敬畏、存戒惧、守底线。3月25日，组织党员干部观看《永葆政治本色》廉政警示教育片，4月15日组织党员干部集中观看《迷失初心必自毁》《监督保障执行促进完善发展－山东正风反腐2020》2部廉政警示教育片，4月26日，组织党员干部观看电影《沂蒙红嫂我的娘》，５月11日，赴莱芜战役纪念馆开展党史学习现场教育；三是配齐纪检干部队伍。市供销社成立党委的企业设纪委，成立党总支、党支部的企业明确一名委员分管纪检工作，有效处置化解存量 强化监督遏制增量。', '（二）关于党组领导作用发挥不显著，贯彻落实习近平总书记重要指示、中央重大决策部署和省委、市委工作要求有偏差问题。', '学习贯彻习近平总书记重要指示站位不高，落实不到位。2020年9月习近平总书记专门对供销合作社工作作出了重要指示，市供销社党组没有把学习领会、宣传贯彻习近平总书记的重要指示当作当前首要的政治任务，仅是在传达中华全国供销合作总社七次全会精神时一并传达，没有专门学习研讨和制定落实意见，更没有组织全系统干部职工深入学习贯彻。', '整改措施：一是将习近平总书记专门对供销合作社工作作出了重要指示精神落实情况纳入“2020年领导班子和党员领导干部民主生活会”，纳入巡察“回头看”专题民主生活会对照检查材料。二是4月21日，党组印发《关于进一步掀起学习贯彻习近平总书记关于供销社工作重要指示批示精神热潮的通知》。三是结合《济南市供销合作社党组关于开展“争做强省会建设先锋队”主题实践活动的实施方案》《济南市供销合作社党组关于开展党史学习教育的实施方案》及《济南市供销合作社2021年度精神文明建设工作实施方案》《济南市供销合作社2021年党风廉政建设和反腐败工作要点》等工作，认真学习贯彻习近平总书记关于供销合作社工作的重要指示精神，紧紧围绕省委、市委关于强省会战略部署，推动党建与业务深度融合，组织引导全市供销合作社各级党组织和广大党员干部强化使命意识、积极担当作为，抓好贯彻落实。', '（1）理论学习重视不够，学习实效差。中心组学习计划与市委文件上下一般粗，缺少党组研究；学习计划有，落实差，集中学习改为分散自学；以学习文件、传达会议精神代替中心组学习；缺少联系实际的研讨交流；学习笔记多是寥寥几行摘抄，有的班子成员2018、2019年两年笔记总共2000余字。', '整改措施：一是制定印发了《市供销社党组理论学习中心组2021年理论学习计划》，学习重点内容细化到每月。二是精心设计15个学习专题，涵盖习近平新时代中国特色社会主义思想、习近平总书记对供销社工作重要指示精神、三农工作重要指示等。学习专题列入中心组专题学习、党史读书班学习内容。三是下发“关于进一步做好2021年理论中心组学习的通知”。截至目前，已组织7次党组理论学习中心组学习，涉及13个专题。每次集体学习研讨安排部分中心组成员重点发言，1至5月4次组织研讨交流，5月11日以现场观摩的形式，组织党员干部到莱芜战役纪念馆、莱芜“明利”蔬菜种植合作社开展省、市供销社上下联动主题党日活动，切实增强了理论学习成效。', '（2）“不忘初心、牢记使命”主题教育开展不扎实。党组没有集体研究主题教育实施方案和工作安排；部分班子成员缺少调研报告和党课材料；个别班子成员党课内容完全从网上下载，对照检查中个人检视问题、工作方案雷同。', '整改措施：一是制定下发《关于在“七一”前开展专题党课宣讲的通知》，要求市供销社党组成员和各基层党组织书记在6月30日前完成一次党课宣讲。制定党组成员在所在党支部、联系党支部讲党课、撰写高质量调研报告的计划，每位党组成员每年讲党课不少于2篇，撰写高质量调研报告不少于1篇。二是制定下发《关于加强向“学习强国”等学习平台供稿的通知》，向直属企业党组织、机关各支部下达报送稿件指标任务。充分运用学习强国”“灯塔党建在线”“青年大学习”等新媒体形式，推动党员干部的学习深进去、实起来、活起来。增加了市供销社在各平台的活跃度，进一步督促推动各项工作顺利开展。', '民主集中制执行不到位，议事规则不规范。一是重大事项缺少集体决策。2020年上半年直属企业减免租赁业户大额租金，没有具体方案，未经党组研究；党组会开成通报会，议事不充分，党组成员发表意见不多。二是党组负责人末位发言制度整改不到位。2018年在研究多个事项时，都是一把手首先表态。三是党组会议记录不严肃。绝大部分会议记录只有日期、议题，没有内容，2019年在研究某问题时，内容只有一句话“法无禁止即可为”。', '整改措施：一是组织党组成员认真学习《济南市供销合作社党组议事规则（试行）》，严格落实“三重一大”相关规定。二是坚持党组负责人末位发言制度，提高党组成员参政议政的自觉性积极性。三是规范党组会议记录格式，完善会议记录内容，做到要素齐全、内容完整、格式统一。会议记录需经书记签字后才能报备归档。', '（1）安于现状，改革发展、创新服务举措少，步履小。立足优势创新改革不够，全市供销合作事业发展相对滞后、发展不平衡问题没有解决。部分区县供销工作发展近乎停滞。', '整改措施：一是4月8日调整党组成员、市管领导干部对区县供销社联系分工，深入各区县供销社对接指导工作12次，进一步推进提升了为农服务能力水平。二是加大对区县供销社关于改革发展方面存在问题的调查研究，推动区县供销社参与全省供销社“土地股份合作社+全程农业社会化服务”和农村现代商贸流通服务网络试点建设，加快改革创新，提升服务农民生产生活能力。目前，章丘、商河、槐荫3区县已与省供销社签订战略合作协议，开展全程农业社会化服务面积达到12000亩。三是继续做好供销社为农服务主业工作，确保2021年底完成全程托管土地15000亩。', '（2）“三会”制构架不健全，理事会、监事会名有实无。理事会、监事会没有依据章程完善机构、开展工作，未按章程召开社员大会，没有行使出资人职能对市供销社及直属企业经营监管监督，确保社有资产保值增值职责失职缺位。', '整改措施：认真落实《济南市供销合作社章程》、《理事会工作规则》、《监事会工作规则》，理事会、监事会依据章程开展工作。年底前召开济南市供销合作社“社员代表大会”， 从而完善“三会”制度。目前，“社代会”筹备工作正在积极推进，《济南市供销合作社章程》正在征求意见中。', '（3）服务“三农”，实施乡村振兴战略作为少。“三农”服务政策资金集中在农业部门，市供销社自身职能手段退化，服务指导区县基层社作用小，直属公司承担市供销社服务“三农”核心职能仅剩农资集团化肥销售一项。', '整改措施：一是积极协调省社与济阳区政府对接洽谈，先后2次由省社领导带队，组成专门工作组与当地政府深入座谈交流，组织实地考察调研，为推动济阳区与省社签定战略合作协议奠定了坚实基础。二是按照省、市、区三级供销社搭建为农服务综合平台工作要求以及市委、市政府关于落实省市一体化推进济南加快发展实际，市供销社高度重视，积极协调督促济南市供销投资控股有限公司顺利完成对鲁供丰农有限服务公司投资参股5%。三是推动章丘区、商河县供销社“土地股份合作社+全程农业社会化服务”工作，已成立土地股份合作社31家，较好实现农民得实惠、企业促发展、村集体经济不断壮大的目标，下步以点带面，逐渐向其他区县供销社覆盖。', '（1）对企业监管消极应付。企业资产底数不清，长期处于“糊涂”状态；清产核资走过场，市社、相关企业资产账实不符。有的下属企业长期占用国有资产出租获益，市社缺少监管。', '整改措施：一是加强和规范社有资产监督管理，根据中华全国供销合作总社《供销合作社社有资产监督管理办法》供销财字〔2020〕38号，制定《济南市供销合作社社有资产监督管理办法（试行）》，7月16日组织全市供销社系统相关人员学习该“办法”。二是5月10日调整社有资产管理委员会成员，出台《济南市供销合作社社有资产管理委员会议事规则》，完善社有资产管理体制。三是对所属8家一级企业及其下属二级企业的土地、房产等固定资产情况进行全面清查摸底，各企业负责人签字后已报市供销社备案，结合2021年市属企业内部审计，对固定资产情况进行现场核查。四是试点推进直属企业固定资产信息化管理平台建设，利用互联网信息技术，提升社有资产管理能力和效率。直属企业上报固定资产（土地、房产、单价1万元以上固定资产）统计表。五是指导企业制定完善财务管理、社有资产管理、往来账项管理、资金使用管理等各项制度，研究制定《济南市供销合作社关于进一步加强直属企业财会、审计工作的意见》。六是长期占用国有资产出租获益问题已积极对接相关部门做好账务移交。', '企业全方位目标考核走形式，风险金发放随意。通过变通手段，帮助亏损企业完成经营指标，拿到全额风险金。某下属企业通过将以前年度的摊销费用视为当年新增利润，完成利润指标；还有下属企业实际利润为负数，但风险金全发。', '市供销社5月10日修订完善了《济南市供销合作社直属企业全方位责任目标管理办法》，并下发下属企业，下一步将严格按照该办法考核企业并兑现风险金。', '直属企业还是处于旧体制、守摊子状态。现代企业制度始终未建立，过去承担市社核心职能的企业都偏离主业退化成收取房租的守摊企业，转型升级也只是形式上整合成立集团，但形合账不合；由市社及下属企业共同出资成立的济南供销投资控股集团也没有实现新业态、新产业的转变，仍是延续置房收租的经营模式，2019年总收入较低。', '整改措施：一是通过学习国有企业及学习先进地市的改革经验做法，探索适合供销社企业改革发展的路子。二是对社属企业展开调研，摸清家底，重点围绕企业资产状况、企业债务风险及诉讼隐患、企业经营模式、企业运行机制展开调查，通过走访式调研，及时了解和发现企业存在的问题，明确企业改革方向，为社属企业的改革工作奠定基础。二是对社有资产整合重组，实现集团化发展。立足整体设计，分类指导，逐步实施的原则，根据企业实际情况进行资产整合，实现规模发展。在组建茶叶集团、供销投资控股集团、农业服务集团的基础上，将条件成熟的文化市场、果品总公司等组建济南（供销）文化集团。利用文化市场自身优势，发挥文化平台的作用，实现由“小而全”向集约化经营、规模化发展的转变，着力打造文化服务“龙头企业”。三是明晰企业产权关系的基础上，推动企业逐步按照现代企业制度完善各项管理制度，规范企业管理运作。明确党组织在社有企业法人治理结构中的核心地位，注重把党的领导融入企业治理各环节，把企业党组织内嵌到公司治理结构中，明确职责权利，形成各司其职、各负其责、协调运转、有效制衡的公司治理机制。通过改革改制实现同集团的链接和深度整合，逐步将集团下“无资产、无业务、无人口”的成员企业，通过成立分公司、拓展新业务以及清理注销的方式实现全面整合，彻底实现资本账务融合。四是立足供销企业“积极服务三农、助力乡村振兴”的职能定位，经多方考察论证，投资控股集团投资入股山东鲁供丰农农业服务有限公司，目前该项目已洽谈签约，4月13日召开了股东大会，三方股东之一山东供销现代农业发展集团有限公司入资300万，占总股本60％；投资控股公司入资25万，占总股本5％；章丘供销集团总公司入资175万，占总股本35％，项目资金已到位，主营业务为土地托管大田作物，现投入5200多亩的小麦种植。近期，投资控股公司计划进一步增资扩股，实现收益增值。五是2019年投资控股公司总收入86.7万元，系因果品公司偿还投资控股公司前期借款本金200万元，导致借款利息减少，总收入下降。2021年投资控股公司截止6月底完成总收入143万元（含结构性存款利息114万元）实现正常运行。', '（1）财务账目混乱。资金长期挂账不清理；原始凭证缺失，无明细账；以会计科目调整、无实际业务往来的企业间转款等方式逃避纳税。', '整改措施：一是加强系统财务、审计人员业务培训，提升会计基础工作水平和提高财会人员业务能力。7月16日对全市供销社财务审计人员进行集中培训一天。二是供销社直属企业往来账项大多数是计划经济时期形成的。市供销社要求企业本着“由近及远、有易及难”的原则，逐笔清理。目前，茶叶集团、投资集团、贸易公司已清理挂账1367.85万元；下一步要求企业建立健全往来账项管理制度，每年年底对其他应收款、其他应付款、预收账款进行对账、清理，并按规定进行相关的账务处理。三是为加强企业财务管理和资产管理，充实成立了新的资产委员会，出台了《济南市供销合作社社有资产管理委员会议事规则》《济南市供销合作社关于进一步加强直属企业财会、审计等工作的意见》《济南市供销合作社社有资产监督管理办法（试行）》三个文件；重新修订了《济南市供销合作社直属企业全方位责任目标管理办法》。', '（2）资金使用随意。营业收入、租金收入不入账或直接冲减管理费用；大额资金拆借频繁，无抵押无担保无借据；大额现金支付过多；大额资金购买风险大、不保本的理财、私募基金等产品。', '整改措施：一是加强系统财务、审计人员业务培训，提升会计基础工作水平和提高财会人员业务能力。7月16日对全市供销社财务审计人员进行集中培训一天。二是4月15日对直属企业大额资金购买高风险理财、私募基金等产品行为进行调查摸底，责令存在以上情况的企业及时整改，', '三是积极组织开展直属企业内部审计工作。如发现存在营业收入、租金收入不入账或直接冲减管理费用；大额资金拆借频繁，无抵押无担保无借据；大额现金支付过多等问题的单位责令及时整改。四是在出台的《济南市供销合作社关于进一步加强直属企业财会、审计等工作的意见》中，要求企业健全财务管理制度、规范企业会计核算、强化企业资产管理、加强对二级单位的管理、加强直属企业内部审计工作和加强财务人员队伍建设，重点要求企业要制定完善货币资金管理办法，规范银行账户管理，严格控制现金使用额度和使用范围，严禁出现以上问题。', '（3）资产管理失职。固定资产报废随意性大；下属企业职工长期无偿占有集体资产；长期低价出租多处大面积房产。', '整改措施：一是关于深圳房产问题提出整改报告，按照整改方案跟进督促掌握拆迁政策和拆迁进度，确保企业资产保值增值。市供销社将对此房产情况随时监管，长期坚持整改。二是18间房子长期霸占问题，已于2021年1月21日全部收回并清理完毕。', '整改措施：5月7日，下发《济南市供销合作社关于巡察反馈劳动工资问题有关事项的整改通知》，对《济南市供销合作社直属企业工资指导意见》、《济南市供销合作社直属企业工资总额管理办法》等执行情况进行自查。下步将严格按照年度财务审计结果，规范企业工资福利发放标准，杜绝企业以各种名目违规发放福利补贴。', '（1）党组对意识形态工作缺乏重视。《意识形态工作责任制实施细则》照抄上级文件，没有责任分工；工作总结、工作要点和民主生活会对照检查材料缺少意识形态工作内容。', '整改措施：一是制定了《中共济南市供销合作社党组落实意识形态工作责任制工作举措》，对原《中共济南市供销合作社党组意识形态工作责任制实施细则》补充完善，明确了党组及领导班子责任、党组书记及领导班子成员责任、重点处室责任和直属企业责任；提出了把意识形态工作纳入重要议事日程，纳入党建工作责任制，纳入领导班子、领导干部目标管理，列入领导班子民主生活会、干部考核、述职述廉的具体要求，把落实意识形态工作责任制与党的建设工作、业务工作开展紧密结合，压紧压实意识形态工作责任。二是下发了《中共济南市供销合作社2021年意识形态和宣传思想工作要点》，严格落实意识形态工作责任制，进一步强化主体责任、压实“第一责任”、压紧直接责任、实行“一岗双责”。三是根据新“三定方案”和人事变动，重新调整济南市供销合作社党组意识形态工作领导小组成员，形成党组统一领导、机关党委组织协调、相关处室和直属企业分工负责的工作格局。明确了责任分工，增强了各处室及直属企业的意识形态工作的针对性。', '（2）工作落实不力。《市供销社网络安全应急预案》完全从网上下载，文中出现了与市社完全无关的语句。', '整改措施：机关党委、办公室分别制定网络安全应急预案，明确网络安全工作机构等有关制度。建立以后，归入《制度汇编》，并抓好制度的贯彻落实。', '（3）缺少意识形态方面培训。长期以来没有组织党员干部进行意识形态方面的学习，党员教育培训计划没有意识形态方面的内容。', '整改措施：一是已将意识形态方面的内容列入了中心组专题学习、纳入了党支部“三会一课”、党员干部学习内容。5月份的党员学习增加了《习近平总书记在全国宣传工作会议上的讲话精神》内容。下一步将结合年度党务工作者培训，将意识形态工作作为一项重要内容。二是制定《济南市供销合作社网评员管理细则》，制定《济南市供销合作社意识形态工作专题培训班培训方案》，计划实施将于8月份进行。', '（1）主体责任意识不足，“一岗双责”落实不到位。党风廉政建设和反腐败工作要点内容空泛，针对性差，缺少党组会研究；党风廉政责任书内容虚，没有公章和分管领导签字；谈心谈话制度落实差，党组成员谈话记录较少，且大部分缺少时间和地点，内容简单应付，没有教育提醒内容。', '整改措施：一是落实主体责任。2021年3月24日党组召开会议专题研究2021年度党风廉政建设和反腐败工作要点，修改完善市管干部、企业负责人、处室负责人廉政责任书。3月25日召开市供销社全面从严治党暨党风廉政建设工作会。二是严格落实“一岗双责”。党组书记与市管干部、直属企业负责人、机关处室责任人签订了党风廉政建设责任书。三是认真落实谈心谈话制度。1月份为机关全体党员、基层主要党务工作者专门制发谈心谈话专用记录本，严格按照规定要求组织开展谈心谈话工作。', '（2）廉政风险防控不到位。党组成员接访制度不落实，隐患排查台账不健全，日常管理不及时；未对企业廉政风险防范开展调研指导，企业廉政考核不严肃走形式，考核内容竟有“执法严格”选项。', '整改措施：一是严格落实党组成员接访制度，加强日常监督管理。二是年初结合考核直属企业领导班子2020年度工作，对党风廉政建设考核内容进行了充实，并采取听汇报、抽查资料、座谈交流、发放测评表等方式进行考核，发现问题及时反馈整改落实，不断提高考核的科学性和实效性，确保考核有效果。三是指导企业建立廉政风险防控体系，健全廉政风险排查台账。５月６日，市供销社机关党委下发关于直属企业建立廉政风险防控的通知，并对各直属企业建立廉政风险防控体系工作进行指导，各直属按要求认真落实，５月14日前上报所在单位廉政风险防控措施。', '（3）教育管理缺位，违纪违法问题依然多发。2018年以来，处理违纪违法人员多人，党组责任意识不到位，没有针对性地开展警示教育，以身边事教育身边人效果差。', '整改措施：一是加强党纪法规学习，筑牢思想防线。已将《中国共产党廉洁自律准则》和《中国共产党纪律处分条例》等法律法规列入了基层党组织学习的内容，要求各单位通过“三会一课”等形式组织学习，并将长期坚持整改。二是开展警示教育。3月25日、4月15日，两次组织观看警示教育片，开展警示教育。下一步将充分运用市纪委违纪违法案例通报及市委市直机关工委典型案例库等资源，把警示教育作为基础性和常态化的手段。三是配齐纪检干部队伍。成立党委的企业设纪委，成立党总支、党支部的企业明确一名委员专门分管纪检工作。及时防范减量，有效化解存量，监督遏制增量。', '（1）单位发文不规范。以行政文部署党建工作，党组文件由党组副书记签发；以处室文号发文向上级报告工作。', '整改措施：严格落实市委、市政府关于印发《济南市党政机关公文处理工作条例实施办法（试行）》的通知要求，严格规范供销社机关行文，2021年1月8日，经主任办公会研究决定，机关发文仅保留“济供党”、“济供呈”、“济供发”三个文号。', '（2）考勤制度不落实。考勤流于形式，也没有执行整改措施规定的考勤制度；请休假审批表登记核实不准确，部分缺失。', '整改措施：一是严格落实《干部外出请假报备暂行规定》、《关于加强机关工作人员考勤与请销假规定》。二是加强执纪检查，年初以来，组织4次作风纪律检查。三是严格落实市供销社机关干部带薪年休假工作，完善年休假工作台账，扎实落实年休假工作流程，及时督促机关干部按计划休假或调休。', '财务管理不规范大额挂账资金长期未清理；无借据和审批向个人出借公款；工程、采购项目未履行政府采购程序。', '整改措施：一是清理长期挂账资金。5月7日，四笔挂账394035.63元已全部清理退回，其他往来挂账正在核实，已安排专人，逐笔进行清理，核实清楚后，立即清理。二是完善公款外借相关手续和审批流程。根据财务管理制度中有关公款外借规定，重新制定借款单，细化借款签字流程，借款单由财务留存，借款人员在完成工作后3日内，办理报销和借款销账手续。要求财务处室及时督促办理个人公务卡，因公外出需要垫付时，优先使用公务卡，减少公款外借情况的发生。三是严格按照《济南市级2020年度政府集中采购目录及限额标准》及政府采购、工程采购要求，指定专人负责采购事宜，履行政府采购程序。5月7日党组会研究确定，机关采购方面需负责采购的职能部门（办公室）学习政府采购文件，掌握济南市政府集中采购方式及限额标准相关要求。企业工程采购方面需相关处室完善已有工程、采购项目、合同管理的规定，并要求直属企业完善实施细则并严格执行。', '（4）公车使用管理不严格。派车单填写混乱、空项多，缺少审批人签字；停用公车依然长期加油。', '整改措施：依据中共济南市委办公厅《市级党政机关公务出行保障办法（暂行）》，借鉴其他单位做法，结合供销社自身实际，修定完善《公务出行及车辆管理暂行规定》。', '（1）领导干部调研走过场。联系区县、企业制度落实差调研次数远远少于整改措施要求的次数；以基层、企业工作总结充当调研报告，2018年来通过调研解决实际问题仅有一个。', '整改措施：一是按照市委、市政府打造“五个济南”和乡村振兴齐鲁样板省会标杆、加快建设新时代现代化强省会的战略部署，着眼于进一步转变机关作风，增强工作指导的针对性、科学性，党组制定印发《济南市供销社关于开展市管干部2021年调研工作方案》。二是围绕持续指导推动全市供销社综合改革、服务融入乡村振兴以及深入研究机关党建面临的新情况新问题、加强社属企业管理等全局性基础性前瞻性课题，确定2021年度市管干部重点调研课题15项，计划7月前由市管干部牵头开展调研并写出高质量的调研报告。', '整改措施：一是召开巡察整改进展情况推进会，安排相关处室人员对照巡察反馈的问题，从思想上深刻反思，查找问题发生的根源。二是立即整改，要求机关干部从主观上增强工作的主动性和责任感，从实际工作中提高工作态度和工作标准。三是引以为戒，举一反三，杜绝类似问题发生。', '（3）12345热线市民反映强烈的某下属企业保安管理粗暴等问题，多次整改仍旧存在。', '整改措施：一是约谈物业公司负责人，要求对方提高公司人员的职业素养，加强对其公司人员的服务管理，杜绝此类问题的再次发生。二是配强管理团队。4月份成立市场安保科，努力构建集安全、智慧、专业和便民于一体的综合性大市场。三是6月1日引入济南静态交通管理运营集团有限公司（以下简称静态交通公司），已正常运营。四是坚持“以人民为中心”的发展思想，切实解决群众的“愁点、难点、堵点”。高度重视12345热线处理，做好群众来信来访工作。五是机关将', '采取“四不两直方式”，深入基层督促检查，指导所属企业完善监管措施，提升企业管理能力和服务质量。', '（1）制度建设不健全，落实差。《济南市供销合作社规章制度汇编》中，党组织工作规则、党员学习教育制度少；党务公开没落实；党费专户管理整改不到位，大额党费长期挂账；“支部微党群”流于形式，没有发挥学习教育作用。', '整改措施：一是制定下发《党支部六项制度》，要求各党支部根据自身实际，建立健全组织生活、集体学习、党务公开、议事决策等工作，并严格抓好贯彻落实，机关党委将不定期进行检查抽查。二是开设市供销社机关党委党费专户，并严格落实业务管理与财务管理分开、会计出纳分设、专户专账管理、专门科目核算和定期检查公开等制度。三是定期向“GXS工作群”“GXS组工群”推送学习党史知识以及党的有关政策、文件和学习资料。四是设立市供销社机关党委党费专户，严格党费公开制度，根据市供销社各直属企业党组织党费现结余总计情况，除账上留存小部分党费作机动，已下拨返还89000元，同时要求基层严格按照党费用途开支。', '（2）巡察整改专题民主生活会召开不规范。没有会议方案，会议准备不充分，班子对照检查材料未经党组集体研究；查摆的问题不疼不痒，批评与自我批评缺少辣味，会后没有落实整改。', '整改措施：一是严格落实上级关于认真开好民主生活会的通知要求，按照定、研、谈、谏、撰、审“六字诀”要求，全方位进行整改落实。二是投资8156.44元制发专用谈心记录簿，规范谈话人员范围、时间、地点、内容等要素。三是党组班子对照检查材料由主要领导亲自参与撰写，广泛征求党组成员意见，党组集体研究形成。主要领导对班子成员的发言提纲一一审阅把关签字并做好留存。', '（3）组织生活开展不规范。未按要求开展“三会一课”“主题党日”等活动，记录手册与机关党委会记录混用，缺少日期，内容多以“各支部根据实际自行开展”来代替。', '整改措施：一是制发《党支部工作手册》，明确“三会一课”“主题党日”等具体要求，统一“三会一课”记录本，不定时检查抽查“三会一课”“主题党日”等活动情况。二是制发《市供销社机关党的工作要点》，按月下发党员学习教育计划，确保基层党支部党员学习教育年度有要点、月份有计划。', '（4）党建材料不真实。支部民主评议党员测评表、机关党建满意度测评表，为一人笔迹；少数机关支部2019年党员学习笔记缺失；部分学习内容不真实，支部书记读书材料完全网上下载，会议未召开就对会议精神进行学习。', '整改措施：一是2021年2月组织基层党组织书记开展抓党建工作述职会和2020年度党员民主评议工作，对纠正党建材料造假问题进行重点安排部署。二是年初为机关企业全体党员统一配发《党员学习笔记本》，对党员学习笔记记录内容格式进行规范。三是结合“三会一课”“主题党日”等检查抽查时机对党员学习笔记进行检查。', '（1）党组抓企业党建工作不力。市供销社党组除了党员发展，很少研究企业党建工作；日常工作下文部署多，上级要求一转了之，落实检查少；制度建设不到位，缺少党的基本知识的教育培训；年终党建工作考核标准低，尺度松，成果运用差，缺少监督整改。', '整改措施：一是狠抓党建主体责任和“一岗双责”落实，制定下发《市供销社党组关于加强新时代市供销社系统党建工作的实施意见》，明确市供销社机关、基层企业及社会组织党建工作内容标准。二是按照上级要求认真落实专题研究党建工作制度，今年以来已连续3次专题研究党建工作，会议精神及时传达部署。三是召开市供销社直属党组织书记2020年度述职评议会，对各企业党建工作存在的主要问题进行点评，提出整改要求，各直属党组织已制定上报年度党建工作“三张清单”。四是研究制定下发2021年党员教育培训计划，增加党的基本知识的教育培训。五是加强对市供销社系统党建工作的调研检查督导，结合调研、考核、述职和现场检查等时机，定期组织对市供销社系统党建工作的检查督导。', '（2）企业党组织虚化弱化，核心作用发挥差。“三会一课”开展少，记录内容混乱，撕页、涂改严重，某下属企业党支部全年学习记录中竟有11次连续学习与党建无关的内容；“三重一大”事项缺少集体研究，行政会代替党组会研究“三重一大”事项依然存在。', '整改措施：一是下发《市供销社基层党组织年度党建工作明白纸》《市供销社机关党委2021年度开展“三会一课”、“主题党日”、“党员学习”工作计划》，要求基层各党组织严格抓好具体工作落实。二是下发“三会一课”记录本规范活动记录范例。三是下发《党支部六项制度》，进一步明确“三重一大”事项的研究决策范围，切实做好党组会、行政办公会等重要会议决策事项的准备工作，凡属“三重一大”事项坚持集体研究决定。', '（3）党费收缴使用不规范。所属企业党员半年交一次党费，企业党费少缴、欠缴现象突出；部分企业将党费存入个人账户；使用党费购买办公笔记本电脑。', '整改措施：一是开展2021年度全体党员的党费交纳基数和缴纳金额的统一核算，每月收缴一次党费。二是为每个党支部发放《党支部工作手册》。三是济南莱芜官寺市场党支部已补缴2019年度党费。四是济南茶叶集团党委已将党费购买的笔记本电脑指定为茶协党支部党员活动室专用电脑。', '整改措施：一是4月30日下发“关于开展企业任职相关问题自查的通知”，对照《党政领导干部任职回避暂行规定》（中办发﹝2006﹞19号）和《山东省省管企业领导人员实行任职回避和公务回避及报告说明制度的暂行办法》（鲁组发﹝2015﹞15号）文件精神，对直属企业中层干部提拔使用情况进行自查摸底，自查是否存在违规提拔、使用等情况，未发现问题。二是5月10日下发《济南市供销合作社直属企业劳动人事管理办法》（修订稿），加大督促企业认真贯彻落实，从严审核招录人员信息，采取笔试、面试方式择优录用，要求直属企业招录人员程序严格落实党组织集体研究和任职回避制度。今年以来，企业共提拔调整副经理以上人员2名、中层人员7名，招录职工6名，副经理以上人员调整参照公务员选拔程序组织实施，中层人员及招录职工按照企业选人用人管理办法实行严格报备。三是2020年10月已对莱芜贸易总公司人员进行工作调整。', '市供销社党组清醒地认识到，巡察整改落实工作并非一朝一夕的事，巩固深化整改成果的任务仍然任重道远，要始终保持整改工作永远在路上的定力和耐力，不忘初心，牢记使命，不断把整改落实工作引向深入。', '（一）坚持把学习贯彻习近平新时代中国特色社会主义思想和对供销合作社工作重要指示批示精神作为首要政治任务，持续在学用结合上狠下功夫，努力实现供销工作跨越发展。', '切实把学习习近平新时代中国特色社会主义思想，党的十九大，十九届二中、三中、四中、五中全会精神同学习习近平总书记关于供销合作社工作的重要指示结合起来，紧贴市委市政府“三农”工作大局，进一步树牢“四个意识”，坚定“四个自信”，做到“四个服从”，不断增强“两个维护”的思想自觉和行动自觉。认真开展党史学习教育，精心组织庆祝建党100周年系列活动，在全市系统唱响时代主旋律，切实增强为供销合作事业奋斗的责任感和使命感，为供销社综合改革和供销事业创新发展进一步积蓄正能量。', '（二）严格落实主体责任，全面落实“一岗双责”，持续在正风肃纪上狠下功夫，标本兼治，扎实做好巡察“后半篇文章”。', '牢固树立“抓好党建是最大政绩”的理念，强基固本，全面落实党建工作的各项要求，认真落实意识形态工作责任制，进一步端正态度，把握好讲政治这条巡察整改的“生命线”。以问题为导向，坚持从严从实，不断强化责任担当，建立跟踪问效机制，层层传导压力，层层压实责任，确保巡察反馈意见整改落实横向到边纵向到底，高标准、高质量持续推进巡察反馈问题整改落实，促进供销系统党风廉政建设的根本好转。坚定不移', '（三）加快完善“三会”制度，强化职能定位，推进从严治社，切实在创新“三农”服务上狠下功夫，努力开创供销工作新局面。', '年是“十四五”规划开局之年，是实施乡村振兴战略第二阶段起步之年。市供销社党组要弘扬“扁担精神”“背篓精神”，贯彻新发展理念，积极拓展服务领域，拉长“三项长板”即发展企业集团、', '强专业市场、打造品牌展会，抓好“四个扩面”即抓好基层社、农民合作社、村级综合服务社和村社共建扩面提质，实施“五大行动”即土地托管升级、惠农平台创建、“绿色农资”拓展、流通网络畅通、合作金融规范行动。落实“党组把方向、管大局、保落实，理事会建机制、定举措、抓落实，监事会提建议、强监督、促落实”工作机制。为打造“五个济南”和乡村振兴齐鲁样板省会标杆、加快建设新时代现代化强省会贡献供销力量。', '欢迎广大干部群众对巡察整改落实情况进行监督。如有意见建议，请及时向我们反映。联系方式：电话:66608582-3', '【工作进展】济南市供销社联动巡察“回头看”反馈问题整改落实领导小组办公室召开巡察整改落实推进会']</t>
         </is>
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A143" t="n">
+        <v>129</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
           <t>济南市人民政府关于公布第十三批济南专业技术拔尖人才名单的通知</t>
         </is>
       </c>
-      <c r="D143" t="inlineStr">
+      <c r="E143" t="inlineStr">
         <is>
           <t>2021-09-15</t>
         </is>
       </c>
-      <c r="E143" t="inlineStr">
+      <c r="F143" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2021/9/15/art_2613_4889673.html</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
+      <c r="G143" t="inlineStr">
         <is>
           <t>['根据《济南专业技术拔尖人才选拔管理办法》（济人才办发〔2017〕19号）等有关规定，经申报推荐、专家评审、部门联审和公示考察等环节，研究确定丁兆龙等115名同志为第十三批济南专业技术拔尖人才。', '各级各部门（单位）要深入学习贯彻习近平总书记关于人才工作的重要论述精神，牢固树立“人才是第一资源”理念，加快实施创新驱动战略和人才强市战略，聚焦科技创新、产才融合和经济社会高质量发展，不断深化人才发展体制机制改革，全面做好人才“引育留用”各项工作，努力打造最优人才发展生态，充分激发各行业各领域专业技术人才创新创业创造活力，为加快打造“五个济南”“五个中心”，建设新时代现代化强省会作出新的更大贡献。']</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A144" t="n">
+        <v>129</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
           <t>百年梦圆照此心以习近平同志为核心的党中央引领全面建成小康社会纪实</t>
         </is>
       </c>
-      <c r="D144" t="inlineStr">
+      <c r="E144" t="inlineStr">
         <is>
           <t>2021-07-05</t>
         </is>
       </c>
-      <c r="E144" t="inlineStr">
+      <c r="F144" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2021/7/5/art_80818_4790088.html</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
+      <c r="G144" t="inlineStr">
         <is>
           <t>['中国共产党百年华诞之际，中华民族迎来又一个历史时刻——如期实现全面建成小康社会奋斗目标。', '从党的建立到新中国成立，再到推进改革开放，一百年来，中国共产党坚守为中国人民谋幸福、为中华民族谋复兴的初心使命，紧紧依靠人民，攻坚克难，创造了一个又一个彪炳史册的人间奇迹。', '新时代砥砺奋进。党的十八大以来，以习近平同志为核心的党中央接续奋斗，把人民对美好生活的向往作为奋斗目标，团结带领全党全国各族人民，夺取全面建成小康社会决胜阶段的伟大胜利。', '千年梦想，百年梦圆，书写了人类发展史上的伟大奇迹，铸就了中华民族伟大复兴的不朽丰碑。', '不负使命的历史担当——接过历史的接力棒，确保如期全面建成小康社会，踏出中华民族伟大复兴的关键一步', '2012年11月，习近平总书记在这里作出“到中国共产党成立100年时全面建成小康社会的目标一定能实现”的郑重宣示。', '上海，兴业路老石库门。今年6月3日，中共一大纪念馆开馆，建党时期珍贵文物得以集中展示。', '2017年10月，党的十九大闭幕不久，习近平总书记专程前往一大会址，向全党发出“不忘初心、牢记使命、永远奋斗”的号召。', '从石库门到天安门，我们党百年来所付出的一切努力、进行的一切斗争、作出的一切牺牲，都是为了人民幸福和民族复兴。', '改革开放之初，邓小平同志提出建设小康社会和现代化建设“三步走”战略构想。经过全党全国人民共同奋斗，解决人民温饱问题、人民生活总体上达到小康水平两个目标提前实现。', '“到2020年全面建成小康社会，实现第一个百年奋斗目标，是我们党向人民、向历史作出的庄严承诺。”习近平总书记把全面建成小康社会放在中国梦的大格局中加以谋划和布局。', '从“决定性阶段”到“决胜期”，这个时跨本世纪头20年的奋斗历程到了一鼓作气向终点冲刺的历史时刻。', '建设一个什么样的小康社会，如何建成小康社会？习近平总书记作出一系列重要论述，深刻回答了全面建成小康社会面临的一系列重大理论和实践问题。', '在全面小康的实现标准上，总书记要求在坚持以经济建设为中心的同时，全面推进经济建设、政治建设、文化建设、社会建设、生态文明建设，促进现代化建设各个环节、各个方面协调发展；', '在全面小康的覆盖面上，总书记强调全面建成小康社会“覆盖的领域要全面”“覆盖的人口要全面”“覆盖的区域要全面”；', '在全面小康与经济发展的关系上，总书记指出“进入全面建成小康社会决胜阶段，不是新一轮大干快上”“不是一个‘数字游戏’或‘速度游戏’，而是一个实实在在的目标”“要考虑更长远时期的发展要求”。', '习近平总书记的重要论述根据国内外形势新变化，顺应我国经济社会新发展和广大人民群众新期待，为全面建成小康社会指明了前进方向，提供了根本遵循。', '“‘十三五’规划作为全面建成小康社会的收官规划，必须紧紧扭住全面建成小康社会存在的短板，在补齐短板上多用力。”', '2015年10月，党的十八届五中全会召开，习近平总书记在作“十三五”规划建议说明时强调。', '面对全面小康目标，既有农村贫困人口脱贫这一突出短板，也有社会事业发展、生态环境保护、民生保障等方面存在的一些明显短板。', '“如果到2020年我们在总量和速度上完成了目标，但发展不平衡、不协调、不可持续问题更加严重，短板更加突出，就算不上真正实现了目标，即使最后宣布实现了，也无法得到人民群众和国际社会认可。”习近平总书记谆谆告诫。', '“十三五”规划建议提出创新、协调、绿色、开放、共享的发展理念。以实现高质量发展为导向，落实新发展理念贯穿“十三五”经济社会发展全过程。', '从党的十八届三中全会部署推进全面深化改革，到党的十八届四中全会部署推进全面依法治国；从党的十九大提出坚决打好防范化解重大风险、精准脱贫、污染防治的攻坚战，到党的十九届四中全会部署推进国家治理体系和治理能力现代化……', '2014年11月，习近平总书记在福建考察调研，提出“协调推进全面建成小康社会、全面深化改革、全面推进依法治国进程”。', '立足全面建成小康社会的引领地位，以习近平同志为核心的党中央协调推进“四个全面”战略布局，强化全面从严治党的根本保证。', '习近平总书记指出：“党坚强有力，党同人民保持血肉联系，国家就繁荣稳定，人民就幸福安康。”', '五级书记抓扶贫，向脱贫攻坚主战场选派驻村工作队、第一书记和驻村干部；面对突如其来的严重疫情，党中央统揽全局、果断决策，第一时间实施集中统一领导；在财经、网络和信息化、国家安全等事关全面小康的关键领域，建立党领导的协调机制……我们党不断提高领导发展的能力和水平，确保全面建成小康社会各项任务落到实处。', '国内生产总值突破100万亿元，人均国内生产总值突破1万美元，形成世界最大规模中等收入群体；', '人民生活水平显著提高，建成世界规模最大的社会保障体系，基本医疗保险覆盖超过13亿人，基本养老保险覆盖近10亿人……', '攻坚克难的伟大实践——坚持以人民为中心，集中力量坚决打赢打好三大攻坚战，让全面建成小康社会惠及全体人民', '河南南阳，丹江口水库。今年“七一”前夕，习近平总书记来到这里，专题调研南水北调中线工程建设运行和库区移民安置等情况。', '在淅川县九重镇邹庄村，习近平总书记走进移民户邹新曾家。通过种田、务工和电商直播，这家的日子红红火火。', '总书记接过土坯房老照片端详：“移民之后，乡亲们10年收入提高了3.6倍，这是我们欣慰的地方。”', '习近平总书记深情地说：“我们党的一百年多不容易、多么艰难，但有一条，这个党建起来就是为了老百姓。人民就是江山。共产党打江山、守江山，守的是什么？就是守人民的心啊。”', '“我们不能一边宣布实现了全面建成小康社会目标，另一边还有几千万人口生活在扶贫标准线以下。”习近平总书记把脱贫攻坚看作全面建成小康社会的底线任务和标志性指标。', '以革命老区阜平为起点，50多次调研扶贫工作，走遍14个集中连片特困地区，先后7次主持召开中央扶贫工作座谈会……习近平总书记把脱贫攻坚摆在治国理政的突出位置，亲自挂帅、亲自出征、亲自督战。', '做到“六个精准”，实施“五个一批”，解决扶持谁、谁来扶、怎么扶、如何退问题，实现“两不愁三保障”，实行扶贫和扶志扶智相结合……习近平总书记对脱贫攻坚工作作出一系列重要论述和重大部署，推动走出了一条中国特色减贫道路。', '2016年春天，一张四川昭觉县阿土列尔村十几名小孩背着沉重的书包循着藤梯奋力攀爬的照片引发关注，“悬崖村”的名字不胫而走。', '2017年3月8日，习近平总书记在全国两会期间参加四川代表团的审议时，专门提起“悬崖村”村民出行难的问题。', '“去年媒体报道了凉山州的‘悬崖村’，看到村民和孩子们常年在悬崖上爬藤条，上山下山安全得不到保证，看了以后心情还是很沉重的，也很揪心。前不久又看到材料说当地已经建了新的铁梯，这样心里又感觉到松了一下。”', '2018年春节前夕，习近平总书记来到昭觉县看望贫困群众，了解到村里不仅建了新的钢梯，村民收入也有较大提高，连连说“让人不再揪心了，我看了感到很高兴”。', '总书记动情地说：“我们搞社会主义就是要让人民群众过上幸福美好的生活，全面建成小康社会一个民族、一个家庭、一个人都不能少。”', '2020年5月，阿土列尔村84户老乡下悬崖，上电梯，住进易地扶贫搬迁安置点，翻越了“贫困大山”。', '2021年2月25日，习近平总书记在全国脱贫攻坚总结表彰大会上庄严宣告：现行标准下9899万农村贫困人口全部脱贫，832个贫困县全部摘帽，12.8万个贫困村全部出列，区域性整体贫困得到解决，完成了消除绝对贫困的艰巨任务，创造了又一个彪炳史册的人间奇迹。', '“环境就是民生，青山就是美丽，蓝天也是幸福”“良好生态环境是最公平的公共产品，是最普惠的民生福祉”……', '党的十八大以来，以习近平同志为核心的党中央把生态文明建设摆在全局工作的突出位置，开展了一系列根本性、开创性、长远性工作，打响污染防治攻坚战，决心之大、力度之大、成效之大前所未有。', '习近平总书记指出：“青海最大的价值在生态、最大的责任在生态、最大的潜力也在生态，必须把生态文明建设放在突出位置来抓，尊重自然、顺应自然、保护自然，筑牢国家生态安全屏障，实现经济效益、社会效益、生态效益相统一。”', '“共抓大保护、不搞大开发。”2016年以来，习近平总书记亲自部署和推动长江经济带发展，连续深入长江上、中、下游，三次主持召开专题座谈会，明确提出把修复长江生态环境摆在压倒性位置。', '5年间，沿江11个省市推进生态环境整治，促进经济社会发展全面绿色转型，长江经济带生态环境发生转折性变化，大江两岸焕发新颜。', '放眼全国，一份绿色答卷可圈可点：2020年，全国地级及以上城市空气质量优良天数比率达到87%，地表水Ⅰ至Ⅲ类水质断面比例5年间由66%上升至83.4%；河长制、湖长制全面建立，以国家公园为主体的自然保护地体系加快建立，一系列重大生态工程深入推进，一块块生态环境的短板正在补上。', '习近平总书记强调：“中华民族伟大复兴绝不是轻轻松松、顺顺当当就能实现的，我们越发展壮大，遇到的阻力和压力就会越大，面临的外部风险就会越多。”', '妥善应对经济领域可能出现的重大风险，完善金融安全防线和风险应急处置机制，完善共建共治共享的社会治理制度，保障国家粮食安全……', '党的十八大以来，面对复杂多变的国际形势和艰巨繁重的国内改革发展稳定任务，以习近平同志为核心的党中央坚持底线思维，统筹发展和安全，增强忧患意识，提高防控能力，着力防范化解重大风险，不断战胜全面小康前进道路上各种艰难险阻。', '从农村的厕所革命到城市的垃圾分类，从防治“小眼镜”到减轻学生作业负担和校外培训负担，从加强食品安全到狠刹浪费之风，习近平总书记把一件件民生小事当成大事，持续推动。', '从个人所得税改革迈出实质性步伐，到药品集中带量采购常态化制度化，再到推动城乡基本公共服务均等化，改革发展成果更多更公平惠及全体人民。', '覆盖全面的总体推进——着眼更长远时期的发展要求，实现“两个一百年”奋斗目标有机衔接，为全面建设社会主义现代化国家奠定坚实基础', '作为社会主义现代化道路上的一个阶段性目标，全面建成小康社会成色如何事关第二个百年奋斗目标能否开好局、起好步。', '习近平总书记指出：“全面建成小康社会，强调的不仅是‘小康’，而且更重要的也是更难做到的是‘全面’。”', '进入新时代，我国社会主要矛盾转化为人民日益增长的美好生活需要和不平衡不充分的发展之间的矛盾。全面建成小康社会，既要物质满足，也要精神充盈。', '2014年10月15日，习近平总书记主持召开文艺工作座谈会。“没有中华文化繁荣兴盛，就没有中华民族伟大复兴。”习近平总书记这样强调坚定文化自信对建设社会主义文化强国的重要性。', '今年4月，习近平总书记在广西考察期间来到广西民族博物馆，参观壮族文化展。“我到地方考察，都会抽时间到博物馆走一走、看一看，目的是更好了解一个地方的历史文化沿革。”习近平总书记说。', '从公共文化服务日益完善到文化活动百花齐放，从榜样力量的引领到时代新风的弘扬，从提升文明素养到壮大志愿服务，中国人民在文化的滋养中展现新的精神风貌，迸发磅礴的奋进力量。', '2020年5月，被誉为“新时代人民权利宣言书”的民法典刚刚诞生，中央政治局就以“切实实施民法典”为主题举行了集体学习。', '“要讲清楚，实施好民法典是坚持以人民为中心、保障人民权益实现和发展的必然要求。”习近平总书记进行了深刻阐述。', '随着全面依法治国深入实施，法治为全面建成小康社会提供有力保障，公平正义得以彰显，群众安全感大幅提升。', '实施就业优先战略，推动义务教育优质均衡发展，构建覆盖全民的基本公共服务体系……在公平正义阳光的照耀下，人人享有人生出彩的机会。', '2020年初，面对突如其来的新冠肺炎疫情，我国经受了一场艰苦卓绝的历史大考，付出巨大努力，取得抗击新冠肺炎疫情斗争重大战略成果。', '习近平总书记高度重视巩固疫情防控成果、构建强大公共卫生体系、全面推进健康中国建设，亲自审定了疾控体系改革方案。', '近年来，我国着力完善公共卫生体系，全面推开公立医院综合改革，推进药品集中采购和使用。', '走进四川成都市郫都区战旗村，小桥流水、树木葱郁，宽敞整洁的柏油路纵横交错，白墙青瓦的川西民居错落有致，古色古香的“乡村十八坊”游客如织。', '2018年2月12日，习近平总书记来到这里，在“精彩战旗”特色产业在线服务大厅仔细观看了“互联网+共享农业”互动种养平台，鼓励村民用好互联网、打开产销路子。在“唐昌布鞋”展示台前，村民热情地拿起一双布鞋想送给总书记，习近平笑着说：“我花钱买一双！”', '总书记对乡亲们说，中国有13亿多人口，吃饭问题始终要靠自己解决，无论城镇化怎么发展都会有几亿农村人口，我们不能一面有繁荣的城市，一面却是落后甚至衰落的乡村。', '2013年12月召开的中央城镇化工作会议提出，要以人为本，推进以人为核心的城镇化。', '党的十八大以来，以习近平同志为核心的党中央推进以人为核心的新型城镇化，深化户籍制度改革，加快推进农业转移人口市民化，提前完成1亿非户籍人口在城市落户目标，我国常住人口城镇化率超过60%。', '与此同时，农村社会事业短板正逐步补齐，建立起统一的城乡居民基本医疗和基本养老保险制度，农村居民人均可支配收入增速快于城镇居民收入，城乡差距进一步缩小。', '2018年9月，习近平总书记用4天时间，行程两千公里，跨越东北三省，实地了解东北振兴情况。', '从推进京津冀协同发展、长江经济带发展、粤港澳大湾区建设、长三角一体化发展，到推动黄河流域生态保护和高质量发展，再到高标准、高质量建设雄安新区，一个个新增长极正在中国版图上崛起。', '今年5月28日，在一场事关国家科技创新发展大计的会议上，习近平总书记为“科技自立自强”加上了一个重要定语——“高水平”。', '上天下海的科学探测实现重大突破，“奋斗者”号等一批国之重器惊艳亮相，量子信息等前沿领域取得一系列原创成果，“复兴号”高铁投入运营，5G成功商用，人工智能加快应用……以创新为第一动力，我国进入高质量发展阶段。', '看转型升级，大力推进供给侧结构性改革，我国经济结构逐步优化，服务业增加值占国内生产总值比重持续上升，新产业、新业态、新模式喷涌而出，消费升级方兴未艾。', '看开放步伐，自由贸易试验区不断扩容，海南自由贸易港建设加快推动，创办中国国际进口博览会、中国国际消费品博览会，与“一带一路”沿线国家经贸交往日趋活跃。', '习近平总书记强调：“高质量发展不只是一个经济要求，而是对经济社会发展方方面面的总要求；不是只对经济发达地区的要求，而是所有地区发展都必须贯彻的要求；不是一时一事的要求，而是必须长期坚持的要求。”', '全面建成小康社会的中国，是创新中国、活力中国，是美丽中国、开放中国，是风雨无阻向前进的中国。', '全面建设社会主义现代化国家新征程上，在以习近平同志为核心的党中央坚强领导下，中国人民意气风发、斗志昂扬，向着第二个百年奋斗目标、向着中华民族伟大复兴阔步向前。（记者赵超、安蓓、侯雪静、于佳欣、郭宇靖）']</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A145" t="n">
+        <v>129</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
           <t>中共济南社会科学院党组关于巡察回头看整改进展情况的通报</t>
         </is>
       </c>
-      <c r="D145" t="inlineStr">
+      <c r="E145" t="inlineStr">
         <is>
           <t>2021-08-03</t>
         </is>
       </c>
-      <c r="E145" t="inlineStr">
+      <c r="F145" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2021/8/3/art_31176_4885744.html</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
+      <c r="G145" t="inlineStr">
         <is>
           <t>['根据市委统一部署，2020年10月21日至12月31日，市委第八巡察组对济南社会科学院党组进行了巡察“回头看”。2月4日，市委巡察组向“回头看”反馈了巡察意见。按照党务公开原则和巡察工作有关要求，现将巡察“回头看”整改进展情况予以公布。', '市委巡察组反馈的意见中指出存在三个方面、9个主要问题，并提出四项意见建议。我们完全接受市委巡察组的巡察意见，并坚持高标准、严要求，坚决抓好整改落实。', '一是统一思想认识，提高政治站位。市委巡察是政治巡察，本质上是政治监督。市委巡察组反馈巡察“回头看”意见后，我院党组提高政治站位、把牢政治方向、强化政治自觉，及时召开党组会议，院主要负责同志主持会议，对我院巡察整改工作提出明确意见，要求把思想认识统一到中央关于全面从严治党要求上来，把做好巡察“回头看”反馈问题整改工作作为重要政治任务，按照党要管党、从严治党的要求，坚持问题导向，扎实做好反馈意见的整改落实工作。', '二是加强组织领导，压实整改责任。院党组迅速成立了巡察“回头看”反馈问题整改落实工作领导小组，院主要负责同志任组长，党组副书记及各党组成员任副组长，各部门负责人为成员。集体研究制订整改方案和整改台账，建立巡察整改问题清单、任务清单、责任清单。集体研究解决整改工作中的重大事项和重点问题，推动整改工作扎实开展。在整改工作中，主要负责同志认真履行整改第一责任人职责，对整改工作负总责，领导班子成员履行“一岗双责”，按照职责分工抓好分管范围的整改落实，各处室负责人对本部门整改工作负责。', '三是明确目标责任，加强督导检查。院党组逐一梳理并深入研究巡察组反馈的问题和建议，细化分解为23项具体整改任务，对每项整改任务都明确整改目标、整改时限、牵头领导和责任单位，确保整改落实到位。院党组先后9次召开会议，对巡察“回头看”整改落实情况进行研究部署，做到措施不落实坚决不放过、问题不解决坚决不松手，为完成巡察“回头看”反馈问题整改工作提供了强有力的保障。', '四是强化成果运用，构建长效机制。院党组从全面从严治党的战略高度，切实强化问题意识，坚持问题导向，着眼建立长效机制，坚决落实党章党规党纪和有关规定要求，切实加强对巡察“回头看”反馈问题的整改。注重运用好整改成果，制定修定完善了《中共济南社会科学院党组会议制度》《“三重一大”决策制度实施办法》《济南社会科学院院长办公会会议制度》《&lt;济南社会科学&gt;编辑管理办法》等5项规定，另有《济南社会科学院网站管理办法》《济南社会科学院横向课题管理办法（试行）》《济南社会科学院科研成果统计管理办法》《济南社会科学院科研著作出版管理制度（试行）》《济南社会科学院“十四五”科研发展计划》《济南社会科学院科研人员聘期基本工作量和成果考核制度（试行）》《济南社会科学院科研人员“专业强基”计划》《济南社会科学院课题立项结项质量要求》等8项规定已形成初稿，形成用制度约束人、用制度管理人、用制度促发展的党建和院务管理工作新格局，以巡察“回头看”反馈问题整改的实际成效全面推进济南社科院党风廉政建设和各项工作再上新台阶。', '整改情况：一是严格落实主体责任，加强政治引领，健全政治生态，引导党员干部善于从政治上把握大局，提高政治判断力、政治领悟力和政治执行力。院党组提出在社科院要做到“四个旗帜鲜明”：一要旗帜鲜明地加强党的领导，加强党对哲学社会科学工作的领导；二要旗帜鲜明地加强党的意识形态工作；三要旗帜鲜明地担负起全面从严治党的主体责任；四要旗帜鲜明地加强和规范研究单位和科研人员的管理。二是高举社科姓党、听党指挥、从严治院旗帜，提出全面从严治院举措，从五个方面落实从严治院：（1）严要求，从建设新型智库，当好智库智者的高度设定更高标准和要求；（2）严管理，树立管理强院理念，以严格管理促进强院建设；（3）严质量，重点是严格课题评价标准，鼓励申报国家级课题；（4）严作风，大兴调查研究之风，理论联系实际，杜绝空对空，言之无物；（5）严纪律，对违法乱纪行为零容忍，把纪律规矩挺在前面，严格纪律约束。三是从严加强干部监督管理，严肃工作纪律，从制度机制上解决管理监督不到位的问题。坚决克服客观找理由，强调特殊性的错误思想，狠抓检查监督，指定专人进行考勤登记，不定期检查在岗工作情况，严格外出报备和请销假制度，经常调度课题研究进度，纪律作风状况明显好转。', '整改情况：一是积极争取组织人事、编制等部门的支持，公开招聘急需的高层次人才。在整改期间，院领导多次到市退役军人局等相关部门汇报工作，说明情况，争取工作支持。同时，积极向市委组织部、市人社局汇报沟通，有退休的同志空出岗位，公开招聘急需的高层次人才。今年计划公开招录引进多名高层次人才，逐步改善人才队伍现状。二是加强学科带头人的培养，真正形成以学科聚集人才，以人才促进学科发展的良性互动。', '整改情况：一是研究制定《济南社科院课题立项结项质量要求》，进一步明确课题申报基本条件、课题立项基本要求和课题结项基本要求。院重点课题和一般课题需达到以下条件之一，方可结项：（1）在公开刊物发表课题阶段性研究成果（期刊不少于3000字、报纸不少于1800字的理论文章），凡公开发表的文章均须注明：年度济南社科院课题阶段性研究成果和项目编号；（2）以《科研要报》《呈阅件》《每日信息》《政务信息》上报市领导批示；（3）在内刊《济南通讯》《泉城论坛》《济南社会科学》发表；（4）课题研究成果被有关部门采纳并进入政策性文件（需提供有效证明文件）。凡存在下列问题之一者，课题不予结项：（1）课题成果存在政治问题；（2）专家评审鉴定组认定课题成果质量低劣；（3）违背学术诚信原则，课题成果存在剽窃或弄虚作假行为。二是立项环节严控课题申报关，切实加强科研成果质量把控。4月17日，院邀请有关专家对今年的课题立项工作进行评审，经过两轮精心审读，对“论证整体上过于简单、研究框架与研究思路针对性不强、缺乏前期研究成果”的课题不予立项，课题立项环节淘汰率达到6.89%。三是结项环节严把课题质量关。课题结项经过专家评审，对课题质量不过关，达不到结项要求的，不予结项。通过严格评判标准，进一步提升课题研究质量。', '整改情况：一是进一步明确了课题承担人的标准，制定了课题负责人承担课题的标准条件：课题申报人应具有良好的思想政治素质，坚持以习近平新时代中国特色社会主义思想为指导，立足于为济南经济社会高质量发展服务，为市委市政府科学决策服务；课题申报人应具有专业技术职务或取得专业技术职称资格以及从事相关工作、具有研究基础和研究能力，能够承担实质性研究工作。从源头上解决课题人人有份、课题费人人分享的问题。二是树立课题质量至上理念，破除课题人人有份。今年课题立项时，不允许院重点课题负责人再申报一般课题，集中精力做好院重点课题。2021年，院课题申报29项，立项27项，比去年减少16项，减少37.2%，经费下降36.4%。', '整改情况：一是旗帜鲜明地加强党对哲学社会科学工作的领导。强化政治担当，践行初心使命。积极适应新形势新任务新要求，自觉站在党和国家事业全局高度谋划社科研究工作，结合职能职责把党的路线方针政策和党中央重大决策部署落到实处。二是研究制定《济南社科院院长办公会会议制度》并严格执行。今年3月份，召开院长办公会集体讨论《中共济南社会科学院党组会议制度》《“三重一大”决策制度实施办法》《济南社科院院长办公会会议制度》等制度内容；在此基础上，召开院党组会并主动邀请派驻纪检监察组领导同志参加会议，审议通过《中共济南社会科学院党组会议制度》《“三重一大”决策制度实施办法》《济南社科院院长办公会会议制度》3项制度，并严格执行。三是组织院党组成员深入学习《中国共产党章程》《中国共产党党组工作条例》《关于党内政治生活的若干准则》《中共济南社会科学院党组会议制度》《“三重一大”决策制度实施办法》《济南社科院院长办公会会议制度》等系列文件，认真了解、掌握并严格执行院党组会需要遵循的原则、议事决策范围、决策程序、决策纪律。安排专人负责，规范党组会、院长办公会会议记录，编发会议纪要，指定专门处室落实督办工作。截至7月份，已形成党组会议记录（纪要）14份，院长办公会议记录（纪要）6份。', '整改情况：一是提高政治站位，加强政治建设。持续深入学习贯彻落实习近平新时代中国特色社会主义思想，坚持用习近平新时代中国特色社会主义思想武装头脑、指导实践、推动工作。二是建立纪律作风建设长效机制，把党风廉政工作列入党组重要议事议程，全员填写《市直机关纪律作风建设情况个人自查表》、签订不同岗位的内容具体、量化、实用、具有可操作性的《党风廉政建设责任书》。三是研究“三重一大”事项时，主动邀请派驻纪检组参加。截至2021年7月份，2021年共召开党组会研究“三重一大”事项4次，均主动邀请派驻纪检组参加。', '整改情况：一是切实履行新时代职责使命，全面加强党对学术阵地、科研队伍、学科建设的领导，主动担当作为，健全相关制度机制，强化制度执行。二是认真学习《中共中央关于制定国民经济和社会发展第十四五年规划和二〇三五年远景目标的建议》《中国共产党第十九届中央委员会第五次全体会议公报》和习近平总书记就《建议（讨论稿）》向全会作的说明。对照党中央提出的“十四五”经济社会发展主要目标和2035年远景目标，进一步提高科学谋划水平、在聚焦市委市政府“五个济南、五个中心、七个新跨越、十个新突破”目标体系和发展路径，谋划发挥好思想库智囊团作用。三是学习借鉴兄弟社科院的经验，结合我院实际，研究制定《济南社会科学院“十四五”科研发展计划》，以进一步提高研究成果数量和质量、进一步加强人才队伍建设、进一步增强学术影响力为总体目标，以深入学习研究宣传习近平新时代中国特色社会主义思想、着力研究新时代强省会建设面临的重大实践问题、深化优秀传统文化和济南历史文化专题研究、创新举办“济南˙黄河智库”论坛、加强哲学社会科学领域意识形态管理工作、加强哲学社会科学学科建设、加强哲学社会科学调研基地建设和加强社科研究人才队伍建设为主要任务和研究重点，明确今后5年科研工作的指导思想、工作定位、总体目标和主要工作任务、研究重点及保障措施，为“十四五”时期我院科研工作高质量发展提供了遵循和行动方案。', '整改情况：一是强化宗旨观念，深刻理解“全心全意为人民服务”的宗旨，从思想深处树立起想群众所想、急群众所急的思想，教育引导科研人员坚守为人民做学问的学术情怀，进一步强化为党分忧、为国建言、为民请命的责任意识。二是提高《科研要报》编发质量，将每年院课题优秀成果及时呈报给市领导参阅，发挥咨政建言作用。今年已编发《科研要报》4期，其中《立足生态文明，加快济南生态乡村建设》得到市委常委、宣传部部长杨峰同志的肯定性批示，《济南全面建成小康社会后的文化发展目标任务与路径》得到市政协主席雷杰同志的肯定性批示。三是举办高层次论坛，为省会发展献计献策。邀请知名专家学者围绕全市中心工作举办论坛、研讨会，在事关全市经济社会发展的重大问题上，发出社科院的声音，发挥思想库作用。6月11日，在龙奥大厦举办庆祝中国共产党成立100周年学术研讨会，邀请省市党史界专家学者围绕“中国共产党百年历程与济南发展”主题进行研讨交流；6月25日，与市委宣传部、济南日报报业集团等单位联合举办“百年风华与济南跨越”—庆祝中国共产党成立100周年理论研讨会；7月份，参与山东社科院举办深入学习贯彻习近平总书记“七一”重要讲话精神暨党的建设理论创新研讨会，院有关人员作专题发言。今年下半年拟举办“全省地方社科院科研联席会议暨全省区域协调发展高端论坛”，为省市一体加快济南发展贡献智慧；拟与中国社会科学院生态文明研究所共同承办中国社会科学论坛—黄河生态文明国际论坛，相关工作正在筹备中。', '整改情况：一是建立激励机制，实施正向激励。研究探讨济南社科院优秀科研成果后期资助有关办法，鼓励支持科研人员申报高层次课题，发表高层次成果。二是加大对科研人员培养力度。研究制定《济南社会科学院科研人员“专业强基”计划》，引导科研人员在现有基础上，精心思考确定2至3个专业学科、3-5个专业研究方向，5年内相对固定不变，巩固专业基础，并从科研人员进一步树立正确的读书学习观、拓展读书学习内容、建立和完善促进学习、保障学习的长效机制、加强专业培训等方面，促使科研人员从基础做起、打好专业基础，为走好科研工作奠定良好条件，持之以恒，持续用力。四是4月份，在召开院长办公会集体研究《&lt;济南社会科学&gt;管理办法》内容的基础上，召开党组会，主动邀请派驻纪检监察组领导同志参加会议，审议通过了《&lt;济南社会科学&gt;管理办法》，明确编印宗旨和交流范围，成立编辑委员会，明确编委会工作职责，作为负责稿件签发及保证期刊质量的决策机构；下设编辑部，编辑部设在发展研究中心，明确编辑部工作职责，负责编辑印刷交流事宜；院主要负责同志担任编委会主任，院各分管负责同志担任编委会副主任，对做好《济南社会科学》编辑工作，提高稿件质量，把好政治站位和意识形态关口奠定基础。', '整改情况：一是健全完善科研管理制度。研究制定《济南社会科学院科研人员基本工作量和聘期科研成果考核办法》，将在岗专业技术人员以及取得专业技术职称资格的人员纳入考核范围，以专业技术人员岗位聘任周期为考核周期，以突出科研工作业绩导向、科研成果质量导向、坚持全面客观公正原则和注重综合评价为考核原则，分研究员、副研究员、助理研究员和研究实习员四类，进一步明确科研人员岗位职责、聘期内基本科研工作量以及科研成果量化考核标准，解决干好干孬、干多干少一个样的问题，充分激发科研内生动力。二是加强并规范院外合作课题管理。研究制定《济南社会科学院横向课题管理办法（试行）》，从横向课题实行合同管理、实行课题负责人责任制、承接横向课题须经院同意、加强对横向课题经费的管理及经费的支出及我院科研人员承担横向课题要求等方面进一步规范承接院外委托合作课题行为。', '整改情况：一是牢固树立质量至上理念。制定了《济南社科院课题立项、结项标准》，从立项环节严控课题申报关，从结项环节严把课题质量关，切实加强科研成果质量把控。4月17日，院邀请有关专家对今年的课题立项工作进行评审，经过专家两轮精心审读，对不符合立项标准的课题不予立项。今年11月份，课题结项时再经过专家评审，课题质量不过关的一律不予结项。二是加大科研成果转化力度。通过鼓励支持科研人员发表高层次论文、编发《科研要报》获得市领导批示、召开新闻发布会宣传推介等多种途径对科研成果进行转化，使优秀科研成果转化为对策建议，为济南经济社会发展提供智力支持。', '整改情况：加强信息公开，对科研课题立项结项、项目支出绩效、职称评定、论坛活动、书籍出版等情况，通过下发文件、全体职工大会、处所长会议、公示栏公示等形式，及时进行公开。2021年课题立项结果已通过院文件《关于公布2021年院立项课题的通知》（济社科字〔2021〕4号）下发院属各部门。', '整改情况：一是加强日常管理，严格外出报备报批、请销假等制度，严格执行考勤、休假、外出管理。二是严格落实党风廉政建设责任制，加强对关键岗位、关键环节的监督，全员全岗签订了党风廉政建设责任书。在重要节日实行廉洁提醒，认真贯彻落实中央八项规定及其实施细则精神和省纪委“十严禁”要求，严格遵守外出报备报批、饮酒报备制度，严格执行值班制度，保持24小时通讯联络畅通。', '整改情况：一是加大反腐倡廉宣传教育力度，组织全体党员干部职工集中观看警示教育片《“头雁折翅”的镜鉴—省管干部“一把手”严重违纪违法案例警示录》和《监督保障执行 促进完善发展—山东正风肃纪反腐2020》，以案示警，教育党员干部自觉做到忠诚干净担当，严守党纪国法。组织党员干部到党性教育基地等开展廉政教育活动。二是清明节组织党员干部到英雄山革命烈士陵园开展党性教育活动，深切缅怀革命先烈。三是加强宣传阵地建设，通过展板、公示栏等加强廉政宣传教育。', '整改情况：一是牢固树立“过紧日子”的意识，严格落实中央八项规定及其实施细则精神，严格落实《济南市市直机关会议费管理办法（暂行）》等规定，院里组织的课题立项结项评审会议、职称申报评审相关会议一律在龙奥大厦召开。二是自巡察“回头看”以来，我院先后组织召开社科研究系列高级职称申报专家委员会、中级职称评审委员会和2021年院课题立项评审会议，均在龙奥大厦召开。', '整改情况：一是加强业务知识学习。组织相关部门和人员认真学习《行政事业单位公用经费支出实用手册》等文件精神，进一步熟悉财务规定，增强风险防控意识，夯实思想基础。二是加强经费管理。严格履行政府采购程序，确保各项支出业务范围符合规定；按照有关财务工作流程，规范各项工作程序，严格按规定使用经费，严格控制专项经费支出。三是严肃财经纪律。根据院工作实际，特别是对涉及学术论坛、科研著作出版、调研座谈会、职称申报评审会等重要活动、重点环节的经费支出，严格按流程进行报销，杜绝不合规定的情况。四是加强财务预算。在今后的财务工作中，首先制定编制部门预算的计划方案，根据院实际情况合理编制部门预算，严格执行部门预算下达的各项指标，做到项目经费的专款专用，杜绝类似问题再次发生类。', '整改情况：进一步规范科研著作出版工作。研究制定《济南社会科学院科研著作出版管理制度》，对科研著作出版的原则、范围、流程、经费支出、审批等其他环节作出明确规定，从制度上杜绝科研著作出版随意的现象。', '整改情况：一是组织院党组领导、院职能部门有关人员及业务处室负责人认真学习、深入领会中央八项规定及其实施细则精神、《济南市党政机关国内公务接待管理办法》等文件精神，进一步提高思想认识，增强风险意识。二是参照《济南市党政机关国内公务接待管理办法》等文件，严格落实公务接待相关规定，严格控制陪餐人数，接待对象在10人以内的，陪餐人数不得超过3人；超过10人的，不得超过接待对象人数的三分之一。不得安排与接待对象公务活动无关的部门和人员陪餐。三是在公务接待中超过陪餐规定人数的问题，院党组安排财务对陪餐情况进行梳理，对公务接待中超过陪餐规定人数的，责令陪餐人员分担超人数陪餐费用，共计582.1元，上交国库。', '整改情况：严格按照《党政机关厉行节约反对浪费条例》《济南市市直机关差旅费管理办法》等文件精神开展党性教育活动，杜绝违规委托旅行社承办等问题再次发生。', '整改情况：一是创新完善各类人才管理机制，深入实施人才优先发展战略。根据新型智库建设要求，充分考虑人员专业优势及性格特点，充分发挥干部主观能动性，提高干部梯队建设科学性、针对性。二是在干部选拔任用工作中，加强道德品行、专业素养、工作实绩的精准考察，在结合实际以及广泛征求意见的基础上，重点完善以品德、能力和贡献为导向的人才评价机制和激励政策，实施专业技术岗位聘期考核和聘任制度，打破平均主义分配体制，树立良好的用人导向，激励优秀干部脱颖而出。三是聚焦我院研究特色和学科优势，注重人才创新意识和创新能力培养，逐步构建起专兼结合、引育并举、梯次优化、结构合理的高层次人才引进与培养体系。', '整改情况：一是树立抓党建就是抓全局的鲜明导向，把党建工作列入党组重要议事日程，定期研究党建工作，制定了2021年《党建工作要点》和《纪检监察工作要点》，做到党建工作与业务工作一起谋划、一起部署、一起推进、一起考核。二是各支委会认真谋划支部工作，安排支部学习及组织活动力求丰富。三个在职党支部进行了按期换届，对新当选的支部委员进行党建业务培训，下发了党支部工作清单，每月制定下发党建工作月计划表，严格落实“三会一课”制度、主题党日等制度，党员每月自觉交纳党费，积极打造“过硬党支部”、“示范党支部”，有效解决好党建工作与业务工作“两张皮”、责任落实层层递减等问题。', '整改情况：严格落实党组成员及支部书记上党课制度，制定了2021年领导班子成员及党支部书记上党课计划，并根据计划严格执行。2021年3月24日，党组书记、院长马军远同志在社科院大会议室为全体干部职工上《如何深入学习党史》的党课，从学党史的重要意义、目标、主要内容、工作结合等方面进行深入浅出的讲解，党员干部深受教育。结合“双报到”与柳云社区共同举办“党史学习教育动员部署会暨《济南建设黄河文化的思考》专题党课”活动，党组副书记、副院长张华松结合天桥区的历史文化、党史等进行了严谨缜密的讲解，使大家在学习历史文化中感悟初心使命。6月23日，各支部召开全体党员大会。第一党支部书记、第二党支部书记分别为所在支部上党课，党组成员、副院长张伟同志到所在的第三党支部上党课。', '整改情况：严格落实谈心谈话制度，及时了解党员干部的思想动态并进行分析研判。2月24日召开支部书记培训班，要求严格落实谈心谈话制度，在支委会成员之间、支部书记（支部委员）与党员之间开展谈心谈话，及时了解党员干部的思想动态并进行分析研判，有针对性地做好思想工作，做好谈心谈话记录。巡察“回头看”整改以来，领导班子成员之间及与工作人员间谈话19次，支部书记与党员谈心谈话11次。结合党史学习教育专题学习组织生活会，在党支部委员之间、党支部委员和党员之间、党员和党员之间开展交心谈心，相互提醒、交流提高。', '（4）主题党日活动形式单一、主题不鲜明、教育针对性不强，甚至把交纳党费作为主题党日。', '整改情况：丰富主题党日活动形式。3月17日开展了义务植树志愿服务，4月2日开展祭奠革命先烈等主题党日活动。各支部结合支部工作实际开展了形式多样的给党员过政治生日、到扶贫村走访慰问等主题鲜明的主题党日活动。结合党史学习教育，组织党员干部与“双报到”社区共同开展“主题党日”，参观中共济南市委重建纪念地，重温入党誓词；组织参加“颂歌献给党”——庆祝中国共产党成立100周年市直机关合唱比赛，组织参观“庆百年华诞 讲奋斗故事百名身边榜样”主题展、参观“济南市庆祝中国共产党成立100周年主题展”等活动，进一步丰富主题党日活动形式，推动党史学习教育走深走实。', '整改情况：一是加大政策支持力度，建立稳定的长效投入机制，着眼今后5-10年的社科研究事业发展，研究制定人才队伍建设规划，创新人才培养方式，实施人才精准培养，形成人才、科研、制度相互促进的良性互动局面。二是抓好人员继续教育，鼓励专业技术岗位和管理岗位人员在职学历教育、进修、业务培训等，教育引导干部职工用好“学习强国”“灯塔—党建在线”学习平台；认真贯彻落实专业技术人员继续教育有关规定，做好基础理论及应用对策人才的培养，提高继续教育质量。三是培养学科带头人，鼓励不同层次人员积极申报各级专业技术各类拔尖人才，着力培养造就一批高端智库专家、学科领军人才，真正做到“事业为上、人岗相适、人事相宜”真正形成以学科聚集人才，以人才促进学科发展的良性互动。巡察“回头看”以来，推荐1人申报正高职专业技术职称，推荐1人申报副高职专业技术职称。', '整改情况：一是健全完善科研管理制度。制定了《济南社会科学院科研人员基本工作量和聘期科研成果考核办法》，将在岗专业技术人员以及取得专业技术职称资格的人员纳入考核范围，以专业技术人员岗位聘任周期为考核周期，以突出科研工作业绩导向、科研成果质量导向、坚持全面客观公正原则和注重综合评价为考核原则，分研究员、副研究员、助理研究员和研究实习员四类，进一步明确科研人员岗位职责、基本科研工作量以及聘期内科研成果量化考核标准，树立正确的科研导向，建立以业绩、成果、能力、贡献四位一体的科研评价体系。二是建立激励机制。研究探讨济南社科院院优秀科研成果后期资助有关办法，鼓励支持科研人员申报高策次研究课题和发表高层次论文，调动科研人员积极性主动性和创造性，进一步提高科研质量，提升学术影响力。三是完善科研成果统计制度。进一步完善了《济南社会科学院科研成果统计管理办法》，明确科研成果统计的范围具体包括：⑴正式发表的学术论文（刊物3000字以上、报纸2000字以上）；⑵正式出版的著作；⑶国家和省、市社科规划课题或软科学课题；⑷经院同意的外来委托课题；⑸通过《科研要报》《呈阅件》《每日信息》《政务信息》呈报并获得市委、市政府领导和市人大、政协主要领导及以上领导批示的成果或为有关单位提出的咨询建议（须附有关证明材料）；⑹院刊《济南社会科学》刊登的论文；⑺工具书、译著、译文、古籍整理和综述等其它形式的成果。每年年末对全院科研成果进行统计，编制年度科研成果统计汇编。', '在市纪委监委派驻第三纪检监察组的指导下，认真配合线索调查、严肃执纪执法、深入开展警示教育活动。', '经过一段时间的集中整改，一些突出问题得到了有效解决，新出台、修订了一批管长远的规章制度，巡察“回头看”反馈问题整改工作取得了阶段性实效。同时，一些历史遗留问题尚未化解，如因职称评聘、课题评价等导致的个人矛盾没有得到有效化解；关于科研人员不坐班问题，要进一步加强对科研人员的日常管理、教育监督；人才队伍建设方面，处级干部管理岗、技术岗交叉重叠，进一步挤压了科级以下干部晋升渠道和空间等问题与市委巡察组的要求还有一定的差距。', '巡察是市委对我院的政治体检，整改是刮骨疗伤、排毒治病的治疗。下一步，我院将以市委巡察整改为契机，继续认真贯彻全面从严治党要求，坚持问题导向、目标导向、效果导向，坚持不打折扣、动真碰硬、标本兼治，堵塞制度漏洞，完善管理机制，以钉钉子精神不折不扣深入推进整改，确保巡察“回头看”反馈的问题“条条要整改、件件有落实、事事有回音”，不断推进社科研究事业向高质量发展，为加快建设新时代现代化强省会贡献智慧和力量。', '一是提高政治站位，加强党对社科事业的领导。坚持以习近平新时代中国特色社会主义思想为指导，全面贯彻落实党的十九大及十九届二中、三中、四中、五中全会精神，贯彻落实习近平总书记关于加快构建中国特色哲学社会科学、加强中国特色新型智库建设的重要讲话精神，贯彻习近平总书记对山东、对济南工作的重要指示要求，增强“四个意识”、坚定“四个自信”、做到“两个维护”，强化党组核心领导作用，增强班子凝聚力、战斗力，严格执行民主集中制，提高民主决策、科学决策、依法决策水平，确保社科事业正确的政治方向、舆论导向、价值取向。', '二是强化党建引领，落实全面从严治党主体责任。牢固树立“抓好党建是最大政绩”的理念，认真贯彻新时代党的建设总要求，坚持把履行管党治党责任作为主责主业，将党建工作置于重要位置，定期研究部署，积极抓好督查，及时跟踪问效；党组书记和班子成员强化抓党建“第一责任人”职责和“一岗双责”责任，细致抓好基层党建工作的指导检查，推动形成一级抓一级，一级对一级负责的党建工作格局，进一步夯实基层组织建设基础；严格落实党支部日常工作清单、支部月工作计划，组织支部书记培训。丰富主题党日活动形式，通过与“双报到”社区共同开展活动、过政治生日、到扶贫村走访慰问、开展志愿服务等开展主题鲜明的主题党日活动。', '三是激励担当作为，营造干事创业良好氛围。党组充分发挥“头雁”效应作用，注重落实干部职工关怀激励措施，树立实干实绩导向，让“想干事的有机会，能干事的有舞台，干成事的有地位”；落实容错纠错机制，关心关爱干部身心健康，帮助解决干部子女入托等实际困难，让党员干部在担当作为的过程中没有后顾之忧，营造为实干者担当、让有为者有位的政治生态；教育引导党员干部整体辩证地处理好巡察整改与推动日常工作相互关系，用担当作为的实际行动，把巡察整改成效体现在推动社科事业发展上来。', '四是深化作风建设，助力提升质量效能。以纠“四风”为切入点，严格落实中央八项规定精神，严格落实党风廉政建设责任制，牢固树立“过紧日子”的意识，严肃财经纪律，加强专项经费管理，严格按规定使用经费，严格控制专项经费支出，坚持厉行勤俭节约，坚决整治形式主义、官僚主义隐形变异问题；紧盯“关键少数”、关键岗位，充分运用监督执纪“四种形态”特别是第一种形态，落实落细日常监督，强化组织纪律监督，把纪律和规矩立起来、挺在前面，提醒党员干部以身作则、廉洁自律，严格遵守作风纪律、自觉抵制不正之风，努力打造一支忠诚干净担当的社科研究队伍。', '五是聚焦中心工作，充分发挥智库作用。紧盯黄河流域生态保护和高质量发展国家战略和济南市“十四五”发展规划，策划设置一批重大课题。围绕市委十一届十二次全会提出的综合实力、发展质量、改革创新、对外开放、城市品质、治理效能、民生保障“七个新跨越”和科技创新、高端智造、文化旅游、生态文明建设、医疗康养、基础设施建设、数字赋能、民营经济、县域经济、乡村振兴“十个新突破”，突出“黄河流域城市群发展战略”“济南打造黄河流域中心城市研究”“黄河文化与齐鲁文化、儒家文化关系研究”“黄河国家战略与新旧动能转换”等重大选题，整合省会社科资源，加强协同创新，力争推出有分量、可操作的研究成果，为市委市政府科学决策发挥重要智库作用。继续加强与中国社会科学院生态文明研究所科研合作，为济南黄河战略的实施建言献策。联合黄河流域省会城市社科院，成立黄河流域省会城市智库联盟，做好黄河流域城市群发展战略研究、黄河流域特色小镇研究、黄河流域视野下山东新动能机遇与挑战研究，齐鲁文化、东夷文化、泰山文化与黄河文明发端研究，黄河流域济南段生态保护与湿地旅游研究、黄河济南段文化遗迹保护利用研究等重大课题研究调研活动，举办“济南·黄河智库”论坛：黄河流域城市社科院智库高端论坛，邀请专家学者围绕黄河流域生态环境、城市文化等建言献策。编辑出版一批科研著作，联合省会经济圈社科研究机构，牵头成立省会经济圈黄河智库联盟，召开成立大会暨研讨会，为省会经济圈一体化建设发挥智库作用。']</t>
         </is>
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A146" t="n">
+        <v>129</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
           <t>临夏州供销社来我市参观考察</t>
         </is>
       </c>
-      <c r="D146" t="inlineStr">
+      <c r="E146" t="inlineStr">
         <is>
           <t>2021-06-08</t>
         </is>
       </c>
-      <c r="E146" t="inlineStr">
+      <c r="F146" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2021/6/8/art_4115_4788696.html</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
+      <c r="G146" t="inlineStr">
         <is>
           <t>['年6月4日上午，甘肃省临夏回族自治州供销社党组书记、理事会主任王晓红一行7人到历城区供销社考察学习生产、供销、信用“三位一体”、贸易流通网络、“村村云”农商平台和消费合作社等方面的先进经验和做法。济南市供销社党组成员张立国、合作指导处处长李振华，区供销社党委委员、纪委书记朱永昌和业务科科长李昌栋陪同考察。', '甘肃省临夏供销社一行人先后察看听取了历城区裕丰农机农民专业合作社信用互助工作开展情况、历城供销“村村云”农商平台建设情况、历城供销合作发展基金运营情况和鲍山消费合作社运营情况，详细了解了历城区供销社贯彻落实习近平总书记重要指示批示精神，积极打造生产、供销、信用 “三位一体”的经验和做法。', '随着召开座谈会，区供销社党委委员、纪委书记朱永昌向甘肃省临夏供销社领导详细讲解了历城区供销社各项工作开展情况，并进行了深入互动交流。', '甘肃省临夏供销社党组书记、理事会主任王晓红对历城区供销社各项工作取得的成效给予高度肯定。他表示历城区供销社“三位一体”等工作都走在了全国前列，对临夏州供销社今后开展“三位一体”等工作具有很好指导意义。他希望通过此次调研交流，可以加强两地间的交流与合作，进一步贯彻落实东西部协作工作要求，促进共同发展。']</t>
         </is>
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A147" t="n">
+        <v>129</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
           <t>习近平在广西考察</t>
         </is>
       </c>
-      <c r="D147" t="inlineStr">
+      <c r="E147" t="inlineStr">
         <is>
           <t>2021-05-03</t>
         </is>
       </c>
-      <c r="E147" t="inlineStr">
+      <c r="F147" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2021/5/3/art_80818_4782892.html</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr">
+      <c r="G147" t="inlineStr">
         <is>
           <t>['习近平在广西考察时强调 解放思想深化改革凝心聚力担当实干 建设新时代中国特色社会主义壮美广西', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是27日上午，习近平在南宁市广西民族博物馆外，同参加三月三“歌圩节”民族文化活动的各族群众亲切交流。新华社记者 谢环驰 摄', '中共中央总书记、国家主席、中央军委主席习近平近日在广西考察时强调，要坚决贯彻党中央决策部署，完整、准确、全面贯彻新发展理念，坚持稳中求进工作总基调，解放思想、深化改革、凝心聚力、担当实干，统筹疫情防控和经济社会发展，统筹发展和安全，在推动边疆民族地区高质量发展上闯出新路子，在服务和融入新发展格局上展现新作为，在推动绿色发展上迈出新步伐，在巩固发展民族团结、社会稳定、边疆安宁上彰显新担当，建设新时代中国特色社会主义壮美广西。', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是25日下午，习近平在桂林市阳朔县，乘船考察漓江阳朔段。新华社记者 鞠鹏 摄', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是26日下午，习近平在广西柳工集团有限公司挖掘机装配厂考察调研。新华社记者 鞠鹏 摄', '4月25日至27日，习近平在广西壮族自治区党委书记鹿心社和自治区政府主席蓝天立陪同下，先后来到桂林、柳州、南宁等地，深入革命纪念馆、农村、企业、民族博物馆等，就贯彻党的十九届五中全会精神、开展党史学习教育、推动“十四五”开好局起好步等进行调研。', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是25日上午，习近平在位于桂林市全州县的红军长征湘江战役纪念园，向湘江战役红军烈士敬献花篮。新华社记者 谢环驰 摄', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是25日上午，习近平在位于桂林市全州县的红军长征湘江战役纪念园，向湘江战役红军烈士敬献花篮。新华社记者 鞠鹏 摄', '25日上午，习近平来到位于桂林市全州县才湾镇的红军长征湘江战役纪念园，向湘江战役红军烈士敬献花篮并三鞠躬，瞻仰“红军魂”雕塑，参观纪念馆。1934年底，为确保中共中央和中央红军主力渡过湘江，粉碎敌人围歼红军于湘江以东的企图，几万名红军将士血染湘江两岸，这一战成为事关中国革命生死存亡的重要历史事件。习近平表示，我到广西考察的第一站就来到这里，目的是在全党开展党史学习教育之际，缅怀革命先烈，赓续共产党人精神血脉，坚定理想信念，砥砺革命意志。革命理想高于天，理想信念之火一经点燃就会产生巨大的精神力量。红军将士视死如归、向死而生、一往无前、敢于压倒一切困难而不被任何困难所压倒的崇高精神，永远值得我们铭记和发扬。在实现第二个百年奋斗目标的新长征路上，我们要抱定必胜信念，勇于战胜来自国内外的各种重大风险挑战，朝着实现中华民族伟大复兴的目标奋勇前进。', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是25日上午，习近平在桂林市全州县，参观红军长征湘江战役纪念馆。新华社记者 鞠鹏 摄', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是25日上午，习近平在桂林市全州县，参观红军长征湘江战役纪念馆时，同工作人员亲切交谈。新华社记者 谢环驰 摄', '随后，习近平来到才湾镇毛竹山村。该村近年来积极发展葡萄种植业，有力促进了农民增收。习近平走进葡萄种植园，察看葡萄长势。农技人员正在指导村民为葡萄绑蔓、定梢，看到总书记来了，乡亲们纷纷围拢过来。习近平详细询问葡萄产量、品质、销路、价格等情况。他强调，全面推进乡村振兴，要立足特色资源，坚持科技兴农，因地制宜发展乡村旅游、休闲农业等新产业新业态，贯通产加销，融合农文旅，推动乡村产业发展壮大，让农民更多分享产业增值收益。', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是25日上午，习近平在桂林市全州县才湾镇毛竹山村，走进葡萄种植园，同农技人员和村民亲切交流。新华社记者 谢环驰 摄', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是25日上午，习近平在桂林市全州县才湾镇毛竹山村考察。新华社记者 殷博古 摄', '习近平步行察看村容村貌，并到村民王德利家中看望，同一家人围坐在一起聊家常。王德利告诉总书记，他们家种了12亩葡萄，农闲时外出务工，去年家庭收入超过14万元。习近平听了十分高兴。他指出，经过全党全国各族人民共同努力，在迎来中国共产党成立一百周年的重要时刻，我国脱贫攻坚战取得全面胜利。好日子都是奋斗出来的。希望你们依靠勤劳智慧把日子过得更有甜头、更有奔头。要注重学习科学技术，用知识托起乡村振兴。离开村子时，乡亲们高声向总书记问好。习近平向大家挥手致意。他深情地说，让人民生活幸福是“国之大者”。全面推进乡村振兴的深度、广度、难度都不亚于脱贫攻坚，决不能有任何喘口气、歇歇脚的想法，要在新起点上接续奋斗，推动全体人民共同富裕取得更为明显的实质性进展。', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是25日上午，习近平在桂林市全州县才湾镇毛竹山村考察。新华社记者 鞠鹏 摄', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是25日上午，习近平在桂林市全州县才湾镇毛竹山村村民王德利家中看望，同一家人围坐在一起聊家常。新华社记者 谢环驰 摄', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是25日上午，习近平在桂林市全州县才湾镇毛竹山村考察时，同乡亲们亲切交流。新华社记者 谢环驰 摄', '近年来，桂林市大力推进漓江“治乱、治水、治山、治本”，改善了漓江生态环境。25日下午，习近平来到桂林市阳朔县漓江杨堤码头，听取漓江流域综合治理、生态保护等情况汇报，并乘船考察漓江阳朔段。他强调，要坚持山水林田湖草沙系统治理，坚持正确的生态观、发展观，敬畏自然、顺应自然、保护自然，上下同心、齐抓共管，把保持山水生态的原真性和完整性作为一项重要工作，深入推进生态修复和环境污染治理，杜绝滥采乱挖，推动流域生态环境持续改善、生态系统持续优化、整体功能持续提升。', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是25日下午，习近平在桂林市阳朔县漓江杨堤码头，了解漓江流域综合治理、生态保护等情况。新华社记者 申宏 摄', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是25日下午，习近平在桂林市阳朔县漓江杨堤码头，了解漓江流域综合治理、生态保护等情况。新华社记者 鞠鹏 摄', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是25日下午，习近平在桂林市阳朔县，乘船考察漓江阳朔段。新华社记者 申宏 摄', '26日，习近平来到桂林市象鼻山公园，远眺山水风貌，沿步道察看商业、邮政等服务设施。游客们高声欢呼：“总书记好！”习近平同大家亲切交流。他指出，桂林是一座山水甲天下的旅游名城。这是大自然赐予中华民族的一块宝地，一定要呵护好。要坚持以人民为中心，以文塑旅、以旅彰文，提升格调品位，努力创造宜业、宜居、宜乐、宜游的良好环境，打造世界级旅游城市。', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是26日下午，习近平在桂林市象鼻山公园考察调研。新华社记者 申宏 摄', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是26日下午，习近平在桂林市象鼻山公园考察时，同游客们亲切交流。新华社记者 鞠鹏 摄', '当天下午，习近平来到柳州市考察调研。在广西柳工集团有限公司，习近平先后走进公司展厅、研发实验中心、挖掘机装配厂等，听取企业发展情况介绍，察看主要产品展示，同企业职工和技术研发人员亲切交谈。习近平强调，制造业高质量发展是我国经济高质量发展的重中之重，建设社会主义现代化强国、发展壮大实体经济，都离不开制造业，要在推动产业优化升级上继续下功夫。只有创新才能自强、才能争先，要坚定不移走自主创新道路，把创新发展主动权牢牢掌握在自己手中。要坚持党对国有企业的全面领导，坚持加强党的领导和完善公司治理相统一，在深化企业改革中搞好党的建设，充分发挥党组织在企业改革发展中的领导核心作用。', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是26日下午，习近平在广西柳工集团有限公司察看产品展示。新华社记者 鞠鹏 摄', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是26日下午，习近平在广西柳工集团有限公司挖掘机装配厂了解企业发展情况。新华社记者 鞠鹏 摄', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是26日下午，习近平在广西柳工集团有限公司挖掘机装配厂，同企业职工和技术研发人员亲切交谈。新华社记者 谢环驰 摄', '随后，习近平来到柳州螺蛳粉生产集聚区，详细了解螺蛳粉特色产业促进就业、带动农民增收等情况。习近平指出，发展特色产业是地方做实做强做优实体经济的一大实招，要结合自身条件和优势，推动高质量发展。要把住质量安全关，推进标准化、品牌化。要帮助民营企业解决实际困难，鼓励、支持、引导民营企业发展壮大。', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是26日下午，习近平在柳州螺蛳粉生产集聚区，了解螺蛳粉生产情况。新华社记者 鞠鹏 摄', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是26日下午，习近平在柳州螺蛳粉生产集聚区，了解螺蛳粉生产情况。新华社记者 殷博古 摄', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是26日下午，习近平在柳州螺蛳粉生产集聚区考察调研。新华社记者 鞠鹏 摄', '广西是我国少数民族人口最多的自治区。27日上午，习近平来到位于南宁市邕江之畔的广西民族博物馆，参观壮族文化展。博物馆外，三月三“歌圩节”壮族对歌等民族文化活动正在这里集中展示。习近平强调，广西是全国民族团结进步示范区，要继续发挥好示范带动作用。各民族共同团结进步、共同繁荣发展是中华民族的生命所在、力量所在、希望所在，在全面建设社会主义现代化国家的新征程上，一个民族都不能少，各族人民要心手相牵、团结奋进，共创中华民族的美好未来，共享民族复兴的伟大荣光。', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是27日上午，习近平在南宁市广西民族博物馆参观壮族文化展。新华社记者 鞠鹏 摄', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是27日上午，习近平在南宁市广西民族博物馆外，同参加三月三“歌圩节”民族文化活动的各族群众亲切交流。新华社记者 申宏 摄', '当天上午，习近平听取了广西壮族自治区党委和政府工作汇报，对广西各项工作取得的成绩给予肯定，希望广西各族干部群众奋力谱写全面建设社会主义现代化国家的广西篇章，以优异成绩庆祝建党一百周年。', '习近平指出，推动经济高质量发展，既要深刻认识贯彻新发展理念、构建新发展格局对推动地方高质量发展的原则要求，又要准确把握本地区在服务和融入新发展格局中的比较优势，走出一条符合本地实际的高质量发展之路。要推动传统产业高端化、智能化、绿色化，推动全产业链优化升级，积极培育新兴产业，加快数字产业化和产业数字化。要继续深化改革，坚持“两个毫不动摇”，优化营商环境。要加大创新支持力度，优化创新生态环境，推动各类创新要素向企业集聚，激发创新活力，推动科技成果转化。要主动对接长江经济带发展、粤港澳大湾区建设等国家重大战略，融入共建“一带一路”，高水平共建西部陆海新通道，大力发展向海经济，促进中国－东盟开放合作，办好自由贸易试验区，把独特区位优势更好转化为开放发展优势。', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是26日下午，习近平在广西柳工集团有限公司考察调研。新华社记者 鞠鹏 摄', '习近平强调，要弘扬伟大脱贫攻坚精神，加快推进乡村振兴，健全农村低收入人口常态化帮扶机制，继续支持脱贫地区特色产业发展，强化易地搬迁后续扶持。要立足广西林果蔬畜糖等特色资源，打造一批特色农业产业集群。要严格实行粮食安全党政同责，压实各级党委和政府保护耕地的责任，稳步提高粮食综合生产能力。要继续打好污染防治攻坚战，把碳达峰、碳中和纳入经济社会发展和生态文明建设整体布局，建立健全绿色低碳循环发展的经济体系，推动经济社会发展全面绿色转型。', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是25日上午，习近平在桂林市全州县才湾镇毛竹山村，走进葡萄种植园，同农技人员和村民亲切交流。新华社记者 殷博古 摄', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是25日上午，习近平在桂林市全州县才湾镇毛竹山村考察时，同乡亲们亲切交流。新华社记者 鞠鹏 摄', '习近平指出，要提高人民生活品质，落实就业优先战略和积极就业政策，做好高校毕业生、退役军人、农民工和城镇困难人员等重点群体就业工作。要完善多渠道灵活就业的社会保障制度，维护好卡车司机、快递小哥、外卖配送员等的合法权益。要全面贯彻党的教育方针，落实立德树人根本任务，加强对线上线下校外培训机构的规范管理。要深化疾病预防控制体系改革，强化基层公共卫生体系，创新医防协同机制，提升基层预防、治疗、护理、康复服务水平，毫不放松抓好常态化疫情防控。要严密防范各种风险挑战，有效遏制重特大安全生产事故，常态化开展扫黑除恶斗争。', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是27日上午，习近平在南宁市广西民族博物馆外，同参加三月三“歌圩节”民族文化活动的各族群众亲切交流。新华社记者 鞠鹏 摄', '习近平强调，要搞好民族团结进步宣传教育，引导各族群众牢固树立正确的国家观、历史观、民族观、文化观、宗教观，增进各族群众对伟大祖国、中华民族、中华文化、中国共产党、中国特色社会主义的认同，促进各民族像石榴籽一样紧紧抱在一起。', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是25日上午，习近平在位于桂林市全州县的红军长征湘江战役纪念园考察。新华社记者 鞠鹏 摄', '4月25日至27日，中共中央总书记、国家主席、中央军委主席习近平在广西考察。这是25日上午，习近平在桂林市全州县，参观红军长征湘江战役纪念馆时，同工作人员亲切交谈。新华社记者 鞠鹏 摄', '习近平指出，广西红色资源丰富，在党史学习教育中要用好这些红色资源，做到学史增信。学史增信，就是要增强信仰、信念、信心，这是我们战胜一切强敌、克服一切困难、夺取一切胜利的强大精神力量。要增强对马克思主义、共产主义的信仰，教育引导广大党员、干部从党百年奋斗中感悟信仰的力量，始终保持顽强意志，勇敢战胜各种重大困难和严峻挑战。要增强对中国特色社会主义的信念，教育引导广大党员、干部深刻认识到，中国特色社会主义是历史发展的必然结果，是发展中国的必由之路，是经过实践检验的科学真理，始终坚定道路自信、理论自信、制度自信、文化自信。要增强对实现中华民族伟大复兴的信心，教育引导广大党员、干部牢记初心使命、增强必胜信心，坚信我们党一定能够团结带领人民在中国特色社会主义道路上实现中华民族伟大复兴，努力创造属于我们这一代人、无愧新时代的历史功绩。信仰、信念、信心是最好的防腐剂。要始终抓好党风廉政建设，使不敢腐、不能腐、不想腐一体化推进有更多的制度性成果和更大的治理成效。']</t>
         </is>
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A148" t="n">
+        <v>129</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
           <t>中共济南市委济南国际医学中心工作委员会关于巡察整改进展情况的通报</t>
         </is>
       </c>
-      <c r="D148" t="inlineStr">
+      <c r="E148" t="inlineStr">
         <is>
           <t>2021-03-29</t>
         </is>
       </c>
-      <c r="E148" t="inlineStr">
+      <c r="F148" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2021/3/29/art_57667_4774929.html</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
+      <c r="G148" t="inlineStr">
         <is>
           <t>['10月21日，市委巡察组向医学中心党工委反馈了巡察意见。按照党务公开原则和巡察工作有关要求，现将巡察整改进展情况予以公布', '项意见建议。我们完全接受市委巡察组的巡察意见，并坚持高标准、严要求，坚决抓好整改落实。', '党工委严格遵守党章党规，全面落实主体责任，及时召开专题会议，学习传达《市委第五巡查组关于巡察济南国际医学科学中心党工委的反馈意见》，迅速形成了旗帜鲜明讲政治、不折不扣抓落实、高质高效抓整改的思想共识，把思想认识统一到市委决策部署上来。', '党工委第一时间成立了巡查反馈问题整改落实领导小组，党工委书记陈西武任组长，白涛、曹士亮任副组长，领导小组由分管班子成员、处室负责人组成，', '“时间表”“路线图”，逐项明确责任人、责任单位和整改时限，层层压实责任、层层传导压力，按照确定的时间节点定期检查、逐项验收，严格对账销号，解决一个、销号一个、巩固一个。', '领导小组办公室建立跟踪机制，实施跟踪问效，采取定期督办、专题督查等方式，加强对整改进展情况调度检查，确保重点任务、重点事项高质量完成。纪工委、监工委以这次整改为契机，强化监督检查，确保整改方案扎实有效落到实处。', '各部门坚持以这次整改落实为契机，坚持问题导向、目标导向，注重以整改成果推动问题解决，切实破解', '一是学习贯彻习近平新时代中国特色社会主义思想不深入不系统，距离学懂弄通做实存在较大差距。党工委理论学习中心组学习方式方法简单枯燥，集体交流环节流于形式，没有正式建立起理论学习中心组学习全程记录制度，对新思想的整体架构、内在逻辑、精神实质把握不到位。缺少将习近平新时代中国特色社会主义思想放在医学中心实际工作中学习研究的主动性和自觉性，特别是对于', '“健康中国”战略的核心要义和总体要求理解不深、研究不透，对医学中心如何有效发挥作用助力省市落实“健康中国”战略，引领健康山东、重建“齐鲁医学”品牌的重要意义认识不够。存在学做“两张皮”的现象，不善于运用新思想和辩证思维推动工作、解决问题，对省市重点工作攻坚年等重大工作部署一知半解、漠不关心，对医学知识、园区运营、规划建设等专业知识学习较少，能力不足问题已明显掣肘工作开展。', '11月27日、28日举办干部素质提升培训班，邀请市委党校、市直机关工委、市档案局等部门专业人员进行专业知识授课。市委党校老师详细解读十九届五中全会精神，并组织分组交流研讨，将习近平新时代中国特色社会主义思想学精学透。各处室紧密结合实际，围绕规划策划、“双招双引”、项目建设、国际交流等重点工作深入研讨，制定细化、具体化、可操作化的工作措施，利用学习研讨，促进工作开展，做到言行一致，知行合一。', '“钉钉”工作平台中开设理论中心组工作专区，将学习材料提前上传，中心组成员事先深入学习、会上交流研讨，会后上交学习心得，并做到学习进程全记录。', '丰富学习形式。采取专业老师授课、组织开展专题讨论、支部学习研讨、提交学习心得等方式，丰富了学习形式，提高了学习成效。', '黄河流域生态保护和高质量发展、医学知识、园区运营、招商引资等业务纳入培训内容，提升干部综合能力。', '二是宣传工作不到位，阵地建设缺失。管委会成立至今未建立官方网站，对外宣传和提升医学中心的知名度、扩大国际传播力影响力均存在', '“失声”的现象。截至现场巡察结束，官方网站尚未正式上线运行。在百度、高德等智能导航中无法搜索到“济南国际医学科学中心管委会”的位置，对于扩大建设国际化、高端化、特色化医学科学高地的对外宣传带来诸多不利的影响。', 'APP、新时报、舜网等媒体加大宣传，进一步丰富微信公众号信息发布频次和密度，大力宣传医学中心建设发展成就。', '第四届世界生命科技大会直播报道时建立的联系，在国家卫健委主办的《健康报》上发表专版稿件一篇，让医学中心在国家级专业媒体上宣传发声', '完成健康医疗技术推广中心展厅宣传内容更新；在济南西站设立固定形象广告，加强医学中心品牌形象宣传', '三是党的政治建设弱化。党工委党建引领发展的作用发挥不够充分，没有主动将党旗牢牢插在', '“双招双引”、项目建设等重点工作一线。一方面，批评与自我批评不够。党内政治生活庸俗化，班子成员之间还有“面子意识”，习惯于一团和气，批评与自我批评流于形式；另一方面，缺乏斗争精神。存在“讲人情、失原则”“好人主义”的错误倾向，比如在协同推进医学中心发展布局、建设计划过程中，针对出现的不少杂音，由于担心伤了部门间感情，影响工作配合，往往不敢理直气壮地坚持原则，一定程度上影响了医学中心建设的推进速度和质量。', '2020年度民主生活会召开之前，向各支部、各处室、产业公司、孵化器等部门征求意见建议，收集意见建议10余条；班子成员之间、班子成员与处室负责人、支部党员代表进行谈心谈话，并将意见建议收集、整理、反馈', '议事程序不完善。在制定《党工委议事规则》过程中，党工委事前没有组织班子成员充分讨论，事后没有及时印发学习。《党工委议事规则》不严谨，未明确', '重新修订完善了党工委议事制度，明确了议事流程。议题在广泛征求意见基础上确定。提交党工委的议题，经过党工委主要负责人同志认可后，提交会议研究。', '党工委会前事先下发议事材料，班子成员充分消化、思考后方可召开党工委会议充分研究、讨论。', '五是民主集中制落实有偏差。党工委重大决策事项事前酝酿不充分、集体讨论不深入，有的班子成员不愿意当众提出自己的反对意见，有的班子成员受个人经历、专业能力限制提不出建设性意见，民主集中制效果不好。', '针对事前酝酿不充分、集体讨论不深入的问题，党工委会前事先下发议事材料，班子成员充分把握、酝酿、思考后方可召开党工委会议充分研究、讨论。', '针对有的班子成员受个人经历、专业能力限制提不出建设性意见，民主集中制效果不好的问题，党工委主要领导明确提出要求，并在重要议题讨论环节，要求每名党工委成员发表意见，保证了民主集中制的效果。', '六是对意识形态工作重视程度不够。认识上有偏差，没有列入党工委重要工作日程，对意识形态领域斗争的严峻性重要性认识不足，特别是对医学中心作为对外开放的窗口，在新形势下意识形态领域面临的任务缺乏全面深刻的把握。', '成立了意识形态工作领导小组。党工委书记担任组长，分管领导担任小组成员，明确直接责任，班子成员履行', '规定至少每半年专题研究一次意识形态工作，同时要求班子成员把意识形态工作作为述职述德述廉报告和民主生活会对照检查的重', '加强意识形态工作队伍建设，在暂时无法解决工作人员数量配备不足的情况下，发挥好意识形态工作领导小组、宣传专班作用，加强正面宣传', '建立健全舆情监控机制，成立了突发事件新闻应急处置领导小组，加强应急事件及舆情监控工作的管理，做好突发事件新闻应急处置工作。', '“三驾马车”机制中牵头作用发挥不充分。为加快推动医学中心建设步伐，市委市政府确立了医学中心牵头、城投集团和槐荫区按照职责共同参与的“三驾马车”工作机制。党工委应对区域竞争、抢抓省市共建、借势率先发展的紧迫感不强，与省医学中心建设工作协调推进组、市指挥部成员单位沟通交流少，“三驾马车”未能形成有效合力，“等靠要”思想突出，主动性欠缺，很多工作更多的是依靠市委市政府领导和市医学中心建设指挥部协调推动。特别是三年多来，面对出现的因城投集团、槐荫区职责任务不同、对项目建设拆迁安置等重点工作存在认识上的差异，进而有时出现号令不统一、步调难同步的情况，没有充分发挥应有的牵头作用，及时主动进行协调、统一思想、形成共识，齐心协力解决遇到的困难和问题，而是站在医学中心建设指挥部办公室的角度，一般部署要求多、积极向上级反映情况少，怨天尤人多、帮助出主意想办法少，袖手旁观多、主动参与少，造成一些工作协而不调、推而不动，牵头作用逐步弱化，工作局面尚未彻底打开，问题越积越多，建设速度缓慢。特别是征地拆迁工作留有较大“尾巴”，在很大程度上影响了市委市政府重大决策部署的落实落地。', '建立通畅的联系机制。加强与省医学中心建设工作协调推进组和市指挥部成员单位的沟通交流，', '充分发挥市指挥部的作用。经与指挥部成员单位及医学中心参建单位沟通，印发《济南国际医学科学中心重点项目推进工作机制》，定期调度项目建设进展，了解存在问题，及时解决问题、推进工作。', '“一线、一片、多点”的建设布局，对医学中心重点项目建立计划台账，全力保障项目按计划进度推进建设', '协同推进解决手续办理、项目验收、北方公司注册等重大事项，为北方数据中心下半年建设进展取得重大突破提供了组织保障。在山东肿瘤医院质子临床研究中心项目中，制定周例会制度，会同山东省肿瘤医院、城投集团和建设单位，合力推进项目建设，目前该项目综合医疗楼正在进行土建收尾工作，质子区已完成质子设备吊装前的初步验收，下一步将启动质子设备吊装工作。', '工作。加大与槐荫区的沟通协调力度，建立隔天调度机制，督促槐荫区对片区内存在的拆迁难点、堵点进行逐一摸排建立台账，实现了山东第一医科大学', '2020年10月校园北区拆迁清零，有序推进施工建设，同时积极协调、推动医学大道大学段综合管线施工，为后续工作奠定基础。', '6月26日，省委常委、市委书记孙立成在济南国际医学科学中心建设指挥部《关于济南国际医学科学中心建设发展有关情况的报告》上批示：“在抓好在谈项目、签约项目、落地项目推进的同时，加快在重点打造几个看得见、摸得着、见实效的项目上集中攻坚，提振信心，接受中央检验。”7月8日、7月17日孙立成同志先后到医学中心调研和听取专项汇报后，明确指出医学中心要按照“一线一片多点”的重点项目布局，规划策划重点项目，加快推进建设发展。8月24日，巡察组在对医学中心建设部分重点工作推进情况进行下沉了解时，对医学中心党工委明确提出了加快推进的意见建议，但截至9月2日现场巡察结束，“一线一片多点”重点工程区域范围内未拆迁的部分仍未有进展。同时，已于4月2日开工的树兰（济南', '国际医院项目，因项目区域内拆迁遗留问题迟迟得不到解决，致使桩基工程被迫停滞，已逾期', '“一线一片多点”的重点项目布局，协调城投集团和槐荫区政府，规划策划山东大学国际医学中心、中科院齐鲁微生物', '，积极推进济南国际医学科学中心第四批项目集中开工，实现山东大学国际医院、山东大学高等医学研究院和齐鲁现代微生物技术研究院等重点项目', '加大与槐荫区的沟通协调力度，督促槐荫区对片区内存在的拆迁难点、堵点进行逐一摸排建立台账，制定对策，逐一研究，保障重点项目及时落地建设。', '重数量轻落地，招商引资的质量不高。一是签约项目落地少。三年来先后签订招商引资协议或达成落地意向项目有', '183个，但真正投入运营的还不足三分之一，在已启动征地建设的24个工程中，绝大多数是政府投资项目、基础设施建设类项目。二是部分签约项目流失。一方面，对开发建设时序认识不足、把握不够，项目载体各类“园中园”建设滞后，一些招商引资项目只能长期在精准医学孵化器临时过渡，并且孵化器现已满载，无力承担新的项目孵化或发展。另一方面，帮助落实和争取政策支持效果差。某技术研发项目，2019年初与医学中心签订意向，由于没有承载空间，也无承诺出资支持，项目至今仍未落地。世界领先的某科研项目，因无法给予其场地等政策支持，该项目最终落地其他地区', '加快产业载体建设。协调城投集团加快推进济南精准医学产业园、济南医疗健康科技创新产业园施工建设，搭建落地企业承载平台。目前济南精准医学产业园一期工程进展顺利，', '8栋单体建筑已封顶6栋，园区计划2021年5月举行开园仪式。济南医疗健康科技创新产业园一期工程10栋单体建筑4栋已完成封顶，园区计划2021年春节前完成所有单体建筑封顶工作。', '11万平方米今年三季度可陆续竣工交付使用，济南医疗健康科技创新产业园首期约17万平方米四季度可陆续交付使用，各类招商引资项目和精准医学孵化器内孵化成功的项目将落户两个产业园继续发展壮大', '多方考察、衔接、研判，城市之光、绿地、西进时代作为过渡载体，满足项目落地急需。目前，济南微生态生物医学山东省实验室、韩国新型微纳生物技术产业化制备天然活性分子项目、国家健康医疗大数据北方中心孵化器已落户于首诺', '·齐鲁之门打造“京沪会客厅”，将成为商务洽谈的新载体，并作为亟需物理空间的优质项目的备选场地之一。', '“边规划、边设计、边招商”的原则，北方健康医疗大数据科技有限公司与医学中心管委会协同推动园区策划和产业招商。截至目前，园区产业策划基本完成，已引入包括国家远程医疗协同平台、中国呼吸专科联合体信息化平台等在内的5大国家级平台，对接储备了45家企业合作项目，并与13家机构签订了合作框架协议，未来将基于北方中心成立健康医疗大数据产业联盟，', '北方中心数据赋能生物医药、医疗健康、康复养老等产业发展，打造健康医疗大数据产业生态闭环。', '并针对重点项目收集梳理适用政策、研究分类，并对项目建设过程中政策落实情况进行了跟踪问效。', '3月21日，济南市政府与树兰医疗管理股份有限公司签订《树兰（济南）国际医院合作协议》，济南国际医学中心管委会与树兰医疗管理股份有限公司签订《项目入园协议》。', '“第一责任人”责任落实有差距。党工委书记抓班子带队伍存在“失之于宽”“失之于软”的现象，与班子成员谈业务工作多、谈管党治党少，未将党的建设和党风廉政建设与业务工作同研究、同部署、同落实，特别是2017年以来，一直未专题研究过党风廉政建设工作。', '要求党工委班子成员与分管处室负责同志签订《全面从严治党责任书》，全体人员签订《廉洁自律责任书》，层层压实责任。坚持日常提醒、定期调度和检查考核相结合，', '“一岗双责”不到位。重业务、轻党建问题明显，对于分管处室业务工作指导督促多、党建工作过问少，对于分管领域出现的忽视党的建设问题，“睁一只眼闭一只眼”，没有形成压力传导机制。', '“一岗双责”的过程中，以“看好自家门，管好自家人”为原则，在做好分管业务工作的同时，确保党建工作同步开展。', '合理分配党建指导力量。按分管工作不同将班子成员组织关系转到各分管处室所在支部，分管领导在监督业务工作的同时组织党员干部广泛学习政治理论、党建理论，及时了解党员思想政治状态', '发挥班子成员在支部的骨干力量。班子成员与所在支部党员广泛开展谈心谈话、征求意见，指导和督促支委会制定了各支部党建年度工作计划、完善了党建制度。', '注重建立压力传导机制。在公务员平时考核中，将支部工作参与情况作为党员干部评分的重要指标，形成压力传导机制。', '三是制度建设滞后，执行不严。机关考勤、档案、国有资产和财务管理制度不够健全，文书档案没有分类、杂乱无序。政府采购、预算编制和执行不严谨，如：', '2019至2020年对宣传服务进行政府采购时，在专家论证环节没有严格执行关于评审专家回避的相关规定；财务会计与出纳一人兼，管委会法人章，党工委、管委会公章，财务公章及处室公章均由一人保管；会议经费报销附件不准确等问题较多，没有引起足够重视和及时解决。', '2020年10月下旬开展了一次查账式检查，对机关考勤、档案管理、国有资产和财务管理、会议经费报销等进行了一次专项监督检查，进一步明晰了整改任务，明确了整改时间。', '综合协调处安排专人负责文书档案分类整理编号，进一步修订完善机关请销假管理制度和考勤制度。综合协调处、财务与人才工作办公室针对公章管理、公务报销等方面的问题进行了深入整改', '明确资产管理员、实物管理员工作职责，安排专人对固定资产进行管理及监督检查，对医学中心的固定资产进行定期实物盘点。', '在资产划拨、资产借用、人事交接所导致的各项资产变动等重要环节严格做好交接手续，加强资产监管，确保资产安全完整', '细化各类管理制度，进一步完善和加强财务的管理和监督，规范财务支出报销程序，把好财务支出关', '对相关业务处室开展政府采购培训，强化采购人主体责任，对政府采购专家论证环节风险点进行', '对业务处室开展项目预算绩效管理工作培训，加强评估结果与预算安排的结合运用，提高业务处室的预算执行率', '对预算编制和执行方面进行相应规定，明确分工，确保预算编制合理合规，提高资金支出整体效益和效果', '对银行预留印鉴加强管理，对财务章和法人章采取印章双人分管、保险柜另行存放等措施，以确保印鉴安全', '定期召开碰头会，对财务人员提出更高标准、更严要求，加强核查力度，对不符合要求的凭证坚决退回不予处理', '四是纪工委监工委落实监督责任主动性不够。对如何针对医学中心承担的职责使命、现状和存在的问题，找准监督执纪问责的结合点缺乏深入研究，', '“四种形态”没有得到充分运用，“不敢监督、不愿监督、不会监督”的问题较为明显，特别是面对拆迁推进不力、项目建设缓慢等问题，未向党工委及时提出针对性建议，同级监督职能未能充分发挥。同时，开展警示教育不够，2020年1月，原直属企业部门负责人因酒驾受到党内警告处分，未在全体党员干部中予以通报和结合本单位身边典型案例开展警示教育。', '纪工委监工委持续改作风转作风，深挖细查无视中央八项规定精神等顶风违纪问题。坚持抓早抓小，综合运用好监督执纪', '“四种形态”，对苗头性、倾向性问题，采取约谈、函询、初核等处置方式，快查快结，使纪律规矩真正立起来、严起来。11月底，邀请市纪委市监委案件审理室', '“四风”问题尾大不掉。在安排部署工作中形式主义、官僚主义的问题仍然存在，以会议落实会议、以文件落实文件的问题没有较大改观；对奢靡之风抵制态度不坚决，在重要客商和外国客商接待时，要面子、讲排场，节俭节约意识不强。', '高质量完成，由多部门协调合作，按照事前申请、多处室联动、严格流程和标准的规则办事。首先递交预算申请至财务部门，审批通过后由综合协调处牵头安排，业务处室负责具体接待，严格按', '纪工委监工委进一步加大监督检查力度，扎实开展征求意见式暗访，在服务对象中征求工作作风等方面的问题，在官方网站和微信公众号上开设监督举报平台，进一步拓宽了线索来源渠道。', '“以人民为中心的发展思想”理解不深、把握不透，主动联系企业、服务项目的意识不强，帮助招商项目、人才团队排忧解难的能力不足。针对医疗卫生和医药监管这一特殊行业、领域，帮助企业争取政策和资金支持方面思路不开阔、工作不扎实、措施不到位，在与有关部门的沟通衔接上，不够积极主动，创造性执行政策、落实政策的能力弱、办法少。', '监工委进一步完善监督查处机制。在开展日常监督检查工作的同时，邀请医学中心片区内企业公司代表、媒体代表、群众代表作为监督员，充分发挥新闻舆论和群众的监督作用。', '考核指标体系，结合年底民主评议工作，充分运用民意调查、满意度测评等形式，切实加强对党员领导干部联系群众工作的动态考评。', '三是好大喜功思想依然存在。总结工作时，过分注重形象包装、宣传成绩，对困难、问题汇报少、暴露少，尤其对如何克服困难、破解矛盾抓得不实、重视不够。如，医生集团实现政策创新后，注重引入数量，但对如何引导其拓展业务、破解社会办医瓶颈，重视不够、研究不深、办法不多，政策创新的成效还有待进一步检验。', '切实加强政治学习，深入学习理解习近平总书记相关重要论述，自觉贯彻习近平总书记和省市委关于', '建立健全沟通协调机制。各参建单位及时沟通解决工作中遇到的问题。重大事项及时提报市项目建设指挥部和市政府，及时破解难题，推动工作。', '高度重视医生集团落地发展方面的问题，分类指导工作开展，帮助相关企业牵线搭桥，拓展业务，对', '1. 党工委领导班子自身建设抓得不够。敢为人先的精气神不足，敢于担当的魄力不够。在协调推动招商引资、项目落地等工作中依赖“牵线搭桥”多、“主动出手”少。面对医学中心取得的成绩以及存在的问题，小成即满和畏难发愁的两种倾向同时存在。有的自我满足、自我陶醉、自我欣赏，干事创业的劲头有所减退，也有的过分放大问题矛盾，对医学中心前途命运过分担忧，产生畏难发愁等消极情绪。', '11月份举办了“模范型机关创建动员会暨干部素质提升培训班”，对全体干部职工进行了政治思想、意识形态及业务理论的教育培训，激发医学中心党员干部积极进取精神和干事热情，增强了内生动力。', '加大学习调研力度。积极学习国内外先进地区和先进园区发展经验，引导干部职工加强横向对比，', '19名行政编制人员和靠购买劳务派遣服务的办法，难以满足日益繁重的工作需要。管委会成立至今未结合实际工作需要探索市场化公开招聘，高端人才引进通道迟迟没有打通，导致规划、招商、医学、大数据等方向的高水平人才奇缺。', '标海南博鳌乐城国际医疗旅游先行区、深圳前海深港现代服务业合作区改革先进经验，积极推进医学中心体制机制改革，探索医学中心创新发展新路径，拓展选人用人途径', '11月份举办了全体干部“模范机关创建动员会暨干部素质提升培训班”，对全体干部职工进行了政治思想、意识形态及业务理论的培训，强化党组织的核心力量，聚焦能力提升，推进事业发展；选派优秀干部积极', '2021年共同举办系列招商引资等业务培训班，开阔干部队伍眼界，进一步提高业务水平和工作能力。', '3个党支部，其中，2个支部党员人数均超过7人，仅有支部书记1人，未配备支部委员。二是党员所在支部与实际工作处室相互交叉，党支部开展活动与处室业务工作经常出现脱节，未根据实际情况对党支部设置及时进行调整。三是党工委成立至今，一直没有设立党费收缴专户。', '2020年12月底全面完成，综合协调处党支部选举产生支部书记一名，支部委员2名；投资促进处、规划建设协调处党支部各产生支部书记一名。各支部均建立起了完善的组织体系。三', '党费收缴专户受种种客观因素影响暂时无法设立。目前正在积极协调上级组织部门，加快落实专用收缴账户。', '“完成任务”“交差”的错误认识，存在材料整改、书面整改、数字整改的情况。整改效果不好。没有通过整改解决同类、同领域问题，没有形成长效机制。有的整改事项长期未能得到整改', '“完成任务”“交差”等错误认识加强教育引导，召开工作座谈会，本着有则改之无则加勉的原则，从分管领导、责任处室负责同志到具体工作人员，认真对照检查，主动思考存在问题，切实提高工作责任心。', '针对主题教育检视问题，把主题教育整改职责清单具体落实到岗、到人，建立主题教育问题督导台账', '。在完善财务管理制度基础上，优化工作流程，加强财务人员业务培训，提高各类报销凭证附件的审核标准和质量，对不符合要求的凭证坚决退回不予处理，不断提高财务管理工作的制度化、规范化、科学化水平。', '把巡视整改和全面自查自纠工作作为自我监督、自我管理、自我完善的重要手段。切实加强思想政治教育，开展经常性学习新《中国共产党章程》和党规党纪等活动，认真学习《准则》《条例》和习近平总书记系列重要讲话精神，全面落实管党治党主体责任。同时，加强廉政建设，始终将纪律规矩挺在前面，把握红线、守住底线，努力做到不逾规、不越矩，树立医学中心干部队伍良好形象。', '认真贯彻落实决策部署，深入推进作风建设，深入了解整改进展情况，着重发现问题。对发现的问题，即时办理、跟踪问效、限时办结，及时向上级', '报告整改结果。同时，认真进行总结分析，加大结果运用，对普遍性、规律性问题，提出意见建议，建立完善长效机制；对突出的问题，要重点整改，追责问责，确保责任落实', '坚持立足长远、举一反三，针对巡察反馈的问题和意见，找准共性问题，有针对性地强化权力制约，着力在制定和完善一批管长远、治根本的有效制度上下功夫', '健全完善一系列管理制度机制，坚持用制度管权、管事、管人、管物，固化整改工作成果，实现管理制度化、程序规范化、考评科学化，从源头上防止和杜绝各类违纪违法现象的发生，为全面深化', '“一线、一片、多点”重点项目布局，加大工作力度，扎实做好片区重点项目建设的协调服务工作', '欢迎广大干部群众对巡察整改落实情况进行监督。如有意见建议，请及时向我们反映。联系方式：电话']</t>
         </is>
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A149" t="n">
+        <v>129</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
           <t>济南市气象局年全市气象工作会议工作报告</t>
         </is>
       </c>
-      <c r="D149" t="inlineStr">
+      <c r="E149" t="inlineStr">
         <is>
           <t>2021-02-26</t>
         </is>
       </c>
-      <c r="E149" t="inlineStr">
+      <c r="F149" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2021/2/26/art_4150_4893354.html</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr">
+      <c r="G149" t="inlineStr">
         <is>
           <t>['这次全市气象工作会议的主要任务是，以习近平新时代中国特色社会主义思想为指导，学习贯彻党的十九大和十九届二中、三中、四中、五中全会精神，深入贯彻落实习近平总书记关于新中国气象事业70周年重要指示精神，认真落实全省气象局长会议和市委经济工作会议、市委农村工作会议精神，总结2020年工作成效，部署2021年工作任务，为“十四五”气象事业高质量发展开好局、起好步。', '这次全市气象工作会议的主要任务是，以习近平新时代中国特色社会主义思想为指导，学习贯彻党的十九大和十九届二中、三中、四中、五中全会精神，深入贯彻落实习近平总书记关于新中国气象事业', '2020 年，在省局和市委、市政府坚强领导下，全市气象部门坚持以习近平新时代中国特色社会主义思想为指导，全面学习贯彻习近平总书记关于气象工作重要指示精神，全面加强党的领导，加快气象科技创新和现代化建设，全力做好防灾减灾、疫情防控、重大服务保障，综合目标管理考核位列全省第二，荣获第十一届全省行业职业技能竞赛团体第二名，被市委、市政府评为全国文明城市创建工作先进集体，被省局评为全省预报业务管理先进单位、农气测报业务管理先进单位，“创造性落实台站搬迁政府交钥匙工程”被评为全省气象部门创新工作，获评', '坚持把习近平总书记对气象工作的重要指示精神作为根本遵循和行动指南，进一步坚定政治方向，不折不扣把党中央决策部署和省局党组、济南市委、市政府的工作安排落到实处，以实际行动坚决做到“两个维护”。将政治思想、意识形态工作纳入年内新出台制度或方案中。党组召开两次专题会议，分析研判，防微杜渐，纪检组加强监督检查，狠抓各党支部“最后一公里”专责落实。', '坚持把习近平总书记对气象工作的重要指示精神作为根本遵循和行动指南，进一步坚定政治方向，不折不扣把党中央决策部署和省局党组、济南市委、市政府的工作安排落到实处，以实际行动坚决做到', '加强线上阵地建设，党员活动室配备信息化设备设施，建立微信群等，抓好“关键少数”和全体党员的学习，加大研讨交流力度。党组中心组学习18次，省局史玉光局长等领导、专家专题辅导5次。全局职工利用“学习强国”“中国气象局远程教育网”等载体学习参与度100%。', '换届成立机关党委、机关纪委，配备专职副书记和两委委员，14个支部如期完成换届，党务干部全部由政治素质高、党性意识强、懂业务会管理、群众公认度高的优秀党员担任。层层制定全面从严治党责任清单，党组专题研究党建工作13次。', '继续完善全面从严治党制度体系，新增党员领导干部政治素质考察办法等5项制度和方案，修订了党支部标准化规范化建设考评办法和党员管理考评办法，进一步提高党建管理的标准化规范化水平，评选出4个“过硬党支部”和22名优秀党员。开展制度落实年活动，举办“学规章、守制度”知识竞赛，执行制度的自觉性、主动性不断增强。', '坚持“整改不落实，就是不讲政治，就是对党不忠诚”，切实担负起巡视整改政治责任，成立巡视领导小组，针对重点、难点问题成立5个工作专班，实行扁平化管理、项目化推进，召开9次党组会、13次领导小组会议，落实整改措施140条，目前完成135条，已完成 96.4%的整改任务。', '认真贯彻落实中央八项规定精神，持续整治“四风”，运用监督执纪“四种形态”提醒谈话5次，开展公务用车等5个方面专项督查整治，每季度召开党风廉政建设联席会议，开展第19个党风廉政宣传教育月活动，邀请市纪工委副书记作监督执纪能力提升辅导讲座。党组成员带头调研，形成调研报告8篇，被省局评为优秀调研报告1篇。在市委、市政府主办，市纪委、监委承办的大型电视问政节目中，公众打分列上镜单位第一；在驻济单位党风政风行风民主评议中位列第五；12345市民服务热线气象工作满意率100%。', '制定了干部队伍建设三年行动计划，明确未来三年具体目标、重点任务和保障措施等，严把政治关、廉洁关，以正确的用人导向引领激励干事创业和培养选拔优秀年轻干部。提任8名处科级领导干部、调任5名优秀干部充实到公务员队伍、5名公务员晋升职级、4名优秀干部挂职交流、5名处科级干部交流任职，后备干部储备情况明显好转。认真做好领导干部个人重大事项报告。完成干部人事档案整理工作。', '制定了干部队伍建设三年行动计划，明确未来三年具体目标、重点任务和保障措施等，严把政治关、廉洁关，以正确的用人导向引领激励干事创业和培养选拔优秀年轻干部。提任', '党组印发《以政治建设为统领融入业务加强全市气象部门党的建设实施方案》，明确了融入业务抓党的“六大建设”重点任务，确定了人影中心、气象台、信息中心三个示范支部，分别打造“党建+人影服务”“党建+精细化预报预警”“党建+生态气象服务”“党建+智慧服务”，按照走在前列的要求先行先试，推进“党建+特色业务服务品牌”创建工作。确定了以党支部围绕一次微党课等“十个一”党的建设为抓手，开展规定动作与自选动作并举、有形又有神、神形兼备的支部能力建设工作。年内，举办7次知识竞赛，84名党员上了微党课，举办12次笔记展评，11名群众都有党员进行联系。初步实现了党建与业务同频共振、相互促进。市气象台党支部被市委组织部评为济南市“担当作为‘出彩型’好团队”，2个支部被市直机关工委评为“过硬党支部”，章丘区局被省局评为“全省气象部门第一批党建示范点”。', '在济南市第六届气象行业职业技能竞赛中，1人获“济南市五一劳动奖章”、3人获“济南市技术能手”称号。年内', '获国家级表彰4人次、省局表彰47人次、济南市表彰15人次。市局对评选的5名出彩党员予以表彰，对党员示范岗进行了挂牌。', '开展了道德讲堂宣讲、经典诵读、扶贫帮困、交通执勤、社区“双报到”、厉行节约制止餐饮浪费等活动。科普馆继续列入“全国文明城市”创建及验收中央文明办现场测评点，做到了零失分。全市气象系统6个创建单位保持省级以上“文明单位”称号。做好老干部工作。', '地面观测自动化全面业务运行。市政府投资2000万元建设的象山综合气象观测基地正式投入运行，设备运行稳定，弥补了我市大气垂直探测能力不足突出问题。顺利完成省局和中国局观测质量体系内审抽查。设备稳定运行率、到报率、数据可用率均为100%，地面观测综合指数得分99.98分。中国局观测司《综合气象观测工作信息》 2020年第3期刊登了我局的做法与成效。省局观测处将章丘高标准氢气房建设和商河探测环境保护的做法在全省推广。', '成立“十四五”规划编制领导小组和编制工作组，编制完成初稿，并积极对接市发改委将气象规划纳入全市专项规划目录。凝练了发挥优势、体现特色、更好的满足济南建设“大强美富通”现代化国际大都市服务需要的重点任务、重大项目。', '莱芜局建立“3423”常态化学习工作机制，特色生姜气象服务技术研究成果集成到“山东现代农业气象智能能业务支撑平台”；高新区局建设完成110平方米预报会商大平面，改造完成龟山站防雷、供电、环境整治工程，台站面貌得到较大提升；长清区局不断深化气象为农服务内涵，种粮大户送锦旗感谢人工增雨工作；济阳区局与济南广电签订《战略合作协议》实现电视全频道自动发布预警信号；章丘区局新址正式投入使用，建成全省一流台站；平阴县局象山综合观测基地被市科协命名为“济南市科普教育基地”；商河县局将气象探测环境保护工作落到实处。', '突出灾害性天气极端性、高影响性，有效发挥气象防灾减灾第一道防线作用，全市气象部门发布服务材料', '紧紧围绕防汛抗旱、大气污染防治、地质灾害等工作，加强与市园林局、市农业农村局、市城管局、市自然规划局等部门的合作，提供专业专项针对性气象服务。做好“两会”“春运”“中高考”“明湖秀”“文化旅游博览会”等重大活动气象服务保障。确保各项服务不断链、更有效。', '紧紧围绕防汛抗旱、大气污染防治、地质灾害等工作，加强与市园林局、市农业农村局、市城管局、市自然规划局等部门的合作，提供专业专项针对性气象服务。做好', '做好公众气象服务。通过网站、微博、微信等新媒体及时发布与公众生活息息相关的指数预报。将微信服务平台与智能网格预报产品对接，实现基于位置的气象服务。将智慧气象平台制作的预报预警、天气实况等最新产品推送到微信平台，实现定制服务、预警推送、交通气象等公众气象服务。', '全方位开展防雷安全监管。线上线下加大698家营业的易燃易爆危化企业执法检查监管力度和23家在济防雷装置检测公司的监督监管。线上依托“济南市防雷减灾社会监管平台”，动态监控提醒企业800余次，提高了全市防雷安全监管信息化水平和效率。线下通过“双随机一公开”现场检查8家防雷检测机构、25家防雷重点单位，施放气球巡查24次，最大限度避免了事故发生。', '为生态济南建设提供决策服务。开展城市热岛效应监测评估、植被覆盖监测评估，向市委、市政府呈报了《济南市2019年生态气候监测报告》，受到了市领导的高度重视，分管市长亲笔批示。依托市科技局社会民生重大专项，利用MODIS卫星遥感资料，开展土地利用、植被覆盖变化对济南地区、主城区、南部山区的降水、气温等气象要素的影响研究，已初步形成决策服务报告。开展趵突泉地下水位与不同涵养区降水相关研究，为保泉提出决策。发展生态修复型人影业务。认真贯彻国办关于推进人工影响天气工作高质量发展的意见，市人大将《济南市人工影响天气管理条例》立法工作列入2021年市人大常委会调研类项目。完善人影综合业务指挥系统，增加作业点信息交互功能，实现区县监控指挥分平台业务化；建成人影物联网智能管理系统，提升人影安全作业水平。实施增雨雪作业632轮次，发射火箭弹1077枚，燃放碘化银烟条835根。人影作业站点作业人员管理工作被省人影办在全省推广。', '为生态济南建设提供决策服务。开展城市热岛效应监测评估、植被覆盖监测评估，向市委、市政府呈报了《济南市', '按照市委、市政府《济南市2020年大气污染防治攻坚行动方案》要求，与市生态环境局联合印发《关于进一步加强业务合作实施意见的通知》，进一步强化数据共享、天气会商、定期交流、联合攻关等合作机制。与环保部门每日联合制作发布空气质量预报。遇有重污染天气时，加强会商分析研判，联合签署重污染天气预警5次。与市生态环境局联合召开重污染天气新闻发布会2次。加大了重污染天气预警科技攻关力度。实现了重污染天气自动相似离度分析和未来7天逐24小时6项污染物浓度预报。实现了基于格点的未来7天混合层高度预报。', '强化关键农时气象服务。开展春耕春播、夏收夏种、秋收秋种等关键农时季节气象服务，其中与农业农村局联合制作和发布《农业气象灾害影响预报》8期。参加济南市夏粮、秋粮产量联席会，提供前期气候概况和未来气候趋势预测，为产量预估提供决策依据。全力开展防雹作业，发射高炮弹542发，高炮防区内未出现雹灾。加强农村气象灾害预警能力，强化突发灾害性天气短时临近预报预警服务，及时提高措施建议的针对性。做好农业气象科研攻关。建立“现代农业气象服务创新团队”，组织开展平阴玫瑰、章区大葱、商河大蒜、莱芜生姜等“一县一品”农业气象服务技术研究，为当地提供特色服务。《济南商河大蒜冬季双膜覆盖增温增效技术》被中国局减灾司收录到《农业气象适用技术汇编》。做好第一书记驻村帮扶。选派优秀干部驻村帮扶，认真履行第一书记抓村党建职责，完善党建各项规章制度，推动村两委发挥班子带动作用。推动全镇首个党支部领办专业合作社，建立“龙头企业+合作社+基地+农户”发展模式，注册了小米“金谷泉香”商标，小米已经走进商超，村集体经济和农民增收初步显现。市局走访慰问贫困户。', '强化关键农时气象服务。开展春耕春播、夏收夏种、秋收秋种等关键农时季节气象服务，其中与农业农村局联合制作和发布《农业气象灾害影响预报》', '继续优化“你不用跑，我来跑”“零跑腿”事项。1项“你不用跑我来跑”、3项“零跑腿”。气象灾害证明由线下“一次办”转为线上服务 “零跑腿”。根据《济南市政务服务事项标准化清单公布实施方案》有关要求，梳理47项政务服务工作标准化流程。行政事项办结率、群众评议满意率均为100%。', '地方财政经费有所增加。干部与人才培养继续纳入地方相应体系中。1人参加了市委党校培训；继续与市总工会、人社局、妇联联合举办技能竞赛；1人参加市总工会组织的疗养。所需经费由市财政统筹。', '同志们，以上成绩的取得，是省局党组和市委、市政府正确领导的结果，是各级党委政府和有关部门大力支持的结果，是全市气象干部职工团结一心、共同努力的结果。在此，我代表市局党组对全市气象干部职工付出的艰辛劳动表示衷心的感谢！', '虽然我市气象事业在过去的一年取得了长足的发展，但还存在一些问题，一是落实习近平总书记对气象工作的重要指示精神还不到位，体现在气象预报服务产品的智能化、精细化程度不够高，针对性还不够强等；二是部分区县局领导班子还不健全；三是高层次领军人才和学科带头人匮乏的局面仍没有得到明显改善。', '2021年是中国共产党成立100周年，是实现“两个一百年”奋斗目标的历史交汇期，也是“十四五”规划开局之年。全年工作的总体要求是：', '以习近平新时代中国特色社会主义思想为指导，全面贯彻党的十九大和十九届二中、三中、四中、五中全会精神，深入学习贯彻习近平总书记关于气象工作重要指示精神，认真落实全省气象局长会议和市委经济工作会议精神，继续坚持“强管理、补短板、抓重点、促发展”的工作思路，大力推进“1+743”工作体系，努力做到监测精密、预报精准、服务精细，不断提高气象服务经济社会高质量发展的能力和效益，为推进“十四五”期间济南气象事业高质量发展开好局、起好步。', '以习近平新时代中国特色社会主义思想为指导，全面贯彻党的十九大和十九届二中、三中、四中、五中全会精神，深入学习贯彻习近平总书记关于气象工作重要指示精神，认真落实全省气象局长会议和市委经济工作会议精神，继续坚持', '一是下发《济南市气象部门党组理论学习中心组2021年理论学习意见》，加强全年中心组学习研讨和调查研究。坚持把学习习近平新时代中国特色社会主义思想作为首要政治任务，以“学懂”为根本、“弄通”为关键、“做实”为目标，持续开展大学习、大培训。二是开办“气象大讲堂”，局领导带头讲党课不少于两次，支部书记跟进讲党课至少讲一次，党员主动讲党课至少一次，专家学者随时讲。三是聚焦理想信念，开展每月读一本书活动。四是', '全党开展党史学习教育，是党的政治生活中的一件大事。一要加强组织领导。切实把党中央部署和要求落到实处。党员、干部不管处在哪个层次和岗位，都要全身心投入，做到学有所思、学有所悟、学有所得。二要树立正确党史观。准确把握党的历史发展的主题主线、主流本质，旗帜鲜明反对历史虚无主义，加强思想引导和理论辨析，更好正本清源、固本培元。三要把学习党史同总结经验、观照现实、推动工作结合起来，同解决实际问题结合起来，防止学习和工作“两张皮”。四要注重方式方法创新。坚持集中学习和自主学习相结合，坚持规定动作和自选动作相结合，广泛开展党史、新中国史、改革开放史、社会主义发展史宣传教育，普及党史知识，开展党性锻炼、演讲比赛等多种形式活动。', '全党开展党史学习教育，是党的政治生活中的一件大事。一要加强组织领导。切实把党中央部署和要求落到实处。党员、干部不管处在哪个层次和岗位，都要全身心投入，做到学有所思、学有所悟、学有所得。二要树立正确党史观。准确把握党的历史发展的主题主线、主流本质，旗帜鲜明反对历史虚无主义，加强思想引导和理论辨析，更好正本清源、固本培元。三要把学习党史同总结经验、观照现实、推动工作结合起来，同解决实际问题结合起来，防止学习和工作', '一是进一步修订济南市气象局模范机关建设实施方案，重点对领导干部、内设机构、党员、普通群众等分层次有侧重提出“六个模范”的建设要求。二是各单位都要结合本单位实际制定实施意见，每个单位都要开展1-2项模范机关建设亮点工作。三是市局成立模范机关建设考评小组，制定考核办法，评出模范机关先进单位和个人。', '一是进一步修订济南市气象局模范机关建设实施方案，重点对领导干部、内设机构、党员、普通群众等分层次有侧重提出', '“过硬党支部”“示范党支部”创建工作。争取1-2个支部被市直机关工委评为示范支部。机关党委委员所在支部要建成市局“过硬党支部”。', '抓好《济南市气象局党支部标准化规范化建设考核办法》《济南市气象局党员考评管理办法》', '四要抓好党建阵地建设和气象文化建设，选树先进典型，以身边先进为榜样，汇聚事业发展动力源。', '一是继续打造“党建+业务品牌”，各支部都要制定具体措施，突出亮点、打造特色。二是确定气象台支部、人影中心支部、信息中心支部、办公室支部、人事处支部为“党建业务融合示范支部”，五个示范支部要制定具体实施措施，通过扎实过硬工作，切实起到示范引领作用。其他支部也要结合实际，采取得力措施，融入业务加强党建工作。三是继续开展“深化岗位练功，争做出彩党员”活动。四是继续抓好', '通过全市党风行风政风民主评议、作风监督面对面等活动，持续纠正“四风”。落实优化发展环境举措，不断推进机关效能建设。', '强化党组主体责任，始终把管党治党责任扛在肩上、抓在手上，纪检组要强化监督责任，加强对党员干部的经常性监督和全方位管理。', '严格执行《济南市气象局考勤管理办法》《济南市气象局精神文明奖发放暂行办法》《济南市气象局党员考评管理办法》等制度，推进机关作风建设向严紧实转变。继续完善制度体系建设，切实增强制度执行力和制度约束力。', '要坚定政治方向，教育引导党员干部把“两个维护”作为最根本的政治纪律和政治规矩，立足新发展阶段、贯彻新发展理念，构建新发展格局，凝聚正能量，坚决把好意识形态主阵地，', '围绕庆祝中国共产党成立100周年，培育和践行社会主义核心价值观，深化公民道德建设，开展道德讲堂宣讲、经典诵读、扶贫帮困、志愿服务、“双报到”等常态化文明创建活动，大力弘扬立足本职、爱岗敬业的职业道德以及“准确、及时、创新、奉献”的气象精神。将文明创建与党建工作协同推进，更好发挥好党建引领和省级文明单位示范作用。', '加快研究型业务建设，以生态气象服务和一县一品特色农业气象服务为研究型业务试点，开展卫星遥感、特色作物服务指标等相关技术研究，提高其服务质量。加强重点技术科研攻关，充分发挥三个科研团队作用，重点做好智能网格预报订正和气象服务智能化技术研究。加强业务人员能力建设。以赛代训，组织好第七届全市气象行业职业技能竞赛，积极备战全省气象行业职业技能竞赛。完善智慧+气象服务系统建设，基于智能网格预报，开展用户行为自动感知、基于位置和场景、精准推送的公众气象服务，建立“智能处理、智慧运行、即时应用”为一体的智慧气象服务。争取更多项目支持，围绕生态立市、大气污染防治、乡村振兴、城市安全、突发事件应急保障等地方服务需求，完成年度自立课题和省局课题济南专项立项。通过召开科研课题技术交流会、邀请专家现场指导、定期督促调度等方式加强在研课题管理，提高科研课题质量。积极申报中国气象局、省气象局和济南市的课题，积极参加省气象局研究与开发应用奖评选。', '加快研究型业务建设，以生态气象服务和一县一品特色农业气象服务为研究型业务试点，开展卫星遥感、特色作物服务指标等相关技术研究，提高其服务质量。加强重点技术科研攻关，充分发挥三个科研团队作用，重点做好智能网格预报订正和气象服务智能化技术研究。加强业务人员能力建设。以赛代训，组织好第七届全市气象行业职业技能竞赛，积极备战全省气象行业职业技能竞赛。完善智慧', '加强地面观测业务自动化，完成6个国家级自动站冻土自动观测仪的安装运行；做好综合观测系统的运行维护、观测设备的核查检定；继续做好观测质量体系业务运行工作，做好年度观测质量体系内审及内审员培训；做好网络日常维护和安全管理，提升气象信息传输能力，升级省市气象宽带网，提升省市气象信息的传输时效；提高章丘高空和龟山酸雨观测质量。加强智能网格预报业务，加强常规要素和灾害性天气的数值预报检验，提升全球模式和区域模式的解释应用能力和偏差订正能力；完善1～7天网格预报加密订正流程；制定气象微信平台、市政府网站气象专栏、市大数据平台等数据质量控制流程，加强对外服务智能化建设。加强短时临近预报业务，加强暴雨、强对流等灾害性天气机理研究，探索改进雷达外推算法。基于济南智能网格预报服务平台和济南灾害性天气短临预警平台，形成主客观融合预报方法，提升网格预报更新频次，细化短时临近预报预警业务的空间分辨率，逐步开展基于格点预报的强降水分区预警。', '提升灾害性天气监测预报预警能力，加强天气监测和会商研判，加强双偏振雷达、风廓线雷达、微波辐射计、云雷达、', '全年坚持“三有三就”增雨工作措施，不放过任何适宜增雨的天气过程。开展南部山区碘化银燃烧炉业务实验，提高泉水补给区水涵养能力和生态修复能力。落实新实行的规范标准，完善全市地面作业站点运行标准化建设。谋划人影高质量发展三年行动计划，进一步优化完善全市人影管理体系。实行全市人影钉钉考勤月通报制度，全市弹药物联网管理业务化，出台新版全市人影规章制度汇编。', '做好一县一品特色农业服务，各区县局以“一县一品”特色农业气象服务为重点，做好特色直通式气象服务。做好农业气象灾害预警服务，不断完善和农业、林业等部门的会商机制，做好灾害性天气对农作物、果树等影响的专项预报服务。做好关键农时农事气象服务，细化各类作物不同生育期预警指标，实现基于智能网格预报的灾害性天气自动报警、建议提醒和直通服务，做好春播、麦收、秋收秋种等专项气象服务，提高为农服务智能化水平。继续做好第一书记驻村帮扶工作。', '制定安全生产工作要点，扎实开展“安全生产月”活动，聘请专业资质公司对预警中心大楼进行消防安全隐患排查，持续开展安全隐患风险排查及整改。严格执行预警中心办公楼水、电、暖、消防等设备设施安全巡检制度及地震、反恐防暴、火灾事故等应急预案，做好科普馆等人员密集区、特种设备、用火、用电、用气、用氢等各方面的安全生产工作，做好突发事件应急响应及信访维稳应急处置工作。', '做好防雷和施放气球安全社会监管，落实企业防雷安全主体责任和气象部门监管责任。及时更新防雷减灾社会监管平台，利用平台实时监控优势，对企业进行有效期提醒，努力做到服务型执法监管，进一步优化营商环境。强化人工影响天气安全管理。积极与市人大、市司法局沟通，做好《济南市人工影响天气管理条例》立法调研工作。', '围绕济南大强美富通现代化国际大都市建设需求，对现有观测站网开展评估，优化调整站网布局，建设城市微气候观测网和部分生态气象服务观测站，提高气象应急观测能力和信息网络保障能力，满足济南城市防灾减灾、生态文明建设、乡村振兴、交通旅游等精细化服务需求。', '围绕济南智慧城市建设，调研分析决策服务用户、行业服务用户以及社会公众气象服务需求；加强技术攻关，基于智能网格预报，深化与应急管理、生态环境、交通运输、农业农村、电力、旅游等重点行业合作，提高基于影响的气象灾害风险预报预警能力；打造济南智慧气象服务品牌，为公众提供数字化、精细化、更直观、更便捷的气象服务。', '在前期硬件建设取得显著成效的良好基础上，对标监测精密、预报精准、服务精细目标要求，充分发扬章丘区委区政府提出的新时代闯关东精神、铁匠精神和儒商精神“三大硬核”精神，以党建引领、文化铸魂、业务夯基、科技与人才支撑、服务优质等台站软实力的增强为重点，加强顶层设计，科学谋划未来三年的重点任务、进度安排和保障措施，力争通过三年的努力，建成政治过硬、业务领先、作风顽强、文化先进、服务优质、环境优美的全国一流台站。', '在前期硬件建设取得显著成效的良好基础上，对标监测精密、预报精准、服务精细目标要求，充分发扬章丘区委区政府提出的新时代闯关东精神、铁匠精神和儒商精神', '围绕近自然山体景观与科技一体的现代化综合气象观测基地建设目标，充分发挥玫瑰种植园优势，将气象观测设备与玫瑰园有机结合，打造地方特色服务品牌；明确象山综合观测基地科普定位，丰富科普展示内容，增加科普标识牌，提升科普智能化水平；加强象山与地面观测站的相互融合，提高院落建设的协调统一性；完善基础设施建设，绿化、美化、优化基地，提升基地颜值。', '一是增强法治意识，提升依法依规办事能力。认真学习习近平法治思想，牢固树立法治思维，开展学习《民法典》等普法教育，处科级领导干部要带头学法、懂法、用法，强化规矩意识、程序意识，对重大问题、难点问题要善于从底线、红线、风险以及法治角度处理问题和解决问题。二是进一步完善制度体系建设。修订完善部分制度，重新编印管理制度汇编。三是继续强化督查督办。市局党组决策部署、重点任务完成情况、阶段性目标、预算执行等工作任务，继续实行月调度、半年通报，对合同管理、考勤管理等制度落实情况开展专项督查。四是完善综合目标管理考核。将重点工作纳入综合目标考核，加大考核力度，确保年度重点工作和综合目标任务圆满完成。五是继续推进无纸化办公。将党组行文、请示件及大额资金支付申请等纳入气政通统一流转，提高工作效率。', '积极推进济南市气象部门干部队伍建设三年行动计划和人才队伍建设三年行动计划,严格执行《党政领导干部选拔任用工作条例》等规定, 加强对优秀年轻干部的提拔使用，加强领导班子建设，着力培养忠诚干净担当的高素质干部队伍。', '紧紧围绕重大战略气象服务保障和气象现代化建设需求，以高层次人才培养为重点，统筹推进济南气象人才', '加大创新团队建设力度，按照上级要求和安排，稳步推进事业单位改革，合理调配事业编制人员。', '以党和国家对气象事业的更高期待、更高要求为目标，在省局党组和市委、市政府坚强领导下，不忘初心再出发，牢记使命勇担当，', '站在新起点，展现新作为，努力推进济南气象事业高质量发展，为打造“五个济南”、建设“大强美富通”现代化国际大都市，加快建设新时代现代化强省会贡献气象力量！']</t>
         </is>
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A150" t="n">
+        <v>129</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
           <t>济南市人民政府办公厅关于印发济南市国防教育基地命名管理办法的通知</t>
         </is>
       </c>
-      <c r="D150" t="inlineStr">
+      <c r="E150" t="inlineStr">
         <is>
           <t>2020-11-11</t>
         </is>
       </c>
-      <c r="E150" t="inlineStr">
+      <c r="F150" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2020/11/11/art_114273_4943479.html</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
+      <c r="G150" t="inlineStr">
         <is>
           <t>['第一条 为进一步加强和规范全市国防教育基地建设，推动全民国防教育普及深化、创新发展，根据《中华人民共和国国防教育法》《国防教育基地命名管理办法》规定，结合本市实际，制定本办法。', '第四条 国防教育基地是指具备国防教育功能，并经各级政府命名的国防教育场所。按照功能作用主要分为缅怀纪念、观摩学习、开展军事训练三种类型；按照主题内容、建设规模和影响效应分为国家、省、市、区县四个等级。主要包括以下场所：', '（一）用于缅怀纪念的场所。包括各类纪念馆、纪念地、领袖故居、烈士陵园、革命和历史遗址等。', '（二）用于观摩学习的场所。包括博物馆、科技馆、文化馆、青少年宫、国防园、兵器馆、部队荣誉（军史）馆等。', '第五条 国防教育基地应当国防特色鲜明、功能设施配套、机构制度健全、作用发挥明显，有较强的示范教育作用，符合《中华人民共和国国防教育法》第二十八条之规定，并具备以下基本条件：', '（一）主题内容鲜明。紧扣国防教育主题，弘扬爱国主义主旋律，具有思想性、知识性、可鉴赏性，有助于全民普及国防教育，增强国防观念，陶冶爱国情操。', '（二）管理规范有序。有专门的管理机构，有健全的规章制度，管理规范，运作有序，无不正当经营行为。', '（三）基础工作扎实。基本建设比较完善，配套设施齐全、更新及时，教育资料完整翔实，师资或者讲解员队伍素质较高，具有较强的吸引力和感染力。', '（五）社会效果显著。经常开展各种形式多样、丰富多彩的国防教育活动，并产生良好的社会影响。', '第六条 各级国防教育办公室负责考察具有国防教育功能的场所，并报请本级政府命名为相应等级的国防教育基地，每3年命名一批。', '（一）书面申报。各申请单位征得主管部门同意后向所在区县国防教育办公室提出书面申请。', '（二）审核上报。区县国防教育办公室审核后，由本级政府推荐，报市国防教育办公室。中央、省驻济单位，驻济部队，市直部门和单位管理的，由相应管理单位推荐报市国防教育办公室。', '（三）评估审定。市国防教育办公室会同宣传、党史、教育、财政、文化和旅游、退役军人事务、济南警备区等有关部门和单位对申报单位进行综合评审，初步确定命名名单，并在媒体上进行公示，公示期为5日。', '（四）批准命名。市国防教育办公室将公示无异议的命名名单报市政府批准后，以市政府名义正式命名为济南市国防教育基地，授予牌匾，颁发证书。', '第八条 全市各级国防教育基地应统一编号，并按照等级分别悬挂“国家国防教育示范基地”“山东省国防教育基地”“济南市国防教育基地”“XX区（县）国防教育基地”牌匾。省、市、区县国防教育基地编号办法、牌匾样式规格由市国防教育办公室按上级要求统一规范。区县国防教育基地牌匾，由区县国防教育办公室按照市国防教育办公室规定的统一格式制作发放。国防教育基地编号办法、牌匾样式规格另行规定。', '第九条 国防教育基地命名应当坚持标准，注重实效，保证质量，实行动态管理。国家和省国防教育示范基地应当从已命名的市国防教育基地中遴选，由市国防教育办公室按照有关规定和程序择优推荐。市级国防教育基地应当从区县命名的国防教育基地中择优遴选或直接评选。', '第十条 国防教育基地是开展全民国防教育的重要阵地，应当坚持建用并重的原则和巩固、提高、发展、创新的方针，不断加强基础建设，完善配套设施，丰富教育形式，创新展示手段，充分发挥国防教育功能，促进全市国防教育深入开展。', '第十一条 国防教育基地应当坚持公益性原则，将社会效益放在首位，为公民接受国防教育提供便利，对有组织的国防教育活动实行优惠或者免费，对现役军人、革命伤残军人、退役军人和有组织的中小学生免费开放。', '各级国防教育基地在“八一”建军节、抗战胜利纪念日、烈士纪念日、国家公祭日、全民国防教育日等重要节日、纪念日期间，应当紧密结合自身实际，认真组织开展主题鲜明、形式多样的国防教育宣传活动，并向社会免费开放。', '第十二条 国防教育基地实行属地化管理。市、区县国防教育办公室应当不定期对本行政区域内国防教育基地进行指导和监督，对组织开展国防教育工作不力或者发生问题造成不良影响的，及时予以批评指正并限期整改。', '第十三条 市国防教育办公室应当定期组织有关专家对国防教育基地建设和管理工作进行指导，组织经验交流和管理人员培训，提高基地建设和管理水平。', '第十四条 市国防教育办公室应当组织有关部门和单位每年对国防教育基地进行1次抽查，并通报抽查情况。', '第十五条 已命名的国防教育基地，建设管理水平持续提升、发挥作用明显增强的，可逐级推荐上报，经上一级国防教育办公室考察审核后，由上一级政府升级命名；建设管理水平严重下降、实际作用发挥不好，甚至出现违法违规问题，不具备本办法第五条规定条件的，由市国防教育办公室报请市政府撤销命名，并向社会公布。其中，已被命名为国家或省国防教育示范基地的，市国防教育办公室应当按有关程序报请国家国防教育办公室或省国防教育办公室撤销命名。撤销命名应与命名一并实施，特殊情况下可随时实施。', '第十六条 市、区县国防教育办公室应当结合国防教育基地考察和命名，对成绩突出的本级国防教育基地进行表扬，通常2-3年表扬1次，所需经费列入本级国防教育经费预算。', '第十七条 鼓励社会组织和个人提供或者捐赠所收藏的具有国防教育意义的实物，用于国防教育基地开展国防教育活动。国防教育基地对所接收的实物应当妥善保管，使用完毕后及时归还。', '第十八条 国防教育基地开展国防教育活动申请使用部队退役装备的，由市国防教育办公室按照有关规定和程序办理。']</t>
         </is>
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A151" t="n">
+        <v>129</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
           <t>济南市国防教育基地命名管理办法政策解读</t>
         </is>
       </c>
-      <c r="D151" t="inlineStr">
+      <c r="E151" t="inlineStr">
         <is>
           <t>2020-11-11</t>
         </is>
       </c>
-      <c r="E151" t="inlineStr">
+      <c r="F151" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2020/11/11/art_2607_4762372.html</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
+      <c r="G151" t="inlineStr">
         <is>
           <t>['当前，国家国防教育办公室出台的《国防教育基地命名管理办法》，仅对省级以上国防教育基地命名管理进行了规范，未对地市、区县级国防教育基地命名管理进行明确。为进一步加强和规范全市国防教育基地命名管理，推动新时代全民国防教育深化普及、创新发展，根据《中华人民共和国国防教育法》《国防教育基地命名管理办法》《山东省国防教育条例》有关规定，结合我市实际，制定出台了《济南市国防教育基地命名管理办法》。', '国防教育基地是具备国防教育功能，经各级命名的国防教育场所，是普及和加强国防教育、增强全民国防观念的有效载体和依托。按照功能作用主要区分为缅怀纪念、观摩学习、开展军事训练三种类型，按照主题内容、建设规模和影响效应区分为国家、省、市、区县四个等级，主要包括以下场所：', '（一）用于缅怀纪念的场所。包括各类纪念馆、纪念地、领袖故居、烈士陵园、革命和历史遗址等。', '（二）用于观摩学习的场所。包括博物馆、科技馆、文化馆、青少年宫、国防园、兵器馆、部队荣誉（军史）馆等。', '国防教育基地应当国防特色鲜明、功能设施配套、机构制度健全、作用发挥明显，有较强的示范教育作用，符合《中华人民共和国国防教育法》第二十八条之规定，并具备以下基本条件：', '（一）主题内容鲜明。紧扣国防教育主题，弘扬爱国主义主旋律，具有思想性、知识性、可鉴赏性，有助于全民普及国防教育，增强国防观念，陶冶爱国情操。', '（二）管理规范有序。有专门的管理机构，有健全的规章制度，管理规范，运作有序，无不正当经营行为。', '（三）基础工作扎实。基本建设比较完善，配套设施齐全、更新及时，教育资料完整翔实，师资或者讲解员队伍素质较高，具有较强的吸引力和感染力。', '（五）社会效果显著。经常开展各种形式多样、丰富多彩的国防教育活动，并产生良好的社会影响。', '国防教育基地是具备国防教育功能，经各级人民政府命名的国防教育场所。市国防教育办公室具体负责全市国防教育基地的命名管理工作。', '各级国防教育办公室考察具有国防教育功能的场所，报请本级人民政府命名为相应等级的国防教育基地，每3年命名一批。', '（一）书面申报。各申请单位征得主管部门同意后向所在区县国防教育办公室提出书面申请。', '（二）审核上报。区县国防教育办公室审核后，由本级人民政府推荐，报市国防教育办公室。中央、省驻济单位，驻济部队，市直部门和单位管理的，由相应管理单位推荐报市国防教育办公室。', '（三）评估审定。市国防教育办公室会同宣传、党史、教育、财政、文化和旅游、退役军人事务、济南警备区等有关部门和单位对申报单位进行综合评审，初步确定命名名单，并在媒体上进行公示，公示期为5日。', '（四）批准命名。市国防教育办公室将公示无异议的命名名单上报市政府批准后，以市人民政府名义正式命名为济南市国防教育基地，授予牌匾，颁发证书。', '1.国防教育基地实行属地化管理。市、区县国防教育办公室不定期对本行政区域内国防教育基地进行检查,对组织开展国防教育工作不力,或者发生问题造成不良影响的国防教育基地,及时给予批评指导并限期整改。', '2.市国防教育办公室组织有关部门和单位每年对国防教育基地进行1次抽查,并通报抽查情况。', '3.已命名的国防教育基地，建设管理水平持续提升、发挥作用明显增强的，可逐级推荐上报，经上级国防教育办公室考察审核后，由上级人民政府升级命名；建设管理水平严重下降、实际作用发挥不好，甚至出现违法违规问题，不具备本办法第五条规定条件的，由市国防教育办公室报请市人民政府撤销命名，并向社会公告。其中已被命名为国家和省国防教育示范基地的，市国防教育办公室应当按有关程序报请国家国防教育办公室和省国防教育办公室撤销命名。撤销命名通常与命名一并实施，特殊情况下可随时实施。', '国防教育基地是开展全民国防教育的重要阵地，应当坚持建用并重的原则和巩固、提高、发展、创新的方针，不断加强基础建设，完善配套设施，丰富教育形式，创新展示手段，充分发挥国防教育功能，促进全市国防教育深入开展。', '国防教育基地应当坚持公益性原则，把社会效益放在首位，为公民接受国防教育提供便利，对有组织的国防教育活动实行优惠或者免费，对现役军人、革命伤残军人、退役军人和有组织的中小学生免费开放。', '全市国防教育基地统一编号，按照等级分别悬挂“国家国防教育示范基地”“山东省国防教育基地”“济南市国防教育基地”“XX区（县）国防教育基地”牌匾。省、市、区县国防教育基地编号办法、牌匾样式规格由市国防教育办公室按上级要求统一规范。各级国防教育基地的牌匾，由同级国防教育办公室按照市国防教育办公室规定的统一格式制作发放。国防教育基地编号办法、牌匾样式规格另行规定。', '1.侵占、破坏国防教育基地设施、损毁展品的，由有关主管部门给予批评教育，并责令限期改正；有关责任人应当依法承担相应的民事责任。违反治安管理规定的，由公安机关依法给予治安管理处罚；构成犯罪的，依法追究刑事责任。', '2.寻衅滋事，扰乱国防教育工作和活动秩序的，或者盗用国防教育名义骗取钱财的，由有关主管部门给予批评教育，并予以制止。构成犯罪的，依法追究刑事责任。', '3.挪用、克扣国防教育经费的，由有关主管部门责令限期归还；对负有直接责任的主管人员和其他直接责任人员依法给予行政处分；构成犯罪的，依法追究刑事责任。']</t>
         </is>
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A152" t="n">
+        <v>129</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
           <t>济南市人民政府关于印发提质培优建设济南职业教育创新发展高地实施方案的通知</t>
         </is>
       </c>
-      <c r="D152" t="inlineStr">
+      <c r="E152" t="inlineStr">
         <is>
           <t>2020-08-24</t>
         </is>
       </c>
-      <c r="E152" t="inlineStr">
+      <c r="F152" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2020/8/24/art_2612_4578013.html</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr">
+      <c r="G152" t="inlineStr">
         <is>
           <t>['为贯彻落实《教育部山东省人民政府关于整省推进提质培优建设职业教育创新发展高地的意见》（鲁政发〔2020〕3号）精神，推进新时代济南职业教育高质量发展，结合我市实际，制定本实施方案。', '（一）工作体系。认真落实关于加快推进新时代济南职业教育改革发展的实施意见，积极对接部省共建国家职业教育创新发展高地工作任务，以更高站位做好顶层设计，以更实举措推进机制突破，以更大力度促进项目落实，构建“1＋247”工作体系，为推进新时代职业教育改革、完善现代职业教育体系蹚路子、树样板。', '——实现1个总体任务。对接济南三大国家发展战略需求，立足原有基础，坚持问题导向，围绕优化布局补短板，围绕产教融合破障碍，围绕办学水平抓提升，围绕机制创新占高地，力争三年内建成职业教育和普通教育并重、纵向贯通和横向融通并行的新时代职业教育体系，为建设“大强美富通”现代化国际大都市提供高素质技术技能人才支撑。', '——推动2项重点改革。支持职业院校开展股份制、混合所有制改革，鼓励支持社会力量通过独资、合资、合作等形式举办或参与举办职业院校，构建多元办学格局；推进绩效工资改革，落实职业院校在机构设立、岗位设置、人员招聘等方面的办学自主权，激发学校与教师的内生动力。', '——完成4大攻坚任务。破除职业教育“多头管理”“条块分割”的藩篱，建立部门统一管理的大职教格局；建立职业教育资源与产业布局同步规划、配置机制，推动职业教育与产业转型联动，技术技能人才培养与产业发展协同；建立技术技能人才供需资源平台，完善专业调控预警机制，促进人才培养供给侧和产业发展需求侧有机高效对接；推进校企深度融合，更好发挥企业育人主体作用，探索建立校企共同治理机制。', '——实现7个全面提升。实施高水平职业院校建设工程，职业院校办学层次和发展水平显著提升；实施教学提质专项行动，加快推进学分制改革，积极建设职业教育“学分银行”，职业院校教学质量显著提升；实施实习实训改进计划，建设大型智能（仿真）公共实习实训基地，实习实训效能显著提升；实施职教赋能计划，职业教育专业技能培训数量和质量显著提升；实施产教融合项目培育计划，校企合作水平整体提升；制定师资队伍建设规划，支持学校引进高层次技术技能人才，建设“双师型”教师培训基地，教师专业素质显著提升；举办“一带一路”职业院校高端论坛，打造一批高水平中外合作办学项目，职业教育国际化水平显著提升。', '（二）工作目标。到2022年，市域内职业院校基本办学条件全部达标；新建成1所共享性的大型智能（仿真）实习实训基地；“双师型”教师占比达到75%以上；全市职业院校在校生规模达到33.9万人，中职学校校均在校生规模达到2000人，高职院校达到19400人，基本普及高职教育；对接重点产业专业人才培养规模达到17.7万人，冠名班、订单班专业规模达到3.8万人。经过三年努力，基本建立起结构布局合理、专业设置科学、校企合作机制成熟、学校运行机制高效、保障政策完善、人才培养质量满足经济社会发展需求的新时代济南特色职业教育制度、体系和模式。', '1.完善职业教育管理机制。将发展职业教育纳入全市国民经济和社会发展总体规划，强化市域统筹,打破学校类型界限，跨部门、跨行业整合各类职业教育资源，优化资源配置，建立由部门统一牵头管理的工作机制。将按照高校设置程序进入高等学校序列的技师学院纳入高职（专科）统一招生平台。支持济南市技师学院、莱芜技师学院、山东蓝翔技师学院按程序纳入高等职业学校序列。', '2.构建多元办学格局。发挥企业重要办学主体作用，支持职业院校与大型国有企业联合举办职业大学、二级学院或产业学院。支持鼓励企业以购买服务、委托管理、合作共建等方式依法参与职业院校办学或举办职业院校。支持开展股份制、混合所有制办学改革试点，鼓励举办混合所有制性质的二级学院。允许通过PPP模式、融资贷款、土地置换等途径拓宽筹资渠道，构建政府统筹管理、社会多元办学格局。支持莱芜职业技术学院与北京中职教育科技集团有限公司共建山东省首家长者福祉学院，支持济南护理职业学院康养产业研究院建设。推动院校向企业购买技术课程和实训教学任务。支持政行企校四方合作，对接济南三大国家战略、国家中心城市建设和十大千亿产业，建设多元主体职业教育集团，探索以产业链、资产链、人才链等为纽带实施实体化运作。支持莱芜职业技术学院牵头成立全国文物修复与保护职业教育联盟。到2022年，建设2个省级示范性职教集团，争创国家级示范性职教集团。', '3.完善专业设置与调整机制。建立技术技能人才需求与供给资源平台，完善人力资源统计、预测、供求信息发布制度,健全职业教育专业认证、质量评价、专业预警调控机制，促进人才培养供给侧和产业发展需求侧全方位对接。定期编制职业院校专业结构与产业结构吻合度状况报告，发布职业院校专业设置“负面清单”，建立以专业评估结果为基础的排名机制。鼓励职业院校面向服务新旧动能转换、乡村振兴战略和十大千亿产业发展，主动布局一批产业需求大、发展前景好的专业，扶持涉农、家政服务专业。鼓励职业院校与行业企业按规定在目录外合作共建新专业、开发新课程、培养紧缺急需领域的技术技能人才。到2022年，重点培育和打造25个左右省级高水平中职专业（群）、12个左右省级高水平高职专业（群），遴选培育1000名“齐鲁工匠”后备人才。', '4.强化中等职业教育的基础地位。保持高中阶段教育职普比大体相当。支持济南第九中学、济南回民中学、长清中学、长清职专、济阳职专、章丘职专、济南艺术学校、济南旅游学校等开展职普融合试点，探索中职学校与普通高中学生学籍互转、学分互认，为学生实现多样化选择、多路径成才搭建平台。支持优质中等职业学校建设成为集中职教育、五年制高职教育、技术推广、劳动力转移培训和社会生活教育为一体的职业学校。', '5.建设一批高水平职业院校。支持济南职业学院、济南工程职业技术学院、莱芜职业技术学院、济南护理职业学院争创中国特色高水平高职院校和专业建设计划。支持济南幼儿师范高等专科学校、山东艺术设计职业学院升格为本科院校，支持山东工程职业技术大学开展本科层次职业教育试点工作，支持济南职业学院骨干专业试办本科层次职业教育。支持济南职业学院转设济南职业技术师范大学，支持莱芜职业技术学院、山东工程职业技术大学开办职业技术师范本科专业。支持济南职业学院、济南工程职业技术学院、莱芜职业技术学院、济南护理职业学院及其他民办职业院校与具有硕士学位授予权的应用型本科高校联合培养职业教育本科生、专业硕士。支持山东省文化艺术学校在我市新建山东文化艺术职业学院。积极争取应急救援国际学院项目落地济南。到2022年，创建省级高水平中职学校4～5所、国家高水平高职学校1～2所。', '1.实施教学提质升级专项行动。将质量意识贯彻教学、管理和人才培养全过程，全面推动国家和省级专业教学标准衔接落地。突出工学结合、知行合一、能力与资格并重,丰富、完善和普及项目教学、案例教学、情境教学、模块化教学等教学模式，按照专业设置与产业需求对接、课程内容与职业标准对接、教学过程与生产过程对接的要求，实现学历证书与职业技能等级证书课程融通。根据不同行业和工作岗位技能要求，科学调减学生文化理论课学习时间，增加实训和在企业实习实践时长，发展半工半读职业教育。完善市级职业院校教师技能大赛和教学能力大赛制度，支持市属职业院校承办全国、全省职业院校技能大赛。', '2.完善应用型人才培养体系。建立“春季中考”制度，制订职业教育考试招生改革实施方案，为学生依照兴趣和禀赋多样化选择、多渠道成才拓展路径。扩大中职与高职“3＋2”、中职与职业教育本科和应用型本科“3＋4”、高职与职业教育本科和应用型本科“3＋2”对口贯通分段培养，健全相互贯通的职业教育人才培养体系，让更多的中职学生有机会升入高职院校。', '3.建立职业教育教学资源共享平台。实施精品资源共享课建设计划，推进信息技术与教育教学深度融合。支持济南职业学院智能制造工程技术研发中心、智能电子与控制技术研发中心和莱芜职业技术学院粉末冶金应用技术协同创新中心、现代中草药开发应用协同创新中心建设。鼓励建设符合项目式、模块化教学需要的教学创新团队。加快推进职业教育“学分银行”建设，促进各类教育形式和终身教育间的学习成果认定、学分积累和转换。开展职业院校教学诊断和思想政治工作质量评估。到2022年，立项建设100门左右市级优质课程、3个省级职业教育专业教学资源库和300门在线开放精品课程、5所省级职业教育信息化创新与改革试点院校和1个试点区县。', '4.改进职业教育评价机制。开展职业院校办学水平评估，对不达标学校责令限期整改或停止招生，确保到2022年市域内职业院校基本办学条件全部达标。将第三方评价评估结果作为对相关院校政策支持、绩效考核、表扬奖励的重要参考。全面实施中职学生综合素质评价工作。自2020级新生起，建立全市中职学校“公共基础、专业理论测试+专业技能抽测”制度，落实中职学业水平考试制度。', '5.落实育训并举的法定职责。依法支持职业院校为开展企业培训、技术开发、咨询服务、继续教育、学术交流等活动变更业务范围。允许职业院校按照育训结合、长短结合、内外结合的要求，面向社会提供有偿服务，逐步实现年培训量达10万人次以上。实施职教赋能计划，在全市遴选基础条件好、专业特色明显的10所中职学校面向社会开展无偿专业技能培训试点。设立职业技能提升行动专账资金，对开展职业培训、以工代训、职业技能鉴定、互联网+职业技能培训以及国家和省规定的其他培训学校和机构给予补贴。加大对农村地区、东西协作对口支援地区职业教育的支持力度，集聚市内优质资源完成职业教育东西协作计划任务。允许职业院校将一定比例培训收入用于学校发展。', '1.深入推进校企合作。加快创建国家产教融合试点城市，促进校企深度合作，探索校企共同治理机制。开展市级产教融合型企业认证工作，落实“金融+财政+土地+信用”组合式激励政策，自2019年1月1日起，对纳入产教融合型企业建设培育范围的试点企业，兴办职业教育的投资符合规定的，按投资额的30%比例抵免该企业当年应缴教育费附加和地方教育附加。规模以上企业按职工总数的２％安排实习岗位接纳职业院校学生实习，建立接收学生实习实训成本补偿机制，探索通过政府购买服务等方式给予支持。将规模以上企业接收学生实习实训和开展职业教育情况纳入企业社会责任报告。支持济南职业学院、济南工程职业技术学院、莱芜职业技术学院等建设省级校企一体化合作办学示范校。职业院校开展生产服务性实习实训取得的勤工俭学收入，可提取一定比例支付学生劳动报酬。实施产教融合“145+X”项目培育计划，全面推行企业新型学徒制、现代学徒制和双元制改革，定期对“1+X”证书制度试点、订单制培养工作进行督导，建立教学过程与企业生产过程一体化人才培养模式。到2022年，重点建设5个技术研发和推广服务中心、5个乡村振兴示范校，推动5所高职院校、20所中职学校和部分职教集团、100家左右企业深度参与国家职业教育产教融合试点项目。', '2.建设产教融合示范园区。推动职业教育与产业转型联动，技术技能人才培养与产业发展协同，同步规划配置职教资源，建设产教融合示范园区。按照多元化投入、市场化运作、企业化管理方式，高标准建设济南市大型智能（仿真）公共实习实训基地，并打造成为区域产业转型升级的技术高地、面向中小微企业的技术服务中心和企业培训培养紧缺技能人才的实践中心。支持济南工程职业技术学院建设5G综合应用示范产教融合实训基地、济南护理职业学院建设产教融合大健康实训基地、莱芜职业技术学院建设人工智能和粉末冶金全产业链绿色智能制造产教融合实训基地。鼓励职业院校通过场地、设备租赁等方式与企业共建生产型实训基地。鼓励支持职业学校举办以服务学生实习实训为主要目的的企业，其经营活动按照国家有关规定享受税收等优惠。到2022年，建设10个左右符合产业发展方向、产教融合深入、育人效果明显的市级生产性实训示范基地，7个省级产教融合实训基地。', '3.构建高品质研究平台。打破现有职业教育教学人员、研究人员、技术技能人才职业教育研究架构，以产教融合立意，以结构重组破题，以多元机制布局，建立教育和产业人才研究平台，立足产教融合、专兼结合，公开招聘行业企业管理人员和政府部门人员作为研究员，成立若干专业委员会，作为济南市职业教育改革发展研究专业智库，重点开展专业建设指导、教学诊断评估、人才供需预测、发展路径研究、技术成果转化、行政决策咨询等工作，增强产教融合的深度和职教研究的效度。', '1.落实职业院校用人自主权。允许学校在限额内自主设立内设机构并报机构编制部门备案，允许自主设置岗位，自主确定用人计划，自主确定招考标准和内容、程序，在相应人事考试官方网站公开招聘岗位信息，自主招聘各类人才，实行事后备案。技能性强的专业在人员编制上给予倾斜。改革教师招聘制度，职业院校新进专业专任教师原则上应具有3年以上企业工作经历和相关专业技术资格。业界优秀人才担任专任教师，可通过直接考察的方式招聘。落实学校20%编制员额内自主招聘兼职教师政策，支持学校引进行业企业一流人才和具有创新实践经验的企业管理专家、科技人才、技能人才等担任产业教授，参照高级专业技术职务人员平均薪酬水平确定薪酬标准，适当考虑实行项目工资制、年薪制。探索建立公开遴选聘用职业院校领导班子成员机制。推进职业院校内部管理体制改革，推动企业工程技术人员、高技能人才和职业院校教师双向流动，企业人员到职业院校担任兼职教师的，应将兼职情况纳入业绩考核评价。', '2.加大教师培养培训力度。构建职前职后一体化、校企双主体的职业院校教师培养培训体系，教师职业资格证书获取要体现在职培养要求，鼓励支持符合条件的职业院校教师参与专业学位研究生培养。加强中职班主任和高职辅导员队伍建设。实施职业教育名师名校长建设工程、青年技能名师建设计划。建立技术技能人才休疗养制度，定期组织休疗养活动。加快职业教育技艺技能传承创新平台建设。支持市属高职院校积极创建国家、省级职业教育“双师型”教师培训基地。到2022年，培养50名省级教学名师，60名青年技能名师，建设1～2个国家级、3～5个省级职业教育“双师型”教师培训基地。', '3.深化职业院校分配制度改革。公办职业院校对外开展技术开发、技术转让、技术咨询、技术服务取得的收入结余，可提取50%以上用于教师劳动报酬，不纳入单位绩效工资总量管理。鼓励教师参与企业项目研发、技术改良，支持校企共建教师创新团队，被评为市级（含）以上创新团队的专业教师可在创新项目中给予奖励。教师根据相关规定取得的科技成果转让费，计入当年本单位绩效工资总量，但不受总量控制，不作为调控基数。对学校以年薪制、协议工资、项目工资等方式引进高层次人才予以倾斜，在绩效工资总量中单列。对学校承担的培训任务，与绩效工资总量增长挂钩。经所在学校或企业同意，职业学校教师和管理人员、企业经营管理和技术人员根据合作协议，分别到企业、职业学校兼职的，可根据有关规定双方约定薪酬数额。职业技能培训可按一定比例折算成全日制学生培养工作量，在内部分配时向承训一线教师倾斜。公办职业院校绩效工资水平最高可达到所在行政区域事业单位绩效工资基准线的4倍，所需经费通过自筹方式解决。', '（五）高层次推进对外交流与合作。定期选派职业院校优秀教师出国培训，扩大师生海外交流规模，推进与国外学校缔结友好学校，促进教育教学、科技、文化、体育、艺术、竞赛等方面交流，对内容实、交往久、收益多的交流项目，在出访时间和人数上给予弹性支持。举办“一带一路”沿线国家职业教育高端论坛。鼓励职业院校广泛参与国际学术交流、引进中外合作项目、举办国际高水平职业技能大赛。支持济南职业学院中德中国北方职业培训基地及多特蒙德应用技术大学合作项目、济南工程职业技术学院“海右国际学院（泰国）”、莱芜职业技术学院中泰国际教育学院及马来西亚分校等人才培养项目。鼓励职业院校在国（境）外建设“鲁班工坊”，积极支持国内企业参与“一带一路”建设。', '（一）加强党的全面领导。强化各级党委教育工委职能作用，发挥好市委教育工作领导小组的议事协调职能和职业院校各级党组织的战斗堡垒作用，把党对职业教育的全面领导落到实处，把职业教育与普通教育“同等重要地位”落到实处，确保职业教育发展的正确方向和职业教育改革任务全面落实。加强职业院校党的建设，健全组织体系，将全面从严治党落实到办学治校全过程。', '（二）建立协调推进机制。建立职业教育创新发展高地建设联席会议制度，统筹协调推进方案实施，全面抓好工作落实。将职业教育作为对各级政府履行教育职责评价的重要内容，评价结果作为领导班子和领导干部奖惩的重要依据。落实行业部门和地方政府发展职业教育责任，健全政府部门、行业组织定期督导评估职业教育制度。各区县要按照“一区县一案”编制职业教育创新发展实施方案，并报市委教育工作领导小组办公室备案。', '（三）鼓励支持先行先试。争创省级职业教育创新发展试验区。支持历城区、章丘区建立市级职业教育创新发展示范区，在人才培养、产教融合、办学制度、保障机制、服务现代化经济发展等方面先行先试。对“双高计划”等高水平建设单位在人才引进、科技研发、社会服务等方面予以政策支持。支持职业教育创新发展理论实践研究，总结经验做法，及时宣传推广。评选职业教育改革创新成效明显的区县和院校，按规定通报表扬先行先试先进单位和个人。', '（四）完善经费保障机制。建立与办学规模、培养成本、办学质量等相适应的财政投入制度，探索实施“基本保障＋发展专项＋绩效奖励”的财政拨款方式，优化教育支出结构，新增教育经费向职业教育倾斜。各区县结合本地实际，落实教育费附加不低于30％和地方教育附加不低于30％用于职业教育的政策要求。逐步提高生均经费拨款水平，确保职业院校生均经费拨款高于省定标准。完善成本分担机制，适当放宽学费标准。加大对国家级、省级职业教育重大建设项目的经费配套支持力度。大力支持“中国特色高水平高职学校和专业建设计划”，按照国家专项资金配比要求及“双高计划”建设任务需要足额拨付专项经费。公办职业院校要制定还款计划，明确化解债务时间节点，逐步化解职业院校债务。健全市、区县政府职业教育经费投入绩效评价制度。']</t>
         </is>
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A153" t="n">
+        <v>129</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
           <t>国有建设用地考古调查勘探发掘前置工作的实施意见政策解读</t>
         </is>
       </c>
-      <c r="D153" t="inlineStr">
+      <c r="E153" t="inlineStr">
         <is>
           <t>2020-06-17</t>
         </is>
       </c>
-      <c r="E153" t="inlineStr">
+      <c r="F153" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2020/6/17/art_2607_4499384.html</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr">
+      <c r="G153" t="inlineStr">
         <is>
           <t>['2020年6月1日，市政府第96次常务会议研究通过了《关于国有建设用地考古调查勘探发掘前置工作的实施意见》（以下简称《实施意见》）。《实施意见》立足制度创新，破除了制约建设项目落地的体制机制障碍，将考古环节设置在土地供应前，并将土地熟化机构作为申请主体，建立基本建设考古制度，既符合我市当前土地供应现实，也兼顾到今后土地储备改革方向。这是我省出台的第一个关于国有建设用地考古调查勘探发掘前置工作的实施意见，对全国也有借鉴意义。', '根据《中华人民共和国文物保护法》规定，进行大型基本建设工程，应当事先进行考古调查、勘探。近年来，随着城市工程建设项目加快推进，地下文物保护工作面临前所未有的挑战。一是履行调查勘探责任不严。有些建设单位只顾效益和进度，项目开工前未严格按照相关法律法规履行考古调查勘探手续，个别工程项目在施工中造成地下文物损毁，问题被曝光后造成不良社会影响。二是加大了工程建设成本。项目开工前实施考古工作导致成本增加、工期延长，遇到重要文物遗存需大面积发掘或实施原址保护时，项目将被迫长期延后甚至改变整个规划。三是执法监管难度大。近年来我市（包括莱芜、钢城区）国有建设用地年均土地供应量约6万亩（3996万平方米），考古调查勘探发掘的工作量很大，给文物执法监管工作带来很大困难。', '为从根本上解决我市建设工程中存在的文物保护问题，市政府多次召开专题会议研究部署基本建设工程考古前置工作。我局组织精干力量赴南京、郑州等考古前置工作先进城市学习考察，在《实施意见》起草过程中，多次征求市直有关部门（单位）、区县、考古机构、相关专家以及社会各界的意见建议，履行了文件合法性审查。《实施意见》有效保护地下文物，降低建设单位的投资风险和运作成本，有利于推进文物保护和城市协调发展，达成了广泛共识，在市政府常务会议上顺利审议通过。', '坚持依法依规、应简必简、统筹推进、保护文物、服务便民原则，实现文物保护与城市发展共赢的目标。', '包括三个方面：一是六个地下文物保护区内的；二是历史城区范围内的；三是占地二万平方米以上的。', '包括六个方面：一是考古调查勘探、发掘作业的主体，调查勘探工作由具有国家文物局批准的考古发掘资质或者省文物局批准的考古勘探资质单位实施，发掘工作由我市考古研究所实施。二是考古调查勘探的申请，由土地熟化主体向同级文物行政部门提出。三是考古调查勘探的条件，明确了申请单位应当提供的边界桩点、土地清表、权属问题等条件。四是考古调查勘探发掘的实施，对审批手续、发掘时限、发掘报告、用地规划调整、土地供应意见书等进行了明确。五是考古调查勘探发掘结果的运用，提出以文物行政部门出具的意见书作为供地必要条件。六是考古调查勘探发掘经费的安排，对调查勘探经费、发掘经费、抢救性发掘费用进行了分类明确。', '对自然资源和规划、财政、文物、土地熟化主体、区县（管委会）文物行政部门、市考古单位的职责进行了明确。', '文件会签时，市财政局、济南城市建设集团有限公司、济南产业发展集团有限公司等3个部门（单位）提出了修改意见。我局经认真研究，除济南城市建设集团有限公司提出的“对占地二万平方米以上的国有建设用地供应时，不再规定考古调查勘探发掘前置工作”不符合《山东省文物保护条例》规定无法采纳外，其余修改意见均予采纳。', '附件《关于国有建设用地考古调查勘探发掘前置工作的实施意见》征求意见反馈情况汇总表.docx', '《关于国有建设用地考古调查勘探发掘前置工作的实施意见》征求意见反馈情况汇总表.docx']</t>
         </is>
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A154" t="n">
+        <v>129</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
           <t>重庆市供销社来济考察</t>
         </is>
       </c>
-      <c r="D154" t="inlineStr">
+      <c r="E154" t="inlineStr">
         <is>
           <t>2019-11-07</t>
         </is>
       </c>
-      <c r="E154" t="inlineStr">
+      <c r="F154" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2019/11/7/art_4115_3428776.html</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
+      <c r="G154" t="inlineStr">
         <is>
           <t>['11月6日，山东省供销社党组书记、理事会主任付伟，济南市政协副主席王伯芝陪同重庆市供销社党委书记、理事会主任李洪义', '供销社深化综合改革，积极参与全程农业社会化服务、发展农村现代流通、开展农村金融互助合作等方面展现出的“硬实力”给予充分肯定，表示重庆市供销社要认真学习借鉴', '供销社深化综合改革，积极参与全程农业社会化服务、发展农村现代流通、开展农村金融互助合作等方面展现出的', '继续探索为农服务的新路子、新举措，在参与乡村振兴、优化乡村治理中展现新作为、实现新突破。', '济南市供销社党组副书记、监事会主任黄波，党组成员、理事会副主任刘景涛，章丘区政协副主席牛凤学等']</t>
         </is>
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A155" t="n">
+        <v>129</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
           <t>生态文明范式转型中国与世界国际论坛在济南成功举办</t>
         </is>
       </c>
-      <c r="D155" t="inlineStr">
+      <c r="E155" t="inlineStr">
         <is>
           <t>2019-11-01</t>
         </is>
       </c>
-      <c r="E155" t="inlineStr">
+      <c r="F155" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2019/11/1/art_31176_3425759.html</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr">
+      <c r="G155" t="inlineStr">
         <is>
           <t>['11月1日上午，中共济南市委市政府召开新闻发布会。本次发布会由济南市委宣传部新闻发布处处长王若峰主持。发布会邀请济南社会科学院党组书记、院长马军远，中国社会科学院生态文明研究智库主任黄承梁等相关领导围绕“生态文明范式转型——中国与世界”国际论坛活动的背景介绍相关情况并答记者问。', '10月31日，由中国社会科学院学部主席团和济南市委市政府主办，中国社会科学院城市发展与环境研究所、中国社会科学院生态文明研究智库、济南社会科学院共同承办的中国社会科学论坛（2019年•经济学）：“生态文明范式转型——中国与世界”国际论坛在山东大厦成功举办。', '全国人大常委会副委员长丁仲礼、十一届全国政协副主席陈宗兴出席开幕式上并致辞。山东省委常委、济南市委书记王忠林同志，全国人大常委会农业与农村委员会副主任委员、中国社会科学院党组成员、副院长蔡昉同志，山东省委副书记杨东奇同志，联合国前副秘书长、美国卡内基国际事务伦理委员会执行主任扎诺斯·帕兹托先生分别致辞，对论坛的召开表示热烈祝贺。中国社会科学院学部委员、城市发展与环境研究所所长，中国社会科学院生态文明研究智库常务副理事长潘家华主持开幕式。来自国内外政府机构、科研单位、高等院校、学术团体、企业的200余位在生态文明建设领域的专家学者和1000余名代表参加了论坛。', '此次论坛以习近平新时代中国特色社会主义思想为指导，旨在推动习近平生态文明思想世界意义、全球价值研讨和传播，发展和完善立足中国、面向世界的生态文明建设学科体系、理论体系和话语体系，探求推动工业文明向生态文明转型的范式、模式，共谋全球生态文明建设之路。', '本次论坛聚焦生态文明范式转型主题，采取1个主题论坛+7个平行论坛的“1+7”框架结构，围绕“习近平生态文明思想的世界意义与中华传统生态智慧”“新中国70年生态文明建设”“生态文明建设与经济社会发展”“生态文明环境责任与大学教育”“气候变化与未来地球”“推进绿色‘一带一路’建设”“生态旅游”等重要议题，展开了内容丰富、卓有成效的探讨，形成了一系列富有创见的研究报告和行动倡议。论坛期间，与会领导和嘉宾还实地考察了济南生态文明建设情况。', '作为中国社会科学院首次在京外地区召开的规模较大、影响广泛、高规格的学术盛会，本次论坛体现了三个突出特点：', '论坛以习近平新时代中国特色社会主义思想为指导，立足中国特色社会主义“五位一体”总体布局和四个全面战略布局，紧扣世界发展趋势和国家发展战略，彰显了时代特征、中国特色，是深入学习贯彻落实习近平生态文明思想、推动建设美丽家园的重大行动，是实施哲学社会科学“走出去”战略的一项重要举措，展示了哲学社会科学高度的政治自觉和行动自觉。', '二是规格层次高。论坛吸引了国内外政要、政府机构、科研单位、高等院校、学术团体的200余位专家学者参会，100多位重要嘉宾出席，十几位省部级领导同志出席并作重要发言，几十位在生态文明研究领域成果卓著的国内外知名专家做了主旨演讲，1000多名生态文明爱好者参会聆听，是一次规模宏大的盛会。论坛的举办得到了中央有关领导同志的大力支持。全国人大常委会副委员长丁仲礼先生、十一届全国政协副主席陈宗兴先生亲临大会指导，并在开幕式上发表主旨演讲，向世界展示了习近平生态文明思想的高远智慧，引起各界强烈反响，成为本届论坛的一大亮点。', '论坛吸引了国内外政要、政府机构、科研单位、高等院校、学术团体的200余位专家学者参会，100多位重要嘉宾出席，十几位省部级领导同志出席并作重要发言，几十位在生态文明研究领域成果卓著的国内外知名专家做了主旨演讲，1000多名生态文明爱好者参会聆听，是一次规模宏大的盛会。论坛的举办得到了中央有关领导同志的大力支持。全国人大常委会副委员长丁仲礼先生、十一届全国政协副主席陈宗兴先生亲临大会指导，并在开幕式上发表主旨演讲，向世界展示了习近平生态文明思想的高远智慧，引起各界强烈反响，成为本届论坛的一大亮点。', '三是成果质量高。本届论坛海纳百川，精英荟萃，紧紧围绕习近平生态文明思想的国际传播与全球意义、生态文明体系下的文化、经济、环境质量和人类命运共同体建设等重大议题，共谋全球绿色发展之路，进行了跨学科、宽领域、多维度的激烈讨论和深入交流，提出了很多具有建设性、启发性的新方法、新理念和新思想，发布了一系列卓有理论和实践价值的研究报告，发表了《共谋全球生态文明建设之路济南共识》，是一场学术的饕餮盛宴，思想的激烈碰撞，达到了预期的效果和目的。', '本届论坛海纳百川，精英荟萃，紧紧围绕习近平生态文明思想的国际传播与全球意义、生态文明体系下的文化、经济、环境质量和人类命运共同体建设等重大议题，共谋全球绿色发展之路，进行了跨学科、宽领域、多维度的激烈讨论和深入交流，提出了很多具有建设性、启发性的新方法、新理念和新思想，发布了一系列卓有理论和实践价值的研究报告，发表了《共谋全球生态文明建设之路济南共识》，是一场学术的饕餮盛宴，思想的激烈碰撞，达到了预期的效果和目的。', '本次论坛通过深入研讨和坦诚交流，在事关生态文明建设的重大问题上凝聚了共识，取得了一些创新性成果。', '习近平生态文明思想内涵丰富、博大精深，继承并发展了马克思主义自然观的精髓，吸收和创新了中华文明的生态智慧,是对社会主义建设规律认识不断深化的重大理论成果，是习近平新时代中国特色社会主义思想的重要组成部分，是做好生态环境保护工作的定盘星、指南针和金钥匙，为推进美丽中国建设、实现人与自然和谐共生的现代化提供了方向指引和根本遵循，为构建人类命运共同体、实现全球可持续发展提供了中国智慧、中国方案和中国贡献，具有鲜明世界意义。', '与会专家学者深刻认识到，面对生态环境挑战，唯有携手合作，才能有效应对气候变化、海洋污染、生物保护等全球性环境问题。加快推进生态文明建设，各国都要有所作为，有识之士要主动为构建生态文明建设学科体系、理论体系和话语体系做出独特贡献，共同应对环境挑战，共享绿色发展机遇。', '与会专家学者一致认为，要深刻把握“绿水青山就是金山银山”的重要发展理念，坚定不移走生态优先、绿色发展新路；深刻把握“良好生态环境是最普惠民生福祉”的宗旨精神，着力解决损害群众健康的突出环境问题，不断满足人民日益增长的优美生态环境需要；深刻把握“山水林田湖草是生命共同体”的系统思维，将生态文明建设融入经济建设、政治建设、文化建设、社会建设各方面和全过程，协同推进生态文明建设与其他各项建设，推动形成人与自然和谐发展的现代化建设新格局。', '当前，济南面临着中国（山东）自贸试验区济南片区、新旧动能转换先行区、黄河流域生态保护和高质量发展三大国家战略交汇叠加的重大历史发展机遇，正处于走在前列，向“万亿俱乐部”迈进的关键时期。本次论坛选择在济南召开，把济南作为生态文明范式转型的特例向世界宣介，充分表明了中央领导同志对济南发展的关心和支持，充分体现了中国社会科学院以及各位专家学者对济南生态文明建设的关注。与会领导和嘉宾通过实地考察济南生态文明建设情况，高度赞赏济南生态文明建设取得的巨大进步，对今后济南生态文明建设提出了许多真知灼见，对济南加快构建生态文明体制机制，建设生态宜居美丽家园具有十分重要的借鉴意义，为济南未来发展注入了强大动力，这将有助于加快建设“大强美富通”现代化国际大都市！']</t>
         </is>
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A156" t="n">
+        <v>129</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
           <t>济南市供销社赴济宁市供销社考察学习</t>
         </is>
       </c>
-      <c r="D156" t="inlineStr">
+      <c r="E156" t="inlineStr">
         <is>
           <t>2019-09-24</t>
         </is>
       </c>
-      <c r="E156" t="inlineStr">
+      <c r="F156" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2019/9/24/art_4115_3308751.html</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr">
+      <c r="G156" t="inlineStr">
         <is>
           <t>['土地股份合作社很好的坚持了农村土地集体所有权的根本地位，保护了农户承包权，盘活了土地经营权，建立起规范高效的“三权”运行机制，激发了农业农村农民的生机活力，在促进农业持续增效、农民稳定增收、农村和谐稳定方面展现出了强劲而旺盛的生命力。', '土地股份合作社很好的坚持了农村土地集体所有权的根本地位，保护了农户承包权，盘活了土地经营权，建立起规范高效的', '参观结束后，济宁市供销社组织了深入座谈，双方交流意见，就土地股份合作社建设方向进行了探讨，同时也探讨村级供销社建设等相关内容。', '学习借鉴济宁市供销社好做法、好经验，在土地股份合作社建设上因地制宜，创新方法途径，在试点的基础上，打开突破口，形成新亮点，开拓全市供销系统土地股份合作发展新局面。']</t>
         </is>
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A157" t="n">
+        <v>129</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
           <t>市政府党组扩大会议暨理论学习中心组集体学习举行</t>
         </is>
       </c>
-      <c r="D157" t="inlineStr">
+      <c r="E157" t="inlineStr">
         <is>
           <t>2019-10-22</t>
         </is>
       </c>
-      <c r="E157" t="inlineStr">
+      <c r="F157" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2019/10/22/art_31_3389614.html</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
+      <c r="G157" t="inlineStr">
         <is>
           <t>['10月21日上午，市政府党组（扩大）会议暨市政府党组理论学习中心组集体学习举行。市委副书记、市长、市政府党组书记主持会议并讲话。', '会议传达学习习近平总书记在黄河流域生态保护和高质量发展座谈会上的重要讲话精神、在中央政治局第十七次集体学习时的重要讲话精神；传达学习《中共中央办公厅、国务院办公厅印发〈法治政府建设与责任落实督察工作规定〉》和《国务院印发〈重大行政决策程序暂行条例〉》，并作交流发言。会议书面传达学习习近平总书记在庆祝中华人民共和国成立70周年大会上的讲话、习近平总书记在庆祝中华人民共和国成立70周年招待会上的讲话、习近平总书记在中央政协工作会议暨庆祝中国人民政治协商会议成立70周年大会上的重要讲话精神、习近平总书记在河南考察时的重要讲话精神，中央财经委员会第五次会议精神。', '会议指出，各级各部门要提高政治站位，深入领会和把握习近平总书记重要讲话精神的历史意义和现实意义，树牢“四个意识”，坚定“四个自信”，坚决做到“两个维护”。要进一步强化思想自觉、政治自觉、行动自觉，结合工作实际，突出工作重点，狠抓工作落实，全力以赴推进高质量发展。', '会议强调，政府系统要始终把政治建设摆在首位，全面加强党的建设，自觉加强党性修养，坚决执行党的路线方针政策，始终同以习近平同志为核心的党中央保持高度一致。要严格遵守政治纪律和政治规矩，自觉履行党风廉政建设责任，认真遵守廉洁自律、廉洁从政的各项规定，履职尽责，努力推动各项工作落到实处。要切实增强制度意识，在政府系统形成人人尊崇制度、遵守制度的良好氛围。要强化制度建设，织密扎紧制度“笼子”，坚持用制度管人管事，大力推进依法行政，建设法治政府，营造一流营商环境。要争做依法行政的表率，把权力切实变成责任、义务和服务，正确行使权力，真正用好权力，更好地服务群众、服务发展。要狠抓落实，齐心协力，加压奋进，全力做好第四季度工作，确保圆满完成全年各项目标任务。']</t>
         </is>
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A158" t="n">
+        <v>129</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
           <t>年度工作总结</t>
         </is>
       </c>
-      <c r="D158" t="inlineStr">
+      <c r="E158" t="inlineStr">
         <is>
           <t>2019-03-07</t>
         </is>
       </c>
-      <c r="E158" t="inlineStr">
+      <c r="F158" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2019/3/7/art_4368_2987404.html</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr">
+      <c r="G158" t="inlineStr">
         <is>
           <t>['今年以来，在市委、市政府的坚强领导下，我室认真学习贯彻习近平新时代中国特色社会主义思想和党的十九大精神，紧紧围绕建设“大强美富通”现代化国际大都市这个中心任务，以开展“学经典、创精品、出金点子”为带动，统筹抓好思想政治建设、履职尽责和自身建设，各项工作取得了新的进步。全年共完成市长讲话360多篇、120余万字，常务副市长讲话200多篇、80多万字；撰写调研报告27篇，参与制定市委、市政府重要文件29件，高质量地完成了各项决策服务任务，为我市经济社会发展做出了积极贡献。现将我室年度工作情况报告如下：', '把抓好党建作为最大的政绩，党组书记带头履行第一责任，班子成员严格履行“一岗双责”，形成一级抓一级层层抓落实的党建推进体系。一是强化政治建设。聚焦习近平新时代中国特色社会主义思想和党的十九大精神这个主题主线，认真落实党组理论中心组学习制度，完善十九大精神学习计划，全年集体学习保持在60个学时以上，进一步树牢“四个意识”，坚定“四个自信”，做到“两个坚决维护”。 严格落实民主集中制的各项要求，凡属“三重一大”问题，坚持集体决策、民主决策，不搞一个人说了算。认真落实“三会一课”、民主生活会、主题党日和领导干部双重组织生活制度，党组书记和党组成员带头讲党课，着力提高党内政治生活的原则性和战斗性。二是强化思想建设。积极推进“两学一做”常态化、制度化，深入开展“大学习、大调研、大改进”和“三照三转三改三推”活动，积极参与市里组织的十九大精神、党规党纪、中国共产党纪律处分条例等各个专题的学习测试，不断巩固广大党员干部的思想基础。牢牢掌握意识形态工作的领导权、主动权，唱响主旋律、坚守主阵地、凝聚正能量、发出好声音。三是强化作风建设。面对时间紧、任务重、人手少、要求高的工作形势，坚持领导干部率先垂范，班子成员带头快干实干，为全体干部当标兵、做表率。全室累计加班2000多人次，许多同志克服“上有老、下有小”的家庭困难、长期加班造成的病痛，年复一年地奋斗在平凡的岗位上，从不讲条件，树立了新时代党员干部拼搏奋斗的良好形象。四是强化脱贫攻坚。建立了党员干部联系贫困户制度，全力支持第一书记工作。研究室主要领导亲自为张沟村协调产业及基础建设资金25万元和价值5万元的文化大院器材，目前共协调支持资金近200万元，有力地促进了贫困村脱贫致富。机关党总支与贫困村党支部、历下区洪家楼街道洪楼广场居委会建立了共建关系，并签订了共建帮扶协议，先后为贫困户家庭送去9300余元的慰问品和慰问金，为社区6名困难家庭送去电风扇。充分发挥工会、妇委会组织的桥梁和纽带作用，努力为干部职工办实事、解难题、送温暖。', '紧扣我市经济社会发展的脉搏，从制约改革发展的薄弱环节、难点问题出发，以文辅政、参谋助手作用进一步增强，圆满完成了综合文稿起草、重点课题调研等决策服务任务。一是突出问题导向。把解决问题作为开展调研工作的根本出发点，力求精准对接市委、市政府重要决策、重大部署，精准把握发展急需、领导关注、群众关心的问题，努力提高调研工作的针对性和实效性。如撰写的《关于推动市场主体发展的调研》、《赴深圳、东莞、广州、上海四市学习考察报告》、《“北跨”“中疏”协同推进措施研究》、《抢抓中欧班列整合契机，带动省会开放发展的几点建议》、《加快总部经济发展研究》等27篇重大调研课题，均得到了忠林书记、述涛市长的重要批示，或在全市深改会上得到与会领导的充分肯定。主动参与市委市政府重要文件的起草或审修，为《关于优化营商环境的改革措施》、《关于建设国际医疗康养名城的实施意见》、《关于济南市工程建设项目“拿地即开工”审批模式的实施意见》等29个政策性文件的出台贡献了智慧。二是突出打造精品。以高度负责的精神和严谨细实的作风，不论文章大小，不管时间多紧，都坚持精雕细琢、精益求精。起草的《全市经济工作会上的讲话》、《在市委十一届五次全会上的讲话》、《在政府第二次全会上的讲话》、《在全省市委书记座谈会上的讲话》、《在全市“双招双引”电视电话会上的发言》、《在市委党校秋季开学典礼上的讲话》等一批重要文稿，得到了市领导的充分肯定。三是突出改革创新。继续坚持开门写报告，通过12345热线、市政府网等形式，广泛征求民意、倾听市民呼声，截至目前共征求意见1万多件，为政府工作报告的起草积累了第一手的社情民意。积极借脑聚智，在重大课题调研中，主动征求相关领域专家的作用。如在开展《“北跨”“中疏”协同推进措施研究》、《加快发展总部经济》等一批重点课题调研时，先后5次征求上级主管部门、科研院所相关领域专家的意见建议，取得了良好的效果。组织推荐了18篇调研报告参评全省政府系统优秀调研成果，其中获一等奖3篇、二等奖4篇、三等奖11篇。', '把干部队伍建设作为履行决策服务职能的基础工程来抓，着力在人才培育、干部选拔、制度建设等方面发力，全面提升干部队伍建设水平。一是抓能力培养。采取以老代新、以干代训、专题培训等方式，加快干部能力培养。党组成员亲自组织培训，如徐龙义副主任就致辞类、刘勤副主任就贺词类文稿分别进行了专题授课，进一步助推干部成长。邀请市委党校孟姝瑱教授、济南市民巡访团团长辛安分别作专题讲座，有针对性地补齐干部知识结构中的短板。创新自主学习，先后组织编写了9册《习近平总书记系列重要讲话汇编》、6册《“学经典、创精品、出金点子”文稿写作经典文集》，开展了《新旧动能转换应知应会》、《弘扬济南历史文化打造济南文化软实力》的考试，实行闭卷考试、交叉阅卷，当场公布成绩，极大地激发了大家自主学习的积极性。组织了3个批次的以干代训工作，平时保持10余人左右的以干代训规模，通过高强度的实操训练和反复摔打，为政府综合调研系统培养了一批人才。二是抓选人用人。在市委组织的领导下，严格按照《党政领导干部选拔任用工作条例》、《关于坚持“实在实干实绩”导向从严从实做好干部选拔工作的意见》和《党委（党组）讨论决定任免事项守则》等一系列干部选拔任用的有关规定，提拔了4名正处级领导干部，其中一名到基层街道任主官，进一步优化了干部队伍结构，树立了实在实干实绩的用人导向。三是抓规范管理。严格落实领导干部个人有关事项报告和干部请销假制度，加强档案归档整理和整体移交工作，推进干部管理制度化、规范化、常态化。经常开展谈心谈话活动，及时跟进了解干部的思想状况，主动帮助他们解决实际困难，不断增强大家的幸福感、归属感和责任感。', '落实全面从严治党要求，始终把党风廉政建设摆在重要议事日程，严格履行党风廉政建设责任制。一是严格落实“一岗双责”。认真履行党组主体责任，室党组多次研究部署廉政工作，并层层签定《党风廉政建设责任书》，形成了一级抓一级、层层抓落实的工作机制。坚持把纪律和规矩挺在前面，用好监督执纪“四种形态”，认真落实述职述廉、谈话提醒、有关事项报告等廉政制度，保障党风廉政建设各项任务措施有效落实。在人事任免、重大财务支出过程中，积极邀请派驻纪检组全程监督。二是深化廉政教育。组织全体党员干部集中开展了《“汲取教训 严守规矩 强化担当”》、省委《关于彻底清除孙政才令计划恶劣影响》等专题教育，集体收看了《失衡的代价》、《象牙塔里的蜕变》、《神圣的权利岂能沦为贪腐的工具》等警示教育片，进一步增强廉洁从政意识。三是狠抓制度落实。坚决把纪律和规矩挺在前面，毫不放松抓好中央八项规定精神的贯彻落实，严格“三公经费”管理、请示报告制度，细化调研和接待工作制度，在公务接待、公务用车、外出考察等方面，不打擦边球、不搞变通。严格落实各项财务制度，按要求公开预算决算，确保经费合规使用、公开透明。扎实开展各项专项整治行动，认真履行党组在查办违纪违法案件中的责任，切实支持执纪执法机关工作。全年没有发生一起违纪违规案件。', '一年来，我室的各项工作虽然取得了一些成绩，但与市委、市政府的要求相比，还有较大差距。主要表现是：当大参谋、提大建议的能力还不够强，对中央和省市的重大政策、重要决策研究还不够透，调查研究的视野还不够开阔、层次还不够高。这些问题，我们将在2019年的工作中逐步解决。']</t>
         </is>
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A159" t="n">
+        <v>129</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
           <t>济南市人民政府办公厅关于加强高中阶段教育改革发展的意见</t>
         </is>
       </c>
-      <c r="D159" t="inlineStr">
+      <c r="E159" t="inlineStr">
         <is>
           <t>2019-02-25</t>
         </is>
       </c>
-      <c r="E159" t="inlineStr">
+      <c r="F159" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2019/2/25/art_114361_4942465.html</t>
         </is>
       </c>
-      <c r="F159" t="inlineStr">
+      <c r="G159" t="inlineStr">
         <is>
           <t>['为进一步深化基础教育综合改革，系统推进高中阶段学校（包括普通高中、普通中专、职业中专、职业高中、技工学校，下同）多样化特色化办学，激发学校办学活力，不断提升教育教学质量，办好人民满意的教育，根据《山东省人民政府办公厅关于加强高中阶段教育改革发展的意见》（鲁政办字〔2018〕32号）精神，经市政府同意，现就加强高中阶段教育改革发展提出如下意见。', '以习近平新时代中国特色社会主义思想为指导，全面贯彻党的教育方针，坚持问题导向，聚焦影响和制约高中阶段学校发展的关键问题，破解体制机制障碍，促进教育公平，提高教育质量，推动高中阶段学校多样化特色化办学，办好均衡而有特色、公平而有质量的济南教育。到2020年，全市高中阶段教育毛入学率稳定在98%以上，普通高中与中等职业教育结构更加合理，经费投入和成本分担机制更加完善，办学特色更加鲜明，教育质量明显提升，育人水平不断提高，为深入推进新旧动能转换重大工程、全面建成小康社会奠定人才基础。', '（一）建立健全立德树人机制。全面落实《中小学德育工作指南》（教基〔2017〕8号），培育和践行社会主义核心价值观，深化德育课程一体化改革，教育引导学生坚定理想信念，弘扬民族精神，增强民族自尊心、自信心和自豪感，增强学生的公民意识、社会责任感和民主法治观念，培养学生具备自主、自立、自强的态度和能力，形成良好思想品德和健全人格。实行全员育人导师制，探索和完善与全员育人相适应的工作机制，推行“德育一体化评价”制度、班教导会制度、学长制。加强班主任队伍建设和学科教师德育能力建设，打造德育工作“领军”人物。推进实施我市中小学（幼儿园）家庭教育指导纲要，完善学校、家庭、社区联合育人机制。', '（二）深化课程教学改革。普通高中学校要加强课程规划和开发，开齐开足国家规定的课程及课时，构建重质量、成系列、有特色的学校课程体系。深化课堂教学改革，基于核心素养开展教学，培养学生适应个人终身发展和社会发展的必备品格和关键能力。启动普通高中学科基地建设，引领普通高中课程建设和教育教学改革。完善选课走班教学制度，推进课堂深度学习变革。强化考察探究、社会服务、职业体验等综合实践类课程实施，建设并认定一批学生社会实践基地，为学生搭建社会实践成长平台。建立学校优秀课程（项目）开发奖励机制，对优秀课程（项目）给予财政专项资金奖补。完善综合素质评价制度，做好学生人生规划发展指导，促进学生全面发展和个性化发展。允许普通高中学校聘用专业人士开设特色课程。健全德技并修、工学结合的育人机制，推进中等职业学校专业设置、课程内容、教学方式与新兴产业、优势产业对接，办好一批适应经济社会发展需要的特色专业。', '（三）深化育人模式改革。积极搭建高中阶段学校与高校、科研院所、高端科技创新企业合作平台，实施联合育人计划。支持高中阶段学校与本科高校、高职院校联合开发课程、共建共享教育资源。支持普通高中主动与高职高专学校对接，探索“2+1”人才培养模式，普通高中学生完成高中二年课程学习后，可在第三学年选修职业技术类课程。完善中等职业学校与高等职业院校合作办学机制，扩大初中后五年制高等职业教育培养规模。探索发展综合高中，实行职普融合，为学生提供更多选择机会。建立普通高中和中等职业学校合作机制，探索开展课程互选、学分互认、学籍互转、资源互通。', '（四）加强干部及教师队伍建设。深化校长职级制改革，适应高中阶段优质资源集团办学需要，配足配强学校领导班子。建立师德师风建设长效机制，将师德师风教育融入教师准入、培训和管理全过程，大力培养“四有”教师队伍。各区县要按照编制标准配足配齐教师，教学辅助人员通过内部挖潜等途径解决，后勤服务逐步实行社会化，腾出更多编制用于专任教师岗位。深化教师管理体制机制改革，加大学校用人自主权，在普通高中开展“教师自主招聘、岗位自主聘任、绩效自主分配”试点，学校在核定的编制、用编进人计划、岗位、绩效工资总量内，可自主实施人员公开招聘、中级及以下岗位评聘和绩效工资分配等。加大县域内教师统筹调配力度，实现城乡之间、学校之间教师交流制度化，推进县域内教师资源均衡配置。严格教师准入，提高入职标准，重视教师思想政治素质和业务能力，实施教师学历提升计划，新进教师以硕士层次为主。做好中等职业学校人员控制总量管理下的教师自主招聘，加大中等职业学校“双师型”教师培养力度。鼓励在职教师接受研究生教育，落实“农村学校教育硕士师资培养计划”，探索实施联合高校开展在职教师同等学力申请硕士学位培养计划。支持高中阶段学校引进高层次、短缺特色课程（项目）专业教师，可根据实际情况采取面试、试讲、考察等方式公开招聘，所需费用纳入财政预算。积极推进绩效工资制度改革试点，将班主任工作、课后延伸服务等项目纳入绩效工资总量，充分考虑课时、岗位工作量、岗位职责等因素，完善绩效工资分配方案，逐步提高班主任及课后延时服务补贴标准，体现多劳多得、优绩优酬，充分调动教职工教育教学管理工作积极性。', '（五）赋予学校更多办学自主权。全面推进“领航学校、特色学校、新优学校”培育工作，以特色课程（项目）为突破口，积极推动特色高中建设，加快推进普通高中多样化特色化发展。研究制定我市中小学校管理办法，理顺政府、学校、社会的关系，对学校职责和内部治理体系等作出规定。进一步简政放权，实行管理权限清单、负面清单制度，规范办学行为，保障校园安全，全面落实校长负责制。启动与校长职级制改革相适应的新一轮学校章程修订工作，完善学校法律顾问制度，推进学校依法办学。', '（六）推进教育管理和办学体制改革。积极探索普通高中管理新机制，完善以市为主统筹管理中等职业教育体制。依法支持和规范民办教育发展，鼓励和支持行业企业、社会团体和个人依法举办高中阶段学校。稳步推进管办评分离,强化教育督导评估。依法保障民办学校和民办学校教师待遇，落实民办高中阶段学校教师社会保险政策，逐步落实非营利性民办高中阶段学校教师养老保险平均缴纳工资与公办学校同等人员一致政策，支持有条件的学校建立企业年金制度。鼓励金融机构对产权明晰、办学规范、诚信度高的民办高中阶段学校给予灵活多样的信贷支持。', '（七）深化考试招生制度改革。完善教育、人力资源社会保障等相关部门招生工作协调机制，健全中等职业学校和普通高中统一招生平台。改革高中阶段学校招生录取方式，推动建立多次考试、等级表达、综合评价、多元录取的考试招生机制。严格规范普通高中招生行为，依法加强对民办高中的招生管理。', '（八）优化教育资源配置。全面落实《济南市中心城基础教育设施三年建设规划》（济政字〔2018〕61号）要求，到2020年，高标准新建、改扩建3—5所高中阶段学校。实施教育基础薄弱区县普通高中建设项目，改善学校办学条件。严格控制超大规模普通高中学校，新建普通高中规模不得超过60个班，普通高中起始年级全面消除50人以上普通高中大班额，建立健全大班额监测和长效防控机制。到2020年，所有普通高中实现办学条件标准化。落实省现代职业教育质量提升计划，在全市支持建设5所左右省级示范性和优质特色中等职业学校。', '（九）实施信息化提升工程。推进宽带网络校校通和多媒体教学设备班班通建设，实现校园无线网络全覆盖。加快市教育资源公共服务平台建设，实现市、区县、校三级服务“一张网”。扎实推进全市“网络学习空间人人通”和优质教育资源建设，构建面向学生学习和成长、教师教学和专业发展、家长与学校互动的公共教育空间。推进区县集约建设数字化校园平台，以需求和应用为导向，推进智慧教育建设，深化人工智能、云计算等新兴信息技术在教育治理、资源建设、学校管理中的融合应用。2020年年底以前，试点建设高中阶段智慧学校15所以上。', '（一）切实加强组织领导。各区县政府和市政府有关部门要将推进高中阶段教育改革发展列入重要议事日程，作为深化基础教育综合改革、完善现代职业教育体系建设和推进考试招生制度改革的重要内容，加强组织领导，强化推进措施，确保改革发展各项目标任务落到实处。要加强舆论引导，广泛宣传解读相关政策，努力营造全社会关注、关心和支持高中阶段教育改革发展的良好氛围。', '（二）健全经费保障机制。科学核定办学成本，建立合理的成本分担机制。落实以政府投入为主、多种渠道筹措经费的普通高中投入机制，完善政府、行业、企业及其他社会力量依法筹集经费的中等职业教育投入机制。严格落实省定普通高中学校和中等职业学校生均公用经费拨款标准并逐步提高，市南部山区高中学校生均公用经费由市级保障。建立普通高中学费动态调整机制，适时调整收费标准，严禁以任何形式挪用或截留普通高中学校学费收入。各区县要制定普通高中债务偿还计划，属于2014年年底前发生并已纳入存量地方政府债务清理甄别结果的，应按照地方政府债务管理政策予以偿还，并同步推进公办中职学校债务化解工作。全面落实中等职业教育学生免学费政策，免除普通高中建档立卡等家庭经济困难学生学杂费，完善家庭经济困难学生资助政策体系。鼓励企事业单位、社会团体和个人设立奖助学金。结合全市领航学校、特色学校、新优学校创建工作，设立高中学校特色发展专项奖补资金，用于支持普通高中特色化多样化发展。允许经评估认定的特色高中根据办学需要适当上浮学费标准。', '（三）强化协同推进机制。要加强有关部门之间的工作协调和政策衔接，形成工作推进合力。教育部门要积极研究完善相关政策措施，加强组织协调、过程指导和督导检查。机构编制部门要全面落实高中阶段学校教师配置政策。发改部门要将高中阶段教育改革发展作为经济社会发展规划的重要内容，支持学校建设。财政部门要健全经费投入机制，支持教育资源优化配置，改善办学条件，加强教师培训。人力资源社会保障部门要积极推进技工学校发展，并会同教育部门按照有关规定完善和落实高中阶段学校教师补充、职称改革、工资待遇等方面的支持政策。物价部门要加强高中阶段学校的价格监管和收费指导。', '（四）完善监督评估机制。推进全市教育质量综合评价改革，加强对办学方向、标准、质量的规范引导，树立科学的教育评价导向。以区县为单位开展高中阶段教育改革发展情况评估验收工作，并将高中阶段教育改革发展和财政投入纳入对区县政府履行教育职责评价的内容。要建立工作督查机制、动态监测机制、群众满意度评价和评估问责机制，加强对推进高中阶段教育改革工作的督导评估。']</t>
         </is>
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A160" t="n">
+        <v>129</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
           <t>济南市供销合作社年工作要点</t>
         </is>
       </c>
-      <c r="D160" t="inlineStr">
+      <c r="E160" t="inlineStr">
         <is>
           <t>2019-03-07</t>
         </is>
       </c>
-      <c r="E160" t="inlineStr">
+      <c r="F160" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2019/3/7/art_4125_2854427.html</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr">
+      <c r="G160" t="inlineStr">
         <is>
           <t>['2019年全市供销合作社工作的指导思想是，以习近平新时代中国特色社会主义思想为指导，深入贯彻党的十九大、十九届二中、三中全会精神和习近平总书记视察山东重要讲话、重要指示批示精神，认真贯彻落实中央经济工作会议、中央农村工作会议精神，积极贯彻落实全国总社省供销社工作会议精神、市委市政府经济工作暨四个中心建设推进大会和全市农村工作专题会精神，大力落实“1+474”工作体系，坚持稳中求进工作总基调，坚持新发展理念，坚持推动高质量发展，坚持以供给侧结构性改革为主线，加快发展动能转换，深化供销社综合改革和“双招双引”、扩大高水平开放，努力实现全市供销合作社系统发展服务实力更加增强、质量更加提升、结构更加优化、系统更加和谐稳定，努力在打造“四个中心”、加快建设“大强美富通”现代化国际大都市进程中，做出新的更大的贡献，以优异成绩庆祝中华人民共和国成立70周年。', '1.认真组织开展“不忘初心、牢记使命”主题教育。按照党中央部署，切实把主题教育作为一项重大政治任务，精心谋划，认真实施，推动党员干部特别是领导干部忠诚于党、忠诚于人民、忠诚于马克思主义信仰，更加自觉地为实现新时代党的历史使命不懈奋斗。', '2.党委中心组带头学、班子成员带头学。制定学习计划，明确重点内容，定期交流体会，指导工作实践。', '3.各级组织发挥职能，组织安排好集体学习。结合实际，创新学习形式和主题党日开展方式，切实落实好学习制度和“三会一课”制度。', '4.正确处理工学矛盾，认真做好业余自学。改革发展任务十分繁重，必须正确处理好工作学习的辩证统一关系。党员干部要认真做好规定动作学习，积极参加灯塔-党建在线和学习强国APP学习。', '5.着力构建农村新型合作体系。积极探索农民专业合作、供销合作、信用合作“三位一体”的农村新型合作体系，促进农户和现代农业发展的有机衔接。继续抓好大田土地托管服务，托管服务能力稳定在130万亩以上，引导农业生产上规模、上水平。', '6.强化产权联结，抓好实体性合作经济组织建设。完善提升区县、镇级农民合作社联合社服务功能，发挥联系农民、服务农民作用。进一步规范发展农民合作社，组织引领农民发展现代精细农业，搞好精细加工增值，发展农业 “新六产”。', '7.抓好村社共建和农民技能培训。依托共建村，继续搞好“党建带社建村社共建”工程和新型农民素质提升培训工程，助力提升基层组织建设和农民素质水平。全年培训农民稳定在6万人次。继续做好行业扶贫攻坚，做好“第一书记”驻村扶贫帮扶工作。', '8.着力抓好基层供销社的恢复重建。认真落实全国总社基层工作会议暨六届六次理事会精神，结合实际，与区县供销社共同研究，分类施策，成熟一个，组建恢复一个，不搞“一刀切”。', '9.着力抓好基层经营服务门店建设。年内，新建改建农资日用品经营网点200个，扩大连锁经营。努力健全完善基层服务网络，巩固扩大前沿服务阵地，满足农民“最后一公里”服务需求。组织完成电子商务交易额力争达到10亿元。', '10.积极开展基层创新服务活动。组织基层供销社开展“标杆社”“示范社”创建活动，组织基层门店开展“星级服务”创建活动。增加科技含量，提升服务水平，满足农民不断增长的对美好生活的向往。', '11.抓好区划调整企业的稳定和发展。严格按照市委统一部署，稳步理顺关系，确保稳定健康发展。', '12.探索组建济南农资企业集团公司。以新成立的供销农资服务有限公司为母公司，加快市农资总公司、商贸中心及相关企业的深度融合，在农资经营服务、农业开发、农业投资、技术推广、示范引领等方面实现新突破。', '13.启动组建供销投资控股集团公司。依托济南供销投资控股有限公司，组织推动深化企业改革、调整整合，加快建立现代企业制度，做强做优做大社有企业。', '14.推动批发市场营商服务环境升级。加快推动茶叶批发市场、英雄山文化市场、农资种子市场、官寺批发市场，优化营商发展环境，优化服务功能，提升服务水平，进一步巩固市场服务地位。', '15.继续抓好招商引资，搞好新型项目建设。扩大供销社对外开放格局，着力抓好外部资金的引进和使用，搞好新型服务项目建设。通过资金增量，盘活优化资产存量。', '16.继续抓好招才引智，优化人力资源结构。立足省会城市各类院校较多、人力资源丰裕优势，积极引进各类人才，充实各级经营管理者队伍，努力实现传统经营服务向智慧经营服务的转变。', '17.主动争取行业支持，增强系统联合合作。立足区县和自身实际，主动加强与全国总社、省供销社的沟通汇报，力争在项目合作、资金扶持和技术引进推广等方面优势互补，实现联合发展。', '18.精心谋划，高水平筹办好“茶博会暨茶文化节”。在总结历届“茶博会暨茶文化节”经验的基础上，坚持高点定位，精心制定活动方案，筹办好“中国（济南）第十三届国际茶产业博览会暨第七届茶文化节”。', '19.精心谋划，高水平筹办好“文房四宝暨珠宝玉石博览会”。认真总结既有工作经验，细化优化工作方案，筹办好“中国（山东）第五届文房四宝暨珠宝玉石博览会”。', '20.创新形式，规范筹办济南种业博览会。强化筹备组织力量，扩大知名企业参展规模，丰富活动内容，筹办好“济南种业博览会”。', '21.坚决守住系统政治安全底线。认真落实保密工作责任制，确保国家秘密安全。认真落实意识形态工作责任制，谁主管、谁负责，确保系统政治安全。', '22.坚决守住系统党风廉政底线。认真贯彻落实中央八项规定精神、中纪委十九届三次全会精神。认真落实党风廉政建设责任制，巩固巡察整改成果，狠抓制度贯彻落实。根据发展需要，及时修订完善相关制度规定，扎紧扎密制度的“笼子”。', '23.坚决守住系统安全经营底线。牢固树立危机意识和安全生产意识，坚持党政同责、一岗双责，认真落实安全生产责任制。加强职工安全教育培训，搞好应急安全演练。搞好日常安全检查和隐患整治，确保万无一失。', '24.坚决守住系统风险防控底线。牢固树立金融安全意识，切实搞好信用互助业务风险评估，严格规范信用互助业务管理和发展。坚持以人民为中心发展理念，高度重视职工生产生活。严格落实退役安置人员政策，切实做到政治上关心、生活上照顾，力所能及地解决其实际困难。对困难企业的困难职工，要积极开展救助帮扶，努力拓展经营服务领域。', '25.坚持党要管党、全面从严治党。各级党组织要坚持守土有责、守土尽责，切实扛起管党治党重大政治责任，落实好主体责任和第一责任人责任，推动党建责任层层落实落地，把党建工作抓实、抓细、抓具体。', '26.巩固发展反腐败斗争压倒性胜利。召开系统党风廉政建设工作专题会议。配合支持市纪委派驻第七纪检监察组依法依规监督执纪。继续推动巡察整改深入落实，巩固巡察整改成果。', '27.进一步转变作风狠抓工作落实。认真贯彻落实全省“担当作为、狠抓落实”工作动员大会精神，大力弘扬勇于担当、雷厉风行、埋头苦干的作风，健全完善工作推进机制，层层落实责任。对标全国供销社系统先进地区，加大学习考察调研。强化供销社系统干部素质能力培训。以改革创新精神压缩精简会议、文件，破解发展难题、推动工作落实。', '28.全面加强市供销社党委自身建设。自觉带头做到“两个维护”，深入学习贯彻习近平新时代中国特色社会主义思想，贯彻落实习近平总书记视察山东重要讲话、重要指示批示精神，提高马克思主义理论水平和执政本领。带头严明政治纪律和政治规矩，坚决同破坏政治纪律和政治规矩的行为作斗争。带头执行中央决策部署和省、市委部署要求，认真贯彻民主集中制，强化自我监督和自我约束。带头落实中央八项规定精神。带头过双重组织生活会，开好年度民主生活会。带头加强调查研究，认真落实联系基层制度，形成推进制度创新的常态化机制。', '29.全面加强党的各项建设。以党的政治建设为统领，切实抓好党的思想建设、组织建设、纪律建设、作风建设和党风廉政建设，注重发挥工会、共青团、妇女组织等群团组织功能作用，进一步做好老干部保障服务工作，确保党员干部牢固树立“四个意识”，切实增强“四个自信”，坚决做到“两个维护”，严格遵守政治纪律和政治规矩，在政治上思想上行动上同以习近平同志为核心的党中央保持高度一致。']</t>
         </is>
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A161" t="n">
+        <v>129</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
           <t>落实管党治党责任提升党建工作水平不断推动供销事业开创新局面</t>
         </is>
       </c>
-      <c r="D161" t="inlineStr">
+      <c r="E161" t="inlineStr">
         <is>
           <t>2019-06-04</t>
         </is>
       </c>
-      <c r="E161" t="inlineStr">
+      <c r="F161" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2019/6/4/art_4115_2999713.html</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr">
+      <c r="G161" t="inlineStr">
         <is>
           <t>['党的十九大报告中指出：“中国特色社会主义进入新时代，我们党一定要有新气象新作为。打铁必须自身硬。党要团结带领人民进行伟大斗争、推进伟大事业、实现伟大梦想，必须毫不动摇坚持和完善党的领导，毫不动摇把党建设得更加坚强有力。”党的十九大站在新的历史起点上，发出坚定不移全面从严治党、不断提高党的执政能力和领导水平的动员令，为推进党的建设新的伟大工程指明了方向。近日，中共中央印发《中国共产党党组工作条例》，进一步明确了党组管党治党的政治责任，为新形势下加强和改进我们济南市供销社党组全面工作提供了强有力遵循。', '近年来，在济南市委、市政府有力领导下，市社做了一些工作，取得了一些成绩。但在济南市委第七巡察组和济南市纪委派驻第七纪检监察组的指导帮带下，通过全面深入开展自查自纠，我们也清醒的认识到，市社系统依然存在着“落实从严治党主体责任和班子成员履行‘一岗双责’还不到位；基层党建工作标准不高，个别基层党组织存在弱化软化现象；对党员干部和基层组织教育管理监督不够严格；人才梯次配置不尽合理，优秀青年人才比较缺乏”等4个方面的问题不足和薄弱环节，4个基层党组织因从严治党主体责任不落实被问责，5人受到党纪处分, 1人行政降级，多名同志被约谈提醒。', '如何树牢“四个意识”，真正做到对党忠诚、为党分忧、为党担责、为党尽责？作为济南市供销社党组副书记、监事会主任，我觉得应该以“功成不必在我，功成必定有我”“我将无我，不负人民”的精神境界、历史担当和使命责任，敢管敢严、真管真严、长管长严，才能更好地落实全面从严治党责任，进一步提升市社党建工作水平，不断推动供销合作事业开创新局面。', '习近平总书记在参加十三届全国人大一次会议山东代表团审议时强调：“功成不必在我并不是消极、怠政、不作为，而是要牢固树立正确政绩观，既要做让老百姓看得见、摸得着、得实惠的实事，也要做为后人作铺垫、打基础、利长远的好事，既要做显功，也要做潜功，不计较个人功名，追求人民群众的好口碑、历史沉淀之后真正的评价。”这就要求我们每一名党员领导干部在干事创业的过程中，要有大局意识、全局意识，甘于做基础性、铺垫性、长远性的工作；在功名利禄、个人方面，要正确处理个人与集体的关系，不计较个人得失，要舍“小我”顾“大我”。', '永葆对党忠诚的政治品格。习近平总书记指出，全党同志要强化党的意识，牢记自己的第一身份是共产党员，第一职责是为党工作，做到忠诚于党，任何时候都与党同心同德。作为一名党员干部，忠诚于党就是要忠诚于信仰、忠诚于组织、忠诚于人民，始终做到表里如一、内外一致。一要坚定共产主义的政治信仰，在思想上政治上行动上同以习近平同志为核心的党中央保持高度一致，坚决维护党中央权威和集中统一领导，在大是大非问题面前保持高度清醒，并且敢于亮剑、敢于表明自己的态度；二要时刻摆正个人在组织中的位置，尤其是目前正处在区划调整和机构改革重要时期，更要正确看待个人的进退去留，坦然接受党组织的选择，绝不能把党的事业当做个人进步的“垫脚石”。三要说老实话、办老实事、做老实人，始终如一地坚守为人民谋幸福的承诺和追求，坚决反对搞两面派、做两面人，做到笃实守道、一以贯之，用行动诠释忠诚、用担当彰显信仰。', '培树能打硬战的优良作风。权力就是责任，责任就是担当。各级党组织和领导干部既是党内监督的对象，也是管党治党的主力，不但要履职尽责，忠于职守，还要敢于“唱黑脸”，不当“老好人”，更要扛起全面从严治党主体责任，勇于担当。一是强化守土尽责的责任意识，对岗位分内工作要尽心尽力完成，对自身存在的缺点不足要及时发现改正，对他人出现的问题苗头要及时拽袖子提醒，切实做到对岗位负责、对自己负责、对他人负责。二是强化敢于“硬碰硬”的斗争精神，面对歪风邪气敢于斗争，不怕得罪人，不搞“一团和气”，大力营造风清气正的政治生态环境；三是强化迎难而上的创业精神，面对急难险重任务能拿出顽强拼搏的劲头，敢于负起责任、挑起重担，勇于打头阵、啃“硬骨头”、涉险滩，在攻坚克难中锻造敢打硬战、能打硬战的工作作风。', '夯实利于长远的党建基础。习近平总书记在全国组织工作会议上作出了“加强各领域党建工作，推动基层党组织全面进步、全面过硬”的指示要求，我们必须深刻学习习近平总书记关于加强基层党建工作的新思想新论断，把抓基层打基础作为长远之计和固本之举，凝心聚力抓基层，扎扎实实打基础。一是狠抓党员队伍建设。完善党员网格化管理体系，加大党员队伍管理力度，并充分运用“灯塔-党建在线”“学习强国”等载体，以“三严三实”“两学一做”“大学习、大调研、大改进”活动为抓手，扎实开展好“不忘初心、牢记使命”主题教育, 进一步增强每一名党员的先进性、纯洁性。二是加强基层组织建设。严格按照《中国共产党支部工作条例（试行）》《关于新形势下党内政治生活的若干准则》，狠抓基层党组织建设，并加强针对性指导帮带，促进支部战斗堡垒作用发挥；持续实施党组书记抓基层党组织创新创优项目在市社系统的深化推广，重点解决基层党建重难点问题，进一步夯实基层党建工作基础。三是营造干事创业环境。结合市社实际，建立完善干部考核评价以及容错纠错机制，让问责和容错双向发力，真正做到为担当者担当、让吃苦者吃香。对愿干事、能干事、干成事，富有创新精神的党员干部，要在政治上关心、工作上支持、精神上褒扬、物质上奖励，进一步激发党员干部干事创业的内生动力。', '“功成必定有我”体现的是一种历史担当，是在工作中的一种敬业精神，这就要求我们每一名党员领导干部仔细逐一对照党员领导干部标准全面提升能力素质，立足岗位、踏实工作，以上率下、示范引领，带领市社系统党员干部群众以一万年太久、只争朝夕的紧迫感，撸起袖子加油干。', '自我加压，提升素养。对照初心使命、群众期盼、先进榜样，改进工作标准、服务效能，使每名党员干部在思想观念、工作作风和素质能力上均有一个大提升。一是加强学习。以提高业务能力为重点，全面深入学习政治理论和专业知识，坚持干什么学什么、缺什么补什么，以解决个人在政治上、思想上、组织上、作风上、纪律上存在的深层次问题。二是勇于实践。以解决服务基层、服务“三农”工作中存在问题为牵引，深入“三农”工作一线亲力亲为，准确掌握真实底数，及时研究针对措施，真正做到扑下身子、沉到农村、融入群众、解决难题。三是知行合一。始终坚持理论联系实际,坚持用党的创新理论指导解决在服务“三农”、推动乡村振兴战略落实中出现的新情况、新问题，在创新中培育新动能、打造新引擎、实现新跨越，做到理论和实践、知和行的真正统一。', '干在实处，走在前列。我们要牢固树立一名党员就是一面旗帜、一名党员就是一个标杆的先锋模范带头意识，在市社系统叫响“向我看齐”，始终做到在党言党、在党忧党、在党为党，把爱党、忧党、兴党、护党落实到工作生活各个环节。一是加大市社系统各级领导班子建设力度，发挥好“关键少数”的核心引领作用，带头做到思想过硬、责任过硬、能力过硬、作风过硬，真正形成“头雁效应”；二是切实履行“一岗双责”，牢固树立“抓党建是本职、不抓党建是失职、抓不好党建是渎职”的责任意识，严格按照《市社党组成员联系基层制度》，在抓好分管处室业务、企业发展的同时狠抓基层党建工作，持续推动全面从严治党向纵深发展。三是对标对表先进，积极主动向全国供销系统先进单位武汉市、长春市供销社进行对标对表学习，特别是要学习他们在传统企业改制、做大做强社有企业、打造为农服务平台、引领农村合作经济新组织等方面的先进经验，找准自己以后的努力方向。', '驰而不息，纠正“四风”。深刻领会习近平总书记就形式主义、官僚主义新表现的重要批示精神，着力整治形式主义、官僚主义，盯紧“四风”问题新情况新表现，以永远在路上的韧劲纠治不正之风的新动向、新表现。一是加大整治“四风”力度。落实中央八项规定精神，纠治“四风”问题，要发扬钉钉子精神，一锤接着一锤敲，才能打赢作风建设持久战，决不能让享乐主义和奢靡之风卷土重来。二是加强正面向上引导。督促党员干部求真务实、埋头苦干，不浮躁、不浮夸，追求实实在在的工作业绩，以艰苦奋斗、崇尚实干的工作作风，以勤俭节约、崇尚清廉的家风，带动学风政风社风向善向上。三是加大违规惩处力度。认真贯彻落实《中国共产党问责条例》，通过日常检查、专项督查、年终审计、来信来访等渠道发现问题线索，对主体责任落实不到位的党组织，对党员违纪违规行为严格追责、严厉问责、严肃查处，持续传导正风肃纪强烈信号。', '习近平总书记在中央农村工作会议上提出了实施乡村振兴战略的目标任务，并在全国组织工作会议上作出了“要充分发挥农业大省优势，打造乡村振兴的齐鲁样板”的指示要求。作为供销人，我们要以助力乡村振兴为使命、以服务“三农”工作为责任，加强干部队伍建设，始终坚持用制度管人管事，不断推动供销合作事业稳步向前向好发展。', '重德厚才，锻造过硬干部队伍。严格按照《党政领导干部选拔任用工作条例》，把政治标准放在首位，坚持事业为上，大力选拔敢于负责、勇于担当、善于作为、实绩突出的干部，让那些肯干事、能干事、干成事的干部有作为、有地位。一是坚持关口前移。把好政治思想、资格审查、民主推荐、组织考察和任前谈话等关口，对不符合任职资格条件的一律不上方案，对征求市纪委派驻纪检监察组出具廉政鉴定意见不合格的一律不考虑，对违反干部选拔“十不准”的一律不提拔。二是拓宽用人视野。积极探索有助于人才培养和年轻后备干部脱颖而出的选人用人机制，加大优秀年轻干部的培养、使用、储备力度，科学合理调配干部，形成干部队伍梯次结构。三是激励担当作为。尝试在市社机关各处室走轮岗锻炼和交流培养的路子，鼓励年轻干部创先争优，奋发有为。要敢于压担子，让年轻干部在攻坚克难中增长才干，不断提高干部队伍的整体素质。', '建章立制，坚持制度管人管事。制度带有全局性、稳定性，是管根本、管长远的。因此，我们不仅要健全完善规章制度，而且还要学懂弄通做实，推动制度落地生根见实效。一是着力完善规章制度。去年，市社已经建立健全涉及选人用人、资产管理、党风廉政等各个方面的规定制度20余项，以后将紧密结合市社实际，紧跟新形势新任务新要求不断修订完善，并更加注重在新领域补空白、立新规，以提高制度建设的科学性、合理性。二是树牢遵章守纪意识。开展经常性、针对性、主动性的纪律教育，强化坚持制度、遵守制度、落实制度意识，杜绝制度“写在纸上、挂在墙上、说在嘴上”形式化、两张皮现象。三是强化制度执行力。把制度建设重点放在执行上，定期督促检查市社机关处室、基层单位规章制度的执行落实情况，坚决纠正有令不行、有禁不止的行为，决不让制度成为“纸老虎”和“稻草人”。', '为农服务，推动供销事业发展。严格按照《山东省乡村振兴战略规划（2018-2022年）》，进一步细化实化工作重点、政策措施、推进机制，在助力乡村振兴的同时，努力将市社打造成服务能力强、经济实力强、创新活力强的“三强”供销。一要在指导帮带基层社建设上有新突破。发挥市社优势跑信息、搞联合、找市场，帮助基层社排忧解难，并引导、鼓励、培育、推动基层社和农民专业合作社成为新型农业服务主体，立足当地优势资源和特色产业，通过批量采购生产资料、规模化经营，降低生产成本和交易成本，提高农产品竞争力，带动分散农户合作发展。二要在促进社属企业发展上有新突破。继承发扬供销社传统优势，在加强农业生产资料、农产品、再生资源等传统行业建设的基础上，逐步将社属企业培养成“新网工程”的龙头企业，提高为农服务的经济实力，争取为农业、农村、农民提供更加优质的综合服务。三要在加强机关服务工作上有新突破。为基层做好服务保障是机关的职责，市社机关要准确把握职能定位，主动放下“架子”“面子”，深入基层，沉到一线，在服务中找出路，在竞争中谋发展，要以推动“为农服务中心”建设为龙头，努力推进基层管理服务模式创新，打造“一门式办理”“一站式服务”的综合服务平台，谋求供销社为农服务更为广阔的发展空间。']</t>
         </is>
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A162" t="n">
+        <v>129</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
           <t>中共济南市供销合作社委员会关于巡察整改落实情况的通报</t>
         </is>
       </c>
-      <c r="D162" t="inlineStr">
+      <c r="E162" t="inlineStr">
         <is>
           <t>2019-01-31</t>
         </is>
       </c>
-      <c r="E162" t="inlineStr">
+      <c r="F162" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2019/1/31/art_4115_2824848.html</t>
         </is>
       </c>
-      <c r="F162" t="inlineStr">
+      <c r="G162" t="inlineStr">
         <is>
           <t>['根据市委统一部署，2018年4月19日至6月18日，市委第七巡察组对市供销合作社进行了巡察。9月29日，市委巡察组向市供销社党委反馈了巡察意见。按照党务公开原则和巡察工作有关要求，现将巡察整改情况予以公布。', '党委一班人认真履行巡察整改主体责任和“一岗双责”，把整改能否落实、落实的效果好坏作为衡量主体责任重要尺度，作为推进全面从严治党、推动整体工作的重要抓手，层层传导、落实责任。切实担起整改主体责任，发挥总揽全局、协调各方作用，统筹各方资源在整改落实上集中发力。目前，市社38个具体问题整改任务全部取得阶段性成效。移交线索6个方面25个具体问题，办结20个。', '每月在原有学习计划基础上，补充《习近平谈治国理政》（第一卷、第二卷）、新修订的《中国共产党纪律处分条例》等新的学习内容，制定《习近平新时代中国特色社会主义思想三十讲》学习计划。截至目前,学习习近平总书记在山东考察工作结束时的重要讲话精神等重要文献37篇。二是树立正确的学习观，真学真懂真信真用。5月18日，党委中心组集中学习了马克思主义及《共产党宣言》、习近平关于《深刻感悟和把握马克思主义真理力量 谱写新时代中国特色社会主义新篇章》，充分发挥“关键少数”的示范和表率作用，结合市供销社深化改革、促进发展、服务城乡的实际，深入研究带有全局性、战略性、前瞻性的重大问题，为党委重大决策提供理论支持。三是明确责任，规范操作。制定《党委理论中心组学习制度落实清单》，做到学习有专题，成员有签到，交流有发言，学习有记录、现场有影像。', '关于党委理论中心组学习形式单一，记录不全，主要方式为领导念、大家听，结合工作研讨少，理论联系实际不够，对新思想、新发展理念理解不深的问题，重点从三个方面进行整改。', '根据学习主题安排，采取轮流发言、重点发言、抽点发言等多种形式，最后进行点评发言，以此推动学思研相结合，使大家在交流互动中相互启迪、深化对研讨主题的理解把握。截至目前，党委中心组成员集中交流发言6次，由于每次学习活动准备充分，理论联系实际紧密、不绕弯子，问题、短板找得准，症结分析得透彻，解决问题的举措定得实，针对性强，学习效果十分明显。二是丰富形式，强化现场体验。带着感情学、带着信念学、带着使命学，采取体验式、情景式现场教学，走进社属企业、走进基层社区、走进报告会、走进党性教育基地等各类“开放课堂”。市社分两批(十一月下旬、十二月上旬)组织党委成员及党员干部赴井冈山进行红色教育。期间，市社党委书记、党委中心组理论学习组长张国松同志给党委中心组成员和党员干部作了加强党性信念、传承主旨为题的党课辅导，触景生情，引发了同志们思想共鸣。三是学以致用，强化问题导向。中心组学习坚持问题导向，注重实际效果，每次学习都要提出解决的目标靶心，力求一次学习解决一个实际问题。9月30日党委中心组集中学习新修订的《中国共产党纪律处分条例》及相关权威解读，党委中心组成员对照市委第七巡察组对供销社系统反馈意见，带着整改问题学，找问题症结，找问题根源，找制度短板，积极提出做好问题整改的中肯建议。', '关于围绕“服务城乡、推进供销社综合改革”尚未形成系统性思路和有效措施问题，主要从以下六个方面整改。', '全面贯彻落实市委市政府部署和有关文件精神，9月份，分管领导带领合作指导处等处室和各（区）县供销社业务主任一行10人，赴武汉市供销合作总社考察为农服务体系和直属企业建设经验。二是深入推动市供销社系统内“放管服”改革。注重换位思考，进一步重心下移，简化程序，充分发挥好法律顾问作用，进一步为企业做好服务保障。全面审查企业拟签合同和合同备案工作，对单位提报的对外房产租赁合同（协议）、公司章程，安排相关单位认真履行内部决策程序，充分听取各方面的意见建议。对各企业的历史遗留问题进行认真梳理排查，确保决策的民主性、科学性和准确性。三是加快推进供销社体制机制创新。充分发挥基层社联系农民的优势，广泛吸纳农民加入各类专业合作社，目前县级农民专业合作社联社已经实现全覆盖，镇级农民专业合作社联社已经实现涉农镇全覆盖，专业合作社累计达到1268个。整合社会优质资源联合合作，进一步提升供销合作社为农服务能力，坚持民主办社、开放办社，吸纳更多经营服务主体加入供销合作社，健全为农服务产业链。目前各（区）县供销社已经与9家企业签订开放办社协议。四是全力推进为农综合服务中心建设。今年建成为农服务中心6处，依托（区）县农业服务公司和为农服务中心，积极开展农村大田托管，进一步提升农业服务规模化水平，全市供销社开展土地大田托管服务130万亩。五是加快推进流通经营网络建设和改造。县级电商服务公司、涉农乡镇镇级电商运营中心实现全覆盖，村级电商服务站达到290个，全年预计电子商务交易额10亿元。六是细化工作方案。为推动（区）县供销社工作，根据省社《全省供销社综合业绩考核办法》，细化工作方案，推进工作落实。', '关于党委班子存在惯性思维，安于现状，发展思路不清晰，工作重点不突出，标准要求不够高，开创性推进工作的办法和措施不多，系统的整体优势没有得到充分发挥问题，重点从三个方面整改。', '牢固树立省会意识和省会标准，牢牢把握走在前列的要求，结合“大学习、大调研、大改进”活动，开展解放思想大讨论活动，市社党委制定下发文件2次，组织理论中心组专题学习3次，在公共区域制作更新摆放十九届全会及两会精神展板2块，营造浓厚的学习氛围。召开市社党委务虚会1次，集中组织处级以上领导干部开展党的十九大精神学习培训5天；紧紧围绕基层党建工作、（区）县供销社综合改革与发展、新旧动能转换等内容，共设置6个调研课题，成立6个调研小组，形成调研报告7篇；查找梳理了需要解决的问题56项，制订整改措施64条。二是“对标对表”先进找差距。4月下旬，由2名分管领导带队，组织相关处室10余名业务骨干就所属8家企业落实推动新旧动能转换工作情况以及企业经营现状等情况，重点围绕梳理制约企业发展瓶颈及存在的困难和问题，在发掘自身优势、结合实际选准切入点和突破口上，进行了仔细深入研究论证，进一步理清企业下一步的工作思路和努力方向。8月上旬，市供销社安排2批人员共10多名业务骨干，在分管领导带领下，赴全国供销社系统先进单位长春市供销社、武汉供销合作总社考察学习，通过座谈交流、实地考察、现场体验、观摩介绍等方式，在企业改革发展、资产管理运营、市场建设、基层供销社为农服务等方面，开拓了视野、理清了思路。三是及时维护“济南市公务员平时考核管理系统”。加大平时考核力度，进一步完善出勤、纪律、作风、廉政、绩效考核等内部管理制度，用制度管人，靠制度管事。进一步明确分管领导、责任处室、完成时限，建立督导考核制度。', '关于直属企业管理现代化水平不高，加强党的领导和完善现代公司法人治理结构没有形成有机统一，多数企业处于老体制、守摊子的状态的问题，重点从三个方面进行整改。', '积极探索社属企业现代企业制度改革路子，进一步落实市供销社推进直属企业创新体制，逐步形成科学的决策、执行、监督机制，合理的人事、劳动、分配等机制，建立规范的公司法人治理结构，实现全面的切合实际、行之有效的内部管控制度体系建设，实现制度化、规范化、科学化运行管理。二是深化社属企业改革，促进社有企业集约化、精细化管理。姚家分社整体划归投资公司，商贸中心划归农资公司管理，同时，新成立了济南供销农业服务发展有限公司，构建以种子为中心集化肥、农药、园林、绿化上下游相关产品科研、种植展示、销售、冷链仓储、物流、信息服务等为“三农”服务的综合平台，现种子市场初具规模、开端良好。为下一步为农服务和融合发展奠定了坚实基础。三是探索以技术创新推动再生资源回收由废品经营向环境服务上转型。借鉴其它省市回收企业成功经验，指导再生资源总公司起草《济南市回收体系建设规划方案》，以融合发展为契机，以技术创新突破回收经营固有模式，逐步实现再生资源回收由推进经营型向服务型转变，探索垃圾回收和废品回收的两网结合途径，各项工作正稳步推进。', '关于各（区）县行业发展极不平衡，全市还没有形成统一的发展规划和各具特色的运行模式。为农服务工作成效不明显，市供销社近两年在全省供销系统综合业绩考核中分别列16位和15位的问题，主要从两个方面进行整改。', '加大落实《济南市供销合作社党委委员联系基层制度》力度，按照任务区分，积极指导章丘区、历城区供销社继续加强为农服务体系和农村流通体系建设，围绕开展农业社会化服务和农民生产生活服务，在为农服务中心建设，城乡社区流通网络及超市建设、党建带社建村社共建、农村合作经济组织建设等方面继续发挥头雁效应。指导济阳县、商河县供销社以恢复基层组织体系和基本经营服务功能为重点，通过发展新兴经营业态、农村电子商务、合作经济组织，以及其他经营主体带动、鼓励供销社能人（改制后流向社会、发展较好的供销社原职工）回归等方式，解决基层供销社经营网络、服务功能恢复重建问题。指导长清区、平阴县供销社以强化内生动力为重点，协助当地妥善处理内外拖欠，在保持稳定的基础上，通过资产重组、开发建设等方式逐步恢复供销社经营服务功能。二是提高工作效能。对照《全省供销合作社系统2018年综合业绩考核办法》列举的11个常规考核内容和3个奖分事项，进一步明确目标，强化措施。深入田间地头，细化工作方案，分解工作目标，加强与（区）县领导协调沟通，以解决问题的实际成效，推动整体工作全面提升。力争在全国供销合作总社和全省供销社综合业绩考核中名次有提升。', '关于党委没有将意识形态工作提上重要议事日程，没有制定落实意识形态责任制的相关措施问题，制定出台和严格落实《中共济南市供销合作社委员会关于意识形态工作责任制实施细则》进行整改。市社党委成立意识形态工作领导小组，建立意识形态工作责任制，明确党委领导班子、领导干部的意识形态工作责任，各级党组织领导班子对本单位意识形态工作负主体责任。切实形成党委统一领导、党政齐抓共管、部门分工负责的工作格局。市社党委定期召开意识形态工作会议，辨析思想文化领域突出问题，对重大事件、重要情况、重要社情民意中的苗头倾向性的问题，有针对性地进行引导。提高意识形态领域舆情预判、分析、处理等能力，确保其关键时刻能站出来、顶得住、冲得上、打得赢。', '关于党委会和主任办公会议事权责边界不清，班子成员分工、年度资金分配、启动“两学一做”学习教育和直属企业干部任用等事项均在行政会议上研究的问题，重点从完善制度上进行整改。', '，召开供销社第29次党委会，对党委会议研究内容、主任办公会研究内容进行严格规范。研究审议通过《党委会议事规则》、《主任办公会会议规则》。下一步在工作中重点抓好落实。', '关于党委民主生活会讲表面问题多、剖析党性问题少，没有达到“红脸、出汗”的效果的问题，着重从三个方面整改。', '为确保巡察反馈整改落实专题民主生活会效果，市社党委认真学习《中国共产党章程》及有关规定，学习市纪委机关、市委组织部联合下发的《关于严格规范县以上党和国家机关党员领导干部民主生活会的通知》（济组通字〔2018〕21号）通知精神，坚持以习近平新时代中国特色社会主义思想为指导，深入贯彻习近平总书记关于视察山东重要讲话和一系列重要指示精神，坚持问题导向，深刻查找梳理存在的突出问题，切实把自己摆进去，把工作摆进去，把职责摆进去，把思想摆进去。二是领导率先垂范。党委书记、副书记带头进行批评和自我批评，委员们紧密联系思想、工作和生活实际，认真查摆了自己存在的问题。通过敞开心扉，真诚相见，彼此之间真批评、有辣味，进一步找到了各自存在的差距和不足，同时，增进了理解沟通，化解了矛盾分歧，拉进了感情距离，班子更加团结。三是加大对所属党组织的日常管理监督。认真对照市纪委机关、市委组织部联合下发的《关于严格规范县以上党和国家机关党员领导干部民主生活会的通知》，督导机关和企业各级党组织开好民主生活会、组织生活会，对会上相互批评质量不高的，或以谈工作建议和业务问题代替批评的坚决要求重开，并由党组织书记代表班子做出检讨。', '关于谈心谈话制度落实不到位，班子成员与基层党员干部交流少的问题，着重从建立定期谈心谈话制度的三个方面进行整改。', '市社统一下发谈心谈话笔记本，要求领导班子成员之间原则上每季度至少谈话一次，领导班子成员与各自分管处室负责人之间原则上每季度至少谈话一次，领导干部与党员之间、党员与党员之间适时进行谈话，并做好记录。截至目前，市社领导共与党员谈话70余次。二是把握谈心谈话重点内容。谈心谈话要“见人见事见思想”，通过谈心谈话，认真听取意见建议，了解和掌握党员干部思想、工作、作风、学习及家庭生活等方面的情况，进一步营造团结和谐、健康向上的政治环境，截至目前共计接收采纳党员干部意见建议15条。三是明确谈心谈话形式。谈心谈话采用个别谈话与集体谈话相结合的方法进行，一般采取“一对一、面对面”的方式深入沟通交流，涉及共性谈话问题时，有时也采取“一对多”的方式，进行集体谈话，或结合“主题党日”活动开展，截至目前各支部采用不同形式共计谈话130余人次，融洽了领导与领导、领导与同志们、同志们之间的感情，工作更加顺畅。', '关于机关4个党支部“三会一课”制度落实不规范，党费收缴不及时的问题，已整改完成并将长期坚持。', '及时安排部署机关党员学习活动，以清单的形式，让支部书记、普通党员明确学习内容、学习时间、学习形式，让党员活动变得有章可循。二是建立“台账落实制”。及时建立《机关开展“三会一课”、“主题党日”、“党员学习”工作台账》以季度为单位，进行督导落实。机关党委每月月初、月中、月末对党支部三次提醒，确保其按时保质保量开展党员活动。截至目前，机关支部开展主题党日活动33次（其中机关在职三个支部共30次，离退休党支部3次），支部集中学习70余次。三是完善“支部微党群”，丰富基层党支部活动载体。通过转发小事例、小典故，阐明大道理，大家喜闻乐见，既听得懂，也学得进，通过“微党群”，让支部活动真正“活”起来，截至目前，“支部微党群”共计上传相关材料80余篇。四是规范党费收缴工作。按月收缴，严格执行党费收缴、管理、使用规定，做到账目清楚，手续完备，使用合理。', '关于个别谈话中，有的党员干部说不全自己所在支部的支部委员；有的不知道“三会一课”的内容；有的不明白组织生活会的概念；有的说不全“四个意识”的内容问题，着重从三个方面进行整改。', '，市供销社举办了系统党务知识培训班，市社机关、基层党组织书记及党务干部共计60余人参加。分别从基层党组织建设和工作开展实务、贯彻落实《中国共产党支部工作条例（试行）》、如何开好组织生活会等方面进行了党建业务基础知识学习培训，提高了党务干部业务素质和工作能力，清晰了工作思路，拓宽了视野，开阔了眼界，提升了认识，掌握了方法，增强了做好党务工作的信心。二是落实党务公开制度。各支部及时将所在支部重要事项传达全体党员干部，同时调动党员干部积极关心所在支部工作。根据《中共济南市委组织部关于公示2017年度省委组织部代省委管理党费收支情况的通知》精神，按照公示内容、公示范围、公示方式、公示时间和公示要求，及时形成书面材料，报送上级党组织。三是开展“纪念伟大胜利 传承红色基因”主题教育活动。11月下旬和12月上旬,组织机关全体党员赴井冈山革命教育基础开展主题教育实践活动。', '关于2016年9月市社党委没有履行审核把关职责，对个别直属企业党支部换届大会到会人数达不到选举要求的选举结果进行了批复的问题，着重从两个方面进行整改。', '将历年来所有直属企业党组织换届情况全面清查一遍，并深入开展举一反三自查自纠，未发现类似问题。二是及时开展培训。组织举办了为期1天的党务知识培训班,企业40余人基层党务工作者参加，重点加大了党建工作相关政策规定的学习力度，全面提高市社机关党务工作者的理论水平和业务能力，并严格按照规章制度抓好具体工作的落实，严把审核批准关口，防止此类问题再次发生。', '关于有的直属企业党组织设置不合理，存在“支部管支部”现象，导致工作运转不顺畅的问题，立行立改。', '设立投资控股公司党总支，全面负责领导投资公司和由其全面管理的企业党建工作；撤销贸易总公司党总支，成立贸易总公司党支部。', '市社党委高度重视，通过严格的标准，规范的程序，优中选优，及时为再生资源总公司、储运总公司、投资控股有限公司、装饰总公司选拔4名干部，充实到领导岗位，配齐配强企业班子。', '关于有的企业党委总揽全局、协调各方的作用明显弱化，甚至出现了行政会议研究部署“大学习、大调研、大改进”活动、党风廉政建设责任制贯彻落实、人事安排等本应由党委会研究事项问题，重点从两个方面进行整改。', '及时为果品总公司和英雄山文化市场选派一名优秀干部补充领导班子。二是狠抓主体责任和“一岗双责”落实。认真落实《市社党委委员联系基层制度》，加大对企业领导班子的指导力度。切实做好党委会、行政办公会等重要会议决策事项的准备酝酿工作，凡属“三重一大”事项，一律坚持集体领导、个别酝酿、民主集中、会议决定，切实发挥好党委总揽全局、协调各方的作用。', '关于有的企业2016年、2017年“三会一课”制度未落实。有的企业2018年前“三会一课”纪实材料空白。还有的企业没有党小组活动记录的问题，着重从规范管理、督导检查等方面整改。', '对装饰总公司、再生资源总公司、英雄山文化市场三家企业党组织提出严肃批评。以此为契机，10月份，专门举办一期党务知识培训班，对社属企业党务工作人员进行党务工作培训，严格规范“三会一课”、组织生活会、民主评议党员等党内组织生活流程，落实各阶段要求。为党委委员、机关党支部书记配发《谈心谈话记录本》，要求基层统一《“三会一课”记录本》、《党员学习记录本》，坚持全面准确、真实完整记录党支部、党小组各项组织生活，做到有活动、有记录、有检查、有反馈，推动组织生活正常、规范。二是加强督导检查。以《关于从严落实基层党组织建设和党员教育管理的五项制度》为抓手，督导基层各单位从严落实党员日常管理制度、基层党组织“三会一课”报告检查制度、“主题党日”制度，形成落实基层党建重点任务长效机制，实行痕迹化管理，对不按规定开展组织生活，开展质量不高、没有记录、瞒报虚报的,从严追责问责。', '对照济南市人才培养“一号工程”，把握省、市机构改革时机，结合供销社机关干部退休、新入等实际，适时进行机关干部调整，把想干事、能干事、敢担当、善作为的年轻优秀干部选拔到重要岗位上来，增强供销社干部队伍的活力。', '关于直属企业老职工多，高层次企业管理人才引不进、留不住，40—50岁的班子成员和中层干部几近空白。企业干部横向交流少，2个直属企业主要负责人任职超过16年的问题，主要采取三项整改措施。', '积极探索有助于人才培养和年轻后备干部脱颖而出的干部使用机制，形成科学合理的干部队伍梯次结构。通过严格考核、组织推荐、综合考察等组织程序，遴选出一批热爱供销事业、政治表现好、工作能力突出等综合素质过硬的年轻干部担任企业领导。截至目前，已选派、调整交流企业领导干部8名，充实企业领导岗位以来，新提拔的干部工作劲头足，未提拔的年轻干部有奔头。二是建立企业领导、中层干部后备人才库（简称“两库”）。针对企业干部队伍年龄相对偏大，专业人才缺乏，梯次结构不合理等现状，参照市委组织部干部使用“一号工程”的做法，对所属企业干部进行全面考察梳理，建立“两库”，形成能者上、庸者下的长效常态机制。鼓励年轻干部争先创优，奋发有为，通过压担子，让年轻干部在攻坚克难中增长才干。三是严把“入口”监管。制定《济南市供销合作社直属企业劳动人事管理办法》、《济南市供销合作社直属企业工资管理指导意见》，督促指导企业根据本单位情况制定相应的制度规定，规范用人和薪酬管理，增强企业职工增人计划的报备管理，严格落实报备制度。', '关于领导班子基层调研不深不实，习惯于听汇报，对直属企业重大事项决策、安全稳定和主要负责人履职尽责等情况掌握不全面、研判不精准，对企业职工反映强烈的问题处置不及时，导致有的企业因在资产租赁和合作经营方面程序违规引发职工多次上访的问题，着重从两个方面进行整改。', '。按照市社党委提出的“学习型、团结型、务实型、效能型、清廉型”五型党组织建设要求，扎实开展“十个一”活动，牢固树立抓好党建就是最大政绩理念。据不完全统计，截至目前，党委委员、机关同志先后有18批、60人次深入企业、（区）县供销社指导、调研工作，取得良好效果。二是加大对企业安全、信访稳定工作的指导力度。贯彻“党政同责、一岗双责、齐抓共管”原则，认真落实《地方党政领导干部安全生产责任制规定》，及时成立市社安全生产工作领导小组，明确市社党委委员在安全生产中的职责，所属单位逐级签订了安全生产目标责任书，安全责任到岗、到位、到人全方位落实安全生产责任制，确保了全系统安全工作扎实有效的开展。与此同时，以解决职工群众实际问题为出发点和落脚点，扎扎实实解决职工群众反映的实际问题，努力提高信访工作的效率和质量。', '关于班子成员在“大学习、大调研、大改进”活动中到基层调研缺乏统筹安排，加重基层负担的问题，立行立改并长期坚持。', '制定下发《济南市供销合作社工作调研制度》。切实增强全局意识和“一盘棋”思想，要求调研人员轻车简从，力戒形式主义，避免给基层增添额外负担，不能影响基层的正常工作。按照事前有谋划、调研有导向、情况有反馈的“调研三步曲”，认真倾听群众呼声，注重理论、实践结合，保证调研工作的针对性、时效性和科学性，15个工作日内形成有情况、有分析、有建议的调研报告，并将调研工作执行落实情况列入机关工作人员年度考核的一项重要内容，列入班子成员年度述职述德述廉报告和年度民主生活会的一项重要内容。从而为党委决策和解决问题提供科学依据。', '机关领导落实《济南市供销合作社党委委员联系基层制度》，切实改进作风，领导班子每季度深入基层总数平均20多次。集中精力用于研究解决、督促指导(区)县及基层供销社改革发展，稳步推进重点联系（区）县供销社综合改革，加强与（区）县政府相关部门的沟通衔接，以实际行动支持（区）县供销合作社工作。二是靠项目驱动。积极引导，围绕推进为农服务中心建设服务的“六大板块”即智能配肥、测土配方、统防统治、农机作业、粮食收储（烘干）、农民培训，加快提升农业社会化服务水平。三是靠与财政部门等上级业务部门沟通联动。深入解读中发11号文件关于财政专项资金作为供销社股份投入为农服务设施建设的政策精神，结合我市关于进一步推进涉农资金统筹整合的意见和省级部门规定，明确专项资金指导性任务、支出重点和工作目标，加快供销社农业社会化服务能力建设。四是靠《全省供销社综合业绩考核办法》带动。依照省社考核办法，细化、数化业务指标，狠抓工作落实，全面推进（区）县供销社工作，争取在全省供销社综合业绩考核中取得好的名次。', '（二）坚决抵制、纠正享乐主义、奢靡之风，坚决克服、防范违反中央八项规定精神问题发生', '关于巡察发现，市供销社机关存在午餐饮酒超人数陪餐和超标准乘坐交通工具的问题。重点从两个方面整改。', '明确提出严格落实禁酒规定，禁止工作日午餐饮酒；严禁公务活动违规喝酒；严禁在会议、集训、培训、检查、调研等期间宴请喝酒，发现违纪行为按有关规定严肃处理。二是约谈超人数陪餐相关人员。市社配合市纪委第三纪检监察室、市纪委派驻第七纪检监察组对相关陪餐人员进行了约谈提醒。相关同志在党委专题民主生活上做了深刻检查。', '经核查，济南博茗茶叶市场总经理乘坐公务舱。为参加中茶协团组活动，中茶协做了如下说明：2017年8月10日－17日，我协会应邀组团邀出访印度、斯里兰卡参加国际会议并调研两国茶叶市场和生产加工情况，该团组成员中济南博茗茶叶市场总经理是该团组中唯一的副会长。因此，我会安排其担任该团团长，在出访过程中为方便商量工作，沟通交流行程安排，我会建议组中副会长和各企业董事长、总经理乘坐公务舱。根据其乘坐公务舱实际情况，报经市纪委派驻第七纪检监察组同意，市社党委对其进行批评教育，不做违纪处理，在今后工作中加强党员领导干部教育管理，强化制度落实。', '关于有的企业违规处置、超标准配备公务用车，主要负责人办公室配备全套黄花梨木家具问题。', '企业违规处置、超标准配备公务用车问题线索，市纪委派驻第七纪检监察组正在调查审理之中。', '主要负责人办公室配备全套黄花梨木家具问题，市社党委对此高度重视，专门派出工作组，迅速督促文化市场彻底整改并对企业主要负责人进行严肃批评教育。文化市场及时将花梨木家具移出主要负责人办公室，妥善保存，更换了符合标准的办公桌，并表示今后坚决杜绝类似事情发生。', '年以来，市社管理企业主要负责人补贴，企业主要经营者以外的其他领导由企业结合实际自行确定。市委第七巡察组和市纪委派驻第七纪检监察组提出市社指导管理直属企业相关制度不够规范后，市社党委高度重视，及时对涉及问题的企业负责人进行了批评教育。同时，市社印发了《济南市供销合作社直属企业工资管理指导意见》、《济南市供销合作社直属企业全方位责任目标管理办法》，制定了所属企业目标考核管理办法及额度标准，进行了统一规范，以杜绝此类问题发生。', '，市社成立调查核实小组，对再生资源总公司、济南博茗茶叶交易中心、果品总公司2018年“清明”、“五一”假期期间公车私用情况进行调查核实，并于当天将相关核查材料上报市纪委派驻第七纪检监察组，11月14日果品总公司党委书记被市纪委派驻第七纪检组进行约谈，并写出了书面检查。经市纪委派驻第七纪检监察组调查核实，再生资源总公司、济南博茗茶叶交易中心不存在公车私用问题，果品总公司公车私用问题正在审理之中。', '对此，市社制定印发了《济南市供销合作社干部外出请假报备暂行规定》、《济南市供销合作社关于健全完善请示报告制度的暂行规定》、《济南市供销合作社公务出行及车辆管理暂行细则》，以加强人员车辆管理。', '关于党委对党风廉政建设和反腐败工作不够重视，领导干部“一岗双责”落实不到位问题，从两个方面整改。', '签订党风廉政建设责任制，严格履行“一岗双责”，７月份市社党委召开党风廉政建设形势分析会，听取党委班子成员对分管领域及业务处室内党风廉政建设督导情况汇报，调度“班子”成员履行“一岗双责”情况，及时分析和解决党风廉政建设方面存在的问题，对发现的倾向性苗头性问题，及时督促整改，做到党风廉政建设工作有人抓、问题有人管、责任有人担。二是压实责任，严格履行“一岗双责”。按照《济南市供销合作社党委委员联系基层制度》、《济南市供销合作社党委关于对所属企业领导班子和领导干部年度考核的意见》要求，市社党委定期调度班子成员落实“一岗双责”情况，每半年听取班子成员对分管领域及业务处室内党风廉政建设督导情况汇报，及时分析和解决党风廉政建设方面存在的问题，对发现的倾向性苗头性问题，及时督促整改，做到党风廉政建设工作有人抓、问题。', '关于个别党员干部和企业负责人政治意识和规矩意识淡薄，我行我素、不受约束，甚至出现了顶风违纪的情况，着重从三个方面进行整改。', '把纪律树起来、严起来、挺起来，综合应用廉政警示教育，制度管控，监督检查，问责追责等方式，筑牢党员干部职工知敬畏、明底线、守规矩思想防线。10月份，积极组织系统党员干部参加全市组织的《中国共产党纪律处分条例》网上学习测试，市社机关党员干部、直属企业领导班子成员均以优异成绩通过学习测试活动。截至目前，市社共开展了6次专题警示教育活动，组织观看全市营商环境明查暗访纪实片，学习省市纪委违反纪律案例通报，以案说法，以案明纪。二是狠抓组织制度落实。６月份，结合全市开展的“汲取教训 严守规矩 强化担当”专题教育活动，要求机关各党组织严格按要求召开好组织生活会，各支部认真学习市委市直机关工委印发的违纪通报，结合市社系统两起违纪案例，进行认真剖析，开展批评与自我批评，并列出问题整改清单。7月4日，机关党委负责人与机关每名党支部书记进行集体谈话，相互交流思想，了解工作情况，扯扯袖子，及时提醒苗头性、倾向性问题；各党支部书记分别与所在支部党员干部进行了谈心交流，及时了解每名同志思想动态，避免党员干部有重大事项变化时，组织失察。三是狠抓执纪“四种形态”监督管理。从严落实《中国共产党问责条例》，强化违规违纪行为零容忍，对政治意识规矩意识不强，违规违纪的党组织、党员干部从严追责，发现一起，处理一起，通报一起，并从严从快抓好整改。开展巡察工作以来，在市纪委派驻第七纪检监察组的指导下，以“零容忍”的态度，对系统内违纪违规人员进行了严肃查处并通报全系统，起到了警示震慑作用。', '关于党委在直属企业和企业领导干部监督管理意识不强、没有建立联系分管直属企业制度上的问题，主要从四个方面整改。', '一是修改完善《济南市供销合作社党委关于对所属企业领导班子和领导干部年度考核的意见》。', '把考核结果作为对领导班子总体评价和领导干部业绩评定、奖励惩处、选拔任用的重要依据。二是印发《济南市供销合作社内部审计暂行办法》，积极做好内部审计工作。按照市社党委、理事会的要求，严格社有资产的运营购置和处置报告制度，及时掌握社有资产动态，确保社有资产的保值增值。认真做好企业内部审计调查工作，对所属企业经营目标执行情况进行全面审计调查。对（区）县供销社有关项目进行调查。三是严格执行各项支出规定。完善财务报销流程，认真做好机关日常报销、水电费的收取工作，及时处理账务上缴预算外收入等工作。根据审计局要求，每季度上报《“三公”经费、会议和外出学习考察情况统计表》。根据财政局要求,每月上报《我市贯彻中央&lt;八项规定&gt;和省委&lt;实施办法&gt;项目统计报表》,并进行了“三公”经费压缩和车辆运行经费调整，取得了明显成效。四是制定出台并严格执行《济南市供销合作社党委委员联系基层制度》。充分发挥基层领导者在抓落实中的“第一推动力”作用，以一抓到底的狠劲、一着不让的韧劲、一丝不苟的严劲，抓好制度落实，推动工作落实到位。进一步提高法治化、规范化管理水平。', '实行主任负责制，监事会主任主持监事会全面工作，副主任协助主任工作，按照“调查研究，反映情况，监督检查，提出建议”的工作方针，全面参与、服务中心工作。重点对社属企业重大问题决策、重要干部任免、重大项目投资决策、大额资金使用的“三重一大”行为进行监督，努力形成外部和内部监督相结合，事前、事中、事后监督相结合，阶段性监督和常规性监督相结合，事前预防与事后惩戒相结合的工作格局。二是修订完善《直属企业全方位责任目标管理办法》，及时做好2018年直属企业经营管理目标的签订工作。在分管领导的指导下，积极开展调查研究，充分分析基础数据，实事求是同各直属企业落实签订企业经营管理目标责任书。以确保经营管理目标责任书的科学性、实用性，真正达到调动企业经营者积极性，确保各项经济指标完成的目标。三是出台了《济南市供销合作社内部控制管理手册》、《济南市供销合作社内部控制制度》。按照市财政局及审计局的要求，积极做好事业单位内部控制工作。及时成立济南市供销合作社内部控制领导小组，从完善企业内部监督体制机制着手，堵塞企业管理漏洞。下一步，将要求各直属企业结合自身实际，制定完善企业内部控制制度，提升供销社直属企业的管理水平和能力。四是出台《济南市供销合作社直属企业劳动人事管理办法》和《济南市供销合作社直属企业工资管理指导意见》，指导直属企业制定《企业中层干部管理办法》。督促指导企业根据本单位情况制定相应的制度规定，规范用人和薪酬管理，严格落实报备制度。', '关于有的企业长期由不具备资质的个人承接工程建设，巨额资金白条入账的问题，从加大直属企业的基建项目审计进行整改。', '关于工程建设巨额资金白条入账问题线索，市纪委派驻第七纪检监察组调查核实，不存在白条入帐问题。', '认真执行《济南市供销合作社内部审计暂行办法》，加大直属企业基建项目审计力度，聘请中介对英雄山文化市场基建项目进行审计，审计工程决算569万元，审减支出81.6万元，审减率14.3%。', '市社积极配合市纪委派驻第七纪检监察组对相关情况进行核实，具体情况是，2009年9月1日以来，市社管理企业主要负责人的风险金，企业主要经营者以外的其他领导由企业结合实际自行确定奖惩办法（济供资管字〔2009〕13号）。市委第七巡察组和市纪委派驻第七纪检监察组提出市社指导管理直属企业相关制度不够规范后，市社党委高度重视，及时安排相关业务处室对有关制度进行修改完善，2018年5月市社印发了《济南市供销合作社直属企业全方位责任目标管理办法》（济供字〔2018〕13号），第四大条第（五条）中提出企业经营者以外的企业领导人员由企业参照本办法制定目标考核管理办法及额度标准，并报市社职能处室备案。', '月中、下旬对英雄山文化市场、再生资源总公司主要领导提出严肃批评。已按程序免去相关同志现任职务。', '经过两个多月的集中攻坚，供销社党委在狠抓整改落实、推进全面从严治党方面取得积极成效。同时我们也清醒地认识到，巡察整改落实情况，与领导和同志们的要求还有不小差距，巩固深化集中整改成果的任务仍然艰巨。我们将始终保持永远在路上的定力和耐力，不忘初心，牢记使命，不断把整改落实引向深入。', '（一）坚持把学习贯彻习近平新时代中国特色社会主义思想和党的十九大精神作为首要政治任务', '严格执行理论学习中心组学习计划及党员学习计划，将习近平总书记重要讲话精神、重要指示精神特别是关于落实全面从严治党、基层党建工作的指示要求及时纳入学习计划，丰富学习内容，进一步树牢“四个意识”，坚定“四个自信”，做到“四个服从”，不断增强“两个维护”的思想自觉和行动自觉。认真建立《机关开展“三会一课”、“主题党日”、“党员学习”工作台账》，以季度为单位，进行督导落实，切实把学习热情转化为推动工作的强大动力。', '全系统各级党组织要认真履行党风廉政建设主体责任，逐级签订党风廉政建设责任书，构筑起廉政风险防控体系，全面履行“三重一大”决策制度，坚持问题导向，突出工作重点，进一步加大对制度的针对性和操作性的前瞻性分析，做到可执行、可监督、可检查、可问责，确保制定出台的制度有强大的生命力。推进全面从严治党，严明党的政治纪律和政治规矩，严格落实中央八项规定和实施细则精神，盯紧“四风”问题新情况新表现，以永远在路上的韧劲严抓元旦、春节、清明、五一、中秋、国庆等重要时间节点，坚决杜绝“节日违纪”；坚持领导率先垂范，一级做给一级看，一给带着一级干，切实形成“头雁效应”。', '针对系统干部队伍年龄相对偏大，专业人才缺乏，梯次结构不合理等实际，进一步加大优秀年轻干部的培养选拔力度，科学合理调配干部。积极探索有助于人才培养和年轻后备干部脱颖而出的干部使用机制，加大对优秀年轻干部的使用、储备力度，形成干部队伍梯次结构。鼓励年轻干部争先创优，奋发有为，敢于压担子，让年轻干部在攻坚克难中增长才干。尝试走轮岗锻炼和交流培养的路子，不断提高干部队伍的整体素质。', '工作作风根本转变不可能一蹴而就，必须长期坚持。我们要以近期出台《济南市供销合作社干部培训管理制度》、《济南市供销合作社关于健全完善请示报告制度的暂行规定》、《济南市供销合作社党员干部外出请假报备暂行规定》等20多项制度落实为切入点，认真贯彻落实《中国共产党问责条例》，通过日常检查、专项督查、年终审计、来信来访等渠道及时发现问题线索，迅速做出反应。认真开展执纪检查，将项目资金实施使用、“三公”经费、履职待遇、业务支出等作为重点检查范围，及时发现和查纠违规违纪问题。配合市纪委派驻第七纪检监察组，对主体责任落实不到位的党组织和党员违纪违规行为，严格追责、严厉问责、严肃查处，全力抓好党风廉政建设主体责任落实，确保反腐败斗争取得压倒性胜利。', '（五）强化职能定位，把主要精力、注意力面向基层、面向农村、服务农民，大力推进农村一二三产业融合发展', '针对（区）县供销社尤其是基层供销社发展不平衡、不充分，干部年龄结构老化、视野不够开阔等问题，及时组织正规的轮训、培训，组织外出学习考察活动，加强与外界的深度交流。加大对基层的深入调研，牢固树立班子成员宗旨意识、群众意识和群众观念，在思想上引起足够重视。推动生产服务向加工、流通等产业链后端延伸，积极发展乡村休闲旅游、文化体验、家庭菜园等新产业新业态，完善利益联结机制。立足区位、交通或资源优势，采取开放办社、争取支持等形式，多渠道加快建设（区）县-镇-村居三级电商服务站和物流配送站，打通农村电商落地“最后一公里”。搞好与总社、省社“供销e家”对接，推动线上带动线下，线下支撑线上，线上线下一体化发展，促进绿色农业发展。围绕农产品产后分级、包装、仓储、物流、营销，加强冷链基础设施建设，健全质量标准体系，提升农产品流通现代化水平。继续坚持“支部1+3”模式，深入开展“党建带社建、村社共建”活动。继续实施农民技能素质提升培训工程。']</t>
         </is>
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A163" t="n">
+        <v>129</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
           <t>济南市人民政府关于印发济南市人民政府工作规则的通知</t>
         </is>
       </c>
-      <c r="D163" t="inlineStr">
+      <c r="E163" t="inlineStr">
         <is>
           <t>2018-07-31</t>
         </is>
       </c>
-      <c r="E163" t="inlineStr">
+      <c r="F163" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2018/7/31/art_114412_4941950.html</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr">
+      <c r="G163" t="inlineStr">
         <is>
           <t>['各县区人民政府，市政府各部门： 《济南市人民政府工作规则》已经市政府第1次常务会议通过，现予印发。', '一、根据《中华人民共和国宪法》、《中华人民共和国地方各级人民代表大会和地方各级人民政府组织法》、《国务院关于加强法治政府建设的意见》和《山东省行政程序规定》、《山东省人民政府工作规则》,对照上级出台的一系列新政新规和市委工作规则，结合我市工作实际,制定本规则。 二、市政府工作要高举中国特色社会主义伟大旗帜,以马克思列宁主义、毛泽东思想、邓小平理论、“三个代表”重要思想、科学发展观为指导,深入贯彻习近平总书记系列重要讲话精神，努力践行创新、协调、绿色、开放、共享的发展理念，始终坚持以人民为中心的发展思想，坚决落实党中央、国务院、省委、省政府及市委决策部署,全面正确履行职能,敢于担当，雷厉风行，快干实干，建设人民满意的法治政府、创新政府、廉洁政府和服务型政府。 三、市政府工作的准则是，执政为民,依法行政,实事求是,民主公开,务实高效,公正清廉。', '四、市政府由下列人员组成：市长、副市长、市政府秘书长、市政府工作部门主要负责人。 市政府组成人员要认真履行宪法、法律和法规赋予的职责,解放思想、开拓创新，严守纪律、勤勉廉洁，全心全意为人民服务。 五、市政府实行市长负责制。副市长、市政府秘书长协助市长工作。常务副市长协助市长主持市政府日常工作。市长外出、休假期间,由常务副市长主持市政府工作。 六、副市长按分工负责处理分管工作,受市长委托负责其他方面工作或专项任务,并可代表市政府进行外事活动。 市政府领导实行工作补位制度,副市长外出、休假期间,由补位的副市长代为处理有关工作。相互补位的领导同志原则上不同时安排外出、休假。 七、市政府秘书长在市长领导下,负责安排处理市政府日常事务工作,协调落实市政府决定事项和市长交办事项。 八、市政府工作部门主要负责人负责本部门工作。要严格依法行使职权,顾全大局、协调配合,切实维护团结统一、政令畅通,坚决贯彻落实市政府工作部署。 市审计局在市长和上级审计机关领导下,依照法律规定独立行使审计监督权,不受其他行政机关、社会团体和个人干涉。', '九、市政府及各部门要加快职能转变，优化服务改革，形成界限清晰、分工合理、权责一致、运转高效、法治保障的机构职能体系。 十、坚持以提高发展质量和效益为中心，推进供给侧结构性改革，落实国家宏观调控政策,深化创新驱动,突破发展短板，不断增强经济综合实力。 十一、依法加强市场监管，加快社会信用体系建设，维护统一开放、公平诚信、竞争有序的市场环境。 十二、加强社会治理制度和能力建设，健全基层社会管理服务体系,拓宽为民服务领域和渠道,强化12345市民服务热线平台作用，实现政府治理和社会调节、居民自治良性互动，创造安全稳定的社会环境。 十三、完善公共服务政策和管理措施,健全政府主导、社会参与、覆盖城乡、可持续、均等化的基本公共服务体系,切实保障和改善民生。 十四、坚持绿色发展，加强环境保护，完善生态文明建设体系，促进经济、社会、环境协调发展。 十五、深化行政审批制度改革，建立健全行政权力清单和部门责任清单动态调整机制，完善政务服务体系。', '十六、市政府及各部门要实行科学决策、民主决策、依法决策，把公众参与、专家论证、风险评估、合法性审查和集体讨论决定作为重大行政决策的必经程序,增强公共政策制定透明度和公众参与度。 十七、除法律、法规或规章规定的由市政府集体决策的事项外，全市国民经济和社会发展计划、财政预决算、重大规划、贯彻国家宏观调控和改革开放的重大政策措施、城市和社会管理重要事务、重大建设项目等重大行政决策事项，由市政府全体会议或市政府常务会议讨论决定。 十八、市政府各部门提请市政府讨论决定的重要事项,必须经过深入调查研究,并经专家或研究咨询机构等进行合法性、必要性、科学性、可行性和可控性论证;涉及有关部门的,应充分协商;涉及各县区的,应事先征求意见;涉及重大公共利益和公众权益、容易引发社会稳定问题的,要进行风险评估。 十九、市政府在作出重大行政决策前,根据需要通过多种形式,听取民主党派、社会团体、专家学者、社会公众等方面的意见和建议。 二十、市政府各部门应当按职责认真贯彻执行重大行政决策，并对执行效果跟踪评估，必要时调整完善。', '二十一、市政府及各部门要带头维护宪法和法律权威,加快建设职能科学、权责法定、执法严明、公开公正、廉洁高效、守法诚信的法治政府。 二十二、市政府根据国家法律、法规修订情况和经济社会发展需要,适时提出地方性法规草案,制定政府规章和规范性文件,修改或废止不相适应的政府规章、规范性文件、行政措施或决定。 二十三、市政府各部门制定规范性文件，必须符合上位法规定，并报市政府法制机构备案审查，统一登记、统一公布。 二十四、市政府各部门要完善执法程序，严格公正文明执法，做到有法必依、执法必严、违法必究，维护公共利益、人民权益和社会秩序。 二十五、实行市政府领导集体学法制度,一般每季度举办一次。', '二十六、市政府及各部门要高度重视政务公开工作，坚持以公开为常态、不公开为例外，全面推进行政决策、执行、管理、服务和结果公开。 二十七、运用互联网、媒体、12345市民服务热线等渠道扩大政务公开参与范围，增进公众对政府工作的认同和支持。 完善新闻发言人制度，及时发布权威信息，强化政策解读，回应社会关切。 二十八、推进“互联网+政务服务”建设，提升政务服务平台功能，推动政务服务上网运行。 二十九、市政府各部门要加强突发公共事件信息报告工作，并根据处置工作进展情况，及时对外公布。', '三十、市政府要自觉接受市人民代表大会及其常委会的监督，认真执行相关决议，按时报告工作，并及时办理代表建议、意见；自觉接受市政协、各民主党派和群众团体的民主监督，虚心听取意见、建议，认真办理提案。 三十一、市政府各部门要依法接受司法监督和监察、审计等专项监督，认真查处、整改监督中发现的问题并及时报告市政府。 三十二、加强政府内部层级监督，严格执行行政复议决定，主动征询和认真听取下级政府及部门意见和建议。 三十三、自觉接受新闻舆论和社会公众监督，认真调查核实有关情况，及时依法处理和改进工作。重大问题要向社会公布处理结果。 三十四、进一步完善信访制度，畅通信访渠道。市政府领导及各部门负责人要亲自处理重要的人民来信，定期接访，协调处理疑难问题。', '三十五、市政府及各部门要健全督查机制，保障工作落实。 三十六、市政府督查工作重点是： （一）国家、省领导批示事项，国务院、省政府及其办公厅有关文件、督查通知要求落实事项； （二）市政府全体会议、常务会议、重要综合性会议、专题会议、现场办公会议决定事项； （三）《政府工作报告》确定的主要目标任务、重点工作、重大事项； （四）市委、市政府及其办公厅重要文件确定事项； （五）全市重点工程、重大项目、重大举措和重要领域改革推进情况； （六）市委、市政府领导批示、指示事项； （七）人大代表建议和政协提案办理情况。 三十七、建立政府统一领导、办公厅（室）综合协调、督查机构组织实施、有关部门及单位配合参与的政府督查工作体系，明确目标责任，完善工作网络，加强动态监管，确保各项决策部署迅速落实到位。实行行政问责制，对推诿敷衍、办理不力、进展缓慢的，采取通报批评、诫勉谈话、组织处理或纪律处分等方式予以问责。', '五十九、市政府组成人员必须高度重视思想政治建设，自觉抓好学习，增强党性修养，坚定理想信念。 六十、市政府组成人员要牢固树立政治意识、大局意识、核心意识、看齐意识，坚决维护以习近平同志为核心的党中央权威，严守政治纪律和政治规矩。 六十一、市政府要自觉接受和坚决维护市委的领导，涉及全局性的重大事项，涉及群众切身利益的重大问题等，及时向市委请示报告。 六十二、市政府组成人员必须坚决执行市政府的决定，如有不同意见可在市政府内部提出，在没有重新作出决定前，不得有任何与市政府决定相违背的言论和行为；代表市政府发表讲话或文章，以及个人发表涉及未经市政府研究决定的重大问题及事项的讲话和文章，事先须经市政府同意。 六十三、市政府组成人员要勇于担当，敢于负责，切实履职尽责。对分工以外的工作，要关心支持，积极配合。 六十四、市政府及各部门要认真贯彻执行《关于新形势下党内政治生活的若干准则》、《中国共产党廉洁自律准则》及中央八项规定精神和省委实施办法、市委若干规定，坚决反对形式主义、官僚主义、享乐主义和奢靡之风，不断加强作风建设、廉政建设。 六十五、市政府及各部门要认真落实党风廉政建设主体责任，把党风廉政建设与经济社会发展各项任务同部署、同落实、同检查、同考核。 要坚持从严治政。对不符合规定的事项要坚持原则不得办理；对因推诿、拖延等官僚作风及失职、渎职造成影响和损失的，要严肃追究责任；对越权办事、以权谋私等违规、违纪、违法行为，要依法依规予以查处。 六十六、市政府组成人员要严格遵守保密纪律和外事纪律，坚决维护国家安全、荣誉和利益。 六十七、实行请销假和外出报备制度。副市长、秘书长外出或休假，应事前报告市长；各县区长外出或休假，须报市长审批；市政府各部门主要负责人外出或休假，须经分管副市长同意后报市长审批。 上述领导干部外出或休假，须提前3天报备，因紧急事项临时外出的，要及时报备。外出或休假期间要保持通讯联络畅通，确保24小时能随时取得联系。 六十八、市政府及各部门要严格执行财经纪律，勤俭节约，精打细算，按规定使用办公用房、车辆，严控一般性支出，真正把有限的资金和资源用在建设和民生上。 严格控制因公出访团组数量和规模，市政府外事机构根据上级有关规定制定因公出访计划并严格执行。 严格执行公务接待有关规定，各类会议活动经费全部纳入预算管理。 六十九、市政府组成人员要带头深入基层调查研究，广泛接触基层干部群众，真正了解基层的情况和困难，切实解决实际问题。调研和检查工作要轻车简从，减少陪同，简化接待，不安排警车带路，不搞边界迎送，工作餐具备条件的一律安排自助餐。除工作需要外，不去名胜古迹、风景区参观。 按照国家有关规定，严格控制各种名目的庆典、论坛、展会、研讨会、评比表彰等活动。除市委、市政府统一安排的活动外，市政府领导不参加各类合影、剪彩、典礼等活动以及各类庆祝会、纪念会、座谈会、博览会等。 新闻报道按照有关规定严格执行。 七十、市政府派出机构、直属事业单位、部门直属机构、正局级行政机构、部门所属事业单位适用本规则。']</t>
         </is>
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A164" t="n">
+        <v>129</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
           <t>市供销社认真学习贯彻落实中共济南市委十一届五次全体会议等系列重要会议精神</t>
         </is>
       </c>
-      <c r="D164" t="inlineStr">
+      <c r="E164" t="inlineStr">
         <is>
           <t>2018-07-20</t>
         </is>
       </c>
-      <c r="E164" t="inlineStr">
+      <c r="F164" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2018/7/20/art_4115_2146455.html</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr">
+      <c r="G164" t="inlineStr">
         <is>
           <t>['近日,市供销社连续召开三次党委会,认真传达学习市委十一届五次全体会议、全市优化营商环境动员大会、全市“深化学习苏浙粤三省经验当好全省走在前列排头兵”工作会议精神。会上,张国松同志全面传达了省委常委、市委书记王忠林同志的重要讲话精神。大家一致认为,市委、市政府在全市深入学习贯彻习近平新时代中国特色社会主义思想和党的十九大精神、深入学习贯彻习近平总书记考察山东重要讲话精神之际召开系列重要会议,对推动全市党员干部牢固树立“四个意识”,切实增强“四个自信”,更加坚定维护以习近平同志为核心的党中央权威和集中统一领导,始终在思想上政治上行动上同以习近平同志为核心的党中央保持高度一致,更加自觉地把习近平总书记重要讲话精神转化为具体工作的生动实践,都具有十分重要的现实意义和深远的历史意义。', '深入学习贯彻习近平新时代中国特色社会主义思想和党的十九大精神、深入学习贯彻习近平总书记考察山东重要讲话精神之际召开系列重要会议,对推动全市党员干部', '7月20日,第十八次党委会根据市委“走在前列”要求,结合实际研究确定了“深入组织动员、抓好市委系列重要会议精神的学习,转变机关作风、全力做好为基层为“三农”服务,抓住重点领域重点环节、打造2.0版市场营商服务,继续加快动能转换、推动经营服务业态的转型升级,对标对表先进、力争走在前列、组织开展考察学习,健全完善激励约束机制、搞好日常督查和年度考核”等六项贯彻落实措施。', '本次党委会,还认真组织学习了省委书记刘家义同志在全省招商引资招才引智工作会议上的重要讲话精神。']</t>
         </is>
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A165" t="n">
+        <v>129</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
           <t>济南市人民政府办公厅关于加快推进农业供给侧结构性改革大力发展粮食产业经济的实施意见政策解读</t>
         </is>
       </c>
-      <c r="D165" t="inlineStr">
+      <c r="E165" t="inlineStr">
         <is>
           <t>2018-08-01</t>
         </is>
       </c>
-      <c r="E165" t="inlineStr">
+      <c r="F165" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2018/8/1/art_2607_2752561.html</t>
         </is>
       </c>
-      <c r="F165" t="inlineStr">
+      <c r="G165" t="inlineStr">
         <is>
           <t>['《济南市人民政府办公厅关于加快推进农业供给侧结构性改革大力发展粮食产业经济的实施意见》政策解读', '粮食产业是关系群众生活和社会稳定的重要产业。为进一步提升我市粮食经济发展活力，优化产业结构，推动全市粮食产业经济做大做强，8月1日，市政府办公厅印发《关于加快推进农业供给侧结构性改革大力发展粮食产业经济的实施意见》（济政办发〔2018〕22号，以下简称《意见》），现就有关内容解读如下：', '粮食产业一头连着农民，一头连着消费者，是保障粮食安全、稳定粮食供求的“蓄水池”“调节器”，也是加快农业供给侧结构性改革、促进农民增收的有效途径。党的十九大报告提出“确保国家粮食安全,把中国人的饭碗牢牢端在自己手中”；今年市政府工作报告也强调“全面落实粮食安全市长责任制”，对粮食安全工作提出了新要求，也为粮食产业发展指明了方向。', '我市粮食产业在大力实施放心粮油工程和居民厨房工程的推动下，经过多年的努力，形成了以国有粮食企业为主导，金德利、民天两大企业为龙头，从农田到餐桌的粮食产业链条，具有鲜明的济南特色。但是，我市粮食产业与先进地市相比，粮食经济总量还不够大、发展水平还不够高、科技支撑还不够强、产业链还不够完整，需要出台指导粮食产业经济发展的实施意见，实现粮食产业提质增效，推动构建更优质、更高效、更持续的粮食安全保障体系。', '《意见》深入贯彻《国务院办公厅关于加快推进农业供给侧结构性改革大力发展粮食产业经济的实施意见》（国办发〔2017〕78号）和《山东省人民政府办公厅关于加快推进农业供给侧结构性改革大力发展粮食产业经济的实施意见》（鲁政办发〔2018〕2号）精神，在深入调研和到先进地市考察学习的基础上，针对全市粮食产业经济发展现状提出了22条具体措施，涵盖了明确总体要求、发展壮大粮食产业规模、推进粮食产业转型升级、拓展粮食产业发展方式、实施科技兴粮和人才兴粮战略、夯实粮食产业发展基础、强化保障措施7个部分，旨在转变政府服务方式，创新服务手段，在助推优势企业高质量发展的同时注重各环节协调发展，加快构建起结构合理、链条完整、绿色生态、效益良好、科技支撑的现代粮食产业体系。', '今年我市将发展粮食产业经济列入粮食安全责任考核，并作为今后粮食安全责任考核的一项重点内容进行考核评分。下一步，市发改委（粮食局）将协同有关部门，加大调度和推进力度，推动《意见》落地见效，努力开创全市粮食产业经济发展新局面。', '济南市人民政府办公厅关于加快推进农业供给侧结构性改革大力发展粮食产业经济的实施意见']</t>
         </is>
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A166" t="n">
+        <v>129</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
           <t>济南市人民政府办公厅关于印发泉城首席技师选拔管理办法的通知</t>
         </is>
       </c>
-      <c r="D166" t="inlineStr">
+      <c r="E166" t="inlineStr">
         <is>
           <t>2018-07-31</t>
         </is>
       </c>
-      <c r="E166" t="inlineStr">
+      <c r="F166" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2018/7/31/art_114411_4941937.html</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr">
+      <c r="G166" t="inlineStr">
         <is>
           <t>['各县区人民政府，市政府各部门： 《泉城首席技师选拔管理办法》已经市政府同意，现印发给你们，请结合实际，认真贯彻执行。', '第一条为深入贯彻实施人才强市战略，加快我市高技能人才队伍建设，提高技能人才整体素质，营造技能人才成长的良好社会环境，调动广大技能劳动者学技术、比贡献的积极性，更好地服务我市“四个中心”建设，根据《山东省人民政府办公厅关于印发齐鲁首席技师选拔管理办法的通知》(鲁政办字〔2015〕233号)等相关文件精神，制定本办法。 第二条 本办法所称泉城首席技师是指在生产一线从事技术技能工作，具有良好职业道德、高超技能水平、丰富实践经验及业绩贡献突出，在全市乃至全省同行业（领域）影响带动作用大，得到广泛认可，经选拔认定的优秀高技能人才。 第三条 泉城首席技师选拔工作坚持公开、平等、竞争、择优原则，充分考虑技术技能型、知识技能型、复合技能型高技能人才的不同特点和行业（领域）分布,重点从我市国民经济发展支柱产业和战略性新兴产业相关企业中选拔。 第四条泉城首席技师每2年选拔1次，每次选拔人数不超过60人，管理期限为4年。 第五条泉城首席技师选拔管理工作由市人才工作领导小组统一领导,市委组织部、市人力资源社会保障局、市财政局等部门成立泉城首席技师选拔管理工作办公室(以下简称市选拔管理工作办公室)。办公室设在市人力资源社会保障局,负责具体实施工作。', '第六条泉城首席技师选拔范围是驻济各级(包括中央、省属单位)各类所有制经济、社会组织中,具有技师以上职业资格并在一线岗位直接从事技术技能工作的人员,符合条件的自由职业者也可参加。 第七条 泉城首席技师选拔条件。 （一）基本条件。 1.热爱祖国,遵纪守法,爱岗敬业,具有良好职业道德和社会公德,为所在单位和社会作出重大贡献,在同行业中享有很高声誉； 2.发扬团队精神,传绝技,带高徒,所带徒弟多人成为企业技能骨干； 3.担当意识和创新意识强； 4.年龄一般不超过55周岁，同等条件下优先从45周岁以下的高技能人才中选拔。 （二）业绩条件（至少具备其中一项）。 1.个人职业技能在省内同行业中处于领先、市内同行业中处于拔尖水平。近4年内在技术改造、引进高新技术设备的消化、使用中掌握关键技术，解决关键技术难题，或能够排除重大关键技术障碍、重大安全隐患，消除质量通病，对提升产品质量有突出贡献，或在编制标准工艺、工作法方面有突出贡献，且获得市高技能人才技能成果二等奖或获得市级以上科学技术发明和科学技术进步奖项； 2.近4年内获得“中华技能大奖”、“享受国务院颁发政府特殊津贴”、“全国技术能手”、“省有突出贡献的技师”、“省技术能手”、“市突出贡献技师”等称号之一； 3.近4年内在全国一、二类技能竞赛中分别获得前六名、前三名，或省级一类、二类技能竞赛中获得前三名、前二名，或市级一类技能竞赛获得第一名。', '第八条泉城首席技师选拔采取自下而上、逐级推荐、专家评审、组织审定的方式进行。各县区、市直有关部门、市行业协会、市管企业及中央、省驻济有关单位负责推荐本县区、本行业系统、本单位候选人。不受理个人申请。 第九条泉城首席技师选拔按照下列程序进行： （一）部署申报。根据当年市人才工作领导小组统一部署，市委组织部、市人力资源社会保障局、市财政局下发申报工作通知，明确时间进度和工作要求。 （二）组织推荐。各县区、市直有关部门、市行业协会、市管企业及中央、省驻济有关单位受理申报后，组织专家进行初步评审，形成推荐人选。推荐人选公示5个工作日无异议的，报市选拔管理工作办公室。推荐时需报送以下材料: 1.泉城首席技师申报表; 2.1000字左右的事迹材料; 3.申报人职业资格证书、主要技术成果、专利、获奖情况等证明材料。 （三）资格审查。市选拔管理工作办公室根据评选条件和标准，对推荐人选的资格条件、申报材料等形式要件进行审查。凡材料弄虚作假者，取消申报资格。 （四）评审遴选。市选拔管理工作办公室组织专家进行评审，在充分讨论和记名投票表决基础上，提出泉城首席技师建议人选名单。 （五）考察公示。市选拔管理工作办公室将建议人选名单在有关网站和申报单位公示，公示期为5个工作日。公示期满后，组织实地考察。 （六）颁发证书。公示无异议且考察属实的，提交市人才工作领导小组研究。市人才工作领导小组研究通过后报市政府同意，由市政府办公厅发文公布名单，并颁发证书。', '第十条 泉城首席技师在管理期内每人每月享受市政府津贴1000元。津贴于每年第四季度集中发放。当年新评选的泉城首席技师津贴于次年发放。 第十一条 泉城首席技师纳入市高层次人才库，市人力资源社会保障局每年组织部分泉城首席技师参加市情省情国情考察、咨询、疗养、休假等活动。强化教育培训，市人力资源社会保障局于评选当年或下一年度对新评选产生的泉城首席技师轮训一遍。 第十二条 泉城首席技师的工资待遇可参照企业经营者实行年薪制,其技术成果转化所得收益,应按照一定比例分配给个人。 第十三条 建立企业补充医疗保险的用人单位，应对泉城首席技师基本医疗保险政策范围内个人负担的医疗费用给予适当补助。管理期内可参加市每年组织的泉城首席技师健康查体。用人单位应当依法安排泉城首席技师带薪休假。 第十四条 泉城首席技师达到法定退休年龄的，在用人单位需要、本人自愿的前提下，经市人力资源社会保障局核准，可以推迟退休，推迟年限一般不超过3年。', '第十五条泉城首席技师要在企业生产发展和管理、技术革新和项目攻关、高技能人才培养等方面发挥积极作用。 (一)用人单位有计划地组织泉城首席技师参与重点生产建设项目咨询和重大技术联合攻关，推广新技术、新工艺和先进操作法,承担“名师带徒”工作； (二)在不同行业选择建立“泉城首席技师工作站”,组织泉城首席技师承担社会服务任务,组织泉城首席技师开展技艺传承、技能推广等活动，建立高技能人才技术技能创新成果和绝技绝活代际传承机制； (三)有关部门和用人单位要积极创造条件,有计划地安排泉城席技师脱产学习、参观考察和技术交流； (四)泉城首席技师在申报科研项目、新技术推广、开发应用、技术革新时,有关部门和用人单位要在经费等方面优先支持。 （五）加强联系服务，建立党员领导干部联系泉城首席技师制度，及时协调帮助解决生产生活中的实际困难； （六）强化舆论宣传，依托新闻媒体大力宣传泉城首席技师的先进事迹和突出贡献，形成全社会关注支持高技能人才工作的良好局面，为高技能人才队伍发展营造良好环境。 第十六条泉城首席技师在有关部门和所在单位安排下，承担以下职责和义务： （一）做好所在职业（工种）领域技术技能传帮带工作，加快培养一批青年技术技能骨干，管理期内培养高级工及以上高技能人才不少于5人； （二）发挥职业技能优势，积极参与技术攻关、技能革新、发明创造等活动，帮助企业解决生产操作、技术工艺等方面难题，并在管理期内获得市技能成果奖项； （三）积极参加行业性、区域性技术交流会议、技能演示活动，及时总结推广创新成果和具有特色的生产操作法； （四）配合有关部门做好高技能人才宣传工作。 第十七条市人力资源社会保障局建立泉城首席技师档案,每年年底，从政治素质、职业道德、工作业绩、技术创新、传技带徒等方面对泉城首席技师进行年度评估，评估结果作为发放津贴的重要依据。管理期满后，对其工作成效进行期满评估，期满评估结果分优秀、合格、不合格三个等次。期满评估优秀的，经用人单位和本人同意，且符合泉城首席技师选拔条件，可直接纳入下一管理期支持，最多连续支持2个管理期。期满评估合格的，可参加新一批泉城首席技师选拔申报。期满评估不合格的，取消泉城首席技师资格；所在单位负有责任的，取消该单位申报下一届泉城首席技师资格。 第十八条管理期内泉城首席技师在用人单位取得以下标志性成果之一的，可参评优秀等次，每批优秀等次数量不超过10人。 （一）在管理期内获得“中华技能大奖”、“享受国务院颁发政府特殊津贴”、“全国技术能手”、“泰山产业领军人才”、“齐鲁首席技师”、“山东省有突出贡献的技师”、“山东省技术能手”等称号之一; （二）在技术技能革新、项目攻关等方面取得新的重大突破性成果，产生重大经济社会生态效益，得到业内及社会公认，并在发明创造、技术革新、先进操作法方面获得市高技能人才技能成果二等奖及以上奖项。 （三）在技术技能推广、传技带徒等方面成效十分显著，所带徒弟有1人以上获得市级以上人才荣誉称号。 第十九条泉城首席技师在管理期内不再从事技术技能岗位工作或者调往市外的，可继续保留泉城首席技师资格，但不再享受有关待遇。 第二十条泉城首席技师有下列情形之一的，报经市人才工作领导小组办公室批准，取消其资格，收回证书并停止相应待遇： （一）在管理期内有违法违纪行为、重大过失或2个年度评估不合格的； （二）无正当理由拒不承担本办法规定的职责和义务的； （三）采取弄虚作假、谎报成果等不正当手段骗取泉城首席技师资格的； （四）其他应当取消泉城首席技师资格的行为。']</t>
         </is>
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A167" t="n">
+        <v>129</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
           <t>济南市人民政府办公厅关于济南市工程建设项目拿地即开工审批模式的实施意见试行发文说明</t>
         </is>
       </c>
-      <c r="D167" t="inlineStr">
+      <c r="E167" t="inlineStr">
         <is>
           <t>2018-07-13</t>
         </is>
       </c>
-      <c r="E167" t="inlineStr">
+      <c r="F167" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2018/7/13/art_2607_2744320.html</t>
         </is>
       </c>
-      <c r="F167" t="inlineStr">
+      <c r="G167" t="inlineStr">
         <is>
           <t>['《济南市人民政府办公厅关于济南市工程建设项目“拿地即开工”审批模式的实施意见（试行）》发文说明', '近年来，随着我市行政审批制度改革的不断深入，工程建设项目审批服务流程进一步优化，审批效率明显提高。但是，与先进城市相比，我市工程建设项目审批“部门多、环节多、要求多、时间长”等问题依然突出，成为影响我市营商环境的“难点”、“堵点”问题之一。为进一步改善和优化营商环境，加快转变政府职能，根据市领导指示精神，自2018年4月以来，市职能办、市政务服务管理办会同市发改委、国土资源局、规划局、城乡建设委、城乡水务局、消防局等部门，赴杭州、上海等城市学习考察先进经验。在总结我市历年来工程建设项目审批改革的基础上，根据《国务院办公厅关于开展工程建设项目审批制度改革试点的通知》（国办发〔2018〕33号）的总体思路和要求，借鉴先进城市改革经验，进一步解放思想，坚持问题导向，对标国际营啇环境最高标准和最好水平，按照底线思维方式,以最大限度地简化、优化工程建设项目开工前审批为核心，突破难点、打造亮点，按照《中共济南市委济南市人民政府关于印发〈深化“一次办成”改革进一步优化营商环境的若干措施〉的通知》（济发〔2018〕23号）的要求，制定本实施意见。力争实现全市新建、改建、扩建“工业项目”（含仓储类项目，易燃易爆等特殊工业项目除外）和“其他工程建设项目”两类项目，政府审批时间分别不超过15个工作日、30个工作日内完成的目标。', '二、征求意见情况。在该实施意见起草过程中广泛听取各方面的意见建议，经过多轮反复修改，拟定了该实施意见（征求意见稿），印发市直有关部门（单位）和拟“全链条”下放市级审批权限的6个区职能办、政务服务管理办征求意见。从反馈意见看，大家都是以积极正面的态度对待本次改革，提出一些很好的意见、建议。针对提出的意见、建议，我们与市职能办、市法制办共同与有关部门进行座谈，深入研究分析，进一步统一思想认识。同时，邀请3家建设单位依照该实施意见设置的基本流程和要求，对项目审批全过程进行推演，最终各部门（单位）认为该实施意见确定的改革原则、改革内容和流程设置，既符合国家总体要求，又有我市独道之处和亮点，具有很强的可行性、可操作性。', '三、实施意见主要内容。该实施意见主要有“工作目标、实施范围、实施原则、审批服务基本流程、保障措施、组织实施”6个部分，同时附济南市工程建设项目行政权力全链条下放改革工作方案、济南市工程建设项目“全链条”审批服务事项表、济南市工程建设项目“拿地即开工”审批模式告知承诺制管理办法、济南市工程建设项目“拿地即开工”审批模式实行告知承诺制事项清单4个附件。', '济南市人民政府办公厅关于济南市工程建设项目“拿地即开工”审批模式的实施意见（试行）']</t>
         </is>
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A168" t="n">
+        <v>129</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
           <t>济南市供销合作社年度问题整改重点承诺事项</t>
         </is>
       </c>
-      <c r="D168" t="inlineStr">
+      <c r="E168" t="inlineStr">
         <is>
           <t>2018-07-04</t>
         </is>
       </c>
-      <c r="E168" t="inlineStr">
+      <c r="F168" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2018/7/4/art_4115_2760870.html</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr">
+      <c r="G168" t="inlineStr">
         <is>
           <t>['增强服务意识，提高服务质量和工作效率，缩短办理时限，加大政策宣传力度，落实农村服务项目，扩大实施范围。', '（1）深入基层、加强调研，提高服务“三农”针对性。（2）加大为农服务中心建设，围绕农民耕、种、管、收、储、加、销等服务，进一步提升农业服务规模化水平。（3）发展农村现代流通和农村电子商务，加强超市和农村电商服务站建设，进一步提升服务农民生产生活水平。（4）加大开放办社力度，加强与农村其他经营主体联合合作，增强供销社在发展农业生产、服务农民生活中的带动作用。（5）加强媒体宣传，做好先进典型报道，扩大供销社公益性、经营性服务的知名度。', '（1）今后一个时期，对应所属企业在改革发展中存在的困难和问题，结合所属企业各自实际，深入推进开展瘦身健体、提质增效，积极发展经营新业态，全力促进社属企业转型升级。（2）进一步深化社属企业改革，推动社属企业布局优化、结构调整和战略性重组，实现质量更高、效益更好、结构更优的发展，有效发挥主导作用。', '（1）紧紧围绕供销社综合改革，加强交流外出考察学习借鉴兄弟省、市供销社改革创新成功经验。（2）通过外出借鉴学习，结合社属企业实际，制定指导社属企业发展新动能，运用新技术改造提升传统产业的工作举措，推动直属企业加快新旧动能转换，大力补上短板，促进经营、管理和服务创新，大力推动企业通过改革创新促进企业全面发展。']</t>
         </is>
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A169" t="n">
+        <v>129</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
           <t>中共济南市委办公厅济南市人民政府办公厅印发关于构建亲清新型政商关系的实施办法试行的通知</t>
         </is>
       </c>
-      <c r="D169" t="inlineStr">
+      <c r="E169" t="inlineStr">
         <is>
           <t>2019-01-04</t>
         </is>
       </c>
-      <c r="E169" t="inlineStr">
+      <c r="F169" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2019/1/4/art_114359_4942424.html</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr">
+      <c r="G169" t="inlineStr">
         <is>
           <t>['中共济南市委办公厅济南市人民政府办公厅印发《关于构建亲清新型政商关系的实施办法（试行）》的通知', '各区县党委和人民政府，市委各部门，市级国家机关各部门，各人民团体，市属各企事业单位：', '《关于构建亲清新型政商关系的实施办法（试行）》已经市委、市政府领导同志同意，现印发给你们，请结合实际抓好贯彻落实。', '第一条为全面贯彻落实习近平新时代中国特色社会主义思想和党的十九大精神，深入贯彻落实习近平总书记在民营企业座谈会上的重要讲话精神，贯彻省、市民营企业家座谈会精神，厘清政商交往定位，规范政商交往行为，构建亲清新型政商关系，结合济南实际，制定本办法。', '第二条本办法所称政商关系，是指济南市各级党的机关、国家机关、民主党派机关、人民团体（以下简称机关单位）及其工作人员特别是领导干部，与企业特别是非公有制企业、民营企业（含个体工商户，下同）及其负责人之间的关系。', '第三条构建亲清新型政商关系应当防止“亲”而不“清”的官商勾结行为和“清”而不“亲”的为官不为行为，做到政商之间既“亲”又“清”，有交集不搞交换、有交往不搞交易，促进企业特别是非公有制企业、民营企业健康发展。', '第四条通过优化政务服务、规范政商交往、严格落实责任，推动我市机关单位工作人员特别是领导干部堂堂正正走进企业，干干净净与企业家接触交往，实现零距离联系服务、有尺度正常交往，加快形成政商之间既“亲”又“清”、良性互动的健康生态，建立交往有道、公私分明，各尽其责、共谋发展的新型政商关系。', '第五条制定涉及企业特别是非公有制企业、民营企业及其经营者重大利益的政策或作出涉及企业重大利益的决策时，应当采取听证会、论证会、座谈会等方式，充分听取企业及其负责人的意见。', '第六条加快政府职能转变，深化“放管服”以及“一次办成”改革，严格行政权力清单、责任清单、公共服务事项清单制度，做到“清单之外无权力”。强化效能建设，坚决整治对企业合理诉求在职责范围内不主动协调处置、在规定期限内不予答复，对企业合法权益不予保护等为官不为、懒政怠政行为。', '第七条司法、执法、执纪机关在办案中应当依法维护涉案企业的合法权益，不得违法违规冻结企业账号、查封企业账册、堵塞企业资金流通渠道、发布影响企业声誉的信息，以及作出其他法律法规明令禁止的行为。', '第九条注重普及政策，多渠道、多方式、多手段向企业宣传和解读扶持性政策，收集企业反映意见，解答企业疑问。多渠道听取企业意见建议，认真对待企业反映问题，尊重历史、尊重客观、实事求是，在没有明令禁止的情况下、在法律法规框架内全力帮助企业解决实际问题。', '第十条健全完善政务服务网络，改进政务服务方式，加快公共服务体系建设，完善中小微企业公共服务体系，加强各涉企数据平台和信息整合，深化“互联网+政务服务”，推进以网上办事大厅为龙头的政务服务体系建设，推行“一门式、一网式”服务。', '第十一条推进落实“一窗受理、集成服务”工作，改善政务大厅窗口设置方式,优化政务服务流程,实现“前台一窗受理、后台分类审批、统一综合出件”的集成服务运行模式。', '第十二条切实减轻企业税费负担，严格落实国家全面清理规范涉企收费措施，实施涉企行政事业性收费目录清单管理并向社会公开；制定公布市级政务服务事项中介服务项目清单，规范中介服务收费标准；精简评估事项，防止重复评估。', '第十三条坚持政商平等交往，在不触碰纪律“红线”和法律“底线”的基础上，旗帜鲜明地鼓励机关单位及其工作人员与企业及其负责人正常接触和交往，机关单位工作人员经单位批准可参加或组织以下活动：', '（一）参加企业、行业协会、商会举办的座谈会、茶话会、年会等旨在了解行业或企业发展状况、听取意见建议的各类公开商务活动，接受企业提供的符合公务接待标准的工作餐；', '（二）参加企业、行业协会、商会为推动企业学习提高、发展壮大组织的外出考察调研活动；', '（三）组织企业、行业协会、商会参加为了推广企业产品或服务的展销会、推介会等公开经贸交流活动；', '（五）上门服务企业或开展调研，应自备或乘坐公共交通工具，确有需要可搭乘企业交通工具，但不许单独指派、专程接送;', '（六）协助企业到外地申报项目、开展推介活动等，企业统一安排出行、就餐的，可一并同行、就餐，并按公务出差标准结清差旅费用;', '（七）开展招商引资和事关地方经济发展的重要工作，为加强沟通、提高效率、节约时间，可以邀请企业人员在各类符合公务接待的场所进行商议;', '（八）在与企业人员特别是港澳台海外人士交往中，不提倡互赠礼品，确因工作需要赠送礼品的，按有关规定报批，接受的礼品按有关规定处理;', '第十四条各级党委、政府和相关职能部门应当担负起构建亲清新型政商关系的主体责任，各级纪检监察机关担负起监督责任，动员和凝聚各方力量，推动形成党政齐抓共管、部门各负其责、企业和社会广泛参与的工作合力。', '第十五条统战部、工商联要做好对企业及其负责人的团结、服务、引导、教育工作，深入开展理想信念教育实践活动，引导广大企业界人士自觉做新时代中国特色社会主义事业优秀建设者，激发企业家干事创业的热情和激情。', '第十六条加强对机关单位特别是领导干部“八小时以外”活动的监督，早发现、早提醒、早纠正政商交往中出现的苗头性、倾向性问题。对涉及官商勾结、为官不为等问题线索的实名举报优先办理、优先核查，并及时向举报人反馈办理情况。', '第十七条切实抓好全民廉洁教育，重点加强对领导干部廉洁从政教育、公职人员廉洁从业教育，强化公职人员担当、服务、法治、廉洁意识。', '第十八条教育引导企业及其负责人强化廉洁从商意识和守法意识，加强内部约束，推进行业自律，积极践行社会主义核心价值观，做爱国敬业、守法经营、创业创新、回报社会的典范。', '第十九条充分发挥“1+3”监督平台（以党风政风行风正风肃纪民主评议为引领，统筹电视问政、电台问政、12345市民服务热线）的监督作用，畅通企业诉求渠道，精准发现影响和破坏营商环境的典型问题。严肃查处政商关系中各种违纪违法行为，对机关单位工作人员违反有关纪律规定的，依纪依规给予批评教育、责令检查、通报、诫勉直至党纪政务处分；涉嫌违法的，移交有关国家机关依法处理。对于企业及其负责人通过拉拢腐蚀、围猎领导干部谋取不正当利益等违法行为，坚决依法处理。', '第二十条牢固树立“保护干事创业的积极性也是政绩”的理念，严格落实中央关于优化营商环境、构建亲清政商关系的各项政策和制度，落实省委有关工作要求和市委有关工作部署，坚持“三个区分开来”，完善容错纠错和澄清保护机制，把握政策界限，在符合相关条件的前提下，最大限度宽容机关单位工作人员因推动改革发展所犯的过失，消除干部的后顾之忧。', '第二十一条机关单位与社会团体组织的交往和关系，其他依法履行公职的单位与非公有制企业的交往和关系，公有制企业与非公有制企业的交往和关系，可参照本办法执行。']</t>
         </is>
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A170" t="n">
+        <v>129</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
           <t>中共济南市委办公厅济南市人民政府办公厅关于印发济南市实施地方党政领导干部安全生产责任制规定细则的通知</t>
         </is>
       </c>
-      <c r="D170" t="inlineStr">
+      <c r="E170" t="inlineStr">
         <is>
           <t>2018-12-25</t>
         </is>
       </c>
-      <c r="E170" t="inlineStr">
+      <c r="F170" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2018/12/25/art_114358_4942416.html</t>
         </is>
       </c>
-      <c r="F170" t="inlineStr">
+      <c r="G170" t="inlineStr">
         <is>
           <t>['中共济南市委办公厅济南市人民政府办公厅关于印发《济南市实施〈地方党政领导干部安全生产责任制规定〉细则》的通知', '各区县党委和人民政府，市委各部门，市级国家机关各部门，各人民团体，市属各企事业单位：', '《济南市实施〈地方党政领导干部安全生产责任制规定〉细则》已经市委、市政府同意，现印发给你们，请认真贯彻执行。', '第一条 为加强全市各级党委和政府对安全生产工作的领导，树立安全发展理念，健全落实安全生产责任制，根据《地方党政领导干部安全生产责任制规定》《山东省实施〈地方党政领导干部安全生产责任制规定〉细则》等规定，结合我市实际，制定本细则。', '第二条 本细则适用于全市区县以上各级党委和政府领导班子成员，济南高新区、市南部山区、济南新旧动能转换先行区及各类开发区、工业园区、港区、风景区等功能区（以下统称各类功能区）管理机构党政领导干部，镇（街道）党政领导干部，各级党委工作机关、政府工作部门及相关机构（含参照公务员法管理的事业单位）领导干部（以下统称党政领导干部）。', '第三条 实行党政领导干部安全生产责任制，坚持以习近平新时代中国特色社会主义思想为指导，全面落实习近平总书记视察山东重要讲话、重要指示批示精神，切实增强政治意识、大局意识、核心意识、看齐意识，牢固树立发展决不能以牺牲安全为代价的红线意识，按照高质量发展要求，坚持安全发展、依法治理，综合运用巡查督查、考核考察、激励惩戒等措施，加强组织领导，强化属地管理，完善体制机制，有效防范安全生产风险，坚决遏制重特大生产安全事故，促使各级党政领导干部切实承担起“促一方发展、保一方平安”的政治责任，为打造“四个中心”、建设“大强美富通”现代化国际大都市营造良好稳定的安全生产环境。', '第四条 实行党政领导干部安全生产责任制，应当坚持党政同责、一岗双责、齐抓共管、失职追责，坚持管行业必须管安全、管业务必须管安全、管生产经营必须管安全。', '各级党委和政府主要负责人是本地区安全生产第一责任人，班子其他成员对分管范围内的安全生产工作负领导责任。', '各级党委工作机关、政府工作部门及相关机构主要负责人，是安全生产的第一责任人，班子其他成员对分管范围内的安全生产工作负领导责任。', '第五条 各级党政领导干部要认真贯彻党中央、国务院关于安全生产的决策部署，落实省委、省政府安全生产的部署要求和指示精神，执行安全生产方针政策、法律法规。', '（一）把安全生产纳入党委议事日程和向全会报告工作的内容，每半年至少主持召开1次党委常委会研究安全生产工作，及时组织研究解决安全生产重大问题，推动组织、宣传、政法、机构编制等部门支持保障安全生产工作。各区县党委主要负责人、各类功能区和镇（街道）党（工）委主要负责人每季度至少调研1次安全生产工作。', '（二）把安全生产纳入党委常委会及其成员职责清单，组织建立安全生产监管监察容错纠错机制，督促建立完善安全生产奖惩制度，落实安全生产“一岗双责”制度。', '（三）加强安全生产监管部门领导班子建设、安全生产监管部门机构建设和干部队伍建设，推动建设高素质专业化执法队伍。明确各类功能区承担安全生产监管职责的部门，明确镇（街道）安全生产监管责任部门，配置与监管工作任务相适应的人员力量，做好安全生产监管工作。', '（四）支持人大、政协监督安全生产工作，统筹协调工会、共青团、妇联等群团组织和社会各界重视支持安全生产工作。', '（五）推动将安全生产纳入经济社会发展全局，纳入国民经济和社会发展考核评价体系，作为衡量经济发展、社会治安综合治理、精神文明建设成效的重要指标和领导干部政绩考核的重要内容。督促落实安全生产考核与履职评定、职务晋升、奖励惩处挂钩制度，督促落实安全生产“一票否决”制度。', '（六）把安全生产作为防范重大风险的重要内容，督促建立安全风险分级管控和隐患排查治理双重预防体系，并列为重点工作推进。', '（七）大力弘扬生命至上、安全第一的思想，强化安全生产宣传教育和舆论引导，将安全生产方针政策和法律法规作为党委（党组）理论学习中心组学习内容和干部培训内容。全市各级党（工）委理论学习中心组每半年至少安排1次安全生产集体学习。', '（一）把安全生产纳入政府重点工作和政府工作报告的重要内容，组织制定安全生产规划并纳入国民经济和社会发展规划，每季度安排政府常务会议听取1次安全生产工作情况汇报，及时组织研究解决安全生产突出问题；区县政府主要负责人每季度至少调研1次安全生产工作；各类功能区管委会、镇政府（街道办事处）主要负责人每季度至少召开1次工作会议，研究部署安全生产工作。各区县政府主要负责人、各类功能区管委会主要负责人、镇政府（街道办事处）主要负责人每季度至少带队检查1次安全生产工作。', '（二）组织制定本地区安全生产目标管理考核细则和政府领导干部年度安全生产重点工作责任清单并进行公示，每半年对清单落实情况组织检查考核。', '（三）推动构建安全生产责任体系，在政府有关部门“三定”规定中明确安全生产工作职责。按照分级属地管理原则明确本地区各类生产经营单位的安全生产监管部门，构建网格化、实名制安全生产监管责任体系。', '（四）组织设立安全生产专项资金并列入本级财政预算、与财政收入保持同步增长，加强安全生产基础建设和监管能力建设，保障监管执法必需的人员、经费、车辆和装备等。', '（五）把安全生产作为防范重大风险的重要内容，推动构建安全风险分级管控和隐患排查治理双重预防体系。严格安全生产准入标准，对重大安全风险未及时进行管控、治理、消除的实行“一票否决”。', '（六）领导本地区安全生产委员会工作，统筹协调安全生产工作，组织开展安全生产巡查、考核、暗查暗访等工作，推动加强高素质专业化安全监管执法队伍建设。', '第八条 各级党（工）委常委会其他成员按照职责分工，协调组织、宣传、统战、政法、机构编制等单位支持保障安全生产工作，动员群团组织及社会各界力量积极参与、支持、监督安全生产工作，抓好分管行业（领域）、部门（单位）的安全生产工作。', '第九条 各级政府原则上由担任本级党委常委的政府领导干部分管安全生产工作，其安全生产职责主要包括：', '（一）组织制定贯彻落实上级及本级党委和政府关于安全生产决策部署，安全生产方针政策、法律法规的具体措施；', '（二）协助党委主要负责人落实党委对安全生产的领导职责，督促落实本级党委关于安全生产的决策部署；', '（三）协助政府主要负责人统筹推进本地区安全生产工作，负责领导安全生产委员会日常工作，组织实施安全生产监督检查、巡查、考核等工作，协调解决重点难点问题；', '（四）组织实施安全风险分级管控和隐患排查治理双重预防体系建设，指导安全生产专项整治和联合执法行动，组织查处各类违法违规行为；', '（五）加强安全生产应急救援体系建设，依法组织或者参与生产安全事故抢险救援和调查处理，组织开展生产安全事故责任追究和整改措施落实情况评估；', '（六）统筹推进安全生产社会化服务体系建设、信息化建设、诚信体系建设和教育培训、科技支撑等工作。', '第十条各级政府班子其他领导干部对分管行业（领域）、部门（单位）安全生产工作负责，其安全生产职责主要包括：', '（一）组织分管行业（领域）、部门（单位）贯彻执行党中央、国务院关于安全生产的决策部署，贯彻执行上级、本级有关工作安排部署，安全生产方针政策、法律法规；', '（二）组织分管行业（领域）、部门（单位）健全和落实安全生产责任制，将安全生产工作与业务工作同时安排部署、同时组织实施、同时监督检查；', '（三）指导分管行业（领域）、部门（单位）把安全生产工作纳入相关发展规划和年度工作计划，从行业规划、科技创新、产业政策、法规标准、行政许可、资产管理等方面加强和支持安全生产工作；', '（四）统筹推进分管行业（领域）、部门（单位）安全生产工作，每年定期组织分析安全生产形势，及时研究解决安全生产问题，支持有关部门依法履行安全生产工作职责；', '（五）推动构建安全风险分级管控和隐患排查治理双重预防体系建设，组织开展分管行业（领域）、部门（单位）安全生产专项整治、目标管理、应急管理、查处违法违规生产经营行为等工作；', '（六）加强分管行业（领域）、部门（单位）安全生产应急救援体系建设，组织开展相关应急救援演练，依法组织或参与相关事故抢险救援，督促相关事故责任追究和整改措施落实；', '（七）每年向本级党委、政府主要负责人报告分管行业（领域）、部门（单位）安全生产方面履职情况。', '第十一条 各级党（工）委工作机关、政府工作部门及相关机构领导干部要认真贯彻执行上级党委、政府关于安全生产的决策部署和指示精神，安全生产方针政策、法律法规。', '部门主要负责人要结合本部门工作实际，明确本部门安全生产工作机构，制定安全生产责任清单，细化具体工作制度、标准和措施，层层分解安全生产任务，将安全生产工作与本部门业务工作同时安排部署、同时组织实施、同时监督检查，压实安全生产责任。', '（一）主要负责人对本部门安全生产工作负全面领导责任，按照安全监管责任清单认真履行监管职责。明确负责安全生产监管的机构，建立健全安全生产责任制，把安全生产工作纳入目标绩效管理考核体系并严格考核。支持、督促分管负责人及其他班子成员做好安全生产工作，每季度至少召开1次安全生产工作会议；研究协调解决工作中存在的重大问题；强化监管执法，对相关生产经营单位落实安全生产法律法规情况进行监督检查，每季度至少带队检查1次安全生产工作，持续开展打非治违，严厉查处违法违规行为，坚决遏制各类生产安全事故发生；', '（二）分管安全生产工作负责人对本部门安全生产工作负直接领导责任，协助主要负责人统筹推进本部门安全生产工作，对本部门及本行业（领域）的安全生产工作实行具体领导、综合协调，组织开展安全生产督查、暗查暗访等工作。每季度至少组织研究1次安全生产工作，协调解决工作中存在的问题。加强安全风险分级管控和隐患排查治理双重预防体系建设，每季度至少带队检查1次安全生产工作，开展安全生产专项整治，查处各类违法违规行为；', '（三）班子其他成员按照“一岗双责”要求，对分管工作范围内安全生产工作负领导责任，支持本部门主要负责人和分管负责人抓好安全生产工作，将安全生产工作与分管业务工作同时安排部署、同时组织实施、同时监督检查。每季度至少召开1次安全生产专题会议，研究部署分管领域安全生产工作。', '（一）主要负责人对本部门安全生产工作负全面领导责任，要将安全生产工作作为行业（领域）管理的重要内容，从行业规划、产业政策、法规标准、行政许可等方面加强行业安全生产工作，每半年至少召开1次安全生产工作会议，研究部署安全生产工作，协调解决问题；每季度至少带队检查1次安全生产工作，持续开展安全生产风险管控和隐患排查治理工作，遏制各类生产安全事故发生；', '（二）班子其他成员按照“一岗双责”要求，对分管工作范围内安全生产工作负领导责任，要将安全生产工作与分管业务工作同时安排部署、同时组织实施、同时监督检查。每季度至少召开1次安全生产专题会议，组织研究部署分管领域安全生产工作；每季度至少带队检查1次本行业（领域）安全生产工作，严格查处安全生产违法行为。', '（一）认真贯彻落实上级及本级党委和政府关于安全生产的决策部署和指示精神，安全生产方针政策、法律法规；', '（二）在职责范围内积极主动提供人员配备、财政资金、科技支撑、宣传教育、法律服务、社会监督等支持保障，共同推进安全生产工作。', '第十五条 各级党委和政府应当建立党政领导干部落实安全生产责任情况督查督办制度，不定期组织督促检查。', '第十六条 把党政领导干部落实安全生产责任情况纳入审计内容，在审计中对安全生产责任制落实和相关改革任务推进、财政安全生产预防以及应急相关资金管理使用、有关安全生产项目的资金保障以及项目落地等情况开展监督。', '第十七条 建立安全生产通报制度，把本地安全生产情况纳入本级党委和政府重要工作情况的通报内容，每季度向党政主要负责同志通报1次安全生产情况。', '第十八条 建立完善各级党委和政府安全生产巡查工作制度，加强对下级党委和政府的安全生产巡查，推动安全生产责任措施落实。将巡查结果作为被巡查地区党委和政府领导班子和有关领导干部考核、奖惩和使用的重要参考。', '第十九条 建立完善各级党委和政府安全生产责任考核制度，每年对下级党委和政府安全生产工作情况进行全面评价，加大安全生产在经济、社会综治、精神文明考核的权重分值，将考核结果与有关地方党政领导干部履职评定挂钩。', '第二十条 在对各级党委和政府领导班子及其成员的年度考核、目标责任考核、绩效考核和其他考核中，重点考核其落实安全生产责任情况，并将其作为确定考核结果的重要参考。', '各级党委和政府领导班子及其成员在年度考核中，应当按照“一岗双责”要求，将履行安全生产工作责任情况列入述职内容。', '第二十一条 党委组织部门在考察地方党政领导干部拟任人选时，应当考察其履行安全生产工作职责情况。有关部门在推荐、评选党政领导干部作为奖励人选时，应当考察其履行安全生产工作职责情况。', '第二十二条 实行安全生产责任考核情况公开制度。定期采取适当方式公布或者通报党政领导干部安全生产工作考核结果。', '第二十三条 对在加强安全生产工作、承担安全生产专项重要工作、健全安全生产体制机制、推进安全风险分级管控和隐患排查治理预防体系建设、防范遏制重特大生产安全事故、参加抢险救护等方面作出显著成绩和重要贡献的党政领导干部，按照国家和省有关规定，推荐或上报给有权限的上级党委和政府给予表彰奖励。', '第二十四条 对在安全生产工作考核中成绩优秀的党委和政府，按照国家和省有关规定，推荐或上报给有权限的上级党委和政府按照有关规定给予通报表扬。', '对在安全生产工作考核中成绩优秀的党政领导干部，上级党委和政府按照有关规定给予记功或者嘉奖。', '第二十五条 各级党政领导干部在落实安全生产工作责任中存在下列情形之一的，应当按照有关规定进行问责：', '（五）对本地、分管行业（领域）存在的共性重大事故隐患未能及时有效解决，负有领导责任的；', '（六）对打非治违不力，本地和分管行业（领域）、部门（单位）连续发生违法违规生产安全事故，负有领导责任的；', '第二十六条 对存在本细则第二十五条情形的责任人员，应当根据情况采取通报、诫勉、组织调整、组织处理或者党纪政务处分；涉嫌职务违法犯罪的，由监察机关依法调查处置。', '第二十七条 严格落实安全生产“一票否决”制度，对因发生生产安全事故被追究领导责任的各级党政领导干部，取消当年考核评优和评选各类先进资格，在相关规定时限内，不得晋升职务、级别或者重用任职。', '第二十八条 发生生产安全事故或者安全生产工作存在其他严重问题的区县、部门，按照安全生产约谈办法等有关规定，约谈有关党政领导干部。', '第二十九条 对工作不力导致生产安全事故人员伤亡和经济损失扩大，或者造成严重社会影响负有主要领导责任的各级党政领导干部，应当从重追究责任。', '第三十条 巡察机构、审计机关、行政执法机关及有关单位发现有本细则规定问责情形的,应当将问题线索及时移送有关部门处理。', '第三十一条 对主动采取补救措施，减少生产安全事故损失或者挽回社会不良影响的地方党政领导干部，可以从轻、减轻追究责任。', '第三十二条 对职责范围内发生生产安全事故，经查实已经全面履行了本规定第二章、第三章所规定职责、法律法规规定有关职责，并全面落实了党委和政府有关工作部署和责任清单的，不予追究地方有关党政领导干部领导责任。', '第三十三条 实行安全生产责任终身问责制，党政领导干部对发生生产安全事故负有领导责任且失职失责性质恶劣、后果严重，不论是否已调离转岗、提拔或者退休，都应当严格追究其责任。已调离或者提拔的，按照干部管理权限将有关材料移送有权实施责任追究的纪检监察机关或者组织人事部门，已退休的，按照有关规定追究责任。', '第三十四条 实施安全生产责任追究，应当依法依规、实事求是、客观公正，根据岗位职责、履职情况、履职条件等因素合理确定相应责任。', '第三十五条 存在本细则第二十五条情形应当问责的，由纪检监察机关、组织人事部门和安全生产监管部门按照权限和职责分别负责。', '第三十六条 纪检监察机关、组织人事部门和政府安监部门应当建立健全党政领导干部安全生产责任问责的沟通协作机制，按照职责分工落实。', '需要追究党纪政务责任和组织处理的，分别由纪检监察机关和组织人事部门按照有关规定办理；需要进行通报的，由党委办公室（厅）、政府办公室（厅）按照有关规定办理。', '作出责任追究决定的机关和部门，根据影响程度，应当将责任追究决定在一定范围内通报或向社会公开。', '第三十七条 各区县党委和政府，各类功能区党工委和管委会，应当根据本细则制定具体措施。', '第三十八条 本细则具体解释工作由市委办公厅、市政府办公厅会同市安监局、市委组织部承担。', '第三十九条 本细则自2019年1月1日起施行。此前发布的有关文件规定与本细则不一致的，按照本细则执行。']</t>
         </is>
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A171" t="n">
+        <v>129</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
           <t>中共济南市委济南市人民政府关于打赢脱贫攻坚战三年行动实施意见</t>
         </is>
       </c>
-      <c r="D171" t="inlineStr">
+      <c r="E171" t="inlineStr">
         <is>
           <t>2018-12-24</t>
         </is>
       </c>
-      <c r="E171" t="inlineStr">
+      <c r="F171" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2018/12/24/art_114403_4942362.html</t>
         </is>
       </c>
-      <c r="F171" t="inlineStr">
+      <c r="G171" t="inlineStr">
         <is>
           <t>['打赢脱贫攻坚战，对于全面建成小康社会、实现第一个百年奋斗目标具有决定性意义，今后三年是决战决胜的关键阶段。为确保按时高质量完成脱贫攻坚政治任务，根据党中央、国务院关于打赢脱贫攻坚战三年行动的决策部署，按照省委、省政府有关工作部署要求，结合我市实际，提出如下实施意见。', '1.指导思想。以习近平新时代中国特色社会主义思想为指导，全面贯彻落实党的十九大和十九届历次全会精神，认真贯彻落实习近平总书记视察山东重要讲话、重要指示批示精神，紧紧围绕率先高水平全面建成小康社会目标定位，按照“2018年基本完成、2019年巩固提升、2020年全面完成”脱贫攻坚工作布局，坚持精准扶贫、精准脱贫不动摇，完善市抓推进、区县和镇（街道）抓落实的工作机制，坚持大扶贫格局，坚持脱贫攻坚目标和现行扶贫标准，聚焦全市返贫和新识别农村建档立卡贫困人口（以下简称贫困人口）脱贫、老弱病残特困群体帮扶、南部山区攻坚、已脱贫贫困人口巩固提升四项重点任务，把握脱贫攻坚阶段性特征，推动扶贫开发与乡村振兴相融合，注重激发贫困人口内生动力，不断完善政策兜底保障措施，进一步夯实贫困人口稳定脱贫基础，着力加强脱贫攻坚作风建设，确保全面小康路上不落一人，到2020年全面完成现行市定标准下贫困人口脱贫任务，为实施乡村振兴奠定坚实基础。', '打赢脱贫攻坚战，要咬定总攻目标，坚持精准方略，坚持标准质量，聚焦解决“两不愁三保障”，既不降低标准影响质量，也不提高标准吊高胃口，推动扶贫开发工作步步深入、扎实推进、提质增效。专项扶贫、行业扶贫、社会扶贫政策延续到2020年。', '2018年，基本完成现行标准下贫困人口脱贫任务，巩固已脱贫贫困人口的脱贫成果；完成易地扶贫搬迁任务，实现贫困村全部脱贫摘帽；加大贫困村基础设施建设和村容村貌整治力度。', '2019年，进一步巩固提升脱贫成果，逐步建立稳定脱贫长效机制；深入推进贫困村基础设施建设和公共服务延伸。', '2020年，全面完成脱贫攻坚任务，消除绝对贫困；贫困村基本公共服务主要领域指标达到或超过全市农村平均水平；完成黄河滩区居民迁建任务。', '为确保如期完成目标任务，市扶贫开发领导小组每年开展一次考核，督促任务落实。2019年年底，各区县（含济南高新区、市南部山区、济南新旧动能转换先行区，下同）扶贫开发领导小组开展脱贫攻坚工作成效自查评估，向市委、市政府提交情况报告；2020年上半年，根据自查评估情况进行整改提升；2020年下半年，接受市扶贫开发领导小组的全面评估验收。2020年年底，各区县党委、政府向市委、市政府专题报告。', '3.规范完善动态管理，夯实精准扶贫脱贫基础。每年开展一次贫困人口动态调整，做到贫困人口、致贫原因、帮扶措施、脱贫路径、脱贫成效“五个清楚”。严格识别退出标准和程序，新致贫和返贫的纳入建档立卡范围，达到稳定脱贫标准的实施退出，未实现“两不愁三保障”的不得退出。持续开展建档立卡数据核准清洗和比对分析，依托全国扶贫开发信息系统和省扶贫开发综合平台，借助市政务数据共享交换平台和其他比对手段，进一步提高建档立卡数据质量，做到该进的进来、杜绝该进的没有进来，做到该退出的退出、杜绝不该退出的出去，确保不落一个真穷的，不帮一个不穷的。拓展扶贫数据系统服务功能，加强数据分析，为脱贫攻坚决策提供服务。（市扶贫办，各区县。列在首位的为牵头单位，下同）', '4.聚焦贫困村和“插花”贫困人口，集中攻坚克难。抓好市委、市政府精准脱贫各项政策措施落实，聚焦重点任务，综合确定脱贫攻坚期内工作重点。按照南部山区易地扶贫搬迁建设要求，加快推进老峪村、积米峪村易地扶贫搬迁各项工作。完善安置区配套基础设施和基本公共服务设施，严格执行住房建设标准，2018年年底前南部山区易地扶贫搬迁贫困人口全部搬迁入住，基本实现脱贫。2019—2020年，加强后续产业发展和转移就业，确保搬得出、稳得住、逐步能致富，建立长效机制。（市发改委，市南部山区）', '加快推进黄河滩区居民迁建工程，推动落实规划方案和政策措施，在2018—2020年三年攻坚期内，规划投资53\ue01033亿元，建设8个新社区，住房面积313\ue01068万平方米，安置长清区、平阴县、济阳区、章丘区、天桥区滩区居民2\ue01025万户、7\ue01084万人。2020年年底前，兜底完成所有外迁安置社区搬迁入住及旧村拆迁复垦，为新建设的8个社区配套建设综合性文化服务中心，全面完成滩区居民迁建和贫困人口脱贫任务。（市发改委、市黄河滩区脱贫迁建领导小组成员单位，相关区县）', '统筹推进非贫困村贫困人口精准脱贫，在政策覆盖、精准帮扶等方面与贫困村统筹考虑，科学部署。加大财政专项资金支持力度，完善以区县、镇（街道）为主体重点带动“插花户”脱贫的产业扶贫项目实施模式，建设扶贫产业园，提高质量效益和抗风险能力。到2020年，力争每个有扶贫任务的镇（街道）实施1—2个镇级项目，收益统筹用于“插花”贫困人口。（市扶贫办、市扶贫开发领导小组成员单位，各区县）', '5.培育发展特色优势产业，带动贫困人口增收脱贫。立足当地资源禀赋和产业优势，以市场需求为导向，因地制宜培育发展效益好、可持续、带动性强的种养加和乡村旅游、电商等特色产业，力争每个贫困村培育提升1—2个特色产业。鼓励各区县从实际出发利用扶贫资金发展短期能见效、未来也能够持续发挥效益带动贫困户脱贫致富的产业。（市发改委、市农业局、市林业和城乡绿化局、市商务局、市旅游发展委分别牵头，各区县）', '抓好贫困村农产品产销对接，加强农产品优势产地批发（零售）市场建设推进工作，促进农产品冷链物流和加工配送体系建设。继续推进品牌农产品进超市工作，引导银座、济南华联等骨干流通企业到贫困村进行农产品产地直采和基地建设，设立贫困村特色农产品销售专区（柜）。每年根据商贸流通企业年采购贫困村农副产品的数量和价值给予资金扶持。（市商务局、市农业局、市供销社、市发改委、市邮政管理局、市林业和城乡绿化局，各区县）', '建立健全产业扶贫项目前期论证评审、中期检查监督、后期评估问效的全程运行监管机制，加强项目储备、遴选立项、组织实施、竣工验收、建后管护、收益分配、档案建设等重点环节规范管理。建立健全项目后续管护机制，明晰产权归属，建立资产登记管理台账，明确管理主体，落实管护责任，扶贫资金形成的固定资产登记率达到100%。发挥村级精准扶贫理事会和扶贫联络员作用，全程参与项目监督。（市扶贫办，各区县）', '全面落实公告公示制度，县级及以上财政扶贫资金分配结果公开率达到100%，镇（街道）、村两级项目安排和资金使用情况公告公示率达到100%，接受群众和社会监督。（市扶贫办、市财政局，各区县）', '6.着力推进就业扶贫，提高劳务组织化程度。鼓励各区县通过设立就业扶贫车间、新型经营主体带动、政府公益岗安置、设立扶贫专岗和互助岗等方式，推动贫困群众特别是因年龄、家务等原因不能外出就业但自身具有一定劳动能力的贫困人口就地就近就业脱贫。每年对有意愿、能够转移就业的贫困人口做到100%就业，对具有一定劳动能力的贫困就业人口维持在3万人左右。（市人力资源社会保障局、市农业局、市扶贫办分别牵头，各区县）', '着眼帮助贫困群众在家门口就业，根据各区县实际需要，鼓励有条件的企业设立生态友好型、劳动密集型就业扶贫车间。加强就业扶贫车间规范管理，促进高效利用、长效发展，脱贫任务完成后推动成为致富车间、发展车间、农村“三留守人员”家园。（市人力资源社会保障局、市扶贫办，各区县）', '建立完善新型经营主体与贫困户增收利益联结机制。通过股份合作、订单帮扶、生产托管、吸纳就业等途径，让农户“进会、入社、上链”，带动贫困户脱贫增收。对帮扶建档立卡贫困户不少于10户或吸纳贫困人口就业不少于10人的各类经营主体，在用地保障、财税政策、银行贷款、财政资金奖补等方面给予重点支持。在有条件的村，依托供销社领办的农机专业合作社、土地股份合作社，免费或优惠为贫困户提供农资、农机服务。（市农业局、市民政局、市财政局、市国土资源局、市税务局、市林业和城乡绿化局、市供销社、各金融机构）', '推进实施政府公益性岗位优先安置贫困人口制度。坚持政府主导，对贫困人口能胜任、本人有意愿的政府公益性岗位，优先安排贫困人口。实施设立“扶贫专岗”，对有就业意愿的年龄偏大、有残疾、家务缠身无法离乡就业等贫困人口，通过特设环境卫生保洁、农家书屋管理等就业扶贫专岗助力脱贫，提升贫困人口的获得感和成就感，全市扶贫专岗每年稳定在8000个以上。积极开发农村互助扶贫公益岗位。（市扶贫办、市扶贫开发领导小组成员单位，各区县）', '大力开展职业技能培训，建立职业培训免费清单，实现有意愿有条件的农村贫困劳动力培训全覆盖、至少掌握一项致富技能。实施残疾人职业技能提升计划，三年培训残疾人1\ue0102万人次，对就业年龄阶段有培训需求的贫困残疾人实现全覆盖。每年培植“工字号”创业基地330家，通过创业基地积极安置有就业能力的贫困人口。（市人力资源社会保障局、市残联、市总工会分别牵头，各区县）', '7.深入开展健康扶贫，确保贫困人口享有基本医疗保障。市、区县两级财政每年安排一定数额的医疗扶贫专项资金，全面落实患病贫困人口“先诊疗、后付费”和“三免六减半”、门诊和住院费用帮扶政策，夯实基本医疗保险、大病保险、医疗机构减免、医疗救助、医疗商业补充保险、医疗精准扶贫“六重保障”，发挥各项医疗保障政策叠加效应，降低贫困人口就医负担。落实贫困人口参加城乡居民基本医疗保险个人缴费财政补贴政策。各级定点医疗机构设立综合服务窗口，2018年实现各项医疗保障政策“一站式”信息交换和即时结算。（市卫生计生委、市人力资源社会保障局、市民政局、市财政局、市扶贫办、市金融办，各区县）', '每年从市级财政专项扶贫资金中安排部分资金，为符合条件的贫困人口购买扶贫特惠保险，大力推行保人身、保意外、保收入的一揽子保障计划，实现保险精准扶贫全覆盖、风险保障全方位、保险服务全配套，切实提高贫困群众防范化解风险能力。（市扶贫办、市民政局、市财政局、市人力资源社会保障局、市卫生计生委、市金融办，各区县）', '做好对贫困人口中的严重精神障碍患者、失能人员、重残人员、长期服药慢性病患者的帮扶救助。对居家治疗贫困人口中的严重精神障碍患者每人每月补贴200元，年度住院治疗3个月以上的每人每年补贴6000元。对贫困人口中的失能人员，给予护理费补贴，60周岁及以上每人每月补贴300元；60周岁以下每人每月补贴150元。对残疾等级为一、二级的持证（二代残疾人证）贫困人口，每人每月补贴护理费100元。对患有高血压等10种长期服药慢性病的贫困人口实施帮扶，定点定期诊断，统一组织购药，自付费用全部由医疗扶贫专项资金承担，行动困难患者由乡村医师送药上门，并按照乡村医师服务区域内配发药物费用，给予适当补贴。乡村医生每月不少于一次上门随访、送药、健康及就医指导。（市卫生计生委、市人力资源社会保障局、市民政局分别牵头，市残联，各区县）', '加强基层医疗机构和乡村医生队伍建设，提升基层医疗卫生服务能力。用三年时间完成健康扶贫定点医疗机构和贫困村卫生室达标建设，2018年达到80%，2019年全面达标，2020年巩固提升。建立引导医疗卫生人员到贫困人口集中区域工作的政策机制，对贫困人口集中的区县医疗卫生机构，制定符合基层实际的人才招聘引进办法，优先安排贫困村卫生室招聘计划。（市卫生计生委、市人力资源社会保障局，各区县）', '坚持居家照料和集中供养相结合，依托农村幸福院等养老服务设施为贫困老年人、贫困残疾人提供照料服务。按照区域优化、布局合理原则，充分利用镇（街道）敬老院等现有资源，建设农村综合性社会福利服务机构，到2020年生活不能自理特困人员集中供养率达到50%以上。扎实开展残疾人精准康复服务行动，对建档立卡贫困残疾人实现基本康复服务全覆盖。（市民政局、市残联分别牵头，市卫生计生委，各区县）', '加强疾病防控和健康教育，以建设“健康济南”为统领，强化健康宣传教育，推广健康生活方式，预防和减少疾病发生，降低因病致贫返贫风险。全方位提升群众健康素养和文明素质，建设环境宜居、社会和谐、人群健康、服务便捷、富有活力的健康村镇，实现城乡建设与人的健康协调发展。实施健康促进三年行动计划。（市卫生计生委，各区县）', '8.深化教育扶贫，阻断贫困代际传递。全面落实建档立卡贫困家庭学生从学前教育到高等教育资助政策，实现应助尽助、精准资助，确保贫困家庭学生有学上、上得起学。在免除学费基础上，按照学前教育每生每年平均1200元、小学800—1000元、初中800—1300元、普通高中2000元、中等职业教育2000元、高等教育3000元的标准发放相关助学金和生活补助。落实义务教育控辍保学措施，确保贫困家庭适龄学生不因贫失学辍学。（市教育局，各区县）', '实施定向招生、订单培养，到2020年实现建档立卡贫困家庭学生接受职业教育机会全覆盖。实施“雨露计划”，对符合条件的贫困学生每学年补助3000元，支持引导农村贫困家庭新成长劳动力接受中高等职业教育。（市教育局、市扶贫办，各区县）', '9.加快推进危房改造，保障贫困人口住房安全。采取宜固则固、宜建则建、宜养则养、宜租则租、宜保则保等方式，解决贫困群众基本住房安全问题，2018年下半年完成贫困户危房改造任务。改造后住房要满足建筑面积适当、主要部件合格、房屋结构安全和基本功能齐全。原则上，改造后住房建筑面积要达到人均13平方米以上；户均建筑面积控制在60平方米以内，可根据家庭人数适当调整，但3人以上农户的人均建筑面积不得超过18平方米。贫困户中的修缮加固房屋户均补助不低于1万元，贫困户中的五保户、低保户和贫困残疾人家庭重建房屋户均补助不低于3\ue0102万元，一般贫困户重建房屋户均补助不低于2\ue0105万元，对于贫困户中自筹资金确有困难的，由区县危房改造工作机构认定，统筹解决危房改造资金。（市城乡建设委，各区县）', '10.完善保障性扶贫措施，兜住特殊贫困群体基本生活。统筹各类保障措施，建立以社会保险、社会救助、社会福利为主体，以社会帮扶、社工助力为辅助的综合保障体系。完善城乡居民基本养老保险制度，对符合条件的贫困人口由政府全额代缴（不低于最低档次）城乡居民养老保险费。完善农村低保制度，将符合条件的完全丧失劳动能力和部分丧失劳动能力且无法依靠产业就业帮扶脱贫的贫困人口纳入低保范围。统筹制定农村低保标准动态调整方案，完善农村低保标准与物价上涨挂钩的联动机制。（市民政局、市人力资源社会保障局、市发改委、市财政局、市卫生计生委、市残联，各区县）', '积极开展孝善扶贫，把弘扬孝老爱亲中华民族优良传统与精准扶贫相结合，在脱贫攻坚期内，面向全市农村65周岁及以上建档立卡贫困老年人实施孝善扶贫。通过政府引导、村民自治，设立孝善扶贫基金和孝善扶贫基金理事会，引领子女自觉履行赡养义务，形成家庭孝心养老，社会行善助老的浓厚氛围。符合条件的贫困老年人子女，按照每位老人每月不低于100元的标准，每季度向村孝善扶贫基金会交纳一次孝心赡养费后，孝善扶贫基金每位老人每月补助20元。有条件的区县、镇（街道）、村，在保证孝善扶贫工作能够持续推进的前提下，可自筹补助资金，提高补助额度。建立正面激励、道德约束、舆论监督相结合的养老扶贫新机制，助力脱贫攻坚，实现老年贫困人口老有所养、稳定脱贫。（市扶贫办，各区县）', '鼓励各区县通过政府购买服务、邻里互助、实物供给等方式，为贫困老年人、贫困残疾人提供助餐、助洁、助行、助医等日常护理照料。加快建立贫困家庭“三留守”关爱服务体系，落实家庭赡（抚）养、监护照料法定义务，探索建立信息台账和定期探访制度。（市民政局、市司法局、市残联分别牵头，各区县）', '11.开展人居环境整治三年行动，加强基础设施建设。加快推进改路、改电、改校、改房、改厕、改水、改暖，完善文化教育、信息网络等设施，2018年实现贫困村道路、宽带、有线电视、自来水“村村通”，不断完善提升贫困村饮水安全工程，省定扶贫工作重点村实现客车“村村通”，具备条件的市定贫困村全部通客车，村内主要道路有照明路灯，基本实现综合性文化活动室和健身广场全覆盖，生活用电、农业生产电力保障达到100%。到2020年，贫困村基础设施持续巩固提升，生产生活条件显著改善，完成无害化卫生厕所改造任务并建立完善后续管护机制，实现冬季清洁供暖，基本实现生活垃圾无害化处理。〔市经济和信息化委、市教育局、市城乡建设委、市城乡交通运输委、市城乡水务局、市文化广电新闻出版局、市体育局、济南供电公司、市城管局（市城管执法局）分别牵头，各区县〕', '实施贫困户人居环境改善工程，通过政府引导、社会参与、习惯养成等方式，帮助和带动贫困户逐步改善家庭居住环境，提高生活水平，在“两不愁三保障”基础上，让贫困户生活更有尊严，幸福感、获得感明显增强。（市扶贫办、市委农办、市妇联，各区县）', '12.培育壮大村级集体经济，提升可持续发展水平。实施村级集体经济发展三年行动计划，通过盘活集体资产资源、提供社会服务、开展租赁业务、量化资产收益等，拓宽村级集体经济增收渠道。到2020年，贫困村集体经济年收入达到3万元以上，其中5万元以上的贫困村比例达到90%，10万元以上达到30%。（市委农办、市农业局、市委组织部，各区县）', '鼓励贫困村集体经济组织结合农村集体产权制度改革，盘活闲置宅基地、房前屋后闲散地、村居外围荒地、废弃坑塘等资源，进行综合整治和开发利用，增加村集体收入，为巩固脱贫成果提供长久支撑。总结推广建立土地股份合作社，统一整理土地，增加村级集体收入的做法。扶贫资金投入项目后形成的资产，所有权归村集体，及时办理扶贫资产移交手续。（市国土资源局、市农业局、市扶贫办，各区县）', '13.开展扶贫扶志行动，激发贫困群众内生动力。坚持扶贫同扶志、扶智相结合，培养贫困人口自尊自爱自强精神，激发劳动脱贫、自我脱贫的内生动力。鼓励各区县探索建立脱贫激励机制，总结推广贫困人口脱贫典型，通过量化积分、典型示范等形式，引导贫困群众通过自身劳动主动脱贫，形成勤劳致富、脱贫光荣的良好导向。改进帮扶方式，采取生产奖补、劳务补助等方式，组织动员贫困群众参与扶贫项目实施，营造有劳才有得、多劳能多得的氛围。（市扶贫办，各区县）', '进一步完善村规民约，推动自治、法治、德治相互结合、相互促进，调动广大农民群众支持参与移风易俗工作积极性。发挥村民议事会、道德评议会、红白理事会等群众组织作用，广泛开展群众评议活动，推行喜事新办、丧事简办、厚养薄葬，用民间舆论、群众评价的力量倡树乡村新风、反对婚丧嫁娶大操大办等不良社会风气。全面推进一村（社区）一法律顾问工作。落实殡葬基本公共服务，加强农村公益性公墓建设。（市委宣传部、市文明办、市民政局、市司法局，各区县）', '实施“孝诚爱仁”四德工程，开展寻找“最美家庭”活动，组织评选“五好家庭”，开展好婆婆、好媳妇、好儿女等选树活动，倡导忠厚传家、孝亲敬老、克勤克俭、和睦友善的优良家风。2018年试点建立新时代文明实践中心，2019年逐步推开，进一步推动基层组织建设、乡风文明建设和群众内生脱贫，为全面完成脱贫任务和实现乡村振兴创造良好条件。深入开展以庭院美、生活富、家风好为主要内容的“争创出彩人家，共建美丽乡村”活动。到2020年，在贫困村中选树50个“出彩人家”典型村，发挥典型带动作用，激发群众脱贫增收、竞相出彩的内生动力。（市委宣传部、市文明办、市妇联、市扶贫办，各区县）', '14.广泛社会动员，巩固深化大扶贫格局。加大东西部扶贫协作，把产业合作、劳务协作、人才交流、资金支持等作为协作重点，推进携手奔小康行动。进一步做好对口支援工作，聚焦脱贫攻坚的重点难点，确保更多资金、项目和工作精力投向贫困人口。（市发改委、市直相关部门，相关区）', '与全面完成脱贫攻坚任务相衔接，继续深化与临沂市扶贫协作、市内“6+5”扶贫协作关系，进一步细化实化区县之间、镇街之间、村村之间、村企之间、家庭之间的结对帮扶措施，完善结对帮扶、协同推进、督导考核机制，拓宽协作领域，鼓励协作双方合作建设产业扶贫基地，扩大劳务协作规模，广泛开展人才技术交流，确保协作资金精准使用。（市扶贫办，相关区县）', '落实国有企业扶贫责任，组织市属国有企业通过捐赠等方式，积极支持脱贫攻坚。每年协调市属国有企业捐赠100万元助力黄河滩区迁建，每年吸纳100名黄河滩区贫困人口到市属国有企业就业。鼓励二机床集团、三箭集团等企业积极参加省“千企帮千村”脱贫攻坚行动，引导民营企业开展产业扶贫、就业扶贫、公益扶贫。（市国资委、市工商联分别牵头，各区县）', '继续开展“金晖助老—青春扶贫志愿者行动”，每年组织志愿者结对帮扶贫困老年人266人。引导社会组织、社会工作专业力量参与脱贫攻坚，到2020年动员100家有实力的社会组织参与脱贫攻坚行动，遴选10家专业社会工作服务机构参与“牵手计划”。（团市委、市民政局分别牵头，各区县）', '探索设立济南市扶贫开发基金会，广泛募集社会资金和物资，开展扶贫济困事业，开发扶贫项目，助力脱贫攻坚。加大“慈心一日捐”等募捐活动的动员力度，三年从募集善款中安排支出2400万元，设立“乡村扶贫解困慈善救助基金”和“孝善专项扶贫基金”，全部用于脱贫攻坚。（市扶贫办、市民政局、市慈善总会，各区县）', '鼓励各区县探索设立扶贫基金，通过财政投入、社会捐赠、扶贫资产收益等渠道筹集资金，采取补助、救助、兜底保障等方式，支持贫困人口脱贫，巩固脱贫成果。鼓励各区县搭建“爱心众筹”平台，广泛汇聚、统一调配社会扶贫物资，实现贫困人口生活需求与社会帮扶资源有效对接。建立完善过暖冬过好年长效机制，帮助贫困群众解决生活难题。每年“10·17”国家扶贫日期间，开展系列扶贫公益活动，营造全社会支持参与脱贫攻坚的浓厚氛围。（市扶贫办，各区县）', '15.强化要素支撑，推进脱贫攻坚顺利开展。各级将财政专项扶贫资金作为财政保障和预算安排重点，进一步加大投入力度，确保财政投入与扶贫任务相适应。市级财政专项扶贫资金原则上直接切块到区县，由区县统筹，根据实际需要确定资金用途。各级财政专项扶贫资金安排使用兼顾贫困村和非贫困村。（市财政局、市扶贫办，各区县）', '加快推进涉农资金整合，实行目标、任务、资金、权责“四到县”，具体项目审批验收权限全部下放到县级。（市财政局、市扶贫办，各区县）', '用足用好城乡建设用地增减挂钩节余指标省域内流转使用政策和耕地占补平衡指标调剂管理政策，收益主要用于脱贫攻坚和乡村振兴。将小于30亩与大田相连部分农村建设用地的复耕纳入增减挂钩范畴。优先支持扶贫开发基本生产生活、公共服务及配套设施项目的建设用地。（市国土资源局，各区县）', '发挥政策性、开发性金融作用，拓宽扶贫融资渠道。保持扶贫小额信贷政策的延续性，继续开展“富民生产贷”和“央行资金产业扶贫贷”“创业扶贫担保贷款”。适当提高金融机构扶贫贷款不良贷款容忍度，完善扶贫信贷融资担保机制。（人民银行济南分行营业管理部、市金融办、农业银行山东省分行营业部、农业发展银行山东省分行营业部，各区县）', '全面提升保险保障水平，支持开发特色农业险种，加快推进农产品目标价格保险，积极协调保险机构探索开展收入保险、产值保险、精准防贫保险、扶贫小额信贷保证保险等新型险种和业务，拓展农业保险保单融资信贷等金融功能。（市金融办、市农业局、市扶贫办，各区县）', '加大人才支持力度，加快培育创业致富带头人，吸引本土人才回村，带领贫困群众发展产业。吸引在外经商办企业人员、进城务工人员、大学生、退伍军人等返乡创业，带动贫困群众脱贫致富。积极开展技术指导和科技服务，加大科技指导人员（科技特派员）选派力度，组织科技人员深入农村生产一线，广泛开展科技服务，三年计划培训贫困村民3000人次。充分发挥科技型企业、科技特派员作用，在乡村基层建设“星创天地”“农科驿站”“科技特派员示范基地”等新型农业科技综合服务平台，到2020年达到50家，推进农技推广、农业科技成果在贫困村转化。（市扶贫办、市科技局、市人力资源社会保障局分别牵头，各区县）', '16.统筹衔接脱贫攻坚与乡村振兴。推进脱贫攻坚与乡村振兴衔接融合，在工作思路、政策支持、工作力量、领导体制、运行机制等方面统筹安排、协同推进。乡村振兴在资金、项目、人才、技术等方面的支持政策，优先向贫困村、贫困户和市南部山区、黄河滩区倾斜，补齐基础设施和基本公共服务短板，以脱贫攻坚促进乡村振兴，以乡村振兴巩固脱贫攻坚成果。（市委农办、市扶贫办，各区县）', '结合实施贫困村提升工程，在脱贫基础上，加快推进贫困村建设美丽乡村。到2020年，美丽乡村中贫困村的比例不低于20%。在有条件的地区，按照新型集镇化发展方向，规划建设一批农村新型社区，统筹解决基础设施、公共服务、社会救助等问题，为乡村振兴拓展发展空间。（市委农办、市扶贫办、市城乡建设委、市规划局、市国土资源局，各区县）', '17.坚持改革创新，建立稳定脱贫长效机制。坚持脱贫与巩固两手抓两手硬，努力做到脱贫一个巩固一个。探索建立统筹发展、共建共享、内外联动、市场引导、组织保障和扶贫资金持续积累发挥作用的“5+1”长效机制。脱贫攻坚期内，对已脱贫人口继续给予帮扶，持续巩固脱贫成果。完善资产收益扶贫机制，明晰所有权、放活经营权、确保收益权、落实监督权，推进扶贫资金资产保值增值、规范管理、长效运行，资产收益重点向没有劳动能力的老弱病残贫困户倾斜，持续稳定增加脱贫人口收益。（市扶贫办、市扶贫开发领导小组成员单位，各区县）', '进一步规范产业扶贫项目收益分配使用管理，建立收益分配利益联结和带贫减贫长效机制。以项目收益精准分配使用为原则，在优先保障现行标准下建档立卡贫困户稳定脱贫的基础上，剩余收益用于村内小型基础设施建设等公益事业，使党和国家的扶贫政策惠及更多的困难群众，最大限度预防新贫困户的产生。（市扶贫办，各区县）', '建立脱贫成效巩固提升监测机制，对脱贫户实施跟踪和动态监测，及时了解脱贫后生产生活情况，返贫的及时纳入帮扶。探索建立贫困人口即时帮扶机制，对因病因灾等出现的临时性、突发性、支出性贫困人口，即时出现，即时标注，即时纳入，建立台账，整合利用民政、教育、人力资源社会保障、卫生计生、残联等部门救助政策即时帮扶。（市扶贫办、市民政局、市教育局、市人力资源社会保障局、市卫生计生委、市妇联、市残联，各区县）', '建立风险防控机制，重点防范化解产业扶贫市场风险、扶贫信贷风险、债务风险、社会风险，做好风险评估，制定实施防范和处置应对措施。（市扶贫办、市扶贫开发领导小组成员单位，各区县）', '完善涉贫舆情处置反馈机制，实行舆情分级管理和处置，畅通12317扶贫监督举报电话等渠道，推进快查、快办、快结。（市扶贫办，各区县）', '积极探索实践，逐步积累经验，为做好2020年后扶贫开发工作打好基础。（市扶贫办，各区县）', '18.强化各级政治责任。各级党委和政府要把打赢脱贫攻坚战作为重大政治任务，坚持市抓推进、区县和镇（街道）抓落实的工作机制，构建市、区县、镇（街道）、村联动扶贫、层层推进、环环落实的脱贫攻坚责任制。坚决落实党组织书记抓扶贫要求，明确责任、尽锐出战、狠抓实效。市委、市政府重在抓推进，做好上下衔接，分类指导、督促落实，每年向省委、省政府报告扶贫脱贫进展情况；区县、镇（街道）重在抓落实，做好动态调整、进度安排、项目落地、资金使用、人力调配、保证质量等工作，推动脱贫攻坚各项政策措施落地生根，对脱真贫、真脱贫负责。（市扶贫办、市委组织部，各区县）', '强化党政一把手负总责的领导责任制，各级党委和政府主要负责同志要增强政治担当和责任担当，亲力亲为抓部署、搞督导、促落实。实施遍访贫困对象行动，区县委书记遍访贫困村，镇（街道）党（工）委书记和村党组织书记遍访贫困户。（市扶贫办、市委组织部，各区县）', '配强脱贫任务比较重的区县、镇（街道）领导班子。市、区县、镇（街道）优秀年轻干部交流使用，注重结合脱贫攻坚任务安排岗位。脱贫攻坚期内，对脱贫任务比较重的区县、镇（街道）党政正职实行重点管理，保持相对稳定，集中精力抓脱贫攻坚，对不能胜任的及时撤换，对弄虚作假的坚决问责。（市委组织部，各区县）', '突出镇（街道）在脱贫攻坚中的作用，强化对贫困村和贫困人口识别、扶持、退出的直接责任，逐村逐户制定脱贫实施计划，组织因地制宜实施扶贫项目，加强扶贫资金项目监管，带动村级履行责任，做到扶贫到户、责任到人，稳定脱贫。（各区县）', '进一步压实部门扶贫责任，市扶贫开发领导小组成员单位要按照本实施意见，完善配套政策举措，在本意见下发2个月内，制定具体行动方案，并抓好组织实施。机构改革和职能调整的，责任随着职能走。（市扶贫开发领导小组成员单位）', '19.强化农村基层党组织建设。深入推进抓党建促脱贫攻坚，加强农村基层党组织带头人和党员队伍建设，选好配强贫困村党组织班子特别是村党支部书记，充分发挥基层党组织战斗堡垒作用和党员先锋模范作用。防止家族势力、地方黑恶势力、违法违规宗教活动侵蚀基层政权，干扰破坏村务。大力整顿软弱涣散村党组织，以区县为单位组织摸排，逐村分析研判，坚决撤换不胜任、不合格、不尽职的村党组织书记，实施头雁队伍提升工程，建立村级后备力量递进培养机制，有序推进村党组织书记队伍新老更替、优化升级，优先发展贫困村优秀分子入党，到2020年，贫困村45岁以下的党员致富能手不少于3人。全面推行村党组织评星定级，通过定期评定、动态调整、晋位升级，不断扩大先进支部增量、提升中间支部水平、整顿后进支部。强化镇（街道）党（工）委自身建设，切实负起抓村级组织建设直接责任。把抓党建促脱贫攻坚情况作为区县委书记、镇（街道）党（工）委书记抓基层党建工作述职评议考核的重要内容。对不够重视贫困村党组织建设、措施不力的地方，上级党组织要及时约谈提醒相关责任人，后果严重的要问责追责。（市委组织部、市委统战部、市委政法委、市委610办公室、市民族宗教局、市民政局，各区县）', '坚持党建带群建，加强农村群团组织建设和改革，发挥其密切联系基层群众的桥梁纽带作用，推动贫困人口精准脱贫。（市委组织部、市总工会、团市委、市妇联、市残联，各区县）', '加强驻村帮扶力量，继续加强贫困村驻村工作队和第一书记派驻管理工作，做好从市、区县机关选派优秀干部到部分贫困村和工作基础薄弱村担任党支部书记的管理服务工作。加强帮扶责任人管理，压实帮扶责任，提升帮扶成效。（市委组织部、市扶贫办，各区县）', '20.健全完善考核监督评估机制。市、区县扶贫开发领导小组做好对下一级党委和政府及本级扶贫开发领导小组成员单位扶贫开发工作成效考核。改进对区县及区县以下扶贫工作考核，原则上每年对区县的考核不超过2次，加强对区县委书记的工作考核，注重发挥考核的正向激励作用。完善对区县党委和政府、市扶贫开发领导小组成员单位的考核评估方式，以“两不愁三保障”为核心标准，聚焦脱贫质量和群众满意度，对全市脱贫攻坚工作进行精准监测、评估验收。2018年重点考核基本完成脱贫攻坚任务情况，2019年重点考核贫困村和贫困人口稳定脱贫情况，2020年对“十三五”扶贫开发工作成效进行全面考核，并结合乡村振兴战略和美丽乡村建设，对贫困村一并进行评估。突出对镇（街道）的考核，重点考核评估动态管理、项目实施、资金运行等工作落实情况和脱贫成效，倒逼责任落实、真抓实干。（市扶贫办、市委组织部、市委农办、市统计局，各区县）', '坚持问题导向，开展第三方评估，增加暗访比重。完善扶贫工作监督机制，重点督查脱贫质量和脱贫稳定性。强化考核结果运用，严格兑现奖惩，对好的给予表扬奖励，对差的约谈整改，对违纪违规的严肃查处。改进约谈方式，开展常态化约谈，发现问题随时约谈。（市扶贫办、市委组织部、市纪委监委机关，各区县）', '21.加强脱贫攻坚作风建设。坚持把作风建设贯穿脱贫攻坚全过程，扎实开展作风建设年活动，坚持不懈纠“四风”转作风，以作风攻坚战保障打赢脱贫攻坚战。（市扶贫办，各区县）', '认真抓好中央巡视发现问题整改，统筹推进省委巡视、市委巡察发现突出问题专项治理。坚决反对形式主义、官僚主义，对搞数字脱贫、虚假脱贫的严肃问责。（市纪委监委机关、市扶贫办，各区县）', '完善监督联动机制，强化纪检监察、扶贫、审计、财政部门问题线索沟通共享。把每年第二季度作为“问题整改落实季”，对发现的问题逐级逐部门建立台账、销号整改。（市纪委监委机关、市扶贫办、市审计局、市财政局分别牵头，各区县）', '22.提升攻坚能力。分级分类开展扶贫干部教育培训，2019年年底前实现教育培训全员覆盖，帮助扶贫干部增强“四个意识”、提高工作能力、培育优良作风。市级重点抓好区县党政分管负责同志、区县扶贫办主任、市扶贫办机关干部、市扶贫开发领导小组成员单位分管负责同志及联络员和市级机关选派的村党支部书记、第一书记、驻村工作队员等培训。区县重点抓好镇（街道）党政正职和分管负责同志、区县、镇（街道）扶贫干部、区县扶贫开发领导小组成员单位分管负责同志及联络员、村级组织负责人、第一书记、帮扶责任人和致富带头人等培训。（市委组织部、市扶贫办，各区县）', '加强扶贫力量建设，脱贫攻坚期内，各级扶贫机构不撤、编制到位、人员配强、力量不减，保持稳定。进一步加强镇（街道）扶贫干部队伍建设，镇（街道）扶贫办工作人员在完成脱贫任务前原则上不得调离。（市编办、市委组织部、市扶贫办，各区县）', '23.建立正向激励机制。落实习近平总书记对基层扶贫干部格外关爱、特别照顾和让有为者有位、吃苦者吃香、流汗流血牺牲者流芳的要求，坚持严管与厚爱结合，激励与约束并重，落实容错纠错、尽职免责制度，激励基层扶贫干部忠诚担当、人在心在、履职尽责、敢于作为。坚持在脱贫攻坚一线考察干部，把脱贫攻坚实绩作为选拔任用干部的重要依据，对如期完成任务且表现突出的脱贫任务比较重的区县、镇（街道）党政正职适时予以推荐重用，对在脱贫攻坚中工作出色、表现优秀的扶贫干部、基层干部注重提拔使用。（市委组织部，各区县）', '对奋战在脱贫攻坚一线的区县、镇（街道）干部要关爱关心，帮助解决工作生活中遇到的实际困难和问题，落实津补贴等有关政策，改善工作条件。（市人力资源社会保障局、市财政局，各区县）', '对在脱贫攻坚中因公受伤、致残、牺牲的干部家属要落实有关政策，及时给予抚恤，长期帮扶慰问。（市委组织部、市人力资源社会保障局、市民政局分别牵头，各区县）', '落实国家扶贫荣誉制度。每年通报表扬一批脱贫攻坚先进集体和先进个人;2021年，市委、市政府召开总结大会，全面总结五年来脱贫攻坚工作成就，对在脱贫攻坚中作出突出贡献的先进集体和先进个人予以表扬奖励。（市人力资源社会保障局、市扶贫办，各区县）', '24.营造良好社会氛围。深入学习宣传习近平总书记关于扶贫工作的重要指示，大力宣传关于精准扶贫、精准脱贫的决策部署，宣传我市脱贫攻坚取得的重大成就，总结推广各区县扶贫脱贫先进典型和经验做法。充分发挥报纸、电台、电视台等传统媒体以及网站、客户端、官方微博、微信、第三方媒体平台等新媒体优势，开展立体式、全景式的融媒体集成宣传，为打赢脱贫攻坚战营造浓厚舆论氛围；开设“扶贫第一线”“我们在行动”“坚决打赢脱贫攻坚战”等专栏，挖掘先进典型，推广先进经验；开展记者走基层活动，深入脱贫攻坚一线，推出扶贫典型50个。（市委宣传部、市扶贫办，各区县）', '认真总结和提炼新时代脱贫攻坚精神，为打造“四个中心”，建设“大强美富通”现代化国际大都市提供精神动力。开展扶贫主题优秀文艺作品创作和征集活动，讲好脱贫攻坚济南故事，唱响主旋律，凝聚正能量。（市扶贫办、市委宣传部、市文化广电新闻出版局，各区县）', '25.建立济南脱贫攻坚档案。编纂济南脱贫攻坚志，广泛征集“我眼中的脱贫攻坚”影像档案，全面反映济南脱贫攻坚取得的成就，真实记录济南脱贫攻坚历史，形成脱贫攻坚档案济南卷。（市史志办、市扶贫办，各区县）']</t>
         </is>
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A172" t="n">
+        <v>129</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
           <t>内蒙古自治区文化厅来英雄山文化市场考察</t>
         </is>
       </c>
-      <c r="D172" t="inlineStr">
+      <c r="E172" t="inlineStr">
         <is>
           <t>2018-05-14</t>
         </is>
       </c>
-      <c r="E172" t="inlineStr">
+      <c r="F172" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2018/5/14/art_4115_2760540.html</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr">
+      <c r="G172" t="inlineStr">
         <is>
           <t>['为深入推进“大学习、大调研、大改进”,5月9日上午,内蒙古自治区文化厅文化市场处调研员努拉等一行8人,来英雄山文化市场考察工作,山东省文化厅文化市场处夏星副处长以及市文化广电新闻出版局、市文化市场综合执法局等相关负责同志陪同。', '英雄山文化市场张宝山总经理向考察组详细介绍了市场规划和布局,回顾了市场的发展历程,展示了市场厚重的文化底蕴和高质量的发展前景。张宝山总经理指出,市场按照市委市政府“1+454”工作体系和市中区“一环一片两大节点”规划要求,积极推动新旧动能转换工作。第五届中国非遗博览会将于今年9月在济南召开,英雄山文化市场被列为分会场,市场将以此为契机,提升能力,发挥特色,打造全国特色商业街文化高地。', '在市场西大门通天柱彩绘牌坊前,工作人员为考察组讲解了大型铜浮雕壁画“儒行天下”和“凤鸣历山”,无论是壁画展现的“孔子讲学”,还是大汶口彩陶、龙山黑陶等远古的齐鲁文化,都让考察组称赞不已。在仿古特色街,考察组走进一家泰山玉经营店铺,详细了解了泰山玉的雕刻、形制等生产工艺,在仿古街二楼字画集中经营区,考察组走进一家家字画店铺,查看画作的种类,询问店主的经营模式。在一家经营古画的店铺,考察组饶有兴致地观赏几幅明清古画,并就收藏价值和市场行情与店主深入交流。', '在仿古街大型青花瓷壁画前,考察组随着工作人员的讲解,聚精会神地欣赏这一巨幅画作。该画全长38米,高1.7米,在景德镇运用青花瓷古窑釉下彩工艺烧制,将济南的泉群、湖光山色、名胜古迹同英雄山文化市场有机地融合在一幅画卷上,气势恢宏,大气磅礴,2012年3月,被前来市场考察的国家商务部一行称赞为现代版的清明上河图。', '考察组对英雄山文化市场欣欣向荣的发展景象给予了充分肯定,称赞山东是孔孟之乡,礼仪之邦,文化积淀深厚,文化市场发展潜力巨大。考察组希望双方多交流、多互访,增强联系沟通,发掘合作潜力,坚定文化自信,不断推动文化事业和文化产业的大发展大繁荣。']</t>
         </is>
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A173" t="n">
+        <v>129</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
           <t>济南市农业局关于印发济南市新型职业农民认定管理办法的通知</t>
         </is>
       </c>
-      <c r="D173" t="inlineStr">
+      <c r="E173" t="inlineStr">
         <is>
           <t>2018-05-17</t>
         </is>
       </c>
-      <c r="E173" t="inlineStr">
+      <c r="F173" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2018/5/17/art_114391_4942253.html</t>
         </is>
       </c>
-      <c r="F173" t="inlineStr">
+      <c r="G173" t="inlineStr">
         <is>
           <t>['各县区农业（农发）局、农机局、畜牧兽医局、蔬菜中心、水产主管局，高新区社会事业局，南部山区生态保护局：', '为规范新型职业农民认定管理，进一步促进新型职业农民培育工作，现将《济南市新型职业农民认定管理办法》印发给你们，请遵照执行。', '第一条 为规范新型职业农民认定工作，提升管理水平，加快培育一批爱农业、懂技术、善经营的新型职业农民，根据农业部《关于统筹开展新型职业农民和农村实用人才认定工作的通知》（农人发〔2015〕3号）、《济南市人民政府办公厅关于加强新型职业农民培育工作的意见》(济政办发〔2017〕62号)等文件精神，结合本地实际，制定本办法。', '第二条 本办法中所称新型职业农民是指以农业为职业、具有一定的专业技能、收入主要来自农业的现代农业从业者。', '第三条 本市通过教育培训、规范管理、政策支持，对符合条件的农业从业人员通过评审认定并颁发新型职业农民等级证书。', '第四条 持有有效的新型职业农民证书是新型职业农民的标志，是从事农业生产经营服务所必备综合素质、专业知识、操作技能、经营能力的证明，是享受政策扶持的重要依据。', '第五条 新型职业农民认证对象主要是从事种植业、畜牧业、渔业、林果业等行业的从业者。从业者可自愿报名，自愿参加认定。', '第六条 本办法主要规范生产经营型新型职业农民认定条件、标准和管理办法。生产经营型新型职业农民是指长期从事农业生产、有一定产业规模、文化素质较高的现代农业从业者，主要包括农业生产大户、家庭农场主、农民合作社带头人、农业企业负责人等。', '（一）年龄在18—60周岁之间，初中及以上文化程度，按规定参加社会保险，以农业生产经营服务为主要职业；', '（二）本市户籍人员，或在本市有合法稳定住处且合法稳定从事农业生产经营服务3年以上、具有示范带动效应的外市户籍人员；', '（五）遵纪守法，诚信经营，享有良好社会声誉，无生产和质量安全事故，无破坏生态环境、违章搭建、欠税、融资信用等违法违规不良记录。', '第八条 农业从业人员可申请认定初、中、高三个等级的新型职业农民。初级生产经营型新型职业农民认定标准由各县区制定，本办法主要制定中、高级生产经营型新型职业农民认定标准。鼓励专业技能型和专业服务型新型职业农民参加国家职业技能鉴定取得相应的国家职业资格证书。', '第九条 中级、高级生产经营型新型职业农民认定，主要从农业生产经营规模、收入水平、示范带动和经营管理能力等方面综合评定，认定顺序原则上由初级到中级、高级梯次递升。', '（二）中级标准：初中及以上学历，农业生产经营规模达到本县区初级职业农民标准的2倍以上，个人年纯收入达到本县区农民人均年纯收入的5倍以上。参加新型职业农民培训不少于90学时，示范带动作用显著。', '（三）高级标准：高中及以上学历，农业生产经营规模达到本县区初级职业农民标准的3倍以上，个人年纯收入达到本县区农民人均年纯收入的10倍以上。参加新型职业农民培训不少于90学时，示范带动作用强。', '第十三条 符合申报条件的农业从业者提出申请，经所在村(社区)、乡镇（街道）核实推荐，由所在县区人民政府或县区人民政府授权的农业行政主管部门现场核实，并按照市级标准进行初评推荐。', '第十四条 达到生产经营型新型职业农民认定基本条件的农业从业者，申报认定中、高级新型职业农民应提供以下材料：', '第十五条 市农业局成立市新型职业农民认定委员会，对县区初评推荐的人选，按照认定标准综合评审，确定中、高级资格人选。', '第十六条 被入选为中、高级等级的新型职业农民人员名单在济南市农业信息网上公示5个工作日，无异议后，报市农业局批准并颁发相应等级证书。', '第十七条 对认定的新型职业农民分类管理，市负责中级和高级、县区负责初级新型职业农民的认定管理和证书发放。', '第十八条 实行考核管理。对于已认证的新型职业农民每3年考核一次，考核不合格者，按照实际情况重新予以认定。', '第十九条 实行档案管理。各县区应建立本地新型职业农民信息档案，定期将新型职业农民信息上传至济南市新型职业农民信息管理系统，通过云平台统一管理。', '第二十条 实行动态管理。新型职业农民有以下违法违规行为，将取消新型职业农民等级资格并注销其证书，不再享受相关支持政策：', '第二十一条 将认定的新型职业农民纳入新型农业经营主体扶持政策体系。鼓励新型职业农民带头创办各类新型农业经营主体，发展多种形式的适度规模经营，有关新型农业经营主体中的新型职业农民达到一定比例的，优先支持市级农业项目。', '第二十二条 对新型职业农民开展免费教育培训，对中、高级新型职业农民实施素质提升培训，组织各类考察和学习培训活动。新型职业农民创办领办的农民合作社、家庭农场或农业企业，实施科技成果研发、推广、应用和转化的，优先承担市局农业应用技术创新项目和农业科技成果转化应用项目。', '第二十三条 农业技术专家为新型职业农民提供农业科技信息和技术咨询，建立定期技术指导和跟踪服务制度。', '第二十四条 鼓励大中专毕业生、退役军人返乡创业，进入我市农业种养领域创业且被认定为新型职业农民的，每年补贴1万元，连续补助3年。', '第二十五条 鼓励新型农业经营主体和新型职业农民发挥示范带动作用，吸纳当地农民、返乡农民就业，并支持其创新创业。', '第二十六条 新型职业农民创办的新型农业经营主体符合贷款条件且有贷款需求的，融资担保公司要优先给予贷款担保，并适当放大额度、降低费率；符合贷款贴息政策的，按规定优先享受贷款贴息。', '第二十七条 中级以上新型职业农民开展粮食规模化生产的，优先享受烘干设施、农业装备补贴，在深耕深松、宽幅精播以及小麦、玉米病虫害防治、水肥一体化等关键技术环节给予适度支持。']</t>
         </is>
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A174" t="n">
+        <v>129</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
           <t>济南市人民政府办公厅关于印发济南市建立服务大使工作机制推进重点招商项目实施办法的通知</t>
         </is>
       </c>
-      <c r="D174" t="inlineStr">
+      <c r="E174" t="inlineStr">
         <is>
           <t>2018-03-28</t>
         </is>
       </c>
-      <c r="E174" t="inlineStr">
+      <c r="F174" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2018/3/28/art_2615_2046381.html</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
+      <c r="G174" t="inlineStr">
         <is>
           <t>['济南市人民政府办公厅关于印发济南市建立“服务大使”工作机制推进重点招商项目实施办法的通知', '各县区人民政府，市政府各部门： 《济南市建立“服务大使”工作机制推进重点招商项目实施办法》已经市政府同意，现印发给你们，请认真组织实施。', '第一条 为进一步提高项目服务质量和效率，更加专业、精准、高效、系统、全面地服务我市重点招商项目，推动“四个中心”建设，结合我市实际，制定本办法。 第二条 本办法所称重点招商项目主要包括全市重点洽谈推进落地的投资额在1亿元人民币(含)以上的内资项目；合同外资额在1000万美元(含)以上的外资项目；世界500强及行业领先企业投资的外资项目。 第三条 本办法所称“服务大使”是指为全市重点招商项目提供政策咨询、项目协调推进等服务的工作人员。“服务大使”成员单位（名单详见附件）负责在本单位指定2名业务能力强、综合素质高的人员担任“服务大使”，并明确一名分管负责人具体负责此项工作。各成员单位要为“服务大使”提供便利条件，全方位支持工作开展。 第四条 “服务大使”主要负责宣传和解答本单位相关产业政策和财政扶持政策；协调解决重点招商项目在前期投资考察、选址、洽谈及落地过程中涉及本单位的事项；汇总上报本单位重点招商项目在推进落地过程中需要其他职能部门帮助解决的事项；办理重点招商项目的其他服务事项。 第五条 成立济南市重点招商项目“服务大使”协调推进工作组（以下简称工作组），由分管市长任组长，成员包括“服务大使”各成员单位分管负责人，主要负责研究解决重点招商项目在洽谈推进过程中遇到的重大问题，并提出对策和措施，推动项目顺利落地。 工作组办公室设在市投资促进局，主要负责筹备和组织召开相关会议；收集汇总“服务大使”上报的项目方诉求、意见和建议，并转至相关部门办理；为“服务大使”开展工作提供相应服务。 第六条 建立教育培训与考评机制，根据工作需要，不定期组织各成员单位“服务大使”开展业务培训和经验交流会议，切实提升重点招商项目服务的专业化和精准化水平；对“服务大使”工作进行年度总结和考评，并将考评结果反馈其所在单位。 第七条 “服务大使”应严格遵守以下工作要求： （一）“服务大使”为公益岗位，不得收取企业费用或报酬； （二）“服务大使”应遵守工作纪律，不得违反中央八项规定等各项纪律要求； （三）“服务大使”要加强学习，不断提高自身业务素质和政策水平； （四）涉及招商引资的信息，凡是能公开的，“服务大使”要协调本单位采取多种形式予以公开，切实保障投资方的知情权。 第八条 各县区（含济南高新区、市南部山区）应参照本办法，尽快研究制定本辖区重点招商项目“服务大使”工作机制，推动招商服务工作向基层延伸。 第九条 本办法自印发之日起施行。']</t>
         </is>
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A175" t="n">
+        <v>129</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
           <t>关于济南市生活垃圾处理生态补偿暂行办法起草情况的说明</t>
         </is>
       </c>
-      <c r="D175" t="inlineStr">
+      <c r="E175" t="inlineStr">
         <is>
           <t>2018-04-27</t>
         </is>
       </c>
-      <c r="E175" t="inlineStr">
+      <c r="F175" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2018/4/27/art_2607_2778254.html</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
+      <c r="G175" t="inlineStr">
         <is>
           <t>['城市生活垃圾处理生态补偿机制是生态补偿制度和生态文明建设的重要组成部分。近年来，随着城市生活垃圾大幅增加和人民对身体健康和环境质量的不断重视，各地因生活垃圾处理设施选址、建设及运营而发生的群体性事件不断增多。就我市而言，各区县均不愿在本辖区建设垃圾处理厂，垃圾处理厂选址难、建设难。同时，近年来我市生活垃圾量激增，市生活垃圾综合处理二厂（填埋场）长期超负荷运转，虽然采取了一系列措施消除污染，但由于没有专项资金给予所在县区用于周边环境改善及经济发展，附近村民意见较大，甚至多次干扰阻挠，严重影响了生活垃圾处理工作。', '2017年6月7日，市政府专题会议决定，由市环保局总牵头，市城管局负责制定生活垃圾处理生态补偿机制。专题会议后，我局牵头组织市财政局、市环保局相关负责同志，赴北京、广州、深圳对生活垃圾处理生态补偿机制建立及实施情况进行了专题调研学习。2017年7月-8月，通过外地考察调研，结合我市生活垃圾产生、运输、处理现状，市财政局编写了《济南市生活垃圾处理生态补偿机制研究》调研报告（2017年12月在《中国环境报》发表），提出了建立“污染付费、倒逼减量”的生态补偿模型，并以我市2016年垃圾实际产生量为依据，测算得出了生态补偿标准。在以上工作基础上，我们会同市财政局等部门，结合我市实际，起草了《暂行办法》,并征求了各区县、相关单位意见建议，经修改完善后，建议以市政府办公厅名义印发。', '《暂行办法》共十条，分别从制定目的、基本定义、部门职责、缴费标准、支出范围、资金管理等方面，明确了我市生活垃圾处理生态补偿机制建立、运行原则及相关标准。', '第三条为部门职责分工。市城管局负责办法的组织实施和协调管理工作，负责生活垃圾处理量统计核准、生态补偿资金的计算上报等；市财政局负责生态补偿资金的管理、核拨工作，牵头组织对生态补偿资金实施绩效评价；受偿区负责设施周边市政配套、环境整治、生态补偿、群众关系协调处理等工作，并承担相关维稳责任。', '第四条为缴纳标准和总量控制。将生活垃圾送入市级终端垃圾处理设施处理的县区（包括受偿区）缴纳生态补偿资金，实行总量控制。以现有垃圾焚烧厂处理能力为定额总量核定各县区生活垃圾定额指标。生态补偿资金包括垃圾处理生态补偿资金和渗滤液处理生态补偿资金，前者以垃圾输入量的80%核算，后者以垃圾输入量的20%核算。定额指标内垃圾处理生态补偿标准为75元/吨、渗滤液处理生态补偿标准为200元/吨；超过定额指标的按超出比例提高缴费标准。（具体缴纳标准详见办法正文）', '市财政局、城管局每两年对生态补偿标准进行一次核算，按核算情况进行调整并报市政府审批。', '第七条、第八条为资金使用要求和审计办法。生态补偿资金专款专用，专项用于市级生活垃圾处理设施内部环境污染防治，设施周边街镇的生态环境整治等。生态补偿资金实施绩效评价管理，组织第三方评价，作为安排下一年度预算资金的重要依据。市审计局依法对生态补偿资金管理使用绩效情况进行审计监督。', '第九条、第十条为实施时间和其他要求。本办法暂行2年。各县区自建垃圾处理厂生态补偿可参照本办法执行。']</t>
         </is>
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A176" t="n">
+        <v>129</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
           <t>中共济南市委办公厅济南市人民政府办公厅印发关于加强贫困村驻村工作队选派管理工作的实施意见的通知</t>
         </is>
       </c>
-      <c r="D176" t="inlineStr">
+      <c r="E176" t="inlineStr">
         <is>
           <t>2018-04-03</t>
         </is>
       </c>
-      <c r="E176" t="inlineStr">
+      <c r="F176" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2018/4/3/art_25823_2404478.html</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
+      <c r="G176" t="inlineStr">
         <is>
           <t>['中共济南市委办公厅济南市人民政府办公厅印发《关于加强贫困村驻村工作队选派管理工作的实施意见》的通知', '各县区党委和人民政府，市委各部门，市级国家机关各部门，各人民团体，市属各企事业单位：', '《关于加强贫困村驻村工作队选派管理工作的实施意见》已经市委、市政府领导同志同意，现印发给你们，请结合实际认真贯彻落实。', '为深入贯彻落实习近平新时代中国特色社会主义思想和党的十九大精神，进一步推动精准驻村帮扶，坚决打好脱贫攻坚战，按照《中共中央办公厅、国务院办公厅印发〈关于加强贫困村驻村工作队选派管理工作的指导意见〉的通知》（厅字〔2017〕50号）和《中共山东省委办公厅、山东省人民政府办公厅认真学习贯彻〈关于加强贫困村驻村工作队选派管理工作指导意见〉的通知》（鲁厅字〔2018〕4号）精神，结合我市实际，提出如下实施意见。', '（一）明确派驻重点。驻村工作队重点派驻全省扶贫工作重点村中涉及我市的村及脱贫难度较大的村。每期驻村时间不少于2年，驻村工作期间干部一般不轮换。脱贫攻坚期内贫困村退出的，驻村工作队不能撤离，帮扶力度不能削弱。', '对其他贫困村，有关县区要按照市委组织部关于进一步加强第一书记管理服务工作的意见要求，立足实际充实驻村工作力量，特别是对市派第一书记帮扶村，注重从选调大学生村官、新录用公务员及镇（街道）综合素质高、培养潜力大的年轻干部中选拔驻村工作队成员，与第一书记组成帮扶团队。', '（二）严格标准条件。每个驻村工作队一般不少于3人，且均应为县级以上机关、企事业单位选派的干部，优先从优秀年轻干部和后备干部中选派。驻村工作队队长原则上由驻村第一书记兼任。', '驻村工作队队员要具备以下条件：政治素质好，牢固树立“四个意识”，坚定“四个自信”，坚决维护以习近平同志为核心的党中央权威和集中统一领导，全面贯彻执行党的理论和路线方针政策；作风扎实，事业心和责任感强，敢于担当、踏实肯干、甘于奉献；综合能力强，熟悉农村，热爱“三农”工作，有一定组织协调能力，对群众有深厚感情，善于做群众工作；身心健康，具备履职条件。', '（三）完善选派程序。驻村工作队队员人选由派出单位按照组织动员、个人自愿报名、党委（党组）集体研究决定的程序确定。人选名单确定后，以书面形式报市、县区党委组织部门、扶贫部门审定备案。', '要坚持因村选派、分类施策，对村班子软弱涣散、凝聚力战斗力不强的村，选派熟悉党群工作、组织能力较强的干部；对缺乏产业基础、打不开致富门路的村，选派熟悉经济工作、思路开阔的干部；对有特色资源、但挖掘利用不够的村，选派有头脑懂经营善管理的干部；对村情复杂、遗留问题较多的村，选派善于化解矛盾、群众工作经验丰富的干部，充分发挥派出单位和驻村干部自身优势，帮助派驻村解决脱贫攻坚面临的突出困难和问题。', '（一）宣传贯彻党中央、国务院关于脱贫攻坚和实施乡村振兴战略的各项方针政策、决策部署、工作措施，宣传贯彻省委、省政府有关工作要求和市委、市政府有关工作部署。', '（三）参与实施特色产业扶贫、劳务输出扶贫、易地扶贫搬迁、贫困户危房改造、教育扶贫、科技扶贫、健康扶贫、生态保护扶贫等精准扶贫工作。', '（四）加强与各级行业扶贫部门的沟通联系，推动金融、交通、水利、电力、通信、文化、社会保障等行业和专项扶贫政策措施落实到村到户。', '（五）推动发展村级集体经济，增强村级组织运转自我保障能力；推进实施农村改路、改暖、改厕、改房、改水、改电、改校“七改”工程，美化村容村貌。', '（七）注重扶贫同扶志、扶智相结合，做好贫困群众思想发动、宣传教育和情感沟通工作，培育贫困群众发展生产和务工经商的基本技能，激发摆脱贫困内生动力。', '（八）推动完善村级治理机制，落实“四议两公开”民主决策制度，健全村务党务财务公开等民主管理制度；加强法治教育，推动移风易俗，指导制定和谐文明的村规民约，促进村庄和谐。', '（九）推动村级组织开展为民服务工作，推动民生保障政策落实，着力解决群众出行、吃水、就业、养老、上学、看病等实际问题；关心关爱老弱病残等特定贫困群众，落实好保障性扶贫措施。', '（十）帮助加强基层组织建设，推进过硬支部建设，配合县区、镇（街道）党（工）委抓好软弱涣散党组织整顿和发生在群众身边腐败问题整治；培养贫困村创业致富带头人，吸引各类人才到村创新创业，打造“不走的工作队”。', '（二）健全工作制度。建立工作例会制度，县区驻村工作领导小组每季度至少组织召开1次驻村工作队队长会议，镇（街道）每月至少召开1次驻村干部会议。建立考勤管理制度，完善请销假报批程序，驻村干部离开驻村工作岗位3天以内的，经镇（街道）党（工）委批准；离开3天以上的，经县区党委组织部门批准，考勤情况作为驻村干部日常考核的重要内容。建立工作报告制度，驻村工作队每半年向县区报告一次思想、工作、学习情况；工作中发生重大问题或出现重要情况，按程序及时报告。建立纪律约束制度，严明驻村工作纪律，驻村干部应自觉服从县区、镇（街道）党（工）委的领导，严格遵守党的政治纪律、组织纪律、廉洁纪律、群众纪律、财经纪律，带头执行村党组织、村民委员会和村民代表会议作出的各项决议。对不胜任工作的，驻村工作领导小组提出召回调整意见，派出单位应及时召回调整。有违纪行为的，按照有关规定严肃处理。', '（三）从严考核奖惩。县区党委、政府每年对驻村工作队进行一次考核检查，考核内容由各县区根据实际情况确定，年度考核结果送派出单位备案。任职期满，由选派干部的同级党委组织部门、扶贫部门，会同派出单位、任职所在县区党委组织部门、扶贫部门，对驻村工作队队员进行期满考察，考察结果存入个人档案。考核考察结果作为驻村干部综合评价、评优评先、提拔使用的重要依据。对成绩突出、群众公认的驻村干部，按照有关规定予以表扬；符合条件的，列为后备干部，注重优先选拔使用。', '（四）强化支持保障。驻村工作队队员驻村期间，不转行政、工资关系，参照同级选派第一书记相关政策规定享受工作经费、待遇补贴。派出单位要定期听取驻村工作队队员工作思想汇报，经常到村调研，指导促进工作，关心驻村干部的家庭生活；积极帮助解决交通、生活、住宿、工作等方面实际困难，定期组织健康查体，提供必要的生活工作用品，当好坚强后盾。县区、镇（街道）党（工）委要关心支持驻村干部，提供必要的工作条件和生活条件，力所能及地改善办公、生活环境；将驻村干部纳入第一书记培训范围，每年集中培训时间一般不少于5天，帮助驻村干部提升做好帮扶工作的能力素质。', '县区党委、政府要统筹配置驻村力量，认真落实日常管理职责，要安排专人靠上负责，具体抓好工作落实。镇（街道）党（工）委和政府（办事处）要支持驻村工作队落实精准帮扶政策措施，帮助解决工作中的实际困难。驻村工作队由组织部门、扶贫部门共同选派，各级党（工）委和组织部门要加强管理；扶贫部门要加强扶贫业务指导；财政部门要加强资金统筹，为驻村工作队提供必要工作经费；有关部门要加强协调配合，积极支持驻村工作队开展工作。要采取定期调度、抽查暗访、实地查看等方式，开展经常性的督促检查，及时发现和解决问题，促进驻村干部履职尽责。要注重发现驻村帮扶先进事迹、有效做法和成功经验，加大宣传力度，树立鲜明导向，营造驻村帮扶工作良好氛围。']</t>
         </is>
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A177" t="n">
+        <v>129</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
           <t>王忠林主持召开市政府常务会努力以新作为开启新征程</t>
         </is>
       </c>
-      <c r="D177" t="inlineStr">
+      <c r="E177" t="inlineStr">
         <is>
           <t>2017-04-14</t>
         </is>
       </c>
-      <c r="E177" t="inlineStr">
+      <c r="F177" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2017/4/14/art_31_1432694.html</t>
         </is>
       </c>
-      <c r="F177" t="inlineStr">
+      <c r="G177" t="inlineStr">
         <is>
           <t>['13日下午，市十六届人大一次会议闭幕后，市政府立即召开第一次常务会议，研究《济南市人民政府工作规则》修订、《政府工作报告》重点工作部门分工等工作。市委副书记、市长王忠林主持会议，并对全面做好新一届政府工作提出明确要求。', '会议听取了关于《济南市人民政府工作规则》修订情况的汇报、关于《政府工作报告》重点工作部门分工方案有关情况的汇报。会议指出，本届市政府施政的5年，是我市“打造四个中心、建设现代泉城”的关键时期，也是我市率先高水平全面建成小康社会的决胜阶段。新一届市政府的使命，就是要把中央和省委、市委的各项决策部署落实好，全面实现市第十一次党代会规划的发展蓝图和市十六届人大一次会议确定的目标任务，率先高水平全面建成小康社会，基本确立全国重要的区域性经济中心、金融中心、物流中心、科技创新中心地位，基本建成与山东经济文化强省相适应的现代泉城。新班子已经到位，政府工作的“接力棒”已经交给了我们，这是党和人民赋予的神圣使命，责任重大、使命光荣。我们一定要在市委坚强领导下，在市人大和市政协监督支持下，不忘初心、砥砺奋进、雷厉风行、快干实干，以勇立潮头的姿态和时不我待的劲头，把济南谋划好、发展好、建设好，决不辜负党和人民的重托和期望，以新作为开启新征程、以新担当催生新发展，努力开创本届政府工作新局面。', '王忠林就新一届市政府的工作讲了七点意见。一是要在政治追求上有新境界。要牢固树立“四个意识”，坚决维护以习近平同志为核心的党中央权威，做到“三个看齐”和“三个坚决”。工作中，必须不折不扣贯彻落实好党中央国务院、省委省政府和市委各项决策部署，做到“一个声音传到底、一竿子插到底、一个制度管到底、一个行动落实到底”，确保政令畅通。要旗帜鲜明讲政治，特别是政府班子成员，一言一行都具有示范和放大作用，决不能在政治上态度模糊，不该做的事一定不做，不该说的话一定不说，时刻与党中央保持一个声音，始终做政治上的明白人。要不断提高政治能力，深入系统学习习近平总书记系列重要讲话精神和治国理政新理念新思想新战略，不断提升理论素养，把握时代脉搏，坚定理想信念。二是要在推动发展上有新突破。当前，发展仍然是我市面临的最大问题。我们一定要增强危机感紧迫感，牢牢扭住发展第一要务，一心一意谋发展、脚踏实地干实事，努力以新作为推动省会新发展。要做到标准要高、思路要新、力度要大。三是要在作风建设上有新提升。《政府工作报告》明确提出，要使雷厉风行、快干实干成为本届政府作风建设的鲜明特征。大家要以济南发展为己任，以奋发有为、力争上游的精气神，大干、快干、实干、苦干，树立新一届政府班子作风建设新面貌。要围绕大局抓落实，以身作则抓落实，讲究方法抓落实，提高时效抓落实。四是要在担当履责上有新作为。人民把我们选出来放在这个位置上，就要高扬“为担当者担当，让实干者实惠”的方向标，咬住目标不放松，一张蓝图绘到底，靠实干应对危机，靠实干推动发展，靠实干担当历史使命和时代责任。要做到勇于担当、善于担当、支持担当。五是要在为民服务上有新成就。要厉行为民服务职责，牢固树立以人民为中心的发展思想，时刻把群众安危冷暖放在心中;要多办民生实事，多干一些群众期盼的事，把工作做到群众惦念和揪心的地方，达到“见事见物”的实际效果;要真情做好群众工作，像对待亲人一样，做好群众来信来访工作，千方百计为群众解难题，不断密切党委政府和群众的血肉联系。我们政府班子成员，一定要守纪律、讲规矩，严以律己，以身作则，做清正廉洁的表率。要树立正确权力观，增强规矩意识，率先垂范。要净化生活圈、朋友圈，管住家属和身边工作人员，杜绝他人利用自己的影响和职权谋取不正当利益。凡是要求同志们做到的，各位班子成员要首先做到;凡是要求同志们不做的，各位班子成员要首先不做。', '王忠林还就当前工作作了部署。他强调，今年已经过去了接近三分之一的时间，完成全年各项目标任务压力很大。当前要明确分工抓落实，关注经济运行，抢抓项目建设，积极向上争取支持，认真参加下一步的考察学习，推动各项工作再上新水平。']</t>
         </is>
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A178" t="n">
+        <v>129</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
           <t>年政府工作报告</t>
         </is>
       </c>
-      <c r="D178" t="inlineStr">
+      <c r="E178" t="inlineStr">
         <is>
           <t>2018-01-15</t>
         </is>
       </c>
-      <c r="E178" t="inlineStr">
+      <c r="F178" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2018/1/15/art_81205_4884928.html</t>
         </is>
       </c>
-      <c r="F178" t="inlineStr">
+      <c r="G178" t="inlineStr">
         <is>
           <t>['现在，我代表市人民政府向大会报告工作，请予审议，并请各位政协委员和其他列席人员提出意见。', '过去的一年，是济南发展史上极不平凡的一年，也是凝心聚力、攻坚克难的一年。全市上下高举习近平新时代中国特色社会主义思想伟大旗帜，在省委省政府和市委坚强领导下，紧紧围绕“打造四个中心，建设现代泉城”的中心任务，全力推进“453”工作体系，雷厉风行抓落实，快干实干促发展，圆满完成了市第十六届人大一次会议确定的各项任务，全市呈现出“经济快速发展、社会安定和谐、人民安居乐业、干部干事创业”的良好局面。', '（一）扎实推进“四个中心”建设，综合实力明显提升。大力实施开放、融合、聚焦三大战略，省会现代化建设取得积极进展。经济竞争力持续增强。预计全市生产总值突破7000亿元，增长8%左右，增速位居副省级城市前列；固定资产投资4400亿元左右，增长13.5%左右，增幅居全省第一位；一般公共预算收入完成677.2亿元，增长10.5%，居全省第二位；税收占比达到80%，居全省第二位。主要经济指标增幅领跑全省，达到了2000年以来最好水平。金融支撑力持续增强。完成金融业增加值770亿元左右，金融机构本外币存款余额1.7万亿元，均居全省第一位；新引进中德住房储蓄银行济南分行等各类金融机构60家；中央商务区标志性项目加快推进，集聚效应逐步显现。物流影响力持续增强。社会物流总额突破2.3万亿元，增长13%，国家5A级物流企业总数达到10家，居全省第一位。中欧班列顺利开通，获评“2017中国物流业最具创新力城市”和“2017中国物流业最具影响力城市”。科技创新力持续增强。高新技术产业产值比重达到45%以上，万人有效发明专利拥有量达到25件，均居全省第一位。新技术新产品层出不穷，世界首个商用量子通信专网正式运行，国内首台氢燃料电池新能源汽车成功下线。微软全球首家金融科技孵化器、全国首个大数据流通与交易技术国家工程实验室落户我市，积蓄了发展新动能。', '（二）积极促进产业转型升级，新旧动能转换明显加快。坚持高端高质高新方向，着力培育十大千亿级产业集群，三次产业结构调整为4.5：36.5：59。工业优化升级。规模以上工业增加值增长9.8%左右，增幅在全省位次创10年来最好水平。高端装备制造业占规模以上工业增加值比重达到55.6%。一批龙头企业带动作用凸显，重汽集团主营业务收入突破900亿元，浪潮服务器市场占有率跃居全球第三位，齐鲁制药、山东国舜入选2017中国工业品牌榜。一批中小微企业借力“互联网+”快速成长，全市上云企业数量突破3000家。现代服务业发展壮大。现代服务业占服务业比重达到55%左右，社会消费品零售总额增长10%左右，宜家、麦德龙、迪卡侬、奥特莱斯等消费新热点不断涌现；电子商务交易额、网络零售额分别增长36%和30%。举办各类展会167个，观展人数达850万人次。实现旅游消费总额964亿元、增长13.8%，服务业对经济发展的带动作用明显增强。现代农业提质增效。建成120万亩粮食高产创建示范区，电子商务村镇服务站达1529个，农业适度规模化经营率达到40%。“三品一标”达到1135家，列全省第一。设立全国首家“国家级农作物品种展示示范基地”，安信种业成为全省首个在新三板上市的种苗企业。', '（三）加大规划建设管理力度，城乡面貌明显变化。扎实推进城市建设改造提升，城乡更加靓丽宜居。布局更科学。按照组团式发展的思路，启动济南城市发展战略、新一轮城市总体规划修编，完成土地利用总体规划调整，入选全国“城市双修”、城市设计“双试点”城市。高起点高效率推进新旧动能转换先行区、国际医学科学中心、新东站等重点片区规划建设，穿黄隧道和两座跨河大桥破土动工，“携河北跨”迈出实质性步伐。各县区城区框架逐步拉开，呈现出空间拓展、竞相发展的新格局。交通更便捷。石济客专开通运行，二环南路东延等5条快速路建成通车，轨道交通建设加快推进；开通纬十二路BRT等16条公交新线，打通了27条丁字路、瓶颈路，交通拥堵状况得到有效缓解。城区更靓丽。强力推进拆违拆临、建绿透绿，全年拆除违法建设3287万平方米，拆除违法户外广告1.7万块。整治背街小巷1600余条，拔除线杆1800多个，规范线缆2万余公里，空中“蜘蛛网”遁形入地。新增绿地230余万平方米，绿化裸露土地260余万平方米，新建一大批街景小品、口袋公园，实现了见缝插绿、一步一景。乡村更整洁。农村“七改”深入推进，完成农村危房改造3508户、无害化卫生厕所改造24.3万户、村庄街巷硬化320个、小城镇电网改造63个。省市级美丽乡村示范村总数达到179个，美丽乡村标准化覆盖率达到52%。设施更完善。完成电力线路迁改527公里，新增集中供热面积900万平方米、天然气管线185公里。新建改建旅游厕所206座，荣获“全国旅游厕所革命先进市”称号。新增市民健身场地1170处，新设便民服务网点和菜篮子直通车650余处。城市更文明。把提升品质、服务群众摆在重要位置，万众一心、众志成城，以省会城市第一名的成绩，成功摘得“全国文明城市”荣誉奖牌，实现了泉城人民20年的夙愿，市民群众的自豪感、荣誉感、归属感大大增强。', '（四）持续强化保护治理，生态环境明显改善。牢固树立“绿水青山就是金山银山”的理念，努力打造绿色家园。天越来越蓝。深入实施大气污染防治十大措施，取缔整改“散乱污”企业7190家，全面完成323台35蒸吨及以下燃煤锅炉淘汰任务。入选国家“北方地区冬季清洁取暖试点城市”，完成气代煤、电代煤改造11万户、清洁燃煤替代42万户。对事关重大民生及环保信用优秀的工地、企业，创新实施“蓝绿名单”制度，实现了供暖季“天蓝冬暖”两不误。全年空气良好以上天数达到 185天，同比增加22天，重污染天气天数同比减少6天，久违了的“蓝天白云、繁星闪烁”，又回到了市民的身边。山越来越绿。强化山体绿化，推进“青山入城”，对170座山体划定保护红线，造林绿化5.6万亩，建成山体公园30处，为市民提供了更多亲近自然、放松身心的活动空间。水越来越清。全面落实河长制，深入贯彻“水十条”，城区37处黑臭水体治理任务全面完成；强力推动南部山区水源地违法建设整治，大力推进河道、水库、小流域治理。在去年天气干旱的情况下，采取多种措施调水补源，积极开展增雨雪作业，重点泉群连续14年保持喷涌。“听得到泉水叮咚、看得见一城山色”成为泉城靓丽的名片。', '（五）全面深化改革开放，发展活力明显释放。坚持问题导向，聚焦落实关键性举措，赢得发展新优势。供给侧结构性改革步伐加快。加大“三去一降一补”力度，关停搬迁东部老工业基地企业16家；济钢钢铁生产线在运行59年后实现全线停产，这是我市最大的一次产业调整，为全省去产能作出了重大贡献。认真执行国家调控政策，房地产市场基本稳定。严格落实高新技术研发费用加计扣除等财税优惠政策，降低企业“五险一金”缴纳比例，累计减轻企业负担437.9亿元。大部制改革率先实施。整合市直部门职能，逐步构建起大交通、大建设、大水务、大外事、大绿化的体制机制，打破了条块分割和城乡分治格局，为城乡一体化发展提供了强力保障。投融资改革破冰前行。整合财政资源，引导成立新旧动能转换等基金，使财政资金“四两拨千斤”的作用得到发挥；整合组建了城市投资集团、城市建设集团等六大投融资集团，将28个部门159家企业优质资产一并整合注入，国有资本资产运营能力大幅提升。人才制度改革走在全国前列。针对高层次人才短缺的问题，制定出台了“人才新政30条”“高校20条”“教育人才30条”等含金量较高的政策措施，加强长清大学城规划建设，人才环境有了明显改善；引进院士、高层次专家72人，院士（专家）工作站总数达到61个，在人才工作方面是力度最大的一年，也是成效最好的一年。全方位开放深入推进。构建开放型经济新体制综合试点试验取得积极进展，4项典型经验在全国复制推广。国家中德中小企业合作区揭牌启用，国家侨梦苑落地建设，海外孵化器、研发机构达到20多家。全市招商引资形成固定资产投资1489亿元、增长26%以上，实际到账外资125亿元、增长12%以上。成功举办市长国际经济咨询委员会首届年会、国际泉水城市联盟沙龙、中德中小企业合作大会、第十届中日韩卫生部长会等重大外事活动；国际泉水冬泳节等140余项主题节会精彩纷呈，济南“朋友圈”越来越大，城市知名度、美誉度进一步提高。', '（六）努力保障改善民生，群众获得感明显增强。民生社会事业投入633.9亿元，占市级财政支出比重达到76%，16件为民实事全面完成。扶贫攻坚扎实推进。279个产业扶贫项目建设完工，151个贫困村完成饮水安全改造，贫困村通客车任务按期完成，1.6万贫困人口和341个贫困村实现脱贫。与湘西州、临沂市、重庆市武隆区扶贫协作取得积极进展。棚改旧改步伐加快。开工保障房68850套、建成21581套，公共租赁住房建成4744套。281个老旧小区整治改造项目全部完成，实施住宅节能改造650万平方米，惠及群众9万多户。就业取得明显成效。新增城镇就业18万人以上， 农村劳动力转移就业5.1万人，城镇登记失业率2.08%，首届全国创业就业服务展示交流活动在我市成功举办。保障能力稳步提升。连续13年提高企业退休人员养老待遇，居民养老保险基础养老金实现“七连涨”。全面实施职工和居民大病医疗保险制度，为17.9万人次减轻医疗负担4.7亿元。城镇低保标准提高到每人每月596元，农村低保、五保标准提高到每人每年4277元，慈善救助惠及困难群众16.5万人次。公立医院综合改革稳步推进，市属12家医院建立法人治理结构，完成家庭医生签约255万人。教育文化均衡发展。严格落实中小学“零择校”“零择班”，加大“大班额”问题解决力度，新建改扩建中小学187所、增加学位19万个，新建改扩建幼儿园90处、新增学位1.2万个。建立了“四点半课堂”课后服务机制，实现中小学“食堂+配餐”放心午餐模式全覆盖，更有温度的济南教育得到社会广泛好评。公共文化体系建设扎实推进，扶持新建贫困村综合文化服务中心210家，文化市场监管进一步加强。大力开展全民健身活动，实现“月月有比赛、周周有活动”。社会保持和谐稳定。大力推进城市社区党建和治理服务创新，社会组织达到3132个，注册志愿者达16万人。12345市民服务热线为群众服务633万人次，连心桥作用进一步发挥。广播电视问政促进了政风行风转变。120急救与交警指挥、应急广播联动的“生命通道”机制有效建立。全力以赴筑牢应急防控体系，圆满完成党的十九大安保维稳任务。安全生产形势总体平稳，获评“国家食品安全示范城市”，在19个副省级及以上城市的安全城市综合排名中居第三位，人民群众安全感进一步增强。史志档案、人民防空、民族宗教、红十字会和援藏援疆工作也取得了新的进步。', '（七）切实加强政府自身建设，行政效能明显提高。认真学习贯彻党的十九大精神，坚持以习近平新时代中国特色社会主义思想，武装头脑，指导工作。转职能、强督查、求实效，形成雷厉风行、快干实干的浓厚氛围。工作节奏进一步加快。在治堵、治霾、拆违拆临、文明城市创建等工作任务繁重的情况下，各级各部门自我加压，迎难而上，一场硬仗接着一场硬仗打，全面或超额完成了全年目标。中建八局绿色建筑产业园等一批招商引资项目当年签约、当年开工、当年投运；市中区大涧沟、饮虎池、长清区东王等重点片区拆迁部署周密、推进有力、成效显著；顺河高架南延等一批重大基础设施建设提速、工期缩短、竣工提前，创造了“泉城速度”。工作作风进一步变实。坚持谋实事、出实招、求实效，对事关人民群众切身利益的问题，深入基层、深入群众、现场解决；对中央环保督察反馈的1399个问题，逐项核实、限时整改、对账销号；对制约济南发展的营商环境、服务环境等突出问题，注重调查研究，深入分析论证，科学制定对策措施。政务服务进一步优化。深化“放管服”改革，推出33项改革举措；工商登记实现全程电子化，一般性行政审批提速68%以上；市政府数据开放平台建成启用，实现了数据多跑路、群众少跑腿。法治意识进一步增强。认真落实人大及其常委会决定决议，依法接受人大法律监督和工作监督，主动接受政协民主监督，全年办理人大代表建议365件、政协提案691件，办结率100%。深入开展“法治六进”活动，扎实推进“七五”普法。建成全市事中事后监管平台，全面推行“双随机、一公开”监管工作，下大气力解决了一批执法不公、执法不严的问题。正风肃纪进一步严实。加大执纪审查力度，受理信访举报6406件次，立案4029件，处分3711人；查处违反中央八项规定精神问题501起，处理735人；查处侵害群众利益的不正之风和腐败问题857起，处理1056人。监察执纪工作围绕中心、服务大局，有力地保障了发展。扎实推进“两学一做”学习教育常态化制度化，把全面从严治党体现到各项工作中，党风廉政建设和反腐败斗争取得积极成效。', '各位代表！一年来，在各级各方面共同努力下，我市很多方面发生了质的变化，干成了许多实事，解决了许多难事，迎来了许多喜事。变化有目共睹，成绩令人鼓舞。一年来的实践证明：思路清晰、方向明确，凝聚了共识，引领了发展。市委提出的“打造四个中心，建设现代泉城”中心任务，制定的“453”工作体系，契合党的十九大精神，符合省会实际，回应群众关切，凝聚了全市的力量，指引了发展的方向。机制顺畅、导向鲜明，激发了斗志，促进了发展。市委制定了一系列正向激励机制，为担当者担当，让实干者实惠，每年组织重点项目督查评议“三看”活动，各级各部门比着干、摽着干、放手干，形成了心齐、气顺、风正、劲足的生动局面。思想解放、敢于担当，提升了标杆，推动了发展。与好的比、向好的学，赴杭州、合肥、郑州三市学习考察，开阔了视野，转变了观念，激发了迎难而上、敢为人先的干事热情，攻克了一批城市顽疾，破解了一批发展难题。作风扎实、团结协作，形成了合力，保障了发展。几大班子精诚团结、勠力同心，各级领导带头实干、亲力亲为，广大干部爱岗敬业、履职尽责，一级带着一级干、一级做给一级看，共吹一把号、共唱一个调，形成了聚精会神抓建设、一心一意谋发展的强大合力。执政为民、凝聚人心，汇聚了力量，支撑了发展。坚持以人民为中心的发展思想，注重打造有温度的城市，广大市民始终以强烈的主人翁意识为城市发展建言献策，用辛勤的汗水为城市建设增砖添瓦。人民群众对这座城市的热爱和认同，是我们砥砺奋进、干事创业的不竭动力。', '各位代表！去年的成绩来之不易，这是省委、省政府和市委坚强领导的结果，是市人大、市政协监督支持的结果，是全市人民团结实干、奋力拼搏的结果。在此，我代表市人民政府，向全市广大干部群众、各界人士、驻济部队、武警官兵，向中央驻济机构和省级各单位，向港澳台同胞、海外侨胞和国际友人，表示衷心的感谢和崇高的敬意！', '在看到成绩的同时，我们也清醒认识到存在的问题和不足，主要有：城市首位度不高，省会吸引力、带动力、竞争力还不够强；实体经济实力不强，县域经济比较薄弱，开放型经济、民营经济发展还不够充分；产业层次还不够高，科技成果转化率还比较低；新旧动能转换先行区刚刚起步，携河北跨步伐亟需加快；资源环境约束趋紧，生态保护、节能减排工作需要持续用力，小清河、卧虎山水库等污染问题还比较突出；城市基础设施欠账较多，治理精细化水平需要进一步提高；民生保障存在一些薄弱环节，治霾治堵和脱贫攻坚成效仍需巩固，群众关心的就业、教育、医疗、养老等问题还没有得到很好的解决；各种不稳定不确定因素相互交织，安全生产还存在不少隐患；政府职能转变不够到位，营商环境还需优化；廉政建设有待加强，一些政府工作人员不作为、慢作为问题不容忽视，等等。对此，我们必须高度重视，勇于担当，全力加以解决。', '2018年是贯彻党的十九大精神的开局之年，是改革开放40周年，是决胜全面建成小康社会、实施“十三五”规划承上启下的关键一年，也是“四个中心”建设“三年有突破”的决战决胜之年。做好新一年的工作意义重大，影响深远。', '2018年全市经济社会发展的总体要求是：全面学习贯彻党的十九大精神，以习近平新时代中国特色社会主义思想为指导，坚持稳中求进工作总基调，坚持新发展理念，按照高质量发展的要求，以推进供给侧结构性改革为主线，以加快建设新旧动能转换先行区为契机，大力推进“1+454”工作体系，统筹做好稳增长、促改革、调结构、惠民生、防风险各项工作，推动“四个中心”建设实现“三年有突破”，让发展更有质量，改革更有成效，城市更有温度，生态更加美好，群众获得感、幸福感、安全感更加增强，加快打造“四个中心”，建设“大强美富通”的现代泉城，确保在全面建成小康社会进程中走在前列。', '综合考虑国内外经济形势和省会发展实际，今年经济社会发展的主要预期目标是：全市生产总值增长7.5%左右；一般公共预算收入增长9%左右；固定资产投资增长12.5%左右；社会消费品零售总额增长10.5%左右；城镇居民人均可支配收入增长8%左右，农村居民人均可支配收入增长8.5%左右；城镇登记失业率控制在3.5%以内；居民消费价格涨幅控制在3%左右；单位生产总值能耗下降率及主要污染物减排量达到省控目标。今年预期目标的确定，主要考虑与“十三五”规划相衔接，坚持稳中求进，坚持高质量发展，这些目标是积极稳妥的，通过努力也是可以实现的。重点做好以下工作：', '（一）在增强综合实力上狠下功夫，推动“四个中心”建设实现新突破。按照融会贯通、协同推进的原则，直击关键，抓住要害，推动经济发展质量变革、效率变革、动力变革，加快提升省会城市的带动力和辐射力。', '突出实体经济，做大做强区域性经济中心。坚持质量第一、效益优先，着力构建符合省会禀赋、彰显特色优势的现代化经济体系。大力发展总部经济。坚持引培并举，进一步壮大楼宇经济。积极引进国内外大型企业在济设立总部或区域总部，引进财务公司、资管公司、科研中心、营销中心等总部型机构；加快壮大本地上市公司、大型国企总部规模，支持创新型、领军型中小企业成长为总部企业，全年新增各类总部15家，新增“亿元楼”30座以上。培育壮大新兴产业。围绕价值链打造产业链，围绕产业链部署创新链，围绕创新链配置资源链，聚焦新一代信息技术、高端装备、量子科技、生物医药、现代物流等十大千亿级产业，抓好规模扩张和提质增效，确保到2020年十大产业全部具备千亿级发展能力。大力发展数字经济，支持浪潮集团与思科、IBM等国际产业巨头合作，争创国家产业创新中心，加快山东数字经济产业园、移动智能终端产业园等建设，着力突破网络通信、高端服务器等核心关键技术，构筑国内一流的云计算和大数据产业链。积极培育先导产业，开展燃料电池大规模应用及产业化试点，推进“中国氢谷”“量子谷”等项目规划建设，力争在量子科技、集成电路、人工智能、虚拟现实、创新药物等领域实现重大突破。推动传统产业转型升级。以工业互联网、“企业上云”为抓手，促进“两化”深度融合，加快物联网、智能制造、增材制造等新技术应用，引领传统制造业加速向智能化、绿色化、低碳化迈进，让老树嫁新枝、发新芽。促进消费经济发展。加快华侨城、万达文旅城、华谊兄弟电影城、明水古城旅游度假区等项目进度，力争三年创建国家全域旅游示范区，成为国际知名旅游目的地城市。强化特色会展品牌建设，办好东亚博览会等重要展会和第十六届中国物流企业家年会。发挥宜家、奥特莱斯、华润万象城等新商圈的消费引领效应，加快布局共享经济、无人商店等新业态，培植互联网餐饮、智慧家居、品质家政等新热点，打造高端消费新高地。', '突出产业金融，做大做强区域性金融中心。全力加快中央商务区开发建设。加速绿地山东国际金融中心等5个标志性项目建设，办好中国（济南）产业金融国际论坛，引导各类金融企业向中央商务区聚集。大力发展资本市场。加快浪潮等财务公司落地，探索设立碳排放交易市场、玫瑰资产交易中心等平台；发挥微软、甲骨文等企业引领带动作用，建立科技创新金融支持体系，吸引风险投资、产业基金、私募股权等新业态落户。深入开展企业上市推进年活动。完成规模企业规范化改制250家，建立上市企业资源数据库；强化专业服务平台建设，设立并购基金，加大对企业上市扶持力度，新增一批上市挂牌企业，全年直接融资规模突破1100亿元。加强金融风险防范。强化金融监管，完善债务风险预警机制，加大对非法集资、保险欺诈、金融信贷诈骗等违法犯罪行为打击力度，防范政府债务及企业资金链断裂等风险，保障金融安全运行。', '突出内陆港建设，做大做强区域性物流中心。强化交通基础设施支撑。加快综合交通枢纽城市建设，研究制定城市内环、中环、外环“三环十二射”交通网络规划，全方位推进铁路、公路、航空、水运综合运输体系提级扩容，加快“米”字形高铁网建设，启动济郑、济滨、济莱等高速铁路建设，加密延长中欧班列，支持济南机场扩建，打造多式联运物流中心。强化园区载体支撑。整合提升现有物流园区，加快综合保税区迁建，扩大临空国际物流园区规模。规划建设大容量保税仓库、保税货场和集装箱中心，促进物流“大进大出”。建立物流交易信息平台，加快推进“1+6”都市圈城际配送体系建设，打造智慧物流名城。强化业态支撑。支持现有重点物流企业扩大规模，着力引进国内外知名物流企业，推进菜鸟、安博等领军物流企业区域总部尽快落地见效。积极培育无车承运和供应链体系等新业态、新模式。争取国家支持。加快申报国家一类铁路开放口岸，开辟更多国际航空货运新航线，争取设立空港保税物流中心，增强省会物流中心的吸附力和影响力。', '突出科技成果转化，做大做强区域性科创中心。加快成果转化。依托国家科技成果转移转化示范区建设，发挥省会高校资源优势，加快建设山东工研院、意大利（济南）技术转移中心、国家人类遗传资源库山东创新中心等新型研发转化机构，培育5-10个协同创新中心，力争落地一批重大产业化项目。用好天使基金等资源，加大风险补偿，吸引社会资本助推科技成果转化，努力打造全国有影响力的科技成果交易转化高地。加大平台建设。争创国家级量子技术标准化创新基地，促进量子技术实现产业化。加快创新谷等重大创新平台基地建设，打造一批创新社区、转化社区。抓住首都高校、医疗、科研院所疏解转移机遇，招引一批大院大所。鼓励开展跨国并购，新建海外研发机构10家以上。厚植人才优势。推进济南CBD和汉峪金谷两大人力资源服务产业园建设，加快济南高层次人才创新创业基地和海外离岸创新创业基地建设，着力引进人工智能、先进材料、精准医疗等领域的顶尖创新创业团队和领军人才，新增院士工作站20家以上，引进遴选泉城引才倍增计划人才（团队）20个以上，培养支持泉城产业领军人才计划人选30个以上。加强人才梯队建设和本土人才培养，打通人才引进、使用中的体制机制障碍，打通科技和经济转移转化的通道，加大知识产权保护力度，让各类人才创造力竞相迸发，以人才优势支撑省会竞争优势。', '（二）在积蓄后劲上狠下功夫，推动五项重点工作实现新提升。五项重点工作事关省会长远发展，必须牢牢盯住、紧抓不放，让省会发展基础更加坚实、支撑更加有力。', '强力抓好招商引资。聚焦“专业、影响、载体、政策、环境”，提升精准招商成效。积极发展与专业中介机构的招商伙伴关系，探索实行聘任制公务员和KPI考核机制。策划组织德国济南周、香港济南周、跨国公司济南行等重大活动。依托园区开展产业链招商，引进一批龙头企业和产业项目，吸引一批配套的科技型中小微企业，推动优势主导产业集群发展。', '强力抓好重点项目建设。发挥好有效投资对促进经济增长的关键作用，建立完善市级重点项目库，着力抓好千亿级中国重汽小镇、齐鲁航空城、中德产业园等240个市级重点建设项目，总投资超过1万亿元，完成年度投资2700亿元以上。强化土地、资金、技术等要素保障，开辟绿色通道，确保重点项目早开工、早竣工、早投产、早达效。', '强力抓好棚改旧改。加大保障性住房供给力度。像“给父母盖房子”一样，高标准开工建设省级棚改安置房4.1万套，市级棚改安置房1.9万套。推进35个棚户区和90个城中村改造，确保到2020年全面完成棚改任务，绝不把棚户区带进小康社会。完善住房保障机制。坚持“房子是用来住的，不是用来炒的”，加快建立多主体供给、多渠道保障、租购并举的住房制度，大力发展住房租赁市场；完善促进房地产市场平稳健康发展的长效机制，保持调控政策的连续性和稳定性。继续实施老旧小区改造提升。重点启动472个老旧小区综合改造，完成整治改造749万平方米以上，积极推进既有住宅加装电梯等工作，让市民居住环境更加整洁宜居。', '强力抓好拆违拆临、建绿透绿。坚持“一把尺子量到底”，对各类违法建设坚决拆除，大力实施“即拆、即清、即绿、即美”行动，进一步释放城市公共空间。积极推进“无违建”创建活动，严防新的违法建造产生。全面完成违法违规户外广告拆除，规范整治牌匾标识。深入开展城市杆线整治，利用两年时间清除绕城高速以内的“空中蜘蛛网”。扎实开展见缝插绿、裸土覆绿工程，提升海绵城市质量和绿化覆盖率。', '强力抓好城市更新。围绕“城市让生活更美好”，把城市更新作为一个永久的课题来抓。提升规划水平。完成济南城市发展战略规划，开展规划期至2035年的新一轮城市总体规划修编，划定生态保护红线、永久基本农田和城镇开发边界三条控制线；推动多规合一，调整完善土地利用总体规划，完成市政设施、公共服务设施三年建设规划，构建生产美、生活美、生态美的空间格局。提升城市品质。推进“城市双修”、城市设计试点工作，全面落实历史文化名城保护规划。坚持拆、改、留并举，积极实施街景深度美化，推进“1+5”特色街区综合更新和环城带状公园建设，精心做好老商埠区等历史风貌区保护。积极推进“济南泉·城文化景观”申报世界文化景观遗产，加快明府城等泉文化核心标志区规划建设，推进“一湖一环”夜景照明工程，将“泉城夜宴”打造成为城市新靓点。加大对车站、机场等城市出入口整治力度，塑造城市门户新形象。提升智慧城市建设水平。运用智能化、大数据服务社会民生，争创国家新型智慧城市试点。推进“七通”建设，即群众办事一站通、居民健康一卡通、和谐社区一格通、爱城市网一点通、公共安全一网通、市民出行一路通、金融服务一贷通，让广大市民“手持一卡，走遍泉城”。提升城市功能。加强城市基础设施建设，加快城区天然气管网和调峰储气库建设，推进管道天然气市域全覆盖。新建旅游路等3座水厂，完成80公里老旧供水管网改造，启动870个供热自管站改造。配建教育、医疗卫生、文化体育、社区养老及超市、菜市场等民生设施，打造15分钟社区生活圈。提升创城成果。引导县和村镇争创全国文明城市和全国文明村镇，实施城市提升行动，巩固创城成果，提升城市管理和绿化标准，建立常态长效管理机制，像绣花一样管理城市，让文明成果惠及更多人民群众。', '（三）在破除瓶颈上狠下功夫，推动四大攻坚战取得新成效。治霾、治堵、脱贫和新旧动能转换先行区建设是全市上下关注的难点和焦点，必须坚持不懈，聚力攻坚，确保取得实质性突破。', '持之以恒推进治堵攻坚。标本兼治、建管并举，统筹推进高速路网、快速路网、城市主次干道、大容量公共交通、慢行系统五大城市交通体系建设，实现出行方式多元化。完善提升公共交通系统。加快R1线、R2线、R3线一期工程建设，确保R1线2019年开通运营，启动轨道交通两条M线和R3线二期工程；深化公交改革，完善运行机制，优化公交线网布局，加快主干线路大运量交通通道建设，开通工业北路、二环南路、经十东路等BRT线路，提高公交分担率。加密高速路网。加快济青高速、青兰高速、济泰高速、绕城大东环等建设，加快构筑“三环十二射”高速公路网。提升快速路网。推进北园大街快速路西延、顺河快速路南延（南外环-南绕城段）等快速路建设。优化主次干道。优化东部城区路网，完成经十一路、凤岐路、和平路东延等27条瓶颈路建设改造，提高路网密度，进一步改善交通微循环。积极运用大数据技术，促进智能交通系统建设，提高道路通行能力。完善城市慢行系统。合理分配路权，推动多种交通工具“零接驳”“零换乘”，让市民享有更多的绿色低碳出行方式。', '精准发力推进脱贫攻坚。确保2018年底市定标准贫困人口全部脱贫。拓宽脱贫渠道。持续加大投入，实施240个产业扶贫项目，促进贫困群众就地就近就业，加强医疗、保险扶贫资金保障，全面做好脱贫兜底。巩固脱贫成果。强化已脱贫人口的跟踪扶持，稳定控制返贫发生率。完善脱贫成效评估。积极引入第三方评估，规范贫困户退出程序，确保脱贫成效经得起检验。全面实施黄河滩区脱贫迁建。加大迁建项目建设力度，力争三年内完成34.7万人安置任务，让滩区群众搬得出、稳得住、能发展、可致富。', '举全市之力推进先行区建设攻坚。坚持以中疏支撑北跨、以北跨带动中疏，开启先行区建设“元年”，实现“千年一跨”破题起势。坚持规划先行。按照田园城市、精明增长的理念，绘制高水平“多规合一”的蓝图，同步推进总体规划与产业、交通、生态等专项规划编制，以产兴城、以城促产、以业聚人。启动“引爆区”建设。加快“三桥一隧”建设，在10平方公里范围内实施“十通一平”，鼓励优质医疗教育文化资源向黄河北岸辐射，推动一批标志性、引领性重大项目落地。打造黄河生态景观风貌带。深度挖掘黄河文化内涵，加强水系、湿地、林地等自然资源的保护利用，加快建设黄河国家湿地公园，打造黄河两岸的“绿带”和城市发展的“绿芯”。构建鹊山、华山之间的生态廊道，再现“鹊华烟雨”文化胜境。', '（四）在激发活力上狠下功夫，推动改革开放开创新局面。今年是改革开放40周年，必须以更大的力度推进改革、扩大开放，进一步释放市场活力和社会创造力。', '深化供给侧结构性改革。重点在破、立、降上下功夫，推动各类要素市场化配置。大力破除无效供给。对重化工等过剩产能实施腾笼换鸟，引导企业向园区整合集聚；充分发挥安全、质量、能耗、环保等领域法律法规的约束作用和技术标准的门槛作用，坚决出清“僵尸企业”。大力培育新动能。牢固树立产品思维，提升品种丰富度、品质满意度、品牌认可度，增加有效供给。开展“全国质量强市示范城市”创建，依托浪潮“五位一体”质量提升平台，构建“以质量信用企业为主体、以产品质量标准为基准、以检验检测为依托、以质量溯源为手段、以质量保险为保障”的质量管理系统，新增一批驰名商标和知名品牌，加快向质量经济、品牌经济迈进。大力降低实体经济成本。全面落实各项税收优惠政策，继续清理规范涉企收费，打好降成本“组合拳”， 让企业卸掉重负、轻装上阵。', '深化“放管服”改革。精简一批行政审批事项，做好证照分离改革试点，完善容缺受理、“多评合一”等审批机制，进一步降低制度性交易成本。全面推行“双随机、一公开”，强化事中事后监管平台建设。加快公共服务事项网上办理，7月1日前全面实施“零跑腿”和“只跑一次”事项清单制度，确需多次办理的事项实行“你不用跑我来跑”，全力打造审批效率最高、审批事项最少、政务服务最优的“十最”营商环境。', '深化投融资体制改革。加快由间接融资向直接融资转变等“九个转变”步伐，探索组建投融资体制改革决策委员会和专家咨询委员会，统筹全市重大投融资项目决策。抓好市属六大投融资集团整合提升，减少管理层级，聚焦主业经营，提升企业资本运作能力和市场化运作水平。发挥新旧动能转换等基金的杠杆撬动作用，提高市场化融资水平，让更多金融活水浇灌实体经济。', '深化国企国资改革。着眼做强做优做大国有资本，加快国有企业资产证券化步伐，年内培育8家上市资源，力争3年内市属国有企业资产总额超过1万亿元。推进混合所有制改革和员工持股试点工作，出台国资监管机构权力和责任清单，建立监事会监督事项清单，提高监管效能。基本完成“三供一业”分离移交，实现国有企业“瘦身健体”；推动国有企业加快形成有效制衡的公司法人治理结构和灵活高效的市场化经营机制，修订完善业绩考核与薪酬管理办法，切实增强企业发展内生动力。', '深化农村改革。衔接落实好第二轮土地承包到期后再承包30年的政策，探索承包地“三权”分置有效实现形式，为农民提供信贷支持。开展资源性资产确权登记颁证工作，加快经营性资产确权到户和股份合作制改革，保障农民财产权益。巩固扩大林改成果，完成11处国有林场改革任务；积极探索通过资产租赁、生产服务、联合经营等形式，加快发展壮大集体经济。', '在深化改革的同时，进一步扩大对外开放，推动形成全方位开放新格局。在构建开放型经济新体制上持续加力。按时完成125项试点任务，在贸易和投资便利化、园区管理、体制机制创新等方面形成一批可复制可推广的经验案例。在扩大进出口规模上持续加力。积极争创国家级跨境电子商务试点城市。拓宽对外开放渠道，支持企业参与“一带一路”建设，鼓励利用第三方服务平台开拓国际市场，促进优势产能走出去。在打造国际合作平台上持续加力。推动境外经贸合作区建设，强化国际资本、品牌、技术和渠道对接，逐步形成“总部在济南，基地在海外，营销在全球”的发展运营模式。发挥国家侨梦苑集聚侨资侨智优势，吸引侨资企业落地入驻。强化对德双向交流，加快推动中德中小企业合作区建设。在深化国际交流上持续加力。办好国际泉水文化景观城市联盟年会、第二届市长国际经济咨询委员会年会等特色国际品牌活动。加快建设国际学校、国际医院、国际社区、国际文化演艺场馆等服务设施，不断强化国际化要素支撑。', '（五）在做大做强上狠下功夫，推动县域经济实现新跨越。坚持少取多予放活、二三产业并举，着力增强县域经济综合实力。', '大力实施乡村振兴战略。按照产业兴旺、生态宜居、乡风文明、治理有效、生活富裕的总要求，科学制定全市乡村振兴战略规划。着力发展都市农业、精致农业，坚持质量兴农、绿色兴农，积极推行一县一品、一镇一品，培植壮大章丘大葱、平阴玫瑰、商河花卉等十大特色产业，以标准化、基地化支撑农业品牌化发展。大力发展农业“新六产”，以打造15个现代农业综合体为抓手，拉长种养加产业链条，补齐农产品深加工短板；深入推进“互联网+现代农业”，积极发展乡村旅游、农村电商、休闲农业，让“工业拉着农业的手，城市带着乡村走”。着力壮大新型农业主体，推行土地入股、土地流转、土地托管等多种经营方式，实施40项农业科技创新及成果转化项目，提高农业规模化、机械化、科技化水平。全面落实粮食安全市长责任制和“菜篮子”市长负责制，确保粮食安全和蔬菜产品供应。', '大力推进二三产业双轮驱动。实施新型工业壮大和服务业快速提升行动，着力发展适应县域的高技术、高附加值、低能耗的先进制造业。按照企业集聚、要素集约、技术集成、产业集群、服务集中的原则，加快园区整合和扩容升级，鼓励县区建设标准厂房筑巢引凤，全年建成280万平方米。推动城区产业园与县域工业园合作，共建一批大项目。落实存量工业、科研用地分割转让政策，组织开展区域环评或代评，切实降低入园企业成本。鼓励县域因地制宜发展生产性服务业和生活性服务业，打造一批特色商业街和商业综合体，推动温泉旅游、商务会展、休闲养生等产业加快发展。', '大力推进新型城镇化。牢固树立全域规划理念，制定出台差别化扶持政策，统筹推进城乡基础设施、公共服务融合，支持济阳撤县设区，推动商河、平阴更好融入全市发展格局。坚持以产兴镇、以镇促产，引导农村人口向城镇有序转移，建设农村社区服务中心126处，创建12个小城市培育试点和特色小镇。启动农村环境综合整治三年行动计划，继续推进“七改”工程，重点打造60个省、市级美丽乡村示范村，美丽乡村标准化覆盖率提高10个百分点以上，让农村成为令人向往的地方。', '大力发展民营经济。落实支持非公有制经济健康发展的政策措施，做好时间、商务、制度交易成本的“减法”和公共服务、生态环境、文明素质的“加法”，为企业发展创造有利环境。实施市场主体培育工程，引导中小企业向“专精特新”方向发展，培育一批单项“隐形冠军”，让“大而强”企业顶天立地，“中而优”企业遍地林立，“小而美”企业铺天盖地，力争民营经济占比达到38%以上。大力实施建名企、出名品、育名家“三名”工程，激发和保护企业家精神，鼓励更多社会主体投身创新创业。', '大力强化资金保障。建立健全实施乡村振兴战略的财政投入保障机制，加大市区两级财权事权改革，进一步明确县域事权。将更多财政资源向县区倾斜，加大涉农资金统筹整合力度，集中切块下达到县，市区两级财政集中支持每个县区1-2个重点骨干项目。建立适合农业农村特点的农村金融体系，引导金融机构和工商资本参与乡村振兴，提供充足的资金保障。', '（六）在生态建设上狠下功夫，推动环境治理取得新进展。坚持“绿水青山就是金山银山”的理念，努力提供更多优质生态产品，满足人民群众日益增长的优美生态环境需要。', '以更大的力度治山。坚持“共抓大保护、不搞大开发”，健全实施生态补偿机制，持续推进南部山区生态自然景观保护，严禁新的开发建设。实施“山水林田湖草”生态保护修复工程，加大还林还草力度，完成山体绿化提升35座，开工建设山体公园20处；强化自然保护区规划建设和管理，推进云台寺、北大山等郊野公园试点建设；完成造林绿化5万亩，让人民群众在绿肺氧吧中乐享自然野趣。', '以更大的力度治水。严格执行河长制，落实“一河一策”治理措施，全力抓好“水十条”，实施饮用水水源地环境综合整治，启动卧虎山、锦绣川水库周边村庄改造搬迁工程；开展小清河水质达标攻坚行动，完成水质净化一厂、二厂等污水处理能力扩建任务，推进城区100公里雨污分流改造，确保省控以上河流断面水质达到年度目标要求。坚持“广蓄水、储客水、保泉水”，充分利用黄河、长江等客水资源，加快白云水库、东湖水厂等供水设施建设，扩大城市供排水能力；加快水源置换，严格控采地下水，确保泉水持续喷涌，让城市更加灵动秀美。', '以更大的力度治土。加大土壤面源污染治理，推进农用地分类分级管理。加强畜禽养殖监管，新建10万亩防治示范区；建成一批现代高效农田水利样板，完成20处高效节水灌溉示范园建设，积极推行水肥一体化，新增面积8万亩以上。坚决守住土壤环境质量底线，让土地变得更干净。', '以更大的力度治脏。深入推进城乡环境整治，加大占道经营等治理力度，全面提升城市管理精细化水平。构建政府主导、党政机关先行、全社会广泛参与的垃圾分类收集处理体系，加快建筑垃圾资源化再利用。大力实施“厕所革命”，新建改建一批城市公厕，努力实现农村无害化卫生厕所全覆盖，补齐这块影响群众生活品质的短板。', '（七）在办好为民实事上狠下功夫，推动民生事业取得新成果。聚焦群众需求和关切，办好18件民生实事，努力打造有温度的城市，不断增强人民群众的获得感幸福感安全感。', '稳定扩大就业。深入实施就业优先战略，推动创业带动就业。突出做好高校毕业生、去产能企业分流职工、农村转移劳动力三大群体就业工作，落实军转干部、退役士兵安置任务。做好城镇就业困难人员和登记失业人员等帮扶工作，加强农民工服务中心和零工市场建设，抓好农民工工资清欠工作。新增城镇就业10万人，农村劳动力转移就业5万人，努力实现弱有所扶、业有所就、劳有所得。', '拓宽社会保障。完善职工和居民医保政策，推进城乡一体化医保制度建设。提高城乡低保、农村五保补助标准，将低保和特困人员住院救助比例提高到70%以上。大力发展老龄事业，实施养老服务设施建设三年行动计划，新建县区养老中心4处、街道养老设施30处、社区老年人日间照料中心和农村幸福院177处，让更多老年人老有所养、老有所依、老有所乐。', '发展教育事业。深入实施加快教育事业发展三年行动计划和第三期学前教育三年行动计划，完成“全面改薄”任务，新建50所幼儿园，开工建设50所中小学、幼儿园学生集中就餐场所。启动“义务教育优质均衡县区”创建工作，保障外来务工随迁子女平等入学。推动普通高中特色化、多样化发展，健全现代职业教育和培训体系，搭建高校与驻地合作平台。完善教师县管校聘改革和师德建设长效机制，稳步推进教育管办评分离，切实减轻学生课业负担，让孩子们享受到童年的快乐、学习的快乐、成长的快乐。', '打造“健康济南”。加快济南国际医学科学中心建设，推进国家健康医疗大数据中心、齐鲁医科大学等项目落地动工。深入实施医疗卫生服务体系规划，加快市传染病医院、市中医院东院区、市精神卫生中心建设，新建社区卫生服务机构39所、改扩建16所；深化医药卫生体制改革，完善分级诊疗制度，全面推进家庭医生签约服务；加大妇幼健康服务资源供给，提升优生优育水平。加快健康城市、健康村镇建设试点和省级医养结合示范市建设，促进健康事业、健康产业两翼互动。实施食品药品安全六大工程，食品抽检达到每千人7份，保障广大市民舌尖上的安全。广泛开展群众性体育活动，大力发展体育事业和体育产业，积极申办国际性、全国性大型体育赛事，策划制造更多的兴奋点，让城市充满生机、充满朝气、充满活力。', '发展文化事业。推进公共文化体系建设，发掘弘扬泉水文化、名士文化等特色文化，持续开展“书香泉城”全民阅读活动，精心策划一批具有齐风鲁韵的文化演艺活动，擦亮城市文化品牌。积极创建国家文化消费试点城市，打造国家传统工艺工作站，筹备举办第五届中国非遗博览会，承办第七届山东文博会；积极培育一批有全国影响力的文化交易市场，做大做强影视传媒、创意设计、数字资讯等优势产业。加快省自然博物馆、市博物馆新馆、市档案馆新馆、市方志馆、泉文化博物馆建设。开展纪念济南解放70周年系列活动，高水平完成济南战役纪念馆布展，加大革命遗址保护力度。实施文物拯救行动，加快城子崖、华阳宫等重点文化遗产项目保护建设，打造齐长城人文自然风景带，让人民群众寻得到文脉、记得住乡愁。', '加强社会治理。积极做好信访、仲裁、人民调解等工作，妥善化解房地产等领域的社会矛盾。完成村和城市社区“两委”换届选举工作，配齐配强“两委”班子。深化平安济南建设，统筹推进“雪亮工程”，打造让人民群众放心安心的安全城市。精准铁腕整治安全隐患，确保安全生产形势持续稳定。加强互联网安全管理，构建清朗网络空间。深化双拥共建，扎实推进国防动员准备，促进军民融合深度发展。支持工会、共青团、妇联、红十字会等人民团体广泛参与社会治理，扎实做好哲学社会科学、防震减灾等工作，全面推动各项工作上档次、上水平、上台阶。', '打铁必须自身硬。全市政府系统必须坚持和加强党的全面领导，牢固树立“四个意识”，始终绷紧讲政治这根弦，进一步强化雷厉风行、快干实干的作风特色，建设为民、务实、清廉政府。', '（一）深入推进责任政府建设。以造福人民为最大政绩，想群众之所想，急群众之所急，把工作做到老百姓惦念和揪心的地方。大兴调查研究之风，广泛征求群众意见，进一步发挥12345市民服务热线的作用，让政府决策过程成为汇聚民意、集中民智、凝聚民心的过程。按照政治过硬、本领高强的要求，加强公务员队伍建设，培养专业能力，弘扬专业精神，做到凭专业说话，按程序办事。既注重雷厉风行，更注重久久为功，一件一件抓落实，一步一个脚印，脚踏实地干好工作。幸福都是奋斗出来的，天上不会掉馅饼。要始终同人民群众想在一起、干在一起，真正担负起兴一方经济、富一方百姓、建一方文明、保一方稳定的政治责任。', '（二）深入推进法治政府建设。认真落实法治政府建设实施纲要，切实做到法无授权不可为、法定职责必须为。依法接受人大及其常委会法律监督和工作监督，自觉接受人民政协民主监督，主动接受社会和舆论监督，认真听取人大代表、政协委员、民主党派、工商联、无党派人士和人民团体的意见。深入推进跨部门综合执法和执法力量向基层下沉，做好政府立法工作，加强行政复议规范化建设，做好行政应诉工作。加强审计工作，强化政务公开，规范公共资源交易和政府采购，让权力在阳光下运行，提高政府公信力。', '（三）深入推进高效政府建设。落实容错纠错、正向激励机制，鼓励广大干部干事创业。树立营商环境就是生产力、竞争力，必须坚持不懈地优化发展环境的观念。带着责任和感情当好企业服务员，做到“有求必应、无事不扰”。加快“红顶中介”与行政机关脱钩，严厉整治各类“黑中介”，对吃拿卡要、办事不公等问题重拳出击，坚决清除奇葩证明等乱象。深入推进信用体系建设，建立失信联合惩戒机制，让守信者扬眉吐气、失信者名誉扫地，打造诚信济南。', '（四）深入推进廉洁政府建设。坚持把纪律和规矩挺在前面，认真贯彻中央八项规定及实施细则精神，继续整治“四风”问题，坚决反对特权思想和特权现象。扎实开展“不忘初心、牢记使命”主题教育，把“忠诚”“看齐”写在岗位上，刻在事业中。加大扶贫领域腐败和作风突出问题专项治理，严肃查处侵害群众利益行为。保持惩治腐败高压态势，做到无禁区、全覆盖、零容忍，努力实现干部清正、政府清廉、政治清明，推动形成正气充盈的政治生态。', '各位代表，乘风好破浪，奋进正当时！省会的发展已站在新的历史起点上，让我们紧密团结在以习近平同志为核心的党中央周围，在省委省政府和市委的坚强领导下，不忘初心、牢记使命，雷厉风行、快干实干，为加快“打造四个中心，建设现代泉城”而努力奋斗！', '一、整治老旧住宅小区，对278个、696.1万平方米、89846户居民的老旧住宅小区实施整治改造，包括：清理违章、配齐环卫设施（全部完成旱厕改造）、完善治安防控和消防设施、外墙粉刷、配套设施和建筑节能改造、有条件的多层住宅加装电梯等（市住房保障管理局负责）。已完成281个小区、709.9万平方米的小区环境、基础配套设施的整治改造工作。完成拆临建筑面积达20.8万平方米，实施既有建筑节能改造项目51个、154万平方米，完成杆线整治项目247个。多层住宅加装电梯工作稳步推进，市内五个试点区共309个单元居民有加装电梯意愿并已初步协商一致，其中已开工建设电梯18部（历下区6部、市中区6部、历城区3部、天桥区3部）；104个单元已开始进行招标采购和初步方案设计；20个单元已开始进行详细规划方案设计和意见公示工作；62个单元正在办理规划审查和施工备案手续。', '二、改造供水低压片区，对园丁小区、裕新苑小区等8处因管线老化、漏水严重，影响用户用水压力的小区进行老旧管线升级改造，涉及约5.2万户15万居民(市城乡水务局负责)。裕新苑小区等8个片区管线升级改造工作全部完成，共改造管线10.7千米，完成投资1061万元，惠及5.2万用户15万居民。', '三、打通丁字路、瓶颈路，完成顺河高架南延一期工程、七里山西路南段、西泺河路、泺安路西延、铁厂北路西延等27条丁字路和瓶颈路的打通建设（市城乡交通运输委负责）。顺河高架南延一期工程等27个项目全部建成通车。', '四、整治城区道路积水点，完成工业南路华信路口、经十路历下广场等15处道路积水点改造工程(市城乡水务局负责)。15处道路积水点改造工程全部完成，完成投资3042万元，在今年汛期安全度汛方面发挥了重要作用。', '五、开辟优化公交线路，新开辟公交线路10条以上，包括常规公交、社区公交、高峰通勤快巴、定制公交；优化调整公交线路10条以上(市城乡交通运输委负责)。新开公交线路16条（含临时摆渡线2条），优化调整线路55条次，填补了旅游路西段、标山路北段、水屯北路西段、凤凰山路北段、凤凰路北段等区域公交线网空白50余公里。', '六、实施拆违建绿工程，对拆违拆临后具备条件的地块进行绿化（市林业和城乡绿化局负责）。全市建绿透绿已竣工2243处，竣工面积231.6万平方米，超额完成年内新增绿地220万平方米的目标。', '七、绿化提升城区山体，完成山体绿化提升7处，建设山体公园8处（市林业和城乡绿化局负责）。完成胡家山等山体绿化提升7处，建设丁字山等山体公园8处。', '八、实施民用生活燃煤清洁化治理，在全市范围内实施民用生活燃煤清洁化治理，涉及60余万户居民(市经信委负责)。建立完善了市、区县、街道（镇）、社区（村居）四级清洁燃煤配送中心和服务网点，形成了政府主导、企业落实、社会参与的推广工作机制，清洁化民用生活燃煤推广工作已实现全面覆盖。', '十、提升城乡环卫一体化，开展城乡环境卫生整洁行动，清理农村垃圾死角, 全市辖区内无大型生活垃圾死角；实施农村生活垃圾收运密闭化改造, 更新垃圾桶6000个、垃圾收集车20辆，改造中转站10座；全市实施机械化保洁的镇达到50个以上；完成农村改厕20万处；打造南部山区城乡环卫一体化提升示范区，完成锦绣川、卧虎山饮用水源地保护区内10个村的农村居民生活污水处理项目(市城管局、城乡建设委、南部山区管委会负责)。深入开展农村环境综合整治行动，全市辖区内无大型生活垃圾死角；全市农村完成更新、增加垃圾收集桶2.5万个、新增压缩式收集车24辆，改造垃圾中转站14座；全市53个镇（街）驻地实现了机械化保洁；农村无害化卫生厕所改造24.3万户；打造了南部山区城乡环卫一体化提升示范区。', '十一、改造提升农村饮水安全工程，对151个贫困村饮水安全工程进行提升改造(市城乡水务局负责)。章丘、长清、历城三个区共151个贫困村饮水安全提升改造建设任务全面完成，主要实施水源工程和供水管网改造工程，完成投资6000万元。', '十二、硬化整治村庄街巷，按照美丽乡村标准化建设要求，对200个村实施街巷硬化整治(市城乡建设委负责)。完成320个村街巷硬化整治，超额完成年度目标。', '十三、创业担保贷款扶持，扩大创业担保贷款扶持覆盖面，支持大众创业(市人力资源社会保障局负责)。累计办理创业担保贷款3.7亿元，是2016年全年发放量的3倍，有力地促进了就业创业。', '十四、无线通信全覆盖及重点区域WIFI免费，实现无线通信网络全覆盖，西客站、长途汽车站、重点旅游景区、政务服务中心等重点区域场所实现通信网络深度覆盖及WIFI免费（市经信委负责)。通信全覆盖规划新建基站选址1027处，完成新建铁塔1276个；重点区域场所通信网络深度覆盖及WIFI免费开放规划实施42处，实际完成62处。', '十五、拓展青少年校外教育资源，建设完善5处市青少年宫分中心，实现在东部新区、西部新城、南部城区和滨河新区的科学布局，让更多的少年儿童在家门口享受到优质、便捷的青少年校外教育和服务（团市委负责）。完成奥体、泺口、万象新天、名辉、阳光等5处青少年宫分中心建设完善任务，总建筑面积1万平方米，满足了周边1.2万名青少年的校外教育和活动需求。', '一、打通丁字路、瓶颈路27条。打通丁字路、瓶颈路27条，提高路网密度，改善交通拥堵状况。（市城乡交通运输委负责）', '二、城区山体公园建设和山体绿化提升。开工建设城区山体公园20处，山体绿化提升35座。（市林业和城乡绿化局负责）', '三、建设空气质量微型监测站。建设空气质量微型监测站2000个，实现对空气污染的快速预判、准确分析和及时报警，保卫“泉城蓝”。（市环保局负责）', '四、老旧小区整治和加装电梯工作。整治改造老旧小区472个、749.8万平方米，惠及居民10万余户。推进符合条件的多层住宅加装电梯政策实施。（市住房保障管理局负责）', '五、提高供水质量。实施城区饮用优质地下水工程，在具备条件的小区开展优质地下水饮用试点，采取多种形式让越来越多的市民喝上优质地下水。完成城区供水低压片区管线升级改造6处。实施农村饮水安全巩固提升工程，对部分农村水源、管网等公共供水工程进行提升改造。（市城乡水务局负责）', '六、改造城区道路积水点10处。对济微路、北坦南街、零点立交等10处道路积水点进行改造，完善雨水管道等排水设施，对淤积管线实施清淤疏浚。（市城乡水务局负责）', '七、公交线网优化。大力推进公交管理改革，建立政府购买服务机制，推动公交线网优化。新开通BRT线路3条，开通及优化公交线路20条，新增、更新清洁能源公交车1000辆，加大公交场站建设力度，提高公共交通分担率。（市城乡交通运输委负责）', '八、开工建设学生集中就餐场所50处。开工新建改扩建中小学、幼儿园学生集中就餐场所50处。（市教育局负责）', '九、母婴设施及公益性幼儿园建设。在全市经常有母婴逗留且建筑面积超过1万平方米或日客流量超过1万人的交通枢纽、商业中心、医院、旅游景区及文化娱乐等公共场所，设立母婴室100处。向全市0-3岁婴幼儿母亲赠送《0-3岁婴幼儿科学喂养工程》书籍，并通过 APP客户端推送婴幼儿科学喂养知识。开工新建改扩建普惠性幼儿园50所。（市卫计委、市教育局负责）', '十、建设农村社区服务中心126处。建设完成农村社区服务中心126处。（市民政局负责）', '十二、智慧便民服务应用“一点通”工程。整合政府和社会相关数据、信息资源，实现社保实时查询、公积金缴存明细查询及排队提前预约、护照办理、车辆违章查询、驾驶员记分查询、公交车到站信息实时查询、不动产权证预约办理、个税查询与申报等20余项便民服务和市内三甲医院预约挂号、生活缴费、疫苗接种、智慧诱导停车等40项便民应用通过爱城市网APP实现查询与办理功能。（市经信委负责）', '十三、免费产前筛查。为我市夫妇双方至少一方具有济南市户籍，孕15周-20周6天、预产年龄小于35岁的孕妇（根据国家产前筛查技术规范有产前诊断指征的孕妇除外）提供免费产前筛查服务。（市卫计委负责）', '十五、职工医疗保险二次报销。在一个医疗年度内，参保人发生的住院、门诊规定病种医疗费用，经职工基本医保报销和大额医疗费救助后，个人累计负担超过1.2万元以上的合规医疗费用再给予二次报销：1.2万-20万元报销60%、20-40万元报销70%。（市人力资源和社会保障局负责）', '十七、促进就业创业。实施巾帼就业工程，依托阳光大姐家政服务公司，培训妇女2.3万名，安置妇女就业17万人次。根据就业援助补贴标准调整的规定，结合我市最低工资标准和社会保险缴费基数，出台补贴标准调整方案，提高就业困难人员岗位补贴和社保补贴标准，加强零就业家庭帮扶力度，确保城镇零就业家庭动态清零。实施创业政策精准扶持，年内落实5000户个体工商户创业补贴。（市妇联、市人力资源社会保障局负责）', '十八、残疾人精准康复服务。为全市3万名有康复需求的持证残疾人和残疾儿童实施精准康复服务，康复服务率达80%以上。（市残联负责）', '1、十大千亿级产业：即大数据与新一代信息技术、智能制造与高端装备、量子科技、生物医药、先进材料、产业金融、现代物流、医疗康养、文化旅游、科技服务等十大产业。', '5、大气污染防治十大措施：即形成市、县区、镇（街道）、村（社区）四级网格监督网络；防治扬尘污染，主次干道每日清扫、洒水不少于5次；推进燃煤综合整治，推进重点用煤；山钢集团、庚辰铸造、蓝星石油按时完成调整或搬迁；划定禁止烧烤区域；加强机动车污染防治；积极推广清洁能源；严格环保执法；继续实施大气污染防治24小时监督巡查；成立大气污染防治工作指挥部。', '6、“蓝绿名单”制度：主要针对施工工地和工业企业，被纳入蓝名单管理的，非重污染天气可以继续生产和施工;纳入绿名单管理的，重污染天气也可以继续生产和施工。', '7、“水十条”：即全面控制污染物排放、推动经济结构转型升级、着力节约保护水资源、强化科技支撑、充分发挥市场机制作用、严格环境执法监管、切实加强水环境管理、全力保障水生态环境安全、明确和落实各方责任、强化公众参与和社会监督。', '8、“双随机、一公开”：在监管过程中随机抽取检查对象，随机选派执法检查人员，抽查情况及查处结果及时向社会公开。', '10、内陆港：又叫“无水港”或者“国际陆港”，是指在内陆地区建立的具有报关、报验、签发提单等港口服务功能的物流中心。', '12、“1+6”都市圈：以济南为中心、由淄博、泰安、莱芜、德州、聊城及滨州市邹平县共同构成的济南都市圈。', '13、KPI考核：关键绩效指标考核的简称，是现代企业中受到普遍重视的业绩考评方法。', '14、“1+5”特色街区综合更新：以提升品质、美化环境、完善功能、宜居宜业为目标,对黑西路趵北路街区和解放东路片区、马鞍山路街区、经二路街区、工人新村南村西社区、海蔚居委会片区6个街区进行全面更新提升。', '16、“泉城夜宴”：以大明湖、环城公园“一湖一环”为重点区域展开景观照明规划，突出打造层次丰富、山水如画、活力动感的核心景观亮化区域，体现独特历史韵味和文化特色。', '17、“三桥一隧”：即济南齐鲁黄河大桥（齐鲁大道北延工程）、济南凤凰黄河大桥（凤凰路北延工程）、济南黄河公路大桥（原黄河公路大桥扩容改造工程）和济南黄河隧道工程（济泺路穿黄隧道）。', '19、“十最”营商环境：即就业创业门槛最低、市场主体负担最轻、有效投资空间最广、公平营商环境最优、企业群众办事最快、政务平台功能最强、窗口队伍形象最佳、改革评价效果最实、体制机制保障最好、督查问责措施最严。', '20、投融资体制改革“九个转变”：由投资平台向投资主体转变；由间接融资向直接融资转变；由财政拨款向财政投资转变；由政策化向市场化转变；由财政输血向金融造血转变；由呆板单一向灵活多样转变；加快资本由虚向实转变；由善管向善用转变；由强化控风险向强化防风险转变。', '22、“新六产”：鼓励农村发展多种经营,即不仅种植农作物(第一产业),而且从事农产品加工(第二产业)，从事销售农产品及其加工产品、观光旅游等休闲农业、都市农业(第三产业),以融合一二三产价值链、产业链，获得更多的增值价值。“1＋2＋3”等于6，“1×2×3”也等于6，这就是“新六产”的内涵。', '24、“食品安全六大工程”：即食安济南品牌提升工程、食用农产品市场监管提升工程、餐饮质量安全提升工程、食品检验检测能力提升工程、基层基础建设提升工程、药品质量安全监管提升工程。', '25、“雪亮工程”：即以县、乡、村三级综治中心为指挥平台、以综治信息化为支撑、以网格化管理为基础、以公共安全视频监控联网应用为重点的“群众性治安防控工程”。']</t>
         </is>
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A179" t="n">
+        <v>129</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
           <t>年度工作总结</t>
         </is>
       </c>
-      <c r="D179" t="inlineStr">
+      <c r="E179" t="inlineStr">
         <is>
           <t>2018-03-23</t>
         </is>
       </c>
-      <c r="E179" t="inlineStr">
+      <c r="F179" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2018/3/23/art_4368_2720467.html</t>
         </is>
       </c>
-      <c r="F179" t="inlineStr">
+      <c r="G179" t="inlineStr">
         <is>
           <t>['2017年，在市委、市政府的正确领导下，我室深入学习贯彻落实党的十九大精神，以习近平新时代中国特色社会主义思想为指导，紧紧围绕“打造四个中心，建设现代泉城”中心任务，深入开展“学经典、创精品、出金点子”活动，全年完成市长讲话300多篇105万字，常务副市长讲话200多篇95万字；撰写调研报告35篇，市领导批示32篇次，参与制定市政府重要文件5件，高质量完成了各项决策服务任务，为我市经济社会发展做出了积极贡献。现将我室年度工作情况总结报告如下：', '围绕建设讲政治、敢担当、能战斗的研究室班子，狠抓班子政治建设、能力建设、作风建设，取得明显成效。一是不断提高政治站位。旗帜鲜明讲政治，把学习贯彻习近平新时代中国特色社会主义思想和党的十九大精神作为首要的政治任务，党组成员坚定理想信念，践行党的宗旨，“四个意识”不断增强，在政治立场、政治方向、政治原则、政治道路上始终同以习近平同志为核心的党中央保持高度一致，引领全室同志把思想行动和智慧力量汇聚到坚决贯彻执行市委、市政府决策部署上来。二是不断规范党内政治生活。严格执行民主集中制各项规定，凡属“三重一大”问题，坚持科学决策、民主决策、依法决策，自觉接受干部群众监督。按时召开党组民主生活会，开展批评与自我批评，增进了班子成员之间的信任、理解和支持，凝聚了班子的整体合力，增强了班子贯彻落实市委、市政府决策部署的执行力。三是不断增强示范引领作用。今年文稿起草任务时间紧、任务重、人手少、要求高，班子成员以“如履薄冰、寝食不安”的工作姿态，冲在前、带头干，加班加点、废寝忘食，切实发挥了先锋模范作用。特别是党组主要负责同志5月份到研究室后，一心一意扑在工作一线，早到晚归，不休节假日、晚上加班成为常态，经常早晨6点就赶到单位，深夜才下班，即使在亲人病重、自己感冒高烧的情况下，也坚持工作，不下“火线”。这样的拼搏精神和无私奉献感染、带动了全体同志，形成了心齐劲足的干事创业氛围。四是不断巩固班子团结。增强团结意识，顾大局、讲原则，不利于团结的话不说，不利于团结的话不做，调整后的新班子既能根据集体的决定和分工，切实履行自己的职责，高度负责地做好分管的工作，又能主动关心全局工作，坚持围绕中心抓重点，围绕全局搞服务、促协调，形成了团结奋进、齐心协力干事业的良好班子氛围。', '围绕四个中心建设和推进“453”工作体系，坚持高点定位、高效运转、高质服务，圆满完成综合文稿起草、重点课题调研等决策服务任务，充分发挥了以文辅政、参谋助手作用。一是强化问题导向，在调查研究上突出一个“准”字。把解决问题作为决策服务工作的根本出发点和落脚点，力求精准对接市委、市政府中心工作、重大部署，精准把握发展急需、领导关注、群众关心的问题，努力提高调研工作的针对性和实效性，更好的服务领导决策。先后完成了投融资体制改革、中央泉水区建设等一批重点课题的调查研究，调研成果均通过领导批示、讲话采用等方式进入决策。王忠林市长对呈报的12篇调研报告作出批示，要求有关部门和县区阅研落实；王京文副市长在《大力培育新动能加快省会农业转型升级》的调研报告批示“调研报告很好，很全面”。二是强化精品意识，在文稿起草上突出一个“好”字。牢固树立优质高效目标，以高度负责的精神和严谨细致的态度，不论文章大小，不管时间多紧，都坚持对文稿精雕细琢、充分讨论修改，高质量起草各类文稿。密切加强与有关部门的沟通和联系对接，通过请上门座谈、当面交流等方式，与熟悉情况的同志逐字逐句研究讨论、落实数据，让起草的文稿经得起推敲，着力增强文章的针对性、实用性、实效性，文稿质量受到市领导充分认可和高度评价。王忠林市长对起草的《政府工作报告》、赴杭州等三市学习考察、重点项目督查评议“三看”活动等重要讲话给予充分肯定；徐群副市长对一些文件起草提出表扬，“内容很实，下了功夫”；李刚部长在《济南市第一批院士（专家）工作站集中授牌仪式上的讲话》上批示“修改得很好！”。三是强化创新意识，在决策体系上突出一个“广”字。广泛借脑聚智，坚持开门写报告，通过12345热线、市政府网、爱济南APP等形式，广泛征求民意、倾听市民呼声，共征求意见2万多条，并作了充分研究吸收；同时还征求了20位高校专家和18位市民代表的意见。积极借脑聚智、推进智库建设，探索建立高水平专家咨询制度，加强与大专院校、科研机构的联系合作。围绕投融资体制改革、中央泉水区建设等课题研究，通过赴外地上门请教或邀请专家来济座谈等方式，广泛征求和吸纳国家级专家学者的意见，不断提高决策服务水平。密切与省政府研究室的工作交流与联系，组织推荐了18篇调研报告参评全省政府系统优秀调研成果。四是强化效率意识，在工作干劲上突出一个“拼”字。同志们时刻将党性责任铭记于心，不怕吃苦受累，勇于担当作为，面对繁重任务，主动加班加点，高标准、严要求，以“主人翁”的高度自觉勠力工作。在研究室，不论领导还是普通工作人员，不论男同志还是女同志，大家不讲条件、不讲理由，一直坚持“五加二”、“白加黑”，自我加压，全力工作。比如，研究室距餐厅不到100米，有时任务紧了，大家连饭都顾不上吃；再如，“三看”现场观摩会讲话，我们白天看现场，随时电话调度有关情况，晚上再根据市长意见集中修改，连续几天通宵达旦，始终处于高速满负荷运转状态。5月份以来，全室累计加班2000多人次，优质高效完成了起草任务。', '把加强队伍建设作为提升决策服务工作的保障。一是明确队伍建设思路方向。为了提高决策服务能力和水平，组织全体人员，围绕“当前怎么看、下步怎么干”进行充分讨论，形成了“学经典、创精品、出金点子”和“五个提升、六个要强”的研究室工作建设总体思路。全室上下凝聚共识、同频共振、齐心协力，推动了研究室建设全面提升。二是开展“学经典”读书学习活动。坚持既要政治过硬，又要本领高强，大力推进学习型机关建设。围绕学懂弄通做实，深入学习党的十九大报告及习近平新时代中国特色社会主义思想，用党的最新理论武装头脑，指导工作。将习近平总书记系列重要讲话当作案头卷、必读书、座右铭，分门别类编辑成10余册，整理编印“学经典、创精品、出金点子”文稿写作经典文集5册，组织全体同志进行剖析研读，努力提高决策服务能力。三是坚持正确的选人用人导向。严格落实《党政领导干部选拔任用工作条例》等制度，配合市委组织部做好2名正局级干部和4名副局级干部的提拔任用工作，提拔3名处级干部，对2名符合条件的科级干部进行了职务晋升，优化了干部结构、激发了活力。四是加强人文关怀。把激励关怀融入日常联系、交流与互动之中，室领导与处室同志开展经常性谈心谈话，及时跟进了解思想状况，主动帮助他们解决子女入学、家属就业等生活中的实际困难，整顿办公室环境，提升值班室条件，增添人文气息，为同志们更好工作提供良好保障，不断增强同志们的幸福感、归属感和责任感，为大家营造了积极向上、团结和谐、温暖友爱的工作氛围。', '把抓好党建作为最大政绩，坚持党建工作与业务工作同推进、同部署、同落实。认真履行管党治党责任。坚持守土有责，党组书记带头履行第一责任，班子成员严格履行“一岗双责”。把党建工作纳入全室总体布局，使党建工作和业务工作同频共振。修订完善了《关于进一步做好机关党建工作的意见》和《机关党支部工作细则》，党组主要负责同志多次对机关党建工作进行批示，专题研究部署党建工作，切实加强了对机关党建工作的领导和具体指导，推动了党建各项任务的落实。扎实推进“两学一做”学习教育常态化制度化。按照中央部署和省、市委要求，成立“两学一做”学习教育领导小组，制定了实施方案和配档表；健全完善了党日、民主生活会、党员汇报思想、民主评议党员等制度；出台了“三会一课”实施细则。各支部从严从实落实各项党内制度规定，作出学习安排，划分节点、设置专题开展学习，做到年度有安排、月月有计划，基层党组织战斗堡垒作用得到加强。大力支持“第一书记”抓党建促脱贫工作。围绕脱贫攻坚，指导“第一书记”抓好驻村党支部和村两委建设，聚焦精准脱贫抓产业发展，培植了莲藕种植、光伏发电等村民增收产业。截至目前，基本完成总投资147万元的连片治理项目；投资10万元修建了村文化活动室；组织开展“精准扶贫慈善”和帮扶联系贫困户捐款，募集善款15000多元，精准扶贫初见成效。', '落实全面从严治党要求，始终把党风廉政建设摆在重要议事日程，严格履行党风廉政建设责任制。一是严格落实“一岗双责”。认真履行党组主体责任，室党组5次听取党风廉政建设汇报，研究部署廉政工作。签定《党风廉政建设责任书》，对党风廉政建设责任进行分解落实,形成了一级抓一级、层层抓落实的工作机制。坚持经常性检查与重点督查相结合，认真落实述职述廉、谈话提醒、有关事项报告等廉政制度，抓好领导干部遵纪守法、廉洁从政情况检查，保障党风廉政建设各项任务措施有效落实。深入学习贯彻相关制度规定，落实党内监督各项任务，完善制度、畅通渠道，增强监督意识，既认真履行监督责任，又主动接受各方面监督。在人事任免、重大财务支出过程中，积极邀请派驻纪检组全程参与监督。坚持以身作则，要求干部职工做到的，班子成员首先做到，要求干部职工不做的，班子成员坚决不做。二是深化廉政教育。坚持把反腐倡廉教育作为一项经常性工作，把党风廉政学习教育纳入党组学习计划，完善廉政教育体系，分类分层次抓好党员干部政治学习和廉洁教育。认真学习习近平总书记在中纪委十八届七次全会上的讲话和《中国共产党廉洁自律准则》、《中国共产党纪律处分条例》、《关于党内政治生活的若干准则》等党内法规，及时传达廉政会议和讲话精神，统一思想，提高认识，不断增强落实党风廉政建设的自觉性，组织7名市管党员领导干部进行全市德廉和党风党纪知识学习测试。三是狠抓制度落实。坚决把纪律和规矩挺在前面，树立规矩意识、增强纪律自觉，坚决在法纪之下行使权力、履行职责、开展工作，使各项纪律规矩真正成为“带电的高压线”。毫不放松抓好中央八项规定精神的贯彻落实，坚决反对“四风”，厉行节约，祟俭戒奢，严格“三公经费”管理、请示报告制度，在公务接待、外出考察等方面严格按照有关规定执行，特别是公务用车，每次使用公车，都事先请示纪检组是否符合用车规定。严格落实各项财务制度，按要求在网站公开预算决算，确保经费合规使用、公开透明。扎实开展各项专项整治行动，认真履行党组在查办违纪违法案件中的责任，切实支持执纪执法机关工作。全年没有发生一起违纪违规案件。', '一年来，我室的各项工作虽然取得了一些成绩，但与市委、市政府的要求相比，还有较大差距。主要表现是：理论学习的广度、深度不够，决策服务的能力和水平需进一步提高；对全市经济社会发展的重大问题研究的还不深不透；调研力量相对薄弱，战略性、前瞻性调研层次不高等。这些问题，我们将高度重视，紧密结合2018年的各项工作，采取切实措施努力加以解决。']</t>
         </is>
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A180" t="n">
+        <v>129</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
           <t>济南市人力资源和社会保障局年度预算执行和其他财政收支审计结果公告</t>
         </is>
       </c>
-      <c r="D180" t="inlineStr">
+      <c r="E180" t="inlineStr">
         <is>
           <t>2015-11-30</t>
         </is>
       </c>
-      <c r="E180" t="inlineStr">
+      <c r="F180" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2015/11/30/art_25760_2304652.html</t>
         </is>
       </c>
-      <c r="F180" t="inlineStr">
+      <c r="G180" t="inlineStr">
         <is>
           <t>['根据《中华人民共和国审计法》的规定，2014年2月至4月，市审计局对济南市人力资源和社会保障局（以下简称市人社局）', '审计结果表明，市人社局2013年度部门预算基本符合《预算法》及相关法规要求，大部分的项目资金能够根据单位职能和实际需要科学安排预算。财务报告、会计报表基本真实地反映了单位资金收支情况和财务管理现状,“三公”经费及会议费和外出学习考察经费支出较往年有了明显降低。但审计中发现，个别项目和资金在预算编报、预算执行方面还存在问题。', '2013年度部门预算基本符合《预算法》及相关法规要求，大部分的项目资金能够根据单位职能和实际需要科学安排预算。财务报告、会计报表基本真实地反映了单位资金收支情况和财务管理现状,“三公”经费及会议费和外出学习考察经费支出较往年有了明显降低。但审计中发现，个别项目和资金在预算编报、预算执行方面还存在问题。', '2013年度预算收入和预算支出均为25381.58万元，决算收入76546.55万元，决算支出69724.45万元，预决算差异较大。造成差异原因，一是部分资金（如技工院校助学金、免学费补助资金等）预算由市财政部门编制，决算却在部门体现；二是部分国拨省拨资金及非税收入部分，因存在不确定性，造成年初预算不完整；三是部分项目结转资金未编入部门预算。另外，2013年度部分项目预算编制不够细化，没有明确到具体支出内容，涉及资金107.75万元。', '万元，预决算差异较大。造成差异原因，一是部分资金（如技工院校助学金、免学费补助资金等）预算由市财政部门编制，决算却在部门体现；二是部分国拨省拨资金及非税收入部分，因存在不确定性，造成年初预算不完整；三是部分项目结转资金未编入部门预算。另外，', '对审计指出的上述问题，市人社局在编制新年度部门预算时与上级主管部门、市财政部门等进行沟通，对属于部门编报预算的，如实在部门预算中体现；对不属于部门预算编报的，在预算编制时加以文字说明。同时加强对支出预算管理，对每笔资金的使用，预算编制时尽可能细化到具体项目，以保证预算编制科学准确。', '3.调配使用下属单位车辆14辆。2014年前，市人社局公务用车管理采用局机关统一购置、统一调配、统一处置的管理模式。据统计，截至2013年底人社局机关调配使用下属单位车辆14辆。', '14辆。2014年前，市人社局公务用车管理采用局机关统一购置、统一调配、统一处置的管理模式。据统计，截至2013年底人社局机关调配使用下属单位车辆14辆。', '对审计指出的上述问题，市人社局已根据审计建议和市纪委关于公车管理统一要求，对调配使用下属单位车辆进行了清退。', '1.市社保局2013年度部分专项资金未按照年初预算进行使用，涉及资金484.60万元没有安排支出。', '2013年度部分专项资金未按照年初预算进行使用，涉及资金484.60万元没有安排支出。', '对审计指出的上述问题，市人社局已督促市社保局根据部门预算和实际情况，按规定对上述资金进行了使用。', '对审计指出的上述问题，市社保局高度重视，下发了《市社会保险事业局关于规范医保协管人员经费管理的通知》，组织力量对全市医保协管人员经费拨付、管理、使用情况进行了专项检查，对多拨资金予以收回，对资金管理过程中存在的问题进行了处理和纠正，进一步规范了全市医保协管员经费管理工作。', '对审计指出的上述问题，市人社局已督促市军培中心严格落实审计决定，于2014年7月将上述资金上缴市财政。']</t>
         </is>
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A181" t="n">
+        <v>129</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
           <t>济南市人民政府办公厅关于印发济南市乡村教师支持计划年实施方案的通知</t>
         </is>
       </c>
-      <c r="D181" t="inlineStr">
+      <c r="E181" t="inlineStr">
         <is>
           <t>2016-05-30</t>
         </is>
       </c>
-      <c r="E181" t="inlineStr">
+      <c r="F181" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2016/5/30/art_25773_2304488.html</t>
         </is>
       </c>
-      <c r="F181" t="inlineStr">
+      <c r="G181" t="inlineStr">
         <is>
           <t>['济南市人民政府办公厅关于印发济南市乡村教师支持计划（2015-2020年）实施方案的通知', '为加强乡村教师队伍建设，办好人民满意的教育，根据《山东省人民政府办公厅关于印发山东省〈乡村教师支持计划（2015—2020年）〉实施办法的通知》（鲁政办发〔2015〕60号）精神，结合我市实际，制定本实施方案。 一、工作目标 不断改善乡村学校教师资源配置，加强乡村教师队伍建设，提升教育教学能力水平，依法保障合理待遇，增强职业吸引力。至“十三五”末，努力造就一支下得去、留得住、教得好，数量适当、结构合理、素质优良、甘于奉献的乡村教师队伍，为基本实现教育现代化提供坚强有力的师资保障。 二、基本原则 （一）师德为先，立德树人。提高乡村教师思想政治素质和职业道德水平，引导乡村教师带头践行社会主义核心价值观，充分发挥教师以德化人、言传身教的作用，确保乡村教育正确导向。 （二）创新机制，激发活力。制定实施优惠倾斜政策，加大工作支持力度，吸引优秀人才投身乡村教育事业。深化体制机制改革，逐步形成充满活力的乡村教师使用机制。 （三）提升质量，提高待遇。加强乡村教师资源配置，优化教师队伍结构。加强教师培训，提升专业素质。改善乡村教师工作生活条件，提高地位待遇，增强乡村教师职业吸引力。 三、主要措施 （一）提高乡村教师思想政治素质和职业道德水平。 1.加强乡村学校党建工作。健全政治理论学习制度，增强思想政治工作的针对性和实效性，不断提高教师的理论素养和思想政治素质。充分发挥乡村学校基层党组织政治核心作用，适度加大发展党员力度。（各县（市）区政府、市教育局负责） 2.高度重视师德校风建设。建立教育、宣传、考核、监督与奖惩相结合的师德建设长效机制，把教师职业理想、职业道德、法治教育、心理健康教育等融入教师培训和管理全过程，实行全员育人、全科育人，提高教师立德树人的积极性和主动性。大力宣传乡村优秀教师的业绩，充分激发乡村教师的工作热情。坚持依法治教，引导乡村教师依法依规执教。加强师德考核，在教师职务评审、岗位聘用、评优奖励时，实行师德一票否决。（各县(市)区政府、市教育局、市人力资源社会保障局负责） （二）健全完善乡村教师补充机制。 1.完善教职工编制管理机制。全面落实中小学教职工“以县为主”管理体制，加强县（市）区域内义务教育阶段教师的统筹管理，推进“县管校聘”管理改革。加强县域内教师调配力度，适当向乡村学校倾斜。县（市）区机构编制部门会同财政、教育行政部门根据生源变化和教育教学改革需要，定期核定教职工编制，及时确定每年补充人员计划总量，保证专任教师“退补相当”，确保区域内所有中小学开齐开足国家规定的课程。对学生规模较小的村小、教学点，按照教职工与学生比例和教职工与班级比例相结合的方式核定教职工编制。落实农村学校机动编制政策，机动编制全部用于补充乡村学校急需的学科教师。中小学有空编的县（市）区，原则上按照中小学申报情况足额安排补充人员计划，及时招聘教师，严禁有编不补使用临聘人员。中小学现有编制总量达不到规定标准总量的县（市）区，可在县域事业编制总量内调剂部分事业编制用于补充中小学教师，县域内难以调剂的，可在市事业编制总量内调剂解决。中小学满编超编的县（市）区，由机构编制部门根据乡村学校实际需要，在事业单位编制总量内，利用中小学教师临时周转编制专户，对确需补充专任教师的满编超编乡村学校予以补充。乡村学校使用临时周转编制的管理方式与城镇学校相同。妥善解决公办幼儿园、成人教育中心等机构占用乡村学校教职工编制以及提前离岗、长期借调人员等问题，严禁任何部门、单位以任何理由和形式占用或变相占用乡村学校教职工编制。鼓励通过政府购买服务方式解决教学辅助和后勤服务问题。（市编办、市教育局、市财政局、市人力资源社会保障局、各县(市)区政府负责） 2.完善教师招聘方式。从2016年起，按照事业单位公开招聘有关规定，可以县（市）区为单位，不分城区、农村学校岗位，统一招聘、分配教师，并向乡村学校倾斜，也可按学校组织招聘。按照教师专业标准和任教学科设置考试科目，重点考察教师专业素养和职业能力。合理确定招聘时间，一般每年3月底前启动报名工作，6月底前完成招聘工作。鼓励具备条件的县（市）区探索采取先面试后笔试的方式招聘教师。（各县(市)区政府、市人力资源社会保障局、市教育局负责） 3.实施短缺学科教师补充计划。各县（市）区要按照国家课程改革和开齐开足课程的需要，全面测算乡村学校短缺学科教师现状，2016年起统一启动乡村学校短缺学科教师补充计划，用2年时间补齐乡村学校短缺学科教师。（各县(市)区政府、市教育局、市编办、市人力资源社会保障局负责） 4.开展乡村学校支教。根据省定计划和各县（市）区申报计划，统筹安排师范生到乡村学校进行实习支教，实习支教人员安排在财政困难县的，由省财政按照每人每月400元的标准发放生活补贴；安排在非财政困难县的，由市财政按照每人每月400元的标准发放生活补贴。继续做好“三区”人才支持计划教师专项计划工作，对非义务教育学段跨县（市）区支教教师，市财政安排资金予以补助。继续做好“三支一扶”支教工作。（市教育局、市财政局负责） （三）完善城乡校长教师交流机制。 1.大力推进城镇学校校长到乡村学校任职。各县（市）区按照义务教育学校校长交流轮岗要求，加大城镇学校校长到乡村学校任职力度。乡村学校校长岗位空出后，一律在县（市）区范围内实行竞争上岗，鼓励城镇学校校长、副校长到乡村学校任职。用5年左右时间，完成乡村学校校长轮换。（各县(市)区政府、市教育局、市编办、市人力资源社会保障局负责） 2.加大城乡学校教师交流力度。完善教师交流轮岗机制，鼓励优秀教师到乡村学校交流轮岗，城镇到乡村学校交流轮岗的教师中，特级教师、教学能手和县级以上名师、优秀教师等要占一定比例。中小学正高级教师在1个聘期（一般不少于5年）内应交流到农村或薄弱学校从事教学或者教学指导工作1年以上。将农村学校、薄弱学校任教1年以上工作经历作为评聘高级教师、正高级教师和评选特级教师的必备条件。（各县(市)区政府、市教育局、市人力资源社会保障局负责） 3.优化乡村学校教师资源配置。按照国家有关规定，以义务教育学区为单位配齐学科教师，实行学区教师资源统一调配，实现优质师资共享。在学区内推行音乐、体育、美术、信息技术等乡村学校短缺学科教师走教，由学区统筹协调相关学校给予其一定补助，所需费用纳入财政预算。（各县(市)区政府、市教育局、市编办、市财政局、市人力资源社会保障局负责） 4.鼓励名师名校长到乡村学校任教。各县（市）区要采取有效措施，支持特级教师和省、市名师名校长到乡村学校任教。支持鼓励身体健康、临近退休的特级教师、高级教师以及符合条件的社会人士到乡村学校支教讲学。（各县(市)区政府、市教育局负责） （四）大力促进乡村教师专业发展。 1.创新教师培训模式。加大中小学师资培训对乡村教师倾斜力度，市、县（市）区统筹安排资金，积极支持乡村教师培训。加强乡村学校音体美等紧缺学科教师培训。鼓励乡村教师在职学习深造，提高学历层次。（各县(市)区政府、市教育局、市财政局负责） 2.完善送教下乡培训计划。市、县（市）区教育行政部门继续组织名优教师送教下乡培训团，以志愿服务方式，采取送教下乡、送培上门等形式，确保乡村学校校长和教师每学期接受不少于2次以上的学习和培训。（各县(市)区政府、市教育局负责） 3.提升教师信息技术应用能力。适应“互联网+”新形势，加大乡村教师教育信息技术应用能力培训力度。加快中小学教育资源建设，推进城乡教师优质教育资源共享。2017年，建成乡村教师网络课程资源平台。（各县(市)区政府、市教育局负责） 4.建立城乡一体化教研制度。完善市、县（市）区教研员定点联系乡村学校教研制度，全面实施县（市）区教研员包扶乡村学校制度。以学区为单位完善乡村学校集中教研制度，努力提高教研质量。引导城区学校与乡村学校组建教研共同体，支持乡村教师参与城区学校教研活动。（各县(市)区政府、市教育局负责） 5.建立城乡学校发展共同体。城镇学校和乡村学校采取1对1或1对多方式，形成城镇学校与乡村学校手拉手共同发展机制，城乡学校同学科教师建立教研、备课、上课、作业布置与批改、课外活动等协同教学与资源共享机制，切实提高乡村学校办学水平和教育教学质量。（各县(市)区政府、市教育局负责） （五）完善教职工岗位管理。 1.进一步健全县（市）区中小学岗位设置动态调整机制。调整完善中小学岗位结构比例，根据学校编制变动情况，及时调整岗位数量。在分配专业技术中、高级岗位时应向农村学校、薄弱学校倾斜。农村、偏远地区中小学和薄弱学校中高级职称岗位设置比例，可在规定的比例上限内上浮1—2个百分点。（市人力资源社会保障局、市教育局、各县(市)区政府负责） 2.完善乡村教师职称（职务）评聘办法。乡村教师评聘职称（职务）要坚持育人为本、德育为先，注重师德素养，注重教育教学一线实践经历，不作发表论文的刚性要求。乡村学校教师和城镇学校教师分开评审，对长期在乡村学校任教的教师予以倾斜。在乡村学校任教（支教）3年以上、经考核表现突出并符合具体评价条件的教师，同等条件下优先评聘。（市人力资源社会保障局、市教育局、各县(市)区政府负责） （六）提高乡村教师待遇和生活保障水平。 1.依法保障教师工资待遇。及时足额发放乡村教师工资，全面落实乡镇工作人员津贴补贴政策。到乡村学校交流轮岗的校长教师，符合乡镇工作补贴政策范围的，发放乡镇工作补贴。研究落实绩效工资总量向乡村教师倾斜政策。可根据教师居住地与执教的农村学校距离，由学校适当发给交通补助，纳入绩效工资总量，具体办法和标准由各县（市）区制定。依法为教师缴纳各项社会保险费，将公办乡村学校缴纳的教师住房公积金纳入财政保障范围。实施乡村教师年度健康体检制度，所需费用从学校公用经费中列支，有条件的可由同级财政单列资金予以保障。加大财政转移支付力度，确保乡村义务教育学校绩效工资足额发放。（各县(市)区政府、市人力资源社会保障局、市财政局、市教育局负责） 2.妥善解决乡村教师住房问题。各县（市）区要落实无房职工住房补贴政策。逐步提高乡村教师住房公积金缴存比例，有条件的地方可提高至规定上限。适当放宽乡村教师购房贷款条件，利用各地消化库存商品房的有利时机，支持乡村教师使用公积金贷款、低息商业贷款购买住房。各县（市）区教育行政部门要根据乡村教师居住或工作地点，统筹就近就便妥善解决其子女入园、入学问题。（各县(市)区政府、市财政局、济南住房公积金管理中心、市教育局负责） 3.启动乡村教师周转宿舍建设工程。各县（市）区要结合实际加快建设农村艰苦边远地区学校教师周转宿舍，纳入当地保障性住房建设范围，切实解决乡村教师特别是新教师、交流轮岗教师及实习支教师范生在食宿等问题上的实际困难，2018年年底前基本完成。政府可通过在学校或乡镇驻地购买、租赁等方式筹集周转宿舍，也可利用清理腾退的党政机关办公用房和现有校舍改建；需要新建的，按照每套建筑面积不超过35平方米，具备基本生活功能（一室一厅一厨一卫）和水电暖齐全的标准，在乡镇学区驻地建设，山区及偏远学校也可在校内建设。（各县(市)区政府、市发改委、市国土资源局、市城乡建设委、市教育局、市财政局、市住房保障管理局负责） （七）建立完善乡村教师荣誉制度。 1.建立乡村教师荣誉制度。各级政府对在乡村学校从教30年、20年、10年以上的教师按照有关规定颁发荣誉证书。对在乡村学校长期从教的优秀教师按照有关规定予以表彰奖励。鼓励和引导社会力量建立专项基金，对长期在乡村学校任教的优秀教师给予物质奖励。在评选表彰教育系统先进集体和先进个人等方面向乡村学校倾斜。名师、名校长、特级教师选拔时，乡村学校实行计划单列。（市人力资源社会保障局、市教育局、各县(市)区政府负责） 2.努力提高乡村教师社会地位。各级政府要主动倾听乡村教师心声，切实帮助解决实际问题。教育、宣传等部门要广泛宣传乡村教师无私奉献的感人事迹，营造更加浓厚的尊师重教氛围。鼓励工会等群团组织主动协调帮助乡村教师，特别是乡村青年教师解决好婚恋等现实问题。（各县(市)区政府、市教育局负责） 四、组织实施 （一）加强组织领导。各级政府是实施乡村教师支持计划的责任主体，要把乡村教师工作列入重要议事日程。教育行政部门负责对乡村教师队伍建设进行统筹管理、规划和指导，其他有关部门要按照职责分工主动履职，切实承担责任。 （二）健全保障机制。进一步明确市、县教育事权和支出责任，健全教育经费分担和成本补偿机制，积极调整财政支出结构，加大乡村教师队伍建设投入力度。建立严格的经费监管制度，规范经费使用，加强经费管理，强化监督检查，坚决杜绝截留、克扣、虚报、冒领等违法违规行为的发生。 （三）开展督导检查。加强考核和监督，将实施乡村教师支持计划情况纳入地方政府工作考核体系。市政府定期开展乡村教师支持计划实施情况专项督查，对乡村教师队伍建设不力、造成不良后果的，要追究领导责任。各级政府教育督导机构要会同有关部门，定期对乡村教师支持计划实施情况进行督导，及时通报督导情况。 各县（市）区要根据本实施方案研究制定乡村教师支持计划工作方案，并于2016年6月底前报市教育局备案，同时向社会公布，接受监督。']</t>
         </is>
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A182" t="n">
+        <v>129</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
           <t>济南市人民政府办公厅关于印发年全市应急管理工作要点的通知</t>
         </is>
       </c>
-      <c r="D182" t="inlineStr">
+      <c r="E182" t="inlineStr">
         <is>
           <t>2016-02-01</t>
         </is>
       </c>
-      <c r="E182" t="inlineStr">
+      <c r="F182" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2016/2/1/art_25765_2303685.html</t>
         </is>
       </c>
-      <c r="F182" t="inlineStr">
+      <c r="G182" t="inlineStr">
         <is>
           <t>['2016年，全市应急管理工作总体思路是：认真贯彻落实省委、省政府关于加强应急管理工作的决策部署，紧紧围绕我市“打造四个中心，建设现代泉城”总体目标，全面实施《山东省突发事件应对条例》，进一步强化政务值班和信息报告等工作，着力提升突发事件防范、保障和处置能力，健全应急管理体系，推进应急平台建设，夯实应急管理工作基础，推动全市应急管理工作规范化、科学化发展。', '（一）认真履行值守应急职责。依据省、市有关规定，严格落实24小时值班和领导带班、值班抽查和巡查制度，完善值班通报机制，切实履行值守应急、信息汇总、综合协调、服务监督等职能，有效发挥运转枢纽作用。', '（二）加强节假日和重要节点、敏感时期值班。坚持抓好值班“日报告”、“零报告”制度落实，确保指挥灵敏、信息畅通、运转高效。对政务值班工作加大检查指导力度，全面推进政府系统值班组织体系建设和工作能力建设。', '（三）严格落实主要负责同志外出报备制度。严格落实省、市相关制度规定，各县（市）区政府和市政府各部门主要负责同志外出，应至少提前3天报备，如遇紧急事项临时外出，要即时报备。报备制度不落实、报备工作不规范的，要立即整改；出现严重问题的，予以通报批评。', '（一）严格信息报送时限。认真贯彻落实省、市关于加强和改进突发事件信息报告工作的通知要求，不断提高第一时间报告信息能力。发生特别重大、重大、较大突发事件后，事发地县（市）区政府、市政府有关部门力争在20分钟内向市政府总值班室电话报告，45分钟内书面报告，报告时间最迟不超过2小时。要对敏感信息、预测预警信息、可能引发重大以上突发事件信息以及社会舆论广泛关注的热点、焦点事件加强分析研判，确保重要信息不漏报、不迟报。', '（二）畅通信息报送渠道。进一步优化信息处理流程，强化审核把关，简化审批程序，减少中间环节，提高报送效率。创新信息报告手段，尽快实现通过移动平台传送信息、反馈领导批示等功能。依托新技术、新手段，对微博、微信、网络媒体等互联网信息加强监测分析，及时掌握突发事件线索和重要敏感信息。', '（三）完善信息报告联动机制。充分发挥公安、消防、环保、林业、卫生、食品安全、安监、气象及新闻媒体等单位接触现场快、覆盖面广、反应灵敏、手段先进等优势，强化重要信息特别是突发事件处置现场信息的收集报告，实现信息共享。', '（一）深化应急预案修编和管理。各级各有关部门要认真落实《山东省突发事件应急预案管理办法》（鲁政办发〔2014〕15号）有关规定，积极发挥综合协调作用，有计划、分级分类组织做好预案制定、审核、备案、修订等工作，加强预案动态管理，及时编制和完善各类应急预案，不断提升应急预案管理水平。加强应急预案宣传，切实提高应急预案知晓度和执行力。', '（二）积极开展应急预案演练。制定全市应急预案演练计划，组织指导预案演练工作。各县（市）区政府和市公安、水利、林业、教育、环保、安监、市政公用、公安消防等部门依据各自职责和应急预案管理有关规定，年内组织1—2次实战性应急演练，不断提升应急处置实战能力。组织开展应急预案演练观摩学习活动，交流推广应急演练好经验、好做法。各县（市）区政府及市政府有关部门应急预案演练计划应于2月底前报送市政府应急办。', '（一）健全应急处置协调联动机制。充分发挥各级各类应急指挥机构的统一指挥协调作用，完善成员单位联动机制。进一步理顺突发事件分级处置职能，明确职责任务，强化协调配合，形成处置突发事件强大合力。积极与驻济部队加强联系沟通，遇有重大灾情，有效协调驻济部队快速参与抢险救灾。', '（二）推进应急救援队伍和物资储备体系建设。完善应急救援队伍体系，健全应急救援队伍协调联动机制，加强基层应急队伍特别是综合性应急救援队伍建设，不断提升应急实战能力。在调研摸底基础上，建立应急物资装备、应急救援队伍等信息数据库，督促有关部门、单位落实相关物资储备制度，推进应急物资区域性物流中心建设，加强应急物资储备情况检查，切实提高应急防范物资装备保障能力。', '（三）加强应急平台体系建设。按照省统一部署，积极推进市应急平台体系建设，完善管理制度，做好系统维护，确保安全运行。积极应用互联网、大数据、云计算、物联网、移动通讯等先进技术，完善市应急综合管理系统和应急考核系统，推进网络互通、应用联动和数据共享，发挥市应急平台整体效能，提升服务支撑能力。各县（市）区政府要将应急平台建设纳入相关建设规划，落实资金保障，加强业务培训，提高应用效能。', '（四）做好应急管理专家组换届和有关总结评估工作。实施市政府第三届应急管理专家组换届工作，充分利用专家在处置突发事件中的专业优势，加强应急管理工作理论研究，有效发挥技术支撑和决策咨询作用。开展年度应对突发事件总结评估，做好突发事件典型案例选编，为处置突发事件提供借鉴。', '（一）强化应急管理业务培训。按照省、市有关要求，组织举办1—2期不同层级的应急管理干部业务培训，编印应急管理文件资料汇编，增强各级各部门风险防范意识，提升全市应急管理工作人员应对突发事件综合能力。各县（市）区政府、市政府各部门可根据工作实际，每年举办1—2期应急管理专题培训交流活动。', '（二）开展应急知识宣传教育。年内组织1—2次防灾减灾宣传活动，加强应对突发事件相关法律法规和应急知识宣传教育。积极策划制作公益广告宣传片，充分利用市政府应急管理网和广播电视、报刊、户外屏幕等媒体进行宣传，提高公众防灾避险和自救互救能力。', '（一）继续抓好应急管理示范点建设。以提高基层单位预防和处置突发事件能力为重点，抓好市级应急管理示范点建设，及时总结推广成功经验，以点带面促进应急管理基层基础工作提升。认真做好应急管理示范点考察工作，适时推荐一批省级应急管理示范点。', '（二）强化应急管理考核。按照省、市科学发展综合考核有关要求，做好应急管理考核工作，突出问题导向，加强责任担当，优化考核内容，细化考核标准，改进考核方式，有效发挥考核的导向、评价、激励作用。市政府应急办要加强工作协调调度，采取年初通报、年中调度、年末考核和重点抽查等方式，及时发现问题，督促整改落实。', '（三）加强应急管理专题调研。围绕我市中心工作，组织开展应急管理专题调研，针对应急管理工作热点、难点问题，加强分析研究，提出对策建议，推进应急管理工作创新发展。']</t>
         </is>
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A183" t="n">
+        <v>129</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
           <t>年度工作总结</t>
         </is>
       </c>
-      <c r="D183" t="inlineStr">
+      <c r="E183" t="inlineStr">
         <is>
           <t>2016-02-28</t>
         </is>
       </c>
-      <c r="E183" t="inlineStr">
+      <c r="F183" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2016/2/28/art_4368_903364.html</t>
         </is>
       </c>
-      <c r="F183" t="inlineStr">
+      <c r="G183" t="inlineStr">
         <is>
           <t>['2015年，市政府研究室深入学习贯彻党的十八大和十八届三中、四中、五中全会精神，深入学习贯彻习近平总书记系列重要讲话精神，扎实开展三严三实专题教育，紧紧围绕“打造四个中心、建设现代泉城”的定位与目标，不断强化全局观念和服务意识，履职尽责，年初确定的各项工作任务顺利完成，在服务全市经济社会发展中发挥了积极作用。', '一是高质量完成了一批重要文稿的起草工作。紧紧围绕党中央国务院、省委省政府的重大战略部署和市委十届八次全会确定的“打造四个中心，建设现代泉城”目标任务，起草完成政府工作报告、经济工作会、市委十届八次全会第二次全体会、全市重点项目建设督查评议会等一批重要文稿。坚持把提高质量作为文稿起草工作的出发点和着力点，力求着重突出全市发展的新思路、新趋势、新举措，努力把上级的新精神、市委市政府的新要求、部门县区的好想法、社会各界的关注点融合到文稿中，力争文稿内容丰富、思路明确、重点突出、措施具体，扎实推进市委、市政府重大决策部署的贯彻落实。', '二是高质量完成了一批重要讲话的起草工作。不断改进文稿起草方式，坚持吃透上情、摸清下情，每篇文稿起草前都认真学习领会中央和省里重大部署、重要文件、重要讲话，同时坚持调研先行，完善重大决策服务工作前到基层、企业、项目实地调研的工作机制，广泛深入了解基层实际，切实使文稿既能与领导意图相契合，又能与我市实际相结合。坚持问题导向，用好 “明白人”制度，针对特定问题，不看职务高低，通过走出去、请进来等方式，向了解实情、具体负责的明白人虚心请教，把问题找准、思路理清，措施弄实，努力在写实、写准、写透、写新上实现突破。大力转变文风，努力用群众语言、个性化语言、通俗易懂的语言起草文稿。2015年共完成全市科学技术奖励大会、全市招商引资工作会、全市大气污染防治调度会、创建国家海绵城市动员会、创建国家食品安全城市工作推进会、“十三五”规划座谈会等重要讲话250余篇。', '三是牵头完成了一批重点调研成果。围绕全市改革发展大局，按照突出重点、务求实效的要求，把握发展急需、领导关注、群众关心的问题，结合综合文稿起草，选准题目和切入点开展调研。在调研中，深入贯彻党的群众路线，注重深入基层、深入实际，更加注重解剖麻雀、打造精品，采取随机调研、蹲点调研等方式，畅通密切联系群众的渠道，调研工作的针对性和实效性得到显著增强，较好地发挥了决策参考作用。不断完善经济形势分析制度，坚持将工作做在平时，定期调度经济管理部门、县（市）区和重点企业经济运行情况，为全市经济平稳健康发展提供了决策依据。', '四是组织或参与起草了一批重要文件。按照市委市政府的部署要求，积极参与改革发展领域一些综合性文件的研究起草。注重发挥研究室的职能作用，联合有关部门，在深入调查研究和广泛征求意见的基础上，进行文件研究起草。先后参与制定了《关于支持外地大学毕业生在济创业就业的意见》、《关于国有土地上房屋征收推行货币化安置的意见》等政府文件，助推全市经济社会持续稳定健康发展。', '五是高效做好市委市政府部署的其他工作任务。围绕“六城联创”重大决策部署，安排力量参与创建国家卫生城市工作，共起草创卫文件、讲话、汇报60余篇，编发简报24期，承担各级来济调研、评估、督导等活动36次。大力支持派出的“第一书记”开展工作，围绕改善生产、生活基础条件，增强自我发展能力。', '六是全面强化机关各项建设。进一步提升机关运行制度化、规范化水平，为决策服务工作提供有力保障。加强干部队伍建设，严格落实《党政领导干部选拔任用工作条例》等制度，做好干部使用工作，确立正确的用人导向，干部结构得到改善。结合“三严三实”专题教育，坚持自学与集中学习相结合，完善落实各项学习制度，干部队伍整体素质进一步提高。落实全面从严治党责任，认真落实党建工作责任制，积极发挥党支部战斗堡垒作用，大力开展思想政治工作，增强团队凝聚力。认真落实党风廉政建设责任制，牢固树立党风廉政建设意识，坚持警钟长鸣、常抓不懈。坚持把反腐倡廉教育作为一项经常性工作，创新党风廉政教育的形式和方法，开展丰富多彩、形式多样的教育活动，分类分层次抓好党员干部政治学习和廉洁教育，促进了干部廉政勤政。狠抓制度落实，认真落实中央八项规定和省委、市委实施办法。厉行节约，祟俭戒奢，严格“三公经费”管理，在公务接待、公务用车、外出考察等方面严格按照有关规定执行。', '一年来，研究室的各项工作虽然取得一定成绩，但与市委、市政府要求相比，与自身职责要求相比，还存在一些不足。主要是面对复杂严峻的宏观经济形势和艰巨繁重的发展改革任务，决策服务的能力和水平需要进一步提高,研究问题的深度和广度需进一步拓展。这些问题，我们将在2016年工作中，采取扎实措施努力加以解决，争取各项工作再上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A184" t="n">
+        <v>129</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
           <t>提醒在日本中国公民遵规守法文明言行</t>
         </is>
       </c>
-      <c r="D184" t="inlineStr">
+      <c r="E184" t="inlineStr">
         <is>
           <t>2014-07-08</t>
         </is>
       </c>
-      <c r="E184" t="inlineStr">
+      <c r="F184" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2014/7/8/art_22261_1335953.html</t>
         </is>
       </c>
-      <c r="F184" t="inlineStr">
+      <c r="G184" t="inlineStr">
         <is>
           <t>['中国与日本，隔海毗邻，文化相同，习俗相近，但两国国家体制和法律体系迥异，两国国民对社会生活基本行为规范的认识也有很大差异。为方便赴日旅游、考察、工作、学习的中国公民了解有关情况，确保平安和顺利， 中国驻大阪总领馆特将日本《轻犯罪法》列举的部分违法行为归纳整理如下，以供参考。', '对于上述违法行为，日本执法机关将根据性质异同、情节轻重，采取警告、罚款甚至刑事处罚。']</t>
         </is>
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A185" t="n">
+        <v>129</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
           <t>德莱孚普莱葛</t>
         </is>
       </c>
-      <c r="D185" t="inlineStr">
+      <c r="E185" t="inlineStr">
         <is>
           <t>2013-08-04</t>
         </is>
       </c>
-      <c r="E185" t="inlineStr">
+      <c r="F185" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2013/8/4/art_22409_1337500.html</t>
         </is>
       </c>
-      <c r="F185" t="inlineStr">
+      <c r="G185" t="inlineStr">
         <is>
           <t>['采埃孚商用车转向机（山东）有限公司总经理德莱孚•普莱葛先生给人的第一印象是高大，不拘小节，言谈中透着亲切与幽默。继1986年获得德国波鸿工业大学工程学硕士后，他再接再厉，于1990年又取得德国波鸿工业大学经济工程学硕士证书，同时进入德国知名的WICKMANN公司工作，几年时间里从设计工程师到公司生产部门经理，扎扎实实为自己接下来的职业发展打下了基础。并于1999年第一次踏上中国的国土开始了他长达十多年的中国之旅。', '从广东到香港再到山东，加上经常出差往返于全国各地，可以说他现在已经算是地地道道的中国通。对中国的大小节日也了如指掌，比如说中秋节吃月饼，到了春节跟家人一起团圆吃年夜饭等等。他一直在努力的学习中文，偶尔也会在接待访客的时候说几句简单的中文以示他的热情好客。算来今年是他在济南的第七个年头了，在这7年，他收获甚丰，2012年与一位青岛姑娘共携连理，现已喜得贵子，自豪的升级为父亲。他仍记得，初到济南时，当地政府及同事们的热情招待，让他感觉没有任何的陌生感。有泉城美誉的济南无论是从城市建设还是工业发展都给他留下了深刻的印象，最终他决定选择在这里做为他新事业的起点并与济南纯朴的人民一起共同奋斗。', '公司从2006年下半年正式进驻历城区遥墙镇临港经济技术开发区，是由德国采埃孚转向系统有限公司独资建立，主要是给中国的商业伙伴提供商用车用全套的转向系统。济南因其交通运输中转站的特殊位置及良好的客源地优势而被选为公司的落户点，普莱葛先生则以他丰富的从业经验及曾在中国居住的经历而被委以重任担当公司的总经理，目的是将公司的产品更好的与中国市场接轨。', '对于公司来讲人才的发掘与培养是最重要的，普莱葛先生很重视这方面的发展,曾先后安排部门经理去德国总部进行实地的考察及学习，同时也组织公司的员工定时进行英语方面的培训，他认为在外资企业，英语的沟通是必备的，这对员工将来的发展也会有很好的帮助。同时他还邀请德国的留学生们来公司进行交流与学习，让国外的留学生也可以更多的了解中国的市场现状及模式。', '从最初进口德国组件进行装配到实现了现在活塞和蜗杆的软硬加工。扇形轴的国产化生产，2013年4月已正式投产。德国总部对于国内供应商提供的零部件材料的标准是相当严格的，而每一项的国产化验收必须要经过总部的严格审查才能通过。所以要达到技术统一，必须在材料上下功夫，普莱葛先生为此跟采购部经理一起在国内飞来飞去洽谈并寻找合适的供应商，终于通过多方寻找国内供应商及德国的严密审核后同意了活塞、壳体、涡杆部件的逐步国产化，截止到目前公司产品国产化率已达到了95%。', '2008年的四川大地震给每个人都留下了深刻的印象，那么多无辜的人在地震中失去了宝贵的生命，无数的家庭在这场灾难中被迫分开，为了支持四川省的重建工作，当时正在德国出差的总经理普莱葛先生毅然向公司总部申请了448台转向机直接空运到四川省，并且还带领公司全体员工一起向四川的灾区共同捐款近200万元人民币。2011年，向历城区慈善总会捐款。用于改善区内老人院的基本生活条件。2012年，赞助济南市外商企业职工运动会。本着以人为本的理念，支持关心员工在工作之余，锻炼身体，增强体魄。目前，企业正与历城区慈善总会筹划成立“采埃孚商用车转向机（山东）有限公司助学基金”专项支持济南市历城一中。', '在他的带领下公司这七年里的发展是一年一个台阶。济南市人民政府授于的第一届“泉城友谊奖”和“济南市荣誉市民”、山东省人民政府颁发的“齐鲁友谊奖”和“山东省荣誉公民”都是对于他本人的鼓励及肯定。但他认为这些奖项都是大家一起用辛勤的劳动与不泄的努力所换来的。', '作为济南市外商投资企业协会副会长单位，济南市外商投资企业协会欧洲投资企业分会会长单位，采埃孚商用车转向机（山东）有限公司在推动政府在招商引资方面起到很大的促进作用。自开业以来曾先后接待过多家有意来济南投资的外国企业，热情邀请他们到企业进行实地考察，总经理普莱葛先生总是以自己企业的发展经历和所得到的当地政府支持向他们介绍济南的投资环境。已经在济南落户的VOSS(福士汽车)，Continental-VDO(大陆集团), BEHR(贝洱亚太)，Ergo(德国安邦)及Bodycote，在建厂以前都曾到企业进行了实地考察。2010年3月，公司曾协助临港经济技术开发区在德国阿伦市举办了招商引资推荐会，取得了良好的效果。今年，他积极协助济南市临港经济开发区筹办2013年4月在德国阿伦市举行的欧洲工业园招商推荐会。普莱葛先生专程飞去德国，现身说法。', '普莱葛先生从2008年开始连续六年在山东省两会上以驻鲁外商投资企业代表的身份参加旁听政府工作报告，企业时刻关心着山东经济的新发展，新举措。', '因为公司出色的业绩及他本人的影响力，普莱葛先生荣幸地被选为2008年北京奥运会火炬传递山东省济南站的奥运火炬手，当他从传递现场回到公司时，脸上一直洋溢着兴奋与激动，他说当火炬点燃的那一刻是他最难忘的，印象深刻的是看到政府部门井井有条的安排及马路两边欢腾的啦啦队们让他感到中国人民的团结与热情。', '走过风雨同舟的七年，普莱葛先生说最感谢同事们的努力还有政府的全力支持，让公司才会有今天的成绩。', '目前，公司已完成二期厂房和研发中心的建设，为适应国内市场及满足国内厂商的应用测试需求，整车试车场正在筹划建设中。二期厂房竣工，扩大产能后的生产线相继安装调试成功，投入生产。产能也从最初的年产15万套扩大到现在的年产32万套。在原有活塞和蜗杆软硬加工线的基础上，不仅对原有产能进行扩大，而且为适应零部件本地化进程的要求，扇形轴软硬加工线已安装调试完毕。2013年4月正式投产。', '接下来的时间公司将着手就如何更快更好的提高生产质量并继续拓展研发中心而进行一系列的筹备和实施计划，普莱葛先生希望随着公司规模的进一步扩大，可以继续带领着员工们为济南的经济发展贡献自己的一份力量。']</t>
         </is>
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A186" t="n">
+        <v>129</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
           <t>济南市供销合作社系统十二五发展规划</t>
         </is>
       </c>
-      <c r="D186" t="inlineStr">
+      <c r="E186" t="inlineStr">
         <is>
           <t>2012-03-20</t>
         </is>
       </c>
-      <c r="E186" t="inlineStr">
+      <c r="F186" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2012/3/20/art_4125_2760995.html</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr">
+      <c r="G186" t="inlineStr">
         <is>
           <t>['按照济南市人民政府关于《开展“十二五”规划编制工作的通知》和济南市政府《关于全面推进供销合作社改革发展的实施意见》的精神,结合济南市供销社系统“十一五”期间发展历程,在充分调研“十二五”期间影响供销社发展的政治经济形势的基础上,组织编制了济南市供销社“十二五”发展规划。该规划是描绘供销社成长的宏伟蓝图,是引导各级供销社前进的指南,是统一供销社行动的纲领,是未来五年供销社奋斗的目标。', '“十一五”期间,全市供销社系统紧紧围绕市委、市政府建设社会主义新农村、努力构建和谐济南的战略部署,以经济建设为中心,以服务三农为宗旨,充分发挥自身优势,不断做大做强主营业务,加快建设农村现代经营服务体系,参与农业产业化经营,推动社属企业发展,为农服务水平不断提高,经济实力和发展活力日益增强,实现了全系统平稳较快发展,各项事业跃上了一个新台阶,连续5年被评为济南市精神文明单位,连续6年荣获全国总社综合业绩考评二等奖,为全市经济发展、社会稳定做出了积极贡献。', '五年来,全系统解放思想、锐意改革、创新经营,坚持办社宗旨不动摇、坚持经营创新不动摇、坚持发展理念不动摇。逐步走出了低谷,进入了快速发展的黄金时期。', '服务“三农”是供销社的根本宗旨。“十一五”期间按照市委、市政府的决策部署,各级供销社加快农村现代日用品流通网络体系、农业生产资料经营服务体系、农产品经营服务体系、再生资源回收体系建设,积极构建农村现代经营服务体系,不断壮大供销社的经济实力。五年来,各县(市)区供销社的经营能力不断增强,服务手段逐步完善,供销社在农村的影响力不断提高,农村商品流通主力军作用越来越明显。', '“十一五”末,全市供销社系统共有6个县(市)区供销社,67个基层社,所属农村商品流通服务网点达2737个。其中:农资经营网点1268个,日用品经营网点1022个,农民专业合作经济组织125家,农村社区综合服务中心52处。“十一五”期间供销社农村经营服务网点覆盖率逐年增长,并形成了县、乡、村三级商品流通网络体系。截止2010年全市所有乡镇以及近60%的行政村都有供销社的经营服务网点。', '1.农资经营服务体系逐步完善。为强化农资销售网络建设,扩大农资经营规模,各级供销社牢固树立服务“三农”意识。求实创新,大力发展农资服务网点,逐渐形成以配送中心为龙头、直营店为骨干、加盟店参与的农村现代连锁经营体系。广泛开展测土配方,科学施肥用药,切实保障农资产品的质量安全,维护了农民的利益,推动了农资销售工作。', '2.日用品经营体系建设步伐加快。“十一五”期间各级供销社利用传统网点优势,加大投资力度,积极构建农村日用品经营服务网络。2010年全市供销社系统销售生活资料15.6亿元,较2005年增长97.5%,年均增长率14.6%。同时,兴办农村社区综合服务中心,开展文体娱乐、家电和农机具维修、培训指导等服务,为农民生产生活提供了便利,推动了公共服务向农村延伸。', '3.农村合作经济组织建设有了新进展。各级供销社充分发挥联系农民、熟悉市场以及多年来服务“三农”形成的有利条件,从生产加工和销售环节入手,领办和发展农民专业合作经济组织,推动农产品经营服务体系建设。济阳县仁风供销社积极发展养猪专业合作社,带领农民共同致富的经验,被全省供销社系统学习推广。目前,全系统兴办农民专业合作经济组织125个,组织发展资金互助社6个,提供各类担保资金1800万元。组织农民建立绿色和无公害农产品基地18个,约2.4万亩,获得市级农产品基地认证3处。', '各级供销社还根据自身优势,探索创新经营模式,取得了不少推动发展农村现代经营服务体系建设的经验。章丘市供销社的化肥直供、垛庄供销社的日用品网络建设等经验,得到了总社和省社的肯定。章丘市供销社被列为“全省供销社系统农村现代经营体系建设考察学习基地”。', '按照“提升市场形象,打造全国名牌特色市场”的总体思路,五年来,全系统逐年加大市场建设投入,通过提升改造、招商引资、行业会展、宣传推介、联合合作等多种形式培育、发展、壮大各类商品销售市场。重点推动了济南茶叶批发市场、英雄山文化市场的改造建设,扩大了经营规模,增强了经济实力,受到了全国同行业的高度关注。2010年,茶叶市场、文化市场进入“全国供销合作社系统百强企业”,分别列53位和60位。', '济南茶叶批发市场先后投资近1.2亿元,实施了三期改造工程,经营面积由1.3万平方米增加到7.6万平方米。截至2010年,市场占地面积100亩,年交易额14亿元,交易各类茶叶80万担。驻场业户有来自云南、广西、广东、福建、浙江、台湾等全国十七个产茶区的茶商近千家,经营范围涵盖茶叶六大类,数千个品种。业内人士称之为江北第一茶叶市场,茶叶行业的晴雨表,被中国茶叶流通协会授予“全国重点茶市”称号。连续五届“中国济南国际茶博览会”在济南茶叶批发市场举办,更让“第一茶市”锦上添花,声名远播。', '英雄山文化市场先后投资近6000万元,实施了市场的升级改造。到2010年末,市场经营面积达2万平方米,年交易额8亿元,拥有经营业户1100家,提供就业岗位3000多个,日常平均客流量1万人左右,节假日可达5-6万人,业内人士称之为全国四大特色文化市场之一。2010年11月,文化市场被市文化体制改革和文化产业发展工作领导小组授予“济南市20佳文化企业”称号。', '“十一五”期间各级供销社以项目资金投入为抓手,通过招商引资、多渠道融资等多种形式筹集资金。通过挖潜改造、新建改建、修旧利废等措施,提高现有土地、房屋资源的利用率。据统计全市供销社系统“十一五”期间投入项目资金2.83亿元,新增效益5668万元,投资收益率达20%以上。济南茶叶市场的“聚茗阁”、英雄山文化市场的“聚贤斋”、农资公司的营业楼等经营设施两三年内就能全部收回投资。各县(市)区供销社紧紧围绕农村现代经营服务体系建设,投资兴建了一批大中型日用品和农资超市、商品配送中心、农产品交易市场和综合服务中心,壮大了自身实力,提高了供销社在农村商品流通领域的地位和影响,推动了我市农村商品经济的发展。', '再生资源经营是供销社的传统业务,“十一五”以来,特别是2006年商务部确定我市为再生资源回收体系建设试点城市之后,再生资源回收体系建设就纳入了恢复发展的轨道。2007年5月商务部评审通过了《济南市再生资源回收体系建设方案》。2010年5月,市政府办公厅下发了《关于加快全市再生资源回收体系建设的通知》,成立了济南市再生资源回收体系建设领导小组。市供销社抓住这一有利时机,紧紧围绕体系建设的总体要求,以项目建设承载单位——济南市再生资源总公司为主体,选择一部分有实力的民营企业参与,加快推进再生资源回收体系建设。截至“十一五”末,全市新建、规范再生资源回收站点116处,规范整合再生资源分拣中心2个,新建废纸分拣中心1个,筹建废旧物资集散交易市场1个,对加入济南市再生资源协会的900多个固定经营网点进行整合规范;规范统一制式流动收购三轮车1000辆。并通过备案登记和人员培训,较好地解决了无证经营、环境污染、经营“脏乱差”以及社会治安隐患等方面的问题,推动了体系建设的健康发展,为再生资源回收行业向产业化、规范化发展打下了良好的基础。', '为保障供销社各项工作的开展,各级供销社从加强队伍建设入手,始终坚持“为基层服务不能说不”的工作理念,培养干部的创业思想、廉政作风和服务意识。五年来,各级供销社重视人才培养,广泛吸纳各类人才,队伍建设有了新起色。通过近年来干部队伍的调整、充实、提升,初步形成了老、中、青年龄结构合理搭配,在专业知识、学识水平、性格特点、工作经验等方面相互促进、共同提高的新局面,营造了比素质、比业绩、比创新、比服务、比团结、比诚实、比自律的浓厚氛围。', '安全重于泰山,稳定压倒一切。五年来,市社党委、理事会高度重视安全稳定工作,安全投入年年增加,安全设施年年更新,安全制度年年完善。“十一五”期间安全生产常抓不懈,安全工作成绩突出,没有发生重大安全事故。始终把“两个关心”放在首位,始终把关心职工生活、维护和谐稳定作为一项重要的政治任务,下大力气解决职工关心的热点、难点问题。到“十一五”末全市供销社系统稳定工作明显改善。各直属企业普遍为职工增加了工资,养老、医疗等社会保险也交纳齐全。广大干部职工精神振奋、充满信心,进一步巩固了企业发展的基础。', '“十一五”期间,全市供销社系统在市委、市政府的领导下,在有关部门的大力支持下,通过积极争取政策扶持,增加建设投入,增强服务功能,经营设施建设水平有了较大提高。为加快供销社的改革发展步伐,贯彻落实国务院〔2009〕40号文件和省政府〔2010〕31号文件精神。2010年11月10日济南市政府召开第63次常务会议,专门听取供销社的工作汇报,研究部署供销社的工作,这是多年来的第一次。这次会议确定了推进供销社改革发展的政策措施,在增加改革发展专项资金规模、县区供销社机关全额预算、“参公”等方面实现了重大突破。2010年12月9日,市政府下发了《关于全面推进供销合作社改革发展的实施意见》(济政发〔2010〕39号),进一步明确了全系统改革发展的目标任务、重点工作、政策措施,这是多年来市政府首次就供销合作社工作下发的综合性指导意见,将对全市供销社改革发展产生重要而深远的影响。', '过去五年,全市供销社系统坚持创新,推动发展,很多方面的工作实现了重大突破,改革发展取得了丰硕成果,但从全系统看还存在一些问题和不足:', '一是运用现代经营理念推动系统发展的能力、手段较为单一,经营设施水平同农村现代服务业发展的要求相比仍显滞后,网络经营、连锁配送的规模、档次有待提升,大中型超市、农产品市场建设对农产品生产基地带动作用不明显。二是产业结构单一、总体经济实力不强,与农副产品产销相关的龙头企业偏少,带动作用不突出。三是再生资源回收体系建设任重道远,基础网络建设还需要寻求大的突破。四是加强干部队伍建设,吸纳优秀人才的体制机制不活,干部职工队伍结构不合理,年龄偏大,特别是中高级管理人才、专业人才不足。五是社属企业加强合作、联合发展的体制机制不活,机遇意识不强,内生动力需要进一步增强。六是解放思想,科学发展的境界有待提高。', '“十二五”期间,有很多的发展机遇,也面临着更大的挑战。各级供销社只有努力把握机遇、积极面对挑战,才能加快发展。从总体上看,“十二五”期间促进供销社发展的有利条件主要体现在四个方面。', '(一)“十二五”时期随着国家各项惠农政策的实施,国家对农业投入逐年增大,农村集约化生产水平不断提高,农民收入迅速增长,农村市场会更加繁荣。到2015年末,全市农民人均年纯收入预计可达15000元,年均增长11%。农业生产的发展,农民收入的提高,为供销社农资商品销售、日用品连锁经营、以及专业合作社发展等各项事业,将带来更多的发展机遇。', '(二)城市化进程的加快,为供销社拓展服务领域带来新的契机。济南市委九届九次全会提出的“拓展城市发展空间,打造现代产业体系”的总体思路,以及济南市政府《关于加快服务业跨越发展的若干政策》的实施,为打造服务业首位经济,推动第三产业的发展,提供了良好的政策机遇。济南市“十二五”时期投资3068亿元,重点打造现代服务业、新兴产业和现代农业等项目。服务业增加值比例逐年增加,到2015年提高到57%,较2010年提高4.5个百分点。现代产业体系的发展,服务业首位经济的提升,为供销社积极参与城市化进程,连接城乡打造现代农村流通服务体系,创造了良好的发展环境,带来了新的发展机遇。', '(三)各级政府支持力度逐年加大,为供销社的快速发展提供了强大助推力。《国务院关于加快供销合作社改革发展的若干意见》(国发〔2009〕40号)、省政府《关于加快构建农村现代经营服务新体系、全面推进供销合作社改革发展的意见》(鲁政发〔2010〕31号)、市政府《关于全面推进供销合作社改革发展的实施意见》(济政发〔2010〕39号)的相继出台,进一步明确了供销社改革发展的目标和任务,给予了多方面的政策和资金支持,为供销社“十二五”时期的快速发展提供了动力和保障。', '(四)全系统五年来农村现代流通服务体系建设、企业提升改造、市场建设等工作实践,为我们积聚了较强的经济实力和丰厚的物质基础,同时也积累了丰富的经验。总结五年来的改革发展经验,可以归纳为五个坚持:坚持供销社立足服务“三农”的宗旨不动摇,围绕中心工作,服务经济大局;坚持正确处理改革、发展、稳定的关系,抓住机遇,加快发展;坚持经济属性定位,按照市场经济规律的要求,推动供销社事业发展;坚持面向市场,不断开拓创新;坚持恪尽职守、脚踏实地、真抓实干。另外也磨练了干部队伍、统一了思想认识、树立了发展理念、坚定了发展信心。为供销社“十二五”期间的快速发展,打下了良好的基础。', '(一)国际环境更趋复杂。国际金融危机影响深远,世界经济进入增速减缓和结构转型特征并存时期,围绕能源、人才等战略性资源的竞争更加激烈,各种形式的贸易保护主义抬头,通货膨胀与通缩并存,世界经济增长存在较大的不确定性。而且未富先老,贸易顺差减少,内需结构失衡,也可能成为制约我国未来快速发展的重要因素。这些必将给我国经济带来不利影响,从而影响供销社事业的快速发展。', '(二)各级供销社经过近几年的发展,取得了很大的成绩,经济实力有所增强,但总体上看,基础差、底子薄、包袱重、困难多、职能弱局面仍没有根本改变。', '(三)随着“三农”问题的逐步解决,农村社会经济的发展会迈上一个大台阶。农民收入增加,农村市场繁荣,农民生活社区化发展,会吸引大批商业物流企业参与农村商品流通活动。因此,农村商品流通领域的竞争会逐步加剧,供销社在农村商品流通领域的主导地位会受到较大的挑战。', '(四)传统思想的束缚,条块分割,各自为政,内部竞争,固步自封,小富即安,小农意识等,也是制约供销社快速发展的重要因素之一。', '机遇与挑战并存、困难与希望同在。供销社在“十二五”发展期间有着许多有利因素和发展良机,也存在许多难以预料的困难和挑战。因此,我们要因势利导,扬长避短,积极应对。要在充分发挥现有资源的基础上,通过借鸡生蛋、借船出海,广聚资源发展自己的事业。要从战略的高度和长远利益的角度来谋划企业的发展。积极吸引优秀人才,进一步强化供销社干部队伍建设,为“十二五”时期供销社的发展提供雄厚的人才支撑和组织保障。', '“十二五”期间,全市供销社既要珍惜发展机遇,也要经受住严峻的考验和挑战。编制好“十二五”发展规划,对于认清形势、理清思路、把握机遇、应对挑战、提升境界、谋划未来,全面推动供销社系统各项事业的科学发展,具有重要的指导意义。', '“十二五”时期的指导思想是,高举中国特色社会主义伟大旗帜,以邓小平理论和“三个代表”为指针,深入贯彻落实科学发展观,按照国务院、省、市政府关于全面推进供销合作社改革发展的要求,坚持以科学发展观为指导,坚持为农服务的宗旨,坚持社会主义市场经济改革方向,坚持合作制基本原则,加快发展方式转变,推动经营、服务和组织创新,切实发挥供销合作社联系农民和联结城乡市场的纽带作用,在发展农村现代流通、促进农村合作经济发展、完善农业社会化服务方面发挥积极作用。力争“十二五”期间,基本建成以重要农资商品、农村日用消费品、农副产品经营和再生资源回收体系为重点的现代经营服务体系,拓宽经营服务领域,基本实现农村经营服务网络全覆盖,为统筹城乡经济社会发展做出新的贡献。要坚持以下基本原则:坚持为农服务宗旨,注重经济效益,不断增强经济实力;坚持率先发展,注重处理好发展、改革、稳定的关系,在和谐稳定的基础上快速发展;坚持创新发展,注重发展方式,经营管理机制,人才强社战略的优化,充分运用现代科技进步的成果,推动自身的转型升级;坚持合作发展,注重行业内外的联合与协作,取长补短,优势互补,共同发展。', '农村商品流通主力军作用更加突出。“十二五”期间新建、改造经营服务网点3162处,经营服务网点基本实现全覆盖。农村现代流通网络体系日臻完善,供销社系统作为农村商品流通主渠道地位更加稳固,作用更加突出,为“三农”服务能力更加强大。', '龙头企业带动辐射作用更加明显。按照市场原则组建一批主导农村商品流通,积极参与农副产品生产、加工、储运的龙头企业(包括各类市场),完善农副产品经营服务体系,带动农副产品的城乡对接、农超对接,推动农村产业化进程。', '干部职工队伍建设再上新台阶。继续加大干部队伍建设力度,广泛吸纳各类有志于供销社事业的人才,不断提高干部职工素质。坚持“两个关心”的工作理念,逐步提高干部职工的收入水平,让广大干部职工充分享受改革发展的成果,努力创造一个和谐、稳定、政通人和的发展局面。', '农业生产资料经营业务,是供销社服务“三农”的重要任务之一,是密切供销社与农民关系的桥梁和纽带。随着现代产业体系的建立和农业生产方式的转变,“十二五”期间,全市农业生产资料需求量和需求结构会发生明显变化,传统的农资经营网点和服务网络,已不能适应新形势发展的需要。面临新形势,各级供销社要以服务“三农”为己任,以建设农资连锁配送体系为契机,加快经营网点建设,完善服务功能。实施农资品牌连锁经营战略,提升农资服务水平。扩大农资直销业务,减少流通环节。积极开展测土配方施肥,提高农民的科学施肥意识。办好“庄家医院”,开展农民科技培训等服务工作,不断满足农业生产的需要,推动全市现代农业的发展。“十二五”时期,全市供销社系统投资4293万元,新建农资配送中心和仓储设施20处,农资便民服务店885处,新增营业面积2.6万平方米。到2015年基本建成网络配送功能完善的经营服务体系。化肥、农药、农膜等重要农资商品的市场占有率较“十一五”末再提高15到20个百分点,充分发挥供销社农资流通主渠道作用。', '日用消费品连锁经营,是现代商品流通的主要方式,是连接生产与消费的便捷通道,是沟通城乡市场的直通车。连锁经营以质优价廉、功能齐全、服务周到、方便购物深受广大农民的欢迎。“十二五”期间,各级供销社按照“小超市大连锁,小网点大网络”的思路,继续加大投资力度,加快日用消费品经营网点建设。将连锁超市开到乡镇、开到村庄、开到农民的身边,不断满足农民日益增长的物质文化生活需要,让全市广大农民不出村也能享受到城市的消费环境。“十二五”时期,全市供销社系统投资1.6亿元,新建、改建、扩建日用品经营网点1548处,其中:日用品配送中心10个,日用品大中型超市40个,日用品便民服务店1445个,社区综合服务中心52个。 到2015年末,全市80%以上的行政村有供销社的经营网点,日用品销售市场占有率比“十一五”提高20个百分点,极大地改善农民的购物消费环境。', '组织农副产品进城是供销社的传统业务,随着全市农业产业化进程的加快,依托资源优势和特色产业优势,重建和整合农产品购销网络,发展集农副产品收购、加工、冷藏、运输、销售为一体的龙头企业,筹建农副产品交易中心和交易批发市场,组织分散的农副产品实现产销对接、城乡对接、农超对接,成为各级供销社为农服务的重要任务。“十二五”期间,全系统农副产品经营服务体系投资1.3亿元,建设11处农副产品仓储、交易中心,扶持16处标准化生产示范基地,带动农户增产增收面积32.5万亩。到2015年末,供销社系统全年农副产品购销额达15亿元,较“十一五”增长50%以上。', '发展农民专业合作社,是供销社新时期的一项重要任务。“十二五”期间,全市供销社要在巩固、完善原有发展成果的基础上,围绕农业特色产业,加快发展标准化生产基地。加大技术服务力度,开展冷链物流和农产品深加工业务,增加农产品附加值。采取投资、参股、联合等方式,积极参与农民专业合作社建设,力争五年内实现较大的突破。“十二五”期间,全市供销社系统投资1894万元,新建专业合作社54个,金融互助社6个,农民专业协会15个。', '当前国家大力提倡和扶持低碳经济产业,再生资源回收行业成为国家大力支持的朝阳产业之一。按照市政府办公厅下发的《关于加快全市再生资源回收体系建设的通知》精神和《济南市再生资源回收体系建设方案》的要求。“十二五”时期,各级供销社充分发挥传统优势,积极拓展再生资源回收业务,加快建设济南市再生资源回收交易市场,回收分拣处理中心。形成回收、分拣、加工、利用一体化经营的再生资源回收利用体系。“十二五”期间,全市供销社系统投资2.1亿元,新建978处回收经营网点,年经营额达18.5亿元。逐步实现全市90%以上回收人员纳入规范化管理,90%以上规范社区设立回收站点,90%以上再生资源进入指定市场进行规范化交易和集中处理,再生资源主要品种回收率达到80%。初步形成符合城市建设发展规划,布局合理、网络健全、设施先进、功能齐全、管理科学的再生资源回收体系,实现再生资源回收经营的标准化、规模化、产业化。', '“十二五”期间,全系统市场建设将迎来一个新的发展局面。将新建一批综合或专业批发市场,进一步提升供销社的社会影响力。市社直属两大市场在“十二五”期间,将继续加大市场项目建设,充分利用空间进行改建、扩建工程,增加营业面积,完善配套设施,增强服务功能,打造特色名牌市场。县(市)区供销社加快建设便利城乡商品流通的各类综合(专业)批发交易市场的同时,按照经济发展的要求,依托重点项目建设,组建集商贸、物流、生产、加工、销售于一体的企业集团和龙头企业,发挥龙头企业的带动辐射作用。', '基层供销社是各级供销社的基础,是密切与农民关系的桥头堡,是服务“三农’的重要平台。“十二五”期间,要把基层社建设与农村现代流通体系建设结合起来,与推进新农村建设和小城镇建设结合起来。加快基层社改造步伐,创新基层社发展方式,按照经济布局和市场原则,改造一批、新建一批、合并一批。让经济实力强的基层供销社成为骨干基层社,带动能力弱的基层供销社共同发展。鼓励基层社带动发展新型农村合作经济组织,使其成为供销社基层组织的重要组成部分。同时,积极吸纳承认供销合作社章程,遵守合作制原则的合作经济组织及其它涉农经济组织共同组建新的基层供销社。争取利用五年的时间全面完成对全市基层社的改造任务,切实提高为农服务的经济实力,进一步提升供销社在广大农民群众中的形象。', '有投入就有效益,大的投入就有大的收益,这是近年来供销社系统各单位发展建设过程中取得的宝贵经验。“十二五”期间,各级供销社继续加大项目资金投入,通过招商引资、职工集资、单位融资、银行借贷等多种途径筹集资金。通过挖潜改造、新建改建、修旧利废等措施,最大限度地提高现有土地、房屋资源的利用效率。“十二五”期间,全市供销社系统项目投资6.21亿元,新增效益1.2亿元。', '济南茶人公寓,位于茶叶市场西南角。公寓为18层(小高层),地上一层为茶叶及相关茶品的营业场所,二层以上为居住公寓。建设规模20000平方米,预计总投资8000万元,2015年下半年交付使用。济南茶人公寓项目建成后,会极大地改善茶叶市场的投资环境,吸引更多的外地客商来济南投资、经营、创业。', '英雄山文化市场按照打造全国名牌特色市场总体思路,“十二五”期间,投资740万元进行市场的提升改造,不断完善市场服务功能,营造浓厚的文化氛围。2011年计划总投资150万元,用于青花瓷壁画续建工程及市场5号楼南侧加层工程。2012年计划投资110万元,将2号楼、3号楼与4号楼分段连接起来,新建营业房和走廊,并进行仿古装饰。2013—2014年,计划总投资280万,进行市场南部板房改造翻建工程。2015年计划投资200万元,实施集中供暖工程。保证经营业户冬季取暖需要。', '据统计,目前全市废旧物资资源量达到11亿元,其中:废钢铁4.8亿元,约16.6万吨;废有色金属2.5亿元,约5500吨,废造纸原料1.4亿元,约13万吨。随着经济发展,再生资源交易量会逐年增大,为建设好再生资源集散交易中心提供了建设发展环境和条件。济南市再生资源总公司按照《济南市再生资源回收体系建设试点工作方案》的工作要求。“十二五”期间计划投资8000万元,建设10万平方米大型再生资源集散交易中心一处。使其具有集中度高、交易规模大、区域辐射能力强,交易信息收集发布等功能,满足集中分拣、深度加工、资源分流的建设要求。', '姚家分社计划投资2300万元,建设大型农产品仓储交易中心一处,年市场交易额达1.5亿元,对于促进供销社系统开展农副产品进城业务,具有重要的示范意义。', '“十二五”期间,济南泺口酿造有限责任公司利用老厂区搬迁的时机,计划在吴家堡分公司建设现代化的生产车间,实施名牌战略,生产高档醋产品,主攻大型超市和主流流通领域,向高品位,高档次迈进,让“洛口醋”这一我市非物质文化遗产发扬光大。', '济阳县供销社发挥传统优势,加大传统行业投资改造力度。“十二五”期间引进资金2000万元,将“济北农资连锁经营中心”打造成集农业生产资料交易、物流、配送、农资技术咨询及检测、检疫服务为一体的农资综合性企业集团,年农资产品销售额突破1.5亿元。', '章丘市供销社经过广泛调研,按照政府引导、多方参与、整合资源、市场运作的原则,计划投资600万元,建设章丘市三农服务大厅并成立为农服务联动指挥中心。该项目建筑面积3300平方米。经销各种化肥、农药、农膜、种子、农机具、农机配件、技防用具、灌溉机械、农畜兽药等其他农业生产资料器械和用具。内设庄稼医院、农畜诊所、测土施肥服务、植保服务、农业科技信息服务、农产品供应、农村资金互助社等公益性服务设施。同时由政府组织涉农各部门设立农业服务联动指挥中心,开展农业气象预报、农作物病虫害预报与防治、抗旱防涝等与三农有关的声讯咨询联动指挥,发挥政府职能,协调各相关部门,以最快的速度,最大的限度为农民提供方便、快捷的一站式服务。', '商河县供销社发挥地处农业大县的优势,积极开展农副产品服务体系建设,不断增强为农服务水平,提升供销社的经营能力。“十二五”期间投资800万元,新建和改造提升贾庄蔬菜批发市场、商河县殷巷棉花市场、富华农副产品有限公司、鑫宇祥进出口有限公司等农产品龙头企业。预计实现年交易额3.1亿元,利税2530万元。', '历城区供销社利用农村城市化进程快的区位优势,积极推进日用消费品现代经营网络建设,完善日用品配送体系。“十二五”期间,投资700万元,新增2处日用品配送中心,努力提升连锁加盟店商品配送率。投资1040万元,着力打造一批精品乡村便民店;投资4070万元,培植一批有影响力、辐射力、带动力的优秀大中型超市,形成区有配送中心、镇有超市、村有便民店的连锁经营体系,营造便利实惠、安全放心的消费环境。', '“十二五”期间,长清区供销社在巩固、完善原有发展成果的同时,围绕乡镇农业特色,加大工作力度,计划发展各类农民专业合作经济组织30个,结合政策支持,在基层供销社创办2个以上小额贷款金融合作社,解决当前广大农民在农业生产、日常生活、小型加工项目等生产、生活中因资金短缺遇到的困难。同时,通过强化服务指导,努力提高专业合作组织的经营能力和服务水平,建设一批带动能力强,辐射面广的农民专业合作社,为全区农民发展现代农业发挥积极作用。', '“十二五”规划目标已经确定,未来发展蓝图已经绘就。如何将“十二五”规划变为现实,是今后五年全市供销社系统广大干部职工面临重要而艰巨的任务。为保障“十二五”规划目标的顺利实现,各级供销社要进一步解放思想、统一认识、抢抓机遇、加大力度,促进供销社各项事业的全面发展。', '(一)抢抓发展机遇。充分利用“十二五”时期发展的有利形势,克服各种不利因素,积极寻找新的增长点。要有创新精神、危机意识、时代责任和满腔热情,进一步解放思想、理清思路、制定切实可行的实施方案、工作措施、保障制度。把落实“十二五”规划的过程,变成统一思想、树立信心、解决问题、取得成效的过程。抢抓机遇、加快发展,全面完成“十二五”确定的各项奋斗目标。', '(二)积极争取政府支持和政策扶持。各级供销社的工作离不开各级领导和政府有关部门的支持。“十二五”期间要认真分析国家产业政策走势,积极向各级政府汇报工作,努力争取政府领导和有关部门的大力支持。认真贯彻落实国务院〔2009〕40号文件、省政府〔2010〕31号文件、市政府〔2010〕39号文件精神,积极落实各级政府及有关部门的扶持政策,用足、用好扶持发展的各项政府引导资金,特别是在市场建设、冷链物流、农资储备、网点建设、再生资源回收体系建设等方面,要深入研究、出好题目,以项目建设带动快速发展,让各项优惠政策和扶持资金发挥最大的引导作用。', '(三)加强调查研究,创新管理机制。各级供销社要深入实际,调查研究,充分发挥供销社的系统优势,搞好系统内外的联合,创新管理机制,提升管理水平。当前供销社正处于新一轮创业的关键时期,新上项目多,摊子铺的大,投资规模和业务领域远远超出了传统范围,对全系统管理水平提出了更高的要求。为此,必须要做好三方面的管理。即加强联合社的管理,建立健全各项规章制度,加大清产核资力度,全面摸清家底,严格资产收益管理;加强企业管理,要把提高经济效益放在转变发展方式的首位;加强项目管理,要围绕系统发展规划,积极谋划和申报项目,争取进入政府农村物流服务体系、现代服务业、循环经济规划的政策扶持范围。', '(四)站在战略的高度、规划企业发展蓝图。要正确处理好当前利益和长远利益的关系,要从战略的高度谋划企业的未来。要统一思想认识、转变经营理念、加大项目投资力度、拓展新的经营领域。要通过积极引进资金、引进技术、引进项目、引进经验,积极尝试借船出海、借鸡生蛋的路子,采取走出去和请进来的办法发展壮大自己,实现联合化、规模化、集约化经营,成为各自行业的排头兵和主导者。', '(五)加强供销社基层工作,进一步夯实为农服务基础。专业合作社和综合服务社作为新时期供销社在基层存在的重要形式,是顺应农村土地政策和农村建设大势应运而生的,是供销社开展为农服务的重要载体。今后一个时期,要重点通过创办专业合作社和综合服务社,完善基层组织体系,扩大经营服务覆盖面,稳固供销社的发展基础。着力提升专业合作社的发展水平,加快综合服务社建设。要抓住国家构建城乡基本公共服务体系的机遇,加快发展一批功能全、便民实用的综合服务社,提高行政村网点的覆盖率。要继续抓好农资、日用品等原有经营业务,积极拓展图书、药品、烟花爆竹等特许经营业务,大力发展报刊订阅、移动通讯等代办业务,广泛开展科技培训、劳动就业等公益服务,满足农民生产生活的各种需求。', '(六)加强干部职工队伍建设。百年大计、人才为先。积极引进人才,吸收新鲜血液,为保证“十二五”规划的实施,提供强大的人才支撑。把两个“关心”的工作理念落到实处,进一步调动广大干部职工的工作热情。加强干部作风建设,营造廉洁勤政干事创业的良好氛围。加强干部培训,提高干部素质。加强机关建设,提高服务水平。加强供销社文化建设,在全系统开展“七讲七比”活动。讲学习、比素质;讲工作、比业绩;讲能力、比创新;讲奉献、比服务;讲和谐、比团结;讲品德、比诚实;讲廉洁、比自律。形成比学赶帮超、积极向上、生动活泼的工作局面。', '(七)加强组织领导,狠抓贯彻落实。为将“十二五”规划落到实处,各级供销社要加强组织领导,积极协调规划目标的落实。要把未来五年的年度工作计划与“十二五”规划目标结合起来,建立定期的目标评估、考核和修正制度,进一步完善各项管理措施,加大改革创新力度,建立完善的经济责任目标奖惩制度,确保实现“十二五”规划的目标。', '全面实现“十二五”规划目标,是新时期赋予供销社光荣而艰巨的任务,是实现供销社腾飞的新起点,是激励供销社前进的加速器。让我们在市委、市政府的正确领导下,按照科学发展观的要求,脚踏实地,勤奋工作,为圆满完成“十二五”规划的各项目标任务,开创供销社改革发展的新局面而努力奋斗!']</t>
         </is>
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A187" t="n">
+        <v>129</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
           <t>济南市人民政府政务要闻</t>
         </is>
       </c>
-      <c r="D187" t="inlineStr">
+      <c r="E187" t="inlineStr">
         <is>
           <t>2011-08-17</t>
         </is>
       </c>
-      <c r="E187" t="inlineStr">
+      <c r="F187" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2011/8/17/art_1985_250059.html</t>
         </is>
       </c>
-      <c r="F187" t="inlineStr">
+      <c r="G187" t="inlineStr">
         <is>
           <t>['7月17日济南市休闲渔业示范点授牌暨首届现代渔业“黄河湾杯”垂钓大赛举行。副市长赵文朝出席授牌仪式。 7月18日市委书记焉荣竹察看全市水利工作。市委常委、秘书长陈勇和副市长赵文朝参加活动。 7月18日市委副书记、市长张建国察看公共租赁住房重点项目建设情况。市委常委、常务副市长孙晓刚，济南高新区管委会主任苏树伟，市政府秘书长许强参加活动。 7月18日市委副书记、市长张建国会见马来西亚国家经济顾问委员会委员、金狮集团董事长钟廷森先生一行。副市长齐建中、市政府秘书长许强参加会见。 7月19日省人大常委会副主任连承敏带领调研组，对我市国土资源工作情况进行调研。市委常委、常务副市长孙晓刚，市人大常委会副主任宋玉国参加活动。 7月19日贯彻落实《国务院关于加强地质灾害防治工作的决定》电视电话会议召开。市委常委、常务副市长孙晓刚在济南分会场出席会议并讲话。 7月19日全国进一步加强乡村医生队伍建设和清理基层医疗卫生机构债务电视电话会议召开。副市长邹世平在济南分会场出席会议并讲话。 7月19日副市长李宽端到山东晋煤章丘明水化工有限公司、章丘东风二号煤矿进行安全生产工作检查，并就做好当前安全生产工作提出要求。 7月20日全市燃气安全工作领导小组会议召开。市委常委、常务副市长孙晓刚出席会议并讲话。 7月21日市委副书记、市长张建国主持召开市政府第81次常务会议，研究全省城镇居民社会养老保险试点工作部署暨新农保试点经验交流会议精神及我市贯彻意见。各副市长，市政府秘书长参加会议。 7月21日省人口计生委领导班子成员带领全省各市人口计生委主任现场考察我市城区计划生育融入社区管理服务工作。市委副书记殷鲁谦，市委常委、市中区委书记雷杰，副市长巩宪群陪同考察。 7月22日市委书记焉荣竹到高新区调研。市委常委、副市长张宗祥，市委常委、秘书长陈勇，高新区管委会主任苏树伟参加活动。 7月22日和27日市领导来到济南军区、济南军区空军、省军区和武警山东总队等驻济部队领率机关走访慰问。济南军区司令员范长龙、政委杜恒岩，市委副书记、市长张建国，市人大常委会主任雷建国等军地领导进行座谈，喜迎“八一”建军节。参加走访慰问的还有：市委副书记殷鲁谦，市委常委、常务副市长孙晓刚，市委常委、市纪委书记王成波，市委常委、济南警备区政委晋争鸣，副市长齐建中，济南警备区司令员胡少平。 7月22日全省第六次人口普查总结表彰电视会议召开。市委副书记、市长张建国，市委常委、副市长张宗祥，市政府秘书长许强在济南分会场出席会议。 7月22日我省首家市级云计算中心—济南云计算中心成立，同时，济南市人民政府与浪潮集团签署共同推进云计算战略合作协议。市委副书记、市长张建国出席揭牌仪式并为中心揭牌。副市长李宽端、市政府秘书长许强参加活动。 7月22日全市加快推进基层医疗卫生机构综合工作会议召开。副市长邹世平参加会议并讲话。 7月24日全市交通运输系统安全生产紧急会议召开。副市长邹世平出席会议并讲话。 7月25日市委副书记、市长张建国主持召开市政府第82次常务会议，研究上半年全市经济社会发展情况及下一步工作建议。各副市长，市政府秘书长参加会议。 7月25日全市城镇居民社会养老保险暨人力资源社会保障基层公共服务平台建设工作会议召开。市委常委、常务副市长孙晓刚出席会议并讲话。 7月25日全市基础地理信息公共服务平台建设工作会议召开。市委常委、常务副市长孙晓刚出席会议并讲话。 7月26日全市学习胡锦涛总书记“七一”重要讲话报告会举行。中央党校党史教研部副主任、博士生导师谢春涛应邀作学习“七一”讲话专题辅导报告。市委书记焉荣竹，市委副书记、市长张建国，市人大常委会主任雷建国出席报告会。市领导雷杰、王以才、孙晓刚、徐学武、王成波、陈勇、段青英、宋玉国、巩宪群、宋新生、郭鲁生、杨庆林、刘少玲，市委农办主任时文进，市委市直机关工委书记孙积港，以及市直各部门、单位、企业主要负责同志参加报告会。 7月26日大型历史原创新京剧《孔圣母》研讨会举行。副市长巩宪群出席研讨会。 7月27日市委副书记、市长张建国察看中小企业和战略性新兴产业发展情况。副市长李宽端、高新区管委会主任苏树伟、市政府秘书长许强参加活动。 7月28日市委召开常委扩大会议，分析研究全市上半年经济社会发展情况，明确当前面临的形势和任务，对下半年经济社会发展工作进行安排部署。市委书记焉荣竹主持会议并讲话；市委副书记、市长张建国总结了上半年我市经济形势，对做好下半年各项工作讲了意见；市人大常委会主任雷建国、市政协主席徐长玉、市委副书记殷鲁谦和市委常委出席会议。市政府副市长，市法院党组书记、市检察院负责同志；市人大常委会、市政府、市政协秘书长；市纪委副书记，各县（市）区委书记，济南高新区党工委书记，市直有关部门主要负责同志参加会议。 7月28日市委副书记殷鲁谦到济南警备区、省公安边防总队、市公安消防支队和武警济南市支队走访慰问。市委常委、济南警备区政委晋争鸣和副市长齐建中参加活动。 7月29日省委常委、市委书记焉荣竹和省委常委、副省长孙伟对小清河综合治理工程和滨河新区开发建设情况进行调研。市委常委、秘书长陈勇和副市长邹世平参加活动。 7月29日全省城市管理工作现场会在我市召开。市委常委、常务副市长孙晓刚出席现场会并讲话。7月29日全省河道采砂专项整治工作电视电话会议召开。副市长赵文朝在济南分会场出席会议并讲话。 7月29日全市安委会全体成员（扩大）会召开。副市长李宽端出席会议并讲话。 7月30日济南第八届青岛啤酒节开幕。市委常委、宣传部部长谭延伟，副市长赵文朝，市政协副主席刘少玲，高新区管委会主任苏树伟出席开幕式。 7月31日市政府举行荣誉称号授予仪式。市委副书记、市长张建国为济南军区72433部队部队长张勇颁发济南市荣誉市民证书。济南军区联勤部副政委王延奎，市委常委、济南警备区政委晋争鸣，副市长齐建中，市政府秘书长许强出席仪式。']</t>
         </is>
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A188" t="n">
+        <v>129</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
           <t>中共济南市委办公厅济南市人民政府办公厅印发关于加强新形势下全市企业档案工作的意见的通知</t>
         </is>
       </c>
-      <c r="D188" t="inlineStr">
+      <c r="E188" t="inlineStr">
         <is>
           <t>2014-07-05</t>
         </is>
       </c>
-      <c r="E188" t="inlineStr">
+      <c r="F188" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2014/7/5/art_25727_2403993.html</t>
         </is>
       </c>
-      <c r="F188" t="inlineStr">
+      <c r="G188" t="inlineStr">
         <is>
           <t>['中共济南市委办公厅济南市人民政府办公厅印发《关于加强新形势下全市企业档案工作的意见》的通知', '各县（市）区党委和人民政府，济南警备区，市委各部委，市政府各部门，各人民团体，各高等院校：', '《关于加强新形势下全市企业档案工作的意见》已经市委、市政府领导同志同意，现印发给你们，请结合实际认真抓好贯彻落实。', '为进一步加强新形势下档案工作，全面提升我市企业档案规范化管理水平，充分发挥企业档案在服务企业发展和全市经济社会发展中的重要作用，现就加强新形势下我市企业档案工作提出如下意见。', '企业档案是企业知识资产和信息资源的重要组成部分，是企业发展历程的真实记录，是企业精神、企业文化、企业历史传承的重要载体。企业档案管理是企业管理活动的基础性工作。做好企业档案工作是企业加强管理、科学发展的客观需要，特别是随着市场经济发展，档案在企业研发、经营、管理和树立企业形象、维护企业权益、创建企业文化等方面的作用越来越突出，加强档案工作对于增强企业市场竞争能力，促进企业各项工作全面、协调发展具有重要意义。企业档案也是全市档案资源不可或缺的重要组成部分，是全市经济社会发展的历史见证，加强企业档案工作是企业应尽的义务和责任。全市各级各有关部门单位要从对企业、对社会、对历史负责的高度，切实增强企业档案管理意识，提高服务监管水平，指导企业依法收集、整理、保管保护和利用好企业档案。各企业要充分认识加强档案工作的重要性，转变观念，强化措施，切实做好企业档案工作，不断提高企业档案管理的规范化、制度化、科学化水平。', '（一）资源体系。各企业要按照国家和省、市档案行政主管部门的要求，制定涵盖企业研发、生产、经营和管理等工作内容的归档范围和档案保管期限表。要严格执行归档制度，坚持档案人员跟踪参加企业有关重要活动，做到第一时间收集到第一手档案资料，确保企业各类档案收集齐全完整。', '（二）科技支撑体系。以不断提升企业档案管理信息化水平、为档案提供更好的技术保护为目标，建立企业档案现代技术支撑体系。各企业现代化管理系统的开发与应用，要充分考虑档案工作需要，配备能够满足企业档案信息化建设及档案现代技术保护需要的设施设备，开发适合企业档案管理特点的软件，加快企业档案数据库建设，逐步实现企业档案的全文数字化检索和网络化管理与服务。', '（三）人才队伍体系。各企业要根据企业规模、档案数量等具体情况，选好、配强档案工作人员，创造必要的工作和学习条件。各级档案行政管理部门要根据现代企业档案工作新标准、新规范、新要求，适时组织企业档案人员分级、分类、分专题上岗培训和继续教育，并通过开展协作、观摩、考察等各种形式的活动，加强企业档案人员之间的学习交流，不断提高企业档案人员的业务素质，以适应现代企业对企业档案工作人员的要求。', '（四）服务体系。企业档案部门要不断增强服务意识，认真做好基础服务性工作，主动了解企业对档案信息的需求，改进服务方式，提高服务质量，充分发挥企业档案信息作用，为企业决策、生产经营、内部管理等工作服好务。', '（五）安全体系。不断强化档案安全意识，加强档案安全教育，建立健全并认真落实档案安全制度。企业要根据档案管理需要，设置满足企业档案安全保管条件的档案用房，配备符合档案安全保管“九防”要求的设施设备，确保档案安全万无一失。', '（一） 明确任务目标。从2014年开始，用3至5年时间，在全市集中开展企业档案规范化建设活动，基本完成市、县属国有企业和规模以上重点民营企业档案管理规范化建设任务。原则上，国有企业用3年时间、规模以上重点民营企业用5年时间普遍达到企业档案规范化管理基本要求。', '（二）落实工作措施。企业档案规范化建设工作量大面广，任务繁重，要本着积极稳妥、循序渐进、整体提升的原则逐步展开。一是按照市属和区属国有企业和规模以上民营企业档案管理现状，市和各县（市）区分别进行登记造册，并根据国有企业档案管理规范化建设和规模以上民营企业档案规范化管理示范创建任务，排出5年工作计划安排进度表。二是市和县（市）区采取集中培训、以会代训、联谊协作、集中立卷等多种形式，开展企业档案规范化管理业务培训，学习相关业务知识，明确标准规范，提高企业档案人员的业务能力。三是抓好试点示范引路，市和各县（市）区要选择部分不同类型的企业，开展试点示范工作，并及时总结他们的成功经验，加以推广，逐步扩大试点成果，达到全面推进、整体提高的目的。', '（三）抓好评估考核。根据国家和省有关企业档案管理考核要求，结合我市企业档案规范化管理标准，建立健全三级企业档案规范化管理评估考核机制，即各企业建立健全内部考核机制，加强对内部各部门档案规范化管理工作的考核；市、县（市）区档案行政管理部门建立健全对各企业的评估考核机制，加强对各企业档案规范化管理的评估考核；市档案行政管理部门建立健全对县（市）区的评估考核机制，将其纳入对县（市）区年度档案工作的综合评估考核。通过建立健全评估考核机制，发挥激励导向作用，确保全市企业档案规范化管理水平不断提高，为全市经济社会发展做出积极贡献。', '（一）市档案行政管理部门负责对全市企业档案工作的规划、标准规范制定和业务监督指导，重点抓好市属大中型国有企业、国有控股企业档案工作的业务指导和监管；各县（市）区档案行政管理部门负责对辖区所属国有企业、国有控股企业和区域内民营企业档案工作的业务指导和监管。要从我市企业实际出发，针对不同行业、不同类型、不同规模企业的具体情况，采取不同的档案业务指导服务形式，通过抓树典型、以点带面、横向交流、整体推进的方式，促进企业档案规范化建设健康发展。', '（二）企业主管部门、监管部门、行业协会要把企业档案工作作为提供服务、加强监管的重要内容，加强本系统的档案管理指导以及行业内协作交流，推动本系统、本行业企业档案工作科学有序开展。要将企业档案工作列入对企业日常工作监督检查及考核全过程中，做到档案工作与其他工作同部署、同检查、同考核。', '（三）各企业（集团）档案部门要接受档案行政管理部门和主管部门、行业协会的业务指导监督。企业法人代表要切实履行好本企业档案工作第一责任人的责任。要建立完善的档案工作体制机制，加强企业档案机构和人员队伍建设，确保人员到位，资金到位，场所到位。要加强对本企业档案工作的统筹规划、组织协调和监督管理，既要依法管理好企业（集团）总部的档案，又要做好对所属企业及内部机构档案工作的指导和监督。']</t>
         </is>
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A189" t="n">
+        <v>129</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
           <t>济南市供销合作社年工作总结</t>
         </is>
       </c>
-      <c r="D189" t="inlineStr">
+      <c r="E189" t="inlineStr">
         <is>
           <t>2012-12-05</t>
         </is>
       </c>
-      <c r="E189" t="inlineStr">
+      <c r="F189" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2012/12/5/art_4125_2760989.html</t>
         </is>
       </c>
-      <c r="F189" t="inlineStr">
+      <c r="G189" t="inlineStr">
         <is>
           <t>['2010年,在市委、市政府的正确领导下,全市供销社系统以科学发展观为指导,深入学习贯彻落实党的十七届四中、五中全会和国务院40号、省政府31号文件精神,按照市委、市政府关于做好“三农”工作的一系列部署,坚持为农服务宗旨,推动工作创新,在加快农村现代经营服务体系建设、推动社有企业发展等方面取得了新成绩,继续保持了全系统平稳较快发展的良好势头。为更好的总结工作,推动发展,我们制作了《回眸2010》的幻灯片,与同志们共同回顾难忘的2010。', '一年来,市供销社党委以促进科学发展为主线,及时总结全系统改革发展的规律性和阶段性特征,通过一系列会议、活动统一思想、凝聚力量、提出思路、部署工作,有力地推动了各项工作。', '2月20日(正月初七),召开了企业工作现场会,通过现场观摩和交流,统一了思想、提高了认识,明确了创新经营、加强管理、节约挖潜、促进发展的工作思路。', '6月30日,召开了系统庆“7.1”暨上半年工作总结会议,认真总结了上半年工作,对下半年工作进行了全面部署,提出了进一步推进农村现代经营服务体系建设、加快社有企业发展的任务和措施。', '7月6日,召开了全市供销社系统基层社工作现场交流会,总结了近年来推进农村现代经营服务体系和供销社组织体系建设的经验和成果,部署了加快推动县、区和基层社发展的任务。', '8月31日至9月1日,组织了全系统领导干部会议,提出了解放思想、提升境界、创新模式、丰富思路、运用政策、推动发展的总体要求。', '今年以来,张建国市长、赵文朝副市长先后对供销社工作做出重要批示,召开专门会议研究供销社工作,并确定由供销社负责组织起草《关于全面推进供销合作社改革发展的实施意见》,这充分体现了市委、市政府对供销社工作的重视、支持和关心,全年全系统共争取总社、省、市财政发展建设资金576万元,较2009年增加76万元,为供销社圆满完成2010年工作任务奠定了基础。另外,会同市商务局争取商务部再生资源回收体系网络建设专项资金2000多万元,现已拨付市财政。', '11月10日,市政府召开第63次常务会议,听取供销社工作汇报,研究部署供销社工作,这是改革开放30多年来的第一次。会议确定的推进供销社改革发展的政策措施,在增加改革发展专项资金规模、县区供销社机关全额预算、“参照公务员法管理”等方面实现了重大突破。', '12月9日,市政府正式以“济政发〔2010〕39号”下发了《关于全面推进供销合作社改革发展的实施意见》,进一步明确了全系统改革发展的目标任务、重点工作、支持政策,提出了加快构建农村现代经营服务体系的工作目标,对继续推进农村现代日用品流通网络建设、大力推进新型农业生产资料经营服务体系建设、全面推进农产品经营服务体系建设、加快再生资源回收体系建设、扎实推进农村社区综合服务中心建设、探索推进农村金融服务体系建设等方面的工作进行了部署,确定了深化县及县以上供销社改革、加强基层社建设、加快社有企业发展、推进联合发展的重点工作,明确对供销社在参与农业产业化经营、处理历史遗留问题、解决土地权属问题等方面给予更大支持的措施,这是多年来首次就供销合作社工作作出的全面的、综合性的指导意见,必将对全市供销合作社系统改革发展产生重要而深远的影响。', '农资经营服务体系建设。一是加强农资经营网络建设,目前全系统共建成农资连锁配送中心7个,全年发展农资直营店60个,新建、改造农资经营网点320个。二是推进农资经营创新,大力开展化肥直供。目前,加盟化肥直供的网点968个,年化肥直供22.5万标准吨,占全系统化肥销量的30%。全年完成农资销售额9.96亿元,同比增长20.4%,化肥、农药销售量分别占市场需求量的73%和60%,进一步巩固了农资供应主渠道地位。', '日用品连锁经营体系建设。全年建成日用品配送中心3个,建成500平方米以上的大中型超市10个,完成325个日用品经营网点的建设改造。目前全市乡镇、办事处驻地均有供销社大中型超市,日用品经营网络覆盖了全市行政村(居)的一半,全年日用品销售收入16.17亿元,同比增长29.8%,约占全市农村日用品销售总额的1/3。', '农产品经营服务体系建设。全年规范和组建农产品交易市场4个,兴办农民专业合作经济组织11个,组织农民建立绿色和无公害农产品基地7个,较好地发挥了供销社推动农村合作经济组织发展、参与农业产业化经营的作用。同时,继续推动农村社区综合服务中心试点建设,全年建成符合标准化要求的农村社区综合服务中心4个,进一步提升了供销社综合服务功能。', '经过一年的发展建设,全系统农村工作硕果累累,章丘、济阳被列为“全国县级供销社网络建设重点支持县市”;章丘被列为“全省供销社系统农村现代经营体系建设考察学习基地”;济阳、商河被省社列为日用品流通网络建设启动县;共有24个基层社列入全省“全面建设”首批启动单位。', '今年以来,各市属企业按照“加大建设投入,提升管理水平,增强经济实力,保持企业稳定”的工作思路,不断研究探索抓发展、抓建设、抓管理的新办法、新举措,有力地促进了各项工作。', '3月31日,市政府办公厅下发了《关于加快全市再生资源回收体系建设的通知》,5月5日,市政府召开了第一次再生资源回收体系建设领导小组会议,进一步推动了再生资源回收体系建设。截至目前,共改造和建设社区回收站(点)55个;规范整合再生资源分拣中心2个,新建废纸分拣中心1个;筹建废旧物资集散交易市场1个。另外,对全市1000多个再生资源经营者进行了备案登记,推动了体系建设健康发展。', '茶叶批发市场在连续5年累计投资6000万元的基础上,今年又投资230万元,完成了“聚茗阁”增层建设项目,实施了市场绿化,对配电室进行增容改造、更换了电缆,进一步提高了市场服务能力。2010年,市场完成交易额13.5亿元,实现营业收入1840万元,实现利税990万元,保持了企业平稳较快发展的良好势头。9月25日,张建国市长视察茶叶市场,对市场加快建设,完善功能,巩固行业龙头地位的做法给予了充分肯定。', '英雄山文化市场投资100万元,改扩建营业面积500平方米;投资60万元,完成大型青花瓷壁画“山水泉城”的制作,提升了市场文化品位,全年实现交易额9亿元,实现营业收入1250万元,实现利税450万元。在今年8月召开的全国副省级城市供销社座谈会上,李成玉主任在总结讲话中,对济南英雄山文化市场盘活资产、推动创新,发展建设文化市场的做法给予了充分肯定。在11月26日召开的全市文化产业发展大会上,英雄山文化市场被评为“全市发展文化产业20佳企业”。在今年11月召开的全国总社企业工作会议上,茶叶市场、文化市场双双入围“全国供销合作社系统百强企业”。', '盘活资产、增收增效是全系统多年来大力倡导和坚持的发展方略,是促进企业稳步发展的成功经验。2010年,各企业结合实际,认真研究盘活资产、增收增效的新思路、新办法,取得了较好效果。全年市属企业完成投资1600万元,新增经营面积1.6万平方米,盘活资产200万元,资产负债率80%,企业资产质量有了新的提高,发展活力不断增强。', '土产公司认真做好烟花爆竹的批发销售和安全管理工作,销售额较去年同期增长35%,同时,有效应对泺口酿造公司拆迁面临的新情况,千方百计保障职工收入,保持了企业稳定。', '果品公司妥善处理新国道、冷藏公司历史遗留问题,全年偿还债务64.5万元。通过协商,提高了杆石桥果品店房租,年增收入6.5万元。', '贸易公司招商引资300万元,将闲置房屋改造成商务客房,盘活存量2200平方米,预计年增加收入20.5万元,资产质量有了明显改善。', '农资公司自筹资金160万元,新建商用楼2000平方米,目前,已引入6家客商,年经营收入60万元,从根本上改善了企业的收入状况。', '商贸中心积极应对西客站片区拆迁问题,妥善处理拆迁与企业、职工的利益关系,积极争取政策支持,在保持企业稳定的同时,为西部新区建设做出了贡献。', '储运公司妥善处理历史债务,规范管理出租房产,积极争取拆迁补偿,较好的维护了企业利益,各项收入有了新的提高。', '装饰公司妥善处理共青团路大楼问题,目前房产过户等手续已接近完成,在保全资产的同时,为企业发展赢得了新的空间。', '姚家分社加大盘活资产和项目建设力度,全年完成投资120万元,改扩建营业设施1000平方米,进一步提高了经济实力,另外,东环供销农产品仓储中心项目正积极办理有关建设手续。', '今年以来,市属企业高度重视群众工作,始终把关心职工生活、维护和谐稳定作为一项重要任务,下大力气解决职工关心的热点、难点问题,取得了显著效果。', '再生资源总公司认真做好关心困难职工工作,全年走访、慰问80人次,发放过节费、慰问品计2万余元。', '贸易公司精打细算,压缩开支,降低费用,返还职工风险金8万元,发放退休职工独生子女补贴16万元。', '姚家分社在发展建设投入较大的情况下,多方筹措资金,全年向职工发放退休职工独生子女补贴、过节费、慰问品合计20.4万元。', '——市属企业大力加强思想政治建设,以抓好理论武装为重点,用党的理论和上级精神教育党员干部,提高认识,武装头脑,指导实践,推动工作。', '——加强党风廉政建设。学习落实关于加强廉政建设的文件精神,严格执行领导干部廉洁自律各项规定,严格落实党风廉政建设责任制,有力的推动了全系统党风廉政建设。', '——认真贯彻中央关于在基层党组织中开展“创先争优”活动的指示和部署,实行“双诺、双述、双评”制度,结合领导点评、民主评议、工作总结、述职述廉、专题会议等项工作,努力推进各项工作。', '——加强党的组织建设,全年调整充实了1个企业党组织领导班子,增加直属企业领导干部6名,发展党员8人,预备党员转正7人。', '——加强人才队伍建设。茶叶市场、文化市场、储运公司、姚家分社等招收大学生、实习生多名,在各自的岗位上发挥了重要作用,在队伍建设方面迈出了可喜的一步。', '机关工作坚持围绕中心、服务大局、服务基层、服务群众的指导思想,着力加强机关作风建设,推动工作创新,较好地完成了各项工作任务。', '一是扎实开展了“执政为民、廉洁高效”集中教育活动,市直机关工委授予市供销社“执政为民,廉洁高效”集中教育活动先进单位。', '成绩属于过去,奋斗开创未来!今年是“十二五”规划开局之年,在新起点上加快供销社改革发展既是市委、市政府的期望和要求,也是全系统广大干部职工的期待和希望,让我们在市委、市政府领导下,以贯彻落实市政府39号文件为契机,进一步解放思想、提升境界、增强信心、开拓进取,不断开创供销社科学发展的新局面,谱写发展建设的新篇章!']</t>
         </is>
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A190" t="n">
+        <v>129</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
           <t>市供销社农村工作成绩显著</t>
         </is>
       </c>
-      <c r="D190" t="inlineStr">
+      <c r="E190" t="inlineStr">
         <is>
           <t>2011-01-19</t>
         </is>
       </c>
-      <c r="E190" t="inlineStr">
+      <c r="F190" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2011/1/19/art_4115_2760748.html</t>
         </is>
       </c>
-      <c r="F190" t="inlineStr">
+      <c r="G190" t="inlineStr">
         <is>
           <t>['2010年,全市供销社系统农村工作硕果累累。章丘、济阳被列为“全国县级供销社网络建设重点支持县市”;章丘被列为“全省供销社系统农村现代经营体系建设考察学习基地”;济阳、商河被省供销社列为日用品流通网络建设启动县;共有24个基层社列入全省“全面建设”首批启动单位。']</t>
         </is>
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A191" t="n">
+        <v>129</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
           <t>山东省人民政府关于进一步加强调查研究工作的意见</t>
         </is>
       </c>
-      <c r="D191" t="inlineStr">
+      <c r="E191" t="inlineStr">
         <is>
           <t>2010-06-29</t>
         </is>
       </c>
-      <c r="E191" t="inlineStr">
+      <c r="F191" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2010/6/29/art_114579_4940318.html</t>
         </is>
       </c>
-      <c r="F191" t="inlineStr">
+      <c r="G191" t="inlineStr">
         <is>
           <t>['各市人民政府，各县（市、区）人民政府，省政府各部门、各直属机构： 为深入贯彻落实科学发展观，全面提高调查研究工作的质量和水平，推进决策的民主化、科学化，加快经济文化强省建设，实现富民强省新跨越，现就进一步加强政府调查研究工作提出如下意见。 一、进一步认清新形势下加强调研工作的重大意义 调查研究是我们党和政府的一项基本工作方法和领导制度，是实现决策民主化、科学化的基础和前提。只有坚持调查研究，形成对客观事物的正确认识，才能真正摸清情况，认清形势，理清思路，改进工作，准确把握科学发展的系统性和规律性，促进各项事业健康顺利发展。 加快经济文化强省建设，实现富民强省新跨越，对调研工作提出了新的更高要求。在新的历史起点上，我省改革发展进入关键阶段，既面临加快发展的重大机遇，也面对矛盾凸显的严峻挑战。如何抓住发展机遇，实现科学发展、和谐发展、率先发展，全面推进经济、政治、文化、社会、生态文明建设，有许多重大课题需要深入调查研究；如何应对矛盾挑战，实现改革发展稳定协调推进，全面构建社会主义和谐社会，需要进行深入探索；如何把握形势变化，及时发现和解决发展中的热点、难点问题，保持经济社会平稳较快发展，也必须坚持不懈地开展调查研究。各级政府和领导干部要切实增强责任感和紧迫感，深入调查研究经济社会发展中关系全局的突出问题，深入调查研究本地区本部门工作中需要解决的重点问题，深入调查研究关系到广大人民群众切身利益的热点难点问题，总结推广干部群众在实践中创造的好经验好办法，主动把握经济社会发展的进程，提高科学判断形势、驾驭工作、应对复杂局面的能力。 各级政府调研机构担负着为领导决策提供服务的重要职责，要积极适应新形势、新任务、新要求，深入学习实践科学发展观，紧紧围绕党委和政府的中心工作，深入调查，潜心研究，努力提供更多有分量、有价值的调研成果，不断提高调研工作的质量和水平，为各级领导决策当好参谋助手。 二、进一步明确调研工作的指导思想 加强和改进调研工作的总体要求是，以邓小平理论和“三个代表”重要思想为指导，深入贯彻落实科学发展观，坚持围绕中心抓调研，切实贴紧党委和政府的中心工作，坚持围绕大局出思路，切实增强大局观念和整体意识，坚持围绕难点求突破，切实解决改革发展中的实际问题，出主意、当参谋，不断提高政府决策的民主化、科学化水平。在工作中，要把为决策服务作为一切调研工作的中心，突出搞好重大调查研究与重要文稿服务两大任务，围绕高标准、高效率、高水平三个目标，努力达到求新、求实、求准、求快四项要求。要大力改进文风，提倡写短而精的调研报告，做到观点鲜明、朴实务实。 三、进一步建立完善调研工作制度 （一）建立健全重要决策调研论证制度。各级政府对重大问题的决策，必须先进行调查研究，建立完善深入了解民情、充分反映民意、广泛集中民智、切实珍惜民力的决策咨询机制和决策论证制度，提高决策的准确性。对事关改革、发展、稳定的全局性问题，事关人民群众切身利益的重大问题，以及涉及面宽、影响较大的热点、难点问题，都要做到没有广泛征求群众意见的不决策，没有经过深入调查研究的不决策，没有经过充分咨询论证的不决策。提交政府常务会议讨论的重大决策方案，必须经过调查研究程序，并把调研情况作为议题审定的重要依据。 （二）建立健全政府机关调查研究制度。各级政府及各部门要建立健全调查研究制度，制定和落实调研计划，促进调研工作经常化、制度化、规范化和科学化。每年年初要制定年度调研计划，确定一批重大调研课题，集中力量拿出高质量高水平的研究成果。领导干部要带头搞调研，各级政府组成人员每年要拿出不少于两个月的时间深入基层，了解社情民意，探求解决实际问题的办法，要亲自主持重大课题调研，拿出几个对发展全局有重要指导作用的调研报告。 （三）建立健全重点调研课题管理制度。全省政府系统调研课题实行分类管理，分为重大调研课题和专项调研课题。省政府常务会议确定的调研课题为重大调研课题，每年由省政府研究室在充分征求省政府领导和各方面意见的基础上，提出建议方案，报省政府常务会议研究确定。重大调研课题由省政府领导同志主持，省政府研究室和相关部门、相关市组织实施。省政府各部门确定的重点调研课题为专项调研课题，由各部门研究并报经分管省领导确定，根据省领导意见组织实施。省里统一安排部署的重大调研课题和省领导交办的专项调研课题，有关部门要集中力量抓紧抓好。各市、县（市、区）也要立足本地实际，搞好调研课题管理。省政府研究室要发挥好组织、协调全省政府系统调研工作的职能，加强对重点调研课题的组织、协调和管理。为有效整合协调各方面的研究力量，更好地为政府决策服务，省政府研究室每年组织一次全省政府系统优秀调研成果评选，促进各级不断加强和改进调研工作。 （四）建立健全调研成果转化和交流制度。调查研究的目的是解决问题和推动工作，必须高度重视调研成果的转化和运用。重大调研成果要及时提交政府常务会议讨论决策，政府和部门的重要文件、领导讲话要重视采纳优秀调研成果，及时把调研成果转化为新思路和新举措。各市政府和省政府部门的主要负责同志，每年要向省政府报送调研材料和决策建议。各市、各部门主办的与调研工作有关的内部刊物和信息资料，要及时抄报省政府研究室，省政府研究室要及时把各方面的优秀调研成果整理报送省政府领导。 四、进一步加强调研机构和网络建设 县级以上人民政府和省政府各部门要进一步加强调查研究机构建设，充实和加强调研工作力量。 各级政府调研机构要更好地发挥决策参谋助手作用，加强与政府职能部门的联系，共同搞好重大课题调研论证；加强与大专院校、科研机构的联系，开展合作调研或委托调研，发挥好他们在政府决策中的作用；加强与国家部委及国内外调研机构的联系，搞好信息交流和相互合作，提高调研工作水平。 各级政府领导同志要继续坚持调研联系点制度，保证每年有一定时间在联系点蹲点调研。各级政府调研机构也要建立基层调研联系点，保持密切联系，定期安排力量进点调查研究，更好地掌握第一手资料，增强调研深度。 省政府研究室及各级政府研究室要加强对各级政府调研工作的组织指导，建立定期培训交流制度，定期组织学习培训和考察，开拓视野，提高工作水平。 五、进一步加强对调研工作的领导 各级政府要把加强和改进调查研究工作作为一项重要工作纳入议事日程。政府常务会议每年至少听取一次政府调研机构工作汇报，专题研究部署调研工作，帮助解决实际问题。政府调研机构应列席同级政府常务会议，领导的重大调研活动要安排政府调研机构的同志参加。各级政府要加强对重大调研课题的规划、部署和协调，并纳入政府工作要点，狠抓落实。 要高度重视调研队伍建设，坚持用党的最新理论成果武装头脑，深入学习邓小平理论、“三个代表”重要思想和科学发展观，认真钻研现代经济、科技、法律及有关专业知识，大力弘扬求真务实、真抓实干的工作作风，努力培养一支政治坚定、分析问题能力强、文字水平高、作风过硬的干部队伍。各级领导要切实把调研机构当成自己的参谋助手，多给他们出题目、交任务、提要求，不断提高他们的综合素质和业务能力。要注重调研机构干部的培养，保持干部队伍的生机与活力。 各级政府要努力创造良好的调研工作环境，尽力帮助解决实际困难和问题，不断改善干部职工的工作、学习和生活条件，充分调动他们的工作积极性。要从经费、调研条件和手段上积极支持调研机构，保障调研机构工作的顺利开展。 县级以上政府要研究制定贯彻实施本意见的具体方案和措施，明确政府调研机构职能，建立完善调研工作制度，确保意见中的各项措施落到实处。']</t>
         </is>
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A192" t="n">
+        <v>129</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
           <t>山东省人民政府关于进一步加强市县政府依法行政的实施意见</t>
         </is>
       </c>
-      <c r="D192" t="inlineStr">
+      <c r="E192" t="inlineStr">
         <is>
           <t>2009-12-02</t>
         </is>
       </c>
-      <c r="E192" t="inlineStr">
+      <c r="F192" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2009/12/2/art_114611_4940101.html</t>
         </is>
       </c>
-      <c r="F192" t="inlineStr">
+      <c r="G192" t="inlineStr">
         <is>
           <t>['各市人民政府，各县（市、区）人民政府，省政府各部门、各直属机构，各大企业，各高等院校： 为深入贯彻落实《国务院关于加强市县政府依法行政的决定》（国发〔2008〕17号，以下简称《决定》），结合我省实际，现就进一步加强市县政府依法行政提出以下实施意见。 一、提高认识，总结经验，增强推进市县政府依法行政的紧迫感和责任感 推进市县政府依法行政，是深入学习实践科学发展观的重要举措，是加强政府自身建设、维护人民群众根本利益的必然要求。2007年，省政府下发《关于进一步加强市县政府依法行政工作的意见》（鲁政发〔2007〕37号）以来，全省各级、各部门以贯彻《国务院全面推进依法行政实施纲要》为主线，以推进市县政府依法行政为重点，进一步建立健全依法行政的组织领导机制，市县政府依法行政整体有效推进，依法行政制度建设质量进一步提高，相对集中行政处罚权工作积极稳妥进行，行政审批制度改革不断深化，对行政行为的监督更加规范，行政执法责任制全面推行，行政复议案件受理渠道进一步畅通，市县政府法制机构和队伍建设得到加强。 但必须清醒地看到，市县政府依法行政还存在一些问题，有的还很突出。一些行政机关工作人员甚至少数领导干部依法行政的意识不够强，依法办事的能力和水平不够高；一些地方多头执法、重复执法的现象尚未杜绝，少数执法人员乱作为和不作为的现象依然存在，行政权力的监督约束机制不够健全，部分行政机关工作人员依法行政的能力水平与经济社会发展和人民群众的要求还存在较大差距。各级、各部门要进一步增强责任感和紧迫感，采取得力措施，全面推进市县政府依法行政。 二、突出重点，明确责任，认真落实《决定》提出的任务 （一）提高市县政府依法行政能力。 1.健全领导干部集体学法制度。市县政府及其部门要建立健全集体学法制度，制订年度计划，每年集体学法不少于4次。要建立健全法律知识培训制度，做到学法计划、内容、时间、人员、效果“五落实”。 2.加强对领导干部任职前的法律知识考查和测试。对拟任市县政府及其部门领导职务的干部，在任职前考察时要考查其是否掌握相关法律知识以及依法行政情况，必要时还要对其进行相关法律知识测试，考查、测试结果应当作为任职的依据。 3.强化对行政执法人员的培训。行政执法人员上岗前必须参加法律知识培训，考试合格后方可取得执法资格，上岗执法。对在岗行政执法人员，要每2年进行一次依法行政知识培训，培训情况、考试成绩应作为考核内容和任职晋升的依据之一。4.加大公务员法律知识测查力度。加强对公务员的法律知识培训，在公务员录用考试或竞争上岗时，应当增加法律知识在相关考试科目中的比重。 （二）完善市县政府行政决策机制。 1.完善重大行政决策听取意见制度。市县政府及其部门要建立和完善重大行政决策程序，制定切实可行的具体实施办法。重大行政决策，除依法不得公开的外，要向社会公布决策方案草案，广泛听取公众、专家和有关部门的意见。制定与群众切身利益密切相关的公共政策，要广泛听取人民群众和社会各界的意见。2.推行重大行政决策听证制度。要扩大听证范围，法律、法规、规章规定应当听证以及涉及重大公共利益和群众切身利益的决策事项，都要进行听证。要规范听证程序，科学合理地遴选听证代表，确定、分配听证代表名额要充分考虑听证事项的性质、复杂程度及影响范围。听证代表确定后，应当将名单向社会公布。听证举行10日前，应当告知听证代表拟做出行政决策的内容、理由、依据和背景资料。除涉及国家秘密、商业秘密和个人隐私的外，听证应当公开举行，确保听证参加人对有关事实和法律问题进行平等、充分的质证和辩论。对听证中提出的合理意见和建议要吸收采纳，意见采纳情况及其理由要以书面形式告知听证代表，并以适当形式向社会公布。3.建立重大行政决策的合法性审查制度。市县政府及其部门作出重大行政决策前要交由法制机构或者组织有关专家进行合法性审查。未经合法性审查或经审查不合法的，不得作出决策。4.坚持重大行政决策集体决定制度。市县政府及其部门重大行政决策应当在深入调查研究、广泛听取意见和充分论证的基础上，由政府全体会议、常务会议或者部门、机构的行政领导办公会议集体讨论决定。依法应当公布的重大行政决策结果应当自作出决定之日起20日内，向社会公布。5.建立重大行政决策实施情况后评价制度。市县政府及其部门作出的重大行政决策实施后，要通过抽样检查、跟踪调查、评估等方式，及时发现并纠正存在的问题，减少决策失误造成的损失。后评价由决策机关组织，或由决策机关委托执行机关进行。6.建立行政决策责任追究制度。要坚决制止和纠正超越法定权限、违反法定程序的决策行为。对应当听证而未听证的、未经合法性审查或经审查不合法的、未经集体讨论作出决策的，要依照《行政机关公务员处分条例》第十九条第（一）项的规定，对负有领导责任的公务员给予处分。对依法应当作出决策而不作出决策，玩忽职守、贻误工作的行为，要依照《行政机关公务员处分条例》第二十条的规定，对直接责任人员给予处分。 （三）加强规范性文件实施监督管理。 1.严格规范性文件制定权限和发布程序。市县政府及其部门制定规范性文件，应当严格按照法定权限，符合法律、法规、规章的规定。规范性文件要经本级政府法制机构或者组织有关专家进行合法性审查，并由制定机关负责人集体讨论决定，对涉及公民、法人或者其他组织合法权益的，要向社会公布。未经公布的，不得作为行政管理的依据。2.强化规范性文件备案审查。市县政府发布规范性文件后，应当自发布之日起15日内报上一级政府备案。市县政府要结合实际，建立规范性文件电子数据库和备案查询系统。备案机关对报备的规范性文件的备案审查情况要及时向社会公布。加强对制定发布规范性文件工作的监督，对违法制定发布规范性文件的，要依法予以纠正。3.建立规范性文件定期清理制度。市县政府及其部门每2年要进行一次规范性文件清理工作，做到定期清理和适时清理相结合，对不符合法律、法规、规章规定，或者相互抵触、依据缺失以及不适应经济社会发展要求的规范性文件，及时予以修改或者废止。清理后要公布继续有效、废止和失效的规范性文件目录。 （四）严格行政执法。 1.深化行政执法体制改革。继续深入推进并规范相对集中行政处罚权工作。加强对相对集中行政处罚权工作的指导，保障市县相对集中行政处罚权的有效行使。研究探索把相对集中行政处罚权的领域从城市管理向文化、旅游、矿山安全、农业、林业、水利等领域扩展。进一步规范行政服务中心建设，市县保留的本级行政许可、非许可审批事项应当逐步进入行政服务中心集中办理。要提高行政许可、行政审批效率，转变服务方式，加强电子政务建设，推行网上审批。市县政府要加强对行政服务中心运行和行政许可、审批行为的领导，完善监督检查机制。积极探索相对集中行政许可权试点工作。2.规范行政执法行为。实行行政执法主体资格合法性审查制度。市县政府应当根据机构设置和法律依据变动情况，适时审查本级部门的行政执法主体资格，并将合法的行政执法主体向社会公布。市县政府及其部门的行政执法行为要符合有关法律、法规、规章的规定，行政执法环节、步骤要做到流程清楚、要求具体、期限明确。大力推行规范行政处罚裁量工作，减少执法随意性。要实行行政执法公示制度，执法主体、依据、权限、责任和裁量标准、程序步骤、办事时限、监督方式等内容，应当通过便于公众知晓的形式向社会公示。加强行政执法监督检查，建立监督检查记录制度。统一行政执法案卷制作标准，完善行政执法案卷的评查制度，并每年组织一次行政执法案卷评查，对检查结果，市县政府要向有关行政执法机关通报并向上一级政府报告，市县政府部门要向同级政府报告。加强行政执法人员的教育，不断改进工作作风，提高执法质量，做到公正执法、文明执法。3.落实行政执法责任制。建立健全执法依据定期梳理和分解执法职权制度，依法明确行政机关之间和行政机关内部不同机构、岗位的执法职责，并将法定职权和执法责任分解到具体执法机构和岗位。建立健全行政执法评议考核机制，市县政府负责对所属部门行政执法工作进行考核，政府部门负责对其行政执法人员进行考核；组织开展社会评议，并将评议考核结果列入目标、绩效考核的重要指标。要加大行政执法责任追究力度，对不依法履行职责或者违反法定权限和程序实施行政行为的，依照规定对直接责任人员给予处分。4.完善行政执法经费保障机制。市县行政执法机关履行法定职责所需经费，要统一纳入财政预算予以保障。严格执行罚缴分离和收支两条线管理制度。罚没收入必须全额缴入国库，纳入预算管理。对下达或变相下达罚没指标、违反罚缴分离的规定以及将行政事业性收费、罚没收入与行政执法机关业务经费、工作人员福利待遇挂钩的，要依照有关规定，对有关负责人作出处理。 （五）强化对行政行为的监督。 1.充分发挥社会监督的作用。要完善群众举报投诉制度，支持、鼓励人民群众、新闻媒体对行政机关违法行为检举、曝光。建立及时处理新闻媒体反映问题的协调机制，完善新闻发布会、情况通报会制度。对人民群众检举、新闻媒体反映的问题，行政机关应当认真调查、核实，及时依法作出处理；对社会影响较大的问题，要及时将处理结果向社会公布。对打击、报复检举、曝光违法或者不当行政行为的单位和个人的，要依法追究其责任。2.加强行政复议工作。实行行政复议首长负责制，将行政复议工作纳入本级政府和本部门目标责任制。要畅通行政复议渠道，制定便民措施，凡是符合法定条件的行政复议申请，必须依法予以受理。要改进行政复议审理方式，综合运用书面审查、实地调查、听证、和解、调解等手段办案，依法公正地作出复议决定，并加大对行政复议决定落实的监督力度。要按照行政复议法实施条例的规定，健全市县政府行政复议机构，充实行政复议工作人员，保证一般案件至少2人承办。加强对行政复议人员的业务培训。积极推行行政复议委员会试点工作。3.做好行政应诉工作。市县政府及其部门要认真履行法定的应诉义务，鼓励、倡导行政机关主要负责人出庭应诉。要加强与人民法院的联系，及时掌握和解决行政审判反映的行政执法问题，不断提升依法行政能力。行政机关要自觉履行人民法院的判决和裁定。4.积极推进政府信息公开。市县政府及其部门要建立健全政府信息公开工作制度。健全政府信息公开的发布机制，落实政府信息公开载体。要建立健全政府信息公开保密审查、依申请公开、工作考核、社会评议、年度报告、监督检查、责任追究等制度，及时、准确地向社会公开政府信息。 （六）增强社会自治功能。 1.建立政府行政管理与基层群众自治有效衔接和良性互动机制。遵照法律规定，坚持城乡基层群众自治制度，扩大基层群众自治范围。建立健全各项民主制度和议事决策程序，引导基层群众有序参与，保障基层群众依法直接行使民主权利。积极支持基层群众自治组织的人民调解工作，预防和化解社会矛盾。严禁干预基层群众自治组织自治范围内的事情，不得要求基层群众自治组织承担依法应当由政府及其部门履行的职责。2.充分发挥社会组织的作用。积极培育和支持各类社会组织健康发展，发挥其提供服务、反映诉求、规范自律的作用。坚持培育发展与管理监督并重，引导社会组织加强自身建设，严格行业自律，规范从业行为。市县政府及其部门实施社会管理、提供公共服务，要鼓励、引导社会组织有序参与。3.营造依法行政的良好社会氛围。市县政府及其部门要大力加强法制宣传教育工作，把法制宣传作为依法行政的基础工程，促进社会法治氛围的形成。 三、加强领导，强化措施，为市县政府依法行政提供有力保障 （一）强化对市县政府依法行政的组织领导。要按照国发〔2008〕17号文件的要求，建立依法行政考核制度、行政问责制度、绩效管理制度，把依法行政纳入市县政府及其工作人员的政绩考核指标体系。对市县政府不履行依法行政的领导职责，导致本行政区域1年内发生多起严重违法行政案件，造成严重社会影响的，要依法追究该市县政府主要负责人的责任。省贯彻国务院《全面推进依法行政实施纲要》工作领导小组要加强对市县政府依法行政的指导和督促检查。 （二）市县政府要狠抓落实。市县政府要把推进依法行政工作摆上重要位置，主要负责人是第一责任人，要定期听取汇报，协调解决问题，狠抓工作落实。要抓紧制定具体方案，确定不同阶段的工作重点，有计划、分步骤地推进依法行政。市县政府法制机构要充分发挥职能作用，推进依法行政的统筹规划、综合协调、督促指导、政策研究和情况交流等工作。 （三）完善市县政府依法行政报告制度。市县政府每年要向本级人大常委会和上一级政府报告本地区推进依法行政工作，特别是对人民群众反映强烈的不依法行政问题的查处和整改情况以及下一年度推进依法行政工作的意见。市县政府部门每年要向本级政府报告本部门推进依法行政的情况。要逐步建立依法行政统计制度，及时掌握本地区依法行政进展情况，查找存在的突出问题和薄弱环节，并采取措施加以解决。 （四）加强市县政府法制机构和队伍建设。市县政府要保证政府法制机构设置、人员配备与工作任务相适应，保障法制机构正常开展工作的必要经费。要建立健全政府法制机构参与本地区重大涉法事项处理的制度。市县政府所属部门、乡（镇）政府要明确分管领导，并有专人负责政府法制工作。市县政府及其部门要进一步加大对政府法制干部的培养、教育、使用和交流力度。政府法制机构工作人员要切实增强责任感和使命感，不断提高推进本地区、本部门依法行政的能力和水平。 省政府各部门要带头依法行政，深入研究依法行政中的难点问题，加强对本部门、本系统依法行政工作的指导，并为市县政府依法行政提供支持。各地区、各部门依法行政工作中遇到的重要情况和问题，要及时报告省政府。']</t>
         </is>
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A193" t="n">
+        <v>129</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
           <t>中共济南市委办公厅济南市人民政府办公厅转发市委市直机关工委关于进一步深化创建机关党员先锋号的实施意见的通知</t>
         </is>
       </c>
-      <c r="D193" t="inlineStr">
+      <c r="E193" t="inlineStr">
         <is>
           <t>2010-02-23</t>
         </is>
       </c>
-      <c r="E193" t="inlineStr">
+      <c r="F193" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2010/2/23/art_2002_250302.html</t>
         </is>
       </c>
-      <c r="F193" t="inlineStr">
+      <c r="G193" t="inlineStr">
         <is>
           <t>['中共济南市委办公厅 济南市人民政府办公厅转发《市委市直机关工委关于进一步深化创建“机关党员先锋号”的实施意见》的通知', '市委各部委，市政府各部门，各人民团体，各高等院校： 《市委市直机关工委关于进一步深化创建“机关党员先锋号”的实施意见》已经市委、市政府同意，现转发给你们，请结合实际认真贯彻落实。', '为深入贯彻落实党的十七大和十七届四中全会精神，进一步加强和创新机关党建工作，更好地服务和保障全市中心工作，经研究决定，2010年在全市机关进一步深化创建“机关党员先锋号”，实施意见如下： 一、指导思想 深化创建“机关党员先锋号”，要以党的十七大和十七届四中全会精神为指导，深入贯彻落实科学发展观，按照市委部署要求和市委书记焉荣竹同志对机关党建工作重要指示精神，紧紧围绕全市“转方式、调结构、促增长、惠民生、保稳定”五项重点工作，把转变观念、提升境界，转变作风、提高效率作为出发点和落脚点，通过强化理论武装、建设学习型党组织，增强省会意识、转变机关作风，坚持执政为民、服务基层群众，夯实党建基础、建设一流队伍，推动工作创新、积极创先争优，努力在加强机关党的建设、服务全市工作大局、服务机关中心任务、服务基层和群众的各项工作中走在前头，为推动济南经济平稳较快发展和社会全面进步做出积极贡献。 二、目标任务 通过深化创建“机关党员先锋号”，进一步创新党建工作方式、拓展党建工作空间、丰富党建工作内涵、提升党建工作实效，充分发挥“机关党员先锋号”品牌的示范作用、导向作用和辐射带动作用，着力构建符合科学发展观要求的机关党建工作新体系，不断提高机关党建科学化水平，努力实现“六个走在前头”，有力促进市委、市政府中心任务和重点工作的完成。 （一）在强化理论武装、建设学习型党组织上走在前头。市直机关各级党组织要把学习贯彻党的十七大和十七届四中全会精神作为当前和今后一个时期的首要政治任务，周密安排、精心组织，狠抓落实、确保实效，为全市基层党组织做出表率；要坚持用中国特色社会主义理论体系武装机关党员干部头脑，积极开展社会主义核心价值体系教育，努力建设学习型党组织，不断提高党员干部队伍整体素质、增强创新能力，切实把学习成果转化为推动工作的正确思路和实际行动。 （二）在增强省会意识、服务科学发展上走在前头。深入学习贯彻全市经济工作会议和市委书记焉荣竹同志对机关党建工作重要指示精神，教育引导机关党组织和广大党员进一步强化省会意识、责任意识、机遇意识，进一步增强推动省会发展的紧迫感、责任感、使命感；大力弘扬“不怕困难、顽强拼搏，严谨细致、精益求精，勇于创新、争创一流，团结协作、无私奉献”的筹办全运精神，进一步解放思想、提升境界，改进作风、提高效率，做到思想上具备省会的境界、工作上树立省会的标准、作风上符合省会的要求、发展上体现省会的水平，努力把济南打造成全省乃至全国审批环节最少、服务意识最强、办事效率最高的城市之一。 （三）在做好群众工作、促进社会和谐上走在前头。牢固树立宗旨意识、公仆意识，认真贯彻党的群众路线，虚心向群众学习，热心为群众服务，诚心受群众监督；带头执行市委、市政府各项决策部署，深入做好组织群众、宣传群众、教育群众工作，团结带领群众落实好市委、市政府确定的目标任务；健全落实联系群众、服务群众制度，深入基层调查研究，了解群众疾苦，倾听群众呼声，切实办好顺民意、解民忧、惠民生的实事，认真解决与群众利益密切相关的热点、难点问题，努力化解社会矛盾，密切党群干群关系，在维护社会稳定、促进社会和谐中发挥机关的表率带头作用。 （四）在夯实党建基础、激发基层活力上走在前头。按照围绕中心、服务大局、拓宽领域、强化功能的要求，加强机关基层党组织建设，进一步理顺组织关系，优化组织设置，加强基层党组织领导班子建设，建立一套规范、科学、长效的工作运行机制，不断增强基层党组织的创造力、凝聚力、战斗力；坚持重心下移、服务基层，多考虑基层工作实际，多给基层自主权，鼓励基层党组织结合自身实际开展各具特色、富有创新的活动，不断激发基层党组织的生机活力。 （五）在提高党员素质、建设一流队伍上走在前头。从加强党的执政能力建设的高度，以提高机关党员整体素质为重点，抓紧抓好党员队伍建设，建立健全机关党员教育、管理、监督、服务长效机制，教育机关党员常怀忧党之心、恪尽兴党之责，激发保持先进性的内在动力，建设政治上靠得住、工作上有本事、作风上过得硬、人民群众信得过的高素质党员干部队伍；着力提高实践能力、工作执行力，引导机关党员干部把保持共产党员先进性体现到模范履行岗位职责、完成工作任务上来，在平凡岗位上提高能力水平，发挥先锋模范作用。（六）在创新党建工作、积极创先争优上走在前头。紧紧围绕全市工作大局，积极探索机关党组织和党员参与中心工作、服务科学发展的方式和途径，努力推进机关党建各个领域、各个层次的创新，不断提升机关党建服务中心工作的水平；广泛开展创先争优活动，不断激发机关党组织和广大党员的积极性、主动性、创造性，积极打造符合机关实际、具有时代特色、与中心工作合力同向的工作品牌，努力创造出在全市、全省乃至全国具有领先水平和广泛影响的一流工作业绩，使机关党的建设呈现出丰富多彩而又充满活力的良好局面。 三、工作安排 按照中央和省、市委的部署要求，紧紧围绕全市中心任务和重点工作，结合我市机关党建工作实际，2010年工委将重点抓好以下几项工作，推动创建“机关党员先锋号”深入开展。 （一）开展建设学习型党组织活动。坚持把思想建设放在首位，大力开展中国特色社会主义理论体系和社会主义核心价值体系学习教育，突出抓好党的十七大和十七届四中全会精神的学习，制定学习计划，明确具体要求，强化督促检查，抓好任务落实；健全和落实党员教育培训计划，积极探索现代化和个性化的教育培训方式，拓宽党员干部受教育渠道。工委将制定建设学习型党组织的意见，并通过定期举办辅导报告会、建立党员轮训制度、开设“党员大讲堂”、召开建设学习型党组织经验交流会等多种形式，大力营造重视学习、崇尚学习的浓厚氛围，推进学习的经常化、制度化、规范化。 （二）开展“执政为民、廉洁勤政”专题教育活动。以建设为民、务实、清廉机关为目标，扎实开展党性党风教育，组织引导机关党员干部着重围绕理想信念、宗旨观念、服务意识、工作作风等方面，认真查找和解决存在的突出问题，加强党性修养，弘扬优良作风，牢固树立正确的权力观、地位观、利益观，正确行使人民赋予的权力，切实做到权为民所用、情为民所系、利为民所谋；深入开展廉政教育，有针对性地开展示范教育、警示教育、岗位廉政教育，教育引导机关党员干部模范遵守党的纪律和国家法律法规，认真践行全心全意为人民服务的宗旨，切实做到廉洁奉公、勤政为民。工委将制定具体实施意见，推动教育活动扎实开展、取得实效。 （三）开展“走出机关察实情，走进基层办实事”活动。发动机关党员干部走出机关、走出办公室，走进工作一线、走进基层群众，深入了解我市经济社会发展实际，了解基层和群众生产生活实际，进一步增强推动科学发展、促进社会和谐的责任感和自觉性，进一步转变观念、转变作风，在察实情、出实招、办实事上下功夫；积极推行“一线工作法”、“零距离服务”等，组织机关党员干部深入我市重点工程、厂矿企业、社区农村，进行实地考察、现场办公、送技献策、业务服务等，更好地为经济社会发展服务、为基层群众服务。“七一”前夕，工委将组织开展“唱济南、赞变化”大家唱歌咏比赛，用自编自演的形式赞美济南发展变化，唱身边人、说身边事，激发机关党员干部爱济南、强省会、树形象、争一流的热情和干劲。 （四）开展“创新党建工作，激发基层活力”活动。围绕深入贯彻落实十七届四中全会精神，组织引导机关党组织紧紧围绕全市中心任务，紧密结合本单位业务工作，积极创新实践载体和工作抓手，在扩大党员参与面、提高实效性上下功夫；积极探索和推进制度、机制创新，加强机关党建工作科学化、制度化、规范化建设；以中央党校和中直工委今年在济召开“以改革创新精神推进机关党建走前头座谈会”、“构建科学体系、提高机关党建工作科学化水平研讨会”为契机，推动机关党建工作创新，宣传济南改革发展成果，进一步提升济南城市的良好形象。 （五）开展“城乡牵手结对、共建和谐泉城”活动。结合全市开展的“下基层、解难题、办实事”活动，发动机关党组织结合各自实际，与街道社区、乡镇农村建立对口共建联系点，积极开展多种形式的共建互助活动，实现互动互融、资源共享、优势互补、协调发展；继续深化“城乡互动、结对帮扶”活动，针对城市低收入家庭、农村困难群众、贫困失学儿童、残疾人和困难党员等群体，以支部、处室为单位确定帮扶对象，实行结对帮扶，开展走访慰问、送技下乡、“送温暖、献爱心”等活动，进一步体察民情、关注民生，维护社会稳定，促进社会和谐。 （六）开展“学先进、找差距，创一流、促发展”活动。在认真总结2009年创建工作的基础上，推出一批具有创新意义和示范作用的机关党建和业务工作品牌，评选表彰一批创建工作先进集体、先进个人，通过新闻媒体、简报、网站等媒介和召开经验交流会、研讨会等形式，宣传典型事迹，推广经验做法，大力营造创先争优、“比学赶帮超”的浓厚氛围；引导机关党组织和广大党员对照先进找差距、立足本职创一流，努力在服务全市工作大局、服务机关中心任务、服务基层和群众的各项工作中做出突出成绩，以实际行动争创“机关党员先锋号”。 四、组织领导 （一）提高思想认识，明确工作责任。各单位要把深化创建“机关党员先锋号”作为深入贯彻落实党的十七大和十七届四中全会精神和胡锦涛总书记关于机关党建要走在前头的重要指示精神的实际行动，作为落实市委、市政府工作部署，促进全市中心工作任务完成的重要举措，提高认识，高度重视。部门党委（党组）书记作为机关党建第一责任人要亲自抓，分管领导靠上抓，机关党组织抓落实，机关群团组织和有关处室分工协作、密切配合，形成创建工作齐抓共管的良好局面。 （二）精心筹划安排，积极探索创新。要紧紧围绕全市中心任务和重点工作，按照“六个走在前头”的目标要求，紧密结合本部门实际，研究制订本单位深化创建“机关党员先锋号”的具体实施方案；要把深化创建“机关党员先锋号”与开展“讲党性、重品行、作表率”活动和“创文明机关，做人民满意公务员”活动结合起来，努力形成为民、务实、清廉、高效的政风，充分发挥机关的示范带动作用；要积极探索、大胆实践、勇于创新，努力打造有特色、有影响、有成效的工作亮点和品牌，不断扩大创建工作的覆盖面和影响力。 （三）突出工作重点，务求创建实效。深化创建“机关党员先锋号”，要坚持以贯彻落实党的十七大和十七届四中全会精神为主线，把握好提高党的建设科学化水平的新要求，在服务中心、建设队伍上下功夫、做文章，使开展创建工作的过程，成为强化省会意识、转变机关作风、提升机关党建工作水平的过程，成为发挥机关党建服务保障作用、推动济南经济社会又好又快发展的过程；要立足客观实际，精心设计载体，突出实践特色，确保创建质量，努力让基层群众和社会各界满意。 （四）培养树立典型，加大宣传力度。要及时总结经验，注意发现、培养和推广典型，以点带面，充分运用各种宣传手段，广泛深入宣传创建“机关党员先锋号”的目的意义，充分调动机关党员干部参与创建的积极性，营造浓厚的创建氛围。组织开展各项活动时，要统一使用“机关党员先锋号”标识，增强创建活动的知名度和影响力。对创建工作中涌现出来的先进集体、先进个人和典型事迹，要加大宣传力度，推广他们的经验和做法，推动创建工作的深入开展。 （五）健全完善机制，提升创建水平。要把创建“机关党员先锋号”作为加强机关党的执政能力建设和先进性建设、提高机关党建科学化水平、发挥机关党组织和党员作用的长期工作来抓，立足长远，着眼当前，积极探索和建立符合科学发展观要求，推动创建“机关党员先锋号”科学化、长效化、动态化的组织领导机制、运行管理机制、表彰激励机制，使创建“机关党员先锋号”成为推动机关党建工作创新发展、始终走在前头的有效载体和有力抓手，不断提升机关党建工作水平，为推动我市经济平稳较快发展和社会全面进步做出积极贡献。']</t>
         </is>
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A194" t="n">
+        <v>129</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
           <t>市社多种方式开展科学发展观学习活动组织机关人员实地参观</t>
         </is>
       </c>
-      <c r="D194" t="inlineStr">
+      <c r="E194" t="inlineStr">
         <is>
           <t>2009-05-26</t>
         </is>
       </c>
-      <c r="E194" t="inlineStr">
+      <c r="F194" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2009/5/26/art_4115_2760759.html</t>
         </is>
       </c>
-      <c r="F194" t="inlineStr">
+      <c r="G194" t="inlineStr">
         <is>
           <t>['为进一步加强科学发展观学习活动效果，增强市社机关工作人员对市供销系统近年蓬勃发展的直观印象，4月22日，市社领导和机关全体工作人员实地参观考察了两个基层网点。', '此次活动采取边走边访边议的形式，先后参观了历城西营供销社超市和仲宫穆村供销社的综合服务中心，听取了相关负责同志的情况汇报。市社党委书记、理事会主任孔放充分肯定了西营、穆村供销社的惠农工作，并就下一步基层社如何开展好学习实践科学发展观学习活动、在工作中牢固树立科学发展的工作理念提出新要求。']</t>
         </is>
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A195" t="n">
+        <v>129</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
           <t>济南市人民政府关于支持人民政协履行职能的意见</t>
         </is>
       </c>
-      <c r="D195" t="inlineStr">
+      <c r="E195" t="inlineStr">
         <is>
           <t>2006-09-11</t>
         </is>
       </c>
-      <c r="E195" t="inlineStr">
+      <c r="F195" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2006/9/11/art_2078_251838.html</t>
         </is>
       </c>
-      <c r="F195" t="inlineStr">
+      <c r="G195" t="inlineStr">
         <is>
           <t>['各县(市)、区人民政府,市政府各部门: 为认真贯彻落实中央、省委、省政府和市委关于加强和支持人民政协工作的意见精神,更好地支持政协履行政治协商、民主监督、参政议政职能,促进政府决策的科学化、民主化,进一步推进我市物质文明、政治文明和精神文明建设,结合我市实际,提出如下意见: 一、进一步提高支持政协履行职能的自觉性 中国人民政治协商会议是中国人民爱国统一战线的组织,是中国共产党领导的多党合作和政治协商的重要机构,是我国政治生活中发扬社会主义民主的重要形式,在我国政治生活中具有不可替代的作用。各级政府、部门要深入学习贯彻《中共中央关于加强人民政协工作的意见》(中发〔2006〕5号)和省委、省政府以及市委有关指示精神,从完善我国基本政治制度、发展社会主义民主政治、构建社 会主义和谐社会的高度,从加强政府自身建设、提高行政能力和决策水平的高度,充分认识人民政协的重要地位和作用,切实支持政协履行职能,努力开创政府工作与政协工作互相支持、互相配合、互相促进的新局面。 二、认真搞好与人民政协的政治协商 各级政府要把政治协商纳入行政决策程序,把关系全局的重大决策的出台、政府工作报告、国民经济和社会发展中长期规划、城市总体规划、经济社会发展重大问题、重要的地方性法规草案、重大建设项目以及人民群众普遍关心的重要问题,作为政治协商的重要内容, 在决策之前和决策执行过程中与政协进行协商,征求政协意见。 为保证协商工作的顺利进行,政府各部门要加强与政协的联系与沟通。政府负责同志和有关部门负责人要积极参加各种协商会议,通报有关情况,认真听取政协组织和政协委员的意见和建议。重要的协商活动,政府主要领导同志参加,直接听取各界人士提出的意见和建议。政府各部门在制定工作计划,起草地方性法规、规章和出台重要改革措施时,应主动征询政协有关专门委员会的意见。 各级政府要重视协商意见的批办、督办和反馈工作。政协全体会议、常委会议、主席会议以及其他协商会议形成的《协商纪要》或《协商建议》,及时送政府领导同志阅批。对协商意见、建议的采纳落实情况,要及时予以反馈。 三、自觉接受人民政协的民主监督 各级各部门要高度重视和自觉接受人民政协的民主监督,并以此作为改进政府工作的有效形式。国家法律、法规的实施情况,国家大政方针的贯彻执行情况,国民经济和社会发展规划及财政预决算执行情况,政府机关及其工作人员履行职责、依法行政、廉洁勤政情况等,都要接受政协的民主监督。 各级政府及有关部门要主动向政协通报情况,拓宽民主监督的渠道。政府组成人员要参加有关的政协例会,直接听取政协委员对政府工作的意见和建议。政府组织的专项检查和调查活动,可视情邀请政协有关负责同志或政协委员参加。坚持和完善政协委员应邀担任政府部门特约监督人员制度。对政协建议案、提案、委员视察、委员举报、会议发言、民主评议以及其他形式提出的意见和建议,政府及有关部门要认真研究和积极采纳。对政协组织以书面形式提出的意见和建议,政府及部门负责同志要认真阅批,责成有关部门及时办理,以书面形式向政协反馈,并纳入政府和部门督查工作范围。建立政协民主监督交办事项工作责任制,并认真贯彻落实。 四、大力支持人民政协的参政议政 各级各部门要支持政协对经济社会发展中具有综合性、全局性、前瞻性问题以及人民群众普遍关心的重大问题开展调研、视察、考察等活动,认真听取和采纳政协提出的意见和建议。对涉及改革开放、现代化建设全局性的重大问题以及社会生活中的热点、难点问题,要主动邀请政协组织或政协委员参与咨询、听证、论证,或进行联合调研。对事关经济社会发展全局的重大课题,可委托市政协组织力量进行专题调研。 支持政协开展对外友好交往活动。政府组织的重要外事活动,可视情邀请政协有关领导同志、民主党派和工商联负责人参加。 五、进一步加强同人民政协的联系 各级政府要加强与政协的联系和沟通。要确定一名政府负责同志联系政协工作,并向政协常委会议通报本地国民经济和社会发展情况及重要工作部署。根据有关规定,邀请政协有关领导同志、政协专门委员会负责人出列席政府召开的相关会议。政协召开例会、开展重要活动,凡邀请政府及有关部门负责同志参加或通报情况的,应积极配合并认真听取意见。市政府办公厅要与市政协办公厅保持经常性联系,及时交流情况;坚持和完善政府职能部门与政协专门委员会对口联系制度,交流工作情况,开展联合调研。 六、切实抓好政协建议案、调研报告、提案和社情民意信息的办理和反馈工作 对政协全体会议、常委会议、主席会议提出的建议案,要送政府主要领导同志阅批,承办部门一般应在3个月内将办理情况向政协书面反馈,必要时可由承办部门在政协有关会议上通报落实情况。对政协专门委员会提出的调研、视察报告,有关部门应及时研究处理,并作出正式答复。 要高度重视政协提案的办理工作,重点提案由政府领导同志亲自阅批;需要几个部门、单位联合办理的重要提案,由政府分管领导同志或指定牵头部门协调、督促办理。提案承办单位要加强与提案人的联系,必要时可邀请提案人参与办理。承办单位对政协提案应及时给予正式答复,凡以党派、人民团体、政协专门委员会名义形成的提案,承办单位可先征求党派、人民团体、政协专门委员会意见,将办理意见由政府督查室督促办理,以政府办公厅(室)名义作出书面答复。政府每年向政协常委会议通报一次提案办理情况。 要善于通过政协委员反映的社情民意信息,了解不同阶层、不同群体的愿望和要求,密切政府与各界群众的联系。要畅通反映社情民意信息渠道,规范办理程序,明确办理责任。对事关改革、发展、稳定大局的重要社情民意信息和带有普遍性、趋向性、警示性的社情民意信息,政府领导同志要亲自阅批,并责成有关部门及时分析处理。对政协社情民意信息的办理、采纳情况,应及时予以反馈。 七、为人民政协履行职能创造良好条件 要积极推动各级领导干部和政府工作人员学习人民政协理论、政策,将人民政协理论、政策列入公务员培训内容和教学计划,积极开展人民政协理论与实践的研究。根据政协工作发展需要,不断改善基础设施和办公条件,切实解决工作经费问题,为各级政协组织和政协委员履行职能创造良好条件。 各县(市)区政府及有关部门要根据本意见,制定贯彻落实的具体实施意见。 济南市人民政府 二OO六年七月十九日 主题词:统战 政协 意见']</t>
         </is>
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A196" t="n">
+        <v>129</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
           <t>济南市人民政府关于印发济南市十一五教育事业发展规划的通知</t>
         </is>
       </c>
-      <c r="D196" t="inlineStr">
+      <c r="E196" t="inlineStr">
         <is>
           <t>2008-08-07</t>
         </is>
       </c>
-      <c r="E196" t="inlineStr">
+      <c r="F196" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2008/8/7/art_2612_2044845.html</t>
         </is>
       </c>
-      <c r="F196" t="inlineStr">
+      <c r="G196" t="inlineStr">
         <is>
           <t>['为实现我市教育事业快速、协调和可持续发展,使教育发展更好地适应我市现代化和全面小康社会建设的需要,促进社会主义物质文明、精神文明和政治文明建设,依据国家有关法律法规和《济南市国民经济和社会发展第十一个五年规划纲要精神》,制定我市“十一五”教育事业发展规划。 一、“十五”期间教育事业发展的回顾和现状 “十五”期间,我市提出并全面践行“让更多的人接受更好的教育”的理念,不断深化对教育体制、管理机制和教育过程的改革,全面贯彻党的教育方针,全面推进素质教育,全面提高教育质量,各级各类教育事业实现了健康协调发展。 (一)树立“让更多的人接受更好的教育”新理念,引领全市教育改革与发展。 “十五”期间,我市以科学发展观为指导,不断解放思想,提出了“让更多的孩子接受更好的教育”的发展理念。通过教育总体规模不断扩大,让“更多”的孩子接受教育,努力实现教育公平;通过优质教育资源存量不断增长,满足学生接受“更好”的教育的需求,努力提高教育质量。教育事业发展坚持了“以全面提高教育质量为总切入点,以全面改革创新为总要求,以全面加强管理为总抓手”的工作思路,形成了“常规工作抓改革,创新工作抓突破,全面工作抓管理,一切工作抓落实”的工作方法,构建了“中心提升、周边发展、城乡互动、优质均衡”的战略格局。 (二)各级各类教育事业协调发展,教育质量明显提高。 1.基础教育质量不断提高。“十五”末,全市学前儿童入园率市区达95%,农村达82%以上,农村学前入园率比“九五”末提高了12个百分点。各类残疾儿童入学实现了“零拒绝”,并实施免费教育,全市形成“以大多数残疾儿童到普通学校随班就读为主体、以市特殊教育学校为示范、以乡镇中心小学残疾儿童附设班为骨干”的办学格局,盲童、聋童、弱智儿童入学率分别达95%、96%、98%,比“九五”末分别提高了3个、1个、3个百分点。全市适龄儿童入学率、小学毕业生升学率、小学在校生巩固率全部达到100%,初中在校生巩固率达98.5%;全市初中毕业生升入高中阶段的比例达到89.29%,大大高于全省平均水平,比“十五”计划的85%提高了4.29个百分点。实施“膨胀名校”策略,扩大优质高中资源,普通高中在校生数持续增加,由“九五”末的5.59万人增至10.51万人,增幅达88%。普通高中与中等职业教育的在校生比例达56∶44,基本做到协调发展,高中阶段毛入学率达到77%。“十五”期间,有29处普通中小学被评为省级规范化学校,省级规范化学校的处数已达79所;52处幼儿园被评为省级实验示范幼儿园,2所幼儿园成为山东省十佳幼儿园;2个区被评为省级教育工作示范县(市)区,35个乡镇被评为市级教育工作示范乡镇。 2.职业教育规模、档次、效益、质量等方面有了较大提升。适应劳动力市场需求整合发展职业教育。确立了“定位准、办法活、盯市场”的职业教育发展新思路,整合职业学校布局和专业,城乡职教联动,跨区域合作。中等职业学校由“九五”末的106处调整为“十五”末的86处,专业开设总数由329个调整为112个,其中30个专业确定为重点发展的专业。中等职业学校在校生近10万人,占整个高中阶段在校生的比例达到44%。中职升高职的比例达到20%,毕业生“双证书”考核达标率95%,毕业生就业率达到90%以上。17处职业中专被评为国家和省级重点职业中专,5所学校被评为省级教学示范学校,6所学校、16个专业进入全省“十、百、千”工程。 3.地方高等教育规模不断扩大。民办高校实行属地管理体制,中等师范学校改为“五年制”师范教育,高等职业教育资源得到有效整合,成立了济南职业学院和济南工程职业技术学院,新办了8所学历教育民办高职学院和23所非学历教育民办高校。市属高校由“九五”末的4所,在校生不足1万人,发展到11所,在校学生超过3.7万人。 4.成人教育事业不断发展壮大。全市职工全员培训率达58%,职工教育初步形成了“立体化、多元化、全程化、规范化”的企业教育体系,建成14处行业教育中心、30处大中型企业教育培训基地,全市累计培训职工450万人次,比“九五”期间增加了18万人次。社区教育有了实质性的突破,有5个区成为省级社区教育实验区,占全省首批实验区总数的1炖3,2个区被评为国家级实验区。市内5区85%的街道(乡镇)建立社区教育中心学校,有社区学院3处、社区教育中心77处、社区教学站364处、社区教育覆盖率达70%,社区教育累计培训街道居民156万人次,进城务工经商人员34万人次,下岗待岗职工1.5万人次。农村成人教育由扫除青壮年文盲转移到对剩余劳动力的培训,培训量达到490万人次,92个乡镇建立成教中心,其中35处达到市级教育示范标准,有2600余名村级干部参加学历培训,6万余名农民接受“绿色证书”培训。“十五”期间全市参加成人高等学历教育10万余人,参加成人中等专业教育4万余人,高等教育自考专业已增加到85个,自考报考数达到123万人次,271万科次,共有22755人通过自考取得大专以上学历证书。 5.民办教育有了新的增长。“十五”末,全市共有民办教育机构518所,比“九五”末期的376所,增加了142所,其中:民办学历和非学历教育高校31所,民办中等学历教育学校14所,初等学历和非学历培训学校473所,共开设专业门类73个,年培训能力达到12万人次。 6.教育外事工作不断得到深化。“十五”期间,累计派出各类团组117个,赴国外及港澳台地区进行教育交流活动1366人次;接待国外及港澳台地区各类教育考察团组107个,计1681人次。全市外籍教师聘请资格学校增至29所,在济工作的外籍教师达70多人。接受外国中小学生资格学校18家,现有60多名来自美国、日本、韩国及港台地区的中小学生在济就读。 (三)深化教育体制、教育过程、教育评价和招生考试制度改革,全面提高教育质量。 1.深化教育管理体制改革。“以县为主”的教育管理体制得到了不断完善,农村县(市)区教师工资全部实现统发,教师工资和中小学公用经费有了明显增加,教学条件进一步改善,拓展优质教育资源,教育资源配置得到优化。市区基本实现小学、初中一体化管理,“九年一贯”制的学区管理进一步加强。职业教育有了新的突破,基本实现了市级统筹,协调发展。 2.改革教育评价和招生考试制度。小学全面推行了等级制评价制度,建立了以成长记录为主要内容的学生素质发展报告单使用制度。不断改革高中阶段招生考试办法,扩大第一批次录取学校数量,改进高中指标生招生录取办法,增加学生综合素质评价和实验操作能力,对部分职业学校部分专业实行免试录取,收费实行票款分离。 3.不断深化教学改革,全面启动并推行基础教育新课程改革实验。“十五”期间,在加强学习型、专业型、服务型教科研队伍建设基础上,坚持“抓评价、促改革;抓课改,促创新;抓管理,促质量;抓建设,促发展”的工作主线,努力做好课程改革、课程资源开发、教育评价、校本教研制度建设、考试改革研究、教师和校长的专业成长等工作。实施“农村教育振兴行动”,加强了农村学校的教学研究和管理,开展了“百校牵手”、“教育志愿者”、“支教支校”、“名师义教”等活动,使更多的农村学生享受到优质的教育。 4.加强学校德育,提高德育的实效性。出台了一系列关于加强和改进中小学生思想道德建设和校园文化建设等文件规定,对中小学德育工作提出了明确的要求。创新中小学德育内容和方法,构建富有实效性的德育序列化体系,加强德育课程建设,济南市经过审批的校本德育课程已达149门。加强德育队伍建设,实施全员育人,重点加强班主任队伍建设。强化环境育人,开展“校园文化建设年”活动,为学生创设理想的成长环境和发展空间。 5.各学段的教学质量稳步提高。小学毕业生合格率已达到100%,初中毕业生合格率达到98%以上,高中毕业会考合格率达到91.2%以上;中小学生体育锻炼标准达标率为95.99%,优秀率25.05%,比“九五”末分别提高了1.2和3.5个百分点,“体质健康标准”及格率为98%,优秀率34%;2005年全市普通高考录取率达到83%,高于全省平均水平11.16个百分点,比“九五”末提高了5个百分点,其中本科录取率达到30.7%,高于全省平均录取率2个百分点。每年高校保送生人数占全省保送生人数的一半以上。高等教育毛入学率达到27.5%。“十五”期间,学生在各类学科竞赛中,获得国际金牌9人、银牌18人、铜牌38人。获得全国一等奖1074人,二等奖1791人,三等奖2378人;获得省级一等奖1542人,二等奖2209人,三等奖2648人。获奖的人数及获奖等次居全省之首。 (四)加强教师队伍建设,着力于促进教师专业化发展。 通过实施“双百工程”、“名师建设工程”、“农村教师素质提高工程”、“师德教风建设”、“教师学科素质大赛”等,采取学历教育、校本研修、教师论坛等多种形式,做好师资培养培训工作,基本完成了历史遗留下的中小学教师学历补偿教育任务。各类学校教师学历达标率均高于全省平均水平,位于前列。“十五”末,小学、初中、高中教师的学历达标率分别达到98.67%、93.91%、94.37%,比“九五”末期分别提高了2.41、8.84、12.17个百分点,我市小学教师专科以上学历的达到48.16%,初中教师本科以上学历的达到49.61%,比“九五”末期分别提高了30.25和28.01个百分点。“十五”期间,全市中小学有3.5万余名教师、1600余名校长、200余名教育行政干部接受省级以上的培训,256名教师获国家优质课奖励,241名教师获省级奖励,12人被确定为齐鲁名师培养人选,89人被确定为济南名师培养对象,70人被授予市级以上各类荣誉称号。选派了778名骨干教师赴加拿大、澳大利亚、美国等国外基地和北京、上海培训。职业学校专业教师中“双师型”教师占到了74%。 (五)多渠道增加教育投入,办学条件有了明显的改善。 教育经费稳定增长,以政府财政拨款为主,多渠道筹措教育经费的机制基本形成。2004年,全市地方教育经费总支出为27.9亿元,财政预算内教育经费支出14.17亿元,财政性预算内教育经费支出占财政支出的16.48%;教育费附加的征收和使用有力缓解了教育经费不足。2001-2004年全市财政性教育投入累计达56亿元,可比口径年递增15%。教育投资效益明显提高,“资金跟着项目走”成为教育投入的主要依据原则。全市教育经费安排实行了“部门预算”,有力地支撑了各项教育事业重大发展决策的执行。“教育资产增值项目”的实施,使教育资产得到了二次利用,发挥了现有教育资源的作用。 办学条件得到了明显改善。“十五”期间,全面实施了以迅速扩大优质教育资源为出发点的“五个一”教育资源优化升级工程和中小学危房改造工程,营造了全面提升、重点优化、校校升级的新局面。全市校舍面貌发生了历史性变化,城镇学校新征土地3930亩,新建校舍面积286.28万平方米,校舍改造累计总投资19.3亿元,其中修缮费6.9亿元,基本建设费12.4亿元。“十五”期间我市教育技术装备得到了较快发展,目前,我市各类功能实验室有6229个,配备教学仪器设备资产总额达7.36亿元;图书馆(室)2119个,学生和教师图书共计1305.85万册,新增图书450余万册;配备微机5.5万台,师机比4.6∶1,生机比14.8∶1,800所学校拥有校园网,其中“十五”期间新建校园网731个,全部开设信息技术课。有7个县(市)区和全部的市直属学校通过省级实验教学普及督导评估验收,市中区在全省率先完成了“普实”任务。市区中小学实验室及教学仪器、音体美器材和图书资料配备全部达到国家一类标准,部分农村中小学也达到国家一类标准。全市基本完成了第一轮中小学布局调整任务,初中学校处数由“九五”末的245所调整为现在的203所,小学处数由“九五”末的1273所调整为889所,农村初中基本实现了2-3万人设一所学校的要求,市区中小学结构布局调整,紧紧围绕省会城市的开发建设,新建了一批高标准现代化学校。 (六)加快农村教育改革,关注弱势群体,促进教育均衡发展。 启动并实施了农村教育振兴行动计划,投资1.41亿元,消除农村中小学危房,投资4000余万元,解决14万农村中小学生自带课桌凳、购置微机教学设备等问题。对贫困学生实行“两免一补”,大力实施“爱心助学”工程。章丘市和历城区全部免除了农村义务教育阶段学生杂费。全市对城市低保家庭和农村家庭经济困难的学生免除了“一费制”所有费用。共减免农村中小学生费用3386万元。近年来全市用于资助贫困学生的资金累计达2790.98万元,受益学生达105541人。解决了外来务工就业人员子女就学问题,在全国率先取消借读费,设立了招收外来务工人员子女的专门学校,明确了定点学校。在特殊教育方面投资1800余万元把特教中心打造成为全国有影响力的特教学校,各县(市)区也重点办好一处适应当地需求的特教学校,对残疾学生全部实施免费教育。重视民族教育的发展与建设,近年来投资3000余万元,先后对20余所民族学校进行了新建或扩建,并设立少数民族教育专款,在招生中对少数民族考生实行加分录取的优惠政策。 “十五”期间,我市教育事业有了很大发展,但还存在着诸多矛盾和问题:一是各级各类教育事业发展和人才培养的基础设施配备不够,优质教育资源总量还不能满足省会城市现代化建设需要,城乡之间、区域之间、校际之间教育发展不够均衡;二是巩固提高“双基”的任务还相当重,同时还面临着高质量普及高中阶段教育的繁重任务,职业教育特别是农村职教与全国全省职教会的要求还有一定差距;三是随着城市建设不断加快,大量住宅小区开发建成后,教育配套设施建设滞后,使新建小区适龄儿童入学难问题日益突现;四是各项教育改革的力度、深度、广度不够,学校内部管理体制改革没有真正有效地全面展开;五是教育经费投入总量不足,特别是农村教育的投入明显不足,教育投入“三个增长”还不能依法确保,“以县为主”的农村义务教育管理体制有待于进一步加强;六是农村义务教育学生流失状况不容忽视,保持“两基”达标和控辍任务相当艰巨;七是民办教育的发展有待规范,民办教育风险的防范机制有待健全。 二、“十一五”教育事业发展环境分析及其对教育需求 “十一五”是全面建设小康社会和构建和谐社会的关键5年。教育事业既承担着极为重要的任务也面临着一系列严峻的挑战。从国际环境看,和平、发展、合作成为当今时代潮流,经济全球化进程不断加速,科技进步日新月异,世界经济进入新一轮增长期,全球产业结构调整与产业转移继续推进,为教育的改革和发展提供了更为广阔的外部空间。国内环境面临着入世过渡期的结束,国内经济结构、产业结构、技术结构快速变革增长,教育市场进一步对外开放,教育的布局结构、人才培训模式、教育规模质量的定位应尽快主动适应这些变革。教育事业发展在构建新的教育体系、课程体系、评价体系、管理体制等方面面临着诸多挑战。 “十一五”期间,国际、国内的环境变化也给我市教育改革和发展带来许多机遇。一是经济增长方式的转变,产业结构层次的优化升级,市场需求结构的变化,市场竞争的加剧,对人才数量层次、人才结构提出了新要求,为教育改革创造良好条件。二是随着城乡居民收入水平的进一步提高,消费结构将加快升级,教育普及和文化体育消费的速度加快、层次提高,对教育的多元化、多样性发展提出了新要求。三是城市建设进一步发展,城镇化进程加速,未来5-15年城市面积和城市人口将翻一番,城市文明将加速普及,农村生产方式、生活方式、组织方式将发生深刻变化,城乡二元结构逐步向城乡一体化转变,全市教育布局结构调整,农村教育城市化进程有着广阔的空间。四是随着社会结构转型的加快,构建社会主义和谐社会和创造学习型社会,对教育的内涵、外延以及责任要求有了新的变化,教育发展必须构建良性运行的“大教育”格局。五是社会改革开放的深入,资源节约与生态型城市的建设,工业产业调整,社会保障和劳动就业保障体制建立,城乡和谐社会的协调发展,社会主义新农村的建立,维护社会公平,消除教育的贫富差距,实现均衡发展,这都为教育持续发展提供了新的活力和后劲。因此,“十一五”期间,我市教育要在人才培养的规格、结构、数量和质量上,满足“实现新跨越,建设新泉城”的需要,特别是高层次创新人才和面向生产服务和管理第一线的高技术实用人才的培养要满足现代化省会城市建设的需要。 三、“十一五”教育发展的指导思想和工作原则 (一)指导思想。 以邓小平理论和“三个代表”重要思想为指导,全面贯彻党的教育方针,全面实施素质教育,深入落实“科教兴市”和“人才强市”战略,把人口压力转化为人力资源优势。以科学发展观统领全局,深化教育体制改革,加快教育结构优化调整,建立加大教育投入机制,强化政府对义务教育的保障责任,巩固普及义务教育和高中阶段教育、振兴农村教育,大力发展职业教育、加强高等教育、发展成人教育。着眼于提高教育为现代化建设服务的整体功能、着眼于大教育体系的建立、着眼于提高全民受教育水平、着眼于全面提高教育质量和办学效益、着眼于促进教育创新,着眼于学习型城市的建立,主动适应我市经济和社会发展对各级各类人才和劳动力需要,基本形成各级各类教育结构合理、相互衔接和沟通、现代化水平较高的终身教育体系。 (二)工作原则。 1.坚持教育统筹发展的原则。大力实施“科教兴市”战略和“人才强市”战略,坚持以人为本,树立全面、协调、可持续的教育发展观和人才观,按照统筹城乡教育发展、统筹区域教育发展、统筹教育与经济社会发展、统筹市内外教育发展,实施“中心提升、周边发展、城乡互动、优质均衡”策略,从实际出发、统筹规划、突破重点、分类指导,促进各级各类教育持续、健康、协调发展。 2.坚持教育优先发展的原则。坚持教育优先发展战略,充分发挥教育在全市国民经济和社会发展中的作用,把握好教育发展的速度与节奏,推动经济体制和经济增长方式两个根本性转变,实现教育与经济的密切结合,更好地为我市改革开放和现代化建设服务。根据新一轮城市发展规划、经济结构、区域布局、农村乡镇一体化和城市开发建设重点,进一步调整和优化教育布局结构,合理配置教育资源提高办学效益。 3.坚持均衡发展、可持续发展的原则。进一步巩固成果,深化改革,提高质量,实现教育可持续发展。要正确处理好各级各类教育发展之间的关系,高度重视农村基础教育、职业教育、特殊教育的发展,坚持规模、结构、质量、效益协调发展的方针,在数量与质量的关系上,更要注重质量;坚持发展与提高并重,既要扩大教育规模,拓展教育空间,提高全民受教育水平,又要重点建设好一批高水平的示范性学校,发挥在全市和全省教育改革和创新中的带动作用。 4.坚持积极稳妥推进的原则。要正确处理好教育发展、改革与稳定的关系。坚持“教育要面向现代化、面向世界、面向未来”,始终以改革促发展,强化省会意识,努力形成重点发展、全面发展、均衡发展的新格局。调动一切积极因素,深化教育体制、教育理念、课程内容、教学方法和人才培养模式的改革,建立主动适应市场经济和和谐社会建设需要的新教育体制和体系;同时,改革和发展都要以稳定为前提,要从国情、市情的特点和经济实际支撑条件出发,坚持社会主义的办学方向和培养目标,科学确定教育发展速度和规模,维护政治安定和社会稳定的大局。 四、“十一五”教育发展的总体目标和主要指标 (一)总体目标。 到2010年,要建立起与省会城市和学习型城市基本相适应的比较完善的国民教育体系和终身教育体系,基本实现基础教育现代化,全民受教育水平明显提高,全市15岁及以上人口的平均受教育年限由“十五”末的9.4年提高到12年以上;城乡劳动者的职前、职后教育有较大发展,新增劳动力普遍达到高中以上学历水平;各类专门人才拥有量基本适应省会城市现代化建设的需要,每万人中拥有大专以上学历的达到1300人左右,比“十五”末提高约400人。适龄青年高等教育毛入学率达到50%,保持全国发达地区的较高水平。不断加大教育投入,“十一五”末,财政性教育经费占本市国民生产总值的比例力争达到或接近4%。基本建成基础、职业、成人、高等教育相互衔接、相互沟通、相互促进的发展格局。 (二)各级各类教育发展的主要指标和任务。 1.小学和初中适龄儿童入学率保持在100%,小学巩固率保持在100%、初中巩固率保持在99%以上;全市普及学前一年教育,城市和农村3周岁以上幼儿入园率分别达到98%和85%以上;重视发展特殊教育,继续保持特殊教育与九年义务教育同步发展。各级各类学校基本达到国家和省规定的设学标准。城市新建小区要按照规定要求同步配套建设中小学校、幼儿园,并按省定设学标准设计建设。市区进一步完善学区九年一贯制,农村进一步落实以县为主的管理体制,逐步实行乡镇或学区初中小学一体化管理。 2.进一步普及高中阶段教育。普通高中教育和中等职业教育协调发展,优化普通高中的办学规模、提高办学质量,大力发展中等职业教育。“十一五”末初中毕业生升入高中阶段的比率达到92%以上,高中阶段毛入学率达到90%,普通高中和中等职业学校的在校生比基本保持在1∶1。全市国办普通高中全部达到省级规范化学校标准。争创3-5所示范高中。全市三分之一的职业学校要达到国家级重点职业学校的标准;其他职业学校达到省级重点职业学校的标准;力争有1处职业教育实训基地、10所职业学校、30个具有特色的示范专业进入全省职业教育“十、百、千”工程。中等职业学校毕业生升入高等职业学校的比例超过30%以上。 3.高质量地发展高等教育。加强市属高等学校建设,支持驻济高校建设,扩大市属高等教育规模,提高办学水平,办出地方特色。充分利用驻济高校的高等教育资源,提高市属高等教育质量。4.重组并优化配置成人教育资源,大力发展社区教育,多种形式办学,以满足市民对各种形式、规格、层次教育的需求。加强学习型、和谐型社会建设,促进市民社会文化素质的明显提高,全市从业人员的平均受教育年限增加2-3年。进一步扩大农村成人教育的规模、培训层次,更加适应建设社会主义新农村的需求。 5.积极鼓励和支持社会力量以多种形式办学,完善我市的民办学校设置审批和管理制度,重点发展10到20所具有示范和带动作用的民办学校。 五、“十一五”教育事业发展的工作重点 (一)大力推进农村教育振兴,促进教育公平、均衡、优质发展。 推进《2005-2007年济南市农村教育振兴行动计划》的实施,促进社会主义新农村的建设。加快发展农村教育事业,巩固普及九年义务教育的成果。2007年对农村义务教育阶段学生全部免除杂费,加大对贫困家庭学生提供免费课本和寄宿生活费补助的比例(简称“两免一补”)。重点解决好农村教育发展中的农村学校建设、农村学校校长和教师素质、农村学生就学的问题。进一步完善“以县为主”的农村义务教育管理体制,充分调动县乡办学积极性,完善农村中小学教育发展的保障体制。设立专项资金,加强农村中小学的教学设备仪器和图书馆建设,“十一五”期间农村中小学的教学仪器全部达到国家一类以上配备标准。振兴农村教育,加大对薄弱学校的改造力度,促进城乡教育公平、均衡、和谐发展。 (二)以推进新课程改革为中心,加强教学研究和教育科研,全面提升基础教育的质量。 全面推进新课程改革,构建富有特色的素质教育课程体系,建立和完善科学的课程审查机制和教材选用机制,推进符合课程改革精神的课堂教学模式。改革评价与考试制度,注重评价内容的多样化和评价主体的多元化,完善学生综合素质评价和学业成绩评价制度。建立“按需服务、分类指导”的教科研工作模式,完善科学有效的教育质量监控制度和检测手段。积极开展校本研究,普及先进的教育理论,创造和推广优秀的教育改革经验和成果,推进教育教学领域的整体改革,促进校长和教师的专业化发展,促进学校和谐快速发展,促进教育质量的全面提高。 (三)加强学校文化建设,努力提高中小学生思想道德建设的实效性。 实施中小学教师德育素质工程,改革中小学生的评价激励机制,积极推进学校与社区、家庭教育结合,加强素质教育基地建设,充分发挥各类校外基地的育人功能。进一步发挥科技、体育、艺术、卫生、国防教育、心理健康教育的育人功能,引导学生积极参加社会实践活动,充分发挥共青团、少先队组织和班主任队伍在教育过程中的作用。加强学校文化建设,让学校文化充满生命力和活力,富有感染力、号召力和凝聚力,培养学生的科学精神、创造思维,在中小学生中形成崇尚科学、追求真理、学会创造、破除迷信、思想活跃、实践能力强的良好风气。积极而科学地推进学校心理健康教育,建立完善高效的学生心理辅导体系。各级各类学校全部推行教育部、国家体育总局制定的《学生体质健康标准》(试行办法),在城市学校(学区)中,推广使用智能化监测仪器,建立学校(学区)学生体质健康监测中心。 (四)大力发展职业教育,增强教育服务于经济和社会的功能。 贯彻落实全国、全省职业教育工作会议精神,进一步建立和完善适应社会主义市场经济体制要求,满足人民群众终身学习需要,与市场需求和劳动就业紧密结合,校企合作、工学结合、产学研结合,结构合理、形式多样、灵活开放、自主发展的现代职业教育体系。继续完善“政府主导、依靠企业、充分发挥行业作用、社会力量积极参与、公办与民办共同发展”的多元办学格局和“分级管理、以市为主”的管理体制。加大全市职业教育的统筹力度,每个县(市)区至少建成一所设施完善、特色鲜明、在校生规模达到3000人以上的职教中心。 加强全市职业教育基础能力建设,不断提高职业教育的综合实力。每个县(市)区建设规模适当、功能齐全的中等职业教育实训基地。加强示范专业建设,构建一流水平的示范专业体系。推动职业学校与企业的密切结合,实施校企合作计划。以就业为导向加强实践性教学,强化学生专业技能培养,加强职业指导和创业教育,建立和完善毕业生就业和创业服务体系。 全面启动实施济南市“农村职业教育振兴五个一工程”。每年提升一所设施完善、特色鲜明、年招生1000人以上、在校生规模超过3000人的示范性中等职业学校;创建一处设备先进、管理规范、资源共享、开放的示范实训基地;培训100名高水平“双师型”专业教师;县(市)区各提升一个具有全市一流水平的示范专业;开展一次大型的专业技能展评活动。 (五)优化整合成人教育,突出地方高等职业教育特色,提高办学水平和教育质量。 创新成人教育工作体系。以学习型企业创建工作为重点,推进企业职工教育新发展,以开展农村劳动力转移培训为重点,推进农村成人教育新发展,以基础建设和主题活动为重点,推进社区教育新发展,以调整、优化成人中专为重点,推进成人中等学历教育新发展。积极创建全国社区教育示范区。农村成人教育由扫除青壮年文盲转移到加强对农村转移劳动力的培养上,重点进行实用技术的培训。积极鼓励重点行业、企业教育中心的发展,推进我市学习型家庭、学习型社区、学习型企业、学习型乡镇、学习型城市的建设。 促进市属高等教育资源与驻济高校资源的统筹协调发展和利用。着眼于主动适应我省城市现代化建设和省会新一轮发展需要,对高等教育的发展进行合理定位,整体规划,集中力量,重点扶持。加大教育投入,加强市属高等学校建设,支持西部大学城和东部高职教育聚集区建设。提高济南师范等学校的办学层次和教育质量,积极发展现代远程教育,加强对济南职业学院等院校和驻济民办高校高职院校的管理。逐步建立科学的教学保障体系、管理监控机制和充满活力的运行机制。积极支持高校发展重点学科,打造精品专业,加强校企联合,拓展实验实训基地。 (六)推进教育体制改革,发展民办教育,开展国际交流与合作。 积极稳妥地推进教育体制改革,重点进行办学体制和学校内部管理体制、人事制度等方面的改革。大力发展民办教育,重点发展非义务教育阶段的民办教育,进一步规范对民办学校的监管,完成《济南市民办教育促进法实施办法》的修订,探讨民办教育防范风险的预警机制,明确举办者的经费来源、产权归属、法律责任等关系。加强对民办学校的办学方向、教育方针、教学质量、依法办学进行监督。积极贯彻《中华人民共和国中外合作办学条例》,拓宽国际交流与合作领域,积极支持有条件的学校与国外优质教育资源建立合作关系或开设国际班,研究组建济南国际学校,主动适应我市对外改革开放的需要。 六、“十一五”教育事业发展的保障措施 (一)进一步强化政府责任,落实教育优先发展的战略地位。 各级政府要认真落实教育法律法规,切实把教育作为先导性、全局性、基础性的工作,摆到优先发展的战略重点地位,把教育纳入城市发展和现代化建设的整体布局之中,列为国民经济和社会发展的重要内容,抓紧抓好。各级政府主要负责人,要定期深入学校调查研究,解决教育改革与发展中遇到的困难和问题。要建立教育工作责任人制度,加强对教育工作的督导。 (二)强化法治与监督,坚持依法治教。 不断完善教育工作的法规、规章建设,依法推进教育事业发展,依法深化教育改革,依法维护教育者和受教育者的合法权益,依法规范教育和办学行为。 各级政府教育督导部门应进一步建立健全教育质量和素质教育的评估机制。继续完善教育督导制度,加强与完善教育执法队伍和制度建设,规范教育市场的有序竞争,构建中小学、幼儿园办学水平监控体系,加强对农村教育和民办教育的督导评估,推动各级各类教育均衡优质发展。重点推进“以县为主”的农村义务教育管理体制的落实,调整县、乡财政体制和支出结构,将中小学教职工工资全额纳入县本级财政预算,实行教职工工资统一标准、按时足额发放,解决农村中小学公用经费不足的问题。 (三)切实增加各级财政对教育的投入,加强教育税费征管工作。 各级政府要认真落实已颁布实施的筹措教育经费的各项法律法规和政策,落实《中华人民共和国教育法》规定的“三个增长”。“十一五”末,财政性教育经费占本市国民生产总值的比例力争达到或接近4%。逐步提高市和县级财政支出中教育经费所占的比例。在保证正常教育事业费和基建投资逐年增长的前提下,加大对教育重点项目的投资。预算外教育统筹部分全部返还教育。建立和完善与公共财政体系相适应的财政投入保障的长效机制,教育费附加安排用于职业教育的比例不低于30%。建立和完善政府对家庭经济困难学生资助的长效机制,逐步提高“两免一补”的比例和数额。到2007年农村义务教育阶段在校生全部享受免除杂费,“十一五”末86%的义务教育阶段在校生享受免除书本费,50%住校生享受补助生活费。高中阶段在校生享受“两免一补”的比例达到30%。逐步提高预算内生均公用经费水平,到2010年,农村义务教育阶段在校生预算内生均公用经费,小学达到或超过80元,初中达到或超过120元。加强对城、乡教育税费的征管工作。征收的教育税费要及时拨付教育行政部门,主要用于义务教育的发展。城市教育费附加和地方教育费附加要按标准足额征收。继续鼓励社会、个人和企业投资办学和捐(集)资助学。切实加强教育经费管理工作,提高经费的使用效益。进一步加强教育内部审计工作。 (四)全社会形成合力,以高度责任感共同关心支持教育事业的发展。 贯彻落实全国、全省职业教育工作会议精神,推动全市职业教育规模化、集约化、连锁化办学。各级政府和各职能部门要各司其职,与教育系统紧密配合,关心、支持和参与教育的改革与发展。企事业单位和社会各界要欢迎、支持学生参加生产实习和社会实践活动,并提供必要的条件,年销售收入亿元以上或就业人数500人以上的企业,都要至少确定一所中等职业学校作为校企合作的伙伴。要加强社会综合治理和文化建设,坚决抵制各种封建迷信、腐朽思想文化对青少年的毒害;加强社区建设,积极创造有利于青少年健康成长的家庭、邻里和学校周围环境。加强学校管理,完善学校安全工作防范体系,落实安全责任制。积极推行劳动预备制和职业资格证书制度,实行“先培训,后就业,先培训,后上岗”的就业准入制度,拓宽就业渠道。 (五)创新管理体制,建设高素质、高水平的教育干部和教师队伍。 进一步深化干部人事制度改革,着力实施“名校长”、“名教师”培养工程,切实做好人才培养、引进和使用三个环节。在干部任用、教师聘任和分配制度等方面有所突破,健全充满活力的人才激励机制。依法全面实施教师资格制度,加强教师编制管理,调整优化教师队伍结构,实施“教师优岗计划”,合理配置教师资源,促进教育事业均衡发展。实施“名师建设工程”,创新优秀教师脱颖而出的机制和环境,建立市特级教师、首席教师和教学成果奖励制度,在全市遴选100名骨干教师和学科带头人,通过5年培养培训,使他们在政治思想与职业道德、专业知识与学术水平、教育教学能力与教育科研能力等方面大幅度提高,逐步成长为学者型、专家型的济南名师。全面深化聘用(任)制度,加强聘后管理,不断完善教师专业技术职务评定、聘任、分配和人才流动机制。按照“按需设岗、公开招聘、平等竞争、择优聘任、严格考核、合同管理”的原则,实行教师聘任制度。结合教师资格制度的实施,面向社会招聘教师。实行教职工告诫制度。推进教师继续教育和培训制度的改革,推进县级教师培训资源整合,提高教师培训的质量。成立济南市教师学习与资源中心,建立中小学师训干训基地,实现教师职前培养与职后培训一体化。力争有3至5所县级教师学习与资源中心进入全国示范性县级教师学习与资源中心。加强职业学校“双师型”教师队伍建设,“双师型”教师必须达到专业教师总数的90%以上。建立和完善教师考核、督导制度,创造条件推行校长职级制,促进校长和教师的专业化发展。创新干部培训和党建工作模式,提高各级教育干部的管理水平。 百年大计,教育为本。要实现全面建设小康社会、构建社会主义和谐社会的奋斗目标,必须坚持实施“科教兴市”和“人才强市”战略,把教育摆在优先发展的地位。坚持以邓小平理论和“三个代表”重要思想为指导,以科学发展观统领教育事业发展,努力实践“让更多的人接收更好的教育”理念,使教育事业为“实现新跨越、建设新泉城”做出应有的贡献。']</t>
         </is>
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A197" t="n">
+        <v>129</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
           <t>中共济南市委济南市人民政府关于促进服务业发展的若干意见</t>
         </is>
       </c>
-      <c r="D197" t="inlineStr">
+      <c r="E197" t="inlineStr">
         <is>
           <t>2007-07-31</t>
         </is>
       </c>
-      <c r="E197" t="inlineStr">
+      <c r="F197" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2007/7/31/art_2064_251406.html</t>
         </is>
       </c>
-      <c r="F197" t="inlineStr">
+      <c r="G197" t="inlineStr">
         <is>
           <t>['为进一步优化服务业发展环境,促进我市服务业加快发展,根据《中共山东省委、山东省人民政府关于进一步促进服务业发展的若干意见》(鲁发〔2006〕14号)和《济南市国民经济和社会发展第十一个五年规划纲要》精神,结合我市实际,特制定以下意见。 一、充分认识加快服务业发展的重要意义 服务业是国民经济的重要组成部分,服务业的发展水平是衡量现代社会经济发达程度的重要标志。加快发展服务业,提高服务业在三次产业结构中的比重,使服务业成为国民经济的主导产业,是推进经济结构调整、加快转变经济增长方式、提高综合经济素质的必由之路,是有效缓解能源资源短缺的瓶颈制约、提高资源利用效率、实现可持续发展的迫切需要,是适应对外开放新形势、实现综合国力整体跃升的有效途径。加快发展服务业,形成较为完备的服务业体系,提供满足人民群众物质文化生活需要的丰富产品,并成为吸纳城乡新增就业的主要渠道,也是解决民生问题、促进社会和谐、全面建设小康社会的内在要求。 近年来,我市服务业取得了较快发展,但是,市场化程度不高,产业化层次偏低,产业结构不合理,综合竞争力不强,与经济社会又好又快发展、产业结构调整升级不相适应,与全面建设小康社会和构建社会主义和谐社会的要求不相适应,与经济全球化和全面对外开放的新形势不相适应,与省会城市、大城市的发展要求也不相适应。因此,各级各部门必须从贯彻落实科学发展观和构建社会主义和谐社会的高度,进一步提高认识,切实把思想统一到中央、省、市各级党委和政府的决策和部署上来,转变发展观念,拓宽发展思路,着力解决存在的问题,把加快发展服务业作为维护省城稳定、发展省会经济、建设美丽泉城的一项重大而长期的战略任务抓紧抓好。 二、总体要求和主要目标 当前和今后一个时期,发展服务业的总体要求是:以邓小平理论和“三个代表”重要思想为指导,全面贯彻落实科学发展观和构建社会主义和谐社会的重要战略思想,坚持以人为本、普惠公平,进一步完善覆盖城乡、功能合理的公共服务体系和机制,不断提高公共服务的供给能力和水平;坚持市场化、产业化、社会化方向,促进服务业拓宽领域、增强功能、优化结构;坚持统筹协调、分类指导,发挥比较优势,合理规划布局,构建充满活力、特色明显、优势互补的服务业发展格局;坚持创新发展,扩大对外开放,吸收发达国家的先进经验、技术和管理方式,提高服务业国际竞争力。要按照充分发挥省城优势、大力发展省会经济,积极拓展生产性服务业、丰富生活性服务业、突出发展现代服务业的总体思路,紧紧抓住金融服务、信息服务、现代物流、旅游服务、房地产服务、会展服务、中介服务、科教文卫体服务、社区服务、商贸服务等十大领域,加大力度,强化措施,重点突破,逐步实现规划布局合理、集聚优势明显、产业结构优化、区域发展协调、技术管理先进、服务功能完善的服务业发展新格局,促进服务业高水平、跨越式发展。 服务业发展的主要目标是:到2010年,全市服务业增加值达到1590亿元,力争达到1750亿元,年均增长14%以上。现代服务业占全市服务业的比重达到52%,服务业增加值占GDP的比重力争达到50%以上。有条件的县(市)区形成以服务经济为主的产业结构。服务业增加值增长速度超过国内生产总值和第二产业的增长速度,实现服务业结构显著优化,就业容量显著增加,公共服务均等化程度显著提高,市场竞争力显著增强,总体发展水平基本与全面建设小康社会的要求相适应。 三、做好发展规划和咨询论证工作 (一)建立完善的服务业规划体系。科学编制各级各行业服务业发展规划。发展改革部门负责各级服务业总体规划编制、政策制定、各行业规划与政策的衔接平衡和综合协调工作。各级和各行业主管部门负责相关区域和行业的规划编制、政策制定和组织实施工作。(二)加强服务业规划的咨询论证。组建由相关领域专家和专业主管部门代表组成的市服务业规划咨询委员会,对全市服务业总体规划和各行业规划进行咨询和论证,未通过咨询论证的规划不能发布和实施。全市服务业规划作为审批服务业投资项目和资金扶持的重要依据。 四、放宽市场准入条件 (三)除国家法律、法规禁止进入的,各类资本均可进入所有服务业领域。除国家法律、法规或者国务院规定的企业登记的前置审批外,其他一切审批项目均不得作为服务业企业登记的前置审批条件。服务业企业异地设立的分支机构新增经营项目需前置审批许可的,经企业申请,由分支机构向所在地工商行政管理部门提交本分支机构经营此项目的前置许可证件,可以在经营范围内增加该项目。(四)凡是来我市投资创办生产性服务企业的,注册资本均可按法定最低注册标准执行。设立公司制服务企业,公司全体股东的首次出资额可为注册资本的20%,且不低于3万元。其余部分由股东自公司成立之日起2年内缴足。核心企业注册资本1000万元,控股子公司达到3个,母公司和子公司总注册资本达到2000万元,可组建服务业企业集团。有关部门在为服务业企业办理年度检验和工商登记事项时,应依法从快从简办理。 (五)连锁企业经营烟草、书籍、报刊、音像制品、邮票、公用电话等业务,可由总部向审批机关申办批准文件;总部取得批准文件后,直接到所设机构所在地工商行政管理机关申报登记注册,免予办理核转手续。 (六)对已立项但须同时具备一定登记条件的,可为企业核发为期1年、经营范围为项目筹建的营业执照。企业取得经营专项审批或许可后,根据企业申请,办理企业注册登记,核发企业法人营业执照。 (七)市公安、交通管理部门按照相关规定负责为需要进入市区的消费品物流配送车辆办理相关的通行证手续,物流配送车辆应当按照公安交通管理部门指定路线、规定时间、限定车速通行。 (八)认真落实“十一五”期间国家支持文化事业发展的若干政策,非公有制文化企业在项目审批、资质认定、融资等方面与国有文化企业享有同等待遇。 (九)鼓励个体行医者在社区卫生服务和建立民营医疗机构方面的发展。 五、实施税费优惠政策 (十)从事货运代理、拆迁代理、商标代理、广告代理、会展代理业务的单位,以实际取得的报酬为营业额计算缴纳营业税,具体扣除项目按有关规定执行。保险代理公司从事保险代理业务取得的全部收入,允许按扣除支付给保险公司保费收入后的余额计算缴纳营业税。 (十一)单位和个人从事技术转让、技术开发和与之相关的技术咨询、技术服务业务取得的收入,免征营业税、城市维护建设税和教育费附加。 (十二)社会力量(不含外商投资企业和外国企业)通过境内非营利的社会团体、国家机关资助非关联的科研机构和高等学校的研究开发新产品、新技术、新工艺所发生的研究开发经费,按规定在当年度应纳税所得额中扣除。 (十三)在社区新办的物业管理、家政服务、幼托养老、就业培训、文教卫生、体育健身等服务业,按国家税收规定免征企业所得税1年。(十四)进一步清理现行涉及服务业的各类行政事业性收费项目,定期向社会公布一次行政事业性收费项目目录,凡未列入国家、省行政事业性收费目录的项目一律取消(含各类保证金)。任何部门和单位不得新设立其它行政事业性收费项目。对服务企业的行政事业性收费,凡是收费标准有上、下限幅度规定的,一律按下限额度收取(不符合国家产业政策的惩罚性收费除外)。(十五)对我市集资、贷款建设的收费路桥(合同期内的除外),自收回投资之日起,取消收费。 (十六)免收省内金融(保险)机构在我市以资抵贷、抵贷资产接受和变现办理资产过户、登记、抵押等事项过程中所发生的房屋所有权登记费、房产交易手续费、机动车辆安全检验费。 (十七)民办学校可以接纳社会捐助,学校建设在减免建设配套费等方面,享受与公办学校同等的优惠政策。 (十八)“退二进三”企业,不改变土地权属关系,符合土地利用总体规划,经城市规划部门批准的改建项目,免收城市基础设施配套费等行政事业性收费,符合国家规定的按新办企业享受企业所得税免收1年的优惠政策。 六、加大资金扶持力度 (十九)设立服务业发展引导资金。从2007年起,市财政每年从预算中按照上年GDP万分之一的比例安排专项资金,作为全市服务业发展引导资金。按照“突出重点、绩效挂钩”的原则,主要用于全市服务业带动作用强、经济效益好、对市财力贡献大的重点项目和重点企业的贷款贴息和专项补助;对国家、省服务业发展引导资金扶持项目的配套;对年度服务业成绩突出的政府和部门的奖励。各县(市)区也要建立相应的服务业发展引导资金。 (二十)对引进国内外着名服务业企业总部、地区总部、采购中心、研发中心等自建、购买或租赁办公用房的,由所在地政府给予补贴。银行、保险、证券类金融机构在我市设立总部或地区总部,市财政给予一次性补贴。 (二十一)市级中小企业信用担保机构每年安排一定比例的担保资金用于扶持发展中小服务企业。 (二十二)拓宽服务业投融资渠道。鼓励服务业企业进入资本市场,通过股票上市、企业债券、项目融资、资产重组、股权置换等方式筹措资金。金融机构要大力支持服务业项目,符合服务业发展产业导向目录的新建、扩建、改建项目,优先安排贷款资金。有关部门要加强与银行的沟通,积极向银行推荐有市场、有效益的服务业项目,争取各级银行的支持。(二十三)在提报和安排国家预算投资、国债投资、国债转贷、国债贴息和服务业引导资金时,优先支持发展潜力大的服务外包、现代物流、软件开发、电子信息平台、旅游、现代商务、文化产业、养老服务等服务业项目。在技改贴息项目的申报中,适当对现代物流项目倾斜,加快培育具有国际竞争力的大型物流企业集团。(二十四)对承办国际性、全国性会展,文艺、体育等重大节庆活动取得的广告收入,依法缴纳营业税后,由税收入库地政府按一定比例给予补贴。(二十五)在城市改造中,涉及老字号店铺原址动迁的,原则上应原地安置。对现存的老字号商号、商标采取保护性措施,为老字号申请注册商标提供相关法律法规方面的帮助。对具有发展前景的老字号连锁企业给予财政支持。(二十六)全国各地旅游车辆的行驶路线和停车区域,在全市范围内均享受与本市客运车辆的同等待遇。对通往列入红色旅游规划景点、国家4A级及以上旅游景区、国家和省级风景名胜区、国家级农业旅游示范点的连接道路建设,由交通部门给予一定支持。 七、理顺完善服务价格 (二十七)扩大服务业企业的价格自主权。除政府定价、指导价目录中的项目外,一律实行市场调节价。放开旅行社、旅馆饭店、文化娱乐、家政服务、社区服务(除社区医疗、居民住宅小区物业管理收费)的价格;放开已形成市场竞争的中介服务价格;民办学校的非学历教育收费实行备案管理。(二十八)对服务业的用水、用气、用电价格,按照国家政策和我市实际进行合理调整,逐步理顺和完善全市服务业水、电、气价格体系。2008年上半年以前,实现服务业(桑拿、洗车、洗浴等行业除外)的用水、用气价格与工业用水、用气价格并轨,服务业动力用电价格执行普通工业电价,其照明用电价格要结合电价调整,逐步与普通工业用电价格并轨。进一步完善峰谷用电管理办法,降低服务业用电成本。 八、优先安排土地供应 (二十九)对利用存量土地建设的服务业项目,在符合土地利用总体规划和城市规划的前提下,依据有关政策优先办理建设用地供地手续。现代服务业项目建设需占用农用土地的,国土资源部门优先安排用地指标,优先办理用地手续。实力雄厚的国内外大企业来我市投资兴建大型旅游项目,在符合土地利用总体规划、城市总体规划和旅游规划的前提下,按有关政策要求提供用地。对列入国家、省、市服务业发展规划的服务业聚集区、重点项目优先满足土地供应指标。(三十)服务业企业有形场所因城市建设需要依法拆迁时,须按国家规定进行补偿。 九、实施人才高地工程 (三十一)大力实施人才培养工程。加强与高校、科研院所联系,建立服务外包、金融、信息、物流、会展等重点领域的服务业人才培训基地。通过各类服务业行业协会建立服务业人才培训中心,为行业内企业培养各种专业技术人才和管理人才。鼓励驻济高等院校开设适合软件外包人才培养的课程专业。按照实际需要,选派公务员到服务业发达国家和地区学习培训,列入全市引进国外智力项目年度计划,学习培训费用由各级政府和派员单位共同承担。(三十二)采取有效措施,解决好各类引进人才的住房问题,创造条件解决社会保障、子女入学、家属择业就业等后顾之忧。积极探索建立实施人才居住证制度,采取户口不迁、来去自由的柔性流动方式,吸引国内外人才来济兼职、挂职、合作。(三十三)加强职业教育和就业培训。重点抓好服务业高技能人才的培养、评价和使用。制定具体措施,鼓励驻济职业院校开设适应服务业技能人才培养的专业,并根据需求,不断扩大服务业技能人才培养数量。结合服务业的特点,改革创新服务业技能人才的评价方式方法。建立技能人才的培养、使用与待遇相结合的激励机制和高级技能人才的选拔奖励制度,积极开展济南市首席技师和突出贡献技师的选拔工作,大力表彰奖励有突出贡献的服务业高技能人才。加快推行职业资格证书制度,落实先培训后就业,先培训后上岗的就业准入制度。加强对下岗失业人员和农村劳动力从事服务业的技能培训,不断提高其技术技能水平。鼓励和引导社会力量投资兴办各类规范化、专业化的就业培训和职业教育培训学校。积极引导优秀的服务外包和软件外包人才培训机构。(三十四)对科技服务企业内部的职务结构比例,由单位根据自身需要自主设置专业技术岗位和职务等级;事业性质的科技服务机构,可在批准的岗位数额内,自主设置专业技术创新岗位,确定岗位责任和任职条件。 十、深化改革扩大开放 (三十五)鼓励多元投资主体参与经营市政公用事业。采取向社会公开招标的形式选择公共交通、污水处理、供水、供气、供热、垃圾处理等市政公用企业经营单位,由政府授权特许经营。公交行业要实现政企分开,推进投资主体多元化。园林绿化、城市照明、环境卫生等非经营性设施的日常养护等要通过招标发包方式进行。大力开发潜在资源市场,鼓励全社会参与,通过有偿竞买的办法,出让各类经营权、公用设施冠名权和广告权等。 (三十六)加强事业单位的分类管理,正确区分教育、医疗、文化、科技、体育、咨询服务等行业中的营利性服务、非营利性服务和公益性服务。对营利性服务,要向市场化方向发展,实行价格放开,同时允许各种经济成分平等进入;对非营利性服务,要按管办分离原则,实行政府指导价格和部分减免税政策;对公益性服务,由财政投资,并积极引导社会力量参与,执行政府定价和免税政策,维护公共利益。 (三十七)加快推进事业单位、机关后勤服务社会化和政企、政事分开改革,破除制约服务业发展的体制机制性障碍。尽快完成政府机关所属的招待所、宾馆改企转制工作。财政供养单位经批准的公务活动和采购,凡能通过市场化手段解决的,应委托社会中介或直接向社会进行招标购买。允许旅行社代理财政供养单位经批准的公务活动。逐步将公共服务纳入政府集中采购范围,继续推进和完善国库集中支付制度改革。 (三十八)繁荣发展夜市经济。进一步提高城市亮化水平,开发夜间休闲游乐项目。鼓励和支持夜市经济规范发展,支持商贸、餐饮、文化娱乐等服务场所延长营业时间(国家明确规定限时经营的项目除外)。适当延长市政公用设施夜间服务时间,为夜间消费者和从业者提供方便。 (三十九)紧紧抓住我国入世过渡期结束和现代服务业转移以及我市被国家确定为十大服务外包基地城市之一的有利时机,利用好CEPA《内地与香港关于建立更紧密经贸关系的安排》政策,扩大服务业对外开放程度和加大招商引资力度。积极引进和利用外资,不断优化和提升服务业产业结构和规模。扩大城市利用外资规模、外资企业规模,外国人来济贸易、展览、学术交流、旅游、考察的规模;鼓励和支持我市有条件的各种所有制企业按照国际通行规划开展境外投资。 十一、改善服务加强领导 (四十)推行政府管理一条龙服务,提高服务质量,规范服务行为。推广行政部门联合执法,除涉及公共安全的检查和执行特殊任务外,行政执法部门不得随意到服务企业进行突击检查。除法律、行政法规有明确规定外,行政管理部门不得要求企业到指定中介机构办理验资、资产评估报告等证明性文件;正常性抽取商品检查,须向企业支付商品货款。各级政府要认真清理、修订限制服务业发展的不合理的规章制度,并向社会公示,接受社会监督。对企业举报的乱摊派、乱罚款、乱检查、乱评比行为,纪检监察机关要加大查处工作力度。 (四十一)进一步深化价格和收费改革,规范收费公示制度,实现价格监督检查关口前移,完善价格社会监督机制;健全价格举报工作机制,提高快速反应能力,对涉及向服务业乱收费的举报案件,努力做到受理迅速、处理恰当、回复及时;适时开展行政事业性收费专项检查,对查出的价格违法和乱收费行为,依法做出处理。 (四十二)加强服务业统计分析工作。建立健全统计制度,改进统计方法,完善服务业统计指标体系,开展服务业的经常性调查工作。建立行业发展的监测、预警和信息发布制度,发挥信息的导向作用。加强部门行业间信息交流和共享机制,及时、全面、准确地掌握服务业发展动态。 (四十三)积极推进标准化建设。加快商贸、会展、物流等行业标准化进程,积极引进和推行国际标准。其他服务行业广泛推行服务承诺、服务公约、服务规范等制度,提高服务质量。鼓励行业协会、优势企业承担地方性相关行业标准的制定,支持有条件的现代服务企业承担国家相关标准的制定工作,促进企业向标准化方向发展。 (四十四)积极发展各类服务业行业协会。引导具有市场优势的服务业行业组建全国性的行业协会,积极吸引全国性的行业协会落户我市。积极推进政会分开,行业协会要与政府部门脱钩。充分发挥服务业行业协会作用,逐步把行业统计、信息发布、行业调查、行业规划、展览促销、招商推介、公信证明、合作交流等职能转移或委托给行业协会承担。整合服务业行业协会资源,积极推动建立服务业发展联盟。 (四十五)建立服务业发展绩效考核制度。把服务业发展作为考核各级政府和有关部门的重要内容。制定《服务业发展指标体系及考核办法》,对各县(市)区、各部门年度目标、任务完成和政策落实情况进行评价,根据评价结果进行表彰和奖励。 (四十六)加强对全市服务业工作的领导。全市服务业职能管理部门要经常研究解决服务业发展中的重大问题,协调落实促进服务业发展的政策措施。各有关部门要明确职责分工,制定相应的配套政策措施,形成促进服务业发展的政策体系。各县(市)区也要在发改部门成立相应的组织机构,制定相应的政策措施,落实工作推进机制。发展改革委要会同有关部门和单位对落实本意见的情况进行监督检查,并及时向市委、市政府报告。']</t>
         </is>
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A198" t="n">
+        <v>129</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
           <t>山东省人民政府关于支持人民政协履行职能的意见</t>
         </is>
       </c>
-      <c r="D198" t="inlineStr">
+      <c r="E198" t="inlineStr">
         <is>
           <t>2006-07-04</t>
         </is>
       </c>
-      <c r="E198" t="inlineStr">
+      <c r="F198" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2006/7/4/art_114644_4938995.html</t>
         </is>
       </c>
-      <c r="F198" t="inlineStr">
+      <c r="G198" t="inlineStr">
         <is>
           <t>['各市人民政府,各县(市、区)人民政府,省政府各部门、各直属机构,各大企业,各高等院校: 为认真贯彻落实中央和省委关于加强人民政协工作的意见精神,更好地支持人民政协履行政治协商、民主监督、参政议政职能,进一步推进我省三个文明建设,现就有关问题提出如下意见: 一、进一步提高支持人民政协履行职能的自觉性 人民政协是中国人民爱国统一战线组织,是中国共产党领导的多党合作和政治协商的重要机构,是我国政治生活中发扬社会主义民主的重要形式,在我国政治生活中具有不可替代的作用。各级政府、各部门要深入学习贯彻《中共中央关于加强人民政协工作的意见》(中发〔2006〕5号)和省委有关指示精神,从完善我国基本政治制度、发展社会主义民主政治、构建社会主义和谐社会的高度,从加强政府自身建设、提高行政能力和决策水平的高度,充分认识人民政协的重要地位和作用,切实支持政协履行职能,努力开创政府工作与政协工作互相支持、互相配合、互相促进的新局面。 二、认真搞好与人民政协的政治协商 按照中央关于“就国家和地方重要问题在决策之前和决策执行过程中进行协商”的原则,各级政府的政府工作报告、国民经济和社会发展中长期规划及经济社会发展重大问题,应作为政治协商的重要内容。政府重大决策在决策之前要充分征求政协领导同志意见。 为保证协商工作的顺利进行,政府及有关部门要加强与政协的联系和沟通,及时将协商的有关材料送交政协。政府负责同志和有关部门负责人要积极参加各种协商会议,通报有关情况,认真听取政协组织和政协委员的意见和建议。 各级政府要重视协商意见的批办、督办和反馈工作。政协全体会议、常委会议和主席会议形成的《协商纪要》以及其他协商会议形成的《协商纪要》或《协商建议》,要及时送政府领导同志阅批。对协商意见、建议的采纳落实情况,要及时予以反馈。 三、自觉接受人民政协的民主监督 各级政府、各部门要高度重视和自觉接受人民政协的民主监督,并以此作为改进政府工作的有效形式。国家法律、法规的实施,国家重大方针政策的贯彻执行,国民经济和社会发展规划及财政预决算的执行情况,政府机关及其工作人员履行职责、依法行政情况,都要接受政协的民主监督。 各级政府及有关部门要主动向政协通报情况,拓宽民主监督的渠道。政府组织的调查和检查活动,可视情邀请政协有关负责同志或政协委员参加。坚持和完善政协委员应邀担任司法机关和政府部门特约监督人员制度。要认真研究和积极采纳政协通过建议案、提案、委员视察、委员举报、会议发言、民主评议等形式提出的各类意见和建议。对政协组织以书面形式提出的意见和建议,政府及部门负责同志要认真阅批,责成有关部门及时办理,以书面形式向政协反馈,并纳入政府和部门督查工作范围。建立政协民主监督交办事项工作责任制,并认真贯彻落实。 四、大力支持人民政协的参政议政 各级政府、各部门要支持政协对经济社会发展中具有综合性、全局性、前瞻性问题以及人民群众普遍关心的重大问题开展调研、视察、考察等活动,认真听取和采纳政协提出的意见和建议。对涉及改革开放、现代化建设全局性的重大问题以及社会生活中的热点、难点问题,各级政府、各部门要主动邀请政协委员参与咨询、听证、论证,或进行联合调研。 各级政府要加强与政协的联系和沟通,要确定一名政府负责同志联系政协工作,并向政协常委会议通报本地经济社会发展情况。建立政府职能部门与政协专门委员会对口联系制度,交流工作情况,开展联合调研活动。按照有关规定,邀请政协有关领导同志、政协专门委员会负责人列席政府相关会议。政协大型会议、重要活动凡邀请政府及部门负责同志参加的,应积极参加,认真听取意见。 支持政协开展对外友好交往活动。政府组织的重大外事活动,可视情邀请政协有关领导同志、民主党派负责人参加。 五、切实抓好政协建议案、提案、调研报告的办理工作 对政协以全体会议、常委会议、主席会议名义提出的建议案、调研报告,要送政府领导同志阅批,承办部门一般应在3个月内将办理情况向政协书面反馈,必要时可由承办部门在政协有关会议上通报落实情况。对政协专门委员会提出的调研报告、视察报告,有关部门应及时研究处理,并作出正式答复。要高度重视政协提案的办理工作,重点提案政府领导同志要亲自阅批;需几个部门、单位联合办理的重要提案,由政府分管领导同志或指定牵头部门协调、督促办理。提案承办单位要加强与提案人的联系,必要时可邀请提案人参与办理。承办单位对政协提案应及时给予正式答复。政府每年向政协常委会议通报一次提案办理情况。 六、重视政协信息和反映社情民意工作 要善于通过政协信息和政协委员反映的社情民意,了解社会不同阶层、不同群体的愿望和要求,密切政府与各界群众的联系。要畅通政协信息、政协委员反映社情民意的报送渠道,规范办理程序,落实办理责任。对事关改革、发展、稳定大局的重要信息和带有普遍性、趋向性、警示性的社情民意,政府领导同志要亲自阅批,并责成有关部门及时分析处理。对政协信息、政协社情民意的办理、采纳情况,应以不同形式及时予以反馈。 七、为人民政协履行职能、开展工作创造良好条件 要积极推动各级领导干部和政府工作人员学习人民政协理论、政策。各级行政学院要将人民政协理论、政策列入公务员培训内容和教学计划。社会科学研究机构要积极开展人民政协理论与实践的研究。要根据中央、省委规定,解决好人员编制方面的问题。要不断改善各级政协的基础设施和办公条件,切实解决政协工作经费问题,解决好不住会副主席参加政协各种会议和活动的经费,为各级政协组织和政协委员履行职能、开展工作创造良好条件。 各级政府及有关部门要根据本意见,制定贯彻落实的具体实施意见。 山东省人民政府 二○○六年五月十九日 主题词:统战 政协 意见']</t>
         </is>
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A199" t="n">
+        <v>129</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
           <t>济南市人民政府关于印发济南市人民政府工作规则的通知</t>
         </is>
       </c>
-      <c r="D199" t="inlineStr">
+      <c r="E199" t="inlineStr">
         <is>
           <t>2008-06-04</t>
         </is>
       </c>
-      <c r="E199" t="inlineStr">
+      <c r="F199" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2008/6/4/art_2612_2044771.html</t>
         </is>
       </c>
-      <c r="F199" t="inlineStr">
+      <c r="G199" t="inlineStr">
         <is>
           <t>['各县（市）、区人民政府，市政府各部门： 《济南市人民政府工作规则》已经市政府第4次常务会议通过，现予印发。', '第一条 济南市第十四届人民代表大会第一次会议选举产生的新一届市政府，根据《中华人民共和国宪法》、《中华人民共和国地方各级人民代表大会和地方各级人民政府组织法》，参照《山东省人民政府工作规则》，结合本市实际，制定本规则。 第二条 市政府工作要高举中国特色社会主义伟大旗帜，以邓小平理论和“三个代表”重要思想为指导，深入贯彻落实科学发展观，认真贯彻党的路线、方针、政策，坚决执行省委、省政府及市委的指示、决定，全面履行政府职能，实行科学民主决策，坚持依法行政，推行政务公开，健全监督制度，加强廉政建设，努力建设服务政府、责任政府、法治政府和廉洁政府。', '第三条 市政府组成人员要忠实履行宪法和法律赋予的职责，坚持解放思想，实事求是，与时俱进，开拓创新;忠于职守，服从命令，顾全大局，全心全意为人民服务。 第四条 市政府实行市长负责制，市长领导市政府的工作。副市长、秘书长协助市长工作。常务副市长协助市长主持市政府日常工作。市长因公出市和出国访问期间，由常务副市长主持市政府的全面工作。 第五条 市长主持召开市政府全体会议、市政府常务会议。市政府工作中的重大问题，须经市政府全体会议或市政府常务会议讨论决定。 第六条 副市长、秘书长按分工负责处理分管工作。受市长委托负责其他方面的工作或专项任务，并可代表市政府进行外事活动。 第七条 根据工作需要，市政府设市政府特邀咨询若干名，协助市长或副市长工作。 第八条 市政府秘书长在市长领导下，负责安排处理市政府的日常事务工作，协调落实市政府决定事项和市长交办事项。 第九条 市政府组成部门的各委员会主任、各局局长负责本部门的工作。 市政府各部门根据法律、法规和市政府的政府规章、决定、命令，在本部门的职权范围内履行行政职责。 市审计局在市长和上级审计机关领导下，依照法律规定独立行使审计监督权，不受其他行政机关、社会团体和个人的干涉。 市政府各部门要各司其职，各尽其责，顾全大局，团结合作，维护政令统一，不折不扣地贯彻落实市政府工作部署。', '第十条 市政府及各部门要加快职能转变和工作指导转变，全面履行经济调节、市场监管、社会管理和公共服务职能。 第十一条 坚持以经济建设为中心，全面落实中央和省宏观调控政策，结合济南实际，主要运用经济、法律手段和必要的行政手段，引导和调控经济运行，转变经济发展方式，调整和优化经济结构，促进经济又好又快发展。 第十二条 切实加强市场监管，推进公平准入，完善监管体系，规范市场执法，大力加强诚信建设，建设统一、开放、竞争、有序的现代市场体系。 第十三条 加强社会管理，建立政府促进就业和调节收入分配机制，完善社会保障体系，健全基层社会管理体系，大力建设和谐济南，推进民主法治，维护社会公平正义，健全突发事件应急管理机制。 第十四条 强化公共服务职能，完善公共服务政策，健全公共服务体系，增强基本公共服务能力，促进基本公共服务均等化。 第十五条 深化行政管理体制改革，继续减少和规范行政审批事项，创新行政审批改革机制，推进相对集中行政处罚权和综合行政执法试点工作，研究探索相对集中行政许可权工作。', '第十六条 市政府及各部门要完善群众参与、专家咨询和政府决策相结合的决策机制，健全重大决策的规则和程序，实行科学决策、民主决策、依法决策。 第十七条 全市国民经济和社会发展中长期规划、年度计划、财政预决算、市级社会管理事务、政府规章和重大政策规定、重大建设项目等重要决策事项，由市政府全体会议或市政府常务会议讨论决定。 第十八条 各部门提请市政府讨论决定的重要事项，必须经过深入调查研究，并经过专家或研究、咨询机构等进行必要性、可行性和合法性论证;涉及有关部门的，应充分协商;涉及各县（市）区的，应事先征求意见;涉及重大公共利益和人民群众切身利益的，要向社会公开征求意见，必要时应举行听证会。 第十九条 市政府在做出重要决策前，根据需要通过召开听证会、座谈会等形式，直接听取人大代表、政协委员、民主党派、群众团体、专家学者、市民代表等方面的意见和建议，并通过传媒向社会公布，征求广大人民群众的意见。', '第二十条 市政府及各部门要严格按照法定权限和程序行使行政权力，强化法律意识和责任意识，加强依法行政的统筹规划和组织领导，不断提高依法行政的能力和水平。 第二十一条 市政府根据国家法律、法规的修订情况和经济社会发展需要，适时提出地方性法规议案，制定政府规章，修改或废止不相适应的市政府规章、行政措施或决定。拟订和制定与群众利益密切相关的法规草案和政府规章，原则上都要公布草案，向社会征求意见。 市政府规章实施后要进行后评估，发现问题，及时完善。 第二十二条 提请市政府讨论的地方性法规草案和审议的政府规章草案由市政府法制机构审查或组织起草，政府规章的解释工作和英文译审工作由市政府法制机构承办。 第二十三条 继续推进规范行政处罚裁量权工作，严格实行行政执法责任制和执法过错追究制，有法必依、违法必究，公正执法、文明执法。 第二十四条 实行市政府领导集体学法制度，由市政府办公厅会同市政府法制机构组织，一般每季度举办一次。', '第二十五条 市政府及各部门要认真贯彻落实《中华人民共和国政府信息公开条例》，大力推进政务公开，充分发挥政府信息对人民群众生产、生活和经济活动的服务作用，提高政府工作透明度。 第二十六条 市政府各部门要建立健全政府信息公开工作制度，做好政府信息主动公开和依申请公开等日常工作。市政府办公厅和市政府监察机构要按照政府信息公开工作考核制度和责任追究制度，定期对政府信息公开工作进行考核、评议。 第二十七条 凡涉及群众切身利益、需要群众广泛知晓的事项以及法律和市政府规定需要公开的其他事项，均应通过政府网站、政府公报、新闻发布会以及报刊、广播、电视等方式，依法、及时、准确地向社会公开。 第二十八条 市政府全体会议和常务会议讨论决定的事项、市政府及各部门制定的政策，除需要保密的外，应及时予以公开。 第二十九条 加强电子政务建设，统筹规划、整合资源、服务应用、确保安全，提高政府工作效率和服务水平，为公众参与经济社会活动创造条件。', '第三十条 市政府要自觉接受市人民代表大会及其常委会的监督，认真执行市人民代表大会及其常委会的各项决议，向其报告工作、接受询问和质询，及时办理人民代表的建议、批评和意见;自觉接受市政协、各民主党派和各群众团体的民主监督，虚心听取意见和建议。 第三十一条 市政府各部门要依照有关法律规定接受司法监督，同时要自觉接受监察、审计等部门的专项监督。监督中发现的问题，要认真查处和整改并向市政府报告。 第三十二条 加强行政系统内部监督，健全政府层级监督制度，严格执行行政复议法律法规，落实规章和规范性文件备案制度，及时撤销或修改违反法律、法规的规章和其他规范性文件，纠正违法或不当的行政行为，并主动征询和认真听取下级政府及其部门的意见和建议。 第三十三条 市政府及各部门要接受新闻舆论和群众的监督。对新闻媒体报道和各方面反映的重大问题，各部门要积极主动地查处和整改并向市政府报告。 第三十四条 市政府及各部门要重视人民群众来信来访工作，进一步完善信访制度，确保信访渠道的畅通;市政府领导同志及各部门负责人要亲自阅批重要的群众来信。 第三十五条 市政府及各部门要推行行政问责制度和绩效管理制度，明确问责范围，规范问责程序，严格责任追究，提高政府执行力和公信力。', '第三十六条 市政府及各部门要从严治政，加强监督制约权力的制度建设。对职权范围内的事项要按程序和时限积极负责地办理，对不符合规定的事项要坚持原则不得办理;对因推诿、拖延等官僚作风及失职、渎职造成影响和损失的，要追究责任;对越权办事、以权谋私等违规、违纪、违法行为，要严肃查处。 第三十七条 市政府及各部门要严格执行财经纪律，规范公务接待，不得用公款相互送礼和宴请，不得接受下属单位及地方的送礼和宴请。要艰苦奋斗、勤俭节约，切实降低行政成本，建设节约型机关。 第三十八条 市政府组成人员要廉洁从政，严格执行省委、省政府和市委有关廉洁自律的规定，不得利用职权和职务影响为本人或特定关系人谋取不正当利益;要严格要求亲属和身边的工作人员，不得利用特殊身份拉关系、谋私利。', '第三十九条 市政府实行全体会议、常务会议、市长办公会议和专题会议制度。 第四十条 市政府全体会议由市长、副市长、市政府特邀咨询、市政府秘书长和市政府组成部门的主要负责人组成，由市长召集和主持。会议的主要任务是： （一）传达省委、省政府和市委的重要指示、决定和会议精神，以及市人民代表大会及其常委会的决议、决定，研究提出贯彻意见。（二）讨论决定市政府工作中的重大事项。 （三）部署市政府的重要工作。 市政府全体会议一般每半年召开一次，根据需要可安排有关部门、单位主要负责人和群众代表列席会议。 第四十一条 市政府常务会议由市长、副市长、市政府特邀咨询、市政府秘书长组成，由市长召集和主持。会议的主要任务是： （一）传达省委、省政府和市委的重要指示、决定和会议精神，以及市人民代表大会及其常委会的决议、决定，研究提出贯彻意见。（二）听取市政府重要工作情况的汇报。 （三）讨论决定市政府工作中的重要事项。 （四）讨论地方性法规草案，审议政府规章草案。 （五）研究通过人事任免事项。 （六）研究通过以市政府名义表彰的事项。 （七）通报和讨论其他重要事项。 市政府常务会议一般每周召开一次。根据需要可安排市政府有关副秘书长，市有关部门、单位主要负责人列席会议。 第四十二条 市长办公会议由市长、副市长组成，市政府特邀咨询、市政府秘书长列席。必要时请市政府有关副秘书长、市有关部门主要负责人列席。市长办公会议由市长召集和主持。会议的主要任务是： （一）交流重要工作情况。 （二）研究处理需提交市政府常务会议解决的重要问题。 （三）研究市政府日常工作中的其他重要事项。 第四十三条 市政府专题会议由市长、副市长或市长、副市长委托市政府特邀咨询、市政府秘书长、副秘书长召集，市政府有关部门负责人出席。 市政府专题会议根据需要随时召开。会议的主要任务是： （一）研究协调市政府领导分工职责范围内的专门问题。（二）协调解决分管部门之间有意见分歧的问题。（三）研究协调需提交市政府集体研究决策的有关问题。市政府专题会议凡涉及资金、项目、机构编制安排的，严格按照规定的审批权限和程序办理。 第四十四条 建立市政府常务会议、市长办公会议议题征集制度。市政府各部门要提前提报近一段时期拟提交市政府常务会议、市长办公会议研究的议题，填写市政府办公厅印制的市政府常务会议（市长办公会议）议题申报单，并报分管市长同意后，送市政府办公厅。市政府办公厅对部门提报的议题进行汇总审核后草拟议题提报意见，经秘书长审定后报市长确定。市政府常务会议、市长办公会议议题一般应于会前5个工作日报送市政府办公厅。 第四十五条 对需市政府常务会议、市长办公会议研究的议题，提交议题的部门会前应协调一致。参与协调的部门主要负责人必须在会签意见上签字。经协调不能取得一致意见的，须由主办部门附协调说明，列明各方依据，报请分管副市长或协助其工作的市政府副秘书长协调。仍不能取得一致意见的，由分管副市长提出意见报市长确定。 第四十六条 市政府领导同志不能出席市政府全体会议、市政府常务会议和市长办公会议，应向市长请假;市政府全体会议其他与会人员和市政府常务会议、市长办公会议列席人员请假，由市政府办公厅汇总后向市长报告。 第四十七条 市政府全体会议、市政府常务会议和市长办公会议纪要由市长签发。市政府专题会议纪要由会议主持人签发;市政府特邀咨询、市政府秘书长、副秘书长受委托召开的市政府专题会议，会议纪要须由委托的市长或副市长审定同意后印发。 第四十八条 市政府会议讨论决定事项，宜于公开的应及时报道。新闻稿须经市政府秘书长或有关副秘书长审定，必要时报市长审定。 第四十九条 市政府全体会议、市政府常务会议、市长办公会议和专题会议决定事项，由市政府督查室向主办部门发出“决定事项催办通知”。各县（市）区政府、市政府各部门对会议决定事项要认真遵照执行，及时办理。市政府督查室负责督办，定期将会议决定事项的落实情况向市政府领导报告。 第五十条 市政府大型工作会议按会议内容、出席人员分为两类。一类会议由市长主持，有关副市长、市政府秘书长、市政府部门和县（市）区政府主要负责人参加，研究部署综合性重要工作;二类会议由分管副市长主持，市政府部门负责人和县（市）区政府分管负责人参加，研究部署某一方面的重要工作。 召开市政府一类会议，一般由市长提议，市政府常务会议研究确定。市政府部门提请召开市政府二类会议，应向市政府报送申请，由市政府办公厅审理，报市政府常务会议或市长审定。一般会议由分管市长审定。 市政府一类会议的会务工作在秘书长领导下，以市政府办公厅为主组织，市政府有关部门予以协助;二类会议由协助市政府领导工作的副秘书长协调，以市政府有关部门为主组织，市政府办公厅予以协助。 市政府大型工作会议的主题要明确，准备要充分，一般应留出1个月的调查研究和文稿起草的筹备时间。市政府领导的会议讲话材料，由市政府有关部门负责起草，经部门主要负责人审核把关，报市政府调研室或市政府办公厅按程序送审。 第五十一条 市政府及各部门要按照精简、有效的原则，严格控制全市性工作会议的数量和规模。能用文件、电话解决问题的不召开会议，内容、时间相近的会议尽量合并召开，能以部门名义召开的会议不以市政府名义召开，能采取电视电话会议形式的不集中开会。市政府召开的会议一般不请乡镇政府及街道办事处负责人参加。市政府部门召开的各类会议，一律只开到下级政府对口部门，不请下级政府负责人参加。 第五十二条 市政府召开的各类会议都要开短会、讲短话。市政府一类会议会期一般不超过1.5天、二类会议会期一般不超过1天;市政府电视电话会议一般不超过60分钟。收看收听全省电视电话会议后，如需继续召开全市电视电话会议，一般不超过30分钟。市政府领导在电视电话会上的讲话一般控制在40分钟，在工作会议上的讲话一般不超过90分钟;安排的交流发言单位一般不超过5个，每个发言时间一般不超过8分钟。 第五十三条 国家部委、省政府部门通过市政府有关部门商洽在济南召开全国、全省性会议，市政府有关部门须提前将情况报告市政府（需补贴经费的，要事先征求市财政局的意见），经同意后方可答复和安排。', '第五十四条 向市政府报送公文，必须严格按照《国家行政机关公文处理办法》和《山东省实施〈国家行政机关公文处理办法〉细则》的规定程序办理，努力提高公文质量。 第五十五条 各县（市）区政府、市政府各部门报市政府审批的公文，由市政府办公厅审核后根据市政府领导分工呈送审批。向市政府报送需要审批的公文，除市政府领导直接交办事项和必须直接报送的绝密事项外，不得直接报送市政府领导个人，更不得多头主送、越级行文。市政府领导收到直接报送要求审批的公文，一般不先作批示，应由市政府办公厅按规定程序审核、运转。市政府领导批示的公文，由市政府办公厅统一转办、处理。 第五十六条 各县（市）区政府、市政府各部门报送市政府的请示性公文，要一事一报并由其主要负责人签发。可以直报市政府部门解决的事项，不应再报市政府审批。 市政府部门报送市政府审批的请示事项，凡涉及其他部门职能的，主办部门要事先征求有关部门的意见，主动搞好协商，相关部门要积极配合。市政府部门内设机构工作中需要请示的事项，一般应向主管部门请示;确需向市政府请示的事项，应由主管部门向市政府呈文。议事协调机构和临时机构不得直接向市政府报送公文。 第五十七条 提高公文办理效率，公文运转的各个环节都要按照规定的时限要求完成。各部门需要请示市政府的事项，应当提前做好调研和协调工作。市政府接办后，一般事项原则上应在5个工作日内回复;特殊情况原则上在10个工作日内回复。部门之间征求意见或会签公文时，除主办部门另有时限要求的以外，协办部门一般应当在3个工作日内回复。市政府办公厅转有关部门办理的公文，凡明确提出时限要求的，各部门应当在规定的时限内办理完毕并回复办理结果。 第五十八条 市政府领导审批公文，对有具体请示事项的，应签署明确意见、姓名和日期。对一般报告性公文，圈阅表示“已阅知”。 第五十九条 以市政府或市政府办公厅名义制发的公文，其内容应属于关系全市经济和社会发展的重大改革方案、重要决定、政策措施、政府规章以及需要全市各级国家行政机关、企事业单位执行和周知的重要事项，主要包括： （一）对省政府的决定、命令、行政法规、重要工作部署和市委、市人大及其常委会的决定、决议提出的贯彻实施意见。 （二）须由市政府向省政府、市委、市人大及其常委会报告、请示的重大问题。 （三）须由市政府与国家有关部委、省有关部门及其他市政府联系商洽的工作。 （四）发布市政府的决定、政策措施和政府规章。 （五）安排部署市政府确定的重要工作任务，对市政府部门和县（市）区政府的工作作出指示。 （六）答复市政府部门和县（市）区政府报请市政府决定、解决的重大问题。 （七）批转市政府部门的重要工作意见。 第六十条 凡以市政府或市政府办公厅名义制发的公文，均由市政府办公厅负责审理和送审、送签。市政府领导不直接签批未经市政府办公厅审理的公文文稿。以市政府和市政府办公厅名义行文的公文文稿，由分管文秘工作的副秘书长或厅副主任提出意见，经协助市政府领导工作的秘书长、副秘书长审核后，报请市政府领导签发。 第六十一条 公文签发权限： （一）以市政府名义制发的正式公文，报请分管副市长审签，市长签发。其中，事先已报请市长同意，属于例行行文程序，需以市政府名义行文的，可由分管副市长签发。 （二）以市政府名义下发及报送省政府部门的便函类公文，根据公文内容，由分管副市长签发;内容涉及数名副市长分管范围的，或有意见分歧的，报请市长签发。 （三）以市政府办公厅名义制发的公文，报请分管副市长或市政府秘书长签发。其中规范性公文，涉及综合性事项的公文，成立临时机构的公文，报请分管副市长审签，市长签发。 第六十二条 大力精简公文。行文应当确有必要，注重实效，严格控制公文规格和发文数量，可发可不发的一律不发;可以市政府办公厅名义行文的不以市政府名义行文;可以市政府工作部门或几个工作部门联合行文的，不以市政府或市政府办公厅名义行文。下列内容的事项不以市政府或市政府办公厅名义行文： （一）对省政府部门下发的文件提出的贯彻执行意见。 （二）属于部门和县（市）区政府职权范围内的事项。 （三）市政府领导在会议上的讲话和会议纪要。 （四）照抄照转上级文件。 （五）市政府部门召开的县（市）区政府负责人不与会的会议通知。 第六十三条 以市政府和市政府办公厅名义制发的公文，一般应由主管部门代拟文稿，主要负责人要对代拟文稿认真审核把关。内容涉及其他部门职权范围的事项，主办部门应当主动与有关部门协商会签，协办部门要积极配合。规范性文件应送政府法制部门进行合法性审查。 第六十四条 市政府各部门之间对有关问题未经协商一致，不得各自向下行文。未经市政府批准，市政府各部门不得直接向下级政府行文部署工作。各部门内设机构除办公室外不得对外正式行文，也不得要求下级政府向本部门（单位）报送公文。属于业务性较强及行业性的重要工作，或其他需市政府同意的事项，按程序报经市政府领导审定后，可加“经市政府同意”字样由部门行文。', '第六十五条 市政府各部门要切实加强政务信息工作，及时向市政府反映政府工作及经济社会发展中的重要情况，为市政府领导科学民主决策提供依据。 第六十六条 政务信息反馈的主要内容： （一）省委、省政府和市委、市政府重大决策部署和领导同志重要指示批示的贯彻落实情况。 （二）全市经济社会运行中的重大动态，事关全局的倾向性、苗头性问题。 （三）重要的社情民意。 （四）贯彻执行国家和省、市政策过程中遇到的新情况、新问题及建议。 （五）创造性开展工作的特色做法和成功经验。 （六）国务院和省政府各部门关于重点工作、重大情况的分析预测和政策建议。 （七）外市可供借鉴的工作新思路和新举措。 第六十七条 报送政务信息要围绕中心工作，贴近领导决策需求，突出重点，把握要点，挖掘亮点，抓住切入点，要做到全面、及时、准确、规范。 第六十八条 市政府办公厅要加强对全市政府系统政务信息工作网络的指导，确保网络健全完善、高效运转。同时，要建立完善政务信息工作报送通报和考核机制，对信息报送工作先进单位和个人进行表彰，对迟报、漏报信息并造成严重后果的进行通报批评。 第六十九条 对市委、市政府的重要决策和领导批示件，市政府各部门的主要负责人要亲自抓落实。 第七十条 市政府办公厅对以下重要决策的落实情况进行督促检查： （一）《政府工作报告》确定的工作任务和政策措施。 （二）市政府重要会议确定的工作任务和政策措施。 （三）以市委、市政府名义下发的涉及全市改革开放、经济发展和社会稳定的重要文电。 （四）市政府领导要求开展的其他督促检查活动。 第七十一条 重要决策督查工作按照下列程序进行： （一）立项通知。市政府督查室对需督查的重要事项应及时立项，经分管领导审核后通知承办单位。 （二）检查催办。市政府督查室及时督促了解承办单位的贯彻落实情况。对重要督查事项，应组织有关部门和单位深入基层督办。 （三）及时办结。各承办单位应明确责任人，采取切实措施狠抓落实工作，并按时限要求及时上报办理情况。（四）汇总报告。承办单位贯彻落实市政府重要决策报告的情况，由市政府督查室负责整理汇总，分送有关领导阅示。 第七十二条 收到省委、省政府领导和市委的批示件，市政府督查室要立即送呈有关领导阅批，按照分工转有关部门办理或直接组织办理，并按规定时限整理上报办理情况。 第七十三条 需督查办理的市政府领导批示件由市政府督查室负责办理。督查室应于接办当天转承办单位，必要时直接组织办理。承办单位一般应在15日内办结，并向市政府督查室书面报告办理结果，由市政府督查室汇总整理后书面报告批示人。在办理领导人批示件过程中，涉及两个或两个以上承办单位的事项，由主办单位牵头办理，协办单位应积极配合。 第七十四条 市政府领导在人民来信上的批示，由市信访局组织办理，并直接向领导反馈结果和答复来信人。以下信函由市政府办公厅办理： （一）省政府领导人的信函。 （二）国内外知名专家、学者、工商界人士的信函。 （三）市级及以上领导的信函。 （四）县（市）区政府、市政府部门主要负责人的信函。 （五）对政府全局有重大影响的信函。', '第七十五条 市政府组成人员要坚决贯彻执行党和国家的路线、方针、政策以及工作部署，严格遵守纪律，有令必行，有禁必止。 第七十六条 市政府要自觉接受和维护市委的领导，重要事项及时向市委请示汇报。以下重大事项须向市委请示报告： （一）全市经济和社会中长期发展规划。 （二）以市政府名义上报国务院的重大请示事项。 （三）涉及全局性的重大改革措施。 （四）重大建设项目。 （五）需要市委组织协调的重大事项。 （六）涉及群众切身利益的重大问题。 （七）须向市委报告的其他重要事项。 第七十七条 市政府组成人员必须坚决执行市政府的决定，如有不同意见可在市政府内部提出，在没有重新做出决定前，不得有任何与市政府决定相违背的言论和行为;代表市政府发表讲话或文章，以及个人发表涉及未经市政府研究决定的重大问题及事项的讲话和文章，事先须经市政府同意。 第七十八条 市政府组成人员要严格遵守保密纪律和外事纪律，严禁泄漏国家秘密、工作秘密或者因履行职责掌握的商业秘密等，坚决维护国家的安全、荣誉和利益。 第七十九条 市政府组成人员要做学习的表率，密切关注国际国内经济、社会、科技等方面发展变化的新趋势，不断充实新知识，丰富新经验。市政府通过举办讲座等方式，定期组织学习经济、科技、法律和现代管理知识。 第八十条 市政府领导和市政府部门负责人要深入基层，调查研究，了解情况，指导工作，解决实际问题。在市内检查、考察工作和调查研究，要尽量减少陪同人员，严格控制警车使用，不搞边界迎送。 第八十一条 除市委、市政府统一组织安排的重要活动外，市政府领导不参加接见、合影、剪彩、典礼、首映首发式等活动;不出席县（市）区政府、市政府部门召开的各类表彰会、纪念会、座谈会;不为部门、地方的会议活动题词、发贺信、贺电。因特殊需要发贺信、贺电和题词的，一般不公开发表。 第八十二条 省政府各部门、外省市来宾到山东考察访问，由对口部门负责陪同接待，市政府领导原则上不全程陪同。市政府部门可以接待的外宾，一律由部门出面接待，其中副市级以上的来访外宾或国际知名人士、学者、企业家，确需市政府领导出面会见、会谈或宴请的，由市政府外事办公室或市外经贸局提出安排意见，报市政府办公厅按规定程序办理。 市政府领导会见来访的香港、澳门特别行政区官方人员、重要知名人士及台胞、侨胞中的重要知名人士，分别由市政府外事办公室、外经贸局、台湾事务办公室、侨务办公室审核后报市政府办公厅，由市政府办公厅按规定程序办理。 第八十三条 邀请市政府领导参加的内外事活动，一律由市政府办公厅统一安排。县（市）区政府、市政府各部门不得直接向市政府领导个人发送请柬。邀请市政府领导参加的重要活动，应提前7天报市政府办公厅，由市政府办公厅按规定程序办理。 第八十四条 市政府组成人员要严格执行请销假制度。副市长、秘书长出差（出访）、休假，应事前报告市长。 市政府各部门主要负责人和各县（市）区长出差市外或出访、休假3天及以上的，应事前向市政府总值班室报告，由市政府总值班室向市政府领导报告。 市政府直属特设机构、办事机构、部门管理机构、议事机构、派出机构、直属事业单位适用本规则。']</t>
         </is>
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A200" t="n">
+        <v>129</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
           <t>济南市人民政府关于印发济南市引进海外留学人员规定和济南市引进高层次急需人才规定的通知</t>
         </is>
       </c>
-      <c r="D200" t="inlineStr">
+      <c r="E200" t="inlineStr">
         <is>
           <t>2002-10-10</t>
         </is>
       </c>
-      <c r="E200" t="inlineStr">
+      <c r="F200" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2002/10/10/art_2612_2044959.html</t>
         </is>
       </c>
-      <c r="F200" t="inlineStr">
+      <c r="G200" t="inlineStr">
         <is>
           <t>['济南市人民政府关于印发济南市引进海外留学人员规定和济南市引进高层次急需人才规定的通知', '现将《济南市引进海外留学人员规定》和《济南市引进高层次急需人才规定》印发给你们,请认真遵照执行。', '第一条 为鼓励和吸引留学人员来济创业、工作,加快我市高新技术产业的发展,根据国家有关法律法规和规定,制定本规定。 第二条 本规定所称留学人员是指: (一)我国公民公派、自费出国学习,并获得国外硕士以上(含硕士,下同)学位及获得国外学士学位并有科研成果和专利技术的人员(含已取得绿卡和外国国籍的人员)。 (二)在国内已取得学士以上学位并具有中级以上专业技术职务任职资格,到国外高等院校、科研院所进修1年以上并取得一定成果的访问学者和进修人员。 第三条 留学人员来济工作的主要方式: (一)以技术入股或投资形式创办、合办高新技术企业; (二)创办、租赁、承包各类经济实体、研究开发机构和中介服务机构; (三)以专利、科研技术成果、资金及实物等多种形式入股各类企业; (四)到国家机关、企事业单位和其他经济组织任职或兼职;或应聘担任国家机关、企事业单位的顾问或咨询专家; (五)开展科研合作、技术开发等活动。 第四条 到我市所属留学生创业园工作的留学人员除享受本规定政策外,还享受所在园区制定的有关优惠政策。 第五条 来济工作的留学人员,凭市人才引进办公室核发的《济南市留学人员工作证》,享受公安、海关、工商、税务等有关部门提供的“一证通”便捷服务。 第六条 市人才引进办公室负责来济留学人员的身份认定、接待服务、信息咨询、政策落实等工作。', '第七条 已加入外国籍或取得外国永久居留权的留学人员及其子女需在济长期居住的,可向公安机关出入境管理部门申办5年有效的《外国人居留证》和1年多次出入境签证。 第八条 留学人员评聘专业技术职务,不受岗位数额的限制。在国外工作期间取得执业资格的,可按国内相对应的资格直接确认。对做出突出贡献的,可破格晋升专业技术职务。 第九条 具有中国国籍、出国前已参加工作的留学人员来济工作可恢复公职,出国前、留学期间和回国后的工龄可合并计算,并按规定参加社会保险和缴存住房公积金。 第十条 留学人员(加入外国国籍的除外)到机关及依照公务员管理的事业单位工作,不受单位编制限制,试用期1年,其职务和工资待遇按以下办法确定: (一)在国外取得博士学位的,可安排副处长或助理调研员职务;优秀的可安排处长或调研员职务;业绩特别突出并具有高层管理经验的,可聘任为市管副局级以上领导职务,均可比同等条件人员高定四档职务工资标准,每月发给800元津贴。 (二)在国外取得硕士学位的,可安排主任科员职务;优秀的可安排副处长或助理调研员职务,均可比同等条件人员高定二档职务工资标准,每月发给400元津贴。 (三)在国内已取得学士以上学位或中级以上专业技术职务任职资格,到国外高等院校、科研院所进修2年以上并取得一定科研成果的访问学者和进修人员,按其担任的工作(职务),可比同等条件人员高定二档职务工资标准,每月发给200元津贴。 第十一条 留学人员到事业单位工作的,不受单位编制限制,由用人单位与本人签订聘用合同,协商确定其职务和工资待遇,原则上不低于机关同类人员的相应待遇;到企业工作的,其职务和工资待遇由用人单位与本人协商从优确定。 第十二条 留学人员从事科学研究、新产品、新技术、新材料开发的,用人单位应优先为其提供必要的实验场所和设备,配备工作用车,允许其在国内外选聘助手。', '第十三条 愿意在济落户的留学人员及其家属子女,或其配偶及18周岁以下子女在农村的,由市人才引进办公室会同公安等部门及时办理落户手续。留学人员随归、随迁的配偶及已成年的子女,可根据本人专长由用人单位或主管部门负责安排工作,—4—或通过人才市场自主择业。 第十四条 留学人员的未成年子女,由异地、国(境)外转入我市中小学或幼儿园允许择校择园,参加中考可享受华侨子女入学有关政策,并不得收取政府规定以外的任何费用。 第十五条 加入外国籍的留学人员或其配偶、子女在国(境)外的,其在济取得的合法收入,可按外汇调剂中心价格全部购买外汇携带或汇出国(境)外。 第十六条 来济工作的留学人员,其住房由用人单位优先安排解决;用人单位暂无房源的,可向市人才引进办公室申请租赁周转房,并均由市政府一次性补助以下标准的安家费: (一)具有高级专业技术职务或博士学位的,补助4万元; (二)具有中级专业技术职务或硕士学位的,补助2万元; (三)其他人员补助1万元。 第十七条 来济工作的留学人员,由用人单位据实报销一次国际旅费。 第十八条 取得外国永久居留权或加入外国国籍的留学人员来济工作,申请在济长期居住所携带的合理数量的自用行李物品、耐用消费品以及一辆小轿车,海关按规定办理征免税手续。', '第十九条 用房及征地政策 (一)留学人员来济创办企业租用的办公、科研和生产用房,享受高新区孵化园和留学生创业园的有关优惠政策。 (二)留学人员在济征地建厂,使用集体土地的,政府土地纯收益(出让金)留成部分可视情况减交、缓交或分期交纳。减交幅度最高不超过30%,缓交期限1—3年。使用国有存量土地的,政府土地纯收益(出让金)留成部分可按上述优惠政策执行。 (三)留学人员在济征地建厂,水、电、暖等基础设施配套增容费给予优惠和照顾。 第二十条 资金扶持政策 (一)设立留学人员创业专项资助金。每年从市科技三项经费中拿出6%,用于支持留学人员企业自行开发的具有自主产权的高新技术项目。 (二)每年由市财政安排一定资金,用于解决留学人员创业初期的资金短缺问题和留学生创业园的发展建设。 (三)留学人员的高新技术成果转化和产业化项目,经市科技局认定,优先获得市科技风险投资资金的支持。 (四)留学人员创办企业可优先申请国家及山东省科技型中小企业技术创新基金和各类科技计划。对获得国家人事部留学人员科研资助的,从市科技三项经费中按照1\ue5fe2的比例给予匹配。 (五)留学人员创办企业需从境外购买研究开发所需的进口试剂、原料、配件、样品、样机等,由所在单位出具购买合同及报关材料可向外汇管理部门申请相应外汇。 第二十一条 工商税务政策 (一)留学人员创办高新技术企业,注册资金可低至3万元人民币或等值可兑换外币。 (二)留学人员创办高新技术企业,注册资金在50万元以上的可分期出资。 (三)留学人员以高新技术成果作价出资占企业注册资金的比例,不作限定。 (四)在济南高新技术产业开发区内,被省科技厅认定为高新技术企业的留学人员企业,同时享受高新技术企业的税收优惠政策。 (五)被省信息产业厅、省软件行业协会认定为软件企业的留学人员企业,同时享受软件企业的税收优惠政策。 (六)留学人员回国兴办的内外资企业,凡属国家鼓励发展的国内投资项目和外商投资项目在投资总额内进口的自用设备,除不予免税商品外,免征关税和进口环节增值税。 (七)留学人员企业自行生产的高新技术产品出口后,税务部门优先予以落实出口退税或免税政策。', '第二十二条 此前到我市工作的留学人员,自本规定发布之日起,享受本规定中除安家费以外的各项优惠政策。 第二十三条 本规定由市人事局负责解释。 第二十四条 此前出台的留学人员政策凡与本规定不一致的,以本规定为准。 第二十五条 本规定自发布之日起施行。', '为吸引更多的高层次急需人才来济工作,进一步优化我市人才结构,加快实施“科技兴市”战略,制定本规定。 第一条 本规定所称高层次急需人才(以下简称高层次人才)是指: (一)两院院士,国家有突出贡献的中青年专家,国家“百千万工程”第一、二层次人选,享受政府特殊津贴人员,省市(地)级以上拔尖人才; (二)取得硕士、博士学位或具有副高级以上专业技术职务任职资格的专业技术人员和高层次管理人员; (三)其他具有特殊技能的人才。 第二条 市人才引进办公室具体负责引进高层次人才管理服务工作。 第三条 凡到我市工作的硕士、博士研究生,由市人事部门推荐单位并会同用人单位考察确定,办理有关手续。暂无接收单位的,可以先落户,后就业。市人事部门也可根据机关、事业单位需求情况,下达指令性增人计划直接派遣,任何部门和单位不得拒绝接收。 第四条 对来济短期或长期从事兼职、讲学、技术合作等服—8—务而不需办理调动手续的高层次人才,在济服务合同期内,凭市人才引进办公室出具的《特聘工作证》,享受本市常住户口的相应待遇。愿调入我市工作的,由同级人事部门负责推荐安置工作,市公安部门依据《特聘工作证》及时办理本人及随迁家属子女的落户手续。其随迁子女入学入托,可在教育主管部门的指导下择校择园,有关学校和幼儿园不得收取政府规定以外的任何费用。 第五条 高层次人才到我市工作,不受单位岗位数额限制,直接评聘相应专业技术职务。对业绩、贡献突出的,可破格晋升高级专业技术职务。 第六条 对来济贡献突出的高层次人才(包括兼职、咨询和科研技术合作),可推荐为享受政府特殊津贴人员或省、市拔尖人才、青年科技创新人才、青年学术技术带头人。 第七条 引进的院士,市财政每人每年补贴20万元。由用人单位提供科研启动经费,配备工作用车。 第八条 引进的高层次人才到机关及依照公务员管理的事业单位工作,取得硕士学位的,一般可安排主任科员职务,优秀的可安排副处长或助理调研员职务;取得博士学位的,一般可安排副处长或助理调研员职务,优秀的可安排处长或调研员职务;业绩特别突出并具有高层管理经验的,可聘任为市管副局级以上领导职务。上述职务试用期均为1年。试用期工资可按规定的定级工资执行。试用期满,经考核合格后,按任命的职务确定级别工资和职务工资。 第九条 引进的高层次人才到事业单位工作,由用人单位与本人签订聘用合同,协商确定其职务和工资,原则上不低于机关同类人员的相应待遇。硕士以上毕业生,按规定的定级工资标准执行初期工资。 第十条 引进的高层次人才到企业工作,按照一流人才、一流业绩、一流报酬的原则,由用人单位与本人协商,从优确定其报酬,每月可分别给予博士后、博士、硕士1000元、800元、300元的学位补贴。 第十一条 引进的具有特殊技能人才,由用人单位根据其技能协商从优确定其待遇。 第十二条 符合第一条第一项的人才(在管理期内)和正高级专业技术人员可享受二类医疗保健待遇,其中院士享受副省级医疗保健待遇。 第十三条 对引进来济定居的两院院士,由政府为其建设院士楼。引进的其他高层次人才,其住房由用人单位优先安排解决。单位暂无房源的,由用人单位向市人才引进办公室申请租赁周转房。 第十四条 到企业工作的国内外知名专家学者和某一学科技术领域的带头人、博士生导师、博士后、博士、硕士,分别享受10万元、5万元、3万元、2万元、1万元的政府一次性安家补贴。 第十五条 对来济领办、创办企业或以技术合作、技术入股等形式创造显着经济效益的,由受益单位按以下办法实行奖励: (一)所带技术、项目、科技成果已转化取得经济效益的,按当年税后利润的20—30%奖励个人,连续奖励3年。 (二)为企业拓宽市场,打开产品销路的,可按当年上缴利税的1—2%奖励个人。 (三)使亏损企业扭亏为盈的,从赢利当年起,连续3年按税后利润的10—20%奖励个人。 第十六条 为本市经济建设和社会发展做出突出贡献的高层次人才,按规定颁发“济南市科技贡献奖”,奖金额度为5—50万元。 第十七条 市高层次人才引进所需经费,每年由市财政依据市人才引进办公室实际发生数额核拨。 第十八条 已引进的高层次人才,自本规定发布之日起,享受本规定中除一次性安家补贴以外的各项优惠政策。 第十九条 本规定由市人事局负责解释。 第二十条 此前我市出台的人才引进政策凡与本规定不一致的,以本规定为准。 第二十一条 本规定自发布之日起施行。']</t>
         </is>
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A201" t="n">
+        <v>129</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
           <t>济南市人民政府办公厅关于印发济南市首席技师选拔管理办法的通知</t>
         </is>
       </c>
-      <c r="D201" t="inlineStr">
+      <c r="E201" t="inlineStr">
         <is>
           <t>2005-12-22</t>
         </is>
       </c>
-      <c r="E201" t="inlineStr">
+      <c r="F201" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2005/12/22/art_2091_252144.html</t>
         </is>
       </c>
-      <c r="F201" t="inlineStr">
+      <c r="G201" t="inlineStr">
         <is>
           <t>['第一条 为加快我市高技能人才队伍建设,提高技能人才的整体素质和社会地位,营造技能人才成长的良好社会环境,调动广大技能劳动者学技术、比贡献的积极性,更好地为我市经济社会发展服务,根据《中华人民共和国劳动法》和《山东省人民政府办公厅关于印发〈山东省首席技师选拔管理办法〉的通知》(鲁政办发〔2004〕107号)制定本办法。 第二条 本办法所称济南市首席技师是指工人队伍中技能水平高超、职业道德良好、实践经验丰富、贡献突出,且在所在行业、领域中影响带动作用大,得到业内广泛认可的高技能人才。 第三条 济南市首席技师选拔坚持公开、平等、竞争、择优的原则,充分考虑技术技能型、知识技能型、复合技能型高技能人才的不同特点和行业分布,重点从国民经济发展支柱产业和相关企业中选拔产生。 第四条 济南市首席技师每年选拔20———30人,每期命名有效期限为4年。 第五条 济南市首席技师选拔管理工作由市人才工作领导小组统一领导,市人才工作领导小组办公室协调市劳动和社会保障局、人事局、国资委、经委、外经贸局、财政局、总工会、团市委等部门成立济南市首席技师选拔管理工作办公室(设在市劳动和社会保障局),负责具体实施工作。', '第六条 济南市首席技师选拔范围是驻济各级(包括中央、省属单位)各类所有制经济、社会组织中,具有技师以上职业资格、在一线岗位上直接从事技能工作的人员,符合条件的自由职业者也可参加。 第七条 济南市首席技师的选拔条件(一)热爱祖国,遵纪守法,爱岗敬业,具有良好的职业道德,为所在单位和社会做出了重大贡献,在同行业中享有很高声誉。(二)个人职业技能在省内同行业中处于领先、市内同行业中处于拔尖水平。在近4年内获得“中华技能大奖”、“全国技术能手”,省市“有突出贡献技师、高级技师”、“杰出技术能手”等称号;或者在全国一、二类技能竞赛中获得前六名、前三名,省级一类、二类技能竞赛中获得前三名、前一名,市级一类技能竞赛获得第一名。(三)刻苦钻研技术,具有绝招绝技。创造了在同行业中公认的先进操作法,提高了劳动生产率;创造了同行业最高生产、销售记录。(四)在技术上有重大发明创造或革新,并取得重大经济效益和社会效益。在企业技术改造、引进高新技术设备的消化、使用中,掌握关键技术,解决关键技术难题;能够排除重大关键技术障碍、重大安全隐患,消除质量通病,对提升产品质量有突出贡献。(五)在编制国家、省级标准工艺、工作法方面有突出贡献。(六)发扬团队精神,传绝技,带高徒,所带徒弟多人成为企业技能骨干、在各类技能竞赛中取得优异成绩。', '第八条 济南市首席技师的推荐人选,由企业从本企业首席技师中推荐,经公示后上报。 推荐济南市首席技师需提供以下材料:1.《济南市首席技师申报表》;2.1000字左右的事迹材料;3.申报人职业资格证书、主要技术成果、专利、获奖情况等证明材料。 第九条 市首席技师选拔管理工作办公室对各企业上报人选进行初步审核,经有关专家组成的济南市首席技师评审委员会综合评审,并进行现场技能考察后,提出人选名单,提交市人才工作领导小组审定。 第十条 市人才工作领导小组研究拟定济南市首席技师名单,经公示后由市劳动和社会保障局报市政府命名,并颁发《济南市首席技师》证书。', '第十一条 济南市首席技师在命名有效期内,每人每月享受市政府津贴500元。 第十二条 济南市首席技师纳入济南市高层次人才库管理,参加市里组织的有关学习培训。 第十三条 济南市首席技师的工资待遇可以参照企业经营者实行年薪制,其技术成果转化所得收益,应按照一定比例分配给个人。 第十四条 济南市首席技师参加市里组织的高层次人才健康查体;所在单位每年应安排济南市首席技师带薪休假20天。 第十五条 济南市首席技师在命名有效期内,可暂不办理退休手续。', '第十六条 要充分发挥济南市首席技师在企业、公共建设领域,生产、技术创新和企业管理中的积极作用。(一)市劳动和社会保障局组织首席技师承担公共建设、企业技术革新、技术攻关任务,推广新技术、新工艺和先进操作法,承担“名师带徒”工作。(二)在不同行业选择建立“济南市首席技师工作站”,组织济南市首席技师承担社会服务任务,参与重大生产建设项目咨询,重大技术联合攻关,开展同行业技能交流,绝招、绝技展示等活动。(三)有关部门和所在单位要积极创造条件,有计划地安排济南市首席技师脱产学习、参观考察和技术交流。(四)济南市首席技师在申报科研项目、新技术推广、开发应用、技术革新时,有关部门和所在单位要在经费等方面优先支持。 第十七条 济南市首席技师实行动态管理。(一)市劳动和社会保障局建立济南市首席技师档案,对济南市首席技师实行年度考核制度。(二)命名有效期内不再从事技能或技术岗位工作的,或调往市外的,可继续保留济南市首席技师称号,不再享受有关待遇;有违法违纪行为、重大过失或连续两年考核不合格者,报市政府批准,取消其称号,停止相应待遇。(三)命名有效期满后,符合条件的可继续参与首席技师选拔。']</t>
         </is>
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A202" t="n">
+        <v>129</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
           <t>济南市政府投资项目代建制管理办法政策解读</t>
         </is>
       </c>
-      <c r="D202" t="inlineStr">
+      <c r="E202" t="inlineStr">
         <is>
           <t>2017-04-10</t>
         </is>
       </c>
-      <c r="E202" t="inlineStr">
+      <c r="F202" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2017/4/10/art_2607_4931153.html</t>
         </is>
       </c>
-      <c r="F202" t="inlineStr">
+      <c r="G202" t="inlineStr">
         <is>
           <t>['目前，我市政府投资项目管理模式以组建工程建设指挥部、筹建处、基建办为主，管理模式落后，存在诸多弊端。', '一是专业化水平不高，“三低”现象时有发生。由于临时组建的管理机构往往缺乏专业的基建经验和技术知识，在规划设计、工程质量、工期及成本控制等方面难以开展专业化管理，容易出现“低水平、低质量、低效益”现象。同时，也存在“一次性教训形不成二次经验”的现象，即项目建成后临时建管机构解散，难以总结项目建设的经验和教训，不利于政府投资项目的整体管理水平的提高。', '二是概（预）算约束不足，“三超”现象普遍存在。政府投资项目资金主要由政府拨付，建设单位基本上是无偿使用。一般来讲，概（预）算越大，项目建设标准就越高，这无疑促成了使用单位尽可能争取追加概（预）算的主观动机，想方设法扩大建设规模或提高装修标准，导致政府投资项目“超规模、超标准、超摡算”三超现象普遍存在，工程造价得不到有效控制。', '三是项目有效监管不够，容易滋生腐败。传统模式“投资、建设、管理、使用”四位一体，在政府投资项目中，有些政府部门既做运动员，又做裁判员，无法构建有效的运作制衡机制和监管机制，项目工程质量难以得到有效保障。同时，实践中便于“暗箱操作”，在建设施工、材料设备采购等环节上容易出现腐败现象。', '针对上述弊端，加快推进政府投资项目管理制度创新，尽快建立符合市场经济的新型管理模式势在必行。在这种需求背景下，作为一种比较成熟的项目法人运作方式，代建制应运而生。', '为做好管理办法制定工作，我委组织力量赴郑州市实地考察学习，借鉴吸收外地经验做法。组织财政局、教育局、机关事务管理局等单位召开座谈会，听取相关部门关于代建制的意见建议。在此基础上,综合各方建议、外地先进经验和我市实际，形成了《济南市政府投资项目代建制管理办法》（征求意见稿），先后征求了市公安局、市教育局等相关部门意见，并在市政府网站、市发展改革委网站公开征求了社会公众意见，履行了合法性审查程序，并提交市政府常务会议审议通过。', '《管理办法》包括总则、职责分工、组织实施、资金管理、奖惩与监督、附则等六章33条。具体来看：“总则”部分包括1-9条，主要规定了代建制的定义，明确了实行代建制的范围、阶段划分等；“职责分工”包括10-16条，主要对委托单位、代建单位和使用单位三方职责进行了划分；“组织实施”包括17-22条，主要明确了项目代建过程中的具体事项；“资金管理”包括23-26条，主要规定了代建费的确定及相关资金的支付流程；“奖惩与监督”包括27-31条，主要规定了奖惩措施及相关罚则；“附则”包括32-33条，主要规定了实施期限。']</t>
         </is>
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A203" t="n">
+        <v>129</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
           <t>年度工作总结</t>
         </is>
       </c>
-      <c r="D203" t="inlineStr">
+      <c r="E203" t="inlineStr">
         <is>
           <t>2017-02-26</t>
         </is>
       </c>
-      <c r="E203" t="inlineStr">
+      <c r="F203" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2017/2/26/art_4368_2720464.html</t>
         </is>
       </c>
-      <c r="F203" t="inlineStr">
+      <c r="G203" t="inlineStr">
         <is>
           <t>['年，市政府研究室深入学习贯彻党的十八大和十八届三中、四中、五中、六中全会精神，深入学习贯彻习近平总书记系列重要讲话精神，扎实开展“两学一做”学习教育，紧紧围绕“打造四个中心，建设现代泉城”中心任务，不断强化全局观念和服务意识，履职尽责、锐意进取，年初确定的各项工作任务顺利完成，在服务全市经济社会发展中发挥了积极作用。根据市委组织部通知要求，现将我室领导班子年度工作情况总结报告如下：', '系统深入推进政治理论学习。市政府研究室党组把学习贯彻党的十八大、十八届三中、四中、五中、六中全会精神和习近平总书记系列重要讲话作为首要的政治任务，紧密结合“两学一做”学习教育，精心安排学习计划，推动理论学习经常化、制度化和规范化。全年组织中心组集体学习11次，参加学习六中全会精神等专题报告会和专题培训30多场次。党的十八届六中全会召开后，我室认真组织专题学习。通过学习，班子理想信念更加坚定，四个意识特别是核心意识、看齐意识更加牢固，坚决贯彻执行党的路线方针政策和上级各项决策部署，坚决维护以习近平同志为核心的党中央权威，在政治上、思想上、行动上始终同以习近平同志为核心的党中央保持高度一致。全面加强业务知识学习。坚持知行合一，深入学习领会经济发展新常态、五大发展理念和供给侧结构性改革等新理论新战略新部署，努力用最新理论成果武装头脑、指导实践、推动工作。把握决策服务工作特点，坚持先学一步、学深一层，认真研读中央省市领导讲话原文，切实把党员干部的思想行动和智慧力量汇聚到提高决策服务水平、服务经济社会发展上来。坚决执行民主集中制。严格按照议事规则和程序实行集体决策，落实集体领导下的个人分工负责制，凡重大事项决策，每个班子成员充分发表意见，集体研究决定。召开专题民主生活会，积极开展批评和自我批评，不断提高班子自我发现问题、解决问题的能力，班子的民主氛围更加浓厚，合作共事的意识更加自觉。', '中心任务，按照强力推进三项重点工作、坚决打好三大攻坚战工作要求，想全局、谋大事，进一步把握规律，提高以文辅政能力，高标准搞好决策服务工作，组织开展了一批重大课题的研究，完成了市政府领导系列讲话和重要文稿起草工作，参与了全市有关重要政策文件起草工作。全年共完成各类文稿390篇，其中领导讲话228篇，调研报告16篇，政策性文稿6件，其他文稿110篇，有力保障了全市重点工作、重大活动的部署推进。', '牢固树立精品意识，坚持高标准、高质量地起草综合文稿。准确把握上级精神，注重吃透下情，', '努力把上级的新精神、市委市政府的新要求、部门县区的好做法、社会各界的关注点融合到文稿中。', '坚持及时跟踪掌握重点工作任务的推进情况，准确把握基层实际和发展动态，把济南的发展放在全国全省的大格局中来认识、来定位，以更宽广的视野、更长远的眼光、更系统的思维谋划工作，突出', '、全市重点项目建设督查评议会等一批重要文稿，在推动市委、市政府重大决策的部署落实上发挥了积极作用。', '不断改进讲话起草方法，坚持把起草过程作为“写事”、“谋事”的过程，动笔前先调研，写稿前先研究，', '完善重大决策服务工作前到基层、企业、项目实地调研的工作机制，广泛深入了解基层实际，', '情、具体负责的明白人虚心请教，把问题找准、思路理清，措施定实。大力转变文风，努力用群众语言、个性化语言、通俗易懂的语言起草文稿。市政府领导到来后，积极适应新思路、新要求，加班加点完成各类讲话文稿起草工作。', '紧扣市委、市政府工作部署，按照突出重点、务求实效的要求，把握发展急需、领导关注、群众关心的问题，结合综合文稿起草，选准题目和切入点开展调研。围绕提高调研成果的针对性和可操作性，注重深入基层、深入实际，采取随机调研、蹲点调研等方式，深化文稿研究，畅通密切联系群众的渠道。今年以来', '，较好地发挥了决策参考作用。在全省政府系统优秀调研成果评选中，2篇调研成果获一等奖，5篇获二等奖。不断完善经济形势分析制度，坚持将工作做在平时，突出四个中心建设、产业发展、高成长性中小企业、商贸流通等重点，定期调度经济管理部门、县（市）区和重点企业经济运行情况，扎实做好年度经济形势分析工作，高效完成有关领导讲话和分析材料，为全市经济平稳健康发展提供了决策依据。', '按照市委市政府的部署要求，联合有关部门，参与改革发展领域有关综合性文件的研究起草，完成了外地大学毕业生创业就业融入济南、治理交通拥堵和大气污染等有关政府文件的研究和起草。参与铁路沿线环境综合整治、12345热线调研、人才发展体制机制改革等专项工作，高质高效完成相关讲话、文件等材料的起草。扎实做好招商引资，配合济阳引进丰树物流和金罐包装两个项目。大力支持派出的“第一书记”开展扶贫攻坚工作，围绕改善生产、生活基础条件，增强自我发展能力，多渠道争取资金350多万元，先后帮助章丘市垛庄镇东车厢村、济阳县回河镇张沟村修建道路、水渠，建设敬老院、文化大院、蓄水池，改造危房和自来水。积极引进项目发展乡村旅游、种植浅水藕、养殖龙虾等产业，推进村集体及贫困户增加收入。扎实做好联系贫困户工作，按照统一部署，建立畅通联系，掌握基本情况，开展具体帮扶，联系的34户贫困户均入户帮扶2次以上，捐助款物7000余元。', '的基本要求，把党的思想建设放在首位，以尊崇党章、遵守党规为基本要求，以用习近平总书记系列重要讲话精神武装头脑为根本任务，以支部为单位定期组织集体学习讨论，领导干部带头讲党课，认真开展解放思想和反对自以为是学习讨论。坚持“基础在学、关键在做”，从学习教育一开始就改起来、做起来,努力做到边学边改、即知即改，持之以恒推动作风转变，倡导“严、实”作风和忠于职守、埋头苦干、爱岗敬业、乐于奉献的精神。', '认真贯彻落实《党政领导干部选拔任用工作条例》和相关制度规定，坚持信念坚定、为民服务、勤政务实、敢于担当、清正廉洁的好干部标准和实在、实干、实绩用人导向，根据工作实际需要，按照四听一看要求，开展了6名处级干部和2名科级干部的民主推荐、调整任命工作，', '。选拔任用干部过程中，严格按照民主、公开、竞争、择优等原则和事前沟通、会前审核、备案审核等规定程序，主动接受纪委、组织人事部门全程指导与监督，认真做好个人事项查核和廉政鉴定工作，严格执行研究干部任免事项主要负责人末位发言制度，做好干部任前廉政谈话，坚持了正确的用人导向。按照部署要求，认真抓好换届纪律的贯彻落实，扎实开展了裸官、超职数配备干部等选人用人问题专项整治。', '扎实开展文明单位创建，认真学习贯彻《公民道德建设实施纲要》，以构建社会主义核心价值观为重点，以道德讲堂为载体，坚持经常性开展党的理想信念教育，深入开展爱国主义、集体主义和社会主义教育，学习弘扬优秀传统文化，教育引导广大干部职工树立远大的理想和正确的世界观、人生观、价值观，提高个人修养。推进和谐机关建设，坚持“五必访”制度，帮助干部职工解决实际困难。组织“慈心”一日捐活动，全员参与做好文明交通志愿服务活动。组织干部职工进行健康查体，“三八”节期间组织开展女干部职工健康查体。参加市直机关趣味运动会，获优秀组织奖。', '的指导思想，认真落实党建工作责任制，把党建工作与业务工作有机结合、统筹安排，研究制定了机关党建工作要点，机关党建工作得到进一步加强。严肃党内政治生活，党组成员严格落实民主生活会、“三会一课”等制度，以双重身份参加支部活动，积极做好思想政治工作，加强对党建工作和基层党组织建设的指导推进力度，积极发挥党支部战斗堡垒作用，增强团队凝聚力。全体党员按要求及时交纳党费并足额补缴党费。同时，认真做好保密、财务、档案等工作，特别是认真落实各项保密制度，强化党组责任，加强保密领导小组建设，健全保密制度，提升保密宣传教育水平，增强保密人员力量，不断强化保密工作。', '认真履行党组主体责任，研究制定党风廉政建设和反腐败工作重点工作任务及责任分工，对党风廉政建设责任进行分解落实,形成了一级抓一级、层层抓落实的工作机制。坚持经常性检查与重点督查相结合，认真落实述职述廉、谈话提醒、有关事项报告等廉政制度，抓好领导干部遵纪守法、廉洁从政情况检查，保障党风廉政建设各项任务措施有效落实。深入学习贯彻《条例》，落实党内监督各项任务，完善制度、畅通渠道，增强监督意识，既认真履行监督责任，又主动接受各方面监督。坚持以身作则，要求干部职工做到的，班子成员首先做到，要求干部职工不做的，班子成员坚决不做。', '坚持把反腐倡廉教育作为一项经常性工作，把党风廉政学习教育纳入党组学习计划，完善廉政教育体系，分类分层次抓好党员干部政治学习和廉洁教育。认真学习习近平总书记在中纪委十八届六次全会上的讲话和《廉洁自律准则》、《纪律处分条例》、《关于新形势下党内政治生活的若干准则》等党内法规，统一思想，提高认识，不断增强落实党风廉政建设的自觉性。抓好廉政文化建设，组织观看廉政展,以健康向上的廉政文化引导大家爱岗敬业、遵纪守法。坚持把警示教育作为抓好反腐倡廉工作的切入点，组织收听收看警示教育片，深入开展案件剖析，汲取教训，做到警钟长鸣。', '坚决把纪律和规矩挺在前面，树立规矩意识、增强纪律自觉，坚决在法纪之下行使权力、履行职责、开展工作，使各项纪律规矩真正成为“带电的高压线”。党组主要负责人及班子成员带头贯彻落实中央八项规定和省委、市委实施办法。厉行节约，祟俭戒奢，严格“三公经费”管理，在公务接待、公务用车、外出考察等方面严格按照有关规定执行。严格落实各项财务制度，按要求在网站公开预算决算，主动接受监督，确保经费合规使用、公开透明。扎实开展各项专项整治行动，认真履行党组在查办违纪违法案件中的责任，切实支持执纪执法机关工作。', '一年来，研究室的各项工作虽然取得一定成绩，但与市委、市政府要求相比，与自身职责要求相比，我们也清醒地认识到，工作中还存在一些薄弱环节，主要是：面对复杂严峻的宏观经济形势和艰巨繁重的发展改革任务，决策服务的能力和水平需要进一步提高,研究问题的深度和广度需进一步拓展。', '这些问题，我们将在2017年工作中，采取扎实措施努力加以解决，争取各项工作再上新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A204" t="n">
+        <v>129</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
           <t>济南市人民政府办公厅关于印发济南市小微企业创业创新基地城市示范三年行动计划年年的通知</t>
         </is>
       </c>
-      <c r="D204" t="inlineStr">
+      <c r="E204" t="inlineStr">
         <is>
           <t>2016-11-30</t>
         </is>
       </c>
-      <c r="E204" t="inlineStr">
+      <c r="F204" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2016/11/30/art_2614_2045633.html</t>
         </is>
       </c>
-      <c r="F204" t="inlineStr">
+      <c r="G204" t="inlineStr">
         <is>
           <t>['济南市人民政府办公厅关于印发济南市小微企业创业创新基地城市示范三年行动计划（2016年—2018年）的通知', '各县（市）、区人民政府，市政府各部门： 《济南市小微企业创业创新基地城市示范三年行动计划（2016年—2018年）》已经市政府同意，现印发给你们，请认真组织实施。', '为认真贯彻落实国家大众创业、万众创新战略，全面推进我市小微企业创业创新工作开展，确保完成小微企业创业创新基地城市示范（以下简称两创示范）各项目标任务，根据国家、省关于推进两创示范工作有关要求，结合我市实际，制定本行动计划。 一、充分认识开展两创示范工作的重要意义 开展两创示范工作是贯彻落实党中央、国务院决策部署，打造大众创业、万众创新新引擎的有力举措，对于有效发挥财政资金引导作用，激发经济增长内生动力，促进经济社会持续健康发展具有重要意义。近年来，我市小微企业呈现数量快速增长、发展质量显著提高、社会贡献不断上升的良好态势。截至2015年年底，全市共有47.78万户市场主体，其中小微企业占比达85.84%；小微企业吸纳就业人数281万人，占城镇就业人数的69.14%；总体营业收入达8030亿元，营业利润1250亿元，税金总额324亿元，对经济增长的贡献逐年上升。但我市作为省会城市，与先进城市相比，小微企业发展相对落后，发展质量不高、创新能力不强、融资难和融资贵等问题较为突出，政府公共服务和社会化服务体系尚不健全，服务不到位、效率不高等问题仍然存在。各级各部门要充分认清我市小微企业发展面临形势，紧紧抓住开展两创示范工作契机，加大政府引导力度，改革财政支持方式，优化扶持小微企业创业创新政策环境，激发企业活力，形成小企业“铺天盖地”、大企业“顶天立地”的良性发展格局，推动全市经济社会持续健康发展。 二、总体要求 （一）指导思想。深入贯彻落实党的十八大精神和国家关于大众创业、万众创新的决策部署，紧紧围绕我市“打造四个中心，建设现代泉城”总体目标和“十三五”规划提出的工作任务，按照企业主导、政府服务、政策集成、机制创新的总体要求，聚焦小微企业创业创新核心需求，拓展创业空间载体，完善服务链条，改进投融资机制，优化投融资服务，弘扬泉城创业创新文化传统，吸引优质资源，统筹各类要素，高质高效推进两创示范工作，切实发挥带动和辐射作用。 （二）基本原则。 1．坚持市场主导与政府引导相结合。发挥政府在促进小微企业创业创新中的引导作用，充分运用市场手段激活社会资源，调动小微企业创业创新积极性、主动性，实现人才、资金、土地、技术等各类社会资源的最佳投入产出，促进企业经济效益与社会效益最大化。 2．坚持近期目标与远期规划相结合。全面做好我市两创示范顶层设计，合理规划布局，以创业创新推动民营经济发展、带动就业、推进产业转型发展和供给侧结构性改革，使小微企业创业创新成为我市打造“四个中心”的新动力，助推山东半岛自主创新示范区建设，辐射带动省会城市群经济圈发展。 3．坚持突出重点与系统推进相结合。立足我市小微企业现状和发展趋势，围绕推进创业创新重点工作，突破薄弱环节，排出项目清单，补齐补强小微企业发展生态链，统筹支持小微企业发展各类要素，加强工作协调，形成推进小微企业创业创新强大合力。 （三）示范目标。', '（四）示范范围。我市小微企业创业创新基地示范以济南高新区、市中区、历下区等为核心示范区，打造一批基地标杆，同步辐射带动章丘市、平阴县、商河县、济阳县创业创新基地发展壮大，形成市县联动示范格局，并为周边地市带来示范效应，有力促进我市小微企业创业创新整体水平提升。 三、重点任务 各级财政在3年示范期内共筹集安排资金30亿元，用于支持创业创新载体、公共服务体系、融资政策体系建设等，打造我市创业创新品牌，以先进创业创新文化为引领，以产业整合升级为驱动，推进小微企业创业创新工作有序开展。 （一）拓展创业创新空间。加强政府引导，支持企业成为创业创新基地主要建设者，激活现有存量资源，合理布局新增空间，加快发展市场化、专业化、集成化、网络化众创空间，形成创业培训（实训）+创业预孵化（创业苗圃）+初创企业孵化+产业园区发展的全过程、多层次创业创新空间。2016年—2018年，在发展创业创新空间载体方面累计投入5.01亿元。 1．培育一批品牌众创空间。重点培育泉城众创空间公共品牌，组织开展泉城众创空间支持计划评审工作，继续加大资金支持力度，引导高校和科研院所、大型企业及社会力量积极投资建设众创空间。鼓励国家级孵化器、大学科技园、龙头企业等骨干机构充分利用现有孵化载体、闲置厂房和楼宇，聚集相关产业联盟、创业创新服务机构，培育一批生态化创业创新示范社区。加大对相关政策的宣传解读力度，组织创业项目路演、创业沙龙等活动，集聚创业创新资源，扩大众创空间的品牌影响力。适时筹备成立众创空间联盟，带动创业创新资源集聚，营造开放、共享的创业创新氛围。2016年—2018年，全市每年新增30家左右的众创空间。（责任单位：市科技局） 2．新增和改造提升一批小微企业创业创新基地。改造提升现有小微企业创业创新（辅导）基地，采取完善服务设施、增加服务内容、优化服务功能等措施全面提升基地承载能力和服务水平。鼓励企业、个人通过对闲置厂房、楼宇进行改造或租赁、合作等方式建设小微企业创业创新（辅导）基地，支持企业、个人利用存量土地或新征土地投资建设小微企业创业创新（辅导）基地，缓解小微企业用地难、运营成本高、抗风险能力弱等问题。积极培育典型样板示范基地，有效发挥示范引领作用。2016年—2018年，计划培育15—20个典型样板示范基地，争取15个市级基地升级为省级基地，2个以上基地得到国家认定。推进创业孵化基地建设，完善创业示范平台补助政策。支持驻济高校建设创业创新（辅导）基地，鼓励省内外高校和科研院所采取多种方式在我市建立创业园、研究院等创业载体。支持文化创意创业创新空间建设，通过落实相关运营房租补贴、创业创新基地提升改造补助等政策，为创业创新者提供公共服务。（责任单位：市经济和信息化委、市人力资源社会保障局、市委宣传部） 3．升级改造一批科技孵化器。组织科技企业孵化器评审，积极推进国家级、省级孵化器申报工作；拓展孵化器范围，为小微企业发展搭建国际合作平台；加快济南创新谷建设步伐，着重打造科技孵化器、加速器、产业基地和创新科技园四大板块，推动科技成果产业转化。探索多元化建设发展模式，鼓励和引导更多民间资本参与科技孵化器建设；积极探索基于互联网的新型孵化方式，采用线上线下结合的服务模式搭建网络创业孵化平台；建立多管齐下的孵化服务模式和开放式新型创业服务机构，有效提供创业导师、管理咨询、交流研讨、股权投资等多种服务。（责任单位：市科技局） 4．加强产学研合作。推进山东工业技术研究院科研及孵化基地和产业发展基地建设，对拟转化的科技成果择优给予相关扶持政策。大力推广齐鲁工业大学青年学者服务济南小微企业创新模式，鼓励驻济高校和科研院所服务小微企业；深化与大学研究生院的合作，对高校、科研院所组织科研人员服务企业活动给予一定资金支持。鼓励国内外知名高校、科研院所在我市新设立独立法人研发机构或成果转移转化机构。（责任单位：市科技局、市经济和信息化委） 5．选择一批企业开放创业创新空间。借助传统企业转型升级的契机，选择部分企业开展试点，采取政府部分补贴中介服务费和开放平台建设费等支持手段，推动引导企业内部创新机制变革，并以此带动一批外部创业创新者。重点支持浪潮集团有限公司“大数据+创客中心”等面向主导产业、产业集群、产业链上下游提供公共服务的专业化平台，通过分享、协作方式带动小微企业创业创新。（责任单位：市科技局、市经济和信息化委） 6．做强一批商贸企业集聚区。重点打造全国家政服务集聚示范区，将教育培训、研发、标准化、信息化、创业孵化等融为一体，成为推动家政服务行业发展的助推器；鼓励电子商务产业集群发展，做好国贸电商产业园、智汇蓝海孵化基地、凤凰山电商产业园等电商园区的配套服务，对入驻园区的创业创新企业房租、人才培训、创业辅导予以适当补助；抓好特色商业街区建设，构建特色鲜明、错位发展、类型业态多元化的城市商圈新格局；支持国家级中日韩服务贸易创新创业园建设，力争建成投资贸易便利、创新功能突出、法制环境规范的试验区；支持济南跨境电子商务平台建设，尽快解决制约境内电商特别是小微电商发展跨境电子商务的瓶颈问题；鼓励济南老字号协会筹划成立济南老字号投融资有限公司，打造餐饮老字号聚集商业街；着力推进济南名优小吃主体升级改造项目以及大众餐饮品牌孵化项目。（责任单位：市商务局） （二）提升公共服务水平。以小微企业需求为导向，聚焦载体功能建设，全面提升公共服务能力，实现服务均等化。2016年—2018年，在发展公共服务机构和平台方面累计投入4.39亿元。 1．加强小微企业服务体系建设。加强以我市中小企业服务中心为龙头的小微企业服务体系建设，强化人才培养和业务培训，不断提高信息化水平和服务效率。建设全市统一的中小企业云服务平台，实施互联网+服务工程。完善服务大厅、公益讲堂、体验中心等公共服务设施，大力培育“小微企业之家”公共服务品牌，研究制定小微企业服务平台服务规范，提升公共服务平台建设水平。建设泉城创业创新公共服务品牌—分中心（县区中心）特色服务品牌—专业平台服务品牌—服务机构冠名定制品牌四级品牌体系，以品牌共建推动资源共享和服务协同。加快建设面向小微企业提供公共技术服务的专业化平台，重点抓好大数据、检测、质量认证、工业设计等开放式专业服务平台建设，到2018年，力争建成30个左右的专业化平台。（责任单位：市经济和信息化委） 2．推进商贸服务体系建设。加强我市中小商贸流通企业服务中心的服务能力建设，完善投资融资、信息咨询、管理提升、市场开拓、技术应用五大服务平台，开设便捷的信息分类检索、网络在线交互、呼叫接转、服务导航等功能。建立完善微信公共服务平台，为企业提供便捷、优质服务。积极推进相关分中心、工作站、联系点建设，实现政府服务全覆盖。开发专业服务平台，实现总服务平台与专业服务平台互联互通。按照政府扶持机构、机构服务企业模式，采取购买服务等方式培育一批专业龙头服务机构，建立服务联盟和专家团队，为企业提供优质、便捷、高效服务。（责任单位：市商务局） 3．支持科技创新平台体系建设。加强省级以上研发机构的协调管理，完善相关制度体系，推进其有序健康发展。在先进半导体、机器人、智能系统等新兴前沿领域选择建立生产力促进中心行业分中心，并依托济南科技创新促进中心搭建生产力促进中心服务体系。引导和鼓励高校、科研院所整合科研基础设施、大型仪器设备等资源，为中小微企业技术创新提供服务。落实专利补贴标准，进一步激励小微企业知识产权创新。积极推进泉城科创交易大平台建设，支持各类中介和服务机构面向企业开展第三方服务。加大科技人才引进力度，2016年—2018年，每年扶持科技人员创业企业20家，组织实施“5150引才计划”等一系列科技人才工程。（责任单位：市科技局） 4.拓展为小微企业服务渠道。 （1）支持小微企业参与政府采购，提高政府采购项目面向小微企业的预算总额，不再收取小微企业履约保证金。在制定招标文件时，对小微企业产品可视情给予6%—10%的价格扣除。（责任单位：市财政局） （2）通过政府购买服务引进专业机构，为小微企业提供管理咨询、财务咨询、法律咨询、知识产权保护等专业指导服务，提高小微企业解决困难和发展壮大能力。（责任单位：市经济和信息化委、市科技局、市财政局） （3）积极与专业商学培训机构合作，采取互联网+创业培训方式，对小微企业经营者开展有针对性培训。完善市级创业大学和县（市）区创业学院建设，建立大学+学院+教学点的创业培训模式。推广在高校、技工院校、创业孵化基地设立创业学院、教学点等，建立培训、实训、孵化、服务四位一体的创业培训机制。（责任单位：市人力资源社会保障局） （4）建立公共技术研发平台与检验检测平台，推进小微企业自主创新，加快建设量子通信、数创公社、山东工业技术研究院等重大创新平台，同时推进现有国家超算中心、综合创新药物平台、大型仪器设备共享服务平台建设。加快建设以企业为主体的技术创新体系，引导各类创新要素向企业集聚。（责任单位：市科技局） （5）塑造我市创业创新大赛品牌，引进专业机构做好创业创新大赛宣传策划、组织实施等工作，2017年、2018年分别组织1次全国创业创新大赛济南选拔赛。（责任单位：市科技局） （6）围绕我市打造会展名城战略及海外济南战略，引导小微企业“走出去”参加展会，扩大商品销售渠道。2017年组织成立中国济南（非洲）国际合作联盟，2018年建立我市“走出去”企业信息平台。（责任单位：市商务局） （7）建立主动服务制度，努力推进公共就业服务标准化建设以及充分就业社区、就业服务标准化社区建设，建立覆盖城乡、统一规范、设施齐全、业务完备的公共就业服务体系，促进小微企业创业创新。（责任单位：市人力资源社会保障局） （8）实施创业创新正向激励。鼓励对创业失败人员免费提供职业介绍、职业指导、职业培训等服务，促其尽快就业或二次创业。建立完善社会救助与就业联动机制，实现失业人员社会保障无缝隙覆盖。优化知识产权服务，针对小微企业举办知识产权教育培训、论坛研讨会，大力宣传企业知识产权保护典型案例，强化知识产权权利人的维权意识和能力。（责任单位：市经济和信息化委、市科技局、市人力资源社会保障局、市委宣传部） 5．推进各类小微企业服务载体和功能互联互通与协同服务。 （1）建立创业创新空间联盟。组织科技孵化器、众创空间、小微企业创业创新基地等共同发起成立创业创新空间联盟，强化对各级创业创新空间的总体协调与管理，调动全社会创业创新要素力量，降低创业者的创业成本和门槛，打造良好的创业创新生态环境。（责任单位：市经济和信息化委、市科技局、市人力资源社会保障局、市商务局） （2）推进互联网+政务建设。充分融合互联网+政务理念，促进服务平台互联互通与协同服务，加强政府部门数据资源共享，提升政务服务能力。建设小微企业信息数据库，支持小微企业投融资、技术成果交易等活动，逐步实现各类小微企业公共服务平台互联互通。推进公共就业服务信息化建设，为创业创新主体提供创新服务，释放服务潜能。（责任单位：市政府办公厅、市经济和信息化委、市科技局、市人力资源社会保障局、市商务局、市工商局） （三）完善融资支持体系。强化政府投入引导作用，创新财政资金使用方式，以设立基金、风险补偿、财政贴息等方式多角度、全方位促成社会资本、担保机构、银行机构等更好地服务小微企业，缓解小微企业融资难、融资贵问题。2016年—2018年，在完善融资支持体系方面累计投入20.6亿元。 1．加强基金化运行方式，完善小微企业创业创新融资性支持体系。立足产业发展实际，设立若干分类基金，实行独立投资运作模式，发挥财政资金的综合放大和带动作用。 （1）设立小微企业创业创新引导基金，与社会资本合作，按照1︰5的比例放大，支持小微企业创业创新、发展壮大。 （2）设立济南小微企业应急转贷引导基金，通过政银企合作建立小微企业应急转贷绿色通道，帮助素质好且暂时遇到资金周转困难的小微企业渡过续贷难关。 （3）设立大数据产业发展基金。由政府与浪潮集团有限公司共同出资设立，支持大数据+创客中心建设以及为小微企业提供专业服务的公共技术大数据建设等。 （4）设立山东工业技术研究院投资发展基金，与社会资本合作，加速高校科研成果转化，促进科技创新。 （5）设立新能源产业发展基金。由政府与项目单位共同出资设立，支持新能源建设及推广应用，鼓励企业科技创新。 （6）设立物流企业发展引导基金，吸引社会资本，支持我市物流企业做大做强。 （7）设立文化产业发展基金，与社会资本合作，共同支持小微类文化企业及创业创新空间建设等。 （责任单位：市财政局、市经济和信息化委、市科技局、市委宣传部、济南产业发展投资集团有限公司、济南财金控股集团有限公司） 2．支持济南股权投资母基金。支持济南财金控股集团有限公司组建市股权投资母基金，设立济南财金天使、济南制造业、济南新三板企业三支市场化投资基金，对小微类、初创类企业加大投资力度，支持中小微企业快速发展。（责任单位：济南财金控股集团有限公司） 3．加强融资担保体系建设。通过完善市、县两级政策性担保体系及增加融资担保公司资本金等措施，加大我市融资担保体系建设力度，有效降低小微企业融资难度。采取奖补结合措施，鼓励社会民营融资性担保机构为中小微企业提供融资担保服务。（责任单位：市经济和信息化委、市科技局、市工商局、市金融办、市财政局） 4．完善贷款风险分担机制。加大小微企业贷款风险补偿资金规模，用于设立小微企业贷款风险补偿资金池，同时对金融机构当年向小微企业提供的增量贷款给予风险补偿，分担金融机构对小微企业的贷款风险；修订完善科技金融风险补偿金政策，加大科技金融风险补偿金规模；加强科技金融特色银行建设，创新金融产品，有效发挥信贷的杠杆作用。（责任单位：市经济和信息化委、市科技局、市商务局、市财政局） 5．降低小微企业融资成本。对符合条件的小微企业给予融资费用（含贷款利息和担保费用）补贴，采取扩大创业担保贷款人员覆盖面、加大贴息力度等措施提高创业担保贷款扶持力度。（责任单位：市财政局、市人力资源社会保障局、市经济和信息化委、市商务局、市科技局） 6．鼓励小微企业拓展融资渠道。认真落实对小微企业在新三板上市挂牌给予150万元补助、在主板上市给予500万元补助、在省内区域股权交易市场挂牌给予20万元补助等政策，鼓励企业上市直接融资；支持发行债券融资，推动符合条件的小微企业通过发行集合票据、集合债券、私募债、短期融资券等探索新型融资模式，支持有稳定收益或未来现金流的小微企业通过资产证券化、资产支持票据等进行融资。（责任单位：市金融办、市财政局） （四）创新体制机制。加强体制机制创新，破除小微企业发展生态链上的各种束缚和障碍，最大限度激活小微企业内在发展动力。 1．深化商事制度改革。积极探索小微企业简易程序注销方式，破解小微企业设立容易注销难问题。推进市场主体事中事后监管，开发建立设计市场主体事中事后监管服务平台，以云计算、大数据等现代信息技术为支撑，实现市场主体登记监管数据一网归集、多方应用，企业一处违法、处处受限，构建协同监管、联合惩戒的监管新格局。推行全程电子化登记注册，到2018年全面实现全程电子化登记注册，投资人不出户就可办理营业执照；健全收费目录清单，涉企收费全部实行清单制，依法严格监管涉企收费项目。（责任单位：市工商局、市财政局） 2．运用激励手段加速科技成果转化。下放科技成果使用、处置和收益权，加大科技成果收益对科技人员的分配力度；搭建科技金融企业池、银行池、担保池和项目信息库，以科技金融风险补偿金为杠杆，引导信贷加速投向小微企业科技创新和成果转化项目，加快科技成果转化；积极发展科技保险，重点开发落实首台套装备、新材料产品、高端科技人才等险种，提高科技保险水平。（责任单位：市科技局、市金融办、市财政局） 四、保障措施 （一）加强组织领导。市小微企业创业创新基地城市示范工作领导小组负责两创示范工作的组织领导及协调推进，建立会议、联络员、统计监测等制度，定期通报有关情况，及时研究解决两创示范工作遇到的问题和困难。各县（市）区（含济南高新区）要建立相应组织领导机制，具体做好两创示范工作组织实施和指标落实工作。市有关部门要按照职责分工细化实施方案，完善配套政策，积极协调配合，合力推进小微企业创业创新工作开展。要建立监督检查机制，对两创示范各项工作推进情况实施专项督查，强化责任追究，保障工作落实。 （二）加大政策支持。一是落实配套资金，实施政策聚焦。依托国家专项奖励资金，认真落实相关配套资金，研究制定支持小微企业创业创新的配套政策，全方位、多层次支持小微企业创业创新。梳理现有扶持政策，形成支持小微企业发展的政策合力，促进创业创新体系内各要素之间有机结合，提升创新水平，提高创业成功率。二是推进产业整合，引领企业发展。探索推进由专业机构协助完成的产业整合工程顶层设计，通过购买服务方式引入综合性、实力型专业机构，顺应经济社会发展整体格局，侧重从促进小微企业创业创新的角度，梳理我市主要特色产业集群有关情况，按照先易后难、成熟优先、强化示范的原则确定产业整合实施路径，科学引领小微企业发展方向。（责任单位：市经济和信息化委、市科技局） （三）强化人才保障。加大人才引进力度，优化人才发展环境，对实施“泉城5150引才倍增计划”和“泉城重点产业紧缺人才集聚计划”引进的创业创新人才加强跟踪扶持，打造一批拥有关键技术、引领新兴产业、带动转型升级的优秀创业创新团队，培育一批在重大创新领域具备国际国内影响力的人才骨干。（责任单位：市科技局、市人力资源社会保障局） （四）抓好宣传引导。加强多种形式的创业创新文化传播，做好城市整体形象和品牌策划，着力提升我市创新型城市的知名度和美誉度。丰富活动载体，整合优势资源，广泛利用各种平台，采取经验交流、学习培训、参观考察、研究探讨、成果展示等形式，大力开展创业创新特色活动，增强我市创新文化的影响力。（责任单位：市委宣传部、市文化广电新闻出版局、市经济和信息化委、市科技局、市商务局、市人力资源社会保障局）']</t>
         </is>
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A205" t="n">
+        <v>129</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
           <t>济南市人民防空办公室年度预算执行和其他财政财务收支情况审计结果公告</t>
         </is>
       </c>
-      <c r="D205" t="inlineStr">
+      <c r="E205" t="inlineStr">
         <is>
           <t>2016-07-27</t>
         </is>
       </c>
-      <c r="E205" t="inlineStr">
+      <c r="F205" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2016/7/27/art_25776_2404660.html</t>
         </is>
       </c>
-      <c r="F205" t="inlineStr">
+      <c r="G205" t="inlineStr">
         <is>
           <t>['根据《中华人民共和国审计法》的规定，2015年3月至4月，市审计局对济南市人民防空办公室（以下简称市人防办）2014年度预算执行和其他财政财务收支情况进行了审计，现将审计结果公告如下：', '市人防办是市政府人民防空工作的主管部门，系市级全额拨款的一级预算单位。内设秘书处、综合计划处、指挥通信与应急协调处、工程管理处等4个职能处室和机关党委。下属4个事业单位和1个市人防办控股企业。市人防办执行《行政单位会计制度》，纳入市资金结算中心核算。4个下属事业单位均执行《事业单位会计制度》，财务实行独立核算。', '审计结果表明，市人防办2014年度部门预算基本符合《预算法》及相关法规要求。财务报告、会计报表基本真实地反映了单位资金收支情况和财务管理现状。制定了财务、资产、公务接待、政府采购等管理规定和办法，内部控制执行情况较好。通过系列措施，较好地规范和约束了各项费用支出，特别是“三公”经费及会议和外出学习考察经费，较往年有了明显降低。', '（三）市人防办在年初编制项目支出预算时，未对附属单位人防业务经费补助资金2000万元落实到具体项目和单位，而是在年度预算执行中进行确定和分配。']</t>
         </is>
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>山东省</t>
-        </is>
+      <c r="A206" t="n">
+        <v>129</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>济南市</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
+          <t>济南市</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
           <t>关于济南市人民政府关于认真落实鲁政办发号文件全面推进海绵市建设的意见起草情况的说明</t>
         </is>
       </c>
-      <c r="D206" t="inlineStr">
+      <c r="E206" t="inlineStr">
         <is>
           <t>2016-07-26</t>
         </is>
       </c>
-      <c r="E206" t="inlineStr">
+      <c r="F206" t="inlineStr">
         <is>
           <t>http://www.jinan.gov.cn/art/2016/7/26/art_2607_2046940.html</t>
         </is>
       </c>
-      <c r="F206" t="inlineStr">
+      <c r="G206" t="inlineStr">
         <is>
           <t>['关于《济南市人民政府关于认真落实鲁政办发〔2016〕5号文件全面推进海绵市建设的意见》起草情况的说明', '海绵城市作为今后城市的发展方式（国办发〔2015〕75号强调），受到党中央、国务院高度重视。习近平总书记强调，要建设自然积存、自然渗透、自然净化的海绵城市，并在中央城市工作会议上指出要加强海绵城市建设。李克强总理在2015年9月29日国务院常务会议上对海绵城市建设作出的总体部署，要求加快雨水蓄排顺畅合理利用的海绵城市建设，有效推进新型城镇化。', '2015年10月11日，国务院办公厅印发了《关于推进海绵城市建设的指导意见》（国办发〔2015〕75号）文件，提出要将70%的降雨就地消纳和利用的总体目标，并要求到2020年，城市建成区20%以上的面积达到目标要求；到2030年，城市建成区80%以上的面积达到目标要求。从2015年起，全国各城市新区、各类园区、成片开发区要全面落实海绵城市建设要求。2016年2月6日，印发的《中共中央、国务院关于进一步加强城市规划建设管理工作的若干意见》（中发〔2016〕6号）中也明确要求推进海绵城市建设。2016年2月14日，省政府办公厅印发了《关于贯彻落实国办发〔2015〕75号文件推进海绵城市建设的实施意见》（鲁政办发〔2016〕5号），提出至少要将75%的降雨就地消纳和利用的总体目标，并要求到2020年，城市建成区25%以上的面积达到目标要求；到2030年，城市建成区80%以上的面积达到目标要求。从2016年开始，要将海绵城市建设的要求落实到各类建设项目立项、建设条件、和规划审查、初步设计审查、施工图设计及审查、施工许可、竣工验收等各个环节，并将海绵城市建设纳入山东省新型城镇化工作考核。', '自国务院办公厅《关于推进海绵城市建设的指导意见》（国办发〔2015〕75号）及省政府办公厅《关于贯彻落实国办发〔2015〕75号文件推进海绵城市建设的实施意见》（鲁政办发〔2016〕5号）文件印发以来，我们对文件进行了认真细致的学习，深入领会文件精神。同时，考察学习借鉴了南宁、武汉、厦门等试点城市做法及出台相关文件，结合我市在海绵城市试点工作中的经验，起草了《济南市人民政府关于认真落实鲁政办发〔2016〕5号文件全面推进海绵市建设的意见（征求意见稿）》。先后通过书面和座谈的形式征求市委宣传部、市政府督查室、市发改委、财政局、国土资源局、规划局、城乡建设委、城管局、环保局、水利局、林业局、审计局、住房保障管理局、城市园林局、水文局、气象局、公安交警支队、政务中心管理办公室、济南供电公司、高新区管委会、城投集团、西城集团、旧投集团、滨河集团、章丘市、平阴县、济阳县、商河县、历下区、市中区、槐荫区、天桥区、历城区、长清区34个部门的意见，均无意见。', '《落实意见》主要包括总体要求、实施战略、工作目标、基本原则、规划管控、建设运营管控、海绵型工程建设、责任与分工及保障措施等9部分内容。', '（一）总体目标。我市作为全国首批海绵城市试点城市，要确保试点工作按时完成，并顺利通过国家三部委的验收。同时，按照国办发〔2015〕75号、鲁政办发〔2016〕5号文件中工作目标要求，结合我市特点，制定了我市到2020年及2030年海绵城市建设的总体目标。', '（二）关于加强规划管控。一是国办发〔2015〕75号、鲁政办发〔2016〕5号文件明确要求海绵城市建设要加强规划管控。二是全面推进海绵城市建设，必须加强源头控制，从规划策划阶段全面贯彻落实海绵城市相关要求，将雨水年径流总量控制率作为城市总体规划、控制性详细规划及相关专项规划的刚性指标，在建设用地规划条件中落实雨水径流控制与利用指标内容。', '（三）关于加强建设运营管控。为确保海绵城市设施与主体建设项目同时规划设计、同时施工、同时投入使用，确保海绵城市设施完好，并充分发挥作用。《落实意见》从项目立项、规划管理、土地出让与开发管理、建设管理、竣工验收及移交、运营管理等6个方面做出了明确的规定。']</t>
         </is>
